--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
@@ -517,44 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3084686188</v>
+        <v>-2288841711</v>
       </c>
       <c r="C2" t="n">
-        <v>-4505879820</v>
+        <v>4760206284</v>
       </c>
       <c r="D2" t="n">
-        <v>-2318221978</v>
+        <v>12634520499</v>
       </c>
       <c r="E2" t="n">
-        <v>4864978630</v>
+        <v>8257471752</v>
       </c>
       <c r="F2" t="n">
-        <v>12980000214</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9243166522</v>
-      </c>
+        <v>6624360659</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>8044566041</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>-1265521466</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4169959346</v>
+      </c>
       <c r="J2" t="n">
-        <v>-496402602</v>
+        <v>-5480760280</v>
       </c>
       <c r="K2" t="n">
-        <v>-4429613363</v>
+        <v>-5009946423</v>
       </c>
       <c r="L2" t="n">
-        <v>-5783385394</v>
+        <v>3151409937</v>
       </c>
       <c r="M2" t="n">
-        <v>-4415675504</v>
+        <v>3587992935</v>
       </c>
       <c r="N2" t="n">
-        <v>4280958360</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4080504158</v>
+        <v>14391101547</v>
       </c>
     </row>
     <row r="3">
@@ -564,44 +556,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4433631938</v>
+        <v>84904835</v>
       </c>
       <c r="C3" t="n">
-        <v>-4375711343</v>
+        <v>-114667863</v>
       </c>
       <c r="D3" t="n">
-        <v>84903843</v>
+        <v>4603952485</v>
       </c>
       <c r="E3" t="n">
-        <v>-114669653</v>
+        <v>654034602</v>
       </c>
       <c r="F3" t="n">
-        <v>4603948848</v>
-      </c>
-      <c r="G3" t="n">
-        <v>654015061</v>
-      </c>
+        <v>3985765309</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3985778840</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>-1404826821</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2617455066</v>
+      </c>
       <c r="J3" t="n">
-        <v>-1404808547</v>
+        <v>-5177858643</v>
       </c>
       <c r="K3" t="n">
-        <v>-2617420909</v>
+        <v>-4530837263</v>
       </c>
       <c r="L3" t="n">
-        <v>-5177852598</v>
+        <v>-851300139</v>
       </c>
       <c r="M3" t="n">
-        <v>-4530834611</v>
+        <v>1601634713</v>
       </c>
       <c r="N3" t="n">
-        <v>-851297172</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1601627218</v>
+        <v>4185302144</v>
       </c>
     </row>
     <row r="4">
@@ -611,44 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356856236</v>
+        <v>-1662139561</v>
       </c>
       <c r="C4" t="n">
-        <v>-1842421399</v>
+        <v>-2560973809</v>
       </c>
       <c r="D4" t="n">
-        <v>-1681800046</v>
+        <v>-1325515907</v>
       </c>
       <c r="E4" t="n">
-        <v>-2729263535</v>
+        <v>-1805157500</v>
       </c>
       <c r="F4" t="n">
-        <v>-1573857320</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-2726561988</v>
-      </c>
+        <v>302730930</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-665125638</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>820661817</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1295965902</v>
+      </c>
       <c r="J4" t="n">
-        <v>761531909</v>
+        <v>-1325476833</v>
       </c>
       <c r="K4" t="n">
-        <v>-624871593</v>
+        <v>-130638472</v>
       </c>
       <c r="L4" t="n">
-        <v>-915450271</v>
+        <v>2500151319</v>
       </c>
       <c r="M4" t="n">
-        <v>-806443443</v>
+        <v>783646234</v>
       </c>
       <c r="N4" t="n">
-        <v>1697853722</v>
-      </c>
-      <c r="O4" t="n">
-        <v>685157327</v>
+        <v>1247658406</v>
       </c>
     </row>
     <row r="5">
@@ -658,44 +644,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-97883807</v>
+        <v>-349041044</v>
       </c>
       <c r="C5" t="n">
-        <v>28985210</v>
+        <v>-343933891</v>
       </c>
       <c r="D5" t="n">
-        <v>-348594754</v>
+        <v>140791599</v>
       </c>
       <c r="E5" t="n">
-        <v>-343708045</v>
+        <v>284652812</v>
       </c>
       <c r="F5" t="n">
-        <v>140172190</v>
-      </c>
-      <c r="G5" t="n">
-        <v>284881930</v>
-      </c>
+        <v>309553961</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>308480094</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>58842406</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-302852960</v>
+      </c>
       <c r="J5" t="n">
-        <v>57542108</v>
+        <v>-354607601</v>
       </c>
       <c r="K5" t="n">
-        <v>-303132839</v>
+        <v>429329439</v>
       </c>
       <c r="L5" t="n">
-        <v>-355479103</v>
+        <v>1967466250</v>
       </c>
       <c r="M5" t="n">
-        <v>427933435</v>
+        <v>2858213183</v>
       </c>
       <c r="N5" t="n">
-        <v>1963612972</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2854751072</v>
+        <v>1351508811</v>
       </c>
     </row>
     <row r="6">
@@ -705,44 +688,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2757120323</v>
+        <v>967431775</v>
       </c>
       <c r="C6" t="n">
-        <v>-2247503114</v>
+        <v>3776353117</v>
       </c>
       <c r="D6" t="n">
-        <v>972819505</v>
+        <v>4926691825</v>
       </c>
       <c r="E6" t="n">
-        <v>3960891628</v>
+        <v>2300214381</v>
       </c>
       <c r="F6" t="n">
-        <v>5284374512</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2607265417</v>
-      </c>
+        <v>663198506</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>983615876</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1629104520</v>
+      </c>
+      <c r="I6" t="n">
+        <v>274098414</v>
+      </c>
       <c r="J6" t="n">
-        <v>1715803443</v>
+        <v>1184522784</v>
       </c>
       <c r="K6" t="n">
-        <v>177657311</v>
+        <v>-821434930</v>
       </c>
       <c r="L6" t="n">
-        <v>1062594492</v>
+        <v>324343071</v>
       </c>
       <c r="M6" t="n">
-        <v>-884989443</v>
+        <v>-137869702</v>
       </c>
       <c r="N6" t="n">
-        <v>449678670</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-37961787</v>
+        <v>1536568199</v>
       </c>
     </row>
     <row r="7">
@@ -752,44 +732,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-569565626</v>
+        <v>-250075824</v>
       </c>
       <c r="C7" t="n">
-        <v>-567880499</v>
+        <v>384816163</v>
       </c>
       <c r="D7" t="n">
-        <v>-255909844</v>
+        <v>1508598419</v>
       </c>
       <c r="E7" t="n">
-        <v>200051806</v>
+        <v>1292632262</v>
       </c>
       <c r="F7" t="n">
-        <v>1151535141</v>
-      </c>
-      <c r="G7" t="n">
-        <v>985352108</v>
-      </c>
+        <v>1974639940</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1655296437</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1366857042</v>
+      </c>
+      <c r="I7" t="n">
+        <v>431370845</v>
+      </c>
       <c r="J7" t="n">
-        <v>1281458417</v>
+        <v>264737589</v>
       </c>
       <c r="K7" t="n">
-        <v>528091827</v>
+        <v>-592004057</v>
       </c>
       <c r="L7" t="n">
-        <v>387537383</v>
+        <v>999186040</v>
       </c>
       <c r="M7" t="n">
-        <v>-527053540</v>
+        <v>1369221935</v>
       </c>
       <c r="N7" t="n">
-        <v>877703719</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1272776131</v>
+        <v>2021789746</v>
       </c>
     </row>
     <row r="8">
@@ -799,44 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>424176031</v>
+        <v>459257964</v>
       </c>
       <c r="C8" t="n">
-        <v>-8342014178</v>
+        <v>10941385358</v>
       </c>
       <c r="D8" t="n">
-        <v>477691988</v>
+        <v>17027029218</v>
       </c>
       <c r="E8" t="n">
-        <v>10889587374</v>
+        <v>8720214100</v>
       </c>
       <c r="F8" t="n">
-        <v>16899917956</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8555983885</v>
-      </c>
+        <v>10946695218</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>10740103427</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>23330994536</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14570645011</v>
+      </c>
       <c r="J8" t="n">
-        <v>22786449391</v>
+        <v>3100361319</v>
       </c>
       <c r="K8" t="n">
-        <v>15329214512</v>
+        <v>-15789077890</v>
       </c>
       <c r="L8" t="n">
-        <v>4206005303</v>
+        <v>-3029829674</v>
       </c>
       <c r="M8" t="n">
-        <v>-13524198369</v>
+        <v>8692596479</v>
       </c>
       <c r="N8" t="n">
-        <v>-963483201</v>
-      </c>
-      <c r="O8" t="n">
-        <v>9266437167</v>
+        <v>17329491160</v>
       </c>
     </row>
     <row r="9">
@@ -846,44 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3810264</v>
+        <v>51420330</v>
       </c>
       <c r="C9" t="n">
-        <v>-484188171</v>
+        <v>-302189075</v>
       </c>
       <c r="D9" t="n">
-        <v>51364664</v>
+        <v>365510674</v>
       </c>
       <c r="E9" t="n">
-        <v>-302242717</v>
+        <v>290178394</v>
       </c>
       <c r="F9" t="n">
-        <v>365502841</v>
-      </c>
-      <c r="G9" t="n">
-        <v>290149077</v>
-      </c>
+        <v>1189166149</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1189059147</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1093400236</v>
+      </c>
+      <c r="I9" t="n">
+        <v>511692765</v>
+      </c>
       <c r="J9" t="n">
-        <v>1093264827</v>
+        <v>-57397690</v>
       </c>
       <c r="K9" t="n">
-        <v>511422980</v>
+        <v>-737682404</v>
       </c>
       <c r="L9" t="n">
-        <v>-57363161</v>
+        <v>-270948973</v>
       </c>
       <c r="M9" t="n">
-        <v>-737614033</v>
+        <v>-322568007</v>
       </c>
       <c r="N9" t="n">
-        <v>-270777201</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-322509490</v>
+        <v>-208955596</v>
       </c>
     </row>
     <row r="10">
@@ -893,44 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1835829075</v>
+        <v>6935323156</v>
       </c>
       <c r="C10" t="n">
-        <v>27696073</v>
+        <v>-3347142129</v>
       </c>
       <c r="D10" t="n">
-        <v>6916721618</v>
+        <v>12550275380</v>
       </c>
       <c r="E10" t="n">
-        <v>-3295903639</v>
+        <v>9828518304</v>
       </c>
       <c r="F10" t="n">
-        <v>12676970483</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9993087212</v>
-      </c>
+        <v>23885958958</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>24093299641</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>24575591086</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5560093801</v>
+      </c>
       <c r="J10" t="n">
-        <v>24702313637</v>
+        <v>6950333246</v>
       </c>
       <c r="K10" t="n">
-        <v>5592610189</v>
+        <v>-9971955409</v>
       </c>
       <c r="L10" t="n">
-        <v>6904169858</v>
+        <v>6685969995</v>
       </c>
       <c r="M10" t="n">
-        <v>-10005345350</v>
+        <v>1555896014</v>
       </c>
       <c r="N10" t="n">
-        <v>6706734926</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1589384653</v>
+        <v>18537512255</v>
       </c>
     </row>
     <row r="11">
@@ -940,44 +908,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237733903</v>
+        <v>173741803</v>
       </c>
       <c r="C11" t="n">
-        <v>185811423</v>
+        <v>407611008</v>
       </c>
       <c r="D11" t="n">
-        <v>164848392</v>
+        <v>182739484</v>
       </c>
       <c r="E11" t="n">
-        <v>381911617</v>
+        <v>15240401</v>
       </c>
       <c r="F11" t="n">
-        <v>150398141</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-6610828</v>
-      </c>
+        <v>260514333</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>254549281</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>402361687</v>
+      </c>
+      <c r="I11" t="n">
+        <v>140462713</v>
+      </c>
       <c r="J11" t="n">
-        <v>440519054</v>
+        <v>92759037</v>
       </c>
       <c r="K11" t="n">
-        <v>121066095</v>
+        <v>-229810430</v>
       </c>
       <c r="L11" t="n">
-        <v>90149589</v>
+        <v>34537341</v>
       </c>
       <c r="M11" t="n">
-        <v>-224984761</v>
+        <v>-133188436</v>
       </c>
       <c r="N11" t="n">
-        <v>64828556</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-161324422</v>
+        <v>165663362</v>
       </c>
     </row>
     <row r="12">
@@ -987,44 +952,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-583886228</v>
+        <v>249406745</v>
       </c>
       <c r="C12" t="n">
-        <v>-217386213</v>
+        <v>366624488</v>
       </c>
       <c r="D12" t="n">
-        <v>236713883</v>
+        <v>473895899</v>
       </c>
       <c r="E12" t="n">
-        <v>341555201</v>
+        <v>366724038</v>
       </c>
       <c r="F12" t="n">
-        <v>481686180</v>
-      </c>
-      <c r="G12" t="n">
-        <v>369948776</v>
-      </c>
+        <v>613286041</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>628904808</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>921034893</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2122630630</v>
+      </c>
       <c r="J12" t="n">
-        <v>871828462</v>
+        <v>1624122590</v>
       </c>
       <c r="K12" t="n">
-        <v>2017735084</v>
+        <v>928736790</v>
       </c>
       <c r="L12" t="n">
-        <v>1549856350</v>
+        <v>-593960736</v>
       </c>
       <c r="M12" t="n">
-        <v>888888854</v>
+        <v>-158977207</v>
       </c>
       <c r="N12" t="n">
-        <v>-581519622</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-135543158</v>
+        <v>-165764683</v>
       </c>
     </row>
     <row r="13">
@@ -1034,44 +996,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3926156490</v>
+        <v>-1618076095</v>
       </c>
       <c r="C13" t="n">
-        <v>-4049926858</v>
+        <v>1080316900</v>
       </c>
       <c r="D13" t="n">
-        <v>-1596489822</v>
+        <v>4128770901</v>
       </c>
       <c r="E13" t="n">
-        <v>1131085578</v>
+        <v>3372993704</v>
       </c>
       <c r="F13" t="n">
-        <v>4153321963</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3391620195</v>
-      </c>
+        <v>4659809113</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4650155398</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>2197461065</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-734918143</v>
+      </c>
       <c r="J13" t="n">
-        <v>2208510129</v>
+        <v>-4445446081</v>
       </c>
       <c r="K13" t="n">
-        <v>-610625979</v>
+        <v>-2703177204</v>
       </c>
       <c r="L13" t="n">
-        <v>-4368570393</v>
+        <v>424407268</v>
       </c>
       <c r="M13" t="n">
-        <v>-2668154937</v>
+        <v>2780462651</v>
       </c>
       <c r="N13" t="n">
-        <v>381674939</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2785164588</v>
+        <v>3276674213</v>
       </c>
     </row>
     <row r="14">
@@ -1081,44 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-42204307641</v>
+        <v>-14530238610</v>
       </c>
       <c r="C14" t="n">
-        <v>-42726342400</v>
+        <v>-27673115011</v>
       </c>
       <c r="D14" t="n">
-        <v>-14515908400</v>
+        <v>70914780898</v>
       </c>
       <c r="E14" t="n">
-        <v>-27662533160</v>
+        <v>37001307999</v>
       </c>
       <c r="F14" t="n">
-        <v>70893999383</v>
-      </c>
-      <c r="G14" t="n">
-        <v>36949501651</v>
-      </c>
+        <v>118079033070</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>117650104170</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>80550823244</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-8753356574</v>
+      </c>
       <c r="J14" t="n">
-        <v>80167137123</v>
+        <v>-93123601594</v>
       </c>
       <c r="K14" t="n">
-        <v>-9068085037</v>
+        <v>-91241742908</v>
       </c>
       <c r="L14" t="n">
-        <v>-93053727485</v>
+        <v>-46555745607</v>
       </c>
       <c r="M14" t="n">
-        <v>-91183101228</v>
+        <v>54601572926</v>
       </c>
       <c r="N14" t="n">
-        <v>-46540715808</v>
-      </c>
-      <c r="O14" t="n">
-        <v>54614598831</v>
+        <v>61123430112</v>
       </c>
     </row>
     <row r="15">
@@ -1128,44 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1584222613</v>
+        <v>3530007465</v>
       </c>
       <c r="C15" t="n">
-        <v>12813029144</v>
+        <v>-9737815492</v>
       </c>
       <c r="D15" t="n">
-        <v>3522925232</v>
+        <v>-13133268961</v>
       </c>
       <c r="E15" t="n">
-        <v>-9725453370</v>
+        <v>3356370673</v>
       </c>
       <c r="F15" t="n">
-        <v>-13122032923</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3361659210</v>
-      </c>
+        <v>24344873412</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>24352059279</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>16931093597</v>
+      </c>
+      <c r="I15" t="n">
+        <v>306513762</v>
+      </c>
       <c r="J15" t="n">
-        <v>16940201668</v>
+        <v>-4261669584</v>
       </c>
       <c r="K15" t="n">
-        <v>297196736</v>
+        <v>-2791647817</v>
       </c>
       <c r="L15" t="n">
-        <v>-4279117491</v>
+        <v>10040821543</v>
       </c>
       <c r="M15" t="n">
-        <v>-2799453946</v>
+        <v>7466078295</v>
       </c>
       <c r="N15" t="n">
-        <v>10052351272</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7471603021</v>
+        <v>18595061885</v>
       </c>
     </row>
     <row r="16">
@@ -1175,44 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11148556178</v>
+        <v>-9493587893</v>
       </c>
       <c r="C16" t="n">
-        <v>-31094090946</v>
+        <v>-2214036303</v>
       </c>
       <c r="D16" t="n">
-        <v>-9500835116</v>
+        <v>19921548436</v>
       </c>
       <c r="E16" t="n">
-        <v>-2236980458</v>
+        <v>10270250184</v>
       </c>
       <c r="F16" t="n">
-        <v>19931089337</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10316761203</v>
-      </c>
+        <v>9393331796</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>9815064676</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>11190201078</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-6695764401</v>
+      </c>
       <c r="J16" t="n">
-        <v>11564769806</v>
+        <v>-463121221</v>
       </c>
       <c r="K16" t="n">
-        <v>-6371723378</v>
+        <v>-19565496593</v>
       </c>
       <c r="L16" t="n">
-        <v>-515550727</v>
+        <v>5173356014</v>
       </c>
       <c r="M16" t="n">
-        <v>-19616331460</v>
+        <v>-326285436</v>
       </c>
       <c r="N16" t="n">
-        <v>5146794481</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-344834954</v>
+        <v>21622401839</v>
       </c>
     </row>
     <row r="17">
@@ -1222,44 +1172,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-78844881</v>
+        <v>49818190</v>
       </c>
       <c r="C17" t="n">
-        <v>45314930</v>
+        <v>147698736</v>
       </c>
       <c r="D17" t="n">
-        <v>49818190</v>
+        <v>165702690</v>
       </c>
       <c r="E17" t="n">
-        <v>147698736</v>
+        <v>83967171</v>
       </c>
       <c r="F17" t="n">
-        <v>165702690</v>
-      </c>
-      <c r="G17" t="n">
-        <v>83967171</v>
-      </c>
+        <v>147522029</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>147522029</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>170062062</v>
+      </c>
+      <c r="I17" t="n">
+        <v>105095664</v>
+      </c>
       <c r="J17" t="n">
-        <v>170062062</v>
+        <v>46166765</v>
       </c>
       <c r="K17" t="n">
-        <v>105095664</v>
+        <v>21560480</v>
       </c>
       <c r="L17" t="n">
-        <v>46166765</v>
+        <v>45821490</v>
       </c>
       <c r="M17" t="n">
-        <v>21560480</v>
+        <v>74465181</v>
       </c>
       <c r="N17" t="n">
-        <v>45821490</v>
-      </c>
-      <c r="O17" t="n">
-        <v>74465181</v>
+        <v>-42432418</v>
       </c>
     </row>
     <row r="18">
@@ -1269,44 +1216,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1560254482</v>
+        <v>547463989</v>
       </c>
       <c r="C18" t="n">
-        <v>-670375890</v>
+        <v>62157589</v>
       </c>
       <c r="D18" t="n">
-        <v>547463989</v>
+        <v>483669571</v>
       </c>
       <c r="E18" t="n">
-        <v>62157589</v>
+        <v>-739168190</v>
       </c>
       <c r="F18" t="n">
-        <v>483669571</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-739168190</v>
-      </c>
+        <v>1422585181</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1422585181</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>639134789</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3321557527</v>
+      </c>
       <c r="J18" t="n">
-        <v>639134789</v>
+        <v>3000519310</v>
       </c>
       <c r="K18" t="n">
-        <v>3321557527</v>
+        <v>3887481353</v>
       </c>
       <c r="L18" t="n">
-        <v>3000519310</v>
+        <v>172041674</v>
       </c>
       <c r="M18" t="n">
-        <v>3887481353</v>
+        <v>486504565</v>
       </c>
       <c r="N18" t="n">
-        <v>172041674</v>
-      </c>
-      <c r="O18" t="n">
-        <v>486504565</v>
+        <v>526544271</v>
       </c>
     </row>
     <row r="19">
@@ -1316,44 +1260,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-67432221</v>
+        <v>-20504950</v>
       </c>
       <c r="C19" t="n">
-        <v>-62049626</v>
+        <v>16209431</v>
       </c>
       <c r="D19" t="n">
-        <v>-20504950</v>
+        <v>55597326</v>
       </c>
       <c r="E19" t="n">
-        <v>16209431</v>
+        <v>67997149</v>
       </c>
       <c r="F19" t="n">
-        <v>55597326</v>
-      </c>
-      <c r="G19" t="n">
-        <v>67997149</v>
-      </c>
+        <v>71565942</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>71565942</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>141284234</v>
+      </c>
+      <c r="I19" t="n">
+        <v>88316084</v>
+      </c>
       <c r="J19" t="n">
-        <v>141284234</v>
+        <v>66271884</v>
       </c>
       <c r="K19" t="n">
-        <v>88316084</v>
+        <v>13451373</v>
       </c>
       <c r="L19" t="n">
-        <v>66271884</v>
+        <v>51660228</v>
       </c>
       <c r="M19" t="n">
-        <v>13451373</v>
+        <v>51256689</v>
       </c>
       <c r="N19" t="n">
-        <v>51660228</v>
-      </c>
-      <c r="O19" t="n">
-        <v>51256689</v>
+        <v>18459335</v>
       </c>
     </row>
     <row r="20">
@@ -1363,44 +1304,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-90318027</v>
+        <v>-21160543</v>
       </c>
       <c r="C20" t="n">
-        <v>-39556022</v>
+        <v>49309766</v>
       </c>
       <c r="D20" t="n">
-        <v>-21091364</v>
+        <v>42891737</v>
       </c>
       <c r="E20" t="n">
-        <v>49261584</v>
+        <v>31649148</v>
       </c>
       <c r="F20" t="n">
-        <v>42909398</v>
-      </c>
-      <c r="G20" t="n">
-        <v>31610879</v>
-      </c>
+        <v>11327264</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>11305632</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>101341506</v>
+      </c>
+      <c r="I20" t="n">
+        <v>180804158</v>
+      </c>
       <c r="J20" t="n">
-        <v>101255163</v>
+        <v>215934037</v>
       </c>
       <c r="K20" t="n">
-        <v>180688476</v>
+        <v>151182128</v>
       </c>
       <c r="L20" t="n">
-        <v>215808184</v>
+        <v>26504298</v>
       </c>
       <c r="M20" t="n">
-        <v>151110700</v>
+        <v>-99418133</v>
       </c>
       <c r="N20" t="n">
-        <v>26503504</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-99339246</v>
+        <v>-67814888</v>
       </c>
     </row>
     <row r="21">
@@ -1410,44 +1348,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-35490943</v>
+        <v>-21778183</v>
       </c>
       <c r="C21" t="n">
-        <v>-16954423</v>
+        <v>9644811</v>
       </c>
       <c r="D21" t="n">
-        <v>-21778968</v>
+        <v>28642071</v>
       </c>
       <c r="E21" t="n">
-        <v>9644564</v>
+        <v>42008089</v>
       </c>
       <c r="F21" t="n">
-        <v>28640989</v>
-      </c>
-      <c r="G21" t="n">
-        <v>42007703</v>
-      </c>
+        <v>49017998</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>49017998</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>40398518</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3774164</v>
+      </c>
       <c r="J21" t="n">
-        <v>40398518</v>
+        <v>-11933491</v>
       </c>
       <c r="K21" t="n">
-        <v>-3774164</v>
+        <v>49098889</v>
       </c>
       <c r="L21" t="n">
-        <v>-11933491</v>
+        <v>63888956</v>
       </c>
       <c r="M21" t="n">
-        <v>49099035</v>
+        <v>38733596</v>
       </c>
       <c r="N21" t="n">
-        <v>63888547</v>
-      </c>
-      <c r="O21" t="n">
-        <v>38733596</v>
+        <v>-44134725</v>
       </c>
     </row>
     <row r="22">
@@ -1457,44 +1392,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-345926245</v>
+        <v>-204235805</v>
       </c>
       <c r="C22" t="n">
-        <v>-404421626</v>
+        <v>312006368</v>
       </c>
       <c r="D22" t="n">
-        <v>-204234407</v>
+        <v>1113705749</v>
       </c>
       <c r="E22" t="n">
-        <v>312007134</v>
+        <v>1312866630</v>
       </c>
       <c r="F22" t="n">
-        <v>1113707177</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1312866571</v>
-      </c>
+        <v>1820442182</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>1820441610</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1045603660</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200532358</v>
+      </c>
       <c r="J22" t="n">
-        <v>1045603429</v>
+        <v>-439371233</v>
       </c>
       <c r="K22" t="n">
-        <v>200534518</v>
+        <v>-326610807</v>
       </c>
       <c r="L22" t="n">
-        <v>-439369350</v>
+        <v>-318653104</v>
       </c>
       <c r="M22" t="n">
-        <v>-326609157</v>
+        <v>-46482452</v>
       </c>
       <c r="N22" t="n">
-        <v>-318652768</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-46486574</v>
+        <v>450962270</v>
       </c>
     </row>
     <row r="23">
@@ -1504,44 +1436,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2099179044</v>
+        <v>-863023340</v>
       </c>
       <c r="C23" t="n">
-        <v>-2349641212</v>
+        <v>-116867901</v>
       </c>
       <c r="D23" t="n">
-        <v>-1075180407</v>
+        <v>428461055</v>
       </c>
       <c r="E23" t="n">
-        <v>-294346672</v>
+        <v>-496005113</v>
       </c>
       <c r="F23" t="n">
-        <v>351568294</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-527836117</v>
-      </c>
+        <v>398693295</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>432953177</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>2405674164</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5878629059</v>
+      </c>
       <c r="J23" t="n">
-        <v>2451811724</v>
+        <v>4389363283</v>
       </c>
       <c r="K23" t="n">
-        <v>6022576503</v>
+        <v>2121690980</v>
       </c>
       <c r="L23" t="n">
-        <v>4527594785</v>
+        <v>-1161371936</v>
       </c>
       <c r="M23" t="n">
-        <v>2195399439</v>
+        <v>304016048</v>
       </c>
       <c r="N23" t="n">
-        <v>-1125348700</v>
-      </c>
-      <c r="O23" t="n">
-        <v>359872611</v>
+        <v>879413613</v>
       </c>
     </row>
     <row r="24">
@@ -1551,44 +1480,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-284951199</v>
+        <v>133265962</v>
       </c>
       <c r="C24" t="n">
-        <v>-188497258</v>
+        <v>176872151</v>
       </c>
       <c r="D24" t="n">
-        <v>133265851</v>
+        <v>181974034</v>
       </c>
       <c r="E24" t="n">
-        <v>176872269</v>
+        <v>-44957452</v>
       </c>
       <c r="F24" t="n">
-        <v>181974376</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-44957298</v>
-      </c>
+        <v>99588456</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>99588118</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>37531197</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-68130543</v>
+      </c>
       <c r="J24" t="n">
-        <v>37531243</v>
+        <v>-137020330</v>
       </c>
       <c r="K24" t="n">
-        <v>-68129656</v>
+        <v>-371186051</v>
       </c>
       <c r="L24" t="n">
-        <v>-137019538</v>
+        <v>128987092</v>
       </c>
       <c r="M24" t="n">
-        <v>-371186051</v>
+        <v>106151885</v>
       </c>
       <c r="N24" t="n">
-        <v>128987092</v>
-      </c>
-      <c r="O24" t="n">
-        <v>106151885</v>
+        <v>188043182</v>
       </c>
     </row>
     <row r="25">
@@ -1598,44 +1524,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-733067550</v>
+        <v>-576170065</v>
       </c>
       <c r="C25" t="n">
-        <v>-1246128670</v>
+        <v>203521855</v>
       </c>
       <c r="D25" t="n">
-        <v>-667103715</v>
+        <v>1568759724</v>
       </c>
       <c r="E25" t="n">
-        <v>-59802728</v>
+        <v>785497796</v>
       </c>
       <c r="F25" t="n">
-        <v>1324676022</v>
-      </c>
-      <c r="G25" t="n">
-        <v>700618903</v>
-      </c>
+        <v>901915345</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>926831939</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1579883747</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5217395348</v>
+      </c>
       <c r="J25" t="n">
-        <v>1771634624</v>
+        <v>2866428243</v>
       </c>
       <c r="K25" t="n">
-        <v>5578807407</v>
+        <v>339318145</v>
       </c>
       <c r="L25" t="n">
-        <v>3105744358</v>
+        <v>-3464847029</v>
       </c>
       <c r="M25" t="n">
-        <v>397616104</v>
+        <v>-1278992827</v>
       </c>
       <c r="N25" t="n">
-        <v>-3722562897</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-1524899716</v>
+        <v>97437267</v>
       </c>
     </row>
     <row r="26">
@@ -1645,44 +1568,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164705811</v>
+        <v>466000234</v>
       </c>
       <c r="C26" t="n">
-        <v>-269053506</v>
+        <v>66686984</v>
       </c>
       <c r="D26" t="n">
-        <v>466000234</v>
+        <v>-6141912</v>
       </c>
       <c r="E26" t="n">
-        <v>66686984</v>
+        <v>-540971826</v>
       </c>
       <c r="F26" t="n">
-        <v>-6141912</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-540971826</v>
-      </c>
+        <v>-93058198</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-93058198</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>-99155661</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-113470228</v>
+      </c>
       <c r="J26" t="n">
-        <v>-99155661</v>
+        <v>-109477684</v>
       </c>
       <c r="K26" t="n">
-        <v>-113470228</v>
+        <v>748587043</v>
       </c>
       <c r="L26" t="n">
-        <v>-109477684</v>
+        <v>627398639</v>
       </c>
       <c r="M26" t="n">
-        <v>748587043</v>
+        <v>944668695</v>
       </c>
       <c r="N26" t="n">
-        <v>627398639</v>
-      </c>
-      <c r="O26" t="n">
-        <v>944668695</v>
+        <v>625768327</v>
       </c>
     </row>
     <row r="27">
@@ -1692,44 +1612,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-350725945</v>
+        <v>137693661</v>
       </c>
       <c r="C27" t="n">
-        <v>-348071834</v>
+        <v>326204286</v>
       </c>
       <c r="D27" t="n">
-        <v>137699913</v>
+        <v>325729317</v>
       </c>
       <c r="E27" t="n">
-        <v>326198281</v>
+        <v>334083997</v>
       </c>
       <c r="F27" t="n">
-        <v>325710160</v>
-      </c>
-      <c r="G27" t="n">
-        <v>334058195</v>
-      </c>
+        <v>364378780</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>364344476</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>208626646</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-133896262</v>
+      </c>
       <c r="J27" t="n">
-        <v>208592840</v>
+        <v>-132401196</v>
       </c>
       <c r="K27" t="n">
-        <v>-133907490</v>
+        <v>-331042465</v>
       </c>
       <c r="L27" t="n">
-        <v>-132435213</v>
+        <v>-297364554</v>
       </c>
       <c r="M27" t="n">
-        <v>-330975315</v>
+        <v>-325454475</v>
       </c>
       <c r="N27" t="n">
-        <v>-297330792</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-325368396</v>
+        <v>-277092118</v>
       </c>
     </row>
     <row r="28">
@@ -1739,44 +1656,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107184243</v>
+        <v>-36585725</v>
       </c>
       <c r="C28" t="n">
-        <v>-80671244</v>
+        <v>-320044393</v>
       </c>
       <c r="D28" t="n">
-        <v>-36585725</v>
+        <v>-109001768</v>
       </c>
       <c r="E28" t="n">
-        <v>-320044393</v>
+        <v>-309579232</v>
       </c>
       <c r="F28" t="n">
-        <v>-109001768</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-309579232</v>
-      </c>
+        <v>104457065</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>104457065</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>-116489996</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-134580775</v>
+      </c>
       <c r="J28" t="n">
-        <v>-116489996</v>
+        <v>-125743948</v>
       </c>
       <c r="K28" t="n">
-        <v>-134580775</v>
+        <v>-1628377</v>
       </c>
       <c r="L28" t="n">
-        <v>-125743948</v>
+        <v>171506227</v>
       </c>
       <c r="M28" t="n">
-        <v>-1628377</v>
+        <v>211275056</v>
       </c>
       <c r="N28" t="n">
-        <v>171506227</v>
-      </c>
-      <c r="O28" t="n">
-        <v>211275056</v>
+        <v>222695036</v>
       </c>
     </row>
     <row r="29">
@@ -1786,44 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57172</v>
+        <v>164948</v>
       </c>
       <c r="C29" t="n">
-        <v>369594</v>
+        <v>454576</v>
       </c>
       <c r="D29" t="n">
-        <v>166212</v>
+        <v>448713</v>
       </c>
       <c r="E29" t="n">
-        <v>456262</v>
+        <v>500517</v>
       </c>
       <c r="F29" t="n">
-        <v>450184</v>
-      </c>
-      <c r="G29" t="n">
-        <v>501590</v>
-      </c>
+        <v>490185</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>490799</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>888180</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1540310</v>
+      </c>
       <c r="J29" t="n">
-        <v>888395</v>
+        <v>3285232</v>
       </c>
       <c r="K29" t="n">
-        <v>1540601</v>
+        <v>638416</v>
       </c>
       <c r="L29" t="n">
-        <v>3285232</v>
+        <v>3006060</v>
       </c>
       <c r="M29" t="n">
-        <v>638416</v>
+        <v>-289849</v>
       </c>
       <c r="N29" t="n">
-        <v>3006060</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-290685</v>
+        <v>1108774</v>
       </c>
     </row>
     <row r="30">
@@ -1833,44 +1744,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-5659</v>
+        <v>-11071</v>
       </c>
       <c r="C30" t="n">
-        <v>-16198</v>
+        <v>36710</v>
       </c>
       <c r="D30" t="n">
-        <v>-15104</v>
+        <v>73672</v>
       </c>
       <c r="E30" t="n">
-        <v>34454</v>
+        <v>79525</v>
       </c>
       <c r="F30" t="n">
-        <v>68672</v>
-      </c>
-      <c r="G30" t="n">
-        <v>73985</v>
-      </c>
+        <v>109013</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>103645</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>130896</v>
+      </c>
+      <c r="I30" t="n">
+        <v>112751</v>
+      </c>
       <c r="J30" t="n">
-        <v>125866</v>
+        <v>313366</v>
       </c>
       <c r="K30" t="n">
-        <v>107958</v>
+        <v>1148595</v>
       </c>
       <c r="L30" t="n">
-        <v>298422</v>
+        <v>1389568</v>
       </c>
       <c r="M30" t="n">
-        <v>1126457</v>
+        <v>994351</v>
       </c>
       <c r="N30" t="n">
-        <v>1373218</v>
-      </c>
-      <c r="O30" t="n">
-        <v>986972</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="31">
@@ -1880,44 +1788,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1118772</v>
+        <v>-1928870</v>
       </c>
       <c r="C31" t="n">
-        <v>-4778347</v>
+        <v>1109316</v>
       </c>
       <c r="D31" t="n">
-        <v>-1924837</v>
+        <v>3979059</v>
       </c>
       <c r="E31" t="n">
-        <v>1111572</v>
+        <v>3342200</v>
       </c>
       <c r="F31" t="n">
-        <v>3984059</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3347740</v>
-      </c>
+        <v>3680911</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>3686279</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>4003281</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1359035</v>
+      </c>
       <c r="J31" t="n">
-        <v>4008311</v>
+        <v>1948245</v>
       </c>
       <c r="K31" t="n">
-        <v>1363828</v>
+        <v>-1765788</v>
       </c>
       <c r="L31" t="n">
-        <v>1963189</v>
+        <v>1592474</v>
       </c>
       <c r="M31" t="n">
-        <v>-1743650</v>
+        <v>1793744</v>
       </c>
       <c r="N31" t="n">
-        <v>1608824</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1801123</v>
+        <v>1895709</v>
       </c>
     </row>
     <row r="32">
@@ -1927,44 +1832,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358176864</v>
+        <v>-506662007</v>
       </c>
       <c r="C32" t="n">
-        <v>133191503</v>
+        <v>-1190044089</v>
       </c>
       <c r="D32" t="n">
-        <v>-506662007</v>
+        <v>-915901063</v>
       </c>
       <c r="E32" t="n">
-        <v>-1190044089</v>
+        <v>-635693540</v>
       </c>
       <c r="F32" t="n">
-        <v>-915901063</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-635693540</v>
-      </c>
+        <v>-170302245</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-170302245</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>151013947</v>
+      </c>
+      <c r="I32" t="n">
+        <v>553600674</v>
+      </c>
       <c r="J32" t="n">
-        <v>151013947</v>
+        <v>664572604</v>
       </c>
       <c r="K32" t="n">
-        <v>553600674</v>
+        <v>386851849</v>
       </c>
       <c r="L32" t="n">
-        <v>664572604</v>
+        <v>203017169</v>
       </c>
       <c r="M32" t="n">
-        <v>386851849</v>
+        <v>162551966</v>
       </c>
       <c r="N32" t="n">
-        <v>203017169</v>
-      </c>
-      <c r="O32" t="n">
-        <v>162551966</v>
+        <v>195865163</v>
       </c>
     </row>
     <row r="33">
@@ -1974,44 +1876,41 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-44924868</v>
+        <v>-35843167</v>
       </c>
       <c r="C33" t="n">
-        <v>-58980115</v>
+        <v>-20343607</v>
       </c>
       <c r="D33" t="n">
-        <v>-35843167</v>
+        <v>28771224</v>
       </c>
       <c r="E33" t="n">
-        <v>-20343607</v>
+        <v>27413508</v>
       </c>
       <c r="F33" t="n">
-        <v>28771224</v>
-      </c>
-      <c r="G33" t="n">
-        <v>27413508</v>
-      </c>
+        <v>83451849</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>83451849</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>65886849</v>
+      </c>
+      <c r="I33" t="n">
+        <v>77644390</v>
+      </c>
       <c r="J33" t="n">
-        <v>65886849</v>
+        <v>71795494</v>
       </c>
       <c r="K33" t="n">
-        <v>77644390</v>
+        <v>50006247</v>
       </c>
       <c r="L33" t="n">
-        <v>71795494</v>
+        <v>4999959</v>
       </c>
       <c r="M33" t="n">
-        <v>50006247</v>
+        <v>13067238</v>
       </c>
       <c r="N33" t="n">
-        <v>4999959</v>
-      </c>
-      <c r="O33" t="n">
-        <v>13067238</v>
+        <v>52603937</v>
       </c>
     </row>
     <row r="34">
@@ -2021,44 +1920,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-169924405</v>
+        <v>-54315012</v>
       </c>
       <c r="C34" t="n">
-        <v>-143407953</v>
+        <v>9200217</v>
       </c>
       <c r="D34" t="n">
-        <v>-54315012</v>
+        <v>66629781</v>
       </c>
       <c r="E34" t="n">
-        <v>9200217</v>
+        <v>89469279</v>
       </c>
       <c r="F34" t="n">
-        <v>66629781</v>
-      </c>
-      <c r="G34" t="n">
-        <v>89469279</v>
-      </c>
+        <v>183223058</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>183223058</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>429660469</v>
+      </c>
+      <c r="I34" t="n">
+        <v>940385702</v>
+      </c>
       <c r="J34" t="n">
-        <v>429660469</v>
+        <v>758606983</v>
       </c>
       <c r="K34" t="n">
-        <v>940385702</v>
+        <v>372026651</v>
       </c>
       <c r="L34" t="n">
-        <v>758606983</v>
+        <v>-276671869</v>
       </c>
       <c r="M34" t="n">
-        <v>372026651</v>
+        <v>-135303922</v>
       </c>
       <c r="N34" t="n">
-        <v>-276671869</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-135303922</v>
+        <v>37779116</v>
       </c>
     </row>
     <row r="35">
@@ -2068,44 +1964,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>339819827</v>
+        <v>97793575</v>
       </c>
       <c r="C35" t="n">
-        <v>-262468270</v>
+        <v>-437347950</v>
       </c>
       <c r="D35" t="n">
-        <v>97793575</v>
+        <v>-349048593</v>
       </c>
       <c r="E35" t="n">
-        <v>-437347950</v>
+        <v>-348692991</v>
       </c>
       <c r="F35" t="n">
-        <v>-349048593</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-348692991</v>
-      </c>
+        <v>299925517</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>299925517</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>416910633</v>
+      </c>
+      <c r="I35" t="n">
+        <v>516744080</v>
+      </c>
       <c r="J35" t="n">
-        <v>416910633</v>
+        <v>554890120</v>
       </c>
       <c r="K35" t="n">
-        <v>516744080</v>
+        <v>942437192</v>
       </c>
       <c r="L35" t="n">
-        <v>554890120</v>
+        <v>262642334</v>
       </c>
       <c r="M35" t="n">
-        <v>942437192</v>
+        <v>65299297</v>
       </c>
       <c r="N35" t="n">
-        <v>262642334</v>
-      </c>
-      <c r="O35" t="n">
-        <v>65299297</v>
+        <v>-382083341</v>
       </c>
     </row>
     <row r="36">
@@ -2115,44 +2008,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1362538433</v>
+        <v>-472375839</v>
       </c>
       <c r="C36" t="n">
-        <v>-1379862293</v>
+        <v>-361576227</v>
       </c>
       <c r="D36" t="n">
-        <v>-472375839</v>
+        <v>375348312</v>
       </c>
       <c r="E36" t="n">
-        <v>-361576227</v>
+        <v>-137765554</v>
       </c>
       <c r="F36" t="n">
-        <v>375348312</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-137765554</v>
-      </c>
+        <v>603445</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>603445</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>501221935</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1028991357</v>
+      </c>
       <c r="J36" t="n">
-        <v>501221935</v>
+        <v>804596590</v>
       </c>
       <c r="K36" t="n">
-        <v>1028991357</v>
+        <v>874851938</v>
       </c>
       <c r="L36" t="n">
-        <v>804596590</v>
+        <v>-236860904</v>
       </c>
       <c r="M36" t="n">
-        <v>874851938</v>
+        <v>452867326</v>
       </c>
       <c r="N36" t="n">
-        <v>-236860904</v>
-      </c>
-      <c r="O36" t="n">
-        <v>452867326</v>
+        <v>250860316</v>
       </c>
     </row>
     <row r="37">
@@ -2162,44 +2052,41 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-20501092</v>
+        <v>-7671443</v>
       </c>
       <c r="C37" t="n">
-        <v>-14473829</v>
+        <v>13032943</v>
       </c>
       <c r="D37" t="n">
-        <v>-7671443</v>
+        <v>22796616</v>
       </c>
       <c r="E37" t="n">
-        <v>13032943</v>
+        <v>37478928</v>
       </c>
       <c r="F37" t="n">
-        <v>22796616</v>
-      </c>
-      <c r="G37" t="n">
-        <v>37478928</v>
-      </c>
+        <v>44552849</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>44552849</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>65060886</v>
+      </c>
+      <c r="I37" t="n">
+        <v>96290132</v>
+      </c>
       <c r="J37" t="n">
-        <v>65060886</v>
+        <v>78183634</v>
       </c>
       <c r="K37" t="n">
-        <v>96290132</v>
+        <v>50416213</v>
       </c>
       <c r="L37" t="n">
-        <v>78183634</v>
+        <v>13906979</v>
       </c>
       <c r="M37" t="n">
-        <v>50416213</v>
+        <v>26810631</v>
       </c>
       <c r="N37" t="n">
-        <v>13906979</v>
-      </c>
-      <c r="O37" t="n">
-        <v>26810631</v>
+        <v>40373977</v>
       </c>
     </row>
     <row r="38">
@@ -2209,44 +2096,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1109946</v>
+        <v>-2720147304</v>
       </c>
       <c r="C38" t="n">
-        <v>-2325340226</v>
+        <v>20593902</v>
       </c>
       <c r="D38" t="n">
-        <v>-2694940267</v>
+        <v>217350763</v>
       </c>
       <c r="E38" t="n">
-        <v>97602349</v>
+        <v>433640387</v>
       </c>
       <c r="F38" t="n">
-        <v>133931104</v>
-      </c>
-      <c r="G38" t="n">
-        <v>450580028</v>
-      </c>
+        <v>404052230</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>161994269</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>259885981</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-830029218</v>
+      </c>
       <c r="J38" t="n">
-        <v>54100688</v>
+        <v>-1675343384</v>
       </c>
       <c r="K38" t="n">
-        <v>-975645615</v>
+        <v>-1437615677</v>
       </c>
       <c r="L38" t="n">
-        <v>-1675545939</v>
+        <v>576059518</v>
       </c>
       <c r="M38" t="n">
-        <v>-1318609130</v>
+        <v>332573539</v>
       </c>
       <c r="N38" t="n">
-        <v>559720139</v>
-      </c>
-      <c r="O38" t="n">
-        <v>278910181</v>
+        <v>915599576</v>
       </c>
     </row>
     <row r="39">
@@ -2256,44 +2140,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-508181692</v>
+        <v>-189142989</v>
       </c>
       <c r="C39" t="n">
-        <v>-483591382</v>
+        <v>552496357</v>
       </c>
       <c r="D39" t="n">
-        <v>-189142989</v>
+        <v>519757237</v>
       </c>
       <c r="E39" t="n">
-        <v>552496357</v>
+        <v>697582680</v>
       </c>
       <c r="F39" t="n">
-        <v>519757237</v>
-      </c>
-      <c r="G39" t="n">
-        <v>697582680</v>
-      </c>
+        <v>703503568</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>703503568</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>629652122</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-31539326</v>
+      </c>
       <c r="J39" t="n">
-        <v>629652122</v>
+        <v>-255082597</v>
       </c>
       <c r="K39" t="n">
-        <v>-31539326</v>
+        <v>65510783</v>
       </c>
       <c r="L39" t="n">
-        <v>-255082597</v>
+        <v>339695045</v>
       </c>
       <c r="M39" t="n">
-        <v>65510783</v>
+        <v>401329970</v>
       </c>
       <c r="N39" t="n">
-        <v>339695045</v>
-      </c>
-      <c r="O39" t="n">
-        <v>401329970</v>
+        <v>132104399</v>
       </c>
     </row>
     <row r="40">
@@ -2303,44 +2184,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1570012574</v>
+        <v>-382185536</v>
       </c>
       <c r="C40" t="n">
-        <v>-1404771579</v>
+        <v>2912273939</v>
       </c>
       <c r="D40" t="n">
-        <v>-407392573</v>
+        <v>3931257140</v>
       </c>
       <c r="E40" t="n">
-        <v>2835265492</v>
+        <v>1961974489</v>
       </c>
       <c r="F40" t="n">
-        <v>4014676799</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1945034848</v>
-      </c>
+        <v>667635185</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>909693146</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>2300552402</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2139220588</v>
+      </c>
       <c r="J40" t="n">
-        <v>2506337695</v>
+        <v>2157178287</v>
       </c>
       <c r="K40" t="n">
-        <v>2284836985</v>
+        <v>-327660708</v>
       </c>
       <c r="L40" t="n">
-        <v>2157380842</v>
+        <v>1075111399</v>
       </c>
       <c r="M40" t="n">
-        <v>-446667255</v>
+        <v>544477617</v>
       </c>
       <c r="N40" t="n">
-        <v>1091450778</v>
-      </c>
-      <c r="O40" t="n">
-        <v>598140975</v>
+        <v>1817464373</v>
       </c>
     </row>
     <row r="41">
@@ -2350,44 +2228,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174271139</v>
+        <v>232345144</v>
       </c>
       <c r="C41" t="n">
-        <v>195846947</v>
+        <v>-146140731</v>
       </c>
       <c r="D41" t="n">
-        <v>258404905</v>
+        <v>43501129</v>
       </c>
       <c r="E41" t="n">
-        <v>-128252574</v>
+        <v>-171482695</v>
       </c>
       <c r="F41" t="n">
-        <v>52938911</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-166339858</v>
-      </c>
+        <v>362056750</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>362451326</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>383087362</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1022118023</v>
+      </c>
       <c r="J41" t="n">
-        <v>385006257</v>
+        <v>532251666</v>
       </c>
       <c r="K41" t="n">
-        <v>1017138443</v>
+        <v>920025166</v>
       </c>
       <c r="L41" t="n">
-        <v>533536970</v>
+        <v>623413495</v>
       </c>
       <c r="M41" t="n">
-        <v>914632582</v>
+        <v>1128693941</v>
       </c>
       <c r="N41" t="n">
-        <v>627341062</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1130595087</v>
+        <v>992085190</v>
       </c>
     </row>
     <row r="42">
@@ -2397,44 +2272,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-83218351</v>
+        <v>-32898218</v>
       </c>
       <c r="C42" t="n">
-        <v>-108692452</v>
+        <v>12913390</v>
       </c>
       <c r="D42" t="n">
-        <v>-58957979</v>
+        <v>55026281</v>
       </c>
       <c r="E42" t="n">
-        <v>-4974767</v>
+        <v>22593177</v>
       </c>
       <c r="F42" t="n">
-        <v>45588499</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17450340</v>
-      </c>
+        <v>39045232</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>38650656</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>135172796</v>
+      </c>
+      <c r="I42" t="n">
+        <v>248579100</v>
+      </c>
       <c r="J42" t="n">
-        <v>133253901</v>
+        <v>261101580</v>
       </c>
       <c r="K42" t="n">
-        <v>253558680</v>
+        <v>190258261</v>
       </c>
       <c r="L42" t="n">
-        <v>259816276</v>
+        <v>153598256</v>
       </c>
       <c r="M42" t="n">
-        <v>195650845</v>
+        <v>211106546</v>
       </c>
       <c r="N42" t="n">
-        <v>149670689</v>
-      </c>
-      <c r="O42" t="n">
-        <v>209205400</v>
+        <v>92211634</v>
       </c>
     </row>
     <row r="43">
@@ -2444,44 +2316,41 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>196863455</v>
+        <v>17501703</v>
       </c>
       <c r="C43" t="n">
-        <v>119198100</v>
+        <v>-30060368</v>
       </c>
       <c r="D43" t="n">
-        <v>17501703</v>
+        <v>-9888385</v>
       </c>
       <c r="E43" t="n">
-        <v>-30060368</v>
+        <v>-55087032</v>
       </c>
       <c r="F43" t="n">
-        <v>-9888385</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-55087032</v>
-      </c>
+        <v>-22464694</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-22464694</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>31139268</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28720797</v>
+      </c>
       <c r="J43" t="n">
-        <v>31139268</v>
+        <v>92090115</v>
       </c>
       <c r="K43" t="n">
-        <v>28720797</v>
+        <v>8855805</v>
       </c>
       <c r="L43" t="n">
-        <v>92090115</v>
+        <v>23075146</v>
       </c>
       <c r="M43" t="n">
-        <v>8855805</v>
+        <v>-70981959</v>
       </c>
       <c r="N43" t="n">
-        <v>23075146</v>
-      </c>
-      <c r="O43" t="n">
-        <v>-70981959</v>
+        <v>-14633130</v>
       </c>
     </row>
     <row r="44">
@@ -2491,45 +2360,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91830338</v>
+        <v>-17493943</v>
       </c>
       <c r="C44" t="n">
-        <v>-19968689</v>
+        <v>-6558524</v>
       </c>
       <c r="D44" t="n">
-        <v>-17493943</v>
+        <v>68152287</v>
       </c>
       <c r="E44" t="n">
-        <v>-6558524</v>
+        <v>36909775</v>
       </c>
       <c r="F44" t="n">
-        <v>68152287</v>
-      </c>
-      <c r="G44" t="n">
-        <v>36909775</v>
-      </c>
-      <c r="H44" t="n">
         <v>139079163</v>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>27163452</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-79554178</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-79017260</v>
-      </c>
-      <c r="M44" t="n">
-        <v>83729515</v>
-      </c>
-      <c r="N44" t="n">
-        <v>83411365</v>
-      </c>
-      <c r="O44" t="n">
-        <v>92118204</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2538,44 +2390,41 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31116772</v>
+        <v>83845505</v>
       </c>
       <c r="C45" t="n">
-        <v>-57546524</v>
+        <v>97126943</v>
       </c>
       <c r="D45" t="n">
-        <v>83845505</v>
+        <v>-13561980</v>
       </c>
       <c r="E45" t="n">
-        <v>97126943</v>
+        <v>-32755098</v>
       </c>
       <c r="F45" t="n">
-        <v>-13561980</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-32755098</v>
-      </c>
+        <v>132888951</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>132888951</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>157730325</v>
+      </c>
+      <c r="I45" t="n">
+        <v>58745502</v>
+      </c>
       <c r="J45" t="n">
-        <v>157730325</v>
+        <v>50568289</v>
       </c>
       <c r="K45" t="n">
-        <v>58745502</v>
+        <v>1129361</v>
       </c>
       <c r="L45" t="n">
-        <v>50568289</v>
+        <v>113854655</v>
       </c>
       <c r="M45" t="n">
-        <v>1129361</v>
+        <v>-71262751</v>
       </c>
       <c r="N45" t="n">
-        <v>113854655</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-71262751</v>
+        <v>-7173665</v>
       </c>
     </row>
     <row r="46">
@@ -2585,46 +2434,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-379174875</v>
+        <v>-919988483</v>
       </c>
       <c r="C46" t="n">
-        <v>-318334096</v>
+        <v>-432670083</v>
       </c>
       <c r="D46" t="n">
-        <v>-911035799</v>
+        <v>-32162930</v>
       </c>
       <c r="E46" t="n">
-        <v>-430091069</v>
+        <v>571059795</v>
       </c>
       <c r="F46" t="n">
-        <v>-29841603</v>
+        <v>203326155</v>
       </c>
       <c r="G46" t="n">
-        <v>573596066</v>
+        <v>-106786954</v>
       </c>
       <c r="H46" t="n">
-        <v>198307486</v>
+        <v>-119160385</v>
       </c>
       <c r="I46" t="n">
-        <v>-106786954</v>
+        <v>-495274409</v>
       </c>
       <c r="J46" t="n">
-        <v>-142968326</v>
+        <v>-472721322</v>
       </c>
       <c r="K46" t="n">
-        <v>-499316218</v>
+        <v>457642666</v>
       </c>
       <c r="L46" t="n">
-        <v>-468695635</v>
+        <v>1041993749</v>
       </c>
       <c r="M46" t="n">
-        <v>475498288</v>
+        <v>854451341</v>
       </c>
       <c r="N46" t="n">
-        <v>1045736572</v>
-      </c>
-      <c r="O46" t="n">
-        <v>862091524</v>
+        <v>-409816489</v>
       </c>
     </row>
     <row r="47">
@@ -2634,44 +2480,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-748286753</v>
+        <v>-217535737</v>
       </c>
       <c r="C47" t="n">
-        <v>-1077785184</v>
+        <v>-26138776</v>
       </c>
       <c r="D47" t="n">
-        <v>-217120699</v>
+        <v>715877291</v>
       </c>
       <c r="E47" t="n">
-        <v>22739000</v>
+        <v>479836374</v>
       </c>
       <c r="F47" t="n">
-        <v>792652846</v>
-      </c>
-      <c r="G47" t="n">
-        <v>543753208</v>
-      </c>
+        <v>842792097</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>918850357</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>834788850</v>
+      </c>
+      <c r="I47" t="n">
+        <v>128486353</v>
+      </c>
       <c r="J47" t="n">
-        <v>896581429</v>
+        <v>154726647</v>
       </c>
       <c r="K47" t="n">
-        <v>120715300</v>
+        <v>-368968602</v>
       </c>
       <c r="L47" t="n">
-        <v>136907132</v>
+        <v>563089411</v>
       </c>
       <c r="M47" t="n">
-        <v>-405090554</v>
+        <v>278873315</v>
       </c>
       <c r="N47" t="n">
-        <v>458564328</v>
-      </c>
-      <c r="O47" t="n">
-        <v>176986139</v>
+        <v>1420298849</v>
       </c>
     </row>
     <row r="48">
@@ -2681,44 +2524,41 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1212775251</v>
+        <v>-1997303281</v>
       </c>
       <c r="C48" t="n">
-        <v>-2880407812</v>
+        <v>-1156134145</v>
       </c>
       <c r="D48" t="n">
-        <v>-2022773007</v>
+        <v>2514933648</v>
       </c>
       <c r="E48" t="n">
-        <v>-1184793927</v>
+        <v>2114002376</v>
       </c>
       <c r="F48" t="n">
-        <v>2471608664</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2071932934</v>
-      </c>
+        <v>7531598465</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>7499454480</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>7492370699</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4807892190</v>
+      </c>
       <c r="J48" t="n">
-        <v>7504277063</v>
+        <v>-1289511720</v>
       </c>
       <c r="K48" t="n">
-        <v>4824428892</v>
+        <v>-4863677960</v>
       </c>
       <c r="L48" t="n">
-        <v>-1287392726</v>
+        <v>-2143824647</v>
       </c>
       <c r="M48" t="n">
-        <v>-4879299200</v>
+        <v>329160483</v>
       </c>
       <c r="N48" t="n">
-        <v>-2145789732</v>
-      </c>
-      <c r="O48" t="n">
-        <v>328962264</v>
+        <v>1190997312</v>
       </c>
     </row>
     <row r="49">
@@ -2728,44 +2568,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-525755434</v>
+        <v>-155988833</v>
       </c>
       <c r="C49" t="n">
-        <v>-165872721</v>
+        <v>108908243</v>
       </c>
       <c r="D49" t="n">
-        <v>-155988833</v>
+        <v>214607357</v>
       </c>
       <c r="E49" t="n">
-        <v>108908243</v>
+        <v>424272884</v>
       </c>
       <c r="F49" t="n">
-        <v>214607357</v>
-      </c>
-      <c r="G49" t="n">
-        <v>424272884</v>
-      </c>
+        <v>408430164</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>408430164</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>478712799</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1037151379</v>
+      </c>
       <c r="J49" t="n">
-        <v>478712799</v>
+        <v>647177933</v>
       </c>
       <c r="K49" t="n">
-        <v>1037151379</v>
+        <v>227751994</v>
       </c>
       <c r="L49" t="n">
-        <v>647177933</v>
+        <v>-588512249</v>
       </c>
       <c r="M49" t="n">
-        <v>227751994</v>
+        <v>-115101700</v>
       </c>
       <c r="N49" t="n">
-        <v>-588512249</v>
-      </c>
-      <c r="O49" t="n">
-        <v>-115101700</v>
+        <v>-227875945</v>
       </c>
     </row>
     <row r="50">
@@ -2775,44 +2612,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2670077967</v>
+        <v>628072086</v>
       </c>
       <c r="C50" t="n">
-        <v>-1315797596</v>
+        <v>2681633164</v>
       </c>
       <c r="D50" t="n">
-        <v>629736614</v>
+        <v>2368178757</v>
       </c>
       <c r="E50" t="n">
-        <v>2683315535</v>
+        <v>1326613519</v>
       </c>
       <c r="F50" t="n">
-        <v>2367201590</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1325371611</v>
-      </c>
+        <v>1080168640</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>1080909147</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1050540725</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-178400951</v>
+      </c>
       <c r="J50" t="n">
-        <v>1057512948</v>
+        <v>-2667737325</v>
       </c>
       <c r="K50" t="n">
-        <v>-154361336</v>
+        <v>-1892996898</v>
       </c>
       <c r="L50" t="n">
-        <v>-2652985850</v>
+        <v>229621616</v>
       </c>
       <c r="M50" t="n">
-        <v>-1881769154</v>
+        <v>2744678903</v>
       </c>
       <c r="N50" t="n">
-        <v>227372002</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2753136405</v>
+        <v>2584266569</v>
       </c>
     </row>
     <row r="51">
@@ -2822,44 +2656,41 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-10998473</v>
+        <v>6050861</v>
       </c>
       <c r="C51" t="n">
-        <v>-5673955</v>
+        <v>36538724</v>
       </c>
       <c r="D51" t="n">
-        <v>3643589</v>
+        <v>41938261</v>
       </c>
       <c r="E51" t="n">
-        <v>31287707</v>
+        <v>36054688</v>
       </c>
       <c r="F51" t="n">
-        <v>31265712</v>
-      </c>
-      <c r="G51" t="n">
-        <v>24390169</v>
-      </c>
+        <v>55905583</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>21724775</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>88686777</v>
+      </c>
+      <c r="I51" t="n">
+        <v>36143002</v>
+      </c>
       <c r="J51" t="n">
-        <v>45374379</v>
+        <v>6918070</v>
       </c>
       <c r="K51" t="n">
-        <v>7735948</v>
+        <v>-40804520</v>
       </c>
       <c r="L51" t="n">
-        <v>-14458539</v>
+        <v>3987132</v>
       </c>
       <c r="M51" t="n">
-        <v>-27574349</v>
+        <v>54126413</v>
       </c>
       <c r="N51" t="n">
-        <v>21745158</v>
-      </c>
-      <c r="O51" t="n">
-        <v>61045581</v>
+        <v>55702812</v>
       </c>
     </row>
     <row r="52">
@@ -2869,44 +2700,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-314175554</v>
+        <v>242601475</v>
       </c>
       <c r="C52" t="n">
-        <v>-113150438</v>
+        <v>340625060</v>
       </c>
       <c r="D52" t="n">
-        <v>243671966</v>
+        <v>131996088</v>
       </c>
       <c r="E52" t="n">
-        <v>340108082</v>
+        <v>-157175014</v>
       </c>
       <c r="F52" t="n">
-        <v>129703229</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-158625650</v>
-      </c>
+        <v>-74821110</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-75181001</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>436029914</v>
+      </c>
+      <c r="I52" t="n">
+        <v>269952335</v>
+      </c>
       <c r="J52" t="n">
-        <v>435949554</v>
+        <v>404651973</v>
       </c>
       <c r="K52" t="n">
-        <v>269979626</v>
+        <v>375388349</v>
       </c>
       <c r="L52" t="n">
-        <v>404810490</v>
+        <v>804598620</v>
       </c>
       <c r="M52" t="n">
-        <v>375459428</v>
+        <v>648513649</v>
       </c>
       <c r="N52" t="n">
-        <v>804658541</v>
-      </c>
-      <c r="O52" t="n">
-        <v>648257735</v>
+        <v>512846890</v>
       </c>
     </row>
     <row r="53">
@@ -2916,44 +2744,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-286811770</v>
+        <v>-132170491</v>
       </c>
       <c r="C53" t="n">
-        <v>-270195889</v>
+        <v>66427394</v>
       </c>
       <c r="D53" t="n">
-        <v>-134550091</v>
+        <v>200414559</v>
       </c>
       <c r="E53" t="n">
-        <v>66901667</v>
+        <v>164290119</v>
       </c>
       <c r="F53" t="n">
-        <v>200388739</v>
-      </c>
-      <c r="G53" t="n">
-        <v>166386005</v>
-      </c>
+        <v>211467100</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>210577062</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>757744727</v>
+      </c>
+      <c r="I53" t="n">
+        <v>224652846</v>
+      </c>
       <c r="J53" t="n">
-        <v>760177068</v>
+        <v>29206102</v>
       </c>
       <c r="K53" t="n">
-        <v>225975164</v>
+        <v>-656576537</v>
       </c>
       <c r="L53" t="n">
-        <v>34586531</v>
+        <v>-109844516</v>
       </c>
       <c r="M53" t="n">
-        <v>-655434438</v>
+        <v>-116908511</v>
       </c>
       <c r="N53" t="n">
-        <v>-104268015</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-110476693</v>
+        <v>62500108</v>
       </c>
     </row>
     <row r="54">
@@ -2963,44 +2788,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>130410460</v>
+        <v>-625830727</v>
       </c>
       <c r="C54" t="n">
-        <v>224870735</v>
+        <v>248312410</v>
       </c>
       <c r="D54" t="n">
-        <v>-624521790</v>
+        <v>-409253562</v>
       </c>
       <c r="E54" t="n">
-        <v>248355115</v>
+        <v>564882388</v>
       </c>
       <c r="F54" t="n">
-        <v>-406934883</v>
-      </c>
-      <c r="G54" t="n">
-        <v>564237138</v>
-      </c>
+        <v>-242441032</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-241191745</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>995120830</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-954747351</v>
+      </c>
       <c r="J54" t="n">
-        <v>992768621</v>
+        <v>-496529576</v>
       </c>
       <c r="K54" t="n">
-        <v>-956097219</v>
+        <v>-1854463518</v>
       </c>
       <c r="L54" t="n">
-        <v>-502068486</v>
+        <v>335671946</v>
       </c>
       <c r="M54" t="n">
-        <v>-1855676456</v>
+        <v>-691192119</v>
       </c>
       <c r="N54" t="n">
-        <v>330034685</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-697366611</v>
+        <v>-57788218</v>
       </c>
     </row>
     <row r="55">
@@ -3010,44 +2832,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-4992106949</v>
+        <v>-9301548188</v>
       </c>
       <c r="C55" t="n">
-        <v>-4333739126</v>
+        <v>-2272313012</v>
       </c>
       <c r="D55" t="n">
-        <v>-7135662598</v>
+        <v>1424425294</v>
       </c>
       <c r="E55" t="n">
-        <v>-3383309567</v>
+        <v>-2937489528</v>
       </c>
       <c r="F55" t="n">
-        <v>-2597538591</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-6135842235</v>
-      </c>
+        <v>-2066037259</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3338120919</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>8923841406</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8232538064</v>
+      </c>
       <c r="J55" t="n">
-        <v>7978599623</v>
+        <v>25855124496</v>
       </c>
       <c r="K55" t="n">
-        <v>6871181888</v>
+        <v>11881843094</v>
       </c>
       <c r="L55" t="n">
-        <v>22690579375</v>
+        <v>13965667383</v>
       </c>
       <c r="M55" t="n">
-        <v>8722747766</v>
+        <v>4566856170</v>
       </c>
       <c r="N55" t="n">
-        <v>12773294243</v>
-      </c>
-      <c r="O55" t="n">
-        <v>3503065459</v>
+        <v>11158242860</v>
       </c>
     </row>
     <row r="56">
@@ -3057,44 +2876,41 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-181924310</v>
+        <v>-250915720</v>
       </c>
       <c r="C56" t="n">
-        <v>-78646752</v>
+        <v>83582196</v>
       </c>
       <c r="D56" t="n">
-        <v>-164561799</v>
+        <v>-90394838</v>
       </c>
       <c r="E56" t="n">
-        <v>128062410</v>
+        <v>55704754</v>
       </c>
       <c r="F56" t="n">
-        <v>-68363569</v>
-      </c>
-      <c r="G56" t="n">
-        <v>185539867</v>
-      </c>
+        <v>-45100347</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>10508745</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>564466502</v>
+      </c>
+      <c r="I56" t="n">
+        <v>854972898</v>
+      </c>
       <c r="J56" t="n">
-        <v>462416793</v>
+        <v>1578583187</v>
       </c>
       <c r="K56" t="n">
-        <v>358752572</v>
+        <v>772807736</v>
       </c>
       <c r="L56" t="n">
-        <v>702996145</v>
+        <v>278702006</v>
       </c>
       <c r="M56" t="n">
-        <v>149724087</v>
+        <v>-360923942</v>
       </c>
       <c r="N56" t="n">
-        <v>-62799723</v>
-      </c>
-      <c r="O56" t="n">
-        <v>-372076670</v>
+        <v>94160589</v>
       </c>
     </row>
     <row r="57">
@@ -3104,44 +2920,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-4603465675</v>
+        <v>-3027208966</v>
       </c>
       <c r="C57" t="n">
-        <v>-4001043808</v>
+        <v>2214707737</v>
       </c>
       <c r="D57" t="n">
-        <v>-3019550942</v>
+        <v>3194121060</v>
       </c>
       <c r="E57" t="n">
-        <v>2197736809</v>
+        <v>1880211371</v>
       </c>
       <c r="F57" t="n">
-        <v>3146072288</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1833829722</v>
-      </c>
+        <v>203442797</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>178132615</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>3599100180</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2142992698</v>
+      </c>
       <c r="J57" t="n">
-        <v>3550335716</v>
+        <v>7418891881</v>
       </c>
       <c r="K57" t="n">
-        <v>2107823712</v>
+        <v>2951108637</v>
       </c>
       <c r="L57" t="n">
-        <v>7358639781</v>
+        <v>5387947530</v>
       </c>
       <c r="M57" t="n">
-        <v>2947539678</v>
+        <v>121102334</v>
       </c>
       <c r="N57" t="n">
-        <v>5390036218</v>
-      </c>
-      <c r="O57" t="n">
-        <v>128535667</v>
+        <v>1981176092</v>
       </c>
     </row>
     <row r="58">
@@ -3151,44 +2964,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-390869278</v>
+        <v>109468225</v>
       </c>
       <c r="C58" t="n">
-        <v>-293475261</v>
+        <v>48024932</v>
       </c>
       <c r="D58" t="n">
-        <v>109468225</v>
+        <v>223251235</v>
       </c>
       <c r="E58" t="n">
-        <v>48024932</v>
+        <v>-188889229</v>
       </c>
       <c r="F58" t="n">
-        <v>223251235</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-188889229</v>
-      </c>
+        <v>103934077</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>103934077</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>203671310</v>
+      </c>
+      <c r="I58" t="n">
+        <v>172976880</v>
+      </c>
       <c r="J58" t="n">
-        <v>203671310</v>
+        <v>227269112</v>
       </c>
       <c r="K58" t="n">
-        <v>172976880</v>
+        <v>-119503563</v>
       </c>
       <c r="L58" t="n">
-        <v>227269112</v>
+        <v>543346190</v>
       </c>
       <c r="M58" t="n">
-        <v>-119503563</v>
+        <v>203327288</v>
       </c>
       <c r="N58" t="n">
-        <v>543346190</v>
-      </c>
-      <c r="O58" t="n">
-        <v>203327288</v>
+        <v>161470159</v>
       </c>
     </row>
     <row r="59">
@@ -3198,46 +3008,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-132658643</v>
+        <v>-29363591</v>
       </c>
       <c r="C59" t="n">
-        <v>-20561665</v>
+        <v>116145921</v>
       </c>
       <c r="D59" t="n">
-        <v>-24834842</v>
+        <v>125905569</v>
       </c>
       <c r="E59" t="n">
-        <v>95904484</v>
+        <v>128802112</v>
       </c>
       <c r="F59" t="n">
-        <v>106697531</v>
+        <v>221084273</v>
       </c>
       <c r="G59" t="n">
-        <v>97000198</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>217203451</v>
+        <v>326035288</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>587983812</v>
       </c>
       <c r="J59" t="n">
-        <v>308385485</v>
+        <v>587162536</v>
       </c>
       <c r="K59" t="n">
-        <v>518125350</v>
+        <v>447415514</v>
       </c>
       <c r="L59" t="n">
-        <v>218370129</v>
+        <v>240762147</v>
       </c>
       <c r="M59" t="n">
-        <v>127321153</v>
+        <v>-922773</v>
       </c>
       <c r="N59" t="n">
-        <v>-180582946</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-40520647</v>
+        <v>-73692670</v>
       </c>
     </row>
     <row r="60">
@@ -3247,44 +3054,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35535206</v>
+        <v>7055638</v>
       </c>
       <c r="C60" t="n">
-        <v>4068234</v>
+        <v>154300503</v>
       </c>
       <c r="D60" t="n">
-        <v>2526889</v>
+        <v>200355707</v>
       </c>
       <c r="E60" t="n">
-        <v>174541940</v>
+        <v>299591383</v>
       </c>
       <c r="F60" t="n">
-        <v>219563745</v>
-      </c>
-      <c r="G60" t="n">
-        <v>331393297</v>
-      </c>
+        <v>291376900</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>295257722</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>417561663</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1193415253</v>
+      </c>
       <c r="J60" t="n">
-        <v>435211466</v>
+        <v>2519833716</v>
       </c>
       <c r="K60" t="n">
-        <v>1263273715</v>
+        <v>1950443494</v>
       </c>
       <c r="L60" t="n">
-        <v>2888626123</v>
+        <v>1590163765</v>
       </c>
       <c r="M60" t="n">
-        <v>2270537855</v>
+        <v>786477363</v>
       </c>
       <c r="N60" t="n">
-        <v>2011508858</v>
-      </c>
-      <c r="O60" t="n">
-        <v>826075237</v>
+        <v>930264396</v>
       </c>
     </row>
     <row r="61">
@@ -3294,44 +3098,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-11195891</v>
+        <v>12012666</v>
       </c>
       <c r="C61" t="n">
-        <v>11160206</v>
+        <v>11240345</v>
       </c>
       <c r="D61" t="n">
-        <v>12012666</v>
+        <v>12249797</v>
       </c>
       <c r="E61" t="n">
-        <v>11240345</v>
+        <v>14875617</v>
       </c>
       <c r="F61" t="n">
-        <v>12249797</v>
-      </c>
-      <c r="G61" t="n">
-        <v>14875617</v>
-      </c>
+        <v>44548983</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>44548983</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>67668961</v>
+      </c>
+      <c r="I61" t="n">
+        <v>42548580</v>
+      </c>
       <c r="J61" t="n">
-        <v>67668961</v>
+        <v>34161775</v>
       </c>
       <c r="K61" t="n">
-        <v>42548580</v>
+        <v>-10199006</v>
       </c>
       <c r="L61" t="n">
-        <v>34161775</v>
+        <v>13706882</v>
       </c>
       <c r="M61" t="n">
-        <v>-10199006</v>
+        <v>18349008</v>
       </c>
       <c r="N61" t="n">
-        <v>13706882</v>
-      </c>
-      <c r="O61" t="n">
-        <v>18349008</v>
+        <v>22666473</v>
       </c>
     </row>
     <row r="62">
@@ -3341,44 +3142,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-578035925</v>
+        <v>-467468881</v>
       </c>
       <c r="C62" t="n">
-        <v>-508317478</v>
+        <v>153973898</v>
       </c>
       <c r="D62" t="n">
-        <v>-467468881</v>
+        <v>415012357</v>
       </c>
       <c r="E62" t="n">
-        <v>153973898</v>
+        <v>228905042</v>
       </c>
       <c r="F62" t="n">
-        <v>415012357</v>
-      </c>
-      <c r="G62" t="n">
-        <v>228905042</v>
-      </c>
+        <v>312229929</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>312229929</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>704024614</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-9932561</v>
+      </c>
       <c r="J62" t="n">
-        <v>704024614</v>
+        <v>-4969962</v>
       </c>
       <c r="K62" t="n">
-        <v>-9932561</v>
+        <v>-560378882</v>
       </c>
       <c r="L62" t="n">
-        <v>-4969962</v>
+        <v>289481936</v>
       </c>
       <c r="M62" t="n">
-        <v>-560378882</v>
+        <v>402295096</v>
       </c>
       <c r="N62" t="n">
-        <v>289481936</v>
-      </c>
-      <c r="O62" t="n">
-        <v>402295096</v>
+        <v>657535198</v>
       </c>
     </row>
     <row r="63">
@@ -3388,44 +3186,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-34377106</v>
+        <v>-16731746</v>
       </c>
       <c r="C63" t="n">
-        <v>-3893408</v>
+        <v>62454088</v>
       </c>
       <c r="D63" t="n">
-        <v>-16731746</v>
+        <v>27806808</v>
       </c>
       <c r="E63" t="n">
-        <v>62454088</v>
+        <v>32558765</v>
       </c>
       <c r="F63" t="n">
-        <v>27806808</v>
-      </c>
-      <c r="G63" t="n">
-        <v>32558765</v>
-      </c>
+        <v>40013223</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>40013223</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>110872880</v>
+      </c>
+      <c r="I63" t="n">
+        <v>241574968</v>
+      </c>
       <c r="J63" t="n">
-        <v>110872880</v>
+        <v>254712673</v>
       </c>
       <c r="K63" t="n">
-        <v>241574968</v>
+        <v>252646039</v>
       </c>
       <c r="L63" t="n">
-        <v>254712673</v>
+        <v>130500981</v>
       </c>
       <c r="M63" t="n">
-        <v>252646039</v>
+        <v>132726412</v>
       </c>
       <c r="N63" t="n">
-        <v>130500981</v>
-      </c>
-      <c r="O63" t="n">
-        <v>132726412</v>
+        <v>21029904</v>
       </c>
     </row>
     <row r="64">
@@ -3435,44 +3230,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3180604254</v>
+        <v>3780921973</v>
       </c>
       <c r="C64" t="n">
-        <v>4606916648</v>
+        <v>8459380476</v>
       </c>
       <c r="D64" t="n">
-        <v>3780905064</v>
+        <v>16056423049</v>
       </c>
       <c r="E64" t="n">
-        <v>8459360672</v>
+        <v>18741819385</v>
       </c>
       <c r="F64" t="n">
-        <v>16056412295</v>
-      </c>
-      <c r="G64" t="n">
-        <v>18741806900</v>
-      </c>
+        <v>15096704607</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>15096692920</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>6706733806</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4317177726</v>
+      </c>
       <c r="J64" t="n">
-        <v>6706711995</v>
+        <v>-2539816363</v>
       </c>
       <c r="K64" t="n">
-        <v>4317176479</v>
+        <v>-3224052470</v>
       </c>
       <c r="L64" t="n">
-        <v>-2539819208</v>
+        <v>-4488338229</v>
       </c>
       <c r="M64" t="n">
-        <v>-3224044122</v>
+        <v>-3672608503</v>
       </c>
       <c r="N64" t="n">
-        <v>-4488354783</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-3672626176</v>
+        <v>-780649210</v>
       </c>
     </row>
     <row r="65">
@@ -3482,44 +3274,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-54311</v>
+        <v>-29550783</v>
       </c>
       <c r="C65" t="n">
-        <v>-119231</v>
+        <v>501952288</v>
       </c>
       <c r="D65" t="n">
-        <v>-17059</v>
+        <v>1182257010</v>
       </c>
       <c r="E65" t="n">
-        <v>321092</v>
+        <v>3076408821</v>
       </c>
       <c r="F65" t="n">
-        <v>440831</v>
-      </c>
-      <c r="G65" t="n">
-        <v>640848</v>
-      </c>
+        <v>1916433720</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>427833</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1064845232</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-1091104382</v>
+      </c>
       <c r="J65" t="n">
-        <v>245469</v>
+        <v>-88698919</v>
       </c>
       <c r="K65" t="n">
-        <v>-112562</v>
+        <v>-77802972</v>
       </c>
       <c r="L65" t="n">
-        <v>-119073</v>
+        <v>172641562</v>
       </c>
       <c r="M65" t="n">
-        <v>-51024</v>
+        <v>-216893894</v>
       </c>
       <c r="N65" t="n">
-        <v>93436</v>
-      </c>
-      <c r="O65" t="n">
-        <v>34937</v>
+        <v>88134590</v>
       </c>
     </row>
     <row r="66">
@@ -3529,44 +3318,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-325709116</v>
+        <v>9341357</v>
       </c>
       <c r="C66" t="n">
-        <v>-218184004</v>
+        <v>473832879</v>
       </c>
       <c r="D66" t="n">
-        <v>9359306</v>
+        <v>1042849530</v>
       </c>
       <c r="E66" t="n">
-        <v>473852646</v>
+        <v>985569321</v>
       </c>
       <c r="F66" t="n">
-        <v>1042858717</v>
-      </c>
-      <c r="G66" t="n">
-        <v>985576663</v>
-      </c>
+        <v>964327363</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>964332271</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>375398309</v>
+      </c>
+      <c r="I66" t="n">
+        <v>57367500</v>
+      </c>
       <c r="J66" t="n">
-        <v>375414530</v>
+        <v>-19165276</v>
       </c>
       <c r="K66" t="n">
-        <v>57367641</v>
+        <v>-170210369</v>
       </c>
       <c r="L66" t="n">
-        <v>-19163090</v>
+        <v>-397186895</v>
       </c>
       <c r="M66" t="n">
-        <v>-170217863</v>
+        <v>-529869948</v>
       </c>
       <c r="N66" t="n">
-        <v>-397170436</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-529850737</v>
+        <v>-154713459</v>
       </c>
     </row>
     <row r="67">
@@ -3576,45 +3362,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5399</v>
+        <v>1573</v>
       </c>
       <c r="C67" t="n">
-        <v>-3274</v>
+        <v>-2545</v>
       </c>
       <c r="D67" t="n">
-        <v>1573</v>
+        <v>3375</v>
       </c>
       <c r="E67" t="n">
-        <v>-2545</v>
+        <v>-2445</v>
       </c>
       <c r="F67" t="n">
-        <v>3375</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-2445</v>
-      </c>
-      <c r="H67" t="n">
         <v>-3727</v>
       </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>-5239</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3240</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7362</v>
-      </c>
-      <c r="M67" t="n">
-        <v>4566</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-1478</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-7765</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3623,44 +3392,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-8772</v>
+        <v>-1198</v>
       </c>
       <c r="C68" t="n">
-        <v>-7268</v>
+        <v>5039</v>
       </c>
       <c r="D68" t="n">
-        <v>-1198</v>
+        <v>9178</v>
       </c>
       <c r="E68" t="n">
-        <v>5039</v>
+        <v>10025</v>
       </c>
       <c r="F68" t="n">
-        <v>9178</v>
-      </c>
-      <c r="G68" t="n">
-        <v>10025</v>
-      </c>
+        <v>-2244</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-2244</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>819</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-9702</v>
+      </c>
       <c r="J68" t="n">
-        <v>819</v>
+        <v>1460</v>
       </c>
       <c r="K68" t="n">
-        <v>-9702</v>
+        <v>-4837</v>
       </c>
       <c r="L68" t="n">
-        <v>1460</v>
+        <v>693</v>
       </c>
       <c r="M68" t="n">
-        <v>-4837</v>
+        <v>2390</v>
       </c>
       <c r="N68" t="n">
-        <v>693</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2390</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="69">
@@ -3670,44 +3436,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4451028255</v>
+        <v>-6356819327</v>
       </c>
       <c r="C69" t="n">
-        <v>-8251160142</v>
+        <v>-4668194140</v>
       </c>
       <c r="D69" t="n">
-        <v>-6333576976</v>
+        <v>3406266689</v>
       </c>
       <c r="E69" t="n">
-        <v>-4637087405</v>
+        <v>5725693294</v>
       </c>
       <c r="F69" t="n">
-        <v>3310233631</v>
-      </c>
-      <c r="G69" t="n">
-        <v>5592925250</v>
-      </c>
+        <v>15581827164</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>15314264009</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>18503749650</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10962324773</v>
+      </c>
       <c r="J69" t="n">
-        <v>18288795222</v>
+        <v>12447060309</v>
       </c>
       <c r="K69" t="n">
-        <v>10896545465</v>
+        <v>6977351495</v>
       </c>
       <c r="L69" t="n">
-        <v>12445338963</v>
+        <v>13180571278</v>
       </c>
       <c r="M69" t="n">
-        <v>6997360760</v>
+        <v>20690500485</v>
       </c>
       <c r="N69" t="n">
-        <v>13103277050</v>
-      </c>
-      <c r="O69" t="n">
-        <v>20574620087</v>
+        <v>28103652782</v>
       </c>
     </row>
     <row r="70">
@@ -3717,44 +3480,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1018780378</v>
+        <v>467175578</v>
       </c>
       <c r="C70" t="n">
-        <v>-1736224205</v>
+        <v>1291012347</v>
       </c>
       <c r="D70" t="n">
-        <v>467042267</v>
+        <v>1749535975</v>
       </c>
       <c r="E70" t="n">
-        <v>1291113020</v>
+        <v>1663022248</v>
       </c>
       <c r="F70" t="n">
-        <v>1749665266</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1663045131</v>
-      </c>
+        <v>3166371480</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>3166134294</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1426200771</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1405987714</v>
+      </c>
       <c r="J70" t="n">
-        <v>1426194518</v>
+        <v>-3161482010</v>
       </c>
       <c r="K70" t="n">
-        <v>-1405907840</v>
+        <v>-1474889466</v>
       </c>
       <c r="L70" t="n">
-        <v>-3161317576</v>
+        <v>-76072758</v>
       </c>
       <c r="M70" t="n">
-        <v>-1474960329</v>
+        <v>978564792</v>
       </c>
       <c r="N70" t="n">
-        <v>-76138950</v>
-      </c>
-      <c r="O70" t="n">
-        <v>978533160</v>
+        <v>1358993821</v>
       </c>
     </row>
     <row r="71">
@@ -3764,44 +3524,41 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1713393602</v>
+        <v>41864751</v>
       </c>
       <c r="C71" t="n">
-        <v>-1243997586</v>
+        <v>1250504315</v>
       </c>
       <c r="D71" t="n">
-        <v>18784042</v>
+        <v>2488034610</v>
       </c>
       <c r="E71" t="n">
-        <v>1219297522</v>
+        <v>2548316272</v>
       </c>
       <c r="F71" t="n">
-        <v>2583870115</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2680997895</v>
-      </c>
+        <v>3014228342</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>3281924285</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1955735081</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-70288498</v>
+      </c>
       <c r="J71" t="n">
-        <v>2170632121</v>
+        <v>-591672948</v>
       </c>
       <c r="K71" t="n">
-        <v>-4579116</v>
+        <v>-1208772573</v>
       </c>
       <c r="L71" t="n">
-        <v>-590075007</v>
+        <v>406587552</v>
       </c>
       <c r="M71" t="n">
-        <v>-1228646932</v>
+        <v>189326424</v>
       </c>
       <c r="N71" t="n">
-        <v>483950557</v>
-      </c>
-      <c r="O71" t="n">
-        <v>305214290</v>
+        <v>1633678168</v>
       </c>
     </row>
     <row r="72">
@@ -3811,44 +3568,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-101544635</v>
+        <v>-46987637</v>
       </c>
       <c r="C72" t="n">
-        <v>-72994323</v>
+        <v>-17327222</v>
       </c>
       <c r="D72" t="n">
-        <v>-46987637</v>
+        <v>32307246</v>
       </c>
       <c r="E72" t="n">
-        <v>-17327222</v>
+        <v>18803401</v>
       </c>
       <c r="F72" t="n">
-        <v>32307246</v>
-      </c>
-      <c r="G72" t="n">
-        <v>18803401</v>
-      </c>
+        <v>108336514</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>108336514</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>25124633</v>
+      </c>
+      <c r="I72" t="n">
+        <v>269658712</v>
+      </c>
       <c r="J72" t="n">
-        <v>25124633</v>
+        <v>226492707</v>
       </c>
       <c r="K72" t="n">
-        <v>269658712</v>
+        <v>359985812</v>
       </c>
       <c r="L72" t="n">
-        <v>226492707</v>
+        <v>42818759</v>
       </c>
       <c r="M72" t="n">
-        <v>359985812</v>
+        <v>70519235</v>
       </c>
       <c r="N72" t="n">
-        <v>42818759</v>
-      </c>
-      <c r="O72" t="n">
-        <v>70519235</v>
+        <v>49131659</v>
       </c>
     </row>
     <row r="73">
@@ -3858,44 +3612,41 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-22926608</v>
+        <v>-705650</v>
       </c>
       <c r="C73" t="n">
-        <v>-23144194</v>
+        <v>10539281</v>
       </c>
       <c r="D73" t="n">
-        <v>-705650</v>
+        <v>17585162</v>
       </c>
       <c r="E73" t="n">
-        <v>10539281</v>
+        <v>15302256</v>
       </c>
       <c r="F73" t="n">
-        <v>17585162</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15302256</v>
-      </c>
+        <v>14809395</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>14809395</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>27005025</v>
+      </c>
+      <c r="I73" t="n">
+        <v>292445567</v>
+      </c>
       <c r="J73" t="n">
-        <v>27005025</v>
+        <v>228191018</v>
       </c>
       <c r="K73" t="n">
-        <v>292445567</v>
+        <v>277275152</v>
       </c>
       <c r="L73" t="n">
-        <v>228191018</v>
+        <v>-62318724</v>
       </c>
       <c r="M73" t="n">
-        <v>277275152</v>
+        <v>62789714</v>
       </c>
       <c r="N73" t="n">
-        <v>-62318724</v>
-      </c>
-      <c r="O73" t="n">
-        <v>62789714</v>
+        <v>70097567</v>
       </c>
     </row>
     <row r="74">
@@ -3905,44 +3656,41 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-732358870</v>
+        <v>-513095267</v>
       </c>
       <c r="C74" t="n">
-        <v>-1015718292</v>
+        <v>-207212643</v>
       </c>
       <c r="D74" t="n">
-        <v>-509999328</v>
+        <v>1281851375</v>
       </c>
       <c r="E74" t="n">
-        <v>-178482004</v>
+        <v>432362375</v>
       </c>
       <c r="F74" t="n">
-        <v>1321084291</v>
-      </c>
-      <c r="G74" t="n">
-        <v>453038217</v>
-      </c>
+        <v>1229716288</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1229301841</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>460031633</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-121590793</v>
+      </c>
       <c r="J74" t="n">
-        <v>475627475</v>
+        <v>-676389768</v>
       </c>
       <c r="K74" t="n">
-        <v>-119744836</v>
+        <v>-464114031</v>
       </c>
       <c r="L74" t="n">
-        <v>-686641372</v>
+        <v>821841234</v>
       </c>
       <c r="M74" t="n">
-        <v>-518451934</v>
+        <v>290287368</v>
       </c>
       <c r="N74" t="n">
-        <v>798711356</v>
-      </c>
-      <c r="O74" t="n">
-        <v>279621436</v>
+        <v>403557866</v>
       </c>
     </row>
     <row r="75">
@@ -3952,44 +3700,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>542540913</v>
+        <v>687356667</v>
       </c>
       <c r="C75" t="n">
-        <v>511689991</v>
+        <v>1700166722</v>
       </c>
       <c r="D75" t="n">
-        <v>684673602</v>
+        <v>2641155645</v>
       </c>
       <c r="E75" t="n">
-        <v>1701010986</v>
+        <v>1505539809</v>
       </c>
       <c r="F75" t="n">
-        <v>2645004242</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1509867288</v>
-      </c>
+        <v>1742793751</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>1748128310</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>-255499745</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-1150572981</v>
+      </c>
       <c r="J75" t="n">
-        <v>-249992501</v>
+        <v>-3342092534</v>
       </c>
       <c r="K75" t="n">
-        <v>-1148076180</v>
+        <v>-2538350708</v>
       </c>
       <c r="L75" t="n">
-        <v>-3340537497</v>
+        <v>-84562710</v>
       </c>
       <c r="M75" t="n">
-        <v>-2538214221</v>
+        <v>225995384</v>
       </c>
       <c r="N75" t="n">
-        <v>-80093075</v>
-      </c>
-      <c r="O75" t="n">
-        <v>227157564</v>
+        <v>1233954099</v>
       </c>
     </row>
     <row r="76">
@@ -3999,44 +3744,41 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-391360646</v>
+        <v>226034097</v>
       </c>
       <c r="C76" t="n">
-        <v>-355861493</v>
+        <v>263950318</v>
       </c>
       <c r="D76" t="n">
-        <v>186588989</v>
+        <v>456026376</v>
       </c>
       <c r="E76" t="n">
-        <v>256711000</v>
+        <v>324534694</v>
       </c>
       <c r="F76" t="n">
-        <v>491745991</v>
-      </c>
-      <c r="G76" t="n">
-        <v>382402532</v>
-      </c>
+        <v>1001306085</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>1085143718</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>358671847</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-112507282</v>
+      </c>
       <c r="J76" t="n">
-        <v>423047967</v>
+        <v>-219138064</v>
       </c>
       <c r="K76" t="n">
-        <v>-126203867</v>
+        <v>214064748</v>
       </c>
       <c r="L76" t="n">
-        <v>-205045195</v>
+        <v>736894854</v>
       </c>
       <c r="M76" t="n">
-        <v>182298965</v>
+        <v>520333692</v>
       </c>
       <c r="N76" t="n">
-        <v>795932223</v>
-      </c>
-      <c r="O76" t="n">
-        <v>705001211</v>
+        <v>459104624</v>
       </c>
     </row>
     <row r="77">
@@ -4046,44 +3788,41 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-5483747877</v>
+        <v>-1059147842</v>
       </c>
       <c r="C77" t="n">
-        <v>-6786608317</v>
+        <v>-1985581699</v>
       </c>
       <c r="D77" t="n">
-        <v>-1267175109</v>
+        <v>9403136262</v>
       </c>
       <c r="E77" t="n">
-        <v>-1543201974</v>
+        <v>7889539378</v>
       </c>
       <c r="F77" t="n">
-        <v>9701031575</v>
-      </c>
-      <c r="G77" t="n">
-        <v>9240971559</v>
-      </c>
+        <v>16526116813</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>17003510647</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>19160846733</v>
+      </c>
+      <c r="I77" t="n">
+        <v>8458348883</v>
+      </c>
       <c r="J77" t="n">
-        <v>18689783727</v>
+        <v>9247200406</v>
       </c>
       <c r="K77" t="n">
-        <v>6373574217</v>
+        <v>-535871307</v>
       </c>
       <c r="L77" t="n">
-        <v>6962246049</v>
+        <v>8877184326</v>
       </c>
       <c r="M77" t="n">
-        <v>-2776683424</v>
+        <v>9760240491</v>
       </c>
       <c r="N77" t="n">
-        <v>8224079160</v>
-      </c>
-      <c r="O77" t="n">
-        <v>9065678641</v>
+        <v>13665696916</v>
       </c>
     </row>
     <row r="78">
@@ -4093,44 +3832,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1578554684</v>
+        <v>-684811599</v>
       </c>
       <c r="C78" t="n">
-        <v>-2186035411</v>
+        <v>-596641317</v>
       </c>
       <c r="D78" t="n">
-        <v>-697954095</v>
+        <v>1868122483</v>
       </c>
       <c r="E78" t="n">
-        <v>-562482135</v>
+        <v>850697366</v>
       </c>
       <c r="F78" t="n">
-        <v>1936173140</v>
-      </c>
-      <c r="G78" t="n">
-        <v>912136528</v>
-      </c>
+        <v>2741909580</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2794350741</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>3079767278</v>
+      </c>
+      <c r="I78" t="n">
+        <v>787816015</v>
+      </c>
       <c r="J78" t="n">
-        <v>3130531220</v>
+        <v>1336411401</v>
       </c>
       <c r="K78" t="n">
-        <v>883538749</v>
+        <v>804156564</v>
       </c>
       <c r="L78" t="n">
-        <v>1442777557</v>
+        <v>1874704133</v>
       </c>
       <c r="M78" t="n">
-        <v>873665368</v>
+        <v>1137078511</v>
       </c>
       <c r="N78" t="n">
-        <v>1909172880</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1171990619</v>
+        <v>1191242602</v>
       </c>
     </row>
     <row r="79">
@@ -4140,44 +3876,41 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-4527636893</v>
+        <v>-534762908</v>
       </c>
       <c r="C79" t="n">
-        <v>-5564530231</v>
+        <v>-2935276715</v>
       </c>
       <c r="D79" t="n">
-        <v>-313593145</v>
+        <v>3671426937</v>
       </c>
       <c r="E79" t="n">
-        <v>-3411815622</v>
+        <v>-67410669</v>
       </c>
       <c r="F79" t="n">
-        <v>3305480967</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1480282012</v>
-      </c>
+        <v>6271172092</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>5741337097</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>7032957489</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-3667289122</v>
+      </c>
       <c r="J79" t="n">
-        <v>7453256553</v>
+        <v>-7143890105</v>
       </c>
       <c r="K79" t="n">
-        <v>-1678237190</v>
+        <v>-12534039176</v>
       </c>
       <c r="L79" t="n">
-        <v>-4965301904</v>
+        <v>-1690732026</v>
       </c>
       <c r="M79" t="n">
-        <v>-10362735863</v>
+        <v>-8003086146</v>
       </c>
       <c r="N79" t="n">
-        <v>-1072095607</v>
-      </c>
-      <c r="O79" t="n">
-        <v>-7343436404</v>
+        <v>-3092936621</v>
       </c>
     </row>
     <row r="80">
@@ -4187,44 +3920,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-16326</v>
+        <v>-7912</v>
       </c>
       <c r="C80" t="n">
-        <v>-4104</v>
+        <v>19662</v>
       </c>
       <c r="D80" t="n">
-        <v>-7855</v>
+        <v>14840</v>
       </c>
       <c r="E80" t="n">
-        <v>19701</v>
+        <v>-9644</v>
       </c>
       <c r="F80" t="n">
-        <v>19854</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-4952</v>
-      </c>
+        <v>-10270</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-6400</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>33114</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18752</v>
+      </c>
       <c r="J80" t="n">
-        <v>32122</v>
+        <v>17567</v>
       </c>
       <c r="K80" t="n">
-        <v>17744</v>
+        <v>-17532</v>
       </c>
       <c r="L80" t="n">
-        <v>17436</v>
+        <v>13462</v>
       </c>
       <c r="M80" t="n">
-        <v>-17777</v>
+        <v>21600</v>
       </c>
       <c r="N80" t="n">
-        <v>13547</v>
-      </c>
-      <c r="O80" t="n">
-        <v>21742</v>
+        <v>46131</v>
       </c>
     </row>
     <row r="81">
@@ -4234,44 +3964,41 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-41387</v>
+        <v>-42999</v>
       </c>
       <c r="C81" t="n">
-        <v>-52072</v>
+        <v>-20950</v>
       </c>
       <c r="D81" t="n">
-        <v>-42999</v>
+        <v>19226</v>
       </c>
       <c r="E81" t="n">
-        <v>-20950</v>
+        <v>29953</v>
       </c>
       <c r="F81" t="n">
-        <v>19226</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29953</v>
-      </c>
+        <v>82682</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>82682</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>84294</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16317</v>
+      </c>
       <c r="J81" t="n">
-        <v>84294</v>
+        <v>2627</v>
       </c>
       <c r="K81" t="n">
-        <v>16317</v>
+        <v>-39201</v>
       </c>
       <c r="L81" t="n">
-        <v>2627</v>
+        <v>-6316</v>
       </c>
       <c r="M81" t="n">
-        <v>-39201</v>
+        <v>-47223</v>
       </c>
       <c r="N81" t="n">
-        <v>-6316</v>
-      </c>
-      <c r="O81" t="n">
-        <v>-47223</v>
+        <v>-1641</v>
       </c>
     </row>
     <row r="82">
@@ -4281,44 +4008,41 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-10233</v>
+        <v>-1832</v>
       </c>
       <c r="C82" t="n">
-        <v>-4808</v>
+        <v>-1072</v>
       </c>
       <c r="D82" t="n">
-        <v>-1889</v>
+        <v>6593</v>
       </c>
       <c r="E82" t="n">
-        <v>-1111</v>
+        <v>6051</v>
       </c>
       <c r="F82" t="n">
-        <v>1579</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1359</v>
-      </c>
+        <v>7417</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>3547</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>-828</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3286</v>
+      </c>
       <c r="J82" t="n">
-        <v>164</v>
+        <v>-200</v>
       </c>
       <c r="K82" t="n">
-        <v>4294</v>
+        <v>1687</v>
       </c>
       <c r="L82" t="n">
-        <v>-69</v>
+        <v>-3092</v>
       </c>
       <c r="M82" t="n">
-        <v>1932</v>
+        <v>249</v>
       </c>
       <c r="N82" t="n">
-        <v>-3177</v>
-      </c>
-      <c r="O82" t="n">
-        <v>107</v>
+        <v>-1987</v>
       </c>
     </row>
     <row r="83">
@@ -4328,44 +4052,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-85143899</v>
+        <v>-58099444</v>
       </c>
       <c r="C83" t="n">
-        <v>-86548758</v>
+        <v>45675471</v>
       </c>
       <c r="D83" t="n">
-        <v>-58099444</v>
+        <v>140166671</v>
       </c>
       <c r="E83" t="n">
-        <v>45675471</v>
+        <v>109462898</v>
       </c>
       <c r="F83" t="n">
-        <v>140166671</v>
-      </c>
-      <c r="G83" t="n">
-        <v>109462898</v>
-      </c>
+        <v>58507601</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>58507601</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>88718952</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24727806</v>
+      </c>
       <c r="J83" t="n">
-        <v>88718952</v>
+        <v>93402393</v>
       </c>
       <c r="K83" t="n">
-        <v>24727806</v>
+        <v>44498544</v>
       </c>
       <c r="L83" t="n">
-        <v>93402393</v>
+        <v>140648751</v>
       </c>
       <c r="M83" t="n">
-        <v>44498544</v>
+        <v>262990787</v>
       </c>
       <c r="N83" t="n">
-        <v>140648751</v>
-      </c>
-      <c r="O83" t="n">
-        <v>262990787</v>
+        <v>314668020</v>
       </c>
     </row>
     <row r="84">
@@ -4375,44 +4096,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1375479077</v>
+        <v>172476394</v>
       </c>
       <c r="C84" t="n">
-        <v>-744986733</v>
+        <v>522286121</v>
       </c>
       <c r="D84" t="n">
-        <v>170225916</v>
+        <v>4301557</v>
       </c>
       <c r="E84" t="n">
-        <v>521944137</v>
+        <v>-54728293</v>
       </c>
       <c r="F84" t="n">
-        <v>10870876</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-49694798</v>
-      </c>
+        <v>661761191</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>673771968</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1046517866</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1149125321</v>
+      </c>
       <c r="J84" t="n">
-        <v>1051854990</v>
+        <v>1987567291</v>
       </c>
       <c r="K84" t="n">
-        <v>1147132318</v>
+        <v>1199789261</v>
       </c>
       <c r="L84" t="n">
-        <v>1984283322</v>
+        <v>406265868</v>
       </c>
       <c r="M84" t="n">
-        <v>1196776638</v>
+        <v>-705551955</v>
       </c>
       <c r="N84" t="n">
-        <v>409273643</v>
-      </c>
-      <c r="O84" t="n">
-        <v>-702441136</v>
+        <v>710928983</v>
       </c>
     </row>
     <row r="85">
@@ -4422,44 +4140,41 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-4495303201</v>
+        <v>-27518924</v>
       </c>
       <c r="C85" t="n">
-        <v>-3468703798</v>
+        <v>4284938892</v>
       </c>
       <c r="D85" t="n">
-        <v>-25268446</v>
+        <v>1784911893</v>
       </c>
       <c r="E85" t="n">
-        <v>4285280876</v>
+        <v>-112481794</v>
       </c>
       <c r="F85" t="n">
-        <v>1778342574</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-117515289</v>
-      </c>
+        <v>-280153895</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-292164672</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1151576478</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1017402520</v>
+      </c>
       <c r="J85" t="n">
-        <v>1146239354</v>
+        <v>-1036524234</v>
       </c>
       <c r="K85" t="n">
-        <v>1019395523</v>
+        <v>-1242987657</v>
       </c>
       <c r="L85" t="n">
-        <v>-1033240265</v>
+        <v>-886518323</v>
       </c>
       <c r="M85" t="n">
-        <v>-1239975034</v>
+        <v>-1614208014</v>
       </c>
       <c r="N85" t="n">
-        <v>-889526098</v>
-      </c>
-      <c r="O85" t="n">
-        <v>-1617318833</v>
+        <v>-1141224077</v>
       </c>
     </row>
     <row r="86">
@@ -4469,44 +4184,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>140636284</v>
+        <v>198034750</v>
       </c>
       <c r="C86" t="n">
-        <v>57842422</v>
+        <v>-59082390</v>
       </c>
       <c r="D86" t="n">
-        <v>203283954</v>
+        <v>31355861</v>
       </c>
       <c r="E86" t="n">
-        <v>-58790949</v>
+        <v>-180036521</v>
       </c>
       <c r="F86" t="n">
-        <v>10568254</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-192687348</v>
-      </c>
+        <v>148522715</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>110904718</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>423728069</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1059629006</v>
+      </c>
       <c r="J86" t="n">
-        <v>363082061</v>
+        <v>1361828623</v>
       </c>
       <c r="K86" t="n">
-        <v>1035420000</v>
+        <v>884776823</v>
       </c>
       <c r="L86" t="n">
-        <v>1341475309</v>
+        <v>121385125</v>
       </c>
       <c r="M86" t="n">
-        <v>908679826</v>
+        <v>223427197</v>
       </c>
       <c r="N86" t="n">
-        <v>104459099</v>
-      </c>
-      <c r="O86" t="n">
-        <v>227509434</v>
+        <v>272088106</v>
       </c>
     </row>
     <row r="87">
@@ -4516,44 +4228,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-616818039</v>
+        <v>275397563</v>
       </c>
       <c r="C87" t="n">
-        <v>-134419615</v>
+        <v>307953111</v>
       </c>
       <c r="D87" t="n">
-        <v>275397563</v>
+        <v>306575161</v>
       </c>
       <c r="E87" t="n">
-        <v>307953111</v>
+        <v>-115022147</v>
       </c>
       <c r="F87" t="n">
-        <v>306575161</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-115022147</v>
-      </c>
+        <v>685583295</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>685583295</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>958730121</v>
+      </c>
+      <c r="I87" t="n">
+        <v>646463868</v>
+      </c>
       <c r="J87" t="n">
-        <v>43105653</v>
+        <v>318003368</v>
       </c>
       <c r="K87" t="n">
-        <v>22168961</v>
+        <v>194305928</v>
       </c>
       <c r="L87" t="n">
-        <v>23456005</v>
+        <v>423202594</v>
       </c>
       <c r="M87" t="n">
-        <v>25963121</v>
+        <v>323794248</v>
       </c>
       <c r="N87" t="n">
-        <v>44192898</v>
-      </c>
-      <c r="O87" t="n">
-        <v>29723999</v>
+        <v>944715899</v>
       </c>
     </row>
     <row r="88">
@@ -4563,44 +4272,41 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-343307466</v>
+        <v>8752233</v>
       </c>
       <c r="C88" t="n">
-        <v>-386670317</v>
+        <v>-54306325</v>
       </c>
       <c r="D88" t="n">
-        <v>3503029</v>
+        <v>199411703</v>
       </c>
       <c r="E88" t="n">
-        <v>-54597766</v>
+        <v>30942234</v>
       </c>
       <c r="F88" t="n">
-        <v>220199310</v>
-      </c>
-      <c r="G88" t="n">
-        <v>43593061</v>
-      </c>
+        <v>447244856</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>484862853</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>793563019</v>
+      </c>
+      <c r="I88" t="n">
+        <v>450670566</v>
+      </c>
       <c r="J88" t="n">
-        <v>854209027</v>
+        <v>331700860</v>
       </c>
       <c r="K88" t="n">
-        <v>474879572</v>
+        <v>-387381816</v>
       </c>
       <c r="L88" t="n">
-        <v>352054174</v>
+        <v>-35139249</v>
       </c>
       <c r="M88" t="n">
-        <v>-411284819</v>
+        <v>-199303673</v>
       </c>
       <c r="N88" t="n">
-        <v>-18213223</v>
-      </c>
-      <c r="O88" t="n">
-        <v>-203385910</v>
+        <v>226316728</v>
       </c>
     </row>
     <row r="89">
@@ -4610,44 +4316,41 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-372391479</v>
+        <v>1197807023</v>
       </c>
       <c r="C89" t="n">
-        <v>-1296614560</v>
+        <v>2340760064</v>
       </c>
       <c r="D89" t="n">
-        <v>645212652</v>
+        <v>7263529513</v>
       </c>
       <c r="E89" t="n">
-        <v>2446080687</v>
+        <v>6470432578</v>
       </c>
       <c r="F89" t="n">
-        <v>6484008634</v>
-      </c>
-      <c r="G89" t="n">
-        <v>5328522431</v>
-      </c>
+        <v>665541112</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-585157544</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>-6108551218</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-7154195426</v>
+      </c>
       <c r="J89" t="n">
-        <v>-6378478230</v>
+        <v>-1996550122</v>
       </c>
       <c r="K89" t="n">
-        <v>-7514770001</v>
+        <v>-942514770</v>
       </c>
       <c r="L89" t="n">
-        <v>-2383091390</v>
+        <v>4119906625</v>
       </c>
       <c r="M89" t="n">
-        <v>-475369195</v>
+        <v>-784553097</v>
       </c>
       <c r="N89" t="n">
-        <v>4302467157</v>
-      </c>
-      <c r="O89" t="n">
-        <v>-532274240</v>
+        <v>2097476103</v>
       </c>
     </row>
     <row r="90">
@@ -4657,44 +4360,41 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-189068524</v>
+        <v>650449</v>
       </c>
       <c r="C90" t="n">
-        <v>-254442709</v>
+        <v>948079</v>
       </c>
       <c r="D90" t="n">
-        <v>-94317233</v>
+        <v>4531686</v>
       </c>
       <c r="E90" t="n">
-        <v>-20379399</v>
+        <v>4478655</v>
       </c>
       <c r="F90" t="n">
-        <v>220460178</v>
-      </c>
-      <c r="G90" t="n">
-        <v>269645408</v>
-      </c>
+        <v>5181314</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>413284475</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>3935276</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1437024</v>
+      </c>
       <c r="J90" t="n">
-        <v>169319659</v>
+        <v>517051</v>
       </c>
       <c r="K90" t="n">
-        <v>-134528022</v>
+        <v>-2843108</v>
       </c>
       <c r="L90" t="n">
-        <v>-240764443</v>
+        <v>-959028</v>
       </c>
       <c r="M90" t="n">
-        <v>-135672249</v>
+        <v>-2220547</v>
       </c>
       <c r="N90" t="n">
-        <v>137964282</v>
-      </c>
-      <c r="O90" t="n">
-        <v>219677848</v>
+        <v>-5066385</v>
       </c>
     </row>
     <row r="91">
@@ -4704,44 +4404,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-605679263</v>
+        <v>-878843865</v>
       </c>
       <c r="C91" t="n">
-        <v>-782481318</v>
+        <v>711638801</v>
       </c>
       <c r="D91" t="n">
-        <v>-231281812</v>
+        <v>2502511604</v>
       </c>
       <c r="E91" t="n">
-        <v>627645656</v>
+        <v>3884868138</v>
       </c>
       <c r="F91" t="n">
-        <v>3066103991</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4761611532</v>
-      </c>
+        <v>3746256167</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>4588851662</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>3971250813</v>
+      </c>
+      <c r="I91" t="n">
+        <v>363581640</v>
+      </c>
       <c r="J91" t="n">
-        <v>4181705823</v>
+        <v>59374473</v>
       </c>
       <c r="K91" t="n">
-        <v>786102720</v>
+        <v>-836183149</v>
       </c>
       <c r="L91" t="n">
-        <v>600546142</v>
+        <v>1911028787</v>
       </c>
       <c r="M91" t="n">
-        <v>-1151884547</v>
+        <v>1199407681</v>
       </c>
       <c r="N91" t="n">
-        <v>1741143815</v>
-      </c>
-      <c r="O91" t="n">
-        <v>853549532</v>
+        <v>1250884447</v>
       </c>
     </row>
     <row r="92">
@@ -4751,44 +4448,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>116858774</v>
+        <v>3758861880</v>
       </c>
       <c r="C92" t="n">
-        <v>-5432103992</v>
+        <v>4653906416</v>
       </c>
       <c r="D92" t="n">
-        <v>3856614737</v>
+        <v>26385928949</v>
       </c>
       <c r="E92" t="n">
-        <v>4303437163</v>
+        <v>12883985715</v>
       </c>
       <c r="F92" t="n">
-        <v>25702452213</v>
-      </c>
-      <c r="G92" t="n">
-        <v>12172370300</v>
-      </c>
+        <v>22242006007</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>21327983889</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>21233614623</v>
+      </c>
+      <c r="I92" t="n">
+        <v>28394642094</v>
+      </c>
       <c r="J92" t="n">
-        <v>20494122583</v>
+        <v>36936951466</v>
       </c>
       <c r="K92" t="n">
-        <v>28263895941</v>
+        <v>21452088858</v>
       </c>
       <c r="L92" t="n">
-        <v>36569755237</v>
+        <v>40272393866</v>
       </c>
       <c r="M92" t="n">
-        <v>21795924875</v>
+        <v>35615284325</v>
       </c>
       <c r="N92" t="n">
-        <v>39075101858</v>
-      </c>
-      <c r="O92" t="n">
-        <v>35490004674</v>
+        <v>35008322804</v>
       </c>
     </row>
     <row r="93">
@@ -4798,44 +4492,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-8124149833</v>
+        <v>320019205</v>
       </c>
       <c r="C93" t="n">
-        <v>-9888143809</v>
+        <v>3349514285</v>
       </c>
       <c r="D93" t="n">
-        <v>338227384</v>
+        <v>12349816389</v>
       </c>
       <c r="E93" t="n">
-        <v>3399318344</v>
+        <v>11680572186</v>
       </c>
       <c r="F93" t="n">
-        <v>12406630832</v>
-      </c>
-      <c r="G93" t="n">
-        <v>11727733541</v>
-      </c>
+        <v>19928547913</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>19950452588</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>14871968891</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-431022740</v>
+      </c>
       <c r="J93" t="n">
-        <v>14869543523</v>
+        <v>-4546537899</v>
       </c>
       <c r="K93" t="n">
-        <v>-442912592</v>
+        <v>-5361971752</v>
       </c>
       <c r="L93" t="n">
-        <v>-4586346873</v>
+        <v>7546258886</v>
       </c>
       <c r="M93" t="n">
-        <v>-5406212128</v>
+        <v>11032127423</v>
       </c>
       <c r="N93" t="n">
-        <v>7515847729</v>
-      </c>
-      <c r="O93" t="n">
-        <v>11019372899</v>
+        <v>19049297353</v>
       </c>
     </row>
     <row r="94">
@@ -4845,44 +4536,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-7948662858</v>
+        <v>1311300412</v>
       </c>
       <c r="C94" t="n">
-        <v>-4601043583</v>
+        <v>5557989454</v>
       </c>
       <c r="D94" t="n">
-        <v>1239223501</v>
+        <v>10603790843</v>
       </c>
       <c r="E94" t="n">
-        <v>5775594031</v>
+        <v>10795420261</v>
       </c>
       <c r="F94" t="n">
-        <v>10957954514</v>
-      </c>
-      <c r="G94" t="n">
-        <v>11199713162</v>
-      </c>
+        <v>10673101398</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>11216501863</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>10333865597</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2001129263</v>
+      </c>
       <c r="J94" t="n">
-        <v>10964282423</v>
+        <v>1016753452</v>
       </c>
       <c r="K94" t="n">
-        <v>2242159858</v>
+        <v>-6533266925</v>
       </c>
       <c r="L94" t="n">
-        <v>1265162734</v>
+        <v>1994242238</v>
       </c>
       <c r="M94" t="n">
-        <v>-6453775163</v>
+        <v>1306237600</v>
       </c>
       <c r="N94" t="n">
-        <v>2685661465</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1560713463</v>
+        <v>4918460966</v>
       </c>
     </row>
     <row r="95">
@@ -4892,44 +4580,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-5098326802</v>
+        <v>3647396626</v>
       </c>
       <c r="C95" t="n">
-        <v>-222525080</v>
+        <v>8510626419</v>
       </c>
       <c r="D95" t="n">
-        <v>3631133667</v>
+        <v>5881142460</v>
       </c>
       <c r="E95" t="n">
-        <v>8233409698</v>
+        <v>4343833160</v>
       </c>
       <c r="F95" t="n">
-        <v>5359517882</v>
-      </c>
-      <c r="G95" t="n">
-        <v>3418193663</v>
-      </c>
+        <v>9226196380</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>7785350549</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>17169589894</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11399708754</v>
+      </c>
       <c r="J95" t="n">
-        <v>14294186962</v>
+        <v>13744312256</v>
       </c>
       <c r="K95" t="n">
-        <v>9588529928</v>
+        <v>-3571261955</v>
       </c>
       <c r="L95" t="n">
-        <v>11993013132</v>
+        <v>4405868946</v>
       </c>
       <c r="M95" t="n">
-        <v>-3428199496</v>
+        <v>2147145635</v>
       </c>
       <c r="N95" t="n">
-        <v>3859417327</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1768564785</v>
+        <v>15050032163</v>
       </c>
     </row>
     <row r="96">
@@ -4939,44 +4624,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-2242958965</v>
+        <v>-646914845</v>
       </c>
       <c r="C96" t="n">
-        <v>-4103826970</v>
+        <v>-646138906</v>
       </c>
       <c r="D96" t="n">
-        <v>-1875348496</v>
+        <v>1335802875</v>
       </c>
       <c r="E96" t="n">
-        <v>623361268</v>
+        <v>957938816</v>
       </c>
       <c r="F96" t="n">
-        <v>4898230573</v>
-      </c>
-      <c r="G96" t="n">
-        <v>4638642444</v>
-      </c>
+        <v>3125677689</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>7824251869</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>3914250959</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2478604180</v>
+      </c>
       <c r="J96" t="n">
-        <v>9420369978</v>
+        <v>2533556484</v>
       </c>
       <c r="K96" t="n">
-        <v>4625133483</v>
+        <v>-428497820</v>
       </c>
       <c r="L96" t="n">
-        <v>961921104</v>
+        <v>-249091992</v>
       </c>
       <c r="M96" t="n">
-        <v>-4895398850</v>
+        <v>-2039378435</v>
       </c>
       <c r="N96" t="n">
-        <v>-2978107433</v>
-      </c>
-      <c r="O96" t="n">
-        <v>-2254939922</v>
+        <v>-223505363</v>
       </c>
     </row>
     <row r="97">
@@ -4986,44 +4668,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-5489390004</v>
+        <v>-2894117272</v>
       </c>
       <c r="C97" t="n">
-        <v>-6208793650</v>
+        <v>1726744095</v>
       </c>
       <c r="D97" t="n">
-        <v>-1633213175</v>
+        <v>7151820534</v>
       </c>
       <c r="E97" t="n">
-        <v>724099393</v>
+        <v>5822839471</v>
       </c>
       <c r="F97" t="n">
-        <v>4075711339</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3036023361</v>
-      </c>
+        <v>10991307159</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>7679762886</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>19512534576</v>
+      </c>
+      <c r="I97" t="n">
+        <v>32702824678</v>
+      </c>
       <c r="J97" t="n">
-        <v>16776103557</v>
+        <v>23289381350</v>
       </c>
       <c r="K97" t="n">
-        <v>32309296877</v>
+        <v>8889290763</v>
       </c>
       <c r="L97" t="n">
-        <v>26565724569</v>
+        <v>-5716573928</v>
       </c>
       <c r="M97" t="n">
-        <v>13238414055</v>
+        <v>-1375488353</v>
       </c>
       <c r="N97" t="n">
-        <v>-2466258888</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-857028455</v>
+        <v>10676929507</v>
       </c>
     </row>
     <row r="98">
@@ -5033,44 +4712,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-4203652953</v>
+        <v>-8843655783</v>
       </c>
       <c r="C98" t="n">
-        <v>-13104273859</v>
+        <v>4481057355</v>
       </c>
       <c r="D98" t="n">
-        <v>-6716603382</v>
+        <v>34020982076</v>
       </c>
       <c r="E98" t="n">
-        <v>-235953148</v>
+        <v>24712701829</v>
       </c>
       <c r="F98" t="n">
-        <v>19493072333</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8640961040</v>
-      </c>
+        <v>24313889013</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>15250101291</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>23838164709</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7166308435</v>
+      </c>
       <c r="J98" t="n">
-        <v>15365841050</v>
+        <v>16873154648</v>
       </c>
       <c r="K98" t="n">
-        <v>8488610888</v>
+        <v>1087800789</v>
       </c>
       <c r="L98" t="n">
-        <v>12264465335</v>
+        <v>26909046797</v>
       </c>
       <c r="M98" t="n">
-        <v>-753544330</v>
+        <v>29601653748</v>
       </c>
       <c r="N98" t="n">
-        <v>15906730860</v>
-      </c>
-      <c r="O98" t="n">
-        <v>18818932601</v>
+        <v>42964279443</v>
       </c>
     </row>
     <row r="99">
@@ -5080,44 +4756,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1732637889</v>
+        <v>-1082724332</v>
       </c>
       <c r="C99" t="n">
-        <v>-2907635500</v>
+        <v>208428737</v>
       </c>
       <c r="D99" t="n">
-        <v>-481708775</v>
+        <v>3106421248</v>
       </c>
       <c r="E99" t="n">
-        <v>1207467363</v>
+        <v>2856027923</v>
       </c>
       <c r="F99" t="n">
-        <v>5210542328</v>
-      </c>
-      <c r="G99" t="n">
-        <v>4554301491</v>
-      </c>
+        <v>4477781526</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>5683666210</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>3150997359</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-26668068</v>
+      </c>
       <c r="J99" t="n">
-        <v>4578606283</v>
+        <v>82422619</v>
       </c>
       <c r="K99" t="n">
-        <v>513193153</v>
+        <v>-1026027020</v>
       </c>
       <c r="L99" t="n">
-        <v>733852700</v>
+        <v>1993986118</v>
       </c>
       <c r="M99" t="n">
-        <v>-1076414230</v>
+        <v>1053270645</v>
       </c>
       <c r="N99" t="n">
-        <v>2795728062</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1239578067</v>
+        <v>3460570849</v>
       </c>
     </row>
     <row r="100">
@@ -5127,44 +4800,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16045391668</v>
+        <v>296673788</v>
       </c>
       <c r="C100" t="n">
-        <v>-11747150396</v>
+        <v>-4122574827</v>
       </c>
       <c r="D100" t="n">
-        <v>-2431659518</v>
+        <v>18975276043</v>
       </c>
       <c r="E100" t="n">
-        <v>-405144217</v>
+        <v>12481783545</v>
       </c>
       <c r="F100" t="n">
-        <v>31399513162</v>
-      </c>
-      <c r="G100" t="n">
-        <v>26855572245</v>
-      </c>
+        <v>19603313626</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>27461053035</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>25914782531</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4517827194</v>
+      </c>
       <c r="J100" t="n">
-        <v>32960256104</v>
+        <v>15849412980</v>
       </c>
       <c r="K100" t="n">
-        <v>2655079102</v>
+        <v>-11657044884</v>
       </c>
       <c r="L100" t="n">
-        <v>19805979636</v>
+        <v>3502882312</v>
       </c>
       <c r="M100" t="n">
-        <v>-9766216621</v>
+        <v>-3202562886</v>
       </c>
       <c r="N100" t="n">
-        <v>13702754822</v>
-      </c>
-      <c r="O100" t="n">
-        <v>7394193851</v>
+        <v>19186884990</v>
       </c>
     </row>
     <row r="101">
@@ -5174,44 +4844,41 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-2198945969</v>
+        <v>2271396605</v>
       </c>
       <c r="C101" t="n">
-        <v>76029482</v>
+        <v>2235105743</v>
       </c>
       <c r="D101" t="n">
-        <v>2270119584</v>
+        <v>-363975113</v>
       </c>
       <c r="E101" t="n">
-        <v>2240795152</v>
+        <v>-1209013927</v>
       </c>
       <c r="F101" t="n">
-        <v>-356664786</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1201899044</v>
-      </c>
+        <v>-1396733623</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-1388251925</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>728693269</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4010468708</v>
+      </c>
       <c r="J101" t="n">
-        <v>717841610</v>
+        <v>3121829644</v>
       </c>
       <c r="K101" t="n">
-        <v>3940027462</v>
+        <v>1986760999</v>
       </c>
       <c r="L101" t="n">
-        <v>3060422608</v>
+        <v>-2586337143</v>
       </c>
       <c r="M101" t="n">
-        <v>1946671333</v>
+        <v>440449349</v>
       </c>
       <c r="N101" t="n">
-        <v>-2571501829</v>
-      </c>
-      <c r="O101" t="n">
-        <v>428394482</v>
+        <v>-374445961</v>
       </c>
     </row>
     <row r="102">
@@ -5221,44 +4888,41 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-105695588</v>
+        <v>-26932735</v>
       </c>
       <c r="C102" t="n">
-        <v>-103331099</v>
+        <v>15382044</v>
       </c>
       <c r="D102" t="n">
-        <v>-45204328</v>
+        <v>99692263</v>
       </c>
       <c r="E102" t="n">
-        <v>-8744798</v>
+        <v>-44330281</v>
       </c>
       <c r="F102" t="n">
-        <v>73311034</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-61111098</v>
-      </c>
+        <v>94147781</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>55052546</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>214058889</v>
+      </c>
+      <c r="I102" t="n">
+        <v>975011121</v>
+      </c>
       <c r="J102" t="n">
-        <v>157274045</v>
+        <v>819964081</v>
       </c>
       <c r="K102" t="n">
-        <v>732501571</v>
+        <v>614869931</v>
       </c>
       <c r="L102" t="n">
-        <v>674935717</v>
+        <v>-168600821</v>
       </c>
       <c r="M102" t="n">
-        <v>431475307</v>
+        <v>-109149729</v>
       </c>
       <c r="N102" t="n">
-        <v>-129458831</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-185291759</v>
+        <v>-213407450</v>
       </c>
     </row>
     <row r="103">
@@ -5268,44 +4932,41 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>14526324</v>
+        <v>30896866</v>
       </c>
       <c r="C103" t="n">
-        <v>3140141</v>
+        <v>27915309</v>
       </c>
       <c r="D103" t="n">
-        <v>50445480</v>
+        <v>27672645</v>
       </c>
       <c r="E103" t="n">
-        <v>46352742</v>
+        <v>6969157</v>
       </c>
       <c r="F103" t="n">
-        <v>46743547</v>
-      </c>
-      <c r="G103" t="n">
-        <v>16635091</v>
-      </c>
+        <v>14865100</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>45478637</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>50671095</v>
+      </c>
+      <c r="I103" t="n">
+        <v>494349176</v>
+      </c>
       <c r="J103" t="n">
-        <v>118307598</v>
+        <v>348282511</v>
       </c>
       <c r="K103" t="n">
-        <v>807299972</v>
+        <v>425522809</v>
       </c>
       <c r="L103" t="n">
-        <v>554717911</v>
+        <v>-80977180</v>
       </c>
       <c r="M103" t="n">
-        <v>649007099</v>
+        <v>-27142573</v>
       </c>
       <c r="N103" t="n">
-        <v>-134954484</v>
-      </c>
-      <c r="O103" t="n">
-        <v>61054324</v>
+        <v>-171494276</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2288841711</v>
+        <v>4696673818</v>
       </c>
       <c r="C2" t="n">
-        <v>4760206284</v>
+        <v>12731627226</v>
       </c>
       <c r="D2" t="n">
-        <v>12634520499</v>
+        <v>8321731898</v>
       </c>
       <c r="E2" t="n">
-        <v>8257471752</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6624360659</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>7076680223</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>-629608521</v>
+      </c>
       <c r="H2" t="n">
-        <v>-1265521466</v>
+        <v>-3817680372</v>
       </c>
       <c r="I2" t="n">
-        <v>-4169959346</v>
+        <v>-5361098752</v>
       </c>
       <c r="J2" t="n">
-        <v>-5480760280</v>
+        <v>-5092823348</v>
       </c>
       <c r="K2" t="n">
-        <v>-5009946423</v>
+        <v>3369338225</v>
       </c>
       <c r="L2" t="n">
-        <v>3151409937</v>
+        <v>3897067103</v>
       </c>
       <c r="M2" t="n">
-        <v>3587992935</v>
+        <v>15017740970</v>
       </c>
       <c r="N2" t="n">
-        <v>14391101547</v>
+        <v>22007357193</v>
       </c>
     </row>
     <row r="3">
@@ -556,41 +556,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84904835</v>
+        <v>-133232760</v>
       </c>
       <c r="C3" t="n">
-        <v>-114667863</v>
+        <v>4542151338</v>
       </c>
       <c r="D3" t="n">
-        <v>4603952485</v>
+        <v>583540651</v>
       </c>
       <c r="E3" t="n">
-        <v>654034602</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3985765309</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>3914154616</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>-1506036880</v>
+      </c>
       <c r="H3" t="n">
-        <v>-1404826821</v>
+        <v>-2661771589</v>
       </c>
       <c r="I3" t="n">
-        <v>-2617455066</v>
+        <v>-5215023169</v>
       </c>
       <c r="J3" t="n">
-        <v>-5177858643</v>
+        <v>-4507099788</v>
       </c>
       <c r="K3" t="n">
-        <v>-4530837263</v>
+        <v>-875213697</v>
       </c>
       <c r="L3" t="n">
-        <v>-851300139</v>
+        <v>1575274863</v>
       </c>
       <c r="M3" t="n">
-        <v>1601634713</v>
+        <v>4112394934</v>
       </c>
       <c r="N3" t="n">
-        <v>4185302144</v>
+        <v>6531302541</v>
       </c>
     </row>
     <row r="4">
@@ -600,41 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1662139561</v>
+        <v>-2542407870</v>
       </c>
       <c r="C4" t="n">
-        <v>-2560973809</v>
+        <v>-1263737488</v>
       </c>
       <c r="D4" t="n">
-        <v>-1325515907</v>
+        <v>-1734680518</v>
       </c>
       <c r="E4" t="n">
-        <v>-1805157500</v>
-      </c>
-      <c r="F4" t="n">
-        <v>302730930</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>374323023</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>995918659</v>
+      </c>
       <c r="H4" t="n">
-        <v>820661817</v>
+        <v>-1192568784</v>
       </c>
       <c r="I4" t="n">
-        <v>-1295965902</v>
+        <v>-1300622928</v>
       </c>
       <c r="J4" t="n">
-        <v>-1325476833</v>
+        <v>-153045692</v>
       </c>
       <c r="K4" t="n">
-        <v>-130638472</v>
+        <v>2633410887</v>
       </c>
       <c r="L4" t="n">
-        <v>2500151319</v>
+        <v>894952644</v>
       </c>
       <c r="M4" t="n">
-        <v>783646234</v>
+        <v>1387614687</v>
       </c>
       <c r="N4" t="n">
-        <v>1247658406</v>
+        <v>1183302074</v>
       </c>
     </row>
     <row r="5">
@@ -644,41 +644,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-349041044</v>
+        <v>-343489546</v>
       </c>
       <c r="C5" t="n">
-        <v>-343933891</v>
+        <v>140276473</v>
       </c>
       <c r="D5" t="n">
-        <v>140791599</v>
+        <v>284881633</v>
       </c>
       <c r="E5" t="n">
-        <v>284652812</v>
-      </c>
-      <c r="F5" t="n">
-        <v>309553961</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>308480889</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>57541950</v>
+      </c>
       <c r="H5" t="n">
-        <v>58842406</v>
+        <v>-303550296</v>
       </c>
       <c r="I5" t="n">
-        <v>-302852960</v>
+        <v>-355449603</v>
       </c>
       <c r="J5" t="n">
-        <v>-354607601</v>
+        <v>428170508</v>
       </c>
       <c r="K5" t="n">
-        <v>429329439</v>
+        <v>1958835628</v>
       </c>
       <c r="L5" t="n">
-        <v>1967466250</v>
+        <v>2850356796</v>
       </c>
       <c r="M5" t="n">
-        <v>2858213183</v>
+        <v>1339759013</v>
       </c>
       <c r="N5" t="n">
-        <v>1351508811</v>
+        <v>121703135</v>
       </c>
     </row>
     <row r="6">
@@ -688,41 +688,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967431775</v>
+        <v>3776306462</v>
       </c>
       <c r="C6" t="n">
-        <v>3776353117</v>
+        <v>4926445580</v>
       </c>
       <c r="D6" t="n">
-        <v>4926691825</v>
+        <v>2300039548</v>
       </c>
       <c r="E6" t="n">
-        <v>2300214381</v>
-      </c>
-      <c r="F6" t="n">
-        <v>663198506</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>663041383</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1628965598</v>
+      </c>
       <c r="H6" t="n">
-        <v>1629104520</v>
+        <v>274193270</v>
       </c>
       <c r="I6" t="n">
-        <v>274098414</v>
+        <v>1184415679</v>
       </c>
       <c r="J6" t="n">
-        <v>1184522784</v>
+        <v>-821349864</v>
       </c>
       <c r="K6" t="n">
-        <v>-821434930</v>
+        <v>324257239</v>
       </c>
       <c r="L6" t="n">
-        <v>324343071</v>
+        <v>-137659369</v>
       </c>
       <c r="M6" t="n">
-        <v>-137869702</v>
+        <v>1536747572</v>
       </c>
       <c r="N6" t="n">
-        <v>1536568199</v>
+        <v>1438154268</v>
       </c>
     </row>
     <row r="7">
@@ -732,41 +732,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-250075824</v>
+        <v>384371869</v>
       </c>
       <c r="C7" t="n">
-        <v>384816163</v>
+        <v>1509113025</v>
       </c>
       <c r="D7" t="n">
-        <v>1508598419</v>
+        <v>1292402937</v>
       </c>
       <c r="E7" t="n">
-        <v>1292632262</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1974639940</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>1975713077</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1368159403</v>
+      </c>
       <c r="H7" t="n">
-        <v>1366857042</v>
+        <v>432069112</v>
       </c>
       <c r="I7" t="n">
-        <v>431370845</v>
+        <v>265580104</v>
       </c>
       <c r="J7" t="n">
-        <v>264737589</v>
+        <v>-590846466</v>
       </c>
       <c r="K7" t="n">
-        <v>-592004057</v>
+        <v>1007814824</v>
       </c>
       <c r="L7" t="n">
-        <v>999186040</v>
+        <v>1377064943</v>
       </c>
       <c r="M7" t="n">
-        <v>1369221935</v>
+        <v>2033524182</v>
       </c>
       <c r="N7" t="n">
-        <v>2021789746</v>
+        <v>1369591125</v>
       </c>
     </row>
     <row r="8">
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>459257964</v>
+        <v>10943946867</v>
       </c>
       <c r="C8" t="n">
-        <v>10941385358</v>
+        <v>17028849263</v>
       </c>
       <c r="D8" t="n">
-        <v>17027029218</v>
+        <v>8722922310</v>
       </c>
       <c r="E8" t="n">
-        <v>8720214100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10946695218</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>10947992662</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>23333342804</v>
+      </c>
       <c r="H8" t="n">
-        <v>23330994536</v>
+        <v>14571772805</v>
       </c>
       <c r="I8" t="n">
-        <v>14570645011</v>
+        <v>3100306028</v>
       </c>
       <c r="J8" t="n">
-        <v>3100361319</v>
+        <v>-15791542384</v>
       </c>
       <c r="K8" t="n">
-        <v>-15789077890</v>
+        <v>-3030155071</v>
       </c>
       <c r="L8" t="n">
-        <v>-3029829674</v>
+        <v>8693333007</v>
       </c>
       <c r="M8" t="n">
-        <v>8692596479</v>
+        <v>17332100024</v>
       </c>
       <c r="N8" t="n">
-        <v>17329491160</v>
+        <v>22010627758</v>
       </c>
     </row>
     <row r="9">
@@ -820,41 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51420330</v>
+        <v>-302196976</v>
       </c>
       <c r="C9" t="n">
-        <v>-302189075</v>
+        <v>365523007</v>
       </c>
       <c r="D9" t="n">
-        <v>365510674</v>
+        <v>290190215</v>
       </c>
       <c r="E9" t="n">
-        <v>290178394</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1189166149</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1189178691</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1093411360</v>
+      </c>
       <c r="H9" t="n">
-        <v>1093400236</v>
+        <v>511690819</v>
       </c>
       <c r="I9" t="n">
-        <v>511692765</v>
+        <v>-57393619</v>
       </c>
       <c r="J9" t="n">
-        <v>-57397690</v>
+        <v>-737690080</v>
       </c>
       <c r="K9" t="n">
-        <v>-737682404</v>
+        <v>-270945391</v>
       </c>
       <c r="L9" t="n">
-        <v>-270948973</v>
+        <v>-322556370</v>
       </c>
       <c r="M9" t="n">
-        <v>-322568007</v>
+        <v>-208905998</v>
       </c>
       <c r="N9" t="n">
-        <v>-208955596</v>
+        <v>-561290669</v>
       </c>
     </row>
     <row r="10">
@@ -864,41 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6935323156</v>
+        <v>-3349695737</v>
       </c>
       <c r="C10" t="n">
-        <v>-3347142129</v>
+        <v>12548443002</v>
       </c>
       <c r="D10" t="n">
-        <v>12550275380</v>
+        <v>9825798273</v>
       </c>
       <c r="E10" t="n">
-        <v>9828518304</v>
-      </c>
-      <c r="F10" t="n">
-        <v>23885958958</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>23884648972</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>24573231694</v>
+      </c>
       <c r="H10" t="n">
-        <v>24575591086</v>
+        <v>5558967953</v>
       </c>
       <c r="I10" t="n">
-        <v>5560093801</v>
+        <v>6950384466</v>
       </c>
       <c r="J10" t="n">
-        <v>6950333246</v>
+        <v>-9969483239</v>
       </c>
       <c r="K10" t="n">
-        <v>-9971955409</v>
+        <v>6686291810</v>
       </c>
       <c r="L10" t="n">
-        <v>6685969995</v>
+        <v>1555147849</v>
       </c>
       <c r="M10" t="n">
-        <v>1555896014</v>
+        <v>18534853793</v>
       </c>
       <c r="N10" t="n">
-        <v>18537512255</v>
+        <v>28713531100</v>
       </c>
     </row>
     <row r="11">
@@ -908,41 +908,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173741803</v>
+        <v>407611008</v>
       </c>
       <c r="C11" t="n">
-        <v>407611008</v>
+        <v>182739484</v>
       </c>
       <c r="D11" t="n">
-        <v>182739484</v>
+        <v>15240401</v>
       </c>
       <c r="E11" t="n">
-        <v>15240401</v>
-      </c>
-      <c r="F11" t="n">
         <v>260514333</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>402361687</v>
+      </c>
       <c r="H11" t="n">
-        <v>402361687</v>
+        <v>140462713</v>
       </c>
       <c r="I11" t="n">
-        <v>140462713</v>
+        <v>92759037</v>
       </c>
       <c r="J11" t="n">
-        <v>92759037</v>
+        <v>-229810430</v>
       </c>
       <c r="K11" t="n">
-        <v>-229810430</v>
+        <v>34537341</v>
       </c>
       <c r="L11" t="n">
-        <v>34537341</v>
+        <v>-133188436</v>
       </c>
       <c r="M11" t="n">
-        <v>-133188436</v>
+        <v>165663362</v>
       </c>
       <c r="N11" t="n">
-        <v>165663362</v>
+        <v>-134115520</v>
       </c>
     </row>
     <row r="12">
@@ -952,41 +952,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249406745</v>
+        <v>366624488</v>
       </c>
       <c r="C12" t="n">
-        <v>366624488</v>
+        <v>473895899</v>
       </c>
       <c r="D12" t="n">
-        <v>473895899</v>
+        <v>366724038</v>
       </c>
       <c r="E12" t="n">
-        <v>366724038</v>
-      </c>
-      <c r="F12" t="n">
         <v>613286041</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>921034893</v>
+      </c>
       <c r="H12" t="n">
-        <v>921034893</v>
+        <v>2122630630</v>
       </c>
       <c r="I12" t="n">
-        <v>2122630630</v>
+        <v>1624122590</v>
       </c>
       <c r="J12" t="n">
-        <v>1624122590</v>
+        <v>928736790</v>
       </c>
       <c r="K12" t="n">
-        <v>928736790</v>
+        <v>-593960736</v>
       </c>
       <c r="L12" t="n">
-        <v>-593960736</v>
+        <v>-158977207</v>
       </c>
       <c r="M12" t="n">
-        <v>-158977207</v>
+        <v>-165764683</v>
       </c>
       <c r="N12" t="n">
-        <v>-165764683</v>
+        <v>112479992</v>
       </c>
     </row>
     <row r="13">
@@ -996,41 +996,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1618076095</v>
+        <v>27134975</v>
       </c>
       <c r="C13" t="n">
-        <v>1080316900</v>
+        <v>81412457</v>
       </c>
       <c r="D13" t="n">
-        <v>4128770901</v>
+        <v>98434638</v>
       </c>
       <c r="E13" t="n">
-        <v>3372993704</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4659809113</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>135245188</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>86495923</v>
+      </c>
       <c r="H13" t="n">
-        <v>2197461065</v>
+        <v>-73894903</v>
       </c>
       <c r="I13" t="n">
-        <v>-734918143</v>
+        <v>-2716560</v>
       </c>
       <c r="J13" t="n">
-        <v>-4445446081</v>
+        <v>26722564</v>
       </c>
       <c r="K13" t="n">
-        <v>-2703177204</v>
+        <v>104868996</v>
       </c>
       <c r="L13" t="n">
-        <v>424407268</v>
+        <v>80720917</v>
       </c>
       <c r="M13" t="n">
-        <v>2780462651</v>
+        <v>115490401</v>
       </c>
       <c r="N13" t="n">
-        <v>3276674213</v>
+        <v>195038459</v>
       </c>
     </row>
     <row r="14">
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-14530238610</v>
+        <v>-28677914692</v>
       </c>
       <c r="C14" t="n">
-        <v>-27673115011</v>
+        <v>72382678137</v>
       </c>
       <c r="D14" t="n">
-        <v>70914780898</v>
+        <v>38731504824</v>
       </c>
       <c r="E14" t="n">
-        <v>37001307999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>118079033070</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>120041464783</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>81822241687</v>
+      </c>
       <c r="H14" t="n">
-        <v>80550823244</v>
+        <v>-7417117492</v>
       </c>
       <c r="I14" t="n">
-        <v>-8753356574</v>
+        <v>-89732851278</v>
       </c>
       <c r="J14" t="n">
-        <v>-93123601594</v>
+        <v>-89553297328</v>
       </c>
       <c r="K14" t="n">
-        <v>-91241742908</v>
+        <v>-47430714353</v>
       </c>
       <c r="L14" t="n">
-        <v>-46555745607</v>
+        <v>53400764416</v>
       </c>
       <c r="M14" t="n">
-        <v>54601572926</v>
+        <v>61589556249</v>
       </c>
       <c r="N14" t="n">
-        <v>61123430112</v>
+        <v>149943822999</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3530007465</v>
+        <v>-9725380186</v>
       </c>
       <c r="C15" t="n">
-        <v>-9737815492</v>
+        <v>-13122284008</v>
       </c>
       <c r="D15" t="n">
-        <v>-13133268961</v>
+        <v>3361710395</v>
       </c>
       <c r="E15" t="n">
-        <v>3356370673</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24344873412</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>24351620254</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>16939793149</v>
+      </c>
       <c r="H15" t="n">
-        <v>16931093597</v>
+        <v>296793916</v>
       </c>
       <c r="I15" t="n">
-        <v>306513762</v>
+        <v>-4278966716</v>
       </c>
       <c r="J15" t="n">
-        <v>-4261669584</v>
+        <v>-2799346720</v>
       </c>
       <c r="K15" t="n">
-        <v>-2791647817</v>
+        <v>10052087902</v>
       </c>
       <c r="L15" t="n">
-        <v>10040821543</v>
+        <v>7471040463</v>
       </c>
       <c r="M15" t="n">
-        <v>7466078295</v>
+        <v>18604362866</v>
       </c>
       <c r="N15" t="n">
-        <v>18595061885</v>
+        <v>26867305735</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9493587893</v>
+        <v>-1076992230</v>
       </c>
       <c r="C16" t="n">
-        <v>-2214036303</v>
+        <v>18176759999</v>
       </c>
       <c r="D16" t="n">
-        <v>19921548436</v>
+        <v>8561633137</v>
       </c>
       <c r="E16" t="n">
-        <v>10270250184</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9393331796</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>7274191183</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>10147869589</v>
+      </c>
       <c r="H16" t="n">
-        <v>11190201078</v>
+        <v>-7787074470</v>
       </c>
       <c r="I16" t="n">
-        <v>-6695764401</v>
+        <v>-3428682927</v>
       </c>
       <c r="J16" t="n">
-        <v>-463121221</v>
+        <v>-21123838660</v>
       </c>
       <c r="K16" t="n">
-        <v>-19565496593</v>
+        <v>5897898415</v>
       </c>
       <c r="L16" t="n">
-        <v>5173356014</v>
+        <v>449299089</v>
       </c>
       <c r="M16" t="n">
-        <v>-326285436</v>
+        <v>20616721676</v>
       </c>
       <c r="N16" t="n">
-        <v>21622401839</v>
+        <v>27882870863</v>
       </c>
     </row>
     <row r="17">
@@ -1172,41 +1172,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49818190</v>
+        <v>147698736</v>
       </c>
       <c r="C17" t="n">
-        <v>147698736</v>
+        <v>165702690</v>
       </c>
       <c r="D17" t="n">
-        <v>165702690</v>
+        <v>83967171</v>
       </c>
       <c r="E17" t="n">
-        <v>83967171</v>
-      </c>
-      <c r="F17" t="n">
         <v>147522029</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>170062062</v>
+      </c>
       <c r="H17" t="n">
-        <v>170062062</v>
+        <v>105095664</v>
       </c>
       <c r="I17" t="n">
-        <v>105095664</v>
+        <v>46166765</v>
       </c>
       <c r="J17" t="n">
-        <v>46166765</v>
+        <v>21560480</v>
       </c>
       <c r="K17" t="n">
-        <v>21560480</v>
+        <v>45821490</v>
       </c>
       <c r="L17" t="n">
-        <v>45821490</v>
+        <v>74465181</v>
       </c>
       <c r="M17" t="n">
-        <v>74465181</v>
+        <v>-42432418</v>
       </c>
       <c r="N17" t="n">
-        <v>-42432418</v>
+        <v>-76431898</v>
       </c>
     </row>
     <row r="18">
@@ -1216,41 +1216,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>547463989</v>
+        <v>62157589</v>
       </c>
       <c r="C18" t="n">
-        <v>62157589</v>
+        <v>483669571</v>
       </c>
       <c r="D18" t="n">
-        <v>483669571</v>
+        <v>-739168190</v>
       </c>
       <c r="E18" t="n">
-        <v>-739168190</v>
-      </c>
-      <c r="F18" t="n">
         <v>1422585181</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>639693056</v>
+      </c>
       <c r="H18" t="n">
-        <v>639134789</v>
+        <v>3303082440</v>
       </c>
       <c r="I18" t="n">
-        <v>3321557527</v>
+        <v>2978436947</v>
       </c>
       <c r="J18" t="n">
-        <v>3000519310</v>
+        <v>3883827718</v>
       </c>
       <c r="K18" t="n">
-        <v>3887481353</v>
+        <v>230234648</v>
       </c>
       <c r="L18" t="n">
-        <v>172041674</v>
+        <v>625237267</v>
       </c>
       <c r="M18" t="n">
-        <v>486504565</v>
+        <v>613402448</v>
       </c>
       <c r="N18" t="n">
-        <v>526544271</v>
+        <v>444158535</v>
       </c>
     </row>
     <row r="19">
@@ -1260,41 +1260,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-20504950</v>
+        <v>16209431</v>
       </c>
       <c r="C19" t="n">
-        <v>16209431</v>
+        <v>55597326</v>
       </c>
       <c r="D19" t="n">
-        <v>55597326</v>
+        <v>67997149</v>
       </c>
       <c r="E19" t="n">
-        <v>67997149</v>
-      </c>
-      <c r="F19" t="n">
         <v>71565942</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>141284234</v>
+      </c>
       <c r="H19" t="n">
-        <v>141284234</v>
+        <v>88316084</v>
       </c>
       <c r="I19" t="n">
-        <v>88316084</v>
+        <v>66271884</v>
       </c>
       <c r="J19" t="n">
-        <v>66271884</v>
+        <v>13451373</v>
       </c>
       <c r="K19" t="n">
-        <v>13451373</v>
+        <v>51660228</v>
       </c>
       <c r="L19" t="n">
-        <v>51660228</v>
+        <v>51256689</v>
       </c>
       <c r="M19" t="n">
-        <v>51256689</v>
+        <v>18459335</v>
       </c>
       <c r="N19" t="n">
-        <v>18459335</v>
+        <v>28039005</v>
       </c>
     </row>
     <row r="20">
@@ -1304,41 +1304,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-21160543</v>
+        <v>49309247</v>
       </c>
       <c r="C20" t="n">
-        <v>49309766</v>
+        <v>42891391</v>
       </c>
       <c r="D20" t="n">
-        <v>42891737</v>
+        <v>31649593</v>
       </c>
       <c r="E20" t="n">
-        <v>31649148</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11327264</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>11327836</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>101341737</v>
+      </c>
       <c r="H20" t="n">
-        <v>101341506</v>
+        <v>180801998</v>
       </c>
       <c r="I20" t="n">
-        <v>180804158</v>
+        <v>215932154</v>
       </c>
       <c r="J20" t="n">
-        <v>215934037</v>
+        <v>151180332</v>
       </c>
       <c r="K20" t="n">
-        <v>151182128</v>
+        <v>26504371</v>
       </c>
       <c r="L20" t="n">
-        <v>26504298</v>
+        <v>-99414011</v>
       </c>
       <c r="M20" t="n">
-        <v>-99418133</v>
+        <v>-67812514</v>
       </c>
       <c r="N20" t="n">
-        <v>-67814888</v>
+        <v>-31032720</v>
       </c>
     </row>
     <row r="21">
@@ -1348,41 +1348,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-21778183</v>
+        <v>9644811</v>
       </c>
       <c r="C21" t="n">
-        <v>9644811</v>
+        <v>28642071</v>
       </c>
       <c r="D21" t="n">
-        <v>28642071</v>
+        <v>42008089</v>
       </c>
       <c r="E21" t="n">
-        <v>42008089</v>
-      </c>
-      <c r="F21" t="n">
         <v>49017998</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>40398518</v>
+      </c>
       <c r="H21" t="n">
-        <v>40398518</v>
+        <v>-3774164</v>
       </c>
       <c r="I21" t="n">
-        <v>-3774164</v>
+        <v>-11933491</v>
       </c>
       <c r="J21" t="n">
-        <v>-11933491</v>
+        <v>49098889</v>
       </c>
       <c r="K21" t="n">
-        <v>49098889</v>
+        <v>63888956</v>
       </c>
       <c r="L21" t="n">
-        <v>63888956</v>
+        <v>38733596</v>
       </c>
       <c r="M21" t="n">
-        <v>38733596</v>
+        <v>-44134725</v>
       </c>
       <c r="N21" t="n">
-        <v>-44134725</v>
+        <v>-8111165</v>
       </c>
     </row>
     <row r="22">
@@ -1392,41 +1392,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-204235805</v>
+        <v>312006887</v>
       </c>
       <c r="C22" t="n">
-        <v>312006368</v>
+        <v>1113706095</v>
       </c>
       <c r="D22" t="n">
-        <v>1113705749</v>
+        <v>1312866185</v>
       </c>
       <c r="E22" t="n">
-        <v>1312866630</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1820442182</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1820441610</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1045603429</v>
+      </c>
       <c r="H22" t="n">
-        <v>1045603660</v>
+        <v>200534518</v>
       </c>
       <c r="I22" t="n">
-        <v>200532358</v>
+        <v>-439369350</v>
       </c>
       <c r="J22" t="n">
-        <v>-439371233</v>
+        <v>-326609011</v>
       </c>
       <c r="K22" t="n">
-        <v>-326610807</v>
+        <v>-318653177</v>
       </c>
       <c r="L22" t="n">
-        <v>-318653104</v>
+        <v>-46486574</v>
       </c>
       <c r="M22" t="n">
-        <v>-46482452</v>
+        <v>450959896</v>
       </c>
       <c r="N22" t="n">
-        <v>450962270</v>
+        <v>1394943299</v>
       </c>
     </row>
     <row r="23">
@@ -1436,41 +1436,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-863023340</v>
+        <v>522925694</v>
       </c>
       <c r="C23" t="n">
-        <v>-116867901</v>
+        <v>722356971</v>
       </c>
       <c r="D23" t="n">
-        <v>428461055</v>
+        <v>74727196</v>
       </c>
       <c r="E23" t="n">
-        <v>-496005113</v>
-      </c>
-      <c r="F23" t="n">
-        <v>398693295</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>132544383</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>913012033</v>
+      </c>
       <c r="H23" t="n">
-        <v>2405674164</v>
+        <v>2321664347</v>
       </c>
       <c r="I23" t="n">
-        <v>5878629059</v>
+        <v>2416719923</v>
       </c>
       <c r="J23" t="n">
-        <v>4389363283</v>
+        <v>1218846464</v>
       </c>
       <c r="K23" t="n">
-        <v>2121690980</v>
+        <v>-42502651</v>
       </c>
       <c r="L23" t="n">
-        <v>-1161371936</v>
+        <v>-335577078</v>
       </c>
       <c r="M23" t="n">
-        <v>304016048</v>
+        <v>342204151</v>
       </c>
       <c r="N23" t="n">
-        <v>879413613</v>
+        <v>626805156</v>
       </c>
     </row>
     <row r="24">
@@ -1480,41 +1480,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133265962</v>
+        <v>176872269</v>
       </c>
       <c r="C24" t="n">
-        <v>176872151</v>
+        <v>181974376</v>
       </c>
       <c r="D24" t="n">
-        <v>181974034</v>
+        <v>-44957298</v>
       </c>
       <c r="E24" t="n">
-        <v>-44957452</v>
-      </c>
-      <c r="F24" t="n">
-        <v>99588456</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>99588118</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>37531243</v>
+      </c>
       <c r="H24" t="n">
-        <v>37531197</v>
+        <v>-68129656</v>
       </c>
       <c r="I24" t="n">
-        <v>-68130543</v>
+        <v>-137019538</v>
       </c>
       <c r="J24" t="n">
-        <v>-137020330</v>
+        <v>-371186051</v>
       </c>
       <c r="K24" t="n">
-        <v>-371186051</v>
+        <v>128987092</v>
       </c>
       <c r="L24" t="n">
-        <v>128987092</v>
+        <v>106151885</v>
       </c>
       <c r="M24" t="n">
-        <v>106151885</v>
+        <v>188043682</v>
       </c>
       <c r="N24" t="n">
-        <v>188043182</v>
+        <v>-265544933</v>
       </c>
     </row>
     <row r="25">
@@ -1524,41 +1524,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-576170065</v>
+        <v>-177041936</v>
       </c>
       <c r="C25" t="n">
-        <v>203521855</v>
+        <v>1173729754</v>
       </c>
       <c r="D25" t="n">
-        <v>1568759724</v>
+        <v>597265037</v>
       </c>
       <c r="E25" t="n">
-        <v>785497796</v>
-      </c>
-      <c r="F25" t="n">
-        <v>901915345</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>966103242</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2002564648</v>
+      </c>
       <c r="H25" t="n">
-        <v>1579883747</v>
+        <v>5942817421</v>
       </c>
       <c r="I25" t="n">
-        <v>5217395348</v>
+        <v>3251811056</v>
       </c>
       <c r="J25" t="n">
-        <v>2866428243</v>
+        <v>793158765</v>
       </c>
       <c r="K25" t="n">
-        <v>339318145</v>
+        <v>-3404182857</v>
       </c>
       <c r="L25" t="n">
-        <v>-3464847029</v>
+        <v>-890605117</v>
       </c>
       <c r="M25" t="n">
-        <v>-1278992827</v>
+        <v>39242818</v>
       </c>
       <c r="N25" t="n">
-        <v>97437267</v>
+        <v>652103571</v>
       </c>
     </row>
     <row r="26">
@@ -1568,41 +1568,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>466000234</v>
+        <v>66686984</v>
       </c>
       <c r="C26" t="n">
-        <v>66686984</v>
+        <v>-6141912</v>
       </c>
       <c r="D26" t="n">
-        <v>-6141912</v>
+        <v>-540971826</v>
       </c>
       <c r="E26" t="n">
-        <v>-540971826</v>
-      </c>
-      <c r="F26" t="n">
         <v>-93058198</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>-99155661</v>
+      </c>
       <c r="H26" t="n">
-        <v>-99155661</v>
+        <v>-113470228</v>
       </c>
       <c r="I26" t="n">
-        <v>-113470228</v>
+        <v>-109477684</v>
       </c>
       <c r="J26" t="n">
-        <v>-109477684</v>
+        <v>748587043</v>
       </c>
       <c r="K26" t="n">
-        <v>748587043</v>
+        <v>627398639</v>
       </c>
       <c r="L26" t="n">
-        <v>627398639</v>
+        <v>944668695</v>
       </c>
       <c r="M26" t="n">
-        <v>944668695</v>
+        <v>625768327</v>
       </c>
       <c r="N26" t="n">
-        <v>625768327</v>
+        <v>676535150</v>
       </c>
     </row>
     <row r="27">
@@ -1612,41 +1612,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>137693661</v>
+        <v>326204470</v>
       </c>
       <c r="C27" t="n">
-        <v>326204286</v>
+        <v>325729074</v>
       </c>
       <c r="D27" t="n">
-        <v>325729317</v>
+        <v>334083912</v>
       </c>
       <c r="E27" t="n">
-        <v>334083997</v>
-      </c>
-      <c r="F27" t="n">
-        <v>364378780</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>364378924</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>208626730</v>
+      </c>
       <c r="H27" t="n">
-        <v>208626646</v>
+        <v>-133896303</v>
       </c>
       <c r="I27" t="n">
-        <v>-133896262</v>
+        <v>-132400987</v>
       </c>
       <c r="J27" t="n">
-        <v>-132401196</v>
+        <v>-331042215</v>
       </c>
       <c r="K27" t="n">
-        <v>-331042465</v>
+        <v>-297364773</v>
       </c>
       <c r="L27" t="n">
-        <v>-297364554</v>
+        <v>-325454250</v>
       </c>
       <c r="M27" t="n">
-        <v>-325454475</v>
+        <v>-277092195</v>
       </c>
       <c r="N27" t="n">
-        <v>-277092118</v>
+        <v>3320845</v>
       </c>
     </row>
     <row r="28">
@@ -1656,41 +1656,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-36585725</v>
+        <v>-320044577</v>
       </c>
       <c r="C28" t="n">
-        <v>-320044393</v>
+        <v>-109001525</v>
       </c>
       <c r="D28" t="n">
-        <v>-109001768</v>
+        <v>-309579147</v>
       </c>
       <c r="E28" t="n">
-        <v>-309579232</v>
-      </c>
-      <c r="F28" t="n">
-        <v>104457065</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>104456921</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>-116490080</v>
+      </c>
       <c r="H28" t="n">
-        <v>-116489996</v>
+        <v>-134580734</v>
       </c>
       <c r="I28" t="n">
-        <v>-134580775</v>
+        <v>-125744157</v>
       </c>
       <c r="J28" t="n">
-        <v>-125743948</v>
+        <v>-1628627</v>
       </c>
       <c r="K28" t="n">
-        <v>-1628377</v>
+        <v>171506446</v>
       </c>
       <c r="L28" t="n">
-        <v>171506227</v>
+        <v>211274831</v>
       </c>
       <c r="M28" t="n">
-        <v>211275056</v>
+        <v>222695113</v>
       </c>
       <c r="N28" t="n">
-        <v>222695036</v>
+        <v>247796792</v>
       </c>
     </row>
     <row r="29">
@@ -1700,41 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164948</v>
+        <v>454576</v>
       </c>
       <c r="C29" t="n">
-        <v>454576</v>
+        <v>448713</v>
       </c>
       <c r="D29" t="n">
-        <v>448713</v>
+        <v>500517</v>
       </c>
       <c r="E29" t="n">
-        <v>500517</v>
-      </c>
-      <c r="F29" t="n">
         <v>490185</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>888180</v>
+      </c>
       <c r="H29" t="n">
-        <v>888180</v>
+        <v>1540310</v>
       </c>
       <c r="I29" t="n">
-        <v>1540310</v>
+        <v>3285232</v>
       </c>
       <c r="J29" t="n">
-        <v>3285232</v>
+        <v>638416</v>
       </c>
       <c r="K29" t="n">
-        <v>638416</v>
+        <v>3006060</v>
       </c>
       <c r="L29" t="n">
-        <v>3006060</v>
+        <v>-289849</v>
       </c>
       <c r="M29" t="n">
-        <v>-289849</v>
+        <v>1108774</v>
       </c>
       <c r="N29" t="n">
-        <v>1108774</v>
+        <v>-279160</v>
       </c>
     </row>
     <row r="30">
@@ -1744,41 +1744,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-11071</v>
+        <v>36710</v>
       </c>
       <c r="C30" t="n">
-        <v>36710</v>
+        <v>73672</v>
       </c>
       <c r="D30" t="n">
-        <v>73672</v>
+        <v>79525</v>
       </c>
       <c r="E30" t="n">
-        <v>79525</v>
-      </c>
-      <c r="F30" t="n">
         <v>109013</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>130896</v>
+      </c>
       <c r="H30" t="n">
-        <v>130896</v>
+        <v>112751</v>
       </c>
       <c r="I30" t="n">
-        <v>112751</v>
+        <v>313366</v>
       </c>
       <c r="J30" t="n">
-        <v>313366</v>
+        <v>1148595</v>
       </c>
       <c r="K30" t="n">
-        <v>1148595</v>
+        <v>1389568</v>
       </c>
       <c r="L30" t="n">
-        <v>1389568</v>
+        <v>994351</v>
       </c>
       <c r="M30" t="n">
-        <v>994351</v>
+        <v>34934</v>
       </c>
       <c r="N30" t="n">
-        <v>34934</v>
+        <v>-157739</v>
       </c>
     </row>
     <row r="31">
@@ -1788,41 +1788,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1928870</v>
+        <v>1109316</v>
       </c>
       <c r="C31" t="n">
-        <v>1109316</v>
+        <v>3979059</v>
       </c>
       <c r="D31" t="n">
-        <v>3979059</v>
+        <v>3342200</v>
       </c>
       <c r="E31" t="n">
-        <v>3342200</v>
-      </c>
-      <c r="F31" t="n">
         <v>3680911</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>4003281</v>
+      </c>
       <c r="H31" t="n">
-        <v>4003281</v>
+        <v>1359035</v>
       </c>
       <c r="I31" t="n">
-        <v>1359035</v>
+        <v>1948245</v>
       </c>
       <c r="J31" t="n">
-        <v>1948245</v>
+        <v>-1765788</v>
       </c>
       <c r="K31" t="n">
-        <v>-1765788</v>
+        <v>1592474</v>
       </c>
       <c r="L31" t="n">
-        <v>1592474</v>
+        <v>1793744</v>
       </c>
       <c r="M31" t="n">
-        <v>1793744</v>
+        <v>1895709</v>
       </c>
       <c r="N31" t="n">
-        <v>1895709</v>
+        <v>3343362</v>
       </c>
     </row>
     <row r="32">
@@ -1832,41 +1832,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-506662007</v>
+        <v>-1190044089</v>
       </c>
       <c r="C32" t="n">
-        <v>-1190044089</v>
+        <v>-915901063</v>
       </c>
       <c r="D32" t="n">
-        <v>-915901063</v>
+        <v>-635693540</v>
       </c>
       <c r="E32" t="n">
-        <v>-635693540</v>
-      </c>
-      <c r="F32" t="n">
         <v>-170302245</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>151013947</v>
+      </c>
       <c r="H32" t="n">
-        <v>151013947</v>
+        <v>553600674</v>
       </c>
       <c r="I32" t="n">
-        <v>553600674</v>
+        <v>664572604</v>
       </c>
       <c r="J32" t="n">
-        <v>664572604</v>
+        <v>386851849</v>
       </c>
       <c r="K32" t="n">
-        <v>386851849</v>
+        <v>203017169</v>
       </c>
       <c r="L32" t="n">
-        <v>203017169</v>
+        <v>162551966</v>
       </c>
       <c r="M32" t="n">
-        <v>162551966</v>
+        <v>195865163</v>
       </c>
       <c r="N32" t="n">
-        <v>195865163</v>
+        <v>170530764</v>
       </c>
     </row>
     <row r="33">
@@ -1876,41 +1876,41 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-35843167</v>
+        <v>-7795804</v>
       </c>
       <c r="C33" t="n">
-        <v>-20343607</v>
+        <v>43636926</v>
       </c>
       <c r="D33" t="n">
-        <v>28771224</v>
+        <v>35189910</v>
       </c>
       <c r="E33" t="n">
-        <v>27413508</v>
-      </c>
-      <c r="F33" t="n">
-        <v>83451849</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>92382749</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>78426358</v>
+      </c>
       <c r="H33" t="n">
-        <v>65886849</v>
+        <v>184414824</v>
       </c>
       <c r="I33" t="n">
-        <v>77644390</v>
+        <v>219617539</v>
       </c>
       <c r="J33" t="n">
-        <v>71795494</v>
+        <v>167558928</v>
       </c>
       <c r="K33" t="n">
-        <v>50006247</v>
+        <v>18435726</v>
       </c>
       <c r="L33" t="n">
-        <v>4999959</v>
+        <v>-41439843</v>
       </c>
       <c r="M33" t="n">
-        <v>13067238</v>
+        <v>9569095</v>
       </c>
       <c r="N33" t="n">
-        <v>52603937</v>
+        <v>88431162</v>
       </c>
     </row>
     <row r="34">
@@ -1920,41 +1920,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-54315012</v>
+        <v>-3347586</v>
       </c>
       <c r="C34" t="n">
-        <v>9200217</v>
+        <v>51764079</v>
       </c>
       <c r="D34" t="n">
-        <v>66629781</v>
+        <v>81692877</v>
       </c>
       <c r="E34" t="n">
-        <v>89469279</v>
-      </c>
-      <c r="F34" t="n">
-        <v>183223058</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>174292158</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>417120960</v>
+      </c>
       <c r="H34" t="n">
-        <v>429660469</v>
+        <v>833615268</v>
       </c>
       <c r="I34" t="n">
-        <v>940385702</v>
+        <v>610784938</v>
       </c>
       <c r="J34" t="n">
-        <v>758606983</v>
+        <v>254473970</v>
       </c>
       <c r="K34" t="n">
-        <v>372026651</v>
+        <v>-290107636</v>
       </c>
       <c r="L34" t="n">
-        <v>-276671869</v>
+        <v>-80796841</v>
       </c>
       <c r="M34" t="n">
-        <v>-135303922</v>
+        <v>80813958</v>
       </c>
       <c r="N34" t="n">
-        <v>37779116</v>
+        <v>236859800</v>
       </c>
     </row>
     <row r="35">
@@ -1964,41 +1964,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97793575</v>
+        <v>-437347950</v>
       </c>
       <c r="C35" t="n">
-        <v>-437347950</v>
+        <v>-349048593</v>
       </c>
       <c r="D35" t="n">
-        <v>-349048593</v>
+        <v>-348692991</v>
       </c>
       <c r="E35" t="n">
-        <v>-348692991</v>
-      </c>
-      <c r="F35" t="n">
         <v>299925517</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>416910633</v>
+      </c>
       <c r="H35" t="n">
-        <v>416910633</v>
+        <v>516744080</v>
       </c>
       <c r="I35" t="n">
-        <v>516744080</v>
+        <v>554890120</v>
       </c>
       <c r="J35" t="n">
-        <v>554890120</v>
+        <v>942437192</v>
       </c>
       <c r="K35" t="n">
-        <v>942437192</v>
+        <v>262642334</v>
       </c>
       <c r="L35" t="n">
-        <v>262642334</v>
+        <v>65299297</v>
       </c>
       <c r="M35" t="n">
-        <v>65299297</v>
+        <v>-382083341</v>
       </c>
       <c r="N35" t="n">
-        <v>-382083341</v>
+        <v>249486626</v>
       </c>
     </row>
     <row r="36">
@@ -2008,41 +2008,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-472375839</v>
+        <v>-361576227</v>
       </c>
       <c r="C36" t="n">
-        <v>-361576227</v>
+        <v>375348312</v>
       </c>
       <c r="D36" t="n">
-        <v>375348312</v>
+        <v>-137765554</v>
       </c>
       <c r="E36" t="n">
-        <v>-137765554</v>
-      </c>
-      <c r="F36" t="n">
         <v>603445</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>501221935</v>
+      </c>
       <c r="H36" t="n">
-        <v>501221935</v>
+        <v>1028991357</v>
       </c>
       <c r="I36" t="n">
-        <v>1028991357</v>
+        <v>804596590</v>
       </c>
       <c r="J36" t="n">
-        <v>804596590</v>
+        <v>874851938</v>
       </c>
       <c r="K36" t="n">
-        <v>874851938</v>
+        <v>-236860904</v>
       </c>
       <c r="L36" t="n">
-        <v>-236860904</v>
+        <v>452867326</v>
       </c>
       <c r="M36" t="n">
-        <v>452867326</v>
+        <v>250860316</v>
       </c>
       <c r="N36" t="n">
-        <v>250860316</v>
+        <v>199693913</v>
       </c>
     </row>
     <row r="37">
@@ -2052,41 +2052,41 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7671443</v>
+        <v>13032943</v>
       </c>
       <c r="C37" t="n">
-        <v>13032943</v>
+        <v>22796616</v>
       </c>
       <c r="D37" t="n">
-        <v>22796616</v>
+        <v>37478928</v>
       </c>
       <c r="E37" t="n">
-        <v>37478928</v>
-      </c>
-      <c r="F37" t="n">
         <v>44552849</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>65060886</v>
+      </c>
       <c r="H37" t="n">
-        <v>65060886</v>
+        <v>96290132</v>
       </c>
       <c r="I37" t="n">
-        <v>96290132</v>
+        <v>78183634</v>
       </c>
       <c r="J37" t="n">
-        <v>78183634</v>
+        <v>50416213</v>
       </c>
       <c r="K37" t="n">
-        <v>50416213</v>
+        <v>13906979</v>
       </c>
       <c r="L37" t="n">
-        <v>13906979</v>
+        <v>26810631</v>
       </c>
       <c r="M37" t="n">
-        <v>26810631</v>
+        <v>40373977</v>
       </c>
       <c r="N37" t="n">
-        <v>40373977</v>
+        <v>17969082</v>
       </c>
     </row>
     <row r="38">
@@ -2096,41 +2096,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2720147304</v>
+        <v>20593902</v>
       </c>
       <c r="C38" t="n">
-        <v>20593902</v>
+        <v>217350763</v>
       </c>
       <c r="D38" t="n">
-        <v>217350763</v>
+        <v>433640387</v>
       </c>
       <c r="E38" t="n">
-        <v>433640387</v>
-      </c>
-      <c r="F38" t="n">
         <v>404052230</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>259885981</v>
+      </c>
       <c r="H38" t="n">
-        <v>259885981</v>
+        <v>-830029218</v>
       </c>
       <c r="I38" t="n">
-        <v>-830029218</v>
+        <v>-1675343384</v>
       </c>
       <c r="J38" t="n">
-        <v>-1675343384</v>
+        <v>-1437615677</v>
       </c>
       <c r="K38" t="n">
-        <v>-1437615677</v>
+        <v>576059518</v>
       </c>
       <c r="L38" t="n">
-        <v>576059518</v>
+        <v>332573539</v>
       </c>
       <c r="M38" t="n">
-        <v>332573539</v>
+        <v>915599576</v>
       </c>
       <c r="N38" t="n">
-        <v>915599576</v>
+        <v>1688265419</v>
       </c>
     </row>
     <row r="39">
@@ -2140,41 +2140,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-189142989</v>
+        <v>551997895</v>
       </c>
       <c r="C39" t="n">
-        <v>552496357</v>
+        <v>518249556</v>
       </c>
       <c r="D39" t="n">
-        <v>519757237</v>
+        <v>696762836</v>
       </c>
       <c r="E39" t="n">
-        <v>697582680</v>
-      </c>
-      <c r="F39" t="n">
-        <v>703503568</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>701850193</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>628300337</v>
+      </c>
       <c r="H39" t="n">
-        <v>629652122</v>
+        <v>-32634388</v>
       </c>
       <c r="I39" t="n">
-        <v>-31539326</v>
+        <v>-255241934</v>
       </c>
       <c r="J39" t="n">
-        <v>-255082597</v>
+        <v>65560146</v>
       </c>
       <c r="K39" t="n">
-        <v>65510783</v>
+        <v>340839121</v>
       </c>
       <c r="L39" t="n">
-        <v>339695045</v>
+        <v>402263163</v>
       </c>
       <c r="M39" t="n">
-        <v>401329970</v>
+        <v>131654456</v>
       </c>
       <c r="N39" t="n">
-        <v>132104399</v>
+        <v>259718086</v>
       </c>
     </row>
     <row r="40">
@@ -2184,41 +2184,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-382185536</v>
+        <v>2912772401</v>
       </c>
       <c r="C40" t="n">
-        <v>2912273939</v>
+        <v>3932764821</v>
       </c>
       <c r="D40" t="n">
-        <v>3931257140</v>
+        <v>1962794333</v>
       </c>
       <c r="E40" t="n">
-        <v>1961974489</v>
-      </c>
-      <c r="F40" t="n">
-        <v>667635185</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>669288560</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2301904187</v>
+      </c>
       <c r="H40" t="n">
-        <v>2300552402</v>
+        <v>2140315650</v>
       </c>
       <c r="I40" t="n">
-        <v>2139220588</v>
+        <v>2157337624</v>
       </c>
       <c r="J40" t="n">
-        <v>2157178287</v>
+        <v>-327710071</v>
       </c>
       <c r="K40" t="n">
-        <v>-327660708</v>
+        <v>1073967323</v>
       </c>
       <c r="L40" t="n">
-        <v>1075111399</v>
+        <v>543544424</v>
       </c>
       <c r="M40" t="n">
-        <v>544477617</v>
+        <v>1817914316</v>
       </c>
       <c r="N40" t="n">
-        <v>1817464373</v>
+        <v>2068623757</v>
       </c>
     </row>
     <row r="41">
@@ -2228,41 +2228,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>232345144</v>
+        <v>-146140731</v>
       </c>
       <c r="C41" t="n">
-        <v>-146140731</v>
+        <v>43501129</v>
       </c>
       <c r="D41" t="n">
-        <v>43501129</v>
+        <v>-171482695</v>
       </c>
       <c r="E41" t="n">
-        <v>-171482695</v>
-      </c>
-      <c r="F41" t="n">
         <v>362056750</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>383087362</v>
+      </c>
       <c r="H41" t="n">
-        <v>383087362</v>
+        <v>1022118023</v>
       </c>
       <c r="I41" t="n">
-        <v>1022118023</v>
+        <v>532251666</v>
       </c>
       <c r="J41" t="n">
-        <v>532251666</v>
+        <v>920025166</v>
       </c>
       <c r="K41" t="n">
-        <v>920025166</v>
+        <v>623413495</v>
       </c>
       <c r="L41" t="n">
-        <v>623413495</v>
+        <v>1128693941</v>
       </c>
       <c r="M41" t="n">
-        <v>1128693941</v>
+        <v>992085190</v>
       </c>
       <c r="N41" t="n">
-        <v>992085190</v>
+        <v>63278125</v>
       </c>
     </row>
     <row r="42">
@@ -2272,41 +2272,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-32898218</v>
+        <v>12906566</v>
       </c>
       <c r="C42" t="n">
-        <v>12913390</v>
+        <v>55017219</v>
       </c>
       <c r="D42" t="n">
-        <v>55026281</v>
+        <v>22588039</v>
       </c>
       <c r="E42" t="n">
-        <v>22593177</v>
-      </c>
-      <c r="F42" t="n">
-        <v>39045232</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>39040492</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>135165301</v>
+      </c>
       <c r="H42" t="n">
-        <v>135172796</v>
+        <v>248565427</v>
       </c>
       <c r="I42" t="n">
-        <v>248579100</v>
+        <v>261087457</v>
       </c>
       <c r="J42" t="n">
-        <v>261101580</v>
+        <v>190242693</v>
       </c>
       <c r="K42" t="n">
-        <v>190258261</v>
+        <v>153583585</v>
       </c>
       <c r="L42" t="n">
-        <v>153598256</v>
+        <v>211083872</v>
       </c>
       <c r="M42" t="n">
-        <v>211106546</v>
+        <v>92184179</v>
       </c>
       <c r="N42" t="n">
-        <v>92211634</v>
+        <v>-36098763</v>
       </c>
     </row>
     <row r="43">
@@ -2316,41 +2316,41 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17501703</v>
+        <v>-30060368</v>
       </c>
       <c r="C43" t="n">
-        <v>-30060368</v>
+        <v>-9888385</v>
       </c>
       <c r="D43" t="n">
-        <v>-9888385</v>
+        <v>-55087032</v>
       </c>
       <c r="E43" t="n">
-        <v>-55087032</v>
-      </c>
-      <c r="F43" t="n">
         <v>-22464694</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>31139268</v>
+      </c>
       <c r="H43" t="n">
-        <v>31139268</v>
+        <v>28720797</v>
       </c>
       <c r="I43" t="n">
-        <v>28720797</v>
+        <v>92090115</v>
       </c>
       <c r="J43" t="n">
-        <v>92090115</v>
+        <v>8855805</v>
       </c>
       <c r="K43" t="n">
-        <v>8855805</v>
+        <v>23075146</v>
       </c>
       <c r="L43" t="n">
-        <v>23075146</v>
+        <v>-70981959</v>
       </c>
       <c r="M43" t="n">
-        <v>-70981959</v>
+        <v>-14633130</v>
       </c>
       <c r="N43" t="n">
-        <v>-14633130</v>
+        <v>-23686753</v>
       </c>
     </row>
     <row r="44">
@@ -2360,28 +2360,42 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-17493943</v>
+        <v>94602816</v>
       </c>
       <c r="C44" t="n">
-        <v>-6558524</v>
+        <v>47444704</v>
       </c>
       <c r="D44" t="n">
-        <v>68152287</v>
+        <v>-4305790</v>
       </c>
       <c r="E44" t="n">
-        <v>36909775</v>
-      </c>
-      <c r="F44" t="n">
-        <v>139079163</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+        <v>255248577</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>169638280</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-37931981</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-47084185</v>
+      </c>
+      <c r="J44" t="n">
+        <v>64591179</v>
+      </c>
+      <c r="K44" t="n">
+        <v>179319904</v>
+      </c>
+      <c r="L44" t="n">
+        <v>15067717</v>
+      </c>
+      <c r="M44" t="n">
+        <v>35096507</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-51857620</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2390,41 +2404,41 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83845505</v>
+        <v>-4034397</v>
       </c>
       <c r="C45" t="n">
-        <v>97126943</v>
+        <v>7145603</v>
       </c>
       <c r="D45" t="n">
-        <v>-13561980</v>
+        <v>8460467</v>
       </c>
       <c r="E45" t="n">
-        <v>-32755098</v>
-      </c>
-      <c r="F45" t="n">
-        <v>132888951</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>16719537</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>15255497</v>
+      </c>
       <c r="H45" t="n">
-        <v>157730325</v>
+        <v>17123305</v>
       </c>
       <c r="I45" t="n">
-        <v>58745502</v>
+        <v>18635214</v>
       </c>
       <c r="J45" t="n">
-        <v>50568289</v>
+        <v>20267697</v>
       </c>
       <c r="K45" t="n">
-        <v>1129361</v>
+        <v>17946116</v>
       </c>
       <c r="L45" t="n">
-        <v>113854655</v>
+        <v>5787736</v>
       </c>
       <c r="M45" t="n">
-        <v>-71262751</v>
+        <v>6634138</v>
       </c>
       <c r="N45" t="n">
-        <v>-7173665</v>
+        <v>-3042551</v>
       </c>
     </row>
     <row r="46">
@@ -2434,43 +2448,41 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-919988483</v>
+        <v>-640224912</v>
       </c>
       <c r="C46" t="n">
-        <v>-432670083</v>
+        <v>1243709459</v>
       </c>
       <c r="D46" t="n">
-        <v>-32162930</v>
+        <v>1717750309</v>
       </c>
       <c r="E46" t="n">
-        <v>571059795</v>
-      </c>
-      <c r="F46" t="n">
-        <v>203326155</v>
-      </c>
+        <v>3684573244</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>-106786954</v>
+        <v>3525388567</v>
       </c>
       <c r="H46" t="n">
-        <v>-119160385</v>
+        <v>1176106299</v>
       </c>
       <c r="I46" t="n">
-        <v>-495274409</v>
+        <v>-1926489208</v>
       </c>
       <c r="J46" t="n">
-        <v>-472721322</v>
+        <v>-1359824340</v>
       </c>
       <c r="K46" t="n">
-        <v>457642666</v>
+        <v>777285367</v>
       </c>
       <c r="L46" t="n">
-        <v>1041993749</v>
+        <v>2703961664</v>
       </c>
       <c r="M46" t="n">
-        <v>854451341</v>
+        <v>1918382113</v>
       </c>
       <c r="N46" t="n">
-        <v>-409816489</v>
+        <v>1838204938</v>
       </c>
     </row>
     <row r="47">
@@ -2480,41 +2492,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-217535737</v>
+        <v>-20612082</v>
       </c>
       <c r="C47" t="n">
-        <v>-26138776</v>
+        <v>746201233</v>
       </c>
       <c r="D47" t="n">
-        <v>715877291</v>
+        <v>500772450</v>
       </c>
       <c r="E47" t="n">
-        <v>479836374</v>
-      </c>
-      <c r="F47" t="n">
-        <v>842792097</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>905631660</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>895360559</v>
+      </c>
       <c r="H47" t="n">
-        <v>834788850</v>
+        <v>122517162</v>
       </c>
       <c r="I47" t="n">
-        <v>128486353</v>
+        <v>127684257</v>
       </c>
       <c r="J47" t="n">
-        <v>154726647</v>
+        <v>-417726579</v>
       </c>
       <c r="K47" t="n">
-        <v>-368968602</v>
+        <v>487327657</v>
       </c>
       <c r="L47" t="n">
-        <v>563089411</v>
+        <v>185229162</v>
       </c>
       <c r="M47" t="n">
-        <v>278873315</v>
+        <v>1363468044</v>
       </c>
       <c r="N47" t="n">
-        <v>1420298849</v>
+        <v>-322267012</v>
       </c>
     </row>
     <row r="48">
@@ -2524,41 +2536,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-1997303281</v>
+        <v>-478667476</v>
       </c>
       <c r="C48" t="n">
-        <v>-1156134145</v>
+        <v>724093575</v>
       </c>
       <c r="D48" t="n">
-        <v>2514933648</v>
+        <v>624752327</v>
       </c>
       <c r="E48" t="n">
-        <v>2114002376</v>
+        <v>2624378145</v>
       </c>
       <c r="F48" t="n">
-        <v>7531598465</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>-106786954</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2455246068</v>
+      </c>
       <c r="H48" t="n">
-        <v>7492370699</v>
+        <v>2733684743</v>
       </c>
       <c r="I48" t="n">
-        <v>4807892190</v>
+        <v>133717171</v>
       </c>
       <c r="J48" t="n">
-        <v>-1289511720</v>
+        <v>-2400005787</v>
       </c>
       <c r="K48" t="n">
-        <v>-4863677960</v>
+        <v>-2311358194</v>
       </c>
       <c r="L48" t="n">
-        <v>-2143824647</v>
+        <v>-1935846587</v>
       </c>
       <c r="M48" t="n">
-        <v>329160483</v>
+        <v>-1218952323</v>
       </c>
       <c r="N48" t="n">
-        <v>1190997312</v>
+        <v>-3374288052</v>
       </c>
     </row>
     <row r="49">
@@ -2568,41 +2582,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-155988833</v>
+        <v>108908243</v>
       </c>
       <c r="C49" t="n">
-        <v>108908243</v>
+        <v>214607357</v>
       </c>
       <c r="D49" t="n">
-        <v>214607357</v>
+        <v>424272884</v>
       </c>
       <c r="E49" t="n">
-        <v>424272884</v>
-      </c>
-      <c r="F49" t="n">
         <v>408430164</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>478712799</v>
+      </c>
       <c r="H49" t="n">
-        <v>478712799</v>
+        <v>1037151379</v>
       </c>
       <c r="I49" t="n">
-        <v>1037151379</v>
+        <v>647177933</v>
       </c>
       <c r="J49" t="n">
-        <v>647177933</v>
+        <v>227751994</v>
       </c>
       <c r="K49" t="n">
-        <v>227751994</v>
+        <v>-588512249</v>
       </c>
       <c r="L49" t="n">
-        <v>-588512249</v>
+        <v>-115101700</v>
       </c>
       <c r="M49" t="n">
-        <v>-115101700</v>
+        <v>-227875945</v>
       </c>
       <c r="N49" t="n">
-        <v>-227875945</v>
+        <v>-266655670</v>
       </c>
     </row>
     <row r="50">
@@ -2612,41 +2626,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>628072086</v>
+        <v>2686884181</v>
       </c>
       <c r="C50" t="n">
-        <v>2681633164</v>
+        <v>2378851306</v>
       </c>
       <c r="D50" t="n">
-        <v>2368178757</v>
+        <v>1338278038</v>
       </c>
       <c r="E50" t="n">
-        <v>1326613519</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1080168640</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>1114349595</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1093853094</v>
+      </c>
       <c r="H50" t="n">
-        <v>1050540725</v>
+        <v>-149993926</v>
       </c>
       <c r="I50" t="n">
-        <v>-178400951</v>
+        <v>-2646360730</v>
       </c>
       <c r="J50" t="n">
-        <v>-2667737325</v>
+        <v>-1906227069</v>
       </c>
       <c r="K50" t="n">
-        <v>-1892996898</v>
+        <v>211863590</v>
       </c>
       <c r="L50" t="n">
-        <v>229621616</v>
+        <v>2737759735</v>
       </c>
       <c r="M50" t="n">
-        <v>2744678903</v>
+        <v>2605643579</v>
       </c>
       <c r="N50" t="n">
-        <v>2584266569</v>
+        <v>527490453</v>
       </c>
     </row>
     <row r="51">
@@ -2656,41 +2670,41 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6050861</v>
+        <v>31287707</v>
       </c>
       <c r="C51" t="n">
-        <v>36538724</v>
+        <v>31265712</v>
       </c>
       <c r="D51" t="n">
-        <v>41938261</v>
+        <v>24390169</v>
       </c>
       <c r="E51" t="n">
-        <v>36054688</v>
-      </c>
-      <c r="F51" t="n">
-        <v>55905583</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>21724628</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>45374408</v>
+      </c>
       <c r="H51" t="n">
-        <v>88686777</v>
+        <v>7735977</v>
       </c>
       <c r="I51" t="n">
-        <v>36143002</v>
+        <v>-14458525</v>
       </c>
       <c r="J51" t="n">
-        <v>6918070</v>
+        <v>-27574349</v>
       </c>
       <c r="K51" t="n">
-        <v>-40804520</v>
+        <v>21745158</v>
       </c>
       <c r="L51" t="n">
-        <v>3987132</v>
+        <v>61045581</v>
       </c>
       <c r="M51" t="n">
-        <v>54126413</v>
+        <v>34325802</v>
       </c>
       <c r="N51" t="n">
-        <v>55702812</v>
+        <v>13554891</v>
       </c>
     </row>
     <row r="52">
@@ -2700,41 +2714,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>242601475</v>
+        <v>341441552</v>
       </c>
       <c r="C52" t="n">
-        <v>340625060</v>
+        <v>132685831</v>
       </c>
       <c r="D52" t="n">
-        <v>131996088</v>
+        <v>-156754517</v>
       </c>
       <c r="E52" t="n">
-        <v>-157175014</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-74821110</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>-74004249</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>442378754</v>
+      </c>
       <c r="H52" t="n">
-        <v>436029914</v>
+        <v>271312892</v>
       </c>
       <c r="I52" t="n">
-        <v>269952335</v>
+        <v>406824264</v>
       </c>
       <c r="J52" t="n">
-        <v>404651973</v>
+        <v>372429598</v>
       </c>
       <c r="K52" t="n">
-        <v>375388349</v>
+        <v>806240866</v>
       </c>
       <c r="L52" t="n">
-        <v>804598620</v>
+        <v>645455942</v>
       </c>
       <c r="M52" t="n">
-        <v>648513649</v>
+        <v>511466138</v>
       </c>
       <c r="N52" t="n">
-        <v>512846890</v>
+        <v>642605678</v>
       </c>
     </row>
     <row r="53">
@@ -2744,41 +2758,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-132170491</v>
+        <v>66427394</v>
       </c>
       <c r="C53" t="n">
-        <v>66427394</v>
+        <v>200414559</v>
       </c>
       <c r="D53" t="n">
-        <v>200414559</v>
+        <v>164290119</v>
       </c>
       <c r="E53" t="n">
-        <v>164290119</v>
-      </c>
-      <c r="F53" t="n">
-        <v>211467100</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>211466458</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>757744499</v>
+      </c>
       <c r="H53" t="n">
-        <v>757744727</v>
+        <v>224652587</v>
       </c>
       <c r="I53" t="n">
-        <v>224652846</v>
+        <v>29206138</v>
       </c>
       <c r="J53" t="n">
-        <v>29206102</v>
+        <v>-656576297</v>
       </c>
       <c r="K53" t="n">
-        <v>-656576537</v>
+        <v>-109845355</v>
       </c>
       <c r="L53" t="n">
-        <v>-109844516</v>
+        <v>-116907099</v>
       </c>
       <c r="M53" t="n">
-        <v>-116908511</v>
+        <v>62500043</v>
       </c>
       <c r="N53" t="n">
-        <v>62500108</v>
+        <v>-127504182</v>
       </c>
     </row>
     <row r="54">
@@ -2788,41 +2802,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-625830727</v>
+        <v>247495918</v>
       </c>
       <c r="C54" t="n">
-        <v>248312410</v>
+        <v>-409943305</v>
       </c>
       <c r="D54" t="n">
-        <v>-409253562</v>
+        <v>564461891</v>
       </c>
       <c r="E54" t="n">
-        <v>564882388</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-242441032</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>-243257893</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>988771990</v>
+      </c>
       <c r="H54" t="n">
-        <v>995120830</v>
+        <v>-956107908</v>
       </c>
       <c r="I54" t="n">
-        <v>-954747351</v>
+        <v>-498701867</v>
       </c>
       <c r="J54" t="n">
-        <v>-496529576</v>
+        <v>-1851504767</v>
       </c>
       <c r="K54" t="n">
-        <v>-1854463518</v>
+        <v>334029700</v>
       </c>
       <c r="L54" t="n">
-        <v>335671946</v>
+        <v>-688134412</v>
       </c>
       <c r="M54" t="n">
-        <v>-691192119</v>
+        <v>-56407466</v>
       </c>
       <c r="N54" t="n">
-        <v>-57788218</v>
+        <v>103705242</v>
       </c>
     </row>
     <row r="55">
@@ -2832,41 +2846,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-9301548188</v>
+        <v>-1867010517</v>
       </c>
       <c r="C55" t="n">
-        <v>-2272313012</v>
+        <v>1587960035</v>
       </c>
       <c r="D55" t="n">
-        <v>1424425294</v>
+        <v>-2922827736</v>
       </c>
       <c r="E55" t="n">
-        <v>-2937489528</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-2066037259</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>-2548311663</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>9721788983</v>
+      </c>
       <c r="H55" t="n">
-        <v>8923841406</v>
+        <v>8285451792</v>
       </c>
       <c r="I55" t="n">
-        <v>8232538064</v>
+        <v>26525686084</v>
       </c>
       <c r="J55" t="n">
-        <v>25855124496</v>
+        <v>11450049825</v>
       </c>
       <c r="K55" t="n">
-        <v>11881843094</v>
+        <v>14389550896</v>
       </c>
       <c r="L55" t="n">
-        <v>13965667383</v>
+        <v>4931543145</v>
       </c>
       <c r="M55" t="n">
-        <v>4566856170</v>
+        <v>12735347148</v>
       </c>
       <c r="N55" t="n">
-        <v>11158242860</v>
+        <v>37820762606</v>
       </c>
     </row>
     <row r="56">
@@ -2876,41 +2890,41 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-250915720</v>
+        <v>494254897</v>
       </c>
       <c r="C56" t="n">
-        <v>83582196</v>
+        <v>1473213692</v>
       </c>
       <c r="D56" t="n">
-        <v>-90394838</v>
+        <v>1457833810</v>
       </c>
       <c r="E56" t="n">
-        <v>55704754</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-45100347</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>1338293316</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>908044039</v>
+      </c>
       <c r="H56" t="n">
-        <v>564466502</v>
+        <v>335203891</v>
       </c>
       <c r="I56" t="n">
-        <v>854972898</v>
+        <v>1375730589</v>
       </c>
       <c r="J56" t="n">
-        <v>1578583187</v>
+        <v>1865516925</v>
       </c>
       <c r="K56" t="n">
-        <v>772807736</v>
+        <v>2364607724</v>
       </c>
       <c r="L56" t="n">
-        <v>278702006</v>
+        <v>494638936</v>
       </c>
       <c r="M56" t="n">
-        <v>-360923942</v>
+        <v>-402040173</v>
       </c>
       <c r="N56" t="n">
-        <v>94160589</v>
+        <v>-884617723</v>
       </c>
     </row>
     <row r="57">
@@ -2920,41 +2934,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3027208966</v>
+        <v>1398732541</v>
       </c>
       <c r="C57" t="n">
-        <v>2214707737</v>
+        <v>1466977789</v>
       </c>
       <c r="D57" t="n">
-        <v>3194121060</v>
+        <v>463420523</v>
       </c>
       <c r="E57" t="n">
-        <v>1880211371</v>
-      </c>
-      <c r="F57" t="n">
-        <v>203442797</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>-697676462</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>2457575593</v>
+      </c>
       <c r="H57" t="n">
-        <v>3599100180</v>
+        <v>2609847977</v>
       </c>
       <c r="I57" t="n">
-        <v>2142992698</v>
+        <v>6951182891</v>
       </c>
       <c r="J57" t="n">
-        <v>7418891881</v>
+        <v>2290192717</v>
       </c>
       <c r="K57" t="n">
-        <v>2951108637</v>
+        <v>2878158299</v>
       </c>
       <c r="L57" t="n">
-        <v>5387947530</v>
+        <v>-1099147519</v>
       </c>
       <c r="M57" t="n">
-        <v>121102334</v>
+        <v>900272566</v>
       </c>
       <c r="N57" t="n">
-        <v>1981176092</v>
+        <v>2012020164</v>
       </c>
     </row>
     <row r="58">
@@ -2964,41 +2978,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>109468225</v>
+        <v>48024510</v>
       </c>
       <c r="C58" t="n">
-        <v>48024932</v>
+        <v>223251235</v>
       </c>
       <c r="D58" t="n">
-        <v>223251235</v>
+        <v>-188889229</v>
       </c>
       <c r="E58" t="n">
-        <v>-188889229</v>
-      </c>
-      <c r="F58" t="n">
         <v>103934077</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>203671150</v>
+      </c>
       <c r="H58" t="n">
-        <v>203671310</v>
+        <v>172976757</v>
       </c>
       <c r="I58" t="n">
-        <v>172976880</v>
+        <v>227269441</v>
       </c>
       <c r="J58" t="n">
-        <v>227269112</v>
+        <v>-119502980</v>
       </c>
       <c r="K58" t="n">
-        <v>-119503563</v>
+        <v>543346688</v>
       </c>
       <c r="L58" t="n">
-        <v>543346190</v>
+        <v>203327386</v>
       </c>
       <c r="M58" t="n">
-        <v>203327288</v>
+        <v>161470159</v>
       </c>
       <c r="N58" t="n">
-        <v>161470159</v>
+        <v>-490767239</v>
       </c>
     </row>
     <row r="59">
@@ -3008,43 +3022,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-29363591</v>
+        <v>116141746</v>
       </c>
       <c r="C59" t="n">
-        <v>116145921</v>
+        <v>125904032</v>
       </c>
       <c r="D59" t="n">
-        <v>125905569</v>
+        <v>128801167</v>
       </c>
       <c r="E59" t="n">
-        <v>128802112</v>
+        <v>221084604</v>
       </c>
       <c r="F59" t="n">
-        <v>221084273</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>326035738</v>
       </c>
       <c r="H59" t="n">
-        <v>326035288</v>
+        <v>587982340</v>
       </c>
       <c r="I59" t="n">
-        <v>587983812</v>
+        <v>587150188</v>
       </c>
       <c r="J59" t="n">
-        <v>587162536</v>
+        <v>447404719</v>
       </c>
       <c r="K59" t="n">
-        <v>447415514</v>
+        <v>240752058</v>
       </c>
       <c r="L59" t="n">
-        <v>240762147</v>
+        <v>-926129</v>
       </c>
       <c r="M59" t="n">
-        <v>-922773</v>
+        <v>-73697922</v>
       </c>
       <c r="N59" t="n">
-        <v>-73692670</v>
+        <v>-299826237</v>
       </c>
     </row>
     <row r="60">
@@ -3054,41 +3068,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7055638</v>
+        <v>154304753</v>
       </c>
       <c r="C60" t="n">
-        <v>154300503</v>
+        <v>200356034</v>
       </c>
       <c r="D60" t="n">
-        <v>200355707</v>
+        <v>299591496</v>
       </c>
       <c r="E60" t="n">
-        <v>299591383</v>
-      </c>
-      <c r="F60" t="n">
-        <v>291376900</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>291376591</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>417561558</v>
+      </c>
       <c r="H60" t="n">
-        <v>417561663</v>
+        <v>1193414646</v>
       </c>
       <c r="I60" t="n">
-        <v>1193415253</v>
+        <v>2519833716</v>
       </c>
       <c r="J60" t="n">
-        <v>2519833716</v>
+        <v>1950443494</v>
       </c>
       <c r="K60" t="n">
-        <v>1950443494</v>
+        <v>1590163765</v>
       </c>
       <c r="L60" t="n">
-        <v>1590163765</v>
+        <v>786477363</v>
       </c>
       <c r="M60" t="n">
-        <v>786477363</v>
+        <v>930264396</v>
       </c>
       <c r="N60" t="n">
-        <v>930264396</v>
+        <v>214838010</v>
       </c>
     </row>
     <row r="61">
@@ -3098,41 +3112,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12012666</v>
+        <v>11240345</v>
       </c>
       <c r="C61" t="n">
-        <v>11240345</v>
+        <v>12249797</v>
       </c>
       <c r="D61" t="n">
-        <v>12249797</v>
+        <v>14875617</v>
       </c>
       <c r="E61" t="n">
-        <v>14875617</v>
-      </c>
-      <c r="F61" t="n">
         <v>44548983</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>67668961</v>
+      </c>
       <c r="H61" t="n">
-        <v>67668961</v>
+        <v>42548580</v>
       </c>
       <c r="I61" t="n">
-        <v>42548580</v>
+        <v>34161775</v>
       </c>
       <c r="J61" t="n">
-        <v>34161775</v>
+        <v>-10199006</v>
       </c>
       <c r="K61" t="n">
-        <v>-10199006</v>
+        <v>13706882</v>
       </c>
       <c r="L61" t="n">
-        <v>13706882</v>
+        <v>18349008</v>
       </c>
       <c r="M61" t="n">
-        <v>18349008</v>
+        <v>22666473</v>
       </c>
       <c r="N61" t="n">
-        <v>22666473</v>
+        <v>17047439</v>
       </c>
     </row>
     <row r="62">
@@ -3142,41 +3156,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-467468881</v>
+        <v>196412674</v>
       </c>
       <c r="C62" t="n">
-        <v>153973898</v>
+        <v>453279770</v>
       </c>
       <c r="D62" t="n">
-        <v>415012357</v>
+        <v>264601029</v>
       </c>
       <c r="E62" t="n">
-        <v>228905042</v>
-      </c>
-      <c r="F62" t="n">
-        <v>312229929</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>343441744</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>814530370</v>
+      </c>
       <c r="H62" t="n">
-        <v>704024614</v>
+        <v>232630416</v>
       </c>
       <c r="I62" t="n">
-        <v>-9932561</v>
+        <v>257938852</v>
       </c>
       <c r="J62" t="n">
-        <v>-4969962</v>
+        <v>-309599825</v>
       </c>
       <c r="K62" t="n">
-        <v>-560378882</v>
+        <v>411983227</v>
       </c>
       <c r="L62" t="n">
-        <v>289481936</v>
+        <v>526877764</v>
       </c>
       <c r="M62" t="n">
-        <v>402295096</v>
+        <v>664653224</v>
       </c>
       <c r="N62" t="n">
-        <v>657535198</v>
+        <v>-289515546</v>
       </c>
     </row>
     <row r="63">
@@ -3186,41 +3200,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-16731746</v>
+        <v>20015312</v>
       </c>
       <c r="C63" t="n">
-        <v>62454088</v>
+        <v>-10460605</v>
       </c>
       <c r="D63" t="n">
-        <v>27806808</v>
+        <v>-3137222</v>
       </c>
       <c r="E63" t="n">
-        <v>32558765</v>
-      </c>
-      <c r="F63" t="n">
-        <v>40013223</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>8801408</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>367124</v>
+      </c>
       <c r="H63" t="n">
-        <v>110872880</v>
+        <v>-988009</v>
       </c>
       <c r="I63" t="n">
-        <v>241574968</v>
+        <v>-8196141</v>
       </c>
       <c r="J63" t="n">
-        <v>254712673</v>
+        <v>1866982</v>
       </c>
       <c r="K63" t="n">
-        <v>252646039</v>
+        <v>7999690</v>
       </c>
       <c r="L63" t="n">
-        <v>130500981</v>
+        <v>8143744</v>
       </c>
       <c r="M63" t="n">
-        <v>132726412</v>
+        <v>13911878</v>
       </c>
       <c r="N63" t="n">
-        <v>21029904</v>
+        <v>13694871</v>
       </c>
     </row>
     <row r="64">
@@ -3230,41 +3244,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3780921973</v>
+        <v>8459382335</v>
       </c>
       <c r="C64" t="n">
-        <v>8459380476</v>
+        <v>16056438972</v>
       </c>
       <c r="D64" t="n">
-        <v>16056423049</v>
+        <v>18741825495</v>
       </c>
       <c r="E64" t="n">
-        <v>18741819385</v>
-      </c>
-      <c r="F64" t="n">
-        <v>15096704607</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>15096713957</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>6706723445</v>
+      </c>
       <c r="H64" t="n">
-        <v>6706733806</v>
+        <v>4317168169</v>
       </c>
       <c r="I64" t="n">
-        <v>4317177726</v>
+        <v>-2539829627</v>
       </c>
       <c r="J64" t="n">
-        <v>-2539816363</v>
+        <v>-3224057764</v>
       </c>
       <c r="K64" t="n">
-        <v>-3224052470</v>
+        <v>-4488334765</v>
       </c>
       <c r="L64" t="n">
-        <v>-4488338229</v>
+        <v>-3672614024</v>
       </c>
       <c r="M64" t="n">
-        <v>-3672608503</v>
+        <v>-780648999</v>
       </c>
       <c r="N64" t="n">
-        <v>-780649210</v>
+        <v>-3985946677</v>
       </c>
     </row>
     <row r="65">
@@ -3274,41 +3288,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-29550783</v>
+        <v>501954266</v>
       </c>
       <c r="C65" t="n">
-        <v>501952288</v>
+        <v>1182255956</v>
       </c>
       <c r="D65" t="n">
-        <v>1182257010</v>
+        <v>3076409672</v>
       </c>
       <c r="E65" t="n">
-        <v>3076408821</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1916433720</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>1916440249</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>1064853811</v>
+      </c>
       <c r="H65" t="n">
-        <v>1064845232</v>
+        <v>-1091100280</v>
       </c>
       <c r="I65" t="n">
-        <v>-1091104382</v>
+        <v>-88698565</v>
       </c>
       <c r="J65" t="n">
-        <v>-88698919</v>
+        <v>-77803614</v>
       </c>
       <c r="K65" t="n">
-        <v>-77802972</v>
+        <v>172641567</v>
       </c>
       <c r="L65" t="n">
-        <v>172641562</v>
+        <v>-216897423</v>
       </c>
       <c r="M65" t="n">
-        <v>-216893894</v>
+        <v>88131034</v>
       </c>
       <c r="N65" t="n">
-        <v>88134590</v>
+        <v>142027228</v>
       </c>
     </row>
     <row r="66">
@@ -3318,41 +3332,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9341357</v>
+        <v>473829042</v>
       </c>
       <c r="C66" t="n">
-        <v>473832879</v>
+        <v>1042834661</v>
       </c>
       <c r="D66" t="n">
-        <v>1042849530</v>
+        <v>985562360</v>
       </c>
       <c r="E66" t="n">
-        <v>985569321</v>
-      </c>
-      <c r="F66" t="n">
-        <v>964327363</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>964311484</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>375400091</v>
+      </c>
       <c r="H66" t="n">
-        <v>375398309</v>
+        <v>57372955</v>
       </c>
       <c r="I66" t="n">
-        <v>57367500</v>
+        <v>-19152366</v>
       </c>
       <c r="J66" t="n">
-        <v>-19165276</v>
+        <v>-170204433</v>
       </c>
       <c r="K66" t="n">
-        <v>-170210369</v>
+        <v>-397190364</v>
       </c>
       <c r="L66" t="n">
-        <v>-397186895</v>
+        <v>-529860898</v>
       </c>
       <c r="M66" t="n">
-        <v>-529869948</v>
+        <v>-154710114</v>
       </c>
       <c r="N66" t="n">
-        <v>-154713459</v>
+        <v>94449471</v>
       </c>
     </row>
     <row r="67">
@@ -3362,28 +3376,42 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1573</v>
+        <v>-2545</v>
       </c>
       <c r="C67" t="n">
-        <v>-2545</v>
+        <v>3375</v>
       </c>
       <c r="D67" t="n">
-        <v>3375</v>
+        <v>-2445</v>
       </c>
       <c r="E67" t="n">
-        <v>-2445</v>
-      </c>
-      <c r="F67" t="n">
         <v>-3727</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>-5239</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3240</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7362</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4566</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1478</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-7765</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-6426</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-7236</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3392,41 +3420,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1198</v>
+        <v>5039</v>
       </c>
       <c r="C68" t="n">
-        <v>5039</v>
+        <v>9178</v>
       </c>
       <c r="D68" t="n">
-        <v>9178</v>
+        <v>10025</v>
       </c>
       <c r="E68" t="n">
-        <v>10025</v>
-      </c>
-      <c r="F68" t="n">
         <v>-2244</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>819</v>
+      </c>
       <c r="H68" t="n">
-        <v>819</v>
+        <v>-9702</v>
       </c>
       <c r="I68" t="n">
-        <v>-9702</v>
+        <v>1460</v>
       </c>
       <c r="J68" t="n">
-        <v>1460</v>
+        <v>-4837</v>
       </c>
       <c r="K68" t="n">
-        <v>-4837</v>
+        <v>693</v>
       </c>
       <c r="L68" t="n">
-        <v>693</v>
+        <v>2390</v>
       </c>
       <c r="M68" t="n">
-        <v>2390</v>
+        <v>6069</v>
       </c>
       <c r="N68" t="n">
-        <v>6069</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="69">
@@ -3436,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-6356819327</v>
+        <v>-4668203137</v>
       </c>
       <c r="C69" t="n">
-        <v>-4668194140</v>
+        <v>3406245763</v>
       </c>
       <c r="D69" t="n">
-        <v>3406266689</v>
+        <v>5725603487</v>
       </c>
       <c r="E69" t="n">
-        <v>5725693294</v>
-      </c>
-      <c r="F69" t="n">
-        <v>15581827164</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>15581667470</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>18503571449</v>
+      </c>
       <c r="H69" t="n">
-        <v>18503749650</v>
+        <v>10962202678</v>
       </c>
       <c r="I69" t="n">
-        <v>10962324773</v>
+        <v>12447030346</v>
       </c>
       <c r="J69" t="n">
-        <v>12447060309</v>
+        <v>6977333238</v>
       </c>
       <c r="K69" t="n">
-        <v>6977351495</v>
+        <v>13180584752</v>
       </c>
       <c r="L69" t="n">
-        <v>13180571278</v>
+        <v>20690443815</v>
       </c>
       <c r="M69" t="n">
-        <v>20690500485</v>
+        <v>28103638626</v>
       </c>
       <c r="N69" t="n">
-        <v>28103652782</v>
+        <v>22173191021</v>
       </c>
     </row>
     <row r="70">
@@ -3480,41 +3508,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>467175578</v>
+        <v>1291008432</v>
       </c>
       <c r="C70" t="n">
-        <v>1291012347</v>
+        <v>1749538904</v>
       </c>
       <c r="D70" t="n">
-        <v>1749535975</v>
+        <v>1663027451</v>
       </c>
       <c r="E70" t="n">
-        <v>1663022248</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3166371480</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>3166375474</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>1426199804</v>
+      </c>
       <c r="H70" t="n">
-        <v>1426200771</v>
+        <v>-1405995553</v>
       </c>
       <c r="I70" t="n">
-        <v>-1405987714</v>
+        <v>-3161485826</v>
       </c>
       <c r="J70" t="n">
-        <v>-3161482010</v>
+        <v>-1474891125</v>
       </c>
       <c r="K70" t="n">
-        <v>-1474889466</v>
+        <v>-76071779</v>
       </c>
       <c r="L70" t="n">
-        <v>-76072758</v>
+        <v>978565085</v>
       </c>
       <c r="M70" t="n">
-        <v>978564792</v>
+        <v>1359001595</v>
       </c>
       <c r="N70" t="n">
-        <v>1358993821</v>
+        <v>2474345248</v>
       </c>
     </row>
     <row r="71">
@@ -3524,41 +3552,41 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>41864751</v>
+        <v>1250517227</v>
       </c>
       <c r="C71" t="n">
-        <v>1250504315</v>
+        <v>2488052607</v>
       </c>
       <c r="D71" t="n">
-        <v>2488034610</v>
+        <v>2548400876</v>
       </c>
       <c r="E71" t="n">
-        <v>2548316272</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3014228342</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>3014384042</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1955914249</v>
+      </c>
       <c r="H71" t="n">
-        <v>1955735081</v>
+        <v>-70158564</v>
       </c>
       <c r="I71" t="n">
-        <v>-70288498</v>
+        <v>-591639169</v>
       </c>
       <c r="J71" t="n">
-        <v>-591672948</v>
+        <v>-1208752657</v>
       </c>
       <c r="K71" t="n">
-        <v>-1208772573</v>
+        <v>406573099</v>
       </c>
       <c r="L71" t="n">
-        <v>406587552</v>
+        <v>189382801</v>
       </c>
       <c r="M71" t="n">
-        <v>189326424</v>
+        <v>1633684550</v>
       </c>
       <c r="N71" t="n">
-        <v>1633678168</v>
+        <v>63671554</v>
       </c>
     </row>
     <row r="72">
@@ -3568,41 +3596,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-46987637</v>
+        <v>-17327222</v>
       </c>
       <c r="C72" t="n">
-        <v>-17327222</v>
+        <v>32307246</v>
       </c>
       <c r="D72" t="n">
-        <v>32307246</v>
+        <v>18803401</v>
       </c>
       <c r="E72" t="n">
-        <v>18803401</v>
-      </c>
-      <c r="F72" t="n">
         <v>108336514</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>25124633</v>
+      </c>
       <c r="H72" t="n">
-        <v>25124633</v>
+        <v>269658712</v>
       </c>
       <c r="I72" t="n">
-        <v>269658712</v>
+        <v>226492707</v>
       </c>
       <c r="J72" t="n">
-        <v>226492707</v>
+        <v>359985812</v>
       </c>
       <c r="K72" t="n">
-        <v>359985812</v>
+        <v>42818759</v>
       </c>
       <c r="L72" t="n">
-        <v>42818759</v>
+        <v>70519235</v>
       </c>
       <c r="M72" t="n">
-        <v>70519235</v>
+        <v>49131659</v>
       </c>
       <c r="N72" t="n">
-        <v>49131659</v>
+        <v>22034564</v>
       </c>
     </row>
     <row r="73">
@@ -3612,41 +3640,41 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-705650</v>
+        <v>10539281</v>
       </c>
       <c r="C73" t="n">
-        <v>10539281</v>
+        <v>17585162</v>
       </c>
       <c r="D73" t="n">
-        <v>17585162</v>
+        <v>15302256</v>
       </c>
       <c r="E73" t="n">
-        <v>15302256</v>
-      </c>
-      <c r="F73" t="n">
         <v>14809395</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>27005025</v>
+      </c>
       <c r="H73" t="n">
-        <v>27005025</v>
+        <v>292445567</v>
       </c>
       <c r="I73" t="n">
-        <v>292445567</v>
+        <v>228191018</v>
       </c>
       <c r="J73" t="n">
-        <v>228191018</v>
+        <v>277275152</v>
       </c>
       <c r="K73" t="n">
-        <v>277275152</v>
+        <v>-62318724</v>
       </c>
       <c r="L73" t="n">
-        <v>-62318724</v>
+        <v>62789714</v>
       </c>
       <c r="M73" t="n">
-        <v>62789714</v>
+        <v>70097567</v>
       </c>
       <c r="N73" t="n">
-        <v>70097567</v>
+        <v>89878087</v>
       </c>
     </row>
     <row r="74">
@@ -3656,41 +3684,41 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-513095267</v>
+        <v>-207212643</v>
       </c>
       <c r="C74" t="n">
-        <v>-207212643</v>
+        <v>1281851375</v>
       </c>
       <c r="D74" t="n">
-        <v>1281851375</v>
+        <v>432362375</v>
       </c>
       <c r="E74" t="n">
-        <v>432362375</v>
-      </c>
-      <c r="F74" t="n">
         <v>1229716288</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>460031633</v>
+      </c>
       <c r="H74" t="n">
-        <v>460031633</v>
+        <v>-121590793</v>
       </c>
       <c r="I74" t="n">
-        <v>-121590793</v>
+        <v>-676389768</v>
       </c>
       <c r="J74" t="n">
-        <v>-676389768</v>
+        <v>-464114031</v>
       </c>
       <c r="K74" t="n">
-        <v>-464114031</v>
+        <v>821841234</v>
       </c>
       <c r="L74" t="n">
-        <v>821841234</v>
+        <v>290287368</v>
       </c>
       <c r="M74" t="n">
-        <v>290287368</v>
+        <v>403557866</v>
       </c>
       <c r="N74" t="n">
-        <v>403557866</v>
+        <v>279158099</v>
       </c>
     </row>
     <row r="75">
@@ -3700,41 +3728,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>687356667</v>
+        <v>1700166722</v>
       </c>
       <c r="C75" t="n">
-        <v>1700166722</v>
+        <v>2641155645</v>
       </c>
       <c r="D75" t="n">
-        <v>2641155645</v>
+        <v>1505539809</v>
       </c>
       <c r="E75" t="n">
-        <v>1505539809</v>
-      </c>
-      <c r="F75" t="n">
         <v>1742793751</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>-255499745</v>
+      </c>
       <c r="H75" t="n">
-        <v>-255499745</v>
+        <v>-1150572981</v>
       </c>
       <c r="I75" t="n">
-        <v>-1150572981</v>
+        <v>-3342092534</v>
       </c>
       <c r="J75" t="n">
-        <v>-3342092534</v>
+        <v>-2538350708</v>
       </c>
       <c r="K75" t="n">
-        <v>-2538350708</v>
+        <v>-84562710</v>
       </c>
       <c r="L75" t="n">
-        <v>-84562710</v>
+        <v>225995384</v>
       </c>
       <c r="M75" t="n">
-        <v>225995384</v>
+        <v>1233954099</v>
       </c>
       <c r="N75" t="n">
-        <v>1233954099</v>
+        <v>1537159565</v>
       </c>
     </row>
     <row r="76">
@@ -3744,41 +3772,41 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>226034097</v>
+        <v>286285903</v>
       </c>
       <c r="C76" t="n">
-        <v>263950318</v>
+        <v>534827504</v>
       </c>
       <c r="D76" t="n">
-        <v>456026376</v>
+        <v>407405853</v>
       </c>
       <c r="E76" t="n">
-        <v>324534694</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1001306085</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>1090063830</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>444151053</v>
+      </c>
       <c r="H76" t="n">
-        <v>358671847</v>
+        <v>-121861109</v>
       </c>
       <c r="I76" t="n">
-        <v>-112507282</v>
+        <v>-213741762</v>
       </c>
       <c r="J76" t="n">
-        <v>-219138064</v>
+        <v>128097549</v>
       </c>
       <c r="K76" t="n">
-        <v>214064748</v>
+        <v>777271980</v>
       </c>
       <c r="L76" t="n">
-        <v>736894854</v>
+        <v>695497459</v>
       </c>
       <c r="M76" t="n">
-        <v>520333692</v>
+        <v>834861456</v>
       </c>
       <c r="N76" t="n">
-        <v>459104624</v>
+        <v>294550779</v>
       </c>
     </row>
     <row r="77">
@@ -3788,41 +3816,41 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1059147842</v>
+        <v>-1985581699</v>
       </c>
       <c r="C77" t="n">
-        <v>-1985581699</v>
+        <v>9403136262</v>
       </c>
       <c r="D77" t="n">
-        <v>9403136262</v>
+        <v>7889539378</v>
       </c>
       <c r="E77" t="n">
-        <v>7889539378</v>
-      </c>
-      <c r="F77" t="n">
         <v>16526116813</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>19160846733</v>
+      </c>
       <c r="H77" t="n">
-        <v>19160846733</v>
+        <v>8458348883</v>
       </c>
       <c r="I77" t="n">
-        <v>8458348883</v>
+        <v>9247200406</v>
       </c>
       <c r="J77" t="n">
-        <v>9247200406</v>
+        <v>-535871307</v>
       </c>
       <c r="K77" t="n">
-        <v>-535871307</v>
+        <v>8877184326</v>
       </c>
       <c r="L77" t="n">
-        <v>8877184326</v>
+        <v>9760240491</v>
       </c>
       <c r="M77" t="n">
-        <v>9760240491</v>
+        <v>13665696916</v>
       </c>
       <c r="N77" t="n">
-        <v>13665696916</v>
+        <v>12742684531</v>
       </c>
     </row>
     <row r="78">
@@ -3832,41 +3860,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-684811599</v>
+        <v>-596641317</v>
       </c>
       <c r="C78" t="n">
-        <v>-596641317</v>
+        <v>1868122483</v>
       </c>
       <c r="D78" t="n">
-        <v>1868122483</v>
+        <v>850697366</v>
       </c>
       <c r="E78" t="n">
-        <v>850697366</v>
-      </c>
-      <c r="F78" t="n">
         <v>2741909580</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>3079767278</v>
+      </c>
       <c r="H78" t="n">
-        <v>3079767278</v>
+        <v>787816015</v>
       </c>
       <c r="I78" t="n">
-        <v>787816015</v>
+        <v>1336411401</v>
       </c>
       <c r="J78" t="n">
-        <v>1336411401</v>
+        <v>804156564</v>
       </c>
       <c r="K78" t="n">
-        <v>804156564</v>
+        <v>1874704133</v>
       </c>
       <c r="L78" t="n">
-        <v>1874704133</v>
+        <v>1137078511</v>
       </c>
       <c r="M78" t="n">
-        <v>1137078511</v>
+        <v>1191242602</v>
       </c>
       <c r="N78" t="n">
-        <v>1191242602</v>
+        <v>3339028096</v>
       </c>
     </row>
     <row r="79">
@@ -3876,41 +3904,41 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-534762908</v>
+        <v>-2935276715</v>
       </c>
       <c r="C79" t="n">
-        <v>-2935276715</v>
+        <v>3671426937</v>
       </c>
       <c r="D79" t="n">
-        <v>3671426937</v>
+        <v>-67410669</v>
       </c>
       <c r="E79" t="n">
-        <v>-67410669</v>
-      </c>
-      <c r="F79" t="n">
         <v>6271172092</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>7032957489</v>
+      </c>
       <c r="H79" t="n">
-        <v>7032957489</v>
+        <v>-3667289122</v>
       </c>
       <c r="I79" t="n">
-        <v>-3667289122</v>
+        <v>-7143890105</v>
       </c>
       <c r="J79" t="n">
-        <v>-7143890105</v>
+        <v>-12534039176</v>
       </c>
       <c r="K79" t="n">
-        <v>-12534039176</v>
+        <v>-1690732026</v>
       </c>
       <c r="L79" t="n">
-        <v>-1690732026</v>
+        <v>-8003086146</v>
       </c>
       <c r="M79" t="n">
-        <v>-8003086146</v>
+        <v>-3092936621</v>
       </c>
       <c r="N79" t="n">
-        <v>-3092936621</v>
+        <v>4284599600</v>
       </c>
     </row>
     <row r="80">
@@ -3920,41 +3948,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-7912</v>
+        <v>19662</v>
       </c>
       <c r="C80" t="n">
-        <v>19662</v>
+        <v>14840</v>
       </c>
       <c r="D80" t="n">
-        <v>14840</v>
+        <v>-9644</v>
       </c>
       <c r="E80" t="n">
-        <v>-9644</v>
-      </c>
-      <c r="F80" t="n">
         <v>-10270</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>33114</v>
+      </c>
       <c r="H80" t="n">
-        <v>33114</v>
+        <v>18752</v>
       </c>
       <c r="I80" t="n">
-        <v>18752</v>
+        <v>17567</v>
       </c>
       <c r="J80" t="n">
-        <v>17567</v>
+        <v>-17532</v>
       </c>
       <c r="K80" t="n">
-        <v>-17532</v>
+        <v>13462</v>
       </c>
       <c r="L80" t="n">
-        <v>13462</v>
+        <v>21600</v>
       </c>
       <c r="M80" t="n">
-        <v>21600</v>
+        <v>46131</v>
       </c>
       <c r="N80" t="n">
-        <v>46131</v>
+        <v>24529</v>
       </c>
     </row>
     <row r="81">
@@ -3964,41 +3992,41 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-42999</v>
+        <v>-13766</v>
       </c>
       <c r="C81" t="n">
-        <v>-20950</v>
+        <v>11558</v>
       </c>
       <c r="D81" t="n">
-        <v>19226</v>
+        <v>20990</v>
       </c>
       <c r="E81" t="n">
-        <v>29953</v>
-      </c>
-      <c r="F81" t="n">
-        <v>82682</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>64659</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>67207</v>
+      </c>
       <c r="H81" t="n">
-        <v>84294</v>
+        <v>15666</v>
       </c>
       <c r="I81" t="n">
-        <v>16317</v>
+        <v>-1587</v>
       </c>
       <c r="J81" t="n">
-        <v>2627</v>
+        <v>-30695</v>
       </c>
       <c r="K81" t="n">
-        <v>-39201</v>
+        <v>-4787</v>
       </c>
       <c r="L81" t="n">
-        <v>-6316</v>
+        <v>-42019</v>
       </c>
       <c r="M81" t="n">
-        <v>-47223</v>
+        <v>3689</v>
       </c>
       <c r="N81" t="n">
-        <v>-1641</v>
+        <v>32229</v>
       </c>
     </row>
     <row r="82">
@@ -4008,41 +4036,41 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1832</v>
+        <v>-8256</v>
       </c>
       <c r="C82" t="n">
-        <v>-1072</v>
+        <v>14261</v>
       </c>
       <c r="D82" t="n">
-        <v>6593</v>
+        <v>15014</v>
       </c>
       <c r="E82" t="n">
-        <v>6051</v>
-      </c>
-      <c r="F82" t="n">
-        <v>7417</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>25440</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>16259</v>
+      </c>
       <c r="H82" t="n">
-        <v>-828</v>
+        <v>3937</v>
       </c>
       <c r="I82" t="n">
-        <v>3286</v>
+        <v>4014</v>
       </c>
       <c r="J82" t="n">
-        <v>-200</v>
+        <v>-6819</v>
       </c>
       <c r="K82" t="n">
-        <v>1687</v>
+        <v>-4621</v>
       </c>
       <c r="L82" t="n">
-        <v>-3092</v>
+        <v>-4955</v>
       </c>
       <c r="M82" t="n">
-        <v>249</v>
+        <v>-7317</v>
       </c>
       <c r="N82" t="n">
-        <v>-1987</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="83">
@@ -4052,41 +4080,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-58099444</v>
+        <v>45675471</v>
       </c>
       <c r="C83" t="n">
-        <v>45675471</v>
+        <v>140166671</v>
       </c>
       <c r="D83" t="n">
-        <v>140166671</v>
+        <v>109462898</v>
       </c>
       <c r="E83" t="n">
-        <v>109462898</v>
-      </c>
-      <c r="F83" t="n">
         <v>58507601</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>88718952</v>
+      </c>
       <c r="H83" t="n">
-        <v>88718952</v>
+        <v>24727806</v>
       </c>
       <c r="I83" t="n">
-        <v>24727806</v>
+        <v>93402393</v>
       </c>
       <c r="J83" t="n">
-        <v>93402393</v>
+        <v>44498544</v>
       </c>
       <c r="K83" t="n">
-        <v>44498544</v>
+        <v>140648751</v>
       </c>
       <c r="L83" t="n">
-        <v>140648751</v>
+        <v>262990787</v>
       </c>
       <c r="M83" t="n">
-        <v>262990787</v>
+        <v>314668020</v>
       </c>
       <c r="N83" t="n">
-        <v>314668020</v>
+        <v>317504585</v>
       </c>
     </row>
     <row r="84">
@@ -4096,41 +4124,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>172476394</v>
+        <v>522298760</v>
       </c>
       <c r="C84" t="n">
-        <v>522286121</v>
+        <v>4317232</v>
       </c>
       <c r="D84" t="n">
-        <v>4301557</v>
+        <v>-54713557</v>
       </c>
       <c r="E84" t="n">
-        <v>-54728293</v>
-      </c>
-      <c r="F84" t="n">
-        <v>661761191</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>661762799</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>1046516002</v>
+      </c>
       <c r="H84" t="n">
-        <v>1046517866</v>
+        <v>1149120440</v>
       </c>
       <c r="I84" t="n">
-        <v>1149125321</v>
+        <v>1987563684</v>
       </c>
       <c r="J84" t="n">
-        <v>1987567291</v>
+        <v>1199787232</v>
       </c>
       <c r="K84" t="n">
-        <v>1199789261</v>
+        <v>406266719</v>
       </c>
       <c r="L84" t="n">
-        <v>406265868</v>
+        <v>-705552395</v>
       </c>
       <c r="M84" t="n">
-        <v>-705551955</v>
+        <v>710931588</v>
       </c>
       <c r="N84" t="n">
-        <v>710928983</v>
+        <v>1685571476</v>
       </c>
     </row>
     <row r="85">
@@ -4140,41 +4168,41 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-27518924</v>
+        <v>4284926253</v>
       </c>
       <c r="C85" t="n">
-        <v>4284938892</v>
+        <v>1784896218</v>
       </c>
       <c r="D85" t="n">
-        <v>1784911893</v>
+        <v>-112496530</v>
       </c>
       <c r="E85" t="n">
-        <v>-112481794</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-280153895</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>-280155503</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1151578342</v>
+      </c>
       <c r="H85" t="n">
-        <v>1151576478</v>
+        <v>1017407401</v>
       </c>
       <c r="I85" t="n">
-        <v>1017402520</v>
+        <v>-1036520627</v>
       </c>
       <c r="J85" t="n">
-        <v>-1036524234</v>
+        <v>-1242985628</v>
       </c>
       <c r="K85" t="n">
-        <v>-1242987657</v>
+        <v>-886519174</v>
       </c>
       <c r="L85" t="n">
-        <v>-886518323</v>
+        <v>-1614207574</v>
       </c>
       <c r="M85" t="n">
-        <v>-1614208014</v>
+        <v>-1141226682</v>
       </c>
       <c r="N85" t="n">
-        <v>-1141224077</v>
+        <v>-2641473974</v>
       </c>
     </row>
     <row r="86">
@@ -4184,41 +4212,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>198034750</v>
+        <v>-59082390</v>
       </c>
       <c r="C86" t="n">
-        <v>-59082390</v>
+        <v>31355861</v>
       </c>
       <c r="D86" t="n">
-        <v>31355861</v>
+        <v>-180036521</v>
       </c>
       <c r="E86" t="n">
-        <v>-180036521</v>
-      </c>
-      <c r="F86" t="n">
         <v>148522715</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>423728069</v>
+      </c>
       <c r="H86" t="n">
-        <v>423728069</v>
+        <v>1059629006</v>
       </c>
       <c r="I86" t="n">
-        <v>1059629006</v>
+        <v>1361828623</v>
       </c>
       <c r="J86" t="n">
-        <v>1361828623</v>
+        <v>884776823</v>
       </c>
       <c r="K86" t="n">
-        <v>884776823</v>
+        <v>121385125</v>
       </c>
       <c r="L86" t="n">
-        <v>121385125</v>
+        <v>223427197</v>
       </c>
       <c r="M86" t="n">
-        <v>223427197</v>
+        <v>272088106</v>
       </c>
       <c r="N86" t="n">
-        <v>272088106</v>
+        <v>174128142</v>
       </c>
     </row>
     <row r="87">
@@ -4228,41 +4256,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>275397563</v>
+        <v>307947298</v>
       </c>
       <c r="C87" t="n">
-        <v>307953111</v>
+        <v>306558815</v>
       </c>
       <c r="D87" t="n">
-        <v>306575161</v>
+        <v>-115033012</v>
       </c>
       <c r="E87" t="n">
-        <v>-115022147</v>
-      </c>
-      <c r="F87" t="n">
-        <v>685583295</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>685574080</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>958726666</v>
+      </c>
       <c r="H87" t="n">
-        <v>958730121</v>
+        <v>646465886</v>
       </c>
       <c r="I87" t="n">
-        <v>646463868</v>
+        <v>318004387</v>
       </c>
       <c r="J87" t="n">
-        <v>318003368</v>
+        <v>194312382</v>
       </c>
       <c r="K87" t="n">
-        <v>194305928</v>
+        <v>423206623</v>
       </c>
       <c r="L87" t="n">
-        <v>423202594</v>
+        <v>323797539</v>
       </c>
       <c r="M87" t="n">
-        <v>323794248</v>
+        <v>944719105</v>
       </c>
       <c r="N87" t="n">
-        <v>944715899</v>
+        <v>1731222459</v>
       </c>
     </row>
     <row r="88">
@@ -4272,41 +4300,41 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8752233</v>
+        <v>-54300512</v>
       </c>
       <c r="C88" t="n">
-        <v>-54306325</v>
+        <v>199428049</v>
       </c>
       <c r="D88" t="n">
-        <v>199411703</v>
+        <v>30953099</v>
       </c>
       <c r="E88" t="n">
-        <v>30942234</v>
-      </c>
-      <c r="F88" t="n">
-        <v>447244856</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>447254071</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>793566474</v>
+      </c>
       <c r="H88" t="n">
-        <v>793563019</v>
+        <v>450668548</v>
       </c>
       <c r="I88" t="n">
-        <v>450670566</v>
+        <v>331699841</v>
       </c>
       <c r="J88" t="n">
-        <v>331700860</v>
+        <v>-387388270</v>
       </c>
       <c r="K88" t="n">
-        <v>-387381816</v>
+        <v>-35143278</v>
       </c>
       <c r="L88" t="n">
-        <v>-35139249</v>
+        <v>-199306964</v>
       </c>
       <c r="M88" t="n">
-        <v>-199303673</v>
+        <v>226313522</v>
       </c>
       <c r="N88" t="n">
-        <v>226316728</v>
+        <v>-49946600</v>
       </c>
     </row>
     <row r="89">
@@ -4316,41 +4344,41 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1197807023</v>
+        <v>2700663752</v>
       </c>
       <c r="C89" t="n">
-        <v>2340760064</v>
+        <v>7748154106</v>
       </c>
       <c r="D89" t="n">
-        <v>7263529513</v>
+        <v>8613367976</v>
       </c>
       <c r="E89" t="n">
-        <v>6470432578</v>
-      </c>
-      <c r="F89" t="n">
-        <v>665541112</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>1737431521</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>-4896414280</v>
+      </c>
       <c r="H89" t="n">
-        <v>-6108551218</v>
+        <v>-7635905090</v>
       </c>
       <c r="I89" t="n">
-        <v>-7154195426</v>
+        <v>-1422448111</v>
       </c>
       <c r="J89" t="n">
-        <v>-1996550122</v>
+        <v>-780919007</v>
       </c>
       <c r="K89" t="n">
-        <v>-942514770</v>
+        <v>5039966969</v>
       </c>
       <c r="L89" t="n">
-        <v>4119906625</v>
+        <v>-1190791964</v>
       </c>
       <c r="M89" t="n">
-        <v>-784553097</v>
+        <v>1817815780</v>
       </c>
       <c r="N89" t="n">
-        <v>2097476103</v>
+        <v>-964795363</v>
       </c>
     </row>
     <row r="90">
@@ -4360,41 +4388,41 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>650449</v>
+        <v>-58117725</v>
       </c>
       <c r="C90" t="n">
-        <v>948079</v>
+        <v>70174851</v>
       </c>
       <c r="D90" t="n">
-        <v>4531686</v>
+        <v>113233465</v>
       </c>
       <c r="E90" t="n">
-        <v>4478655</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5181314</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>228658462</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>107343205</v>
+      </c>
       <c r="H90" t="n">
-        <v>3935276</v>
+        <v>-72190621</v>
       </c>
       <c r="I90" t="n">
-        <v>1437024</v>
+        <v>-85777980</v>
       </c>
       <c r="J90" t="n">
-        <v>517051</v>
+        <v>16192412</v>
       </c>
       <c r="K90" t="n">
-        <v>-2843108</v>
+        <v>148836707</v>
       </c>
       <c r="L90" t="n">
-        <v>-959028</v>
+        <v>126281863</v>
       </c>
       <c r="M90" t="n">
-        <v>-2220547</v>
+        <v>150783754</v>
       </c>
       <c r="N90" t="n">
-        <v>-5066385</v>
+        <v>11168069</v>
       </c>
     </row>
     <row r="91">
@@ -4404,41 +4432,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-878843865</v>
+        <v>409889978</v>
       </c>
       <c r="C91" t="n">
-        <v>711638801</v>
+        <v>1950721257</v>
       </c>
       <c r="D91" t="n">
-        <v>2502511604</v>
+        <v>1631682868</v>
       </c>
       <c r="E91" t="n">
-        <v>3884868138</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3746256167</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>2448433858</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>2759113875</v>
+      </c>
       <c r="H91" t="n">
-        <v>3971250813</v>
+        <v>845291304</v>
       </c>
       <c r="I91" t="n">
-        <v>363581640</v>
+        <v>-514727538</v>
       </c>
       <c r="J91" t="n">
-        <v>59374473</v>
+        <v>-997778912</v>
       </c>
       <c r="K91" t="n">
-        <v>-836183149</v>
+        <v>990968443</v>
       </c>
       <c r="L91" t="n">
-        <v>1911028787</v>
+        <v>1605646548</v>
       </c>
       <c r="M91" t="n">
-        <v>1199407681</v>
+        <v>1530544770</v>
       </c>
       <c r="N91" t="n">
-        <v>1250884447</v>
+        <v>483222215</v>
       </c>
     </row>
     <row r="92">
@@ -4448,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3758861880</v>
+        <v>4882851409</v>
       </c>
       <c r="C92" t="n">
-        <v>4653906416</v>
+        <v>27296677281</v>
       </c>
       <c r="D92" t="n">
-        <v>26385928949</v>
+        <v>13295442124</v>
       </c>
       <c r="E92" t="n">
-        <v>12883985715</v>
-      </c>
-      <c r="F92" t="n">
-        <v>22242006007</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>22700255004</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>21657863445</v>
+      </c>
       <c r="H92" t="n">
-        <v>21233614623</v>
+        <v>28624960527</v>
       </c>
       <c r="I92" t="n">
-        <v>28394642094</v>
+        <v>36872904569</v>
       </c>
       <c r="J92" t="n">
-        <v>36936951466</v>
+        <v>21342157673</v>
       </c>
       <c r="K92" t="n">
-        <v>21452088858</v>
+        <v>40819413400</v>
       </c>
       <c r="L92" t="n">
-        <v>40272393866</v>
+        <v>36869176104</v>
       </c>
       <c r="M92" t="n">
-        <v>35615284325</v>
+        <v>36389628032</v>
       </c>
       <c r="N92" t="n">
-        <v>35008322804</v>
+        <v>7246805468</v>
       </c>
     </row>
     <row r="93">
@@ -4492,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>320019205</v>
+        <v>3258811460</v>
       </c>
       <c r="C93" t="n">
-        <v>3349514285</v>
+        <v>12264173470</v>
       </c>
       <c r="D93" t="n">
-        <v>12349816389</v>
+        <v>11620015438</v>
       </c>
       <c r="E93" t="n">
-        <v>11680572186</v>
-      </c>
-      <c r="F93" t="n">
-        <v>19928547913</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>19837345175</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>14901161569</v>
+      </c>
       <c r="H93" t="n">
-        <v>14871968891</v>
+        <v>-315745792</v>
       </c>
       <c r="I93" t="n">
-        <v>-431022740</v>
+        <v>-4420743363</v>
       </c>
       <c r="J93" t="n">
-        <v>-4546537899</v>
+        <v>-5377105562</v>
       </c>
       <c r="K93" t="n">
-        <v>-5361971752</v>
+        <v>7450760275</v>
       </c>
       <c r="L93" t="n">
-        <v>7546258886</v>
+        <v>10943086595</v>
       </c>
       <c r="M93" t="n">
-        <v>11032127423</v>
+        <v>18992480139</v>
       </c>
       <c r="N93" t="n">
-        <v>19049297353</v>
+        <v>13337176574</v>
       </c>
     </row>
     <row r="94">
@@ -4536,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1311300412</v>
+        <v>5365527617</v>
       </c>
       <c r="C94" t="n">
-        <v>5557989454</v>
+        <v>9714415387</v>
       </c>
       <c r="D94" t="n">
-        <v>10603790843</v>
+        <v>10383027752</v>
       </c>
       <c r="E94" t="n">
-        <v>10795420261</v>
-      </c>
-      <c r="F94" t="n">
-        <v>10673101398</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+        <v>10238347120</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>9817808254</v>
+      </c>
       <c r="H94" t="n">
-        <v>10333865597</v>
+        <v>1632376322</v>
       </c>
       <c r="I94" t="n">
-        <v>2001129263</v>
+        <v>951072597</v>
       </c>
       <c r="J94" t="n">
-        <v>1016753452</v>
+        <v>-6382514283</v>
       </c>
       <c r="K94" t="n">
-        <v>-6533266925</v>
+        <v>1529984314</v>
       </c>
       <c r="L94" t="n">
-        <v>1994242238</v>
+        <v>118660592</v>
       </c>
       <c r="M94" t="n">
-        <v>1306237600</v>
+        <v>3550714541</v>
       </c>
       <c r="N94" t="n">
-        <v>4918460966</v>
+        <v>2790699930</v>
       </c>
     </row>
     <row r="95">
@@ -4580,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3647396626</v>
+        <v>8320715819</v>
       </c>
       <c r="C95" t="n">
-        <v>8510626419</v>
+        <v>5744889405</v>
       </c>
       <c r="D95" t="n">
-        <v>5881142460</v>
+        <v>4222887365</v>
       </c>
       <c r="E95" t="n">
-        <v>4343833160</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9226196380</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+        <v>9402854583</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>16939198402</v>
+      </c>
       <c r="H95" t="n">
-        <v>17169589894</v>
+        <v>7889280318</v>
       </c>
       <c r="I95" t="n">
-        <v>11399708754</v>
+        <v>8157736300</v>
       </c>
       <c r="J95" t="n">
-        <v>13744312256</v>
+        <v>-8128040891</v>
       </c>
       <c r="K95" t="n">
-        <v>-3571261955</v>
+        <v>3611219425</v>
       </c>
       <c r="L95" t="n">
-        <v>4405868946</v>
+        <v>2564619738</v>
       </c>
       <c r="M95" t="n">
-        <v>2147145635</v>
+        <v>15956599177</v>
       </c>
       <c r="N95" t="n">
-        <v>15050032163</v>
+        <v>16679583625</v>
       </c>
     </row>
     <row r="96">
@@ -4624,41 +4652,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-646914845</v>
+        <v>-646589512</v>
       </c>
       <c r="C96" t="n">
-        <v>-646138906</v>
+        <v>1329627388</v>
       </c>
       <c r="D96" t="n">
-        <v>1335802875</v>
+        <v>957931956</v>
       </c>
       <c r="E96" t="n">
-        <v>957938816</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3125677689</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>3128965561</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>3917817170</v>
+      </c>
       <c r="H96" t="n">
-        <v>3914250959</v>
+        <v>2485086519</v>
       </c>
       <c r="I96" t="n">
-        <v>2478604180</v>
+        <v>2539204552</v>
       </c>
       <c r="J96" t="n">
-        <v>2533556484</v>
+        <v>-423955271</v>
       </c>
       <c r="K96" t="n">
-        <v>-428497820</v>
+        <v>-250948219</v>
       </c>
       <c r="L96" t="n">
-        <v>-249091992</v>
+        <v>-2046298935</v>
       </c>
       <c r="M96" t="n">
-        <v>-2039378435</v>
+        <v>-231979840</v>
       </c>
       <c r="N96" t="n">
-        <v>-223505363</v>
+        <v>1964226634</v>
       </c>
     </row>
     <row r="97">
@@ -4668,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-2894117272</v>
+        <v>1917123359</v>
       </c>
       <c r="C97" t="n">
-        <v>1726744095</v>
+        <v>7294289834</v>
       </c>
       <c r="D97" t="n">
-        <v>7151820534</v>
+        <v>5943838729</v>
       </c>
       <c r="E97" t="n">
-        <v>5822839471</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10991307159</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+        <v>10811411971</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>19739379263</v>
+      </c>
       <c r="H97" t="n">
-        <v>19512534576</v>
+        <v>36206749479</v>
       </c>
       <c r="I97" t="n">
-        <v>32702824678</v>
+        <v>28870276691</v>
       </c>
       <c r="J97" t="n">
-        <v>23289381350</v>
+        <v>13441509075</v>
       </c>
       <c r="K97" t="n">
-        <v>8889290763</v>
+        <v>-4920052087</v>
       </c>
       <c r="L97" t="n">
-        <v>-5716573928</v>
+        <v>-1786050941</v>
       </c>
       <c r="M97" t="n">
-        <v>-1375488353</v>
+        <v>9778863345</v>
       </c>
       <c r="N97" t="n">
-        <v>10676929507</v>
+        <v>9471076707</v>
       </c>
     </row>
     <row r="98">
@@ -4712,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-8843655783</v>
+        <v>1906734175</v>
       </c>
       <c r="C98" t="n">
-        <v>4481057355</v>
+        <v>39890269157</v>
       </c>
       <c r="D98" t="n">
-        <v>34020982076</v>
+        <v>32380352637</v>
       </c>
       <c r="E98" t="n">
-        <v>24712701829</v>
-      </c>
-      <c r="F98" t="n">
-        <v>24313889013</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+        <v>32073302162</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>35582264802</v>
+      </c>
       <c r="H98" t="n">
-        <v>23838164709</v>
+        <v>6295541599</v>
       </c>
       <c r="I98" t="n">
-        <v>7166308435</v>
+        <v>24677510888</v>
       </c>
       <c r="J98" t="n">
-        <v>16873154648</v>
+        <v>-3882517628</v>
       </c>
       <c r="K98" t="n">
-        <v>1087800789</v>
+        <v>22530637535</v>
       </c>
       <c r="L98" t="n">
-        <v>26909046797</v>
+        <v>23668163408</v>
       </c>
       <c r="M98" t="n">
-        <v>29601653748</v>
+        <v>45978668807</v>
       </c>
       <c r="N98" t="n">
-        <v>42964279443</v>
+        <v>50693928059</v>
       </c>
     </row>
     <row r="99">
@@ -4756,41 +4784,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1082724332</v>
+        <v>1016211623</v>
       </c>
       <c r="C99" t="n">
-        <v>208428737</v>
+        <v>4734198794</v>
       </c>
       <c r="D99" t="n">
-        <v>3106421248</v>
+        <v>4151356681</v>
       </c>
       <c r="E99" t="n">
-        <v>2856027923</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4477781526</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>5450282093</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>4253247971</v>
+      </c>
       <c r="H99" t="n">
-        <v>3150997359</v>
+        <v>465605339</v>
       </c>
       <c r="I99" t="n">
-        <v>-26668068</v>
+        <v>570488844</v>
       </c>
       <c r="J99" t="n">
-        <v>82422619</v>
+        <v>-901710029</v>
       </c>
       <c r="K99" t="n">
-        <v>-1026027020</v>
+        <v>2725657605</v>
       </c>
       <c r="L99" t="n">
-        <v>1993986118</v>
+        <v>1293693148</v>
       </c>
       <c r="M99" t="n">
-        <v>1053270645</v>
+        <v>3770702760</v>
       </c>
       <c r="N99" t="n">
-        <v>3460570849</v>
+        <v>-785026052</v>
       </c>
     </row>
     <row r="100">
@@ -4800,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>296673788</v>
+        <v>-2819275809</v>
       </c>
       <c r="C100" t="n">
-        <v>-4122574827</v>
+        <v>10089089497</v>
       </c>
       <c r="D100" t="n">
-        <v>18975276043</v>
+        <v>2232282156</v>
       </c>
       <c r="E100" t="n">
-        <v>12481783545</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19603313626</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+        <v>9573721499</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>11763824291</v>
+      </c>
       <c r="H100" t="n">
-        <v>25914782531</v>
+        <v>6479786588</v>
       </c>
       <c r="I100" t="n">
-        <v>4517827194</v>
+        <v>9408366344</v>
       </c>
       <c r="J100" t="n">
-        <v>15849412980</v>
+        <v>-6214401794</v>
       </c>
       <c r="K100" t="n">
-        <v>-11657044884</v>
+        <v>7091833212</v>
       </c>
       <c r="L100" t="n">
-        <v>3502882312</v>
+        <v>418127169</v>
       </c>
       <c r="M100" t="n">
-        <v>-3202562886</v>
+        <v>13909222655</v>
       </c>
       <c r="N100" t="n">
-        <v>19186884990</v>
+        <v>7257722080</v>
       </c>
     </row>
     <row r="101">
@@ -4844,41 +4872,41 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2271396605</v>
+        <v>367929840</v>
       </c>
       <c r="C101" t="n">
-        <v>2235105743</v>
+        <v>380436422</v>
       </c>
       <c r="D101" t="n">
-        <v>-363975113</v>
+        <v>326331301</v>
       </c>
       <c r="E101" t="n">
-        <v>-1209013927</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-1396733623</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>-236770702</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>245621225</v>
+      </c>
       <c r="H101" t="n">
-        <v>728693269</v>
+        <v>2121683271</v>
       </c>
       <c r="I101" t="n">
-        <v>4010468708</v>
+        <v>1640869355</v>
       </c>
       <c r="J101" t="n">
-        <v>3121829644</v>
+        <v>1799296545</v>
       </c>
       <c r="K101" t="n">
-        <v>1986760999</v>
+        <v>-277517557</v>
       </c>
       <c r="L101" t="n">
-        <v>-2586337143</v>
+        <v>975393028</v>
       </c>
       <c r="M101" t="n">
-        <v>440449349</v>
+        <v>173126318</v>
       </c>
       <c r="N101" t="n">
-        <v>-374445961</v>
+        <v>-232770135</v>
       </c>
     </row>
     <row r="102">
@@ -4888,41 +4916,41 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-26932735</v>
+        <v>15382044</v>
       </c>
       <c r="C102" t="n">
-        <v>15382044</v>
+        <v>99692263</v>
       </c>
       <c r="D102" t="n">
-        <v>99692263</v>
+        <v>-44330281</v>
       </c>
       <c r="E102" t="n">
-        <v>-44330281</v>
-      </c>
-      <c r="F102" t="n">
         <v>94147781</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>214058889</v>
+      </c>
       <c r="H102" t="n">
-        <v>214058889</v>
+        <v>975011121</v>
       </c>
       <c r="I102" t="n">
-        <v>975011121</v>
+        <v>819964081</v>
       </c>
       <c r="J102" t="n">
-        <v>819964081</v>
+        <v>614869931</v>
       </c>
       <c r="K102" t="n">
-        <v>614869931</v>
+        <v>-168600821</v>
       </c>
       <c r="L102" t="n">
-        <v>-168600821</v>
+        <v>-109149729</v>
       </c>
       <c r="M102" t="n">
-        <v>-109149729</v>
+        <v>-213407450</v>
       </c>
       <c r="N102" t="n">
-        <v>-213407450</v>
+        <v>-338738667</v>
       </c>
     </row>
     <row r="103">
@@ -4932,41 +4960,41 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30896866</v>
+        <v>1895091212</v>
       </c>
       <c r="C103" t="n">
-        <v>27915309</v>
+        <v>-716738890</v>
       </c>
       <c r="D103" t="n">
-        <v>27672645</v>
+        <v>-1528376071</v>
       </c>
       <c r="E103" t="n">
-        <v>6969157</v>
-      </c>
-      <c r="F103" t="n">
-        <v>14865100</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>-1145097821</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>533743139</v>
+      </c>
       <c r="H103" t="n">
-        <v>50671095</v>
+        <v>2383134613</v>
       </c>
       <c r="I103" t="n">
-        <v>494349176</v>
+        <v>1829242800</v>
       </c>
       <c r="J103" t="n">
-        <v>348282511</v>
+        <v>612987263</v>
       </c>
       <c r="K103" t="n">
-        <v>425522809</v>
+        <v>-2389796766</v>
       </c>
       <c r="L103" t="n">
-        <v>-80977180</v>
+        <v>-562086252</v>
       </c>
       <c r="M103" t="n">
-        <v>-27142573</v>
+        <v>-719066555</v>
       </c>
       <c r="N103" t="n">
-        <v>-171494276</v>
+        <v>-1219246953</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4696673818</v>
+        <v>8686748150</v>
       </c>
       <c r="C2" t="n">
-        <v>12731627226</v>
+        <v>10244036318</v>
       </c>
       <c r="D2" t="n">
-        <v>8321731898</v>
+        <v>2831183384</v>
       </c>
       <c r="E2" t="n">
-        <v>7076680223</v>
+        <v>8652865405</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-629608521</v>
+        <v>7534575236</v>
       </c>
       <c r="H2" t="n">
-        <v>-3817680372</v>
+        <v>2166282841</v>
       </c>
       <c r="I2" t="n">
-        <v>-5361098752</v>
+        <v>6412362129</v>
       </c>
       <c r="J2" t="n">
-        <v>-5092823348</v>
+        <v>7009290464</v>
       </c>
       <c r="K2" t="n">
-        <v>3369338225</v>
+        <v>7873492485</v>
       </c>
       <c r="L2" t="n">
-        <v>3897067103</v>
+        <v>5612758408</v>
       </c>
       <c r="M2" t="n">
-        <v>15017740970</v>
+        <v>9295428448</v>
       </c>
       <c r="N2" t="n">
-        <v>22007357193</v>
+        <v>21559090705</v>
       </c>
     </row>
     <row r="3">
@@ -556,41 +556,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-133232760</v>
+        <v>4562749059</v>
       </c>
       <c r="C3" t="n">
-        <v>4542151338</v>
+        <v>2689279812</v>
       </c>
       <c r="D3" t="n">
-        <v>583540651</v>
+        <v>-1353408001</v>
       </c>
       <c r="E3" t="n">
-        <v>3914154616</v>
+        <v>-881750404</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-1506036880</v>
+        <v>-1748226385</v>
       </c>
       <c r="H3" t="n">
-        <v>-2661771589</v>
+        <v>-3310102571</v>
       </c>
       <c r="I3" t="n">
-        <v>-5215023169</v>
+        <v>-2967668594</v>
       </c>
       <c r="J3" t="n">
-        <v>-4507099788</v>
+        <v>-1798605513</v>
       </c>
       <c r="K3" t="n">
-        <v>-875213697</v>
+        <v>-3242301691</v>
       </c>
       <c r="L3" t="n">
-        <v>1575274863</v>
+        <v>-957391341</v>
       </c>
       <c r="M3" t="n">
-        <v>4112394934</v>
+        <v>-1900741548</v>
       </c>
       <c r="N3" t="n">
-        <v>6531302541</v>
+        <v>2994317523</v>
       </c>
     </row>
     <row r="4">
@@ -600,41 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2542407870</v>
+        <v>1397125986</v>
       </c>
       <c r="C4" t="n">
-        <v>-1263737488</v>
+        <v>-2635580292</v>
       </c>
       <c r="D4" t="n">
-        <v>-1734680518</v>
+        <v>-5110364277</v>
       </c>
       <c r="E4" t="n">
-        <v>374323023</v>
+        <v>-1807106434</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>995918659</v>
+        <v>-2076464772</v>
       </c>
       <c r="H4" t="n">
-        <v>-1192568784</v>
+        <v>-4617335144</v>
       </c>
       <c r="I4" t="n">
-        <v>-1300622928</v>
+        <v>-3468694477</v>
       </c>
       <c r="J4" t="n">
-        <v>-153045692</v>
+        <v>-420852532</v>
       </c>
       <c r="K4" t="n">
-        <v>2633410887</v>
+        <v>-293825746</v>
       </c>
       <c r="L4" t="n">
-        <v>894952644</v>
+        <v>-31348446</v>
       </c>
       <c r="M4" t="n">
-        <v>1387614687</v>
+        <v>2230470420</v>
       </c>
       <c r="N4" t="n">
-        <v>1183302074</v>
+        <v>2624135301</v>
       </c>
     </row>
     <row r="5">
@@ -644,41 +644,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-343489546</v>
+        <v>-84299036</v>
       </c>
       <c r="C5" t="n">
-        <v>140276473</v>
+        <v>37620064</v>
       </c>
       <c r="D5" t="n">
-        <v>284881633</v>
+        <v>-272450395</v>
       </c>
       <c r="E5" t="n">
-        <v>308480889</v>
+        <v>-133112460</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>57541950</v>
+        <v>226699389</v>
       </c>
       <c r="H5" t="n">
-        <v>-303550296</v>
+        <v>-366846433</v>
       </c>
       <c r="I5" t="n">
-        <v>-355449603</v>
+        <v>-390709731</v>
       </c>
       <c r="J5" t="n">
-        <v>428170508</v>
+        <v>625646238</v>
       </c>
       <c r="K5" t="n">
-        <v>1958835628</v>
+        <v>1945362287</v>
       </c>
       <c r="L5" t="n">
-        <v>2850356796</v>
+        <v>2807752452</v>
       </c>
       <c r="M5" t="n">
-        <v>1339759013</v>
+        <v>1830021243</v>
       </c>
       <c r="N5" t="n">
-        <v>121703135</v>
+        <v>1776988595</v>
       </c>
     </row>
     <row r="6">
@@ -688,41 +688,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776306462</v>
+        <v>1931978947</v>
       </c>
       <c r="C6" t="n">
-        <v>4926445580</v>
+        <v>1246869266</v>
       </c>
       <c r="D6" t="n">
-        <v>2300039548</v>
+        <v>588627233</v>
       </c>
       <c r="E6" t="n">
-        <v>663041383</v>
+        <v>1791852440</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1628965598</v>
+        <v>4477866687</v>
       </c>
       <c r="H6" t="n">
-        <v>274193270</v>
+        <v>3541743953</v>
       </c>
       <c r="I6" t="n">
-        <v>1184415679</v>
+        <v>5624073778</v>
       </c>
       <c r="J6" t="n">
-        <v>-821349864</v>
+        <v>5734361370</v>
       </c>
       <c r="K6" t="n">
-        <v>324257239</v>
+        <v>2898657277</v>
       </c>
       <c r="L6" t="n">
-        <v>-137659369</v>
+        <v>1709864389</v>
       </c>
       <c r="M6" t="n">
-        <v>1536747572</v>
+        <v>2344252586</v>
       </c>
       <c r="N6" t="n">
-        <v>1438154268</v>
+        <v>1421472621</v>
       </c>
     </row>
     <row r="7">
@@ -732,41 +732,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384371869</v>
+        <v>960434725</v>
       </c>
       <c r="C7" t="n">
-        <v>1509113025</v>
+        <v>1292039417</v>
       </c>
       <c r="D7" t="n">
-        <v>1292402937</v>
+        <v>943256308</v>
       </c>
       <c r="E7" t="n">
-        <v>1975713077</v>
+        <v>1683099810</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1368159403</v>
+        <v>2137788283</v>
       </c>
       <c r="H7" t="n">
-        <v>432069112</v>
+        <v>1473501137</v>
       </c>
       <c r="I7" t="n">
-        <v>265580104</v>
+        <v>2625402920</v>
       </c>
       <c r="J7" t="n">
-        <v>-590846466</v>
+        <v>2282553387</v>
       </c>
       <c r="K7" t="n">
-        <v>1007814824</v>
+        <v>2732457585</v>
       </c>
       <c r="L7" t="n">
-        <v>1377064943</v>
+        <v>3618528836</v>
       </c>
       <c r="M7" t="n">
-        <v>2033524182</v>
+        <v>2811007831</v>
       </c>
       <c r="N7" t="n">
-        <v>1369591125</v>
+        <v>2809645773</v>
       </c>
     </row>
     <row r="8">
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10943946867</v>
+        <v>13094030585</v>
       </c>
       <c r="C8" t="n">
-        <v>17028849263</v>
+        <v>13475422244</v>
       </c>
       <c r="D8" t="n">
-        <v>8722922310</v>
+        <v>6837214971</v>
       </c>
       <c r="E8" t="n">
-        <v>10947992662</v>
+        <v>22296958312</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>23333342804</v>
+        <v>31965402293</v>
       </c>
       <c r="H8" t="n">
-        <v>14571772805</v>
+        <v>23753372933</v>
       </c>
       <c r="I8" t="n">
-        <v>3100306028</v>
+        <v>24992248095</v>
       </c>
       <c r="J8" t="n">
-        <v>-15791542384</v>
+        <v>24570652221</v>
       </c>
       <c r="K8" t="n">
-        <v>-3030155071</v>
+        <v>20264540044</v>
       </c>
       <c r="L8" t="n">
-        <v>8693333007</v>
+        <v>22741631697</v>
       </c>
       <c r="M8" t="n">
-        <v>17332100024</v>
+        <v>24873900444</v>
       </c>
       <c r="N8" t="n">
-        <v>22010627758</v>
+        <v>33552245492</v>
       </c>
     </row>
     <row r="9">
@@ -820,41 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-302196976</v>
+        <v>-201780672</v>
       </c>
       <c r="C9" t="n">
-        <v>365523007</v>
+        <v>457913677</v>
       </c>
       <c r="D9" t="n">
-        <v>290190215</v>
+        <v>158274538</v>
       </c>
       <c r="E9" t="n">
-        <v>1189178691</v>
+        <v>883237677</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>1093411360</v>
+        <v>974781664</v>
       </c>
       <c r="H9" t="n">
-        <v>511690819</v>
+        <v>853289987</v>
       </c>
       <c r="I9" t="n">
-        <v>-57393619</v>
+        <v>829588544</v>
       </c>
       <c r="J9" t="n">
-        <v>-737690080</v>
+        <v>721244735</v>
       </c>
       <c r="K9" t="n">
-        <v>-270945391</v>
+        <v>530936091</v>
       </c>
       <c r="L9" t="n">
-        <v>-322556370</v>
+        <v>809229150</v>
       </c>
       <c r="M9" t="n">
-        <v>-208905998</v>
+        <v>146815282</v>
       </c>
       <c r="N9" t="n">
-        <v>-561290669</v>
+        <v>-320545241</v>
       </c>
     </row>
     <row r="10">
@@ -864,41 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3349695737</v>
+        <v>30760556000</v>
       </c>
       <c r="C10" t="n">
-        <v>12548443002</v>
+        <v>8041785979</v>
       </c>
       <c r="D10" t="n">
-        <v>9825798273</v>
+        <v>1982006608</v>
       </c>
       <c r="E10" t="n">
-        <v>23884648972</v>
+        <v>18718426291</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>24573231694</v>
+        <v>37203800795</v>
       </c>
       <c r="H10" t="n">
-        <v>5558967953</v>
+        <v>22320683891</v>
       </c>
       <c r="I10" t="n">
-        <v>6950384466</v>
+        <v>27485337701</v>
       </c>
       <c r="J10" t="n">
-        <v>-9969483239</v>
+        <v>27152191457</v>
       </c>
       <c r="K10" t="n">
-        <v>6686291810</v>
+        <v>22071058036</v>
       </c>
       <c r="L10" t="n">
-        <v>1555147849</v>
+        <v>32390181287</v>
       </c>
       <c r="M10" t="n">
-        <v>18534853793</v>
+        <v>33138602248</v>
       </c>
       <c r="N10" t="n">
-        <v>28713531100</v>
+        <v>40958790863</v>
       </c>
     </row>
     <row r="11">
@@ -908,41 +908,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407611008</v>
+        <v>1125373911</v>
       </c>
       <c r="C11" t="n">
-        <v>182739484</v>
+        <v>877174725</v>
       </c>
       <c r="D11" t="n">
-        <v>15240401</v>
+        <v>778130900</v>
       </c>
       <c r="E11" t="n">
-        <v>260514333</v>
+        <v>878050026</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>402361687</v>
+        <v>769557910</v>
       </c>
       <c r="H11" t="n">
-        <v>140462713</v>
+        <v>329444859</v>
       </c>
       <c r="I11" t="n">
-        <v>92759037</v>
+        <v>760884378</v>
       </c>
       <c r="J11" t="n">
-        <v>-229810430</v>
+        <v>355291518</v>
       </c>
       <c r="K11" t="n">
-        <v>34537341</v>
+        <v>190240397</v>
       </c>
       <c r="L11" t="n">
-        <v>-133188436</v>
+        <v>220085210</v>
       </c>
       <c r="M11" t="n">
-        <v>165663362</v>
+        <v>338215788</v>
       </c>
       <c r="N11" t="n">
-        <v>-134115520</v>
+        <v>40884686</v>
       </c>
     </row>
     <row r="12">
@@ -952,41 +952,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>366624488</v>
+        <v>-430976084</v>
       </c>
       <c r="C12" t="n">
-        <v>473895899</v>
+        <v>168322636</v>
       </c>
       <c r="D12" t="n">
-        <v>366724038</v>
+        <v>-34781593</v>
       </c>
       <c r="E12" t="n">
-        <v>613286041</v>
+        <v>446376181</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>921034893</v>
+        <v>1222766197</v>
       </c>
       <c r="H12" t="n">
-        <v>2122630630</v>
+        <v>2738761413</v>
       </c>
       <c r="I12" t="n">
-        <v>1624122590</v>
+        <v>2604033119</v>
       </c>
       <c r="J12" t="n">
-        <v>928736790</v>
+        <v>2323667582</v>
       </c>
       <c r="K12" t="n">
-        <v>-593960736</v>
+        <v>1895393932</v>
       </c>
       <c r="L12" t="n">
-        <v>-158977207</v>
+        <v>2078431424</v>
       </c>
       <c r="M12" t="n">
-        <v>-165764683</v>
+        <v>1684007000</v>
       </c>
       <c r="N12" t="n">
-        <v>112479992</v>
+        <v>1641149886</v>
       </c>
     </row>
     <row r="13">
@@ -996,41 +996,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27134975</v>
+        <v>794657839</v>
       </c>
       <c r="C13" t="n">
-        <v>81412457</v>
+        <v>-793369379</v>
       </c>
       <c r="D13" t="n">
-        <v>98434638</v>
+        <v>-2645491484</v>
       </c>
       <c r="E13" t="n">
-        <v>135245188</v>
+        <v>1791425724</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>86495923</v>
+        <v>2232438951</v>
       </c>
       <c r="H13" t="n">
-        <v>-73894903</v>
+        <v>1019999466</v>
       </c>
       <c r="I13" t="n">
-        <v>-2716560</v>
+        <v>1294679932</v>
       </c>
       <c r="J13" t="n">
-        <v>26722564</v>
+        <v>3623054762</v>
       </c>
       <c r="K13" t="n">
-        <v>104868996</v>
+        <v>3062482829</v>
       </c>
       <c r="L13" t="n">
-        <v>80720917</v>
+        <v>2994825683</v>
       </c>
       <c r="M13" t="n">
-        <v>115490401</v>
+        <v>2770958074</v>
       </c>
       <c r="N13" t="n">
-        <v>195038459</v>
+        <v>3779498315</v>
       </c>
     </row>
     <row r="14">
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-28677914692</v>
+        <v>-157814417285</v>
       </c>
       <c r="C14" t="n">
-        <v>72382678137</v>
+        <v>-45342794816</v>
       </c>
       <c r="D14" t="n">
-        <v>38731504824</v>
+        <v>-52772927003</v>
       </c>
       <c r="E14" t="n">
-        <v>120041464783</v>
+        <v>47281080769</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>81822241687</v>
+        <v>110061509780</v>
       </c>
       <c r="H14" t="n">
-        <v>-7417117492</v>
+        <v>15344322712</v>
       </c>
       <c r="I14" t="n">
-        <v>-89732851278</v>
+        <v>789710409</v>
       </c>
       <c r="J14" t="n">
-        <v>-89553297328</v>
+        <v>64196548355</v>
       </c>
       <c r="K14" t="n">
-        <v>-47430714353</v>
+        <v>-15762733039</v>
       </c>
       <c r="L14" t="n">
-        <v>53400764416</v>
+        <v>83709377921</v>
       </c>
       <c r="M14" t="n">
-        <v>61589556249</v>
+        <v>53858500608</v>
       </c>
       <c r="N14" t="n">
-        <v>149943822999</v>
+        <v>95095991154</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9725380186</v>
+        <v>6200169332</v>
       </c>
       <c r="C15" t="n">
-        <v>-13122284008</v>
+        <v>-3746085335</v>
       </c>
       <c r="D15" t="n">
-        <v>3361710395</v>
+        <v>-2274006190</v>
       </c>
       <c r="E15" t="n">
-        <v>24351620254</v>
+        <v>13041924482</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>16939793149</v>
+        <v>16630513840</v>
       </c>
       <c r="H15" t="n">
-        <v>296793916</v>
+        <v>7181312609</v>
       </c>
       <c r="I15" t="n">
-        <v>-4278966716</v>
+        <v>10347279367</v>
       </c>
       <c r="J15" t="n">
-        <v>-2799346720</v>
+        <v>1018165107</v>
       </c>
       <c r="K15" t="n">
-        <v>10052087902</v>
+        <v>13710588853</v>
       </c>
       <c r="L15" t="n">
-        <v>7471040463</v>
+        <v>27543698472</v>
       </c>
       <c r="M15" t="n">
-        <v>18604362866</v>
+        <v>32744809768</v>
       </c>
       <c r="N15" t="n">
-        <v>26867305735</v>
+        <v>37216187779</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1076992230</v>
+        <v>-125088446</v>
       </c>
       <c r="C16" t="n">
-        <v>18176759999</v>
+        <v>-4864683615</v>
       </c>
       <c r="D16" t="n">
-        <v>8561633137</v>
+        <v>-11022744524</v>
       </c>
       <c r="E16" t="n">
-        <v>7274191183</v>
+        <v>-4337219976</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>10147869589</v>
+        <v>-1711873547</v>
       </c>
       <c r="H16" t="n">
-        <v>-7787074470</v>
+        <v>-8084633834</v>
       </c>
       <c r="I16" t="n">
-        <v>-3428682927</v>
+        <v>2354938292</v>
       </c>
       <c r="J16" t="n">
-        <v>-21123838660</v>
+        <v>7102155010</v>
       </c>
       <c r="K16" t="n">
-        <v>5897898415</v>
+        <v>6563246338</v>
       </c>
       <c r="L16" t="n">
-        <v>449299089</v>
+        <v>4461217548</v>
       </c>
       <c r="M16" t="n">
-        <v>20616721676</v>
+        <v>9818001645</v>
       </c>
       <c r="N16" t="n">
-        <v>27882870863</v>
+        <v>26159904282</v>
       </c>
     </row>
     <row r="17">
@@ -1172,41 +1172,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147698736</v>
+        <v>124108160</v>
       </c>
       <c r="C17" t="n">
-        <v>165702690</v>
+        <v>129117921</v>
       </c>
       <c r="D17" t="n">
-        <v>83967171</v>
+        <v>33515848</v>
       </c>
       <c r="E17" t="n">
-        <v>147522029</v>
+        <v>216376060</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>170062062</v>
+        <v>381079682</v>
       </c>
       <c r="H17" t="n">
-        <v>105095664</v>
+        <v>238881025</v>
       </c>
       <c r="I17" t="n">
-        <v>46166765</v>
+        <v>341387530</v>
       </c>
       <c r="J17" t="n">
-        <v>21560480</v>
+        <v>357325232</v>
       </c>
       <c r="K17" t="n">
-        <v>45821490</v>
+        <v>234884325</v>
       </c>
       <c r="L17" t="n">
-        <v>74465181</v>
+        <v>268153975</v>
       </c>
       <c r="M17" t="n">
-        <v>-42432418</v>
+        <v>149190124</v>
       </c>
       <c r="N17" t="n">
-        <v>-76431898</v>
+        <v>74485256</v>
       </c>
     </row>
     <row r="18">
@@ -1216,41 +1216,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62157589</v>
+        <v>207349201</v>
       </c>
       <c r="C18" t="n">
-        <v>483669571</v>
+        <v>-517216062</v>
       </c>
       <c r="D18" t="n">
-        <v>-739168190</v>
+        <v>-2200795073</v>
       </c>
       <c r="E18" t="n">
-        <v>1422585181</v>
+        <v>-75511712</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>639693056</v>
+        <v>445899254</v>
       </c>
       <c r="H18" t="n">
-        <v>3303082440</v>
+        <v>3122176119</v>
       </c>
       <c r="I18" t="n">
-        <v>2978436947</v>
+        <v>4471643168</v>
       </c>
       <c r="J18" t="n">
-        <v>3883827718</v>
+        <v>5007436778</v>
       </c>
       <c r="K18" t="n">
-        <v>230234648</v>
+        <v>2750287846</v>
       </c>
       <c r="L18" t="n">
-        <v>625237267</v>
+        <v>4901251522</v>
       </c>
       <c r="M18" t="n">
-        <v>613402448</v>
+        <v>5053160413</v>
       </c>
       <c r="N18" t="n">
-        <v>444158535</v>
+        <v>3977475623</v>
       </c>
     </row>
     <row r="19">
@@ -1260,41 +1260,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16209431</v>
+        <v>-35854177</v>
       </c>
       <c r="C19" t="n">
-        <v>55597326</v>
+        <v>-19453799</v>
       </c>
       <c r="D19" t="n">
-        <v>67997149</v>
+        <v>-18704495</v>
       </c>
       <c r="E19" t="n">
-        <v>71565942</v>
+        <v>20342998</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>141284234</v>
+        <v>134832389</v>
       </c>
       <c r="H19" t="n">
-        <v>88316084</v>
+        <v>135808802</v>
       </c>
       <c r="I19" t="n">
-        <v>66271884</v>
+        <v>154047475</v>
       </c>
       <c r="J19" t="n">
-        <v>13451373</v>
+        <v>210333541</v>
       </c>
       <c r="K19" t="n">
-        <v>51660228</v>
+        <v>207974118</v>
       </c>
       <c r="L19" t="n">
-        <v>51256689</v>
+        <v>189094761</v>
       </c>
       <c r="M19" t="n">
-        <v>18459335</v>
+        <v>173195112</v>
       </c>
       <c r="N19" t="n">
-        <v>28039005</v>
+        <v>168015451</v>
       </c>
     </row>
     <row r="20">
@@ -1304,41 +1304,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49309247</v>
+        <v>-21623262</v>
       </c>
       <c r="C20" t="n">
-        <v>42891391</v>
+        <v>-118666142</v>
       </c>
       <c r="D20" t="n">
-        <v>31649593</v>
+        <v>-152608681</v>
       </c>
       <c r="E20" t="n">
-        <v>11327836</v>
+        <v>-29515699</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>101341737</v>
+        <v>104771637</v>
       </c>
       <c r="H20" t="n">
-        <v>180801998</v>
+        <v>191289625</v>
       </c>
       <c r="I20" t="n">
-        <v>215932154</v>
+        <v>276569387</v>
       </c>
       <c r="J20" t="n">
-        <v>151180332</v>
+        <v>295413838</v>
       </c>
       <c r="K20" t="n">
-        <v>26504371</v>
+        <v>238956130</v>
       </c>
       <c r="L20" t="n">
-        <v>-99414011</v>
+        <v>127846147</v>
       </c>
       <c r="M20" t="n">
-        <v>-67812514</v>
+        <v>184709723</v>
       </c>
       <c r="N20" t="n">
-        <v>-31032720</v>
+        <v>176273817</v>
       </c>
     </row>
     <row r="21">
@@ -1348,41 +1348,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9644811</v>
+        <v>-157412507</v>
       </c>
       <c r="C21" t="n">
-        <v>28642071</v>
+        <v>-75408500</v>
       </c>
       <c r="D21" t="n">
-        <v>42008089</v>
+        <v>-27540362</v>
       </c>
       <c r="E21" t="n">
-        <v>49017998</v>
+        <v>23171809</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>40398518</v>
+        <v>52086794</v>
       </c>
       <c r="H21" t="n">
-        <v>-3774164</v>
+        <v>16456427</v>
       </c>
       <c r="I21" t="n">
-        <v>-11933491</v>
+        <v>46729668</v>
       </c>
       <c r="J21" t="n">
-        <v>49098889</v>
+        <v>118138607</v>
       </c>
       <c r="K21" t="n">
-        <v>63888956</v>
+        <v>102122425</v>
       </c>
       <c r="L21" t="n">
-        <v>38733596</v>
+        <v>75817874</v>
       </c>
       <c r="M21" t="n">
-        <v>-44134725</v>
+        <v>45362673</v>
       </c>
       <c r="N21" t="n">
-        <v>-8111165</v>
+        <v>52003563</v>
       </c>
     </row>
     <row r="22">
@@ -1392,41 +1392,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>312006887</v>
+        <v>747865286</v>
       </c>
       <c r="C22" t="n">
-        <v>1113706095</v>
+        <v>410267108</v>
       </c>
       <c r="D22" t="n">
-        <v>1312866185</v>
+        <v>455487659</v>
       </c>
       <c r="E22" t="n">
-        <v>1820441610</v>
+        <v>1786522447</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>1045603429</v>
+        <v>1754888835</v>
       </c>
       <c r="H22" t="n">
-        <v>200534518</v>
+        <v>1309166577</v>
       </c>
       <c r="I22" t="n">
-        <v>-439369350</v>
+        <v>1693079297</v>
       </c>
       <c r="J22" t="n">
-        <v>-326609011</v>
+        <v>1832701770</v>
       </c>
       <c r="K22" t="n">
-        <v>-318653177</v>
+        <v>1194748564</v>
       </c>
       <c r="L22" t="n">
-        <v>-46486574</v>
+        <v>1334585995</v>
       </c>
       <c r="M22" t="n">
-        <v>450959896</v>
+        <v>1169954383</v>
       </c>
       <c r="N22" t="n">
-        <v>1394943299</v>
+        <v>1276825319</v>
       </c>
     </row>
     <row r="23">
@@ -1436,41 +1436,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522925694</v>
+        <v>166169192</v>
       </c>
       <c r="C23" t="n">
-        <v>722356971</v>
+        <v>-2002142955</v>
       </c>
       <c r="D23" t="n">
-        <v>74727196</v>
+        <v>-3119105169</v>
       </c>
       <c r="E23" t="n">
-        <v>132544383</v>
+        <v>-1572429079</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>913012033</v>
+        <v>645981671</v>
       </c>
       <c r="H23" t="n">
-        <v>2321664347</v>
+        <v>4222286252</v>
       </c>
       <c r="I23" t="n">
-        <v>2416719923</v>
+        <v>4588813169</v>
       </c>
       <c r="J23" t="n">
-        <v>1218846464</v>
+        <v>4513528511</v>
       </c>
       <c r="K23" t="n">
-        <v>-42502651</v>
+        <v>3783573403</v>
       </c>
       <c r="L23" t="n">
-        <v>-335577078</v>
+        <v>4493547448</v>
       </c>
       <c r="M23" t="n">
-        <v>342204151</v>
+        <v>4832926134</v>
       </c>
       <c r="N23" t="n">
-        <v>626805156</v>
+        <v>5828812189</v>
       </c>
     </row>
     <row r="24">
@@ -1480,41 +1480,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176872269</v>
+        <v>222390259</v>
       </c>
       <c r="C24" t="n">
-        <v>181974376</v>
+        <v>181910507</v>
       </c>
       <c r="D24" t="n">
-        <v>-44957298</v>
+        <v>-60550358</v>
       </c>
       <c r="E24" t="n">
-        <v>99588118</v>
+        <v>-8502578</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>37531243</v>
+        <v>31008413</v>
       </c>
       <c r="H24" t="n">
-        <v>-68129656</v>
+        <v>20178069</v>
       </c>
       <c r="I24" t="n">
-        <v>-137019538</v>
+        <v>139440526</v>
       </c>
       <c r="J24" t="n">
-        <v>-371186051</v>
+        <v>-151680563</v>
       </c>
       <c r="K24" t="n">
-        <v>128987092</v>
+        <v>15899097</v>
       </c>
       <c r="L24" t="n">
-        <v>106151885</v>
+        <v>68720173</v>
       </c>
       <c r="M24" t="n">
-        <v>188043682</v>
+        <v>-145611669</v>
       </c>
       <c r="N24" t="n">
-        <v>-265544933</v>
+        <v>-204688535</v>
       </c>
     </row>
     <row r="25">
@@ -1524,41 +1524,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-177041936</v>
+        <v>209636384</v>
       </c>
       <c r="C25" t="n">
-        <v>1173729754</v>
+        <v>-1028147184</v>
       </c>
       <c r="D25" t="n">
-        <v>597265037</v>
+        <v>-2330381435</v>
       </c>
       <c r="E25" t="n">
-        <v>966103242</v>
+        <v>-254180347</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>2002564648</v>
+        <v>1657940795</v>
       </c>
       <c r="H25" t="n">
-        <v>5942817421</v>
+        <v>5809601581</v>
       </c>
       <c r="I25" t="n">
-        <v>3251811056</v>
+        <v>4050164076</v>
       </c>
       <c r="J25" t="n">
-        <v>793158765</v>
+        <v>3979179510</v>
       </c>
       <c r="K25" t="n">
-        <v>-3404182857</v>
+        <v>3142683510</v>
       </c>
       <c r="L25" t="n">
-        <v>-890605117</v>
+        <v>3334551520</v>
       </c>
       <c r="M25" t="n">
-        <v>39242818</v>
+        <v>2841643902</v>
       </c>
       <c r="N25" t="n">
-        <v>652103571</v>
+        <v>3194542340</v>
       </c>
     </row>
     <row r="26">
@@ -1568,41 +1568,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66686984</v>
+        <v>542006422</v>
       </c>
       <c r="C26" t="n">
-        <v>-6141912</v>
+        <v>225427251</v>
       </c>
       <c r="D26" t="n">
-        <v>-540971826</v>
+        <v>-6225785</v>
       </c>
       <c r="E26" t="n">
-        <v>-93058198</v>
+        <v>137984806</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>-99155661</v>
+        <v>-374605547</v>
       </c>
       <c r="H26" t="n">
-        <v>-113470228</v>
+        <v>-188647997</v>
       </c>
       <c r="I26" t="n">
-        <v>-109477684</v>
+        <v>-136021822</v>
       </c>
       <c r="J26" t="n">
-        <v>748587043</v>
+        <v>643140009</v>
       </c>
       <c r="K26" t="n">
-        <v>627398639</v>
+        <v>-27226750</v>
       </c>
       <c r="L26" t="n">
-        <v>944668695</v>
+        <v>742035086</v>
       </c>
       <c r="M26" t="n">
-        <v>625768327</v>
+        <v>1275226994</v>
       </c>
       <c r="N26" t="n">
-        <v>676535150</v>
+        <v>1190542893</v>
       </c>
     </row>
     <row r="27">
@@ -1612,41 +1612,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>326204470</v>
+        <v>-61930798</v>
       </c>
       <c r="C27" t="n">
-        <v>325729074</v>
+        <v>95677853</v>
       </c>
       <c r="D27" t="n">
-        <v>334083912</v>
+        <v>122244360</v>
       </c>
       <c r="E27" t="n">
-        <v>364378924</v>
+        <v>339848798</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>208626730</v>
+        <v>186276503</v>
       </c>
       <c r="H27" t="n">
-        <v>-133896303</v>
+        <v>337881551</v>
       </c>
       <c r="I27" t="n">
-        <v>-132400987</v>
+        <v>558180630</v>
       </c>
       <c r="J27" t="n">
-        <v>-331042215</v>
+        <v>203311307</v>
       </c>
       <c r="K27" t="n">
-        <v>-297364773</v>
+        <v>-97178219</v>
       </c>
       <c r="L27" t="n">
-        <v>-325454250</v>
+        <v>-93477253</v>
       </c>
       <c r="M27" t="n">
-        <v>-277092195</v>
+        <v>-399512394</v>
       </c>
       <c r="N27" t="n">
-        <v>3320845</v>
+        <v>-427942991</v>
       </c>
     </row>
     <row r="28">
@@ -1656,41 +1656,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-320044577</v>
+        <v>190150504</v>
       </c>
       <c r="C28" t="n">
-        <v>-109001525</v>
+        <v>5686732</v>
       </c>
       <c r="D28" t="n">
-        <v>-309579147</v>
+        <v>-318633810</v>
       </c>
       <c r="E28" t="n">
-        <v>104456921</v>
+        <v>-108402967</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-116490080</v>
+        <v>-306162537</v>
       </c>
       <c r="H28" t="n">
-        <v>-134580734</v>
+        <v>-480745189</v>
       </c>
       <c r="I28" t="n">
-        <v>-125744157</v>
+        <v>-341330613</v>
       </c>
       <c r="J28" t="n">
-        <v>-1628627</v>
+        <v>-227119131</v>
       </c>
       <c r="K28" t="n">
-        <v>171506446</v>
+        <v>-272652781</v>
       </c>
       <c r="L28" t="n">
-        <v>211274831</v>
+        <v>189989249</v>
       </c>
       <c r="M28" t="n">
-        <v>222695113</v>
+        <v>104580864</v>
       </c>
       <c r="N28" t="n">
-        <v>247796792</v>
+        <v>284723847</v>
       </c>
     </row>
     <row r="29">
@@ -1700,41 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>454576</v>
+        <v>912832</v>
       </c>
       <c r="C29" t="n">
-        <v>448713</v>
+        <v>908329</v>
       </c>
       <c r="D29" t="n">
-        <v>500517</v>
+        <v>690408</v>
       </c>
       <c r="E29" t="n">
-        <v>490185</v>
+        <v>1004233</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>888180</v>
+        <v>1705699</v>
       </c>
       <c r="H29" t="n">
-        <v>1540310</v>
+        <v>2205775</v>
       </c>
       <c r="I29" t="n">
-        <v>3285232</v>
+        <v>4232293</v>
       </c>
       <c r="J29" t="n">
-        <v>638416</v>
+        <v>1976995</v>
       </c>
       <c r="K29" t="n">
-        <v>3006060</v>
+        <v>5048251</v>
       </c>
       <c r="L29" t="n">
-        <v>-289849</v>
+        <v>3485346</v>
       </c>
       <c r="M29" t="n">
-        <v>1108774</v>
+        <v>2628735</v>
       </c>
       <c r="N29" t="n">
-        <v>-279160</v>
+        <v>4262959</v>
       </c>
     </row>
     <row r="30">
@@ -1744,41 +1744,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36710</v>
+        <v>12530</v>
       </c>
       <c r="C30" t="n">
-        <v>73672</v>
+        <v>60275</v>
       </c>
       <c r="D30" t="n">
-        <v>79525</v>
+        <v>49293</v>
       </c>
       <c r="E30" t="n">
-        <v>109013</v>
+        <v>143504</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>130896</v>
+        <v>192392</v>
       </c>
       <c r="H30" t="n">
-        <v>112751</v>
+        <v>181167</v>
       </c>
       <c r="I30" t="n">
-        <v>313366</v>
+        <v>460766</v>
       </c>
       <c r="J30" t="n">
-        <v>1148595</v>
+        <v>1354504</v>
       </c>
       <c r="K30" t="n">
-        <v>1389568</v>
+        <v>1582824</v>
       </c>
       <c r="L30" t="n">
-        <v>994351</v>
+        <v>1417894</v>
       </c>
       <c r="M30" t="n">
-        <v>34934</v>
+        <v>1315138</v>
       </c>
       <c r="N30" t="n">
-        <v>-157739</v>
+        <v>1344846</v>
       </c>
     </row>
     <row r="31">
@@ -1788,41 +1788,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1109316</v>
+        <v>1403242</v>
       </c>
       <c r="C31" t="n">
-        <v>3979059</v>
+        <v>5852594</v>
       </c>
       <c r="D31" t="n">
-        <v>3342200</v>
+        <v>4980023</v>
       </c>
       <c r="E31" t="n">
-        <v>3680911</v>
+        <v>3669506</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>4003281</v>
+        <v>3200785</v>
       </c>
       <c r="H31" t="n">
-        <v>1359035</v>
+        <v>2772769</v>
       </c>
       <c r="I31" t="n">
-        <v>1948245</v>
+        <v>6738876</v>
       </c>
       <c r="J31" t="n">
-        <v>-1765788</v>
+        <v>6216956</v>
       </c>
       <c r="K31" t="n">
-        <v>1592474</v>
+        <v>6294113</v>
       </c>
       <c r="L31" t="n">
-        <v>1793744</v>
+        <v>7423304</v>
       </c>
       <c r="M31" t="n">
-        <v>1895709</v>
+        <v>4133606</v>
       </c>
       <c r="N31" t="n">
-        <v>3343362</v>
+        <v>6295275</v>
       </c>
     </row>
     <row r="32">
@@ -1832,41 +1832,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1190044089</v>
+        <v>-1106330086</v>
       </c>
       <c r="C32" t="n">
-        <v>-915901063</v>
+        <v>-935518321</v>
       </c>
       <c r="D32" t="n">
-        <v>-635693540</v>
+        <v>-837704493</v>
       </c>
       <c r="E32" t="n">
-        <v>-170302245</v>
+        <v>-1002169470</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>151013947</v>
+        <v>-631695613</v>
       </c>
       <c r="H32" t="n">
-        <v>553600674</v>
+        <v>-588754873</v>
       </c>
       <c r="I32" t="n">
-        <v>664572604</v>
+        <v>-695773730</v>
       </c>
       <c r="J32" t="n">
-        <v>386851849</v>
+        <v>-378035267</v>
       </c>
       <c r="K32" t="n">
-        <v>203017169</v>
+        <v>120924303</v>
       </c>
       <c r="L32" t="n">
-        <v>162551966</v>
+        <v>656822325</v>
       </c>
       <c r="M32" t="n">
-        <v>195865163</v>
+        <v>733730959</v>
       </c>
       <c r="N32" t="n">
-        <v>170530764</v>
+        <v>927148607</v>
       </c>
     </row>
     <row r="33">
@@ -1876,41 +1876,41 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-7795804</v>
+        <v>-60422439</v>
       </c>
       <c r="C33" t="n">
-        <v>43636926</v>
+        <v>-41420657</v>
       </c>
       <c r="D33" t="n">
-        <v>35189910</v>
+        <v>-56536327</v>
       </c>
       <c r="E33" t="n">
-        <v>92382749</v>
+        <v>18183374</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>78426358</v>
+        <v>35677958</v>
       </c>
       <c r="H33" t="n">
-        <v>184414824</v>
+        <v>69214731</v>
       </c>
       <c r="I33" t="n">
-        <v>219617539</v>
+        <v>134903736</v>
       </c>
       <c r="J33" t="n">
-        <v>167558928</v>
+        <v>144664320</v>
       </c>
       <c r="K33" t="n">
-        <v>18435726</v>
+        <v>110057857</v>
       </c>
       <c r="L33" t="n">
-        <v>-41439843</v>
+        <v>168314581</v>
       </c>
       <c r="M33" t="n">
-        <v>9569095</v>
+        <v>168497033</v>
       </c>
       <c r="N33" t="n">
-        <v>88431162</v>
+        <v>171075511</v>
       </c>
     </row>
     <row r="34">
@@ -1920,41 +1920,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3347586</v>
+        <v>18916716</v>
       </c>
       <c r="C34" t="n">
-        <v>51764079</v>
+        <v>-93803820</v>
       </c>
       <c r="D34" t="n">
-        <v>81692877</v>
+        <v>-109530048</v>
       </c>
       <c r="E34" t="n">
-        <v>174292158</v>
+        <v>22498870</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>417120960</v>
+        <v>352882297</v>
       </c>
       <c r="H34" t="n">
-        <v>833615268</v>
+        <v>975539969</v>
       </c>
       <c r="I34" t="n">
-        <v>610784938</v>
+        <v>951030258</v>
       </c>
       <c r="J34" t="n">
-        <v>254473970</v>
+        <v>868316901</v>
       </c>
       <c r="K34" t="n">
-        <v>-290107636</v>
+        <v>753183112</v>
       </c>
       <c r="L34" t="n">
-        <v>-80796841</v>
+        <v>806526119</v>
       </c>
       <c r="M34" t="n">
-        <v>80813958</v>
+        <v>839466236</v>
       </c>
       <c r="N34" t="n">
-        <v>236859800</v>
+        <v>780367432</v>
       </c>
     </row>
     <row r="35">
@@ -1964,41 +1964,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-437347950</v>
+        <v>-444568899</v>
       </c>
       <c r="C35" t="n">
-        <v>-349048593</v>
+        <v>-1032099976</v>
       </c>
       <c r="D35" t="n">
-        <v>-348692991</v>
+        <v>-581690013</v>
       </c>
       <c r="E35" t="n">
-        <v>299925517</v>
+        <v>202397394</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>416910633</v>
+        <v>-194606230</v>
       </c>
       <c r="H35" t="n">
-        <v>516744080</v>
+        <v>265844664</v>
       </c>
       <c r="I35" t="n">
-        <v>554890120</v>
+        <v>417467687</v>
       </c>
       <c r="J35" t="n">
-        <v>942437192</v>
+        <v>1010299232</v>
       </c>
       <c r="K35" t="n">
-        <v>262642334</v>
+        <v>430693423</v>
       </c>
       <c r="L35" t="n">
-        <v>65299297</v>
+        <v>920114934</v>
       </c>
       <c r="M35" t="n">
-        <v>-382083341</v>
+        <v>977264484</v>
       </c>
       <c r="N35" t="n">
-        <v>249486626</v>
+        <v>1028873040</v>
       </c>
     </row>
     <row r="36">
@@ -2008,41 +2008,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-361576227</v>
+        <v>-6831720865</v>
       </c>
       <c r="C36" t="n">
-        <v>375348312</v>
+        <v>-4878411483</v>
       </c>
       <c r="D36" t="n">
-        <v>-137765554</v>
+        <v>-4343642317</v>
       </c>
       <c r="E36" t="n">
-        <v>603445</v>
+        <v>-5103332</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>501221935</v>
+        <v>-2451335569</v>
       </c>
       <c r="H36" t="n">
-        <v>1028991357</v>
+        <v>12294313</v>
       </c>
       <c r="I36" t="n">
-        <v>804596590</v>
+        <v>702889566</v>
       </c>
       <c r="J36" t="n">
-        <v>874851938</v>
+        <v>3936838968</v>
       </c>
       <c r="K36" t="n">
-        <v>-236860904</v>
+        <v>4537310634</v>
       </c>
       <c r="L36" t="n">
-        <v>452867326</v>
+        <v>4354000581</v>
       </c>
       <c r="M36" t="n">
-        <v>250860316</v>
+        <v>6402265285</v>
       </c>
       <c r="N36" t="n">
-        <v>199693913</v>
+        <v>3853915113</v>
       </c>
     </row>
     <row r="37">
@@ -2052,41 +2052,41 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13032943</v>
+        <v>-24044919</v>
       </c>
       <c r="C37" t="n">
-        <v>22796616</v>
+        <v>4705043</v>
       </c>
       <c r="D37" t="n">
-        <v>37478928</v>
+        <v>498247</v>
       </c>
       <c r="E37" t="n">
-        <v>44552849</v>
+        <v>37084700</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>65060886</v>
+        <v>73383673</v>
       </c>
       <c r="H37" t="n">
-        <v>96290132</v>
+        <v>126097617</v>
       </c>
       <c r="I37" t="n">
-        <v>78183634</v>
+        <v>135769426</v>
       </c>
       <c r="J37" t="n">
-        <v>50416213</v>
+        <v>138273715</v>
       </c>
       <c r="K37" t="n">
-        <v>13906979</v>
+        <v>147676039</v>
       </c>
       <c r="L37" t="n">
-        <v>26810631</v>
+        <v>149547114</v>
       </c>
       <c r="M37" t="n">
-        <v>40373977</v>
+        <v>155851076</v>
       </c>
       <c r="N37" t="n">
-        <v>17969082</v>
+        <v>128166193</v>
       </c>
     </row>
     <row r="38">
@@ -2096,41 +2096,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20593902</v>
+        <v>537665226</v>
       </c>
       <c r="C38" t="n">
-        <v>217350763</v>
+        <v>-811004677</v>
       </c>
       <c r="D38" t="n">
-        <v>433640387</v>
+        <v>-3118617931</v>
       </c>
       <c r="E38" t="n">
-        <v>404052230</v>
+        <v>328268570</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>259885981</v>
+        <v>-1939605583</v>
       </c>
       <c r="H38" t="n">
-        <v>-830029218</v>
+        <v>-3116536135</v>
       </c>
       <c r="I38" t="n">
-        <v>-1675343384</v>
+        <v>-1250697252</v>
       </c>
       <c r="J38" t="n">
-        <v>-1437615677</v>
+        <v>-960378933</v>
       </c>
       <c r="K38" t="n">
-        <v>576059518</v>
+        <v>179670687</v>
       </c>
       <c r="L38" t="n">
-        <v>332573539</v>
+        <v>-938717615</v>
       </c>
       <c r="M38" t="n">
-        <v>915599576</v>
+        <v>-262130120</v>
       </c>
       <c r="N38" t="n">
-        <v>1688265419</v>
+        <v>1434295719</v>
       </c>
     </row>
     <row r="39">
@@ -2140,41 +2140,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>551997895</v>
+        <v>766710177</v>
       </c>
       <c r="C39" t="n">
-        <v>518249556</v>
+        <v>1109005460</v>
       </c>
       <c r="D39" t="n">
-        <v>696762836</v>
+        <v>520572397</v>
       </c>
       <c r="E39" t="n">
-        <v>701850193</v>
+        <v>747707402</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>628300337</v>
+        <v>664942496</v>
       </c>
       <c r="H39" t="n">
-        <v>-32634388</v>
+        <v>475476604</v>
       </c>
       <c r="I39" t="n">
-        <v>-255241934</v>
+        <v>998606154</v>
       </c>
       <c r="J39" t="n">
-        <v>65560146</v>
+        <v>1212110039</v>
       </c>
       <c r="K39" t="n">
-        <v>340839121</v>
+        <v>1004967569</v>
       </c>
       <c r="L39" t="n">
-        <v>402263163</v>
+        <v>848967422</v>
       </c>
       <c r="M39" t="n">
-        <v>131654456</v>
+        <v>825572239</v>
       </c>
       <c r="N39" t="n">
-        <v>259718086</v>
+        <v>567650219</v>
       </c>
     </row>
     <row r="40">
@@ -2184,41 +2184,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2912772401</v>
+        <v>4933251586</v>
       </c>
       <c r="C40" t="n">
-        <v>3932764821</v>
+        <v>4968491098</v>
       </c>
       <c r="D40" t="n">
-        <v>1962794333</v>
+        <v>2725164832</v>
       </c>
       <c r="E40" t="n">
-        <v>669288560</v>
+        <v>2105274997</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>2301904187</v>
+        <v>4919571404</v>
       </c>
       <c r="H40" t="n">
-        <v>2140315650</v>
+        <v>3720433302</v>
       </c>
       <c r="I40" t="n">
-        <v>2157337624</v>
+        <v>5739398585</v>
       </c>
       <c r="J40" t="n">
-        <v>-327710071</v>
+        <v>5906958937</v>
       </c>
       <c r="K40" t="n">
-        <v>1073967323</v>
+        <v>5177077306</v>
       </c>
       <c r="L40" t="n">
-        <v>543544424</v>
+        <v>3370170608</v>
       </c>
       <c r="M40" t="n">
-        <v>1817914316</v>
+        <v>3792108432</v>
       </c>
       <c r="N40" t="n">
-        <v>2068623757</v>
+        <v>5282906730</v>
       </c>
     </row>
     <row r="41">
@@ -2228,41 +2228,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-146140731</v>
+        <v>412943694</v>
       </c>
       <c r="C41" t="n">
-        <v>43501129</v>
+        <v>215576346</v>
       </c>
       <c r="D41" t="n">
-        <v>-171482695</v>
+        <v>-188343598</v>
       </c>
       <c r="E41" t="n">
-        <v>362056750</v>
+        <v>368085773</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>383087362</v>
+        <v>579596177</v>
       </c>
       <c r="H41" t="n">
-        <v>1022118023</v>
+        <v>1083548360</v>
       </c>
       <c r="I41" t="n">
-        <v>532251666</v>
+        <v>748735573</v>
       </c>
       <c r="J41" t="n">
-        <v>920025166</v>
+        <v>1347181545</v>
       </c>
       <c r="K41" t="n">
-        <v>623413495</v>
+        <v>1474616711</v>
       </c>
       <c r="L41" t="n">
-        <v>1128693941</v>
+        <v>2023570245</v>
       </c>
       <c r="M41" t="n">
-        <v>992085190</v>
+        <v>2295765606</v>
       </c>
       <c r="N41" t="n">
-        <v>63278125</v>
+        <v>1709377531</v>
       </c>
     </row>
     <row r="42">
@@ -2272,41 +2272,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12906566</v>
+        <v>-169748651</v>
       </c>
       <c r="C42" t="n">
-        <v>55017219</v>
+        <v>-112624724</v>
       </c>
       <c r="D42" t="n">
-        <v>22588039</v>
+        <v>-62607570</v>
       </c>
       <c r="E42" t="n">
-        <v>39040492</v>
+        <v>-8590456</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>135165301</v>
+        <v>124913774</v>
       </c>
       <c r="H42" t="n">
-        <v>248565427</v>
+        <v>238274059</v>
       </c>
       <c r="I42" t="n">
-        <v>261087457</v>
+        <v>313060202</v>
       </c>
       <c r="J42" t="n">
-        <v>190242693</v>
+        <v>380457338</v>
       </c>
       <c r="K42" t="n">
-        <v>153583585</v>
+        <v>424770533</v>
       </c>
       <c r="L42" t="n">
-        <v>211083872</v>
+        <v>511253358</v>
       </c>
       <c r="M42" t="n">
-        <v>92184179</v>
+        <v>417642691</v>
       </c>
       <c r="N42" t="n">
-        <v>-36098763</v>
+        <v>366091764</v>
       </c>
     </row>
     <row r="43">
@@ -2316,41 +2316,41 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-30060368</v>
+        <v>243689887</v>
       </c>
       <c r="C43" t="n">
-        <v>-9888385</v>
+        <v>273241604</v>
       </c>
       <c r="D43" t="n">
-        <v>-55087032</v>
+        <v>183508418</v>
       </c>
       <c r="E43" t="n">
-        <v>-22464694</v>
+        <v>144338393</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>31139268</v>
+        <v>140448983</v>
       </c>
       <c r="H43" t="n">
-        <v>28720797</v>
+        <v>-8864532</v>
       </c>
       <c r="I43" t="n">
-        <v>92090115</v>
+        <v>39565053</v>
       </c>
       <c r="J43" t="n">
-        <v>8855805</v>
+        <v>30106688</v>
       </c>
       <c r="K43" t="n">
-        <v>23075146</v>
+        <v>-3291089</v>
       </c>
       <c r="L43" t="n">
-        <v>-70981959</v>
+        <v>-1356538</v>
       </c>
       <c r="M43" t="n">
-        <v>-14633130</v>
+        <v>25361943</v>
       </c>
       <c r="N43" t="n">
-        <v>-23686753</v>
+        <v>28109190</v>
       </c>
     </row>
     <row r="44">
@@ -2360,41 +2360,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94602816</v>
+        <v>531250442</v>
       </c>
       <c r="C44" t="n">
-        <v>47444704</v>
+        <v>475993191</v>
       </c>
       <c r="D44" t="n">
-        <v>-4305790</v>
+        <v>391642803</v>
       </c>
       <c r="E44" t="n">
-        <v>255248577</v>
+        <v>493250046</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>169638280</v>
+        <v>160351672</v>
       </c>
       <c r="H44" t="n">
-        <v>-37931981</v>
+        <v>37213864</v>
       </c>
       <c r="I44" t="n">
-        <v>-47084185</v>
+        <v>302767208</v>
       </c>
       <c r="J44" t="n">
-        <v>64591179</v>
+        <v>281674163</v>
       </c>
       <c r="K44" t="n">
-        <v>179319904</v>
+        <v>137082133</v>
       </c>
       <c r="L44" t="n">
-        <v>15067717</v>
+        <v>223232109</v>
       </c>
       <c r="M44" t="n">
-        <v>35096507</v>
+        <v>269325966</v>
       </c>
       <c r="N44" t="n">
-        <v>-51857620</v>
+        <v>89530303</v>
       </c>
     </row>
     <row r="45">
@@ -2404,41 +2404,41 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-4034397</v>
+        <v>-12953692</v>
       </c>
       <c r="C45" t="n">
-        <v>7145603</v>
+        <v>-18374895</v>
       </c>
       <c r="D45" t="n">
-        <v>8460467</v>
+        <v>-19039108</v>
       </c>
       <c r="E45" t="n">
-        <v>16719537</v>
+        <v>-7766403</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>15255497</v>
+        <v>1617199</v>
       </c>
       <c r="H45" t="n">
-        <v>17123305</v>
+        <v>12483699</v>
       </c>
       <c r="I45" t="n">
-        <v>18635214</v>
+        <v>31320354</v>
       </c>
       <c r="J45" t="n">
-        <v>20267697</v>
+        <v>42668797</v>
       </c>
       <c r="K45" t="n">
-        <v>17946116</v>
+        <v>43529888</v>
       </c>
       <c r="L45" t="n">
-        <v>5787736</v>
+        <v>41142487</v>
       </c>
       <c r="M45" t="n">
-        <v>6634138</v>
+        <v>42157332</v>
       </c>
       <c r="N45" t="n">
-        <v>-3042551</v>
+        <v>32026870</v>
       </c>
     </row>
     <row r="46">
@@ -2448,41 +2448,41 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-640224912</v>
+        <v>2547325385</v>
       </c>
       <c r="C46" t="n">
-        <v>1243709459</v>
+        <v>2234271085</v>
       </c>
       <c r="D46" t="n">
-        <v>1717750309</v>
+        <v>1514769484</v>
       </c>
       <c r="E46" t="n">
-        <v>3684573244</v>
+        <v>3583479085</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>3525388567</v>
+        <v>3871032625</v>
       </c>
       <c r="H46" t="n">
-        <v>1176106299</v>
+        <v>1150528524</v>
       </c>
       <c r="I46" t="n">
-        <v>-1926489208</v>
+        <v>1117858689</v>
       </c>
       <c r="J46" t="n">
-        <v>-1359824340</v>
+        <v>3406449496</v>
       </c>
       <c r="K46" t="n">
-        <v>777285367</v>
+        <v>3669350943</v>
       </c>
       <c r="L46" t="n">
-        <v>2703961664</v>
+        <v>4461665701</v>
       </c>
       <c r="M46" t="n">
-        <v>1918382113</v>
+        <v>4080284882</v>
       </c>
       <c r="N46" t="n">
-        <v>1838204938</v>
+        <v>3784418311</v>
       </c>
     </row>
     <row r="47">
@@ -2492,41 +2492,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-20612082</v>
+        <v>914068977</v>
       </c>
       <c r="C47" t="n">
-        <v>746201233</v>
+        <v>42127849</v>
       </c>
       <c r="D47" t="n">
-        <v>500772450</v>
+        <v>-765832409</v>
       </c>
       <c r="E47" t="n">
-        <v>905631660</v>
+        <v>128639318</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>895360559</v>
+        <v>534680275</v>
       </c>
       <c r="H47" t="n">
-        <v>122517162</v>
+        <v>374297495</v>
       </c>
       <c r="I47" t="n">
-        <v>127684257</v>
+        <v>1012707584</v>
       </c>
       <c r="J47" t="n">
-        <v>-417726579</v>
+        <v>1223839375</v>
       </c>
       <c r="K47" t="n">
-        <v>487327657</v>
+        <v>1110621746</v>
       </c>
       <c r="L47" t="n">
-        <v>185229162</v>
+        <v>1218549823</v>
       </c>
       <c r="M47" t="n">
-        <v>1363468044</v>
+        <v>1841105064</v>
       </c>
       <c r="N47" t="n">
-        <v>-322267012</v>
+        <v>287581382</v>
       </c>
     </row>
     <row r="48">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-478667476</v>
+        <v>1778053015</v>
       </c>
       <c r="C48" t="n">
-        <v>724093575</v>
+        <v>693746821</v>
       </c>
       <c r="D48" t="n">
-        <v>624752327</v>
+        <v>-196393214</v>
       </c>
       <c r="E48" t="n">
-        <v>2624378145</v>
+        <v>3397663894</v>
       </c>
       <c r="F48" t="n">
-        <v>-106786954</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2455246068</v>
+        <v>2851337661</v>
       </c>
       <c r="H48" t="n">
-        <v>2733684743</v>
+        <v>2983465752</v>
       </c>
       <c r="I48" t="n">
-        <v>133717171</v>
+        <v>3368092937</v>
       </c>
       <c r="J48" t="n">
-        <v>-2400005787</v>
+        <v>2121237396</v>
       </c>
       <c r="K48" t="n">
-        <v>-2311358194</v>
+        <v>2152986864</v>
       </c>
       <c r="L48" t="n">
-        <v>-1935846587</v>
+        <v>2578096709</v>
       </c>
       <c r="M48" t="n">
-        <v>-1218952323</v>
+        <v>-321931297</v>
       </c>
       <c r="N48" t="n">
-        <v>-3374288052</v>
+        <v>-3064324896</v>
       </c>
     </row>
     <row r="49">
@@ -2582,41 +2582,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>108908243</v>
+        <v>-496204222</v>
       </c>
       <c r="C49" t="n">
-        <v>214607357</v>
+        <v>-710101511</v>
       </c>
       <c r="D49" t="n">
-        <v>424272884</v>
+        <v>-490851508</v>
       </c>
       <c r="E49" t="n">
-        <v>408430164</v>
+        <v>-7580193</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>478712799</v>
+        <v>520408059</v>
       </c>
       <c r="H49" t="n">
-        <v>1037151379</v>
+        <v>1292956279</v>
       </c>
       <c r="I49" t="n">
-        <v>647177933</v>
+        <v>1155444856</v>
       </c>
       <c r="J49" t="n">
-        <v>227751994</v>
+        <v>918954681</v>
       </c>
       <c r="K49" t="n">
-        <v>-588512249</v>
+        <v>872912014</v>
       </c>
       <c r="L49" t="n">
-        <v>-115101700</v>
+        <v>940506397</v>
       </c>
       <c r="M49" t="n">
-        <v>-227875945</v>
+        <v>478588848</v>
       </c>
       <c r="N49" t="n">
-        <v>-266655670</v>
+        <v>181983460</v>
       </c>
     </row>
     <row r="50">
@@ -2626,41 +2626,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2686884181</v>
+        <v>3852909432</v>
       </c>
       <c r="C50" t="n">
-        <v>2378851306</v>
+        <v>2133134211</v>
       </c>
       <c r="D50" t="n">
-        <v>1338278038</v>
+        <v>524347840</v>
       </c>
       <c r="E50" t="n">
-        <v>1114349595</v>
+        <v>1106611197</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>1093853094</v>
+        <v>2150067333</v>
       </c>
       <c r="H50" t="n">
-        <v>-149993926</v>
+        <v>1818765186</v>
       </c>
       <c r="I50" t="n">
-        <v>-2646360730</v>
+        <v>1154873046</v>
       </c>
       <c r="J50" t="n">
-        <v>-1906227069</v>
+        <v>1566477331</v>
       </c>
       <c r="K50" t="n">
-        <v>211863590</v>
+        <v>1400147475</v>
       </c>
       <c r="L50" t="n">
-        <v>2737759735</v>
+        <v>1205748464</v>
       </c>
       <c r="M50" t="n">
-        <v>2605643579</v>
+        <v>1793268958</v>
       </c>
       <c r="N50" t="n">
-        <v>527490453</v>
+        <v>589360037</v>
       </c>
     </row>
     <row r="51">
@@ -2670,41 +2670,41 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>31287707</v>
+        <v>11569986</v>
       </c>
       <c r="C51" t="n">
-        <v>31265712</v>
+        <v>25047567</v>
       </c>
       <c r="D51" t="n">
-        <v>24390169</v>
+        <v>8256484</v>
       </c>
       <c r="E51" t="n">
-        <v>21724628</v>
+        <v>42014009</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>45374408</v>
+        <v>70966136</v>
       </c>
       <c r="H51" t="n">
-        <v>7735977</v>
+        <v>35769706</v>
       </c>
       <c r="I51" t="n">
-        <v>-14458525</v>
+        <v>38553943</v>
       </c>
       <c r="J51" t="n">
-        <v>-27574349</v>
+        <v>49065742</v>
       </c>
       <c r="K51" t="n">
-        <v>21745158</v>
+        <v>53871275</v>
       </c>
       <c r="L51" t="n">
-        <v>61045581</v>
+        <v>68311817</v>
       </c>
       <c r="M51" t="n">
-        <v>34325802</v>
+        <v>52125516</v>
       </c>
       <c r="N51" t="n">
-        <v>13554891</v>
+        <v>43035183</v>
       </c>
     </row>
     <row r="52">
@@ -2714,41 +2714,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>341441552</v>
+        <v>29745095</v>
       </c>
       <c r="C52" t="n">
-        <v>132685831</v>
+        <v>-87575702</v>
       </c>
       <c r="D52" t="n">
-        <v>-156754517</v>
+        <v>-248182196</v>
       </c>
       <c r="E52" t="n">
-        <v>-74004249</v>
+        <v>-52597140</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>442378754</v>
+        <v>454423859</v>
       </c>
       <c r="H52" t="n">
-        <v>271312892</v>
+        <v>354005072</v>
       </c>
       <c r="I52" t="n">
-        <v>406824264</v>
+        <v>674261567</v>
       </c>
       <c r="J52" t="n">
-        <v>372429598</v>
+        <v>947494183</v>
       </c>
       <c r="K52" t="n">
-        <v>806240866</v>
+        <v>920799241</v>
       </c>
       <c r="L52" t="n">
-        <v>645455942</v>
+        <v>978275957</v>
       </c>
       <c r="M52" t="n">
-        <v>511466138</v>
+        <v>1326274490</v>
       </c>
       <c r="N52" t="n">
-        <v>642605678</v>
+        <v>1720159436</v>
       </c>
     </row>
     <row r="53">
@@ -2758,41 +2758,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>66427394</v>
+        <v>167623520</v>
       </c>
       <c r="C53" t="n">
-        <v>200414559</v>
+        <v>-151965358</v>
       </c>
       <c r="D53" t="n">
-        <v>164290119</v>
+        <v>-294796661</v>
       </c>
       <c r="E53" t="n">
-        <v>211466458</v>
+        <v>-6334335</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>757744499</v>
+        <v>687754549</v>
       </c>
       <c r="H53" t="n">
-        <v>224652587</v>
+        <v>256772474</v>
       </c>
       <c r="I53" t="n">
-        <v>29206138</v>
+        <v>307100596</v>
       </c>
       <c r="J53" t="n">
-        <v>-656576297</v>
+        <v>301582749</v>
       </c>
       <c r="K53" t="n">
-        <v>-109845355</v>
+        <v>279098449</v>
       </c>
       <c r="L53" t="n">
-        <v>-116907099</v>
+        <v>123765497</v>
       </c>
       <c r="M53" t="n">
-        <v>62500043</v>
+        <v>163668245</v>
       </c>
       <c r="N53" t="n">
-        <v>-127504182</v>
+        <v>-12696950</v>
       </c>
     </row>
     <row r="54">
@@ -2802,41 +2802,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>247495918</v>
+        <v>762977719</v>
       </c>
       <c r="C54" t="n">
-        <v>-409943305</v>
+        <v>187160135</v>
       </c>
       <c r="D54" t="n">
-        <v>564461891</v>
+        <v>-125816067</v>
       </c>
       <c r="E54" t="n">
-        <v>-243257893</v>
+        <v>137925305</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>988771990</v>
+        <v>811398442</v>
       </c>
       <c r="H54" t="n">
-        <v>-956107908</v>
+        <v>-1014321711</v>
       </c>
       <c r="I54" t="n">
-        <v>-498701867</v>
+        <v>-494463308</v>
       </c>
       <c r="J54" t="n">
-        <v>-1851504767</v>
+        <v>-1272675575</v>
       </c>
       <c r="K54" t="n">
-        <v>334029700</v>
+        <v>-57615579</v>
       </c>
       <c r="L54" t="n">
-        <v>-688134412</v>
+        <v>-1430093933</v>
       </c>
       <c r="M54" t="n">
-        <v>-56407466</v>
+        <v>-919139297</v>
       </c>
       <c r="N54" t="n">
-        <v>103705242</v>
+        <v>-518372966</v>
       </c>
     </row>
     <row r="55">
@@ -2846,41 +2846,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1867010517</v>
+        <v>14937415517</v>
       </c>
       <c r="C55" t="n">
-        <v>1587960035</v>
+        <v>-13457196642</v>
       </c>
       <c r="D55" t="n">
-        <v>-2922827736</v>
+        <v>-15694110687</v>
       </c>
       <c r="E55" t="n">
-        <v>-2548311663</v>
+        <v>-9113004106</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>9721788983</v>
+        <v>7074169629</v>
       </c>
       <c r="H55" t="n">
-        <v>8285451792</v>
+        <v>-4456494792</v>
       </c>
       <c r="I55" t="n">
-        <v>26525686084</v>
+        <v>22110363904</v>
       </c>
       <c r="J55" t="n">
-        <v>11450049825</v>
+        <v>22759798843</v>
       </c>
       <c r="K55" t="n">
-        <v>14389550896</v>
+        <v>19752174952</v>
       </c>
       <c r="L55" t="n">
-        <v>4931543145</v>
+        <v>28908917566</v>
       </c>
       <c r="M55" t="n">
-        <v>12735347148</v>
+        <v>33907185956</v>
       </c>
       <c r="N55" t="n">
-        <v>37820762606</v>
+        <v>60495765294</v>
       </c>
     </row>
     <row r="56">
@@ -2890,41 +2890,41 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>494254897</v>
+        <v>3065616608</v>
       </c>
       <c r="C56" t="n">
-        <v>1473213692</v>
+        <v>2236211562</v>
       </c>
       <c r="D56" t="n">
-        <v>1457833810</v>
+        <v>1778291926</v>
       </c>
       <c r="E56" t="n">
-        <v>1338293316</v>
+        <v>-973459313</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>908044039</v>
+        <v>688277907</v>
       </c>
       <c r="H56" t="n">
-        <v>335203891</v>
+        <v>1162204954</v>
       </c>
       <c r="I56" t="n">
-        <v>1375730589</v>
+        <v>3208278802</v>
       </c>
       <c r="J56" t="n">
-        <v>1865516925</v>
+        <v>4246774656</v>
       </c>
       <c r="K56" t="n">
-        <v>2364607724</v>
+        <v>4157645425</v>
       </c>
       <c r="L56" t="n">
-        <v>494638936</v>
+        <v>3208662841</v>
       </c>
       <c r="M56" t="n">
-        <v>-402040173</v>
+        <v>2371520791</v>
       </c>
       <c r="N56" t="n">
-        <v>-884617723</v>
+        <v>1815193892</v>
       </c>
     </row>
     <row r="57">
@@ -2934,41 +2934,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1398732541</v>
+        <v>-1841211186</v>
       </c>
       <c r="C57" t="n">
-        <v>1466977789</v>
+        <v>-1360918851</v>
       </c>
       <c r="D57" t="n">
-        <v>463420523</v>
+        <v>-2987641619</v>
       </c>
       <c r="E57" t="n">
-        <v>-697676462</v>
+        <v>-1444322828</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>2457575593</v>
+        <v>1754309626</v>
       </c>
       <c r="H57" t="n">
-        <v>2609847977</v>
+        <v>943546944</v>
       </c>
       <c r="I57" t="n">
-        <v>6951182891</v>
+        <v>7652237861</v>
       </c>
       <c r="J57" t="n">
-        <v>2290192717</v>
+        <v>6214745296</v>
       </c>
       <c r="K57" t="n">
-        <v>2878158299</v>
+        <v>5951426522</v>
       </c>
       <c r="L57" t="n">
-        <v>-1099147519</v>
+        <v>5154357801</v>
       </c>
       <c r="M57" t="n">
-        <v>900272566</v>
+        <v>5648040349</v>
       </c>
       <c r="N57" t="n">
-        <v>2012020164</v>
+        <v>7500026440</v>
       </c>
     </row>
     <row r="58">
@@ -2978,41 +2978,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>48024510</v>
+        <v>-307940294</v>
       </c>
       <c r="C58" t="n">
-        <v>223251235</v>
+        <v>219759151</v>
       </c>
       <c r="D58" t="n">
-        <v>-188889229</v>
+        <v>-53814975</v>
       </c>
       <c r="E58" t="n">
-        <v>103934077</v>
+        <v>-238910993</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>203671150</v>
+        <v>133447011</v>
       </c>
       <c r="H58" t="n">
-        <v>172976757</v>
+        <v>93555722</v>
       </c>
       <c r="I58" t="n">
-        <v>227269441</v>
+        <v>379228028</v>
       </c>
       <c r="J58" t="n">
-        <v>-119502980</v>
+        <v>307419405</v>
       </c>
       <c r="K58" t="n">
-        <v>543346688</v>
+        <v>527434216</v>
       </c>
       <c r="L58" t="n">
-        <v>203327386</v>
+        <v>534530904</v>
       </c>
       <c r="M58" t="n">
-        <v>161470159</v>
+        <v>245637906</v>
       </c>
       <c r="N58" t="n">
-        <v>-490767239</v>
+        <v>225556206</v>
       </c>
     </row>
     <row r="59">
@@ -3022,43 +3022,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>116141746</v>
+        <v>571910318</v>
       </c>
       <c r="C59" t="n">
-        <v>125904032</v>
+        <v>440260311</v>
       </c>
       <c r="D59" t="n">
-        <v>128801167</v>
+        <v>238936390</v>
       </c>
       <c r="E59" t="n">
-        <v>221084604</v>
+        <v>199395716</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>326035738</v>
+        <v>430842279</v>
       </c>
       <c r="H59" t="n">
-        <v>587982340</v>
+        <v>688696891</v>
       </c>
       <c r="I59" t="n">
-        <v>587150188</v>
+        <v>925617592</v>
       </c>
       <c r="J59" t="n">
-        <v>447404719</v>
+        <v>900673156</v>
       </c>
       <c r="K59" t="n">
-        <v>240752058</v>
+        <v>958835052</v>
       </c>
       <c r="L59" t="n">
-        <v>-926129</v>
+        <v>808624416</v>
       </c>
       <c r="M59" t="n">
-        <v>-73697922</v>
+        <v>700457767</v>
       </c>
       <c r="N59" t="n">
-        <v>-299826237</v>
+        <v>529483409</v>
       </c>
     </row>
     <row r="60">
@@ -3068,41 +3068,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>154304753</v>
+        <v>242380654</v>
       </c>
       <c r="C60" t="n">
-        <v>200356034</v>
+        <v>252884726</v>
       </c>
       <c r="D60" t="n">
-        <v>299591496</v>
+        <v>323995068</v>
       </c>
       <c r="E60" t="n">
-        <v>291376591</v>
+        <v>487124304</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>417561558</v>
+        <v>623781026</v>
       </c>
       <c r="H60" t="n">
-        <v>1193414646</v>
+        <v>1500062442</v>
       </c>
       <c r="I60" t="n">
-        <v>2519833716</v>
+        <v>2965515150</v>
       </c>
       <c r="J60" t="n">
-        <v>1950443494</v>
+        <v>2568361551</v>
       </c>
       <c r="K60" t="n">
-        <v>1590163765</v>
+        <v>3083170173</v>
       </c>
       <c r="L60" t="n">
-        <v>786477363</v>
+        <v>3597687638</v>
       </c>
       <c r="M60" t="n">
-        <v>930264396</v>
+        <v>3298269611</v>
       </c>
       <c r="N60" t="n">
-        <v>214838010</v>
+        <v>2998416100</v>
       </c>
     </row>
     <row r="61">
@@ -3112,41 +3112,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11240345</v>
+        <v>-8927692</v>
       </c>
       <c r="C61" t="n">
-        <v>12249797</v>
+        <v>-11636426</v>
       </c>
       <c r="D61" t="n">
-        <v>14875617</v>
+        <v>15526335</v>
       </c>
       <c r="E61" t="n">
-        <v>44548983</v>
+        <v>44593437</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>67668961</v>
+        <v>91078964</v>
       </c>
       <c r="H61" t="n">
-        <v>42548580</v>
+        <v>69436863</v>
       </c>
       <c r="I61" t="n">
-        <v>34161775</v>
+        <v>89951103</v>
       </c>
       <c r="J61" t="n">
-        <v>-10199006</v>
+        <v>69719752</v>
       </c>
       <c r="K61" t="n">
-        <v>13706882</v>
+        <v>71131079</v>
       </c>
       <c r="L61" t="n">
-        <v>18349008</v>
+        <v>97059766</v>
       </c>
       <c r="M61" t="n">
-        <v>22666473</v>
+        <v>80136428</v>
       </c>
       <c r="N61" t="n">
-        <v>17047439</v>
+        <v>73302901</v>
       </c>
     </row>
     <row r="62">
@@ -3156,41 +3156,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>196412674</v>
+        <v>-360058004</v>
       </c>
       <c r="C62" t="n">
-        <v>453279770</v>
+        <v>440709650</v>
       </c>
       <c r="D62" t="n">
-        <v>264601029</v>
+        <v>-10926000</v>
       </c>
       <c r="E62" t="n">
-        <v>343441744</v>
+        <v>-11693573</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>814530370</v>
+        <v>725125496</v>
       </c>
       <c r="H62" t="n">
-        <v>232630416</v>
+        <v>3391329</v>
       </c>
       <c r="I62" t="n">
-        <v>257938852</v>
+        <v>842086181</v>
       </c>
       <c r="J62" t="n">
-        <v>-309599825</v>
+        <v>953020024</v>
       </c>
       <c r="K62" t="n">
-        <v>411983227</v>
+        <v>876977438</v>
       </c>
       <c r="L62" t="n">
-        <v>526877764</v>
+        <v>1132282635</v>
       </c>
       <c r="M62" t="n">
-        <v>664653224</v>
+        <v>1177993287</v>
       </c>
       <c r="N62" t="n">
-        <v>-289515546</v>
+        <v>363923745</v>
       </c>
     </row>
     <row r="63">
@@ -3200,41 +3200,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20015312</v>
+        <v>35388103</v>
       </c>
       <c r="C63" t="n">
-        <v>-10460605</v>
+        <v>24202667</v>
       </c>
       <c r="D63" t="n">
-        <v>-3137222</v>
+        <v>13460820</v>
       </c>
       <c r="E63" t="n">
-        <v>8801408</v>
+        <v>29412857</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>367124</v>
+        <v>20224709</v>
       </c>
       <c r="H63" t="n">
-        <v>-988009</v>
+        <v>3123378</v>
       </c>
       <c r="I63" t="n">
-        <v>-8196141</v>
+        <v>20620579</v>
       </c>
       <c r="J63" t="n">
-        <v>1866982</v>
+        <v>-8226499</v>
       </c>
       <c r="K63" t="n">
-        <v>7999690</v>
+        <v>3874459</v>
       </c>
       <c r="L63" t="n">
-        <v>8143744</v>
+        <v>8749011</v>
       </c>
       <c r="M63" t="n">
-        <v>13911878</v>
+        <v>16145984</v>
       </c>
       <c r="N63" t="n">
-        <v>13694871</v>
+        <v>20706552</v>
       </c>
     </row>
     <row r="64">
@@ -3244,41 +3244,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8459382335</v>
+        <v>13983600383</v>
       </c>
       <c r="C64" t="n">
-        <v>16056438972</v>
+        <v>16588842803</v>
       </c>
       <c r="D64" t="n">
-        <v>18741825495</v>
+        <v>20497553900</v>
       </c>
       <c r="E64" t="n">
-        <v>15096713957</v>
+        <v>26736682891</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>6706723445</v>
+        <v>27370070394</v>
       </c>
       <c r="H64" t="n">
-        <v>4317168169</v>
+        <v>26839909609</v>
       </c>
       <c r="I64" t="n">
-        <v>-2539829627</v>
+        <v>21016266665</v>
       </c>
       <c r="J64" t="n">
-        <v>-3224057764</v>
+        <v>19539104653</v>
       </c>
       <c r="K64" t="n">
-        <v>-4488334765</v>
+        <v>18570658099</v>
       </c>
       <c r="L64" t="n">
-        <v>-3672614024</v>
+        <v>8884269558</v>
       </c>
       <c r="M64" t="n">
-        <v>-780648999</v>
+        <v>2702016417</v>
       </c>
       <c r="N64" t="n">
-        <v>-3985946677</v>
+        <v>-4157121351</v>
       </c>
     </row>
     <row r="65">
@@ -3288,41 +3288,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>501954266</v>
+        <v>273470448</v>
       </c>
       <c r="C65" t="n">
-        <v>1182255956</v>
+        <v>824553145</v>
       </c>
       <c r="D65" t="n">
-        <v>3076409672</v>
+        <v>2698914702</v>
       </c>
       <c r="E65" t="n">
-        <v>1916440249</v>
+        <v>2327897422</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>1064853811</v>
+        <v>2233848296</v>
       </c>
       <c r="H65" t="n">
-        <v>-1091100280</v>
+        <v>1955759116</v>
       </c>
       <c r="I65" t="n">
-        <v>-88698565</v>
+        <v>2329695950</v>
       </c>
       <c r="J65" t="n">
-        <v>-77803614</v>
+        <v>2169306153</v>
       </c>
       <c r="K65" t="n">
-        <v>172641567</v>
+        <v>2157950959</v>
       </c>
       <c r="L65" t="n">
-        <v>-216897423</v>
+        <v>1610844261</v>
       </c>
       <c r="M65" t="n">
-        <v>88131034</v>
+        <v>1075181231</v>
       </c>
       <c r="N65" t="n">
-        <v>142027228</v>
+        <v>-776431485</v>
       </c>
     </row>
     <row r="66">
@@ -3332,41 +3332,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>473829042</v>
+        <v>533856417</v>
       </c>
       <c r="C66" t="n">
-        <v>1042834661</v>
+        <v>781822996</v>
       </c>
       <c r="D66" t="n">
-        <v>985562360</v>
+        <v>705135645</v>
       </c>
       <c r="E66" t="n">
-        <v>964311484</v>
+        <v>1112448428</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>375400091</v>
+        <v>1200058537</v>
       </c>
       <c r="H66" t="n">
-        <v>57372955</v>
+        <v>1052282193</v>
       </c>
       <c r="I66" t="n">
-        <v>-19152366</v>
+        <v>1418988160</v>
       </c>
       <c r="J66" t="n">
-        <v>-170204433</v>
+        <v>1248030319</v>
       </c>
       <c r="K66" t="n">
-        <v>-397190364</v>
+        <v>645744951</v>
       </c>
       <c r="L66" t="n">
-        <v>-529860898</v>
+        <v>415298220</v>
       </c>
       <c r="M66" t="n">
-        <v>-154710114</v>
+        <v>50485544</v>
       </c>
       <c r="N66" t="n">
-        <v>94449471</v>
+        <v>-245367938</v>
       </c>
     </row>
     <row r="67">
@@ -3376,41 +3376,41 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-2545</v>
+        <v>-12095</v>
       </c>
       <c r="C67" t="n">
-        <v>3375</v>
+        <v>5491</v>
       </c>
       <c r="D67" t="n">
-        <v>-2445</v>
+        <v>-9939</v>
       </c>
       <c r="E67" t="n">
-        <v>-3727</v>
+        <v>-873</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>-5239</v>
+        <v>-5138</v>
       </c>
       <c r="H67" t="n">
-        <v>3240</v>
+        <v>2368</v>
       </c>
       <c r="I67" t="n">
-        <v>7362</v>
+        <v>1090</v>
       </c>
       <c r="J67" t="n">
-        <v>4566</v>
+        <v>2702</v>
       </c>
       <c r="K67" t="n">
-        <v>-1478</v>
+        <v>-683</v>
       </c>
       <c r="L67" t="n">
-        <v>-7765</v>
+        <v>-4130</v>
       </c>
       <c r="M67" t="n">
-        <v>-6426</v>
+        <v>-7099</v>
       </c>
       <c r="N67" t="n">
-        <v>-7236</v>
+        <v>-5474</v>
       </c>
     </row>
     <row r="68">
@@ -3420,41 +3420,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5039</v>
+        <v>4447</v>
       </c>
       <c r="C68" t="n">
-        <v>9178</v>
+        <v>918</v>
       </c>
       <c r="D68" t="n">
-        <v>10025</v>
+        <v>2031</v>
       </c>
       <c r="E68" t="n">
-        <v>-2244</v>
+        <v>-5977</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>819</v>
+        <v>2729</v>
       </c>
       <c r="H68" t="n">
-        <v>-9702</v>
+        <v>-875</v>
       </c>
       <c r="I68" t="n">
-        <v>1460</v>
+        <v>4255</v>
       </c>
       <c r="J68" t="n">
-        <v>-4837</v>
+        <v>5160</v>
       </c>
       <c r="K68" t="n">
-        <v>693</v>
+        <v>1016</v>
       </c>
       <c r="L68" t="n">
-        <v>2390</v>
+        <v>1606</v>
       </c>
       <c r="M68" t="n">
-        <v>6069</v>
+        <v>2051</v>
       </c>
       <c r="N68" t="n">
-        <v>7062</v>
+        <v>-1947</v>
       </c>
     </row>
     <row r="69">
@@ -3464,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4668203137</v>
+        <v>-5201972193</v>
       </c>
       <c r="C69" t="n">
-        <v>3406245763</v>
+        <v>-6094524030</v>
       </c>
       <c r="D69" t="n">
-        <v>5725603487</v>
+        <v>-6059665625</v>
       </c>
       <c r="E69" t="n">
-        <v>15581667470</v>
+        <v>6341953439</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>18503571449</v>
+        <v>13555810773</v>
       </c>
       <c r="H69" t="n">
-        <v>10962202678</v>
+        <v>10330995700</v>
       </c>
       <c r="I69" t="n">
-        <v>12447030346</v>
+        <v>23360494679</v>
       </c>
       <c r="J69" t="n">
-        <v>6977333238</v>
+        <v>28887150450</v>
       </c>
       <c r="K69" t="n">
-        <v>13180584752</v>
+        <v>29868390917</v>
       </c>
       <c r="L69" t="n">
-        <v>20690443815</v>
+        <v>48719141631</v>
       </c>
       <c r="M69" t="n">
-        <v>28103638626</v>
+        <v>53584543313</v>
       </c>
       <c r="N69" t="n">
-        <v>22173191021</v>
+        <v>46315978451</v>
       </c>
     </row>
     <row r="70">
@@ -3508,41 +3508,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1291008432</v>
+        <v>4629762510</v>
       </c>
       <c r="C70" t="n">
-        <v>1749538904</v>
+        <v>2446261371</v>
       </c>
       <c r="D70" t="n">
-        <v>1663027451</v>
+        <v>407483164</v>
       </c>
       <c r="E70" t="n">
-        <v>3166375474</v>
+        <v>3438548078</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>1426199804</v>
+        <v>1439658621</v>
       </c>
       <c r="H70" t="n">
-        <v>-1405995553</v>
+        <v>724214943</v>
       </c>
       <c r="I70" t="n">
-        <v>-3161485826</v>
+        <v>1295898206</v>
       </c>
       <c r="J70" t="n">
-        <v>-1474891125</v>
+        <v>1700847847</v>
       </c>
       <c r="K70" t="n">
-        <v>-76071779</v>
+        <v>180960383</v>
       </c>
       <c r="L70" t="n">
-        <v>978565085</v>
+        <v>983454997</v>
       </c>
       <c r="M70" t="n">
-        <v>1359001595</v>
+        <v>1310310538</v>
       </c>
       <c r="N70" t="n">
-        <v>2474345248</v>
+        <v>992278788</v>
       </c>
     </row>
     <row r="71">
@@ -3552,41 +3552,41 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1250517227</v>
+        <v>-904722183</v>
       </c>
       <c r="C71" t="n">
-        <v>2488052607</v>
+        <v>697993229</v>
       </c>
       <c r="D71" t="n">
-        <v>2548400876</v>
+        <v>429309890</v>
       </c>
       <c r="E71" t="n">
-        <v>3014384042</v>
+        <v>2672004133</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>1955914249</v>
+        <v>3302582529</v>
       </c>
       <c r="H71" t="n">
-        <v>-70158564</v>
+        <v>2520091068</v>
       </c>
       <c r="I71" t="n">
-        <v>-591639169</v>
+        <v>3673262100</v>
       </c>
       <c r="J71" t="n">
-        <v>-1208752657</v>
+        <v>3235214199</v>
       </c>
       <c r="K71" t="n">
-        <v>406573099</v>
+        <v>2884815411</v>
       </c>
       <c r="L71" t="n">
-        <v>189382801</v>
+        <v>2612127674</v>
       </c>
       <c r="M71" t="n">
-        <v>1633684550</v>
+        <v>2380846142</v>
       </c>
       <c r="N71" t="n">
-        <v>63671554</v>
+        <v>400086089</v>
       </c>
     </row>
     <row r="72">
@@ -3596,41 +3596,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-17327222</v>
+        <v>-52394841</v>
       </c>
       <c r="C72" t="n">
-        <v>32307246</v>
+        <v>-86357045</v>
       </c>
       <c r="D72" t="n">
-        <v>18803401</v>
+        <v>-132617184</v>
       </c>
       <c r="E72" t="n">
-        <v>108336514</v>
+        <v>-10535343</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>25124633</v>
+        <v>-15562444</v>
       </c>
       <c r="H72" t="n">
-        <v>269658712</v>
+        <v>241474476</v>
       </c>
       <c r="I72" t="n">
-        <v>226492707</v>
+        <v>317501999</v>
       </c>
       <c r="J72" t="n">
-        <v>359985812</v>
+        <v>417417691</v>
       </c>
       <c r="K72" t="n">
-        <v>42818759</v>
+        <v>331280872</v>
       </c>
       <c r="L72" t="n">
-        <v>70519235</v>
+        <v>405348456</v>
       </c>
       <c r="M72" t="n">
-        <v>49131659</v>
+        <v>434242104</v>
       </c>
       <c r="N72" t="n">
-        <v>22034564</v>
+        <v>334512035</v>
       </c>
     </row>
     <row r="73">
@@ -3640,41 +3640,41 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10539281</v>
+        <v>-22169230</v>
       </c>
       <c r="C73" t="n">
-        <v>17585162</v>
+        <v>-4669315</v>
       </c>
       <c r="D73" t="n">
-        <v>15302256</v>
+        <v>-4523194</v>
       </c>
       <c r="E73" t="n">
-        <v>14809395</v>
+        <v>2422068</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>27005025</v>
+        <v>21445993</v>
       </c>
       <c r="H73" t="n">
-        <v>292445567</v>
+        <v>307042173</v>
       </c>
       <c r="I73" t="n">
-        <v>228191018</v>
+        <v>253539694</v>
       </c>
       <c r="J73" t="n">
-        <v>277275152</v>
+        <v>321865339</v>
       </c>
       <c r="K73" t="n">
-        <v>-62318724</v>
+        <v>245429099</v>
       </c>
       <c r="L73" t="n">
-        <v>62789714</v>
+        <v>305790127</v>
       </c>
       <c r="M73" t="n">
-        <v>70097567</v>
+        <v>374377744</v>
       </c>
       <c r="N73" t="n">
-        <v>89878087</v>
+        <v>320004930</v>
       </c>
     </row>
     <row r="74">
@@ -3684,41 +3684,41 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-207212643</v>
+        <v>-1221357568</v>
       </c>
       <c r="C74" t="n">
-        <v>1281851375</v>
+        <v>531353082</v>
       </c>
       <c r="D74" t="n">
-        <v>432362375</v>
+        <v>-291248352</v>
       </c>
       <c r="E74" t="n">
-        <v>1229716288</v>
+        <v>252693259</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>460031633</v>
+        <v>742790762</v>
       </c>
       <c r="H74" t="n">
-        <v>-121590793</v>
+        <v>-202323685</v>
       </c>
       <c r="I74" t="n">
-        <v>-676389768</v>
+        <v>346113877</v>
       </c>
       <c r="J74" t="n">
-        <v>-464114031</v>
+        <v>1277768977</v>
       </c>
       <c r="K74" t="n">
-        <v>821841234</v>
+        <v>1132612816</v>
       </c>
       <c r="L74" t="n">
-        <v>290287368</v>
+        <v>843613888</v>
       </c>
       <c r="M74" t="n">
-        <v>403557866</v>
+        <v>399475468</v>
       </c>
       <c r="N74" t="n">
-        <v>279158099</v>
+        <v>979408540</v>
       </c>
     </row>
     <row r="75">
@@ -3728,41 +3728,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1700166722</v>
+        <v>4297998345</v>
       </c>
       <c r="C75" t="n">
-        <v>2641155645</v>
+        <v>5206583062</v>
       </c>
       <c r="D75" t="n">
-        <v>1505539809</v>
+        <v>3109920552</v>
       </c>
       <c r="E75" t="n">
-        <v>1742793751</v>
+        <v>3987847597</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>-255499745</v>
+        <v>2902246097</v>
       </c>
       <c r="H75" t="n">
-        <v>-1150572981</v>
+        <v>1042325009</v>
       </c>
       <c r="I75" t="n">
-        <v>-3342092534</v>
+        <v>100868953</v>
       </c>
       <c r="J75" t="n">
-        <v>-2538350708</v>
+        <v>-152694414</v>
       </c>
       <c r="K75" t="n">
-        <v>-84562710</v>
+        <v>270404118</v>
       </c>
       <c r="L75" t="n">
-        <v>225995384</v>
+        <v>-1373303399</v>
       </c>
       <c r="M75" t="n">
-        <v>1233954099</v>
+        <v>-1559896354</v>
       </c>
       <c r="N75" t="n">
-        <v>1537159565</v>
+        <v>302023874</v>
       </c>
     </row>
     <row r="76">
@@ -3772,41 +3772,41 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>286285903</v>
+        <v>497561297</v>
       </c>
       <c r="C76" t="n">
-        <v>534827504</v>
+        <v>554021657</v>
       </c>
       <c r="D76" t="n">
-        <v>407405853</v>
+        <v>125806495</v>
       </c>
       <c r="E76" t="n">
-        <v>1090063830</v>
+        <v>1020095600</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>444151053</v>
+        <v>601592097</v>
       </c>
       <c r="H76" t="n">
-        <v>-121861109</v>
+        <v>472546607</v>
       </c>
       <c r="I76" t="n">
-        <v>-213741762</v>
+        <v>1162607971</v>
       </c>
       <c r="J76" t="n">
-        <v>128097549</v>
+        <v>1107076106</v>
       </c>
       <c r="K76" t="n">
-        <v>777271980</v>
+        <v>1062816724</v>
       </c>
       <c r="L76" t="n">
-        <v>695497459</v>
+        <v>1571819527</v>
       </c>
       <c r="M76" t="n">
-        <v>834861456</v>
+        <v>1407110058</v>
       </c>
       <c r="N76" t="n">
-        <v>294550779</v>
+        <v>949961650</v>
       </c>
     </row>
     <row r="77">
@@ -3816,41 +3816,41 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1985581699</v>
+        <v>-9515173917</v>
       </c>
       <c r="C77" t="n">
-        <v>9403136262</v>
+        <v>-2624988819</v>
       </c>
       <c r="D77" t="n">
-        <v>7889539378</v>
+        <v>-3584307553</v>
       </c>
       <c r="E77" t="n">
-        <v>16526116813</v>
+        <v>9189075118</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>19160846733</v>
+        <v>21983352363</v>
       </c>
       <c r="H77" t="n">
-        <v>8458348883</v>
+        <v>15288740419</v>
       </c>
       <c r="I77" t="n">
-        <v>9247200406</v>
+        <v>23787735520</v>
       </c>
       <c r="J77" t="n">
-        <v>-535871307</v>
+        <v>28028111688</v>
       </c>
       <c r="K77" t="n">
-        <v>8877184326</v>
+        <v>25225072587</v>
       </c>
       <c r="L77" t="n">
-        <v>9760240491</v>
+        <v>35533557710</v>
       </c>
       <c r="M77" t="n">
-        <v>13665696916</v>
+        <v>32290672342</v>
       </c>
       <c r="N77" t="n">
-        <v>12742684531</v>
+        <v>30078217740</v>
       </c>
     </row>
     <row r="78">
@@ -3860,41 +3860,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-596641317</v>
+        <v>-2664988144</v>
       </c>
       <c r="C78" t="n">
-        <v>1868122483</v>
+        <v>-1449907646</v>
       </c>
       <c r="D78" t="n">
-        <v>850697366</v>
+        <v>-2458964666</v>
       </c>
       <c r="E78" t="n">
-        <v>2741909580</v>
+        <v>547780419</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>3079767278</v>
+        <v>2771710890</v>
       </c>
       <c r="H78" t="n">
-        <v>787816015</v>
+        <v>953701782</v>
       </c>
       <c r="I78" t="n">
-        <v>1336411401</v>
+        <v>3481679664</v>
       </c>
       <c r="J78" t="n">
-        <v>804156564</v>
+        <v>5752046325</v>
       </c>
       <c r="K78" t="n">
-        <v>1874704133</v>
+        <v>3513217514</v>
       </c>
       <c r="L78" t="n">
-        <v>1137078511</v>
+        <v>5215399492</v>
       </c>
       <c r="M78" t="n">
-        <v>1191242602</v>
+        <v>5075166444</v>
       </c>
       <c r="N78" t="n">
-        <v>3339028096</v>
+        <v>6001548244</v>
       </c>
     </row>
     <row r="79">
@@ -3904,41 +3904,41 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-2935276715</v>
+        <v>-4203350794</v>
       </c>
       <c r="C79" t="n">
-        <v>3671426937</v>
+        <v>-5246618039</v>
       </c>
       <c r="D79" t="n">
-        <v>-67410669</v>
+        <v>-8669976833</v>
       </c>
       <c r="E79" t="n">
-        <v>6271172092</v>
+        <v>-1305096237</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>7032957489</v>
+        <v>4924019970</v>
       </c>
       <c r="H79" t="n">
-        <v>-3667289122</v>
+        <v>-4269462699</v>
       </c>
       <c r="I79" t="n">
-        <v>-7143890105</v>
+        <v>-3807994728</v>
       </c>
       <c r="J79" t="n">
-        <v>-12534039176</v>
+        <v>-1829654750</v>
       </c>
       <c r="K79" t="n">
-        <v>-1690732026</v>
+        <v>-5425431817</v>
       </c>
       <c r="L79" t="n">
-        <v>-8003086146</v>
+        <v>-8875804159</v>
       </c>
       <c r="M79" t="n">
-        <v>-3092936621</v>
+        <v>-8594018308</v>
       </c>
       <c r="N79" t="n">
-        <v>4284599600</v>
+        <v>-1073421548</v>
       </c>
     </row>
     <row r="80">
@@ -3948,41 +3948,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19662</v>
+        <v>-39269</v>
       </c>
       <c r="C80" t="n">
-        <v>14840</v>
+        <v>-34221</v>
       </c>
       <c r="D80" t="n">
-        <v>-9644</v>
+        <v>-31571</v>
       </c>
       <c r="E80" t="n">
-        <v>-10270</v>
+        <v>-6710</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>33114</v>
+        <v>44036</v>
       </c>
       <c r="H80" t="n">
-        <v>18752</v>
+        <v>1196</v>
       </c>
       <c r="I80" t="n">
-        <v>17567</v>
+        <v>26959</v>
       </c>
       <c r="J80" t="n">
-        <v>-17532</v>
+        <v>30422</v>
       </c>
       <c r="K80" t="n">
-        <v>13462</v>
+        <v>22570</v>
       </c>
       <c r="L80" t="n">
-        <v>21600</v>
+        <v>28897</v>
       </c>
       <c r="M80" t="n">
-        <v>46131</v>
+        <v>61713</v>
       </c>
       <c r="N80" t="n">
-        <v>24529</v>
+        <v>56743</v>
       </c>
     </row>
     <row r="81">
@@ -3992,41 +3992,41 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-13766</v>
+        <v>-12029</v>
       </c>
       <c r="C81" t="n">
-        <v>11558</v>
+        <v>-49924</v>
       </c>
       <c r="D81" t="n">
-        <v>20990</v>
+        <v>-58813</v>
       </c>
       <c r="E81" t="n">
-        <v>64659</v>
+        <v>19620</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>67207</v>
+        <v>40707</v>
       </c>
       <c r="H81" t="n">
-        <v>15666</v>
+        <v>9584</v>
       </c>
       <c r="I81" t="n">
-        <v>-1587</v>
+        <v>49672</v>
       </c>
       <c r="J81" t="n">
-        <v>-30695</v>
+        <v>48141</v>
       </c>
       <c r="K81" t="n">
-        <v>-4787</v>
+        <v>31496</v>
       </c>
       <c r="L81" t="n">
-        <v>-42019</v>
+        <v>21320</v>
       </c>
       <c r="M81" t="n">
-        <v>3689</v>
+        <v>39861</v>
       </c>
       <c r="N81" t="n">
-        <v>32229</v>
+        <v>43142</v>
       </c>
     </row>
     <row r="82">
@@ -4036,41 +4036,41 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-8256</v>
+        <v>7919</v>
       </c>
       <c r="C82" t="n">
-        <v>14261</v>
+        <v>3277</v>
       </c>
       <c r="D82" t="n">
-        <v>15014</v>
+        <v>-7820</v>
       </c>
       <c r="E82" t="n">
-        <v>25440</v>
+        <v>-2221</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>16259</v>
+        <v>12349</v>
       </c>
       <c r="H82" t="n">
-        <v>3937</v>
+        <v>1822</v>
       </c>
       <c r="I82" t="n">
-        <v>4014</v>
+        <v>21198</v>
       </c>
       <c r="J82" t="n">
-        <v>-6819</v>
+        <v>23701</v>
       </c>
       <c r="K82" t="n">
-        <v>-4621</v>
+        <v>14330</v>
       </c>
       <c r="L82" t="n">
-        <v>-4955</v>
+        <v>24499</v>
       </c>
       <c r="M82" t="n">
-        <v>-7317</v>
+        <v>2123</v>
       </c>
       <c r="N82" t="n">
-        <v>5623</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="83">
@@ -4080,41 +4080,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45675471</v>
+        <v>56177407</v>
       </c>
       <c r="C83" t="n">
-        <v>140166671</v>
+        <v>-16345772</v>
       </c>
       <c r="D83" t="n">
-        <v>109462898</v>
+        <v>-32626714</v>
       </c>
       <c r="E83" t="n">
-        <v>58507601</v>
+        <v>19039173</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>88718952</v>
+        <v>142336865</v>
       </c>
       <c r="H83" t="n">
-        <v>24727806</v>
+        <v>76091260</v>
       </c>
       <c r="I83" t="n">
-        <v>93402393</v>
+        <v>197585465</v>
       </c>
       <c r="J83" t="n">
-        <v>44498544</v>
+        <v>273384167</v>
       </c>
       <c r="K83" t="n">
-        <v>140648751</v>
+        <v>274839455</v>
       </c>
       <c r="L83" t="n">
-        <v>262990787</v>
+        <v>414900781</v>
       </c>
       <c r="M83" t="n">
-        <v>314668020</v>
+        <v>447885516</v>
       </c>
       <c r="N83" t="n">
-        <v>317504585</v>
+        <v>482881142</v>
       </c>
     </row>
     <row r="84">
@@ -4124,41 +4124,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>522298760</v>
+        <v>293830203</v>
       </c>
       <c r="C84" t="n">
-        <v>4317232</v>
+        <v>-1267454307</v>
       </c>
       <c r="D84" t="n">
-        <v>-54713557</v>
+        <v>-1457485368</v>
       </c>
       <c r="E84" t="n">
-        <v>661762799</v>
+        <v>-180709439</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>1046516002</v>
+        <v>314624949</v>
       </c>
       <c r="H84" t="n">
-        <v>1149120440</v>
+        <v>1266883590</v>
       </c>
       <c r="I84" t="n">
-        <v>1987563684</v>
+        <v>3171625014</v>
       </c>
       <c r="J84" t="n">
-        <v>1199787232</v>
+        <v>2250620804</v>
       </c>
       <c r="K84" t="n">
-        <v>406266719</v>
+        <v>1500674254</v>
       </c>
       <c r="L84" t="n">
-        <v>-705552395</v>
+        <v>1943774088</v>
       </c>
       <c r="M84" t="n">
-        <v>710931588</v>
+        <v>2957234822</v>
       </c>
       <c r="N84" t="n">
-        <v>1685571476</v>
+        <v>3240958635</v>
       </c>
     </row>
     <row r="85">
@@ -4168,41 +4168,41 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4284926253</v>
+        <v>2874450933</v>
       </c>
       <c r="C85" t="n">
-        <v>1784896218</v>
+        <v>-580704793</v>
       </c>
       <c r="D85" t="n">
-        <v>-112496530</v>
+        <v>-3319058467</v>
       </c>
       <c r="E85" t="n">
-        <v>-280155503</v>
+        <v>-500824081</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>1151578342</v>
+        <v>-541162047</v>
       </c>
       <c r="H85" t="n">
-        <v>1017407401</v>
+        <v>875994779</v>
       </c>
       <c r="I85" t="n">
-        <v>-1036520627</v>
+        <v>2966700142</v>
       </c>
       <c r="J85" t="n">
-        <v>-1242985628</v>
+        <v>1691932815</v>
       </c>
       <c r="K85" t="n">
-        <v>-886519174</v>
+        <v>17309186</v>
       </c>
       <c r="L85" t="n">
-        <v>-1614207574</v>
+        <v>-2930883704</v>
       </c>
       <c r="M85" t="n">
-        <v>-1141226682</v>
+        <v>-1232633968</v>
       </c>
       <c r="N85" t="n">
-        <v>-2641473974</v>
+        <v>-2510585747</v>
       </c>
     </row>
     <row r="86">
@@ -4212,41 +4212,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-59082390</v>
+        <v>223992648</v>
       </c>
       <c r="C86" t="n">
-        <v>31355861</v>
+        <v>61461719</v>
       </c>
       <c r="D86" t="n">
-        <v>-180036521</v>
+        <v>-67329988</v>
       </c>
       <c r="E86" t="n">
-        <v>148522715</v>
+        <v>206291588</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>423728069</v>
+        <v>497289165</v>
       </c>
       <c r="H86" t="n">
-        <v>1059629006</v>
+        <v>1077627235</v>
       </c>
       <c r="I86" t="n">
-        <v>1361828623</v>
+        <v>1451268948</v>
       </c>
       <c r="J86" t="n">
-        <v>884776823</v>
+        <v>1339860753</v>
       </c>
       <c r="K86" t="n">
-        <v>121385125</v>
+        <v>1000977610</v>
       </c>
       <c r="L86" t="n">
-        <v>223427197</v>
+        <v>1733778535</v>
       </c>
       <c r="M86" t="n">
-        <v>272088106</v>
+        <v>1580592998</v>
       </c>
       <c r="N86" t="n">
-        <v>174128142</v>
+        <v>1355142273</v>
       </c>
     </row>
     <row r="87">
@@ -4256,41 +4256,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>307947298</v>
+        <v>-7159447</v>
       </c>
       <c r="C87" t="n">
-        <v>306558815</v>
+        <v>-129948507</v>
       </c>
       <c r="D87" t="n">
-        <v>-115033012</v>
+        <v>-647440369</v>
       </c>
       <c r="E87" t="n">
-        <v>685574080</v>
+        <v>376704313</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>958726666</v>
+        <v>1130869239</v>
       </c>
       <c r="H87" t="n">
-        <v>646465886</v>
+        <v>806825575</v>
       </c>
       <c r="I87" t="n">
-        <v>318004387</v>
+        <v>1311525765</v>
       </c>
       <c r="J87" t="n">
-        <v>194312382</v>
+        <v>1459597863</v>
       </c>
       <c r="K87" t="n">
-        <v>423206623</v>
+        <v>954639497</v>
       </c>
       <c r="L87" t="n">
-        <v>323797539</v>
+        <v>1327376006</v>
       </c>
       <c r="M87" t="n">
-        <v>944719105</v>
+        <v>2097758153</v>
       </c>
       <c r="N87" t="n">
-        <v>1731222459</v>
+        <v>2800894968</v>
       </c>
     </row>
     <row r="88">
@@ -4300,41 +4300,41 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-54300512</v>
+        <v>4063266</v>
       </c>
       <c r="C88" t="n">
-        <v>199428049</v>
+        <v>-179773128</v>
       </c>
       <c r="D88" t="n">
-        <v>30953099</v>
+        <v>-310680749</v>
       </c>
       <c r="E88" t="n">
-        <v>447254071</v>
+        <v>73430140</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>793566474</v>
+        <v>621958020</v>
       </c>
       <c r="H88" t="n">
-        <v>450668548</v>
+        <v>490378742</v>
       </c>
       <c r="I88" t="n">
-        <v>331699841</v>
+        <v>724653400</v>
       </c>
       <c r="J88" t="n">
-        <v>-387388270</v>
+        <v>605606253</v>
       </c>
       <c r="K88" t="n">
-        <v>-35143278</v>
+        <v>446478369</v>
       </c>
       <c r="L88" t="n">
-        <v>-199306964</v>
+        <v>579646948</v>
       </c>
       <c r="M88" t="n">
-        <v>226313522</v>
+        <v>632491726</v>
       </c>
       <c r="N88" t="n">
-        <v>-49946600</v>
+        <v>365578670</v>
       </c>
     </row>
     <row r="89">
@@ -4344,41 +4344,41 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2700663752</v>
+        <v>5672708365</v>
       </c>
       <c r="C89" t="n">
-        <v>7748154106</v>
+        <v>9495102259</v>
       </c>
       <c r="D89" t="n">
-        <v>8613367976</v>
+        <v>9616464428</v>
       </c>
       <c r="E89" t="n">
-        <v>1737431521</v>
+        <v>4233410386</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>-4896414280</v>
+        <v>2142295428</v>
       </c>
       <c r="H89" t="n">
-        <v>-7635905090</v>
+        <v>2015770197</v>
       </c>
       <c r="I89" t="n">
-        <v>-1422448111</v>
+        <v>3015647162</v>
       </c>
       <c r="J89" t="n">
-        <v>-780919007</v>
+        <v>2070820819</v>
       </c>
       <c r="K89" t="n">
-        <v>5039966969</v>
+        <v>6017429855</v>
       </c>
       <c r="L89" t="n">
-        <v>-1190791964</v>
+        <v>-875808554</v>
       </c>
       <c r="M89" t="n">
-        <v>1817815780</v>
+        <v>-3859517507</v>
       </c>
       <c r="N89" t="n">
-        <v>-964795363</v>
+        <v>-3560733484</v>
       </c>
     </row>
     <row r="90">
@@ -4388,41 +4388,41 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-58117725</v>
+        <v>-57366936</v>
       </c>
       <c r="C90" t="n">
-        <v>70174851</v>
+        <v>-110185918</v>
       </c>
       <c r="D90" t="n">
-        <v>113233465</v>
+        <v>-114985866</v>
       </c>
       <c r="E90" t="n">
-        <v>228658462</v>
+        <v>30259622</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>107343205</v>
+        <v>37439291</v>
       </c>
       <c r="H90" t="n">
-        <v>-72190621</v>
+        <v>-14883365</v>
       </c>
       <c r="I90" t="n">
-        <v>-85777980</v>
+        <v>87674146</v>
       </c>
       <c r="J90" t="n">
-        <v>16192412</v>
+        <v>197223000</v>
       </c>
       <c r="K90" t="n">
-        <v>148836707</v>
+        <v>192693929</v>
       </c>
       <c r="L90" t="n">
-        <v>126281863</v>
+        <v>270975661</v>
       </c>
       <c r="M90" t="n">
-        <v>150783754</v>
+        <v>273917535</v>
       </c>
       <c r="N90" t="n">
-        <v>11168069</v>
+        <v>85145286</v>
       </c>
     </row>
     <row r="91">
@@ -4432,41 +4432,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>409889978</v>
+        <v>1521486877</v>
       </c>
       <c r="C91" t="n">
-        <v>1950721257</v>
+        <v>1140526499</v>
       </c>
       <c r="D91" t="n">
-        <v>1631682868</v>
+        <v>650290580</v>
       </c>
       <c r="E91" t="n">
-        <v>2448433858</v>
+        <v>2039422248</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>2759113875</v>
+        <v>3229750062</v>
       </c>
       <c r="H91" t="n">
-        <v>845291304</v>
+        <v>1815205504</v>
       </c>
       <c r="I91" t="n">
-        <v>-514727538</v>
+        <v>2343596575</v>
       </c>
       <c r="J91" t="n">
-        <v>-997778912</v>
+        <v>3712056410</v>
       </c>
       <c r="K91" t="n">
-        <v>990968443</v>
+        <v>3467942649</v>
       </c>
       <c r="L91" t="n">
-        <v>1605646548</v>
+        <v>3539352680</v>
       </c>
       <c r="M91" t="n">
-        <v>1530544770</v>
+        <v>3291879774</v>
       </c>
       <c r="N91" t="n">
-        <v>483222215</v>
+        <v>2319482105</v>
       </c>
     </row>
     <row r="92">
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4882851409</v>
+        <v>21267685254</v>
       </c>
       <c r="C92" t="n">
-        <v>27296677281</v>
+        <v>26553276228</v>
       </c>
       <c r="D92" t="n">
-        <v>13295442124</v>
+        <v>7971366805</v>
       </c>
       <c r="E92" t="n">
-        <v>22700255004</v>
+        <v>27436730581</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>21657863445</v>
+        <v>42948955027</v>
       </c>
       <c r="H92" t="n">
-        <v>28624960527</v>
+        <v>45456656396</v>
       </c>
       <c r="I92" t="n">
-        <v>36872904569</v>
+        <v>64456269439</v>
       </c>
       <c r="J92" t="n">
-        <v>21342157673</v>
+        <v>70298876058</v>
       </c>
       <c r="K92" t="n">
-        <v>40819413400</v>
+        <v>82744790552</v>
       </c>
       <c r="L92" t="n">
-        <v>36869176104</v>
+        <v>96451679566</v>
       </c>
       <c r="M92" t="n">
-        <v>36389628032</v>
+        <v>79397722992</v>
       </c>
       <c r="N92" t="n">
-        <v>7246805468</v>
+        <v>76698294646</v>
       </c>
     </row>
     <row r="93">
@@ -4520,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3258811460</v>
+        <v>4290830871</v>
       </c>
       <c r="C93" t="n">
-        <v>12264173470</v>
+        <v>503827676</v>
       </c>
       <c r="D93" t="n">
-        <v>11620015438</v>
+        <v>2278187475</v>
       </c>
       <c r="E93" t="n">
-        <v>19837345175</v>
+        <v>14978418398</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>14901161569</v>
+        <v>17324141817</v>
       </c>
       <c r="H93" t="n">
-        <v>-315745792</v>
+        <v>11587645566</v>
       </c>
       <c r="I93" t="n">
-        <v>-4420743363</v>
+        <v>18675434190</v>
       </c>
       <c r="J93" t="n">
-        <v>-5377105562</v>
+        <v>21788258779</v>
       </c>
       <c r="K93" t="n">
-        <v>7450760275</v>
+        <v>18755049698</v>
       </c>
       <c r="L93" t="n">
-        <v>10943086595</v>
+        <v>26359530274</v>
       </c>
       <c r="M93" t="n">
-        <v>18992480139</v>
+        <v>28518240371</v>
       </c>
       <c r="N93" t="n">
-        <v>13337176574</v>
+        <v>20472088190</v>
       </c>
     </row>
     <row r="94">
@@ -4564,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5365527617</v>
+        <v>7235984424</v>
       </c>
       <c r="C94" t="n">
-        <v>9714415387</v>
+        <v>4861671935</v>
       </c>
       <c r="D94" t="n">
-        <v>10383027752</v>
+        <v>2770852005</v>
       </c>
       <c r="E94" t="n">
-        <v>10238347120</v>
+        <v>8010482740</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>9817808254</v>
+        <v>15423149562</v>
       </c>
       <c r="H94" t="n">
-        <v>1632376322</v>
+        <v>13671890715</v>
       </c>
       <c r="I94" t="n">
-        <v>951072597</v>
+        <v>16683342232</v>
       </c>
       <c r="J94" t="n">
-        <v>-6382514283</v>
+        <v>13253192686</v>
       </c>
       <c r="K94" t="n">
-        <v>1529984314</v>
+        <v>13642602623</v>
       </c>
       <c r="L94" t="n">
-        <v>118660592</v>
+        <v>11397679682</v>
       </c>
       <c r="M94" t="n">
-        <v>3550714541</v>
+        <v>7062098778</v>
       </c>
       <c r="N94" t="n">
-        <v>2790699930</v>
+        <v>6053248953</v>
       </c>
     </row>
     <row r="95">
@@ -4608,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8320715819</v>
+        <v>7867233212</v>
       </c>
       <c r="C95" t="n">
-        <v>5744889405</v>
+        <v>6541211424</v>
       </c>
       <c r="D95" t="n">
-        <v>4222887365</v>
+        <v>6513349836</v>
       </c>
       <c r="E95" t="n">
-        <v>9402854583</v>
+        <v>12856778280</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>16939198402</v>
+        <v>22337968839</v>
       </c>
       <c r="H95" t="n">
-        <v>7889280318</v>
+        <v>15899677365</v>
       </c>
       <c r="I95" t="n">
-        <v>8157736300</v>
+        <v>25881306702</v>
       </c>
       <c r="J95" t="n">
-        <v>-8128040891</v>
+        <v>14556046916</v>
       </c>
       <c r="K95" t="n">
-        <v>3611219425</v>
+        <v>15723387108</v>
       </c>
       <c r="L95" t="n">
-        <v>2564619738</v>
+        <v>20125210621</v>
       </c>
       <c r="M95" t="n">
-        <v>15956599177</v>
+        <v>24768363086</v>
       </c>
       <c r="N95" t="n">
-        <v>16679583625</v>
+        <v>28180689766</v>
       </c>
     </row>
     <row r="96">
@@ -4652,41 +4652,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-646589512</v>
+        <v>3329884048</v>
       </c>
       <c r="C96" t="n">
-        <v>1329627388</v>
+        <v>2661364775</v>
       </c>
       <c r="D96" t="n">
-        <v>957931956</v>
+        <v>2072923754</v>
       </c>
       <c r="E96" t="n">
-        <v>3128965561</v>
+        <v>1489631827</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>3917817170</v>
+        <v>3881602072</v>
       </c>
       <c r="H96" t="n">
-        <v>2485086519</v>
+        <v>2801804589</v>
       </c>
       <c r="I96" t="n">
-        <v>2539204552</v>
+        <v>5021581313</v>
       </c>
       <c r="J96" t="n">
-        <v>-423955271</v>
+        <v>4823489924</v>
       </c>
       <c r="K96" t="n">
-        <v>-250948219</v>
+        <v>3192070815</v>
       </c>
       <c r="L96" t="n">
-        <v>-2046298935</v>
+        <v>3621872269</v>
       </c>
       <c r="M96" t="n">
-        <v>-231979840</v>
+        <v>3261883146</v>
       </c>
       <c r="N96" t="n">
-        <v>1964226634</v>
+        <v>4198364538</v>
       </c>
     </row>
     <row r="97">
@@ -4696,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1917123359</v>
+        <v>-2067606411</v>
       </c>
       <c r="C97" t="n">
-        <v>7294289834</v>
+        <v>-1980475508</v>
       </c>
       <c r="D97" t="n">
-        <v>5943838729</v>
+        <v>-5941520023</v>
       </c>
       <c r="E97" t="n">
-        <v>10811411971</v>
+        <v>5740609398</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>19739379263</v>
+        <v>18195753238</v>
       </c>
       <c r="H97" t="n">
-        <v>36206749479</v>
+        <v>39110649011</v>
       </c>
       <c r="I97" t="n">
-        <v>28870276691</v>
+        <v>41598812097</v>
       </c>
       <c r="J97" t="n">
-        <v>13441509075</v>
+        <v>40475177905</v>
       </c>
       <c r="K97" t="n">
-        <v>-4920052087</v>
+        <v>37230536287</v>
       </c>
       <c r="L97" t="n">
-        <v>-1786050941</v>
+        <v>37895636816</v>
       </c>
       <c r="M97" t="n">
-        <v>9778863345</v>
+        <v>42959751472</v>
       </c>
       <c r="N97" t="n">
-        <v>9471076707</v>
+        <v>40757774512</v>
       </c>
     </row>
     <row r="98">
@@ -4740,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1906734175</v>
+        <v>24165081309</v>
       </c>
       <c r="C98" t="n">
-        <v>39890269157</v>
+        <v>9902434767</v>
       </c>
       <c r="D98" t="n">
-        <v>32380352637</v>
+        <v>25017244666</v>
       </c>
       <c r="E98" t="n">
-        <v>32073302162</v>
+        <v>40850063078</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>35582264802</v>
+        <v>58494148021</v>
       </c>
       <c r="H98" t="n">
-        <v>6295541599</v>
+        <v>35629981092</v>
       </c>
       <c r="I98" t="n">
-        <v>24677510888</v>
+        <v>60427999561</v>
       </c>
       <c r="J98" t="n">
-        <v>-3882517628</v>
+        <v>73526105563</v>
       </c>
       <c r="K98" t="n">
-        <v>22530637535</v>
+        <v>63034882219</v>
       </c>
       <c r="L98" t="n">
-        <v>23668163408</v>
+        <v>84279977176</v>
       </c>
       <c r="M98" t="n">
-        <v>45978668807</v>
+        <v>81719986563</v>
       </c>
       <c r="N98" t="n">
-        <v>50693928059</v>
+        <v>84331320066</v>
       </c>
     </row>
     <row r="99">
@@ -4784,41 +4784,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1016211623</v>
+        <v>4023948435</v>
       </c>
       <c r="C99" t="n">
-        <v>4734198794</v>
+        <v>98777372</v>
       </c>
       <c r="D99" t="n">
-        <v>4151356681</v>
+        <v>-180515980</v>
       </c>
       <c r="E99" t="n">
-        <v>5450282093</v>
+        <v>4522353811</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>4253247971</v>
+        <v>6097604556</v>
       </c>
       <c r="H99" t="n">
-        <v>465605339</v>
+        <v>4097910768</v>
       </c>
       <c r="I99" t="n">
-        <v>570488844</v>
+        <v>7037607115</v>
       </c>
       <c r="J99" t="n">
-        <v>-901710029</v>
+        <v>8084764574</v>
       </c>
       <c r="K99" t="n">
-        <v>2725657605</v>
+        <v>7342742201</v>
       </c>
       <c r="L99" t="n">
-        <v>1293693148</v>
+        <v>7314912027</v>
       </c>
       <c r="M99" t="n">
-        <v>3770702760</v>
+        <v>7122239363</v>
       </c>
       <c r="N99" t="n">
-        <v>-785026052</v>
+        <v>2406234098</v>
       </c>
     </row>
     <row r="100">
@@ -4828,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-2819275809</v>
+        <v>20575527692</v>
       </c>
       <c r="C100" t="n">
-        <v>10089089497</v>
+        <v>14880436056</v>
       </c>
       <c r="D100" t="n">
-        <v>2232282156</v>
+        <v>2025264466</v>
       </c>
       <c r="E100" t="n">
-        <v>9573721499</v>
+        <v>13439293131</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>11763824291</v>
+        <v>16525595969</v>
       </c>
       <c r="H100" t="n">
-        <v>6479786588</v>
+        <v>2165233412</v>
       </c>
       <c r="I100" t="n">
-        <v>9408366344</v>
+        <v>14682798617</v>
       </c>
       <c r="J100" t="n">
-        <v>-6214401794</v>
+        <v>15701434629</v>
       </c>
       <c r="K100" t="n">
-        <v>7091833212</v>
+        <v>13633517771</v>
       </c>
       <c r="L100" t="n">
-        <v>418127169</v>
+        <v>17455765963</v>
       </c>
       <c r="M100" t="n">
-        <v>13909222655</v>
+        <v>18078674979</v>
       </c>
       <c r="N100" t="n">
-        <v>7257722080</v>
+        <v>18761615080</v>
       </c>
     </row>
     <row r="101">
@@ -4872,41 +4872,41 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>367929840</v>
+        <v>524171637</v>
       </c>
       <c r="C101" t="n">
-        <v>380436422</v>
+        <v>512676614</v>
       </c>
       <c r="D101" t="n">
-        <v>326331301</v>
+        <v>488626995</v>
       </c>
       <c r="E101" t="n">
-        <v>-236770702</v>
+        <v>400150529</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>245621225</v>
+        <v>542044678</v>
       </c>
       <c r="H101" t="n">
-        <v>2121683271</v>
+        <v>2591979563</v>
       </c>
       <c r="I101" t="n">
-        <v>1640869355</v>
+        <v>1772028493</v>
       </c>
       <c r="J101" t="n">
-        <v>1799296545</v>
+        <v>2425354192</v>
       </c>
       <c r="K101" t="n">
-        <v>-277517557</v>
+        <v>2170497015</v>
       </c>
       <c r="L101" t="n">
-        <v>975393028</v>
+        <v>2379491681</v>
       </c>
       <c r="M101" t="n">
-        <v>173126318</v>
+        <v>2218044088</v>
       </c>
       <c r="N101" t="n">
-        <v>-232770135</v>
+        <v>1611395579</v>
       </c>
     </row>
     <row r="102">
@@ -4916,41 +4916,41 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>15382044</v>
+        <v>-117212278</v>
       </c>
       <c r="C102" t="n">
-        <v>99692263</v>
+        <v>-119457670</v>
       </c>
       <c r="D102" t="n">
-        <v>-44330281</v>
+        <v>-228772602</v>
       </c>
       <c r="E102" t="n">
-        <v>94147781</v>
+        <v>-29229198</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>214058889</v>
+        <v>198591628</v>
       </c>
       <c r="H102" t="n">
-        <v>975011121</v>
+        <v>904193335</v>
       </c>
       <c r="I102" t="n">
-        <v>819964081</v>
+        <v>929939136</v>
       </c>
       <c r="J102" t="n">
-        <v>614869931</v>
+        <v>929066313</v>
       </c>
       <c r="K102" t="n">
-        <v>-168600821</v>
+        <v>762525249</v>
       </c>
       <c r="L102" t="n">
-        <v>-109149729</v>
+        <v>805407363</v>
       </c>
       <c r="M102" t="n">
-        <v>-213407450</v>
+        <v>615966600</v>
       </c>
       <c r="N102" t="n">
-        <v>-338738667</v>
+        <v>468116863</v>
       </c>
     </row>
     <row r="103">
@@ -4960,41 +4960,41 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1895091212</v>
+        <v>-2075686326</v>
       </c>
       <c r="C103" t="n">
-        <v>-716738890</v>
+        <v>-1859684048</v>
       </c>
       <c r="D103" t="n">
-        <v>-1528376071</v>
+        <v>216422050</v>
       </c>
       <c r="E103" t="n">
-        <v>-1145097821</v>
+        <v>-1669908980</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>533743139</v>
+        <v>-7539504</v>
       </c>
       <c r="H103" t="n">
-        <v>2383134613</v>
+        <v>3013087022</v>
       </c>
       <c r="I103" t="n">
-        <v>1829242800</v>
+        <v>2579236191</v>
       </c>
       <c r="J103" t="n">
-        <v>612987263</v>
+        <v>429991512</v>
       </c>
       <c r="K103" t="n">
-        <v>-2389796766</v>
+        <v>-1535038224</v>
       </c>
       <c r="L103" t="n">
-        <v>-562086252</v>
+        <v>123559105</v>
       </c>
       <c r="M103" t="n">
-        <v>-719066555</v>
+        <v>429164225</v>
       </c>
       <c r="N103" t="n">
-        <v>-1219246953</v>
+        <v>-1224408728</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8686748150</v>
+        <v>10249275631</v>
       </c>
       <c r="C2" t="n">
-        <v>10244036318</v>
+        <v>2845460021</v>
       </c>
       <c r="D2" t="n">
-        <v>2831183384</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8652865405</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>8682555345</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>7578341437</v>
+      </c>
       <c r="G2" t="n">
-        <v>7534575236</v>
+        <v>2200473957</v>
       </c>
       <c r="H2" t="n">
-        <v>2166282841</v>
+        <v>6445309571</v>
       </c>
       <c r="I2" t="n">
-        <v>6412362129</v>
+        <v>7033277571</v>
       </c>
       <c r="J2" t="n">
-        <v>7009290464</v>
+        <v>7896051808</v>
       </c>
       <c r="K2" t="n">
-        <v>7873492485</v>
+        <v>5636905603</v>
       </c>
       <c r="L2" t="n">
-        <v>5612758408</v>
+        <v>9342308506</v>
       </c>
       <c r="M2" t="n">
-        <v>9295428448</v>
+        <v>21639490335</v>
       </c>
       <c r="N2" t="n">
-        <v>21559090705</v>
+        <v>22532798575</v>
       </c>
     </row>
     <row r="3">
@@ -556,41 +556,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4562749059</v>
+        <v>450181656</v>
       </c>
       <c r="C3" t="n">
-        <v>2689279812</v>
+        <v>-695095219</v>
       </c>
       <c r="D3" t="n">
-        <v>-1353408001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-881750404</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>1233570476</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1045806806</v>
+      </c>
       <c r="G3" t="n">
-        <v>-1748226385</v>
+        <v>1041686015</v>
       </c>
       <c r="H3" t="n">
-        <v>-3310102571</v>
+        <v>1988271533</v>
       </c>
       <c r="I3" t="n">
-        <v>-2967668594</v>
+        <v>2943816003</v>
       </c>
       <c r="J3" t="n">
-        <v>-1798605513</v>
+        <v>2065831643</v>
       </c>
       <c r="K3" t="n">
-        <v>-3242301691</v>
+        <v>2360668716</v>
       </c>
       <c r="L3" t="n">
-        <v>-957391341</v>
+        <v>2872969394</v>
       </c>
       <c r="M3" t="n">
-        <v>-1900741548</v>
+        <v>3788338200</v>
       </c>
       <c r="N3" t="n">
-        <v>2994317523</v>
+        <v>3299550833</v>
       </c>
     </row>
     <row r="4">
@@ -600,41 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1397125986</v>
+        <v>-418629668</v>
       </c>
       <c r="C4" t="n">
-        <v>-2635580292</v>
+        <v>-5787769255</v>
       </c>
       <c r="D4" t="n">
-        <v>-5110364277</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1807106434</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>-3973760174</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-4954862931</v>
+      </c>
       <c r="G4" t="n">
-        <v>-2076464772</v>
+        <v>-9037868592</v>
       </c>
       <c r="H4" t="n">
-        <v>-4617335144</v>
+        <v>-8508396545</v>
       </c>
       <c r="I4" t="n">
-        <v>-3468694477</v>
+        <v>-5238017665</v>
       </c>
       <c r="J4" t="n">
-        <v>-420852532</v>
+        <v>-5673627843</v>
       </c>
       <c r="K4" t="n">
-        <v>-293825746</v>
+        <v>-3422823821</v>
       </c>
       <c r="L4" t="n">
-        <v>-31348446</v>
+        <v>-2643821304</v>
       </c>
       <c r="M4" t="n">
-        <v>2230470420</v>
+        <v>1716978825</v>
       </c>
       <c r="N4" t="n">
-        <v>2624135301</v>
+        <v>773084959</v>
       </c>
     </row>
     <row r="5">
@@ -644,41 +644,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-84299036</v>
+        <v>37421158</v>
       </c>
       <c r="C5" t="n">
-        <v>37620064</v>
+        <v>-272942000</v>
       </c>
       <c r="D5" t="n">
-        <v>-272450395</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-133112460</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>-133209193</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>227732550</v>
+      </c>
       <c r="G5" t="n">
-        <v>226699389</v>
+        <v>-364923906</v>
       </c>
       <c r="H5" t="n">
-        <v>-366846433</v>
+        <v>-388614737</v>
       </c>
       <c r="I5" t="n">
-        <v>-390709731</v>
+        <v>627865520</v>
       </c>
       <c r="J5" t="n">
-        <v>625646238</v>
+        <v>1947762212</v>
       </c>
       <c r="K5" t="n">
-        <v>1945362287</v>
+        <v>2810896901</v>
       </c>
       <c r="L5" t="n">
-        <v>2807752452</v>
+        <v>1832958133</v>
       </c>
       <c r="M5" t="n">
-        <v>1830021243</v>
+        <v>1779817497</v>
       </c>
       <c r="N5" t="n">
-        <v>1776988595</v>
+        <v>1435693329</v>
       </c>
     </row>
     <row r="6">
@@ -688,41 +688,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1931978947</v>
+        <v>1246869266</v>
       </c>
       <c r="C6" t="n">
-        <v>1246869266</v>
+        <v>588627233</v>
       </c>
       <c r="D6" t="n">
-        <v>588627233</v>
-      </c>
-      <c r="E6" t="n">
         <v>1791852440</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>4477866687</v>
+      </c>
       <c r="G6" t="n">
-        <v>4477866687</v>
+        <v>3541743953</v>
       </c>
       <c r="H6" t="n">
-        <v>3541743953</v>
+        <v>5624073778</v>
       </c>
       <c r="I6" t="n">
-        <v>5624073778</v>
+        <v>5734361370</v>
       </c>
       <c r="J6" t="n">
-        <v>5734361370</v>
+        <v>2898657277</v>
       </c>
       <c r="K6" t="n">
-        <v>2898657277</v>
+        <v>1709864389</v>
       </c>
       <c r="L6" t="n">
-        <v>1709864389</v>
+        <v>2344252586</v>
       </c>
       <c r="M6" t="n">
-        <v>2344252586</v>
+        <v>1421472621</v>
       </c>
       <c r="N6" t="n">
-        <v>1421472621</v>
+        <v>2466681520</v>
       </c>
     </row>
     <row r="7">
@@ -732,41 +732,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>960434725</v>
+        <v>1292238323</v>
       </c>
       <c r="C7" t="n">
-        <v>1292039417</v>
+        <v>943747913</v>
       </c>
       <c r="D7" t="n">
-        <v>943256308</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1683099810</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>1683196543</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2136755122</v>
+      </c>
       <c r="G7" t="n">
-        <v>2137788283</v>
+        <v>1471578610</v>
       </c>
       <c r="H7" t="n">
-        <v>1473501137</v>
+        <v>2623307926</v>
       </c>
       <c r="I7" t="n">
-        <v>2625402920</v>
+        <v>2280334105</v>
       </c>
       <c r="J7" t="n">
-        <v>2282553387</v>
+        <v>2730057660</v>
       </c>
       <c r="K7" t="n">
-        <v>2732457585</v>
+        <v>3615384387</v>
       </c>
       <c r="L7" t="n">
-        <v>3618528836</v>
+        <v>2808070941</v>
       </c>
       <c r="M7" t="n">
-        <v>2811007831</v>
+        <v>2806816871</v>
       </c>
       <c r="N7" t="n">
-        <v>2809645773</v>
+        <v>1490491999</v>
       </c>
     </row>
     <row r="8">
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13094030585</v>
+        <v>21084807994</v>
       </c>
       <c r="C8" t="n">
-        <v>13475422244</v>
+        <v>8784743174</v>
       </c>
       <c r="D8" t="n">
-        <v>6837214971</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22296958312</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>38944852382</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>66484401383</v>
+      </c>
       <c r="G8" t="n">
-        <v>31965402293</v>
+        <v>44805465131</v>
       </c>
       <c r="H8" t="n">
-        <v>23753372933</v>
+        <v>49454060636</v>
       </c>
       <c r="I8" t="n">
-        <v>24992248095</v>
+        <v>48717332101</v>
       </c>
       <c r="J8" t="n">
-        <v>24570652221</v>
+        <v>39559024788</v>
       </c>
       <c r="K8" t="n">
-        <v>20264540044</v>
+        <v>52926340346</v>
       </c>
       <c r="L8" t="n">
-        <v>22741631697</v>
+        <v>56347132810</v>
       </c>
       <c r="M8" t="n">
-        <v>24873900444</v>
+        <v>74050266753</v>
       </c>
       <c r="N8" t="n">
-        <v>33552245492</v>
+        <v>86875572905</v>
       </c>
     </row>
     <row r="9">
@@ -820,41 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-201780672</v>
+        <v>461836192</v>
       </c>
       <c r="C9" t="n">
-        <v>457913677</v>
+        <v>162801020</v>
       </c>
       <c r="D9" t="n">
-        <v>158274538</v>
-      </c>
-      <c r="E9" t="n">
-        <v>883237677</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>886780618</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>981800919</v>
+      </c>
       <c r="G9" t="n">
-        <v>974781664</v>
+        <v>857808084</v>
       </c>
       <c r="H9" t="n">
-        <v>853289987</v>
+        <v>830869148</v>
       </c>
       <c r="I9" t="n">
-        <v>829588544</v>
+        <v>723555928</v>
       </c>
       <c r="J9" t="n">
-        <v>721244735</v>
+        <v>534142520</v>
       </c>
       <c r="K9" t="n">
-        <v>530936091</v>
+        <v>815168757</v>
       </c>
       <c r="L9" t="n">
-        <v>809229150</v>
+        <v>152811534</v>
       </c>
       <c r="M9" t="n">
-        <v>146815282</v>
+        <v>-315525012</v>
       </c>
       <c r="N9" t="n">
-        <v>-320545241</v>
+        <v>-286939914</v>
       </c>
     </row>
     <row r="10">
@@ -864,41 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30760556000</v>
+        <v>428477714</v>
       </c>
       <c r="C10" t="n">
-        <v>8041785979</v>
+        <v>29951923</v>
       </c>
       <c r="D10" t="n">
-        <v>1982006608</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18718426291</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>2066989280</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2677782450</v>
+      </c>
       <c r="G10" t="n">
-        <v>37203800795</v>
+        <v>1264073596</v>
       </c>
       <c r="H10" t="n">
-        <v>22320683891</v>
+        <v>3022244556</v>
       </c>
       <c r="I10" t="n">
-        <v>27485337701</v>
+        <v>3003200384</v>
       </c>
       <c r="J10" t="n">
-        <v>27152191457</v>
+        <v>2773366863</v>
       </c>
       <c r="K10" t="n">
-        <v>22071058036</v>
+        <v>2199533031</v>
       </c>
       <c r="L10" t="n">
-        <v>32390181287</v>
+        <v>1659373630</v>
       </c>
       <c r="M10" t="n">
-        <v>33138602248</v>
+        <v>455749373</v>
       </c>
       <c r="N10" t="n">
-        <v>40958790863</v>
+        <v>1428965358</v>
       </c>
     </row>
     <row r="11">
@@ -908,41 +908,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1125373911</v>
+        <v>877317799</v>
       </c>
       <c r="C11" t="n">
-        <v>877174725</v>
+        <v>778055432</v>
       </c>
       <c r="D11" t="n">
-        <v>778130900</v>
-      </c>
-      <c r="E11" t="n">
-        <v>878050026</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>878407494</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>770040062</v>
+      </c>
       <c r="G11" t="n">
-        <v>769557910</v>
+        <v>329631874</v>
       </c>
       <c r="H11" t="n">
-        <v>329444859</v>
+        <v>761240995</v>
       </c>
       <c r="I11" t="n">
-        <v>760884378</v>
+        <v>356140880</v>
       </c>
       <c r="J11" t="n">
-        <v>355291518</v>
+        <v>191096945</v>
       </c>
       <c r="K11" t="n">
-        <v>190240397</v>
+        <v>221420807</v>
       </c>
       <c r="L11" t="n">
-        <v>220085210</v>
+        <v>339643135</v>
       </c>
       <c r="M11" t="n">
-        <v>338215788</v>
+        <v>42515785</v>
       </c>
       <c r="N11" t="n">
-        <v>40884686</v>
+        <v>203095687</v>
       </c>
     </row>
     <row r="12">
@@ -952,41 +952,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-430976084</v>
+        <v>168343391</v>
       </c>
       <c r="C12" t="n">
-        <v>168322636</v>
+        <v>-34755936</v>
       </c>
       <c r="D12" t="n">
-        <v>-34781593</v>
-      </c>
-      <c r="E12" t="n">
-        <v>446376181</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>446382544</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1222758573</v>
+      </c>
       <c r="G12" t="n">
-        <v>1222766197</v>
+        <v>2738770152</v>
       </c>
       <c r="H12" t="n">
-        <v>2738761413</v>
+        <v>2604022365</v>
       </c>
       <c r="I12" t="n">
-        <v>2604033119</v>
+        <v>2323647415</v>
       </c>
       <c r="J12" t="n">
-        <v>2323667582</v>
+        <v>1895372444</v>
       </c>
       <c r="K12" t="n">
-        <v>1895393932</v>
+        <v>2078398026</v>
       </c>
       <c r="L12" t="n">
-        <v>2078431424</v>
+        <v>1683964795</v>
       </c>
       <c r="M12" t="n">
-        <v>1684007000</v>
+        <v>1641098980</v>
       </c>
       <c r="N12" t="n">
-        <v>1641149886</v>
+        <v>2077046727</v>
       </c>
     </row>
     <row r="13">
@@ -996,41 +996,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>794657839</v>
+        <v>-793515284</v>
       </c>
       <c r="C13" t="n">
-        <v>-793369379</v>
+        <v>-2645417963</v>
       </c>
       <c r="D13" t="n">
-        <v>-2645491484</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1791425724</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>1791067325</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2231955736</v>
+      </c>
       <c r="G13" t="n">
-        <v>2232438951</v>
+        <v>1019811233</v>
       </c>
       <c r="H13" t="n">
-        <v>1019999466</v>
+        <v>1294321878</v>
       </c>
       <c r="I13" t="n">
-        <v>1294679932</v>
+        <v>3622203946</v>
       </c>
       <c r="J13" t="n">
-        <v>3623054762</v>
+        <v>3061625108</v>
       </c>
       <c r="K13" t="n">
-        <v>3062482829</v>
+        <v>2993489179</v>
       </c>
       <c r="L13" t="n">
-        <v>2994825683</v>
+        <v>2769529994</v>
       </c>
       <c r="M13" t="n">
-        <v>2770958074</v>
+        <v>3777865791</v>
       </c>
       <c r="N13" t="n">
-        <v>3779498315</v>
+        <v>3288129433</v>
       </c>
     </row>
     <row r="14">
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-157814417285</v>
+        <v>-47256605802</v>
       </c>
       <c r="C14" t="n">
-        <v>-45342794816</v>
+        <v>-57400684314</v>
       </c>
       <c r="D14" t="n">
-        <v>-52772927003</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47281080769</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>45617924246</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>111711329864</v>
+      </c>
       <c r="G14" t="n">
-        <v>110061509780</v>
+        <v>16709810567</v>
       </c>
       <c r="H14" t="n">
-        <v>15344322712</v>
+        <v>5408902506</v>
       </c>
       <c r="I14" t="n">
-        <v>789710409</v>
+        <v>68441601558</v>
       </c>
       <c r="J14" t="n">
-        <v>64196548355</v>
+        <v>-10829121722</v>
       </c>
       <c r="K14" t="n">
-        <v>-15762733039</v>
+        <v>89199206739</v>
       </c>
       <c r="L14" t="n">
-        <v>83709377921</v>
+        <v>58496316475</v>
       </c>
       <c r="M14" t="n">
-        <v>53858500608</v>
+        <v>103043495974</v>
       </c>
       <c r="N14" t="n">
-        <v>95095991154</v>
+        <v>141757174491</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6200169332</v>
+        <v>-9119990480</v>
       </c>
       <c r="C15" t="n">
-        <v>-3746085335</v>
+        <v>-7243505243</v>
       </c>
       <c r="D15" t="n">
-        <v>-2274006190</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13041924482</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>8207580073</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9436182975</v>
+      </c>
       <c r="G15" t="n">
-        <v>16630513840</v>
+        <v>2526205647</v>
       </c>
       <c r="H15" t="n">
-        <v>7181312609</v>
+        <v>2898370589</v>
       </c>
       <c r="I15" t="n">
-        <v>10347279367</v>
+        <v>-6637608871</v>
       </c>
       <c r="J15" t="n">
-        <v>1018165107</v>
+        <v>8536303680</v>
       </c>
       <c r="K15" t="n">
-        <v>13710588853</v>
+        <v>19569638449</v>
       </c>
       <c r="L15" t="n">
-        <v>27543698472</v>
+        <v>25434181487</v>
       </c>
       <c r="M15" t="n">
-        <v>32744809768</v>
+        <v>29476528285</v>
       </c>
       <c r="N15" t="n">
-        <v>37216187779</v>
+        <v>38958037073</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-125088446</v>
+        <v>2438542875</v>
       </c>
       <c r="C16" t="n">
-        <v>-4864683615</v>
+        <v>-1418080144</v>
       </c>
       <c r="D16" t="n">
-        <v>-11022744524</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-4337219976</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>2162878913</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>3929557116</v>
+      </c>
       <c r="G16" t="n">
-        <v>-1711873547</v>
+        <v>-4593018956</v>
       </c>
       <c r="H16" t="n">
-        <v>-8084633834</v>
+        <v>5128812322</v>
       </c>
       <c r="I16" t="n">
-        <v>2354938292</v>
+        <v>10329503537</v>
       </c>
       <c r="J16" t="n">
-        <v>7102155010</v>
+        <v>6698833689</v>
       </c>
       <c r="K16" t="n">
-        <v>6563246338</v>
+        <v>6613761799</v>
       </c>
       <c r="L16" t="n">
-        <v>4461217548</v>
+        <v>12130376129</v>
       </c>
       <c r="M16" t="n">
-        <v>9818001645</v>
+        <v>25908065620</v>
       </c>
       <c r="N16" t="n">
-        <v>26159904282</v>
+        <v>48198304462</v>
       </c>
     </row>
     <row r="17">
@@ -1172,41 +1172,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124108160</v>
+        <v>129117921</v>
       </c>
       <c r="C17" t="n">
-        <v>129117921</v>
+        <v>33515848</v>
       </c>
       <c r="D17" t="n">
-        <v>33515848</v>
-      </c>
-      <c r="E17" t="n">
         <v>216376060</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>381079682</v>
+      </c>
       <c r="G17" t="n">
-        <v>381079682</v>
+        <v>238881025</v>
       </c>
       <c r="H17" t="n">
-        <v>238881025</v>
+        <v>341387530</v>
       </c>
       <c r="I17" t="n">
-        <v>341387530</v>
+        <v>357325232</v>
       </c>
       <c r="J17" t="n">
-        <v>357325232</v>
+        <v>234884325</v>
       </c>
       <c r="K17" t="n">
-        <v>234884325</v>
+        <v>268153975</v>
       </c>
       <c r="L17" t="n">
-        <v>268153975</v>
+        <v>149190124</v>
       </c>
       <c r="M17" t="n">
-        <v>149190124</v>
+        <v>74485256</v>
       </c>
       <c r="N17" t="n">
-        <v>74485256</v>
+        <v>33997657</v>
       </c>
     </row>
     <row r="18">
@@ -1216,41 +1216,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>207349201</v>
+        <v>-517216062</v>
       </c>
       <c r="C18" t="n">
-        <v>-517216062</v>
+        <v>-2200795073</v>
       </c>
       <c r="D18" t="n">
-        <v>-2200795073</v>
-      </c>
-      <c r="E18" t="n">
         <v>-75511712</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>445899254</v>
+      </c>
       <c r="G18" t="n">
-        <v>445899254</v>
+        <v>3122176119</v>
       </c>
       <c r="H18" t="n">
-        <v>3122176119</v>
+        <v>4471643168</v>
       </c>
       <c r="I18" t="n">
-        <v>4471643168</v>
+        <v>5007436778</v>
       </c>
       <c r="J18" t="n">
-        <v>5007436778</v>
+        <v>2750287846</v>
       </c>
       <c r="K18" t="n">
-        <v>2750287846</v>
+        <v>4901251522</v>
       </c>
       <c r="L18" t="n">
-        <v>4901251522</v>
+        <v>5053160413</v>
       </c>
       <c r="M18" t="n">
-        <v>5053160413</v>
+        <v>3888158238</v>
       </c>
       <c r="N18" t="n">
-        <v>3977475623</v>
+        <v>3989204517</v>
       </c>
     </row>
     <row r="19">
@@ -1260,41 +1260,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-35854177</v>
+        <v>-19453799</v>
       </c>
       <c r="C19" t="n">
-        <v>-19453799</v>
+        <v>-18704495</v>
       </c>
       <c r="D19" t="n">
-        <v>-18704495</v>
-      </c>
-      <c r="E19" t="n">
         <v>20342998</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>134832389</v>
+      </c>
       <c r="G19" t="n">
-        <v>134832389</v>
+        <v>135808802</v>
       </c>
       <c r="H19" t="n">
-        <v>135808802</v>
+        <v>154047475</v>
       </c>
       <c r="I19" t="n">
-        <v>154047475</v>
+        <v>210333541</v>
       </c>
       <c r="J19" t="n">
-        <v>210333541</v>
+        <v>207974118</v>
       </c>
       <c r="K19" t="n">
-        <v>207974118</v>
+        <v>189094761</v>
       </c>
       <c r="L19" t="n">
-        <v>189094761</v>
+        <v>173195112</v>
       </c>
       <c r="M19" t="n">
-        <v>173195112</v>
+        <v>168015451</v>
       </c>
       <c r="N19" t="n">
-        <v>168015451</v>
+        <v>117901645</v>
       </c>
     </row>
     <row r="20">
@@ -1304,41 +1304,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-21623262</v>
+        <v>171208981</v>
       </c>
       <c r="C20" t="n">
-        <v>-118666142</v>
+        <v>238322102</v>
       </c>
       <c r="D20" t="n">
-        <v>-152608681</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-29515699</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>1588236467</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1651216207</v>
+      </c>
       <c r="G20" t="n">
-        <v>104771637</v>
+        <v>1374930957</v>
       </c>
       <c r="H20" t="n">
-        <v>191289625</v>
+        <v>1758551290</v>
       </c>
       <c r="I20" t="n">
-        <v>276569387</v>
+        <v>1971311389</v>
       </c>
       <c r="J20" t="n">
-        <v>295413838</v>
+        <v>1347449218</v>
       </c>
       <c r="K20" t="n">
-        <v>238956130</v>
+        <v>1452480374</v>
       </c>
       <c r="L20" t="n">
-        <v>127846147</v>
+        <v>1370056770</v>
       </c>
       <c r="M20" t="n">
-        <v>184709723</v>
+        <v>1440287593</v>
       </c>
       <c r="N20" t="n">
-        <v>176273817</v>
+        <v>2106668193</v>
       </c>
     </row>
     <row r="21">
@@ -1348,41 +1348,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-157412507</v>
+        <v>-75408084</v>
       </c>
       <c r="C21" t="n">
-        <v>-75408500</v>
+        <v>-27539948</v>
       </c>
       <c r="D21" t="n">
-        <v>-27540362</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23171809</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>23171757</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>52086649</v>
+      </c>
       <c r="G21" t="n">
-        <v>52086794</v>
+        <v>16456322</v>
       </c>
       <c r="H21" t="n">
-        <v>16456427</v>
+        <v>46729571</v>
       </c>
       <c r="I21" t="n">
-        <v>46729668</v>
+        <v>118138928</v>
       </c>
       <c r="J21" t="n">
-        <v>118138607</v>
+        <v>102122668</v>
       </c>
       <c r="K21" t="n">
-        <v>102122425</v>
+        <v>75818183</v>
       </c>
       <c r="L21" t="n">
-        <v>75817874</v>
+        <v>45362888</v>
       </c>
       <c r="M21" t="n">
-        <v>45362673</v>
+        <v>52003833</v>
       </c>
       <c r="N21" t="n">
-        <v>52003563</v>
+        <v>-27199737</v>
       </c>
     </row>
     <row r="22">
@@ -1392,41 +1392,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747865286</v>
+        <v>120391569</v>
       </c>
       <c r="C22" t="n">
-        <v>410267108</v>
+        <v>64556462</v>
       </c>
       <c r="D22" t="n">
-        <v>455487659</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1786522447</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>168770333</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>208444410</v>
+      </c>
       <c r="G22" t="n">
-        <v>1754888835</v>
+        <v>125525350</v>
       </c>
       <c r="H22" t="n">
-        <v>1309166577</v>
+        <v>211097491</v>
       </c>
       <c r="I22" t="n">
-        <v>1693079297</v>
+        <v>156803898</v>
       </c>
       <c r="J22" t="n">
-        <v>1832701770</v>
+        <v>86255233</v>
       </c>
       <c r="K22" t="n">
-        <v>1194748564</v>
+        <v>9951459</v>
       </c>
       <c r="L22" t="n">
-        <v>1334585995</v>
+        <v>-15392879</v>
       </c>
       <c r="M22" t="n">
-        <v>1169954383</v>
+        <v>12811273</v>
       </c>
       <c r="N22" t="n">
-        <v>1276825319</v>
+        <v>4512327</v>
       </c>
     </row>
     <row r="23">
@@ -1436,41 +1436,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166169192</v>
+        <v>-2567177829</v>
       </c>
       <c r="C23" t="n">
-        <v>-2002142955</v>
+        <v>-3570551408</v>
       </c>
       <c r="D23" t="n">
-        <v>-3119105169</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-1572429079</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>-1945524174</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>475997664</v>
+      </c>
       <c r="G23" t="n">
-        <v>645981671</v>
+        <v>4448979370</v>
       </c>
       <c r="H23" t="n">
-        <v>4222286252</v>
+        <v>4698969249</v>
       </c>
       <c r="I23" t="n">
-        <v>4588813169</v>
+        <v>5029308266</v>
       </c>
       <c r="J23" t="n">
-        <v>4513528511</v>
+        <v>4397642277</v>
       </c>
       <c r="K23" t="n">
-        <v>3783573403</v>
+        <v>5349213940</v>
       </c>
       <c r="L23" t="n">
-        <v>4493547448</v>
+        <v>5693819903</v>
       </c>
       <c r="M23" t="n">
-        <v>4832926134</v>
+        <v>6440201731</v>
       </c>
       <c r="N23" t="n">
-        <v>5828812189</v>
+        <v>6754570800</v>
       </c>
     </row>
     <row r="24">
@@ -1480,41 +1480,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222390259</v>
+        <v>180526452</v>
       </c>
       <c r="C24" t="n">
-        <v>181910507</v>
+        <v>-60497100</v>
       </c>
       <c r="D24" t="n">
-        <v>-60550358</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-8502578</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>-8353216</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>30497231</v>
+      </c>
       <c r="G24" t="n">
-        <v>31008413</v>
+        <v>19685399</v>
       </c>
       <c r="H24" t="n">
-        <v>20178069</v>
+        <v>139226958</v>
       </c>
       <c r="I24" t="n">
-        <v>139440526</v>
+        <v>-152201405</v>
       </c>
       <c r="J24" t="n">
-        <v>-151680563</v>
+        <v>16250677</v>
       </c>
       <c r="K24" t="n">
-        <v>15899097</v>
+        <v>68889366</v>
       </c>
       <c r="L24" t="n">
-        <v>68720173</v>
+        <v>-146041568</v>
       </c>
       <c r="M24" t="n">
-        <v>-145611669</v>
+        <v>-205306837</v>
       </c>
       <c r="N24" t="n">
-        <v>-204688535</v>
+        <v>-176320104</v>
       </c>
     </row>
     <row r="25">
@@ -1524,41 +1524,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>209636384</v>
+        <v>-452900733</v>
       </c>
       <c r="C25" t="n">
-        <v>-1028147184</v>
+        <v>-1854816624</v>
       </c>
       <c r="D25" t="n">
-        <v>-2330381435</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-254180347</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>126859746</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1839413789</v>
+      </c>
       <c r="G25" t="n">
-        <v>1657940795</v>
+        <v>5584820774</v>
       </c>
       <c r="H25" t="n">
-        <v>5809601581</v>
+        <v>3932538051</v>
       </c>
       <c r="I25" t="n">
-        <v>4050164076</v>
+        <v>3458146230</v>
       </c>
       <c r="J25" t="n">
-        <v>3979179510</v>
+        <v>2525606102</v>
       </c>
       <c r="K25" t="n">
-        <v>3142683510</v>
+        <v>2465148318</v>
       </c>
       <c r="L25" t="n">
-        <v>3334551520</v>
+        <v>1991612279</v>
       </c>
       <c r="M25" t="n">
-        <v>2841643902</v>
+        <v>2579690422</v>
       </c>
       <c r="N25" t="n">
-        <v>3194542340</v>
+        <v>886107160</v>
       </c>
     </row>
     <row r="26">
@@ -1568,41 +1568,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>542006422</v>
+        <v>225586151</v>
       </c>
       <c r="C26" t="n">
-        <v>225427251</v>
+        <v>-6009299</v>
       </c>
       <c r="D26" t="n">
-        <v>-6225785</v>
-      </c>
-      <c r="E26" t="n">
-        <v>137984806</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>138334597</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-374351079</v>
+      </c>
       <c r="G26" t="n">
-        <v>-374605547</v>
+        <v>-188441820</v>
       </c>
       <c r="H26" t="n">
-        <v>-188647997</v>
+        <v>-135848898</v>
       </c>
       <c r="I26" t="n">
-        <v>-136021822</v>
+        <v>643289470</v>
       </c>
       <c r="J26" t="n">
-        <v>643140009</v>
+        <v>-27043415</v>
       </c>
       <c r="K26" t="n">
-        <v>-27226750</v>
+        <v>742132813</v>
       </c>
       <c r="L26" t="n">
-        <v>742035086</v>
+        <v>1275199709</v>
       </c>
       <c r="M26" t="n">
-        <v>1275226994</v>
+        <v>1190463561</v>
       </c>
       <c r="N26" t="n">
-        <v>1190542893</v>
+        <v>722509285</v>
       </c>
     </row>
     <row r="27">
@@ -1612,41 +1612,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-61930798</v>
+        <v>207290863</v>
       </c>
       <c r="C27" t="n">
-        <v>95677853</v>
+        <v>221198362</v>
       </c>
       <c r="D27" t="n">
-        <v>122244360</v>
-      </c>
-      <c r="E27" t="n">
-        <v>339848798</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>442894805</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>351801800</v>
+      </c>
       <c r="G27" t="n">
-        <v>186276503</v>
+        <v>288233816</v>
       </c>
       <c r="H27" t="n">
-        <v>337881551</v>
+        <v>453064536</v>
       </c>
       <c r="I27" t="n">
-        <v>558180630</v>
+        <v>199303432</v>
       </c>
       <c r="J27" t="n">
-        <v>203311307</v>
+        <v>-46818523</v>
       </c>
       <c r="K27" t="n">
-        <v>-97178219</v>
+        <v>-64482849</v>
       </c>
       <c r="L27" t="n">
-        <v>-93477253</v>
+        <v>-361123105</v>
       </c>
       <c r="M27" t="n">
-        <v>-399512394</v>
+        <v>-372056975</v>
       </c>
       <c r="N27" t="n">
-        <v>-427942991</v>
+        <v>-360851780</v>
       </c>
     </row>
     <row r="28">
@@ -1656,41 +1656,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>190150504</v>
+        <v>-105903582</v>
       </c>
       <c r="C28" t="n">
-        <v>5686732</v>
+        <v>-417567658</v>
       </c>
       <c r="D28" t="n">
-        <v>-318633810</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-108402967</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>-211437022</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-471686232</v>
+      </c>
       <c r="G28" t="n">
-        <v>-306162537</v>
+        <v>-431094008</v>
       </c>
       <c r="H28" t="n">
-        <v>-480745189</v>
+        <v>-236216491</v>
       </c>
       <c r="I28" t="n">
-        <v>-341330613</v>
+        <v>-223116242</v>
       </c>
       <c r="J28" t="n">
-        <v>-227119131</v>
+        <v>-323021887</v>
       </c>
       <c r="K28" t="n">
-        <v>-272652781</v>
+        <v>160976248</v>
       </c>
       <c r="L28" t="n">
-        <v>189989249</v>
+        <v>66152919</v>
       </c>
       <c r="M28" t="n">
-        <v>104580864</v>
+        <v>228821055</v>
       </c>
       <c r="N28" t="n">
-        <v>284723847</v>
+        <v>-35178299</v>
       </c>
     </row>
     <row r="29">
@@ -1700,41 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>912832</v>
+        <v>908329</v>
       </c>
       <c r="C29" t="n">
-        <v>908329</v>
+        <v>690408</v>
       </c>
       <c r="D29" t="n">
-        <v>690408</v>
-      </c>
-      <c r="E29" t="n">
         <v>1004233</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1705699</v>
+      </c>
       <c r="G29" t="n">
-        <v>1705699</v>
+        <v>2205775</v>
       </c>
       <c r="H29" t="n">
-        <v>2205775</v>
+        <v>4232293</v>
       </c>
       <c r="I29" t="n">
-        <v>4232293</v>
+        <v>1976995</v>
       </c>
       <c r="J29" t="n">
-        <v>1976995</v>
+        <v>5048251</v>
       </c>
       <c r="K29" t="n">
-        <v>5048251</v>
+        <v>3485346</v>
       </c>
       <c r="L29" t="n">
-        <v>3485346</v>
+        <v>2628735</v>
       </c>
       <c r="M29" t="n">
-        <v>2628735</v>
+        <v>4262959</v>
       </c>
       <c r="N29" t="n">
-        <v>4262959</v>
+        <v>2040981</v>
       </c>
     </row>
     <row r="30">
@@ -1744,41 +1744,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12530</v>
+        <v>54560</v>
       </c>
       <c r="C30" t="n">
-        <v>60275</v>
+        <v>27466</v>
       </c>
       <c r="D30" t="n">
-        <v>49293</v>
-      </c>
-      <c r="E30" t="n">
-        <v>143504</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>35273</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>94894</v>
+      </c>
       <c r="G30" t="n">
-        <v>192392</v>
+        <v>82381</v>
       </c>
       <c r="H30" t="n">
-        <v>181167</v>
+        <v>389711</v>
       </c>
       <c r="I30" t="n">
-        <v>460766</v>
+        <v>1294703</v>
       </c>
       <c r="J30" t="n">
-        <v>1354504</v>
+        <v>1528036</v>
       </c>
       <c r="K30" t="n">
-        <v>1582824</v>
+        <v>1429958</v>
       </c>
       <c r="L30" t="n">
-        <v>1417894</v>
+        <v>1290872</v>
       </c>
       <c r="M30" t="n">
-        <v>1315138</v>
+        <v>1291009</v>
       </c>
       <c r="N30" t="n">
-        <v>1344846</v>
+        <v>1204051</v>
       </c>
     </row>
     <row r="31">
@@ -1788,41 +1788,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1403242</v>
+        <v>5839288</v>
       </c>
       <c r="C31" t="n">
-        <v>5852594</v>
+        <v>4988636</v>
       </c>
       <c r="D31" t="n">
-        <v>4980023</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3669506</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>3732928</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>3253813</v>
+      </c>
       <c r="G31" t="n">
-        <v>3200785</v>
+        <v>2862260</v>
       </c>
       <c r="H31" t="n">
-        <v>2772769</v>
+        <v>6767465</v>
       </c>
       <c r="I31" t="n">
-        <v>6738876</v>
+        <v>6202892</v>
       </c>
       <c r="J31" t="n">
-        <v>6216956</v>
+        <v>6269038</v>
       </c>
       <c r="K31" t="n">
-        <v>6294113</v>
+        <v>7352405</v>
       </c>
       <c r="L31" t="n">
-        <v>7423304</v>
+        <v>4099955</v>
       </c>
       <c r="M31" t="n">
-        <v>4133606</v>
+        <v>6288676</v>
       </c>
       <c r="N31" t="n">
-        <v>6295275</v>
+        <v>2054994</v>
       </c>
     </row>
     <row r="32">
@@ -1832,41 +1832,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1106330086</v>
+        <v>-925002430</v>
       </c>
       <c r="C32" t="n">
-        <v>-935518321</v>
+        <v>-833039677</v>
       </c>
       <c r="D32" t="n">
-        <v>-837704493</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-1002169470</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>-989413704</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-604852172</v>
+      </c>
       <c r="G32" t="n">
-        <v>-631695613</v>
+        <v>-468604768</v>
       </c>
       <c r="H32" t="n">
-        <v>-588754873</v>
+        <v>-526472982</v>
       </c>
       <c r="I32" t="n">
-        <v>-695773730</v>
+        <v>-233077375</v>
       </c>
       <c r="J32" t="n">
-        <v>-378035267</v>
+        <v>248906906</v>
       </c>
       <c r="K32" t="n">
-        <v>120924303</v>
+        <v>759068189</v>
       </c>
       <c r="L32" t="n">
-        <v>656822325</v>
+        <v>820788307</v>
       </c>
       <c r="M32" t="n">
-        <v>733730959</v>
+        <v>927148607</v>
       </c>
       <c r="N32" t="n">
-        <v>927148607</v>
+        <v>937960135</v>
       </c>
     </row>
     <row r="33">
@@ -1876,41 +1876,41 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-60422439</v>
+        <v>-41420657</v>
       </c>
       <c r="C33" t="n">
-        <v>-41420657</v>
+        <v>-56536327</v>
       </c>
       <c r="D33" t="n">
-        <v>-56536327</v>
-      </c>
-      <c r="E33" t="n">
         <v>18183374</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>35677958</v>
+      </c>
       <c r="G33" t="n">
-        <v>35677958</v>
+        <v>69214731</v>
       </c>
       <c r="H33" t="n">
-        <v>69214731</v>
+        <v>134903736</v>
       </c>
       <c r="I33" t="n">
-        <v>134903736</v>
+        <v>144664320</v>
       </c>
       <c r="J33" t="n">
-        <v>144664320</v>
+        <v>110057857</v>
       </c>
       <c r="K33" t="n">
-        <v>110057857</v>
+        <v>168314581</v>
       </c>
       <c r="L33" t="n">
-        <v>168314581</v>
+        <v>168497033</v>
       </c>
       <c r="M33" t="n">
-        <v>168497033</v>
+        <v>171075511</v>
       </c>
       <c r="N33" t="n">
-        <v>171075511</v>
+        <v>160399557</v>
       </c>
     </row>
     <row r="34">
@@ -1920,41 +1920,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18916716</v>
+        <v>-104319711</v>
       </c>
       <c r="C34" t="n">
-        <v>-93803820</v>
+        <v>-114194864</v>
       </c>
       <c r="D34" t="n">
-        <v>-109530048</v>
-      </c>
-      <c r="E34" t="n">
-        <v>22498870</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>9743104</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>326038856</v>
+      </c>
       <c r="G34" t="n">
-        <v>352882297</v>
+        <v>855389864</v>
       </c>
       <c r="H34" t="n">
-        <v>975539969</v>
+        <v>781729510</v>
       </c>
       <c r="I34" t="n">
-        <v>951030258</v>
+        <v>723359009</v>
       </c>
       <c r="J34" t="n">
-        <v>868316901</v>
+        <v>625200509</v>
       </c>
       <c r="K34" t="n">
-        <v>753183112</v>
+        <v>704280255</v>
       </c>
       <c r="L34" t="n">
-        <v>806526119</v>
+        <v>752408888</v>
       </c>
       <c r="M34" t="n">
-        <v>839466236</v>
+        <v>780367432</v>
       </c>
       <c r="N34" t="n">
-        <v>780367432</v>
+        <v>601844174</v>
       </c>
     </row>
     <row r="35">
@@ -1964,41 +1964,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-444568899</v>
+        <v>-1032099976</v>
       </c>
       <c r="C35" t="n">
-        <v>-1032099976</v>
+        <v>-581690013</v>
       </c>
       <c r="D35" t="n">
-        <v>-581690013</v>
-      </c>
-      <c r="E35" t="n">
         <v>202397394</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-194606230</v>
+      </c>
       <c r="G35" t="n">
-        <v>-194606230</v>
+        <v>265844664</v>
       </c>
       <c r="H35" t="n">
-        <v>265844664</v>
+        <v>417467687</v>
       </c>
       <c r="I35" t="n">
-        <v>417467687</v>
+        <v>1010299232</v>
       </c>
       <c r="J35" t="n">
-        <v>1010299232</v>
+        <v>430693423</v>
       </c>
       <c r="K35" t="n">
-        <v>430693423</v>
+        <v>920114934</v>
       </c>
       <c r="L35" t="n">
-        <v>920114934</v>
+        <v>977264484</v>
       </c>
       <c r="M35" t="n">
-        <v>977264484</v>
+        <v>1028873040</v>
       </c>
       <c r="N35" t="n">
-        <v>1028873040</v>
+        <v>399596006</v>
       </c>
     </row>
     <row r="36">
@@ -2008,41 +2008,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6831720865</v>
+        <v>-2442423877</v>
       </c>
       <c r="C36" t="n">
-        <v>-4878411483</v>
+        <v>-2179323936</v>
       </c>
       <c r="D36" t="n">
-        <v>-4343642317</v>
-      </c>
-      <c r="E36" t="n">
         <v>-5103332</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-1223395398</v>
+      </c>
       <c r="G36" t="n">
-        <v>-2451335569</v>
+        <v>17927833</v>
       </c>
       <c r="H36" t="n">
-        <v>12294313</v>
+        <v>368716030</v>
       </c>
       <c r="I36" t="n">
-        <v>702889566</v>
+        <v>1991032486</v>
       </c>
       <c r="J36" t="n">
-        <v>3936838968</v>
+        <v>2289511484</v>
       </c>
       <c r="K36" t="n">
-        <v>4537310634</v>
+        <v>2199272645</v>
       </c>
       <c r="L36" t="n">
-        <v>4354000581</v>
+        <v>3218711221</v>
       </c>
       <c r="M36" t="n">
-        <v>6402265285</v>
+        <v>1945854615</v>
       </c>
       <c r="N36" t="n">
-        <v>3853915113</v>
+        <v>166836673</v>
       </c>
     </row>
     <row r="37">
@@ -2052,41 +2052,41 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-24044919</v>
+        <v>4705043</v>
       </c>
       <c r="C37" t="n">
-        <v>4705043</v>
+        <v>498247</v>
       </c>
       <c r="D37" t="n">
-        <v>498247</v>
-      </c>
-      <c r="E37" t="n">
         <v>37084700</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>73383673</v>
+      </c>
       <c r="G37" t="n">
-        <v>73383673</v>
+        <v>126097617</v>
       </c>
       <c r="H37" t="n">
-        <v>126097617</v>
+        <v>135769426</v>
       </c>
       <c r="I37" t="n">
-        <v>135769426</v>
+        <v>138273715</v>
       </c>
       <c r="J37" t="n">
-        <v>138273715</v>
+        <v>147676039</v>
       </c>
       <c r="K37" t="n">
-        <v>147676039</v>
+        <v>149547114</v>
       </c>
       <c r="L37" t="n">
-        <v>149547114</v>
+        <v>155851076</v>
       </c>
       <c r="M37" t="n">
-        <v>155851076</v>
+        <v>128166193</v>
       </c>
       <c r="N37" t="n">
-        <v>128166193</v>
+        <v>130740763</v>
       </c>
     </row>
     <row r="38">
@@ -2096,41 +2096,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>537665226</v>
+        <v>-811004677</v>
       </c>
       <c r="C38" t="n">
-        <v>-811004677</v>
+        <v>-3118617931</v>
       </c>
       <c r="D38" t="n">
-        <v>-3118617931</v>
-      </c>
-      <c r="E38" t="n">
         <v>328268570</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-1939605583</v>
+      </c>
       <c r="G38" t="n">
-        <v>-1939605583</v>
+        <v>-3116536135</v>
       </c>
       <c r="H38" t="n">
-        <v>-3116536135</v>
+        <v>-1250697252</v>
       </c>
       <c r="I38" t="n">
-        <v>-1250697252</v>
+        <v>-960378933</v>
       </c>
       <c r="J38" t="n">
-        <v>-960378933</v>
+        <v>179670687</v>
       </c>
       <c r="K38" t="n">
-        <v>179670687</v>
+        <v>-938717615</v>
       </c>
       <c r="L38" t="n">
-        <v>-938717615</v>
+        <v>-262130120</v>
       </c>
       <c r="M38" t="n">
-        <v>-262130120</v>
+        <v>1434295719</v>
       </c>
       <c r="N38" t="n">
-        <v>1434295719</v>
+        <v>220492395</v>
       </c>
     </row>
     <row r="39">
@@ -2140,41 +2140,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>766710177</v>
+        <v>970961054</v>
       </c>
       <c r="C39" t="n">
-        <v>1109005460</v>
+        <v>432659622</v>
       </c>
       <c r="D39" t="n">
-        <v>520572397</v>
-      </c>
-      <c r="E39" t="n">
-        <v>747707402</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>576670539</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>508782275</v>
+      </c>
       <c r="G39" t="n">
-        <v>664942496</v>
+        <v>339210105</v>
       </c>
       <c r="H39" t="n">
-        <v>475476604</v>
+        <v>847129707</v>
       </c>
       <c r="I39" t="n">
-        <v>998606154</v>
+        <v>1033456849</v>
       </c>
       <c r="J39" t="n">
-        <v>1212110039</v>
+        <v>793479677</v>
       </c>
       <c r="K39" t="n">
-        <v>1004967569</v>
+        <v>717226739</v>
       </c>
       <c r="L39" t="n">
-        <v>848967422</v>
+        <v>698198118</v>
       </c>
       <c r="M39" t="n">
-        <v>825572239</v>
+        <v>465101222</v>
       </c>
       <c r="N39" t="n">
-        <v>567650219</v>
+        <v>179243156</v>
       </c>
     </row>
     <row r="40">
@@ -2184,41 +2184,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4933251586</v>
+        <v>2177886216</v>
       </c>
       <c r="C40" t="n">
-        <v>4968491098</v>
+        <v>1354621819</v>
       </c>
       <c r="D40" t="n">
-        <v>2725164832</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2105274997</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+        <v>1340101603</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1896350269</v>
+      </c>
       <c r="G40" t="n">
-        <v>4919571404</v>
+        <v>1271589968</v>
       </c>
       <c r="H40" t="n">
-        <v>3720433302</v>
+        <v>2679964511</v>
       </c>
       <c r="I40" t="n">
-        <v>5739398585</v>
+        <v>2869340820</v>
       </c>
       <c r="J40" t="n">
-        <v>5906958937</v>
+        <v>2278451380</v>
       </c>
       <c r="K40" t="n">
-        <v>5177077306</v>
+        <v>941173731</v>
       </c>
       <c r="L40" t="n">
-        <v>3370170608</v>
+        <v>1300898795</v>
       </c>
       <c r="M40" t="n">
-        <v>3792108432</v>
+        <v>1268057952</v>
       </c>
       <c r="N40" t="n">
-        <v>5282906730</v>
+        <v>1483263413</v>
       </c>
     </row>
     <row r="41">
@@ -2228,41 +2228,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>412943694</v>
+        <v>215578939</v>
       </c>
       <c r="C41" t="n">
-        <v>215576346</v>
+        <v>-188341055</v>
       </c>
       <c r="D41" t="n">
-        <v>-188343598</v>
-      </c>
-      <c r="E41" t="n">
-        <v>368085773</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+        <v>368088424</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>579599379</v>
+      </c>
       <c r="G41" t="n">
-        <v>579596177</v>
+        <v>1083551497</v>
       </c>
       <c r="H41" t="n">
-        <v>1083548360</v>
+        <v>748738278</v>
       </c>
       <c r="I41" t="n">
-        <v>748735573</v>
+        <v>1347180545</v>
       </c>
       <c r="J41" t="n">
-        <v>1347181545</v>
+        <v>1474617325</v>
       </c>
       <c r="K41" t="n">
-        <v>1474616711</v>
+        <v>2023570189</v>
       </c>
       <c r="L41" t="n">
-        <v>2023570245</v>
+        <v>2295762491</v>
       </c>
       <c r="M41" t="n">
-        <v>2295765606</v>
+        <v>1709372618</v>
       </c>
       <c r="N41" t="n">
-        <v>1709377531</v>
+        <v>1642250888</v>
       </c>
     </row>
     <row r="42">
@@ -2272,41 +2272,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-169748651</v>
+        <v>-112627317</v>
       </c>
       <c r="C42" t="n">
-        <v>-112624724</v>
+        <v>-62610113</v>
       </c>
       <c r="D42" t="n">
-        <v>-62607570</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-8590456</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+        <v>-8593107</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>124910572</v>
+      </c>
       <c r="G42" t="n">
-        <v>124913774</v>
+        <v>238270922</v>
       </c>
       <c r="H42" t="n">
-        <v>238274059</v>
+        <v>313057497</v>
       </c>
       <c r="I42" t="n">
-        <v>313060202</v>
+        <v>380458338</v>
       </c>
       <c r="J42" t="n">
-        <v>380457338</v>
+        <v>424769919</v>
       </c>
       <c r="K42" t="n">
-        <v>424770533</v>
+        <v>511253414</v>
       </c>
       <c r="L42" t="n">
-        <v>511253358</v>
+        <v>417645806</v>
       </c>
       <c r="M42" t="n">
-        <v>417642691</v>
+        <v>366096677</v>
       </c>
       <c r="N42" t="n">
-        <v>366091764</v>
+        <v>380907175</v>
       </c>
     </row>
     <row r="43">
@@ -2316,41 +2316,41 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>243689887</v>
+        <v>273241604</v>
       </c>
       <c r="C43" t="n">
-        <v>273241604</v>
+        <v>183508418</v>
       </c>
       <c r="D43" t="n">
-        <v>183508418</v>
-      </c>
-      <c r="E43" t="n">
         <v>144338393</v>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>140448983</v>
+      </c>
       <c r="G43" t="n">
-        <v>140448983</v>
+        <v>-8864532</v>
       </c>
       <c r="H43" t="n">
-        <v>-8864532</v>
+        <v>39565053</v>
       </c>
       <c r="I43" t="n">
-        <v>39565053</v>
+        <v>30106688</v>
       </c>
       <c r="J43" t="n">
-        <v>30106688</v>
+        <v>-3291089</v>
       </c>
       <c r="K43" t="n">
-        <v>-3291089</v>
+        <v>-1356538</v>
       </c>
       <c r="L43" t="n">
-        <v>-1356538</v>
+        <v>25361943</v>
       </c>
       <c r="M43" t="n">
-        <v>25361943</v>
+        <v>28109190</v>
       </c>
       <c r="N43" t="n">
-        <v>28109190</v>
+        <v>520974</v>
       </c>
     </row>
     <row r="44">
@@ -2360,41 +2360,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>531250442</v>
+        <v>475993191</v>
       </c>
       <c r="C44" t="n">
-        <v>475993191</v>
+        <v>391642803</v>
       </c>
       <c r="D44" t="n">
-        <v>391642803</v>
-      </c>
-      <c r="E44" t="n">
         <v>493250046</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>160351672</v>
+      </c>
       <c r="G44" t="n">
-        <v>160351672</v>
+        <v>37213864</v>
       </c>
       <c r="H44" t="n">
-        <v>37213864</v>
+        <v>302767208</v>
       </c>
       <c r="I44" t="n">
-        <v>302767208</v>
+        <v>281674163</v>
       </c>
       <c r="J44" t="n">
-        <v>281674163</v>
+        <v>137082133</v>
       </c>
       <c r="K44" t="n">
-        <v>137082133</v>
+        <v>223232109</v>
       </c>
       <c r="L44" t="n">
-        <v>223232109</v>
+        <v>269325966</v>
       </c>
       <c r="M44" t="n">
-        <v>269325966</v>
+        <v>89530303</v>
       </c>
       <c r="N44" t="n">
-        <v>89530303</v>
+        <v>-86837388</v>
       </c>
     </row>
     <row r="45">
@@ -2404,41 +2404,41 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-12953692</v>
+        <v>-18374895</v>
       </c>
       <c r="C45" t="n">
-        <v>-18374895</v>
+        <v>-19039108</v>
       </c>
       <c r="D45" t="n">
-        <v>-19039108</v>
-      </c>
-      <c r="E45" t="n">
         <v>-7766403</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>1617199</v>
+      </c>
       <c r="G45" t="n">
-        <v>1617199</v>
+        <v>12483699</v>
       </c>
       <c r="H45" t="n">
-        <v>12483699</v>
+        <v>31320354</v>
       </c>
       <c r="I45" t="n">
-        <v>31320354</v>
+        <v>42668797</v>
       </c>
       <c r="J45" t="n">
-        <v>42668797</v>
+        <v>43529888</v>
       </c>
       <c r="K45" t="n">
-        <v>43529888</v>
+        <v>41142487</v>
       </c>
       <c r="L45" t="n">
-        <v>41142487</v>
+        <v>42157332</v>
       </c>
       <c r="M45" t="n">
-        <v>42157332</v>
+        <v>32026870</v>
       </c>
       <c r="N45" t="n">
-        <v>32026870</v>
+        <v>23050634</v>
       </c>
     </row>
     <row r="46">
@@ -2448,41 +2448,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2547325385</v>
+        <v>2228162505</v>
       </c>
       <c r="C46" t="n">
-        <v>2234271085</v>
+        <v>1461490693</v>
       </c>
       <c r="D46" t="n">
-        <v>1514769484</v>
+        <v>3589552040</v>
       </c>
       <c r="E46" t="n">
-        <v>3583479085</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3878421771</v>
+      </c>
       <c r="G46" t="n">
-        <v>3871032625</v>
+        <v>1199388388</v>
       </c>
       <c r="H46" t="n">
-        <v>1150528524</v>
+        <v>1206522200</v>
       </c>
       <c r="I46" t="n">
-        <v>1117858689</v>
+        <v>3495460631</v>
       </c>
       <c r="J46" t="n">
-        <v>3406449496</v>
+        <v>3747210752</v>
       </c>
       <c r="K46" t="n">
-        <v>3669350943</v>
+        <v>4335364594</v>
       </c>
       <c r="L46" t="n">
-        <v>4461665701</v>
+        <v>4051300991</v>
       </c>
       <c r="M46" t="n">
-        <v>4080284882</v>
+        <v>3768790132</v>
       </c>
       <c r="N46" t="n">
-        <v>3784418311</v>
+        <v>2931467985</v>
       </c>
     </row>
     <row r="47">
@@ -2492,41 +2494,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>914068977</v>
+        <v>66769728</v>
       </c>
       <c r="C47" t="n">
-        <v>42127849</v>
+        <v>-734160865</v>
       </c>
       <c r="D47" t="n">
-        <v>-765832409</v>
-      </c>
-      <c r="E47" t="n">
-        <v>128639318</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>150597904</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>559282759</v>
+      </c>
       <c r="G47" t="n">
-        <v>534680275</v>
+        <v>407292847</v>
       </c>
       <c r="H47" t="n">
-        <v>374297495</v>
+        <v>1045332133</v>
       </c>
       <c r="I47" t="n">
-        <v>1012707584</v>
+        <v>1246964509</v>
       </c>
       <c r="J47" t="n">
-        <v>1223839375</v>
+        <v>1126274509</v>
       </c>
       <c r="K47" t="n">
-        <v>1110621746</v>
+        <v>1224390286</v>
       </c>
       <c r="L47" t="n">
-        <v>1218549823</v>
+        <v>1825343285</v>
       </c>
       <c r="M47" t="n">
-        <v>1841105064</v>
+        <v>258018957</v>
       </c>
       <c r="N47" t="n">
-        <v>287581382</v>
+        <v>915294224</v>
       </c>
     </row>
     <row r="48">
@@ -2536,43 +2538,41 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1778053015</v>
+        <v>675212276</v>
       </c>
       <c r="C48" t="n">
-        <v>693746821</v>
+        <v>-174784665</v>
       </c>
       <c r="D48" t="n">
-        <v>-196393214</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3397663894</v>
-      </c>
+        <v>3369634053</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2819347731</v>
       </c>
       <c r="G48" t="n">
-        <v>2851337661</v>
+        <v>2901610066</v>
       </c>
       <c r="H48" t="n">
-        <v>2983465752</v>
+        <v>3246801353</v>
       </c>
       <c r="I48" t="n">
-        <v>3368092937</v>
+        <v>2009096025</v>
       </c>
       <c r="J48" t="n">
-        <v>2121237396</v>
+        <v>2059473683</v>
       </c>
       <c r="K48" t="n">
-        <v>2152986864</v>
+        <v>2698554715</v>
       </c>
       <c r="L48" t="n">
-        <v>2578096709</v>
+        <v>-277188434</v>
       </c>
       <c r="M48" t="n">
-        <v>-321931297</v>
+        <v>-3019140400</v>
       </c>
       <c r="N48" t="n">
-        <v>-3064324896</v>
+        <v>-3364361929</v>
       </c>
     </row>
     <row r="49">
@@ -2582,41 +2582,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-496204222</v>
+        <v>41714509</v>
       </c>
       <c r="C49" t="n">
-        <v>-710101511</v>
+        <v>7907553</v>
       </c>
       <c r="D49" t="n">
-        <v>-490851508</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-7580193</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>56607766</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>86968083</v>
+      </c>
       <c r="G49" t="n">
-        <v>520408059</v>
+        <v>67660957</v>
       </c>
       <c r="H49" t="n">
-        <v>1292956279</v>
+        <v>129191081</v>
       </c>
       <c r="I49" t="n">
-        <v>1155444856</v>
+        <v>174289302</v>
       </c>
       <c r="J49" t="n">
-        <v>918954681</v>
+        <v>160752981</v>
       </c>
       <c r="K49" t="n">
-        <v>872912014</v>
+        <v>149700641</v>
       </c>
       <c r="L49" t="n">
-        <v>940506397</v>
+        <v>79935838</v>
       </c>
       <c r="M49" t="n">
-        <v>478588848</v>
+        <v>87884566</v>
       </c>
       <c r="N49" t="n">
-        <v>181983460</v>
+        <v>69208777</v>
       </c>
     </row>
     <row r="50">
@@ -2626,41 +2626,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3852909432</v>
+        <v>2138541907</v>
       </c>
       <c r="C50" t="n">
-        <v>2133134211</v>
+        <v>539871884</v>
       </c>
       <c r="D50" t="n">
-        <v>524347840</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1106611197</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+        <v>1089301822</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>2099489253</v>
+      </c>
       <c r="G50" t="n">
-        <v>2150067333</v>
+        <v>1775315202</v>
       </c>
       <c r="H50" t="n">
-        <v>1818765186</v>
+        <v>1091579369</v>
       </c>
       <c r="I50" t="n">
-        <v>1154873046</v>
+        <v>1522539744</v>
       </c>
       <c r="J50" t="n">
-        <v>1566477331</v>
+        <v>1375465977</v>
       </c>
       <c r="K50" t="n">
-        <v>1400147475</v>
+        <v>1151850172</v>
       </c>
       <c r="L50" t="n">
-        <v>1205748464</v>
+        <v>1735128094</v>
       </c>
       <c r="M50" t="n">
-        <v>1793268958</v>
+        <v>569662865</v>
       </c>
       <c r="N50" t="n">
-        <v>589360037</v>
+        <v>781338427</v>
       </c>
     </row>
     <row r="51">
@@ -2670,41 +2670,41 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11569986</v>
+        <v>-732181257</v>
       </c>
       <c r="C51" t="n">
-        <v>25047567</v>
+        <v>-506025435</v>
       </c>
       <c r="D51" t="n">
-        <v>8256484</v>
-      </c>
-      <c r="E51" t="n">
-        <v>42014009</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
+        <v>-4884780</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>554961316</v>
+      </c>
       <c r="G51" t="n">
-        <v>70966136</v>
+        <v>1304491478</v>
       </c>
       <c r="H51" t="n">
-        <v>35769706</v>
+        <v>1128077726</v>
       </c>
       <c r="I51" t="n">
-        <v>38553943</v>
+        <v>837640760</v>
       </c>
       <c r="J51" t="n">
-        <v>49065742</v>
+        <v>790684610</v>
       </c>
       <c r="K51" t="n">
-        <v>53871275</v>
+        <v>912987170</v>
       </c>
       <c r="L51" t="n">
-        <v>68311817</v>
+        <v>508889393</v>
       </c>
       <c r="M51" t="n">
-        <v>52125516</v>
+        <v>156792660</v>
       </c>
       <c r="N51" t="n">
-        <v>43035183</v>
+        <v>-196298617</v>
       </c>
     </row>
     <row r="52">
@@ -2714,41 +2714,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29745095</v>
+        <v>-87334086</v>
       </c>
       <c r="C52" t="n">
-        <v>-87575702</v>
+        <v>-248126324</v>
       </c>
       <c r="D52" t="n">
-        <v>-248182196</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-52597140</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>-52509675</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>454139657</v>
+      </c>
       <c r="G52" t="n">
-        <v>454423859</v>
+        <v>353463514</v>
       </c>
       <c r="H52" t="n">
-        <v>354005072</v>
+        <v>673279303</v>
       </c>
       <c r="I52" t="n">
-        <v>674261567</v>
+        <v>944949225</v>
       </c>
       <c r="J52" t="n">
-        <v>947494183</v>
+        <v>919184461</v>
       </c>
       <c r="K52" t="n">
-        <v>920799241</v>
+        <v>977631917</v>
       </c>
       <c r="L52" t="n">
-        <v>978275957</v>
+        <v>1325916469</v>
       </c>
       <c r="M52" t="n">
-        <v>1326274490</v>
+        <v>1719903330</v>
       </c>
       <c r="N52" t="n">
-        <v>1720159436</v>
+        <v>2012779117</v>
       </c>
     </row>
     <row r="53">
@@ -2758,41 +2758,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>167623520</v>
+        <v>-142599629</v>
       </c>
       <c r="C53" t="n">
-        <v>-151965358</v>
+        <v>-283346862</v>
       </c>
       <c r="D53" t="n">
-        <v>-294796661</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-6334335</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>-16421066</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>668068334</v>
+      </c>
       <c r="G53" t="n">
-        <v>687754549</v>
+        <v>243940742</v>
       </c>
       <c r="H53" t="n">
-        <v>256772474</v>
+        <v>280358597</v>
       </c>
       <c r="I53" t="n">
-        <v>307100596</v>
+        <v>273249794</v>
       </c>
       <c r="J53" t="n">
-        <v>301582749</v>
+        <v>244483305</v>
       </c>
       <c r="K53" t="n">
-        <v>279098449</v>
+        <v>90580856</v>
       </c>
       <c r="L53" t="n">
-        <v>123765497</v>
+        <v>144960627</v>
       </c>
       <c r="M53" t="n">
-        <v>163668245</v>
+        <v>-12458165</v>
       </c>
       <c r="N53" t="n">
-        <v>-12696950</v>
+        <v>23664208</v>
       </c>
     </row>
     <row r="54">
@@ -2802,41 +2802,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>762977719</v>
+        <v>177552790</v>
       </c>
       <c r="C54" t="n">
-        <v>187160135</v>
+        <v>-137321738</v>
       </c>
       <c r="D54" t="n">
-        <v>-125816067</v>
-      </c>
-      <c r="E54" t="n">
-        <v>137925305</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
+        <v>147924571</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>831368859</v>
+      </c>
       <c r="G54" t="n">
-        <v>811398442</v>
+        <v>-1000948421</v>
       </c>
       <c r="H54" t="n">
-        <v>-1014321711</v>
+        <v>-466739045</v>
       </c>
       <c r="I54" t="n">
-        <v>-494463308</v>
+        <v>-1241797662</v>
       </c>
       <c r="J54" t="n">
-        <v>-1272675575</v>
+        <v>-21385655</v>
       </c>
       <c r="K54" t="n">
-        <v>-57615579</v>
+        <v>-1396265252</v>
       </c>
       <c r="L54" t="n">
-        <v>-1430093933</v>
+        <v>-900073658</v>
       </c>
       <c r="M54" t="n">
-        <v>-919139297</v>
+        <v>-518355645</v>
       </c>
       <c r="N54" t="n">
-        <v>-518372966</v>
+        <v>-583715677</v>
       </c>
     </row>
     <row r="55">
@@ -2846,41 +2846,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14937415517</v>
+        <v>-13281442591</v>
       </c>
       <c r="C55" t="n">
-        <v>-13457196642</v>
+        <v>-15544736760</v>
       </c>
       <c r="D55" t="n">
-        <v>-15694110687</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-9113004106</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
+        <v>-9132192847</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>7209430970</v>
+      </c>
       <c r="G55" t="n">
-        <v>7074169629</v>
+        <v>-4494233340</v>
       </c>
       <c r="H55" t="n">
-        <v>-4456494792</v>
+        <v>22399744218</v>
       </c>
       <c r="I55" t="n">
-        <v>22110363904</v>
+        <v>23223193181</v>
       </c>
       <c r="J55" t="n">
-        <v>22759798843</v>
+        <v>20170890893</v>
       </c>
       <c r="K55" t="n">
-        <v>19752174952</v>
+        <v>29363085978</v>
       </c>
       <c r="L55" t="n">
-        <v>28908917566</v>
+        <v>34492495360</v>
       </c>
       <c r="M55" t="n">
-        <v>33907185956</v>
+        <v>60930617487</v>
       </c>
       <c r="N55" t="n">
-        <v>60495765294</v>
+        <v>88436265280</v>
       </c>
     </row>
     <row r="56">
@@ -2890,41 +2890,41 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3065616608</v>
+        <v>2248601435</v>
       </c>
       <c r="C56" t="n">
-        <v>2236211562</v>
+        <v>1799822596</v>
       </c>
       <c r="D56" t="n">
-        <v>1778291926</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-973459313</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+        <v>-967591654</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>693046033</v>
+      </c>
       <c r="G56" t="n">
-        <v>688277907</v>
+        <v>1159168912</v>
       </c>
       <c r="H56" t="n">
-        <v>1162204954</v>
+        <v>3202154206</v>
       </c>
       <c r="I56" t="n">
-        <v>3208278802</v>
+        <v>4233180355</v>
       </c>
       <c r="J56" t="n">
-        <v>4246774656</v>
+        <v>4144157020</v>
       </c>
       <c r="K56" t="n">
-        <v>4157645425</v>
+        <v>3183009699</v>
       </c>
       <c r="L56" t="n">
-        <v>3208662841</v>
+        <v>2323177331</v>
       </c>
       <c r="M56" t="n">
-        <v>2371520791</v>
+        <v>1751547267</v>
       </c>
       <c r="N56" t="n">
-        <v>1815193892</v>
+        <v>1239569323</v>
       </c>
     </row>
     <row r="57">
@@ -2934,41 +2934,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1841211186</v>
+        <v>-1536682864</v>
       </c>
       <c r="C57" t="n">
-        <v>-1360918851</v>
+        <v>-3137028582</v>
       </c>
       <c r="D57" t="n">
-        <v>-2987641619</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-1444322828</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>-1425132356</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1619045559</v>
+      </c>
       <c r="G57" t="n">
-        <v>1754309626</v>
+        <v>981262906</v>
       </c>
       <c r="H57" t="n">
-        <v>943546944</v>
+        <v>7362850118</v>
       </c>
       <c r="I57" t="n">
-        <v>7652237861</v>
+        <v>5751353600</v>
       </c>
       <c r="J57" t="n">
-        <v>6214745296</v>
+        <v>5532724389</v>
       </c>
       <c r="K57" t="n">
-        <v>5951426522</v>
+        <v>4700199754</v>
       </c>
       <c r="L57" t="n">
-        <v>5154357801</v>
+        <v>5062747143</v>
       </c>
       <c r="M57" t="n">
-        <v>5648040349</v>
+        <v>7065213187</v>
       </c>
       <c r="N57" t="n">
-        <v>7500026440</v>
+        <v>7076926756</v>
       </c>
     </row>
     <row r="58">
@@ -2978,41 +2978,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-307940294</v>
+        <v>219759151</v>
       </c>
       <c r="C58" t="n">
-        <v>219759151</v>
+        <v>-53814975</v>
       </c>
       <c r="D58" t="n">
-        <v>-53814975</v>
-      </c>
-      <c r="E58" t="n">
         <v>-238910993</v>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>133447011</v>
+      </c>
       <c r="G58" t="n">
-        <v>133447011</v>
+        <v>93555722</v>
       </c>
       <c r="H58" t="n">
-        <v>93555722</v>
+        <v>379228028</v>
       </c>
       <c r="I58" t="n">
-        <v>379228028</v>
+        <v>307419405</v>
       </c>
       <c r="J58" t="n">
-        <v>307419405</v>
+        <v>527434216</v>
       </c>
       <c r="K58" t="n">
-        <v>527434216</v>
+        <v>534530904</v>
       </c>
       <c r="L58" t="n">
-        <v>534530904</v>
+        <v>245637906</v>
       </c>
       <c r="M58" t="n">
-        <v>245637906</v>
+        <v>225556206</v>
       </c>
       <c r="N58" t="n">
-        <v>225556206</v>
+        <v>-81326736</v>
       </c>
     </row>
     <row r="59">
@@ -3022,43 +3022,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>571910318</v>
+        <v>440183896</v>
       </c>
       <c r="C59" t="n">
-        <v>440260311</v>
+        <v>242175772</v>
       </c>
       <c r="D59" t="n">
-        <v>238936390</v>
+        <v>198436254</v>
       </c>
       <c r="E59" t="n">
-        <v>199395716</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>426077775</v>
       </c>
       <c r="G59" t="n">
-        <v>430842279</v>
+        <v>678123591</v>
       </c>
       <c r="H59" t="n">
-        <v>688696891</v>
+        <v>911378087</v>
       </c>
       <c r="I59" t="n">
-        <v>925617592</v>
+        <v>885166363</v>
       </c>
       <c r="J59" t="n">
-        <v>900673156</v>
+        <v>946614313</v>
       </c>
       <c r="K59" t="n">
-        <v>958835052</v>
+        <v>793410706</v>
       </c>
       <c r="L59" t="n">
-        <v>808624416</v>
+        <v>685826381</v>
       </c>
       <c r="M59" t="n">
-        <v>700457767</v>
+        <v>516955747</v>
       </c>
       <c r="N59" t="n">
-        <v>529483409</v>
+        <v>368549753</v>
       </c>
     </row>
     <row r="60">
@@ -3068,41 +3068,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>242380654</v>
+        <v>252884726</v>
       </c>
       <c r="C60" t="n">
-        <v>252884726</v>
+        <v>323995068</v>
       </c>
       <c r="D60" t="n">
-        <v>323995068</v>
-      </c>
-      <c r="E60" t="n">
         <v>487124304</v>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>623781026</v>
+      </c>
       <c r="G60" t="n">
-        <v>623781026</v>
+        <v>1500062442</v>
       </c>
       <c r="H60" t="n">
-        <v>1500062442</v>
+        <v>2965515150</v>
       </c>
       <c r="I60" t="n">
-        <v>2965515150</v>
+        <v>2568361551</v>
       </c>
       <c r="J60" t="n">
-        <v>2568361551</v>
+        <v>3083170173</v>
       </c>
       <c r="K60" t="n">
-        <v>3083170173</v>
+        <v>3597687638</v>
       </c>
       <c r="L60" t="n">
-        <v>3597687638</v>
+        <v>3298269611</v>
       </c>
       <c r="M60" t="n">
-        <v>3298269611</v>
+        <v>2998416100</v>
       </c>
       <c r="N60" t="n">
-        <v>2998416100</v>
+        <v>2765889779</v>
       </c>
     </row>
     <row r="61">
@@ -3112,41 +3112,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-8927692</v>
+        <v>-11636426</v>
       </c>
       <c r="C61" t="n">
-        <v>-11636426</v>
+        <v>15526335</v>
       </c>
       <c r="D61" t="n">
-        <v>15526335</v>
-      </c>
-      <c r="E61" t="n">
         <v>44593437</v>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>91078964</v>
+      </c>
       <c r="G61" t="n">
-        <v>91078964</v>
+        <v>69436863</v>
       </c>
       <c r="H61" t="n">
-        <v>69436863</v>
+        <v>89951103</v>
       </c>
       <c r="I61" t="n">
-        <v>89951103</v>
+        <v>69719752</v>
       </c>
       <c r="J61" t="n">
-        <v>69719752</v>
+        <v>71131079</v>
       </c>
       <c r="K61" t="n">
-        <v>71131079</v>
+        <v>97059766</v>
       </c>
       <c r="L61" t="n">
-        <v>97059766</v>
+        <v>80136428</v>
       </c>
       <c r="M61" t="n">
-        <v>80136428</v>
+        <v>73302901</v>
       </c>
       <c r="N61" t="n">
-        <v>73302901</v>
+        <v>67386436</v>
       </c>
     </row>
     <row r="62">
@@ -3156,41 +3156,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-360058004</v>
+        <v>468130106</v>
       </c>
       <c r="C62" t="n">
-        <v>440709650</v>
+        <v>19362145</v>
       </c>
       <c r="D62" t="n">
-        <v>-10926000</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-11693573</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>-50370921</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>610563925</v>
+      </c>
       <c r="G62" t="n">
-        <v>725125496</v>
+        <v>-250887280</v>
       </c>
       <c r="H62" t="n">
-        <v>3391329</v>
+        <v>505526776</v>
       </c>
       <c r="I62" t="n">
-        <v>842086181</v>
+        <v>553467798</v>
       </c>
       <c r="J62" t="n">
-        <v>953020024</v>
+        <v>476217183</v>
       </c>
       <c r="K62" t="n">
-        <v>876977438</v>
+        <v>713579338</v>
       </c>
       <c r="L62" t="n">
-        <v>1132282635</v>
+        <v>809590448</v>
       </c>
       <c r="M62" t="n">
-        <v>1177993287</v>
+        <v>161022360</v>
       </c>
       <c r="N62" t="n">
-        <v>363923745</v>
+        <v>-884135984</v>
       </c>
     </row>
     <row r="63">
@@ -3200,41 +3200,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>35388103</v>
+        <v>-3217789</v>
       </c>
       <c r="C63" t="n">
-        <v>24202667</v>
+        <v>-16827325</v>
       </c>
       <c r="D63" t="n">
-        <v>13460820</v>
-      </c>
-      <c r="E63" t="n">
-        <v>29412857</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>68090205</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>134786280</v>
+      </c>
       <c r="G63" t="n">
-        <v>20224709</v>
+        <v>257401987</v>
       </c>
       <c r="H63" t="n">
-        <v>3123378</v>
+        <v>357179984</v>
       </c>
       <c r="I63" t="n">
-        <v>20620579</v>
+        <v>391325727</v>
       </c>
       <c r="J63" t="n">
-        <v>-8226499</v>
+        <v>404634714</v>
       </c>
       <c r="K63" t="n">
-        <v>3874459</v>
+        <v>427452308</v>
       </c>
       <c r="L63" t="n">
-        <v>8749011</v>
+        <v>384548823</v>
       </c>
       <c r="M63" t="n">
-        <v>16145984</v>
+        <v>223607937</v>
       </c>
       <c r="N63" t="n">
-        <v>20706552</v>
+        <v>247024137</v>
       </c>
     </row>
     <row r="64">
@@ -3244,41 +3244,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13983600383</v>
+        <v>16588568067</v>
       </c>
       <c r="C64" t="n">
-        <v>16588842803</v>
+        <v>20496499001</v>
       </c>
       <c r="D64" t="n">
-        <v>20497553900</v>
-      </c>
-      <c r="E64" t="n">
-        <v>26736682891</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>26734934206</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>27368332867</v>
+      </c>
       <c r="G64" t="n">
-        <v>27370070394</v>
+        <v>26838224211</v>
       </c>
       <c r="H64" t="n">
-        <v>26839909609</v>
+        <v>21014423647</v>
       </c>
       <c r="I64" t="n">
-        <v>21016266665</v>
+        <v>19537040193</v>
       </c>
       <c r="J64" t="n">
-        <v>19539104653</v>
+        <v>18568551149</v>
       </c>
       <c r="K64" t="n">
-        <v>18570658099</v>
+        <v>8882422866</v>
       </c>
       <c r="L64" t="n">
-        <v>8884269558</v>
+        <v>2700522025</v>
       </c>
       <c r="M64" t="n">
-        <v>2702016417</v>
+        <v>-4157694190</v>
       </c>
       <c r="N64" t="n">
-        <v>-4157121351</v>
+        <v>-7842754123</v>
       </c>
     </row>
     <row r="65">
@@ -3288,41 +3288,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>273470448</v>
+        <v>824284430</v>
       </c>
       <c r="C65" t="n">
-        <v>824553145</v>
+        <v>2698534750</v>
       </c>
       <c r="D65" t="n">
-        <v>2698914702</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2327897422</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>2327609820</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>2233603283</v>
+      </c>
       <c r="G65" t="n">
-        <v>2233848296</v>
+        <v>1955531013</v>
       </c>
       <c r="H65" t="n">
-        <v>1955759116</v>
+        <v>2329428757</v>
       </c>
       <c r="I65" t="n">
-        <v>2329695950</v>
+        <v>2169017795</v>
       </c>
       <c r="J65" t="n">
-        <v>2169306153</v>
+        <v>2157658822</v>
       </c>
       <c r="K65" t="n">
-        <v>2157950959</v>
+        <v>1610618544</v>
       </c>
       <c r="L65" t="n">
-        <v>1610844261</v>
+        <v>1075124234</v>
       </c>
       <c r="M65" t="n">
-        <v>1075181231</v>
+        <v>-776344942</v>
       </c>
       <c r="N65" t="n">
-        <v>-776431485</v>
+        <v>2434258</v>
       </c>
     </row>
     <row r="66">
@@ -3332,41 +3332,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>533856417</v>
+        <v>782007684</v>
       </c>
       <c r="C66" t="n">
-        <v>781822996</v>
+        <v>705448026</v>
       </c>
       <c r="D66" t="n">
-        <v>705135645</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1112448428</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
+        <v>1112639894</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>1200316898</v>
+      </c>
       <c r="G66" t="n">
-        <v>1200058537</v>
+        <v>1052487611</v>
       </c>
       <c r="H66" t="n">
-        <v>1052282193</v>
+        <v>1419213371</v>
       </c>
       <c r="I66" t="n">
-        <v>1418988160</v>
+        <v>1248272085</v>
       </c>
       <c r="J66" t="n">
-        <v>1248030319</v>
+        <v>645995690</v>
       </c>
       <c r="K66" t="n">
-        <v>645744951</v>
+        <v>415495580</v>
       </c>
       <c r="L66" t="n">
-        <v>415298220</v>
+        <v>50539153</v>
       </c>
       <c r="M66" t="n">
-        <v>50485544</v>
+        <v>-245465039</v>
       </c>
       <c r="N66" t="n">
-        <v>-245367938</v>
+        <v>-462626352</v>
       </c>
     </row>
     <row r="67">
@@ -3376,41 +3376,41 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-12095</v>
+        <v>5491</v>
       </c>
       <c r="C67" t="n">
-        <v>5491</v>
+        <v>-9939</v>
       </c>
       <c r="D67" t="n">
-        <v>-9939</v>
-      </c>
-      <c r="E67" t="n">
         <v>-873</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-5138</v>
+      </c>
       <c r="G67" t="n">
-        <v>-5138</v>
+        <v>2368</v>
       </c>
       <c r="H67" t="n">
-        <v>2368</v>
+        <v>1090</v>
       </c>
       <c r="I67" t="n">
-        <v>1090</v>
+        <v>2702</v>
       </c>
       <c r="J67" t="n">
-        <v>2702</v>
+        <v>-683</v>
       </c>
       <c r="K67" t="n">
-        <v>-683</v>
+        <v>-4130</v>
       </c>
       <c r="L67" t="n">
-        <v>-4130</v>
+        <v>-7099</v>
       </c>
       <c r="M67" t="n">
-        <v>-7099</v>
+        <v>-5474</v>
       </c>
       <c r="N67" t="n">
-        <v>-5474</v>
+        <v>-2482</v>
       </c>
     </row>
     <row r="68">
@@ -3420,41 +3420,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4447</v>
+        <v>918</v>
       </c>
       <c r="C68" t="n">
-        <v>918</v>
+        <v>2031</v>
       </c>
       <c r="D68" t="n">
-        <v>2031</v>
-      </c>
-      <c r="E68" t="n">
         <v>-5977</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>2729</v>
+      </c>
       <c r="G68" t="n">
-        <v>2729</v>
+        <v>-875</v>
       </c>
       <c r="H68" t="n">
-        <v>-875</v>
+        <v>4255</v>
       </c>
       <c r="I68" t="n">
-        <v>4255</v>
+        <v>5160</v>
       </c>
       <c r="J68" t="n">
-        <v>5160</v>
+        <v>1016</v>
       </c>
       <c r="K68" t="n">
-        <v>1016</v>
+        <v>1606</v>
       </c>
       <c r="L68" t="n">
-        <v>1606</v>
+        <v>2051</v>
       </c>
       <c r="M68" t="n">
-        <v>2051</v>
+        <v>-1947</v>
       </c>
       <c r="N68" t="n">
-        <v>-1947</v>
+        <v>13597</v>
       </c>
     </row>
     <row r="69">
@@ -3464,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-5201972193</v>
+        <v>-5967359832</v>
       </c>
       <c r="C69" t="n">
-        <v>-6094524030</v>
+        <v>-5941987460</v>
       </c>
       <c r="D69" t="n">
-        <v>-6059665625</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6341953439</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
+        <v>6464021907</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>13676146353</v>
+      </c>
       <c r="G69" t="n">
-        <v>13555810773</v>
+        <v>10415025723</v>
       </c>
       <c r="H69" t="n">
-        <v>10330995700</v>
+        <v>23440600619</v>
       </c>
       <c r="I69" t="n">
-        <v>23360494679</v>
+        <v>28980997188</v>
       </c>
       <c r="J69" t="n">
-        <v>28887150450</v>
+        <v>29936867270</v>
       </c>
       <c r="K69" t="n">
-        <v>29868390917</v>
+        <v>48740537254</v>
       </c>
       <c r="L69" t="n">
-        <v>48719141631</v>
+        <v>53601834847</v>
       </c>
       <c r="M69" t="n">
-        <v>53584543313</v>
+        <v>46309489751</v>
       </c>
       <c r="N69" t="n">
-        <v>46315978451</v>
+        <v>46424333073</v>
       </c>
     </row>
     <row r="70">
@@ -3508,41 +3508,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4629762510</v>
+        <v>862411993</v>
       </c>
       <c r="C70" t="n">
-        <v>2446261371</v>
+        <v>36022393</v>
       </c>
       <c r="D70" t="n">
-        <v>407483164</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3438548078</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+        <v>1646163779</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>441278848</v>
+      </c>
       <c r="G70" t="n">
-        <v>1439658621</v>
+        <v>-110474712</v>
       </c>
       <c r="H70" t="n">
-        <v>724214943</v>
+        <v>319648177</v>
       </c>
       <c r="I70" t="n">
-        <v>1295898206</v>
+        <v>-55317791</v>
       </c>
       <c r="J70" t="n">
-        <v>1700847847</v>
+        <v>-777054912</v>
       </c>
       <c r="K70" t="n">
-        <v>180960383</v>
+        <v>-897516990</v>
       </c>
       <c r="L70" t="n">
-        <v>983454997</v>
+        <v>-600951435</v>
       </c>
       <c r="M70" t="n">
-        <v>1310310538</v>
+        <v>-1238852181</v>
       </c>
       <c r="N70" t="n">
-        <v>992278788</v>
+        <v>-1143101882</v>
       </c>
     </row>
     <row r="71">
@@ -3552,41 +3552,41 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-904722183</v>
+        <v>574353600</v>
       </c>
       <c r="C71" t="n">
-        <v>697993229</v>
+        <v>320324777</v>
       </c>
       <c r="D71" t="n">
-        <v>429309890</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2672004133</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
+        <v>2654665296</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>3287694386</v>
+      </c>
       <c r="G71" t="n">
-        <v>3302582529</v>
+        <v>2515335240</v>
       </c>
       <c r="H71" t="n">
-        <v>2520091068</v>
+        <v>3729783714</v>
       </c>
       <c r="I71" t="n">
-        <v>3673262100</v>
+        <v>3287438326</v>
       </c>
       <c r="J71" t="n">
-        <v>3235214199</v>
+        <v>2901754004</v>
       </c>
       <c r="K71" t="n">
-        <v>2884815411</v>
+        <v>2689721274</v>
       </c>
       <c r="L71" t="n">
-        <v>2612127674</v>
+        <v>2479155420</v>
       </c>
       <c r="M71" t="n">
-        <v>2380846142</v>
+        <v>551352281</v>
       </c>
       <c r="N71" t="n">
-        <v>400086089</v>
+        <v>1150068318</v>
       </c>
     </row>
     <row r="72">
@@ -3596,41 +3596,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-52394841</v>
+        <v>-86357045</v>
       </c>
       <c r="C72" t="n">
-        <v>-86357045</v>
+        <v>-132617184</v>
       </c>
       <c r="D72" t="n">
-        <v>-132617184</v>
-      </c>
-      <c r="E72" t="n">
         <v>-10535343</v>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-15562444</v>
+      </c>
       <c r="G72" t="n">
-        <v>-15562444</v>
+        <v>241474476</v>
       </c>
       <c r="H72" t="n">
-        <v>241474476</v>
+        <v>317501999</v>
       </c>
       <c r="I72" t="n">
-        <v>317501999</v>
+        <v>417417691</v>
       </c>
       <c r="J72" t="n">
-        <v>417417691</v>
+        <v>331280872</v>
       </c>
       <c r="K72" t="n">
-        <v>331280872</v>
+        <v>405348456</v>
       </c>
       <c r="L72" t="n">
-        <v>405348456</v>
+        <v>434242104</v>
       </c>
       <c r="M72" t="n">
-        <v>434242104</v>
+        <v>334512035</v>
       </c>
       <c r="N72" t="n">
-        <v>334512035</v>
+        <v>255326885</v>
       </c>
     </row>
     <row r="73">
@@ -3640,41 +3640,41 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-22169230</v>
+        <v>-4669315</v>
       </c>
       <c r="C73" t="n">
-        <v>-4669315</v>
+        <v>-4523194</v>
       </c>
       <c r="D73" t="n">
-        <v>-4523194</v>
-      </c>
-      <c r="E73" t="n">
         <v>2422068</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>21445993</v>
+      </c>
       <c r="G73" t="n">
-        <v>21445993</v>
+        <v>307042173</v>
       </c>
       <c r="H73" t="n">
-        <v>307042173</v>
+        <v>253539694</v>
       </c>
       <c r="I73" t="n">
-        <v>253539694</v>
+        <v>321865339</v>
       </c>
       <c r="J73" t="n">
-        <v>321865339</v>
+        <v>245429099</v>
       </c>
       <c r="K73" t="n">
-        <v>245429099</v>
+        <v>305790127</v>
       </c>
       <c r="L73" t="n">
-        <v>305790127</v>
+        <v>374377744</v>
       </c>
       <c r="M73" t="n">
-        <v>374377744</v>
+        <v>320004930</v>
       </c>
       <c r="N73" t="n">
-        <v>320004930</v>
+        <v>336372345</v>
       </c>
     </row>
     <row r="74">
@@ -3684,41 +3684,41 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1221357568</v>
+        <v>531353082</v>
       </c>
       <c r="C74" t="n">
-        <v>531353082</v>
+        <v>-291248352</v>
       </c>
       <c r="D74" t="n">
-        <v>-291248352</v>
-      </c>
-      <c r="E74" t="n">
         <v>252693259</v>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>742790762</v>
+      </c>
       <c r="G74" t="n">
-        <v>742790762</v>
+        <v>-202323685</v>
       </c>
       <c r="H74" t="n">
-        <v>-202323685</v>
+        <v>346113877</v>
       </c>
       <c r="I74" t="n">
-        <v>346113877</v>
+        <v>1277768977</v>
       </c>
       <c r="J74" t="n">
-        <v>1277768977</v>
+        <v>1132612816</v>
       </c>
       <c r="K74" t="n">
-        <v>1132612816</v>
+        <v>843613888</v>
       </c>
       <c r="L74" t="n">
-        <v>843613888</v>
+        <v>399475468</v>
       </c>
       <c r="M74" t="n">
-        <v>399475468</v>
+        <v>979408540</v>
       </c>
       <c r="N74" t="n">
-        <v>979408540</v>
+        <v>941509207</v>
       </c>
     </row>
     <row r="75">
@@ -3728,41 +3728,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4297998345</v>
+        <v>5207566639</v>
       </c>
       <c r="C75" t="n">
-        <v>5206583062</v>
+        <v>3109918880</v>
       </c>
       <c r="D75" t="n">
-        <v>3109920552</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3987847597</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
+        <v>3991681417</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>2906703017</v>
+      </c>
       <c r="G75" t="n">
-        <v>2902246097</v>
+        <v>1046466224</v>
       </c>
       <c r="H75" t="n">
-        <v>1042325009</v>
+        <v>108602813</v>
       </c>
       <c r="I75" t="n">
-        <v>100868953</v>
+        <v>-143202086</v>
       </c>
       <c r="J75" t="n">
-        <v>-152694414</v>
+        <v>281698033</v>
       </c>
       <c r="K75" t="n">
-        <v>270404118</v>
+        <v>-1365251623</v>
       </c>
       <c r="L75" t="n">
-        <v>-1373303399</v>
+        <v>-1550997328</v>
       </c>
       <c r="M75" t="n">
-        <v>-1559896354</v>
+        <v>308005422</v>
       </c>
       <c r="N75" t="n">
-        <v>302023874</v>
+        <v>-1311540405</v>
       </c>
     </row>
     <row r="76">
@@ -3772,41 +3772,41 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>497561297</v>
+        <v>553038080</v>
       </c>
       <c r="C76" t="n">
-        <v>554021657</v>
+        <v>125808167</v>
       </c>
       <c r="D76" t="n">
-        <v>125806495</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1020095600</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
+        <v>1016261780</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>597135177</v>
+      </c>
       <c r="G76" t="n">
-        <v>601592097</v>
+        <v>468405392</v>
       </c>
       <c r="H76" t="n">
-        <v>472546607</v>
+        <v>1154874111</v>
       </c>
       <c r="I76" t="n">
-        <v>1162607971</v>
+        <v>1097583778</v>
       </c>
       <c r="J76" t="n">
-        <v>1107076106</v>
+        <v>1051522809</v>
       </c>
       <c r="K76" t="n">
-        <v>1062816724</v>
+        <v>1563767751</v>
       </c>
       <c r="L76" t="n">
-        <v>1571819527</v>
+        <v>1398211032</v>
       </c>
       <c r="M76" t="n">
-        <v>1407110058</v>
+        <v>943980102</v>
       </c>
       <c r="N76" t="n">
-        <v>949961650</v>
+        <v>807484637</v>
       </c>
     </row>
     <row r="77">
@@ -3816,41 +3816,41 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-9515173917</v>
+        <v>-7785052749</v>
       </c>
       <c r="C77" t="n">
-        <v>-2624988819</v>
+        <v>-11837553218</v>
       </c>
       <c r="D77" t="n">
-        <v>-3584307553</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9189075118</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
+        <v>7555818581</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>26913358769</v>
+      </c>
       <c r="G77" t="n">
-        <v>21983352363</v>
+        <v>11470700701</v>
       </c>
       <c r="H77" t="n">
-        <v>15288740419</v>
+        <v>19325282479</v>
       </c>
       <c r="I77" t="n">
-        <v>23787735520</v>
+        <v>25407808973</v>
       </c>
       <c r="J77" t="n">
-        <v>28028111688</v>
+        <v>19101922836</v>
       </c>
       <c r="K77" t="n">
-        <v>25225072587</v>
+        <v>25297229584</v>
       </c>
       <c r="L77" t="n">
-        <v>35533557710</v>
+        <v>23222369984</v>
       </c>
       <c r="M77" t="n">
-        <v>32290672342</v>
+        <v>28439507154</v>
       </c>
       <c r="N77" t="n">
-        <v>30078217740</v>
+        <v>29304095186</v>
       </c>
     </row>
     <row r="78">
@@ -3860,41 +3860,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2664988144</v>
+        <v>-1390353921</v>
       </c>
       <c r="C78" t="n">
-        <v>-1449907646</v>
+        <v>-2413945525</v>
       </c>
       <c r="D78" t="n">
-        <v>-2458964666</v>
-      </c>
-      <c r="E78" t="n">
-        <v>547780419</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+        <v>653313922</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>2880668949</v>
+      </c>
       <c r="G78" t="n">
-        <v>2771710890</v>
+        <v>1097721182</v>
       </c>
       <c r="H78" t="n">
-        <v>953701782</v>
+        <v>3674646163</v>
       </c>
       <c r="I78" t="n">
-        <v>3481679664</v>
+        <v>5940369728</v>
       </c>
       <c r="J78" t="n">
-        <v>5752046325</v>
+        <v>3704848157</v>
       </c>
       <c r="K78" t="n">
-        <v>3513217514</v>
+        <v>5409118917</v>
       </c>
       <c r="L78" t="n">
-        <v>5215399492</v>
+        <v>5285513481</v>
       </c>
       <c r="M78" t="n">
-        <v>5075166444</v>
+        <v>6228532831</v>
       </c>
       <c r="N78" t="n">
-        <v>6001548244</v>
+        <v>6087931217</v>
       </c>
     </row>
     <row r="79">
@@ -3904,41 +3904,41 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-4203350794</v>
+        <v>-146107834</v>
       </c>
       <c r="C79" t="n">
-        <v>-5246618039</v>
+        <v>-461750309</v>
       </c>
       <c r="D79" t="n">
-        <v>-8669976833</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-1305096237</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
+        <v>222626797</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-114944495</v>
+      </c>
       <c r="G79" t="n">
-        <v>4924019970</v>
+        <v>-595442381</v>
       </c>
       <c r="H79" t="n">
-        <v>-4269462699</v>
+        <v>461491814</v>
       </c>
       <c r="I79" t="n">
-        <v>-3807994728</v>
+        <v>602324562</v>
       </c>
       <c r="J79" t="n">
-        <v>-1829654750</v>
+        <v>506087291</v>
       </c>
       <c r="K79" t="n">
-        <v>-5425431817</v>
+        <v>1166804542</v>
       </c>
       <c r="L79" t="n">
-        <v>-8875804159</v>
+        <v>263937013</v>
       </c>
       <c r="M79" t="n">
-        <v>-8594018308</v>
+        <v>338304451</v>
       </c>
       <c r="N79" t="n">
-        <v>-1073421548</v>
+        <v>11237787</v>
       </c>
     </row>
     <row r="80">
@@ -3948,41 +3948,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-39269</v>
+        <v>-34221</v>
       </c>
       <c r="C80" t="n">
-        <v>-34221</v>
+        <v>-31571</v>
       </c>
       <c r="D80" t="n">
-        <v>-31571</v>
-      </c>
-      <c r="E80" t="n">
         <v>-6710</v>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>44036</v>
+      </c>
       <c r="G80" t="n">
-        <v>44036</v>
+        <v>1196</v>
       </c>
       <c r="H80" t="n">
-        <v>1196</v>
+        <v>26959</v>
       </c>
       <c r="I80" t="n">
-        <v>26959</v>
+        <v>30422</v>
       </c>
       <c r="J80" t="n">
-        <v>30422</v>
+        <v>22570</v>
       </c>
       <c r="K80" t="n">
-        <v>22570</v>
+        <v>28897</v>
       </c>
       <c r="L80" t="n">
-        <v>28897</v>
+        <v>61713</v>
       </c>
       <c r="M80" t="n">
-        <v>61713</v>
+        <v>56743</v>
       </c>
       <c r="N80" t="n">
-        <v>56743</v>
+        <v>61213</v>
       </c>
     </row>
     <row r="81">
@@ -3992,41 +3992,41 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-12029</v>
+        <v>-44509</v>
       </c>
       <c r="C81" t="n">
-        <v>-49924</v>
+        <v>-46527</v>
       </c>
       <c r="D81" t="n">
-        <v>-58813</v>
-      </c>
-      <c r="E81" t="n">
-        <v>19620</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
+        <v>6573</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>37667</v>
+      </c>
       <c r="G81" t="n">
-        <v>40707</v>
+        <v>11091</v>
       </c>
       <c r="H81" t="n">
-        <v>9584</v>
+        <v>42357</v>
       </c>
       <c r="I81" t="n">
-        <v>49672</v>
+        <v>44057</v>
       </c>
       <c r="J81" t="n">
-        <v>48141</v>
+        <v>42177</v>
       </c>
       <c r="K81" t="n">
-        <v>31496</v>
+        <v>31955</v>
       </c>
       <c r="L81" t="n">
-        <v>21320</v>
+        <v>30878</v>
       </c>
       <c r="M81" t="n">
-        <v>39861</v>
+        <v>33721</v>
       </c>
       <c r="N81" t="n">
-        <v>43142</v>
+        <v>32674</v>
       </c>
     </row>
     <row r="82">
@@ -4036,41 +4036,41 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7919</v>
+        <v>-2138</v>
       </c>
       <c r="C82" t="n">
-        <v>3277</v>
+        <v>-20106</v>
       </c>
       <c r="D82" t="n">
-        <v>-7820</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-2221</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
+        <v>10826</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>15389</v>
+      </c>
       <c r="G82" t="n">
-        <v>12349</v>
+        <v>315</v>
       </c>
       <c r="H82" t="n">
-        <v>1822</v>
+        <v>28513</v>
       </c>
       <c r="I82" t="n">
-        <v>21198</v>
+        <v>27785</v>
       </c>
       <c r="J82" t="n">
-        <v>23701</v>
+        <v>3649</v>
       </c>
       <c r="K82" t="n">
-        <v>14330</v>
+        <v>13864</v>
       </c>
       <c r="L82" t="n">
-        <v>24499</v>
+        <v>11106</v>
       </c>
       <c r="M82" t="n">
-        <v>2123</v>
+        <v>14360</v>
       </c>
       <c r="N82" t="n">
-        <v>4939</v>
+        <v>14277</v>
       </c>
     </row>
     <row r="83">
@@ -4080,41 +4080,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>56177407</v>
+        <v>-16345772</v>
       </c>
       <c r="C83" t="n">
-        <v>-16345772</v>
+        <v>-32626714</v>
       </c>
       <c r="D83" t="n">
-        <v>-32626714</v>
-      </c>
-      <c r="E83" t="n">
         <v>19039173</v>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>142336865</v>
+      </c>
       <c r="G83" t="n">
-        <v>142336865</v>
+        <v>76091260</v>
       </c>
       <c r="H83" t="n">
-        <v>76091260</v>
+        <v>197585465</v>
       </c>
       <c r="I83" t="n">
-        <v>197585465</v>
+        <v>273384167</v>
       </c>
       <c r="J83" t="n">
-        <v>273384167</v>
+        <v>274839455</v>
       </c>
       <c r="K83" t="n">
-        <v>274839455</v>
+        <v>414900781</v>
       </c>
       <c r="L83" t="n">
-        <v>414900781</v>
+        <v>447885516</v>
       </c>
       <c r="M83" t="n">
-        <v>447885516</v>
+        <v>482881142</v>
       </c>
       <c r="N83" t="n">
-        <v>482881142</v>
+        <v>603436186</v>
       </c>
     </row>
     <row r="84">
@@ -4124,41 +4124,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>293830203</v>
+        <v>-1316890399</v>
       </c>
       <c r="C84" t="n">
-        <v>-1267454307</v>
+        <v>-1491882176</v>
       </c>
       <c r="D84" t="n">
-        <v>-1457485368</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-180709439</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>-302912844</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>242005153</v>
+      </c>
       <c r="G84" t="n">
-        <v>314624949</v>
+        <v>1222211240</v>
       </c>
       <c r="H84" t="n">
-        <v>1266883590</v>
+        <v>3086211945</v>
       </c>
       <c r="I84" t="n">
-        <v>3171625014</v>
+        <v>2164464864</v>
       </c>
       <c r="J84" t="n">
-        <v>2250620804</v>
+        <v>1437309028</v>
       </c>
       <c r="K84" t="n">
-        <v>1500674254</v>
+        <v>1893394650</v>
       </c>
       <c r="L84" t="n">
-        <v>1943774088</v>
+        <v>2781700073</v>
       </c>
       <c r="M84" t="n">
-        <v>2957234822</v>
+        <v>2910311176</v>
       </c>
       <c r="N84" t="n">
-        <v>3240958635</v>
+        <v>2897233865</v>
       </c>
     </row>
     <row r="85">
@@ -4168,41 +4168,41 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2874450933</v>
+        <v>-531270070</v>
       </c>
       <c r="C85" t="n">
-        <v>-580704793</v>
+        <v>-3284663284</v>
       </c>
       <c r="D85" t="n">
-        <v>-3319058467</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-500824081</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>-378623610</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-468546199</v>
+      </c>
       <c r="G85" t="n">
-        <v>-541162047</v>
+        <v>920665896</v>
       </c>
       <c r="H85" t="n">
-        <v>875994779</v>
+        <v>3052112048</v>
       </c>
       <c r="I85" t="n">
-        <v>2966700142</v>
+        <v>1778086779</v>
       </c>
       <c r="J85" t="n">
-        <v>1691932815</v>
+        <v>80672817</v>
       </c>
       <c r="K85" t="n">
-        <v>17309186</v>
+        <v>-2880506106</v>
       </c>
       <c r="L85" t="n">
-        <v>-2930883704</v>
+        <v>-1057099822</v>
       </c>
       <c r="M85" t="n">
-        <v>-1232633968</v>
+        <v>-2179936980</v>
       </c>
       <c r="N85" t="n">
-        <v>-2510585747</v>
+        <v>-4947191214</v>
       </c>
     </row>
     <row r="86">
@@ -4212,41 +4212,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>223992648</v>
+        <v>61461719</v>
       </c>
       <c r="C86" t="n">
-        <v>61461719</v>
+        <v>-67329988</v>
       </c>
       <c r="D86" t="n">
-        <v>-67329988</v>
-      </c>
-      <c r="E86" t="n">
         <v>206291588</v>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>497289165</v>
+      </c>
       <c r="G86" t="n">
-        <v>497289165</v>
+        <v>1077627235</v>
       </c>
       <c r="H86" t="n">
-        <v>1077627235</v>
+        <v>1451268948</v>
       </c>
       <c r="I86" t="n">
-        <v>1451268948</v>
+        <v>1339860753</v>
       </c>
       <c r="J86" t="n">
-        <v>1339860753</v>
+        <v>1000977610</v>
       </c>
       <c r="K86" t="n">
-        <v>1000977610</v>
+        <v>1733778535</v>
       </c>
       <c r="L86" t="n">
-        <v>1733778535</v>
+        <v>1580592998</v>
       </c>
       <c r="M86" t="n">
-        <v>1580592998</v>
+        <v>1355142273</v>
       </c>
       <c r="N86" t="n">
-        <v>1355142273</v>
+        <v>1327444168</v>
       </c>
     </row>
     <row r="87">
@@ -4256,41 +4256,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-7159447</v>
+        <v>-131961915</v>
       </c>
       <c r="C87" t="n">
-        <v>-129948507</v>
+        <v>-647878005</v>
       </c>
       <c r="D87" t="n">
-        <v>-647440369</v>
-      </c>
-      <c r="E87" t="n">
-        <v>376704313</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
+        <v>376285072</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>1130569430</v>
+      </c>
       <c r="G87" t="n">
-        <v>1130869239</v>
+        <v>806043580</v>
       </c>
       <c r="H87" t="n">
-        <v>806825575</v>
+        <v>1310196526</v>
       </c>
       <c r="I87" t="n">
-        <v>1311525765</v>
+        <v>1456282680</v>
       </c>
       <c r="J87" t="n">
-        <v>1459597863</v>
+        <v>953325508</v>
       </c>
       <c r="K87" t="n">
-        <v>954639497</v>
+        <v>1328685814</v>
       </c>
       <c r="L87" t="n">
-        <v>1327376006</v>
+        <v>2099094284</v>
       </c>
       <c r="M87" t="n">
-        <v>2097758153</v>
+        <v>2800358376</v>
       </c>
       <c r="N87" t="n">
-        <v>2800894968</v>
+        <v>2526562370</v>
       </c>
     </row>
     <row r="88">
@@ -4300,41 +4300,41 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4063266</v>
+        <v>-179773128</v>
       </c>
       <c r="C88" t="n">
-        <v>-179773128</v>
+        <v>-310680749</v>
       </c>
       <c r="D88" t="n">
-        <v>-310680749</v>
-      </c>
-      <c r="E88" t="n">
         <v>73430140</v>
       </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>621958020</v>
+      </c>
       <c r="G88" t="n">
-        <v>621958020</v>
+        <v>490378742</v>
       </c>
       <c r="H88" t="n">
-        <v>490378742</v>
+        <v>724653400</v>
       </c>
       <c r="I88" t="n">
-        <v>724653400</v>
+        <v>605606253</v>
       </c>
       <c r="J88" t="n">
-        <v>605606253</v>
+        <v>446478369</v>
       </c>
       <c r="K88" t="n">
-        <v>446478369</v>
+        <v>579646948</v>
       </c>
       <c r="L88" t="n">
-        <v>579646948</v>
+        <v>632491726</v>
       </c>
       <c r="M88" t="n">
-        <v>632491726</v>
+        <v>365578670</v>
       </c>
       <c r="N88" t="n">
-        <v>365578670</v>
+        <v>293835119</v>
       </c>
     </row>
     <row r="89">
@@ -4344,41 +4344,41 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5672708365</v>
+        <v>9628748027</v>
       </c>
       <c r="C89" t="n">
-        <v>9495102259</v>
+        <v>9280590091</v>
       </c>
       <c r="D89" t="n">
-        <v>9616464428</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4233410386</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
+        <v>4739225372</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>2546148165</v>
+      </c>
       <c r="G89" t="n">
-        <v>2142295428</v>
+        <v>1576612527</v>
       </c>
       <c r="H89" t="n">
-        <v>2015770197</v>
+        <v>3393249655</v>
       </c>
       <c r="I89" t="n">
-        <v>3015647162</v>
+        <v>3234745672</v>
       </c>
       <c r="J89" t="n">
-        <v>2070820819</v>
+        <v>6482664865</v>
       </c>
       <c r="K89" t="n">
-        <v>6017429855</v>
+        <v>-662187088</v>
       </c>
       <c r="L89" t="n">
-        <v>-875808554</v>
+        <v>-3424187973</v>
       </c>
       <c r="M89" t="n">
-        <v>-3859517507</v>
+        <v>-3157598267</v>
       </c>
       <c r="N89" t="n">
-        <v>-3560733484</v>
+        <v>2340955329</v>
       </c>
     </row>
     <row r="90">
@@ -4388,41 +4388,41 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-57366936</v>
+        <v>-1474743</v>
       </c>
       <c r="C90" t="n">
-        <v>-110185918</v>
+        <v>-1945400</v>
       </c>
       <c r="D90" t="n">
-        <v>-114985866</v>
-      </c>
-      <c r="E90" t="n">
-        <v>30259622</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
+        <v>4123755</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>10267887</v>
+      </c>
       <c r="G90" t="n">
-        <v>37439291</v>
+        <v>6566128</v>
       </c>
       <c r="H90" t="n">
-        <v>-14883365</v>
+        <v>6646444</v>
       </c>
       <c r="I90" t="n">
-        <v>87674146</v>
+        <v>5623854</v>
       </c>
       <c r="J90" t="n">
-        <v>197223000</v>
+        <v>4956651</v>
       </c>
       <c r="K90" t="n">
-        <v>192693929</v>
+        <v>3477818</v>
       </c>
       <c r="L90" t="n">
-        <v>270975661</v>
+        <v>-3974217</v>
       </c>
       <c r="M90" t="n">
-        <v>273917535</v>
+        <v>-10714599</v>
       </c>
       <c r="N90" t="n">
-        <v>85145286</v>
+        <v>-16258637</v>
       </c>
     </row>
     <row r="91">
@@ -4432,41 +4432,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1521486877</v>
+        <v>898211243</v>
       </c>
       <c r="C91" t="n">
-        <v>1140526499</v>
+        <v>873181924</v>
       </c>
       <c r="D91" t="n">
-        <v>650290580</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2039422248</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
+        <v>1559837144</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>2853165416</v>
+      </c>
       <c r="G91" t="n">
-        <v>3229750062</v>
+        <v>2233019020</v>
       </c>
       <c r="H91" t="n">
-        <v>1815205504</v>
+        <v>2047119747</v>
       </c>
       <c r="I91" t="n">
-        <v>2343596575</v>
+        <v>2739824538</v>
       </c>
       <c r="J91" t="n">
-        <v>3712056410</v>
+        <v>3190537806</v>
       </c>
       <c r="K91" t="n">
-        <v>3467942649</v>
+        <v>3593331312</v>
       </c>
       <c r="L91" t="n">
-        <v>3539352680</v>
+        <v>3134498255</v>
       </c>
       <c r="M91" t="n">
-        <v>3291879774</v>
+        <v>2012234538</v>
       </c>
       <c r="N91" t="n">
-        <v>2319482105</v>
+        <v>1599582968</v>
       </c>
     </row>
     <row r="92">
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>21267685254</v>
+        <v>25855402420</v>
       </c>
       <c r="C92" t="n">
-        <v>26553276228</v>
+        <v>6829561268</v>
       </c>
       <c r="D92" t="n">
-        <v>7971366805</v>
-      </c>
-      <c r="E92" t="n">
-        <v>27436730581</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+        <v>27645601468</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>44600626313</v>
+      </c>
       <c r="G92" t="n">
-        <v>42948955027</v>
+        <v>46115731681</v>
       </c>
       <c r="H92" t="n">
-        <v>45456656396</v>
+        <v>65803484836</v>
       </c>
       <c r="I92" t="n">
-        <v>64456269439</v>
+        <v>72084179350</v>
       </c>
       <c r="J92" t="n">
-        <v>70298876058</v>
+        <v>84300458336</v>
       </c>
       <c r="K92" t="n">
-        <v>82744790552</v>
+        <v>98880257524</v>
       </c>
       <c r="L92" t="n">
-        <v>96451679566</v>
+        <v>82086472137</v>
       </c>
       <c r="M92" t="n">
-        <v>79397722992</v>
+        <v>79646811338</v>
       </c>
       <c r="N92" t="n">
-        <v>76698294646</v>
+        <v>91551642347</v>
       </c>
     </row>
     <row r="93">
@@ -4520,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4290830871</v>
+        <v>137684841</v>
       </c>
       <c r="C93" t="n">
-        <v>503827676</v>
+        <v>2109756784</v>
       </c>
       <c r="D93" t="n">
-        <v>2278187475</v>
-      </c>
-      <c r="E93" t="n">
-        <v>14978418398</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
+        <v>13970122302</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>16173457648</v>
+      </c>
       <c r="G93" t="n">
-        <v>17324141817</v>
+        <v>10821814821</v>
       </c>
       <c r="H93" t="n">
-        <v>11587645566</v>
+        <v>17487467720</v>
       </c>
       <c r="I93" t="n">
-        <v>18675434190</v>
+        <v>20095997849</v>
       </c>
       <c r="J93" t="n">
-        <v>21788258779</v>
+        <v>16837414389</v>
       </c>
       <c r="K93" t="n">
-        <v>18755049698</v>
+        <v>23920171001</v>
       </c>
       <c r="L93" t="n">
-        <v>26359530274</v>
+        <v>25883705785</v>
       </c>
       <c r="M93" t="n">
-        <v>28518240371</v>
+        <v>17329263977</v>
       </c>
       <c r="N93" t="n">
-        <v>20472088190</v>
+        <v>18696329949</v>
       </c>
     </row>
     <row r="94">
@@ -4564,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7235984424</v>
+        <v>5886830493</v>
       </c>
       <c r="C94" t="n">
-        <v>4861671935</v>
+        <v>4038811796</v>
       </c>
       <c r="D94" t="n">
-        <v>2770852005</v>
-      </c>
-      <c r="E94" t="n">
-        <v>8010482740</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+        <v>8465719551</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>14446587188</v>
+      </c>
       <c r="G94" t="n">
-        <v>15423149562</v>
+        <v>13478924983</v>
       </c>
       <c r="H94" t="n">
-        <v>13671890715</v>
+        <v>15985684995</v>
       </c>
       <c r="I94" t="n">
-        <v>16683342232</v>
+        <v>12876275957</v>
       </c>
       <c r="J94" t="n">
-        <v>13253192686</v>
+        <v>13938632321</v>
       </c>
       <c r="K94" t="n">
-        <v>13642602623</v>
+        <v>11060312403</v>
       </c>
       <c r="L94" t="n">
-        <v>11397679682</v>
+        <v>6702909863</v>
       </c>
       <c r="M94" t="n">
-        <v>7062098778</v>
+        <v>6014998130</v>
       </c>
       <c r="N94" t="n">
-        <v>6053248953</v>
+        <v>11846292366</v>
       </c>
     </row>
     <row r="95">
@@ -4608,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7867233212</v>
+        <v>6078053071</v>
       </c>
       <c r="C95" t="n">
-        <v>6541211424</v>
+        <v>5501008916</v>
       </c>
       <c r="D95" t="n">
-        <v>6513349836</v>
-      </c>
-      <c r="E95" t="n">
-        <v>12856778280</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
+        <v>12186528972</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>22556274261</v>
+      </c>
       <c r="G95" t="n">
-        <v>22337968839</v>
+        <v>19876110194</v>
       </c>
       <c r="H95" t="n">
-        <v>15899677365</v>
+        <v>32248134089</v>
       </c>
       <c r="I95" t="n">
-        <v>25881306702</v>
+        <v>20110263229</v>
       </c>
       <c r="J95" t="n">
-        <v>14556046916</v>
+        <v>20495279412</v>
       </c>
       <c r="K95" t="n">
-        <v>15723387108</v>
+        <v>25614695357</v>
       </c>
       <c r="L95" t="n">
-        <v>20125210621</v>
+        <v>29694281149</v>
       </c>
       <c r="M95" t="n">
-        <v>24768363086</v>
+        <v>33181559081</v>
       </c>
       <c r="N95" t="n">
-        <v>28180689766</v>
+        <v>30983172842</v>
       </c>
     </row>
     <row r="96">
@@ -4652,41 +4652,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3329884048</v>
+        <v>244512597</v>
       </c>
       <c r="C96" t="n">
-        <v>2661364775</v>
+        <v>-13608257</v>
       </c>
       <c r="D96" t="n">
-        <v>2072923754</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1489631827</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>525436999</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>799846373</v>
+      </c>
       <c r="G96" t="n">
-        <v>3881602072</v>
+        <v>636834159</v>
       </c>
       <c r="H96" t="n">
-        <v>2801804589</v>
+        <v>1251827965</v>
       </c>
       <c r="I96" t="n">
-        <v>5021581313</v>
+        <v>1376678352</v>
       </c>
       <c r="J96" t="n">
-        <v>4823489924</v>
+        <v>1277927091</v>
       </c>
       <c r="K96" t="n">
-        <v>3192070815</v>
+        <v>2092467055</v>
       </c>
       <c r="L96" t="n">
-        <v>3621872269</v>
+        <v>1978149877</v>
       </c>
       <c r="M96" t="n">
-        <v>3261883146</v>
+        <v>2129239402</v>
       </c>
       <c r="N96" t="n">
-        <v>4198364538</v>
+        <v>2762040220</v>
       </c>
     </row>
     <row r="97">
@@ -4696,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-2067606411</v>
+        <v>489064809</v>
       </c>
       <c r="C97" t="n">
-        <v>-1980475508</v>
+        <v>-3348355256</v>
       </c>
       <c r="D97" t="n">
-        <v>-5941520023</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5740609398</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
+        <v>6653909130</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>20284320034</v>
+      </c>
       <c r="G97" t="n">
-        <v>18195753238</v>
+        <v>36780069468</v>
       </c>
       <c r="H97" t="n">
-        <v>39110649011</v>
+        <v>38441556066</v>
       </c>
       <c r="I97" t="n">
-        <v>41598812097</v>
+        <v>37502594658</v>
       </c>
       <c r="J97" t="n">
-        <v>40475177905</v>
+        <v>33397455316</v>
       </c>
       <c r="K97" t="n">
-        <v>37230536287</v>
+        <v>33148106597</v>
       </c>
       <c r="L97" t="n">
-        <v>37895636816</v>
+        <v>38545871188</v>
       </c>
       <c r="M97" t="n">
-        <v>42959751472</v>
+        <v>37292252536</v>
       </c>
       <c r="N97" t="n">
-        <v>40757774512</v>
+        <v>31714005369</v>
       </c>
     </row>
     <row r="98">
@@ -4740,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>24165081309</v>
+        <v>24304773557</v>
       </c>
       <c r="C98" t="n">
-        <v>9902434767</v>
+        <v>28536750688</v>
       </c>
       <c r="D98" t="n">
-        <v>25017244666</v>
-      </c>
-      <c r="E98" t="n">
-        <v>40850063078</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
+        <v>51964449783</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>69194470793</v>
+      </c>
       <c r="G98" t="n">
-        <v>58494148021</v>
+        <v>34968737985</v>
       </c>
       <c r="H98" t="n">
-        <v>35629981092</v>
+        <v>70440535132</v>
       </c>
       <c r="I98" t="n">
-        <v>60427999561</v>
+        <v>84400920938</v>
       </c>
       <c r="J98" t="n">
-        <v>73526105563</v>
+        <v>73526911194</v>
       </c>
       <c r="K98" t="n">
-        <v>63034882219</v>
+        <v>95312549158</v>
       </c>
       <c r="L98" t="n">
-        <v>84279977176</v>
+        <v>92908578778</v>
       </c>
       <c r="M98" t="n">
-        <v>81719986563</v>
+        <v>94109319437</v>
       </c>
       <c r="N98" t="n">
-        <v>84331320066</v>
+        <v>146606761187</v>
       </c>
     </row>
     <row r="99">
@@ -4784,41 +4784,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4023948435</v>
+        <v>-2580993201</v>
       </c>
       <c r="C99" t="n">
-        <v>98777372</v>
+        <v>-2217235893</v>
       </c>
       <c r="D99" t="n">
-        <v>-180515980</v>
-      </c>
-      <c r="E99" t="n">
-        <v>4522353811</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
+        <v>1672810141</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>2910685207</v>
+      </c>
       <c r="G99" t="n">
-        <v>6097604556</v>
+        <v>1694725970</v>
       </c>
       <c r="H99" t="n">
-        <v>4097910768</v>
+        <v>4636638349</v>
       </c>
       <c r="I99" t="n">
-        <v>7037607115</v>
+        <v>5117341701</v>
       </c>
       <c r="J99" t="n">
-        <v>8084764574</v>
+        <v>4715639467</v>
       </c>
       <c r="K99" t="n">
-        <v>7342742201</v>
+        <v>5672003214</v>
       </c>
       <c r="L99" t="n">
-        <v>7314912027</v>
+        <v>5698156252</v>
       </c>
       <c r="M99" t="n">
-        <v>7122239363</v>
+        <v>1760465856</v>
       </c>
       <c r="N99" t="n">
-        <v>2406234098</v>
+        <v>1714080741</v>
       </c>
     </row>
     <row r="100">
@@ -4828,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>20575527692</v>
+        <v>3152939254</v>
       </c>
       <c r="C100" t="n">
-        <v>14880436056</v>
+        <v>538434833</v>
       </c>
       <c r="D100" t="n">
-        <v>2025264466</v>
-      </c>
-      <c r="E100" t="n">
-        <v>13439293131</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
+        <v>5169497172</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>8939682318</v>
+      </c>
       <c r="G100" t="n">
-        <v>16525595969</v>
+        <v>5165417328</v>
       </c>
       <c r="H100" t="n">
-        <v>2165233412</v>
+        <v>6934030276</v>
       </c>
       <c r="I100" t="n">
-        <v>14682798617</v>
+        <v>7683235286</v>
       </c>
       <c r="J100" t="n">
-        <v>15701434629</v>
+        <v>5684348882</v>
       </c>
       <c r="K100" t="n">
-        <v>13633517771</v>
+        <v>7980250988</v>
       </c>
       <c r="L100" t="n">
-        <v>17455765963</v>
+        <v>8239428161</v>
       </c>
       <c r="M100" t="n">
-        <v>18078674979</v>
+        <v>9773767986</v>
       </c>
       <c r="N100" t="n">
-        <v>18761615080</v>
+        <v>10890633660</v>
       </c>
     </row>
     <row r="101">
@@ -4872,41 +4872,41 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>524171637</v>
+        <v>510910565</v>
       </c>
       <c r="C101" t="n">
-        <v>512676614</v>
+        <v>485820688</v>
       </c>
       <c r="D101" t="n">
-        <v>488626995</v>
-      </c>
-      <c r="E101" t="n">
-        <v>400150529</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
+        <v>397742725</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>539879970</v>
+      </c>
       <c r="G101" t="n">
-        <v>542044678</v>
+        <v>2590871432</v>
       </c>
       <c r="H101" t="n">
-        <v>2591979563</v>
+        <v>1772137055</v>
       </c>
       <c r="I101" t="n">
-        <v>1772028493</v>
+        <v>2422286456</v>
       </c>
       <c r="J101" t="n">
-        <v>2425354192</v>
+        <v>2166886600</v>
       </c>
       <c r="K101" t="n">
-        <v>2170497015</v>
+        <v>2376636570</v>
       </c>
       <c r="L101" t="n">
-        <v>2379491681</v>
+        <v>2214555912</v>
       </c>
       <c r="M101" t="n">
-        <v>2218044088</v>
+        <v>1607585512</v>
       </c>
       <c r="N101" t="n">
-        <v>1611395579</v>
+        <v>1607926523</v>
       </c>
     </row>
     <row r="102">
@@ -4916,41 +4916,41 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-117212278</v>
+        <v>-118152932</v>
       </c>
       <c r="C102" t="n">
-        <v>-119457670</v>
+        <v>-229678028</v>
       </c>
       <c r="D102" t="n">
-        <v>-228772602</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-29229198</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
+        <v>-21980036</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>208861527</v>
+      </c>
       <c r="G102" t="n">
-        <v>198591628</v>
+        <v>955112490</v>
       </c>
       <c r="H102" t="n">
-        <v>904193335</v>
+        <v>969818479</v>
       </c>
       <c r="I102" t="n">
-        <v>929939136</v>
+        <v>976300975</v>
       </c>
       <c r="J102" t="n">
-        <v>929066313</v>
+        <v>800495985</v>
       </c>
       <c r="K102" t="n">
-        <v>762525249</v>
+        <v>840883683</v>
       </c>
       <c r="L102" t="n">
-        <v>805407363</v>
+        <v>647259506</v>
       </c>
       <c r="M102" t="n">
-        <v>615966600</v>
+        <v>491493390</v>
       </c>
       <c r="N102" t="n">
-        <v>468116863</v>
+        <v>389780790</v>
       </c>
     </row>
     <row r="103">
@@ -4960,41 +4960,41 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-2075686326</v>
+        <v>-1859233028</v>
       </c>
       <c r="C103" t="n">
-        <v>-1859684048</v>
+        <v>220128567</v>
       </c>
       <c r="D103" t="n">
-        <v>216422050</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-1669908980</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+        <v>-1674747123</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>-15642806</v>
+      </c>
       <c r="G103" t="n">
-        <v>-7539504</v>
+        <v>2963276676</v>
       </c>
       <c r="H103" t="n">
-        <v>3013087022</v>
+        <v>2539246509</v>
       </c>
       <c r="I103" t="n">
-        <v>2579236191</v>
+        <v>385822465</v>
       </c>
       <c r="J103" t="n">
-        <v>429991512</v>
+        <v>-1569401255</v>
       </c>
       <c r="K103" t="n">
-        <v>-1535038224</v>
+        <v>90934132</v>
       </c>
       <c r="L103" t="n">
-        <v>123559105</v>
+        <v>401360636</v>
       </c>
       <c r="M103" t="n">
-        <v>429164225</v>
+        <v>-1243973869</v>
       </c>
       <c r="N103" t="n">
-        <v>-1224408728</v>
+        <v>-1846644500</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10249275631</v>
+        <v>179377.4206995686</v>
       </c>
       <c r="C2" t="n">
-        <v>2845460021</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8682555345</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>177676.8566036897</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>136580.7099636008</v>
+      </c>
       <c r="F2" t="n">
-        <v>7578341437</v>
+        <v>95396.51217389869</v>
       </c>
       <c r="G2" t="n">
-        <v>2200473957</v>
+        <v>164945.340632739</v>
       </c>
       <c r="H2" t="n">
-        <v>6445309571</v>
+        <v>104848.9349805656</v>
       </c>
       <c r="I2" t="n">
-        <v>7033277571</v>
+        <v>206772.8441505273</v>
       </c>
       <c r="J2" t="n">
-        <v>7896051808</v>
+        <v>225736.2170783182</v>
       </c>
       <c r="K2" t="n">
-        <v>5636905603</v>
+        <v>276497.1395253978</v>
       </c>
       <c r="L2" t="n">
-        <v>9342308506</v>
+        <v>309612.7792337933</v>
       </c>
       <c r="M2" t="n">
-        <v>21639490335</v>
+        <v>362129.3052518862</v>
       </c>
       <c r="N2" t="n">
-        <v>22532798575</v>
+        <v>348236.8158401827</v>
       </c>
     </row>
     <row r="3">
@@ -556,41 +556,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450181656</v>
+        <v>148548.5587424432</v>
       </c>
       <c r="C3" t="n">
-        <v>-695095219</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1233570476</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>107882.3584070822</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>146333.2359602258</v>
+      </c>
       <c r="F3" t="n">
-        <v>1045806806</v>
+        <v>147053.2514315678</v>
       </c>
       <c r="G3" t="n">
-        <v>1041686015</v>
+        <v>163677.5178705937</v>
       </c>
       <c r="H3" t="n">
-        <v>1988271533</v>
+        <v>206118.8111586108</v>
       </c>
       <c r="I3" t="n">
-        <v>2943816003</v>
+        <v>248716.0050194706</v>
       </c>
       <c r="J3" t="n">
-        <v>2065831643</v>
+        <v>164383.0145291494</v>
       </c>
       <c r="K3" t="n">
-        <v>2360668716</v>
+        <v>218473.4574951207</v>
       </c>
       <c r="L3" t="n">
-        <v>2872969394</v>
+        <v>186840.843220724</v>
       </c>
       <c r="M3" t="n">
-        <v>3788338200</v>
+        <v>192982.0663853615</v>
       </c>
       <c r="N3" t="n">
-        <v>3299550833</v>
+        <v>93977.16010945011</v>
       </c>
     </row>
     <row r="4">
@@ -600,41 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-418629668</v>
+        <v>58528.78563792636</v>
       </c>
       <c r="C4" t="n">
-        <v>-5787769255</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3973760174</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>5295.927901549397</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>16156.82637444324</v>
+      </c>
       <c r="F4" t="n">
-        <v>-4954862931</v>
+        <v>-45087.78195726061</v>
       </c>
       <c r="G4" t="n">
-        <v>-9037868592</v>
+        <v>-23073.99125903382</v>
       </c>
       <c r="H4" t="n">
-        <v>-8508396545</v>
+        <v>-17999.48654785132</v>
       </c>
       <c r="I4" t="n">
-        <v>-5238017665</v>
+        <v>31330.75605316851</v>
       </c>
       <c r="J4" t="n">
-        <v>-5673627843</v>
+        <v>-2932.416282303409</v>
       </c>
       <c r="K4" t="n">
-        <v>-3422823821</v>
+        <v>50934.14934170419</v>
       </c>
       <c r="L4" t="n">
-        <v>-2643821304</v>
+        <v>103042.1754146603</v>
       </c>
       <c r="M4" t="n">
-        <v>1716978825</v>
+        <v>177109.6280394076</v>
       </c>
       <c r="N4" t="n">
-        <v>773084959</v>
+        <v>62773.86857186748</v>
       </c>
     </row>
     <row r="5">
@@ -644,41 +644,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37421158</v>
+        <v>6047.664347305237</v>
       </c>
       <c r="C5" t="n">
-        <v>-272942000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-133209193</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>-17816.37822070499</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>-197.2268961224836</v>
+      </c>
       <c r="F5" t="n">
-        <v>227732550</v>
+        <v>-10627.16325187987</v>
       </c>
       <c r="G5" t="n">
-        <v>-364923906</v>
+        <v>-14989.86089631222</v>
       </c>
       <c r="H5" t="n">
-        <v>-388614737</v>
+        <v>13330.90598459396</v>
       </c>
       <c r="I5" t="n">
-        <v>627865520</v>
+        <v>42191.88388678899</v>
       </c>
       <c r="J5" t="n">
-        <v>1947762212</v>
+        <v>66882.90494126041</v>
       </c>
       <c r="K5" t="n">
-        <v>2810896901</v>
+        <v>61751.71183904312</v>
       </c>
       <c r="L5" t="n">
-        <v>1832958133</v>
+        <v>43983.04739165064</v>
       </c>
       <c r="M5" t="n">
-        <v>1779817497</v>
+        <v>24444.75461354707</v>
       </c>
       <c r="N5" t="n">
-        <v>1435693329</v>
+        <v>16853.32424912012</v>
       </c>
     </row>
     <row r="6">
@@ -688,41 +688,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1246869266</v>
+        <v>17731.88023172951</v>
       </c>
       <c r="C6" t="n">
-        <v>588627233</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1791852440</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>-16527.90538312584</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>56936.84772801916</v>
+      </c>
       <c r="F6" t="n">
-        <v>4477866687</v>
+        <v>32407.29388397371</v>
       </c>
       <c r="G6" t="n">
-        <v>3541743953</v>
+        <v>77284.90938700855</v>
       </c>
       <c r="H6" t="n">
-        <v>5624073778</v>
+        <v>101304.7565320865</v>
       </c>
       <c r="I6" t="n">
-        <v>5734361370</v>
+        <v>165865.7900954004</v>
       </c>
       <c r="J6" t="n">
-        <v>2898657277</v>
+        <v>104572.1289438682</v>
       </c>
       <c r="K6" t="n">
-        <v>1709864389</v>
+        <v>99312.64258724992</v>
       </c>
       <c r="L6" t="n">
-        <v>2344252586</v>
+        <v>61765.83192171133</v>
       </c>
       <c r="M6" t="n">
-        <v>1421472621</v>
+        <v>68118.19566893889</v>
       </c>
       <c r="N6" t="n">
-        <v>2466681520</v>
+        <v>52748.60163867463</v>
       </c>
     </row>
     <row r="7">
@@ -732,41 +732,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1292238323</v>
+        <v>78876.43203238999</v>
       </c>
       <c r="C7" t="n">
-        <v>943747913</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1683196543</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>71051.51767529974</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>98874.37356148436</v>
+      </c>
       <c r="F7" t="n">
-        <v>2136755122</v>
+        <v>78213.93565739614</v>
       </c>
       <c r="G7" t="n">
-        <v>1471578610</v>
+        <v>93396.71022168864</v>
       </c>
       <c r="H7" t="n">
-        <v>2623307926</v>
+        <v>104319.891201426</v>
       </c>
       <c r="I7" t="n">
-        <v>2280334105</v>
+        <v>129488.0220803466</v>
       </c>
       <c r="J7" t="n">
-        <v>2730057660</v>
+        <v>139331.0883886438</v>
       </c>
       <c r="K7" t="n">
-        <v>3615384387</v>
+        <v>153455.4386686097</v>
       </c>
       <c r="L7" t="n">
-        <v>2808070941</v>
+        <v>150754.7481597993</v>
       </c>
       <c r="M7" t="n">
-        <v>2806816871</v>
+        <v>118121.7231619645</v>
       </c>
       <c r="N7" t="n">
-        <v>1490491999</v>
+        <v>81319.84731416375</v>
       </c>
     </row>
     <row r="8">
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21084807994</v>
+        <v>206551.412485224</v>
       </c>
       <c r="C8" t="n">
-        <v>8784743174</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38944852382</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>212301.8028012847</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>598119.3900880116</v>
+      </c>
       <c r="F8" t="n">
-        <v>66484401383</v>
+        <v>389607.3868825994</v>
       </c>
       <c r="G8" t="n">
-        <v>44805465131</v>
+        <v>348485.2655042072</v>
       </c>
       <c r="H8" t="n">
-        <v>49454060636</v>
+        <v>353198.1094122675</v>
       </c>
       <c r="I8" t="n">
-        <v>48717332101</v>
+        <v>456119.8510371537</v>
       </c>
       <c r="J8" t="n">
-        <v>39559024788</v>
+        <v>391047.5234547175</v>
       </c>
       <c r="K8" t="n">
-        <v>52926340346</v>
+        <v>449808.9003599206</v>
       </c>
       <c r="L8" t="n">
-        <v>56347132810</v>
+        <v>556060.3000541452</v>
       </c>
       <c r="M8" t="n">
-        <v>74050266753</v>
+        <v>700341.9656006204</v>
       </c>
       <c r="N8" t="n">
-        <v>86875572905</v>
+        <v>618404.2144957302</v>
       </c>
     </row>
     <row r="9">
@@ -820,41 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461836192</v>
+        <v>50550.10651443713</v>
       </c>
       <c r="C9" t="n">
-        <v>162801020</v>
-      </c>
-      <c r="D9" t="n">
-        <v>886780618</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>48784.46796723059</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>70727.80429068586</v>
+      </c>
       <c r="F9" t="n">
-        <v>981800919</v>
+        <v>57250.03949117025</v>
       </c>
       <c r="G9" t="n">
-        <v>857808084</v>
+        <v>63244.12531581028</v>
       </c>
       <c r="H9" t="n">
-        <v>830869148</v>
+        <v>65416.15285671802</v>
       </c>
       <c r="I9" t="n">
-        <v>723555928</v>
+        <v>79859.82782027592</v>
       </c>
       <c r="J9" t="n">
-        <v>534142520</v>
+        <v>41704.0770180436</v>
       </c>
       <c r="K9" t="n">
-        <v>815168757</v>
+        <v>72468.58083406759</v>
       </c>
       <c r="L9" t="n">
-        <v>152811534</v>
+        <v>27686.33389903864</v>
       </c>
       <c r="M9" t="n">
-        <v>-315525012</v>
+        <v>24440.23050614738</v>
       </c>
       <c r="N9" t="n">
-        <v>-286939914</v>
+        <v>991.4737498638838</v>
       </c>
     </row>
     <row r="10">
@@ -864,41 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428477714</v>
+        <v>170233.3143518367</v>
       </c>
       <c r="C10" t="n">
-        <v>29951923</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2066989280</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>135553.4552787562</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>242037.7070790458</v>
+      </c>
       <c r="F10" t="n">
-        <v>2677782450</v>
+        <v>201225.4546073713</v>
       </c>
       <c r="G10" t="n">
-        <v>1264073596</v>
+        <v>220106.2427096791</v>
       </c>
       <c r="H10" t="n">
-        <v>3022244556</v>
+        <v>225050.2038547054</v>
       </c>
       <c r="I10" t="n">
-        <v>3003200384</v>
+        <v>275935.9012679885</v>
       </c>
       <c r="J10" t="n">
-        <v>2773366863</v>
+        <v>230025.6302026392</v>
       </c>
       <c r="K10" t="n">
-        <v>2199533031</v>
+        <v>303716.1724570408</v>
       </c>
       <c r="L10" t="n">
-        <v>1659373630</v>
+        <v>317167.7664679405</v>
       </c>
       <c r="M10" t="n">
-        <v>455749373</v>
+        <v>335864.0300872597</v>
       </c>
       <c r="N10" t="n">
-        <v>1428965358</v>
+        <v>250982.7768220317</v>
       </c>
     </row>
     <row r="11">
@@ -908,41 +908,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>877317799</v>
+        <v>42915.46444287224</v>
       </c>
       <c r="C11" t="n">
-        <v>778055432</v>
-      </c>
-      <c r="D11" t="n">
-        <v>878407494</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>39543.21967449387</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>44267.22619734707</v>
+      </c>
       <c r="F11" t="n">
-        <v>770040062</v>
+        <v>46781.70928794349</v>
       </c>
       <c r="G11" t="n">
-        <v>329631874</v>
+        <v>36754.73535626289</v>
       </c>
       <c r="H11" t="n">
-        <v>761240995</v>
+        <v>39092.25985044563</v>
       </c>
       <c r="I11" t="n">
-        <v>356140880</v>
+        <v>42437.47260928481</v>
       </c>
       <c r="J11" t="n">
-        <v>191096945</v>
+        <v>15784.97398106947</v>
       </c>
       <c r="K11" t="n">
-        <v>221420807</v>
+        <v>34997.2689335627</v>
       </c>
       <c r="L11" t="n">
-        <v>339643135</v>
+        <v>18674.40412554035</v>
       </c>
       <c r="M11" t="n">
-        <v>42515785</v>
+        <v>29676.60214984904</v>
       </c>
       <c r="N11" t="n">
-        <v>203095687</v>
+        <v>16735.65522280402</v>
       </c>
     </row>
     <row r="12">
@@ -952,41 +952,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168343391</v>
+        <v>41726.16738309548</v>
       </c>
       <c r="C12" t="n">
-        <v>-34755936</v>
-      </c>
-      <c r="D12" t="n">
-        <v>446382544</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>6958.823161486896</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>80327.93422269879</v>
+      </c>
       <c r="F12" t="n">
-        <v>1222758573</v>
+        <v>118450.8690024467</v>
       </c>
       <c r="G12" t="n">
-        <v>2738770152</v>
+        <v>123270.0585610826</v>
       </c>
       <c r="H12" t="n">
-        <v>2604022365</v>
+        <v>138185.1780300256</v>
       </c>
       <c r="I12" t="n">
-        <v>2323647415</v>
+        <v>134081.2985817772</v>
       </c>
       <c r="J12" t="n">
-        <v>1895372444</v>
+        <v>117723.9405089992</v>
       </c>
       <c r="K12" t="n">
-        <v>2078398026</v>
+        <v>129309.6478993102</v>
       </c>
       <c r="L12" t="n">
-        <v>1683964795</v>
+        <v>128227.5409344197</v>
       </c>
       <c r="M12" t="n">
-        <v>1641098980</v>
+        <v>141981.0106769572</v>
       </c>
       <c r="N12" t="n">
-        <v>2077046727</v>
+        <v>120971.0370654558</v>
       </c>
     </row>
     <row r="13">
@@ -996,41 +996,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-793515284</v>
+        <v>-14869.86036548984</v>
       </c>
       <c r="C13" t="n">
-        <v>-2645417963</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1791067325</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>-28127.80029418392</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>26348.43720434039</v>
+      </c>
       <c r="F13" t="n">
-        <v>2231955736</v>
+        <v>-9505.223321361067</v>
       </c>
       <c r="G13" t="n">
-        <v>1019811233</v>
+        <v>-17039.48079129734</v>
       </c>
       <c r="H13" t="n">
-        <v>1294321878</v>
+        <v>58468.97173863167</v>
       </c>
       <c r="I13" t="n">
-        <v>3622203946</v>
+        <v>82395.39855956438</v>
       </c>
       <c r="J13" t="n">
-        <v>3061625108</v>
+        <v>79173.24883368195</v>
       </c>
       <c r="K13" t="n">
-        <v>2993489179</v>
+        <v>88830.25505617168</v>
       </c>
       <c r="L13" t="n">
-        <v>2769529994</v>
+        <v>86059.69844536269</v>
       </c>
       <c r="M13" t="n">
-        <v>3777865791</v>
+        <v>98367.11076959896</v>
       </c>
       <c r="N13" t="n">
-        <v>3288129433</v>
+        <v>61935.98156868197</v>
       </c>
     </row>
     <row r="14">
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-47256605802</v>
+        <v>-97699.53111328238</v>
       </c>
       <c r="C14" t="n">
-        <v>-57400684314</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45617924246</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>-147361.7449272327</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>246664.7129581209</v>
+      </c>
       <c r="F14" t="n">
-        <v>111711329864</v>
+        <v>163697.0294336058</v>
       </c>
       <c r="G14" t="n">
-        <v>16709810567</v>
+        <v>-36977.4645920663</v>
       </c>
       <c r="H14" t="n">
-        <v>5408902506</v>
+        <v>196092.6298838958</v>
       </c>
       <c r="I14" t="n">
-        <v>68441601558</v>
+        <v>353215.2020392172</v>
       </c>
       <c r="J14" t="n">
-        <v>-10829121722</v>
+        <v>382191.0154863214</v>
       </c>
       <c r="K14" t="n">
-        <v>89199206739</v>
+        <v>587487.5070720265</v>
       </c>
       <c r="L14" t="n">
-        <v>58496316475</v>
+        <v>514885.1116033469</v>
       </c>
       <c r="M14" t="n">
-        <v>103043495974</v>
+        <v>669085.5260567536</v>
       </c>
       <c r="N14" t="n">
-        <v>141757174491</v>
+        <v>505428.8103426909</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9119990480</v>
+        <v>329267.6330968759</v>
       </c>
       <c r="C15" t="n">
-        <v>-7243505243</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8207580073</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>219770.1228094368</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>392780.8473202973</v>
+      </c>
       <c r="F15" t="n">
-        <v>9436182975</v>
+        <v>167831.7345224124</v>
       </c>
       <c r="G15" t="n">
-        <v>2526205647</v>
+        <v>203889.1861644558</v>
       </c>
       <c r="H15" t="n">
-        <v>2898370589</v>
+        <v>261895.5240982344</v>
       </c>
       <c r="I15" t="n">
-        <v>-6637608871</v>
+        <v>428394.0915436593</v>
       </c>
       <c r="J15" t="n">
-        <v>8536303680</v>
+        <v>416207.6803814882</v>
       </c>
       <c r="K15" t="n">
-        <v>19569638449</v>
+        <v>781102.0969591785</v>
       </c>
       <c r="L15" t="n">
-        <v>25434181487</v>
+        <v>877015.6599913697</v>
       </c>
       <c r="M15" t="n">
-        <v>29476528285</v>
+        <v>900318.562986473</v>
       </c>
       <c r="N15" t="n">
-        <v>38958037073</v>
+        <v>776207.0263345657</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2438542875</v>
+        <v>123142.2411046451</v>
       </c>
       <c r="C16" t="n">
-        <v>-1418080144</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2162878913</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>-93043.01626213937</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>182038.1192419345</v>
+      </c>
       <c r="F16" t="n">
-        <v>3929557116</v>
+        <v>-77415.93703822956</v>
       </c>
       <c r="G16" t="n">
-        <v>-4593018956</v>
+        <v>-31469.94506876492</v>
       </c>
       <c r="H16" t="n">
-        <v>5128812322</v>
+        <v>46898.05822426282</v>
       </c>
       <c r="I16" t="n">
-        <v>10329503537</v>
+        <v>401303.5187968808</v>
       </c>
       <c r="J16" t="n">
-        <v>6698833689</v>
+        <v>196271.6893068562</v>
       </c>
       <c r="K16" t="n">
-        <v>6613761799</v>
+        <v>407365.4999171318</v>
       </c>
       <c r="L16" t="n">
-        <v>12130376129</v>
+        <v>575217.8964619533</v>
       </c>
       <c r="M16" t="n">
-        <v>25908065620</v>
+        <v>754776.9967993064</v>
       </c>
       <c r="N16" t="n">
-        <v>48198304462</v>
+        <v>731497.1052574374</v>
       </c>
     </row>
     <row r="17">
@@ -1172,41 +1172,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>129117921</v>
+        <v>10956.78227980276</v>
       </c>
       <c r="C17" t="n">
-        <v>33515848</v>
-      </c>
-      <c r="D17" t="n">
-        <v>216376060</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>14162.73597321088</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>19352.87878863593</v>
+      </c>
       <c r="F17" t="n">
-        <v>381079682</v>
+        <v>19387.95330221377</v>
       </c>
       <c r="G17" t="n">
-        <v>238881025</v>
+        <v>21145.27117774006</v>
       </c>
       <c r="H17" t="n">
-        <v>341387530</v>
+        <v>23806.81268172093</v>
       </c>
       <c r="I17" t="n">
-        <v>357325232</v>
+        <v>20353.76168475397</v>
       </c>
       <c r="J17" t="n">
-        <v>234884325</v>
+        <v>21696.6852642399</v>
       </c>
       <c r="K17" t="n">
-        <v>268153975</v>
+        <v>18412.54659197694</v>
       </c>
       <c r="L17" t="n">
-        <v>149190124</v>
+        <v>8077.73701404397</v>
       </c>
       <c r="M17" t="n">
-        <v>74485256</v>
+        <v>15887.20576296363</v>
       </c>
       <c r="N17" t="n">
-        <v>33997657</v>
+        <v>-2995.361603469608</v>
       </c>
     </row>
     <row r="18">
@@ -1216,41 +1216,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-517216062</v>
+        <v>-17732.51860174585</v>
       </c>
       <c r="C18" t="n">
-        <v>-2200795073</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-75511712</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>-46921.67822537853</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3928.491593605137</v>
+      </c>
       <c r="F18" t="n">
-        <v>445899254</v>
+        <v>127759.7944641647</v>
       </c>
       <c r="G18" t="n">
-        <v>3122176119</v>
+        <v>124666.6291074502</v>
       </c>
       <c r="H18" t="n">
-        <v>4471643168</v>
+        <v>180495.0001079645</v>
       </c>
       <c r="I18" t="n">
-        <v>5007436778</v>
+        <v>144904.3959780005</v>
       </c>
       <c r="J18" t="n">
-        <v>2750287846</v>
+        <v>140007.4986402061</v>
       </c>
       <c r="K18" t="n">
-        <v>4901251522</v>
+        <v>186349.2460995247</v>
       </c>
       <c r="L18" t="n">
-        <v>5053160413</v>
+        <v>133055.1046862789</v>
       </c>
       <c r="M18" t="n">
-        <v>3888158238</v>
+        <v>142063.820305431</v>
       </c>
       <c r="N18" t="n">
-        <v>3989204517</v>
+        <v>74650.19398425778</v>
       </c>
     </row>
     <row r="19">
@@ -1260,41 +1260,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19453799</v>
+        <v>6051.61588097501</v>
       </c>
       <c r="C19" t="n">
-        <v>-18704495</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20342998</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>1319.481700971848</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>12889.85248762197</v>
+      </c>
       <c r="F19" t="n">
-        <v>134832389</v>
+        <v>15051.20169484665</v>
       </c>
       <c r="G19" t="n">
-        <v>135808802</v>
+        <v>13782.03344307168</v>
       </c>
       <c r="H19" t="n">
-        <v>154047475</v>
+        <v>16165.40228674086</v>
       </c>
       <c r="I19" t="n">
-        <v>210333541</v>
+        <v>16872.06940679904</v>
       </c>
       <c r="J19" t="n">
-        <v>207974118</v>
+        <v>16282.52128649044</v>
       </c>
       <c r="K19" t="n">
-        <v>189094761</v>
+        <v>15917.47967888943</v>
       </c>
       <c r="L19" t="n">
-        <v>173195112</v>
+        <v>16088.25358447087</v>
       </c>
       <c r="M19" t="n">
-        <v>168015451</v>
+        <v>14581.74052962546</v>
       </c>
       <c r="N19" t="n">
-        <v>117901645</v>
+        <v>17208.47246735498</v>
       </c>
     </row>
     <row r="20">
@@ -1304,41 +1304,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171208981</v>
+        <v>21345.65339177804</v>
       </c>
       <c r="C20" t="n">
-        <v>238322102</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1588236467</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>26125.82201510715</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>42823.41644900554</v>
+      </c>
       <c r="F20" t="n">
-        <v>1651216207</v>
+        <v>54558.00042532366</v>
       </c>
       <c r="G20" t="n">
-        <v>1374930957</v>
+        <v>57507.12172324973</v>
       </c>
       <c r="H20" t="n">
-        <v>1758551290</v>
+        <v>58875.6237967593</v>
       </c>
       <c r="I20" t="n">
-        <v>1971311389</v>
+        <v>60584.6780609822</v>
       </c>
       <c r="J20" t="n">
-        <v>1347449218</v>
+        <v>59729.78435045422</v>
       </c>
       <c r="K20" t="n">
-        <v>1452480374</v>
+        <v>57456.04431238188</v>
       </c>
       <c r="L20" t="n">
-        <v>1370056770</v>
+        <v>62181.06680846535</v>
       </c>
       <c r="M20" t="n">
-        <v>1440287593</v>
+        <v>69778.67221124138</v>
       </c>
       <c r="N20" t="n">
-        <v>2106668193</v>
+        <v>67416.68910603164</v>
       </c>
     </row>
     <row r="21">
@@ -1348,41 +1348,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-75408084</v>
+        <v>-3481.187802712739</v>
       </c>
       <c r="C21" t="n">
-        <v>-27539948</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23171757</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>-8029.835533180117</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>8644.526323029671</v>
+      </c>
       <c r="F21" t="n">
-        <v>52086649</v>
+        <v>6989.096738869464</v>
       </c>
       <c r="G21" t="n">
-        <v>16456322</v>
+        <v>3631.562526429322</v>
       </c>
       <c r="H21" t="n">
-        <v>46729571</v>
+        <v>13726.16300234269</v>
       </c>
       <c r="I21" t="n">
-        <v>118138928</v>
+        <v>12046.54614359905</v>
       </c>
       <c r="J21" t="n">
-        <v>102122668</v>
+        <v>11902.63502809378</v>
       </c>
       <c r="K21" t="n">
-        <v>75818183</v>
+        <v>7871.376707719835</v>
       </c>
       <c r="L21" t="n">
-        <v>45362888</v>
+        <v>8388.890182190677</v>
       </c>
       <c r="M21" t="n">
-        <v>52003833</v>
+        <v>-7670.830659319422</v>
       </c>
       <c r="N21" t="n">
-        <v>-27199737</v>
+        <v>-7230.457243758368</v>
       </c>
     </row>
     <row r="22">
@@ -1392,41 +1392,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120391569</v>
+        <v>22623.06798161816</v>
       </c>
       <c r="C22" t="n">
-        <v>64556462</v>
-      </c>
-      <c r="D22" t="n">
-        <v>168770333</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>17140.22569817462</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>21434.92835103645</v>
+      </c>
       <c r="F22" t="n">
-        <v>208444410</v>
+        <v>15325.6330496673</v>
       </c>
       <c r="G22" t="n">
-        <v>125525350</v>
+        <v>19741.84725611767</v>
       </c>
       <c r="H22" t="n">
-        <v>211097491</v>
+        <v>18661.45878803576</v>
       </c>
       <c r="I22" t="n">
-        <v>156803898</v>
+        <v>17027.75507419577</v>
       </c>
       <c r="J22" t="n">
-        <v>86255233</v>
+        <v>3696.609446373513</v>
       </c>
       <c r="K22" t="n">
-        <v>9951459</v>
+        <v>3858.864371614852</v>
       </c>
       <c r="L22" t="n">
-        <v>-15392879</v>
+        <v>7676.807347944666</v>
       </c>
       <c r="M22" t="n">
-        <v>12811273</v>
+        <v>9780.501991884195</v>
       </c>
       <c r="N22" t="n">
-        <v>4512327</v>
+        <v>-1809.673709389895</v>
       </c>
     </row>
     <row r="23">
@@ -1436,41 +1436,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2567177829</v>
+        <v>-50337.5098404054</v>
       </c>
       <c r="C23" t="n">
-        <v>-3570551408</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-1945524174</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>-71136.42014674198</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>26418.60709685318</v>
+      </c>
       <c r="F23" t="n">
-        <v>475997664</v>
+        <v>181804.348524984</v>
       </c>
       <c r="G23" t="n">
-        <v>4448979370</v>
+        <v>163061.200901607</v>
       </c>
       <c r="H23" t="n">
-        <v>4698969249</v>
+        <v>194257.3529368318</v>
       </c>
       <c r="I23" t="n">
-        <v>5029308266</v>
+        <v>234307.1592621131</v>
       </c>
       <c r="J23" t="n">
-        <v>4397642277</v>
+        <v>202823.8456094717</v>
       </c>
       <c r="K23" t="n">
-        <v>5349213940</v>
+        <v>212906.1324540377</v>
       </c>
       <c r="L23" t="n">
-        <v>5693819903</v>
+        <v>241971.6381487334</v>
       </c>
       <c r="M23" t="n">
-        <v>6440201731</v>
+        <v>225953.0074587917</v>
       </c>
       <c r="N23" t="n">
-        <v>6754570800</v>
+        <v>215386.7657096169</v>
       </c>
     </row>
     <row r="24">
@@ -1480,41 +1480,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>180526452</v>
+        <v>2521.155601768966</v>
       </c>
       <c r="C24" t="n">
-        <v>-60497100</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-8353216</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>-6392.805658826078</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5887.618478361587</v>
+      </c>
       <c r="F24" t="n">
-        <v>30497231</v>
+        <v>4072.879330211018</v>
       </c>
       <c r="G24" t="n">
-        <v>19685399</v>
+        <v>5931.025644624927</v>
       </c>
       <c r="H24" t="n">
-        <v>139226958</v>
+        <v>2959.41470530957</v>
       </c>
       <c r="I24" t="n">
-        <v>-152201405</v>
+        <v>34576.62367984052</v>
       </c>
       <c r="J24" t="n">
-        <v>16250677</v>
+        <v>13337.83722682168</v>
       </c>
       <c r="K24" t="n">
-        <v>68889366</v>
+        <v>10814.72846172071</v>
       </c>
       <c r="L24" t="n">
-        <v>-146041568</v>
+        <v>-3647.955680866663</v>
       </c>
       <c r="M24" t="n">
-        <v>-205306837</v>
+        <v>6540.288909426838</v>
       </c>
       <c r="N24" t="n">
-        <v>-176320104</v>
+        <v>-10627.36667531927</v>
       </c>
     </row>
     <row r="25">
@@ -1524,41 +1524,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-452900733</v>
+        <v>-18987.8288655466</v>
       </c>
       <c r="C25" t="n">
-        <v>-1854816624</v>
-      </c>
-      <c r="D25" t="n">
-        <v>126859746</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>-75793.59724576373</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>117571.494983419</v>
+      </c>
       <c r="F25" t="n">
-        <v>1839413789</v>
+        <v>306081.0321782445</v>
       </c>
       <c r="G25" t="n">
-        <v>5584820774</v>
+        <v>226952.784577498</v>
       </c>
       <c r="H25" t="n">
-        <v>3932538051</v>
+        <v>174070.4971422332</v>
       </c>
       <c r="I25" t="n">
-        <v>3458146230</v>
+        <v>191788.7669134372</v>
       </c>
       <c r="J25" t="n">
-        <v>2525606102</v>
+        <v>181883.3264520919</v>
       </c>
       <c r="K25" t="n">
-        <v>2465148318</v>
+        <v>178516.2885436502</v>
       </c>
       <c r="L25" t="n">
-        <v>1991612279</v>
+        <v>170804.7229669357</v>
       </c>
       <c r="M25" t="n">
-        <v>2579690422</v>
+        <v>97887.26193112264</v>
       </c>
       <c r="N25" t="n">
-        <v>886107160</v>
+        <v>25039.93818592919</v>
       </c>
     </row>
     <row r="26">
@@ -1568,41 +1568,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225586151</v>
+        <v>13733.9295396606</v>
       </c>
       <c r="C26" t="n">
-        <v>-6009299</v>
-      </c>
-      <c r="D26" t="n">
-        <v>138334597</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>14451.55766278605</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>-6442.487104609764</v>
+      </c>
       <c r="F26" t="n">
-        <v>-374351079</v>
+        <v>-17236.61669542403</v>
       </c>
       <c r="G26" t="n">
-        <v>-188441820</v>
+        <v>3791.52784154298</v>
       </c>
       <c r="H26" t="n">
-        <v>-135848898</v>
+        <v>29528.18509664646</v>
       </c>
       <c r="I26" t="n">
-        <v>643289470</v>
+        <v>28783.52751782559</v>
       </c>
       <c r="J26" t="n">
-        <v>-27043415</v>
+        <v>30730.99788369482</v>
       </c>
       <c r="K26" t="n">
-        <v>742132813</v>
+        <v>41246.83592106192</v>
       </c>
       <c r="L26" t="n">
-        <v>1275199709</v>
+        <v>40368.03913223266</v>
       </c>
       <c r="M26" t="n">
-        <v>1190463561</v>
+        <v>37663.24370055277</v>
       </c>
       <c r="N26" t="n">
-        <v>722509285</v>
+        <v>38496.74874852375</v>
       </c>
     </row>
     <row r="27">
@@ -1612,41 +1612,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>207290863</v>
+        <v>18920.91877684719</v>
       </c>
       <c r="C27" t="n">
-        <v>221198362</v>
-      </c>
-      <c r="D27" t="n">
-        <v>442894805</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+        <v>15580.83606934489</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>18830.62762929641</v>
+      </c>
       <c r="F27" t="n">
-        <v>351801800</v>
+        <v>7394.57214673919</v>
       </c>
       <c r="G27" t="n">
-        <v>288233816</v>
+        <v>34316.00176340324</v>
       </c>
       <c r="H27" t="n">
-        <v>453064536</v>
+        <v>28697.28130082175</v>
       </c>
       <c r="I27" t="n">
-        <v>199303432</v>
+        <v>131.386757831533</v>
       </c>
       <c r="J27" t="n">
-        <v>-46818523</v>
+        <v>-9004.194992536857</v>
       </c>
       <c r="K27" t="n">
-        <v>-64482849</v>
+        <v>-13117.01807807156</v>
       </c>
       <c r="L27" t="n">
-        <v>-361123105</v>
+        <v>-14569.08088325637</v>
       </c>
       <c r="M27" t="n">
-        <v>-372056975</v>
+        <v>-18560.59934541065</v>
       </c>
       <c r="N27" t="n">
-        <v>-360851780</v>
+        <v>-30709.43748032399</v>
       </c>
     </row>
     <row r="28">
@@ -1656,41 +1656,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-105903582</v>
+        <v>-7916.740235594434</v>
       </c>
       <c r="C28" t="n">
-        <v>-417567658</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-211437022</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>-16249.34299433032</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>-13031.48014140987</v>
+      </c>
       <c r="F28" t="n">
-        <v>-471686232</v>
+        <v>-19880.04210999847</v>
       </c>
       <c r="G28" t="n">
-        <v>-431094008</v>
+        <v>-20467.98440506459</v>
       </c>
       <c r="H28" t="n">
-        <v>-236216491</v>
+        <v>-16692.92000684566</v>
       </c>
       <c r="I28" t="n">
-        <v>-223116242</v>
+        <v>-11619.5437593951</v>
       </c>
       <c r="J28" t="n">
-        <v>-323021887</v>
+        <v>-12743.11334091072</v>
       </c>
       <c r="K28" t="n">
-        <v>160976248</v>
+        <v>16073.33777768642</v>
       </c>
       <c r="L28" t="n">
-        <v>66152919</v>
+        <v>13885.18594396912</v>
       </c>
       <c r="M28" t="n">
-        <v>228821055</v>
+        <v>3312.712416285469</v>
       </c>
       <c r="N28" t="n">
-        <v>-35178299</v>
+        <v>12295.16031573</v>
       </c>
     </row>
     <row r="29">
@@ -1700,41 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>908329</v>
+        <v>2045.371101678915</v>
       </c>
       <c r="C29" t="n">
-        <v>690408</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1004233</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>1530.542242698883</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>2132.630272921248</v>
+      </c>
       <c r="F29" t="n">
-        <v>1705699</v>
+        <v>2519.958408892853</v>
       </c>
       <c r="G29" t="n">
-        <v>2205775</v>
+        <v>3346.044755774845</v>
       </c>
       <c r="H29" t="n">
-        <v>4232293</v>
+        <v>3075.056862563123</v>
       </c>
       <c r="I29" t="n">
-        <v>1976995</v>
+        <v>4134.794364322766</v>
       </c>
       <c r="J29" t="n">
-        <v>5048251</v>
+        <v>4011.774795234591</v>
       </c>
       <c r="K29" t="n">
-        <v>3485346</v>
+        <v>3463.099245757665</v>
       </c>
       <c r="L29" t="n">
-        <v>2628735</v>
+        <v>4258.540960283901</v>
       </c>
       <c r="M29" t="n">
-        <v>4262959</v>
+        <v>3286.803171187165</v>
       </c>
       <c r="N29" t="n">
-        <v>2040981</v>
+        <v>1527.438479495633</v>
       </c>
     </row>
     <row r="30">
@@ -1744,41 +1744,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54560</v>
+        <v>466.6622069442</v>
       </c>
       <c r="C30" t="n">
-        <v>27466</v>
-      </c>
-      <c r="D30" t="n">
-        <v>35273</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>475.8349389323207</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>879.6861674810777</v>
+      </c>
       <c r="F30" t="n">
-        <v>94894</v>
+        <v>904.442954373923</v>
       </c>
       <c r="G30" t="n">
-        <v>82381</v>
+        <v>1345.294896867863</v>
       </c>
       <c r="H30" t="n">
-        <v>389711</v>
+        <v>2074.394466722492</v>
       </c>
       <c r="I30" t="n">
-        <v>1294703</v>
+        <v>2258.996561529897</v>
       </c>
       <c r="J30" t="n">
-        <v>1528036</v>
+        <v>2164.35969321764</v>
       </c>
       <c r="K30" t="n">
-        <v>1429958</v>
+        <v>1958.413421301092</v>
       </c>
       <c r="L30" t="n">
-        <v>1290872</v>
+        <v>1907.729358566667</v>
       </c>
       <c r="M30" t="n">
-        <v>1291009</v>
+        <v>1881.549655193643</v>
       </c>
       <c r="N30" t="n">
-        <v>1204051</v>
+        <v>1800.700829044318</v>
       </c>
     </row>
     <row r="31">
@@ -1788,41 +1788,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5839288</v>
+        <v>2807.121366866427</v>
       </c>
       <c r="C31" t="n">
-        <v>4988636</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3732928</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+        <v>2434.218180233339</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>2379.284998392369</v>
+      </c>
       <c r="F31" t="n">
-        <v>3253813</v>
+        <v>1338.385744232166</v>
       </c>
       <c r="G31" t="n">
-        <v>2862260</v>
+        <v>2761.862404227085</v>
       </c>
       <c r="H31" t="n">
-        <v>6767465</v>
+        <v>2199.743882410292</v>
       </c>
       <c r="I31" t="n">
-        <v>6202892</v>
+        <v>3508.724076439874</v>
       </c>
       <c r="J31" t="n">
-        <v>6269038</v>
+        <v>3606.611605608636</v>
       </c>
       <c r="K31" t="n">
-        <v>7352405</v>
+        <v>2670.439458508504</v>
       </c>
       <c r="L31" t="n">
-        <v>4099955</v>
+        <v>3147.755592629014</v>
       </c>
       <c r="M31" t="n">
-        <v>6288676</v>
+        <v>1984.466042235567</v>
       </c>
       <c r="N31" t="n">
-        <v>2054994</v>
+        <v>160.0507474587794</v>
       </c>
     </row>
     <row r="32">
@@ -1832,41 +1832,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-925002430</v>
+        <v>-1510.589922854218</v>
       </c>
       <c r="C32" t="n">
-        <v>-833039677</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-989413704</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+        <v>-3120.382127891203</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>7893.044613393989</v>
+      </c>
       <c r="F32" t="n">
-        <v>-604852172</v>
+        <v>16989.49790714151</v>
       </c>
       <c r="G32" t="n">
-        <v>-468604768</v>
+        <v>17890.12672717205</v>
       </c>
       <c r="H32" t="n">
-        <v>-526472982</v>
+        <v>20339.00010303427</v>
       </c>
       <c r="I32" t="n">
-        <v>-233077375</v>
+        <v>21733.0694502204</v>
       </c>
       <c r="J32" t="n">
-        <v>248906906</v>
+        <v>22586.45186959493</v>
       </c>
       <c r="K32" t="n">
-        <v>759068189</v>
+        <v>23305.6176481247</v>
       </c>
       <c r="L32" t="n">
-        <v>820788307</v>
+        <v>10678.38343041802</v>
       </c>
       <c r="M32" t="n">
-        <v>927148607</v>
+        <v>9802.573020238568</v>
       </c>
       <c r="N32" t="n">
-        <v>937960135</v>
+        <v>11002.29824250937</v>
       </c>
     </row>
     <row r="33">
@@ -1876,41 +1876,41 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-41420657</v>
+        <v>-2745.850438841654</v>
       </c>
       <c r="C33" t="n">
-        <v>-56536327</v>
-      </c>
-      <c r="D33" t="n">
-        <v>18183374</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+        <v>-4743.243417660196</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4292.310102216635</v>
+      </c>
       <c r="F33" t="n">
-        <v>35677958</v>
+        <v>16190.36115365079</v>
       </c>
       <c r="G33" t="n">
-        <v>69214731</v>
+        <v>20004.18524101149</v>
       </c>
       <c r="H33" t="n">
-        <v>134903736</v>
+        <v>21473.8884067552</v>
       </c>
       <c r="I33" t="n">
-        <v>144664320</v>
+        <v>24343.07853254782</v>
       </c>
       <c r="J33" t="n">
-        <v>110057857</v>
+        <v>26580.96264283325</v>
       </c>
       <c r="K33" t="n">
-        <v>168314581</v>
+        <v>28354.07215660502</v>
       </c>
       <c r="L33" t="n">
-        <v>168497033</v>
+        <v>28076.68280597067</v>
       </c>
       <c r="M33" t="n">
-        <v>171075511</v>
+        <v>27689.43773934539</v>
       </c>
       <c r="N33" t="n">
-        <v>160399557</v>
+        <v>19189.04138577597</v>
       </c>
     </row>
     <row r="34">
@@ -1920,41 +1920,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-104319711</v>
+        <v>-5255.755797218892</v>
       </c>
       <c r="C34" t="n">
-        <v>-114194864</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9743104</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-6468.762710132441</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>16667.85376105754</v>
+      </c>
       <c r="F34" t="n">
-        <v>326038856</v>
+        <v>28622.19254354914</v>
       </c>
       <c r="G34" t="n">
-        <v>855389864</v>
+        <v>26550.13195824081</v>
       </c>
       <c r="H34" t="n">
-        <v>781729510</v>
+        <v>26334.25121396088</v>
       </c>
       <c r="I34" t="n">
-        <v>723359009</v>
+        <v>25922.3543105174</v>
       </c>
       <c r="J34" t="n">
-        <v>625200509</v>
+        <v>26153.98529861176</v>
       </c>
       <c r="K34" t="n">
-        <v>704280255</v>
+        <v>27886.45425650238</v>
       </c>
       <c r="L34" t="n">
-        <v>752408888</v>
+        <v>29275.65838713111</v>
       </c>
       <c r="M34" t="n">
-        <v>780367432</v>
+        <v>25965.24883377781</v>
       </c>
       <c r="N34" t="n">
-        <v>601844174</v>
+        <v>23234.04953941521</v>
       </c>
     </row>
     <row r="35">
@@ -1964,41 +1964,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1032099976</v>
+        <v>-28064.64549927542</v>
       </c>
       <c r="C35" t="n">
-        <v>-581690013</v>
-      </c>
-      <c r="D35" t="n">
-        <v>202397394</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+        <v>-15754.12850652171</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>6429.224681094915</v>
+      </c>
       <c r="F35" t="n">
-        <v>-194606230</v>
+        <v>12235.31225592547</v>
       </c>
       <c r="G35" t="n">
-        <v>265844664</v>
+        <v>25248.52771945327</v>
       </c>
       <c r="H35" t="n">
-        <v>417467687</v>
+        <v>25376.21514331875</v>
       </c>
       <c r="I35" t="n">
-        <v>1010299232</v>
+        <v>25977.17209397512</v>
       </c>
       <c r="J35" t="n">
-        <v>430693423</v>
+        <v>24596.62322352399</v>
       </c>
       <c r="K35" t="n">
-        <v>920114934</v>
+        <v>26442.70984600481</v>
       </c>
       <c r="L35" t="n">
-        <v>977264484</v>
+        <v>35684.01167189586</v>
       </c>
       <c r="M35" t="n">
-        <v>1028873040</v>
+        <v>27075.69858747877</v>
       </c>
       <c r="N35" t="n">
-        <v>399596006</v>
+        <v>10858.00506538839</v>
       </c>
     </row>
     <row r="36">
@@ -2008,41 +2008,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2442423877</v>
+        <v>-53156.92388954098</v>
       </c>
       <c r="C36" t="n">
-        <v>-2179323936</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-5103332</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+        <v>-3012.09549568951</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>-41419.38264989749</v>
+      </c>
       <c r="F36" t="n">
-        <v>-1223395398</v>
+        <v>-14268.49721992602</v>
       </c>
       <c r="G36" t="n">
-        <v>17927833</v>
+        <v>-13258.35942752939</v>
       </c>
       <c r="H36" t="n">
-        <v>368716030</v>
+        <v>33465.56306748936</v>
       </c>
       <c r="I36" t="n">
-        <v>1991032486</v>
+        <v>35201.08947199305</v>
       </c>
       <c r="J36" t="n">
-        <v>2289511484</v>
+        <v>46683.56357506072</v>
       </c>
       <c r="K36" t="n">
-        <v>2199272645</v>
+        <v>44905.95354857892</v>
       </c>
       <c r="L36" t="n">
-        <v>3218711221</v>
+        <v>43795.238457095</v>
       </c>
       <c r="M36" t="n">
-        <v>1945854615</v>
+        <v>774.237647109926</v>
       </c>
       <c r="N36" t="n">
-        <v>166836673</v>
+        <v>-5490.627161771846</v>
       </c>
     </row>
     <row r="37">
@@ -2052,41 +2052,41 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4705043</v>
+        <v>2908.42674605561</v>
       </c>
       <c r="C37" t="n">
-        <v>498247</v>
-      </c>
-      <c r="D37" t="n">
-        <v>37084700</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+        <v>2929.616579385955</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>13314.6748281292</v>
+      </c>
       <c r="F37" t="n">
-        <v>73383673</v>
+        <v>17868.0499214019</v>
       </c>
       <c r="G37" t="n">
-        <v>126097617</v>
+        <v>18659.84935766489</v>
       </c>
       <c r="H37" t="n">
-        <v>135769426</v>
+        <v>19728.59956486638</v>
       </c>
       <c r="I37" t="n">
-        <v>138273715</v>
+        <v>19918.92193298307</v>
       </c>
       <c r="J37" t="n">
-        <v>147676039</v>
+        <v>21035.39680399931</v>
       </c>
       <c r="K37" t="n">
-        <v>149547114</v>
+        <v>21756.10093187095</v>
       </c>
       <c r="L37" t="n">
-        <v>155851076</v>
+        <v>20180.31448046774</v>
       </c>
       <c r="M37" t="n">
-        <v>128166193</v>
+        <v>20569.76087014054</v>
       </c>
       <c r="N37" t="n">
-        <v>130740763</v>
+        <v>18217.31180995078</v>
       </c>
     </row>
     <row r="38">
@@ -2096,41 +2096,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-811004677</v>
+        <v>-21473.09798860408</v>
       </c>
       <c r="C38" t="n">
-        <v>-3118617931</v>
-      </c>
-      <c r="D38" t="n">
-        <v>328268570</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>-16809.98007053812</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>-5223.84156503234</v>
+      </c>
       <c r="F38" t="n">
-        <v>-1939605583</v>
+        <v>-46864.67430654689</v>
       </c>
       <c r="G38" t="n">
-        <v>-3116536135</v>
+        <v>-59588.08325734954</v>
       </c>
       <c r="H38" t="n">
-        <v>-1250697252</v>
+        <v>-26723.8739843445</v>
       </c>
       <c r="I38" t="n">
-        <v>-960378933</v>
+        <v>-1358.857009955136</v>
       </c>
       <c r="J38" t="n">
-        <v>179670687</v>
+        <v>33484.66310704043</v>
       </c>
       <c r="K38" t="n">
-        <v>-938717615</v>
+        <v>1049.369425173471</v>
       </c>
       <c r="L38" t="n">
-        <v>-262130120</v>
+        <v>44005.48219680278</v>
       </c>
       <c r="M38" t="n">
-        <v>1434295719</v>
+        <v>70392.69511140612</v>
       </c>
       <c r="N38" t="n">
-        <v>220492395</v>
+        <v>18834.75647306337</v>
       </c>
     </row>
     <row r="39">
@@ -2140,41 +2140,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970961054</v>
+        <v>106873.3079460035</v>
       </c>
       <c r="C39" t="n">
-        <v>432659622</v>
-      </c>
-      <c r="D39" t="n">
-        <v>576670539</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
+        <v>77794.70973655229</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>86095.33389429988</v>
+      </c>
       <c r="F39" t="n">
-        <v>508782275</v>
+        <v>59696.57696220327</v>
       </c>
       <c r="G39" t="n">
-        <v>339210105</v>
+        <v>96695.26241862446</v>
       </c>
       <c r="H39" t="n">
-        <v>847129707</v>
+        <v>124070.6059939744</v>
       </c>
       <c r="I39" t="n">
-        <v>1033456849</v>
+        <v>123011.5200656972</v>
       </c>
       <c r="J39" t="n">
-        <v>793479677</v>
+        <v>137872.4271584453</v>
       </c>
       <c r="K39" t="n">
-        <v>717226739</v>
+        <v>112405.843243283</v>
       </c>
       <c r="L39" t="n">
-        <v>698198118</v>
+        <v>105711.2087161457</v>
       </c>
       <c r="M39" t="n">
-        <v>465101222</v>
+        <v>107442.7256840292</v>
       </c>
       <c r="N39" t="n">
-        <v>179243156</v>
+        <v>73486.18808871653</v>
       </c>
     </row>
     <row r="40">
@@ -2184,41 +2184,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2177886216</v>
+        <v>149368.1636167934</v>
       </c>
       <c r="C40" t="n">
-        <v>1354621819</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1340101603</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+        <v>129494.6693349378</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>144828.5753255486</v>
+      </c>
       <c r="F40" t="n">
-        <v>1896350269</v>
+        <v>135751.3092647167</v>
       </c>
       <c r="G40" t="n">
-        <v>1271589968</v>
+        <v>138467.970593459</v>
       </c>
       <c r="H40" t="n">
-        <v>2679964511</v>
+        <v>184151.1597853653</v>
       </c>
       <c r="I40" t="n">
-        <v>2869340820</v>
+        <v>209280.8011256288</v>
       </c>
       <c r="J40" t="n">
-        <v>2278451380</v>
+        <v>194896.3471460174</v>
       </c>
       <c r="K40" t="n">
-        <v>941173731</v>
+        <v>99857.72490128066</v>
       </c>
       <c r="L40" t="n">
-        <v>1300898795</v>
+        <v>107383.0097995847</v>
       </c>
       <c r="M40" t="n">
-        <v>1268057952</v>
+        <v>139318.5163771272</v>
       </c>
       <c r="N40" t="n">
-        <v>1483263413</v>
+        <v>84050.63282985301</v>
       </c>
     </row>
     <row r="41">
@@ -2228,41 +2228,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>215578939</v>
+        <v>1949.297047243925</v>
       </c>
       <c r="C41" t="n">
-        <v>-188341055</v>
-      </c>
-      <c r="D41" t="n">
-        <v>368088424</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>-684.8386641919969</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>15640.15758289804</v>
+      </c>
       <c r="F41" t="n">
-        <v>579599379</v>
+        <v>41669.27189151713</v>
       </c>
       <c r="G41" t="n">
-        <v>1083551497</v>
+        <v>37412.90947617915</v>
       </c>
       <c r="H41" t="n">
-        <v>748738278</v>
+        <v>46599.46097927407</v>
       </c>
       <c r="I41" t="n">
-        <v>1347180545</v>
+        <v>53684.38267663881</v>
       </c>
       <c r="J41" t="n">
-        <v>1474617325</v>
+        <v>55741.3123983485</v>
       </c>
       <c r="K41" t="n">
-        <v>2023570189</v>
+        <v>65492.01680048741</v>
       </c>
       <c r="L41" t="n">
-        <v>2295762491</v>
+        <v>49824.80785238442</v>
       </c>
       <c r="M41" t="n">
-        <v>1709372618</v>
+        <v>53211.51853420456</v>
       </c>
       <c r="N41" t="n">
-        <v>1642250888</v>
+        <v>26048.57300015213</v>
       </c>
     </row>
     <row r="42">
@@ -2272,41 +2272,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-112627317</v>
+        <v>-11140.56984504974</v>
       </c>
       <c r="C42" t="n">
-        <v>-62610113</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-8593107</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
+        <v>-5498.820456837627</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>10374.84758731748</v>
+      </c>
       <c r="F42" t="n">
-        <v>124910572</v>
+        <v>15121.97707950888</v>
       </c>
       <c r="G42" t="n">
-        <v>238270922</v>
+        <v>16914.93557959629</v>
       </c>
       <c r="H42" t="n">
-        <v>313057497</v>
+        <v>19026.74749322496</v>
       </c>
       <c r="I42" t="n">
-        <v>380458338</v>
+        <v>21323.39751504636</v>
       </c>
       <c r="J42" t="n">
-        <v>424769919</v>
+        <v>23146.55709378369</v>
       </c>
       <c r="K42" t="n">
-        <v>511253414</v>
+        <v>21179.27243351566</v>
       </c>
       <c r="L42" t="n">
-        <v>417645806</v>
+        <v>19093.03628358198</v>
       </c>
       <c r="M42" t="n">
-        <v>366096677</v>
+        <v>20601.30925425392</v>
       </c>
       <c r="N42" t="n">
-        <v>380907175</v>
+        <v>18739.00418269065</v>
       </c>
     </row>
     <row r="43">
@@ -2316,41 +2316,41 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>273241604</v>
+        <v>17116.34448250082</v>
       </c>
       <c r="C43" t="n">
-        <v>183508418</v>
-      </c>
-      <c r="D43" t="n">
-        <v>144338393</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+        <v>15048.55092074194</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>12558.34668062607</v>
+      </c>
       <c r="F43" t="n">
-        <v>140448983</v>
+        <v>12543.04222678307</v>
       </c>
       <c r="G43" t="n">
-        <v>-8864532</v>
+        <v>9519.568843149294</v>
       </c>
       <c r="H43" t="n">
-        <v>39565053</v>
+        <v>-3554.979643463428</v>
       </c>
       <c r="I43" t="n">
-        <v>30106688</v>
+        <v>5371.515210375614</v>
       </c>
       <c r="J43" t="n">
-        <v>-3291089</v>
+        <v>-4733.045325368788</v>
       </c>
       <c r="K43" t="n">
-        <v>-1356538</v>
+        <v>1651.971013511035</v>
       </c>
       <c r="L43" t="n">
-        <v>25361943</v>
+        <v>863.7754052111954</v>
       </c>
       <c r="M43" t="n">
-        <v>28109190</v>
+        <v>2106.114798544758</v>
       </c>
       <c r="N43" t="n">
-        <v>520974</v>
+        <v>-2865.156496146034</v>
       </c>
     </row>
     <row r="44">
@@ -2360,41 +2360,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>475993191</v>
+        <v>32570.12248765594</v>
       </c>
       <c r="C44" t="n">
-        <v>391642803</v>
-      </c>
-      <c r="D44" t="n">
-        <v>493250046</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
+        <v>31169.67331004717</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>27749.25660033224</v>
+      </c>
       <c r="F44" t="n">
-        <v>160351672</v>
+        <v>8501.958297999541</v>
       </c>
       <c r="G44" t="n">
-        <v>37213864</v>
+        <v>15994.57169752311</v>
       </c>
       <c r="H44" t="n">
-        <v>302767208</v>
+        <v>24906.06342167253</v>
       </c>
       <c r="I44" t="n">
-        <v>281674163</v>
+        <v>23659.01764524404</v>
       </c>
       <c r="J44" t="n">
-        <v>137082133</v>
+        <v>16008.62135134668</v>
       </c>
       <c r="K44" t="n">
-        <v>223232109</v>
+        <v>21216.92044096468</v>
       </c>
       <c r="L44" t="n">
-        <v>269325966</v>
+        <v>19139.22799163705</v>
       </c>
       <c r="M44" t="n">
-        <v>89530303</v>
+        <v>5097.173671657323</v>
       </c>
       <c r="N44" t="n">
-        <v>-86837388</v>
+        <v>-8040.383589563964</v>
       </c>
     </row>
     <row r="45">
@@ -2404,41 +2404,41 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-18374895</v>
+        <v>-3507.102792904708</v>
       </c>
       <c r="C45" t="n">
-        <v>-19039108</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-7766403</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>-3852.667517448138</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>-1667.960431185344</v>
+      </c>
       <c r="F45" t="n">
-        <v>1617199</v>
+        <v>3091.946312599881</v>
       </c>
       <c r="G45" t="n">
-        <v>12483699</v>
+        <v>4265.16928151744</v>
       </c>
       <c r="H45" t="n">
-        <v>31320354</v>
+        <v>6159.31392283264</v>
       </c>
       <c r="I45" t="n">
-        <v>42668797</v>
+        <v>6949.111382040152</v>
       </c>
       <c r="J45" t="n">
-        <v>43529888</v>
+        <v>6089.292077080881</v>
       </c>
       <c r="K45" t="n">
-        <v>41142487</v>
+        <v>6971.777606894815</v>
       </c>
       <c r="L45" t="n">
-        <v>42157332</v>
+        <v>6172.681346060235</v>
       </c>
       <c r="M45" t="n">
-        <v>32026870</v>
+        <v>5219.836683268932</v>
       </c>
       <c r="N45" t="n">
-        <v>23050634</v>
+        <v>4186.579630199335</v>
       </c>
     </row>
     <row r="46">
@@ -2448,43 +2448,41 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2228162505</v>
+        <v>84611.44849427434</v>
       </c>
       <c r="C46" t="n">
-        <v>1461490693</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3589552040</v>
-      </c>
+        <v>53217.05942079426</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51736.71126742622</v>
       </c>
       <c r="F46" t="n">
-        <v>3878421771</v>
+        <v>31472.52555892121</v>
       </c>
       <c r="G46" t="n">
-        <v>1199388388</v>
+        <v>-3764.390994337365</v>
       </c>
       <c r="H46" t="n">
-        <v>1206522200</v>
+        <v>66338.53061232856</v>
       </c>
       <c r="I46" t="n">
-        <v>3495460631</v>
+        <v>103674.7535037763</v>
       </c>
       <c r="J46" t="n">
-        <v>3747210752</v>
+        <v>92383.14434281347</v>
       </c>
       <c r="K46" t="n">
-        <v>4335364594</v>
+        <v>99166.42677069241</v>
       </c>
       <c r="L46" t="n">
-        <v>4051300991</v>
+        <v>78575.95764660634</v>
       </c>
       <c r="M46" t="n">
-        <v>3768790132</v>
+        <v>72237.47061152538</v>
       </c>
       <c r="N46" t="n">
-        <v>2931467985</v>
+        <v>43427.51113250526</v>
       </c>
     </row>
     <row r="47">
@@ -2494,41 +2492,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>66769728</v>
+        <v>54909.44717782285</v>
       </c>
       <c r="C47" t="n">
-        <v>-734160865</v>
-      </c>
-      <c r="D47" t="n">
-        <v>150597904</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+        <v>21292.8179484522</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>86619.1692546025</v>
+      </c>
       <c r="F47" t="n">
-        <v>559282759</v>
+        <v>42075.90669853894</v>
       </c>
       <c r="G47" t="n">
-        <v>407292847</v>
+        <v>79934.24861153707</v>
       </c>
       <c r="H47" t="n">
-        <v>1045332133</v>
+        <v>113613.6008160853</v>
       </c>
       <c r="I47" t="n">
-        <v>1246964509</v>
+        <v>162549.9094823966</v>
       </c>
       <c r="J47" t="n">
-        <v>1126274509</v>
+        <v>103558.2731863971</v>
       </c>
       <c r="K47" t="n">
-        <v>1224390286</v>
+        <v>136462.1202397229</v>
       </c>
       <c r="L47" t="n">
-        <v>1825343285</v>
+        <v>59697.00441672567</v>
       </c>
       <c r="M47" t="n">
-        <v>258018957</v>
+        <v>78933.89603777131</v>
       </c>
       <c r="N47" t="n">
-        <v>915294224</v>
+        <v>320.8514174392894</v>
       </c>
     </row>
     <row r="48">
@@ -2538,41 +2536,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>675212276</v>
+        <v>67764.00641944242</v>
       </c>
       <c r="C48" t="n">
-        <v>-174784665</v>
+        <v>72637.1752963515</v>
       </c>
       <c r="D48" t="n">
-        <v>3369634053</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>114636.506454525</v>
+      </c>
       <c r="F48" t="n">
-        <v>2819347731</v>
+        <v>60970.9955730904</v>
       </c>
       <c r="G48" t="n">
-        <v>2901610066</v>
+        <v>83007.7524381715</v>
       </c>
       <c r="H48" t="n">
-        <v>3246801353</v>
+        <v>54207.87949976946</v>
       </c>
       <c r="I48" t="n">
-        <v>2009096025</v>
+        <v>127224.2372008067</v>
       </c>
       <c r="J48" t="n">
-        <v>2059473683</v>
+        <v>67772.13296650947</v>
       </c>
       <c r="K48" t="n">
-        <v>2698554715</v>
+        <v>29276.84670796571</v>
       </c>
       <c r="L48" t="n">
-        <v>-277188434</v>
+        <v>-26500.0622648871</v>
       </c>
       <c r="M48" t="n">
-        <v>-3019140400</v>
+        <v>-7147.496496337509</v>
       </c>
       <c r="N48" t="n">
-        <v>-3364361929</v>
+        <v>-105304.6805013695</v>
       </c>
     </row>
     <row r="49">
@@ -2582,41 +2582,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>41714509</v>
+        <v>6534.304854152111</v>
       </c>
       <c r="C49" t="n">
-        <v>7907553</v>
-      </c>
-      <c r="D49" t="n">
-        <v>56607766</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>6820.944895911059</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>16026.3524911973</v>
+      </c>
       <c r="F49" t="n">
-        <v>86968083</v>
+        <v>14347.28366842146</v>
       </c>
       <c r="G49" t="n">
-        <v>67660957</v>
+        <v>19223.07968139979</v>
       </c>
       <c r="H49" t="n">
-        <v>129191081</v>
+        <v>20568.56730008735</v>
       </c>
       <c r="I49" t="n">
-        <v>174289302</v>
+        <v>24212.39013939147</v>
       </c>
       <c r="J49" t="n">
-        <v>160752981</v>
+        <v>26514.13165054523</v>
       </c>
       <c r="K49" t="n">
-        <v>149700641</v>
+        <v>15604.86694524266</v>
       </c>
       <c r="L49" t="n">
-        <v>79935838</v>
+        <v>14641.46286476519</v>
       </c>
       <c r="M49" t="n">
-        <v>87884566</v>
+        <v>13860.71353773051</v>
       </c>
       <c r="N49" t="n">
-        <v>69208777</v>
+        <v>9368.633398051361</v>
       </c>
     </row>
     <row r="50">
@@ -2626,41 +2626,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2138541907</v>
+        <v>56260.04901285594</v>
       </c>
       <c r="C50" t="n">
-        <v>539871884</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1089301822</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+        <v>22856.27393012245</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>26256.66544612479</v>
+      </c>
       <c r="F50" t="n">
-        <v>2099489253</v>
+        <v>37787.92454804594</v>
       </c>
       <c r="G50" t="n">
-        <v>1775315202</v>
+        <v>13678.62592535366</v>
       </c>
       <c r="H50" t="n">
-        <v>1091579369</v>
+        <v>104879.5890392684</v>
       </c>
       <c r="I50" t="n">
-        <v>1522539744</v>
+        <v>119970.3486252229</v>
       </c>
       <c r="J50" t="n">
-        <v>1375465977</v>
+        <v>107105.6584359776</v>
       </c>
       <c r="K50" t="n">
-        <v>1151850172</v>
+        <v>98309.3106167139</v>
       </c>
       <c r="L50" t="n">
-        <v>1735128094</v>
+        <v>36140.74453659174</v>
       </c>
       <c r="M50" t="n">
-        <v>569662865</v>
+        <v>41535.94638999193</v>
       </c>
       <c r="N50" t="n">
-        <v>781338427</v>
+        <v>19390.54453795315</v>
       </c>
     </row>
     <row r="51">
@@ -2670,41 +2670,41 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-732181257</v>
+        <v>-22916.28941004967</v>
       </c>
       <c r="C51" t="n">
-        <v>-506025435</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-4884780</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
+        <v>-20653.82551721949</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>33343.59940302493</v>
+      </c>
       <c r="F51" t="n">
-        <v>554961316</v>
+        <v>56730.20015711609</v>
       </c>
       <c r="G51" t="n">
-        <v>1304491478</v>
+        <v>49076.39703137895</v>
       </c>
       <c r="H51" t="n">
-        <v>1128077726</v>
+        <v>55614.68226991014</v>
       </c>
       <c r="I51" t="n">
-        <v>837640760</v>
+        <v>52602.13093146903</v>
       </c>
       <c r="J51" t="n">
-        <v>790684610</v>
+        <v>61983.47142257357</v>
       </c>
       <c r="K51" t="n">
-        <v>912987170</v>
+        <v>52229.21375393444</v>
       </c>
       <c r="L51" t="n">
-        <v>508889393</v>
+        <v>35338.6043229448</v>
       </c>
       <c r="M51" t="n">
-        <v>156792660</v>
+        <v>14438.23700291009</v>
       </c>
       <c r="N51" t="n">
-        <v>-196298617</v>
+        <v>-8055.775996566512</v>
       </c>
     </row>
     <row r="52">
@@ -2714,41 +2714,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-87334086</v>
+        <v>-13865.02639592292</v>
       </c>
       <c r="C52" t="n">
-        <v>-248126324</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-52509675</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
+        <v>-14033.63792107303</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>20501.26275410123</v>
+      </c>
       <c r="F52" t="n">
-        <v>454139657</v>
+        <v>19862.36237317861</v>
       </c>
       <c r="G52" t="n">
-        <v>353463514</v>
+        <v>43702.02860222631</v>
       </c>
       <c r="H52" t="n">
-        <v>673279303</v>
+        <v>57090.46761217021</v>
       </c>
       <c r="I52" t="n">
-        <v>944949225</v>
+        <v>61945.96053390992</v>
       </c>
       <c r="J52" t="n">
-        <v>919184461</v>
+        <v>56883.09262778368</v>
       </c>
       <c r="K52" t="n">
-        <v>977631917</v>
+        <v>62270.04753239069</v>
       </c>
       <c r="L52" t="n">
-        <v>1325916469</v>
+        <v>75016.93232732994</v>
       </c>
       <c r="M52" t="n">
-        <v>1719903330</v>
+        <v>80810.28099992503</v>
       </c>
       <c r="N52" t="n">
-        <v>2012779117</v>
+        <v>82446.5091512574</v>
       </c>
     </row>
     <row r="53">
@@ -2758,41 +2758,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-142599629</v>
+        <v>-6725.650268741768</v>
       </c>
       <c r="C53" t="n">
-        <v>-283346862</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-16421066</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
+        <v>-20396.02259490449</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>30998.51341756852</v>
+      </c>
       <c r="F53" t="n">
-        <v>668068334</v>
+        <v>19491.60471888445</v>
       </c>
       <c r="G53" t="n">
-        <v>243940742</v>
+        <v>12565.81976026139</v>
       </c>
       <c r="H53" t="n">
-        <v>280358597</v>
+        <v>20628.43590898464</v>
       </c>
       <c r="I53" t="n">
-        <v>273249794</v>
+        <v>31538.41811841523</v>
       </c>
       <c r="J53" t="n">
-        <v>244483305</v>
+        <v>21030.82022698733</v>
       </c>
       <c r="K53" t="n">
-        <v>90580856</v>
+        <v>14622.13713811458</v>
       </c>
       <c r="L53" t="n">
-        <v>144960627</v>
+        <v>7371.978459633481</v>
       </c>
       <c r="M53" t="n">
-        <v>-12458165</v>
+        <v>13715.52407293042</v>
       </c>
       <c r="N53" t="n">
-        <v>23664208</v>
+        <v>-13971.2647171077</v>
       </c>
     </row>
     <row r="54">
@@ -2802,41 +2802,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>177552790</v>
+        <v>8357.351705338253</v>
       </c>
       <c r="C54" t="n">
-        <v>-137321738</v>
-      </c>
-      <c r="D54" t="n">
-        <v>147924571</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
+        <v>16328.30094369073</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>42923.28354357838</v>
+      </c>
       <c r="F54" t="n">
-        <v>831368859</v>
+        <v>-48640.5169794533</v>
       </c>
       <c r="G54" t="n">
-        <v>-1000948421</v>
+        <v>-8414.836747686732</v>
       </c>
       <c r="H54" t="n">
-        <v>-466739045</v>
+        <v>-40564.6425826546</v>
       </c>
       <c r="I54" t="n">
-        <v>-1241797662</v>
+        <v>-47782.54855819522</v>
       </c>
       <c r="J54" t="n">
-        <v>-21385655</v>
+        <v>-9810.764828824405</v>
       </c>
       <c r="K54" t="n">
-        <v>-1396265252</v>
+        <v>-43903.31073678989</v>
       </c>
       <c r="L54" t="n">
-        <v>-900073658</v>
+        <v>-33027.42216477553</v>
       </c>
       <c r="M54" t="n">
-        <v>-518355645</v>
+        <v>-19730.37643450178</v>
       </c>
       <c r="N54" t="n">
-        <v>-583715677</v>
+        <v>-21379.0111842898</v>
       </c>
     </row>
     <row r="55">
@@ -2846,41 +2846,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-13281442591</v>
+        <v>-57667.38866515968</v>
       </c>
       <c r="C55" t="n">
-        <v>-15544736760</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-9132192847</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
+        <v>-207906.3267600137</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>-19819.33484886552</v>
+      </c>
       <c r="F55" t="n">
-        <v>7209430970</v>
+        <v>129931.3808183089</v>
       </c>
       <c r="G55" t="n">
-        <v>-4494233340</v>
+        <v>147087.5259751927</v>
       </c>
       <c r="H55" t="n">
-        <v>22399744218</v>
+        <v>234508.8314748605</v>
       </c>
       <c r="I55" t="n">
-        <v>23223193181</v>
+        <v>402818.1199526493</v>
       </c>
       <c r="J55" t="n">
-        <v>20170890893</v>
+        <v>374138.7158529077</v>
       </c>
       <c r="K55" t="n">
-        <v>29363085978</v>
+        <v>438348.6184259822</v>
       </c>
       <c r="L55" t="n">
-        <v>34492495360</v>
+        <v>628937.4156788791</v>
       </c>
       <c r="M55" t="n">
-        <v>60930617487</v>
+        <v>692565.7120601954</v>
       </c>
       <c r="N55" t="n">
-        <v>88436265280</v>
+        <v>845992.6847636084</v>
       </c>
     </row>
     <row r="56">
@@ -2890,41 +2890,41 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2248601435</v>
+        <v>-34563.1164895023</v>
       </c>
       <c r="C56" t="n">
-        <v>1799822596</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-967591654</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
+        <v>-35309.79856446774</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>9146.560981629093</v>
+      </c>
       <c r="F56" t="n">
-        <v>693046033</v>
+        <v>47018.72416453877</v>
       </c>
       <c r="G56" t="n">
-        <v>1159168912</v>
+        <v>71331.54749055578</v>
       </c>
       <c r="H56" t="n">
-        <v>3202154206</v>
+        <v>74897.67744652882</v>
       </c>
       <c r="I56" t="n">
-        <v>4233180355</v>
+        <v>66703.53492924843</v>
       </c>
       <c r="J56" t="n">
-        <v>4144157020</v>
+        <v>66176.37967817107</v>
       </c>
       <c r="K56" t="n">
-        <v>3183009699</v>
+        <v>77305.9378453815</v>
       </c>
       <c r="L56" t="n">
-        <v>2323177331</v>
+        <v>82176.61018560761</v>
       </c>
       <c r="M56" t="n">
-        <v>1751547267</v>
+        <v>79963.23104489263</v>
       </c>
       <c r="N56" t="n">
-        <v>1239569323</v>
+        <v>80158.27594197748</v>
       </c>
     </row>
     <row r="57">
@@ -2934,41 +2934,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1536682864</v>
+        <v>2048.251519812533</v>
       </c>
       <c r="C57" t="n">
-        <v>-3137028582</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-1425132356</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
+        <v>-43071.89144130466</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>22667.41551991682</v>
+      </c>
       <c r="F57" t="n">
-        <v>1619045559</v>
+        <v>63947.24659728825</v>
       </c>
       <c r="G57" t="n">
-        <v>981262906</v>
+        <v>130992.061345682</v>
       </c>
       <c r="H57" t="n">
-        <v>7362850118</v>
+        <v>168489.9872928908</v>
       </c>
       <c r="I57" t="n">
-        <v>5751353600</v>
+        <v>211457.4911429342</v>
       </c>
       <c r="J57" t="n">
-        <v>5532724389</v>
+        <v>180720.1326248527</v>
       </c>
       <c r="K57" t="n">
-        <v>4700199754</v>
+        <v>162008.1907271474</v>
       </c>
       <c r="L57" t="n">
-        <v>5062747143</v>
+        <v>189746.6948548432</v>
       </c>
       <c r="M57" t="n">
-        <v>7065213187</v>
+        <v>154336.2799008453</v>
       </c>
       <c r="N57" t="n">
-        <v>7076926756</v>
+        <v>167184.0039843253</v>
       </c>
     </row>
     <row r="58">
@@ -2978,41 +2978,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>219759151</v>
+        <v>11070.86885243074</v>
       </c>
       <c r="C58" t="n">
-        <v>-53814975</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-238910993</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
+        <v>7977.981017822211</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>-6724.196082365774</v>
+      </c>
       <c r="F58" t="n">
-        <v>133447011</v>
+        <v>1197.56398792476</v>
       </c>
       <c r="G58" t="n">
-        <v>93555722</v>
+        <v>16648.35133525863</v>
       </c>
       <c r="H58" t="n">
-        <v>379228028</v>
+        <v>15762.879308561</v>
       </c>
       <c r="I58" t="n">
-        <v>307419405</v>
+        <v>29979.70070435889</v>
       </c>
       <c r="J58" t="n">
-        <v>527434216</v>
+        <v>20357.51330763686</v>
       </c>
       <c r="K58" t="n">
-        <v>534530904</v>
+        <v>19701.18267753395</v>
       </c>
       <c r="L58" t="n">
-        <v>245637906</v>
+        <v>12333.84960087913</v>
       </c>
       <c r="M58" t="n">
-        <v>225556206</v>
+        <v>6843.741287394862</v>
       </c>
       <c r="N58" t="n">
-        <v>-81326736</v>
+        <v>-1876.948093133865</v>
       </c>
     </row>
     <row r="59">
@@ -3022,43 +3022,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>440183896</v>
+        <v>56553.18321800663</v>
       </c>
       <c r="C59" t="n">
-        <v>242175772</v>
+        <v>43002.19472986313</v>
       </c>
       <c r="D59" t="n">
-        <v>198436254</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>52176.94809368955</v>
       </c>
       <c r="F59" t="n">
-        <v>426077775</v>
+        <v>79796.32538560872</v>
       </c>
       <c r="G59" t="n">
-        <v>678123591</v>
+        <v>68965.05513857117</v>
       </c>
       <c r="H59" t="n">
-        <v>911378087</v>
+        <v>71648.19142669179</v>
       </c>
       <c r="I59" t="n">
-        <v>885166363</v>
+        <v>83559.61451390311</v>
       </c>
       <c r="J59" t="n">
-        <v>946614313</v>
+        <v>63298.6249143363</v>
       </c>
       <c r="K59" t="n">
-        <v>793410706</v>
+        <v>56226.70553781692</v>
       </c>
       <c r="L59" t="n">
-        <v>685826381</v>
+        <v>48265.46955109621</v>
       </c>
       <c r="M59" t="n">
-        <v>516955747</v>
+        <v>36168.04671161171</v>
       </c>
       <c r="N59" t="n">
-        <v>368549753</v>
+        <v>18537.09800271977</v>
       </c>
     </row>
     <row r="60">
@@ -3068,41 +3068,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>252884726</v>
+        <v>17669.62732212084</v>
       </c>
       <c r="C60" t="n">
-        <v>323995068</v>
-      </c>
-      <c r="D60" t="n">
-        <v>487124304</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
+        <v>17462.72260189194</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>30648.86226065274</v>
+      </c>
       <c r="F60" t="n">
-        <v>623781026</v>
+        <v>49698.09905082693</v>
       </c>
       <c r="G60" t="n">
-        <v>1500062442</v>
+        <v>62720.05248553248</v>
       </c>
       <c r="H60" t="n">
-        <v>2965515150</v>
+        <v>58056.70495668502</v>
       </c>
       <c r="I60" t="n">
-        <v>2568361551</v>
+        <v>64833.76030307423</v>
       </c>
       <c r="J60" t="n">
-        <v>3083170173</v>
+        <v>71343.82203796456</v>
       </c>
       <c r="K60" t="n">
-        <v>3597687638</v>
+        <v>68605.64245082701</v>
       </c>
       <c r="L60" t="n">
-        <v>3298269611</v>
+        <v>65331.55766066823</v>
       </c>
       <c r="M60" t="n">
-        <v>2998416100</v>
+        <v>62964.71966784885</v>
       </c>
       <c r="N60" t="n">
-        <v>2765889779</v>
+        <v>63644.58429976983</v>
       </c>
     </row>
     <row r="61">
@@ -3112,41 +3112,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-11636426</v>
+        <v>2111.596078799163</v>
       </c>
       <c r="C61" t="n">
-        <v>15526335</v>
-      </c>
-      <c r="D61" t="n">
-        <v>44593437</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
+        <v>3272.809801989722</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3058.548675434151</v>
+      </c>
       <c r="F61" t="n">
-        <v>91078964</v>
+        <v>3194.88074894823</v>
       </c>
       <c r="G61" t="n">
-        <v>69436863</v>
+        <v>3208.171441802947</v>
       </c>
       <c r="H61" t="n">
-        <v>89951103</v>
+        <v>3293.510589021994</v>
       </c>
       <c r="I61" t="n">
-        <v>69719752</v>
+        <v>3651.775595515146</v>
       </c>
       <c r="J61" t="n">
-        <v>71131079</v>
+        <v>4173.993172011665</v>
       </c>
       <c r="K61" t="n">
-        <v>97059766</v>
+        <v>4521.333763393275</v>
       </c>
       <c r="L61" t="n">
-        <v>80136428</v>
+        <v>4179.27804770154</v>
       </c>
       <c r="M61" t="n">
-        <v>73302901</v>
+        <v>3816.665167394174</v>
       </c>
       <c r="N61" t="n">
-        <v>67386436</v>
+        <v>3190.043573370119</v>
       </c>
     </row>
     <row r="62">
@@ -3156,41 +3156,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>468130106</v>
+        <v>16140.04366652321</v>
       </c>
       <c r="C62" t="n">
-        <v>19362145</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-50370921</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
+        <v>2673.950797388972</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>-1518.390313825198</v>
+      </c>
       <c r="F62" t="n">
-        <v>610563925</v>
+        <v>1492.24065663992</v>
       </c>
       <c r="G62" t="n">
-        <v>-250887280</v>
+        <v>5813.178718667798</v>
       </c>
       <c r="H62" t="n">
-        <v>505526776</v>
+        <v>7001.10174789593</v>
       </c>
       <c r="I62" t="n">
-        <v>553467798</v>
+        <v>27987.99552733639</v>
       </c>
       <c r="J62" t="n">
-        <v>476217183</v>
+        <v>28068.48686750559</v>
       </c>
       <c r="K62" t="n">
-        <v>713579338</v>
+        <v>22704.6033487407</v>
       </c>
       <c r="L62" t="n">
-        <v>809590448</v>
+        <v>30223.58008157994</v>
       </c>
       <c r="M62" t="n">
-        <v>161022360</v>
+        <v>-13814.09708596338</v>
       </c>
       <c r="N62" t="n">
-        <v>-884135984</v>
+        <v>-23114.98394939647</v>
       </c>
     </row>
     <row r="63">
@@ -3200,41 +3200,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-3217789</v>
+        <v>4726.776932986395</v>
       </c>
       <c r="C63" t="n">
-        <v>-16827325</v>
-      </c>
-      <c r="D63" t="n">
-        <v>68090205</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+        <v>10461.9657949408</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>21674.27875692083</v>
+      </c>
       <c r="F63" t="n">
-        <v>134786280</v>
+        <v>28235.70326223793</v>
       </c>
       <c r="G63" t="n">
-        <v>257401987</v>
+        <v>27130.99134225741</v>
       </c>
       <c r="H63" t="n">
-        <v>357179984</v>
+        <v>33373.1874820587</v>
       </c>
       <c r="I63" t="n">
-        <v>391325727</v>
+        <v>28146.13195056603</v>
       </c>
       <c r="J63" t="n">
-        <v>404634714</v>
+        <v>32084.98329753305</v>
       </c>
       <c r="K63" t="n">
-        <v>427452308</v>
+        <v>31812.80029204518</v>
       </c>
       <c r="L63" t="n">
-        <v>384548823</v>
+        <v>28268.81355384636</v>
       </c>
       <c r="M63" t="n">
-        <v>223607937</v>
+        <v>26699.05837209997</v>
       </c>
       <c r="N63" t="n">
-        <v>247024137</v>
+        <v>22455.03553131493</v>
       </c>
     </row>
     <row r="64">
@@ -3244,41 +3244,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>16588568067</v>
+        <v>335209.6612405342</v>
       </c>
       <c r="C64" t="n">
-        <v>20496499001</v>
-      </c>
-      <c r="D64" t="n">
-        <v>26734934206</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
+        <v>354855.7266665794</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>324895.9578916379</v>
+      </c>
       <c r="F64" t="n">
-        <v>27368332867</v>
+        <v>339637.2132276515</v>
       </c>
       <c r="G64" t="n">
-        <v>26838224211</v>
+        <v>322804.6312357717</v>
       </c>
       <c r="H64" t="n">
-        <v>21014423647</v>
+        <v>231575.8466062003</v>
       </c>
       <c r="I64" t="n">
-        <v>19537040193</v>
+        <v>335110.3479319704</v>
       </c>
       <c r="J64" t="n">
-        <v>18568551149</v>
+        <v>288033.1913657985</v>
       </c>
       <c r="K64" t="n">
-        <v>8882422866</v>
+        <v>160750.2535181319</v>
       </c>
       <c r="L64" t="n">
-        <v>2700522025</v>
+        <v>35785.45374574818</v>
       </c>
       <c r="M64" t="n">
-        <v>-4157694190</v>
+        <v>-63132.16240840517</v>
       </c>
       <c r="N64" t="n">
-        <v>-7842754123</v>
+        <v>-150833.4599721329</v>
       </c>
     </row>
     <row r="65">
@@ -3288,41 +3288,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>824284430</v>
+        <v>54908.4830378486</v>
       </c>
       <c r="C65" t="n">
-        <v>2698534750</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2327609820</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
+        <v>46351.93099535223</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>47410.44755673463</v>
+      </c>
       <c r="F65" t="n">
-        <v>2233603283</v>
+        <v>46655.5231255177</v>
       </c>
       <c r="G65" t="n">
-        <v>1955531013</v>
+        <v>48722.05843146006</v>
       </c>
       <c r="H65" t="n">
-        <v>2329428757</v>
+        <v>47596.20298411052</v>
       </c>
       <c r="I65" t="n">
-        <v>2169017795</v>
+        <v>49089.9508431507</v>
       </c>
       <c r="J65" t="n">
-        <v>2157658822</v>
+        <v>46920.01069568026</v>
       </c>
       <c r="K65" t="n">
-        <v>1610618544</v>
+        <v>42166.28518121122</v>
       </c>
       <c r="L65" t="n">
-        <v>1075124234</v>
+        <v>35733.30919189173</v>
       </c>
       <c r="M65" t="n">
-        <v>-776344942</v>
+        <v>-26464.02673900074</v>
       </c>
       <c r="N65" t="n">
-        <v>2434258</v>
+        <v>-15561.78796666363</v>
       </c>
     </row>
     <row r="66">
@@ -3332,41 +3332,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>782007684</v>
+        <v>43911.76757343306</v>
       </c>
       <c r="C66" t="n">
-        <v>705448026</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1112639894</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
+        <v>43124.60986398911</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>41150.94625926372</v>
+      </c>
       <c r="F66" t="n">
-        <v>1200316898</v>
+        <v>45849.73726891036</v>
       </c>
       <c r="G66" t="n">
-        <v>1052487611</v>
+        <v>52844.39656832488</v>
       </c>
       <c r="H66" t="n">
-        <v>1419213371</v>
+        <v>37326.29850746362</v>
       </c>
       <c r="I66" t="n">
-        <v>1248272085</v>
+        <v>32479.70286447434</v>
       </c>
       <c r="J66" t="n">
-        <v>645995690</v>
+        <v>28624.85320631647</v>
       </c>
       <c r="K66" t="n">
-        <v>415495580</v>
+        <v>22833.81364927685</v>
       </c>
       <c r="L66" t="n">
-        <v>50539153</v>
+        <v>2127.084201530468</v>
       </c>
       <c r="M66" t="n">
-        <v>-245465039</v>
+        <v>-5371.64238153543</v>
       </c>
       <c r="N66" t="n">
-        <v>-462626352</v>
+        <v>-35870.2135637094</v>
       </c>
     </row>
     <row r="67">
@@ -3376,41 +3376,41 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5491</v>
+        <v>36.93237062523878</v>
       </c>
       <c r="C67" t="n">
-        <v>-9939</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-873</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
+        <v>-109.233694435371</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>2.82842712474619</v>
+      </c>
       <c r="F67" t="n">
-        <v>-5138</v>
+        <v>-28.03569153775237</v>
       </c>
       <c r="G67" t="n">
-        <v>2368</v>
+        <v>67.05967491719595</v>
       </c>
       <c r="H67" t="n">
-        <v>1090</v>
+        <v>-28.72281323269014</v>
       </c>
       <c r="I67" t="n">
-        <v>2702</v>
+        <v>31.78049716414141</v>
       </c>
       <c r="J67" t="n">
-        <v>-683</v>
+        <v>-69.57729514719583</v>
       </c>
       <c r="K67" t="n">
-        <v>-4130</v>
+        <v>-68.60029154456998</v>
       </c>
       <c r="L67" t="n">
-        <v>-7099</v>
+        <v>-97.98469268207153</v>
       </c>
       <c r="M67" t="n">
-        <v>-5474</v>
+        <v>-66.89544080129826</v>
       </c>
       <c r="N67" t="n">
-        <v>-2482</v>
+        <v>-39.28103868280471</v>
       </c>
     </row>
     <row r="68">
@@ -3420,41 +3420,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>918</v>
+        <v>73.259375433667</v>
       </c>
       <c r="C68" t="n">
-        <v>2031</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-5977</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+        <v>-138.9073204381621</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>-1.9193445987312</v>
+      </c>
       <c r="F68" t="n">
-        <v>2729</v>
+        <v>-35.85660134347048</v>
       </c>
       <c r="G68" t="n">
-        <v>-875</v>
+        <v>22.7114760264902</v>
       </c>
       <c r="H68" t="n">
-        <v>4255</v>
+        <v>52.24748146995572</v>
       </c>
       <c r="I68" t="n">
-        <v>5160</v>
+        <v>118.9276289563747</v>
       </c>
       <c r="J68" t="n">
-        <v>1016</v>
+        <v>72.3414512558732</v>
       </c>
       <c r="K68" t="n">
-        <v>1606</v>
+        <v>53.7602369843129</v>
       </c>
       <c r="L68" t="n">
-        <v>2051</v>
+        <v>-1.433300358665605</v>
       </c>
       <c r="M68" t="n">
-        <v>-1947</v>
+        <v>-9.069354066604134</v>
       </c>
       <c r="N68" t="n">
-        <v>13597</v>
+        <v>103.7883803895286</v>
       </c>
     </row>
     <row r="69">
@@ -3464,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-5967359832</v>
+        <v>-98214.26564414985</v>
       </c>
       <c r="C69" t="n">
-        <v>-5941987460</v>
-      </c>
-      <c r="D69" t="n">
-        <v>6464021907</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
+        <v>-79397.7774528594</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>39941.36063352181</v>
+      </c>
       <c r="F69" t="n">
-        <v>13676146353</v>
+        <v>46041.14994465284</v>
       </c>
       <c r="G69" t="n">
-        <v>10415025723</v>
+        <v>181001.4132521936</v>
       </c>
       <c r="H69" t="n">
-        <v>23440600619</v>
+        <v>281076.9462199471</v>
       </c>
       <c r="I69" t="n">
-        <v>28980997188</v>
+        <v>369305.7576470572</v>
       </c>
       <c r="J69" t="n">
-        <v>29936867270</v>
+        <v>408582.9257987252</v>
       </c>
       <c r="K69" t="n">
-        <v>48740537254</v>
+        <v>496546.9335886088</v>
       </c>
       <c r="L69" t="n">
-        <v>53601834847</v>
+        <v>445814.9456603861</v>
       </c>
       <c r="M69" t="n">
-        <v>46309489751</v>
+        <v>465306.7135006014</v>
       </c>
       <c r="N69" t="n">
-        <v>46424333073</v>
+        <v>462118.6169409379</v>
       </c>
     </row>
     <row r="70">
@@ -3508,41 +3508,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>862411993</v>
+        <v>114017.2498471546</v>
       </c>
       <c r="C70" t="n">
-        <v>36022393</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1646163779</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
+        <v>64561.95518629908</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>93319.2998137847</v>
+      </c>
       <c r="F70" t="n">
-        <v>441278848</v>
+        <v>11192.05957317894</v>
       </c>
       <c r="G70" t="n">
-        <v>-110474712</v>
+        <v>47042.32206261225</v>
       </c>
       <c r="H70" t="n">
-        <v>319648177</v>
+        <v>88288.08322755514</v>
       </c>
       <c r="I70" t="n">
-        <v>-55317791</v>
+        <v>115875.8847765604</v>
       </c>
       <c r="J70" t="n">
-        <v>-777054912</v>
+        <v>67322.43663524232</v>
       </c>
       <c r="K70" t="n">
-        <v>-897516990</v>
+        <v>97430.1434567321</v>
       </c>
       <c r="L70" t="n">
-        <v>-600951435</v>
+        <v>55719.33963839027</v>
       </c>
       <c r="M70" t="n">
-        <v>-1238852181</v>
+        <v>71546.32733484037</v>
       </c>
       <c r="N70" t="n">
-        <v>-1143101882</v>
+        <v>49543.63620565023</v>
       </c>
     </row>
     <row r="71">
@@ -3552,41 +3552,41 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>574353600</v>
+        <v>154785.4379671874</v>
       </c>
       <c r="C71" t="n">
-        <v>320324777</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2654665296</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
+        <v>118599.4520553508</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>153666.7492815704</v>
+      </c>
       <c r="F71" t="n">
-        <v>3287694386</v>
+        <v>78807.59778109741</v>
       </c>
       <c r="G71" t="n">
-        <v>2515335240</v>
+        <v>83301.64951799347</v>
       </c>
       <c r="H71" t="n">
-        <v>3729783714</v>
+        <v>119378.2177488198</v>
       </c>
       <c r="I71" t="n">
-        <v>3287438326</v>
+        <v>127611.5288542122</v>
       </c>
       <c r="J71" t="n">
-        <v>2901754004</v>
+        <v>110706.9642844321</v>
       </c>
       <c r="K71" t="n">
-        <v>2689721274</v>
+        <v>121886.2256532093</v>
       </c>
       <c r="L71" t="n">
-        <v>2479155420</v>
+        <v>76863.35117782626</v>
       </c>
       <c r="M71" t="n">
-        <v>551352281</v>
+        <v>82998.52495162051</v>
       </c>
       <c r="N71" t="n">
-        <v>1150068318</v>
+        <v>-57425.32367762663</v>
       </c>
     </row>
     <row r="72">
@@ -3596,41 +3596,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-86357045</v>
+        <v>-15448.46326326342</v>
       </c>
       <c r="C72" t="n">
-        <v>-132617184</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-10535343</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
+        <v>-14999.1938641348</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>-13053.11877556005</v>
+      </c>
       <c r="F72" t="n">
-        <v>-15562444</v>
+        <v>29670.94955196217</v>
       </c>
       <c r="G72" t="n">
-        <v>241474476</v>
+        <v>29161.05345245754</v>
       </c>
       <c r="H72" t="n">
-        <v>317501999</v>
+        <v>37650.9052589128</v>
       </c>
       <c r="I72" t="n">
-        <v>417417691</v>
+        <v>36688.52894572748</v>
       </c>
       <c r="J72" t="n">
-        <v>331280872</v>
+        <v>36514.47093119372</v>
       </c>
       <c r="K72" t="n">
-        <v>405348456</v>
+        <v>40393.25481568564</v>
       </c>
       <c r="L72" t="n">
-        <v>434242104</v>
+        <v>35474.2588738135</v>
       </c>
       <c r="M72" t="n">
-        <v>334512035</v>
+        <v>27693.45880936568</v>
       </c>
       <c r="N72" t="n">
-        <v>255326885</v>
+        <v>17067.9720394465</v>
       </c>
     </row>
     <row r="73">
@@ -3640,41 +3640,41 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-4669315</v>
+        <v>982.3441223142322</v>
       </c>
       <c r="C73" t="n">
-        <v>-4523194</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2422068</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
+        <v>-1363.370703916731</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>6912.815986459414</v>
+      </c>
       <c r="F73" t="n">
-        <v>21445993</v>
+        <v>20730.87448545095</v>
       </c>
       <c r="G73" t="n">
-        <v>307042173</v>
+        <v>13146.12488721551</v>
       </c>
       <c r="H73" t="n">
-        <v>253539694</v>
+        <v>22672.31879315134</v>
       </c>
       <c r="I73" t="n">
-        <v>321865339</v>
+        <v>13574.04685924832</v>
       </c>
       <c r="J73" t="n">
-        <v>245429099</v>
+        <v>21595.57950570193</v>
       </c>
       <c r="K73" t="n">
-        <v>305790127</v>
+        <v>24799.92800847739</v>
       </c>
       <c r="L73" t="n">
-        <v>374377744</v>
+        <v>22664.6931409828</v>
       </c>
       <c r="M73" t="n">
-        <v>320004930</v>
+        <v>21426.70147433989</v>
       </c>
       <c r="N73" t="n">
-        <v>336372345</v>
+        <v>21407.82953614109</v>
       </c>
     </row>
     <row r="74">
@@ -3684,41 +3684,41 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>531353082</v>
+        <v>17223.02461995988</v>
       </c>
       <c r="C74" t="n">
-        <v>-291248352</v>
-      </c>
-      <c r="D74" t="n">
-        <v>252693259</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
+        <v>13536.41786555077</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>11479.4713197295</v>
+      </c>
       <c r="F74" t="n">
-        <v>742790762</v>
+        <v>-6046.868399973519</v>
       </c>
       <c r="G74" t="n">
-        <v>-202323685</v>
+        <v>2135.58059680642</v>
       </c>
       <c r="H74" t="n">
-        <v>346113877</v>
+        <v>24070.63008321563</v>
       </c>
       <c r="I74" t="n">
-        <v>1277768977</v>
+        <v>50125.22214821994</v>
       </c>
       <c r="J74" t="n">
-        <v>1132612816</v>
+        <v>22690.47303727566</v>
       </c>
       <c r="K74" t="n">
-        <v>843613888</v>
+        <v>33729.9283164848</v>
       </c>
       <c r="L74" t="n">
-        <v>399475468</v>
+        <v>29823.16732509725</v>
       </c>
       <c r="M74" t="n">
-        <v>979408540</v>
+        <v>40259.27472438558</v>
       </c>
       <c r="N74" t="n">
-        <v>941509207</v>
+        <v>35921.34494119074</v>
       </c>
     </row>
     <row r="75">
@@ -3728,41 +3728,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5207566639</v>
+        <v>121251.7046871606</v>
       </c>
       <c r="C75" t="n">
-        <v>3109918880</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3991681417</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
+        <v>111581.5861644552</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>112943.0378964262</v>
+      </c>
       <c r="F75" t="n">
-        <v>2906703017</v>
+        <v>55808.04727516984</v>
       </c>
       <c r="G75" t="n">
-        <v>1046466224</v>
+        <v>17693.87457880697</v>
       </c>
       <c r="H75" t="n">
-        <v>108602813</v>
+        <v>48410.46284637485</v>
       </c>
       <c r="I75" t="n">
-        <v>-143202086</v>
+        <v>66820.81146205157</v>
       </c>
       <c r="J75" t="n">
-        <v>281698033</v>
+        <v>39204.57252650785</v>
       </c>
       <c r="K75" t="n">
-        <v>-1365251623</v>
+        <v>34281.40874588594</v>
       </c>
       <c r="L75" t="n">
-        <v>-1550997328</v>
+        <v>4511.778165808086</v>
       </c>
       <c r="M75" t="n">
-        <v>308005422</v>
+        <v>16585.83112899715</v>
       </c>
       <c r="N75" t="n">
-        <v>-1311540405</v>
+        <v>-36779.60019511957</v>
       </c>
     </row>
     <row r="76">
@@ -3772,41 +3772,41 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>553038080</v>
+        <v>35206.77746455907</v>
       </c>
       <c r="C76" t="n">
-        <v>125808167</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1016261780</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
+        <v>30051.25346727592</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>39146.46342564293</v>
+      </c>
       <c r="F76" t="n">
-        <v>597135177</v>
+        <v>20719.04025822839</v>
       </c>
       <c r="G76" t="n">
-        <v>468405392</v>
+        <v>47970.76386524012</v>
       </c>
       <c r="H76" t="n">
-        <v>1154874111</v>
+        <v>53341.86988109673</v>
       </c>
       <c r="I76" t="n">
-        <v>1097583778</v>
+        <v>61085.85508325656</v>
       </c>
       <c r="J76" t="n">
-        <v>1051522809</v>
+        <v>43375.15413502622</v>
       </c>
       <c r="K76" t="n">
-        <v>1563767751</v>
+        <v>59946.78296031978</v>
       </c>
       <c r="L76" t="n">
-        <v>1398211032</v>
+        <v>46803.79767689024</v>
       </c>
       <c r="M76" t="n">
-        <v>943980102</v>
+        <v>52641.69077451878</v>
       </c>
       <c r="N76" t="n">
-        <v>807484637</v>
+        <v>34567.87207935923</v>
       </c>
     </row>
     <row r="77">
@@ -3816,41 +3816,41 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7785052749</v>
+        <v>-51015.98170899092</v>
       </c>
       <c r="C77" t="n">
-        <v>-11837553218</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7555818581</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
+        <v>-16589.82550488254</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>384735.6619678856</v>
+      </c>
       <c r="F77" t="n">
-        <v>26913358769</v>
+        <v>214649.5326630855</v>
       </c>
       <c r="G77" t="n">
-        <v>11470700701</v>
+        <v>401008.8647220592</v>
       </c>
       <c r="H77" t="n">
-        <v>19325282479</v>
+        <v>388708.9107227317</v>
       </c>
       <c r="I77" t="n">
-        <v>25407808973</v>
+        <v>465205.1002123952</v>
       </c>
       <c r="J77" t="n">
-        <v>19101922836</v>
+        <v>447094.6419992686</v>
       </c>
       <c r="K77" t="n">
-        <v>25297229584</v>
+        <v>520060.5313820457</v>
       </c>
       <c r="L77" t="n">
-        <v>23222369984</v>
+        <v>487157.917438988</v>
       </c>
       <c r="M77" t="n">
-        <v>28439507154</v>
+        <v>540288.0461604383</v>
       </c>
       <c r="N77" t="n">
-        <v>29304095186</v>
+        <v>528617.8671021239</v>
       </c>
     </row>
     <row r="78">
@@ -3860,41 +3860,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1390353921</v>
+        <v>-54843.47025720363</v>
       </c>
       <c r="C78" t="n">
-        <v>-2413945525</v>
-      </c>
-      <c r="D78" t="n">
-        <v>653313922</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
+        <v>-33644.8880675224</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>-17305.79196890517</v>
+      </c>
       <c r="F78" t="n">
-        <v>2880668949</v>
+        <v>-62165.22886764852</v>
       </c>
       <c r="G78" t="n">
-        <v>1097721182</v>
+        <v>17828.46231084209</v>
       </c>
       <c r="H78" t="n">
-        <v>3674646163</v>
+        <v>18014.60426976393</v>
       </c>
       <c r="I78" t="n">
-        <v>5940369728</v>
+        <v>17789.91270060027</v>
       </c>
       <c r="J78" t="n">
-        <v>3704848157</v>
+        <v>25144.66708269235</v>
       </c>
       <c r="K78" t="n">
-        <v>5409118917</v>
+        <v>69800.78488319524</v>
       </c>
       <c r="L78" t="n">
-        <v>5285513481</v>
+        <v>58909.64022895198</v>
       </c>
       <c r="M78" t="n">
-        <v>6228532831</v>
+        <v>80152.00313494154</v>
       </c>
       <c r="N78" t="n">
-        <v>6087931217</v>
+        <v>32433.64031582955</v>
       </c>
     </row>
     <row r="79">
@@ -3904,41 +3904,41 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-146107834</v>
+        <v>-5655.212164296921</v>
       </c>
       <c r="C79" t="n">
-        <v>-461750309</v>
-      </c>
-      <c r="D79" t="n">
-        <v>222626797</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
+        <v>-104.6563090319869</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>-4507.993788404227</v>
+      </c>
       <c r="F79" t="n">
-        <v>-114944495</v>
+        <v>-34823.34151386753</v>
       </c>
       <c r="G79" t="n">
-        <v>-595442381</v>
+        <v>2439.315874241709</v>
       </c>
       <c r="H79" t="n">
-        <v>461491814</v>
+        <v>7888.490125298733</v>
       </c>
       <c r="I79" t="n">
-        <v>602324562</v>
+        <v>46863.66503692442</v>
       </c>
       <c r="J79" t="n">
-        <v>506087291</v>
+        <v>67172.63308829187</v>
       </c>
       <c r="K79" t="n">
-        <v>1166804542</v>
+        <v>50342.98754466626</v>
       </c>
       <c r="L79" t="n">
-        <v>263937013</v>
+        <v>11314.30635838059</v>
       </c>
       <c r="M79" t="n">
-        <v>338304451</v>
+        <v>9436.445603960525</v>
       </c>
       <c r="N79" t="n">
-        <v>11237787</v>
+        <v>-5700.378548020726</v>
       </c>
     </row>
     <row r="80">
@@ -3948,41 +3948,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-34221</v>
+        <v>-211.4024597775532</v>
       </c>
       <c r="C80" t="n">
-        <v>-31571</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-6710</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
+        <v>-127.3538377906218</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>146.7037831823024</v>
+      </c>
       <c r="F80" t="n">
-        <v>44036</v>
+        <v>138.57849761056</v>
       </c>
       <c r="G80" t="n">
-        <v>1196</v>
+        <v>123.9475695606816</v>
       </c>
       <c r="H80" t="n">
-        <v>26959</v>
+        <v>141.7462521550394</v>
       </c>
       <c r="I80" t="n">
-        <v>30422</v>
+        <v>191.2694434560837</v>
       </c>
       <c r="J80" t="n">
-        <v>22570</v>
+        <v>211.8372016431486</v>
       </c>
       <c r="K80" t="n">
-        <v>28897</v>
+        <v>215.7799805357299</v>
       </c>
       <c r="L80" t="n">
-        <v>61713</v>
+        <v>215.1115989434321</v>
       </c>
       <c r="M80" t="n">
-        <v>56743</v>
+        <v>276.7038127673704</v>
       </c>
       <c r="N80" t="n">
-        <v>61213</v>
+        <v>261.4172909353932</v>
       </c>
     </row>
     <row r="81">
@@ -3992,41 +3992,41 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-44509</v>
+        <v>-220.911434153679</v>
       </c>
       <c r="C81" t="n">
-        <v>-46527</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6573</v>
-      </c>
-      <c r="E81" t="inlineStr"/>
+        <v>-181.4246911414486</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>202.0207994188442</v>
+      </c>
       <c r="F81" t="n">
-        <v>37667</v>
+        <v>207.9381343823125</v>
       </c>
       <c r="G81" t="n">
-        <v>11091</v>
+        <v>199.5161379765646</v>
       </c>
       <c r="H81" t="n">
-        <v>42357</v>
+        <v>226.2984872930599</v>
       </c>
       <c r="I81" t="n">
-        <v>44057</v>
+        <v>323.0487904223652</v>
       </c>
       <c r="J81" t="n">
-        <v>42177</v>
+        <v>211.1958142849687</v>
       </c>
       <c r="K81" t="n">
-        <v>31955</v>
+        <v>298.5324822023858</v>
       </c>
       <c r="L81" t="n">
-        <v>30878</v>
+        <v>319.51471722171</v>
       </c>
       <c r="M81" t="n">
-        <v>33721</v>
+        <v>318.8973031641664</v>
       </c>
       <c r="N81" t="n">
-        <v>32674</v>
+        <v>234.5861927081464</v>
       </c>
     </row>
     <row r="82">
@@ -4036,41 +4036,41 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-2138</v>
+        <v>237.4648490607839</v>
       </c>
       <c r="C82" t="n">
-        <v>-20106</v>
-      </c>
-      <c r="D82" t="n">
-        <v>10826</v>
-      </c>
-      <c r="E82" t="inlineStr"/>
+        <v>-23.83703943931064</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>145.2178202789638</v>
+      </c>
       <c r="F82" t="n">
-        <v>15389</v>
+        <v>64.89354430675064</v>
       </c>
       <c r="G82" t="n">
-        <v>315</v>
+        <v>193.749655705505</v>
       </c>
       <c r="H82" t="n">
-        <v>28513</v>
+        <v>244.7249415440013</v>
       </c>
       <c r="I82" t="n">
-        <v>27785</v>
+        <v>165.6209240677551</v>
       </c>
       <c r="J82" t="n">
-        <v>3649</v>
+        <v>105.9955891068441</v>
       </c>
       <c r="K82" t="n">
-        <v>13864</v>
+        <v>243.3229326107541</v>
       </c>
       <c r="L82" t="n">
-        <v>11106</v>
+        <v>251.443516246955</v>
       </c>
       <c r="M82" t="n">
-        <v>14360</v>
+        <v>249.7802621913852</v>
       </c>
       <c r="N82" t="n">
-        <v>14277</v>
+        <v>196.1436713040591</v>
       </c>
     </row>
     <row r="83">
@@ -4080,41 +4080,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-16345772</v>
+        <v>-119.444073166851</v>
       </c>
       <c r="C83" t="n">
-        <v>-32626714</v>
-      </c>
-      <c r="D83" t="n">
-        <v>19039173</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
+        <v>-5043.348229578028</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>14130.43117306806</v>
+      </c>
       <c r="F83" t="n">
-        <v>142336865</v>
+        <v>10267.6258257407</v>
       </c>
       <c r="G83" t="n">
-        <v>76091260</v>
+        <v>14788.38984038633</v>
       </c>
       <c r="H83" t="n">
-        <v>197585465</v>
+        <v>23683.68321057974</v>
       </c>
       <c r="I83" t="n">
-        <v>273384167</v>
+        <v>31365.1297622873</v>
       </c>
       <c r="J83" t="n">
-        <v>274839455</v>
+        <v>35929.8999296106</v>
       </c>
       <c r="K83" t="n">
-        <v>414900781</v>
+        <v>36122.65767781574</v>
       </c>
       <c r="L83" t="n">
-        <v>447885516</v>
+        <v>37386.51409610618</v>
       </c>
       <c r="M83" t="n">
-        <v>482881142</v>
+        <v>40259.68041920674</v>
       </c>
       <c r="N83" t="n">
-        <v>603436186</v>
+        <v>42730.38602747543</v>
       </c>
     </row>
     <row r="84">
@@ -4124,41 +4124,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1316890399</v>
+        <v>-51497.99704604151</v>
       </c>
       <c r="C84" t="n">
-        <v>-1491882176</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-302912844</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
+        <v>-55296.38877006404</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>-1428.597144418984</v>
+      </c>
       <c r="F84" t="n">
-        <v>242005153</v>
+        <v>18036.92265041308</v>
       </c>
       <c r="G84" t="n">
-        <v>1222211240</v>
+        <v>86940.92570447558</v>
       </c>
       <c r="H84" t="n">
-        <v>3086211945</v>
+        <v>80829.6860153794</v>
       </c>
       <c r="I84" t="n">
-        <v>2164464864</v>
+        <v>84788.82894252159</v>
       </c>
       <c r="J84" t="n">
-        <v>1437309028</v>
+        <v>63201.41607290153</v>
       </c>
       <c r="K84" t="n">
-        <v>1893394650</v>
+        <v>87587.0016315229</v>
       </c>
       <c r="L84" t="n">
-        <v>2781700073</v>
+        <v>95425.31314467316</v>
       </c>
       <c r="M84" t="n">
-        <v>2910311176</v>
+        <v>110892.6722024891</v>
       </c>
       <c r="N84" t="n">
-        <v>2897233865</v>
+        <v>79479.52803763993</v>
       </c>
     </row>
     <row r="85">
@@ -4168,41 +4168,41 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-531270070</v>
+        <v>-22743.01509560104</v>
       </c>
       <c r="C85" t="n">
-        <v>-3284663284</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-378623610</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
+        <v>-89532.03157827038</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>-1935.082471656884</v>
+      </c>
       <c r="F85" t="n">
-        <v>-468546199</v>
+        <v>-30151.4483637559</v>
       </c>
       <c r="G85" t="n">
-        <v>920665896</v>
+        <v>24918.86194662391</v>
       </c>
       <c r="H85" t="n">
-        <v>3052112048</v>
+        <v>65311.36035960275</v>
       </c>
       <c r="I85" t="n">
-        <v>1778086779</v>
+        <v>64515.54270181542</v>
       </c>
       <c r="J85" t="n">
-        <v>80672817</v>
+        <v>18705.81968717198</v>
       </c>
       <c r="K85" t="n">
-        <v>-2880506106</v>
+        <v>17645.78555999651</v>
       </c>
       <c r="L85" t="n">
-        <v>-1057099822</v>
+        <v>13144.0522520113</v>
       </c>
       <c r="M85" t="n">
-        <v>-2179936980</v>
+        <v>-6029.920211624481</v>
       </c>
       <c r="N85" t="n">
-        <v>-4947191214</v>
+        <v>-45061.02153229186</v>
       </c>
     </row>
     <row r="86">
@@ -4212,41 +4212,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>61461719</v>
+        <v>9195.97484199164</v>
       </c>
       <c r="C86" t="n">
-        <v>-67329988</v>
-      </c>
-      <c r="D86" t="n">
-        <v>206291588</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
+        <v>11400.84877404269</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>32577.71683163863</v>
+      </c>
       <c r="F86" t="n">
-        <v>497289165</v>
+        <v>32954.96606914516</v>
       </c>
       <c r="G86" t="n">
-        <v>1077627235</v>
+        <v>39453.65852748416</v>
       </c>
       <c r="H86" t="n">
-        <v>1451268948</v>
+        <v>29696.00883781861</v>
       </c>
       <c r="I86" t="n">
-        <v>1339860753</v>
+        <v>33043.50341784383</v>
       </c>
       <c r="J86" t="n">
-        <v>1000977610</v>
+        <v>33681.22903376094</v>
       </c>
       <c r="K86" t="n">
-        <v>1733778535</v>
+        <v>43739.49172788067</v>
       </c>
       <c r="L86" t="n">
-        <v>1580592998</v>
+        <v>36104.49943618957</v>
       </c>
       <c r="M86" t="n">
-        <v>1355142273</v>
+        <v>50394.59867763246</v>
       </c>
       <c r="N86" t="n">
-        <v>1327444168</v>
+        <v>72445.59097914517</v>
       </c>
     </row>
     <row r="87">
@@ -4256,41 +4256,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-131961915</v>
+        <v>-16420.96210108133</v>
       </c>
       <c r="C87" t="n">
-        <v>-647878005</v>
-      </c>
-      <c r="D87" t="n">
-        <v>376285072</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
+        <v>2473.310724112744</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>34135.52745999598</v>
+      </c>
       <c r="F87" t="n">
-        <v>1130569430</v>
+        <v>33521.15756794485</v>
       </c>
       <c r="G87" t="n">
-        <v>806043580</v>
+        <v>43153.98010092548</v>
       </c>
       <c r="H87" t="n">
-        <v>1310196526</v>
+        <v>53188.49758784561</v>
       </c>
       <c r="I87" t="n">
-        <v>1456282680</v>
+        <v>52622.74026124128</v>
       </c>
       <c r="J87" t="n">
-        <v>953325508</v>
+        <v>52731.03673954472</v>
       </c>
       <c r="K87" t="n">
-        <v>1328685814</v>
+        <v>65638.2468049008</v>
       </c>
       <c r="L87" t="n">
-        <v>2099094284</v>
+        <v>65602.88871788119</v>
       </c>
       <c r="M87" t="n">
-        <v>2800358376</v>
+        <v>62309.57069637605</v>
       </c>
       <c r="N87" t="n">
-        <v>2526562370</v>
+        <v>52207.59477264401</v>
       </c>
     </row>
     <row r="88">
@@ -4300,41 +4300,41 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-179773128</v>
+        <v>2756.594527255324</v>
       </c>
       <c r="C88" t="n">
-        <v>-310680749</v>
-      </c>
-      <c r="D88" t="n">
-        <v>73430140</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
+        <v>-5724.789668828996</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>35240.58205663483</v>
+      </c>
       <c r="F88" t="n">
-        <v>621958020</v>
+        <v>31161.68594336173</v>
       </c>
       <c r="G88" t="n">
-        <v>490378742</v>
+        <v>42719.43620309597</v>
       </c>
       <c r="H88" t="n">
-        <v>724653400</v>
+        <v>33959.11433830579</v>
       </c>
       <c r="I88" t="n">
-        <v>605606253</v>
+        <v>41346.83626550627</v>
       </c>
       <c r="J88" t="n">
-        <v>446478369</v>
+        <v>24053.13201768802</v>
       </c>
       <c r="K88" t="n">
-        <v>579646948</v>
+        <v>39652.45481032566</v>
       </c>
       <c r="L88" t="n">
-        <v>632491726</v>
+        <v>28285.83355270013</v>
       </c>
       <c r="M88" t="n">
-        <v>365578670</v>
+        <v>28809.11618694982</v>
       </c>
       <c r="N88" t="n">
-        <v>293835119</v>
+        <v>31774.19297516133</v>
       </c>
     </row>
     <row r="89">
@@ -4344,41 +4344,41 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9628748027</v>
+        <v>214788.5209157433</v>
       </c>
       <c r="C89" t="n">
-        <v>9280590091</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4739225372</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
+        <v>122008.9823480488</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>98487.76582871999</v>
+      </c>
       <c r="F89" t="n">
-        <v>2546148165</v>
+        <v>69224.16387085362</v>
       </c>
       <c r="G89" t="n">
-        <v>1576612527</v>
+        <v>100873.9395620598</v>
       </c>
       <c r="H89" t="n">
-        <v>3393249655</v>
+        <v>76514.69073431581</v>
       </c>
       <c r="I89" t="n">
-        <v>3234745672</v>
+        <v>134811.5610907654</v>
       </c>
       <c r="J89" t="n">
-        <v>6482664865</v>
+        <v>87391.4937888298</v>
       </c>
       <c r="K89" t="n">
-        <v>-662187088</v>
+        <v>76319.05505793725</v>
       </c>
       <c r="L89" t="n">
-        <v>-3424187973</v>
+        <v>46999.77361895457</v>
       </c>
       <c r="M89" t="n">
-        <v>-3157598267</v>
+        <v>31677.40328513115</v>
       </c>
       <c r="N89" t="n">
-        <v>2340955329</v>
+        <v>94012.63662201285</v>
       </c>
     </row>
     <row r="90">
@@ -4388,41 +4388,41 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-1474743</v>
+        <v>-4293.973595701898</v>
       </c>
       <c r="C90" t="n">
-        <v>-1945400</v>
-      </c>
-      <c r="D90" t="n">
-        <v>4123755</v>
-      </c>
-      <c r="E90" t="inlineStr"/>
+        <v>-8728.824162573708</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>-965.4356562704306</v>
+      </c>
       <c r="F90" t="n">
-        <v>10267887</v>
+        <v>-3819.457068380421</v>
       </c>
       <c r="G90" t="n">
-        <v>6566128</v>
+        <v>9476.197494978005</v>
       </c>
       <c r="H90" t="n">
-        <v>6646444</v>
+        <v>15471.88593898757</v>
       </c>
       <c r="I90" t="n">
-        <v>5623854</v>
+        <v>19783.31078110824</v>
       </c>
       <c r="J90" t="n">
-        <v>4956651</v>
+        <v>16403.03031996922</v>
       </c>
       <c r="K90" t="n">
-        <v>3477818</v>
+        <v>19038.14208848243</v>
       </c>
       <c r="L90" t="n">
-        <v>-3974217</v>
+        <v>9689.14581396689</v>
       </c>
       <c r="M90" t="n">
-        <v>-10714599</v>
+        <v>8014.13717255818</v>
       </c>
       <c r="N90" t="n">
-        <v>-16258637</v>
+        <v>-581.8732321274119</v>
       </c>
     </row>
     <row r="91">
@@ -4432,41 +4432,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>898211243</v>
+        <v>84822.58238713279</v>
       </c>
       <c r="C91" t="n">
-        <v>873181924</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1559837144</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+        <v>72194.53105669076</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>79215.46713235126</v>
+      </c>
       <c r="F91" t="n">
-        <v>2853165416</v>
+        <v>67635.19932682824</v>
       </c>
       <c r="G91" t="n">
-        <v>2233019020</v>
+        <v>49555.50265717241</v>
       </c>
       <c r="H91" t="n">
-        <v>2047119747</v>
+        <v>99538.43106507199</v>
       </c>
       <c r="I91" t="n">
-        <v>2739824538</v>
+        <v>155233.3522138938</v>
       </c>
       <c r="J91" t="n">
-        <v>3190537806</v>
+        <v>153401.2644840258</v>
       </c>
       <c r="K91" t="n">
-        <v>3593331312</v>
+        <v>124333.7234509337</v>
       </c>
       <c r="L91" t="n">
-        <v>3134498255</v>
+        <v>100315.2819787852</v>
       </c>
       <c r="M91" t="n">
-        <v>2012234538</v>
+        <v>128098.9704679478</v>
       </c>
       <c r="N91" t="n">
-        <v>1599582968</v>
+        <v>52170.64126973323</v>
       </c>
     </row>
     <row r="92">
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25855402420</v>
+        <v>391546.4956518349</v>
       </c>
       <c r="C92" t="n">
-        <v>6829561268</v>
-      </c>
-      <c r="D92" t="n">
-        <v>27645601468</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
+        <v>258748.9539570542</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>702438.1964553632</v>
+      </c>
       <c r="F92" t="n">
-        <v>44600626313</v>
+        <v>596493.3452141912</v>
       </c>
       <c r="G92" t="n">
-        <v>46115731681</v>
+        <v>764768.8259208454</v>
       </c>
       <c r="H92" t="n">
-        <v>65803484836</v>
+        <v>811885.6350919039</v>
       </c>
       <c r="I92" t="n">
-        <v>72084179350</v>
+        <v>1043257.859428809</v>
       </c>
       <c r="J92" t="n">
-        <v>84300458336</v>
+        <v>1025323.192040741</v>
       </c>
       <c r="K92" t="n">
-        <v>98880257524</v>
+        <v>1058902.023536567</v>
       </c>
       <c r="L92" t="n">
-        <v>82086472137</v>
+        <v>977997.3170459437</v>
       </c>
       <c r="M92" t="n">
-        <v>79646811338</v>
+        <v>1063642.498373823</v>
       </c>
       <c r="N92" t="n">
-        <v>91551642347</v>
+        <v>959237.8593005028</v>
       </c>
     </row>
     <row r="93">
@@ -4520,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>137684841</v>
+        <v>109827.4734750571</v>
       </c>
       <c r="C93" t="n">
-        <v>2109756784</v>
-      </c>
-      <c r="D93" t="n">
-        <v>13970122302</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
+        <v>110195.0379738362</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>297145.9255452108</v>
+      </c>
       <c r="F93" t="n">
-        <v>16173457648</v>
+        <v>237577.5038242397</v>
       </c>
       <c r="G93" t="n">
-        <v>10821814821</v>
+        <v>266175.9286170684</v>
       </c>
       <c r="H93" t="n">
-        <v>17487467720</v>
+        <v>395309.9710986154</v>
       </c>
       <c r="I93" t="n">
-        <v>20095997849</v>
+        <v>496393.5851440573</v>
       </c>
       <c r="J93" t="n">
-        <v>16837414389</v>
+        <v>464477.7244055954</v>
       </c>
       <c r="K93" t="n">
-        <v>23920171001</v>
+        <v>555391.4446040048</v>
       </c>
       <c r="L93" t="n">
-        <v>25883705785</v>
+        <v>511338.3126113773</v>
       </c>
       <c r="M93" t="n">
-        <v>17329263977</v>
+        <v>474700.8683778815</v>
       </c>
       <c r="N93" t="n">
-        <v>18696329949</v>
+        <v>311888.3889295792</v>
       </c>
     </row>
     <row r="94">
@@ -4564,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5886830493</v>
+        <v>273432.299162533</v>
       </c>
       <c r="C94" t="n">
-        <v>4038811796</v>
-      </c>
-      <c r="D94" t="n">
-        <v>8465719551</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
+        <v>195906.5647351681</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>346826.8280527298</v>
+      </c>
       <c r="F94" t="n">
-        <v>14446587188</v>
+        <v>292376.1745147868</v>
       </c>
       <c r="G94" t="n">
-        <v>13478924983</v>
+        <v>413011.6711915307</v>
       </c>
       <c r="H94" t="n">
-        <v>15985684995</v>
+        <v>391678.6023684941</v>
       </c>
       <c r="I94" t="n">
-        <v>12876275957</v>
+        <v>526367.315210451</v>
       </c>
       <c r="J94" t="n">
-        <v>13938632321</v>
+        <v>453724.914483582</v>
       </c>
       <c r="K94" t="n">
-        <v>11060312403</v>
+        <v>371335.2118625737</v>
       </c>
       <c r="L94" t="n">
-        <v>6702909863</v>
+        <v>348211.1448424337</v>
       </c>
       <c r="M94" t="n">
-        <v>6014998130</v>
+        <v>399006.6817680241</v>
       </c>
       <c r="N94" t="n">
-        <v>11846292366</v>
+        <v>356552.9236724298</v>
       </c>
     </row>
     <row r="95">
@@ -4608,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>6078053071</v>
+        <v>268163.0794573054</v>
       </c>
       <c r="C95" t="n">
-        <v>5501008916</v>
-      </c>
-      <c r="D95" t="n">
-        <v>12186528972</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
+        <v>347674.1635922297</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>473819.5417254453</v>
+      </c>
       <c r="F95" t="n">
-        <v>22556274261</v>
+        <v>480879.0654128481</v>
       </c>
       <c r="G95" t="n">
-        <v>19876110194</v>
+        <v>565464.5868056294</v>
       </c>
       <c r="H95" t="n">
-        <v>32248134089</v>
+        <v>510913.547044449</v>
       </c>
       <c r="I95" t="n">
-        <v>20110263229</v>
+        <v>558703.5303997749</v>
       </c>
       <c r="J95" t="n">
-        <v>20495279412</v>
+        <v>563252.9295000635</v>
       </c>
       <c r="K95" t="n">
-        <v>25614695357</v>
+        <v>625505.838798182</v>
       </c>
       <c r="L95" t="n">
-        <v>29694281149</v>
+        <v>696539.0080708069</v>
       </c>
       <c r="M95" t="n">
-        <v>33181559081</v>
+        <v>718132.5158073119</v>
       </c>
       <c r="N95" t="n">
-        <v>30983172842</v>
+        <v>726472.697339302</v>
       </c>
     </row>
     <row r="96">
@@ -4652,41 +4652,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>244512597</v>
+        <v>53438.12798007161</v>
       </c>
       <c r="C96" t="n">
-        <v>-13608257</v>
-      </c>
-      <c r="D96" t="n">
-        <v>525436999</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
+        <v>32987.09254285455</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>70656.25617045768</v>
+      </c>
       <c r="F96" t="n">
-        <v>799846373</v>
+        <v>30461.1288582028</v>
       </c>
       <c r="G96" t="n">
-        <v>636834159</v>
+        <v>38776.12487421431</v>
       </c>
       <c r="H96" t="n">
-        <v>1251827965</v>
+        <v>54059.03166538708</v>
       </c>
       <c r="I96" t="n">
-        <v>1376678352</v>
+        <v>93035.92819004807</v>
       </c>
       <c r="J96" t="n">
-        <v>1277927091</v>
+        <v>107415.2479851941</v>
       </c>
       <c r="K96" t="n">
-        <v>2092467055</v>
+        <v>120695.8067971343</v>
       </c>
       <c r="L96" t="n">
-        <v>1978149877</v>
+        <v>112333.652788238</v>
       </c>
       <c r="M96" t="n">
-        <v>2129239402</v>
+        <v>128311.0665142782</v>
       </c>
       <c r="N96" t="n">
-        <v>2762040220</v>
+        <v>101374.3137415695</v>
       </c>
     </row>
     <row r="97">
@@ -4696,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>489064809</v>
+        <v>105572.7724267515</v>
       </c>
       <c r="C97" t="n">
-        <v>-3348355256</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6653909130</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
+        <v>62913.5313147651</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>343718.6932638553</v>
+      </c>
       <c r="F97" t="n">
-        <v>20284320034</v>
+        <v>461141.948735845</v>
       </c>
       <c r="G97" t="n">
-        <v>36780069468</v>
+        <v>450086.6088714174</v>
       </c>
       <c r="H97" t="n">
-        <v>38441556066</v>
+        <v>462916.318515453</v>
       </c>
       <c r="I97" t="n">
-        <v>37502594658</v>
+        <v>488218.9033633231</v>
       </c>
       <c r="J97" t="n">
-        <v>33397455316</v>
+        <v>432496.4982147705</v>
       </c>
       <c r="K97" t="n">
-        <v>33148106597</v>
+        <v>477866.9459594362</v>
       </c>
       <c r="L97" t="n">
-        <v>38545871188</v>
+        <v>455729.7424739193</v>
       </c>
       <c r="M97" t="n">
-        <v>37292252536</v>
+        <v>458811.9720830705</v>
       </c>
       <c r="N97" t="n">
-        <v>31714005369</v>
+        <v>413273.4477491306</v>
       </c>
     </row>
     <row r="98">
@@ -4740,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>24304773557</v>
+        <v>418215.7088544068</v>
       </c>
       <c r="C98" t="n">
-        <v>28536750688</v>
-      </c>
-      <c r="D98" t="n">
-        <v>51964449783</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
+        <v>382564.7329574153</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>860399.5134006586</v>
+      </c>
       <c r="F98" t="n">
-        <v>69194470793</v>
+        <v>649202.282558475</v>
       </c>
       <c r="G98" t="n">
-        <v>34968737985</v>
+        <v>797858.2347938867</v>
       </c>
       <c r="H98" t="n">
-        <v>70440535132</v>
+        <v>829395.3307166018</v>
       </c>
       <c r="I98" t="n">
-        <v>84400920938</v>
+        <v>1040815.204908668</v>
       </c>
       <c r="J98" t="n">
-        <v>73526911194</v>
+        <v>993167.3930635197</v>
       </c>
       <c r="K98" t="n">
-        <v>95312549158</v>
+        <v>1142438.362259572</v>
       </c>
       <c r="L98" t="n">
-        <v>92908578778</v>
+        <v>1068868.226084039</v>
       </c>
       <c r="M98" t="n">
-        <v>94109319437</v>
+        <v>1317496.443811731</v>
       </c>
       <c r="N98" t="n">
-        <v>146606761187</v>
+        <v>1307892.409649011</v>
       </c>
     </row>
     <row r="99">
@@ -4784,41 +4784,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-2580993201</v>
+        <v>37803.39632000927</v>
       </c>
       <c r="C99" t="n">
-        <v>-2217235893</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1672810141</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
+        <v>-29103.56595200689</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>93278.90833714382</v>
+      </c>
       <c r="F99" t="n">
-        <v>2910685207</v>
+        <v>60675.21511321229</v>
       </c>
       <c r="G99" t="n">
-        <v>1694725970</v>
+        <v>123340.0748051295</v>
       </c>
       <c r="H99" t="n">
-        <v>4636638349</v>
+        <v>144619.3984977903</v>
       </c>
       <c r="I99" t="n">
-        <v>5117341701</v>
+        <v>187222.3206735271</v>
       </c>
       <c r="J99" t="n">
-        <v>4715639467</v>
+        <v>156539.6840041822</v>
       </c>
       <c r="K99" t="n">
-        <v>5672003214</v>
+        <v>204668.2734081273</v>
       </c>
       <c r="L99" t="n">
-        <v>5698156252</v>
+        <v>94887.56593540579</v>
       </c>
       <c r="M99" t="n">
-        <v>1760465856</v>
+        <v>79707.09728623796</v>
       </c>
       <c r="N99" t="n">
-        <v>1714080741</v>
+        <v>-20912.99240300438</v>
       </c>
     </row>
     <row r="100">
@@ -4828,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3152939254</v>
+        <v>103039.0621524914</v>
       </c>
       <c r="C100" t="n">
-        <v>538434833</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5169497172</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
+        <v>66374.51548037973</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>229644.8353230479</v>
+      </c>
       <c r="F100" t="n">
-        <v>8939682318</v>
+        <v>148262.3606993885</v>
       </c>
       <c r="G100" t="n">
-        <v>5165417328</v>
+        <v>149621.0986482869</v>
       </c>
       <c r="H100" t="n">
-        <v>6934030276</v>
+        <v>134598.2649739824</v>
       </c>
       <c r="I100" t="n">
-        <v>7683235286</v>
+        <v>238689.9712306012</v>
       </c>
       <c r="J100" t="n">
-        <v>5684348882</v>
+        <v>213050.7458313969</v>
       </c>
       <c r="K100" t="n">
-        <v>7980250988</v>
+        <v>287313.1245013344</v>
       </c>
       <c r="L100" t="n">
-        <v>8239428161</v>
+        <v>309157.8985944198</v>
       </c>
       <c r="M100" t="n">
-        <v>9773767986</v>
+        <v>326063.8712787476</v>
       </c>
       <c r="N100" t="n">
-        <v>10890633660</v>
+        <v>211731.7353382859</v>
       </c>
     </row>
     <row r="101">
@@ -4872,41 +4872,41 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>510910565</v>
+        <v>30735.83583241172</v>
       </c>
       <c r="C101" t="n">
-        <v>485820688</v>
-      </c>
-      <c r="D101" t="n">
-        <v>397742725</v>
-      </c>
-      <c r="E101" t="inlineStr"/>
+        <v>15681.65071406507</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>40598.12869131057</v>
+      </c>
       <c r="F101" t="n">
-        <v>539879970</v>
+        <v>73832.26721424681</v>
       </c>
       <c r="G101" t="n">
-        <v>2590871432</v>
+        <v>65194.54564337217</v>
       </c>
       <c r="H101" t="n">
-        <v>1772137055</v>
+        <v>69277.83568146774</v>
       </c>
       <c r="I101" t="n">
-        <v>2422286456</v>
+        <v>67051.25596957625</v>
       </c>
       <c r="J101" t="n">
-        <v>2166886600</v>
+        <v>61850.65478377724</v>
       </c>
       <c r="K101" t="n">
-        <v>2376636570</v>
+        <v>57101.8357162815</v>
       </c>
       <c r="L101" t="n">
-        <v>2214555912</v>
+        <v>52246.1801386525</v>
       </c>
       <c r="M101" t="n">
-        <v>1607585512</v>
+        <v>46248.52643489233</v>
       </c>
       <c r="N101" t="n">
-        <v>1607926523</v>
+        <v>52122.92353496184</v>
       </c>
     </row>
     <row r="102">
@@ -4916,41 +4916,41 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-118152932</v>
+        <v>-3106.430277689641</v>
       </c>
       <c r="C102" t="n">
-        <v>-229678028</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-21980036</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
+        <v>-4031.376787973902</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>16629.01582950093</v>
+      </c>
       <c r="F102" t="n">
-        <v>208861527</v>
+        <v>63507.92686357343</v>
       </c>
       <c r="G102" t="n">
-        <v>955112490</v>
+        <v>56199.34269660767</v>
       </c>
       <c r="H102" t="n">
-        <v>969818479</v>
+        <v>56017.23826790257</v>
       </c>
       <c r="I102" t="n">
-        <v>976300975</v>
+        <v>55093.94694327203</v>
       </c>
       <c r="J102" t="n">
-        <v>800495985</v>
+        <v>47861.56110490413</v>
       </c>
       <c r="K102" t="n">
-        <v>840883683</v>
+        <v>43238.46110941304</v>
       </c>
       <c r="L102" t="n">
-        <v>647259506</v>
+        <v>35382.51675867657</v>
       </c>
       <c r="M102" t="n">
-        <v>491493390</v>
+        <v>32310.98430672226</v>
       </c>
       <c r="N102" t="n">
-        <v>389780790</v>
+        <v>22267.33791045218</v>
       </c>
     </row>
     <row r="103">
@@ -4960,41 +4960,41 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1859233028</v>
+        <v>-33143.80686354246</v>
       </c>
       <c r="C103" t="n">
-        <v>220128567</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-1674747123</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
+        <v>-18268.6590473857</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>-28187.98018484947</v>
+      </c>
       <c r="F103" t="n">
-        <v>-15642806</v>
+        <v>70623.83122723419</v>
       </c>
       <c r="G103" t="n">
-        <v>2963276676</v>
+        <v>64634.73217434906</v>
       </c>
       <c r="H103" t="n">
-        <v>2539246509</v>
+        <v>63169.33842648201</v>
       </c>
       <c r="I103" t="n">
-        <v>385822465</v>
+        <v>-482.9989254262878</v>
       </c>
       <c r="J103" t="n">
-        <v>-1569401255</v>
+        <v>-11409.93058179367</v>
       </c>
       <c r="K103" t="n">
-        <v>90934132</v>
+        <v>-9273.427788072917</v>
       </c>
       <c r="L103" t="n">
-        <v>401360636</v>
+        <v>-10252.30278372187</v>
       </c>
       <c r="M103" t="n">
-        <v>-1243973869</v>
+        <v>-27709.05798915635</v>
       </c>
       <c r="N103" t="n">
-        <v>-1846644500</v>
+        <v>-8046.782030780058</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
@@ -511,42 +511,42 @@
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>179377.4206995686</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>177676.8566036897</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>119370.89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73921.22</v>
+      </c>
       <c r="E2" t="n">
-        <v>136580.7099636008</v>
+        <v>151246.4</v>
       </c>
       <c r="F2" t="n">
-        <v>95396.51217389869</v>
+        <v>93948.78</v>
       </c>
       <c r="G2" t="n">
-        <v>164945.340632739</v>
+        <v>205294.19</v>
       </c>
       <c r="H2" t="n">
-        <v>104848.9349805656</v>
+        <v>218868.2</v>
       </c>
       <c r="I2" t="n">
-        <v>206772.8441505273</v>
+        <v>260522.52</v>
       </c>
       <c r="J2" t="n">
-        <v>225736.2170783182</v>
+        <v>310488.96</v>
       </c>
       <c r="K2" t="n">
-        <v>276497.1395253978</v>
+        <v>360377.91</v>
       </c>
       <c r="L2" t="n">
-        <v>309612.7792337933</v>
+        <v>351305.48</v>
       </c>
       <c r="M2" t="n">
-        <v>362129.3052518862</v>
+        <v>397841.73</v>
       </c>
       <c r="N2" t="n">
-        <v>348236.8158401827</v>
+        <v>463924.31</v>
       </c>
     </row>
     <row r="3">
@@ -555,42 +555,42 @@
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>148548.5587424432</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>107882.3584070822</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>100439.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91750.56</v>
+      </c>
       <c r="E3" t="n">
-        <v>146333.2359602258</v>
+        <v>102942.88</v>
       </c>
       <c r="F3" t="n">
-        <v>147053.2514315678</v>
+        <v>130276.06</v>
       </c>
       <c r="G3" t="n">
-        <v>163677.5178705937</v>
+        <v>187957.73</v>
       </c>
       <c r="H3" t="n">
-        <v>206118.8111586108</v>
+        <v>98714.37</v>
       </c>
       <c r="I3" t="n">
-        <v>248716.0050194706</v>
+        <v>168494.05</v>
       </c>
       <c r="J3" t="n">
-        <v>164383.0145291494</v>
+        <v>145129.3</v>
       </c>
       <c r="K3" t="n">
-        <v>218473.4574951207</v>
+        <v>226353.73</v>
       </c>
       <c r="L3" t="n">
-        <v>186840.843220724</v>
+        <v>70813.20999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>192982.0663853615</v>
+        <v>126937.08</v>
       </c>
       <c r="N3" t="n">
-        <v>93977.16010945011</v>
+        <v>232723.04</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
           <t>光電業平</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>58528.78563792636</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>5295.927901549397</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>77167.74000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30482.46</v>
+      </c>
       <c r="E4" t="n">
-        <v>16156.82637444324</v>
+        <v>49037.63</v>
       </c>
       <c r="F4" t="n">
-        <v>-45087.78195726061</v>
+        <v>65901.16</v>
       </c>
       <c r="G4" t="n">
-        <v>-23073.99125903382</v>
+        <v>89686.5</v>
       </c>
       <c r="H4" t="n">
-        <v>-17999.48654785132</v>
+        <v>67381.27</v>
       </c>
       <c r="I4" t="n">
-        <v>31330.75605316851</v>
+        <v>114111.34</v>
       </c>
       <c r="J4" t="n">
-        <v>-2932.416282303409</v>
+        <v>140885.82</v>
       </c>
       <c r="K4" t="n">
-        <v>50934.14934170419</v>
+        <v>142095.56</v>
       </c>
       <c r="L4" t="n">
-        <v>103042.1754146603</v>
+        <v>83521.03</v>
       </c>
       <c r="M4" t="n">
-        <v>177109.6280394076</v>
+        <v>70543.28</v>
       </c>
       <c r="N4" t="n">
-        <v>62773.86857186748</v>
+        <v>87677.01999999999</v>
       </c>
     </row>
     <row r="5">
@@ -643,42 +643,42 @@
           <t>其他右上</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>6047.664347305237</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-17816.37822070499</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>24399.92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12330.12</v>
+      </c>
       <c r="E5" t="n">
-        <v>-197.2268961224836</v>
+        <v>4423.670000000002</v>
       </c>
       <c r="F5" t="n">
-        <v>-10627.16325187987</v>
+        <v>35614.95</v>
       </c>
       <c r="G5" t="n">
-        <v>-14989.86089631222</v>
+        <v>69042.23999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>13330.90598459396</v>
+        <v>96540.25</v>
       </c>
       <c r="I5" t="n">
-        <v>42191.88388678899</v>
+        <v>84858.56</v>
       </c>
       <c r="J5" t="n">
-        <v>66882.90494126041</v>
+        <v>59670.36000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>61751.71183904312</v>
+        <v>47467.17</v>
       </c>
       <c r="L5" t="n">
-        <v>43983.04739165064</v>
+        <v>18747.47</v>
       </c>
       <c r="M5" t="n">
-        <v>24444.75461354707</v>
+        <v>38030.39999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>16853.32424912012</v>
+        <v>50877.35000000001</v>
       </c>
     </row>
     <row r="6">
@@ -687,42 +687,42 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>17731.88023172951</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-16527.90538312584</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>65346.91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35201.81</v>
+      </c>
       <c r="E6" t="n">
-        <v>56936.84772801916</v>
+        <v>85958.62000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>32407.29388397371</v>
+        <v>113377.66</v>
       </c>
       <c r="G6" t="n">
-        <v>77284.90938700855</v>
+        <v>181301.46</v>
       </c>
       <c r="H6" t="n">
-        <v>101304.7565320865</v>
+        <v>124296.94</v>
       </c>
       <c r="I6" t="n">
-        <v>165865.7900954004</v>
+        <v>114856.22</v>
       </c>
       <c r="J6" t="n">
-        <v>104572.1289438682</v>
+        <v>77466.79999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>99312.64258724992</v>
+        <v>73448.86</v>
       </c>
       <c r="L6" t="n">
-        <v>61765.83192171133</v>
+        <v>55405.60000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>68118.19566893889</v>
+        <v>73312.74000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>52748.60163867463</v>
+        <v>81176.29000000001</v>
       </c>
     </row>
     <row r="7">
@@ -731,42 +731,42 @@
           <t>其他平</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>78876.43203238999</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>71051.51767529974</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>65867.21000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52462.14</v>
+      </c>
       <c r="E7" t="n">
-        <v>98874.37356148436</v>
+        <v>65309.48</v>
       </c>
       <c r="F7" t="n">
-        <v>78213.93565739614</v>
+        <v>69962.95999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>93396.71022168864</v>
+        <v>87201.99000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>104319.891201426</v>
+        <v>89948.92</v>
       </c>
       <c r="I7" t="n">
-        <v>129488.0220803466</v>
+        <v>114805.03</v>
       </c>
       <c r="J7" t="n">
-        <v>139331.0883886438</v>
+        <v>119366.46</v>
       </c>
       <c r="K7" t="n">
-        <v>153455.4386686097</v>
+        <v>89768.68000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>150754.7481597993</v>
+        <v>76768.73</v>
       </c>
       <c r="M7" t="n">
-        <v>118121.7231619645</v>
+        <v>77086.82000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>81319.84731416375</v>
+        <v>91742.89999999999</v>
       </c>
     </row>
     <row r="8">
@@ -775,42 +775,42 @@
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>206551.412485224</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>212301.8028012847</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>567317.46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>363419.18</v>
+      </c>
       <c r="E8" t="n">
-        <v>598119.3900880116</v>
+        <v>330909.35</v>
       </c>
       <c r="F8" t="n">
-        <v>389607.3868825994</v>
+        <v>353286.91</v>
       </c>
       <c r="G8" t="n">
-        <v>348485.2655042072</v>
+        <v>457767.74</v>
       </c>
       <c r="H8" t="n">
-        <v>353198.1094122675</v>
+        <v>382989.43</v>
       </c>
       <c r="I8" t="n">
-        <v>456119.8510371537</v>
+        <v>440873.16</v>
       </c>
       <c r="J8" t="n">
-        <v>391047.5234547175</v>
+        <v>547058.63</v>
       </c>
       <c r="K8" t="n">
-        <v>449808.9003599206</v>
+        <v>684516.21</v>
       </c>
       <c r="L8" t="n">
-        <v>556060.3000541452</v>
+        <v>576686.42</v>
       </c>
       <c r="M8" t="n">
-        <v>700341.9656006204</v>
+        <v>560573.72</v>
       </c>
       <c r="N8" t="n">
-        <v>618404.2144957302</v>
+        <v>540886.01</v>
       </c>
     </row>
     <row r="9">
@@ -819,42 +819,42 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>50550.10651443713</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>48784.46796723059</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>70253.48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54215.78</v>
+      </c>
       <c r="E9" t="n">
-        <v>70727.80429068586</v>
+        <v>59814.01</v>
       </c>
       <c r="F9" t="n">
-        <v>57250.03949117025</v>
+        <v>62839.46</v>
       </c>
       <c r="G9" t="n">
-        <v>63244.12531581028</v>
+        <v>81630.88</v>
       </c>
       <c r="H9" t="n">
-        <v>65416.15285671802</v>
+        <v>43088.96</v>
       </c>
       <c r="I9" t="n">
-        <v>79859.82782027592</v>
+        <v>74433.23</v>
       </c>
       <c r="J9" t="n">
-        <v>41704.0770180436</v>
+        <v>30618.27</v>
       </c>
       <c r="K9" t="n">
-        <v>72468.58083406759</v>
+        <v>27170.71</v>
       </c>
       <c r="L9" t="n">
-        <v>27686.33389903864</v>
+        <v>4231.769999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>24440.23050614738</v>
+        <v>3006.989999999998</v>
       </c>
       <c r="N9" t="n">
-        <v>991.4737498638838</v>
+        <v>11014.54</v>
       </c>
     </row>
     <row r="10">
@@ -863,42 +863,42 @@
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>170233.3143518367</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>135553.4552787562</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>325627.96</v>
+      </c>
+      <c r="D10" t="n">
+        <v>255177.18</v>
+      </c>
       <c r="E10" t="n">
-        <v>242037.7070790458</v>
+        <v>290322.37</v>
       </c>
       <c r="F10" t="n">
-        <v>201225.4546073713</v>
+        <v>276839.16</v>
       </c>
       <c r="G10" t="n">
-        <v>220106.2427096791</v>
+        <v>332956.72</v>
       </c>
       <c r="H10" t="n">
-        <v>225050.2038547054</v>
+        <v>268709.82</v>
       </c>
       <c r="I10" t="n">
-        <v>275935.9012679885</v>
+        <v>340955.71</v>
       </c>
       <c r="J10" t="n">
-        <v>230025.6302026392</v>
+        <v>322224.27</v>
       </c>
       <c r="K10" t="n">
-        <v>303716.1724570408</v>
+        <v>365847.51</v>
       </c>
       <c r="L10" t="n">
-        <v>317167.7664679405</v>
+        <v>282454.38</v>
       </c>
       <c r="M10" t="n">
-        <v>335864.0300872597</v>
+        <v>185995.67</v>
       </c>
       <c r="N10" t="n">
-        <v>250982.7768220317</v>
+        <v>221206.68</v>
       </c>
     </row>
     <row r="11">
@@ -907,42 +907,42 @@
           <t>化學工業右上</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>42915.46444287224</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>39543.21967449387</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>45540.06999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50182.59</v>
+      </c>
       <c r="E11" t="n">
-        <v>44267.22619734707</v>
+        <v>41267.69</v>
       </c>
       <c r="F11" t="n">
-        <v>46781.70928794349</v>
+        <v>44113.21</v>
       </c>
       <c r="G11" t="n">
-        <v>36754.73535626289</v>
+        <v>47966.42</v>
       </c>
       <c r="H11" t="n">
-        <v>39092.25985044563</v>
+        <v>20957.31</v>
       </c>
       <c r="I11" t="n">
-        <v>42437.47260928481</v>
+        <v>39631.61</v>
       </c>
       <c r="J11" t="n">
-        <v>15784.97398106947</v>
+        <v>23627.53</v>
       </c>
       <c r="K11" t="n">
-        <v>34997.2689335627</v>
+        <v>34939.18</v>
       </c>
       <c r="L11" t="n">
-        <v>18674.40412554035</v>
+        <v>22628.39</v>
       </c>
       <c r="M11" t="n">
-        <v>29676.60214984904</v>
+        <v>23935.9</v>
       </c>
       <c r="N11" t="n">
-        <v>16735.65522280402</v>
+        <v>19021.26</v>
       </c>
     </row>
     <row r="12">
@@ -951,42 +951,42 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>41726.16738309548</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>6958.823161486896</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>73744.39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112222.67</v>
+      </c>
       <c r="E12" t="n">
-        <v>80327.93422269879</v>
+        <v>116821.81</v>
       </c>
       <c r="F12" t="n">
-        <v>118450.8690024467</v>
+        <v>130731.59</v>
       </c>
       <c r="G12" t="n">
-        <v>123270.0585610826</v>
+        <v>126428.46</v>
       </c>
       <c r="H12" t="n">
-        <v>138185.1780300256</v>
+        <v>110310.24</v>
       </c>
       <c r="I12" t="n">
-        <v>134081.2985817772</v>
+        <v>121917.91</v>
       </c>
       <c r="J12" t="n">
-        <v>117723.9405089992</v>
+        <v>120631.69</v>
       </c>
       <c r="K12" t="n">
-        <v>129309.6478993102</v>
+        <v>134773.12</v>
       </c>
       <c r="L12" t="n">
-        <v>128227.5409344197</v>
+        <v>112895.72</v>
       </c>
       <c r="M12" t="n">
-        <v>141981.0106769572</v>
+        <v>105932.56</v>
       </c>
       <c r="N12" t="n">
-        <v>120971.0370654558</v>
+        <v>44754.62</v>
       </c>
     </row>
     <row r="13">
@@ -995,42 +995,42 @@
           <t>化學工業平</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-14869.86036548984</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>-28127.80029418392</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>31619.77</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-6718.729999999998</v>
+      </c>
       <c r="E13" t="n">
-        <v>26348.43720434039</v>
+        <v>-15148.79</v>
       </c>
       <c r="F13" t="n">
-        <v>-9505.223321361067</v>
+        <v>60800.01</v>
       </c>
       <c r="G13" t="n">
-        <v>-17039.48079129734</v>
+        <v>84408.95</v>
       </c>
       <c r="H13" t="n">
-        <v>58468.97173863167</v>
+        <v>81324.83</v>
       </c>
       <c r="I13" t="n">
-        <v>82395.39855956438</v>
+        <v>91503.17</v>
       </c>
       <c r="J13" t="n">
-        <v>79173.24883368195</v>
+        <v>88619.46000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>88830.25505617168</v>
+        <v>100221.63</v>
       </c>
       <c r="L13" t="n">
-        <v>86059.69844536269</v>
+        <v>64033.34</v>
       </c>
       <c r="M13" t="n">
-        <v>98367.11076959896</v>
+        <v>117015.35</v>
       </c>
       <c r="N13" t="n">
-        <v>61935.98156868197</v>
+        <v>129332.16</v>
       </c>
     </row>
     <row r="14">
@@ -1039,42 +1039,42 @@
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-97699.53111328238</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>-147361.7449272327</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>251944.14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>151325.51</v>
+      </c>
       <c r="E14" t="n">
-        <v>246664.7129581209</v>
+        <v>-115328.44</v>
       </c>
       <c r="F14" t="n">
-        <v>163697.0294336058</v>
+        <v>129361.33</v>
       </c>
       <c r="G14" t="n">
-        <v>-36977.4645920663</v>
+        <v>268533.72</v>
       </c>
       <c r="H14" t="n">
-        <v>196092.6298838958</v>
+        <v>319469.31</v>
       </c>
       <c r="I14" t="n">
-        <v>353215.2020392172</v>
+        <v>497002.47</v>
       </c>
       <c r="J14" t="n">
-        <v>382191.0154863214</v>
+        <v>432087.01</v>
       </c>
       <c r="K14" t="n">
-        <v>587487.5070720265</v>
+        <v>569294.3500000001</v>
       </c>
       <c r="L14" t="n">
-        <v>514885.1116033469</v>
+        <v>432658.96</v>
       </c>
       <c r="M14" t="n">
-        <v>669085.5260567536</v>
+        <v>631248.42</v>
       </c>
       <c r="N14" t="n">
-        <v>505428.8103426909</v>
+        <v>737100.46</v>
       </c>
     </row>
     <row r="15">
@@ -1083,42 +1083,42 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>329267.6330968759</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>219770.1228094368</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>390177.12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>166707.87</v>
+      </c>
       <c r="E15" t="n">
-        <v>392780.8473202973</v>
+        <v>200845.97</v>
       </c>
       <c r="F15" t="n">
-        <v>167831.7345224124</v>
+        <v>252244.3</v>
       </c>
       <c r="G15" t="n">
-        <v>203889.1861644558</v>
+        <v>411497.52</v>
       </c>
       <c r="H15" t="n">
-        <v>261895.5240982344</v>
+        <v>395760.42</v>
       </c>
       <c r="I15" t="n">
-        <v>428394.0915436593</v>
+        <v>786471.33</v>
       </c>
       <c r="J15" t="n">
-        <v>416207.6803814882</v>
+        <v>885582.89</v>
       </c>
       <c r="K15" t="n">
-        <v>781102.0969591785</v>
+        <v>912301.96</v>
       </c>
       <c r="L15" t="n">
-        <v>877015.6599913697</v>
+        <v>781606.65</v>
       </c>
       <c r="M15" t="n">
-        <v>900318.562986473</v>
+        <v>832373.33</v>
       </c>
       <c r="N15" t="n">
-        <v>776207.0263345657</v>
+        <v>777630.9400000001</v>
       </c>
     </row>
     <row r="16">
@@ -1127,42 +1127,42 @@
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>123142.2411046451</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>-93043.01626213937</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>179742.52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-63565.06</v>
+      </c>
       <c r="E16" t="n">
-        <v>182038.1192419345</v>
+        <v>50310.95999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>-77415.93703822956</v>
+        <v>123663.94</v>
       </c>
       <c r="G16" t="n">
-        <v>-31469.94506876492</v>
+        <v>503285.09</v>
       </c>
       <c r="H16" t="n">
-        <v>46898.05822426282</v>
+        <v>279829.41</v>
       </c>
       <c r="I16" t="n">
-        <v>401303.5187968808</v>
+        <v>583198.11</v>
       </c>
       <c r="J16" t="n">
-        <v>196271.6893068562</v>
+        <v>701485.35</v>
       </c>
       <c r="K16" t="n">
-        <v>407365.4999171318</v>
+        <v>930346.5900000001</v>
       </c>
       <c r="L16" t="n">
-        <v>575217.8964619533</v>
+        <v>864198.55</v>
       </c>
       <c r="M16" t="n">
-        <v>754776.9967993064</v>
+        <v>760636.79</v>
       </c>
       <c r="N16" t="n">
-        <v>731497.1052574374</v>
+        <v>721522.11</v>
       </c>
     </row>
     <row r="17">
@@ -1171,42 +1171,42 @@
           <t>塑膠工業右上</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10956.78227980276</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>14162.73597321088</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>28812.74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28387.13</v>
+      </c>
       <c r="E17" t="n">
-        <v>19352.87878863593</v>
+        <v>29941.42</v>
       </c>
       <c r="F17" t="n">
-        <v>19387.95330221377</v>
+        <v>34255.15</v>
       </c>
       <c r="G17" t="n">
-        <v>21145.27117774006</v>
+        <v>30664.37</v>
       </c>
       <c r="H17" t="n">
-        <v>23806.81268172093</v>
+        <v>31570.94</v>
       </c>
       <c r="I17" t="n">
-        <v>20353.76168475397</v>
+        <v>28305.27</v>
       </c>
       <c r="J17" t="n">
-        <v>21696.6852642399</v>
+        <v>18339.33</v>
       </c>
       <c r="K17" t="n">
-        <v>18412.54659197694</v>
+        <v>25394.32</v>
       </c>
       <c r="L17" t="n">
-        <v>8077.73701404397</v>
+        <v>8495.609999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>15887.20576296363</v>
+        <v>5169.2</v>
       </c>
       <c r="N17" t="n">
-        <v>-2995.361603469608</v>
+        <v>10504.06</v>
       </c>
     </row>
     <row r="18">
@@ -1215,42 +1215,42 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>-17732.51860174585</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>-46921.67822537853</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>3928.519999999995</v>
+      </c>
+      <c r="D18" t="n">
+        <v>127759.8</v>
+      </c>
       <c r="E18" t="n">
-        <v>3928.491593605137</v>
+        <v>124666.63</v>
       </c>
       <c r="F18" t="n">
-        <v>127759.7944641647</v>
+        <v>180495</v>
       </c>
       <c r="G18" t="n">
-        <v>124666.6291074502</v>
+        <v>144904.4</v>
       </c>
       <c r="H18" t="n">
-        <v>180495.0001079645</v>
+        <v>140007.52</v>
       </c>
       <c r="I18" t="n">
-        <v>144904.3959780005</v>
+        <v>186349.26</v>
       </c>
       <c r="J18" t="n">
-        <v>140007.4986402061</v>
+        <v>133055.08</v>
       </c>
       <c r="K18" t="n">
-        <v>186349.2460995247</v>
+        <v>142063.81</v>
       </c>
       <c r="L18" t="n">
-        <v>133055.1046862789</v>
+        <v>74650.19</v>
       </c>
       <c r="M18" t="n">
-        <v>142063.820305431</v>
+        <v>84638.52</v>
       </c>
       <c r="N18" t="n">
-        <v>74650.19398425778</v>
+        <v>-46824.64</v>
       </c>
     </row>
     <row r="19">
@@ -1259,42 +1259,42 @@
           <t>塑膠工業平</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>6051.61588097501</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1319.481700971848</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>3429.99</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6052.02</v>
+      </c>
       <c r="E19" t="n">
-        <v>12889.85248762197</v>
+        <v>4985.89</v>
       </c>
       <c r="F19" t="n">
-        <v>15051.20169484665</v>
+        <v>5717.06</v>
       </c>
       <c r="G19" t="n">
-        <v>13782.03344307168</v>
+        <v>6561.45</v>
       </c>
       <c r="H19" t="n">
-        <v>16165.40228674086</v>
+        <v>6408.27</v>
       </c>
       <c r="I19" t="n">
-        <v>16872.06940679904</v>
+        <v>6024.76</v>
       </c>
       <c r="J19" t="n">
-        <v>16282.52128649044</v>
+        <v>5826.67</v>
       </c>
       <c r="K19" t="n">
-        <v>15917.47967888943</v>
+        <v>5074.62</v>
       </c>
       <c r="L19" t="n">
-        <v>16088.25358447087</v>
+        <v>5717.51</v>
       </c>
       <c r="M19" t="n">
-        <v>14581.74052962546</v>
+        <v>7667.14</v>
       </c>
       <c r="N19" t="n">
-        <v>17208.47246735498</v>
+        <v>5629.38</v>
       </c>
     </row>
     <row r="20">
@@ -1303,42 +1303,42 @@
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>21345.65339177804</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>26125.82201510715</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>42823.42000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>54558</v>
+      </c>
       <c r="E20" t="n">
-        <v>42823.41644900554</v>
+        <v>57507.12</v>
       </c>
       <c r="F20" t="n">
-        <v>54558.00042532366</v>
+        <v>58875.62</v>
       </c>
       <c r="G20" t="n">
-        <v>57507.12172324973</v>
+        <v>60584.67</v>
       </c>
       <c r="H20" t="n">
-        <v>58875.6237967593</v>
+        <v>59729.79</v>
       </c>
       <c r="I20" t="n">
-        <v>60584.6780609822</v>
+        <v>57456.07</v>
       </c>
       <c r="J20" t="n">
-        <v>59729.78435045422</v>
+        <v>62181.07000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>57456.04431238188</v>
+        <v>69778.67</v>
       </c>
       <c r="L20" t="n">
-        <v>62181.06680846535</v>
+        <v>67416.67999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>69778.67221124138</v>
+        <v>67558.62</v>
       </c>
       <c r="N20" t="n">
-        <v>67416.68910603164</v>
+        <v>54558.28</v>
       </c>
     </row>
     <row r="21">
@@ -1347,42 +1347,42 @@
           <t>居家生活右下</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>-3481.187802712739</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-8029.835533180117</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>15822.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14125.27</v>
+      </c>
       <c r="E21" t="n">
-        <v>8644.526323029671</v>
+        <v>10970.99</v>
       </c>
       <c r="F21" t="n">
-        <v>6989.096738869464</v>
+        <v>20836.19</v>
       </c>
       <c r="G21" t="n">
-        <v>3631.562526429322</v>
+        <v>18706.16</v>
       </c>
       <c r="H21" t="n">
-        <v>13726.16300234269</v>
+        <v>18007.63</v>
       </c>
       <c r="I21" t="n">
-        <v>12046.54614359905</v>
+        <v>21589.85</v>
       </c>
       <c r="J21" t="n">
-        <v>11902.63502809378</v>
+        <v>21303.18</v>
       </c>
       <c r="K21" t="n">
-        <v>7871.376707719835</v>
+        <v>4234.330000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>8388.890182190677</v>
+        <v>-1923.15</v>
       </c>
       <c r="M21" t="n">
-        <v>-7670.830659319422</v>
+        <v>1222.469999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>-7230.457243758368</v>
+        <v>-889.7700000000004</v>
       </c>
     </row>
     <row r="22">
@@ -1391,42 +1391,42 @@
           <t>居家生活平</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>22623.06798161816</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>17140.22569817462</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>14256.91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8189.450000000001</v>
+      </c>
       <c r="E22" t="n">
-        <v>21434.92835103645</v>
+        <v>12402.41</v>
       </c>
       <c r="F22" t="n">
-        <v>15325.6330496673</v>
+        <v>11551.42</v>
       </c>
       <c r="G22" t="n">
-        <v>19741.84725611767</v>
+        <v>10368.14</v>
       </c>
       <c r="H22" t="n">
-        <v>18661.45878803576</v>
+        <v>-2408.4</v>
       </c>
       <c r="I22" t="n">
-        <v>17027.75507419577</v>
+        <v>-1722.18</v>
       </c>
       <c r="J22" t="n">
-        <v>3696.609446373513</v>
+        <v>3260.87</v>
       </c>
       <c r="K22" t="n">
-        <v>3858.864371614852</v>
+        <v>6586.930000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>7676.807347944666</v>
+        <v>-313.4300000000003</v>
       </c>
       <c r="M22" t="n">
-        <v>9780.501991884195</v>
+        <v>7997.629999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>-1809.673709389895</v>
+        <v>10029.63</v>
       </c>
     </row>
     <row r="23">
@@ -1435,42 +1435,42 @@
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>-50337.5098404054</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>-71136.42014674198</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>39444.66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>198270.34</v>
+      </c>
       <c r="E23" t="n">
-        <v>26418.60709685318</v>
+        <v>177074.69</v>
       </c>
       <c r="F23" t="n">
-        <v>181804.348524984</v>
+        <v>207413.63</v>
       </c>
       <c r="G23" t="n">
-        <v>163061.200901607</v>
+        <v>249627.37</v>
       </c>
       <c r="H23" t="n">
-        <v>194257.3529368318</v>
+        <v>216336.08</v>
       </c>
       <c r="I23" t="n">
-        <v>234307.1592621131</v>
+        <v>224045.52</v>
       </c>
       <c r="J23" t="n">
-        <v>202823.8456094717</v>
+        <v>253203.01</v>
       </c>
       <c r="K23" t="n">
-        <v>212906.1324540377</v>
+        <v>236636.51</v>
       </c>
       <c r="L23" t="n">
-        <v>241971.6381487334</v>
+        <v>223398.95</v>
       </c>
       <c r="M23" t="n">
-        <v>225953.0074587917</v>
+        <v>215206.59</v>
       </c>
       <c r="N23" t="n">
-        <v>215386.7657096169</v>
+        <v>117704.71</v>
       </c>
     </row>
     <row r="24">
@@ -1479,42 +1479,42 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2521.155601768966</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>-6392.805658826078</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>5716.32</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3786.540000000001</v>
+      </c>
       <c r="E24" t="n">
-        <v>5887.618478361587</v>
+        <v>5665.15</v>
       </c>
       <c r="F24" t="n">
-        <v>4072.879330211018</v>
+        <v>2664.09</v>
       </c>
       <c r="G24" t="n">
-        <v>5931.025644624927</v>
+        <v>34267.65</v>
       </c>
       <c r="H24" t="n">
-        <v>2959.41470530957</v>
+        <v>13051.7</v>
       </c>
       <c r="I24" t="n">
-        <v>34576.62367984052</v>
+        <v>10552.67</v>
       </c>
       <c r="J24" t="n">
-        <v>13337.83722682168</v>
+        <v>-3888.620000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>10814.72846172071</v>
+        <v>6291.120000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>-3647.955680866663</v>
+        <v>-10848.72</v>
       </c>
       <c r="M24" t="n">
-        <v>6540.288909426838</v>
+        <v>-9264.519999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>-10627.36667531927</v>
+        <v>-9217.190000000002</v>
       </c>
     </row>
     <row r="25">
@@ -1523,42 +1523,42 @@
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-18987.8288655466</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>-75793.59724576373</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>104716.76</v>
+      </c>
+      <c r="D25" t="n">
+        <v>289901.39</v>
+      </c>
       <c r="E25" t="n">
-        <v>117571.494983419</v>
+        <v>213205.16</v>
       </c>
       <c r="F25" t="n">
-        <v>306081.0321782445</v>
+        <v>161209.53</v>
       </c>
       <c r="G25" t="n">
-        <v>226952.784577498</v>
+        <v>176777.52</v>
       </c>
       <c r="H25" t="n">
-        <v>174070.4971422332</v>
+        <v>168657.23</v>
       </c>
       <c r="I25" t="n">
-        <v>191788.7669134372</v>
+        <v>187931.97</v>
       </c>
       <c r="J25" t="n">
-        <v>181883.3264520919</v>
+        <v>180066.17</v>
       </c>
       <c r="K25" t="n">
-        <v>178516.2885436502</v>
+        <v>105978.21</v>
       </c>
       <c r="L25" t="n">
-        <v>170804.7229669357</v>
+        <v>26967.24</v>
       </c>
       <c r="M25" t="n">
-        <v>97887.26193112264</v>
+        <v>-48153.77</v>
       </c>
       <c r="N25" t="n">
-        <v>25039.93818592919</v>
+        <v>-213327.06</v>
       </c>
     </row>
     <row r="26">
@@ -1567,42 +1567,42 @@
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>13733.9295396606</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>14451.55766278605</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>-4543.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-18173.26</v>
+      </c>
       <c r="E26" t="n">
-        <v>-6442.487104609764</v>
+        <v>2253.06</v>
       </c>
       <c r="F26" t="n">
-        <v>-17236.61669542403</v>
+        <v>28023.92</v>
       </c>
       <c r="G26" t="n">
-        <v>3791.52784154298</v>
+        <v>26083.14</v>
       </c>
       <c r="H26" t="n">
-        <v>29528.18509664646</v>
+        <v>27680.2</v>
       </c>
       <c r="I26" t="n">
-        <v>28783.52751782559</v>
+        <v>38882.87</v>
       </c>
       <c r="J26" t="n">
-        <v>30730.99788369482</v>
+        <v>39225.07</v>
       </c>
       <c r="K26" t="n">
-        <v>41246.83592106192</v>
+        <v>35455.83</v>
       </c>
       <c r="L26" t="n">
-        <v>40368.03913223266</v>
+        <v>36892.96</v>
       </c>
       <c r="M26" t="n">
-        <v>37663.24370055277</v>
+        <v>40864.16</v>
       </c>
       <c r="N26" t="n">
-        <v>38496.74874852375</v>
+        <v>42951.79</v>
       </c>
     </row>
     <row r="27">
@@ -1611,42 +1611,42 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>18920.91877684719</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>15580.83606934489</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>19106.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7573.029999999998</v>
+      </c>
       <c r="E27" t="n">
-        <v>18830.62762929641</v>
+        <v>34559.03</v>
       </c>
       <c r="F27" t="n">
-        <v>7394.57214673919</v>
+        <v>29180.19</v>
       </c>
       <c r="G27" t="n">
-        <v>34316.00176340324</v>
+        <v>767.7299999999996</v>
       </c>
       <c r="H27" t="n">
-        <v>28697.28130082175</v>
+        <v>-8442.879999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>131.386757831533</v>
+        <v>-12799.72</v>
       </c>
       <c r="J27" t="n">
-        <v>-9004.194992536857</v>
+        <v>-14782.01</v>
       </c>
       <c r="K27" t="n">
-        <v>-13117.01807807156</v>
+        <v>-19169.66</v>
       </c>
       <c r="L27" t="n">
-        <v>-14569.08088325637</v>
+        <v>-31367.22</v>
       </c>
       <c r="M27" t="n">
-        <v>-18560.59934541065</v>
+        <v>-34719.89999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>-30709.43748032399</v>
+        <v>-29190.29</v>
       </c>
     </row>
     <row r="28">
@@ -1655,42 +1655,42 @@
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-7916.740235594434</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>-16249.34299433032</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>-15206.66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-19121.87</v>
+      </c>
       <c r="E28" t="n">
-        <v>-13031.48014140987</v>
+        <v>-19172.53</v>
       </c>
       <c r="F28" t="n">
-        <v>-19880.04210999847</v>
+        <v>-15671.56</v>
       </c>
       <c r="G28" t="n">
-        <v>-20467.98440506459</v>
+        <v>-9555.490000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>-16692.92000684566</v>
+        <v>-10253.65</v>
       </c>
       <c r="I28" t="n">
-        <v>-11619.5437593951</v>
+        <v>18120.02</v>
       </c>
       <c r="J28" t="n">
-        <v>-12743.11334091072</v>
+        <v>15241.09</v>
       </c>
       <c r="K28" t="n">
-        <v>16073.33777768642</v>
+        <v>6129.18</v>
       </c>
       <c r="L28" t="n">
-        <v>13885.18594396912</v>
+        <v>14556.73</v>
       </c>
       <c r="M28" t="n">
-        <v>3312.712416285469</v>
+        <v>19304.45</v>
       </c>
       <c r="N28" t="n">
-        <v>12295.16031573</v>
+        <v>16745.65</v>
       </c>
     </row>
     <row r="29">
@@ -1699,42 +1699,42 @@
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2045.371101678915</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1530.542242698883</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>2132.63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2571.55</v>
+      </c>
       <c r="E29" t="n">
-        <v>2132.630272921248</v>
+        <v>3346.05</v>
       </c>
       <c r="F29" t="n">
-        <v>2519.958408892853</v>
+        <v>3075.06</v>
       </c>
       <c r="G29" t="n">
-        <v>3346.044755774845</v>
+        <v>4134.79</v>
       </c>
       <c r="H29" t="n">
-        <v>3075.056862563123</v>
+        <v>4011.77</v>
       </c>
       <c r="I29" t="n">
-        <v>4134.794364322766</v>
+        <v>3463.1</v>
       </c>
       <c r="J29" t="n">
-        <v>4011.774795234591</v>
+        <v>4258.52</v>
       </c>
       <c r="K29" t="n">
-        <v>3463.099245757665</v>
+        <v>3286.79</v>
       </c>
       <c r="L29" t="n">
-        <v>4258.540960283901</v>
+        <v>1527.43</v>
       </c>
       <c r="M29" t="n">
-        <v>3286.803171187165</v>
+        <v>786.3799999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>1527.438479495633</v>
+        <v>10.81000000000017</v>
       </c>
     </row>
     <row r="30">
@@ -1743,42 +1743,42 @@
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>466.6622069442</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>475.8349389323207</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>595.0599999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>588.3100000000001</v>
+      </c>
       <c r="E30" t="n">
-        <v>879.6861674810777</v>
+        <v>1109.19</v>
       </c>
       <c r="F30" t="n">
-        <v>904.442954373923</v>
+        <v>1994.25</v>
       </c>
       <c r="G30" t="n">
-        <v>1345.294896867863</v>
+        <v>2460.77</v>
       </c>
       <c r="H30" t="n">
-        <v>2074.394466722492</v>
+        <v>2399.31</v>
       </c>
       <c r="I30" t="n">
-        <v>2258.996561529897</v>
+        <v>2190.48</v>
       </c>
       <c r="J30" t="n">
-        <v>2164.35969321764</v>
+        <v>2036.07</v>
       </c>
       <c r="K30" t="n">
-        <v>1958.413421301092</v>
+        <v>1778.07</v>
       </c>
       <c r="L30" t="n">
-        <v>1907.729358566667</v>
+        <v>1974.17</v>
       </c>
       <c r="M30" t="n">
-        <v>1881.549655193643</v>
+        <v>1936.88</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.700829044318</v>
+        <v>1808.27</v>
       </c>
     </row>
     <row r="31">
@@ -1787,42 +1787,42 @@
           <t>文化創意業平</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2807.121366866427</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>2434.218180233339</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>2663.92</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1602.93</v>
+      </c>
       <c r="E31" t="n">
-        <v>2379.284998392369</v>
+        <v>2997.95</v>
       </c>
       <c r="F31" t="n">
-        <v>1338.385744232166</v>
+        <v>2279.88</v>
       </c>
       <c r="G31" t="n">
-        <v>2761.862404227085</v>
+        <v>3306.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2199.743882410292</v>
+        <v>3371.66</v>
       </c>
       <c r="I31" t="n">
-        <v>3508.724076439874</v>
+        <v>2438.36</v>
       </c>
       <c r="J31" t="n">
-        <v>3606.611605608636</v>
+        <v>3019.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2670.439458508504</v>
+        <v>2087.95</v>
       </c>
       <c r="L31" t="n">
-        <v>3147.755592629014</v>
+        <v>-13.43999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>1984.466042235567</v>
+        <v>338.8799999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>160.0507474587794</v>
+        <v>542.0700000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1831,42 +1831,42 @@
           <t>橡膠工業右上</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>-1510.589922854218</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>-3120.382127891203</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>-21868.84</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3162.150000000001</v>
+      </c>
       <c r="E32" t="n">
-        <v>7893.044613393989</v>
+        <v>-2585.17</v>
       </c>
       <c r="F32" t="n">
-        <v>16989.49790714151</v>
+        <v>-9745.939999999997</v>
       </c>
       <c r="G32" t="n">
-        <v>17890.12672717205</v>
+        <v>3674.540000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>20339.00010303427</v>
+        <v>37531.97</v>
       </c>
       <c r="I32" t="n">
-        <v>21733.0694502204</v>
+        <v>44481.13</v>
       </c>
       <c r="J32" t="n">
-        <v>22586.45186959493</v>
+        <v>38360.49</v>
       </c>
       <c r="K32" t="n">
-        <v>23305.6176481247</v>
+        <v>41164.1</v>
       </c>
       <c r="L32" t="n">
-        <v>10678.38343041802</v>
+        <v>37994.27</v>
       </c>
       <c r="M32" t="n">
-        <v>9802.573020238568</v>
+        <v>32849.01</v>
       </c>
       <c r="N32" t="n">
-        <v>11002.29824250937</v>
+        <v>24285.24</v>
       </c>
     </row>
     <row r="33">
@@ -1875,42 +1875,42 @@
           <t>橡膠工業右下</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>-2745.850438841654</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>-4743.243417660196</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>4292.309999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16190.36</v>
+      </c>
       <c r="E33" t="n">
-        <v>4292.310102216635</v>
+        <v>20004.17</v>
       </c>
       <c r="F33" t="n">
-        <v>16190.36115365079</v>
+        <v>21473.88</v>
       </c>
       <c r="G33" t="n">
-        <v>20004.18524101149</v>
+        <v>24343.09</v>
       </c>
       <c r="H33" t="n">
-        <v>21473.8884067552</v>
+        <v>26580.96</v>
       </c>
       <c r="I33" t="n">
-        <v>24343.07853254782</v>
+        <v>28354.09</v>
       </c>
       <c r="J33" t="n">
-        <v>26580.96264283325</v>
+        <v>28076.68</v>
       </c>
       <c r="K33" t="n">
-        <v>28354.07215660502</v>
+        <v>27689.44</v>
       </c>
       <c r="L33" t="n">
-        <v>28076.68280597067</v>
+        <v>19189.04</v>
       </c>
       <c r="M33" t="n">
-        <v>27689.43773934539</v>
+        <v>19778.93</v>
       </c>
       <c r="N33" t="n">
-        <v>19189.04138577597</v>
+        <v>10352.63</v>
       </c>
     </row>
     <row r="34">
@@ -1919,42 +1919,42 @@
           <t>橡膠工業平</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-5255.755797218892</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>-6468.762710132441</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>16667.85</v>
+      </c>
+      <c r="D34" t="n">
+        <v>28622.19</v>
+      </c>
       <c r="E34" t="n">
-        <v>16667.85376105754</v>
+        <v>26550.13</v>
       </c>
       <c r="F34" t="n">
-        <v>28622.19254354914</v>
+        <v>26334.25</v>
       </c>
       <c r="G34" t="n">
-        <v>26550.13195824081</v>
+        <v>25922.35</v>
       </c>
       <c r="H34" t="n">
-        <v>26334.25121396088</v>
+        <v>26153.99</v>
       </c>
       <c r="I34" t="n">
-        <v>25922.3543105174</v>
+        <v>27886.45</v>
       </c>
       <c r="J34" t="n">
-        <v>26153.98529861176</v>
+        <v>29275.66</v>
       </c>
       <c r="K34" t="n">
-        <v>27886.45425650238</v>
+        <v>25965.25</v>
       </c>
       <c r="L34" t="n">
-        <v>29275.65838713111</v>
+        <v>23234.05</v>
       </c>
       <c r="M34" t="n">
-        <v>25965.24883377781</v>
+        <v>21735.56</v>
       </c>
       <c r="N34" t="n">
-        <v>23234.04953941521</v>
+        <v>-34611.2</v>
       </c>
     </row>
     <row r="35">
@@ -1963,42 +1963,42 @@
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>-28064.64549927542</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>-15754.12850652171</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>6429.22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12235.31</v>
+      </c>
       <c r="E35" t="n">
-        <v>6429.224681094915</v>
+        <v>25248.53</v>
       </c>
       <c r="F35" t="n">
-        <v>12235.31225592547</v>
+        <v>25376.22</v>
       </c>
       <c r="G35" t="n">
-        <v>25248.52771945327</v>
+        <v>25977.17</v>
       </c>
       <c r="H35" t="n">
-        <v>25376.21514331875</v>
+        <v>24596.62</v>
       </c>
       <c r="I35" t="n">
-        <v>25977.17209397512</v>
+        <v>26442.71</v>
       </c>
       <c r="J35" t="n">
-        <v>24596.62322352399</v>
+        <v>35684.01</v>
       </c>
       <c r="K35" t="n">
-        <v>26442.70984600481</v>
+        <v>27075.7</v>
       </c>
       <c r="L35" t="n">
-        <v>35684.01167189586</v>
+        <v>10858.01</v>
       </c>
       <c r="M35" t="n">
-        <v>27075.69858747877</v>
+        <v>22913.64</v>
       </c>
       <c r="N35" t="n">
-        <v>10858.00506538839</v>
+        <v>-25995.06</v>
       </c>
     </row>
     <row r="36">
@@ -2007,42 +2007,42 @@
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>-53156.92388954098</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>-3012.09549568951</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>-41419.39</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-14268.5</v>
+      </c>
       <c r="E36" t="n">
-        <v>-41419.38264989749</v>
+        <v>-13258.35</v>
       </c>
       <c r="F36" t="n">
-        <v>-14268.49721992602</v>
+        <v>33465.56</v>
       </c>
       <c r="G36" t="n">
-        <v>-13258.35942752939</v>
+        <v>35201.09</v>
       </c>
       <c r="H36" t="n">
-        <v>33465.56306748936</v>
+        <v>46683.56</v>
       </c>
       <c r="I36" t="n">
-        <v>35201.08947199305</v>
+        <v>81397.96000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>46683.56357506072</v>
+        <v>79455.82000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>44905.95354857892</v>
+        <v>-7155.030000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>43795.238457095</v>
+        <v>-18346.11</v>
       </c>
       <c r="M36" t="n">
-        <v>774.237647109926</v>
+        <v>-54384.59</v>
       </c>
       <c r="N36" t="n">
-        <v>-5490.627161771846</v>
+        <v>-46726.91</v>
       </c>
     </row>
     <row r="37">
@@ -2051,42 +2051,42 @@
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2908.42674605561</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>2929.616579385955</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>13314.67</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17868.05</v>
+      </c>
       <c r="E37" t="n">
-        <v>13314.6748281292</v>
+        <v>18659.85</v>
       </c>
       <c r="F37" t="n">
-        <v>17868.0499214019</v>
+        <v>19728.61</v>
       </c>
       <c r="G37" t="n">
-        <v>18659.84935766489</v>
+        <v>19918.92</v>
       </c>
       <c r="H37" t="n">
-        <v>19728.59956486638</v>
+        <v>21035.39</v>
       </c>
       <c r="I37" t="n">
-        <v>19918.92193298307</v>
+        <v>21756.1</v>
       </c>
       <c r="J37" t="n">
-        <v>21035.39680399931</v>
+        <v>20180.32</v>
       </c>
       <c r="K37" t="n">
-        <v>21756.10093187095</v>
+        <v>20569.76</v>
       </c>
       <c r="L37" t="n">
-        <v>20180.31448046774</v>
+        <v>18217.31</v>
       </c>
       <c r="M37" t="n">
-        <v>20569.76087014054</v>
+        <v>14485.03</v>
       </c>
       <c r="N37" t="n">
-        <v>18217.31180995078</v>
+        <v>7633.99</v>
       </c>
     </row>
     <row r="38">
@@ -2095,42 +2095,42 @@
           <t>汽車工業右上</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>-21473.09798860408</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>-16809.98007053812</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>-10804.22</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-49887.8</v>
+      </c>
       <c r="E38" t="n">
-        <v>-5223.84156503234</v>
+        <v>-62977.67</v>
       </c>
       <c r="F38" t="n">
-        <v>-46864.67430654689</v>
+        <v>-30526.33</v>
       </c>
       <c r="G38" t="n">
-        <v>-59588.08325734954</v>
+        <v>-10351.98</v>
       </c>
       <c r="H38" t="n">
-        <v>-26723.8739843445</v>
+        <v>24524.28</v>
       </c>
       <c r="I38" t="n">
-        <v>-1358.857009955136</v>
+        <v>-22910.54</v>
       </c>
       <c r="J38" t="n">
-        <v>33484.66310704043</v>
+        <v>14269.95</v>
       </c>
       <c r="K38" t="n">
-        <v>1049.369425173471</v>
+        <v>43045.58</v>
       </c>
       <c r="L38" t="n">
-        <v>44005.48219680278</v>
+        <v>1057.450000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>70392.69511140612</v>
+        <v>38598.35</v>
       </c>
       <c r="N38" t="n">
-        <v>18834.75647306337</v>
+        <v>51507.21</v>
       </c>
     </row>
     <row r="39">
@@ -2139,42 +2139,42 @@
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>106873.3079460035</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>77794.70973655229</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>92513.56</v>
+      </c>
+      <c r="D39" t="n">
+        <v>63666.21</v>
+      </c>
       <c r="E39" t="n">
-        <v>86095.33389429988</v>
+        <v>101047.19</v>
       </c>
       <c r="F39" t="n">
-        <v>59696.57696220327</v>
+        <v>129632.99</v>
       </c>
       <c r="G39" t="n">
-        <v>96695.26241862446</v>
+        <v>129212.52</v>
       </c>
       <c r="H39" t="n">
-        <v>124070.6059939744</v>
+        <v>144088.03</v>
       </c>
       <c r="I39" t="n">
-        <v>123011.5200656972</v>
+        <v>114714.2</v>
       </c>
       <c r="J39" t="n">
-        <v>137872.4271584453</v>
+        <v>105586.35</v>
       </c>
       <c r="K39" t="n">
-        <v>112405.843243283</v>
+        <v>103915.92</v>
       </c>
       <c r="L39" t="n">
-        <v>105711.2087161457</v>
+        <v>60117.64</v>
       </c>
       <c r="M39" t="n">
-        <v>107442.7256840292</v>
+        <v>47875.39</v>
       </c>
       <c r="N39" t="n">
-        <v>73486.18808871653</v>
+        <v>48440.15</v>
       </c>
     </row>
     <row r="40">
@@ -2183,42 +2183,42 @@
           <t>汽車工業平</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>149368.1636167934</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>129494.6693349378</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>136326.21</v>
+      </c>
+      <c r="D40" t="n">
+        <v>126868.93</v>
+      </c>
       <c r="E40" t="n">
-        <v>144828.5753255486</v>
+        <v>128911.37</v>
       </c>
       <c r="F40" t="n">
-        <v>135751.3092647167</v>
+        <v>173411.88</v>
       </c>
       <c r="G40" t="n">
-        <v>138467.970593459</v>
+        <v>202125.82</v>
       </c>
       <c r="H40" t="n">
-        <v>184151.1597853653</v>
+        <v>187793.77</v>
       </c>
       <c r="I40" t="n">
-        <v>209280.8011256288</v>
+        <v>115048.37</v>
       </c>
       <c r="J40" t="n">
-        <v>194896.3471460174</v>
+        <v>131057.19</v>
       </c>
       <c r="K40" t="n">
-        <v>99857.72490128066</v>
+        <v>164003.81</v>
       </c>
       <c r="L40" t="n">
-        <v>107383.0097995847</v>
+        <v>110365.21</v>
       </c>
       <c r="M40" t="n">
-        <v>139318.5163771272</v>
+        <v>83173.11</v>
       </c>
       <c r="N40" t="n">
-        <v>84050.63282985301</v>
+        <v>95200.35000000001</v>
       </c>
     </row>
     <row r="41">
@@ -2227,42 +2227,42 @@
           <t>油電燃氣業右下</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1949.297047243925</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>-684.8386641919969</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>15640.16</v>
+      </c>
+      <c r="D41" t="n">
+        <v>41669.28</v>
+      </c>
       <c r="E41" t="n">
-        <v>15640.15758289804</v>
+        <v>37412.92</v>
       </c>
       <c r="F41" t="n">
-        <v>41669.27189151713</v>
+        <v>46599.45999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>37412.90947617915</v>
+        <v>53684.38</v>
       </c>
       <c r="H41" t="n">
-        <v>46599.46097927407</v>
+        <v>55741.31</v>
       </c>
       <c r="I41" t="n">
-        <v>53684.38267663881</v>
+        <v>65492.01</v>
       </c>
       <c r="J41" t="n">
-        <v>55741.3123983485</v>
+        <v>49824.8</v>
       </c>
       <c r="K41" t="n">
-        <v>65492.01680048741</v>
+        <v>53211.51</v>
       </c>
       <c r="L41" t="n">
-        <v>49824.80785238442</v>
+        <v>26048.57</v>
       </c>
       <c r="M41" t="n">
-        <v>53211.51853420456</v>
+        <v>20794.48</v>
       </c>
       <c r="N41" t="n">
-        <v>26048.57300015213</v>
+        <v>5080.040000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2271,42 +2271,42 @@
           <t>油電燃氣業平</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>-11140.56984504974</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>-5498.820456837627</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>10374.85</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15121.98</v>
+      </c>
       <c r="E42" t="n">
-        <v>10374.84758731748</v>
+        <v>16914.93</v>
       </c>
       <c r="F42" t="n">
-        <v>15121.97707950888</v>
+        <v>19026.75</v>
       </c>
       <c r="G42" t="n">
-        <v>16914.93557959629</v>
+        <v>21323.4</v>
       </c>
       <c r="H42" t="n">
-        <v>19026.74749322496</v>
+        <v>23146.57</v>
       </c>
       <c r="I42" t="n">
-        <v>21323.39751504636</v>
+        <v>21179.27</v>
       </c>
       <c r="J42" t="n">
-        <v>23146.55709378369</v>
+        <v>19093.04</v>
       </c>
       <c r="K42" t="n">
-        <v>21179.27243351566</v>
+        <v>20601.31</v>
       </c>
       <c r="L42" t="n">
-        <v>19093.03628358198</v>
+        <v>18739</v>
       </c>
       <c r="M42" t="n">
-        <v>20601.30925425392</v>
+        <v>19465.89</v>
       </c>
       <c r="N42" t="n">
-        <v>18739.00418269065</v>
+        <v>21969.28</v>
       </c>
     </row>
     <row r="43">
@@ -2315,42 +2315,42 @@
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>17116.34448250082</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>15048.55092074194</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>12558.35</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12543.05</v>
+      </c>
       <c r="E43" t="n">
-        <v>12558.34668062607</v>
+        <v>9519.57</v>
       </c>
       <c r="F43" t="n">
-        <v>12543.04222678307</v>
+        <v>-3554.98</v>
       </c>
       <c r="G43" t="n">
-        <v>9519.568843149294</v>
+        <v>5371.51</v>
       </c>
       <c r="H43" t="n">
-        <v>-3554.979643463428</v>
+        <v>-4733.04</v>
       </c>
       <c r="I43" t="n">
-        <v>5371.515210375614</v>
+        <v>1651.97</v>
       </c>
       <c r="J43" t="n">
-        <v>-4733.045325368788</v>
+        <v>863.7800000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>1651.971013511035</v>
+        <v>2106.110000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>863.7754052111954</v>
+        <v>-2865.16</v>
       </c>
       <c r="M43" t="n">
-        <v>2106.114798544758</v>
+        <v>-12004.19</v>
       </c>
       <c r="N43" t="n">
-        <v>-2865.156496146034</v>
+        <v>-10061.61</v>
       </c>
     </row>
     <row r="44">
@@ -2359,42 +2359,42 @@
           <t>玻璃陶瓷右下</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>32570.12248765594</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>31169.67331004717</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>27749.26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8501.959999999999</v>
+      </c>
       <c r="E44" t="n">
-        <v>27749.25660033224</v>
+        <v>15994.57</v>
       </c>
       <c r="F44" t="n">
-        <v>8501.958297999541</v>
+        <v>24906.06</v>
       </c>
       <c r="G44" t="n">
-        <v>15994.57169752311</v>
+        <v>23659.02</v>
       </c>
       <c r="H44" t="n">
-        <v>24906.06342167253</v>
+        <v>16008.63</v>
       </c>
       <c r="I44" t="n">
-        <v>23659.01764524404</v>
+        <v>21216.92</v>
       </c>
       <c r="J44" t="n">
-        <v>16008.62135134668</v>
+        <v>19139.23</v>
       </c>
       <c r="K44" t="n">
-        <v>21216.92044096468</v>
+        <v>5097.179999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>19139.22799163705</v>
+        <v>-8040.380000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>5097.173671657323</v>
+        <v>-1176.129999999999</v>
       </c>
       <c r="N44" t="n">
-        <v>-8040.383589563964</v>
+        <v>-4.390000000001237</v>
       </c>
     </row>
     <row r="45">
@@ -2403,42 +2403,42 @@
           <t>玻璃陶瓷平</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>-3507.102792904708</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>-3852.667517448138</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>-1667.96</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3091.95</v>
+      </c>
       <c r="E45" t="n">
-        <v>-1667.960431185344</v>
+        <v>4265.17</v>
       </c>
       <c r="F45" t="n">
-        <v>3091.946312599881</v>
+        <v>6159.31</v>
       </c>
       <c r="G45" t="n">
-        <v>4265.16928151744</v>
+        <v>6949.11</v>
       </c>
       <c r="H45" t="n">
-        <v>6159.31392283264</v>
+        <v>6089.29</v>
       </c>
       <c r="I45" t="n">
-        <v>6949.111382040152</v>
+        <v>6971.78</v>
       </c>
       <c r="J45" t="n">
-        <v>6089.292077080881</v>
+        <v>6172.68</v>
       </c>
       <c r="K45" t="n">
-        <v>6971.777606894815</v>
+        <v>5219.84</v>
       </c>
       <c r="L45" t="n">
-        <v>6172.681346060235</v>
+        <v>4186.58</v>
       </c>
       <c r="M45" t="n">
-        <v>5219.836683268932</v>
+        <v>3230.22</v>
       </c>
       <c r="N45" t="n">
-        <v>4186.579630199335</v>
+        <v>-626.02</v>
       </c>
     </row>
     <row r="46">
@@ -2447,42 +2447,42 @@
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>84611.44849427434</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>53217.05942079426</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>50488.94</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36635.05</v>
+      </c>
       <c r="E46" t="n">
-        <v>51736.71126742622</v>
+        <v>1930.900000000003</v>
       </c>
       <c r="F46" t="n">
-        <v>31472.52555892121</v>
+        <v>68424</v>
       </c>
       <c r="G46" t="n">
-        <v>-3764.390994337365</v>
+        <v>99853.93000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>66338.53061232856</v>
+        <v>93937.89999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>103674.7535037763</v>
+        <v>100578.03</v>
       </c>
       <c r="J46" t="n">
-        <v>92383.14434281347</v>
+        <v>73139.59999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>99166.42677069241</v>
+        <v>65828.86</v>
       </c>
       <c r="L46" t="n">
-        <v>78575.95764660634</v>
+        <v>36224.07999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>72237.47061152538</v>
+        <v>48255.25000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>43427.51113250526</v>
+        <v>59901.17</v>
       </c>
     </row>
     <row r="47">
@@ -2491,42 +2491,42 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>54909.44717782285</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>21292.8179484522</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>92398.89999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47765.72</v>
+      </c>
       <c r="E47" t="n">
-        <v>86619.1692546025</v>
+        <v>85767.63</v>
       </c>
       <c r="F47" t="n">
-        <v>42075.90669853894</v>
+        <v>119722.95</v>
       </c>
       <c r="G47" t="n">
-        <v>79934.24861153707</v>
+        <v>168276.67</v>
       </c>
       <c r="H47" t="n">
-        <v>113613.6008160853</v>
+        <v>108123.38</v>
       </c>
       <c r="I47" t="n">
-        <v>162549.9094823966</v>
+        <v>140439</v>
       </c>
       <c r="J47" t="n">
-        <v>103558.2731863971</v>
+        <v>61067.87</v>
       </c>
       <c r="K47" t="n">
-        <v>136462.1202397229</v>
+        <v>76960.84999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>59697.00441672567</v>
+        <v>-292.9199999999946</v>
       </c>
       <c r="M47" t="n">
-        <v>78933.89603777131</v>
+        <v>16275.9</v>
       </c>
       <c r="N47" t="n">
-        <v>320.8514174392894</v>
+        <v>50652.55</v>
       </c>
     </row>
     <row r="48">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>67764.00641944242</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>72637.1752963515</v>
+        <v>111338.74</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>50648.05</v>
       </c>
       <c r="E48" t="n">
-        <v>114636.506454525</v>
+        <v>72212.78</v>
       </c>
       <c r="F48" t="n">
-        <v>60970.9955730904</v>
+        <v>46724.46</v>
       </c>
       <c r="G48" t="n">
-        <v>83007.7524381715</v>
+        <v>126106.28</v>
       </c>
       <c r="H48" t="n">
-        <v>54207.87949976946</v>
+        <v>62400.54</v>
       </c>
       <c r="I48" t="n">
-        <v>127224.2372008067</v>
+        <v>24549.62</v>
       </c>
       <c r="J48" t="n">
-        <v>67772.13296650947</v>
+        <v>-21769.55</v>
       </c>
       <c r="K48" t="n">
-        <v>29276.84670796571</v>
+        <v>1945.910000000004</v>
       </c>
       <c r="L48" t="n">
-        <v>-26500.0622648871</v>
+        <v>-96558</v>
       </c>
       <c r="M48" t="n">
-        <v>-7147.496496337509</v>
+        <v>-123620.11</v>
       </c>
       <c r="N48" t="n">
-        <v>-105304.6805013695</v>
+        <v>-48878.22</v>
       </c>
     </row>
     <row r="49">
@@ -2581,42 +2581,42 @@
           <t>紡織纖維右上</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>6534.304854152111</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>6820.944895911059</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>16879.97</v>
+      </c>
+      <c r="D49" t="n">
+        <v>16953.02</v>
+      </c>
       <c r="E49" t="n">
-        <v>16026.3524911973</v>
+        <v>21207.36</v>
       </c>
       <c r="F49" t="n">
-        <v>14347.28366842146</v>
+        <v>23285.59</v>
       </c>
       <c r="G49" t="n">
-        <v>19223.07968139979</v>
+        <v>28517.92</v>
       </c>
       <c r="H49" t="n">
-        <v>20568.56730008735</v>
+        <v>31035.36</v>
       </c>
       <c r="I49" t="n">
-        <v>24212.39013939147</v>
+        <v>21370.37</v>
       </c>
       <c r="J49" t="n">
-        <v>26514.13165054523</v>
+        <v>20888.92</v>
       </c>
       <c r="K49" t="n">
-        <v>15604.86694524266</v>
+        <v>20597.34</v>
       </c>
       <c r="L49" t="n">
-        <v>14641.46286476519</v>
+        <v>16393.55</v>
       </c>
       <c r="M49" t="n">
-        <v>13860.71353773051</v>
+        <v>16141.8</v>
       </c>
       <c r="N49" t="n">
-        <v>9368.633398051361</v>
+        <v>24504.16</v>
       </c>
     </row>
     <row r="50">
@@ -2625,42 +2625,42 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>56260.04901285594</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>22856.27393012245</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>32017.11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>43197.17</v>
+      </c>
       <c r="E50" t="n">
-        <v>26256.66544612479</v>
+        <v>19455.05</v>
       </c>
       <c r="F50" t="n">
-        <v>37787.92454804594</v>
+        <v>110807.43</v>
       </c>
       <c r="G50" t="n">
-        <v>13678.62592535366</v>
+        <v>124299.82</v>
       </c>
       <c r="H50" t="n">
-        <v>104879.5890392684</v>
+        <v>111674.21</v>
       </c>
       <c r="I50" t="n">
-        <v>119970.3486252229</v>
+        <v>104723.66</v>
       </c>
       <c r="J50" t="n">
-        <v>107105.6584359776</v>
+        <v>35749.61</v>
       </c>
       <c r="K50" t="n">
-        <v>98309.3106167139</v>
+        <v>41139.21</v>
       </c>
       <c r="L50" t="n">
-        <v>36140.74453659174</v>
+        <v>21164.95</v>
       </c>
       <c r="M50" t="n">
-        <v>41535.94638999193</v>
+        <v>34344.38</v>
       </c>
       <c r="N50" t="n">
-        <v>19390.54453795315</v>
+        <v>41272.72</v>
       </c>
     </row>
     <row r="51">
@@ -2669,42 +2669,42 @@
           <t>紡織纖維平</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>-22916.28941004967</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>-20653.82551721949</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>26729.57</v>
+      </c>
+      <c r="D51" t="n">
+        <v>48715.23</v>
+      </c>
       <c r="E51" t="n">
-        <v>33343.59940302493</v>
+        <v>41315.69</v>
       </c>
       <c r="F51" t="n">
-        <v>56730.20015711609</v>
+        <v>46969.84</v>
       </c>
       <c r="G51" t="n">
-        <v>49076.39703137895</v>
+        <v>43967.15</v>
       </c>
       <c r="H51" t="n">
-        <v>55614.68226991014</v>
+        <v>52893.7</v>
       </c>
       <c r="I51" t="n">
-        <v>52602.13093146903</v>
+        <v>40049.39</v>
       </c>
       <c r="J51" t="n">
-        <v>61983.47142257357</v>
+        <v>29482.28</v>
       </c>
       <c r="K51" t="n">
-        <v>52229.21375393444</v>
+        <v>8098.359999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>35338.6043229448</v>
+        <v>-16855.11</v>
       </c>
       <c r="M51" t="n">
-        <v>14438.23700291009</v>
+        <v>-12707.83</v>
       </c>
       <c r="N51" t="n">
-        <v>-8055.775996566512</v>
+        <v>-27763.24</v>
       </c>
     </row>
     <row r="52">
@@ -2713,42 +2713,42 @@
           <t>綠能環保右上</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>-13865.02639592292</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-14033.63792107303</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>52773.75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-10124.61</v>
+      </c>
       <c r="E52" t="n">
-        <v>20501.26275410123</v>
+        <v>23117.36</v>
       </c>
       <c r="F52" t="n">
-        <v>19862.36237317861</v>
+        <v>30722.97</v>
       </c>
       <c r="G52" t="n">
-        <v>43702.02860222631</v>
+        <v>40157.5</v>
       </c>
       <c r="H52" t="n">
-        <v>57090.46761217021</v>
+        <v>28383.53999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>61945.96053390992</v>
+        <v>36714.52</v>
       </c>
       <c r="J52" t="n">
-        <v>56883.09262778368</v>
+        <v>55737.28</v>
       </c>
       <c r="K52" t="n">
-        <v>62270.04753239069</v>
+        <v>66947.61</v>
       </c>
       <c r="L52" t="n">
-        <v>75016.93232732994</v>
+        <v>61916.49000000001</v>
       </c>
       <c r="M52" t="n">
-        <v>80810.28099992503</v>
+        <v>37058.75</v>
       </c>
       <c r="N52" t="n">
-        <v>82446.5091512574</v>
+        <v>119320.38</v>
       </c>
     </row>
     <row r="53">
@@ -2757,42 +2757,42 @@
           <t>綠能環保右下</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>-6725.650268741768</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>-20396.02259490449</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>29596.93</v>
+      </c>
+      <c r="D53" t="n">
+        <v>14882.33</v>
+      </c>
       <c r="E53" t="n">
-        <v>30998.51341756852</v>
+        <v>5565.039999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>19491.60471888445</v>
+        <v>11985.26</v>
       </c>
       <c r="G53" t="n">
-        <v>12565.81976026139</v>
+        <v>23631.58</v>
       </c>
       <c r="H53" t="n">
-        <v>20628.43590898464</v>
+        <v>13162.6</v>
       </c>
       <c r="I53" t="n">
-        <v>31538.41811841523</v>
+        <v>7173.410000000002</v>
       </c>
       <c r="J53" t="n">
-        <v>21030.82022698733</v>
+        <v>-57.2800000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>14622.13713811458</v>
+        <v>6992.49</v>
       </c>
       <c r="L53" t="n">
-        <v>7371.978459633481</v>
+        <v>-19635.43</v>
       </c>
       <c r="M53" t="n">
-        <v>13715.52407293042</v>
+        <v>-35576.87</v>
       </c>
       <c r="N53" t="n">
-        <v>-13971.2647171077</v>
+        <v>34250.65</v>
       </c>
     </row>
     <row r="54">
@@ -2801,42 +2801,42 @@
           <t>綠能環保平</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>8357.351705338253</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>16328.30094369073</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>12093.68</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-13976.63</v>
+      </c>
       <c r="E54" t="n">
-        <v>42923.28354357838</v>
+        <v>19239.31</v>
       </c>
       <c r="F54" t="n">
-        <v>-48640.5169794533</v>
+        <v>-5479</v>
       </c>
       <c r="G54" t="n">
-        <v>-8414.836747686732</v>
+        <v>-18020.99</v>
       </c>
       <c r="H54" t="n">
-        <v>-40564.6425826546</v>
+        <v>26599.22</v>
       </c>
       <c r="I54" t="n">
-        <v>-47782.54855819522</v>
+        <v>-10861.95</v>
       </c>
       <c r="J54" t="n">
-        <v>-9810.764828824405</v>
+        <v>-6264.300000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-43903.31073678989</v>
+        <v>920.1000000000004</v>
       </c>
       <c r="L54" t="n">
-        <v>-33027.42216477553</v>
+        <v>4870.439999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>-19730.37643450178</v>
+        <v>14091.48</v>
       </c>
       <c r="N54" t="n">
-        <v>-21379.0111842898</v>
+        <v>20404.64</v>
       </c>
     </row>
     <row r="55">
@@ -2845,42 +2845,42 @@
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>-57667.38866515968</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>-207906.3267600137</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>-96173.34</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29910.28999999999</v>
+      </c>
       <c r="E55" t="n">
-        <v>-19819.33484886552</v>
+        <v>63870.17</v>
       </c>
       <c r="F55" t="n">
-        <v>129931.3808183089</v>
+        <v>108084.36</v>
       </c>
       <c r="G55" t="n">
-        <v>147087.5259751927</v>
+        <v>264519.54</v>
       </c>
       <c r="H55" t="n">
-        <v>234508.8314748605</v>
+        <v>276936.62</v>
       </c>
       <c r="I55" t="n">
-        <v>402818.1199526493</v>
+        <v>370663.11</v>
       </c>
       <c r="J55" t="n">
-        <v>374138.7158529077</v>
+        <v>548917.97</v>
       </c>
       <c r="K55" t="n">
-        <v>438348.6184259822</v>
+        <v>597260.0699999999</v>
       </c>
       <c r="L55" t="n">
-        <v>628937.4156788791</v>
+        <v>713305.04</v>
       </c>
       <c r="M55" t="n">
-        <v>692565.7120601954</v>
+        <v>803153.77</v>
       </c>
       <c r="N55" t="n">
-        <v>845992.6847636084</v>
+        <v>701042.4500000001</v>
       </c>
     </row>
     <row r="56">
@@ -2889,42 +2889,42 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>-34563.1164895023</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>-35309.79856446774</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>44.52000000000226</v>
+      </c>
+      <c r="D56" t="n">
+        <v>38381.03</v>
+      </c>
       <c r="E56" t="n">
-        <v>9146.560981629093</v>
+        <v>62799.14</v>
       </c>
       <c r="F56" t="n">
-        <v>47018.72416453877</v>
+        <v>66439.12</v>
       </c>
       <c r="G56" t="n">
-        <v>71331.54749055578</v>
+        <v>58908.95</v>
       </c>
       <c r="H56" t="n">
-        <v>74897.67744652882</v>
+        <v>58072.74</v>
       </c>
       <c r="I56" t="n">
-        <v>66703.53492924843</v>
+        <v>68438.92999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>66176.37967817107</v>
+        <v>72429.7</v>
       </c>
       <c r="K56" t="n">
-        <v>77305.9378453815</v>
+        <v>68995.55</v>
       </c>
       <c r="L56" t="n">
-        <v>82176.61018560761</v>
+        <v>70702.85000000001</v>
       </c>
       <c r="M56" t="n">
-        <v>79963.23104489263</v>
+        <v>67414.27</v>
       </c>
       <c r="N56" t="n">
-        <v>80158.27594197748</v>
+        <v>23494.73</v>
       </c>
     </row>
     <row r="57">
@@ -2933,42 +2933,42 @@
           <t>航運業平</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>2048.251519812533</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>-43071.89144130466</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>48062.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>91950.77</v>
+      </c>
       <c r="E57" t="n">
-        <v>22667.41551991682</v>
+        <v>162584.79</v>
       </c>
       <c r="F57" t="n">
-        <v>63947.24659728825</v>
+        <v>223014.2</v>
       </c>
       <c r="G57" t="n">
-        <v>130992.061345682</v>
+        <v>272801.42</v>
       </c>
       <c r="H57" t="n">
-        <v>168489.9872928908</v>
+        <v>203268.38</v>
       </c>
       <c r="I57" t="n">
-        <v>211457.4911429342</v>
+        <v>157732.7</v>
       </c>
       <c r="J57" t="n">
-        <v>180720.1326248527</v>
+        <v>171301.33</v>
       </c>
       <c r="K57" t="n">
-        <v>162008.1907271474</v>
+        <v>128817.33</v>
       </c>
       <c r="L57" t="n">
-        <v>189746.6948548432</v>
+        <v>145123.34</v>
       </c>
       <c r="M57" t="n">
-        <v>154336.2799008453</v>
+        <v>175262.35</v>
       </c>
       <c r="N57" t="n">
-        <v>167184.0039843253</v>
+        <v>142370.98</v>
       </c>
     </row>
     <row r="58">
@@ -2977,42 +2977,42 @@
           <t>觀光事業右上</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>11070.86885243074</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>7977.981017822211</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>19110.61</v>
+      </c>
+      <c r="D58" t="n">
+        <v>39439.74</v>
+      </c>
       <c r="E58" t="n">
-        <v>-6724.196082365774</v>
+        <v>70487.57000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1197.56398792476</v>
+        <v>66354.45</v>
       </c>
       <c r="G58" t="n">
-        <v>16648.35133525863</v>
+        <v>85382.93000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>15762.879308561</v>
+        <v>80915.38</v>
       </c>
       <c r="I58" t="n">
-        <v>29979.70070435889</v>
+        <v>77334.47</v>
       </c>
       <c r="J58" t="n">
-        <v>20357.51330763686</v>
+        <v>67848.44</v>
       </c>
       <c r="K58" t="n">
-        <v>19701.18267753395</v>
+        <v>60070.13</v>
       </c>
       <c r="L58" t="n">
-        <v>12333.84960087913</v>
+        <v>53454.00000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>6843.741287394862</v>
+        <v>62481.10000000001</v>
       </c>
       <c r="N58" t="n">
-        <v>-1876.948093133865</v>
+        <v>71960.12</v>
       </c>
     </row>
     <row r="59">
@@ -3022,43 +3022,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>56553.18321800663</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>43002.19472986313</v>
+        <v>41760.9</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>61198.77</v>
       </c>
       <c r="E59" t="n">
-        <v>52176.94809368955</v>
+        <v>61538.18</v>
       </c>
       <c r="F59" t="n">
-        <v>79796.32538560872</v>
+        <v>59235.46</v>
       </c>
       <c r="G59" t="n">
-        <v>68965.05513857117</v>
+        <v>68842.16</v>
       </c>
       <c r="H59" t="n">
-        <v>71648.19142669179</v>
+        <v>55745.64</v>
       </c>
       <c r="I59" t="n">
-        <v>83559.61451390311</v>
+        <v>51311.22</v>
       </c>
       <c r="J59" t="n">
-        <v>63298.6249143363</v>
+        <v>43379.65</v>
       </c>
       <c r="K59" t="n">
-        <v>56226.70553781692</v>
+        <v>35211.57</v>
       </c>
       <c r="L59" t="n">
-        <v>48265.46955109621</v>
+        <v>29869.02</v>
       </c>
       <c r="M59" t="n">
-        <v>36168.04671161171</v>
+        <v>48971.77999999999</v>
       </c>
       <c r="N59" t="n">
-        <v>18537.09800271977</v>
+        <v>480.4400000000005</v>
       </c>
     </row>
     <row r="60">
@@ -3067,42 +3067,42 @@
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>17669.62732212084</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>17462.72260189194</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>8677.290000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>14785.57</v>
+      </c>
       <c r="E60" t="n">
-        <v>30648.86226065274</v>
+        <v>6197.620000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>49698.09905082693</v>
+        <v>5170.13</v>
       </c>
       <c r="G60" t="n">
-        <v>62720.05248553248</v>
+        <v>11661.13</v>
       </c>
       <c r="H60" t="n">
-        <v>58056.70495668502</v>
+        <v>8650.889999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>64833.76030307423</v>
+        <v>5736.7</v>
       </c>
       <c r="J60" t="n">
-        <v>71343.82203796456</v>
+        <v>3605.089999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>68605.64245082701</v>
+        <v>2651.98</v>
       </c>
       <c r="L60" t="n">
-        <v>65331.55766066823</v>
+        <v>-423.5200000000012</v>
       </c>
       <c r="M60" t="n">
-        <v>62964.71966784885</v>
+        <v>3169.38</v>
       </c>
       <c r="N60" t="n">
-        <v>63644.58429976983</v>
+        <v>9296.33</v>
       </c>
     </row>
     <row r="61">
@@ -3111,42 +3111,42 @@
           <t>貿易百貨右上</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>2111.596078799163</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>3272.809801989722</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>3058.55</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3194.88</v>
+      </c>
       <c r="E61" t="n">
-        <v>3058.548675434151</v>
+        <v>3208.17</v>
       </c>
       <c r="F61" t="n">
-        <v>3194.88074894823</v>
+        <v>3293.51</v>
       </c>
       <c r="G61" t="n">
-        <v>3208.171441802947</v>
+        <v>3651.78</v>
       </c>
       <c r="H61" t="n">
-        <v>3293.510589021994</v>
+        <v>4173.99</v>
       </c>
       <c r="I61" t="n">
-        <v>3651.775595515146</v>
+        <v>4521.33</v>
       </c>
       <c r="J61" t="n">
-        <v>4173.993172011665</v>
+        <v>4179.28</v>
       </c>
       <c r="K61" t="n">
-        <v>4521.333763393275</v>
+        <v>3816.67</v>
       </c>
       <c r="L61" t="n">
-        <v>4179.27804770154</v>
+        <v>3190.04</v>
       </c>
       <c r="M61" t="n">
-        <v>3816.665167394174</v>
+        <v>3110.85</v>
       </c>
       <c r="N61" t="n">
-        <v>3190.043573370119</v>
+        <v>2636.35</v>
       </c>
     </row>
     <row r="62">
@@ -3155,42 +3155,42 @@
           <t>貿易百貨右下</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>16140.04366652321</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>2673.950797388972</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>12797.84</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22701.19</v>
+      </c>
       <c r="E62" t="n">
-        <v>-1518.390313825198</v>
+        <v>26115.27</v>
       </c>
       <c r="F62" t="n">
-        <v>1492.24065663992</v>
+        <v>30756.94</v>
       </c>
       <c r="G62" t="n">
-        <v>5813.178718667798</v>
+        <v>45753.05</v>
       </c>
       <c r="H62" t="n">
-        <v>7001.10174789593</v>
+        <v>50476.31</v>
       </c>
       <c r="I62" t="n">
-        <v>27987.99552733639</v>
+        <v>43766.68</v>
       </c>
       <c r="J62" t="n">
-        <v>28068.48686750559</v>
+        <v>47102.38</v>
       </c>
       <c r="K62" t="n">
-        <v>22704.6033487407</v>
+        <v>1562.469999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>30223.58008157994</v>
+        <v>-8777.970000000001</v>
       </c>
       <c r="M62" t="n">
-        <v>-13814.09708596338</v>
+        <v>18685.71</v>
       </c>
       <c r="N62" t="n">
-        <v>-23114.98394939647</v>
+        <v>-26363.3</v>
       </c>
     </row>
     <row r="63">
@@ -3199,42 +3199,42 @@
           <t>貿易百貨平</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>4726.776932986395</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>10461.9657949408</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>7358.05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7026.75</v>
+      </c>
       <c r="E63" t="n">
-        <v>21674.27875692083</v>
+        <v>6828.9</v>
       </c>
       <c r="F63" t="n">
-        <v>28235.70326223793</v>
+        <v>9617.349999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>27130.99134225741</v>
+        <v>10381.06</v>
       </c>
       <c r="H63" t="n">
-        <v>33373.1874820587</v>
+        <v>9677.18</v>
       </c>
       <c r="I63" t="n">
-        <v>28146.13195056603</v>
+        <v>10750.75</v>
       </c>
       <c r="J63" t="n">
-        <v>32084.98329753305</v>
+        <v>11390.04</v>
       </c>
       <c r="K63" t="n">
-        <v>31812.80029204518</v>
+        <v>11322.5</v>
       </c>
       <c r="L63" t="n">
-        <v>28268.81355384636</v>
+        <v>8118.049999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>26699.05837209997</v>
+        <v>7560.13</v>
       </c>
       <c r="N63" t="n">
-        <v>22455.03553131493</v>
+        <v>8398.869999999999</v>
       </c>
     </row>
     <row r="64">
@@ -3243,42 +3243,42 @@
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>335209.6612405342</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>354855.7266665794</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>277492.19</v>
+      </c>
+      <c r="D64" t="n">
+        <v>290892.78</v>
+      </c>
       <c r="E64" t="n">
-        <v>324895.9578916379</v>
+        <v>275456.97</v>
       </c>
       <c r="F64" t="n">
-        <v>339637.2132276515</v>
+        <v>183650.8</v>
       </c>
       <c r="G64" t="n">
-        <v>322804.6312357717</v>
+        <v>286599.78</v>
       </c>
       <c r="H64" t="n">
-        <v>231575.8466062003</v>
+        <v>241987.99</v>
       </c>
       <c r="I64" t="n">
-        <v>335110.3479319704</v>
+        <v>123753.07</v>
       </c>
       <c r="J64" t="n">
-        <v>288033.1913657985</v>
+        <v>49215.77</v>
       </c>
       <c r="K64" t="n">
-        <v>160750.2535181319</v>
+        <v>-36349.31</v>
       </c>
       <c r="L64" t="n">
-        <v>35785.45374574818</v>
+        <v>-129208.89</v>
       </c>
       <c r="M64" t="n">
-        <v>-63132.16240840517</v>
+        <v>-64633.61</v>
       </c>
       <c r="N64" t="n">
-        <v>-150833.4599721329</v>
+        <v>-68497.41</v>
       </c>
     </row>
     <row r="65">
@@ -3287,42 +3287,42 @@
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>54908.4830378486</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>46351.93099535223</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>47513.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>46726.28</v>
+      </c>
       <c r="E65" t="n">
-        <v>47410.44755673463</v>
+        <v>48814.61</v>
       </c>
       <c r="F65" t="n">
-        <v>46655.5231255177</v>
+        <v>47698.66</v>
       </c>
       <c r="G65" t="n">
-        <v>48722.05843146006</v>
+        <v>49185.32999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>47596.20298411052</v>
+        <v>46989.16</v>
       </c>
       <c r="I65" t="n">
-        <v>49089.9508431507</v>
+        <v>42173.98</v>
       </c>
       <c r="J65" t="n">
-        <v>46920.01069568026</v>
+        <v>35737.78000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>42166.28518121122</v>
+        <v>-26489.54</v>
       </c>
       <c r="L65" t="n">
-        <v>35733.30919189173</v>
+        <v>-15584.03</v>
       </c>
       <c r="M65" t="n">
-        <v>-26464.02673900074</v>
+        <v>-9137.17</v>
       </c>
       <c r="N65" t="n">
-        <v>-15561.78796666363</v>
+        <v>6074.009999999999</v>
       </c>
     </row>
     <row r="66">
@@ -3331,42 +3331,42 @@
           <t>資訊服務業平</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>43911.76757343306</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>43124.60986398911</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>88451.25999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>94523.42</v>
+      </c>
       <c r="E66" t="n">
-        <v>41150.94625926372</v>
+        <v>100099.49</v>
       </c>
       <c r="F66" t="n">
-        <v>45849.73726891036</v>
+        <v>85148.92</v>
       </c>
       <c r="G66" t="n">
-        <v>52844.39656832488</v>
+        <v>80894.89000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>37326.29850746362</v>
+        <v>74600.92999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>32479.70286447434</v>
+        <v>59823.29</v>
       </c>
       <c r="J66" t="n">
-        <v>28624.85320631647</v>
+        <v>-11307.71</v>
       </c>
       <c r="K66" t="n">
-        <v>22833.81364927685</v>
+        <v>-32129</v>
       </c>
       <c r="L66" t="n">
-        <v>2127.084201530468</v>
+        <v>-57472.53</v>
       </c>
       <c r="M66" t="n">
-        <v>-5371.64238153543</v>
+        <v>-55459.45</v>
       </c>
       <c r="N66" t="n">
-        <v>-35870.2135637094</v>
+        <v>-51135.18</v>
       </c>
     </row>
     <row r="67">
@@ -3375,42 +3375,42 @@
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>36.93237062523878</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>-109.233694435371</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>2.83</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-28.04</v>
+      </c>
       <c r="E67" t="n">
-        <v>2.82842712474619</v>
+        <v>67.06</v>
       </c>
       <c r="F67" t="n">
-        <v>-28.03569153775237</v>
+        <v>-28.72</v>
       </c>
       <c r="G67" t="n">
-        <v>67.05967491719595</v>
+        <v>31.78</v>
       </c>
       <c r="H67" t="n">
-        <v>-28.72281323269014</v>
+        <v>-69.58</v>
       </c>
       <c r="I67" t="n">
-        <v>31.78049716414141</v>
+        <v>-68.59999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>-69.57729514719583</v>
+        <v>-97.98</v>
       </c>
       <c r="K67" t="n">
-        <v>-68.60029154456998</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>-97.98469268207153</v>
+        <v>-39.28</v>
       </c>
       <c r="M67" t="n">
-        <v>-66.89544080129826</v>
+        <v>-19.03</v>
       </c>
       <c r="N67" t="n">
-        <v>-39.28103868280471</v>
+        <v>-82.06999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -3419,42 +3419,42 @@
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>73.259375433667</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>-138.9073204381621</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>-1.919999999999995</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-35.85</v>
+      </c>
       <c r="E68" t="n">
-        <v>-1.9193445987312</v>
+        <v>22.72</v>
       </c>
       <c r="F68" t="n">
-        <v>-35.85660134347048</v>
+        <v>52.24</v>
       </c>
       <c r="G68" t="n">
-        <v>22.7114760264902</v>
+        <v>118.93</v>
       </c>
       <c r="H68" t="n">
-        <v>52.24748146995572</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>118.9276289563747</v>
+        <v>53.76000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>72.3414512558732</v>
+        <v>-1.429999999999993</v>
       </c>
       <c r="K68" t="n">
-        <v>53.7602369843129</v>
+        <v>-9.069999999999993</v>
       </c>
       <c r="L68" t="n">
-        <v>-1.433300358665605</v>
+        <v>103.78</v>
       </c>
       <c r="M68" t="n">
-        <v>-9.069354066604134</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>103.7883803895286</v>
+        <v>159.86</v>
       </c>
     </row>
     <row r="69">
@@ -3463,42 +3463,42 @@
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>-98214.26564414985</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>-79397.7774528594</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>36877.28999999998</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43471.19000000002</v>
+      </c>
       <c r="E69" t="n">
-        <v>39941.36063352181</v>
+        <v>177047.52</v>
       </c>
       <c r="F69" t="n">
-        <v>46041.14994465284</v>
+        <v>271788.94</v>
       </c>
       <c r="G69" t="n">
-        <v>181001.4132521936</v>
+        <v>360019.56</v>
       </c>
       <c r="H69" t="n">
-        <v>281076.9462199471</v>
+        <v>396283.87</v>
       </c>
       <c r="I69" t="n">
-        <v>369305.7576470572</v>
+        <v>479240.64</v>
       </c>
       <c r="J69" t="n">
-        <v>408582.9257987252</v>
+        <v>429150.2</v>
       </c>
       <c r="K69" t="n">
-        <v>496546.9335886088</v>
+        <v>444771.25</v>
       </c>
       <c r="L69" t="n">
-        <v>445814.9456603861</v>
+        <v>445481.74</v>
       </c>
       <c r="M69" t="n">
-        <v>465306.7135006014</v>
+        <v>383169.69</v>
       </c>
       <c r="N69" t="n">
-        <v>462118.6169409379</v>
+        <v>299254.78</v>
       </c>
     </row>
     <row r="70">
@@ -3507,42 +3507,42 @@
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>114017.2498471546</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>64561.95518629908</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>113980.26</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-6016.330000000002</v>
+      </c>
       <c r="E70" t="n">
-        <v>93319.2998137847</v>
+        <v>24790.48</v>
       </c>
       <c r="F70" t="n">
-        <v>11192.05957317894</v>
+        <v>100624.33</v>
       </c>
       <c r="G70" t="n">
-        <v>47042.32206261225</v>
+        <v>91886.13</v>
       </c>
       <c r="H70" t="n">
-        <v>88288.08322755514</v>
+        <v>37273.31</v>
       </c>
       <c r="I70" t="n">
-        <v>115875.8847765604</v>
+        <v>68934.86</v>
       </c>
       <c r="J70" t="n">
-        <v>67322.43663524232</v>
+        <v>36897.02</v>
       </c>
       <c r="K70" t="n">
-        <v>97430.1434567321</v>
+        <v>48179.1</v>
       </c>
       <c r="L70" t="n">
-        <v>55719.33963839027</v>
+        <v>25326.09</v>
       </c>
       <c r="M70" t="n">
-        <v>71546.32733484037</v>
+        <v>49809.58000000001</v>
       </c>
       <c r="N70" t="n">
-        <v>49543.63620565023</v>
+        <v>71534.26999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3551,1450 +3551,1494 @@
           <t>通信網路業平</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>154785.4379671874</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>118599.4520553508</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>123388.24</v>
+      </c>
+      <c r="D71" t="n">
+        <v>86660.33</v>
+      </c>
       <c r="E71" t="n">
-        <v>153666.7492815704</v>
+        <v>95433.95</v>
       </c>
       <c r="F71" t="n">
-        <v>78807.59778109741</v>
+        <v>100165.39</v>
       </c>
       <c r="G71" t="n">
-        <v>83301.64951799347</v>
+        <v>142933.33</v>
       </c>
       <c r="H71" t="n">
-        <v>119378.2177488198</v>
+        <v>134692.76</v>
       </c>
       <c r="I71" t="n">
-        <v>127611.5288542122</v>
+        <v>146056.64</v>
       </c>
       <c r="J71" t="n">
-        <v>110706.9642844321</v>
+        <v>91879.78999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>121886.2256532093</v>
+        <v>103379.44</v>
       </c>
       <c r="L71" t="n">
-        <v>76863.35117782626</v>
+        <v>-36479.8</v>
       </c>
       <c r="M71" t="n">
-        <v>82998.52495162051</v>
+        <v>-58308.00999999999</v>
       </c>
       <c r="N71" t="n">
-        <v>-57425.32367762663</v>
+        <v>-45980.89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-15448.46326326342</v>
-      </c>
+          <t>造紙工業右上</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>-14999.1938641348</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>4339.03</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16788.07</v>
+      </c>
       <c r="E72" t="n">
-        <v>-13053.11877556005</v>
+        <v>15559.16</v>
       </c>
       <c r="F72" t="n">
-        <v>29670.94955196217</v>
+        <v>17194.33</v>
       </c>
       <c r="G72" t="n">
-        <v>29161.05345245754</v>
+        <v>16298.2</v>
       </c>
       <c r="H72" t="n">
-        <v>37650.9052589128</v>
+        <v>16567.35</v>
       </c>
       <c r="I72" t="n">
-        <v>36688.52894572748</v>
+        <v>18632.68</v>
       </c>
       <c r="J72" t="n">
-        <v>36514.47093119372</v>
+        <v>17401.08</v>
       </c>
       <c r="K72" t="n">
-        <v>40393.25481568564</v>
+        <v>17794.94</v>
       </c>
       <c r="L72" t="n">
-        <v>35474.2588738135</v>
+        <v>17703.04</v>
       </c>
       <c r="M72" t="n">
-        <v>27693.45880936568</v>
+        <v>21856.69</v>
       </c>
       <c r="N72" t="n">
-        <v>17067.9720394465</v>
+        <v>34422.05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>982.3441223142322</v>
-      </c>
+          <t>造紙工業右下</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>-1363.370703916731</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>-13053.13</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29670.96</v>
+      </c>
       <c r="E73" t="n">
-        <v>6912.815986459414</v>
+        <v>29161.05</v>
       </c>
       <c r="F73" t="n">
-        <v>20730.87448545095</v>
+        <v>37650.9</v>
       </c>
       <c r="G73" t="n">
-        <v>13146.12488721551</v>
+        <v>36688.53</v>
       </c>
       <c r="H73" t="n">
-        <v>22672.31879315134</v>
+        <v>36514.47</v>
       </c>
       <c r="I73" t="n">
-        <v>13574.04685924832</v>
+        <v>40393.25</v>
       </c>
       <c r="J73" t="n">
-        <v>21595.57950570193</v>
+        <v>35474.27</v>
       </c>
       <c r="K73" t="n">
-        <v>24799.92800847739</v>
+        <v>27693.45</v>
       </c>
       <c r="L73" t="n">
-        <v>22664.6931409828</v>
+        <v>17067.96</v>
       </c>
       <c r="M73" t="n">
-        <v>21426.70147433989</v>
+        <v>33123.78</v>
       </c>
       <c r="N73" t="n">
-        <v>21407.82953614109</v>
+        <v>6476.590000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17223.02461995988</v>
-      </c>
+          <t>造紙工業平</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>13536.41786555077</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>2573.78</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3942.81</v>
+      </c>
       <c r="E74" t="n">
-        <v>11479.4713197295</v>
+        <v>-2413.04</v>
       </c>
       <c r="F74" t="n">
-        <v>-6046.868399973519</v>
+        <v>5477.99</v>
       </c>
       <c r="G74" t="n">
-        <v>2135.58059680642</v>
+        <v>-2724.16</v>
       </c>
       <c r="H74" t="n">
-        <v>24070.63008321563</v>
+        <v>5028.23</v>
       </c>
       <c r="I74" t="n">
-        <v>50125.22214821994</v>
+        <v>6167.25</v>
       </c>
       <c r="J74" t="n">
-        <v>22690.47303727566</v>
+        <v>5263.61</v>
       </c>
       <c r="K74" t="n">
-        <v>33729.9283164848</v>
+        <v>3631.76</v>
       </c>
       <c r="L74" t="n">
-        <v>29823.16732509725</v>
+        <v>3704.79</v>
       </c>
       <c r="M74" t="n">
-        <v>40259.27472438558</v>
+        <v>5156.27</v>
       </c>
       <c r="N74" t="n">
-        <v>35921.34494119074</v>
+        <v>2168.61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>121251.7046871606</v>
-      </c>
+          <t>運動休閒右上</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>111581.5861644552</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>21430.96</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2161.68</v>
+      </c>
       <c r="E75" t="n">
-        <v>112943.0378964262</v>
+        <v>4418.100000000002</v>
       </c>
       <c r="F75" t="n">
-        <v>55808.04727516984</v>
+        <v>26761.83</v>
       </c>
       <c r="G75" t="n">
-        <v>17693.87457880697</v>
+        <v>53056.25</v>
       </c>
       <c r="H75" t="n">
-        <v>48410.46284637485</v>
+        <v>19766.08</v>
       </c>
       <c r="I75" t="n">
-        <v>66820.81146205157</v>
+        <v>26611.06</v>
       </c>
       <c r="J75" t="n">
-        <v>39204.57252650785</v>
+        <v>21033.06</v>
       </c>
       <c r="K75" t="n">
-        <v>34281.40874588594</v>
+        <v>32884.88</v>
       </c>
       <c r="L75" t="n">
-        <v>4511.778165808086</v>
+        <v>28774.81</v>
       </c>
       <c r="M75" t="n">
-        <v>16585.83112899715</v>
+        <v>23468.17</v>
       </c>
       <c r="N75" t="n">
-        <v>-36779.60019511957</v>
+        <v>49490.25000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>35206.77746455907</v>
-      </c>
+          <t>運動休閒右下</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>30051.25346727592</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>139441.01</v>
+      </c>
+      <c r="D76" t="n">
+        <v>69771.39999999999</v>
+      </c>
       <c r="E76" t="n">
-        <v>39146.46342564293</v>
+        <v>43623.19</v>
       </c>
       <c r="F76" t="n">
-        <v>20719.04025822839</v>
+        <v>82988.11000000002</v>
       </c>
       <c r="G76" t="n">
-        <v>47970.76386524012</v>
+        <v>100650.96</v>
       </c>
       <c r="H76" t="n">
-        <v>53341.86988109673</v>
+        <v>72309.52</v>
       </c>
       <c r="I76" t="n">
-        <v>61085.85508325656</v>
+        <v>72386.98</v>
       </c>
       <c r="J76" t="n">
-        <v>43375.15413502622</v>
+        <v>34115.74</v>
       </c>
       <c r="K76" t="n">
-        <v>59946.78296031978</v>
+        <v>46248.99</v>
       </c>
       <c r="L76" t="n">
-        <v>46803.79767689024</v>
+        <v>-23318.21000000001</v>
       </c>
       <c r="M76" t="n">
-        <v>52641.69077451878</v>
+        <v>-25013.82</v>
       </c>
       <c r="N76" t="n">
-        <v>34567.87207935923</v>
+        <v>-19753.49000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-51015.98170899092</v>
-      </c>
+          <t>運動休閒平</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>-16589.82550488254</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>2697.02</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2870.51</v>
+      </c>
       <c r="E77" t="n">
-        <v>384735.6619678856</v>
+        <v>19758.94</v>
       </c>
       <c r="F77" t="n">
-        <v>214649.5326630855</v>
+        <v>16073.05</v>
       </c>
       <c r="G77" t="n">
-        <v>401008.8647220592</v>
+        <v>24324.67</v>
       </c>
       <c r="H77" t="n">
-        <v>388708.9107227317</v>
+        <v>13194.59</v>
       </c>
       <c r="I77" t="n">
-        <v>465205.1002123952</v>
+        <v>28960.09</v>
       </c>
       <c r="J77" t="n">
-        <v>447094.6419992686</v>
+        <v>25989.95</v>
       </c>
       <c r="K77" t="n">
-        <v>520060.5313820457</v>
+        <v>30352.91</v>
       </c>
       <c r="L77" t="n">
-        <v>487157.917438988</v>
+        <v>28253.02</v>
       </c>
       <c r="M77" t="n">
-        <v>540288.0461604383</v>
+        <v>27352.66</v>
       </c>
       <c r="N77" t="n">
-        <v>528617.8671021239</v>
+        <v>18394.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-54843.47025720363</v>
-      </c>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>-33644.8880675224</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>400940.73</v>
+      </c>
+      <c r="D78" t="n">
+        <v>284404.39</v>
+      </c>
       <c r="E78" t="n">
-        <v>-17305.79196890517</v>
+        <v>495456.37</v>
       </c>
       <c r="F78" t="n">
-        <v>-62165.22886764852</v>
+        <v>500326.38</v>
       </c>
       <c r="G78" t="n">
-        <v>17828.46231084209</v>
+        <v>560635.2</v>
       </c>
       <c r="H78" t="n">
-        <v>18014.60426976393</v>
+        <v>564422.08</v>
       </c>
       <c r="I78" t="n">
-        <v>17789.91270060027</v>
+        <v>624392.84</v>
       </c>
       <c r="J78" t="n">
-        <v>25144.66708269235</v>
+        <v>581701.34</v>
       </c>
       <c r="K78" t="n">
-        <v>69800.78488319524</v>
+        <v>604212.3100000001</v>
       </c>
       <c r="L78" t="n">
-        <v>58909.64022895198</v>
+        <v>582203.25</v>
       </c>
       <c r="M78" t="n">
-        <v>80152.00313494154</v>
+        <v>515921.73</v>
       </c>
       <c r="N78" t="n">
-        <v>32433.64031582955</v>
+        <v>525528.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-5655.212164296921</v>
-      </c>
+          <t>金融保險右下</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>-104.6563090319869</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>78095.37</v>
+      </c>
+      <c r="D79" t="n">
+        <v>39924.06999999999</v>
+      </c>
       <c r="E79" t="n">
-        <v>-4507.993788404227</v>
+        <v>81277.44</v>
       </c>
       <c r="F79" t="n">
-        <v>-34823.34151386753</v>
+        <v>58438.98</v>
       </c>
       <c r="G79" t="n">
-        <v>2439.315874241709</v>
+        <v>57236.12</v>
       </c>
       <c r="H79" t="n">
-        <v>7888.490125298733</v>
+        <v>64144.58</v>
       </c>
       <c r="I79" t="n">
-        <v>46863.66503692442</v>
+        <v>98474.47</v>
       </c>
       <c r="J79" t="n">
-        <v>67172.63308829187</v>
+        <v>87192.89999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>50342.98754466626</v>
+        <v>101347.33</v>
       </c>
       <c r="L79" t="n">
-        <v>11314.30635838059</v>
+        <v>70278.39999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>9436.445603960525</v>
+        <v>65324.94</v>
       </c>
       <c r="N79" t="n">
-        <v>-5700.378548020726</v>
+        <v>80009.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-211.4024597775532</v>
-      </c>
+          <t>金融保險平</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>-127.3538377906218</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>-46876.25000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-137566.36</v>
+      </c>
       <c r="E80" t="n">
-        <v>146.7037831823024</v>
+        <v>-81134.30000000002</v>
       </c>
       <c r="F80" t="n">
-        <v>138.57849761056</v>
+        <v>-65362.89</v>
       </c>
       <c r="G80" t="n">
-        <v>123.9475695606816</v>
+        <v>-7203.090000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>141.7462521550394</v>
+        <v>-6041.339999999998</v>
       </c>
       <c r="I80" t="n">
-        <v>191.2694434560837</v>
+        <v>1526.97000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>211.8372016431486</v>
+        <v>-25566.49</v>
       </c>
       <c r="K80" t="n">
-        <v>215.7799805357299</v>
+        <v>10776.8</v>
       </c>
       <c r="L80" t="n">
-        <v>215.1115989434321</v>
+        <v>-8669.709999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>276.7038127673704</v>
+        <v>-1773.680000000002</v>
       </c>
       <c r="N80" t="n">
-        <v>261.4172909353932</v>
+        <v>84652.56</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-220.911434153679</v>
-      </c>
+          <t>金融業右上</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>-181.4246911414486</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>146.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>138.58</v>
+      </c>
       <c r="E81" t="n">
-        <v>202.0207994188442</v>
+        <v>123.95</v>
       </c>
       <c r="F81" t="n">
-        <v>207.9381343823125</v>
+        <v>141.75</v>
       </c>
       <c r="G81" t="n">
-        <v>199.5161379765646</v>
+        <v>191.27</v>
       </c>
       <c r="H81" t="n">
-        <v>226.2984872930599</v>
+        <v>211.84</v>
       </c>
       <c r="I81" t="n">
-        <v>323.0487904223652</v>
+        <v>215.78</v>
       </c>
       <c r="J81" t="n">
-        <v>211.1958142849687</v>
+        <v>215.11</v>
       </c>
       <c r="K81" t="n">
-        <v>298.5324822023858</v>
+        <v>276.7</v>
       </c>
       <c r="L81" t="n">
-        <v>319.51471722171</v>
+        <v>261.42</v>
       </c>
       <c r="M81" t="n">
-        <v>318.8973031641664</v>
+        <v>184.2</v>
       </c>
       <c r="N81" t="n">
-        <v>234.5861927081464</v>
+        <v>227.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>237.4648490607839</v>
-      </c>
+          <t>金融業右下</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>-23.83703943931064</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>352.54</v>
+      </c>
+      <c r="D82" t="n">
+        <v>198.58</v>
+      </c>
       <c r="E82" t="n">
-        <v>145.2178202789638</v>
+        <v>318.07</v>
       </c>
       <c r="F82" t="n">
-        <v>64.89354430675064</v>
+        <v>324.12</v>
       </c>
       <c r="G82" t="n">
-        <v>193.749655705505</v>
+        <v>319.29</v>
       </c>
       <c r="H82" t="n">
-        <v>244.7249415440013</v>
+        <v>153.6</v>
       </c>
       <c r="I82" t="n">
-        <v>165.6209240677551</v>
+        <v>396.13</v>
       </c>
       <c r="J82" t="n">
-        <v>105.9955891068441</v>
+        <v>429.61</v>
       </c>
       <c r="K82" t="n">
-        <v>243.3229326107541</v>
+        <v>437.98</v>
       </c>
       <c r="L82" t="n">
-        <v>251.443516246955</v>
+        <v>270.02</v>
       </c>
       <c r="M82" t="n">
-        <v>249.7802621913852</v>
+        <v>177.31</v>
       </c>
       <c r="N82" t="n">
-        <v>196.1436713040591</v>
+        <v>261.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>-119.444073166851</v>
-      </c>
+          <t>金融業平</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>-5043.348229578028</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>-5.299999999999997</v>
+      </c>
+      <c r="D83" t="n">
+        <v>74.25</v>
+      </c>
       <c r="E83" t="n">
-        <v>14130.43117306806</v>
+        <v>75.2</v>
       </c>
       <c r="F83" t="n">
-        <v>10267.6258257407</v>
+        <v>146.91</v>
       </c>
       <c r="G83" t="n">
-        <v>14788.38984038633</v>
+        <v>169.38</v>
       </c>
       <c r="H83" t="n">
-        <v>23683.68321057974</v>
+        <v>163.6</v>
       </c>
       <c r="I83" t="n">
-        <v>31365.1297622873</v>
+        <v>145.72</v>
       </c>
       <c r="J83" t="n">
-        <v>35929.8999296106</v>
+        <v>141.35</v>
       </c>
       <c r="K83" t="n">
-        <v>36122.65767781574</v>
+        <v>130.7</v>
       </c>
       <c r="L83" t="n">
-        <v>37386.51409610618</v>
+        <v>160.72</v>
       </c>
       <c r="M83" t="n">
-        <v>40259.68041920674</v>
+        <v>178.26</v>
       </c>
       <c r="N83" t="n">
-        <v>42730.38602747543</v>
+        <v>162.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>-51497.99704604151</v>
-      </c>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>-55296.38877006404</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>14130.43</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10267.63</v>
+      </c>
       <c r="E84" t="n">
-        <v>-1428.597144418984</v>
+        <v>14788.4</v>
       </c>
       <c r="F84" t="n">
-        <v>18036.92265041308</v>
+        <v>23683.68</v>
       </c>
       <c r="G84" t="n">
-        <v>86940.92570447558</v>
+        <v>31365.13</v>
       </c>
       <c r="H84" t="n">
-        <v>80829.6860153794</v>
+        <v>35929.9</v>
       </c>
       <c r="I84" t="n">
-        <v>84788.82894252159</v>
+        <v>36122.66</v>
       </c>
       <c r="J84" t="n">
-        <v>63201.41607290153</v>
+        <v>37386.50999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>87587.0016315229</v>
+        <v>40259.67999999999</v>
       </c>
       <c r="L84" t="n">
-        <v>95425.31314467316</v>
+        <v>42730.38</v>
       </c>
       <c r="M84" t="n">
-        <v>110892.6722024891</v>
+        <v>49895.13</v>
       </c>
       <c r="N84" t="n">
-        <v>79479.52803763993</v>
+        <v>60555.76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-22743.01509560104</v>
-      </c>
+          <t>鋼鐵工業右下</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>-89532.03157827038</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>-5011.389999999999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>14719.61</v>
+      </c>
       <c r="E85" t="n">
-        <v>-1935.082471656884</v>
+        <v>95823.03</v>
       </c>
       <c r="F85" t="n">
-        <v>-30151.4483637559</v>
+        <v>91071</v>
       </c>
       <c r="G85" t="n">
-        <v>24918.86194662391</v>
+        <v>86445.23</v>
       </c>
       <c r="H85" t="n">
-        <v>65311.36035960275</v>
+        <v>62547.73</v>
       </c>
       <c r="I85" t="n">
-        <v>64515.54270181542</v>
+        <v>88647.83</v>
       </c>
       <c r="J85" t="n">
-        <v>18705.81968717198</v>
+        <v>93461</v>
       </c>
       <c r="K85" t="n">
-        <v>17645.78555999651</v>
+        <v>108538.55</v>
       </c>
       <c r="L85" t="n">
-        <v>13144.0522520113</v>
+        <v>75767.48</v>
       </c>
       <c r="M85" t="n">
-        <v>-6029.920211624481</v>
+        <v>64868.12</v>
       </c>
       <c r="N85" t="n">
-        <v>-45061.02153229186</v>
+        <v>66089.28999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>9195.97484199164</v>
-      </c>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>11400.84877404269</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>1647.749999999998</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-26834.12</v>
+      </c>
       <c r="E86" t="n">
-        <v>32577.71683163863</v>
+        <v>16036.78</v>
       </c>
       <c r="F86" t="n">
-        <v>32954.96606914516</v>
+        <v>55070.04</v>
       </c>
       <c r="G86" t="n">
-        <v>39453.65852748416</v>
+        <v>62859.13</v>
       </c>
       <c r="H86" t="n">
-        <v>29696.00883781861</v>
+        <v>19359.53</v>
       </c>
       <c r="I86" t="n">
-        <v>33043.50341784383</v>
+        <v>16584.97</v>
       </c>
       <c r="J86" t="n">
-        <v>33681.22903376094</v>
+        <v>15108.38</v>
       </c>
       <c r="K86" t="n">
-        <v>43739.49172788067</v>
+        <v>-3675.810000000005</v>
       </c>
       <c r="L86" t="n">
-        <v>36104.49943618957</v>
+        <v>-41348.99999999999</v>
       </c>
       <c r="M86" t="n">
-        <v>50394.59867763246</v>
+        <v>-73052.95</v>
       </c>
       <c r="N86" t="n">
-        <v>72445.59097914517</v>
+        <v>-101965.39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>-16420.96210108133</v>
-      </c>
+          <t>電器電纜右上</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>2473.310724112744</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>32577.72</v>
+      </c>
+      <c r="D87" t="n">
+        <v>32954.97</v>
+      </c>
       <c r="E87" t="n">
-        <v>34135.52745999598</v>
+        <v>39453.64999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>33521.15756794485</v>
+        <v>29696</v>
       </c>
       <c r="G87" t="n">
-        <v>43153.98010092548</v>
+        <v>33043.5</v>
       </c>
       <c r="H87" t="n">
-        <v>53188.49758784561</v>
+        <v>33681.24</v>
       </c>
       <c r="I87" t="n">
-        <v>52622.74026124128</v>
+        <v>43739.49</v>
       </c>
       <c r="J87" t="n">
-        <v>52731.03673954472</v>
+        <v>36104.5</v>
       </c>
       <c r="K87" t="n">
-        <v>65638.2468049008</v>
+        <v>50394.59</v>
       </c>
       <c r="L87" t="n">
-        <v>65602.88871788119</v>
+        <v>72445.59999999999</v>
       </c>
       <c r="M87" t="n">
-        <v>62309.57069637605</v>
+        <v>84357.54000000001</v>
       </c>
       <c r="N87" t="n">
-        <v>52207.59477264401</v>
+        <v>80569.43000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>2756.594527255324</v>
-      </c>
+          <t>電器電纜右下</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>-5724.789668828996</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>34135.53</v>
+      </c>
+      <c r="D88" t="n">
+        <v>33521.16</v>
+      </c>
       <c r="E88" t="n">
-        <v>35240.58205663483</v>
+        <v>43153.98</v>
       </c>
       <c r="F88" t="n">
-        <v>31161.68594336173</v>
+        <v>53188.5</v>
       </c>
       <c r="G88" t="n">
-        <v>42719.43620309597</v>
+        <v>52622.75</v>
       </c>
       <c r="H88" t="n">
-        <v>33959.11433830579</v>
+        <v>52731.05</v>
       </c>
       <c r="I88" t="n">
-        <v>41346.83626550627</v>
+        <v>65638.25999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>24053.13201768802</v>
+        <v>65602.89</v>
       </c>
       <c r="K88" t="n">
-        <v>39652.45481032566</v>
+        <v>62309.57</v>
       </c>
       <c r="L88" t="n">
-        <v>28285.83355270013</v>
+        <v>52207.61</v>
       </c>
       <c r="M88" t="n">
-        <v>28809.11618694982</v>
+        <v>54987.58</v>
       </c>
       <c r="N88" t="n">
-        <v>31774.19297516133</v>
+        <v>55627.50999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>214788.5209157433</v>
-      </c>
+          <t>電器電纜平</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>122008.9823480488</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>41356.29</v>
+      </c>
+      <c r="D89" t="n">
+        <v>39514.46</v>
+      </c>
       <c r="E89" t="n">
-        <v>98487.76582871999</v>
+        <v>48619.75</v>
       </c>
       <c r="F89" t="n">
-        <v>69224.16387085362</v>
+        <v>40875.77</v>
       </c>
       <c r="G89" t="n">
-        <v>100873.9395620598</v>
+        <v>49117.81</v>
       </c>
       <c r="H89" t="n">
-        <v>76514.69073431581</v>
+        <v>31732.84</v>
       </c>
       <c r="I89" t="n">
-        <v>134811.5610907654</v>
+        <v>48619.89</v>
       </c>
       <c r="J89" t="n">
-        <v>87391.4937888298</v>
+        <v>37581.19</v>
       </c>
       <c r="K89" t="n">
-        <v>76319.05505793725</v>
+        <v>36991.51</v>
       </c>
       <c r="L89" t="n">
-        <v>46999.77361895457</v>
+        <v>41098.61</v>
       </c>
       <c r="M89" t="n">
-        <v>31677.40328513115</v>
+        <v>40214.2</v>
       </c>
       <c r="N89" t="n">
-        <v>94012.63662201285</v>
+        <v>37821.24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>-4293.973595701898</v>
-      </c>
+          <t>電子通路業右上</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>-8728.824162573708</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>80309.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>56734.42999999999</v>
+      </c>
       <c r="E90" t="n">
-        <v>-965.4356562704306</v>
+        <v>96187.81</v>
       </c>
       <c r="F90" t="n">
-        <v>-3819.457068380421</v>
+        <v>70080.66</v>
       </c>
       <c r="G90" t="n">
-        <v>9476.197494978005</v>
+        <v>119551.32</v>
       </c>
       <c r="H90" t="n">
-        <v>15471.88593898757</v>
+        <v>69746.56</v>
       </c>
       <c r="I90" t="n">
-        <v>19783.31078110824</v>
+        <v>53745.66</v>
       </c>
       <c r="J90" t="n">
-        <v>16403.03031996922</v>
+        <v>22880.59</v>
       </c>
       <c r="K90" t="n">
-        <v>19038.14208848243</v>
+        <v>4895.399999999994</v>
       </c>
       <c r="L90" t="n">
-        <v>9689.14581396689</v>
+        <v>73475.19</v>
       </c>
       <c r="M90" t="n">
-        <v>8014.13717255818</v>
+        <v>62496.89999999999</v>
       </c>
       <c r="N90" t="n">
-        <v>-581.8732321274119</v>
+        <v>96207.96000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>84822.58238713279</v>
-      </c>
+          <t>電子通路業右下</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>72194.53105669076</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>-965.4199999999996</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-3819.47</v>
+      </c>
       <c r="E91" t="n">
-        <v>79215.46713235126</v>
+        <v>9476.189999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>67635.19932682824</v>
+        <v>15471.9</v>
       </c>
       <c r="G91" t="n">
-        <v>49555.50265717241</v>
+        <v>19783.32</v>
       </c>
       <c r="H91" t="n">
-        <v>99538.43106507199</v>
+        <v>16403.02</v>
       </c>
       <c r="I91" t="n">
-        <v>155233.3522138938</v>
+        <v>19038.16</v>
       </c>
       <c r="J91" t="n">
-        <v>153401.2644840258</v>
+        <v>9689.129999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>124333.7234509337</v>
+        <v>8014.129999999999</v>
       </c>
       <c r="L91" t="n">
-        <v>100315.2819787852</v>
+        <v>-581.8699999999999</v>
       </c>
       <c r="M91" t="n">
-        <v>128098.9704679478</v>
+        <v>-12841.82</v>
       </c>
       <c r="N91" t="n">
-        <v>52170.64126973323</v>
+        <v>-11765.97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>391546.4956518349</v>
-      </c>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>258748.9539570542</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>97393.73999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>80124.92</v>
+      </c>
       <c r="E92" t="n">
-        <v>702438.1964553632</v>
+        <v>54241.65000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>596493.3452141912</v>
+        <v>105972.46</v>
       </c>
       <c r="G92" t="n">
-        <v>764768.8259208454</v>
+        <v>170493.59</v>
       </c>
       <c r="H92" t="n">
-        <v>811885.6350919039</v>
+        <v>171046.18</v>
       </c>
       <c r="I92" t="n">
-        <v>1043257.859428809</v>
+        <v>146907.1</v>
       </c>
       <c r="J92" t="n">
-        <v>1025323.192040741</v>
+        <v>124434.46</v>
       </c>
       <c r="K92" t="n">
-        <v>1058902.023536567</v>
+        <v>154880.94</v>
       </c>
       <c r="L92" t="n">
-        <v>977997.3170459437</v>
+        <v>72708.08</v>
       </c>
       <c r="M92" t="n">
-        <v>1063642.498373823</v>
+        <v>131486.23</v>
       </c>
       <c r="N92" t="n">
-        <v>959237.8593005028</v>
+        <v>138008.47</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>109827.4734750571</v>
-      </c>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>110195.0379738362</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>554259.16</v>
+      </c>
+      <c r="D93" t="n">
+        <v>416253.57</v>
+      </c>
       <c r="E93" t="n">
-        <v>297145.9255452108</v>
+        <v>560056.9400000001</v>
       </c>
       <c r="F93" t="n">
-        <v>237577.5038242397</v>
+        <v>536212.88</v>
       </c>
       <c r="G93" t="n">
-        <v>266175.9286170684</v>
+        <v>779374.11</v>
       </c>
       <c r="H93" t="n">
-        <v>395309.9710986154</v>
+        <v>782301.39</v>
       </c>
       <c r="I93" t="n">
-        <v>496393.5851440573</v>
+        <v>830525.04</v>
       </c>
       <c r="J93" t="n">
-        <v>464477.7244055954</v>
+        <v>769487.11</v>
       </c>
       <c r="K93" t="n">
-        <v>555391.4446040048</v>
+        <v>846785.12</v>
       </c>
       <c r="L93" t="n">
-        <v>511338.3126113773</v>
+        <v>858931.4199999999</v>
       </c>
       <c r="M93" t="n">
-        <v>474700.8683778815</v>
+        <v>799737.59</v>
       </c>
       <c r="N93" t="n">
-        <v>311888.3889295792</v>
+        <v>769840.03</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>273432.299162533</v>
-      </c>
+          <t>電子零組件業右下</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>195906.5647351681</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>328361.33</v>
+      </c>
+      <c r="D94" t="n">
+        <v>220324.67</v>
+      </c>
       <c r="E94" t="n">
-        <v>346826.8280527298</v>
+        <v>335142.16</v>
       </c>
       <c r="F94" t="n">
-        <v>292376.1745147868</v>
+        <v>507777.37</v>
       </c>
       <c r="G94" t="n">
-        <v>413011.6711915307</v>
+        <v>647958.1</v>
       </c>
       <c r="H94" t="n">
-        <v>391678.6023684941</v>
+        <v>597143.46</v>
       </c>
       <c r="I94" t="n">
-        <v>526367.315210451</v>
+        <v>704114.22</v>
       </c>
       <c r="J94" t="n">
-        <v>453724.914483582</v>
+        <v>640202.4300000001</v>
       </c>
       <c r="K94" t="n">
-        <v>371335.2118625737</v>
+        <v>609344.97</v>
       </c>
       <c r="L94" t="n">
-        <v>348211.1448424337</v>
+        <v>414193.12</v>
       </c>
       <c r="M94" t="n">
-        <v>399006.6817680241</v>
+        <v>391512.65</v>
       </c>
       <c r="N94" t="n">
-        <v>356552.9236724298</v>
+        <v>490716.65</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>268163.0794573054</v>
-      </c>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>347674.1635922297</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>447554.97</v>
+      </c>
+      <c r="D95" t="n">
+        <v>439627.97</v>
+      </c>
       <c r="E95" t="n">
-        <v>473819.5417254453</v>
+        <v>577220.53</v>
       </c>
       <c r="F95" t="n">
-        <v>480879.0654128481</v>
+        <v>594821.01</v>
       </c>
       <c r="G95" t="n">
-        <v>565464.5868056294</v>
+        <v>699132.3100000001</v>
       </c>
       <c r="H95" t="n">
-        <v>510913.547044449</v>
+        <v>623557.41</v>
       </c>
       <c r="I95" t="n">
-        <v>558703.5303997749</v>
+        <v>525060.5700000001</v>
       </c>
       <c r="J95" t="n">
-        <v>563252.9295000635</v>
+        <v>481228.77</v>
       </c>
       <c r="K95" t="n">
-        <v>625505.838798182</v>
+        <v>537434.65</v>
       </c>
       <c r="L95" t="n">
-        <v>696539.0080708069</v>
+        <v>389595.03</v>
       </c>
       <c r="M95" t="n">
-        <v>718132.5158073119</v>
+        <v>223949.1</v>
       </c>
       <c r="N95" t="n">
-        <v>726472.697339302</v>
+        <v>266445.22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>53438.12798007161</v>
-      </c>
+          <t>電機機械右上</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>32987.09254285455</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>439843.75</v>
+      </c>
+      <c r="D96" t="n">
+        <v>447118.72</v>
+      </c>
       <c r="E96" t="n">
-        <v>70656.25617045768</v>
+        <v>521725.13</v>
       </c>
       <c r="F96" t="n">
-        <v>30461.1288582028</v>
+        <v>462431.19</v>
       </c>
       <c r="G96" t="n">
-        <v>38776.12487421431</v>
+        <v>509355.44</v>
       </c>
       <c r="H96" t="n">
-        <v>54059.03166538708</v>
+        <v>510681.52</v>
       </c>
       <c r="I96" t="n">
-        <v>93035.92819004807</v>
+        <v>563699.26</v>
       </c>
       <c r="J96" t="n">
-        <v>107415.2479851941</v>
+        <v>635622.8199999999</v>
       </c>
       <c r="K96" t="n">
-        <v>120695.8067971343</v>
+        <v>660406.1799999999</v>
       </c>
       <c r="L96" t="n">
-        <v>112333.652788238</v>
+        <v>666824.6</v>
       </c>
       <c r="M96" t="n">
-        <v>128311.0665142782</v>
+        <v>623932.71</v>
       </c>
       <c r="N96" t="n">
-        <v>101374.3137415695</v>
+        <v>652810.42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>105572.7724267515</v>
-      </c>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>62913.5313147651</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>150996.78</v>
+      </c>
+      <c r="D97" t="n">
+        <v>125965.46</v>
+      </c>
       <c r="E97" t="n">
-        <v>343718.6932638553</v>
+        <v>144552.5</v>
       </c>
       <c r="F97" t="n">
-        <v>461141.948735845</v>
+        <v>158070.05</v>
       </c>
       <c r="G97" t="n">
-        <v>450086.6088714174</v>
+        <v>200339.02</v>
       </c>
       <c r="H97" t="n">
-        <v>462916.318515453</v>
+        <v>188711.59</v>
       </c>
       <c r="I97" t="n">
-        <v>488218.9033633231</v>
+        <v>216414.88</v>
       </c>
       <c r="J97" t="n">
-        <v>432496.4982147705</v>
+        <v>212048.86</v>
       </c>
       <c r="K97" t="n">
-        <v>477866.9459594362</v>
+        <v>237935.66</v>
       </c>
       <c r="L97" t="n">
-        <v>455729.7424739193</v>
+        <v>189822.4</v>
       </c>
       <c r="M97" t="n">
-        <v>458811.9720830705</v>
+        <v>53012.04</v>
       </c>
       <c r="N97" t="n">
-        <v>413273.4477491306</v>
+        <v>6376.279999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>418215.7088544068</v>
-      </c>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>382564.7329574153</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>297354.02</v>
+      </c>
+      <c r="D98" t="n">
+        <v>399397.93</v>
+      </c>
       <c r="E98" t="n">
-        <v>860399.5134006586</v>
+        <v>388049.71</v>
       </c>
       <c r="F98" t="n">
-        <v>649202.282558475</v>
+        <v>407387.67</v>
       </c>
       <c r="G98" t="n">
-        <v>797858.2347938867</v>
+        <v>430263.89</v>
       </c>
       <c r="H98" t="n">
-        <v>829395.3307166018</v>
+        <v>403771.6</v>
       </c>
       <c r="I98" t="n">
-        <v>1040815.204908668</v>
+        <v>444010.91</v>
       </c>
       <c r="J98" t="n">
-        <v>993167.3930635197</v>
+        <v>416976.23</v>
       </c>
       <c r="K98" t="n">
-        <v>1142438.362259572</v>
+        <v>406969.55</v>
       </c>
       <c r="L98" t="n">
-        <v>1068868.226084039</v>
+        <v>384515.63</v>
       </c>
       <c r="M98" t="n">
-        <v>1317496.443811731</v>
+        <v>413572.91</v>
       </c>
       <c r="N98" t="n">
-        <v>1307892.409649011</v>
+        <v>389598.48</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>37803.39632000927</v>
-      </c>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>-29103.56595200689</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>762224.27</v>
+      </c>
+      <c r="D99" t="n">
+        <v>578459.3200000001</v>
+      </c>
       <c r="E99" t="n">
-        <v>93278.90833714382</v>
+        <v>736684.37</v>
       </c>
       <c r="F99" t="n">
-        <v>60675.21511321229</v>
+        <v>755292.46</v>
       </c>
       <c r="G99" t="n">
-        <v>123340.0748051295</v>
+        <v>938851.8199999999</v>
       </c>
       <c r="H99" t="n">
-        <v>144619.3984977903</v>
+        <v>954594.4099999999</v>
       </c>
       <c r="I99" t="n">
-        <v>187222.3206735271</v>
+        <v>1113915.42</v>
       </c>
       <c r="J99" t="n">
-        <v>156539.6840041822</v>
+        <v>1082489.81</v>
       </c>
       <c r="K99" t="n">
-        <v>204668.2734081273</v>
+        <v>1263773.28</v>
       </c>
       <c r="L99" t="n">
-        <v>94887.56593540579</v>
+        <v>1315986.64</v>
       </c>
       <c r="M99" t="n">
-        <v>79707.09728623796</v>
+        <v>1252198.32</v>
       </c>
       <c r="N99" t="n">
-        <v>-20912.99240300438</v>
+        <v>1145882.83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>103039.0621524914</v>
-      </c>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>66374.51548037973</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>133292.23</v>
+      </c>
+      <c r="D100" t="n">
+        <v>85743.31999999999</v>
+      </c>
       <c r="E100" t="n">
-        <v>229644.8353230479</v>
+        <v>159005.9</v>
       </c>
       <c r="F100" t="n">
-        <v>148262.3606993885</v>
+        <v>188626.65</v>
       </c>
       <c r="G100" t="n">
-        <v>149621.0986482869</v>
+        <v>239234.44</v>
       </c>
       <c r="H100" t="n">
-        <v>134598.2649739824</v>
+        <v>206881.33</v>
       </c>
       <c r="I100" t="n">
-        <v>238689.9712306012</v>
+        <v>297152.41</v>
       </c>
       <c r="J100" t="n">
-        <v>213050.7458313969</v>
+        <v>182308.46</v>
       </c>
       <c r="K100" t="n">
-        <v>287313.1245013344</v>
+        <v>177936.29</v>
       </c>
       <c r="L100" t="n">
-        <v>309157.8985944198</v>
+        <v>22462.26999999999</v>
       </c>
       <c r="M100" t="n">
-        <v>326063.8712787476</v>
+        <v>-20183.63000000001</v>
       </c>
       <c r="N100" t="n">
-        <v>211731.7353382859</v>
+        <v>39910.38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>30735.83583241172</v>
-      </c>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>15681.65071406507</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>408077.13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>242821.1</v>
+      </c>
       <c r="E101" t="n">
-        <v>40598.12869131057</v>
+        <v>278678.59</v>
       </c>
       <c r="F101" t="n">
-        <v>73832.26721424681</v>
+        <v>272504.98</v>
       </c>
       <c r="G101" t="n">
-        <v>65194.54564337217</v>
+        <v>424879.84</v>
       </c>
       <c r="H101" t="n">
-        <v>69277.83568146774</v>
+        <v>325289.38</v>
       </c>
       <c r="I101" t="n">
-        <v>67051.25596957625</v>
+        <v>582004.4300000001</v>
       </c>
       <c r="J101" t="n">
-        <v>61850.65478377724</v>
+        <v>514886.33</v>
       </c>
       <c r="K101" t="n">
-        <v>57101.8357162815</v>
+        <v>678758.1799999999</v>
       </c>
       <c r="L101" t="n">
-        <v>52246.1801386525</v>
+        <v>602861.98</v>
       </c>
       <c r="M101" t="n">
-        <v>46248.52643489233</v>
+        <v>393643.46</v>
       </c>
       <c r="N101" t="n">
-        <v>52122.92353496184</v>
+        <v>275206.94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-3106.430277689641</v>
-      </c>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>-4031.376787973902</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
+        <v>10833.49</v>
+      </c>
+      <c r="D102" t="n">
+        <v>142245.08</v>
+      </c>
       <c r="E102" t="n">
-        <v>16629.01582950093</v>
+        <v>123489.17</v>
       </c>
       <c r="F102" t="n">
-        <v>63507.92686357343</v>
+        <v>128472.08</v>
       </c>
       <c r="G102" t="n">
-        <v>56199.34269660767</v>
+        <v>69529.98</v>
       </c>
       <c r="H102" t="n">
-        <v>56017.23826790257</v>
+        <v>63030.29</v>
       </c>
       <c r="I102" t="n">
-        <v>55093.94694327203</v>
+        <v>58666.22</v>
       </c>
       <c r="J102" t="n">
-        <v>47861.56110490413</v>
+        <v>54430.01</v>
       </c>
       <c r="K102" t="n">
-        <v>43238.46110941304</v>
+        <v>28337.8</v>
       </c>
       <c r="L102" t="n">
-        <v>35382.51675867657</v>
+        <v>57181.6</v>
       </c>
       <c r="M102" t="n">
-        <v>32310.98430672226</v>
+        <v>61915.49</v>
       </c>
       <c r="N102" t="n">
-        <v>22267.33791045218</v>
+        <v>-26679.68</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>12750.45</v>
+      </c>
+      <c r="D103" t="n">
+        <v>78790.57000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>73076.91</v>
+      </c>
+      <c r="F103" t="n">
+        <v>72969.56999999999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>72317.17</v>
+      </c>
+      <c r="H103" t="n">
+        <v>62708.92</v>
+      </c>
+      <c r="I103" t="n">
+        <v>57324.28</v>
+      </c>
+      <c r="J103" t="n">
+        <v>46891.99</v>
+      </c>
+      <c r="K103" t="n">
+        <v>48418.1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>38967.78</v>
+      </c>
+      <c r="M103" t="n">
+        <v>30494.44</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-56493.46</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>-33143.80686354246</v>
-      </c>
-      <c r="C103" t="n">
-        <v>-18268.6590473857</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
-        <v>-28187.98018484947</v>
-      </c>
-      <c r="F103" t="n">
-        <v>70623.83122723419</v>
-      </c>
-      <c r="G103" t="n">
-        <v>64634.73217434906</v>
-      </c>
-      <c r="H103" t="n">
-        <v>63169.33842648201</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-482.9989254262878</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-11409.93058179367</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-9273.427788072917</v>
-      </c>
-      <c r="L103" t="n">
-        <v>-10252.30278372187</v>
-      </c>
-      <c r="M103" t="n">
-        <v>-27709.05798915635</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-8046.782030780058</v>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>10103.34</v>
+      </c>
+      <c r="D104" t="n">
+        <v>22471.16</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19275.27</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21175.94</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20366.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>17938.48</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16328.23</v>
+      </c>
+      <c r="J104" t="n">
+        <v>15073.71</v>
+      </c>
+      <c r="K104" t="n">
+        <v>15516.17</v>
+      </c>
+      <c r="L104" t="n">
+        <v>14392.95</v>
+      </c>
+      <c r="M104" t="n">
+        <v>14864.14</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-14722.13</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
@@ -511,42 +511,44 @@
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>95562.38999999998</v>
+      </c>
       <c r="C2" t="n">
-        <v>119370.89</v>
+        <v>53406.83</v>
       </c>
       <c r="D2" t="n">
-        <v>73921.22</v>
+        <v>130344.96</v>
       </c>
       <c r="E2" t="n">
-        <v>151246.4</v>
+        <v>70046.24000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>93948.78</v>
+        <v>178321.84</v>
       </c>
       <c r="G2" t="n">
-        <v>205294.19</v>
+        <v>190681.1</v>
       </c>
       <c r="H2" t="n">
-        <v>218868.2</v>
+        <v>224960.49</v>
       </c>
       <c r="I2" t="n">
-        <v>260522.52</v>
+        <v>271743.03</v>
       </c>
       <c r="J2" t="n">
-        <v>310488.96</v>
+        <v>312891.79</v>
       </c>
       <c r="K2" t="n">
-        <v>360377.91</v>
+        <v>300382.46</v>
       </c>
       <c r="L2" t="n">
-        <v>351305.48</v>
+        <v>353640.97</v>
       </c>
       <c r="M2" t="n">
-        <v>397841.73</v>
+        <v>421690.52</v>
       </c>
       <c r="N2" t="n">
-        <v>463924.31</v>
+        <v>447988.1</v>
       </c>
     </row>
     <row r="3">
@@ -555,42 +557,44 @@
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>104065.29</v>
+      </c>
       <c r="C3" t="n">
-        <v>100439.1</v>
+        <v>94054.19</v>
       </c>
       <c r="D3" t="n">
-        <v>91750.56</v>
+        <v>106227.31</v>
       </c>
       <c r="E3" t="n">
-        <v>102942.88</v>
+        <v>133659.74</v>
       </c>
       <c r="F3" t="n">
-        <v>130276.06</v>
+        <v>192436.09</v>
       </c>
       <c r="G3" t="n">
-        <v>187957.73</v>
+        <v>101815.83</v>
       </c>
       <c r="H3" t="n">
-        <v>98714.37</v>
+        <v>172347.95</v>
       </c>
       <c r="I3" t="n">
-        <v>168494.05</v>
+        <v>148949.38</v>
       </c>
       <c r="J3" t="n">
-        <v>145129.3</v>
+        <v>230250.32</v>
       </c>
       <c r="K3" t="n">
-        <v>226353.73</v>
+        <v>70616.56</v>
       </c>
       <c r="L3" t="n">
-        <v>70813.20999999999</v>
+        <v>124071.62</v>
       </c>
       <c r="M3" t="n">
-        <v>126937.08</v>
+        <v>230940.43</v>
       </c>
       <c r="N3" t="n">
-        <v>232723.04</v>
+        <v>224645.92</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +603,44 @@
           <t>光電業平</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>75516.05</v>
+      </c>
       <c r="C4" t="n">
-        <v>77167.74000000001</v>
+        <v>29256.21</v>
       </c>
       <c r="D4" t="n">
-        <v>30482.46</v>
+        <v>47871.58</v>
       </c>
       <c r="E4" t="n">
-        <v>49037.63</v>
+        <v>65114.10000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>65901.16</v>
+        <v>88835.07999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>89686.5</v>
+        <v>66244.62</v>
       </c>
       <c r="H4" t="n">
-        <v>67381.27</v>
+        <v>112997.19</v>
       </c>
       <c r="I4" t="n">
-        <v>114111.34</v>
+        <v>140199.59</v>
       </c>
       <c r="J4" t="n">
-        <v>140885.82</v>
+        <v>141709.49</v>
       </c>
       <c r="K4" t="n">
-        <v>142095.56</v>
+        <v>83340.94</v>
       </c>
       <c r="L4" t="n">
-        <v>83521.03</v>
+        <v>71317.52</v>
       </c>
       <c r="M4" t="n">
-        <v>70543.28</v>
+        <v>88115.37</v>
       </c>
       <c r="N4" t="n">
-        <v>87677.01999999999</v>
+        <v>67236.37</v>
       </c>
     </row>
     <row r="5">
@@ -643,42 +649,44 @@
           <t>其他右上</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>24339.32</v>
+      </c>
       <c r="C5" t="n">
-        <v>24399.92</v>
+        <v>12268.61</v>
       </c>
       <c r="D5" t="n">
-        <v>12330.12</v>
+        <v>4366.030000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>4423.670000000002</v>
+        <v>35553.97</v>
       </c>
       <c r="F5" t="n">
-        <v>35614.95</v>
+        <v>68983.69</v>
       </c>
       <c r="G5" t="n">
-        <v>69042.23999999999</v>
+        <v>96478.14999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>96540.25</v>
+        <v>84786.21000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>84858.56</v>
+        <v>59604.60000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>59670.36000000001</v>
+        <v>47411.39999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>47467.17</v>
+        <v>18671.64</v>
       </c>
       <c r="L5" t="n">
-        <v>18747.47</v>
+        <v>37899.96</v>
       </c>
       <c r="M5" t="n">
-        <v>38030.39999999999</v>
+        <v>50687.22</v>
       </c>
       <c r="N5" t="n">
-        <v>50877.35000000001</v>
+        <v>54547.88999999999</v>
       </c>
     </row>
     <row r="6">
@@ -687,42 +695,44 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>56928.72</v>
+      </c>
       <c r="C6" t="n">
-        <v>65346.91</v>
+        <v>32485.15000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>35201.81</v>
+        <v>77260.92</v>
       </c>
       <c r="E6" t="n">
-        <v>85958.62000000001</v>
+        <v>101212.59</v>
       </c>
       <c r="F6" t="n">
-        <v>113377.66</v>
+        <v>165744.53</v>
       </c>
       <c r="G6" t="n">
-        <v>181301.46</v>
+        <v>104674.98</v>
       </c>
       <c r="H6" t="n">
-        <v>124296.94</v>
+        <v>99484.97</v>
       </c>
       <c r="I6" t="n">
-        <v>114856.22</v>
+        <v>61865.91</v>
       </c>
       <c r="J6" t="n">
-        <v>77466.79999999999</v>
+        <v>68303.75999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>73448.86</v>
+        <v>52944.56</v>
       </c>
       <c r="L6" t="n">
-        <v>55405.60000000001</v>
+        <v>65957.41</v>
       </c>
       <c r="M6" t="n">
-        <v>73312.74000000001</v>
+        <v>78536.41</v>
       </c>
       <c r="N6" t="n">
-        <v>81176.29000000001</v>
+        <v>40680.04</v>
       </c>
     </row>
     <row r="7">
@@ -731,42 +741,44 @@
           <t>其他平</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>74289.39</v>
+      </c>
       <c r="C7" t="n">
-        <v>65867.21000000001</v>
+        <v>55225.37</v>
       </c>
       <c r="D7" t="n">
-        <v>52462.14</v>
+        <v>73943.74000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>65309.48</v>
+        <v>81991.50999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>69962.95999999999</v>
+        <v>102600.18</v>
       </c>
       <c r="G7" t="n">
-        <v>87201.99000000001</v>
+        <v>109635.26</v>
       </c>
       <c r="H7" t="n">
-        <v>89948.92</v>
+        <v>130304.07</v>
       </c>
       <c r="I7" t="n">
-        <v>114805.03</v>
+        <v>135033.86</v>
       </c>
       <c r="J7" t="n">
-        <v>119366.46</v>
+        <v>95072.42</v>
       </c>
       <c r="K7" t="n">
-        <v>89768.68000000001</v>
+        <v>79406.44</v>
       </c>
       <c r="L7" t="n">
-        <v>76768.73</v>
+        <v>84602.34</v>
       </c>
       <c r="M7" t="n">
-        <v>77086.82000000001</v>
+        <v>94289.55</v>
       </c>
       <c r="N7" t="n">
-        <v>91742.89999999999</v>
+        <v>49794.39</v>
       </c>
     </row>
     <row r="8">
@@ -775,42 +787,44 @@
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>565764.6899999999</v>
+      </c>
       <c r="C8" t="n">
-        <v>567317.46</v>
+        <v>362132.39</v>
       </c>
       <c r="D8" t="n">
-        <v>363419.18</v>
+        <v>329654.48</v>
       </c>
       <c r="E8" t="n">
-        <v>330909.35</v>
+        <v>352017.09</v>
       </c>
       <c r="F8" t="n">
-        <v>353286.91</v>
+        <v>456276.53</v>
       </c>
       <c r="G8" t="n">
-        <v>457767.74</v>
+        <v>381404.43</v>
       </c>
       <c r="H8" t="n">
-        <v>382989.43</v>
+        <v>439383.3</v>
       </c>
       <c r="I8" t="n">
-        <v>440873.16</v>
+        <v>545216.65</v>
       </c>
       <c r="J8" t="n">
-        <v>547058.63</v>
+        <v>682218.72</v>
       </c>
       <c r="K8" t="n">
-        <v>684516.21</v>
+        <v>574654.16</v>
       </c>
       <c r="L8" t="n">
-        <v>576686.42</v>
+        <v>558371.13</v>
       </c>
       <c r="M8" t="n">
-        <v>560573.72</v>
+        <v>534774.08</v>
       </c>
       <c r="N8" t="n">
-        <v>540886.01</v>
+        <v>618655.0599999999</v>
       </c>
     </row>
     <row r="9">
@@ -819,42 +833,44 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>72892.37</v>
+      </c>
       <c r="C9" t="n">
-        <v>70253.48</v>
+        <v>56590.59</v>
       </c>
       <c r="D9" t="n">
-        <v>54215.78</v>
+        <v>61944.46</v>
       </c>
       <c r="E9" t="n">
-        <v>59814.01</v>
+        <v>64802.08</v>
       </c>
       <c r="F9" t="n">
-        <v>62839.46</v>
+        <v>83687.64999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>81630.88</v>
+        <v>45358.24</v>
       </c>
       <c r="H9" t="n">
-        <v>43088.96</v>
+        <v>77143.45999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>74433.23</v>
+        <v>32797.5</v>
       </c>
       <c r="J9" t="n">
-        <v>30618.27</v>
+        <v>29341.8</v>
       </c>
       <c r="K9" t="n">
-        <v>27170.71</v>
+        <v>6770.57</v>
       </c>
       <c r="L9" t="n">
-        <v>4231.769999999999</v>
+        <v>5129.769999999997</v>
       </c>
       <c r="M9" t="n">
-        <v>3006.989999999998</v>
+        <v>13582.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11014.54</v>
+        <v>40869.87</v>
       </c>
     </row>
     <row r="10">
@@ -863,42 +879,44 @@
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>295496.42</v>
+      </c>
       <c r="C10" t="n">
-        <v>325627.96</v>
+        <v>236167.37</v>
       </c>
       <c r="D10" t="n">
-        <v>255177.18</v>
+        <v>267201.11</v>
       </c>
       <c r="E10" t="n">
-        <v>290322.37</v>
+        <v>251834.1</v>
       </c>
       <c r="F10" t="n">
-        <v>276839.16</v>
+        <v>308404.6</v>
       </c>
       <c r="G10" t="n">
-        <v>332956.72</v>
+        <v>248955.47</v>
       </c>
       <c r="H10" t="n">
-        <v>268709.82</v>
+        <v>318678.12</v>
       </c>
       <c r="I10" t="n">
-        <v>340955.71</v>
+        <v>299796.5</v>
       </c>
       <c r="J10" t="n">
-        <v>322224.27</v>
+        <v>341069.37</v>
       </c>
       <c r="K10" t="n">
-        <v>365847.51</v>
+        <v>251580.94</v>
       </c>
       <c r="L10" t="n">
-        <v>282454.38</v>
+        <v>163108.89</v>
       </c>
       <c r="M10" t="n">
-        <v>185995.67</v>
+        <v>195466.54</v>
       </c>
       <c r="N10" t="n">
-        <v>221206.68</v>
+        <v>107076.41</v>
       </c>
     </row>
     <row r="11">
@@ -907,42 +925,44 @@
           <t>化學工業右上</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>45540.06999999999</v>
+      </c>
       <c r="C11" t="n">
-        <v>45540.06999999999</v>
+        <v>50182.59</v>
       </c>
       <c r="D11" t="n">
-        <v>50182.59</v>
+        <v>41267.69</v>
       </c>
       <c r="E11" t="n">
-        <v>41267.69</v>
+        <v>44113.21</v>
       </c>
       <c r="F11" t="n">
-        <v>44113.21</v>
+        <v>47966.42</v>
       </c>
       <c r="G11" t="n">
-        <v>47966.42</v>
+        <v>20957.31</v>
       </c>
       <c r="H11" t="n">
-        <v>20957.31</v>
+        <v>39631.61</v>
       </c>
       <c r="I11" t="n">
-        <v>39631.61</v>
+        <v>23627.53</v>
       </c>
       <c r="J11" t="n">
-        <v>23627.53</v>
+        <v>34939.18</v>
       </c>
       <c r="K11" t="n">
-        <v>34939.18</v>
+        <v>22628.39</v>
       </c>
       <c r="L11" t="n">
-        <v>22628.39</v>
+        <v>23935.9</v>
       </c>
       <c r="M11" t="n">
-        <v>23935.9</v>
+        <v>19021.26</v>
       </c>
       <c r="N11" t="n">
-        <v>19021.26</v>
+        <v>15514.72</v>
       </c>
     </row>
     <row r="12">
@@ -951,42 +971,44 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>58442.91</v>
+      </c>
       <c r="C12" t="n">
-        <v>73744.39</v>
+        <v>95343.23999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>112222.67</v>
+        <v>98626.64</v>
       </c>
       <c r="E12" t="n">
-        <v>116821.81</v>
+        <v>106928.65</v>
       </c>
       <c r="F12" t="n">
-        <v>130731.59</v>
+        <v>105664.43</v>
       </c>
       <c r="G12" t="n">
-        <v>126428.46</v>
+        <v>98747.51999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>110310.24</v>
+        <v>111442.02</v>
       </c>
       <c r="I12" t="n">
-        <v>121917.91</v>
+        <v>114768.79</v>
       </c>
       <c r="J12" t="n">
-        <v>120631.69</v>
+        <v>119021.49</v>
       </c>
       <c r="K12" t="n">
-        <v>134773.12</v>
+        <v>101124.61</v>
       </c>
       <c r="L12" t="n">
-        <v>112895.72</v>
+        <v>92719.5</v>
       </c>
       <c r="M12" t="n">
-        <v>105932.56</v>
+        <v>39501.8</v>
       </c>
       <c r="N12" t="n">
-        <v>44754.62</v>
+        <v>54509.09</v>
       </c>
     </row>
     <row r="13">
@@ -995,42 +1017,44 @@
           <t>化學工業平</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>31694.32</v>
+      </c>
       <c r="C13" t="n">
-        <v>31619.77</v>
+        <v>-6640.189999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>-6718.729999999998</v>
+        <v>-15067.42</v>
       </c>
       <c r="E13" t="n">
-        <v>-15148.79</v>
+        <v>60945.83</v>
       </c>
       <c r="F13" t="n">
-        <v>60800.01</v>
+        <v>84556.12</v>
       </c>
       <c r="G13" t="n">
-        <v>84408.95</v>
+        <v>81449.60000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>81324.83</v>
+        <v>91619.20999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>91503.17</v>
+        <v>88732.16</v>
       </c>
       <c r="J13" t="n">
-        <v>88619.46000000001</v>
+        <v>100348.15</v>
       </c>
       <c r="K13" t="n">
-        <v>100221.63</v>
+        <v>64155.96</v>
       </c>
       <c r="L13" t="n">
-        <v>64033.34</v>
+        <v>117125.13</v>
       </c>
       <c r="M13" t="n">
-        <v>117015.35</v>
+        <v>129370.7</v>
       </c>
       <c r="N13" t="n">
-        <v>129332.16</v>
+        <v>121445.85</v>
       </c>
     </row>
     <row r="14">
@@ -1039,42 +1063,44 @@
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>360387.13</v>
+      </c>
       <c r="C14" t="n">
-        <v>251944.14</v>
+        <v>103486.92</v>
       </c>
       <c r="D14" t="n">
-        <v>151325.51</v>
+        <v>-169222.59</v>
       </c>
       <c r="E14" t="n">
-        <v>-115328.44</v>
+        <v>49566.49000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>129361.33</v>
+        <v>360695.83</v>
       </c>
       <c r="G14" t="n">
-        <v>268533.72</v>
+        <v>256962.52</v>
       </c>
       <c r="H14" t="n">
-        <v>319469.31</v>
+        <v>452551.11</v>
       </c>
       <c r="I14" t="n">
-        <v>497002.47</v>
+        <v>522895.37</v>
       </c>
       <c r="J14" t="n">
-        <v>432087.01</v>
+        <v>684989.2200000001</v>
       </c>
       <c r="K14" t="n">
-        <v>569294.3500000001</v>
+        <v>555300.0700000001</v>
       </c>
       <c r="L14" t="n">
-        <v>432658.96</v>
+        <v>733495.17</v>
       </c>
       <c r="M14" t="n">
-        <v>631248.42</v>
+        <v>849033.35</v>
       </c>
       <c r="N14" t="n">
-        <v>737100.46</v>
+        <v>956277.95</v>
       </c>
     </row>
     <row r="15">
@@ -1083,42 +1109,44 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>345597.06</v>
+      </c>
       <c r="C15" t="n">
-        <v>390177.12</v>
+        <v>105142.56</v>
       </c>
       <c r="D15" t="n">
-        <v>166707.87</v>
+        <v>134396.9</v>
       </c>
       <c r="E15" t="n">
-        <v>200845.97</v>
+        <v>191007.66</v>
       </c>
       <c r="F15" t="n">
-        <v>252244.3</v>
+        <v>348911.32</v>
       </c>
       <c r="G15" t="n">
-        <v>411497.52</v>
+        <v>353153.79</v>
       </c>
       <c r="H15" t="n">
-        <v>395760.42</v>
+        <v>746484.73</v>
       </c>
       <c r="I15" t="n">
-        <v>786471.33</v>
+        <v>826651.51</v>
       </c>
       <c r="J15" t="n">
-        <v>885582.89</v>
+        <v>873851.47</v>
       </c>
       <c r="K15" t="n">
-        <v>912301.96</v>
+        <v>729919.5699999999</v>
       </c>
       <c r="L15" t="n">
-        <v>781606.65</v>
+        <v>769872.1899999999</v>
       </c>
       <c r="M15" t="n">
-        <v>832373.33</v>
+        <v>760727.4</v>
       </c>
       <c r="N15" t="n">
-        <v>777630.9400000001</v>
+        <v>860365.98</v>
       </c>
     </row>
     <row r="16">
@@ -1127,42 +1155,44 @@
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>100351.21</v>
+      </c>
       <c r="C16" t="n">
-        <v>179742.52</v>
+        <v>11876.89000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>-63565.06</v>
+        <v>131403.75</v>
       </c>
       <c r="E16" t="n">
-        <v>50310.95999999999</v>
+        <v>225397.91</v>
       </c>
       <c r="F16" t="n">
-        <v>123663.94</v>
+        <v>417829.74</v>
       </c>
       <c r="G16" t="n">
-        <v>503285.09</v>
+        <v>337063.27</v>
       </c>
       <c r="H16" t="n">
-        <v>279829.41</v>
+        <v>615072.41</v>
       </c>
       <c r="I16" t="n">
-        <v>583198.11</v>
+        <v>618398.9399999999</v>
       </c>
       <c r="J16" t="n">
-        <v>701485.35</v>
+        <v>799971.61</v>
       </c>
       <c r="K16" t="n">
-        <v>930346.5900000001</v>
+        <v>746211.74</v>
       </c>
       <c r="L16" t="n">
-        <v>864198.55</v>
+        <v>669454.85</v>
       </c>
       <c r="M16" t="n">
-        <v>760636.79</v>
+        <v>636844.49</v>
       </c>
       <c r="N16" t="n">
-        <v>721522.11</v>
+        <v>604582.3</v>
       </c>
     </row>
     <row r="17">
@@ -1171,42 +1201,44 @@
           <t>塑膠工業右上</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>28812.74</v>
+      </c>
       <c r="C17" t="n">
-        <v>28812.74</v>
+        <v>28387.13</v>
       </c>
       <c r="D17" t="n">
-        <v>28387.13</v>
+        <v>29941.42</v>
       </c>
       <c r="E17" t="n">
-        <v>29941.42</v>
+        <v>34255.15</v>
       </c>
       <c r="F17" t="n">
-        <v>34255.15</v>
+        <v>30664.37</v>
       </c>
       <c r="G17" t="n">
-        <v>30664.37</v>
+        <v>31570.94</v>
       </c>
       <c r="H17" t="n">
-        <v>31570.94</v>
+        <v>28305.27</v>
       </c>
       <c r="I17" t="n">
-        <v>28305.27</v>
+        <v>18339.33</v>
       </c>
       <c r="J17" t="n">
-        <v>18339.33</v>
+        <v>25394.32</v>
       </c>
       <c r="K17" t="n">
-        <v>25394.32</v>
+        <v>8495.609999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>8495.609999999999</v>
+        <v>5169.2</v>
       </c>
       <c r="M17" t="n">
-        <v>5169.2</v>
+        <v>10504.06</v>
       </c>
       <c r="N17" t="n">
-        <v>10504.06</v>
+        <v>-14981.08</v>
       </c>
     </row>
     <row r="18">
@@ -1215,42 +1247,44 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1672.719999999995</v>
+      </c>
       <c r="C18" t="n">
-        <v>3928.519999999995</v>
+        <v>130302.38</v>
       </c>
       <c r="D18" t="n">
-        <v>127759.8</v>
+        <v>120455.31</v>
       </c>
       <c r="E18" t="n">
-        <v>124666.63</v>
+        <v>174013.71</v>
       </c>
       <c r="F18" t="n">
-        <v>180495</v>
+        <v>135412.67</v>
       </c>
       <c r="G18" t="n">
-        <v>144904.4</v>
+        <v>131213.42</v>
       </c>
       <c r="H18" t="n">
-        <v>140007.52</v>
+        <v>177399.92</v>
       </c>
       <c r="I18" t="n">
-        <v>186349.26</v>
+        <v>126772.17</v>
       </c>
       <c r="J18" t="n">
-        <v>133055.08</v>
+        <v>139277.31</v>
       </c>
       <c r="K18" t="n">
-        <v>142063.81</v>
+        <v>77783.19</v>
       </c>
       <c r="L18" t="n">
-        <v>74650.19</v>
+        <v>89093.59</v>
       </c>
       <c r="M18" t="n">
-        <v>84638.52</v>
+        <v>-48261.75</v>
       </c>
       <c r="N18" t="n">
-        <v>-46824.64</v>
+        <v>-37815.28</v>
       </c>
     </row>
     <row r="19">
@@ -1259,42 +1293,44 @@
           <t>塑膠工業平</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>5685.79</v>
+      </c>
       <c r="C19" t="n">
-        <v>3429.99</v>
+        <v>3509.440000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>6052.02</v>
+        <v>9197.210000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>4985.89</v>
+        <v>12198.35</v>
       </c>
       <c r="F19" t="n">
-        <v>5717.06</v>
+        <v>16053.18</v>
       </c>
       <c r="G19" t="n">
-        <v>6561.45</v>
+        <v>15202.37</v>
       </c>
       <c r="H19" t="n">
-        <v>6408.27</v>
+        <v>14974.1</v>
       </c>
       <c r="I19" t="n">
-        <v>6024.76</v>
+        <v>12109.58</v>
       </c>
       <c r="J19" t="n">
-        <v>5826.67</v>
+        <v>7861.12</v>
       </c>
       <c r="K19" t="n">
-        <v>5074.62</v>
+        <v>2584.51</v>
       </c>
       <c r="L19" t="n">
-        <v>5717.51</v>
+        <v>3212.07</v>
       </c>
       <c r="M19" t="n">
-        <v>7667.14</v>
+        <v>7066.49</v>
       </c>
       <c r="N19" t="n">
-        <v>5629.38</v>
+        <v>8620.51</v>
       </c>
     </row>
     <row r="20">
@@ -1303,42 +1339,44 @@
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>42823.42000000001</v>
+      </c>
       <c r="C20" t="n">
-        <v>42823.42000000001</v>
+        <v>54558</v>
       </c>
       <c r="D20" t="n">
-        <v>54558</v>
+        <v>57507.12</v>
       </c>
       <c r="E20" t="n">
-        <v>57507.12</v>
+        <v>58875.62</v>
       </c>
       <c r="F20" t="n">
-        <v>58875.62</v>
+        <v>60584.67</v>
       </c>
       <c r="G20" t="n">
-        <v>60584.67</v>
+        <v>59729.79</v>
       </c>
       <c r="H20" t="n">
-        <v>59729.79</v>
+        <v>57456.07</v>
       </c>
       <c r="I20" t="n">
-        <v>57456.07</v>
+        <v>62181.07000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>62181.07000000001</v>
+        <v>69778.67</v>
       </c>
       <c r="K20" t="n">
-        <v>69778.67</v>
+        <v>67416.67999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>67416.67999999999</v>
+        <v>67558.62</v>
       </c>
       <c r="M20" t="n">
-        <v>67558.62</v>
+        <v>54558.28</v>
       </c>
       <c r="N20" t="n">
-        <v>54558.28</v>
+        <v>61809.73</v>
       </c>
     </row>
     <row r="21">
@@ -1347,42 +1385,44 @@
           <t>居家生活右下</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>8644.519999999999</v>
+      </c>
       <c r="C21" t="n">
-        <v>15822.55</v>
+        <v>6989.08</v>
       </c>
       <c r="D21" t="n">
-        <v>14125.27</v>
+        <v>3631.56</v>
       </c>
       <c r="E21" t="n">
-        <v>10970.99</v>
+        <v>13726.15</v>
       </c>
       <c r="F21" t="n">
-        <v>20836.19</v>
+        <v>12046.55</v>
       </c>
       <c r="G21" t="n">
-        <v>18706.16</v>
+        <v>11902.62</v>
       </c>
       <c r="H21" t="n">
-        <v>18007.63</v>
+        <v>16008.81</v>
       </c>
       <c r="I21" t="n">
-        <v>21589.85</v>
+        <v>16887.24</v>
       </c>
       <c r="J21" t="n">
-        <v>21303.18</v>
+        <v>1040.770000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>4234.330000000001</v>
+        <v>-426.9100000000003</v>
       </c>
       <c r="L21" t="n">
-        <v>-1923.15</v>
+        <v>3609.699999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.469999999999</v>
+        <v>8453.689999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>-889.7700000000004</v>
+        <v>-4780.67</v>
       </c>
     </row>
     <row r="22">
@@ -1391,42 +1431,44 @@
           <t>居家生活平</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>14256.91</v>
+      </c>
       <c r="C22" t="n">
-        <v>14256.91</v>
+        <v>8189.450000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>8189.450000000001</v>
+        <v>12402.41</v>
       </c>
       <c r="E22" t="n">
-        <v>12402.41</v>
+        <v>11551.42</v>
       </c>
       <c r="F22" t="n">
-        <v>11551.42</v>
+        <v>10368.14</v>
       </c>
       <c r="G22" t="n">
-        <v>10368.14</v>
+        <v>-2408.4</v>
       </c>
       <c r="H22" t="n">
-        <v>-2408.4</v>
+        <v>-1722.18</v>
       </c>
       <c r="I22" t="n">
-        <v>-1722.18</v>
+        <v>3260.87</v>
       </c>
       <c r="J22" t="n">
-        <v>3260.87</v>
+        <v>6586.930000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>6586.930000000001</v>
+        <v>-313.4300000000003</v>
       </c>
       <c r="L22" t="n">
-        <v>-313.4300000000003</v>
+        <v>7997.629999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>7997.629999999999</v>
+        <v>10029.63</v>
       </c>
       <c r="N22" t="n">
-        <v>10029.63</v>
+        <v>6858.150000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1435,42 +1477,44 @@
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>41384.95</v>
+      </c>
       <c r="C23" t="n">
-        <v>39444.66</v>
+        <v>200944.83</v>
       </c>
       <c r="D23" t="n">
-        <v>198270.34</v>
+        <v>179811.79</v>
       </c>
       <c r="E23" t="n">
-        <v>177074.69</v>
+        <v>210257.85</v>
       </c>
       <c r="F23" t="n">
-        <v>207413.63</v>
+        <v>252482.7</v>
       </c>
       <c r="G23" t="n">
-        <v>249627.37</v>
+        <v>218642.45</v>
       </c>
       <c r="H23" t="n">
-        <v>216336.08</v>
+        <v>226902.48</v>
       </c>
       <c r="I23" t="n">
-        <v>224045.52</v>
+        <v>255506.9</v>
       </c>
       <c r="J23" t="n">
-        <v>253203.01</v>
+        <v>239141.99</v>
       </c>
       <c r="K23" t="n">
-        <v>236636.51</v>
+        <v>225453.93</v>
       </c>
       <c r="L23" t="n">
-        <v>223398.95</v>
+        <v>217197.22</v>
       </c>
       <c r="M23" t="n">
-        <v>215206.59</v>
+        <v>116439.69</v>
       </c>
       <c r="N23" t="n">
-        <v>117704.71</v>
+        <v>108168.38</v>
       </c>
     </row>
     <row r="24">
@@ -1479,42 +1523,44 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>5716.32</v>
+      </c>
       <c r="C24" t="n">
-        <v>5716.32</v>
+        <v>3786.540000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>3786.540000000001</v>
+        <v>5665.15</v>
       </c>
       <c r="E24" t="n">
-        <v>5665.15</v>
+        <v>2664.09</v>
       </c>
       <c r="F24" t="n">
-        <v>2664.09</v>
+        <v>34267.65</v>
       </c>
       <c r="G24" t="n">
-        <v>34267.65</v>
+        <v>13051.7</v>
       </c>
       <c r="H24" t="n">
-        <v>13051.7</v>
+        <v>10552.67</v>
       </c>
       <c r="I24" t="n">
-        <v>10552.67</v>
+        <v>-3888.620000000002</v>
       </c>
       <c r="J24" t="n">
-        <v>-3888.620000000002</v>
+        <v>6291.120000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>6291.120000000001</v>
+        <v>-10848.72</v>
       </c>
       <c r="L24" t="n">
-        <v>-10848.72</v>
+        <v>-9264.519999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>-9264.519999999999</v>
+        <v>-9217.190000000002</v>
       </c>
       <c r="N24" t="n">
-        <v>-9217.190000000002</v>
+        <v>-10056.77</v>
       </c>
     </row>
     <row r="25">
@@ -1523,42 +1569,44 @@
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>102920.88</v>
+      </c>
       <c r="C25" t="n">
-        <v>104716.76</v>
+        <v>287180.76</v>
       </c>
       <c r="D25" t="n">
-        <v>289901.39</v>
+        <v>210450.8</v>
       </c>
       <c r="E25" t="n">
-        <v>213205.16</v>
+        <v>158424.15</v>
       </c>
       <c r="F25" t="n">
-        <v>161209.53</v>
+        <v>173998.26</v>
       </c>
       <c r="G25" t="n">
-        <v>176777.52</v>
+        <v>166471.75</v>
       </c>
       <c r="H25" t="n">
-        <v>168657.23</v>
+        <v>185163.12</v>
       </c>
       <c r="I25" t="n">
-        <v>187931.97</v>
+        <v>177667.58</v>
       </c>
       <c r="J25" t="n">
-        <v>180066.17</v>
+        <v>103390.46</v>
       </c>
       <c r="K25" t="n">
-        <v>105978.21</v>
+        <v>24831.93</v>
       </c>
       <c r="L25" t="n">
-        <v>26967.24</v>
+        <v>-50046.7</v>
       </c>
       <c r="M25" t="n">
-        <v>-48153.77</v>
+        <v>-231521.2</v>
       </c>
       <c r="N25" t="n">
-        <v>-213327.06</v>
+        <v>-144855.17</v>
       </c>
     </row>
     <row r="26">
@@ -1567,42 +1615,44 @@
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-4543.2</v>
+      </c>
       <c r="C26" t="n">
-        <v>-4543.2</v>
+        <v>-18173.26</v>
       </c>
       <c r="D26" t="n">
-        <v>-18173.26</v>
+        <v>2253.06</v>
       </c>
       <c r="E26" t="n">
-        <v>2253.06</v>
+        <v>28023.92</v>
       </c>
       <c r="F26" t="n">
-        <v>28023.92</v>
+        <v>26083.14</v>
       </c>
       <c r="G26" t="n">
-        <v>26083.14</v>
+        <v>27680.2</v>
       </c>
       <c r="H26" t="n">
-        <v>27680.2</v>
+        <v>38882.87</v>
       </c>
       <c r="I26" t="n">
-        <v>38882.87</v>
+        <v>39225.07</v>
       </c>
       <c r="J26" t="n">
-        <v>39225.07</v>
+        <v>35455.83</v>
       </c>
       <c r="K26" t="n">
-        <v>35455.83</v>
+        <v>36892.96</v>
       </c>
       <c r="L26" t="n">
-        <v>36892.96</v>
+        <v>40864.16</v>
       </c>
       <c r="M26" t="n">
-        <v>40864.16</v>
+        <v>42951.79</v>
       </c>
       <c r="N26" t="n">
-        <v>42951.79</v>
+        <v>38407.2</v>
       </c>
     </row>
     <row r="27">
@@ -1611,42 +1661,44 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>18802.97</v>
+      </c>
       <c r="C27" t="n">
-        <v>19106.5</v>
+        <v>7372.329999999997</v>
       </c>
       <c r="D27" t="n">
-        <v>7573.029999999998</v>
+        <v>34316.01</v>
       </c>
       <c r="E27" t="n">
-        <v>34559.03</v>
+        <v>28697.29</v>
       </c>
       <c r="F27" t="n">
-        <v>29180.19</v>
+        <v>131.3899999999994</v>
       </c>
       <c r="G27" t="n">
-        <v>767.7299999999996</v>
+        <v>-9004.209999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>-8442.879999999999</v>
+        <v>-13117</v>
       </c>
       <c r="I27" t="n">
-        <v>-12799.72</v>
+        <v>-14569.08</v>
       </c>
       <c r="J27" t="n">
-        <v>-14782.01</v>
+        <v>-18560.61</v>
       </c>
       <c r="K27" t="n">
-        <v>-19169.66</v>
+        <v>-30727.76</v>
       </c>
       <c r="L27" t="n">
-        <v>-31367.22</v>
+        <v>-34201.14</v>
       </c>
       <c r="M27" t="n">
-        <v>-34719.89999999999</v>
+        <v>-28624.5</v>
       </c>
       <c r="N27" t="n">
-        <v>-29190.29</v>
+        <v>-37195.35</v>
       </c>
     </row>
     <row r="28">
@@ -1655,42 +1707,44 @@
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-14903.13</v>
+      </c>
       <c r="C28" t="n">
-        <v>-15206.66</v>
+        <v>-18921.17</v>
       </c>
       <c r="D28" t="n">
-        <v>-19121.87</v>
+        <v>-18929.51</v>
       </c>
       <c r="E28" t="n">
-        <v>-19172.53</v>
+        <v>-15188.66</v>
       </c>
       <c r="F28" t="n">
-        <v>-15671.56</v>
+        <v>-8919.150000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-9555.490000000002</v>
+        <v>-9692.32</v>
       </c>
       <c r="H28" t="n">
-        <v>-10253.65</v>
+        <v>18437.3</v>
       </c>
       <c r="I28" t="n">
-        <v>18120.02</v>
+        <v>15028.16</v>
       </c>
       <c r="J28" t="n">
-        <v>15241.09</v>
+        <v>5520.13</v>
       </c>
       <c r="K28" t="n">
-        <v>6129.18</v>
+        <v>13917.27</v>
       </c>
       <c r="L28" t="n">
-        <v>14556.73</v>
+        <v>18785.69</v>
       </c>
       <c r="M28" t="n">
-        <v>19304.45</v>
+        <v>16179.86</v>
       </c>
       <c r="N28" t="n">
-        <v>16745.65</v>
+        <v>15496</v>
       </c>
     </row>
     <row r="29">
@@ -1699,42 +1753,44 @@
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>2060.01</v>
+      </c>
       <c r="C29" t="n">
-        <v>2132.63</v>
+        <v>2496.34</v>
       </c>
       <c r="D29" t="n">
-        <v>2571.55</v>
+        <v>3258.79</v>
       </c>
       <c r="E29" t="n">
-        <v>3346.05</v>
+        <v>3023.74</v>
       </c>
       <c r="F29" t="n">
-        <v>3075.06</v>
+        <v>4162.83</v>
       </c>
       <c r="G29" t="n">
-        <v>4134.79</v>
+        <v>4059.76</v>
       </c>
       <c r="H29" t="n">
-        <v>4011.77</v>
+        <v>3530.46</v>
       </c>
       <c r="I29" t="n">
-        <v>3463.1</v>
+        <v>4347.71</v>
       </c>
       <c r="J29" t="n">
-        <v>4258.52</v>
+        <v>3376.09</v>
       </c>
       <c r="K29" t="n">
-        <v>3286.79</v>
+        <v>1621.18</v>
       </c>
       <c r="L29" t="n">
-        <v>1527.43</v>
+        <v>873.5799999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>786.3799999999999</v>
+        <v>93.38000000000022</v>
       </c>
       <c r="N29" t="n">
-        <v>10.81000000000017</v>
+        <v>-1036.92</v>
       </c>
     </row>
     <row r="30">
@@ -1743,42 +1799,44 @@
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>899.8100000000001</v>
+      </c>
       <c r="C30" t="n">
-        <v>595.0599999999999</v>
+        <v>871.6700000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>588.3100000000001</v>
+        <v>1297.75</v>
       </c>
       <c r="E30" t="n">
-        <v>1109.19</v>
+        <v>2026.58</v>
       </c>
       <c r="F30" t="n">
-        <v>1994.25</v>
+        <v>2199.87</v>
       </c>
       <c r="G30" t="n">
-        <v>2460.77</v>
+        <v>2098.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2399.31</v>
+        <v>1890.99</v>
       </c>
       <c r="I30" t="n">
-        <v>2190.48</v>
+        <v>1833.17</v>
       </c>
       <c r="J30" t="n">
-        <v>2036.07</v>
+        <v>1807.96</v>
       </c>
       <c r="K30" t="n">
-        <v>1778.07</v>
+        <v>1736.23</v>
       </c>
       <c r="L30" t="n">
-        <v>1974.17</v>
+        <v>1680.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1936.88</v>
+        <v>1521.13</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.27</v>
+        <v>1260.32</v>
       </c>
     </row>
     <row r="31">
@@ -1787,42 +1845,44 @@
           <t>文化創意業平</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>2451.91</v>
+      </c>
       <c r="C31" t="n">
-        <v>2663.92</v>
+        <v>1362.01</v>
       </c>
       <c r="D31" t="n">
-        <v>1602.93</v>
+        <v>2849.12</v>
       </c>
       <c r="E31" t="n">
-        <v>2997.95</v>
+        <v>2251.06</v>
       </c>
       <c r="F31" t="n">
-        <v>2279.88</v>
+        <v>3480.68</v>
       </c>
       <c r="G31" t="n">
-        <v>3306.95</v>
+        <v>3558.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3371.66</v>
+        <v>2603.07</v>
       </c>
       <c r="I31" t="n">
-        <v>2438.36</v>
+        <v>3058.56</v>
       </c>
       <c r="J31" t="n">
-        <v>3019.4</v>
+        <v>1895.17</v>
       </c>
       <c r="K31" t="n">
-        <v>2087.95</v>
+        <v>66.28</v>
       </c>
       <c r="L31" t="n">
-        <v>-13.43999999999999</v>
+        <v>443.9699999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>338.8799999999999</v>
+        <v>707.6900000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>542.0700000000001</v>
+        <v>-1096.03</v>
       </c>
     </row>
     <row r="32">
@@ -1831,42 +1891,44 @@
           <t>橡膠工業右上</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>-26610.54</v>
+      </c>
       <c r="C32" t="n">
-        <v>-21868.84</v>
+        <v>-14059.34</v>
       </c>
       <c r="D32" t="n">
-        <v>-3162.150000000001</v>
+        <v>-15482.41</v>
       </c>
       <c r="E32" t="n">
-        <v>-2585.17</v>
+        <v>-21942.63</v>
       </c>
       <c r="F32" t="n">
-        <v>-9745.939999999997</v>
+        <v>-7847.019999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3674.540000000001</v>
+        <v>27225.25</v>
       </c>
       <c r="H32" t="n">
-        <v>37531.97</v>
+        <v>34828.32</v>
       </c>
       <c r="I32" t="n">
-        <v>44481.13</v>
+        <v>38360.49</v>
       </c>
       <c r="J32" t="n">
-        <v>38360.49</v>
+        <v>41164.1</v>
       </c>
       <c r="K32" t="n">
-        <v>41164.1</v>
+        <v>37994.27</v>
       </c>
       <c r="L32" t="n">
-        <v>37994.27</v>
+        <v>32849.01</v>
       </c>
       <c r="M32" t="n">
-        <v>32849.01</v>
+        <v>24285.24</v>
       </c>
       <c r="N32" t="n">
-        <v>24285.24</v>
+        <v>8724.799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1875,42 +1937,44 @@
           <t>橡膠工業右下</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>4292.309999999999</v>
+      </c>
       <c r="C33" t="n">
-        <v>4292.309999999999</v>
+        <v>16190.36</v>
       </c>
       <c r="D33" t="n">
-        <v>16190.36</v>
+        <v>20004.17</v>
       </c>
       <c r="E33" t="n">
-        <v>20004.17</v>
+        <v>21473.88</v>
       </c>
       <c r="F33" t="n">
-        <v>21473.88</v>
+        <v>24343.09</v>
       </c>
       <c r="G33" t="n">
-        <v>24343.09</v>
+        <v>26580.96</v>
       </c>
       <c r="H33" t="n">
-        <v>26580.96</v>
+        <v>28354.09</v>
       </c>
       <c r="I33" t="n">
-        <v>28354.09</v>
+        <v>28076.68</v>
       </c>
       <c r="J33" t="n">
-        <v>28076.68</v>
+        <v>27689.44</v>
       </c>
       <c r="K33" t="n">
-        <v>27689.44</v>
+        <v>19189.04</v>
       </c>
       <c r="L33" t="n">
-        <v>19189.04</v>
+        <v>19778.93</v>
       </c>
       <c r="M33" t="n">
-        <v>19778.93</v>
+        <v>10352.63</v>
       </c>
       <c r="N33" t="n">
-        <v>10352.63</v>
+        <v>2198.98</v>
       </c>
     </row>
     <row r="34">
@@ -1919,42 +1983,44 @@
           <t>橡膠工業平</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>21409.55</v>
+      </c>
       <c r="C34" t="n">
-        <v>16667.85</v>
+        <v>39519.38</v>
       </c>
       <c r="D34" t="n">
-        <v>28622.19</v>
+        <v>39447.37</v>
       </c>
       <c r="E34" t="n">
-        <v>26550.13</v>
+        <v>38530.94</v>
       </c>
       <c r="F34" t="n">
-        <v>26334.25</v>
+        <v>37443.91</v>
       </c>
       <c r="G34" t="n">
-        <v>25922.35</v>
+        <v>36460.71</v>
       </c>
       <c r="H34" t="n">
-        <v>26153.99</v>
+        <v>37539.26</v>
       </c>
       <c r="I34" t="n">
-        <v>27886.45</v>
+        <v>29275.66</v>
       </c>
       <c r="J34" t="n">
-        <v>29275.66</v>
+        <v>25965.25</v>
       </c>
       <c r="K34" t="n">
-        <v>25965.25</v>
+        <v>23234.05</v>
       </c>
       <c r="L34" t="n">
-        <v>23234.05</v>
+        <v>21735.56</v>
       </c>
       <c r="M34" t="n">
-        <v>21735.56</v>
+        <v>-34611.2</v>
       </c>
       <c r="N34" t="n">
-        <v>-34611.2</v>
+        <v>-30635.63</v>
       </c>
     </row>
     <row r="35">
@@ -1963,42 +2029,44 @@
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>8817.41</v>
+      </c>
       <c r="C35" t="n">
-        <v>6429.22</v>
+        <v>15848.2</v>
       </c>
       <c r="D35" t="n">
-        <v>12235.31</v>
+        <v>29861.34</v>
       </c>
       <c r="E35" t="n">
-        <v>25248.53</v>
+        <v>30612.2</v>
       </c>
       <c r="F35" t="n">
-        <v>25376.22</v>
+        <v>30744.29</v>
       </c>
       <c r="G35" t="n">
-        <v>25977.17</v>
+        <v>30753.82</v>
       </c>
       <c r="H35" t="n">
-        <v>24596.62</v>
+        <v>32633.65</v>
       </c>
       <c r="I35" t="n">
-        <v>26442.71</v>
+        <v>41041.34</v>
       </c>
       <c r="J35" t="n">
-        <v>35684.01</v>
+        <v>32296.5</v>
       </c>
       <c r="K35" t="n">
-        <v>27075.7</v>
+        <v>14864.68</v>
       </c>
       <c r="L35" t="n">
-        <v>10858.01</v>
+        <v>25752.84</v>
       </c>
       <c r="M35" t="n">
-        <v>22913.64</v>
+        <v>-22423.79</v>
       </c>
       <c r="N35" t="n">
-        <v>-25995.06</v>
+        <v>-4606.030000000001</v>
       </c>
     </row>
     <row r="36">
@@ -2007,42 +2075,44 @@
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>-41419.39</v>
+      </c>
       <c r="C36" t="n">
-        <v>-41419.39</v>
+        <v>-14268.5</v>
       </c>
       <c r="D36" t="n">
-        <v>-14268.5</v>
+        <v>-13258.35</v>
       </c>
       <c r="E36" t="n">
-        <v>-13258.35</v>
+        <v>33465.56</v>
       </c>
       <c r="F36" t="n">
-        <v>33465.56</v>
+        <v>35201.09</v>
       </c>
       <c r="G36" t="n">
-        <v>35201.09</v>
+        <v>46683.56</v>
       </c>
       <c r="H36" t="n">
-        <v>46683.56</v>
+        <v>81397.96000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>81397.96000000001</v>
+        <v>79455.82000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>79455.82000000001</v>
+        <v>-7155.030000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-7155.030000000001</v>
+        <v>-18346.11</v>
       </c>
       <c r="L36" t="n">
-        <v>-18346.11</v>
+        <v>-54384.59</v>
       </c>
       <c r="M36" t="n">
-        <v>-54384.59</v>
+        <v>-94913.22</v>
       </c>
       <c r="N36" t="n">
-        <v>-46726.91</v>
+        <v>-37928.95</v>
       </c>
     </row>
     <row r="37">
@@ -2051,42 +2121,44 @@
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>10926.48</v>
+      </c>
       <c r="C37" t="n">
-        <v>13314.67</v>
+        <v>14255.16</v>
       </c>
       <c r="D37" t="n">
-        <v>17868.05</v>
+        <v>14047.04</v>
       </c>
       <c r="E37" t="n">
-        <v>18659.85</v>
+        <v>14492.63</v>
       </c>
       <c r="F37" t="n">
-        <v>19728.61</v>
+        <v>15151.8</v>
       </c>
       <c r="G37" t="n">
-        <v>19918.92</v>
+        <v>14878.19</v>
       </c>
       <c r="H37" t="n">
-        <v>21035.39</v>
+        <v>15565.16</v>
       </c>
       <c r="I37" t="n">
-        <v>21756.1</v>
+        <v>14822.99</v>
       </c>
       <c r="J37" t="n">
-        <v>20180.32</v>
+        <v>15348.96</v>
       </c>
       <c r="K37" t="n">
-        <v>20569.76</v>
+        <v>14210.64</v>
       </c>
       <c r="L37" t="n">
-        <v>18217.31</v>
+        <v>11645.83</v>
       </c>
       <c r="M37" t="n">
-        <v>14485.03</v>
+        <v>4062.72</v>
       </c>
       <c r="N37" t="n">
-        <v>7633.99</v>
+        <v>5434.92</v>
       </c>
     </row>
     <row r="38">
@@ -2095,42 +2167,44 @@
           <t>汽車工業右上</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>-10804.22</v>
+      </c>
       <c r="C38" t="n">
-        <v>-10804.22</v>
+        <v>-49887.8</v>
       </c>
       <c r="D38" t="n">
-        <v>-49887.8</v>
+        <v>-62977.67</v>
       </c>
       <c r="E38" t="n">
-        <v>-62977.67</v>
+        <v>-30526.33</v>
       </c>
       <c r="F38" t="n">
-        <v>-30526.33</v>
+        <v>-10351.98</v>
       </c>
       <c r="G38" t="n">
-        <v>-10351.98</v>
+        <v>24524.28</v>
       </c>
       <c r="H38" t="n">
-        <v>24524.28</v>
+        <v>-22910.54</v>
       </c>
       <c r="I38" t="n">
-        <v>-22910.54</v>
+        <v>14269.95</v>
       </c>
       <c r="J38" t="n">
-        <v>14269.95</v>
+        <v>43045.58</v>
       </c>
       <c r="K38" t="n">
-        <v>43045.58</v>
+        <v>1057.450000000001</v>
       </c>
       <c r="L38" t="n">
-        <v>1057.450000000001</v>
+        <v>38598.35</v>
       </c>
       <c r="M38" t="n">
-        <v>38598.35</v>
+        <v>51507.21</v>
       </c>
       <c r="N38" t="n">
-        <v>51507.21</v>
+        <v>39623.86</v>
       </c>
     </row>
     <row r="39">
@@ -2139,42 +2213,44 @@
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>89741.79000000001</v>
+      </c>
       <c r="C39" t="n">
-        <v>92513.56</v>
+        <v>65926.42</v>
       </c>
       <c r="D39" t="n">
-        <v>63666.21</v>
+        <v>103627.58</v>
       </c>
       <c r="E39" t="n">
-        <v>101047.19</v>
+        <v>133204.17</v>
       </c>
       <c r="F39" t="n">
-        <v>129632.99</v>
+        <v>128845.76</v>
       </c>
       <c r="G39" t="n">
-        <v>129212.52</v>
+        <v>146166.99</v>
       </c>
       <c r="H39" t="n">
-        <v>144088.03</v>
+        <v>118612.31</v>
       </c>
       <c r="I39" t="n">
-        <v>114714.2</v>
+        <v>110195.43</v>
       </c>
       <c r="J39" t="n">
-        <v>105586.35</v>
+        <v>108383.53</v>
       </c>
       <c r="K39" t="n">
-        <v>103915.92</v>
+        <v>65701.24000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>60117.64</v>
+        <v>46519.8</v>
       </c>
       <c r="M39" t="n">
-        <v>47875.39</v>
+        <v>49147.04</v>
       </c>
       <c r="N39" t="n">
-        <v>48440.15</v>
+        <v>-12346.05</v>
       </c>
     </row>
     <row r="40">
@@ -2183,42 +2259,44 @@
           <t>汽車工業平</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>146762.5</v>
+      </c>
       <c r="C40" t="n">
-        <v>136326.21</v>
+        <v>132544.57</v>
       </c>
       <c r="D40" t="n">
-        <v>126868.93</v>
+        <v>134925.23</v>
       </c>
       <c r="E40" t="n">
-        <v>128911.37</v>
+        <v>178820.01</v>
       </c>
       <c r="F40" t="n">
-        <v>173411.88</v>
+        <v>212439.69</v>
       </c>
       <c r="G40" t="n">
-        <v>202125.82</v>
+        <v>195562.15</v>
       </c>
       <c r="H40" t="n">
-        <v>187793.77</v>
+        <v>117611.14</v>
       </c>
       <c r="I40" t="n">
-        <v>115048.37</v>
+        <v>132634.33</v>
       </c>
       <c r="J40" t="n">
-        <v>131057.19</v>
+        <v>165724.83</v>
       </c>
       <c r="K40" t="n">
-        <v>164003.81</v>
+        <v>109612.89</v>
       </c>
       <c r="L40" t="n">
-        <v>110365.21</v>
+        <v>83089.87</v>
       </c>
       <c r="M40" t="n">
-        <v>83173.11</v>
+        <v>96457.01000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>95200.35000000001</v>
+        <v>67385.39</v>
       </c>
     </row>
     <row r="41">
@@ -2227,42 +2305,44 @@
           <t>油電燃氣業右下</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>15857.95</v>
+      </c>
       <c r="C41" t="n">
-        <v>15640.16</v>
+        <v>41796.2</v>
       </c>
       <c r="D41" t="n">
-        <v>41669.28</v>
+        <v>37495.42999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>37412.92</v>
+        <v>46685.45</v>
       </c>
       <c r="F41" t="n">
-        <v>46599.45999999999</v>
+        <v>53788.44</v>
       </c>
       <c r="G41" t="n">
-        <v>53684.38</v>
+        <v>55476.75</v>
       </c>
       <c r="H41" t="n">
-        <v>55741.31</v>
+        <v>65382.69</v>
       </c>
       <c r="I41" t="n">
-        <v>65492.01</v>
+        <v>49961.26</v>
       </c>
       <c r="J41" t="n">
-        <v>49824.8</v>
+        <v>53270.25</v>
       </c>
       <c r="K41" t="n">
-        <v>53211.51</v>
+        <v>26172.9</v>
       </c>
       <c r="L41" t="n">
-        <v>26048.57</v>
+        <v>20788.91</v>
       </c>
       <c r="M41" t="n">
-        <v>20794.48</v>
+        <v>5018.310000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>5080.040000000001</v>
+        <v>15921.26</v>
       </c>
     </row>
     <row r="42">
@@ -2271,42 +2351,44 @@
           <t>油電燃氣業平</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>10374.85</v>
+      </c>
       <c r="C42" t="n">
-        <v>10374.85</v>
+        <v>15121.98</v>
       </c>
       <c r="D42" t="n">
-        <v>15121.98</v>
+        <v>16914.93</v>
       </c>
       <c r="E42" t="n">
-        <v>16914.93</v>
+        <v>19026.75</v>
       </c>
       <c r="F42" t="n">
-        <v>19026.75</v>
+        <v>21323.4</v>
       </c>
       <c r="G42" t="n">
-        <v>21323.4</v>
+        <v>23146.57</v>
       </c>
       <c r="H42" t="n">
-        <v>23146.57</v>
+        <v>21179.27</v>
       </c>
       <c r="I42" t="n">
-        <v>21179.27</v>
+        <v>19093.04</v>
       </c>
       <c r="J42" t="n">
-        <v>19093.04</v>
+        <v>20601.31</v>
       </c>
       <c r="K42" t="n">
-        <v>20601.31</v>
+        <v>18739</v>
       </c>
       <c r="L42" t="n">
-        <v>18739</v>
+        <v>19465.89</v>
       </c>
       <c r="M42" t="n">
-        <v>19465.89</v>
+        <v>21969.28</v>
       </c>
       <c r="N42" t="n">
-        <v>21969.28</v>
+        <v>23711.27</v>
       </c>
     </row>
     <row r="43">
@@ -2315,42 +2397,44 @@
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>12558.35</v>
+      </c>
       <c r="C43" t="n">
-        <v>12558.35</v>
+        <v>12543.05</v>
       </c>
       <c r="D43" t="n">
-        <v>12543.05</v>
+        <v>9519.57</v>
       </c>
       <c r="E43" t="n">
-        <v>9519.57</v>
+        <v>-3554.98</v>
       </c>
       <c r="F43" t="n">
-        <v>-3554.98</v>
+        <v>5371.51</v>
       </c>
       <c r="G43" t="n">
-        <v>5371.51</v>
+        <v>-4733.04</v>
       </c>
       <c r="H43" t="n">
-        <v>-4733.04</v>
+        <v>1651.97</v>
       </c>
       <c r="I43" t="n">
-        <v>1651.97</v>
+        <v>863.7800000000002</v>
       </c>
       <c r="J43" t="n">
-        <v>863.7800000000002</v>
+        <v>2106.110000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>2106.110000000001</v>
+        <v>-2865.16</v>
       </c>
       <c r="L43" t="n">
-        <v>-2865.16</v>
+        <v>-12004.19</v>
       </c>
       <c r="M43" t="n">
-        <v>-12004.19</v>
+        <v>-10061.61</v>
       </c>
       <c r="N43" t="n">
-        <v>-10061.61</v>
+        <v>-14435.67</v>
       </c>
     </row>
     <row r="44">
@@ -2359,42 +2443,44 @@
           <t>玻璃陶瓷右下</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>27749.26</v>
+      </c>
       <c r="C44" t="n">
-        <v>27749.26</v>
+        <v>8501.959999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>8501.959999999999</v>
+        <v>15994.57</v>
       </c>
       <c r="E44" t="n">
-        <v>15994.57</v>
+        <v>24906.06</v>
       </c>
       <c r="F44" t="n">
-        <v>24906.06</v>
+        <v>23659.02</v>
       </c>
       <c r="G44" t="n">
-        <v>23659.02</v>
+        <v>16008.63</v>
       </c>
       <c r="H44" t="n">
-        <v>16008.63</v>
+        <v>21216.92</v>
       </c>
       <c r="I44" t="n">
-        <v>21216.92</v>
+        <v>19139.23</v>
       </c>
       <c r="J44" t="n">
-        <v>19139.23</v>
+        <v>5097.179999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>5097.179999999999</v>
+        <v>-8040.380000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>-8040.380000000001</v>
+        <v>-1176.129999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>-1176.129999999999</v>
+        <v>-4.390000000001237</v>
       </c>
       <c r="N44" t="n">
-        <v>-4.390000000001237</v>
+        <v>-9959.400000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2403,42 +2489,44 @@
           <t>玻璃陶瓷平</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>-1667.96</v>
+      </c>
       <c r="C45" t="n">
-        <v>-1667.96</v>
+        <v>3091.95</v>
       </c>
       <c r="D45" t="n">
-        <v>3091.95</v>
+        <v>4265.17</v>
       </c>
       <c r="E45" t="n">
-        <v>4265.17</v>
+        <v>6159.31</v>
       </c>
       <c r="F45" t="n">
-        <v>6159.31</v>
+        <v>6949.11</v>
       </c>
       <c r="G45" t="n">
-        <v>6949.11</v>
+        <v>6089.29</v>
       </c>
       <c r="H45" t="n">
-        <v>6089.29</v>
+        <v>6971.78</v>
       </c>
       <c r="I45" t="n">
-        <v>6971.78</v>
+        <v>6172.68</v>
       </c>
       <c r="J45" t="n">
-        <v>6172.68</v>
+        <v>5219.84</v>
       </c>
       <c r="K45" t="n">
-        <v>5219.84</v>
+        <v>4186.58</v>
       </c>
       <c r="L45" t="n">
-        <v>4186.58</v>
+        <v>3230.22</v>
       </c>
       <c r="M45" t="n">
-        <v>3230.22</v>
+        <v>-626.02</v>
       </c>
       <c r="N45" t="n">
-        <v>-626.02</v>
+        <v>-2928.6</v>
       </c>
     </row>
     <row r="46">
@@ -2447,42 +2535,44 @@
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>50129.51</v>
+      </c>
       <c r="C46" t="n">
-        <v>50488.94</v>
+        <v>36485.91</v>
       </c>
       <c r="D46" t="n">
-        <v>36635.05</v>
+        <v>1752.130000000003</v>
       </c>
       <c r="E46" t="n">
-        <v>1930.900000000003</v>
+        <v>68150.03</v>
       </c>
       <c r="F46" t="n">
-        <v>68424</v>
+        <v>99442.91</v>
       </c>
       <c r="G46" t="n">
-        <v>99853.93000000001</v>
+        <v>93628.14999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>93937.89999999999</v>
+        <v>100154.3</v>
       </c>
       <c r="I46" t="n">
-        <v>100578.03</v>
+        <v>72706.28999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>73139.59999999999</v>
+        <v>65357.54</v>
       </c>
       <c r="K46" t="n">
-        <v>65828.86</v>
+        <v>35789.44</v>
       </c>
       <c r="L46" t="n">
-        <v>36224.07999999999</v>
+        <v>47900.88</v>
       </c>
       <c r="M46" t="n">
-        <v>48255.25000000001</v>
+        <v>59443.35000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>59901.17</v>
+        <v>87166.32999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2491,42 +2581,44 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>83770.45999999999</v>
+      </c>
       <c r="C47" t="n">
-        <v>92398.89999999999</v>
+        <v>39687.42</v>
       </c>
       <c r="D47" t="n">
-        <v>47765.72</v>
+        <v>77732.87</v>
       </c>
       <c r="E47" t="n">
-        <v>85767.63</v>
+        <v>111652.55</v>
       </c>
       <c r="F47" t="n">
-        <v>119722.95</v>
+        <v>160089.98</v>
       </c>
       <c r="G47" t="n">
-        <v>168276.67</v>
+        <v>101251.08</v>
       </c>
       <c r="H47" t="n">
-        <v>108123.38</v>
+        <v>134016.78</v>
       </c>
       <c r="I47" t="n">
-        <v>140439</v>
+        <v>58009.03999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>61067.87</v>
+        <v>77598.86</v>
       </c>
       <c r="K47" t="n">
-        <v>76960.84999999999</v>
+        <v>-213.5499999999956</v>
       </c>
       <c r="L47" t="n">
-        <v>-292.9199999999946</v>
+        <v>14065.07</v>
       </c>
       <c r="M47" t="n">
-        <v>16275.9</v>
+        <v>51826.48</v>
       </c>
       <c r="N47" t="n">
-        <v>50652.55</v>
+        <v>42215.32</v>
       </c>
     </row>
     <row r="48">
@@ -2536,43 +2628,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>118147.55</v>
       </c>
       <c r="C48" t="n">
-        <v>111338.74</v>
+        <v>56883.77</v>
       </c>
       <c r="D48" t="n">
-        <v>50648.05</v>
+        <v>78601.53999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>72212.78</v>
+        <v>53289.71</v>
       </c>
       <c r="F48" t="n">
-        <v>46724.46</v>
+        <v>132581.96</v>
       </c>
       <c r="G48" t="n">
-        <v>126106.28</v>
+        <v>67719.81</v>
       </c>
       <c r="H48" t="n">
-        <v>62400.54</v>
+        <v>29126.53</v>
       </c>
       <c r="I48" t="n">
-        <v>24549.62</v>
+        <v>-20276.42</v>
       </c>
       <c r="J48" t="n">
-        <v>-21769.55</v>
+        <v>-172.6099999999988</v>
       </c>
       <c r="K48" t="n">
-        <v>1945.910000000004</v>
+        <v>-97727.97</v>
       </c>
       <c r="L48" t="n">
-        <v>-96558</v>
+        <v>-122275.97</v>
       </c>
       <c r="M48" t="n">
-        <v>-123620.11</v>
+        <v>-50704.56</v>
       </c>
       <c r="N48" t="n">
-        <v>-48878.22</v>
+        <v>-19076.98</v>
       </c>
     </row>
     <row r="49">
@@ -2581,42 +2673,44 @@
           <t>紡織纖維右上</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>18231.64</v>
+      </c>
       <c r="C49" t="n">
-        <v>16879.97</v>
+        <v>18465.33</v>
       </c>
       <c r="D49" t="n">
-        <v>16953.02</v>
+        <v>23077.15</v>
       </c>
       <c r="E49" t="n">
-        <v>21207.36</v>
+        <v>23901.25</v>
       </c>
       <c r="F49" t="n">
-        <v>23285.59</v>
+        <v>27828.04</v>
       </c>
       <c r="G49" t="n">
-        <v>28517.92</v>
+        <v>30759.47</v>
       </c>
       <c r="H49" t="n">
-        <v>31035.36</v>
+        <v>20212.28</v>
       </c>
       <c r="I49" t="n">
-        <v>21370.37</v>
+        <v>19226.9</v>
       </c>
       <c r="J49" t="n">
-        <v>20888.92</v>
+        <v>18702.83</v>
       </c>
       <c r="K49" t="n">
-        <v>20597.34</v>
+        <v>13974.98</v>
       </c>
       <c r="L49" t="n">
-        <v>16393.55</v>
+        <v>13571.71</v>
       </c>
       <c r="M49" t="n">
-        <v>16141.8</v>
+        <v>21595.5</v>
       </c>
       <c r="N49" t="n">
-        <v>24504.16</v>
+        <v>33386.8</v>
       </c>
     </row>
     <row r="50">
@@ -2625,42 +2719,44 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>33417.13</v>
+      </c>
       <c r="C50" t="n">
-        <v>32017.11</v>
+        <v>44312.21</v>
       </c>
       <c r="D50" t="n">
-        <v>43197.17</v>
+        <v>19625.16</v>
       </c>
       <c r="E50" t="n">
-        <v>19455.05</v>
+        <v>110538.65</v>
       </c>
       <c r="F50" t="n">
-        <v>110807.43</v>
+        <v>124923.07</v>
       </c>
       <c r="G50" t="n">
-        <v>124299.82</v>
+        <v>111924.59</v>
       </c>
       <c r="H50" t="n">
-        <v>111674.21</v>
+        <v>104644.96</v>
       </c>
       <c r="I50" t="n">
-        <v>104723.66</v>
+        <v>35221.86</v>
       </c>
       <c r="J50" t="n">
-        <v>35749.61</v>
+        <v>40463.57999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>41139.21</v>
+        <v>20877.14</v>
       </c>
       <c r="L50" t="n">
-        <v>21164.95</v>
+        <v>34130.08</v>
       </c>
       <c r="M50" t="n">
-        <v>34344.38</v>
+        <v>41947.83</v>
       </c>
       <c r="N50" t="n">
-        <v>41272.72</v>
+        <v>36128.89</v>
       </c>
     </row>
     <row r="51">
@@ -2669,42 +2765,44 @@
           <t>紡織纖維平</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>25329.55</v>
+      </c>
       <c r="C51" t="n">
-        <v>26729.57</v>
+        <v>47600.19</v>
       </c>
       <c r="D51" t="n">
-        <v>48715.23</v>
+        <v>41145.58</v>
       </c>
       <c r="E51" t="n">
-        <v>41315.69</v>
+        <v>47238.62</v>
       </c>
       <c r="F51" t="n">
-        <v>46969.84</v>
+        <v>43343.9</v>
       </c>
       <c r="G51" t="n">
-        <v>43967.15</v>
+        <v>52643.32</v>
       </c>
       <c r="H51" t="n">
-        <v>52893.7</v>
+        <v>40128.09</v>
       </c>
       <c r="I51" t="n">
-        <v>40049.39</v>
+        <v>30010.03</v>
       </c>
       <c r="J51" t="n">
-        <v>29482.28</v>
+        <v>8773.99</v>
       </c>
       <c r="K51" t="n">
-        <v>8098.359999999999</v>
+        <v>-16567.3</v>
       </c>
       <c r="L51" t="n">
-        <v>-16855.11</v>
+        <v>-12493.53</v>
       </c>
       <c r="M51" t="n">
-        <v>-12707.83</v>
+        <v>-28438.35</v>
       </c>
       <c r="N51" t="n">
-        <v>-27763.24</v>
+        <v>-34441.96</v>
       </c>
     </row>
     <row r="52">
@@ -2713,42 +2811,44 @@
           <t>綠能環保右上</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>60090.67</v>
+      </c>
       <c r="C52" t="n">
-        <v>52773.75</v>
+        <v>-16634.88</v>
       </c>
       <c r="D52" t="n">
-        <v>-10124.61</v>
+        <v>14737.18</v>
       </c>
       <c r="E52" t="n">
-        <v>23117.36</v>
+        <v>22373.41</v>
       </c>
       <c r="F52" t="n">
-        <v>30722.97</v>
+        <v>33721.88</v>
       </c>
       <c r="G52" t="n">
-        <v>40157.5</v>
+        <v>19332.95</v>
       </c>
       <c r="H52" t="n">
-        <v>28383.53999999999</v>
+        <v>31618.34</v>
       </c>
       <c r="I52" t="n">
-        <v>36714.52</v>
+        <v>47175.96000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>55737.28</v>
+        <v>55069.26</v>
       </c>
       <c r="K52" t="n">
-        <v>66947.61</v>
+        <v>61366.16</v>
       </c>
       <c r="L52" t="n">
-        <v>61916.49000000001</v>
+        <v>36514.28</v>
       </c>
       <c r="M52" t="n">
-        <v>37058.75</v>
+        <v>118823.14</v>
       </c>
       <c r="N52" t="n">
-        <v>119320.38</v>
+        <v>19268.35</v>
       </c>
     </row>
     <row r="53">
@@ -2757,42 +2857,44 @@
           <t>綠能環保右下</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>29596.93</v>
+      </c>
       <c r="C53" t="n">
-        <v>29596.93</v>
+        <v>14882.33</v>
       </c>
       <c r="D53" t="n">
-        <v>14882.33</v>
+        <v>5565.039999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>5565.039999999999</v>
+        <v>11985.26</v>
       </c>
       <c r="F53" t="n">
-        <v>11985.26</v>
+        <v>23631.58</v>
       </c>
       <c r="G53" t="n">
-        <v>23631.58</v>
+        <v>13162.6</v>
       </c>
       <c r="H53" t="n">
-        <v>13162.6</v>
+        <v>7173.410000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>7173.410000000002</v>
+        <v>-57.2800000000002</v>
       </c>
       <c r="J53" t="n">
-        <v>-57.2800000000002</v>
+        <v>6992.49</v>
       </c>
       <c r="K53" t="n">
-        <v>6992.49</v>
+        <v>-19635.43</v>
       </c>
       <c r="L53" t="n">
-        <v>-19635.43</v>
+        <v>-35576.87</v>
       </c>
       <c r="M53" t="n">
-        <v>-35576.87</v>
+        <v>34250.64999999999</v>
       </c>
       <c r="N53" t="n">
-        <v>34250.65</v>
+        <v>50703.66</v>
       </c>
     </row>
     <row r="54">
@@ -2801,42 +2903,44 @@
           <t>綠能環保平</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>4776.759999999998</v>
+      </c>
       <c r="C54" t="n">
-        <v>12093.68</v>
+        <v>-7466.359999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>-13976.63</v>
+        <v>27619.49</v>
       </c>
       <c r="E54" t="n">
-        <v>19239.31</v>
+        <v>2870.559999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>-5479</v>
+        <v>-11585.37</v>
       </c>
       <c r="G54" t="n">
-        <v>-18020.99</v>
+        <v>35649.81</v>
       </c>
       <c r="H54" t="n">
-        <v>26599.22</v>
+        <v>-5765.770000000004</v>
       </c>
       <c r="I54" t="n">
-        <v>-10861.95</v>
+        <v>2297.019999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>-6264.300000000001</v>
+        <v>12798.45</v>
       </c>
       <c r="K54" t="n">
-        <v>920.1000000000004</v>
+        <v>5420.77</v>
       </c>
       <c r="L54" t="n">
-        <v>4870.439999999999</v>
+        <v>14635.95</v>
       </c>
       <c r="M54" t="n">
-        <v>14091.48</v>
+        <v>20901.88</v>
       </c>
       <c r="N54" t="n">
-        <v>20404.64</v>
+        <v>-6798.539999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2845,42 +2949,44 @@
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>-36111.90999999999</v>
+      </c>
       <c r="C55" t="n">
-        <v>-96173.34</v>
+        <v>110565.54</v>
       </c>
       <c r="D55" t="n">
-        <v>29910.28999999999</v>
+        <v>124027.19</v>
       </c>
       <c r="E55" t="n">
-        <v>63870.17</v>
+        <v>188443.16</v>
       </c>
       <c r="F55" t="n">
-        <v>108084.36</v>
+        <v>349268.76</v>
       </c>
       <c r="G55" t="n">
-        <v>264519.54</v>
+        <v>359694.11</v>
       </c>
       <c r="H55" t="n">
-        <v>276936.62</v>
+        <v>451491.09</v>
       </c>
       <c r="I55" t="n">
-        <v>370663.11</v>
+        <v>657129.6900000001</v>
       </c>
       <c r="J55" t="n">
-        <v>548917.97</v>
+        <v>729052.35</v>
       </c>
       <c r="K55" t="n">
-        <v>597260.0699999999</v>
+        <v>877508.75</v>
       </c>
       <c r="L55" t="n">
-        <v>713305.04</v>
+        <v>1007726.1</v>
       </c>
       <c r="M55" t="n">
-        <v>803153.77</v>
+        <v>930399.79</v>
       </c>
       <c r="N55" t="n">
-        <v>701042.4500000001</v>
+        <v>754107.9300000001</v>
       </c>
     </row>
     <row r="56">
@@ -2889,42 +2995,44 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>-31309.96</v>
+      </c>
       <c r="C56" t="n">
-        <v>44.52000000000226</v>
+        <v>42090.73</v>
       </c>
       <c r="D56" t="n">
-        <v>38381.03</v>
+        <v>96794.61</v>
       </c>
       <c r="E56" t="n">
-        <v>62799.14</v>
+        <v>117141.87</v>
       </c>
       <c r="F56" t="n">
-        <v>66439.12</v>
+        <v>118504.13</v>
       </c>
       <c r="G56" t="n">
-        <v>58908.95</v>
+        <v>107607.93</v>
       </c>
       <c r="H56" t="n">
-        <v>58072.74</v>
+        <v>109815.27</v>
       </c>
       <c r="I56" t="n">
-        <v>68438.92999999999</v>
+        <v>97994.06999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>72429.7</v>
+        <v>61251.26</v>
       </c>
       <c r="K56" t="n">
-        <v>68995.55</v>
+        <v>69353.17999999999</v>
       </c>
       <c r="L56" t="n">
-        <v>70702.85000000001</v>
+        <v>90868.37</v>
       </c>
       <c r="M56" t="n">
-        <v>67414.27</v>
+        <v>52589.42</v>
       </c>
       <c r="N56" t="n">
-        <v>23494.73</v>
+        <v>-49284.58</v>
       </c>
     </row>
     <row r="57">
@@ -2933,42 +3041,44 @@
           <t>航運業平</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>79416.5</v>
+      </c>
       <c r="C57" t="n">
-        <v>48062.02</v>
+        <v>88241.07000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>91950.77</v>
+        <v>128589.32</v>
       </c>
       <c r="E57" t="n">
-        <v>162584.79</v>
+        <v>172311.45</v>
       </c>
       <c r="F57" t="n">
-        <v>223014.2</v>
+        <v>213206.24</v>
       </c>
       <c r="G57" t="n">
-        <v>272801.42</v>
+        <v>153733.19</v>
       </c>
       <c r="H57" t="n">
-        <v>203268.38</v>
+        <v>116356.36</v>
       </c>
       <c r="I57" t="n">
-        <v>157732.7</v>
+        <v>145736.96</v>
       </c>
       <c r="J57" t="n">
-        <v>171301.33</v>
+        <v>136561.62</v>
       </c>
       <c r="K57" t="n">
-        <v>128817.33</v>
+        <v>146473.01</v>
       </c>
       <c r="L57" t="n">
-        <v>145123.34</v>
+        <v>151808.25</v>
       </c>
       <c r="M57" t="n">
-        <v>175262.35</v>
+        <v>113276.29</v>
       </c>
       <c r="N57" t="n">
-        <v>142370.98</v>
+        <v>-7062.690000000002</v>
       </c>
     </row>
     <row r="58">
@@ -2977,42 +3087,44 @@
           <t>觀光事業右上</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>19160.72</v>
+      </c>
       <c r="C58" t="n">
-        <v>19110.61</v>
+        <v>39477.41</v>
       </c>
       <c r="D58" t="n">
-        <v>39439.74</v>
+        <v>70553.21000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>70487.57000000001</v>
+        <v>66413.39999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>66354.45</v>
+        <v>85482.77</v>
       </c>
       <c r="G58" t="n">
-        <v>85382.93000000001</v>
+        <v>81024.76000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>80915.38</v>
+        <v>77501.92</v>
       </c>
       <c r="I58" t="n">
-        <v>77334.47</v>
+        <v>68011.7</v>
       </c>
       <c r="J58" t="n">
-        <v>67848.44</v>
+        <v>60186.31</v>
       </c>
       <c r="K58" t="n">
-        <v>60070.13</v>
+        <v>53532.21000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>53454.00000000001</v>
+        <v>62394.3</v>
       </c>
       <c r="M58" t="n">
-        <v>62481.10000000001</v>
+        <v>71881.00999999999</v>
       </c>
       <c r="N58" t="n">
-        <v>71960.12</v>
+        <v>61386.25</v>
       </c>
     </row>
     <row r="59">
@@ -3022,43 +3134,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>40485.14</v>
       </c>
       <c r="C59" t="n">
-        <v>41760.9</v>
+        <v>62750.14</v>
       </c>
       <c r="D59" t="n">
-        <v>61198.77</v>
+        <v>54517.4</v>
       </c>
       <c r="E59" t="n">
-        <v>61538.18</v>
+        <v>57104.12</v>
       </c>
       <c r="F59" t="n">
-        <v>59235.46</v>
+        <v>68760</v>
       </c>
       <c r="G59" t="n">
-        <v>68842.16</v>
+        <v>47411.1</v>
       </c>
       <c r="H59" t="n">
-        <v>55745.64</v>
+        <v>42663.03</v>
       </c>
       <c r="I59" t="n">
-        <v>51311.22</v>
+        <v>35394.16</v>
       </c>
       <c r="J59" t="n">
-        <v>43379.65</v>
+        <v>23209.26</v>
       </c>
       <c r="K59" t="n">
-        <v>35211.57</v>
+        <v>9633.470000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>29869.02</v>
+        <v>27794.78</v>
       </c>
       <c r="M59" t="n">
-        <v>48971.77999999999</v>
+        <v>93.88999999999942</v>
       </c>
       <c r="N59" t="n">
-        <v>480.4400000000005</v>
+        <v>1402.25</v>
       </c>
     </row>
     <row r="60">
@@ -3067,42 +3179,44 @@
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>16496.62</v>
+      </c>
       <c r="C60" t="n">
-        <v>8677.290000000001</v>
+        <v>28527.43</v>
       </c>
       <c r="D60" t="n">
-        <v>14785.57</v>
+        <v>23371.24</v>
       </c>
       <c r="E60" t="n">
-        <v>6197.620000000001</v>
+        <v>22054.8</v>
       </c>
       <c r="F60" t="n">
-        <v>5170.13</v>
+        <v>24244.51</v>
       </c>
       <c r="G60" t="n">
-        <v>11661.13</v>
+        <v>26688.56</v>
       </c>
       <c r="H60" t="n">
-        <v>8650.889999999999</v>
+        <v>24494.39</v>
       </c>
       <c r="I60" t="n">
-        <v>5736.7</v>
+        <v>22646.71</v>
       </c>
       <c r="J60" t="n">
-        <v>3605.089999999999</v>
+        <v>22705.5</v>
       </c>
       <c r="K60" t="n">
-        <v>2651.98</v>
+        <v>17263.37</v>
       </c>
       <c r="L60" t="n">
-        <v>-423.5200000000012</v>
+        <v>22515.83</v>
       </c>
       <c r="M60" t="n">
-        <v>3169.38</v>
+        <v>-2152.559999999999</v>
       </c>
       <c r="N60" t="n">
-        <v>9296.33</v>
+        <v>23111.22</v>
       </c>
     </row>
     <row r="61">
@@ -3111,42 +3225,44 @@
           <t>貿易百貨右上</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>11363.74</v>
+      </c>
       <c r="C61" t="n">
-        <v>3058.55</v>
+        <v>11594.21</v>
       </c>
       <c r="D61" t="n">
-        <v>3194.88</v>
+        <v>11568.3</v>
       </c>
       <c r="E61" t="n">
-        <v>3208.17</v>
+        <v>11568.81</v>
       </c>
       <c r="F61" t="n">
-        <v>3293.51</v>
+        <v>12016.42</v>
       </c>
       <c r="G61" t="n">
-        <v>3651.78</v>
+        <v>12486.53</v>
       </c>
       <c r="H61" t="n">
-        <v>4173.99</v>
+        <v>12906.52</v>
       </c>
       <c r="I61" t="n">
-        <v>4521.33</v>
+        <v>12583.68</v>
       </c>
       <c r="J61" t="n">
-        <v>4179.28</v>
+        <v>12299.22</v>
       </c>
       <c r="K61" t="n">
-        <v>3816.67</v>
+        <v>10150.11</v>
       </c>
       <c r="L61" t="n">
-        <v>3190.04</v>
+        <v>8033.18</v>
       </c>
       <c r="M61" t="n">
-        <v>3110.85</v>
+        <v>7590.459999999999</v>
       </c>
       <c r="N61" t="n">
-        <v>2636.35</v>
+        <v>8242.4</v>
       </c>
     </row>
     <row r="62">
@@ -3155,42 +3271,44 @@
           <t>貿易百貨右下</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>10460.9</v>
+      </c>
       <c r="C62" t="n">
-        <v>12797.84</v>
+        <v>20204.33</v>
       </c>
       <c r="D62" t="n">
-        <v>22701.19</v>
+        <v>23550.34</v>
       </c>
       <c r="E62" t="n">
-        <v>26115.27</v>
+        <v>32167.34</v>
       </c>
       <c r="F62" t="n">
-        <v>30756.94</v>
+        <v>47239.31</v>
       </c>
       <c r="G62" t="n">
-        <v>45753.05</v>
+        <v>52202.95</v>
       </c>
       <c r="H62" t="n">
-        <v>50476.31</v>
+        <v>46604.26</v>
       </c>
       <c r="I62" t="n">
-        <v>43766.68</v>
+        <v>51058.52</v>
       </c>
       <c r="J62" t="n">
-        <v>47102.38</v>
+        <v>5939.009999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>1562.469999999999</v>
+        <v>-5780.27</v>
       </c>
       <c r="L62" t="n">
-        <v>-8777.970000000001</v>
+        <v>23294.7</v>
       </c>
       <c r="M62" t="n">
-        <v>18685.71</v>
+        <v>-21090.04</v>
       </c>
       <c r="N62" t="n">
-        <v>-26363.3</v>
+        <v>-33288.81</v>
       </c>
     </row>
     <row r="63">
@@ -3199,42 +3317,44 @@
           <t>貿易百貨平</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>712.28</v>
+      </c>
       <c r="C63" t="n">
-        <v>7358.05</v>
+        <v>399.25</v>
       </c>
       <c r="D63" t="n">
-        <v>7026.75</v>
+        <v>363.08</v>
       </c>
       <c r="E63" t="n">
-        <v>6828.9</v>
+        <v>-719.46</v>
       </c>
       <c r="F63" t="n">
-        <v>9617.349999999999</v>
+        <v>-256.72</v>
       </c>
       <c r="G63" t="n">
-        <v>10381.06</v>
+        <v>-814.46</v>
       </c>
       <c r="H63" t="n">
-        <v>9677.18</v>
+        <v>-944.33</v>
       </c>
       <c r="I63" t="n">
-        <v>10750.75</v>
+        <v>-1415.94</v>
       </c>
       <c r="J63" t="n">
-        <v>11390.04</v>
+        <v>-1160.36</v>
       </c>
       <c r="K63" t="n">
-        <v>11322.5</v>
+        <v>-1251.15</v>
       </c>
       <c r="L63" t="n">
-        <v>8118.049999999999</v>
+        <v>-1246.03</v>
       </c>
       <c r="M63" t="n">
-        <v>7560.13</v>
+        <v>-457.82</v>
       </c>
       <c r="N63" t="n">
-        <v>8398.869999999999</v>
+        <v>676.37</v>
       </c>
     </row>
     <row r="64">
@@ -3243,42 +3363,44 @@
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>277492.19</v>
+      </c>
       <c r="C64" t="n">
-        <v>277492.19</v>
+        <v>290892.78</v>
       </c>
       <c r="D64" t="n">
-        <v>290892.78</v>
+        <v>275456.97</v>
       </c>
       <c r="E64" t="n">
-        <v>275456.97</v>
+        <v>183650.8</v>
       </c>
       <c r="F64" t="n">
-        <v>183650.8</v>
+        <v>286599.78</v>
       </c>
       <c r="G64" t="n">
-        <v>286599.78</v>
+        <v>241987.99</v>
       </c>
       <c r="H64" t="n">
-        <v>241987.99</v>
+        <v>123753.07</v>
       </c>
       <c r="I64" t="n">
-        <v>123753.07</v>
+        <v>49215.77</v>
       </c>
       <c r="J64" t="n">
-        <v>49215.77</v>
+        <v>-36349.31</v>
       </c>
       <c r="K64" t="n">
-        <v>-36349.31</v>
+        <v>-129208.89</v>
       </c>
       <c r="L64" t="n">
-        <v>-129208.89</v>
+        <v>-64633.61</v>
       </c>
       <c r="M64" t="n">
-        <v>-64633.61</v>
+        <v>-68497.41</v>
       </c>
       <c r="N64" t="n">
-        <v>-68497.41</v>
+        <v>-73143.67</v>
       </c>
     </row>
     <row r="65">
@@ -3287,42 +3409,44 @@
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>47513.9</v>
+      </c>
       <c r="C65" t="n">
-        <v>47513.9</v>
+        <v>46726.28</v>
       </c>
       <c r="D65" t="n">
-        <v>46726.28</v>
+        <v>48814.61</v>
       </c>
       <c r="E65" t="n">
-        <v>48814.61</v>
+        <v>47698.66</v>
       </c>
       <c r="F65" t="n">
-        <v>47698.66</v>
+        <v>49185.32999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>49185.32999999999</v>
+        <v>46989.16</v>
       </c>
       <c r="H65" t="n">
-        <v>46989.16</v>
+        <v>42173.98</v>
       </c>
       <c r="I65" t="n">
-        <v>42173.98</v>
+        <v>35737.78000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>35737.78000000001</v>
+        <v>-26489.54</v>
       </c>
       <c r="K65" t="n">
-        <v>-26489.54</v>
+        <v>-15584.03</v>
       </c>
       <c r="L65" t="n">
-        <v>-15584.03</v>
+        <v>-9137.17</v>
       </c>
       <c r="M65" t="n">
-        <v>-9137.17</v>
+        <v>6074.009999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>6074.009999999999</v>
+        <v>-14532</v>
       </c>
     </row>
     <row r="66">
@@ -3331,42 +3455,44 @@
           <t>資訊服務業平</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>88451.25999999999</v>
+      </c>
       <c r="C66" t="n">
-        <v>88451.25999999999</v>
+        <v>94523.42</v>
       </c>
       <c r="D66" t="n">
-        <v>94523.42</v>
+        <v>100099.49</v>
       </c>
       <c r="E66" t="n">
-        <v>100099.49</v>
+        <v>85148.92</v>
       </c>
       <c r="F66" t="n">
-        <v>85148.92</v>
+        <v>80894.89000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>80894.89000000001</v>
+        <v>74600.92999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>74600.92999999999</v>
+        <v>59823.29</v>
       </c>
       <c r="I66" t="n">
-        <v>59823.29</v>
+        <v>-11307.71</v>
       </c>
       <c r="J66" t="n">
-        <v>-11307.71</v>
+        <v>-32129</v>
       </c>
       <c r="K66" t="n">
-        <v>-32129</v>
+        <v>-57472.53</v>
       </c>
       <c r="L66" t="n">
-        <v>-57472.53</v>
+        <v>-55459.45</v>
       </c>
       <c r="M66" t="n">
-        <v>-55459.45</v>
+        <v>-51135.18</v>
       </c>
       <c r="N66" t="n">
-        <v>-51135.18</v>
+        <v>-60622.88</v>
       </c>
     </row>
     <row r="67">
@@ -3375,42 +3501,44 @@
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>2.83</v>
+      </c>
       <c r="C67" t="n">
-        <v>2.83</v>
+        <v>-28.04</v>
       </c>
       <c r="D67" t="n">
-        <v>-28.04</v>
+        <v>67.06</v>
       </c>
       <c r="E67" t="n">
-        <v>67.06</v>
+        <v>-28.72</v>
       </c>
       <c r="F67" t="n">
-        <v>-28.72</v>
+        <v>31.78</v>
       </c>
       <c r="G67" t="n">
-        <v>31.78</v>
+        <v>-69.58</v>
       </c>
       <c r="H67" t="n">
-        <v>-69.58</v>
+        <v>-68.59999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>-68.59999999999999</v>
+        <v>-97.98</v>
       </c>
       <c r="J67" t="n">
-        <v>-97.98</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-66.90000000000001</v>
+        <v>-39.28</v>
       </c>
       <c r="L67" t="n">
-        <v>-39.28</v>
+        <v>-19.03</v>
       </c>
       <c r="M67" t="n">
-        <v>-19.03</v>
+        <v>-82.06999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>-82.06999999999999</v>
+        <v>-88.55</v>
       </c>
     </row>
     <row r="68">
@@ -3419,42 +3547,44 @@
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>-1.919999999999995</v>
+      </c>
       <c r="C68" t="n">
-        <v>-1.919999999999995</v>
+        <v>-35.85</v>
       </c>
       <c r="D68" t="n">
-        <v>-35.85</v>
+        <v>22.72</v>
       </c>
       <c r="E68" t="n">
-        <v>22.72</v>
+        <v>52.24</v>
       </c>
       <c r="F68" t="n">
-        <v>52.24</v>
+        <v>118.93</v>
       </c>
       <c r="G68" t="n">
-        <v>118.93</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>72.34999999999999</v>
+        <v>53.76000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>53.76000000000001</v>
+        <v>-1.429999999999993</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.429999999999993</v>
+        <v>-9.069999999999993</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.069999999999993</v>
+        <v>103.78</v>
       </c>
       <c r="L68" t="n">
-        <v>103.78</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>92.60000000000001</v>
+        <v>159.86</v>
       </c>
       <c r="N68" t="n">
-        <v>159.86</v>
+        <v>90.23</v>
       </c>
     </row>
     <row r="69">
@@ -3463,42 +3593,44 @@
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>49340.34999999998</v>
+      </c>
       <c r="C69" t="n">
-        <v>36877.28999999998</v>
+        <v>55169.57000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>43471.19000000002</v>
+        <v>190879.49</v>
       </c>
       <c r="E69" t="n">
-        <v>177047.52</v>
+        <v>287780.16</v>
       </c>
       <c r="F69" t="n">
-        <v>271788.94</v>
+        <v>378012.07</v>
       </c>
       <c r="G69" t="n">
-        <v>360019.56</v>
+        <v>414755.68</v>
       </c>
       <c r="H69" t="n">
-        <v>396283.87</v>
+        <v>500947.7</v>
       </c>
       <c r="I69" t="n">
-        <v>479240.64</v>
+        <v>449712.34</v>
       </c>
       <c r="J69" t="n">
-        <v>429150.2</v>
+        <v>468121.6</v>
       </c>
       <c r="K69" t="n">
-        <v>444771.25</v>
+        <v>465154.04</v>
       </c>
       <c r="L69" t="n">
-        <v>445481.74</v>
+        <v>400708.99</v>
       </c>
       <c r="M69" t="n">
-        <v>383169.69</v>
+        <v>314137.24</v>
       </c>
       <c r="N69" t="n">
-        <v>299254.78</v>
+        <v>214920.79</v>
       </c>
     </row>
     <row r="70">
@@ -3507,42 +3639,44 @@
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>113980.26</v>
+      </c>
       <c r="C70" t="n">
-        <v>113980.26</v>
+        <v>-6016.330000000002</v>
       </c>
       <c r="D70" t="n">
-        <v>-6016.330000000002</v>
+        <v>24790.48</v>
       </c>
       <c r="E70" t="n">
-        <v>24790.48</v>
+        <v>100624.33</v>
       </c>
       <c r="F70" t="n">
-        <v>100624.33</v>
+        <v>91886.13</v>
       </c>
       <c r="G70" t="n">
-        <v>91886.13</v>
+        <v>37273.31</v>
       </c>
       <c r="H70" t="n">
-        <v>37273.31</v>
+        <v>68934.86</v>
       </c>
       <c r="I70" t="n">
-        <v>68934.86</v>
+        <v>36897.02</v>
       </c>
       <c r="J70" t="n">
-        <v>36897.02</v>
+        <v>48179.1</v>
       </c>
       <c r="K70" t="n">
-        <v>48179.1</v>
+        <v>25326.09</v>
       </c>
       <c r="L70" t="n">
-        <v>25326.09</v>
+        <v>49809.58000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>49809.58000000001</v>
+        <v>71534.26999999999</v>
       </c>
       <c r="N70" t="n">
-        <v>71534.26999999999</v>
+        <v>81674.14</v>
       </c>
     </row>
     <row r="71">
@@ -3551,42 +3685,44 @@
           <t>通信網路業平</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>108382.88</v>
+      </c>
       <c r="C71" t="n">
-        <v>123388.24</v>
+        <v>99678.42999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>86660.33</v>
+        <v>118011.61</v>
       </c>
       <c r="E71" t="n">
-        <v>95433.95</v>
+        <v>123254.98</v>
       </c>
       <c r="F71" t="n">
-        <v>100165.39</v>
+        <v>129312.48</v>
       </c>
       <c r="G71" t="n">
-        <v>142933.33</v>
+        <v>120704.96</v>
       </c>
       <c r="H71" t="n">
-        <v>134692.76</v>
+        <v>119155.61</v>
       </c>
       <c r="I71" t="n">
-        <v>146056.64</v>
+        <v>85974.10000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>91879.78999999999</v>
+        <v>88530.25</v>
       </c>
       <c r="K71" t="n">
-        <v>103379.44</v>
+        <v>-16345.61</v>
       </c>
       <c r="L71" t="n">
-        <v>-36479.8</v>
+        <v>-38495.71</v>
       </c>
       <c r="M71" t="n">
-        <v>-58308.00999999999</v>
+        <v>-29491.69</v>
       </c>
       <c r="N71" t="n">
-        <v>-45980.89</v>
+        <v>-42181.12</v>
       </c>
     </row>
     <row r="72">
@@ -3595,42 +3731,44 @@
           <t>造紙工業右上</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>4339.03</v>
+      </c>
       <c r="C72" t="n">
-        <v>4339.03</v>
+        <v>16788.07</v>
       </c>
       <c r="D72" t="n">
-        <v>16788.07</v>
+        <v>15559.16</v>
       </c>
       <c r="E72" t="n">
-        <v>15559.16</v>
+        <v>17194.33</v>
       </c>
       <c r="F72" t="n">
-        <v>17194.33</v>
+        <v>16298.2</v>
       </c>
       <c r="G72" t="n">
-        <v>16298.2</v>
+        <v>16567.35</v>
       </c>
       <c r="H72" t="n">
-        <v>16567.35</v>
+        <v>18632.68</v>
       </c>
       <c r="I72" t="n">
-        <v>18632.68</v>
+        <v>17401.08</v>
       </c>
       <c r="J72" t="n">
-        <v>17401.08</v>
+        <v>17794.94</v>
       </c>
       <c r="K72" t="n">
-        <v>17794.94</v>
+        <v>17703.04</v>
       </c>
       <c r="L72" t="n">
-        <v>17703.04</v>
+        <v>21856.69</v>
       </c>
       <c r="M72" t="n">
-        <v>21856.69</v>
+        <v>34422.05</v>
       </c>
       <c r="N72" t="n">
-        <v>34422.05</v>
+        <v>19183.88</v>
       </c>
     </row>
     <row r="73">
@@ -3639,42 +3777,44 @@
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>-13053.13</v>
+      </c>
       <c r="C73" t="n">
-        <v>-13053.13</v>
+        <v>29670.96</v>
       </c>
       <c r="D73" t="n">
-        <v>29670.96</v>
+        <v>29161.05</v>
       </c>
       <c r="E73" t="n">
-        <v>29161.05</v>
+        <v>37650.9</v>
       </c>
       <c r="F73" t="n">
-        <v>37650.9</v>
+        <v>36688.53</v>
       </c>
       <c r="G73" t="n">
-        <v>36688.53</v>
+        <v>36514.47</v>
       </c>
       <c r="H73" t="n">
-        <v>36514.47</v>
+        <v>40393.25</v>
       </c>
       <c r="I73" t="n">
-        <v>40393.25</v>
+        <v>35474.27</v>
       </c>
       <c r="J73" t="n">
-        <v>35474.27</v>
+        <v>27693.45</v>
       </c>
       <c r="K73" t="n">
-        <v>27693.45</v>
+        <v>17067.96</v>
       </c>
       <c r="L73" t="n">
-        <v>17067.96</v>
+        <v>33123.78</v>
       </c>
       <c r="M73" t="n">
-        <v>33123.78</v>
+        <v>6476.590000000001</v>
       </c>
       <c r="N73" t="n">
-        <v>6476.590000000001</v>
+        <v>-9592.23</v>
       </c>
     </row>
     <row r="74">
@@ -3683,42 +3823,44 @@
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>2573.78</v>
+      </c>
       <c r="C74" t="n">
-        <v>2573.78</v>
+        <v>3942.81</v>
       </c>
       <c r="D74" t="n">
-        <v>3942.81</v>
+        <v>-2413.04</v>
       </c>
       <c r="E74" t="n">
-        <v>-2413.04</v>
+        <v>5477.99</v>
       </c>
       <c r="F74" t="n">
-        <v>5477.99</v>
+        <v>-2724.16</v>
       </c>
       <c r="G74" t="n">
-        <v>-2724.16</v>
+        <v>5028.23</v>
       </c>
       <c r="H74" t="n">
-        <v>5028.23</v>
+        <v>6167.25</v>
       </c>
       <c r="I74" t="n">
-        <v>6167.25</v>
+        <v>5263.61</v>
       </c>
       <c r="J74" t="n">
-        <v>5263.61</v>
+        <v>3631.76</v>
       </c>
       <c r="K74" t="n">
-        <v>3631.76</v>
+        <v>3704.79</v>
       </c>
       <c r="L74" t="n">
-        <v>3704.79</v>
+        <v>5156.27</v>
       </c>
       <c r="M74" t="n">
-        <v>5156.27</v>
+        <v>2168.61</v>
       </c>
       <c r="N74" t="n">
-        <v>2168.61</v>
+        <v>5282.81</v>
       </c>
     </row>
     <row r="75">
@@ -3727,42 +3869,44 @@
           <t>運動休閒右上</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>21430.96</v>
+      </c>
       <c r="C75" t="n">
-        <v>21430.96</v>
+        <v>-2161.68</v>
       </c>
       <c r="D75" t="n">
-        <v>-2161.68</v>
+        <v>4418.100000000002</v>
       </c>
       <c r="E75" t="n">
-        <v>4418.100000000002</v>
+        <v>26761.83</v>
       </c>
       <c r="F75" t="n">
-        <v>26761.83</v>
+        <v>53056.25</v>
       </c>
       <c r="G75" t="n">
-        <v>53056.25</v>
+        <v>19766.08</v>
       </c>
       <c r="H75" t="n">
-        <v>19766.08</v>
+        <v>26611.06</v>
       </c>
       <c r="I75" t="n">
-        <v>26611.06</v>
+        <v>21033.06</v>
       </c>
       <c r="J75" t="n">
-        <v>21033.06</v>
+        <v>32884.88</v>
       </c>
       <c r="K75" t="n">
-        <v>32884.88</v>
+        <v>28774.81</v>
       </c>
       <c r="L75" t="n">
-        <v>28774.81</v>
+        <v>23468.17</v>
       </c>
       <c r="M75" t="n">
-        <v>23468.17</v>
+        <v>49490.25000000001</v>
       </c>
       <c r="N75" t="n">
-        <v>49490.25000000001</v>
+        <v>56548.43</v>
       </c>
     </row>
     <row r="76">
@@ -3771,42 +3915,44 @@
           <t>運動休閒右下</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>139441.01</v>
+      </c>
       <c r="C76" t="n">
-        <v>139441.01</v>
+        <v>69771.39999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>69771.39999999999</v>
+        <v>43623.19</v>
       </c>
       <c r="E76" t="n">
-        <v>43623.19</v>
+        <v>82988.11000000002</v>
       </c>
       <c r="F76" t="n">
-        <v>82988.11000000002</v>
+        <v>100650.96</v>
       </c>
       <c r="G76" t="n">
-        <v>100650.96</v>
+        <v>72309.52</v>
       </c>
       <c r="H76" t="n">
-        <v>72309.52</v>
+        <v>72386.98</v>
       </c>
       <c r="I76" t="n">
-        <v>72386.98</v>
+        <v>34115.74</v>
       </c>
       <c r="J76" t="n">
-        <v>34115.74</v>
+        <v>46248.99</v>
       </c>
       <c r="K76" t="n">
-        <v>46248.99</v>
+        <v>-23318.21000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>-23318.21000000001</v>
+        <v>-25013.82</v>
       </c>
       <c r="M76" t="n">
-        <v>-25013.82</v>
+        <v>-19753.49000000001</v>
       </c>
       <c r="N76" t="n">
-        <v>-19753.49000000001</v>
+        <v>-58228.37000000001</v>
       </c>
     </row>
     <row r="77">
@@ -3815,42 +3961,44 @@
           <t>運動休閒平</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>-10222.42</v>
+      </c>
       <c r="C77" t="n">
-        <v>2697.02</v>
+        <v>-5250.24</v>
       </c>
       <c r="D77" t="n">
-        <v>2870.51</v>
+        <v>10611.11</v>
       </c>
       <c r="E77" t="n">
-        <v>19758.94</v>
+        <v>8961.17</v>
       </c>
       <c r="F77" t="n">
-        <v>16073.05</v>
+        <v>12688.38</v>
       </c>
       <c r="G77" t="n">
-        <v>24324.67</v>
+        <v>-4064.57</v>
       </c>
       <c r="H77" t="n">
-        <v>13194.59</v>
+        <v>8860.34</v>
       </c>
       <c r="I77" t="n">
-        <v>28960.09</v>
+        <v>8542.209999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>25989.95</v>
+        <v>11820.32</v>
       </c>
       <c r="K77" t="n">
-        <v>30352.91</v>
+        <v>9278.440000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>28253.02</v>
+        <v>9885.6</v>
       </c>
       <c r="M77" t="n">
-        <v>27352.66</v>
+        <v>704.46</v>
       </c>
       <c r="N77" t="n">
-        <v>18394.34</v>
+        <v>-5869.639999999999</v>
       </c>
     </row>
     <row r="78">
@@ -3859,42 +4007,44 @@
           <t>金融保險右上</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>365037.6</v>
+      </c>
       <c r="C78" t="n">
-        <v>400940.73</v>
+        <v>164958.54</v>
       </c>
       <c r="D78" t="n">
-        <v>284404.39</v>
+        <v>337181.85</v>
       </c>
       <c r="E78" t="n">
-        <v>495456.37</v>
+        <v>340635.82</v>
       </c>
       <c r="F78" t="n">
-        <v>500326.38</v>
+        <v>424133.89</v>
       </c>
       <c r="G78" t="n">
-        <v>560635.2</v>
+        <v>399739.11</v>
       </c>
       <c r="H78" t="n">
-        <v>564422.08</v>
+        <v>458248.51</v>
       </c>
       <c r="I78" t="n">
-        <v>624392.84</v>
+        <v>440808.05</v>
       </c>
       <c r="J78" t="n">
-        <v>581701.34</v>
+        <v>476758.14</v>
       </c>
       <c r="K78" t="n">
-        <v>604212.3100000001</v>
+        <v>464784.01</v>
       </c>
       <c r="L78" t="n">
-        <v>582203.25</v>
+        <v>424637.8100000001</v>
       </c>
       <c r="M78" t="n">
-        <v>515921.73</v>
+        <v>569715.84</v>
       </c>
       <c r="N78" t="n">
-        <v>525528.9</v>
+        <v>544443.13</v>
       </c>
     </row>
     <row r="79">
@@ -3903,42 +4053,44 @@
           <t>金融保險右下</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>71442.12</v>
+      </c>
       <c r="C79" t="n">
-        <v>78095.37</v>
+        <v>29204.8</v>
       </c>
       <c r="D79" t="n">
-        <v>39924.06999999999</v>
+        <v>71140.13</v>
       </c>
       <c r="E79" t="n">
-        <v>81277.44</v>
+        <v>51609.63</v>
       </c>
       <c r="F79" t="n">
-        <v>58438.98</v>
+        <v>50309.7</v>
       </c>
       <c r="G79" t="n">
-        <v>57236.12</v>
+        <v>54345.45</v>
       </c>
       <c r="H79" t="n">
-        <v>64144.58</v>
+        <v>88037.09</v>
       </c>
       <c r="I79" t="n">
-        <v>98474.47</v>
+        <v>74530.71000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>87192.89999999999</v>
+        <v>88395.59999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>101347.33</v>
+        <v>55274.45</v>
       </c>
       <c r="L79" t="n">
-        <v>70278.39999999999</v>
+        <v>53835.13</v>
       </c>
       <c r="M79" t="n">
-        <v>65324.94</v>
+        <v>69928.17</v>
       </c>
       <c r="N79" t="n">
-        <v>80009.02</v>
+        <v>47619.12</v>
       </c>
     </row>
     <row r="80">
@@ -3947,42 +4099,44 @@
           <t>金融保險平</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>-23713.1</v>
+      </c>
       <c r="C80" t="n">
-        <v>-46876.25000000001</v>
+        <v>-34377.36</v>
       </c>
       <c r="D80" t="n">
-        <v>-137566.36</v>
+        <v>14213.98</v>
       </c>
       <c r="E80" t="n">
-        <v>-81134.30000000002</v>
+        <v>46298.12</v>
       </c>
       <c r="F80" t="n">
-        <v>-65362.89</v>
+        <v>67619.31</v>
       </c>
       <c r="G80" t="n">
-        <v>-7203.090000000002</v>
+        <v>71236.29000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>-6041.339999999998</v>
+        <v>80950.48000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>1526.97000000001</v>
+        <v>63454.06</v>
       </c>
       <c r="J80" t="n">
-        <v>-25566.49</v>
+        <v>70460.35000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>10776.8</v>
+        <v>41156.5</v>
       </c>
       <c r="L80" t="n">
-        <v>-8669.709999999999</v>
+        <v>49160.57000000001</v>
       </c>
       <c r="M80" t="n">
-        <v>-1773.680000000002</v>
+        <v>62093.63</v>
       </c>
       <c r="N80" t="n">
-        <v>84652.56</v>
+        <v>54125.96</v>
       </c>
     </row>
     <row r="81">
@@ -3991,42 +4145,44 @@
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>146.7</v>
+      </c>
       <c r="C81" t="n">
-        <v>146.7</v>
+        <v>138.58</v>
       </c>
       <c r="D81" t="n">
-        <v>138.58</v>
+        <v>123.95</v>
       </c>
       <c r="E81" t="n">
-        <v>123.95</v>
+        <v>141.75</v>
       </c>
       <c r="F81" t="n">
-        <v>141.75</v>
+        <v>191.27</v>
       </c>
       <c r="G81" t="n">
-        <v>191.27</v>
+        <v>211.84</v>
       </c>
       <c r="H81" t="n">
-        <v>211.84</v>
+        <v>215.78</v>
       </c>
       <c r="I81" t="n">
-        <v>215.78</v>
+        <v>215.11</v>
       </c>
       <c r="J81" t="n">
-        <v>215.11</v>
+        <v>276.7</v>
       </c>
       <c r="K81" t="n">
-        <v>276.7</v>
+        <v>261.42</v>
       </c>
       <c r="L81" t="n">
-        <v>261.42</v>
+        <v>184.2</v>
       </c>
       <c r="M81" t="n">
-        <v>184.2</v>
+        <v>227.04</v>
       </c>
       <c r="N81" t="n">
-        <v>227.04</v>
+        <v>181.71</v>
       </c>
     </row>
     <row r="82">
@@ -4035,42 +4191,44 @@
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>202.02</v>
+      </c>
       <c r="C82" t="n">
-        <v>352.54</v>
+        <v>207.94</v>
       </c>
       <c r="D82" t="n">
-        <v>198.58</v>
+        <v>199.52</v>
       </c>
       <c r="E82" t="n">
-        <v>318.07</v>
+        <v>226.3</v>
       </c>
       <c r="F82" t="n">
-        <v>324.12</v>
+        <v>323.05</v>
       </c>
       <c r="G82" t="n">
-        <v>319.29</v>
+        <v>211.2</v>
       </c>
       <c r="H82" t="n">
-        <v>153.6</v>
+        <v>298.53</v>
       </c>
       <c r="I82" t="n">
-        <v>396.13</v>
+        <v>319.52</v>
       </c>
       <c r="J82" t="n">
-        <v>429.61</v>
+        <v>318.9</v>
       </c>
       <c r="K82" t="n">
-        <v>437.98</v>
+        <v>234.59</v>
       </c>
       <c r="L82" t="n">
-        <v>270.02</v>
+        <v>218.38</v>
       </c>
       <c r="M82" t="n">
-        <v>177.31</v>
+        <v>232.5</v>
       </c>
       <c r="N82" t="n">
-        <v>261.5</v>
+        <v>133.34</v>
       </c>
     </row>
     <row r="83">
@@ -4079,42 +4237,44 @@
           <t>金融業平</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>145.22</v>
+      </c>
       <c r="C83" t="n">
-        <v>-5.299999999999997</v>
+        <v>64.88999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>74.25</v>
+        <v>193.75</v>
       </c>
       <c r="E83" t="n">
-        <v>75.2</v>
+        <v>244.73</v>
       </c>
       <c r="F83" t="n">
-        <v>146.91</v>
+        <v>165.62</v>
       </c>
       <c r="G83" t="n">
-        <v>169.38</v>
+        <v>106</v>
       </c>
       <c r="H83" t="n">
-        <v>163.6</v>
+        <v>243.32</v>
       </c>
       <c r="I83" t="n">
-        <v>145.72</v>
+        <v>251.44</v>
       </c>
       <c r="J83" t="n">
-        <v>141.35</v>
+        <v>249.78</v>
       </c>
       <c r="K83" t="n">
-        <v>130.7</v>
+        <v>196.15</v>
       </c>
       <c r="L83" t="n">
-        <v>160.72</v>
+        <v>137.19</v>
       </c>
       <c r="M83" t="n">
-        <v>178.26</v>
+        <v>191.99</v>
       </c>
       <c r="N83" t="n">
-        <v>162.99</v>
+        <v>140.8</v>
       </c>
     </row>
     <row r="84">
@@ -4123,42 +4283,44 @@
           <t>鋼鐵工業右上</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>14130.43</v>
+      </c>
       <c r="C84" t="n">
-        <v>14130.43</v>
+        <v>10267.63</v>
       </c>
       <c r="D84" t="n">
-        <v>10267.63</v>
+        <v>14788.4</v>
       </c>
       <c r="E84" t="n">
-        <v>14788.4</v>
+        <v>23683.68</v>
       </c>
       <c r="F84" t="n">
-        <v>23683.68</v>
+        <v>31365.13</v>
       </c>
       <c r="G84" t="n">
-        <v>31365.13</v>
+        <v>35929.9</v>
       </c>
       <c r="H84" t="n">
-        <v>35929.9</v>
+        <v>36122.66</v>
       </c>
       <c r="I84" t="n">
-        <v>36122.66</v>
+        <v>37386.50999999999</v>
       </c>
       <c r="J84" t="n">
-        <v>37386.50999999999</v>
+        <v>40259.67999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>40259.67999999999</v>
+        <v>42730.38</v>
       </c>
       <c r="L84" t="n">
-        <v>42730.38</v>
+        <v>49895.13</v>
       </c>
       <c r="M84" t="n">
-        <v>49895.13</v>
+        <v>60555.76</v>
       </c>
       <c r="N84" t="n">
-        <v>60555.76</v>
+        <v>69012.60000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4167,42 +4329,44 @@
           <t>鋼鐵工業右下</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>-10664.92</v>
+      </c>
       <c r="C85" t="n">
-        <v>-5011.389999999999</v>
+        <v>10622.78</v>
       </c>
       <c r="D85" t="n">
-        <v>14719.61</v>
+        <v>85768.56999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>95823.03</v>
+        <v>78442.5</v>
       </c>
       <c r="F85" t="n">
-        <v>91071</v>
+        <v>73183.33</v>
       </c>
       <c r="G85" t="n">
-        <v>86445.23</v>
+        <v>50620.8</v>
       </c>
       <c r="H85" t="n">
-        <v>62547.73</v>
+        <v>69954.47</v>
       </c>
       <c r="I85" t="n">
-        <v>88647.83</v>
+        <v>69920.75</v>
       </c>
       <c r="J85" t="n">
-        <v>93461</v>
+        <v>83525.02</v>
       </c>
       <c r="K85" t="n">
-        <v>108538.55</v>
+        <v>55194.78</v>
       </c>
       <c r="L85" t="n">
-        <v>75767.48</v>
+        <v>44639.91</v>
       </c>
       <c r="M85" t="n">
-        <v>64868.12</v>
+        <v>46287.35</v>
       </c>
       <c r="N85" t="n">
-        <v>66089.28999999999</v>
+        <v>29468.29</v>
       </c>
     </row>
     <row r="86">
@@ -4211,42 +4375,44 @@
           <t>鋼鐵工業平</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>7301.279999999997</v>
+      </c>
       <c r="C86" t="n">
-        <v>1647.749999999998</v>
+        <v>-22737.29</v>
       </c>
       <c r="D86" t="n">
-        <v>-26834.12</v>
+        <v>26091.24</v>
       </c>
       <c r="E86" t="n">
-        <v>16036.78</v>
+        <v>67698.54000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>55070.04</v>
+        <v>76121.03</v>
       </c>
       <c r="G86" t="n">
-        <v>62859.13</v>
+        <v>31286.46000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>19359.53</v>
+        <v>35278.33</v>
       </c>
       <c r="I86" t="n">
-        <v>16584.97</v>
+        <v>38648.63</v>
       </c>
       <c r="J86" t="n">
-        <v>15108.38</v>
+        <v>21337.71999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-3675.810000000005</v>
+        <v>-20776.29999999999</v>
       </c>
       <c r="L86" t="n">
-        <v>-41348.99999999999</v>
+        <v>-52824.74000000001</v>
       </c>
       <c r="M86" t="n">
-        <v>-73052.95</v>
+        <v>-82163.44999999998</v>
       </c>
       <c r="N86" t="n">
-        <v>-101965.39</v>
+        <v>-52017.38</v>
       </c>
     </row>
     <row r="87">
@@ -4255,42 +4421,44 @@
           <t>電器電纜右上</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>32577.72</v>
+      </c>
       <c r="C87" t="n">
-        <v>32577.72</v>
+        <v>32954.97</v>
       </c>
       <c r="D87" t="n">
-        <v>32954.97</v>
+        <v>39453.64999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>39453.64999999999</v>
+        <v>29696</v>
       </c>
       <c r="F87" t="n">
-        <v>29696</v>
+        <v>33043.5</v>
       </c>
       <c r="G87" t="n">
-        <v>33043.5</v>
+        <v>33681.24</v>
       </c>
       <c r="H87" t="n">
-        <v>33681.24</v>
+        <v>43739.49</v>
       </c>
       <c r="I87" t="n">
-        <v>43739.49</v>
+        <v>36104.5</v>
       </c>
       <c r="J87" t="n">
-        <v>36104.5</v>
+        <v>50394.59</v>
       </c>
       <c r="K87" t="n">
-        <v>50394.59</v>
+        <v>72445.59999999999</v>
       </c>
       <c r="L87" t="n">
-        <v>72445.59999999999</v>
+        <v>84357.54000000001</v>
       </c>
       <c r="M87" t="n">
-        <v>84357.54000000001</v>
+        <v>80569.43000000001</v>
       </c>
       <c r="N87" t="n">
-        <v>80569.43000000001</v>
+        <v>78251.81</v>
       </c>
     </row>
     <row r="88">
@@ -4299,42 +4467,44 @@
           <t>電器電纜右下</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>34135.53</v>
+      </c>
       <c r="C88" t="n">
-        <v>34135.53</v>
+        <v>33521.16</v>
       </c>
       <c r="D88" t="n">
-        <v>33521.16</v>
+        <v>43153.98</v>
       </c>
       <c r="E88" t="n">
-        <v>43153.98</v>
+        <v>53188.5</v>
       </c>
       <c r="F88" t="n">
-        <v>53188.5</v>
+        <v>52622.75</v>
       </c>
       <c r="G88" t="n">
-        <v>52622.75</v>
+        <v>52731.05</v>
       </c>
       <c r="H88" t="n">
-        <v>52731.05</v>
+        <v>65638.25999999999</v>
       </c>
       <c r="I88" t="n">
-        <v>65638.25999999999</v>
+        <v>65602.89</v>
       </c>
       <c r="J88" t="n">
-        <v>65602.89</v>
+        <v>62309.57</v>
       </c>
       <c r="K88" t="n">
-        <v>62309.57</v>
+        <v>52207.61</v>
       </c>
       <c r="L88" t="n">
-        <v>52207.61</v>
+        <v>54987.58</v>
       </c>
       <c r="M88" t="n">
-        <v>54987.58</v>
+        <v>55627.50999999999</v>
       </c>
       <c r="N88" t="n">
-        <v>55627.50999999999</v>
+        <v>56604.21</v>
       </c>
     </row>
     <row r="89">
@@ -4343,42 +4513,44 @@
           <t>電器電纜平</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>41356.29</v>
+      </c>
       <c r="C89" t="n">
-        <v>41356.29</v>
+        <v>39514.46</v>
       </c>
       <c r="D89" t="n">
-        <v>39514.46</v>
+        <v>48619.75</v>
       </c>
       <c r="E89" t="n">
-        <v>48619.75</v>
+        <v>40875.77</v>
       </c>
       <c r="F89" t="n">
-        <v>40875.77</v>
+        <v>49117.81</v>
       </c>
       <c r="G89" t="n">
-        <v>49117.81</v>
+        <v>31732.84</v>
       </c>
       <c r="H89" t="n">
-        <v>31732.84</v>
+        <v>48619.89</v>
       </c>
       <c r="I89" t="n">
-        <v>48619.89</v>
+        <v>37581.19</v>
       </c>
       <c r="J89" t="n">
-        <v>37581.19</v>
+        <v>36991.51</v>
       </c>
       <c r="K89" t="n">
-        <v>36991.51</v>
+        <v>41098.61</v>
       </c>
       <c r="L89" t="n">
-        <v>41098.61</v>
+        <v>40214.2</v>
       </c>
       <c r="M89" t="n">
-        <v>40214.2</v>
+        <v>37821.24</v>
       </c>
       <c r="N89" t="n">
-        <v>37821.24</v>
+        <v>29069.3</v>
       </c>
     </row>
     <row r="90">
@@ -4387,42 +4559,44 @@
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>31227.27</v>
+      </c>
       <c r="C90" t="n">
-        <v>80309.5</v>
+        <v>20333.55</v>
       </c>
       <c r="D90" t="n">
-        <v>56734.42999999999</v>
+        <v>52121.89</v>
       </c>
       <c r="E90" t="n">
-        <v>96187.81</v>
+        <v>19632.01</v>
       </c>
       <c r="F90" t="n">
-        <v>70080.66</v>
+        <v>70817.85999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>119551.32</v>
+        <v>27069.16</v>
       </c>
       <c r="H90" t="n">
-        <v>69746.56</v>
+        <v>9653.639999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>53745.66</v>
+        <v>-19456.98</v>
       </c>
       <c r="J90" t="n">
-        <v>22880.59</v>
+        <v>-1696.070000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>4895.399999999994</v>
+        <v>36949.52</v>
       </c>
       <c r="L90" t="n">
-        <v>73475.19</v>
+        <v>53232.87999999999</v>
       </c>
       <c r="M90" t="n">
-        <v>62496.89999999999</v>
+        <v>60229.04000000001</v>
       </c>
       <c r="N90" t="n">
-        <v>96207.96000000001</v>
+        <v>47537.31</v>
       </c>
     </row>
     <row r="91">
@@ -4431,42 +4605,44 @@
           <t>電子通路業右下</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>-965.4199999999996</v>
+      </c>
       <c r="C91" t="n">
-        <v>-965.4199999999996</v>
+        <v>-3819.47</v>
       </c>
       <c r="D91" t="n">
-        <v>-3819.47</v>
+        <v>9476.189999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>9476.189999999999</v>
+        <v>15471.9</v>
       </c>
       <c r="F91" t="n">
-        <v>15471.9</v>
+        <v>19783.32</v>
       </c>
       <c r="G91" t="n">
-        <v>19783.32</v>
+        <v>16403.02</v>
       </c>
       <c r="H91" t="n">
-        <v>16403.02</v>
+        <v>19038.16</v>
       </c>
       <c r="I91" t="n">
-        <v>19038.16</v>
+        <v>9689.129999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>9689.129999999999</v>
+        <v>8014.129999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>8014.129999999999</v>
+        <v>-581.8699999999999</v>
       </c>
       <c r="L91" t="n">
-        <v>-581.8699999999999</v>
+        <v>-12841.82</v>
       </c>
       <c r="M91" t="n">
-        <v>-12841.82</v>
+        <v>-11765.97</v>
       </c>
       <c r="N91" t="n">
-        <v>-11765.97</v>
+        <v>-19610.26</v>
       </c>
     </row>
     <row r="92">
@@ -4475,42 +4651,44 @@
           <t>電子通路業平</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>97393.73999999999</v>
+      </c>
       <c r="C92" t="n">
-        <v>97393.73999999999</v>
+        <v>80124.92</v>
       </c>
       <c r="D92" t="n">
-        <v>80124.92</v>
+        <v>54241.65000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>54241.65000000001</v>
+        <v>105972.46</v>
       </c>
       <c r="F92" t="n">
-        <v>105972.46</v>
+        <v>170493.59</v>
       </c>
       <c r="G92" t="n">
-        <v>170493.59</v>
+        <v>171046.18</v>
       </c>
       <c r="H92" t="n">
-        <v>171046.18</v>
+        <v>146907.1</v>
       </c>
       <c r="I92" t="n">
-        <v>146907.1</v>
+        <v>124434.46</v>
       </c>
       <c r="J92" t="n">
-        <v>124434.46</v>
+        <v>154880.94</v>
       </c>
       <c r="K92" t="n">
-        <v>154880.94</v>
+        <v>72708.08</v>
       </c>
       <c r="L92" t="n">
-        <v>72708.08</v>
+        <v>131486.23</v>
       </c>
       <c r="M92" t="n">
-        <v>131486.23</v>
+        <v>138008.47</v>
       </c>
       <c r="N92" t="n">
-        <v>138008.47</v>
+        <v>128827.01</v>
       </c>
     </row>
     <row r="93">
@@ -4519,42 +4697,44 @@
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>598029.29</v>
+      </c>
       <c r="C93" t="n">
-        <v>554259.16</v>
+        <v>440145.11</v>
       </c>
       <c r="D93" t="n">
-        <v>416253.57</v>
+        <v>613279.54</v>
       </c>
       <c r="E93" t="n">
-        <v>560056.9400000001</v>
+        <v>628107.8099999999</v>
       </c>
       <c r="F93" t="n">
-        <v>536212.88</v>
+        <v>818860.08</v>
       </c>
       <c r="G93" t="n">
-        <v>779374.11</v>
+        <v>795224.24</v>
       </c>
       <c r="H93" t="n">
-        <v>782301.39</v>
+        <v>815453.37</v>
       </c>
       <c r="I93" t="n">
-        <v>830525.04</v>
+        <v>750763.5600000001</v>
       </c>
       <c r="J93" t="n">
-        <v>769487.11</v>
+        <v>813337.48</v>
       </c>
       <c r="K93" t="n">
-        <v>846785.12</v>
+        <v>723598.6</v>
       </c>
       <c r="L93" t="n">
-        <v>858931.4199999999</v>
+        <v>667650.45</v>
       </c>
       <c r="M93" t="n">
-        <v>799737.59</v>
+        <v>627876.23</v>
       </c>
       <c r="N93" t="n">
-        <v>769840.03</v>
+        <v>585199.98</v>
       </c>
     </row>
     <row r="94">
@@ -4563,42 +4743,44 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>309249.54</v>
+      </c>
       <c r="C94" t="n">
-        <v>328361.33</v>
+        <v>205364.55</v>
       </c>
       <c r="D94" t="n">
-        <v>220324.67</v>
+        <v>319321</v>
       </c>
       <c r="E94" t="n">
-        <v>335142.16</v>
+        <v>480012.89</v>
       </c>
       <c r="F94" t="n">
-        <v>507777.37</v>
+        <v>616116.79</v>
       </c>
       <c r="G94" t="n">
-        <v>647958.1</v>
+        <v>560858.83</v>
       </c>
       <c r="H94" t="n">
-        <v>597143.46</v>
+        <v>661815.59</v>
       </c>
       <c r="I94" t="n">
-        <v>704114.22</v>
+        <v>598593.9500000001</v>
       </c>
       <c r="J94" t="n">
-        <v>640202.4300000001</v>
+        <v>558639.67</v>
       </c>
       <c r="K94" t="n">
-        <v>609344.97</v>
+        <v>376469.7</v>
       </c>
       <c r="L94" t="n">
-        <v>414193.12</v>
+        <v>356516.24</v>
       </c>
       <c r="M94" t="n">
-        <v>391512.65</v>
+        <v>451370.65</v>
       </c>
       <c r="N94" t="n">
-        <v>490716.65</v>
+        <v>407621.17</v>
       </c>
     </row>
     <row r="95">
@@ -4607,42 +4789,44 @@
           <t>電子零組件業平</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>429586.4</v>
+      </c>
       <c r="C95" t="n">
-        <v>447554.97</v>
+        <v>437327.26</v>
       </c>
       <c r="D95" t="n">
-        <v>439627.97</v>
+        <v>547166.64</v>
       </c>
       <c r="E95" t="n">
-        <v>577220.53</v>
+        <v>536397.13</v>
       </c>
       <c r="F95" t="n">
-        <v>594821.01</v>
+        <v>697378.11</v>
       </c>
       <c r="G95" t="n">
-        <v>699132.3100000001</v>
+        <v>651701.86</v>
       </c>
       <c r="H95" t="n">
-        <v>623557.41</v>
+        <v>582440.4400000001</v>
       </c>
       <c r="I95" t="n">
-        <v>525060.5700000001</v>
+        <v>545995.8100000001</v>
       </c>
       <c r="J95" t="n">
-        <v>481228.77</v>
+        <v>620344.02</v>
       </c>
       <c r="K95" t="n">
-        <v>537434.65</v>
+        <v>571577.1800000001</v>
       </c>
       <c r="L95" t="n">
-        <v>389595.03</v>
+        <v>399515.98</v>
       </c>
       <c r="M95" t="n">
-        <v>223949.1</v>
+        <v>455341.34</v>
       </c>
       <c r="N95" t="n">
-        <v>266445.22</v>
+        <v>364897.29</v>
       </c>
     </row>
     <row r="96">
@@ -4651,42 +4835,44 @@
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>402139.5</v>
+      </c>
       <c r="C96" t="n">
-        <v>439843.75</v>
+        <v>414437.75</v>
       </c>
       <c r="D96" t="n">
-        <v>447118.72</v>
+        <v>489854.18</v>
       </c>
       <c r="E96" t="n">
-        <v>521725.13</v>
+        <v>429754.06</v>
       </c>
       <c r="F96" t="n">
-        <v>462431.19</v>
+        <v>468879.32</v>
       </c>
       <c r="G96" t="n">
-        <v>509355.44</v>
+        <v>500880.47</v>
       </c>
       <c r="H96" t="n">
-        <v>510681.52</v>
+        <v>527212.9</v>
       </c>
       <c r="I96" t="n">
-        <v>563699.26</v>
+        <v>585760.46</v>
       </c>
       <c r="J96" t="n">
-        <v>635622.8199999999</v>
+        <v>587755.62</v>
       </c>
       <c r="K96" t="n">
-        <v>660406.1799999999</v>
+        <v>587656.47</v>
       </c>
       <c r="L96" t="n">
-        <v>666824.6</v>
+        <v>552156.8</v>
       </c>
       <c r="M96" t="n">
-        <v>623932.71</v>
+        <v>582402.51</v>
       </c>
       <c r="N96" t="n">
-        <v>652810.42</v>
+        <v>410875.5</v>
       </c>
     </row>
     <row r="97">
@@ -4695,42 +4881,44 @@
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>102803.86</v>
+      </c>
       <c r="C97" t="n">
-        <v>150996.78</v>
+        <v>75002.88</v>
       </c>
       <c r="D97" t="n">
-        <v>125965.46</v>
+        <v>86878.59</v>
       </c>
       <c r="E97" t="n">
-        <v>144552.5</v>
+        <v>103111.43</v>
       </c>
       <c r="F97" t="n">
-        <v>158070.05</v>
+        <v>149838.95</v>
       </c>
       <c r="G97" t="n">
-        <v>200339.02</v>
+        <v>159087.83</v>
       </c>
       <c r="H97" t="n">
-        <v>188711.59</v>
+        <v>171314.38</v>
       </c>
       <c r="I97" t="n">
-        <v>216414.88</v>
+        <v>161910.48</v>
       </c>
       <c r="J97" t="n">
-        <v>212048.86</v>
+        <v>179010.44</v>
       </c>
       <c r="K97" t="n">
-        <v>237935.66</v>
+        <v>151390.43</v>
       </c>
       <c r="L97" t="n">
-        <v>189822.4</v>
+        <v>78850.32000000001</v>
       </c>
       <c r="M97" t="n">
-        <v>53012.04</v>
+        <v>35700.05</v>
       </c>
       <c r="N97" t="n">
-        <v>6376.279999999999</v>
+        <v>28613.87</v>
       </c>
     </row>
     <row r="98">
@@ -4739,42 +4927,44 @@
           <t>電機機械平</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>364036.07</v>
+      </c>
       <c r="C98" t="n">
-        <v>297354.02</v>
+        <v>465163.86</v>
       </c>
       <c r="D98" t="n">
-        <v>399397.93</v>
+        <v>460258.72</v>
       </c>
       <c r="E98" t="n">
-        <v>388049.71</v>
+        <v>477694.71</v>
       </c>
       <c r="F98" t="n">
-        <v>407387.67</v>
+        <v>502460.08</v>
       </c>
       <c r="G98" t="n">
-        <v>430263.89</v>
+        <v>424526.85</v>
       </c>
       <c r="H98" t="n">
-        <v>403771.6</v>
+        <v>505466.48</v>
       </c>
       <c r="I98" t="n">
-        <v>444010.91</v>
+        <v>489182.1</v>
       </c>
       <c r="J98" t="n">
-        <v>416976.23</v>
+        <v>503767.21</v>
       </c>
       <c r="K98" t="n">
-        <v>406969.55</v>
+        <v>466006.14</v>
       </c>
       <c r="L98" t="n">
-        <v>384515.63</v>
+        <v>428667.93</v>
       </c>
       <c r="M98" t="n">
-        <v>413572.91</v>
+        <v>400067.37</v>
       </c>
       <c r="N98" t="n">
-        <v>389598.48</v>
+        <v>338197.68</v>
       </c>
     </row>
     <row r="99">
@@ -4783,42 +4973,44 @@
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>762551.1699999999</v>
+      </c>
       <c r="C99" t="n">
-        <v>762224.27</v>
+        <v>578446.27</v>
       </c>
       <c r="D99" t="n">
-        <v>578459.3200000001</v>
+        <v>736518.3</v>
       </c>
       <c r="E99" t="n">
-        <v>736684.37</v>
+        <v>755588.33</v>
       </c>
       <c r="F99" t="n">
-        <v>755292.46</v>
+        <v>938957.28</v>
       </c>
       <c r="G99" t="n">
-        <v>938851.8199999999</v>
+        <v>954817.4199999999</v>
       </c>
       <c r="H99" t="n">
-        <v>954594.4099999999</v>
+        <v>1114103.37</v>
       </c>
       <c r="I99" t="n">
-        <v>1113915.42</v>
+        <v>1082804.1</v>
       </c>
       <c r="J99" t="n">
-        <v>1082489.81</v>
+        <v>1264070.99</v>
       </c>
       <c r="K99" t="n">
-        <v>1263773.28</v>
+        <v>1316320.58</v>
       </c>
       <c r="L99" t="n">
-        <v>1315986.64</v>
+        <v>1252562.82</v>
       </c>
       <c r="M99" t="n">
-        <v>1252198.32</v>
+        <v>1283821.21</v>
       </c>
       <c r="N99" t="n">
-        <v>1145882.83</v>
+        <v>1159575.01</v>
       </c>
     </row>
     <row r="100">
@@ -4827,42 +5019,44 @@
           <t>電腦及週邊設備業右下</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>132830.23</v>
+      </c>
       <c r="C100" t="n">
-        <v>133292.23</v>
+        <v>85311.28</v>
       </c>
       <c r="D100" t="n">
-        <v>85743.31999999999</v>
+        <v>158771.43</v>
       </c>
       <c r="E100" t="n">
-        <v>159005.9</v>
+        <v>188245.68</v>
       </c>
       <c r="F100" t="n">
-        <v>188626.65</v>
+        <v>238793.67</v>
       </c>
       <c r="G100" t="n">
-        <v>239234.44</v>
+        <v>206497.45</v>
       </c>
       <c r="H100" t="n">
-        <v>206881.33</v>
+        <v>343793.68</v>
       </c>
       <c r="I100" t="n">
-        <v>297152.41</v>
+        <v>206403.93</v>
       </c>
       <c r="J100" t="n">
-        <v>182308.46</v>
+        <v>233909.9</v>
       </c>
       <c r="K100" t="n">
-        <v>177936.29</v>
+        <v>101290.3</v>
       </c>
       <c r="L100" t="n">
-        <v>22462.26999999999</v>
+        <v>44040.60999999999</v>
       </c>
       <c r="M100" t="n">
-        <v>-20183.63000000001</v>
+        <v>68322.87</v>
       </c>
       <c r="N100" t="n">
-        <v>39910.38</v>
+        <v>-23654.54999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4871,42 +5065,44 @@
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>408604.18</v>
+      </c>
       <c r="C101" t="n">
-        <v>408077.13</v>
+        <v>243324.44</v>
       </c>
       <c r="D101" t="n">
-        <v>242821.1</v>
+        <v>279000.93</v>
       </c>
       <c r="E101" t="n">
-        <v>278678.59</v>
+        <v>272975.88</v>
       </c>
       <c r="F101" t="n">
-        <v>272504.98</v>
+        <v>425411.22</v>
       </c>
       <c r="G101" t="n">
-        <v>424879.84</v>
+        <v>325763.49</v>
       </c>
       <c r="H101" t="n">
-        <v>325289.38</v>
+        <v>535452.45</v>
       </c>
       <c r="I101" t="n">
-        <v>582004.4300000001</v>
+        <v>490873.24</v>
       </c>
       <c r="J101" t="n">
-        <v>514886.33</v>
+        <v>622883.84</v>
       </c>
       <c r="K101" t="n">
-        <v>678758.1799999999</v>
+        <v>524129.36</v>
       </c>
       <c r="L101" t="n">
-        <v>602861.98</v>
+        <v>329525.72</v>
       </c>
       <c r="M101" t="n">
-        <v>393643.46</v>
+        <v>366876.05</v>
       </c>
       <c r="N101" t="n">
-        <v>275206.94</v>
+        <v>167164.97</v>
       </c>
     </row>
     <row r="102">
@@ -4915,42 +5111,44 @@
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>9050.140000000003</v>
+      </c>
       <c r="C102" t="n">
-        <v>10833.49</v>
+        <v>140784.1</v>
       </c>
       <c r="D102" t="n">
-        <v>142245.08</v>
+        <v>122495.41</v>
       </c>
       <c r="E102" t="n">
-        <v>123489.17</v>
+        <v>129131.91</v>
       </c>
       <c r="F102" t="n">
-        <v>128472.08</v>
+        <v>70959.31</v>
       </c>
       <c r="G102" t="n">
-        <v>69529.98</v>
+        <v>64323.52</v>
       </c>
       <c r="H102" t="n">
-        <v>63030.29</v>
+        <v>60058.4</v>
       </c>
       <c r="I102" t="n">
-        <v>58666.22</v>
+        <v>55665.63</v>
       </c>
       <c r="J102" t="n">
-        <v>54430.01</v>
+        <v>29812.1</v>
       </c>
       <c r="K102" t="n">
-        <v>28337.8</v>
+        <v>58821.39999999999</v>
       </c>
       <c r="L102" t="n">
-        <v>57181.6</v>
+        <v>63562.46</v>
       </c>
       <c r="M102" t="n">
-        <v>61915.49</v>
+        <v>-25303.06</v>
       </c>
       <c r="N102" t="n">
-        <v>-26679.68</v>
+        <v>17538.80000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4959,42 +5157,44 @@
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>12750.45</v>
+      </c>
       <c r="C103" t="n">
-        <v>12750.45</v>
+        <v>78790.57000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>78790.57000000001</v>
+        <v>73076.91</v>
       </c>
       <c r="E103" t="n">
-        <v>73076.91</v>
+        <v>72969.56999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>72969.56999999999</v>
+        <v>72317.17</v>
       </c>
       <c r="G103" t="n">
-        <v>72317.17</v>
+        <v>62708.92</v>
       </c>
       <c r="H103" t="n">
-        <v>62708.92</v>
+        <v>57324.28</v>
       </c>
       <c r="I103" t="n">
-        <v>57324.28</v>
+        <v>46891.99</v>
       </c>
       <c r="J103" t="n">
-        <v>46891.99</v>
+        <v>48418.1</v>
       </c>
       <c r="K103" t="n">
-        <v>48418.1</v>
+        <v>38967.78</v>
       </c>
       <c r="L103" t="n">
-        <v>38967.78</v>
+        <v>30494.44</v>
       </c>
       <c r="M103" t="n">
-        <v>30494.44</v>
+        <v>-56493.46</v>
       </c>
       <c r="N103" t="n">
-        <v>-56493.46</v>
+        <v>-58507.25</v>
       </c>
     </row>
     <row r="104">
@@ -5003,42 +5203,44 @@
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>10103.34</v>
+      </c>
       <c r="C104" t="n">
-        <v>10103.34</v>
+        <v>22471.16</v>
       </c>
       <c r="D104" t="n">
-        <v>22471.16</v>
+        <v>19275.27</v>
       </c>
       <c r="E104" t="n">
-        <v>19275.27</v>
+        <v>21175.94</v>
       </c>
       <c r="F104" t="n">
-        <v>21175.94</v>
+        <v>20366.5</v>
       </c>
       <c r="G104" t="n">
-        <v>20366.5</v>
+        <v>17938.48</v>
       </c>
       <c r="H104" t="n">
-        <v>17938.48</v>
+        <v>16328.23</v>
       </c>
       <c r="I104" t="n">
-        <v>16328.23</v>
+        <v>15073.71</v>
       </c>
       <c r="J104" t="n">
-        <v>15073.71</v>
+        <v>15516.17</v>
       </c>
       <c r="K104" t="n">
-        <v>15516.17</v>
+        <v>14392.95</v>
       </c>
       <c r="L104" t="n">
-        <v>14392.95</v>
+        <v>14864.14</v>
       </c>
       <c r="M104" t="n">
-        <v>14864.14</v>
+        <v>-14722.13</v>
       </c>
       <c r="N104" t="n">
-        <v>-14722.13</v>
+        <v>-10957.93</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>2025-05-20</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,43 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95562.38999999998</v>
+        <v>108529.03</v>
       </c>
       <c r="C2" t="n">
-        <v>53406.83</v>
+        <v>20610.96000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>130344.96</v>
+        <v>2380.629999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>70046.24000000001</v>
+        <v>5676.839999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>178321.84</v>
+        <v>-43515.16</v>
       </c>
       <c r="G2" t="n">
-        <v>190681.1</v>
+        <v>26642.01</v>
       </c>
       <c r="H2" t="n">
-        <v>224960.49</v>
+        <v>129144.53</v>
       </c>
       <c r="I2" t="n">
-        <v>271743.03</v>
+        <v>135405.34</v>
       </c>
       <c r="J2" t="n">
-        <v>312891.79</v>
+        <v>181614.86</v>
       </c>
       <c r="K2" t="n">
-        <v>300382.46</v>
+        <v>187506.85</v>
       </c>
       <c r="L2" t="n">
-        <v>353640.97</v>
+        <v>188567.76</v>
       </c>
       <c r="M2" t="n">
-        <v>421690.52</v>
+        <v>153273.44</v>
       </c>
       <c r="N2" t="n">
-        <v>447988.1</v>
+        <v>65897.90000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-14943.6</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104065.29</v>
+        <v>77312.22</v>
       </c>
       <c r="C3" t="n">
-        <v>94054.19</v>
+        <v>61117.81</v>
       </c>
       <c r="D3" t="n">
-        <v>106227.31</v>
+        <v>44190.8</v>
       </c>
       <c r="E3" t="n">
-        <v>133659.74</v>
+        <v>26829.58</v>
       </c>
       <c r="F3" t="n">
-        <v>192436.09</v>
+        <v>-11586.34</v>
       </c>
       <c r="G3" t="n">
-        <v>101815.83</v>
+        <v>-10679.68</v>
       </c>
       <c r="H3" t="n">
-        <v>172347.95</v>
+        <v>56857.59</v>
       </c>
       <c r="I3" t="n">
-        <v>148949.38</v>
+        <v>49091.95</v>
       </c>
       <c r="J3" t="n">
-        <v>230250.32</v>
+        <v>66571.52</v>
       </c>
       <c r="K3" t="n">
-        <v>70616.56</v>
+        <v>50418.81</v>
       </c>
       <c r="L3" t="n">
-        <v>124071.62</v>
+        <v>66293.36</v>
       </c>
       <c r="M3" t="n">
-        <v>230940.43</v>
+        <v>32245.48</v>
       </c>
       <c r="N3" t="n">
-        <v>224645.92</v>
+        <v>12519.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25127.79</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75516.05</v>
+        <v>25851.75999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>29256.21</v>
+        <v>-801.3800000000006</v>
       </c>
       <c r="D4" t="n">
-        <v>47871.58</v>
+        <v>-9060.889999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>65114.10000000001</v>
+        <v>-15981.03</v>
       </c>
       <c r="F4" t="n">
-        <v>88835.07999999999</v>
+        <v>-34527.88999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>66244.62</v>
+        <v>-35229.25</v>
       </c>
       <c r="H4" t="n">
-        <v>112997.19</v>
+        <v>67226.82000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>140199.59</v>
+        <v>90507.64999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>141709.49</v>
+        <v>90849.85000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>83340.94</v>
+        <v>56375.81999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>71317.52</v>
+        <v>46993.38</v>
       </c>
       <c r="M4" t="n">
-        <v>88115.37</v>
+        <v>16844.29</v>
       </c>
       <c r="N4" t="n">
-        <v>67236.37</v>
+        <v>-44838.45</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-5031.8</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24339.32</v>
+        <v>27940.85</v>
       </c>
       <c r="C5" t="n">
-        <v>12268.61</v>
+        <v>15001.48</v>
       </c>
       <c r="D5" t="n">
-        <v>4366.030000000002</v>
+        <v>-9447.320000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>35553.97</v>
+        <v>5311.690000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>68983.69</v>
+        <v>20049.13</v>
       </c>
       <c r="G5" t="n">
-        <v>96478.14999999999</v>
+        <v>34315.27</v>
       </c>
       <c r="H5" t="n">
-        <v>84786.21000000001</v>
+        <v>32002.57</v>
       </c>
       <c r="I5" t="n">
-        <v>59604.60000000001</v>
+        <v>40532.39999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>47411.39999999999</v>
+        <v>21830.97</v>
       </c>
       <c r="K5" t="n">
-        <v>18671.64</v>
+        <v>-7584.19</v>
       </c>
       <c r="L5" t="n">
-        <v>37899.96</v>
+        <v>-17045.84</v>
       </c>
       <c r="M5" t="n">
-        <v>50687.22</v>
+        <v>-20624.18</v>
       </c>
       <c r="N5" t="n">
-        <v>54547.88999999999</v>
+        <v>2310.129999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>331.7900000000009</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56928.72</v>
+        <v>59435.79</v>
       </c>
       <c r="C6" t="n">
-        <v>32485.15000000001</v>
+        <v>22054.52</v>
       </c>
       <c r="D6" t="n">
-        <v>77260.92</v>
+        <v>33063.72</v>
       </c>
       <c r="E6" t="n">
-        <v>101212.59</v>
+        <v>5599.379999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>165744.53</v>
+        <v>12638.45</v>
       </c>
       <c r="G6" t="n">
-        <v>104674.98</v>
+        <v>2981.890000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>99484.97</v>
+        <v>33126.65</v>
       </c>
       <c r="I6" t="n">
-        <v>61865.91</v>
+        <v>19481.11</v>
       </c>
       <c r="J6" t="n">
-        <v>68303.75999999999</v>
+        <v>31226.79</v>
       </c>
       <c r="K6" t="n">
-        <v>52944.56</v>
+        <v>19666.38</v>
       </c>
       <c r="L6" t="n">
-        <v>65957.41</v>
+        <v>30832.99</v>
       </c>
       <c r="M6" t="n">
-        <v>78536.41</v>
+        <v>14925.23</v>
       </c>
       <c r="N6" t="n">
-        <v>40680.04</v>
+        <v>-4565.120000000003</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7512.139999999999</v>
       </c>
     </row>
     <row r="7">
@@ -742,43 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74289.39</v>
+        <v>49225.52</v>
       </c>
       <c r="C7" t="n">
-        <v>55225.37</v>
+        <v>30421.75</v>
       </c>
       <c r="D7" t="n">
-        <v>73943.74000000001</v>
+        <v>27625.09</v>
       </c>
       <c r="E7" t="n">
-        <v>81991.50999999999</v>
+        <v>11120.23</v>
       </c>
       <c r="F7" t="n">
-        <v>102600.18</v>
+        <v>8851.290000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>109635.26</v>
+        <v>19861.56</v>
       </c>
       <c r="H7" t="n">
-        <v>130304.07</v>
+        <v>40324.16</v>
       </c>
       <c r="I7" t="n">
-        <v>135033.86</v>
+        <v>41195.54</v>
       </c>
       <c r="J7" t="n">
-        <v>95072.42</v>
+        <v>38675.06</v>
       </c>
       <c r="K7" t="n">
-        <v>79406.44</v>
+        <v>31803.51</v>
       </c>
       <c r="L7" t="n">
-        <v>84602.34</v>
+        <v>17106.27</v>
       </c>
       <c r="M7" t="n">
-        <v>94289.55</v>
+        <v>6499.84</v>
       </c>
       <c r="N7" t="n">
-        <v>49794.39</v>
+        <v>-12342.74</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9578.85</v>
       </c>
     </row>
     <row r="8">
@@ -788,43 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>565764.6899999999</v>
+        <v>209161.17</v>
       </c>
       <c r="C8" t="n">
-        <v>362132.39</v>
+        <v>128037.19</v>
       </c>
       <c r="D8" t="n">
-        <v>329654.48</v>
+        <v>73690.87</v>
       </c>
       <c r="E8" t="n">
-        <v>352017.09</v>
+        <v>34343.09</v>
       </c>
       <c r="F8" t="n">
-        <v>456276.53</v>
+        <v>1226.239999999996</v>
       </c>
       <c r="G8" t="n">
-        <v>381404.43</v>
+        <v>-54437.81</v>
       </c>
       <c r="H8" t="n">
-        <v>439383.3</v>
+        <v>84350.42000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>545216.65</v>
+        <v>161307.92</v>
       </c>
       <c r="J8" t="n">
-        <v>682218.72</v>
+        <v>270080.96</v>
       </c>
       <c r="K8" t="n">
-        <v>574654.16</v>
+        <v>251309.3</v>
       </c>
       <c r="L8" t="n">
-        <v>558371.13</v>
+        <v>256148.25</v>
       </c>
       <c r="M8" t="n">
-        <v>534774.08</v>
+        <v>170095.68</v>
       </c>
       <c r="N8" t="n">
-        <v>618655.0599999999</v>
+        <v>105953.33</v>
+      </c>
+      <c r="O8" t="n">
+        <v>60079.55</v>
       </c>
     </row>
     <row r="9">
@@ -834,43 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72892.37</v>
+        <v>35925.63</v>
       </c>
       <c r="C9" t="n">
-        <v>56590.59</v>
+        <v>35111.55</v>
       </c>
       <c r="D9" t="n">
-        <v>61944.46</v>
+        <v>26500.5</v>
       </c>
       <c r="E9" t="n">
-        <v>64802.08</v>
+        <v>5465.849999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>83687.64999999999</v>
+        <v>-8458.92</v>
       </c>
       <c r="G9" t="n">
-        <v>45358.24</v>
+        <v>-11209.72</v>
       </c>
       <c r="H9" t="n">
-        <v>77143.45999999999</v>
+        <v>-331.78</v>
       </c>
       <c r="I9" t="n">
-        <v>32797.5</v>
+        <v>-1755.06</v>
       </c>
       <c r="J9" t="n">
-        <v>29341.8</v>
+        <v>9806.790000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>6770.57</v>
+        <v>8501.650000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>5129.769999999997</v>
+        <v>17934.02</v>
       </c>
       <c r="M9" t="n">
-        <v>13582.04</v>
+        <v>12352.34</v>
       </c>
       <c r="N9" t="n">
-        <v>40869.87</v>
+        <v>15897.04</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12597.75</v>
       </c>
     </row>
     <row r="10">
@@ -880,43 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295496.42</v>
+        <v>141522.21</v>
       </c>
       <c r="C10" t="n">
-        <v>236167.37</v>
+        <v>120816.11</v>
       </c>
       <c r="D10" t="n">
-        <v>267201.11</v>
+        <v>106503.83</v>
       </c>
       <c r="E10" t="n">
-        <v>251834.1</v>
+        <v>67378.78999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>308404.6</v>
+        <v>41075.47</v>
       </c>
       <c r="G10" t="n">
-        <v>248955.47</v>
+        <v>-34565.01</v>
       </c>
       <c r="H10" t="n">
-        <v>318678.12</v>
+        <v>89970.06</v>
       </c>
       <c r="I10" t="n">
-        <v>299796.5</v>
+        <v>80696.91</v>
       </c>
       <c r="J10" t="n">
-        <v>341069.37</v>
+        <v>138195.59</v>
       </c>
       <c r="K10" t="n">
-        <v>251580.94</v>
+        <v>110072.96</v>
       </c>
       <c r="L10" t="n">
-        <v>163108.89</v>
+        <v>120855.85</v>
       </c>
       <c r="M10" t="n">
-        <v>195466.54</v>
+        <v>27964.38</v>
       </c>
       <c r="N10" t="n">
-        <v>107076.41</v>
+        <v>-56613.75999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-97247.79999999999</v>
       </c>
     </row>
     <row r="11">
@@ -926,43 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45540.06999999999</v>
+        <v>11919.45</v>
       </c>
       <c r="C11" t="n">
-        <v>50182.59</v>
+        <v>15685.03</v>
       </c>
       <c r="D11" t="n">
-        <v>41267.69</v>
+        <v>10362.49</v>
       </c>
       <c r="E11" t="n">
-        <v>44113.21</v>
+        <v>3541.14</v>
       </c>
       <c r="F11" t="n">
-        <v>47966.42</v>
+        <v>3861.610000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>20957.31</v>
+        <v>-3930.2</v>
       </c>
       <c r="H11" t="n">
-        <v>39631.61</v>
+        <v>6194.18</v>
       </c>
       <c r="I11" t="n">
-        <v>23627.53</v>
+        <v>-6504.05</v>
       </c>
       <c r="J11" t="n">
-        <v>34939.18</v>
+        <v>12787.7</v>
       </c>
       <c r="K11" t="n">
-        <v>22628.39</v>
+        <v>7200.940000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>23935.9</v>
+        <v>11001.93</v>
       </c>
       <c r="M11" t="n">
-        <v>19021.26</v>
+        <v>7598.75</v>
       </c>
       <c r="N11" t="n">
-        <v>15514.72</v>
+        <v>7916.169999999999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7605.16</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +1007,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58442.91</v>
+        <v>37434.76</v>
       </c>
       <c r="C12" t="n">
-        <v>95343.23999999999</v>
+        <v>54282.73</v>
       </c>
       <c r="D12" t="n">
-        <v>98626.64</v>
+        <v>42607.79</v>
       </c>
       <c r="E12" t="n">
-        <v>106928.65</v>
+        <v>36471.4</v>
       </c>
       <c r="F12" t="n">
-        <v>105664.43</v>
+        <v>38292.54</v>
       </c>
       <c r="G12" t="n">
-        <v>98747.51999999999</v>
+        <v>21884.02</v>
       </c>
       <c r="H12" t="n">
-        <v>111442.02</v>
+        <v>-7000.120000000002</v>
       </c>
       <c r="I12" t="n">
-        <v>114768.79</v>
+        <v>11049.44</v>
       </c>
       <c r="J12" t="n">
-        <v>119021.49</v>
+        <v>25594.01</v>
       </c>
       <c r="K12" t="n">
-        <v>101124.61</v>
+        <v>15930.37</v>
       </c>
       <c r="L12" t="n">
-        <v>92719.5</v>
+        <v>29067.44</v>
       </c>
       <c r="M12" t="n">
-        <v>39501.8</v>
+        <v>28315.82</v>
       </c>
       <c r="N12" t="n">
-        <v>54509.09</v>
+        <v>18682.88</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2903.740000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1018,43 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31694.32</v>
+        <v>37706.38</v>
       </c>
       <c r="C13" t="n">
-        <v>-6640.189999999999</v>
+        <v>21396.48</v>
       </c>
       <c r="D13" t="n">
-        <v>-15067.42</v>
+        <v>-12670.39</v>
       </c>
       <c r="E13" t="n">
-        <v>60945.83</v>
+        <v>-12562.26</v>
       </c>
       <c r="F13" t="n">
-        <v>84556.12</v>
+        <v>-20200.6</v>
       </c>
       <c r="G13" t="n">
-        <v>81449.60000000001</v>
+        <v>-9131.950000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>91619.20999999999</v>
+        <v>36851.42</v>
       </c>
       <c r="I13" t="n">
-        <v>88732.16</v>
+        <v>46585.47</v>
       </c>
       <c r="J13" t="n">
-        <v>100348.15</v>
+        <v>47250.64</v>
       </c>
       <c r="K13" t="n">
-        <v>64155.96</v>
+        <v>40106.51</v>
       </c>
       <c r="L13" t="n">
-        <v>117125.13</v>
+        <v>51553.73</v>
       </c>
       <c r="M13" t="n">
-        <v>129370.7</v>
+        <v>41520.41</v>
       </c>
       <c r="N13" t="n">
-        <v>121445.85</v>
+        <v>31226.95</v>
+      </c>
+      <c r="O13" t="n">
+        <v>30904.79</v>
       </c>
     </row>
     <row r="14">
@@ -1064,43 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360387.13</v>
+        <v>262055.52</v>
       </c>
       <c r="C14" t="n">
-        <v>103486.92</v>
+        <v>183052.26</v>
       </c>
       <c r="D14" t="n">
-        <v>-169222.59</v>
+        <v>-35437.52</v>
       </c>
       <c r="E14" t="n">
-        <v>49566.49000000002</v>
+        <v>-97097.37000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>360695.83</v>
+        <v>-235653.71</v>
       </c>
       <c r="G14" t="n">
-        <v>256962.52</v>
+        <v>-193715.21</v>
       </c>
       <c r="H14" t="n">
-        <v>452551.11</v>
+        <v>162209.83</v>
       </c>
       <c r="I14" t="n">
-        <v>522895.37</v>
+        <v>372895.7</v>
       </c>
       <c r="J14" t="n">
-        <v>684989.2200000001</v>
+        <v>521786.86</v>
       </c>
       <c r="K14" t="n">
-        <v>555300.0700000001</v>
+        <v>449057.86</v>
       </c>
       <c r="L14" t="n">
-        <v>733495.17</v>
+        <v>415547.23</v>
       </c>
       <c r="M14" t="n">
-        <v>849033.35</v>
+        <v>273283.31</v>
       </c>
       <c r="N14" t="n">
-        <v>956277.95</v>
+        <v>147887.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>51555.63</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345597.06</v>
+        <v>179367.36</v>
       </c>
       <c r="C15" t="n">
-        <v>105142.56</v>
+        <v>115214.2</v>
       </c>
       <c r="D15" t="n">
-        <v>134396.9</v>
+        <v>73810.61</v>
       </c>
       <c r="E15" t="n">
-        <v>191007.66</v>
+        <v>-52644.98</v>
       </c>
       <c r="F15" t="n">
-        <v>348911.32</v>
+        <v>-57819.8</v>
       </c>
       <c r="G15" t="n">
-        <v>353153.79</v>
+        <v>26604.81</v>
       </c>
       <c r="H15" t="n">
-        <v>746484.73</v>
+        <v>323397.26</v>
       </c>
       <c r="I15" t="n">
-        <v>826651.51</v>
+        <v>361250.41</v>
       </c>
       <c r="J15" t="n">
-        <v>873851.47</v>
+        <v>424900.09</v>
       </c>
       <c r="K15" t="n">
-        <v>729919.5699999999</v>
+        <v>348641.5</v>
       </c>
       <c r="L15" t="n">
-        <v>769872.1899999999</v>
+        <v>372834.44</v>
       </c>
       <c r="M15" t="n">
-        <v>760727.4</v>
+        <v>180984.35</v>
       </c>
       <c r="N15" t="n">
-        <v>860365.98</v>
+        <v>133407.85</v>
+      </c>
+      <c r="O15" t="n">
+        <v>103183.78</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100351.21</v>
+        <v>80290.00999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>11876.89000000001</v>
+        <v>106260.22</v>
       </c>
       <c r="D16" t="n">
-        <v>131403.75</v>
+        <v>62012.14</v>
       </c>
       <c r="E16" t="n">
-        <v>225397.91</v>
+        <v>30507.72</v>
       </c>
       <c r="F16" t="n">
-        <v>417829.74</v>
+        <v>33499.95</v>
       </c>
       <c r="G16" t="n">
-        <v>337063.27</v>
+        <v>92433.66</v>
       </c>
       <c r="H16" t="n">
-        <v>615072.41</v>
+        <v>294960.73</v>
       </c>
       <c r="I16" t="n">
-        <v>618398.9399999999</v>
+        <v>274158.04</v>
       </c>
       <c r="J16" t="n">
-        <v>799971.61</v>
+        <v>385667.05</v>
       </c>
       <c r="K16" t="n">
-        <v>746211.74</v>
+        <v>354362.22</v>
       </c>
       <c r="L16" t="n">
-        <v>669454.85</v>
+        <v>255671.71</v>
       </c>
       <c r="M16" t="n">
-        <v>636844.49</v>
+        <v>-7272.750000000005</v>
       </c>
       <c r="N16" t="n">
-        <v>604582.3</v>
+        <v>83524.86</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-48390.86999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1202,43 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28812.74</v>
+        <v>13214.43</v>
       </c>
       <c r="C17" t="n">
-        <v>28387.13</v>
+        <v>10336.51</v>
       </c>
       <c r="D17" t="n">
-        <v>29941.42</v>
+        <v>10211.74</v>
       </c>
       <c r="E17" t="n">
-        <v>34255.15</v>
+        <v>12529.09</v>
       </c>
       <c r="F17" t="n">
-        <v>30664.37</v>
+        <v>7367.29</v>
       </c>
       <c r="G17" t="n">
-        <v>31570.94</v>
+        <v>2724.98</v>
       </c>
       <c r="H17" t="n">
-        <v>28305.27</v>
+        <v>7110.46</v>
       </c>
       <c r="I17" t="n">
-        <v>18339.33</v>
+        <v>-2169.45</v>
       </c>
       <c r="J17" t="n">
-        <v>25394.32</v>
+        <v>-2947.85</v>
       </c>
       <c r="K17" t="n">
-        <v>8495.609999999999</v>
+        <v>-494.7999999999997</v>
       </c>
       <c r="L17" t="n">
-        <v>5169.2</v>
+        <v>828.8699999999997</v>
       </c>
       <c r="M17" t="n">
-        <v>10504.06</v>
+        <v>636.3199999999997</v>
       </c>
       <c r="N17" t="n">
-        <v>-14981.08</v>
+        <v>-5849.74</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-476.0299999999994</v>
       </c>
     </row>
     <row r="18">
@@ -1248,43 +1301,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1672.719999999995</v>
+        <v>16083.76</v>
       </c>
       <c r="C18" t="n">
-        <v>130302.38</v>
+        <v>70029.72</v>
       </c>
       <c r="D18" t="n">
-        <v>120455.31</v>
+        <v>57919.26</v>
       </c>
       <c r="E18" t="n">
-        <v>174013.71</v>
+        <v>70510.89</v>
       </c>
       <c r="F18" t="n">
-        <v>135412.67</v>
+        <v>30723.9</v>
       </c>
       <c r="G18" t="n">
-        <v>131213.42</v>
+        <v>53260.61</v>
       </c>
       <c r="H18" t="n">
-        <v>177399.92</v>
+        <v>30643.62</v>
       </c>
       <c r="I18" t="n">
-        <v>126772.17</v>
+        <v>2331.090000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>139277.31</v>
+        <v>-2890.55</v>
       </c>
       <c r="K18" t="n">
-        <v>77783.19</v>
+        <v>6706.470000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>89093.59</v>
+        <v>-4007.76</v>
       </c>
       <c r="M18" t="n">
-        <v>-48261.75</v>
+        <v>-52141.2</v>
       </c>
       <c r="N18" t="n">
-        <v>-37815.28</v>
+        <v>-13939.42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-34678.02</v>
       </c>
     </row>
     <row r="19">
@@ -1294,43 +1350,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5685.79</v>
+        <v>5495.15</v>
       </c>
       <c r="C19" t="n">
-        <v>3509.440000000001</v>
+        <v>5495.26</v>
       </c>
       <c r="D19" t="n">
-        <v>9197.210000000001</v>
+        <v>3492.76</v>
       </c>
       <c r="E19" t="n">
-        <v>12198.35</v>
+        <v>2948.62</v>
       </c>
       <c r="F19" t="n">
-        <v>16053.18</v>
+        <v>4735.94</v>
       </c>
       <c r="G19" t="n">
-        <v>15202.37</v>
+        <v>1694.87</v>
       </c>
       <c r="H19" t="n">
-        <v>14974.1</v>
+        <v>3351.88</v>
       </c>
       <c r="I19" t="n">
-        <v>12109.58</v>
+        <v>4638.98</v>
       </c>
       <c r="J19" t="n">
-        <v>7861.12</v>
+        <v>2104.76</v>
       </c>
       <c r="K19" t="n">
-        <v>2584.51</v>
+        <v>-2948.87</v>
       </c>
       <c r="L19" t="n">
-        <v>3212.07</v>
+        <v>657.8999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>7066.49</v>
+        <v>-392.01</v>
       </c>
       <c r="N19" t="n">
-        <v>8620.51</v>
+        <v>-474.77</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2833.36</v>
       </c>
     </row>
     <row r="20">
@@ -1340,43 +1399,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42823.42000000001</v>
+        <v>24191.83</v>
       </c>
       <c r="C20" t="n">
-        <v>54558</v>
+        <v>22353.28</v>
       </c>
       <c r="D20" t="n">
-        <v>57507.12</v>
+        <v>22649.36</v>
       </c>
       <c r="E20" t="n">
-        <v>58875.62</v>
+        <v>16114.78</v>
       </c>
       <c r="F20" t="n">
-        <v>60584.67</v>
+        <v>-4490.13</v>
       </c>
       <c r="G20" t="n">
-        <v>59729.79</v>
+        <v>2896.38</v>
       </c>
       <c r="H20" t="n">
-        <v>57456.07</v>
+        <v>9265.280000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>62181.07000000001</v>
+        <v>11421.48</v>
       </c>
       <c r="J20" t="n">
-        <v>69778.67</v>
+        <v>19646.61</v>
       </c>
       <c r="K20" t="n">
-        <v>67416.67999999999</v>
+        <v>21952.44</v>
       </c>
       <c r="L20" t="n">
-        <v>67558.62</v>
+        <v>24128.93</v>
       </c>
       <c r="M20" t="n">
-        <v>54558.28</v>
+        <v>24129.09</v>
       </c>
       <c r="N20" t="n">
-        <v>61809.73</v>
+        <v>28952.46</v>
+      </c>
+      <c r="O20" t="n">
+        <v>14297.89</v>
       </c>
     </row>
     <row r="21">
@@ -1386,43 +1448,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8644.519999999999</v>
+        <v>6246.7</v>
       </c>
       <c r="C21" t="n">
-        <v>6989.08</v>
+        <v>2218.24</v>
       </c>
       <c r="D21" t="n">
-        <v>3631.56</v>
+        <v>1354.82</v>
       </c>
       <c r="E21" t="n">
-        <v>13726.15</v>
+        <v>3311.73</v>
       </c>
       <c r="F21" t="n">
-        <v>12046.55</v>
+        <v>2498.03</v>
       </c>
       <c r="G21" t="n">
-        <v>11902.62</v>
+        <v>1275.81</v>
       </c>
       <c r="H21" t="n">
-        <v>16008.81</v>
+        <v>3907.64</v>
       </c>
       <c r="I21" t="n">
-        <v>16887.24</v>
+        <v>7491.110000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>1040.770000000001</v>
+        <v>65.98000000000002</v>
       </c>
       <c r="K21" t="n">
-        <v>-426.9100000000003</v>
+        <v>-1020.74</v>
       </c>
       <c r="L21" t="n">
-        <v>3609.699999999999</v>
+        <v>5559.280000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>8453.689999999999</v>
+        <v>3456.860000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>-4780.67</v>
+        <v>-4582.690000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-3015.29</v>
       </c>
     </row>
     <row r="22">
@@ -1432,43 +1497,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14256.91</v>
+        <v>15123.21</v>
       </c>
       <c r="C22" t="n">
-        <v>8189.450000000001</v>
+        <v>7983.67</v>
       </c>
       <c r="D22" t="n">
-        <v>12402.41</v>
+        <v>7964.599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>11551.42</v>
+        <v>1314.05</v>
       </c>
       <c r="F22" t="n">
-        <v>10368.14</v>
+        <v>-2147.34</v>
       </c>
       <c r="G22" t="n">
-        <v>-2408.4</v>
+        <v>-11072.5</v>
       </c>
       <c r="H22" t="n">
-        <v>-1722.18</v>
+        <v>288.3599999999997</v>
       </c>
       <c r="I22" t="n">
-        <v>3260.87</v>
+        <v>2669.900000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>6586.930000000001</v>
+        <v>8065.85</v>
       </c>
       <c r="K22" t="n">
-        <v>-313.4300000000003</v>
+        <v>7969.86</v>
       </c>
       <c r="L22" t="n">
-        <v>7997.629999999999</v>
+        <v>12802.3</v>
       </c>
       <c r="M22" t="n">
-        <v>10029.63</v>
+        <v>9563.870000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>6858.150000000001</v>
+        <v>5192.34</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-1876.12</v>
       </c>
     </row>
     <row r="23">
@@ -1478,43 +1546,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41384.95</v>
+        <v>57909.7</v>
       </c>
       <c r="C23" t="n">
-        <v>200944.83</v>
+        <v>100877.16</v>
       </c>
       <c r="D23" t="n">
-        <v>179811.79</v>
+        <v>96316.41</v>
       </c>
       <c r="E23" t="n">
-        <v>210257.85</v>
+        <v>95059.60000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>252482.7</v>
+        <v>94301.75999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>218642.45</v>
+        <v>70782.83</v>
       </c>
       <c r="H23" t="n">
-        <v>226902.48</v>
+        <v>-2446.35</v>
       </c>
       <c r="I23" t="n">
-        <v>255506.9</v>
+        <v>31072.54</v>
       </c>
       <c r="J23" t="n">
-        <v>239141.99</v>
+        <v>30630.39</v>
       </c>
       <c r="K23" t="n">
-        <v>225453.93</v>
+        <v>14990.96</v>
       </c>
       <c r="L23" t="n">
-        <v>217197.22</v>
+        <v>44478.66</v>
       </c>
       <c r="M23" t="n">
-        <v>116439.69</v>
+        <v>38392.5</v>
       </c>
       <c r="N23" t="n">
-        <v>108168.38</v>
+        <v>24699.31</v>
+      </c>
+      <c r="O23" t="n">
+        <v>52091.26</v>
       </c>
     </row>
     <row r="24">
@@ -1524,43 +1595,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5716.32</v>
+        <v>2835.7</v>
       </c>
       <c r="C24" t="n">
-        <v>3786.540000000001</v>
+        <v>5403.08</v>
       </c>
       <c r="D24" t="n">
-        <v>5665.15</v>
+        <v>2945.29</v>
       </c>
       <c r="E24" t="n">
-        <v>2664.09</v>
+        <v>-3058.72</v>
       </c>
       <c r="F24" t="n">
-        <v>34267.65</v>
+        <v>6328.940000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>13051.7</v>
+        <v>4309.170000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>10552.67</v>
+        <v>-85.75000000000011</v>
       </c>
       <c r="I24" t="n">
-        <v>-3888.620000000002</v>
+        <v>-6162.63</v>
       </c>
       <c r="J24" t="n">
-        <v>6291.120000000001</v>
+        <v>6747.339999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-10848.72</v>
+        <v>-10886.77</v>
       </c>
       <c r="L24" t="n">
-        <v>-9264.519999999999</v>
+        <v>-12077.14</v>
       </c>
       <c r="M24" t="n">
-        <v>-9217.190000000002</v>
+        <v>-5736.750000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>-10056.77</v>
+        <v>-66.44000000000017</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3360.5</v>
       </c>
     </row>
     <row r="25">
@@ -1570,43 +1644,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102920.88</v>
+        <v>84623.3</v>
       </c>
       <c r="C25" t="n">
-        <v>287180.76</v>
+        <v>141034.53</v>
       </c>
       <c r="D25" t="n">
-        <v>210450.8</v>
+        <v>100276.17</v>
       </c>
       <c r="E25" t="n">
-        <v>158424.15</v>
+        <v>76595.92999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>173998.26</v>
+        <v>51914.81</v>
       </c>
       <c r="G25" t="n">
-        <v>166471.75</v>
+        <v>25709.01</v>
       </c>
       <c r="H25" t="n">
-        <v>185163.12</v>
+        <v>-114783.21</v>
       </c>
       <c r="I25" t="n">
-        <v>177667.58</v>
+        <v>-58603.42</v>
       </c>
       <c r="J25" t="n">
-        <v>103390.46</v>
+        <v>-45673.88</v>
       </c>
       <c r="K25" t="n">
-        <v>24831.93</v>
+        <v>-70885.63</v>
       </c>
       <c r="L25" t="n">
-        <v>-50046.7</v>
+        <v>-63996.3</v>
       </c>
       <c r="M25" t="n">
-        <v>-231521.2</v>
+        <v>-38706.75</v>
       </c>
       <c r="N25" t="n">
-        <v>-144855.17</v>
+        <v>-32285.01</v>
+      </c>
+      <c r="O25" t="n">
+        <v>41664.05</v>
       </c>
     </row>
     <row r="26">
@@ -1616,43 +1693,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-4543.2</v>
+        <v>-8401.189999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-18173.26</v>
+        <v>-5969.490000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>2253.06</v>
+        <v>835.8599999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>28023.92</v>
+        <v>14935.24</v>
       </c>
       <c r="F26" t="n">
-        <v>26083.14</v>
+        <v>10345.04</v>
       </c>
       <c r="G26" t="n">
-        <v>27680.2</v>
+        <v>17578.56</v>
       </c>
       <c r="H26" t="n">
-        <v>38882.87</v>
+        <v>18716.01</v>
       </c>
       <c r="I26" t="n">
-        <v>39225.07</v>
+        <v>16102.61</v>
       </c>
       <c r="J26" t="n">
-        <v>35455.83</v>
+        <v>7744.77</v>
       </c>
       <c r="K26" t="n">
-        <v>36892.96</v>
+        <v>13119.25</v>
       </c>
       <c r="L26" t="n">
-        <v>40864.16</v>
+        <v>6408.15</v>
       </c>
       <c r="M26" t="n">
-        <v>42951.79</v>
+        <v>-3484.5</v>
       </c>
       <c r="N26" t="n">
-        <v>38407.2</v>
+        <v>-1707.44</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9815.800000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1662,43 +1742,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18802.97</v>
+        <v>13804.72</v>
       </c>
       <c r="C27" t="n">
-        <v>7372.329999999997</v>
+        <v>7111.27</v>
       </c>
       <c r="D27" t="n">
-        <v>34316.01</v>
+        <v>5682.77</v>
       </c>
       <c r="E27" t="n">
-        <v>28697.29</v>
+        <v>-10476.97</v>
       </c>
       <c r="F27" t="n">
-        <v>131.3899999999994</v>
+        <v>-16010.91</v>
       </c>
       <c r="G27" t="n">
-        <v>-9004.209999999999</v>
+        <v>-13777.39</v>
       </c>
       <c r="H27" t="n">
-        <v>-13117</v>
+        <v>-10556.17</v>
       </c>
       <c r="I27" t="n">
-        <v>-14569.08</v>
+        <v>-10601.48</v>
       </c>
       <c r="J27" t="n">
-        <v>-18560.61</v>
+        <v>1240.69</v>
       </c>
       <c r="K27" t="n">
-        <v>-30727.76</v>
+        <v>5885.690000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>-34201.14</v>
+        <v>-2131.94</v>
       </c>
       <c r="M27" t="n">
-        <v>-28624.5</v>
+        <v>-2550.150000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>-37195.35</v>
+        <v>-6584.490000000001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-6648.059999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1708,43 +1791,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-14903.13</v>
+        <v>-8028.030000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>-18921.17</v>
+        <v>-4051.97</v>
       </c>
       <c r="D28" t="n">
-        <v>-18929.51</v>
+        <v>-5601.05</v>
       </c>
       <c r="E28" t="n">
-        <v>-15188.66</v>
+        <v>-2794.67</v>
       </c>
       <c r="F28" t="n">
-        <v>-8919.150000000001</v>
+        <v>-1193.51</v>
       </c>
       <c r="G28" t="n">
-        <v>-9692.32</v>
+        <v>5796.32</v>
       </c>
       <c r="H28" t="n">
-        <v>18437.3</v>
+        <v>8233.800000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>15028.16</v>
+        <v>8294.799999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>5520.13</v>
+        <v>3085.28</v>
       </c>
       <c r="K28" t="n">
-        <v>13917.27</v>
+        <v>5686.17</v>
       </c>
       <c r="L28" t="n">
-        <v>18785.69</v>
+        <v>5839.34</v>
       </c>
       <c r="M28" t="n">
-        <v>16179.86</v>
+        <v>3290.82</v>
       </c>
       <c r="N28" t="n">
-        <v>15496</v>
+        <v>-944.54</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8916.09</v>
       </c>
     </row>
     <row r="29">
@@ -1754,43 +1840,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2060.01</v>
+        <v>733.97</v>
       </c>
       <c r="C29" t="n">
-        <v>2496.34</v>
+        <v>832.12</v>
       </c>
       <c r="D29" t="n">
-        <v>3258.79</v>
+        <v>1331.3</v>
       </c>
       <c r="E29" t="n">
-        <v>3023.74</v>
+        <v>1041.88</v>
       </c>
       <c r="F29" t="n">
-        <v>4162.83</v>
+        <v>1597.74</v>
       </c>
       <c r="G29" t="n">
-        <v>4059.76</v>
+        <v>1448.01</v>
       </c>
       <c r="H29" t="n">
-        <v>3530.46</v>
+        <v>412.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4347.71</v>
+        <v>358.5700000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>3376.09</v>
+        <v>360.37</v>
       </c>
       <c r="K29" t="n">
-        <v>1621.18</v>
+        <v>-599.5699999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>873.5799999999999</v>
+        <v>-727.5200000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>93.38000000000022</v>
+        <v>-936.89</v>
       </c>
       <c r="N29" t="n">
-        <v>-1036.92</v>
+        <v>-1077.63</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-529.02</v>
       </c>
     </row>
     <row r="30">
@@ -1800,43 +1889,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>899.8100000000001</v>
+        <v>408.21</v>
       </c>
       <c r="C30" t="n">
-        <v>871.6700000000001</v>
+        <v>399.61</v>
       </c>
       <c r="D30" t="n">
-        <v>1297.75</v>
+        <v>572.5599999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>2026.58</v>
+        <v>874.5699999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>2199.87</v>
+        <v>912.9300000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>2098.5</v>
+        <v>787.5700000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1890.99</v>
+        <v>716.61</v>
       </c>
       <c r="I30" t="n">
-        <v>1833.17</v>
+        <v>584.0700000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>1807.96</v>
+        <v>51.18000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>1736.23</v>
+        <v>-310.53</v>
       </c>
       <c r="L30" t="n">
-        <v>1680.5</v>
+        <v>-214.83</v>
       </c>
       <c r="M30" t="n">
-        <v>1521.13</v>
+        <v>-189.95</v>
       </c>
       <c r="N30" t="n">
-        <v>1260.32</v>
+        <v>-92.64999999999998</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-68.14000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1846,43 +1938,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2451.91</v>
+        <v>1298.08</v>
       </c>
       <c r="C31" t="n">
-        <v>1362.01</v>
+        <v>905.2900000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>2849.12</v>
+        <v>1228.47</v>
       </c>
       <c r="E31" t="n">
-        <v>2251.06</v>
+        <v>491.29</v>
       </c>
       <c r="F31" t="n">
-        <v>3480.68</v>
+        <v>628.52</v>
       </c>
       <c r="G31" t="n">
-        <v>3558.62</v>
+        <v>952.5599999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2603.07</v>
+        <v>801.4799999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>3058.56</v>
+        <v>788.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1895.17</v>
+        <v>555.0600000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>66.28</v>
+        <v>-669.5400000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>443.9699999999999</v>
+        <v>-1070.68</v>
       </c>
       <c r="M31" t="n">
-        <v>707.6900000000001</v>
+        <v>-790.28</v>
       </c>
       <c r="N31" t="n">
-        <v>-1096.03</v>
+        <v>-1211.33</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-673.84</v>
       </c>
     </row>
     <row r="32">
@@ -1892,43 +1987,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-26610.54</v>
+        <v>-5653.62</v>
       </c>
       <c r="C32" t="n">
-        <v>-14059.34</v>
+        <v>13724.84</v>
       </c>
       <c r="D32" t="n">
-        <v>-15482.41</v>
+        <v>19778.54</v>
       </c>
       <c r="E32" t="n">
-        <v>-21942.63</v>
+        <v>19932.34</v>
       </c>
       <c r="F32" t="n">
-        <v>-7847.019999999999</v>
+        <v>20425.49</v>
       </c>
       <c r="G32" t="n">
-        <v>27225.25</v>
+        <v>20308.48</v>
       </c>
       <c r="H32" t="n">
-        <v>34828.32</v>
+        <v>5648.690000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>38360.49</v>
+        <v>5113.24</v>
       </c>
       <c r="J32" t="n">
-        <v>41164.1</v>
+        <v>9318.27</v>
       </c>
       <c r="K32" t="n">
-        <v>37994.27</v>
+        <v>5305.37</v>
       </c>
       <c r="L32" t="n">
-        <v>32849.01</v>
+        <v>-4705.97</v>
       </c>
       <c r="M32" t="n">
-        <v>24285.24</v>
+        <v>7772.84</v>
       </c>
       <c r="N32" t="n">
-        <v>8724.799999999999</v>
+        <v>-2560.830000000001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4838.11</v>
       </c>
     </row>
     <row r="33">
@@ -1938,43 +2036,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4292.309999999999</v>
+        <v>7333.58</v>
       </c>
       <c r="C33" t="n">
-        <v>16190.36</v>
+        <v>10226.99</v>
       </c>
       <c r="D33" t="n">
-        <v>20004.17</v>
+        <v>11479.28</v>
       </c>
       <c r="E33" t="n">
-        <v>21473.88</v>
+        <v>8368.449999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>24343.09</v>
+        <v>6608.56</v>
       </c>
       <c r="G33" t="n">
-        <v>26580.96</v>
+        <v>6989.29</v>
       </c>
       <c r="H33" t="n">
-        <v>28354.09</v>
+        <v>7044.86</v>
       </c>
       <c r="I33" t="n">
-        <v>28076.68</v>
+        <v>4348.06</v>
       </c>
       <c r="J33" t="n">
-        <v>27689.44</v>
+        <v>8064.13</v>
       </c>
       <c r="K33" t="n">
-        <v>19189.04</v>
+        <v>4245.43</v>
       </c>
       <c r="L33" t="n">
-        <v>19778.93</v>
+        <v>3366.89</v>
       </c>
       <c r="M33" t="n">
-        <v>10352.63</v>
+        <v>-159.3299999999998</v>
       </c>
       <c r="N33" t="n">
-        <v>2198.98</v>
+        <v>-4290.12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-4735.16</v>
       </c>
     </row>
     <row r="34">
@@ -1984,43 +2085,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21409.55</v>
+        <v>9188.219999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>39519.38</v>
+        <v>13678.87</v>
       </c>
       <c r="D34" t="n">
-        <v>39447.37</v>
+        <v>12327.46</v>
       </c>
       <c r="E34" t="n">
-        <v>38530.94</v>
+        <v>10907.78</v>
       </c>
       <c r="F34" t="n">
-        <v>37443.91</v>
+        <v>9707.290000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>36460.71</v>
+        <v>7237.59</v>
       </c>
       <c r="H34" t="n">
-        <v>37539.26</v>
+        <v>-5619.66</v>
       </c>
       <c r="I34" t="n">
-        <v>29275.66</v>
+        <v>4409.82</v>
       </c>
       <c r="J34" t="n">
-        <v>25965.25</v>
+        <v>3982.36</v>
       </c>
       <c r="K34" t="n">
-        <v>23234.05</v>
+        <v>3705.76</v>
       </c>
       <c r="L34" t="n">
-        <v>21735.56</v>
+        <v>6488.77</v>
       </c>
       <c r="M34" t="n">
-        <v>-34611.2</v>
+        <v>-14422.43</v>
       </c>
       <c r="N34" t="n">
-        <v>-30635.63</v>
+        <v>-14392.88</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-12843.92</v>
       </c>
     </row>
     <row r="35">
@@ -2030,43 +2134,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8817.41</v>
+        <v>-3418.37</v>
       </c>
       <c r="C35" t="n">
-        <v>15848.2</v>
+        <v>12619.27</v>
       </c>
       <c r="D35" t="n">
-        <v>29861.34</v>
+        <v>17545.37</v>
       </c>
       <c r="E35" t="n">
-        <v>30612.2</v>
+        <v>17280.54</v>
       </c>
       <c r="F35" t="n">
-        <v>30744.29</v>
+        <v>11101.79</v>
       </c>
       <c r="G35" t="n">
-        <v>30753.82</v>
+        <v>13612.3</v>
       </c>
       <c r="H35" t="n">
-        <v>32633.65</v>
+        <v>6237.31</v>
       </c>
       <c r="I35" t="n">
-        <v>41041.34</v>
+        <v>4611.440000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>32296.5</v>
+        <v>-8988.700000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>14864.68</v>
+        <v>-7420.74</v>
       </c>
       <c r="L35" t="n">
-        <v>25752.84</v>
+        <v>-6546.04</v>
       </c>
       <c r="M35" t="n">
-        <v>-22423.79</v>
+        <v>-11722.97</v>
       </c>
       <c r="N35" t="n">
-        <v>-4606.030000000001</v>
+        <v>-4445.610000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-10255.14</v>
       </c>
     </row>
     <row r="36">
@@ -2076,43 +2183,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-41419.39</v>
+        <v>22997.04</v>
       </c>
       <c r="C36" t="n">
-        <v>-14268.5</v>
+        <v>32501.67</v>
       </c>
       <c r="D36" t="n">
-        <v>-13258.35</v>
+        <v>30539.91</v>
       </c>
       <c r="E36" t="n">
-        <v>33465.56</v>
+        <v>32808.29</v>
       </c>
       <c r="F36" t="n">
-        <v>35201.09</v>
+        <v>31423.85</v>
       </c>
       <c r="G36" t="n">
-        <v>46683.56</v>
+        <v>29630.12</v>
       </c>
       <c r="H36" t="n">
-        <v>81397.96000000001</v>
+        <v>31222.01</v>
       </c>
       <c r="I36" t="n">
-        <v>79455.82000000001</v>
+        <v>34613.73</v>
       </c>
       <c r="J36" t="n">
-        <v>-7155.030000000001</v>
+        <v>-60591.37</v>
       </c>
       <c r="K36" t="n">
-        <v>-18346.11</v>
+        <v>-61648.8</v>
       </c>
       <c r="L36" t="n">
-        <v>-54384.59</v>
+        <v>-77401.87</v>
       </c>
       <c r="M36" t="n">
-        <v>-94913.22</v>
+        <v>-91216.12</v>
       </c>
       <c r="N36" t="n">
-        <v>-37928.95</v>
+        <v>-75905.60000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-22716</v>
       </c>
     </row>
     <row r="37">
@@ -2122,43 +2232,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10926.48</v>
+        <v>4607.46</v>
       </c>
       <c r="C37" t="n">
-        <v>14255.16</v>
+        <v>5787.559999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>14047.04</v>
+        <v>5565.1</v>
       </c>
       <c r="E37" t="n">
-        <v>14492.63</v>
+        <v>5342.72</v>
       </c>
       <c r="F37" t="n">
-        <v>15151.8</v>
+        <v>5517.34</v>
       </c>
       <c r="G37" t="n">
-        <v>14878.19</v>
+        <v>4777.82</v>
       </c>
       <c r="H37" t="n">
-        <v>15565.16</v>
+        <v>2519.44</v>
       </c>
       <c r="I37" t="n">
-        <v>14822.99</v>
+        <v>3540.52</v>
       </c>
       <c r="J37" t="n">
-        <v>15348.96</v>
+        <v>4307.84</v>
       </c>
       <c r="K37" t="n">
-        <v>14210.64</v>
+        <v>3090.19</v>
       </c>
       <c r="L37" t="n">
-        <v>11645.83</v>
+        <v>2014.25</v>
       </c>
       <c r="M37" t="n">
-        <v>4062.72</v>
+        <v>-2109.97</v>
       </c>
       <c r="N37" t="n">
-        <v>5434.92</v>
+        <v>119.0899999999999</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-478.1799999999998</v>
       </c>
     </row>
     <row r="38">
@@ -2168,43 +2281,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-10804.22</v>
+        <v>18217.15</v>
       </c>
       <c r="C38" t="n">
-        <v>-49887.8</v>
+        <v>-16928.81</v>
       </c>
       <c r="D38" t="n">
-        <v>-62977.67</v>
+        <v>-9222.99</v>
       </c>
       <c r="E38" t="n">
-        <v>-30526.33</v>
+        <v>-17127.04</v>
       </c>
       <c r="F38" t="n">
-        <v>-10351.98</v>
+        <v>-24389.07</v>
       </c>
       <c r="G38" t="n">
-        <v>24524.28</v>
+        <v>-14543.19</v>
       </c>
       <c r="H38" t="n">
-        <v>-22910.54</v>
+        <v>15821.39</v>
       </c>
       <c r="I38" t="n">
-        <v>14269.95</v>
+        <v>22677.57</v>
       </c>
       <c r="J38" t="n">
-        <v>43045.58</v>
+        <v>25901.1</v>
       </c>
       <c r="K38" t="n">
-        <v>1057.450000000001</v>
+        <v>19515.39</v>
       </c>
       <c r="L38" t="n">
-        <v>38598.35</v>
+        <v>22949.2</v>
       </c>
       <c r="M38" t="n">
-        <v>51507.21</v>
+        <v>10931.87</v>
       </c>
       <c r="N38" t="n">
-        <v>39623.86</v>
+        <v>-1355.550000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4198.44</v>
       </c>
     </row>
     <row r="39">
@@ -2214,43 +2330,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89741.79000000001</v>
+        <v>48952.74</v>
       </c>
       <c r="C39" t="n">
-        <v>65926.42</v>
+        <v>18322.94</v>
       </c>
       <c r="D39" t="n">
-        <v>103627.58</v>
+        <v>27808.3</v>
       </c>
       <c r="E39" t="n">
-        <v>133204.17</v>
+        <v>21907.97</v>
       </c>
       <c r="F39" t="n">
-        <v>128845.76</v>
+        <v>-2183.660000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>146166.99</v>
+        <v>13081.42</v>
       </c>
       <c r="H39" t="n">
-        <v>118612.31</v>
+        <v>30632.21</v>
       </c>
       <c r="I39" t="n">
-        <v>110195.43</v>
+        <v>24310.21</v>
       </c>
       <c r="J39" t="n">
-        <v>108383.53</v>
+        <v>23610.15</v>
       </c>
       <c r="K39" t="n">
-        <v>65701.24000000001</v>
+        <v>19752.42</v>
       </c>
       <c r="L39" t="n">
-        <v>46519.8</v>
+        <v>-10073.78</v>
       </c>
       <c r="M39" t="n">
-        <v>49147.04</v>
+        <v>-19569.3</v>
       </c>
       <c r="N39" t="n">
-        <v>-12346.05</v>
+        <v>-11462.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-17802.48</v>
       </c>
     </row>
     <row r="40">
@@ -2260,2987 +2379,3231 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146762.5</v>
+        <v>84626.3</v>
       </c>
       <c r="C40" t="n">
-        <v>132544.57</v>
+        <v>32621.64</v>
       </c>
       <c r="D40" t="n">
-        <v>134925.23</v>
+        <v>41975.53</v>
       </c>
       <c r="E40" t="n">
-        <v>178820.01</v>
+        <v>49542.76</v>
       </c>
       <c r="F40" t="n">
-        <v>212439.69</v>
+        <v>20186.49</v>
       </c>
       <c r="G40" t="n">
-        <v>195562.15</v>
+        <v>-3762.69</v>
       </c>
       <c r="H40" t="n">
-        <v>117611.14</v>
+        <v>64727.57000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>132634.33</v>
+        <v>40930.32000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>165724.83</v>
+        <v>60769.26</v>
       </c>
       <c r="K40" t="n">
-        <v>109612.89</v>
+        <v>50410.53</v>
       </c>
       <c r="L40" t="n">
-        <v>83089.87</v>
+        <v>43560.96999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>96457.01000000001</v>
+        <v>4937.930000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>67385.39</v>
+        <v>-11480.48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-16592.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15857.95</v>
+        <v>5827.39</v>
       </c>
       <c r="C41" t="n">
-        <v>41796.2</v>
+        <v>7148.27</v>
       </c>
       <c r="D41" t="n">
-        <v>37495.42999999999</v>
+        <v>7498.87</v>
       </c>
       <c r="E41" t="n">
-        <v>46685.45</v>
+        <v>8215.190000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>53788.44</v>
+        <v>8602.700000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>55476.75</v>
+        <v>8450.84</v>
       </c>
       <c r="H41" t="n">
-        <v>65382.69</v>
+        <v>6017.74</v>
       </c>
       <c r="I41" t="n">
-        <v>49961.26</v>
+        <v>3816.96</v>
       </c>
       <c r="J41" t="n">
-        <v>53270.25</v>
+        <v>3886.74</v>
       </c>
       <c r="K41" t="n">
-        <v>26172.9</v>
+        <v>-2361.96</v>
       </c>
       <c r="L41" t="n">
-        <v>20788.91</v>
+        <v>1579.29</v>
       </c>
       <c r="M41" t="n">
-        <v>5018.310000000001</v>
+        <v>7624.74</v>
       </c>
       <c r="N41" t="n">
-        <v>15921.26</v>
+        <v>9761.49</v>
+      </c>
+      <c r="O41" t="n">
+        <v>10048.45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10374.85</v>
+        <v>3823.52</v>
       </c>
       <c r="C42" t="n">
-        <v>15121.98</v>
+        <v>12391.67</v>
       </c>
       <c r="D42" t="n">
-        <v>16914.93</v>
+        <v>8605.5</v>
       </c>
       <c r="E42" t="n">
-        <v>19026.75</v>
+        <v>13559.72</v>
       </c>
       <c r="F42" t="n">
-        <v>21323.4</v>
+        <v>14463.82</v>
       </c>
       <c r="G42" t="n">
-        <v>23146.57</v>
+        <v>16233.52</v>
       </c>
       <c r="H42" t="n">
-        <v>21179.27</v>
+        <v>17349.1</v>
       </c>
       <c r="I42" t="n">
-        <v>19093.04</v>
+        <v>16216.15</v>
       </c>
       <c r="J42" t="n">
-        <v>20601.31</v>
+        <v>13292.91</v>
       </c>
       <c r="K42" t="n">
-        <v>18739</v>
+        <v>9247.190000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>19465.89</v>
+        <v>-6420.57</v>
       </c>
       <c r="M42" t="n">
-        <v>21969.28</v>
+        <v>-15208.14</v>
       </c>
       <c r="N42" t="n">
-        <v>23711.27</v>
+        <v>-9641.75</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-10007.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12558.35</v>
+        <v>6022.5</v>
       </c>
       <c r="C43" t="n">
-        <v>12543.05</v>
+        <v>7737.76</v>
       </c>
       <c r="D43" t="n">
-        <v>9519.57</v>
+        <v>8383.52</v>
       </c>
       <c r="E43" t="n">
-        <v>-3554.98</v>
+        <v>9710.789999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>5371.51</v>
+        <v>4618.66</v>
       </c>
       <c r="G43" t="n">
-        <v>-4733.04</v>
+        <v>4839.33</v>
       </c>
       <c r="H43" t="n">
-        <v>1651.97</v>
+        <v>4033.8</v>
       </c>
       <c r="I43" t="n">
-        <v>863.7800000000002</v>
+        <v>-7751.09</v>
       </c>
       <c r="J43" t="n">
-        <v>2106.110000000001</v>
+        <v>-7736.93</v>
       </c>
       <c r="K43" t="n">
-        <v>-2865.16</v>
+        <v>-7552.96</v>
       </c>
       <c r="L43" t="n">
-        <v>-12004.19</v>
+        <v>-6967.690000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>-10061.61</v>
+        <v>-7311.27</v>
       </c>
       <c r="N43" t="n">
-        <v>-14435.67</v>
+        <v>6359.570000000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7272.84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27749.26</v>
+        <v>-240.8000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>8501.959999999999</v>
+        <v>-688.7299999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>15994.57</v>
+        <v>5060.57</v>
       </c>
       <c r="E44" t="n">
-        <v>24906.06</v>
+        <v>2804.01</v>
       </c>
       <c r="F44" t="n">
-        <v>23659.02</v>
+        <v>1900.08</v>
       </c>
       <c r="G44" t="n">
-        <v>16008.63</v>
+        <v>-2415.61</v>
       </c>
       <c r="H44" t="n">
-        <v>21216.92</v>
+        <v>1005.71</v>
       </c>
       <c r="I44" t="n">
-        <v>19139.23</v>
+        <v>-5354.98</v>
       </c>
       <c r="J44" t="n">
-        <v>5097.179999999999</v>
+        <v>-3818.85</v>
       </c>
       <c r="K44" t="n">
-        <v>-8040.380000000001</v>
+        <v>-4170.84</v>
       </c>
       <c r="L44" t="n">
-        <v>-1176.129999999999</v>
+        <v>-4793.76</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.390000000001237</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>-9959.400000000001</v>
+        <v>-3596.11</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-2791.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1667.96</v>
+        <v>5266.309999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3091.95</v>
+        <v>2121.11</v>
       </c>
       <c r="D45" t="n">
-        <v>4265.17</v>
+        <v>8361.98</v>
       </c>
       <c r="E45" t="n">
-        <v>6159.31</v>
+        <v>7437.309999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>6949.11</v>
+        <v>-1326.76</v>
       </c>
       <c r="G45" t="n">
-        <v>6089.29</v>
+        <v>2587.06</v>
       </c>
       <c r="H45" t="n">
-        <v>6971.78</v>
+        <v>7570.96</v>
       </c>
       <c r="I45" t="n">
-        <v>6172.68</v>
+        <v>-871.6400000000003</v>
       </c>
       <c r="J45" t="n">
-        <v>5219.84</v>
+        <v>-1202.01</v>
       </c>
       <c r="K45" t="n">
-        <v>4186.58</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>3230.22</v>
+        <v>-2224.09</v>
       </c>
       <c r="M45" t="n">
-        <v>-626.02</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>-2928.6</v>
+        <v>-8471.98</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-8151.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50129.51</v>
+        <v>1878.34</v>
       </c>
       <c r="C46" t="n">
-        <v>36485.91</v>
+        <v>2435.03</v>
       </c>
       <c r="D46" t="n">
-        <v>1752.130000000003</v>
+        <v>2404.43</v>
       </c>
       <c r="E46" t="n">
-        <v>68150.03</v>
+        <v>2426.85</v>
       </c>
       <c r="F46" t="n">
-        <v>99442.91</v>
+        <v>2484.89</v>
       </c>
       <c r="G46" t="n">
-        <v>93628.14999999999</v>
+        <v>1971.73</v>
       </c>
       <c r="H46" t="n">
-        <v>100154.3</v>
+        <v>1947.25</v>
       </c>
       <c r="I46" t="n">
-        <v>72706.28999999999</v>
+        <v>1356.14</v>
       </c>
       <c r="J46" t="n">
-        <v>65357.54</v>
+        <v>-663.53</v>
       </c>
       <c r="K46" t="n">
-        <v>35789.44</v>
+        <v>-1633.76</v>
       </c>
       <c r="L46" t="n">
-        <v>47900.88</v>
+        <v>-1341.96</v>
       </c>
       <c r="M46" t="n">
-        <v>59443.35000000001</v>
+        <v>-1967.27</v>
       </c>
       <c r="N46" t="n">
-        <v>87166.32999999999</v>
+        <v>-1885.33</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1353.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>83770.45999999999</v>
+        <v>56971.28999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>39687.42</v>
+        <v>39117.37</v>
       </c>
       <c r="D47" t="n">
-        <v>77732.87</v>
+        <v>24782.02</v>
       </c>
       <c r="E47" t="n">
-        <v>111652.55</v>
+        <v>31324.66</v>
       </c>
       <c r="F47" t="n">
-        <v>160089.98</v>
+        <v>7016.05</v>
       </c>
       <c r="G47" t="n">
-        <v>101251.08</v>
+        <v>4284.66</v>
       </c>
       <c r="H47" t="n">
-        <v>134016.78</v>
+        <v>38481.59</v>
       </c>
       <c r="I47" t="n">
-        <v>58009.03999999999</v>
+        <v>24771.85</v>
       </c>
       <c r="J47" t="n">
-        <v>77598.86</v>
+        <v>31008.49</v>
       </c>
       <c r="K47" t="n">
-        <v>-213.5499999999956</v>
+        <v>1610.719999999997</v>
       </c>
       <c r="L47" t="n">
-        <v>14065.07</v>
+        <v>3096.06</v>
       </c>
       <c r="M47" t="n">
-        <v>51826.48</v>
+        <v>13405.24</v>
       </c>
       <c r="N47" t="n">
-        <v>42215.32</v>
+        <v>19193.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>40259.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>118147.55</v>
+        <v>58528.64</v>
       </c>
       <c r="C48" t="n">
-        <v>56883.77</v>
+        <v>49015.1</v>
       </c>
       <c r="D48" t="n">
-        <v>78601.53999999999</v>
+        <v>37707.61</v>
       </c>
       <c r="E48" t="n">
-        <v>53289.71</v>
+        <v>11512.64</v>
       </c>
       <c r="F48" t="n">
-        <v>132581.96</v>
+        <v>13490.51</v>
       </c>
       <c r="G48" t="n">
-        <v>67719.81</v>
+        <v>-7196.050000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>29126.53</v>
+        <v>27826.23</v>
       </c>
       <c r="I48" t="n">
-        <v>-20276.42</v>
+        <v>-10226.39</v>
       </c>
       <c r="J48" t="n">
-        <v>-172.6099999999988</v>
+        <v>23285.7</v>
       </c>
       <c r="K48" t="n">
-        <v>-97727.97</v>
+        <v>-4560.74</v>
       </c>
       <c r="L48" t="n">
-        <v>-122275.97</v>
+        <v>5608.120000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>-50704.56</v>
+        <v>2188.83</v>
       </c>
       <c r="N48" t="n">
-        <v>-19076.98</v>
+        <v>32903.97</v>
+      </c>
+      <c r="O48" t="n">
+        <v>26966.51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18231.64</v>
+        <v>40734.54</v>
       </c>
       <c r="C49" t="n">
-        <v>18465.33</v>
+        <v>34900.61</v>
       </c>
       <c r="D49" t="n">
-        <v>23077.15</v>
+        <v>26475.52</v>
       </c>
       <c r="E49" t="n">
-        <v>23901.25</v>
+        <v>-9214.610000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>27828.04</v>
+        <v>-8873.35</v>
       </c>
       <c r="G49" t="n">
-        <v>30759.47</v>
+        <v>-22686.51</v>
       </c>
       <c r="H49" t="n">
-        <v>20212.28</v>
+        <v>-26132.24</v>
       </c>
       <c r="I49" t="n">
-        <v>19226.9</v>
+        <v>-32800.39</v>
       </c>
       <c r="J49" t="n">
-        <v>18702.83</v>
+        <v>-14875.71</v>
       </c>
       <c r="K49" t="n">
-        <v>13974.98</v>
+        <v>-37642.84</v>
       </c>
       <c r="L49" t="n">
-        <v>13571.71</v>
+        <v>-32512.59</v>
       </c>
       <c r="M49" t="n">
-        <v>21595.5</v>
+        <v>-12950.38</v>
       </c>
       <c r="N49" t="n">
-        <v>33386.8</v>
+        <v>2286.73</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-11714.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33417.13</v>
+        <v>9575.16</v>
       </c>
       <c r="C50" t="n">
-        <v>44312.21</v>
+        <v>8778.449999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>19625.16</v>
+        <v>11030.25</v>
       </c>
       <c r="E50" t="n">
-        <v>110538.65</v>
+        <v>11687.81</v>
       </c>
       <c r="F50" t="n">
-        <v>124923.07</v>
+        <v>9241.67</v>
       </c>
       <c r="G50" t="n">
-        <v>111924.59</v>
+        <v>5950.25</v>
       </c>
       <c r="H50" t="n">
-        <v>104644.96</v>
+        <v>3454.06</v>
       </c>
       <c r="I50" t="n">
-        <v>35221.86</v>
+        <v>2010.17</v>
       </c>
       <c r="J50" t="n">
-        <v>40463.57999999999</v>
+        <v>1735.08</v>
       </c>
       <c r="K50" t="n">
-        <v>20877.14</v>
+        <v>2224.13</v>
       </c>
       <c r="L50" t="n">
-        <v>34130.08</v>
+        <v>3152.9</v>
       </c>
       <c r="M50" t="n">
-        <v>41947.83</v>
+        <v>9154.48</v>
       </c>
       <c r="N50" t="n">
-        <v>36128.89</v>
+        <v>16700.45</v>
+      </c>
+      <c r="O50" t="n">
+        <v>17563.52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25329.55</v>
+        <v>44563.55</v>
       </c>
       <c r="C51" t="n">
-        <v>47600.19</v>
+        <v>15065.31</v>
       </c>
       <c r="D51" t="n">
-        <v>41145.58</v>
+        <v>-4150.179999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>47238.62</v>
+        <v>5885.020000000002</v>
       </c>
       <c r="F51" t="n">
-        <v>43343.9</v>
+        <v>4041.250000000003</v>
       </c>
       <c r="G51" t="n">
-        <v>52643.32</v>
+        <v>1243.380000000002</v>
       </c>
       <c r="H51" t="n">
-        <v>40128.09</v>
+        <v>26328.44</v>
       </c>
       <c r="I51" t="n">
-        <v>30010.03</v>
+        <v>29251.82</v>
       </c>
       <c r="J51" t="n">
-        <v>8773.99</v>
+        <v>25601.41</v>
       </c>
       <c r="K51" t="n">
-        <v>-16567.3</v>
+        <v>17742.51</v>
       </c>
       <c r="L51" t="n">
-        <v>-12493.53</v>
+        <v>3529.23</v>
       </c>
       <c r="M51" t="n">
-        <v>-28438.35</v>
+        <v>-11182.65</v>
       </c>
       <c r="N51" t="n">
-        <v>-34441.96</v>
+        <v>-8455.559999999999</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-11927.59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>60090.67</v>
+        <v>22736.46</v>
       </c>
       <c r="C52" t="n">
-        <v>-16634.88</v>
+        <v>21660.62</v>
       </c>
       <c r="D52" t="n">
-        <v>14737.18</v>
+        <v>18022.21</v>
       </c>
       <c r="E52" t="n">
-        <v>22373.41</v>
+        <v>14247.35</v>
       </c>
       <c r="F52" t="n">
-        <v>33721.88</v>
+        <v>7676.64</v>
       </c>
       <c r="G52" t="n">
-        <v>19332.95</v>
+        <v>7295.19</v>
       </c>
       <c r="H52" t="n">
-        <v>31618.34</v>
+        <v>-3934.96</v>
       </c>
       <c r="I52" t="n">
-        <v>47175.96000000001</v>
+        <v>-8235.59</v>
       </c>
       <c r="J52" t="n">
-        <v>55069.26</v>
+        <v>-5660.02</v>
       </c>
       <c r="K52" t="n">
-        <v>61366.16</v>
+        <v>-9843.509999999998</v>
       </c>
       <c r="L52" t="n">
-        <v>36514.28</v>
+        <v>-8474.85</v>
       </c>
       <c r="M52" t="n">
-        <v>118823.14</v>
+        <v>-14710.08</v>
       </c>
       <c r="N52" t="n">
-        <v>19268.35</v>
+        <v>-14772.01</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-10565.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>29596.93</v>
+        <v>27772.27</v>
       </c>
       <c r="C53" t="n">
-        <v>14882.33</v>
+        <v>-2942.26</v>
       </c>
       <c r="D53" t="n">
-        <v>5565.039999999999</v>
+        <v>9534.08</v>
       </c>
       <c r="E53" t="n">
-        <v>11985.26</v>
+        <v>10812.92</v>
       </c>
       <c r="F53" t="n">
-        <v>23631.58</v>
+        <v>12615.86</v>
       </c>
       <c r="G53" t="n">
-        <v>13162.6</v>
+        <v>-2578.83</v>
       </c>
       <c r="H53" t="n">
-        <v>7173.410000000001</v>
+        <v>27663.72</v>
       </c>
       <c r="I53" t="n">
-        <v>-57.2800000000002</v>
+        <v>24843.1</v>
       </c>
       <c r="J53" t="n">
-        <v>6992.49</v>
+        <v>36548.75</v>
       </c>
       <c r="K53" t="n">
-        <v>-19635.43</v>
+        <v>32564.33</v>
       </c>
       <c r="L53" t="n">
-        <v>-35576.87</v>
+        <v>34913.66</v>
       </c>
       <c r="M53" t="n">
-        <v>34250.64999999999</v>
+        <v>36133.92</v>
       </c>
       <c r="N53" t="n">
-        <v>50703.66</v>
+        <v>-9018.879999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-22333.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4776.759999999998</v>
+        <v>15861.71</v>
       </c>
       <c r="C54" t="n">
-        <v>-7466.359999999999</v>
+        <v>8381.93</v>
       </c>
       <c r="D54" t="n">
-        <v>27619.49</v>
+        <v>6608.389999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>2870.559999999999</v>
+        <v>-1914.64</v>
       </c>
       <c r="F54" t="n">
-        <v>-11585.37</v>
+        <v>-3566.64</v>
       </c>
       <c r="G54" t="n">
-        <v>35649.81</v>
+        <v>-16500.78</v>
       </c>
       <c r="H54" t="n">
-        <v>-5765.770000000004</v>
+        <v>-6749.499999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>2297.019999999999</v>
+        <v>-7740.23</v>
       </c>
       <c r="J54" t="n">
-        <v>12798.45</v>
+        <v>2971.400000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>5420.77</v>
+        <v>-7878.02</v>
       </c>
       <c r="L54" t="n">
-        <v>14635.95</v>
+        <v>-4717.13</v>
       </c>
       <c r="M54" t="n">
-        <v>20901.88</v>
+        <v>16950.58</v>
       </c>
       <c r="N54" t="n">
-        <v>-6798.539999999999</v>
+        <v>23346.52</v>
+      </c>
+      <c r="O54" t="n">
+        <v>20902.05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-36111.90999999999</v>
+        <v>21478.94</v>
       </c>
       <c r="C55" t="n">
-        <v>110565.54</v>
+        <v>-5368.48</v>
       </c>
       <c r="D55" t="n">
-        <v>124027.19</v>
+        <v>5244.52</v>
       </c>
       <c r="E55" t="n">
-        <v>188443.16</v>
+        <v>5301.91</v>
       </c>
       <c r="F55" t="n">
-        <v>349268.76</v>
+        <v>-1655.33</v>
       </c>
       <c r="G55" t="n">
-        <v>359694.11</v>
+        <v>-2317.77</v>
       </c>
       <c r="H55" t="n">
-        <v>451491.09</v>
+        <v>6776.190000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>657129.6900000001</v>
+        <v>-5952.58</v>
       </c>
       <c r="J55" t="n">
-        <v>729052.35</v>
+        <v>-3290.03</v>
       </c>
       <c r="K55" t="n">
-        <v>877508.75</v>
+        <v>890.6100000000006</v>
       </c>
       <c r="L55" t="n">
-        <v>1007726.1</v>
+        <v>4305.97</v>
       </c>
       <c r="M55" t="n">
-        <v>930399.79</v>
+        <v>644.6300000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>754107.9300000001</v>
+        <v>3155.759999999999</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4801.77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-31309.96</v>
+        <v>42535.05</v>
       </c>
       <c r="C56" t="n">
-        <v>42090.73</v>
+        <v>77431.52</v>
       </c>
       <c r="D56" t="n">
-        <v>96794.61</v>
+        <v>185098.72</v>
       </c>
       <c r="E56" t="n">
-        <v>117141.87</v>
+        <v>113687.98</v>
       </c>
       <c r="F56" t="n">
-        <v>118504.13</v>
+        <v>149988.46</v>
       </c>
       <c r="G56" t="n">
-        <v>107607.93</v>
+        <v>120609.09</v>
       </c>
       <c r="H56" t="n">
-        <v>109815.27</v>
+        <v>167097.81</v>
       </c>
       <c r="I56" t="n">
-        <v>97994.06999999999</v>
+        <v>173361.61</v>
       </c>
       <c r="J56" t="n">
-        <v>61251.26</v>
+        <v>243169.49</v>
       </c>
       <c r="K56" t="n">
-        <v>69353.17999999999</v>
+        <v>281218.57</v>
       </c>
       <c r="L56" t="n">
-        <v>90868.37</v>
+        <v>353500.42</v>
       </c>
       <c r="M56" t="n">
-        <v>52589.42</v>
+        <v>345774.55</v>
       </c>
       <c r="N56" t="n">
-        <v>-49284.58</v>
+        <v>291234.31</v>
+      </c>
+      <c r="O56" t="n">
+        <v>282334.39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>79416.5</v>
+        <v>38358.73</v>
       </c>
       <c r="C57" t="n">
-        <v>88241.07000000001</v>
+        <v>40790.12</v>
       </c>
       <c r="D57" t="n">
-        <v>128589.32</v>
+        <v>50646.66</v>
       </c>
       <c r="E57" t="n">
-        <v>172311.45</v>
+        <v>47616.04</v>
       </c>
       <c r="F57" t="n">
-        <v>213206.24</v>
+        <v>44455.48</v>
       </c>
       <c r="G57" t="n">
-        <v>153733.19</v>
+        <v>24529.13</v>
       </c>
       <c r="H57" t="n">
-        <v>116356.36</v>
+        <v>28201.61</v>
       </c>
       <c r="I57" t="n">
-        <v>145736.96</v>
+        <v>7114.269999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>136561.62</v>
+        <v>-3012.32</v>
       </c>
       <c r="K57" t="n">
-        <v>146473.01</v>
+        <v>-2952.249999999999</v>
       </c>
       <c r="L57" t="n">
-        <v>151808.25</v>
+        <v>8266.52</v>
       </c>
       <c r="M57" t="n">
-        <v>113276.29</v>
+        <v>-5699.07</v>
       </c>
       <c r="N57" t="n">
-        <v>-7062.690000000002</v>
+        <v>-24659.89</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-32006.87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19160.72</v>
+        <v>41503.45</v>
       </c>
       <c r="C58" t="n">
-        <v>39477.41</v>
+        <v>21074.29</v>
       </c>
       <c r="D58" t="n">
-        <v>70553.21000000001</v>
+        <v>44613.25</v>
       </c>
       <c r="E58" t="n">
-        <v>66413.39999999999</v>
+        <v>32306.97</v>
       </c>
       <c r="F58" t="n">
-        <v>85482.77</v>
+        <v>48931.28</v>
       </c>
       <c r="G58" t="n">
-        <v>81024.76000000001</v>
+        <v>-12478.5</v>
       </c>
       <c r="H58" t="n">
-        <v>77501.92</v>
+        <v>16094.95</v>
       </c>
       <c r="I58" t="n">
-        <v>68011.7</v>
+        <v>2106.18</v>
       </c>
       <c r="J58" t="n">
-        <v>60186.31</v>
+        <v>10550.53</v>
       </c>
       <c r="K58" t="n">
-        <v>53532.21000000001</v>
+        <v>8024.619999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>62394.3</v>
+        <v>35058.65</v>
       </c>
       <c r="M58" t="n">
-        <v>71881.00999999999</v>
+        <v>11111.36</v>
       </c>
       <c r="N58" t="n">
-        <v>61386.25</v>
+        <v>-29100.27</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-31867.85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>40485.14</v>
+        <v>15881.88</v>
       </c>
       <c r="C59" t="n">
-        <v>62750.14</v>
+        <v>22317.35</v>
       </c>
       <c r="D59" t="n">
-        <v>54517.4</v>
+        <v>30790.85</v>
       </c>
       <c r="E59" t="n">
-        <v>57104.12</v>
+        <v>27836.81</v>
       </c>
       <c r="F59" t="n">
-        <v>68760</v>
+        <v>34871.63</v>
       </c>
       <c r="G59" t="n">
-        <v>47411.1</v>
+        <v>32993.65</v>
       </c>
       <c r="H59" t="n">
-        <v>42663.03</v>
+        <v>27072.67</v>
       </c>
       <c r="I59" t="n">
-        <v>35394.16</v>
+        <v>4771.78</v>
       </c>
       <c r="J59" t="n">
-        <v>23209.26</v>
+        <v>6370.889999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>9633.470000000001</v>
+        <v>-1153.190000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>27794.78</v>
+        <v>9049.98</v>
       </c>
       <c r="M59" t="n">
-        <v>93.88999999999942</v>
+        <v>18289.73</v>
       </c>
       <c r="N59" t="n">
-        <v>1402.25</v>
+        <v>26731.88</v>
+      </c>
+      <c r="O59" t="n">
+        <v>31831.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16496.62</v>
+        <v>18906.22</v>
       </c>
       <c r="C60" t="n">
-        <v>28527.43</v>
+        <v>21450.64</v>
       </c>
       <c r="D60" t="n">
-        <v>23371.24</v>
+        <v>19316.53</v>
       </c>
       <c r="E60" t="n">
-        <v>22054.8</v>
+        <v>15961.14</v>
       </c>
       <c r="F60" t="n">
-        <v>24244.51</v>
+        <v>15923.93</v>
       </c>
       <c r="G60" t="n">
-        <v>26688.56</v>
+        <v>5886.58</v>
       </c>
       <c r="H60" t="n">
-        <v>24494.39</v>
+        <v>-6128.6</v>
       </c>
       <c r="I60" t="n">
-        <v>22646.71</v>
+        <v>-13049.56</v>
       </c>
       <c r="J60" t="n">
-        <v>22705.5</v>
+        <v>-10894.37</v>
       </c>
       <c r="K60" t="n">
-        <v>17263.37</v>
+        <v>-19838.19</v>
       </c>
       <c r="L60" t="n">
-        <v>22515.83</v>
+        <v>8323.480000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>-2152.559999999999</v>
+        <v>10877.14</v>
       </c>
       <c r="N60" t="n">
-        <v>23111.22</v>
+        <v>10281.38</v>
+      </c>
+      <c r="O60" t="n">
+        <v>12003.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11363.74</v>
+        <v>9375.73</v>
       </c>
       <c r="C61" t="n">
-        <v>11594.21</v>
+        <v>13898.88</v>
       </c>
       <c r="D61" t="n">
-        <v>11568.3</v>
+        <v>12488.19</v>
       </c>
       <c r="E61" t="n">
-        <v>11568.81</v>
+        <v>10147.49</v>
       </c>
       <c r="F61" t="n">
-        <v>12016.42</v>
+        <v>8955.32</v>
       </c>
       <c r="G61" t="n">
-        <v>12486.53</v>
+        <v>7095.17</v>
       </c>
       <c r="H61" t="n">
-        <v>12906.52</v>
+        <v>-6264.87</v>
       </c>
       <c r="I61" t="n">
-        <v>12583.68</v>
+        <v>-4468.24</v>
       </c>
       <c r="J61" t="n">
-        <v>12299.22</v>
+        <v>2015.28</v>
       </c>
       <c r="K61" t="n">
-        <v>10150.11</v>
+        <v>-2211.14</v>
       </c>
       <c r="L61" t="n">
-        <v>8033.18</v>
+        <v>3563.69</v>
       </c>
       <c r="M61" t="n">
-        <v>7590.459999999999</v>
+        <v>2894.789999999999</v>
       </c>
       <c r="N61" t="n">
-        <v>8242.4</v>
+        <v>11924.43</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15199.14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10460.9</v>
+        <v>4784.81</v>
       </c>
       <c r="C62" t="n">
-        <v>20204.33</v>
+        <v>4831.42</v>
       </c>
       <c r="D62" t="n">
-        <v>23550.34</v>
+        <v>4826.440000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>32167.34</v>
+        <v>3834.42</v>
       </c>
       <c r="F62" t="n">
-        <v>47239.31</v>
+        <v>3335.53</v>
       </c>
       <c r="G62" t="n">
-        <v>52202.95</v>
+        <v>2733.6</v>
       </c>
       <c r="H62" t="n">
-        <v>46604.26</v>
+        <v>3014.69</v>
       </c>
       <c r="I62" t="n">
-        <v>51058.52</v>
+        <v>2804.04</v>
       </c>
       <c r="J62" t="n">
-        <v>5939.009999999999</v>
+        <v>3941.54</v>
       </c>
       <c r="K62" t="n">
-        <v>-5780.27</v>
+        <v>2902.25</v>
       </c>
       <c r="L62" t="n">
-        <v>23294.7</v>
+        <v>2210.97</v>
       </c>
       <c r="M62" t="n">
-        <v>-21090.04</v>
+        <v>743.6400000000001</v>
       </c>
       <c r="N62" t="n">
-        <v>-33288.81</v>
+        <v>2364.83</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1153.47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>712.28</v>
+        <v>12703.16</v>
       </c>
       <c r="C63" t="n">
-        <v>399.25</v>
+        <v>1541.750000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>363.08</v>
+        <v>21504.64</v>
       </c>
       <c r="E63" t="n">
-        <v>-719.46</v>
+        <v>11485.78</v>
       </c>
       <c r="F63" t="n">
-        <v>-256.72</v>
+        <v>11069.79</v>
       </c>
       <c r="G63" t="n">
-        <v>-814.46</v>
+        <v>17888.72</v>
       </c>
       <c r="H63" t="n">
-        <v>-944.33</v>
+        <v>23132.16</v>
       </c>
       <c r="I63" t="n">
-        <v>-1415.94</v>
+        <v>-5838.08</v>
       </c>
       <c r="J63" t="n">
-        <v>-1160.36</v>
+        <v>-6960</v>
       </c>
       <c r="K63" t="n">
-        <v>-1251.15</v>
+        <v>-8280.17</v>
       </c>
       <c r="L63" t="n">
-        <v>-1246.03</v>
+        <v>-7006.030000000002</v>
       </c>
       <c r="M63" t="n">
-        <v>-457.82</v>
+        <v>-23216.6</v>
       </c>
       <c r="N63" t="n">
-        <v>676.37</v>
+        <v>-17000.58</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-17424.46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>277492.19</v>
+        <v>140.23</v>
       </c>
       <c r="C64" t="n">
-        <v>290892.78</v>
+        <v>90.11</v>
       </c>
       <c r="D64" t="n">
-        <v>275456.97</v>
+        <v>-411.68</v>
       </c>
       <c r="E64" t="n">
-        <v>183650.8</v>
+        <v>-365.86</v>
       </c>
       <c r="F64" t="n">
-        <v>286599.78</v>
+        <v>-291.6</v>
       </c>
       <c r="G64" t="n">
-        <v>241987.99</v>
+        <v>-390.3</v>
       </c>
       <c r="H64" t="n">
-        <v>123753.07</v>
+        <v>-431.83</v>
       </c>
       <c r="I64" t="n">
-        <v>49215.77</v>
+        <v>-481.14</v>
       </c>
       <c r="J64" t="n">
-        <v>-36349.31</v>
+        <v>-368.01</v>
       </c>
       <c r="K64" t="n">
-        <v>-129208.89</v>
+        <v>-477.54</v>
       </c>
       <c r="L64" t="n">
-        <v>-64633.61</v>
+        <v>-397.72</v>
       </c>
       <c r="M64" t="n">
-        <v>-68497.41</v>
+        <v>380.2</v>
       </c>
       <c r="N64" t="n">
-        <v>-73143.67</v>
+        <v>568.3200000000001</v>
+      </c>
+      <c r="O64" t="n">
+        <v>490.04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>47513.9</v>
+        <v>109547.77</v>
       </c>
       <c r="C65" t="n">
-        <v>46726.28</v>
+        <v>89725.05</v>
       </c>
       <c r="D65" t="n">
-        <v>48814.61</v>
+        <v>61897.56</v>
       </c>
       <c r="E65" t="n">
-        <v>47698.66</v>
+        <v>-16277.16</v>
       </c>
       <c r="F65" t="n">
-        <v>49185.32999999999</v>
+        <v>-50536.38</v>
       </c>
       <c r="G65" t="n">
-        <v>46989.16</v>
+        <v>-9943.519999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>42173.98</v>
+        <v>-26991.89</v>
       </c>
       <c r="I65" t="n">
-        <v>35737.78000000001</v>
+        <v>-23367.84</v>
       </c>
       <c r="J65" t="n">
-        <v>-26489.54</v>
+        <v>-1113.530000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>-15584.03</v>
+        <v>-18264.61</v>
       </c>
       <c r="L65" t="n">
-        <v>-9137.17</v>
+        <v>-33543.14</v>
       </c>
       <c r="M65" t="n">
-        <v>6074.009999999999</v>
+        <v>-23798.88</v>
       </c>
       <c r="N65" t="n">
-        <v>-14532</v>
+        <v>3100.63</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-1618.090000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>88451.25999999999</v>
+        <v>21494.82</v>
       </c>
       <c r="C66" t="n">
-        <v>94523.42</v>
+        <v>17841.83</v>
       </c>
       <c r="D66" t="n">
-        <v>100099.49</v>
+        <v>15801.9</v>
       </c>
       <c r="E66" t="n">
-        <v>85148.92</v>
+        <v>-14299.51</v>
       </c>
       <c r="F66" t="n">
-        <v>80894.89000000001</v>
+        <v>-6794.34</v>
       </c>
       <c r="G66" t="n">
-        <v>74600.92999999999</v>
+        <v>-4307.02</v>
       </c>
       <c r="H66" t="n">
-        <v>59823.29</v>
+        <v>6205.24</v>
       </c>
       <c r="I66" t="n">
-        <v>-11307.71</v>
+        <v>2294.92</v>
       </c>
       <c r="J66" t="n">
-        <v>-32129</v>
+        <v>7973.63</v>
       </c>
       <c r="K66" t="n">
-        <v>-57472.53</v>
+        <v>-2069.38</v>
       </c>
       <c r="L66" t="n">
-        <v>-55459.45</v>
+        <v>1418.2</v>
       </c>
       <c r="M66" t="n">
-        <v>-51135.18</v>
+        <v>-5511.7</v>
       </c>
       <c r="N66" t="n">
-        <v>-60622.88</v>
+        <v>-7094.53</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-7126.700000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.83</v>
+        <v>42338.67</v>
       </c>
       <c r="C67" t="n">
-        <v>-28.04</v>
+        <v>33485.65</v>
       </c>
       <c r="D67" t="n">
-        <v>67.06</v>
+        <v>15993.46</v>
       </c>
       <c r="E67" t="n">
-        <v>-28.72</v>
+        <v>-10082.58</v>
       </c>
       <c r="F67" t="n">
-        <v>31.78</v>
+        <v>-27777.56</v>
       </c>
       <c r="G67" t="n">
-        <v>-69.58</v>
+        <v>-21624.09</v>
       </c>
       <c r="H67" t="n">
-        <v>-68.59999999999999</v>
+        <v>-1853.14</v>
       </c>
       <c r="I67" t="n">
-        <v>-97.98</v>
+        <v>-23851.96</v>
       </c>
       <c r="J67" t="n">
-        <v>-66.90000000000001</v>
+        <v>-8613.98</v>
       </c>
       <c r="K67" t="n">
-        <v>-39.28</v>
+        <v>2184.400000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>-19.03</v>
+        <v>-9207.200000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>-82.06999999999999</v>
+        <v>-18581.55</v>
       </c>
       <c r="N67" t="n">
-        <v>-88.55</v>
+        <v>-9184.369999999999</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-12032.25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.919999999999995</v>
+        <v>-26.67</v>
       </c>
       <c r="C68" t="n">
-        <v>-35.85</v>
+        <v>17.36</v>
       </c>
       <c r="D68" t="n">
-        <v>22.72</v>
+        <v>15.76</v>
       </c>
       <c r="E68" t="n">
-        <v>52.24</v>
+        <v>26.28</v>
       </c>
       <c r="F68" t="n">
-        <v>118.93</v>
+        <v>27.4</v>
       </c>
       <c r="G68" t="n">
-        <v>72.34999999999999</v>
+        <v>-16.02</v>
       </c>
       <c r="H68" t="n">
-        <v>53.76000000000001</v>
+        <v>-35.25</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.429999999999993</v>
+        <v>-46.57</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.069999999999993</v>
+        <v>-39.82</v>
       </c>
       <c r="K68" t="n">
-        <v>103.78</v>
+        <v>-32.55</v>
       </c>
       <c r="L68" t="n">
-        <v>92.60000000000001</v>
+        <v>13.58</v>
       </c>
       <c r="M68" t="n">
-        <v>159.86</v>
+        <v>-10.24</v>
       </c>
       <c r="N68" t="n">
-        <v>90.23</v>
+        <v>24.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16.79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>49340.34999999998</v>
+        <v>51.06</v>
       </c>
       <c r="C69" t="n">
-        <v>55169.57000000001</v>
+        <v>-33.58</v>
       </c>
       <c r="D69" t="n">
-        <v>190879.49</v>
+        <v>-21.95</v>
       </c>
       <c r="E69" t="n">
-        <v>287780.16</v>
+        <v>-67.55</v>
       </c>
       <c r="F69" t="n">
-        <v>378012.07</v>
+        <v>11.67</v>
       </c>
       <c r="G69" t="n">
-        <v>414755.68</v>
+        <v>2.889999999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>500947.7</v>
+        <v>34.4</v>
       </c>
       <c r="I69" t="n">
-        <v>449712.34</v>
+        <v>28.07000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>468121.6</v>
+        <v>56.78</v>
       </c>
       <c r="K69" t="n">
-        <v>465154.04</v>
+        <v>44.7</v>
       </c>
       <c r="L69" t="n">
-        <v>400708.99</v>
+        <v>43.35</v>
       </c>
       <c r="M69" t="n">
-        <v>314137.24</v>
+        <v>54.3</v>
       </c>
       <c r="N69" t="n">
-        <v>214920.79</v>
+        <v>17.86</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-12.32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>113980.26</v>
+        <v>64784.39</v>
       </c>
       <c r="C70" t="n">
-        <v>-6016.330000000002</v>
+        <v>120118.97</v>
       </c>
       <c r="D70" t="n">
-        <v>24790.48</v>
+        <v>168503.86</v>
       </c>
       <c r="E70" t="n">
-        <v>100624.33</v>
+        <v>134357.2</v>
       </c>
       <c r="F70" t="n">
-        <v>91886.13</v>
+        <v>121287.52</v>
       </c>
       <c r="G70" t="n">
-        <v>37273.31</v>
+        <v>164675.33</v>
       </c>
       <c r="H70" t="n">
-        <v>68934.86</v>
+        <v>179326.88</v>
       </c>
       <c r="I70" t="n">
-        <v>36897.02</v>
+        <v>96702.53999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>48179.1</v>
+        <v>105337.8</v>
       </c>
       <c r="K70" t="n">
-        <v>25326.09</v>
+        <v>127572.6</v>
       </c>
       <c r="L70" t="n">
-        <v>49809.58000000001</v>
+        <v>62470.41</v>
       </c>
       <c r="M70" t="n">
-        <v>71534.26999999999</v>
+        <v>7227.210000000003</v>
       </c>
       <c r="N70" t="n">
-        <v>81674.14</v>
+        <v>47143.89</v>
+      </c>
+      <c r="O70" t="n">
+        <v>54531.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>108382.88</v>
+        <v>44671.76</v>
       </c>
       <c r="C71" t="n">
-        <v>99678.42999999999</v>
+        <v>7289.610000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>118011.61</v>
+        <v>-5146.42</v>
       </c>
       <c r="E71" t="n">
-        <v>123254.98</v>
+        <v>-30612.6</v>
       </c>
       <c r="F71" t="n">
-        <v>129312.48</v>
+        <v>-60709.15</v>
       </c>
       <c r="G71" t="n">
-        <v>120704.96</v>
+        <v>-21599.1</v>
       </c>
       <c r="H71" t="n">
-        <v>119155.61</v>
+        <v>36812.45</v>
       </c>
       <c r="I71" t="n">
-        <v>85974.10000000001</v>
+        <v>42894.26</v>
       </c>
       <c r="J71" t="n">
-        <v>88530.25</v>
+        <v>66080.69</v>
       </c>
       <c r="K71" t="n">
-        <v>-16345.61</v>
+        <v>53439.09</v>
       </c>
       <c r="L71" t="n">
-        <v>-38495.71</v>
+        <v>52721.28</v>
       </c>
       <c r="M71" t="n">
-        <v>-29491.69</v>
+        <v>536.8799999999974</v>
       </c>
       <c r="N71" t="n">
-        <v>-42181.12</v>
+        <v>-1355.37</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-5135.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4339.03</v>
+        <v>65490.81</v>
       </c>
       <c r="C72" t="n">
-        <v>16788.07</v>
+        <v>48332.75</v>
       </c>
       <c r="D72" t="n">
-        <v>15559.16</v>
+        <v>26092.7</v>
       </c>
       <c r="E72" t="n">
-        <v>17194.33</v>
+        <v>647.7099999999984</v>
       </c>
       <c r="F72" t="n">
-        <v>16298.2</v>
+        <v>-16093.84</v>
       </c>
       <c r="G72" t="n">
-        <v>16567.35</v>
+        <v>-23010.54</v>
       </c>
       <c r="H72" t="n">
-        <v>18632.68</v>
+        <v>31517.74</v>
       </c>
       <c r="I72" t="n">
-        <v>17401.08</v>
+        <v>7987.470000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>17794.94</v>
+        <v>48755.88</v>
       </c>
       <c r="K72" t="n">
-        <v>17703.04</v>
+        <v>11806.09</v>
       </c>
       <c r="L72" t="n">
-        <v>21856.69</v>
+        <v>-10010.43</v>
       </c>
       <c r="M72" t="n">
-        <v>34422.05</v>
+        <v>-47262.68</v>
       </c>
       <c r="N72" t="n">
-        <v>19183.88</v>
+        <v>-27594.04</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-46982.93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-13053.13</v>
+        <v>2352.74</v>
       </c>
       <c r="C73" t="n">
-        <v>29670.96</v>
+        <v>7742.25</v>
       </c>
       <c r="D73" t="n">
-        <v>29161.05</v>
+        <v>6931.46</v>
       </c>
       <c r="E73" t="n">
-        <v>37650.9</v>
+        <v>7377.63</v>
       </c>
       <c r="F73" t="n">
-        <v>36688.53</v>
+        <v>7210.35</v>
       </c>
       <c r="G73" t="n">
-        <v>36514.47</v>
+        <v>7025.67</v>
       </c>
       <c r="H73" t="n">
-        <v>40393.25</v>
+        <v>3081.04</v>
       </c>
       <c r="I73" t="n">
-        <v>35474.27</v>
+        <v>3537.57</v>
       </c>
       <c r="J73" t="n">
-        <v>27693.45</v>
+        <v>2983.72</v>
       </c>
       <c r="K73" t="n">
-        <v>17067.96</v>
+        <v>3269.62</v>
       </c>
       <c r="L73" t="n">
-        <v>33123.78</v>
+        <v>6795.81</v>
       </c>
       <c r="M73" t="n">
-        <v>6476.590000000001</v>
+        <v>15082.53</v>
       </c>
       <c r="N73" t="n">
-        <v>-9592.23</v>
+        <v>7816</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9969</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2573.78</v>
+        <v>623.6000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3942.81</v>
+        <v>15060.31</v>
       </c>
       <c r="D74" t="n">
-        <v>-2413.04</v>
+        <v>14750.29</v>
       </c>
       <c r="E74" t="n">
-        <v>5477.99</v>
+        <v>16531.68</v>
       </c>
       <c r="F74" t="n">
-        <v>-2724.16</v>
+        <v>10364.31</v>
       </c>
       <c r="G74" t="n">
-        <v>5028.23</v>
+        <v>16573.3</v>
       </c>
       <c r="H74" t="n">
-        <v>6167.25</v>
+        <v>9470.34</v>
       </c>
       <c r="I74" t="n">
-        <v>5263.61</v>
+        <v>5606.08</v>
       </c>
       <c r="J74" t="n">
-        <v>3631.76</v>
+        <v>-2505.78</v>
       </c>
       <c r="K74" t="n">
-        <v>3704.79</v>
+        <v>-4807.98</v>
       </c>
       <c r="L74" t="n">
-        <v>5156.27</v>
+        <v>-1099.52</v>
       </c>
       <c r="M74" t="n">
-        <v>2168.61</v>
+        <v>-3764.1</v>
       </c>
       <c r="N74" t="n">
-        <v>5282.81</v>
+        <v>-5474.559999999999</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-2212.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21430.96</v>
+        <v>909.0599999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>-2161.68</v>
+        <v>1677.22</v>
       </c>
       <c r="D75" t="n">
-        <v>4418.100000000002</v>
+        <v>-1269.57</v>
       </c>
       <c r="E75" t="n">
-        <v>26761.83</v>
+        <v>2080.14</v>
       </c>
       <c r="F75" t="n">
-        <v>53056.25</v>
+        <v>-2158.52</v>
       </c>
       <c r="G75" t="n">
-        <v>19766.08</v>
+        <v>2056.75</v>
       </c>
       <c r="H75" t="n">
-        <v>26611.06</v>
+        <v>2189.5</v>
       </c>
       <c r="I75" t="n">
-        <v>21033.06</v>
+        <v>2674.5</v>
       </c>
       <c r="J75" t="n">
-        <v>32884.88</v>
+        <v>-1299.63</v>
       </c>
       <c r="K75" t="n">
-        <v>28774.81</v>
+        <v>2721.08</v>
       </c>
       <c r="L75" t="n">
-        <v>23468.17</v>
+        <v>1042.69</v>
       </c>
       <c r="M75" t="n">
-        <v>49490.25000000001</v>
+        <v>-1963</v>
       </c>
       <c r="N75" t="n">
-        <v>56548.43</v>
+        <v>-1253.52</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1160.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>139441.01</v>
+        <v>15886.88</v>
       </c>
       <c r="C76" t="n">
-        <v>69771.39999999999</v>
+        <v>2230.880000000002</v>
       </c>
       <c r="D76" t="n">
-        <v>43623.19</v>
+        <v>-9636.59</v>
       </c>
       <c r="E76" t="n">
-        <v>82988.11000000002</v>
+        <v>2740.08</v>
       </c>
       <c r="F76" t="n">
-        <v>100650.96</v>
+        <v>4595.130000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>72309.52</v>
+        <v>-12715.73</v>
       </c>
       <c r="H76" t="n">
-        <v>72386.98</v>
+        <v>7835.679999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>34115.74</v>
+        <v>20163.07</v>
       </c>
       <c r="J76" t="n">
-        <v>46248.99</v>
+        <v>19485.38</v>
       </c>
       <c r="K76" t="n">
-        <v>-23318.21000000001</v>
+        <v>13508.61</v>
       </c>
       <c r="L76" t="n">
-        <v>-25013.82</v>
+        <v>24312.4</v>
       </c>
       <c r="M76" t="n">
-        <v>-19753.49000000001</v>
+        <v>21640.18</v>
       </c>
       <c r="N76" t="n">
-        <v>-58228.37000000001</v>
+        <v>17476.58</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7093.139999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-10222.42</v>
+        <v>62313.63</v>
       </c>
       <c r="C77" t="n">
-        <v>-5250.24</v>
+        <v>7741.92</v>
       </c>
       <c r="D77" t="n">
-        <v>10611.11</v>
+        <v>-23183.07</v>
       </c>
       <c r="E77" t="n">
-        <v>8961.17</v>
+        <v>-21509.82</v>
       </c>
       <c r="F77" t="n">
-        <v>12688.38</v>
+        <v>-32255.64</v>
       </c>
       <c r="G77" t="n">
-        <v>-4064.57</v>
+        <v>-12795.86</v>
       </c>
       <c r="H77" t="n">
-        <v>8860.34</v>
+        <v>28348.95</v>
       </c>
       <c r="I77" t="n">
-        <v>8542.209999999999</v>
+        <v>56458.23</v>
       </c>
       <c r="J77" t="n">
-        <v>11820.32</v>
+        <v>49622.54</v>
       </c>
       <c r="K77" t="n">
-        <v>9278.440000000001</v>
+        <v>25276.3</v>
       </c>
       <c r="L77" t="n">
-        <v>9885.6</v>
+        <v>7347.160000000001</v>
       </c>
       <c r="M77" t="n">
-        <v>704.46</v>
+        <v>-44366.65</v>
       </c>
       <c r="N77" t="n">
-        <v>-5869.639999999999</v>
+        <v>-65521.65</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-66261.57000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>365037.6</v>
+        <v>3600.24</v>
       </c>
       <c r="C78" t="n">
-        <v>164958.54</v>
+        <v>7784.47</v>
       </c>
       <c r="D78" t="n">
-        <v>337181.85</v>
+        <v>9131.85</v>
       </c>
       <c r="E78" t="n">
-        <v>340635.82</v>
+        <v>1525</v>
       </c>
       <c r="F78" t="n">
-        <v>424133.89</v>
+        <v>2903.56</v>
       </c>
       <c r="G78" t="n">
-        <v>399739.11</v>
+        <v>5055.059999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>458248.51</v>
+        <v>6723.64</v>
       </c>
       <c r="I78" t="n">
-        <v>440808.05</v>
+        <v>3925.59</v>
       </c>
       <c r="J78" t="n">
-        <v>476758.14</v>
+        <v>12178.69</v>
       </c>
       <c r="K78" t="n">
-        <v>464784.01</v>
+        <v>9266.25</v>
       </c>
       <c r="L78" t="n">
-        <v>424637.8100000001</v>
+        <v>9924.440000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>569715.84</v>
+        <v>751.4099999999999</v>
       </c>
       <c r="N78" t="n">
-        <v>544443.13</v>
+        <v>202.1800000000001</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-5945.41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>71442.12</v>
+        <v>246429.53</v>
       </c>
       <c r="C79" t="n">
-        <v>29204.8</v>
+        <v>147757.21</v>
       </c>
       <c r="D79" t="n">
-        <v>71140.13</v>
+        <v>162111.78</v>
       </c>
       <c r="E79" t="n">
-        <v>51609.63</v>
+        <v>150513.86</v>
       </c>
       <c r="F79" t="n">
-        <v>50309.7</v>
+        <v>83235.57000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>54345.45</v>
+        <v>16736.90000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>88037.09</v>
+        <v>157299.35</v>
       </c>
       <c r="I79" t="n">
-        <v>74530.71000000001</v>
+        <v>101718.49</v>
       </c>
       <c r="J79" t="n">
-        <v>88395.59999999999</v>
+        <v>183657.49</v>
       </c>
       <c r="K79" t="n">
-        <v>55274.45</v>
+        <v>217975.51</v>
       </c>
       <c r="L79" t="n">
-        <v>53835.13</v>
+        <v>208229.55</v>
       </c>
       <c r="M79" t="n">
-        <v>69928.17</v>
+        <v>137142.16</v>
       </c>
       <c r="N79" t="n">
-        <v>47619.12</v>
+        <v>187661.26</v>
+      </c>
+      <c r="O79" t="n">
+        <v>202032.87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-23713.1</v>
+        <v>35433.64</v>
       </c>
       <c r="C80" t="n">
-        <v>-34377.36</v>
+        <v>16274.21</v>
       </c>
       <c r="D80" t="n">
-        <v>14213.98</v>
+        <v>31493.55</v>
       </c>
       <c r="E80" t="n">
-        <v>46298.12</v>
+        <v>27030.99</v>
       </c>
       <c r="F80" t="n">
-        <v>67619.31</v>
+        <v>3046.59</v>
       </c>
       <c r="G80" t="n">
-        <v>71236.29000000001</v>
+        <v>1447.42</v>
       </c>
       <c r="H80" t="n">
-        <v>80950.48000000001</v>
+        <v>32799.46</v>
       </c>
       <c r="I80" t="n">
-        <v>63454.06</v>
+        <v>10120.67</v>
       </c>
       <c r="J80" t="n">
-        <v>70460.35000000001</v>
+        <v>28023.14</v>
       </c>
       <c r="K80" t="n">
-        <v>41156.5</v>
+        <v>33295.11</v>
       </c>
       <c r="L80" t="n">
-        <v>49160.57000000001</v>
+        <v>26718.75</v>
       </c>
       <c r="M80" t="n">
-        <v>62093.63</v>
+        <v>5370.559999999998</v>
       </c>
       <c r="N80" t="n">
-        <v>54125.96</v>
+        <v>11977.59</v>
+      </c>
+      <c r="O80" t="n">
+        <v>15332.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>146.7</v>
+        <v>15848.09</v>
       </c>
       <c r="C81" t="n">
-        <v>138.58</v>
+        <v>7663.849999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>123.95</v>
+        <v>7324.510000000002</v>
       </c>
       <c r="E81" t="n">
-        <v>141.75</v>
+        <v>11596.97</v>
       </c>
       <c r="F81" t="n">
-        <v>191.27</v>
+        <v>-3354.459999999998</v>
       </c>
       <c r="G81" t="n">
-        <v>211.84</v>
+        <v>29144.89</v>
       </c>
       <c r="H81" t="n">
-        <v>215.78</v>
+        <v>40911.69</v>
       </c>
       <c r="I81" t="n">
-        <v>215.11</v>
+        <v>32583.89</v>
       </c>
       <c r="J81" t="n">
-        <v>276.7</v>
+        <v>36642.54</v>
       </c>
       <c r="K81" t="n">
-        <v>261.42</v>
+        <v>28279.72</v>
       </c>
       <c r="L81" t="n">
-        <v>184.2</v>
+        <v>2579.46</v>
       </c>
       <c r="M81" t="n">
-        <v>227.04</v>
+        <v>1882.389999999998</v>
       </c>
       <c r="N81" t="n">
-        <v>181.71</v>
+        <v>-1359.809999999999</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4219.170000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>202.02</v>
+        <v>82.39</v>
       </c>
       <c r="C82" t="n">
-        <v>207.94</v>
+        <v>-37.07</v>
       </c>
       <c r="D82" t="n">
-        <v>199.52</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>226.3</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>323.05</v>
+        <v>58.07</v>
       </c>
       <c r="G82" t="n">
-        <v>211.2</v>
+        <v>46.77</v>
       </c>
       <c r="H82" t="n">
-        <v>298.53</v>
+        <v>103.37</v>
       </c>
       <c r="I82" t="n">
-        <v>319.52</v>
+        <v>69.03</v>
       </c>
       <c r="J82" t="n">
-        <v>318.9</v>
+        <v>100.51</v>
       </c>
       <c r="K82" t="n">
-        <v>234.59</v>
+        <v>101.47</v>
       </c>
       <c r="L82" t="n">
-        <v>218.38</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>232.5</v>
+        <v>-19.41</v>
       </c>
       <c r="N82" t="n">
-        <v>133.34</v>
+        <v>42.88</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-35.43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>145.22</v>
+        <v>143.89</v>
       </c>
       <c r="C83" t="n">
-        <v>64.88999999999999</v>
+        <v>135.06</v>
       </c>
       <c r="D83" t="n">
-        <v>193.75</v>
+        <v>128.03</v>
       </c>
       <c r="E83" t="n">
-        <v>244.73</v>
+        <v>60.75</v>
       </c>
       <c r="F83" t="n">
-        <v>165.62</v>
+        <v>37.37</v>
       </c>
       <c r="G83" t="n">
-        <v>106</v>
+        <v>-114.17</v>
       </c>
       <c r="H83" t="n">
-        <v>243.32</v>
+        <v>3.68</v>
       </c>
       <c r="I83" t="n">
-        <v>251.44</v>
+        <v>46.41</v>
       </c>
       <c r="J83" t="n">
-        <v>249.78</v>
+        <v>116.27</v>
       </c>
       <c r="K83" t="n">
-        <v>196.15</v>
+        <v>100.02</v>
       </c>
       <c r="L83" t="n">
-        <v>137.19</v>
+        <v>153.09</v>
       </c>
       <c r="M83" t="n">
-        <v>191.99</v>
+        <v>111.09</v>
       </c>
       <c r="N83" t="n">
-        <v>140.8</v>
+        <v>35.44</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9.510000000000005</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>14130.43</v>
+        <v>142.99</v>
       </c>
       <c r="C84" t="n">
-        <v>10267.63</v>
+        <v>139.46</v>
       </c>
       <c r="D84" t="n">
-        <v>14788.4</v>
+        <v>112.03</v>
       </c>
       <c r="E84" t="n">
-        <v>23683.68</v>
+        <v>10.92</v>
       </c>
       <c r="F84" t="n">
-        <v>31365.13</v>
+        <v>-108.5</v>
       </c>
       <c r="G84" t="n">
-        <v>35929.9</v>
+        <v>-89.38999999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>36122.66</v>
+        <v>-69.38</v>
       </c>
       <c r="I84" t="n">
-        <v>37386.50999999999</v>
+        <v>2.530000000000001</v>
       </c>
       <c r="J84" t="n">
-        <v>40259.67999999999</v>
+        <v>103.61</v>
       </c>
       <c r="K84" t="n">
-        <v>42730.38</v>
+        <v>158.06</v>
       </c>
       <c r="L84" t="n">
-        <v>49895.13</v>
+        <v>154.87</v>
       </c>
       <c r="M84" t="n">
-        <v>60555.76</v>
+        <v>116.4</v>
       </c>
       <c r="N84" t="n">
-        <v>69012.60000000001</v>
+        <v>40.79</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.6999999999999957</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-10664.92</v>
+        <v>9151.51</v>
       </c>
       <c r="C85" t="n">
-        <v>10622.78</v>
+        <v>4576.28</v>
       </c>
       <c r="D85" t="n">
-        <v>85768.56999999999</v>
+        <v>7971.030000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>78442.5</v>
+        <v>7324.55</v>
       </c>
       <c r="F85" t="n">
-        <v>73183.33</v>
+        <v>10070.64</v>
       </c>
       <c r="G85" t="n">
-        <v>50620.8</v>
+        <v>13096.06</v>
       </c>
       <c r="H85" t="n">
-        <v>69954.47</v>
+        <v>14479.31</v>
       </c>
       <c r="I85" t="n">
-        <v>69920.75</v>
+        <v>13982.04</v>
       </c>
       <c r="J85" t="n">
-        <v>83525.02</v>
+        <v>15109.87</v>
       </c>
       <c r="K85" t="n">
-        <v>55194.78</v>
+        <v>12622.31</v>
       </c>
       <c r="L85" t="n">
-        <v>44639.91</v>
+        <v>16538.91</v>
       </c>
       <c r="M85" t="n">
-        <v>46287.35</v>
+        <v>20268.35</v>
       </c>
       <c r="N85" t="n">
-        <v>29468.29</v>
+        <v>21238.62</v>
+      </c>
+      <c r="O85" t="n">
+        <v>23728.19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7301.279999999997</v>
+        <v>26807.29</v>
       </c>
       <c r="C86" t="n">
-        <v>-22737.29</v>
+        <v>12884.91</v>
       </c>
       <c r="D86" t="n">
-        <v>26091.24</v>
+        <v>32401.77</v>
       </c>
       <c r="E86" t="n">
-        <v>67698.54000000001</v>
+        <v>18195.86</v>
       </c>
       <c r="F86" t="n">
-        <v>76121.03</v>
+        <v>7788.66</v>
       </c>
       <c r="G86" t="n">
-        <v>31286.46000000001</v>
+        <v>9430.359999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>35278.33</v>
+        <v>35458.38</v>
       </c>
       <c r="I86" t="n">
-        <v>38648.63</v>
+        <v>17759.34</v>
       </c>
       <c r="J86" t="n">
-        <v>21337.71999999999</v>
+        <v>43211.16</v>
       </c>
       <c r="K86" t="n">
-        <v>-20776.29999999999</v>
+        <v>33645.36</v>
       </c>
       <c r="L86" t="n">
-        <v>-52824.74000000001</v>
+        <v>23646.02</v>
       </c>
       <c r="M86" t="n">
-        <v>-82163.44999999998</v>
+        <v>8280.17</v>
       </c>
       <c r="N86" t="n">
-        <v>-52017.38</v>
+        <v>8719.49</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-32029.99</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>32577.72</v>
+        <v>33674.01</v>
       </c>
       <c r="C87" t="n">
-        <v>32954.97</v>
+        <v>13165.05</v>
       </c>
       <c r="D87" t="n">
-        <v>39453.64999999999</v>
+        <v>15565.96</v>
       </c>
       <c r="E87" t="n">
-        <v>29696</v>
+        <v>9218.27</v>
       </c>
       <c r="F87" t="n">
-        <v>33043.5</v>
+        <v>-1562.809999999998</v>
       </c>
       <c r="G87" t="n">
-        <v>33681.24</v>
+        <v>-11000.69</v>
       </c>
       <c r="H87" t="n">
-        <v>43739.49</v>
+        <v>-2397.080000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>36104.5</v>
+        <v>-7943.940000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>50394.59</v>
+        <v>-26442.83</v>
       </c>
       <c r="K87" t="n">
-        <v>72445.59999999999</v>
+        <v>-35434.23</v>
       </c>
       <c r="L87" t="n">
-        <v>84357.54000000001</v>
+        <v>-40974.88</v>
       </c>
       <c r="M87" t="n">
-        <v>80569.43000000001</v>
+        <v>-56377.26</v>
       </c>
       <c r="N87" t="n">
-        <v>78251.81</v>
+        <v>-30115.76</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-20301.65</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>34135.53</v>
+        <v>5844.33</v>
       </c>
       <c r="C88" t="n">
-        <v>33521.16</v>
+        <v>12360.82</v>
       </c>
       <c r="D88" t="n">
-        <v>43153.98</v>
+        <v>16506.74</v>
       </c>
       <c r="E88" t="n">
-        <v>53188.5</v>
+        <v>14819.61</v>
       </c>
       <c r="F88" t="n">
-        <v>52622.75</v>
+        <v>12144.45</v>
       </c>
       <c r="G88" t="n">
-        <v>52731.05</v>
+        <v>16161.33</v>
       </c>
       <c r="H88" t="n">
-        <v>65638.25999999999</v>
+        <v>16061.35</v>
       </c>
       <c r="I88" t="n">
-        <v>65602.89</v>
+        <v>-4242.959999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>62309.57</v>
+        <v>9830.5</v>
       </c>
       <c r="K88" t="n">
-        <v>52207.61</v>
+        <v>26721.99</v>
       </c>
       <c r="L88" t="n">
-        <v>54987.58</v>
+        <v>32915.09</v>
       </c>
       <c r="M88" t="n">
-        <v>55627.50999999999</v>
+        <v>31468.97</v>
       </c>
       <c r="N88" t="n">
-        <v>56604.21</v>
+        <v>35584.98</v>
+      </c>
+      <c r="O88" t="n">
+        <v>32671.87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>41356.29</v>
+        <v>20685.85</v>
       </c>
       <c r="C89" t="n">
-        <v>39514.46</v>
+        <v>17634.64</v>
       </c>
       <c r="D89" t="n">
-        <v>48619.75</v>
+        <v>18210.48</v>
       </c>
       <c r="E89" t="n">
-        <v>40875.77</v>
+        <v>20907.55</v>
       </c>
       <c r="F89" t="n">
-        <v>49117.81</v>
+        <v>13205.62</v>
       </c>
       <c r="G89" t="n">
-        <v>31732.84</v>
+        <v>9057.32</v>
       </c>
       <c r="H89" t="n">
-        <v>48619.89</v>
+        <v>22126.7</v>
       </c>
       <c r="I89" t="n">
-        <v>37581.19</v>
+        <v>21743.02</v>
       </c>
       <c r="J89" t="n">
-        <v>36991.51</v>
+        <v>20013.63</v>
       </c>
       <c r="K89" t="n">
-        <v>41098.61</v>
+        <v>17952.5</v>
       </c>
       <c r="L89" t="n">
-        <v>40214.2</v>
+        <v>21296.51</v>
       </c>
       <c r="M89" t="n">
-        <v>37821.24</v>
+        <v>11336.31</v>
       </c>
       <c r="N89" t="n">
-        <v>29069.3</v>
+        <v>13808.91</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3596.87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>31227.27</v>
+        <v>19226.54</v>
       </c>
       <c r="C90" t="n">
-        <v>20333.55</v>
+        <v>20886.5</v>
       </c>
       <c r="D90" t="n">
-        <v>52121.89</v>
+        <v>20333.63</v>
       </c>
       <c r="E90" t="n">
-        <v>19632.01</v>
+        <v>12552.84</v>
       </c>
       <c r="F90" t="n">
-        <v>70817.85999999999</v>
+        <v>10136.43</v>
       </c>
       <c r="G90" t="n">
-        <v>27069.16</v>
+        <v>-4078.31</v>
       </c>
       <c r="H90" t="n">
-        <v>9653.639999999999</v>
+        <v>3296.63</v>
       </c>
       <c r="I90" t="n">
-        <v>-19456.98</v>
+        <v>-7418.669999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>-1696.070000000007</v>
+        <v>10511.69</v>
       </c>
       <c r="K90" t="n">
-        <v>36949.52</v>
+        <v>13735.89</v>
       </c>
       <c r="L90" t="n">
-        <v>53232.87999999999</v>
+        <v>21992.43</v>
       </c>
       <c r="M90" t="n">
-        <v>60229.04000000001</v>
+        <v>15412.33</v>
       </c>
       <c r="N90" t="n">
-        <v>47537.31</v>
+        <v>15861.03</v>
+      </c>
+      <c r="O90" t="n">
+        <v>12424.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-965.4199999999996</v>
+        <v>30270.07999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>-3819.47</v>
+        <v>2462.219999999998</v>
       </c>
       <c r="D91" t="n">
-        <v>9476.189999999999</v>
+        <v>-21583.47</v>
       </c>
       <c r="E91" t="n">
-        <v>15471.9</v>
+        <v>-44030</v>
       </c>
       <c r="F91" t="n">
-        <v>19783.32</v>
+        <v>15859.49</v>
       </c>
       <c r="G91" t="n">
-        <v>16403.02</v>
+        <v>-15897.26</v>
       </c>
       <c r="H91" t="n">
-        <v>19038.16</v>
+        <v>38341.99000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>9689.129999999999</v>
+        <v>38900.89</v>
       </c>
       <c r="J91" t="n">
-        <v>8014.129999999999</v>
+        <v>46101.46</v>
       </c>
       <c r="K91" t="n">
-        <v>-581.8699999999999</v>
+        <v>26252.44</v>
       </c>
       <c r="L91" t="n">
-        <v>-12841.82</v>
+        <v>47494.08</v>
       </c>
       <c r="M91" t="n">
-        <v>-11765.97</v>
+        <v>32306.4</v>
       </c>
       <c r="N91" t="n">
-        <v>-19610.26</v>
+        <v>-13166.11</v>
+      </c>
+      <c r="O91" t="n">
+        <v>24783.48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>97393.73999999999</v>
+        <v>6955.75</v>
       </c>
       <c r="C92" t="n">
-        <v>80124.92</v>
+        <v>5869.51</v>
       </c>
       <c r="D92" t="n">
-        <v>54241.65000000001</v>
+        <v>4772.25</v>
       </c>
       <c r="E92" t="n">
-        <v>105972.46</v>
+        <v>2595.64</v>
       </c>
       <c r="F92" t="n">
-        <v>170493.59</v>
+        <v>1823.2</v>
       </c>
       <c r="G92" t="n">
-        <v>171046.18</v>
+        <v>3003.440000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>146907.1</v>
+        <v>5836.88</v>
       </c>
       <c r="I92" t="n">
-        <v>124434.46</v>
+        <v>2724.26</v>
       </c>
       <c r="J92" t="n">
-        <v>154880.94</v>
+        <v>3013.31</v>
       </c>
       <c r="K92" t="n">
-        <v>72708.08</v>
+        <v>-622.71</v>
       </c>
       <c r="L92" t="n">
-        <v>131486.23</v>
+        <v>-8646.9</v>
       </c>
       <c r="M92" t="n">
-        <v>138008.47</v>
+        <v>-11583.43</v>
       </c>
       <c r="N92" t="n">
-        <v>128827.01</v>
+        <v>-10296.67</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-10116.34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>598029.29</v>
+        <v>63200</v>
       </c>
       <c r="C93" t="n">
-        <v>440145.11</v>
+        <v>31825.14</v>
       </c>
       <c r="D93" t="n">
-        <v>613279.54</v>
+        <v>12746.16</v>
       </c>
       <c r="E93" t="n">
-        <v>628107.8099999999</v>
+        <v>10682.03</v>
       </c>
       <c r="F93" t="n">
-        <v>818860.08</v>
+        <v>4714.77</v>
       </c>
       <c r="G93" t="n">
-        <v>795224.24</v>
+        <v>12820.44</v>
       </c>
       <c r="H93" t="n">
-        <v>815453.37</v>
+        <v>41973.3</v>
       </c>
       <c r="I93" t="n">
-        <v>750763.5600000001</v>
+        <v>23130.22</v>
       </c>
       <c r="J93" t="n">
-        <v>813337.48</v>
+        <v>32110.24</v>
       </c>
       <c r="K93" t="n">
-        <v>723598.6</v>
+        <v>4024.73</v>
       </c>
       <c r="L93" t="n">
-        <v>667650.45</v>
+        <v>45737.08</v>
       </c>
       <c r="M93" t="n">
-        <v>627876.23</v>
+        <v>12235.31</v>
       </c>
       <c r="N93" t="n">
-        <v>585199.98</v>
+        <v>21657.9</v>
+      </c>
+      <c r="O93" t="n">
+        <v>16928.03</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>309249.54</v>
+        <v>310882.66</v>
       </c>
       <c r="C94" t="n">
-        <v>205364.55</v>
+        <v>275388.42</v>
       </c>
       <c r="D94" t="n">
-        <v>319321</v>
+        <v>268210.68</v>
       </c>
       <c r="E94" t="n">
-        <v>480012.89</v>
+        <v>237354.38</v>
       </c>
       <c r="F94" t="n">
-        <v>616116.79</v>
+        <v>304759.29</v>
       </c>
       <c r="G94" t="n">
-        <v>560858.83</v>
+        <v>266520.93</v>
       </c>
       <c r="H94" t="n">
-        <v>661815.59</v>
+        <v>325042.97</v>
       </c>
       <c r="I94" t="n">
-        <v>598593.9500000001</v>
+        <v>283424.05</v>
       </c>
       <c r="J94" t="n">
-        <v>558639.67</v>
+        <v>367256.21</v>
       </c>
       <c r="K94" t="n">
-        <v>376469.7</v>
+        <v>251146.87</v>
       </c>
       <c r="L94" t="n">
-        <v>356516.24</v>
+        <v>163573.73</v>
       </c>
       <c r="M94" t="n">
-        <v>451370.65</v>
+        <v>82560.44</v>
       </c>
       <c r="N94" t="n">
-        <v>407621.17</v>
+        <v>147272.49</v>
+      </c>
+      <c r="O94" t="n">
+        <v>175105.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>429586.4</v>
+        <v>226502.26</v>
       </c>
       <c r="C95" t="n">
-        <v>437327.26</v>
+        <v>168912.54</v>
       </c>
       <c r="D95" t="n">
-        <v>547166.64</v>
+        <v>151374.26</v>
       </c>
       <c r="E95" t="n">
-        <v>536397.13</v>
+        <v>62275.38</v>
       </c>
       <c r="F95" t="n">
-        <v>697378.11</v>
+        <v>39113.78</v>
       </c>
       <c r="G95" t="n">
-        <v>651701.86</v>
+        <v>67037.55</v>
       </c>
       <c r="H95" t="n">
-        <v>582440.4400000001</v>
+        <v>226916.3</v>
       </c>
       <c r="I95" t="n">
-        <v>545995.8100000001</v>
+        <v>206484.38</v>
       </c>
       <c r="J95" t="n">
-        <v>620344.02</v>
+        <v>249133.66</v>
       </c>
       <c r="K95" t="n">
-        <v>571577.1800000001</v>
+        <v>182698.36</v>
       </c>
       <c r="L95" t="n">
-        <v>399515.98</v>
+        <v>154652.45</v>
       </c>
       <c r="M95" t="n">
-        <v>455341.34</v>
+        <v>-32055.78</v>
       </c>
       <c r="N95" t="n">
-        <v>364897.29</v>
+        <v>-19530.06</v>
+      </c>
+      <c r="O95" t="n">
+        <v>-62367.10000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>402139.5</v>
+        <v>196070.6</v>
       </c>
       <c r="C96" t="n">
-        <v>414437.75</v>
+        <v>158791.62</v>
       </c>
       <c r="D96" t="n">
-        <v>489854.18</v>
+        <v>130585.07</v>
       </c>
       <c r="E96" t="n">
-        <v>429754.06</v>
+        <v>39339.64</v>
       </c>
       <c r="F96" t="n">
-        <v>468879.32</v>
+        <v>38910.17</v>
       </c>
       <c r="G96" t="n">
-        <v>500880.47</v>
+        <v>11861.13</v>
       </c>
       <c r="H96" t="n">
-        <v>527212.9</v>
+        <v>93107.28</v>
       </c>
       <c r="I96" t="n">
-        <v>585760.46</v>
+        <v>92881.3</v>
       </c>
       <c r="J96" t="n">
-        <v>587755.62</v>
+        <v>196790.02</v>
       </c>
       <c r="K96" t="n">
-        <v>587656.47</v>
+        <v>146382.64</v>
       </c>
       <c r="L96" t="n">
-        <v>552156.8</v>
+        <v>123108.81</v>
       </c>
       <c r="M96" t="n">
-        <v>582402.51</v>
+        <v>83442.44</v>
       </c>
       <c r="N96" t="n">
-        <v>410875.5</v>
+        <v>13646.28</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-39906.93</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>102803.86</v>
+        <v>204181.92</v>
       </c>
       <c r="C97" t="n">
-        <v>75002.88</v>
+        <v>144230.13</v>
       </c>
       <c r="D97" t="n">
-        <v>86878.59</v>
+        <v>193029.88</v>
       </c>
       <c r="E97" t="n">
-        <v>103111.43</v>
+        <v>90722.10000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>149838.95</v>
+        <v>81942.41</v>
       </c>
       <c r="G97" t="n">
-        <v>159087.83</v>
+        <v>77643.78999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>171314.38</v>
+        <v>182618.37</v>
       </c>
       <c r="I97" t="n">
-        <v>161910.48</v>
+        <v>138257.63</v>
       </c>
       <c r="J97" t="n">
-        <v>179010.44</v>
+        <v>224434.58</v>
       </c>
       <c r="K97" t="n">
-        <v>151390.43</v>
+        <v>230888.51</v>
       </c>
       <c r="L97" t="n">
-        <v>78850.32000000001</v>
+        <v>216038.91</v>
       </c>
       <c r="M97" t="n">
-        <v>35700.05</v>
+        <v>182173.13</v>
       </c>
       <c r="N97" t="n">
-        <v>28613.87</v>
+        <v>85328.59</v>
+      </c>
+      <c r="O97" t="n">
+        <v>51812.32999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>364036.07</v>
+        <v>36369.44</v>
       </c>
       <c r="C98" t="n">
-        <v>465163.86</v>
+        <v>23179.45</v>
       </c>
       <c r="D98" t="n">
-        <v>460258.72</v>
+        <v>16845.22</v>
       </c>
       <c r="E98" t="n">
-        <v>477694.71</v>
+        <v>1001.7</v>
       </c>
       <c r="F98" t="n">
-        <v>502460.08</v>
+        <v>-3033.480000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>424526.85</v>
+        <v>4648.609999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>505466.48</v>
+        <v>34660.48</v>
       </c>
       <c r="I98" t="n">
-        <v>489182.1</v>
+        <v>38948.64</v>
       </c>
       <c r="J98" t="n">
-        <v>503767.21</v>
+        <v>51098.04</v>
       </c>
       <c r="K98" t="n">
-        <v>466006.14</v>
+        <v>42505.98</v>
       </c>
       <c r="L98" t="n">
-        <v>428667.93</v>
+        <v>26611.28</v>
       </c>
       <c r="M98" t="n">
-        <v>400067.37</v>
+        <v>20787.89</v>
       </c>
       <c r="N98" t="n">
-        <v>338197.68</v>
+        <v>13690.12</v>
+      </c>
+      <c r="O98" t="n">
+        <v>8242.41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>762551.1699999999</v>
+        <v>202906.41</v>
       </c>
       <c r="C99" t="n">
-        <v>578446.27</v>
+        <v>246008.14</v>
       </c>
       <c r="D99" t="n">
-        <v>736518.3</v>
+        <v>228262.02</v>
       </c>
       <c r="E99" t="n">
-        <v>755588.33</v>
+        <v>187601.61</v>
       </c>
       <c r="F99" t="n">
-        <v>938957.28</v>
+        <v>135573.89</v>
       </c>
       <c r="G99" t="n">
-        <v>954817.4199999999</v>
+        <v>45131.68</v>
       </c>
       <c r="H99" t="n">
-        <v>1114103.37</v>
+        <v>55406.61</v>
       </c>
       <c r="I99" t="n">
-        <v>1082804.1</v>
+        <v>47892.32</v>
       </c>
       <c r="J99" t="n">
-        <v>1264070.99</v>
+        <v>121442.83</v>
       </c>
       <c r="K99" t="n">
-        <v>1316320.58</v>
+        <v>136213.82</v>
       </c>
       <c r="L99" t="n">
-        <v>1252562.82</v>
+        <v>171911.63</v>
       </c>
       <c r="M99" t="n">
-        <v>1283821.21</v>
+        <v>104151.48</v>
       </c>
       <c r="N99" t="n">
-        <v>1159575.01</v>
+        <v>63673.30000000001</v>
+      </c>
+      <c r="O99" t="n">
+        <v>45435.53999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>132830.23</v>
+        <v>421410.58</v>
       </c>
       <c r="C100" t="n">
-        <v>85311.28</v>
+        <v>316657.52</v>
       </c>
       <c r="D100" t="n">
-        <v>158771.43</v>
+        <v>289436.2</v>
       </c>
       <c r="E100" t="n">
-        <v>188245.68</v>
+        <v>206394.25</v>
       </c>
       <c r="F100" t="n">
-        <v>238793.67</v>
+        <v>214924.7</v>
       </c>
       <c r="G100" t="n">
-        <v>206497.45</v>
+        <v>181506.23</v>
       </c>
       <c r="H100" t="n">
-        <v>343793.68</v>
+        <v>485560.6</v>
       </c>
       <c r="I100" t="n">
-        <v>206403.93</v>
+        <v>432335.19</v>
       </c>
       <c r="J100" t="n">
-        <v>233909.9</v>
+        <v>645059.73</v>
       </c>
       <c r="K100" t="n">
-        <v>101290.3</v>
+        <v>651573.72</v>
       </c>
       <c r="L100" t="n">
-        <v>44040.60999999999</v>
+        <v>645045.52</v>
       </c>
       <c r="M100" t="n">
-        <v>68322.87</v>
+        <v>422145.63</v>
       </c>
       <c r="N100" t="n">
-        <v>-23654.54999999999</v>
+        <v>490257.69</v>
+      </c>
+      <c r="O100" t="n">
+        <v>335115.26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>408604.18</v>
+        <v>83197.41</v>
       </c>
       <c r="C101" t="n">
-        <v>243324.44</v>
+        <v>64363.06</v>
       </c>
       <c r="D101" t="n">
-        <v>279000.93</v>
+        <v>57399.18</v>
       </c>
       <c r="E101" t="n">
-        <v>272975.88</v>
+        <v>24100.74</v>
       </c>
       <c r="F101" t="n">
-        <v>425411.22</v>
+        <v>27470.68</v>
       </c>
       <c r="G101" t="n">
-        <v>325763.49</v>
+        <v>30114.65</v>
       </c>
       <c r="H101" t="n">
-        <v>535452.45</v>
+        <v>82248.34</v>
       </c>
       <c r="I101" t="n">
-        <v>490873.24</v>
+        <v>34033.39</v>
       </c>
       <c r="J101" t="n">
-        <v>622883.84</v>
+        <v>70221.89</v>
       </c>
       <c r="K101" t="n">
-        <v>524129.36</v>
+        <v>7691.660000000002</v>
       </c>
       <c r="L101" t="n">
-        <v>329525.72</v>
+        <v>9923.450000000001</v>
       </c>
       <c r="M101" t="n">
-        <v>366876.05</v>
+        <v>-9797.739999999996</v>
       </c>
       <c r="N101" t="n">
-        <v>167164.97</v>
+        <v>-23810.05</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-58449.74</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9050.140000000003</v>
+        <v>181130.69</v>
       </c>
       <c r="C102" t="n">
-        <v>140784.1</v>
+        <v>137585.26</v>
       </c>
       <c r="D102" t="n">
-        <v>122495.41</v>
+        <v>110114.27</v>
       </c>
       <c r="E102" t="n">
-        <v>129131.91</v>
+        <v>25222.25</v>
       </c>
       <c r="F102" t="n">
-        <v>70959.31</v>
+        <v>-8566.98</v>
       </c>
       <c r="G102" t="n">
-        <v>64323.52</v>
+        <v>-34631.71999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>60058.4</v>
+        <v>98687.88</v>
       </c>
       <c r="I102" t="n">
-        <v>55665.63</v>
+        <v>135663.01</v>
       </c>
       <c r="J102" t="n">
-        <v>29812.1</v>
+        <v>255687.55</v>
       </c>
       <c r="K102" t="n">
-        <v>58821.39999999999</v>
+        <v>263641.61</v>
       </c>
       <c r="L102" t="n">
-        <v>63562.46</v>
+        <v>201014.15</v>
       </c>
       <c r="M102" t="n">
-        <v>-25303.06</v>
+        <v>91001.63</v>
       </c>
       <c r="N102" t="n">
-        <v>17538.80000000001</v>
+        <v>50109.27999999999</v>
+      </c>
+      <c r="O102" t="n">
+        <v>49820.97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>12750.45</v>
+        <v>-1604.39</v>
       </c>
       <c r="C103" t="n">
-        <v>78790.57000000001</v>
+        <v>57311.89</v>
       </c>
       <c r="D103" t="n">
-        <v>73076.91</v>
+        <v>51699.04</v>
       </c>
       <c r="E103" t="n">
-        <v>72969.56999999999</v>
+        <v>42216.7</v>
       </c>
       <c r="F103" t="n">
-        <v>72317.17</v>
+        <v>45785.04</v>
       </c>
       <c r="G103" t="n">
-        <v>62708.92</v>
+        <v>47734.08</v>
       </c>
       <c r="H103" t="n">
-        <v>57324.28</v>
+        <v>-27133.36</v>
       </c>
       <c r="I103" t="n">
-        <v>46891.99</v>
+        <v>-19647.54</v>
       </c>
       <c r="J103" t="n">
-        <v>48418.1</v>
+        <v>-29878.65</v>
       </c>
       <c r="K103" t="n">
-        <v>38967.78</v>
+        <v>-20906.63</v>
       </c>
       <c r="L103" t="n">
-        <v>30494.44</v>
+        <v>-13834.06</v>
       </c>
       <c r="M103" t="n">
-        <v>-56493.46</v>
+        <v>16860.27</v>
       </c>
       <c r="N103" t="n">
-        <v>-58507.25</v>
+        <v>32126.17</v>
+      </c>
+      <c r="O103" t="n">
+        <v>32729.28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>12690.15</v>
+      </c>
+      <c r="C104" t="n">
+        <v>37319.02</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34543.44</v>
+      </c>
+      <c r="E104" t="n">
+        <v>31487.34</v>
+      </c>
+      <c r="F104" t="n">
+        <v>29577.33</v>
+      </c>
+      <c r="G104" t="n">
+        <v>24996.98</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-14364.95</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-23118.95</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-22960.12</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-23483.73</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-15456.42</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-14439.46</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-6966.45</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-7665.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>10103.34</v>
-      </c>
-      <c r="C104" t="n">
-        <v>22471.16</v>
-      </c>
-      <c r="D104" t="n">
-        <v>19275.27</v>
-      </c>
-      <c r="E104" t="n">
-        <v>21175.94</v>
-      </c>
-      <c r="F104" t="n">
-        <v>20366.5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>17938.48</v>
-      </c>
-      <c r="H104" t="n">
-        <v>16328.23</v>
-      </c>
-      <c r="I104" t="n">
-        <v>15073.71</v>
-      </c>
-      <c r="J104" t="n">
-        <v>15516.17</v>
-      </c>
-      <c r="K104" t="n">
-        <v>14392.95</v>
-      </c>
-      <c r="L104" t="n">
-        <v>14864.14</v>
-      </c>
-      <c r="M104" t="n">
-        <v>-14722.13</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-10957.93</v>
+      <c r="B105" t="n">
+        <v>2766.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9400.629999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8275.280000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9263.560000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8544.57</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7529.32</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-5918.94</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-4791.809999999999</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-6090.469999999999</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-5576.19</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-3521.19</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-2999.29</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-1286.89</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-1877.5</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
     </row>
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108529.03</v>
+        <v>14265.83000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>20610.96000000001</v>
+        <v>-71.70000000000073</v>
       </c>
       <c r="D2" t="n">
-        <v>2380.629999999998</v>
+        <v>8778.799999999997</v>
       </c>
       <c r="E2" t="n">
-        <v>5676.839999999998</v>
+        <v>-40028.47</v>
       </c>
       <c r="F2" t="n">
-        <v>-43515.16</v>
+        <v>30025.51</v>
       </c>
       <c r="G2" t="n">
-        <v>26642.01</v>
+        <v>134081.76</v>
       </c>
       <c r="H2" t="n">
-        <v>129144.53</v>
+        <v>140717.01</v>
       </c>
       <c r="I2" t="n">
-        <v>135405.34</v>
+        <v>185016.81</v>
       </c>
       <c r="J2" t="n">
-        <v>181614.86</v>
+        <v>190941.37</v>
       </c>
       <c r="K2" t="n">
-        <v>187506.85</v>
+        <v>189321.17</v>
       </c>
       <c r="L2" t="n">
-        <v>188567.76</v>
+        <v>158025</v>
       </c>
       <c r="M2" t="n">
-        <v>153273.44</v>
+        <v>63059.64</v>
       </c>
       <c r="N2" t="n">
-        <v>65897.90000000001</v>
+        <v>-17575.23</v>
       </c>
       <c r="O2" t="n">
-        <v>-14943.6</v>
+        <v>-91738.75</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77312.22</v>
+        <v>54412.59</v>
       </c>
       <c r="C3" t="n">
-        <v>61117.81</v>
+        <v>39857.57</v>
       </c>
       <c r="D3" t="n">
-        <v>44190.8</v>
+        <v>35291.78</v>
       </c>
       <c r="E3" t="n">
-        <v>26829.58</v>
+        <v>-4762.429999999998</v>
       </c>
       <c r="F3" t="n">
-        <v>-11586.34</v>
+        <v>-30936.01</v>
       </c>
       <c r="G3" t="n">
-        <v>-10679.68</v>
+        <v>64756.51</v>
       </c>
       <c r="H3" t="n">
-        <v>56857.59</v>
+        <v>37025.94</v>
       </c>
       <c r="I3" t="n">
-        <v>49091.95</v>
+        <v>55091.42</v>
       </c>
       <c r="J3" t="n">
-        <v>66571.52</v>
+        <v>31355.28</v>
       </c>
       <c r="K3" t="n">
-        <v>50418.81</v>
+        <v>56632.61</v>
       </c>
       <c r="L3" t="n">
-        <v>66293.36</v>
+        <v>14196.27</v>
       </c>
       <c r="M3" t="n">
-        <v>32245.48</v>
+        <v>-4032.41</v>
       </c>
       <c r="N3" t="n">
-        <v>12519.65</v>
+        <v>38106.03</v>
       </c>
       <c r="O3" t="n">
-        <v>25127.79</v>
+        <v>23288.21</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25851.75999999999</v>
+        <v>9877.950000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-801.3800000000006</v>
+        <v>-4770.419999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>-9060.889999999999</v>
+        <v>-30298.94</v>
       </c>
       <c r="E4" t="n">
-        <v>-15981.03</v>
+        <v>-47845.24</v>
       </c>
       <c r="F4" t="n">
-        <v>-34527.88999999999</v>
+        <v>-11085.44</v>
       </c>
       <c r="G4" t="n">
-        <v>-35229.25</v>
+        <v>64602.27</v>
       </c>
       <c r="H4" t="n">
-        <v>67226.82000000001</v>
+        <v>96445.67</v>
       </c>
       <c r="I4" t="n">
-        <v>90507.64999999999</v>
+        <v>101731.18</v>
       </c>
       <c r="J4" t="n">
-        <v>90849.85000000001</v>
+        <v>80783.72</v>
       </c>
       <c r="K4" t="n">
-        <v>56375.81999999999</v>
+        <v>64600.04</v>
       </c>
       <c r="L4" t="n">
-        <v>46993.38</v>
+        <v>38366.52</v>
       </c>
       <c r="M4" t="n">
-        <v>16844.29</v>
+        <v>-15103.73</v>
       </c>
       <c r="N4" t="n">
-        <v>-44838.45</v>
+        <v>-11838.28</v>
       </c>
       <c r="O4" t="n">
-        <v>-5031.8</v>
+        <v>-19766.68</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27940.85</v>
+        <v>15516.3</v>
       </c>
       <c r="C5" t="n">
-        <v>15001.48</v>
+        <v>-9210.280000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-9447.320000000002</v>
+        <v>3374.16</v>
       </c>
       <c r="E5" t="n">
-        <v>5311.690000000001</v>
+        <v>18130.75</v>
       </c>
       <c r="F5" t="n">
-        <v>20049.13</v>
+        <v>31611.6</v>
       </c>
       <c r="G5" t="n">
-        <v>34315.27</v>
+        <v>27291.85</v>
       </c>
       <c r="H5" t="n">
-        <v>32002.57</v>
+        <v>37172.57</v>
       </c>
       <c r="I5" t="n">
-        <v>40532.39999999999</v>
+        <v>20821.38</v>
       </c>
       <c r="J5" t="n">
-        <v>21830.97</v>
+        <v>-7757.329999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>-7584.19</v>
+        <v>-16374.37</v>
       </c>
       <c r="L5" t="n">
-        <v>-17045.84</v>
+        <v>-17297.03</v>
       </c>
       <c r="M5" t="n">
-        <v>-20624.18</v>
+        <v>3451.189999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>2310.129999999999</v>
+        <v>-235.3400000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>331.7900000000009</v>
+        <v>-323.6200000000008</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59435.79</v>
+        <v>21852.43</v>
       </c>
       <c r="C6" t="n">
-        <v>22054.52</v>
+        <v>32505.24</v>
       </c>
       <c r="D6" t="n">
-        <v>33063.72</v>
+        <v>5126.629999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>5599.379999999999</v>
+        <v>12480.65</v>
       </c>
       <c r="F6" t="n">
-        <v>12638.45</v>
+        <v>2516.540000000003</v>
       </c>
       <c r="G6" t="n">
-        <v>2981.890000000001</v>
+        <v>33448.32</v>
       </c>
       <c r="H6" t="n">
-        <v>33126.65</v>
+        <v>20061.46</v>
       </c>
       <c r="I6" t="n">
-        <v>19481.11</v>
+        <v>31549.56</v>
       </c>
       <c r="J6" t="n">
-        <v>31226.79</v>
+        <v>19910.96</v>
       </c>
       <c r="K6" t="n">
-        <v>19666.38</v>
+        <v>30719.18</v>
       </c>
       <c r="L6" t="n">
-        <v>30832.99</v>
+        <v>14452.53</v>
       </c>
       <c r="M6" t="n">
-        <v>14925.23</v>
+        <v>-5122.720000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>-4565.120000000003</v>
+        <v>7691.129999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>7512.139999999999</v>
+        <v>14155.69</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49225.52</v>
+        <v>29195.44</v>
       </c>
       <c r="C7" t="n">
-        <v>30421.75</v>
+        <v>27043.44</v>
       </c>
       <c r="D7" t="n">
-        <v>27625.09</v>
+        <v>12575.58</v>
       </c>
       <c r="E7" t="n">
-        <v>11120.23</v>
+        <v>10027.65</v>
       </c>
       <c r="F7" t="n">
-        <v>8851.290000000001</v>
+        <v>20994.59</v>
       </c>
       <c r="G7" t="n">
-        <v>19861.56</v>
+        <v>42105.7</v>
       </c>
       <c r="H7" t="n">
-        <v>40324.16</v>
+        <v>41780.99</v>
       </c>
       <c r="I7" t="n">
-        <v>41195.54</v>
+        <v>37371.18</v>
       </c>
       <c r="J7" t="n">
-        <v>38675.06</v>
+        <v>29687.44</v>
       </c>
       <c r="K7" t="n">
-        <v>31803.51</v>
+        <v>15489.33</v>
       </c>
       <c r="L7" t="n">
-        <v>17106.27</v>
+        <v>4965.369999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>6499.84</v>
+        <v>-13718.62</v>
       </c>
       <c r="N7" t="n">
-        <v>-12342.74</v>
+        <v>8243.809999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>9578.85</v>
+        <v>-10435.09</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209161.17</v>
+        <v>105889.23</v>
       </c>
       <c r="C8" t="n">
-        <v>128037.19</v>
+        <v>66000</v>
       </c>
       <c r="D8" t="n">
-        <v>73690.87</v>
+        <v>32482.26</v>
       </c>
       <c r="E8" t="n">
-        <v>34343.09</v>
+        <v>-322.0600000000037</v>
       </c>
       <c r="F8" t="n">
-        <v>1226.239999999996</v>
+        <v>-56109.51</v>
       </c>
       <c r="G8" t="n">
-        <v>-54437.81</v>
+        <v>128735.89</v>
       </c>
       <c r="H8" t="n">
-        <v>84350.42000000001</v>
+        <v>200654.43</v>
       </c>
       <c r="I8" t="n">
-        <v>161307.92</v>
+        <v>266451.02</v>
       </c>
       <c r="J8" t="n">
-        <v>270080.96</v>
+        <v>264116.4</v>
       </c>
       <c r="K8" t="n">
-        <v>251309.3</v>
+        <v>289722.66</v>
       </c>
       <c r="L8" t="n">
-        <v>256148.25</v>
+        <v>207987.06</v>
       </c>
       <c r="M8" t="n">
-        <v>170095.68</v>
+        <v>105851.09</v>
       </c>
       <c r="N8" t="n">
-        <v>105953.33</v>
+        <v>67522.04000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>60079.55</v>
+        <v>35580.37</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35925.63</v>
+        <v>34418.81</v>
       </c>
       <c r="C9" t="n">
-        <v>35111.55</v>
+        <v>26742.79</v>
       </c>
       <c r="D9" t="n">
-        <v>26500.5</v>
+        <v>4820.91</v>
       </c>
       <c r="E9" t="n">
-        <v>5465.849999999999</v>
+        <v>-9225.08</v>
       </c>
       <c r="F9" t="n">
-        <v>-8458.92</v>
+        <v>-11803.13</v>
       </c>
       <c r="G9" t="n">
-        <v>-11209.72</v>
+        <v>-1446.819999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>-331.78</v>
+        <v>-2783.390000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-1755.06</v>
+        <v>9114.619999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>9806.790000000001</v>
+        <v>7761.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8501.650000000001</v>
+        <v>17215.5</v>
       </c>
       <c r="L9" t="n">
-        <v>17934.02</v>
+        <v>11947.44</v>
       </c>
       <c r="M9" t="n">
-        <v>12352.34</v>
+        <v>15273.64</v>
       </c>
       <c r="N9" t="n">
-        <v>15897.04</v>
+        <v>11774.08</v>
       </c>
       <c r="O9" t="n">
-        <v>12597.75</v>
+        <v>2113.400000000002</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141522.21</v>
+        <v>120745.89</v>
       </c>
       <c r="C10" t="n">
-        <v>120816.11</v>
+        <v>105748.77</v>
       </c>
       <c r="D10" t="n">
-        <v>106503.83</v>
+        <v>68278.78</v>
       </c>
       <c r="E10" t="n">
-        <v>67378.78999999999</v>
+        <v>42260.4</v>
       </c>
       <c r="F10" t="n">
-        <v>41075.47</v>
+        <v>-33658.53</v>
       </c>
       <c r="G10" t="n">
-        <v>-34565.01</v>
+        <v>90669.65000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>89970.06</v>
+        <v>81201.39999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>80696.91</v>
+        <v>138156.59</v>
       </c>
       <c r="J10" t="n">
-        <v>138195.59</v>
+        <v>110284.38</v>
       </c>
       <c r="K10" t="n">
-        <v>110072.96</v>
+        <v>120676.14</v>
       </c>
       <c r="L10" t="n">
-        <v>120855.85</v>
+        <v>27908.17</v>
       </c>
       <c r="M10" t="n">
-        <v>27964.38</v>
+        <v>-56702.88</v>
       </c>
       <c r="N10" t="n">
-        <v>-56613.75999999999</v>
+        <v>-97325.50999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>-97247.79999999999</v>
+        <v>-89757.41</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11919.45</v>
+        <v>15685.03</v>
       </c>
       <c r="C11" t="n">
-        <v>15685.03</v>
+        <v>10362.49</v>
       </c>
       <c r="D11" t="n">
-        <v>10362.49</v>
+        <v>3541.14</v>
       </c>
       <c r="E11" t="n">
-        <v>3541.14</v>
+        <v>3861.610000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>3861.610000000001</v>
+        <v>-3930.2</v>
       </c>
       <c r="G11" t="n">
-        <v>-3930.2</v>
+        <v>6194.18</v>
       </c>
       <c r="H11" t="n">
-        <v>6194.18</v>
+        <v>-6504.05</v>
       </c>
       <c r="I11" t="n">
-        <v>-6504.05</v>
+        <v>12787.7</v>
       </c>
       <c r="J11" t="n">
-        <v>12787.7</v>
+        <v>7200.940000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>7200.940000000001</v>
+        <v>11001.93</v>
       </c>
       <c r="L11" t="n">
-        <v>11001.93</v>
+        <v>7598.75</v>
       </c>
       <c r="M11" t="n">
-        <v>7598.75</v>
+        <v>7916.169999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>7916.169999999999</v>
+        <v>7605.16</v>
       </c>
       <c r="O11" t="n">
-        <v>7605.16</v>
+        <v>14789.33</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37434.76</v>
+        <v>54282.73</v>
       </c>
       <c r="C12" t="n">
-        <v>54282.73</v>
+        <v>42607.79</v>
       </c>
       <c r="D12" t="n">
-        <v>42607.79</v>
+        <v>36471.4</v>
       </c>
       <c r="E12" t="n">
-        <v>36471.4</v>
+        <v>38292.54</v>
       </c>
       <c r="F12" t="n">
-        <v>38292.54</v>
+        <v>21884.02</v>
       </c>
       <c r="G12" t="n">
-        <v>21884.02</v>
+        <v>-7000.120000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>-7000.120000000002</v>
+        <v>11049.44</v>
       </c>
       <c r="I12" t="n">
-        <v>11049.44</v>
+        <v>25594.01</v>
       </c>
       <c r="J12" t="n">
-        <v>25594.01</v>
+        <v>15930.37</v>
       </c>
       <c r="K12" t="n">
-        <v>15930.37</v>
+        <v>29067.44</v>
       </c>
       <c r="L12" t="n">
-        <v>29067.44</v>
+        <v>28315.82</v>
       </c>
       <c r="M12" t="n">
-        <v>28315.82</v>
+        <v>18682.88</v>
       </c>
       <c r="N12" t="n">
-        <v>18682.88</v>
+        <v>2903.740000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>2903.740000000001</v>
+        <v>12058.29</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37706.38</v>
+        <v>25117.75</v>
       </c>
       <c r="C13" t="n">
-        <v>21396.48</v>
+        <v>-8737.58</v>
       </c>
       <c r="D13" t="n">
-        <v>-12670.39</v>
+        <v>-7933.090000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>-12562.26</v>
+        <v>-16367.34</v>
       </c>
       <c r="F13" t="n">
-        <v>-20200.6</v>
+        <v>-8311.950000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-9131.950000000001</v>
+        <v>33499.31</v>
       </c>
       <c r="H13" t="n">
-        <v>36851.42</v>
+        <v>42854.51</v>
       </c>
       <c r="I13" t="n">
-        <v>46585.47</v>
+        <v>42368.68000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>47250.64</v>
+        <v>36093.88</v>
       </c>
       <c r="K13" t="n">
-        <v>40106.51</v>
+        <v>47687.86</v>
       </c>
       <c r="L13" t="n">
-        <v>51553.73</v>
+        <v>38840.06</v>
       </c>
       <c r="M13" t="n">
-        <v>41520.41</v>
+        <v>28802.62</v>
       </c>
       <c r="N13" t="n">
-        <v>31226.95</v>
+        <v>28585.63</v>
       </c>
       <c r="O13" t="n">
-        <v>30904.79</v>
+        <v>42837.07</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262055.52</v>
+        <v>169974.43</v>
       </c>
       <c r="C14" t="n">
-        <v>183052.26</v>
+        <v>-47237.54000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>-35437.52</v>
+        <v>-114934.01</v>
       </c>
       <c r="E14" t="n">
-        <v>-97097.37000000001</v>
+        <v>-250284.64</v>
       </c>
       <c r="F14" t="n">
-        <v>-235653.71</v>
+        <v>-208616.75</v>
       </c>
       <c r="G14" t="n">
-        <v>-193715.21</v>
+        <v>136233.8</v>
       </c>
       <c r="H14" t="n">
-        <v>162209.83</v>
+        <v>347864.8</v>
       </c>
       <c r="I14" t="n">
-        <v>372895.7</v>
+        <v>494497.13</v>
       </c>
       <c r="J14" t="n">
-        <v>521786.86</v>
+        <v>435839.3</v>
       </c>
       <c r="K14" t="n">
-        <v>449057.86</v>
+        <v>397089.89</v>
       </c>
       <c r="L14" t="n">
-        <v>415547.23</v>
+        <v>263014.77</v>
       </c>
       <c r="M14" t="n">
-        <v>273283.31</v>
+        <v>139352.66</v>
       </c>
       <c r="N14" t="n">
-        <v>147887.05</v>
+        <v>41382.37000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>51555.63</v>
+        <v>4005.409999999996</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>179367.36</v>
+        <v>102998.05</v>
       </c>
       <c r="C15" t="n">
-        <v>115214.2</v>
+        <v>50286.55</v>
       </c>
       <c r="D15" t="n">
-        <v>73810.61</v>
+        <v>-72544.41</v>
       </c>
       <c r="E15" t="n">
-        <v>-52644.98</v>
+        <v>-77268.29000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>-57819.8</v>
+        <v>30357.39</v>
       </c>
       <c r="G15" t="n">
-        <v>26604.81</v>
+        <v>303428.57</v>
       </c>
       <c r="H15" t="n">
-        <v>323397.26</v>
+        <v>356093.65</v>
       </c>
       <c r="I15" t="n">
-        <v>361250.41</v>
+        <v>417218.76</v>
       </c>
       <c r="J15" t="n">
-        <v>424900.09</v>
+        <v>342024.71</v>
       </c>
       <c r="K15" t="n">
-        <v>348641.5</v>
+        <v>343527.76</v>
       </c>
       <c r="L15" t="n">
-        <v>372834.44</v>
+        <v>156793.78</v>
       </c>
       <c r="M15" t="n">
-        <v>180984.35</v>
+        <v>109491.6</v>
       </c>
       <c r="N15" t="n">
-        <v>133407.85</v>
+        <v>80083.56</v>
       </c>
       <c r="O15" t="n">
-        <v>103183.78</v>
+        <v>-29539.16</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80290.00999999999</v>
+        <v>122122.53</v>
       </c>
       <c r="C16" t="n">
-        <v>106260.22</v>
+        <v>95208.27</v>
       </c>
       <c r="D16" t="n">
-        <v>62012.14</v>
+        <v>75530.15000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>30507.72</v>
+        <v>63795.21999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>33499.95</v>
+        <v>88197.06999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>92433.66</v>
+        <v>227013.18</v>
       </c>
       <c r="H16" t="n">
-        <v>294960.73</v>
+        <v>258569.74</v>
       </c>
       <c r="I16" t="n">
-        <v>274158.04</v>
+        <v>336431.35</v>
       </c>
       <c r="J16" t="n">
-        <v>385667.05</v>
+        <v>322348.23</v>
       </c>
       <c r="K16" t="n">
-        <v>354362.22</v>
+        <v>263197.94</v>
       </c>
       <c r="L16" t="n">
-        <v>255671.71</v>
+        <v>62684.07999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>-7272.750000000005</v>
+        <v>85416.01999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>83524.86</v>
+        <v>16730.42</v>
       </c>
       <c r="O16" t="n">
-        <v>-48390.86999999999</v>
+        <v>-3771.300000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1252,46 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13214.43</v>
+        <v>10336.51</v>
       </c>
       <c r="C17" t="n">
-        <v>10336.51</v>
+        <v>10201.05</v>
       </c>
       <c r="D17" t="n">
-        <v>10211.74</v>
+        <v>12518.23</v>
       </c>
       <c r="E17" t="n">
-        <v>12529.09</v>
+        <v>7361.78</v>
       </c>
       <c r="F17" t="n">
-        <v>7367.29</v>
+        <v>2721.03</v>
       </c>
       <c r="G17" t="n">
-        <v>2724.98</v>
+        <v>7115.06</v>
       </c>
       <c r="H17" t="n">
-        <v>7110.46</v>
+        <v>-2164.63</v>
       </c>
       <c r="I17" t="n">
-        <v>-2169.45</v>
+        <v>-2958.02</v>
       </c>
       <c r="J17" t="n">
-        <v>-2947.85</v>
+        <v>-508.1399999999996</v>
       </c>
       <c r="K17" t="n">
-        <v>-494.7999999999997</v>
+        <v>819.9899999999997</v>
       </c>
       <c r="L17" t="n">
-        <v>828.8699999999997</v>
+        <v>645.6399999999998</v>
       </c>
       <c r="M17" t="n">
-        <v>636.3199999999997</v>
+        <v>-5845.84</v>
       </c>
       <c r="N17" t="n">
-        <v>-5849.74</v>
+        <v>-456.2999999999994</v>
       </c>
       <c r="O17" t="n">
-        <v>-476.0299999999994</v>
+        <v>3198.71</v>
       </c>
     </row>
     <row r="18">
@@ -1301,46 +1301,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16083.76</v>
+        <v>70029.72</v>
       </c>
       <c r="C18" t="n">
-        <v>70029.72</v>
+        <v>57919.26</v>
       </c>
       <c r="D18" t="n">
-        <v>57919.26</v>
+        <v>70510.89</v>
       </c>
       <c r="E18" t="n">
-        <v>70510.89</v>
+        <v>30723.9</v>
       </c>
       <c r="F18" t="n">
-        <v>30723.9</v>
+        <v>53260.61</v>
       </c>
       <c r="G18" t="n">
-        <v>53260.61</v>
+        <v>30643.62</v>
       </c>
       <c r="H18" t="n">
-        <v>30643.62</v>
+        <v>2331.090000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>2331.090000000001</v>
+        <v>-2890.55</v>
       </c>
       <c r="J18" t="n">
-        <v>-2890.55</v>
+        <v>6706.470000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>6706.470000000001</v>
+        <v>-4007.76</v>
       </c>
       <c r="L18" t="n">
-        <v>-4007.76</v>
+        <v>-52141.2</v>
       </c>
       <c r="M18" t="n">
-        <v>-52141.2</v>
+        <v>-13939.42</v>
       </c>
       <c r="N18" t="n">
-        <v>-13939.42</v>
+        <v>-34678.02</v>
       </c>
       <c r="O18" t="n">
-        <v>-34678.02</v>
+        <v>-33367.63</v>
       </c>
     </row>
     <row r="19">
@@ -1350,46 +1350,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5495.15</v>
+        <v>5495.26</v>
       </c>
       <c r="C19" t="n">
-        <v>5495.26</v>
+        <v>3503.45</v>
       </c>
       <c r="D19" t="n">
-        <v>3492.76</v>
+        <v>2959.48</v>
       </c>
       <c r="E19" t="n">
-        <v>2948.62</v>
+        <v>4741.45</v>
       </c>
       <c r="F19" t="n">
-        <v>4735.94</v>
+        <v>1698.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1694.87</v>
+        <v>3347.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3351.88</v>
+        <v>4634.16</v>
       </c>
       <c r="I19" t="n">
-        <v>4638.98</v>
+        <v>2114.93</v>
       </c>
       <c r="J19" t="n">
-        <v>2104.76</v>
+        <v>-2935.53</v>
       </c>
       <c r="K19" t="n">
-        <v>-2948.87</v>
+        <v>666.78</v>
       </c>
       <c r="L19" t="n">
-        <v>657.8999999999999</v>
+        <v>-401.3299999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>-392.01</v>
+        <v>-478.6700000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>-474.77</v>
+        <v>2813.63</v>
       </c>
       <c r="O19" t="n">
-        <v>2833.36</v>
+        <v>3328.26</v>
       </c>
     </row>
     <row r="20">
@@ -1399,46 +1399,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24191.83</v>
+        <v>22353.28</v>
       </c>
       <c r="C20" t="n">
-        <v>22353.28</v>
+        <v>22649.36</v>
       </c>
       <c r="D20" t="n">
-        <v>22649.36</v>
+        <v>16114.78</v>
       </c>
       <c r="E20" t="n">
-        <v>16114.78</v>
+        <v>-4490.13</v>
       </c>
       <c r="F20" t="n">
-        <v>-4490.13</v>
+        <v>2896.38</v>
       </c>
       <c r="G20" t="n">
-        <v>2896.38</v>
+        <v>9265.280000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>9265.280000000001</v>
+        <v>11421.48</v>
       </c>
       <c r="I20" t="n">
-        <v>11421.48</v>
+        <v>19646.61</v>
       </c>
       <c r="J20" t="n">
-        <v>19646.61</v>
+        <v>21952.44</v>
       </c>
       <c r="K20" t="n">
-        <v>21952.44</v>
+        <v>24128.93</v>
       </c>
       <c r="L20" t="n">
-        <v>24128.93</v>
+        <v>24129.09</v>
       </c>
       <c r="M20" t="n">
-        <v>24129.09</v>
+        <v>28952.46</v>
       </c>
       <c r="N20" t="n">
-        <v>28952.46</v>
+        <v>14297.89</v>
       </c>
       <c r="O20" t="n">
-        <v>14297.89</v>
+        <v>-9964.58</v>
       </c>
     </row>
     <row r="21">
@@ -1448,46 +1448,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6246.7</v>
+        <v>2536.69</v>
       </c>
       <c r="C21" t="n">
-        <v>2218.24</v>
+        <v>1404.3</v>
       </c>
       <c r="D21" t="n">
-        <v>1354.82</v>
+        <v>3459.05</v>
       </c>
       <c r="E21" t="n">
-        <v>3311.73</v>
+        <v>2444.36</v>
       </c>
       <c r="F21" t="n">
-        <v>2498.03</v>
+        <v>1518.9</v>
       </c>
       <c r="G21" t="n">
-        <v>1275.81</v>
+        <v>37.88000000000011</v>
       </c>
       <c r="H21" t="n">
-        <v>3907.64</v>
+        <v>5157.68</v>
       </c>
       <c r="I21" t="n">
-        <v>7491.110000000001</v>
+        <v>-3384.88</v>
       </c>
       <c r="J21" t="n">
-        <v>65.98000000000002</v>
+        <v>-3681.97</v>
       </c>
       <c r="K21" t="n">
-        <v>-1020.74</v>
+        <v>1807.17</v>
       </c>
       <c r="L21" t="n">
-        <v>5559.280000000001</v>
+        <v>1030</v>
       </c>
       <c r="M21" t="n">
-        <v>3456.860000000001</v>
+        <v>-5265.16</v>
       </c>
       <c r="N21" t="n">
-        <v>-4582.690000000001</v>
+        <v>-1467.73</v>
       </c>
       <c r="O21" t="n">
-        <v>-3015.29</v>
+        <v>-1542.32</v>
       </c>
     </row>
     <row r="22">
@@ -1497,46 +1497,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15123.21</v>
+        <v>4491.94</v>
       </c>
       <c r="C22" t="n">
-        <v>7983.67</v>
+        <v>4749.48</v>
       </c>
       <c r="D22" t="n">
-        <v>7964.599999999999</v>
+        <v>-1169.13</v>
       </c>
       <c r="E22" t="n">
-        <v>1314.05</v>
+        <v>-3857.349999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>-2147.34</v>
+        <v>-8697.440000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-11072.5</v>
+        <v>-1186.53</v>
       </c>
       <c r="H22" t="n">
-        <v>288.3599999999997</v>
+        <v>797.1099999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>2669.900000000001</v>
+        <v>5280.650000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>8065.85</v>
+        <v>5672.43</v>
       </c>
       <c r="K22" t="n">
-        <v>7969.86</v>
+        <v>9472.35</v>
       </c>
       <c r="L22" t="n">
-        <v>12802.3</v>
+        <v>6895.470000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>9563.870000000001</v>
+        <v>4258.43</v>
       </c>
       <c r="N22" t="n">
-        <v>5192.34</v>
+        <v>-771.0999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>-1876.12</v>
+        <v>3757.99</v>
       </c>
     </row>
     <row r="23">
@@ -1546,46 +1546,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57909.7</v>
+        <v>89769.67999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>100877.16</v>
+        <v>86506.91</v>
       </c>
       <c r="D23" t="n">
-        <v>96316.41</v>
+        <v>83519.66</v>
       </c>
       <c r="E23" t="n">
-        <v>95059.60000000001</v>
+        <v>81856.37</v>
       </c>
       <c r="F23" t="n">
-        <v>94301.75999999999</v>
+        <v>58599.96</v>
       </c>
       <c r="G23" t="n">
-        <v>70782.83</v>
+        <v>-9638.449999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>-2446.35</v>
+        <v>22704.3</v>
       </c>
       <c r="I23" t="n">
-        <v>31072.54</v>
+        <v>24963.27</v>
       </c>
       <c r="J23" t="n">
-        <v>30630.39</v>
+        <v>19889.93</v>
       </c>
       <c r="K23" t="n">
-        <v>14990.96</v>
+        <v>43841.76</v>
       </c>
       <c r="L23" t="n">
-        <v>44478.66</v>
+        <v>44235.86</v>
       </c>
       <c r="M23" t="n">
-        <v>38392.5</v>
+        <v>33594</v>
       </c>
       <c r="N23" t="n">
-        <v>24699.31</v>
+        <v>65034.05</v>
       </c>
       <c r="O23" t="n">
-        <v>52091.26</v>
+        <v>48396.75</v>
       </c>
     </row>
     <row r="24">
@@ -1595,46 +1595,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2835.7</v>
+        <v>5403.08</v>
       </c>
       <c r="C24" t="n">
-        <v>5403.08</v>
+        <v>2945.29</v>
       </c>
       <c r="D24" t="n">
-        <v>2945.29</v>
+        <v>-3058.72</v>
       </c>
       <c r="E24" t="n">
-        <v>-3058.72</v>
+        <v>6328.940000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>6328.940000000001</v>
+        <v>4309.170000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>4309.170000000001</v>
+        <v>-85.75000000000011</v>
       </c>
       <c r="H24" t="n">
-        <v>-85.75000000000011</v>
+        <v>-6162.63</v>
       </c>
       <c r="I24" t="n">
-        <v>-6162.63</v>
+        <v>6747.339999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>6747.339999999999</v>
+        <v>-10886.77</v>
       </c>
       <c r="K24" t="n">
-        <v>-10886.77</v>
+        <v>-12077.14</v>
       </c>
       <c r="L24" t="n">
-        <v>-12077.14</v>
+        <v>-5736.750000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>-5736.750000000001</v>
+        <v>-66.44000000000017</v>
       </c>
       <c r="N24" t="n">
-        <v>-66.44000000000017</v>
+        <v>3360.5</v>
       </c>
       <c r="O24" t="n">
-        <v>3360.5</v>
+        <v>7894.47</v>
       </c>
     </row>
     <row r="25">
@@ -1644,46 +1644,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84623.3</v>
+        <v>139637.27</v>
       </c>
       <c r="C25" t="n">
-        <v>141034.53</v>
+        <v>99974.95</v>
       </c>
       <c r="D25" t="n">
-        <v>100276.17</v>
+        <v>78320.27</v>
       </c>
       <c r="E25" t="n">
-        <v>76595.92999999999</v>
+        <v>56349.5</v>
       </c>
       <c r="F25" t="n">
-        <v>51914.81</v>
+        <v>31778.8</v>
       </c>
       <c r="G25" t="n">
-        <v>25709.01</v>
+        <v>-81782.8</v>
       </c>
       <c r="H25" t="n">
-        <v>-114783.21</v>
+        <v>-41247</v>
       </c>
       <c r="I25" t="n">
-        <v>-58603.42</v>
+        <v>-29478.94</v>
       </c>
       <c r="J25" t="n">
-        <v>-45673.88</v>
+        <v>-62326.1</v>
       </c>
       <c r="K25" t="n">
-        <v>-70885.63</v>
+        <v>-50412.14</v>
       </c>
       <c r="L25" t="n">
-        <v>-63996.3</v>
+        <v>-41264.19</v>
       </c>
       <c r="M25" t="n">
-        <v>-38706.75</v>
+        <v>-39782.52</v>
       </c>
       <c r="N25" t="n">
-        <v>-32285.01</v>
+        <v>14684.52</v>
       </c>
       <c r="O25" t="n">
-        <v>41664.05</v>
+        <v>32556.19</v>
       </c>
     </row>
     <row r="26">
@@ -1693,46 +1693,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8401.189999999999</v>
+        <v>-5969.490000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-5969.490000000001</v>
+        <v>835.8599999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>835.8599999999999</v>
+        <v>14935.24</v>
       </c>
       <c r="E26" t="n">
-        <v>14935.24</v>
+        <v>10345.04</v>
       </c>
       <c r="F26" t="n">
-        <v>10345.04</v>
+        <v>17578.56</v>
       </c>
       <c r="G26" t="n">
-        <v>17578.56</v>
+        <v>18716.01</v>
       </c>
       <c r="H26" t="n">
-        <v>18716.01</v>
+        <v>16102.61</v>
       </c>
       <c r="I26" t="n">
-        <v>16102.61</v>
+        <v>7744.77</v>
       </c>
       <c r="J26" t="n">
-        <v>7744.77</v>
+        <v>13119.25</v>
       </c>
       <c r="K26" t="n">
-        <v>13119.25</v>
+        <v>6408.15</v>
       </c>
       <c r="L26" t="n">
-        <v>6408.15</v>
+        <v>-3484.5</v>
       </c>
       <c r="M26" t="n">
-        <v>-3484.5</v>
+        <v>-1707.44</v>
       </c>
       <c r="N26" t="n">
-        <v>-1707.44</v>
+        <v>9815.800000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>9815.800000000001</v>
+        <v>6974.57</v>
       </c>
     </row>
     <row r="27">
@@ -1742,46 +1742,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13804.72</v>
+        <v>7156.940000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>7111.27</v>
+        <v>5751.79</v>
       </c>
       <c r="D27" t="n">
-        <v>5682.77</v>
+        <v>-10515.22</v>
       </c>
       <c r="E27" t="n">
-        <v>-10476.97</v>
+        <v>-16046.9</v>
       </c>
       <c r="F27" t="n">
-        <v>-16010.91</v>
+        <v>-13867.46</v>
       </c>
       <c r="G27" t="n">
-        <v>-13777.39</v>
+        <v>-10598.84</v>
       </c>
       <c r="H27" t="n">
-        <v>-10556.17</v>
+        <v>-10665.01</v>
       </c>
       <c r="I27" t="n">
-        <v>-10601.48</v>
+        <v>1283.74</v>
       </c>
       <c r="J27" t="n">
-        <v>1240.69</v>
+        <v>5945.98</v>
       </c>
       <c r="K27" t="n">
-        <v>5885.690000000001</v>
+        <v>-2023.6</v>
       </c>
       <c r="L27" t="n">
-        <v>-2131.94</v>
+        <v>-2474.76</v>
       </c>
       <c r="M27" t="n">
-        <v>-2550.150000000001</v>
+        <v>-6519.84</v>
       </c>
       <c r="N27" t="n">
-        <v>-6584.490000000001</v>
+        <v>-6581.559999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>-6648.059999999999</v>
+        <v>-13101.8</v>
       </c>
     </row>
     <row r="28">
@@ -1791,46 +1791,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8028.030000000001</v>
+        <v>-4097.64</v>
       </c>
       <c r="C28" t="n">
-        <v>-4051.97</v>
+        <v>-5670.07</v>
       </c>
       <c r="D28" t="n">
-        <v>-5601.05</v>
+        <v>-2756.42</v>
       </c>
       <c r="E28" t="n">
-        <v>-2794.67</v>
+        <v>-1157.52</v>
       </c>
       <c r="F28" t="n">
-        <v>-1193.51</v>
+        <v>5886.389999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>5796.32</v>
+        <v>8276.470000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>8233.800000000001</v>
+        <v>8358.33</v>
       </c>
       <c r="I28" t="n">
-        <v>8294.799999999999</v>
+        <v>3042.23</v>
       </c>
       <c r="J28" t="n">
-        <v>3085.28</v>
+        <v>5625.88</v>
       </c>
       <c r="K28" t="n">
-        <v>5686.17</v>
+        <v>5731</v>
       </c>
       <c r="L28" t="n">
-        <v>5839.34</v>
+        <v>3215.43</v>
       </c>
       <c r="M28" t="n">
-        <v>3290.82</v>
+        <v>-1009.19</v>
       </c>
       <c r="N28" t="n">
-        <v>-944.54</v>
+        <v>8849.59</v>
       </c>
       <c r="O28" t="n">
-        <v>8916.09</v>
+        <v>5408.83</v>
       </c>
     </row>
     <row r="29">
@@ -1840,46 +1840,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>733.97</v>
+        <v>832.12</v>
       </c>
       <c r="C29" t="n">
-        <v>832.12</v>
+        <v>1331.3</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.3</v>
+        <v>1041.88</v>
       </c>
       <c r="E29" t="n">
-        <v>1041.88</v>
+        <v>1597.74</v>
       </c>
       <c r="F29" t="n">
-        <v>1597.74</v>
+        <v>1448.01</v>
       </c>
       <c r="G29" t="n">
-        <v>1448.01</v>
+        <v>412.1</v>
       </c>
       <c r="H29" t="n">
-        <v>412.1</v>
+        <v>358.5700000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>358.5700000000001</v>
+        <v>360.37</v>
       </c>
       <c r="J29" t="n">
-        <v>360.37</v>
+        <v>-599.5699999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-599.5699999999999</v>
+        <v>-727.5200000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>-727.5200000000001</v>
+        <v>-936.89</v>
       </c>
       <c r="M29" t="n">
-        <v>-936.89</v>
+        <v>-1077.63</v>
       </c>
       <c r="N29" t="n">
-        <v>-1077.63</v>
+        <v>-529.02</v>
       </c>
       <c r="O29" t="n">
-        <v>-529.02</v>
+        <v>-234.27</v>
       </c>
     </row>
     <row r="30">
@@ -1889,46 +1889,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>408.21</v>
+        <v>399.61</v>
       </c>
       <c r="C30" t="n">
-        <v>399.61</v>
+        <v>572.5599999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>572.5599999999999</v>
+        <v>874.5699999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>874.5699999999999</v>
+        <v>912.9300000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>912.9300000000001</v>
+        <v>787.5700000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>787.5700000000001</v>
+        <v>716.61</v>
       </c>
       <c r="H30" t="n">
-        <v>716.61</v>
+        <v>584.0700000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>584.0700000000001</v>
+        <v>51.18000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>51.18000000000001</v>
+        <v>-310.53</v>
       </c>
       <c r="K30" t="n">
-        <v>-310.53</v>
+        <v>-214.83</v>
       </c>
       <c r="L30" t="n">
-        <v>-214.83</v>
+        <v>-189.95</v>
       </c>
       <c r="M30" t="n">
-        <v>-189.95</v>
+        <v>-92.64999999999998</v>
       </c>
       <c r="N30" t="n">
-        <v>-92.64999999999998</v>
+        <v>-68.14000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>-68.14000000000001</v>
+        <v>20.46999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1938,46 +1938,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1298.08</v>
+        <v>905.2900000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>905.2900000000001</v>
+        <v>1228.47</v>
       </c>
       <c r="D31" t="n">
-        <v>1228.47</v>
+        <v>491.29</v>
       </c>
       <c r="E31" t="n">
-        <v>491.29</v>
+        <v>628.52</v>
       </c>
       <c r="F31" t="n">
-        <v>628.52</v>
+        <v>952.5599999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>952.5599999999999</v>
+        <v>801.4799999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>801.4799999999999</v>
+        <v>788.3</v>
       </c>
       <c r="I31" t="n">
-        <v>788.3</v>
+        <v>555.0600000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>555.0600000000001</v>
+        <v>-669.5400000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-669.5400000000001</v>
+        <v>-1070.68</v>
       </c>
       <c r="L31" t="n">
-        <v>-1070.68</v>
+        <v>-790.28</v>
       </c>
       <c r="M31" t="n">
-        <v>-790.28</v>
+        <v>-1211.33</v>
       </c>
       <c r="N31" t="n">
-        <v>-1211.33</v>
+        <v>-673.84</v>
       </c>
       <c r="O31" t="n">
-        <v>-673.84</v>
+        <v>-624.3</v>
       </c>
     </row>
     <row r="32">
@@ -1987,46 +1987,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5653.62</v>
+        <v>13724.84</v>
       </c>
       <c r="C32" t="n">
-        <v>13724.84</v>
+        <v>19778.54</v>
       </c>
       <c r="D32" t="n">
-        <v>19778.54</v>
+        <v>19932.34</v>
       </c>
       <c r="E32" t="n">
-        <v>19932.34</v>
+        <v>20425.49</v>
       </c>
       <c r="F32" t="n">
-        <v>20425.49</v>
+        <v>20308.48</v>
       </c>
       <c r="G32" t="n">
-        <v>20308.48</v>
+        <v>5648.690000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>5648.690000000001</v>
+        <v>5113.24</v>
       </c>
       <c r="I32" t="n">
-        <v>5113.24</v>
+        <v>9318.27</v>
       </c>
       <c r="J32" t="n">
-        <v>9318.27</v>
+        <v>5305.37</v>
       </c>
       <c r="K32" t="n">
-        <v>5305.37</v>
+        <v>-4705.97</v>
       </c>
       <c r="L32" t="n">
-        <v>-4705.97</v>
+        <v>7772.84</v>
       </c>
       <c r="M32" t="n">
-        <v>7772.84</v>
+        <v>-2560.830000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>-2560.830000000001</v>
+        <v>4838.11</v>
       </c>
       <c r="O32" t="n">
-        <v>4838.11</v>
+        <v>1027.99</v>
       </c>
     </row>
     <row r="33">
@@ -2036,46 +2036,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7333.58</v>
+        <v>10226.99</v>
       </c>
       <c r="C33" t="n">
-        <v>10226.99</v>
+        <v>11479.28</v>
       </c>
       <c r="D33" t="n">
-        <v>11479.28</v>
+        <v>8368.449999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>8368.449999999999</v>
+        <v>6608.56</v>
       </c>
       <c r="F33" t="n">
-        <v>6608.56</v>
+        <v>6989.29</v>
       </c>
       <c r="G33" t="n">
-        <v>6989.29</v>
+        <v>7044.86</v>
       </c>
       <c r="H33" t="n">
-        <v>7044.86</v>
+        <v>4348.06</v>
       </c>
       <c r="I33" t="n">
-        <v>4348.06</v>
+        <v>8064.13</v>
       </c>
       <c r="J33" t="n">
-        <v>8064.13</v>
+        <v>4245.43</v>
       </c>
       <c r="K33" t="n">
-        <v>4245.43</v>
+        <v>3366.89</v>
       </c>
       <c r="L33" t="n">
-        <v>3366.89</v>
+        <v>-159.3299999999998</v>
       </c>
       <c r="M33" t="n">
-        <v>-159.3299999999998</v>
+        <v>-4290.12</v>
       </c>
       <c r="N33" t="n">
-        <v>-4290.12</v>
+        <v>-4735.16</v>
       </c>
       <c r="O33" t="n">
-        <v>-4735.16</v>
+        <v>-4786.48</v>
       </c>
     </row>
     <row r="34">
@@ -2085,46 +2085,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9188.219999999999</v>
+        <v>13678.87</v>
       </c>
       <c r="C34" t="n">
-        <v>13678.87</v>
+        <v>12327.46</v>
       </c>
       <c r="D34" t="n">
-        <v>12327.46</v>
+        <v>10907.78</v>
       </c>
       <c r="E34" t="n">
-        <v>10907.78</v>
+        <v>9707.290000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>9707.290000000001</v>
+        <v>7237.59</v>
       </c>
       <c r="G34" t="n">
-        <v>7237.59</v>
+        <v>-5619.66</v>
       </c>
       <c r="H34" t="n">
-        <v>-5619.66</v>
+        <v>4409.82</v>
       </c>
       <c r="I34" t="n">
-        <v>4409.82</v>
+        <v>3982.36</v>
       </c>
       <c r="J34" t="n">
-        <v>3982.36</v>
+        <v>3705.76</v>
       </c>
       <c r="K34" t="n">
-        <v>3705.76</v>
+        <v>6488.77</v>
       </c>
       <c r="L34" t="n">
-        <v>6488.77</v>
+        <v>-14422.43</v>
       </c>
       <c r="M34" t="n">
-        <v>-14422.43</v>
+        <v>-14392.88</v>
       </c>
       <c r="N34" t="n">
-        <v>-14392.88</v>
+        <v>-12843.92</v>
       </c>
       <c r="O34" t="n">
-        <v>-12843.92</v>
+        <v>-12857.02</v>
       </c>
     </row>
     <row r="35">
@@ -2134,46 +2134,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3418.37</v>
+        <v>2788.99</v>
       </c>
       <c r="C35" t="n">
-        <v>12619.27</v>
+        <v>2493.04</v>
       </c>
       <c r="D35" t="n">
-        <v>17545.37</v>
+        <v>2348.21</v>
       </c>
       <c r="E35" t="n">
-        <v>17280.54</v>
+        <v>1658.39</v>
       </c>
       <c r="F35" t="n">
-        <v>11101.79</v>
+        <v>1112.28</v>
       </c>
       <c r="G35" t="n">
-        <v>13612.3</v>
+        <v>-336.04</v>
       </c>
       <c r="H35" t="n">
-        <v>6237.31</v>
+        <v>-689.23</v>
       </c>
       <c r="I35" t="n">
-        <v>4611.440000000001</v>
+        <v>-250.52</v>
       </c>
       <c r="J35" t="n">
-        <v>-8988.700000000001</v>
+        <v>678.55</v>
       </c>
       <c r="K35" t="n">
-        <v>-7420.74</v>
+        <v>612.41</v>
       </c>
       <c r="L35" t="n">
-        <v>-6546.04</v>
+        <v>1632.09</v>
       </c>
       <c r="M35" t="n">
-        <v>-11722.97</v>
+        <v>2450.85</v>
       </c>
       <c r="N35" t="n">
-        <v>-4445.610000000001</v>
+        <v>2494.08</v>
       </c>
       <c r="O35" t="n">
-        <v>-10255.14</v>
+        <v>2893.07</v>
       </c>
     </row>
     <row r="36">
@@ -2183,46 +2183,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22997.04</v>
+        <v>17989.44</v>
       </c>
       <c r="C36" t="n">
-        <v>32501.67</v>
+        <v>17188.97</v>
       </c>
       <c r="D36" t="n">
-        <v>30539.91</v>
+        <v>18571.28</v>
       </c>
       <c r="E36" t="n">
-        <v>32808.29</v>
+        <v>17694.28</v>
       </c>
       <c r="F36" t="n">
-        <v>31423.85</v>
+        <v>16614.7</v>
       </c>
       <c r="G36" t="n">
-        <v>29630.12</v>
+        <v>8826.5</v>
       </c>
       <c r="H36" t="n">
-        <v>31222.01</v>
+        <v>17168.07</v>
       </c>
       <c r="I36" t="n">
-        <v>34613.73</v>
+        <v>-31247.41</v>
       </c>
       <c r="J36" t="n">
-        <v>-60591.37</v>
+        <v>-31879.44</v>
       </c>
       <c r="K36" t="n">
-        <v>-61648.8</v>
+        <v>-39686.15</v>
       </c>
       <c r="L36" t="n">
-        <v>-77401.87</v>
+        <v>-45604.16</v>
       </c>
       <c r="M36" t="n">
-        <v>-91216.12</v>
+        <v>-37249.06</v>
       </c>
       <c r="N36" t="n">
-        <v>-75905.60000000001</v>
+        <v>-10778.74</v>
       </c>
       <c r="O36" t="n">
-        <v>-22716</v>
+        <v>-9858.07</v>
       </c>
     </row>
     <row r="37">
@@ -2232,46 +2232,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4607.46</v>
+        <v>15617.84</v>
       </c>
       <c r="C37" t="n">
-        <v>5787.559999999999</v>
+        <v>20617.43</v>
       </c>
       <c r="D37" t="n">
-        <v>5565.1</v>
+        <v>20275.05</v>
       </c>
       <c r="E37" t="n">
-        <v>5342.72</v>
+        <v>14960.74</v>
       </c>
       <c r="F37" t="n">
-        <v>5517.34</v>
+        <v>17277.84</v>
       </c>
       <c r="G37" t="n">
-        <v>4777.82</v>
+        <v>9092.790000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2519.44</v>
+        <v>8841.190000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>3540.52</v>
+        <v>-4430.34</v>
       </c>
       <c r="J37" t="n">
-        <v>4307.84</v>
+        <v>-5009.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3090.19</v>
+        <v>-5144.2</v>
       </c>
       <c r="L37" t="n">
-        <v>2014.25</v>
+        <v>-15465.03</v>
       </c>
       <c r="M37" t="n">
-        <v>-2109.97</v>
+        <v>-6777.37</v>
       </c>
       <c r="N37" t="n">
-        <v>119.0899999999999</v>
+        <v>-13227.4</v>
       </c>
       <c r="O37" t="n">
-        <v>-478.1799999999998</v>
+        <v>-17275.65</v>
       </c>
     </row>
     <row r="38">
@@ -2281,46 +2281,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18217.15</v>
+        <v>-16928.81</v>
       </c>
       <c r="C38" t="n">
-        <v>-16928.81</v>
+        <v>-9222.99</v>
       </c>
       <c r="D38" t="n">
-        <v>-9222.99</v>
+        <v>-17127.04</v>
       </c>
       <c r="E38" t="n">
-        <v>-17127.04</v>
+        <v>-24389.07</v>
       </c>
       <c r="F38" t="n">
-        <v>-24389.07</v>
+        <v>-14543.19</v>
       </c>
       <c r="G38" t="n">
-        <v>-14543.19</v>
+        <v>15821.39</v>
       </c>
       <c r="H38" t="n">
-        <v>15821.39</v>
+        <v>22677.57</v>
       </c>
       <c r="I38" t="n">
-        <v>22677.57</v>
+        <v>25901.1</v>
       </c>
       <c r="J38" t="n">
-        <v>25901.1</v>
+        <v>19515.39</v>
       </c>
       <c r="K38" t="n">
-        <v>19515.39</v>
+        <v>22949.2</v>
       </c>
       <c r="L38" t="n">
-        <v>22949.2</v>
+        <v>10931.87</v>
       </c>
       <c r="M38" t="n">
-        <v>10931.87</v>
+        <v>-1355.550000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>-1355.550000000001</v>
+        <v>4198.44</v>
       </c>
       <c r="O38" t="n">
-        <v>4198.44</v>
+        <v>-3136.76</v>
       </c>
     </row>
     <row r="39">
@@ -2330,46 +2330,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48952.74</v>
+        <v>19810.03</v>
       </c>
       <c r="C39" t="n">
-        <v>18322.94</v>
+        <v>26201.9</v>
       </c>
       <c r="D39" t="n">
-        <v>27808.3</v>
+        <v>22856.89</v>
       </c>
       <c r="E39" t="n">
-        <v>21907.97</v>
+        <v>-5329.690000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-2183.660000000001</v>
+        <v>13554.18</v>
       </c>
       <c r="G39" t="n">
-        <v>13081.42</v>
+        <v>35971.44</v>
       </c>
       <c r="H39" t="n">
-        <v>30632.21</v>
+        <v>30013.73</v>
       </c>
       <c r="I39" t="n">
-        <v>24310.21</v>
+        <v>26134.46</v>
       </c>
       <c r="J39" t="n">
-        <v>23610.15</v>
+        <v>24904.09</v>
       </c>
       <c r="K39" t="n">
-        <v>19752.42</v>
+        <v>-8102.799999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>-10073.78</v>
+        <v>-20820.12</v>
       </c>
       <c r="M39" t="n">
-        <v>-19569.3</v>
+        <v>-11992.24</v>
       </c>
       <c r="N39" t="n">
-        <v>-11462.9</v>
+        <v>-20319.54</v>
       </c>
       <c r="O39" t="n">
-        <v>-17802.48</v>
+        <v>-29837.56</v>
       </c>
     </row>
     <row r="40">
@@ -2379,3231 +2379,3182 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84626.3</v>
+        <v>31797.26</v>
       </c>
       <c r="C40" t="n">
-        <v>32621.64</v>
+        <v>43894.16</v>
       </c>
       <c r="D40" t="n">
-        <v>41975.53</v>
+        <v>52347.11</v>
       </c>
       <c r="E40" t="n">
-        <v>49542.76</v>
+        <v>22290.88</v>
       </c>
       <c r="F40" t="n">
-        <v>20186.49</v>
+        <v>-1812.73</v>
       </c>
       <c r="G40" t="n">
-        <v>-3762.69</v>
+        <v>63055.66</v>
       </c>
       <c r="H40" t="n">
-        <v>64727.57000000001</v>
+        <v>37983.64000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>40930.32000000001</v>
+        <v>57002.08</v>
       </c>
       <c r="J40" t="n">
-        <v>60769.26</v>
+        <v>47749.88</v>
       </c>
       <c r="K40" t="n">
-        <v>50410.53</v>
+        <v>40847.96999999999</v>
       </c>
       <c r="L40" t="n">
-        <v>43560.96999999999</v>
+        <v>3279.920000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>4937.930000000001</v>
+        <v>-12459.47</v>
       </c>
       <c r="N40" t="n">
-        <v>-11480.48</v>
+        <v>-15974.05</v>
       </c>
       <c r="O40" t="n">
-        <v>-16592.01</v>
+        <v>-40195.28000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5827.39</v>
+        <v>13079.99</v>
       </c>
       <c r="C41" t="n">
-        <v>7148.27</v>
+        <v>8250.9</v>
       </c>
       <c r="D41" t="n">
-        <v>7498.87</v>
+        <v>14545.86</v>
       </c>
       <c r="E41" t="n">
-        <v>8215.190000000001</v>
+        <v>13981.21</v>
       </c>
       <c r="F41" t="n">
-        <v>8602.700000000001</v>
+        <v>15899.36</v>
       </c>
       <c r="G41" t="n">
-        <v>8450.84</v>
+        <v>16158.7</v>
       </c>
       <c r="H41" t="n">
-        <v>6017.74</v>
+        <v>15133.49</v>
       </c>
       <c r="I41" t="n">
-        <v>3816.96</v>
+        <v>12189.66</v>
       </c>
       <c r="J41" t="n">
-        <v>3886.74</v>
+        <v>8348.85</v>
       </c>
       <c r="K41" t="n">
-        <v>-2361.96</v>
+        <v>-6690.059999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>1579.29</v>
+        <v>-15802.35</v>
       </c>
       <c r="M41" t="n">
-        <v>7624.74</v>
+        <v>-8880.210000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>9761.49</v>
+        <v>-9565.220000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>10048.45</v>
+        <v>-10625.21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3823.52</v>
+        <v>14197.71</v>
       </c>
       <c r="C42" t="n">
-        <v>12391.67</v>
+        <v>16236.99</v>
       </c>
       <c r="D42" t="n">
-        <v>8605.5</v>
+        <v>16939.84</v>
       </c>
       <c r="E42" t="n">
-        <v>13559.72</v>
+        <v>13703.97</v>
       </c>
       <c r="F42" t="n">
-        <v>14463.82</v>
+        <v>13624.33</v>
       </c>
       <c r="G42" t="n">
-        <v>16233.52</v>
+        <v>11241.94</v>
       </c>
       <c r="H42" t="n">
-        <v>17349.1</v>
+        <v>-2851.47</v>
       </c>
       <c r="I42" t="n">
-        <v>16216.15</v>
+        <v>-2746.94</v>
       </c>
       <c r="J42" t="n">
-        <v>13292.91</v>
+        <v>-9016.58</v>
       </c>
       <c r="K42" t="n">
-        <v>9247.190000000001</v>
+        <v>-5118.91</v>
       </c>
       <c r="L42" t="n">
-        <v>-6420.57</v>
+        <v>907.6799999999994</v>
       </c>
       <c r="M42" t="n">
-        <v>-15208.14</v>
+        <v>15359.52</v>
       </c>
       <c r="N42" t="n">
-        <v>-9641.75</v>
+        <v>16879.26</v>
       </c>
       <c r="O42" t="n">
-        <v>-10007.25</v>
+        <v>16595.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6022.5</v>
+        <v>-688.7299999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>7737.76</v>
+        <v>5060.57</v>
       </c>
       <c r="D43" t="n">
-        <v>8383.52</v>
+        <v>2804.01</v>
       </c>
       <c r="E43" t="n">
-        <v>9710.789999999999</v>
+        <v>1900.08</v>
       </c>
       <c r="F43" t="n">
-        <v>4618.66</v>
+        <v>-2415.61</v>
       </c>
       <c r="G43" t="n">
-        <v>4839.33</v>
+        <v>1005.71</v>
       </c>
       <c r="H43" t="n">
-        <v>4033.8</v>
+        <v>-5354.98</v>
       </c>
       <c r="I43" t="n">
-        <v>-7751.09</v>
+        <v>-3818.85</v>
       </c>
       <c r="J43" t="n">
-        <v>-7736.93</v>
+        <v>-4170.84</v>
       </c>
       <c r="K43" t="n">
-        <v>-7552.96</v>
+        <v>-4793.76</v>
       </c>
       <c r="L43" t="n">
-        <v>-6967.690000000001</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>-7311.27</v>
+        <v>-3596.11</v>
       </c>
       <c r="N43" t="n">
-        <v>6359.570000000001</v>
+        <v>-2791.37</v>
       </c>
       <c r="O43" t="n">
-        <v>7272.84</v>
+        <v>-2244.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-240.8000000000001</v>
+        <v>2121.11</v>
       </c>
       <c r="C44" t="n">
-        <v>-688.7299999999999</v>
+        <v>8361.98</v>
       </c>
       <c r="D44" t="n">
-        <v>5060.57</v>
+        <v>7437.309999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>2804.01</v>
+        <v>-1326.76</v>
       </c>
       <c r="F44" t="n">
-        <v>1900.08</v>
+        <v>2587.06</v>
       </c>
       <c r="G44" t="n">
-        <v>-2415.61</v>
+        <v>7570.96</v>
       </c>
       <c r="H44" t="n">
-        <v>1005.71</v>
+        <v>-871.6400000000003</v>
       </c>
       <c r="I44" t="n">
-        <v>-5354.98</v>
+        <v>-1202.01</v>
       </c>
       <c r="J44" t="n">
-        <v>-3818.85</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>-4170.84</v>
+        <v>-2224.09</v>
       </c>
       <c r="L44" t="n">
-        <v>-4793.76</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>-4975.110000000001</v>
+        <v>-8471.98</v>
       </c>
       <c r="N44" t="n">
-        <v>-3596.11</v>
+        <v>-8151.13</v>
       </c>
       <c r="O44" t="n">
-        <v>-2791.37</v>
+        <v>-8628.540000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5266.309999999999</v>
+        <v>2435.03</v>
       </c>
       <c r="C45" t="n">
-        <v>2121.11</v>
+        <v>2404.43</v>
       </c>
       <c r="D45" t="n">
-        <v>8361.98</v>
+        <v>2426.85</v>
       </c>
       <c r="E45" t="n">
-        <v>7437.309999999999</v>
+        <v>2484.89</v>
       </c>
       <c r="F45" t="n">
-        <v>-1326.76</v>
+        <v>1971.73</v>
       </c>
       <c r="G45" t="n">
-        <v>2587.06</v>
+        <v>1947.25</v>
       </c>
       <c r="H45" t="n">
-        <v>7570.96</v>
+        <v>1356.14</v>
       </c>
       <c r="I45" t="n">
-        <v>-871.6400000000003</v>
+        <v>-663.53</v>
       </c>
       <c r="J45" t="n">
-        <v>-1202.01</v>
+        <v>-1633.76</v>
       </c>
       <c r="K45" t="n">
-        <v>-2196.889999999999</v>
+        <v>-1341.96</v>
       </c>
       <c r="L45" t="n">
-        <v>-2224.09</v>
+        <v>-1967.27</v>
       </c>
       <c r="M45" t="n">
-        <v>-8874.900000000001</v>
+        <v>-1885.33</v>
       </c>
       <c r="N45" t="n">
-        <v>-8471.98</v>
+        <v>-1353.23</v>
       </c>
       <c r="O45" t="n">
-        <v>-8151.13</v>
+        <v>-1129.64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1878.34</v>
+        <v>41396.8</v>
       </c>
       <c r="C46" t="n">
-        <v>2435.03</v>
+        <v>26586.64</v>
       </c>
       <c r="D46" t="n">
-        <v>2404.43</v>
+        <v>32761.67</v>
       </c>
       <c r="E46" t="n">
-        <v>2426.85</v>
+        <v>7511.290000000002</v>
       </c>
       <c r="F46" t="n">
-        <v>2484.89</v>
+        <v>3852.810000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>1971.73</v>
+        <v>36590.68</v>
       </c>
       <c r="H46" t="n">
-        <v>1947.25</v>
+        <v>22499.34</v>
       </c>
       <c r="I46" t="n">
-        <v>1356.14</v>
+        <v>28413.27</v>
       </c>
       <c r="J46" t="n">
-        <v>-663.53</v>
+        <v>-1093.030000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>-1633.76</v>
+        <v>1096.439999999997</v>
       </c>
       <c r="L46" t="n">
-        <v>-1341.96</v>
+        <v>11177.1</v>
       </c>
       <c r="M46" t="n">
-        <v>-1967.27</v>
+        <v>17616.07</v>
       </c>
       <c r="N46" t="n">
-        <v>-1885.33</v>
+        <v>39195.07</v>
       </c>
       <c r="O46" t="n">
-        <v>-1353.23</v>
+        <v>72883.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>56971.28999999999</v>
+        <v>50303.79</v>
       </c>
       <c r="C47" t="n">
-        <v>39117.37</v>
+        <v>39682.58</v>
       </c>
       <c r="D47" t="n">
-        <v>24782.02</v>
+        <v>8104.63</v>
       </c>
       <c r="E47" t="n">
-        <v>31324.66</v>
+        <v>13311.14</v>
       </c>
       <c r="F47" t="n">
-        <v>7016.05</v>
+        <v>-8495.920000000002</v>
       </c>
       <c r="G47" t="n">
-        <v>4284.66</v>
+        <v>25859.95</v>
       </c>
       <c r="H47" t="n">
-        <v>38481.59</v>
+        <v>-14345.64</v>
       </c>
       <c r="I47" t="n">
-        <v>24771.85</v>
+        <v>21960.47</v>
       </c>
       <c r="J47" t="n">
-        <v>31008.49</v>
+        <v>-7664.73</v>
       </c>
       <c r="K47" t="n">
-        <v>1610.719999999997</v>
+        <v>3949.77</v>
       </c>
       <c r="L47" t="n">
-        <v>3096.06</v>
+        <v>1380.88</v>
       </c>
       <c r="M47" t="n">
-        <v>13405.24</v>
+        <v>34204.6</v>
       </c>
       <c r="N47" t="n">
-        <v>19193.2</v>
+        <v>27541.53</v>
       </c>
       <c r="O47" t="n">
-        <v>40259.71</v>
+        <v>19818.49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>58528.64</v>
+        <v>30487.35</v>
       </c>
       <c r="C48" t="n">
-        <v>49015.1</v>
+        <v>23071.5</v>
       </c>
       <c r="D48" t="n">
-        <v>37707.61</v>
+        <v>-8326.24</v>
       </c>
       <c r="E48" t="n">
-        <v>11512.64</v>
+        <v>-10313.42</v>
       </c>
       <c r="F48" t="n">
-        <v>13490.51</v>
+        <v>-21725.77</v>
       </c>
       <c r="G48" t="n">
-        <v>-7196.050000000001</v>
+        <v>-23468.64</v>
       </c>
       <c r="H48" t="n">
-        <v>27826.23</v>
+        <v>-27669.97</v>
       </c>
       <c r="I48" t="n">
-        <v>-10226.39</v>
+        <v>-10082.22</v>
       </c>
       <c r="J48" t="n">
-        <v>23285.7</v>
+        <v>-30719.52</v>
       </c>
       <c r="K48" t="n">
-        <v>-4560.74</v>
+        <v>-28041.89</v>
       </c>
       <c r="L48" t="n">
-        <v>5608.120000000001</v>
+        <v>-8428.690000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>2188.83</v>
+        <v>3879.249999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>32903.97</v>
+        <v>-10747.69</v>
       </c>
       <c r="O48" t="n">
-        <v>26966.51</v>
+        <v>-13400.78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>40734.54</v>
+        <v>6771.5</v>
       </c>
       <c r="C49" t="n">
-        <v>34900.61</v>
+        <v>8072.43</v>
       </c>
       <c r="D49" t="n">
-        <v>26475.52</v>
+        <v>9302.030000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>-9214.610000000001</v>
+        <v>7776.29</v>
       </c>
       <c r="F49" t="n">
-        <v>-8873.35</v>
+        <v>7098.900000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-22686.51</v>
+        <v>6088.68</v>
       </c>
       <c r="H49" t="n">
-        <v>-26132.24</v>
+        <v>5676.42</v>
       </c>
       <c r="I49" t="n">
-        <v>-32800.39</v>
+        <v>4763.95</v>
       </c>
       <c r="J49" t="n">
-        <v>-14875.71</v>
+        <v>5578.34</v>
       </c>
       <c r="K49" t="n">
-        <v>-37642.84</v>
+        <v>6932.02</v>
       </c>
       <c r="L49" t="n">
-        <v>-32512.59</v>
+        <v>11430.41</v>
       </c>
       <c r="M49" t="n">
-        <v>-12950.38</v>
+        <v>18257.42</v>
       </c>
       <c r="N49" t="n">
-        <v>2286.73</v>
+        <v>20462.07</v>
       </c>
       <c r="O49" t="n">
-        <v>-11714.74</v>
+        <v>22378.93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9575.16</v>
+        <v>18754.38</v>
       </c>
       <c r="C50" t="n">
-        <v>8778.449999999999</v>
+        <v>-660.5299999999978</v>
       </c>
       <c r="D50" t="n">
-        <v>11030.25</v>
+        <v>8164.300000000002</v>
       </c>
       <c r="E50" t="n">
-        <v>11687.81</v>
+        <v>3536.840000000002</v>
       </c>
       <c r="F50" t="n">
-        <v>9241.67</v>
+        <v>-27.43999999999801</v>
       </c>
       <c r="G50" t="n">
-        <v>5950.25</v>
+        <v>28898.96</v>
       </c>
       <c r="H50" t="n">
-        <v>3454.06</v>
+        <v>27826.98</v>
       </c>
       <c r="I50" t="n">
-        <v>2010.17</v>
+        <v>25449.47</v>
       </c>
       <c r="J50" t="n">
-        <v>1735.08</v>
+        <v>19619.3</v>
       </c>
       <c r="K50" t="n">
-        <v>2224.13</v>
+        <v>5474.329999999998</v>
       </c>
       <c r="L50" t="n">
-        <v>3152.9</v>
+        <v>-13197.12</v>
       </c>
       <c r="M50" t="n">
-        <v>9154.48</v>
+        <v>-6696.71</v>
       </c>
       <c r="N50" t="n">
-        <v>16700.45</v>
+        <v>-10386.98</v>
       </c>
       <c r="O50" t="n">
-        <v>17563.52</v>
+        <v>-36192.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44563.55</v>
+        <v>21143.71</v>
       </c>
       <c r="C51" t="n">
-        <v>15065.31</v>
+        <v>18605.38</v>
       </c>
       <c r="D51" t="n">
-        <v>-4150.179999999999</v>
+        <v>15552.38</v>
       </c>
       <c r="E51" t="n">
-        <v>5885.020000000002</v>
+        <v>10912.85</v>
       </c>
       <c r="F51" t="n">
-        <v>4041.250000000003</v>
+        <v>8148.959999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>1243.380000000002</v>
+        <v>-7932.969999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>26328.44</v>
+        <v>-9520.76</v>
       </c>
       <c r="I51" t="n">
-        <v>29251.82</v>
+        <v>-7593.67</v>
       </c>
       <c r="J51" t="n">
-        <v>25601.41</v>
+        <v>-15138.22</v>
       </c>
       <c r="K51" t="n">
-        <v>17742.51</v>
+        <v>-14400.85</v>
       </c>
       <c r="L51" t="n">
-        <v>3529.23</v>
+        <v>-15702.31</v>
       </c>
       <c r="M51" t="n">
-        <v>-11182.65</v>
+        <v>-18794.87</v>
       </c>
       <c r="N51" t="n">
-        <v>-8455.559999999999</v>
+        <v>-14964.4</v>
       </c>
       <c r="O51" t="n">
-        <v>-11927.59</v>
+        <v>-15781.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22736.46</v>
+        <v>-2783.719999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>21660.62</v>
+        <v>9808.66</v>
       </c>
       <c r="D52" t="n">
-        <v>18022.21</v>
+        <v>11051.58</v>
       </c>
       <c r="E52" t="n">
-        <v>14247.35</v>
+        <v>12859.83</v>
       </c>
       <c r="F52" t="n">
-        <v>7676.64</v>
+        <v>-2332.390000000002</v>
       </c>
       <c r="G52" t="n">
-        <v>7295.19</v>
+        <v>27877.05</v>
       </c>
       <c r="H52" t="n">
-        <v>-3934.96</v>
+        <v>24747.2</v>
       </c>
       <c r="I52" t="n">
-        <v>-8235.59</v>
+        <v>36629.03</v>
       </c>
       <c r="J52" t="n">
-        <v>-5660.02</v>
+        <v>32596.75</v>
       </c>
       <c r="K52" t="n">
-        <v>-9843.509999999998</v>
+        <v>34875.64</v>
       </c>
       <c r="L52" t="n">
-        <v>-8474.85</v>
+        <v>36196.68</v>
       </c>
       <c r="M52" t="n">
-        <v>-14710.08</v>
+        <v>-8963.01</v>
       </c>
       <c r="N52" t="n">
-        <v>-14772.01</v>
+        <v>-22235.25</v>
       </c>
       <c r="O52" t="n">
-        <v>-10565.18</v>
+        <v>-310.7999999999975</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>27772.27</v>
+        <v>8381.93</v>
       </c>
       <c r="C53" t="n">
-        <v>-2942.26</v>
+        <v>6608.389999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>9534.08</v>
+        <v>-1914.64</v>
       </c>
       <c r="E53" t="n">
-        <v>10812.92</v>
+        <v>-3566.64</v>
       </c>
       <c r="F53" t="n">
-        <v>12615.86</v>
+        <v>-16500.78</v>
       </c>
       <c r="G53" t="n">
-        <v>-2578.83</v>
+        <v>-6749.499999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>27663.72</v>
+        <v>-7740.23</v>
       </c>
       <c r="I53" t="n">
-        <v>24843.1</v>
+        <v>2971.400000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>36548.75</v>
+        <v>-7878.02</v>
       </c>
       <c r="K53" t="n">
-        <v>32564.33</v>
+        <v>-4717.13</v>
       </c>
       <c r="L53" t="n">
-        <v>34913.66</v>
+        <v>16950.58</v>
       </c>
       <c r="M53" t="n">
-        <v>36133.92</v>
+        <v>23346.52</v>
       </c>
       <c r="N53" t="n">
-        <v>-9018.879999999999</v>
+        <v>20902.05</v>
       </c>
       <c r="O53" t="n">
-        <v>-22333.18</v>
+        <v>19238.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15861.71</v>
+        <v>-5527.02</v>
       </c>
       <c r="C54" t="n">
-        <v>8381.93</v>
+        <v>4969.940000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>6608.389999999999</v>
+        <v>5063.25</v>
       </c>
       <c r="E54" t="n">
-        <v>-1914.64</v>
+        <v>-1899.3</v>
       </c>
       <c r="F54" t="n">
-        <v>-3566.64</v>
+        <v>-2564.21</v>
       </c>
       <c r="G54" t="n">
-        <v>-16500.78</v>
+        <v>6562.860000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>-6749.499999999999</v>
+        <v>-5856.679999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>-7740.23</v>
+        <v>-3370.31</v>
       </c>
       <c r="J54" t="n">
-        <v>2971.400000000001</v>
+        <v>858.1900000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>-7878.02</v>
+        <v>4343.99</v>
       </c>
       <c r="L54" t="n">
-        <v>-4717.13</v>
+        <v>581.8699999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>16950.58</v>
+        <v>3099.889999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>23346.52</v>
+        <v>4703.84</v>
       </c>
       <c r="O54" t="n">
-        <v>20902.05</v>
+        <v>14382.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21478.94</v>
+        <v>77451.86</v>
       </c>
       <c r="C55" t="n">
-        <v>-5368.48</v>
+        <v>185140.41</v>
       </c>
       <c r="D55" t="n">
-        <v>5244.52</v>
+        <v>113684.46</v>
       </c>
       <c r="E55" t="n">
-        <v>5301.91</v>
+        <v>149957.08</v>
       </c>
       <c r="F55" t="n">
-        <v>-1655.33</v>
+        <v>120581.84</v>
       </c>
       <c r="G55" t="n">
-        <v>-2317.77</v>
+        <v>167063.6</v>
       </c>
       <c r="H55" t="n">
-        <v>6776.190000000001</v>
+        <v>173322.94</v>
       </c>
       <c r="I55" t="n">
-        <v>-5952.58</v>
+        <v>243205.08</v>
       </c>
       <c r="J55" t="n">
-        <v>-3290.03</v>
+        <v>281271.02</v>
       </c>
       <c r="K55" t="n">
-        <v>890.6100000000006</v>
+        <v>353565.58</v>
       </c>
       <c r="L55" t="n">
-        <v>4305.97</v>
+        <v>345841.24</v>
       </c>
       <c r="M55" t="n">
-        <v>644.6300000000001</v>
+        <v>291294.18</v>
       </c>
       <c r="N55" t="n">
-        <v>3155.759999999999</v>
+        <v>282377.25</v>
       </c>
       <c r="O55" t="n">
-        <v>4801.77</v>
+        <v>261655.07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>42535.05</v>
+        <v>37550.49</v>
       </c>
       <c r="C56" t="n">
-        <v>77431.52</v>
+        <v>47222.86</v>
       </c>
       <c r="D56" t="n">
-        <v>185098.72</v>
+        <v>44726.52</v>
       </c>
       <c r="E56" t="n">
-        <v>113687.98</v>
+        <v>42987.75</v>
       </c>
       <c r="F56" t="n">
-        <v>149988.46</v>
+        <v>26296.29</v>
       </c>
       <c r="G56" t="n">
-        <v>120609.09</v>
+        <v>26002.52</v>
       </c>
       <c r="H56" t="n">
-        <v>167097.81</v>
+        <v>4498.549999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>173361.61</v>
+        <v>-6917.18</v>
       </c>
       <c r="J56" t="n">
-        <v>243169.49</v>
+        <v>-6873.239999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>281218.57</v>
+        <v>3240.84</v>
       </c>
       <c r="L56" t="n">
-        <v>353500.42</v>
+        <v>-9331.309999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>345774.55</v>
+        <v>-23188.26</v>
       </c>
       <c r="N56" t="n">
-        <v>291234.31</v>
+        <v>-28660.54</v>
       </c>
       <c r="O56" t="n">
-        <v>282334.39</v>
+        <v>-32572.61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38358.73</v>
+        <v>40613.31</v>
       </c>
       <c r="C57" t="n">
-        <v>40790.12</v>
+        <v>80230.20999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>50646.66</v>
+        <v>63501.14</v>
       </c>
       <c r="E57" t="n">
-        <v>47616.04</v>
+        <v>80299.66</v>
       </c>
       <c r="F57" t="n">
-        <v>44455.48</v>
+        <v>16122.61</v>
       </c>
       <c r="G57" t="n">
-        <v>24529.13</v>
+        <v>36242.18</v>
       </c>
       <c r="H57" t="n">
-        <v>28201.61</v>
+        <v>-6815.879999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>7114.269999999999</v>
+        <v>17193.13</v>
       </c>
       <c r="J57" t="n">
-        <v>-3012.32</v>
+        <v>13742.9</v>
       </c>
       <c r="K57" t="n">
-        <v>-2952.249999999999</v>
+        <v>47139.26</v>
       </c>
       <c r="L57" t="n">
-        <v>8266.52</v>
+        <v>29095.19</v>
       </c>
       <c r="M57" t="n">
-        <v>-5699.07</v>
+        <v>-17073.09</v>
       </c>
       <c r="N57" t="n">
-        <v>-24659.89</v>
+        <v>-14469.09</v>
       </c>
       <c r="O57" t="n">
-        <v>-32006.87</v>
+        <v>-26306.41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>41503.45</v>
+        <v>22317.35</v>
       </c>
       <c r="C58" t="n">
-        <v>21074.29</v>
+        <v>30790.85</v>
       </c>
       <c r="D58" t="n">
-        <v>44613.25</v>
+        <v>27836.81</v>
       </c>
       <c r="E58" t="n">
-        <v>32306.97</v>
+        <v>34871.63</v>
       </c>
       <c r="F58" t="n">
-        <v>48931.28</v>
+        <v>32993.65</v>
       </c>
       <c r="G58" t="n">
-        <v>-12478.5</v>
+        <v>27072.67</v>
       </c>
       <c r="H58" t="n">
-        <v>16094.95</v>
+        <v>4771.78</v>
       </c>
       <c r="I58" t="n">
-        <v>2106.18</v>
+        <v>6370.889999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>10550.53</v>
+        <v>-1153.190000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>8024.619999999999</v>
+        <v>9049.98</v>
       </c>
       <c r="L58" t="n">
-        <v>35058.65</v>
+        <v>18289.73</v>
       </c>
       <c r="M58" t="n">
-        <v>11111.36</v>
+        <v>26731.88</v>
       </c>
       <c r="N58" t="n">
-        <v>-29100.27</v>
+        <v>31831.64</v>
       </c>
       <c r="O58" t="n">
-        <v>-31867.85</v>
+        <v>36874.94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15881.88</v>
+        <v>17383.56</v>
       </c>
       <c r="C59" t="n">
-        <v>22317.35</v>
+        <v>10545.73</v>
       </c>
       <c r="D59" t="n">
-        <v>30790.85</v>
+        <v>7969.36</v>
       </c>
       <c r="E59" t="n">
-        <v>27836.81</v>
+        <v>5883.88</v>
       </c>
       <c r="F59" t="n">
-        <v>34871.63</v>
+        <v>-3195.28</v>
       </c>
       <c r="G59" t="n">
-        <v>32993.65</v>
+        <v>-13822.61</v>
       </c>
       <c r="H59" t="n">
-        <v>27072.67</v>
+        <v>-10434.63</v>
       </c>
       <c r="I59" t="n">
-        <v>4771.78</v>
+        <v>-9294.25</v>
       </c>
       <c r="J59" t="n">
-        <v>6370.889999999999</v>
+        <v>-14651.5</v>
       </c>
       <c r="K59" t="n">
-        <v>-1153.190000000001</v>
+        <v>1657.65</v>
       </c>
       <c r="L59" t="n">
-        <v>9049.98</v>
+        <v>4160.96</v>
       </c>
       <c r="M59" t="n">
-        <v>18289.73</v>
+        <v>3270.71</v>
       </c>
       <c r="N59" t="n">
-        <v>26731.88</v>
+        <v>5268.86</v>
       </c>
       <c r="O59" t="n">
-        <v>31831.64</v>
+        <v>5169.080000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18906.22</v>
+        <v>17965.96</v>
       </c>
       <c r="C60" t="n">
-        <v>21450.64</v>
+        <v>21258.99</v>
       </c>
       <c r="D60" t="n">
-        <v>19316.53</v>
+        <v>18139.27</v>
       </c>
       <c r="E60" t="n">
-        <v>15961.14</v>
+        <v>18995.37</v>
       </c>
       <c r="F60" t="n">
-        <v>15923.93</v>
+        <v>16177.03</v>
       </c>
       <c r="G60" t="n">
-        <v>5886.58</v>
+        <v>1429.14</v>
       </c>
       <c r="H60" t="n">
-        <v>-6128.6</v>
+        <v>-7083.17</v>
       </c>
       <c r="I60" t="n">
-        <v>-13049.56</v>
+        <v>415.1600000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>-10894.37</v>
+        <v>-7397.830000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-19838.19</v>
+        <v>10229.52</v>
       </c>
       <c r="L60" t="n">
-        <v>8323.480000000001</v>
+        <v>9610.969999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>10877.14</v>
+        <v>18935.1</v>
       </c>
       <c r="N60" t="n">
-        <v>10281.38</v>
+        <v>21933.78</v>
       </c>
       <c r="O60" t="n">
-        <v>12003.5</v>
+        <v>25318.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9375.73</v>
+        <v>3395.87</v>
       </c>
       <c r="C61" t="n">
-        <v>13898.88</v>
+        <v>3406.05</v>
       </c>
       <c r="D61" t="n">
-        <v>12488.19</v>
+        <v>2686.34</v>
       </c>
       <c r="E61" t="n">
-        <v>10147.49</v>
+        <v>2632.49</v>
       </c>
       <c r="F61" t="n">
-        <v>8955.32</v>
+        <v>1462.65</v>
       </c>
       <c r="G61" t="n">
-        <v>7095.17</v>
+        <v>1590.72</v>
       </c>
       <c r="H61" t="n">
-        <v>-6264.87</v>
+        <v>1589.23</v>
       </c>
       <c r="I61" t="n">
-        <v>-4468.24</v>
+        <v>2678.49</v>
       </c>
       <c r="J61" t="n">
-        <v>2015.28</v>
+        <v>1660.87</v>
       </c>
       <c r="K61" t="n">
-        <v>-2211.14</v>
+        <v>1645.15</v>
       </c>
       <c r="L61" t="n">
-        <v>3563.69</v>
+        <v>1542.16</v>
       </c>
       <c r="M61" t="n">
-        <v>2894.789999999999</v>
+        <v>1572.77</v>
       </c>
       <c r="N61" t="n">
-        <v>11924.43</v>
+        <v>1563.32</v>
       </c>
       <c r="O61" t="n">
-        <v>15199.14</v>
+        <v>2630.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4784.81</v>
+        <v>1541.750000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>4831.42</v>
+        <v>21504.64</v>
       </c>
       <c r="D62" t="n">
-        <v>4826.440000000001</v>
+        <v>11485.78</v>
       </c>
       <c r="E62" t="n">
-        <v>3834.42</v>
+        <v>11069.79</v>
       </c>
       <c r="F62" t="n">
-        <v>3335.53</v>
+        <v>17888.72</v>
       </c>
       <c r="G62" t="n">
-        <v>2733.6</v>
+        <v>23132.16</v>
       </c>
       <c r="H62" t="n">
-        <v>3014.69</v>
+        <v>-5838.08</v>
       </c>
       <c r="I62" t="n">
-        <v>2804.04</v>
+        <v>-6960</v>
       </c>
       <c r="J62" t="n">
-        <v>3941.54</v>
+        <v>-8280.17</v>
       </c>
       <c r="K62" t="n">
-        <v>2902.25</v>
+        <v>-7006.030000000002</v>
       </c>
       <c r="L62" t="n">
-        <v>2210.97</v>
+        <v>-23216.6</v>
       </c>
       <c r="M62" t="n">
-        <v>743.6400000000001</v>
+        <v>-17000.58</v>
       </c>
       <c r="N62" t="n">
-        <v>2364.83</v>
+        <v>-17424.46</v>
       </c>
       <c r="O62" t="n">
-        <v>1153.47</v>
+        <v>-31466.51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12703.16</v>
+        <v>90.11</v>
       </c>
       <c r="C63" t="n">
-        <v>1541.750000000001</v>
+        <v>-411.68</v>
       </c>
       <c r="D63" t="n">
-        <v>21504.64</v>
+        <v>-365.86</v>
       </c>
       <c r="E63" t="n">
-        <v>11485.78</v>
+        <v>-291.6</v>
       </c>
       <c r="F63" t="n">
-        <v>11069.79</v>
+        <v>-390.3</v>
       </c>
       <c r="G63" t="n">
-        <v>17888.72</v>
+        <v>-431.83</v>
       </c>
       <c r="H63" t="n">
-        <v>23132.16</v>
+        <v>-481.14</v>
       </c>
       <c r="I63" t="n">
-        <v>-5838.08</v>
+        <v>-368.01</v>
       </c>
       <c r="J63" t="n">
-        <v>-6960</v>
+        <v>-477.54</v>
       </c>
       <c r="K63" t="n">
-        <v>-8280.17</v>
+        <v>-397.72</v>
       </c>
       <c r="L63" t="n">
-        <v>-7006.030000000002</v>
+        <v>380.2</v>
       </c>
       <c r="M63" t="n">
-        <v>-23216.6</v>
+        <v>568.3200000000001</v>
       </c>
       <c r="N63" t="n">
-        <v>-17000.58</v>
+        <v>490.04</v>
       </c>
       <c r="O63" t="n">
-        <v>-17424.46</v>
+        <v>536.29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>140.23</v>
+        <v>88767.3</v>
       </c>
       <c r="C64" t="n">
-        <v>90.11</v>
+        <v>60926.33</v>
       </c>
       <c r="D64" t="n">
-        <v>-411.68</v>
+        <v>-16826.76</v>
       </c>
       <c r="E64" t="n">
-        <v>-365.86</v>
+        <v>-50061.43</v>
       </c>
       <c r="F64" t="n">
-        <v>-291.6</v>
+        <v>-9524.809999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>-390.3</v>
+        <v>-26396.01</v>
       </c>
       <c r="H64" t="n">
-        <v>-431.83</v>
+        <v>-22564.63</v>
       </c>
       <c r="I64" t="n">
-        <v>-481.14</v>
+        <v>-542.6800000000013</v>
       </c>
       <c r="J64" t="n">
-        <v>-368.01</v>
+        <v>-17765.43</v>
       </c>
       <c r="K64" t="n">
-        <v>-477.54</v>
+        <v>-33087.27</v>
       </c>
       <c r="L64" t="n">
-        <v>-397.72</v>
+        <v>-23369.25</v>
       </c>
       <c r="M64" t="n">
-        <v>380.2</v>
+        <v>3305.819999999998</v>
       </c>
       <c r="N64" t="n">
-        <v>568.3200000000001</v>
+        <v>-1309.700000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>490.04</v>
+        <v>-19645.51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>109547.77</v>
+        <v>17658.25</v>
       </c>
       <c r="C65" t="n">
-        <v>89725.05</v>
+        <v>15697.53</v>
       </c>
       <c r="D65" t="n">
-        <v>61897.56</v>
+        <v>-14243.06</v>
       </c>
       <c r="E65" t="n">
-        <v>-16277.16</v>
+        <v>-6719.13</v>
       </c>
       <c r="F65" t="n">
-        <v>-50536.38</v>
+        <v>-4233.759999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-9943.519999999999</v>
+        <v>6136.55</v>
       </c>
       <c r="H65" t="n">
-        <v>-26991.89</v>
+        <v>2194.76</v>
       </c>
       <c r="I65" t="n">
-        <v>-23367.84</v>
+        <v>7829.55</v>
       </c>
       <c r="J65" t="n">
-        <v>-1113.530000000003</v>
+        <v>-2167.42</v>
       </c>
       <c r="K65" t="n">
-        <v>-18264.61</v>
+        <v>1313.86</v>
       </c>
       <c r="L65" t="n">
-        <v>-33543.14</v>
+        <v>-5569.84</v>
       </c>
       <c r="M65" t="n">
-        <v>-23798.88</v>
+        <v>-7025.329999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>3100.63</v>
+        <v>-7056.900000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>-1618.090000000001</v>
+        <v>-2968.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>21494.82</v>
+        <v>33504.78</v>
       </c>
       <c r="C66" t="n">
-        <v>17841.83</v>
+        <v>15978.84</v>
       </c>
       <c r="D66" t="n">
-        <v>15801.9</v>
+        <v>-10105.52</v>
       </c>
       <c r="E66" t="n">
-        <v>-14299.51</v>
+        <v>-27792.19</v>
       </c>
       <c r="F66" t="n">
-        <v>-6794.34</v>
+        <v>-21631.55</v>
       </c>
       <c r="G66" t="n">
-        <v>-4307.02</v>
+        <v>-1839.52</v>
       </c>
       <c r="H66" t="n">
-        <v>6205.24</v>
+        <v>-23823.27</v>
       </c>
       <c r="I66" t="n">
-        <v>2294.92</v>
+        <v>-8589.799999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>7973.63</v>
+        <v>2209.440000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-2069.38</v>
+        <v>-9187.110000000001</v>
       </c>
       <c r="L66" t="n">
-        <v>1418.2</v>
+        <v>-18568.32</v>
       </c>
       <c r="M66" t="n">
-        <v>-5511.7</v>
+        <v>-9201.790000000001</v>
       </c>
       <c r="N66" t="n">
-        <v>-7094.53</v>
+        <v>-12027.94</v>
       </c>
       <c r="O66" t="n">
-        <v>-7126.700000000001</v>
+        <v>-11748.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>42338.67</v>
+        <v>17.36</v>
       </c>
       <c r="C67" t="n">
-        <v>33485.65</v>
+        <v>15.76</v>
       </c>
       <c r="D67" t="n">
-        <v>15993.46</v>
+        <v>26.28</v>
       </c>
       <c r="E67" t="n">
-        <v>-10082.58</v>
+        <v>27.4</v>
       </c>
       <c r="F67" t="n">
-        <v>-27777.56</v>
+        <v>-16.02</v>
       </c>
       <c r="G67" t="n">
-        <v>-21624.09</v>
+        <v>-35.25</v>
       </c>
       <c r="H67" t="n">
-        <v>-1853.14</v>
+        <v>-46.57</v>
       </c>
       <c r="I67" t="n">
-        <v>-23851.96</v>
+        <v>-39.82</v>
       </c>
       <c r="J67" t="n">
-        <v>-8613.98</v>
+        <v>-32.55</v>
       </c>
       <c r="K67" t="n">
-        <v>2184.400000000001</v>
+        <v>13.58</v>
       </c>
       <c r="L67" t="n">
-        <v>-9207.200000000001</v>
+        <v>-10.24</v>
       </c>
       <c r="M67" t="n">
-        <v>-18581.55</v>
+        <v>24.5</v>
       </c>
       <c r="N67" t="n">
-        <v>-9184.369999999999</v>
+        <v>16.79</v>
       </c>
       <c r="O67" t="n">
-        <v>-12032.25</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-26.67</v>
+        <v>-33.58</v>
       </c>
       <c r="C68" t="n">
-        <v>17.36</v>
+        <v>-21.95</v>
       </c>
       <c r="D68" t="n">
-        <v>15.76</v>
+        <v>-67.55</v>
       </c>
       <c r="E68" t="n">
-        <v>26.28</v>
+        <v>11.67</v>
       </c>
       <c r="F68" t="n">
-        <v>27.4</v>
+        <v>2.889999999999998</v>
       </c>
       <c r="G68" t="n">
-        <v>-16.02</v>
+        <v>34.4</v>
       </c>
       <c r="H68" t="n">
-        <v>-35.25</v>
+        <v>28.07000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>-46.57</v>
+        <v>56.78</v>
       </c>
       <c r="J68" t="n">
-        <v>-39.82</v>
+        <v>44.7</v>
       </c>
       <c r="K68" t="n">
-        <v>-32.55</v>
+        <v>43.35</v>
       </c>
       <c r="L68" t="n">
-        <v>13.58</v>
+        <v>54.3</v>
       </c>
       <c r="M68" t="n">
-        <v>-10.24</v>
+        <v>17.86</v>
       </c>
       <c r="N68" t="n">
-        <v>24.5</v>
+        <v>-12.32</v>
       </c>
       <c r="O68" t="n">
-        <v>16.79</v>
+        <v>-13.93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51.06</v>
+        <v>119987.39</v>
       </c>
       <c r="C69" t="n">
-        <v>-33.58</v>
+        <v>168397.78</v>
       </c>
       <c r="D69" t="n">
-        <v>-21.95</v>
+        <v>134102.48</v>
       </c>
       <c r="E69" t="n">
-        <v>-67.55</v>
+        <v>121061.95</v>
       </c>
       <c r="F69" t="n">
-        <v>11.67</v>
+        <v>164476.74</v>
       </c>
       <c r="G69" t="n">
-        <v>2.889999999999998</v>
+        <v>179287.83</v>
       </c>
       <c r="H69" t="n">
-        <v>34.4</v>
+        <v>97032.93000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>28.07000000000001</v>
+        <v>105851.94</v>
       </c>
       <c r="J69" t="n">
-        <v>56.78</v>
+        <v>127971.67</v>
       </c>
       <c r="K69" t="n">
-        <v>44.7</v>
+        <v>62716.5</v>
       </c>
       <c r="L69" t="n">
-        <v>43.35</v>
+        <v>7374.620000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>54.3</v>
+        <v>46921.93</v>
       </c>
       <c r="N69" t="n">
-        <v>17.86</v>
+        <v>54237.48</v>
       </c>
       <c r="O69" t="n">
-        <v>-12.32</v>
+        <v>30323.63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>64784.39</v>
+        <v>7369.690000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>120118.97</v>
+        <v>-6027.98</v>
       </c>
       <c r="D70" t="n">
-        <v>168503.86</v>
+        <v>-31125.75</v>
       </c>
       <c r="E70" t="n">
-        <v>134357.2</v>
+        <v>-59522.01</v>
       </c>
       <c r="F70" t="n">
-        <v>121287.52</v>
+        <v>-20384.19</v>
       </c>
       <c r="G70" t="n">
-        <v>164675.33</v>
+        <v>37449.58</v>
       </c>
       <c r="H70" t="n">
-        <v>179326.88</v>
+        <v>44134.03</v>
       </c>
       <c r="I70" t="n">
-        <v>96702.53999999999</v>
+        <v>66895.89999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>105337.8</v>
+        <v>53598.87</v>
       </c>
       <c r="K70" t="n">
-        <v>127572.6</v>
+        <v>53074.11</v>
       </c>
       <c r="L70" t="n">
-        <v>62470.41</v>
+        <v>1541.929999999997</v>
       </c>
       <c r="M70" t="n">
-        <v>7227.210000000003</v>
+        <v>-1722.16</v>
       </c>
       <c r="N70" t="n">
-        <v>47143.89</v>
+        <v>-4722.919999999999</v>
       </c>
       <c r="O70" t="n">
-        <v>54531.17</v>
+        <v>-37810.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>44671.76</v>
+        <v>48464.33</v>
       </c>
       <c r="C71" t="n">
-        <v>7289.610000000001</v>
+        <v>26198.78</v>
       </c>
       <c r="D71" t="n">
-        <v>-5146.42</v>
+        <v>902.4299999999996</v>
       </c>
       <c r="E71" t="n">
-        <v>-30612.6</v>
+        <v>-15868.27</v>
       </c>
       <c r="F71" t="n">
-        <v>-60709.15</v>
+        <v>-22811.95</v>
       </c>
       <c r="G71" t="n">
-        <v>-21599.1</v>
+        <v>31556.79</v>
       </c>
       <c r="H71" t="n">
-        <v>36812.45</v>
+        <v>7657.080000000002</v>
       </c>
       <c r="I71" t="n">
-        <v>42894.26</v>
+        <v>48241.74</v>
       </c>
       <c r="J71" t="n">
-        <v>66080.69</v>
+        <v>11407.02</v>
       </c>
       <c r="K71" t="n">
-        <v>53439.09</v>
+        <v>-10256.52</v>
       </c>
       <c r="L71" t="n">
-        <v>52721.28</v>
+        <v>-47410.09</v>
       </c>
       <c r="M71" t="n">
-        <v>536.8799999999974</v>
+        <v>-27372.08</v>
       </c>
       <c r="N71" t="n">
-        <v>-1355.37</v>
+        <v>-46689.24</v>
       </c>
       <c r="O71" t="n">
-        <v>-5135.15</v>
+        <v>-31314.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>65490.81</v>
+        <v>7742.25</v>
       </c>
       <c r="C72" t="n">
-        <v>48332.75</v>
+        <v>6931.46</v>
       </c>
       <c r="D72" t="n">
-        <v>26092.7</v>
+        <v>7377.63</v>
       </c>
       <c r="E72" t="n">
-        <v>647.7099999999984</v>
+        <v>7210.35</v>
       </c>
       <c r="F72" t="n">
-        <v>-16093.84</v>
+        <v>7025.67</v>
       </c>
       <c r="G72" t="n">
-        <v>-23010.54</v>
+        <v>3081.04</v>
       </c>
       <c r="H72" t="n">
-        <v>31517.74</v>
+        <v>3537.57</v>
       </c>
       <c r="I72" t="n">
-        <v>7987.470000000001</v>
+        <v>2983.72</v>
       </c>
       <c r="J72" t="n">
-        <v>48755.88</v>
+        <v>3269.62</v>
       </c>
       <c r="K72" t="n">
-        <v>11806.09</v>
+        <v>6795.81</v>
       </c>
       <c r="L72" t="n">
-        <v>-10010.43</v>
+        <v>15082.53</v>
       </c>
       <c r="M72" t="n">
-        <v>-47262.68</v>
+        <v>7816</v>
       </c>
       <c r="N72" t="n">
-        <v>-27594.04</v>
+        <v>9969</v>
       </c>
       <c r="O72" t="n">
-        <v>-46982.93</v>
+        <v>17075.94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2352.74</v>
+        <v>15060.31</v>
       </c>
       <c r="C73" t="n">
-        <v>7742.25</v>
+        <v>14750.29</v>
       </c>
       <c r="D73" t="n">
-        <v>6931.46</v>
+        <v>16531.68</v>
       </c>
       <c r="E73" t="n">
-        <v>7377.63</v>
+        <v>10364.31</v>
       </c>
       <c r="F73" t="n">
-        <v>7210.35</v>
+        <v>16573.3</v>
       </c>
       <c r="G73" t="n">
-        <v>7025.67</v>
+        <v>9470.34</v>
       </c>
       <c r="H73" t="n">
-        <v>3081.04</v>
+        <v>5606.08</v>
       </c>
       <c r="I73" t="n">
-        <v>3537.57</v>
+        <v>-2505.78</v>
       </c>
       <c r="J73" t="n">
-        <v>2983.72</v>
+        <v>-4807.98</v>
       </c>
       <c r="K73" t="n">
-        <v>3269.62</v>
+        <v>-1099.52</v>
       </c>
       <c r="L73" t="n">
-        <v>6795.81</v>
+        <v>-3764.1</v>
       </c>
       <c r="M73" t="n">
-        <v>15082.53</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="N73" t="n">
-        <v>7816</v>
+        <v>-2212.01</v>
       </c>
       <c r="O73" t="n">
-        <v>9969</v>
+        <v>-1661.96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>623.6000000000001</v>
+        <v>1677.22</v>
       </c>
       <c r="C74" t="n">
-        <v>15060.31</v>
+        <v>-1269.57</v>
       </c>
       <c r="D74" t="n">
-        <v>14750.29</v>
+        <v>2080.14</v>
       </c>
       <c r="E74" t="n">
-        <v>16531.68</v>
+        <v>-2158.52</v>
       </c>
       <c r="F74" t="n">
-        <v>10364.31</v>
+        <v>2056.75</v>
       </c>
       <c r="G74" t="n">
-        <v>16573.3</v>
+        <v>2189.5</v>
       </c>
       <c r="H74" t="n">
-        <v>9470.34</v>
+        <v>2674.5</v>
       </c>
       <c r="I74" t="n">
-        <v>5606.08</v>
+        <v>-1299.63</v>
       </c>
       <c r="J74" t="n">
-        <v>-2505.78</v>
+        <v>2721.08</v>
       </c>
       <c r="K74" t="n">
-        <v>-4807.98</v>
+        <v>1042.69</v>
       </c>
       <c r="L74" t="n">
-        <v>-1099.52</v>
+        <v>-1963</v>
       </c>
       <c r="M74" t="n">
-        <v>-3764.1</v>
+        <v>-1253.52</v>
       </c>
       <c r="N74" t="n">
-        <v>-5474.559999999999</v>
+        <v>1160.14</v>
       </c>
       <c r="O74" t="n">
-        <v>-2212.01</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>909.0599999999999</v>
+        <v>835.0400000000018</v>
       </c>
       <c r="C75" t="n">
-        <v>1677.22</v>
+        <v>-7273.539999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>-1269.57</v>
+        <v>5164.29</v>
       </c>
       <c r="E75" t="n">
-        <v>2080.14</v>
+        <v>6205.940000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>-2158.52</v>
+        <v>-9423.869999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>2056.75</v>
+        <v>11311.89</v>
       </c>
       <c r="H75" t="n">
-        <v>2189.5</v>
+        <v>23304.6</v>
       </c>
       <c r="I75" t="n">
-        <v>2674.5</v>
+        <v>21721.34</v>
       </c>
       <c r="J75" t="n">
-        <v>-1299.63</v>
+        <v>16269.02</v>
       </c>
       <c r="K75" t="n">
-        <v>2721.08</v>
+        <v>27549.82</v>
       </c>
       <c r="L75" t="n">
-        <v>1042.69</v>
+        <v>22483.71</v>
       </c>
       <c r="M75" t="n">
-        <v>-1963</v>
+        <v>15603.65</v>
       </c>
       <c r="N75" t="n">
-        <v>-1253.52</v>
+        <v>5513.02</v>
       </c>
       <c r="O75" t="n">
-        <v>1160.14</v>
+        <v>5076.240000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15886.88</v>
+        <v>7741.92</v>
       </c>
       <c r="C76" t="n">
-        <v>2230.880000000002</v>
+        <v>-23183.07</v>
       </c>
       <c r="D76" t="n">
-        <v>-9636.59</v>
+        <v>-21509.82</v>
       </c>
       <c r="E76" t="n">
-        <v>2740.08</v>
+        <v>-32255.64</v>
       </c>
       <c r="F76" t="n">
-        <v>4595.130000000001</v>
+        <v>-12795.86</v>
       </c>
       <c r="G76" t="n">
-        <v>-12715.73</v>
+        <v>28348.95</v>
       </c>
       <c r="H76" t="n">
-        <v>7835.679999999999</v>
+        <v>56458.23</v>
       </c>
       <c r="I76" t="n">
-        <v>20163.07</v>
+        <v>49622.54</v>
       </c>
       <c r="J76" t="n">
-        <v>19485.38</v>
+        <v>25276.3</v>
       </c>
       <c r="K76" t="n">
-        <v>13508.61</v>
+        <v>7347.160000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>24312.4</v>
+        <v>-44366.65</v>
       </c>
       <c r="M76" t="n">
-        <v>21640.18</v>
+        <v>-65521.65</v>
       </c>
       <c r="N76" t="n">
-        <v>17476.58</v>
+        <v>-66261.57000000001</v>
       </c>
       <c r="O76" t="n">
-        <v>7093.139999999999</v>
+        <v>-78993.46000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>62313.63</v>
+        <v>9180.310000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>7741.92</v>
+        <v>6768.8</v>
       </c>
       <c r="D77" t="n">
-        <v>-23183.07</v>
+        <v>-899.21</v>
       </c>
       <c r="E77" t="n">
-        <v>-21509.82</v>
+        <v>1292.75</v>
       </c>
       <c r="F77" t="n">
-        <v>-32255.64</v>
+        <v>1763.2</v>
       </c>
       <c r="G77" t="n">
-        <v>-12795.86</v>
+        <v>3247.43</v>
       </c>
       <c r="H77" t="n">
-        <v>28348.95</v>
+        <v>784.0599999999999</v>
       </c>
       <c r="I77" t="n">
-        <v>56458.23</v>
+        <v>9942.730000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>49622.54</v>
+        <v>6505.84</v>
       </c>
       <c r="K77" t="n">
-        <v>25276.3</v>
+        <v>6687.02</v>
       </c>
       <c r="L77" t="n">
-        <v>7347.160000000001</v>
+        <v>-92.11999999999989</v>
       </c>
       <c r="M77" t="n">
-        <v>-44366.65</v>
+        <v>2075.11</v>
       </c>
       <c r="N77" t="n">
-        <v>-65521.65</v>
+        <v>-4365.29</v>
       </c>
       <c r="O77" t="n">
-        <v>-66261.57000000001</v>
+        <v>-3077.36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3600.24</v>
+        <v>147757.21</v>
       </c>
       <c r="C78" t="n">
-        <v>7784.47</v>
+        <v>162111.78</v>
       </c>
       <c r="D78" t="n">
-        <v>9131.85</v>
+        <v>150513.86</v>
       </c>
       <c r="E78" t="n">
-        <v>1525</v>
+        <v>83235.57000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>2903.56</v>
+        <v>16736.90000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>5055.059999999999</v>
+        <v>157299.35</v>
       </c>
       <c r="H78" t="n">
-        <v>6723.64</v>
+        <v>101718.49</v>
       </c>
       <c r="I78" t="n">
-        <v>3925.59</v>
+        <v>183657.49</v>
       </c>
       <c r="J78" t="n">
-        <v>12178.69</v>
+        <v>217975.51</v>
       </c>
       <c r="K78" t="n">
-        <v>9266.25</v>
+        <v>208229.55</v>
       </c>
       <c r="L78" t="n">
-        <v>9924.440000000001</v>
+        <v>137142.16</v>
       </c>
       <c r="M78" t="n">
-        <v>751.4099999999999</v>
+        <v>187661.26</v>
       </c>
       <c r="N78" t="n">
-        <v>202.1800000000001</v>
+        <v>202032.87</v>
       </c>
       <c r="O78" t="n">
-        <v>-5945.41</v>
+        <v>123144.81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>246429.53</v>
+        <v>16274.21</v>
       </c>
       <c r="C79" t="n">
-        <v>147757.21</v>
+        <v>31493.55</v>
       </c>
       <c r="D79" t="n">
-        <v>162111.78</v>
+        <v>27030.99</v>
       </c>
       <c r="E79" t="n">
-        <v>150513.86</v>
+        <v>3046.59</v>
       </c>
       <c r="F79" t="n">
-        <v>83235.57000000001</v>
+        <v>1447.42</v>
       </c>
       <c r="G79" t="n">
-        <v>16736.90000000001</v>
+        <v>32799.46</v>
       </c>
       <c r="H79" t="n">
-        <v>157299.35</v>
+        <v>10120.67</v>
       </c>
       <c r="I79" t="n">
-        <v>101718.49</v>
+        <v>28023.14</v>
       </c>
       <c r="J79" t="n">
-        <v>183657.49</v>
+        <v>33295.11</v>
       </c>
       <c r="K79" t="n">
-        <v>217975.51</v>
+        <v>26718.75</v>
       </c>
       <c r="L79" t="n">
-        <v>208229.55</v>
+        <v>5370.559999999998</v>
       </c>
       <c r="M79" t="n">
-        <v>137142.16</v>
+        <v>11977.59</v>
       </c>
       <c r="N79" t="n">
-        <v>187661.26</v>
+        <v>15332.18</v>
       </c>
       <c r="O79" t="n">
-        <v>202032.87</v>
+        <v>-7061.719999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>35433.64</v>
+        <v>7663.849999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>16274.21</v>
+        <v>7324.510000000002</v>
       </c>
       <c r="D80" t="n">
-        <v>31493.55</v>
+        <v>11596.97</v>
       </c>
       <c r="E80" t="n">
-        <v>27030.99</v>
+        <v>-3354.459999999998</v>
       </c>
       <c r="F80" t="n">
-        <v>3046.59</v>
+        <v>29144.89</v>
       </c>
       <c r="G80" t="n">
-        <v>1447.42</v>
+        <v>40911.69</v>
       </c>
       <c r="H80" t="n">
-        <v>32799.46</v>
+        <v>32583.89</v>
       </c>
       <c r="I80" t="n">
-        <v>10120.67</v>
+        <v>36642.54</v>
       </c>
       <c r="J80" t="n">
-        <v>28023.14</v>
+        <v>28279.72</v>
       </c>
       <c r="K80" t="n">
-        <v>33295.11</v>
+        <v>2579.46</v>
       </c>
       <c r="L80" t="n">
-        <v>26718.75</v>
+        <v>1882.389999999998</v>
       </c>
       <c r="M80" t="n">
-        <v>5370.559999999998</v>
+        <v>-1359.809999999999</v>
       </c>
       <c r="N80" t="n">
-        <v>11977.59</v>
+        <v>4219.170000000001</v>
       </c>
       <c r="O80" t="n">
-        <v>15332.18</v>
+        <v>15364.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15848.09</v>
+        <v>-37.07</v>
       </c>
       <c r="C81" t="n">
-        <v>7663.849999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>7324.510000000002</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>11596.97</v>
+        <v>58.07</v>
       </c>
       <c r="F81" t="n">
-        <v>-3354.459999999998</v>
+        <v>46.77</v>
       </c>
       <c r="G81" t="n">
-        <v>29144.89</v>
+        <v>103.37</v>
       </c>
       <c r="H81" t="n">
-        <v>40911.69</v>
+        <v>69.03</v>
       </c>
       <c r="I81" t="n">
-        <v>32583.89</v>
+        <v>100.51</v>
       </c>
       <c r="J81" t="n">
-        <v>36642.54</v>
+        <v>101.47</v>
       </c>
       <c r="K81" t="n">
-        <v>28279.72</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="L81" t="n">
-        <v>2579.46</v>
+        <v>-19.41</v>
       </c>
       <c r="M81" t="n">
-        <v>1882.389999999998</v>
+        <v>42.88</v>
       </c>
       <c r="N81" t="n">
-        <v>-1359.809999999999</v>
+        <v>-35.43</v>
       </c>
       <c r="O81" t="n">
-        <v>4219.170000000001</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>82.39</v>
+        <v>157.68</v>
       </c>
       <c r="C82" t="n">
-        <v>-37.07</v>
+        <v>182.97</v>
       </c>
       <c r="D82" t="n">
-        <v>67.01000000000001</v>
+        <v>45.8</v>
       </c>
       <c r="E82" t="n">
-        <v>72.18000000000001</v>
+        <v>-29.92000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>58.07</v>
+        <v>-179.13</v>
       </c>
       <c r="G82" t="n">
-        <v>46.77</v>
+        <v>-12.38</v>
       </c>
       <c r="H82" t="n">
-        <v>103.37</v>
+        <v>76.64</v>
       </c>
       <c r="I82" t="n">
-        <v>69.03</v>
+        <v>181.66</v>
       </c>
       <c r="J82" t="n">
-        <v>100.51</v>
+        <v>167.8</v>
       </c>
       <c r="K82" t="n">
-        <v>101.47</v>
+        <v>214</v>
       </c>
       <c r="L82" t="n">
-        <v>67.81999999999999</v>
+        <v>134.78</v>
       </c>
       <c r="M82" t="n">
-        <v>-19.41</v>
+        <v>3.169999999999996</v>
       </c>
       <c r="N82" t="n">
-        <v>42.88</v>
+        <v>-56.64999999999999</v>
       </c>
       <c r="O82" t="n">
-        <v>-35.43</v>
+        <v>-64.68000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>143.89</v>
+        <v>116.84</v>
       </c>
       <c r="C83" t="n">
-        <v>135.06</v>
+        <v>57.09</v>
       </c>
       <c r="D83" t="n">
-        <v>128.03</v>
+        <v>25.87</v>
       </c>
       <c r="E83" t="n">
-        <v>60.75</v>
+        <v>-41.21</v>
       </c>
       <c r="F83" t="n">
-        <v>37.37</v>
+        <v>-24.43</v>
       </c>
       <c r="G83" t="n">
-        <v>-114.17</v>
+        <v>-53.32</v>
       </c>
       <c r="H83" t="n">
-        <v>3.68</v>
+        <v>-27.7</v>
       </c>
       <c r="I83" t="n">
-        <v>46.41</v>
+        <v>38.22</v>
       </c>
       <c r="J83" t="n">
-        <v>116.27</v>
+        <v>90.28</v>
       </c>
       <c r="K83" t="n">
-        <v>100.02</v>
+        <v>93.96000000000001</v>
       </c>
       <c r="L83" t="n">
-        <v>153.09</v>
+        <v>92.71000000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>111.09</v>
+        <v>73.06</v>
       </c>
       <c r="N83" t="n">
-        <v>35.44</v>
+        <v>65.46000000000001</v>
       </c>
       <c r="O83" t="n">
-        <v>9.510000000000005</v>
+        <v>-4.529999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>142.99</v>
+        <v>4576.28</v>
       </c>
       <c r="C84" t="n">
-        <v>139.46</v>
+        <v>7971.030000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>112.03</v>
+        <v>7324.55</v>
       </c>
       <c r="E84" t="n">
-        <v>10.92</v>
+        <v>10070.64</v>
       </c>
       <c r="F84" t="n">
-        <v>-108.5</v>
+        <v>13096.06</v>
       </c>
       <c r="G84" t="n">
-        <v>-89.38999999999999</v>
+        <v>14479.31</v>
       </c>
       <c r="H84" t="n">
-        <v>-69.38</v>
+        <v>13982.04</v>
       </c>
       <c r="I84" t="n">
-        <v>2.530000000000001</v>
+        <v>15109.87</v>
       </c>
       <c r="J84" t="n">
-        <v>103.61</v>
+        <v>12622.31</v>
       </c>
       <c r="K84" t="n">
-        <v>158.06</v>
+        <v>16538.91</v>
       </c>
       <c r="L84" t="n">
-        <v>154.87</v>
+        <v>20268.35</v>
       </c>
       <c r="M84" t="n">
-        <v>116.4</v>
+        <v>21238.62</v>
       </c>
       <c r="N84" t="n">
-        <v>40.79</v>
+        <v>23728.19</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.6999999999999957</v>
+        <v>17972.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9151.51</v>
+        <v>-2764.59</v>
       </c>
       <c r="C85" t="n">
-        <v>4576.28</v>
+        <v>12434.1</v>
       </c>
       <c r="D85" t="n">
-        <v>7971.030000000001</v>
+        <v>-4305.749999999997</v>
       </c>
       <c r="E85" t="n">
-        <v>7324.55</v>
+        <v>-14878.46</v>
       </c>
       <c r="F85" t="n">
-        <v>10070.64</v>
+        <v>-20078.84</v>
       </c>
       <c r="G85" t="n">
-        <v>13096.06</v>
+        <v>12930.93</v>
       </c>
       <c r="H85" t="n">
-        <v>14479.31</v>
+        <v>-6519.150000000003</v>
       </c>
       <c r="I85" t="n">
-        <v>13982.04</v>
+        <v>19228.12</v>
       </c>
       <c r="J85" t="n">
-        <v>15109.87</v>
+        <v>4173.829999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>12622.31</v>
+        <v>-3854.07</v>
       </c>
       <c r="L85" t="n">
-        <v>16538.91</v>
+        <v>-23424.59</v>
       </c>
       <c r="M85" t="n">
-        <v>20268.35</v>
+        <v>-15561.95</v>
       </c>
       <c r="N85" t="n">
-        <v>21238.62</v>
+        <v>-48848.15</v>
       </c>
       <c r="O85" t="n">
-        <v>23728.19</v>
+        <v>-46507.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>26807.29</v>
+        <v>28814.55</v>
       </c>
       <c r="C86" t="n">
-        <v>12884.91</v>
+        <v>35533.63</v>
       </c>
       <c r="D86" t="n">
-        <v>32401.77</v>
+        <v>31719.88</v>
       </c>
       <c r="E86" t="n">
-        <v>18195.86</v>
+        <v>21104.31</v>
       </c>
       <c r="F86" t="n">
-        <v>7788.66</v>
+        <v>18508.51</v>
       </c>
       <c r="G86" t="n">
-        <v>9430.359999999999</v>
+        <v>20130.37</v>
       </c>
       <c r="H86" t="n">
-        <v>35458.38</v>
+        <v>16334.55</v>
       </c>
       <c r="I86" t="n">
-        <v>17759.34</v>
+        <v>-2459.789999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>43211.16</v>
+        <v>-5962.700000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>33645.36</v>
+        <v>-13474.79</v>
       </c>
       <c r="L86" t="n">
-        <v>23646.02</v>
+        <v>-24672.5</v>
       </c>
       <c r="M86" t="n">
-        <v>8280.17</v>
+        <v>-5834.32</v>
       </c>
       <c r="N86" t="n">
-        <v>8719.49</v>
+        <v>-3483.489999999999</v>
       </c>
       <c r="O86" t="n">
-        <v>-32029.99</v>
+        <v>8692.09</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>33674.01</v>
+        <v>12360.82</v>
       </c>
       <c r="C87" t="n">
-        <v>13165.05</v>
+        <v>16506.74</v>
       </c>
       <c r="D87" t="n">
-        <v>15565.96</v>
+        <v>14819.61</v>
       </c>
       <c r="E87" t="n">
-        <v>9218.27</v>
+        <v>12144.45</v>
       </c>
       <c r="F87" t="n">
-        <v>-1562.809999999998</v>
+        <v>16161.33</v>
       </c>
       <c r="G87" t="n">
-        <v>-11000.69</v>
+        <v>16061.35</v>
       </c>
       <c r="H87" t="n">
-        <v>-2397.080000000001</v>
+        <v>-4242.959999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>-7943.940000000001</v>
+        <v>9830.5</v>
       </c>
       <c r="J87" t="n">
-        <v>-26442.83</v>
+        <v>26721.99</v>
       </c>
       <c r="K87" t="n">
-        <v>-35434.23</v>
+        <v>32915.09</v>
       </c>
       <c r="L87" t="n">
-        <v>-40974.88</v>
+        <v>31468.97</v>
       </c>
       <c r="M87" t="n">
-        <v>-56377.26</v>
+        <v>35584.98</v>
       </c>
       <c r="N87" t="n">
-        <v>-30115.76</v>
+        <v>32671.87</v>
       </c>
       <c r="O87" t="n">
-        <v>-20301.65</v>
+        <v>11772.22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5844.33</v>
+        <v>17634.64</v>
       </c>
       <c r="C88" t="n">
-        <v>12360.82</v>
+        <v>18210.48</v>
       </c>
       <c r="D88" t="n">
-        <v>16506.74</v>
+        <v>20907.55</v>
       </c>
       <c r="E88" t="n">
-        <v>14819.61</v>
+        <v>13205.62</v>
       </c>
       <c r="F88" t="n">
-        <v>12144.45</v>
+        <v>9057.32</v>
       </c>
       <c r="G88" t="n">
-        <v>16161.33</v>
+        <v>22126.7</v>
       </c>
       <c r="H88" t="n">
-        <v>16061.35</v>
+        <v>21743.02</v>
       </c>
       <c r="I88" t="n">
-        <v>-4242.959999999999</v>
+        <v>20013.63</v>
       </c>
       <c r="J88" t="n">
-        <v>9830.5</v>
+        <v>17952.5</v>
       </c>
       <c r="K88" t="n">
-        <v>26721.99</v>
+        <v>21296.51</v>
       </c>
       <c r="L88" t="n">
-        <v>32915.09</v>
+        <v>11336.31</v>
       </c>
       <c r="M88" t="n">
-        <v>31468.97</v>
+        <v>13808.91</v>
       </c>
       <c r="N88" t="n">
-        <v>35584.98</v>
+        <v>3596.87</v>
       </c>
       <c r="O88" t="n">
-        <v>32671.87</v>
+        <v>-43.51000000000022</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20685.85</v>
+        <v>20886.5</v>
       </c>
       <c r="C89" t="n">
-        <v>17634.64</v>
+        <v>20333.63</v>
       </c>
       <c r="D89" t="n">
-        <v>18210.48</v>
+        <v>12552.84</v>
       </c>
       <c r="E89" t="n">
-        <v>20907.55</v>
+        <v>10136.43</v>
       </c>
       <c r="F89" t="n">
-        <v>13205.62</v>
+        <v>-4078.31</v>
       </c>
       <c r="G89" t="n">
-        <v>9057.32</v>
+        <v>3296.63</v>
       </c>
       <c r="H89" t="n">
-        <v>22126.7</v>
+        <v>-7418.669999999999</v>
       </c>
       <c r="I89" t="n">
-        <v>21743.02</v>
+        <v>10511.69</v>
       </c>
       <c r="J89" t="n">
-        <v>20013.63</v>
+        <v>13735.89</v>
       </c>
       <c r="K89" t="n">
-        <v>17952.5</v>
+        <v>21992.43</v>
       </c>
       <c r="L89" t="n">
-        <v>21296.51</v>
+        <v>15412.33</v>
       </c>
       <c r="M89" t="n">
-        <v>11336.31</v>
+        <v>15861.03</v>
       </c>
       <c r="N89" t="n">
-        <v>13808.91</v>
+        <v>12424.15</v>
       </c>
       <c r="O89" t="n">
-        <v>3596.87</v>
+        <v>-4053.84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>19226.54</v>
+        <v>-4977.140000000003</v>
       </c>
       <c r="C90" t="n">
-        <v>20886.5</v>
+        <v>-26853.02</v>
       </c>
       <c r="D90" t="n">
-        <v>20333.63</v>
+        <v>-40594.91</v>
       </c>
       <c r="E90" t="n">
-        <v>12552.84</v>
+        <v>19874</v>
       </c>
       <c r="F90" t="n">
-        <v>10136.43</v>
+        <v>-14478.52</v>
       </c>
       <c r="G90" t="n">
-        <v>-4078.31</v>
+        <v>31517.95</v>
       </c>
       <c r="H90" t="n">
-        <v>3296.63</v>
+        <v>29489.25</v>
       </c>
       <c r="I90" t="n">
-        <v>-7418.669999999999</v>
+        <v>33641.33</v>
       </c>
       <c r="J90" t="n">
-        <v>10511.69</v>
+        <v>16228.79</v>
       </c>
       <c r="K90" t="n">
-        <v>13735.89</v>
+        <v>38096.34</v>
       </c>
       <c r="L90" t="n">
-        <v>21992.43</v>
+        <v>26093.94</v>
       </c>
       <c r="M90" t="n">
-        <v>15412.33</v>
+        <v>-9361.240000000002</v>
       </c>
       <c r="N90" t="n">
-        <v>15861.03</v>
+        <v>31194.99000000001</v>
       </c>
       <c r="O90" t="n">
-        <v>12424.15</v>
+        <v>17729.81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>30270.07999999999</v>
+        <v>5869.51</v>
       </c>
       <c r="C91" t="n">
-        <v>2462.219999999998</v>
+        <v>4772.25</v>
       </c>
       <c r="D91" t="n">
-        <v>-21583.47</v>
+        <v>2595.64</v>
       </c>
       <c r="E91" t="n">
-        <v>-44030</v>
+        <v>1823.2</v>
       </c>
       <c r="F91" t="n">
-        <v>15859.49</v>
+        <v>3003.440000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-15897.26</v>
+        <v>5836.88</v>
       </c>
       <c r="H91" t="n">
-        <v>38341.99000000001</v>
+        <v>2724.26</v>
       </c>
       <c r="I91" t="n">
-        <v>38900.89</v>
+        <v>3013.31</v>
       </c>
       <c r="J91" t="n">
-        <v>46101.46</v>
+        <v>-622.71</v>
       </c>
       <c r="K91" t="n">
-        <v>26252.44</v>
+        <v>-8646.9</v>
       </c>
       <c r="L91" t="n">
-        <v>47494.08</v>
+        <v>-11583.43</v>
       </c>
       <c r="M91" t="n">
-        <v>32306.4</v>
+        <v>-10296.67</v>
       </c>
       <c r="N91" t="n">
-        <v>-13166.11</v>
+        <v>-10116.34</v>
       </c>
       <c r="O91" t="n">
-        <v>24783.48</v>
+        <v>-9102.23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6955.75</v>
+        <v>39264.5</v>
       </c>
       <c r="C92" t="n">
-        <v>5869.51</v>
+        <v>18015.71</v>
       </c>
       <c r="D92" t="n">
-        <v>4772.25</v>
+        <v>7246.940000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>2595.64</v>
+        <v>700.2599999999992</v>
       </c>
       <c r="F92" t="n">
-        <v>1823.2</v>
+        <v>11401.7</v>
       </c>
       <c r="G92" t="n">
-        <v>3003.440000000001</v>
+        <v>48797.34</v>
       </c>
       <c r="H92" t="n">
-        <v>5836.88</v>
+        <v>32541.86</v>
       </c>
       <c r="I92" t="n">
-        <v>2724.26</v>
+        <v>44570.37</v>
       </c>
       <c r="J92" t="n">
-        <v>3013.31</v>
+        <v>14048.38</v>
       </c>
       <c r="K92" t="n">
-        <v>-622.71</v>
+        <v>55134.82</v>
       </c>
       <c r="L92" t="n">
-        <v>-8646.9</v>
+        <v>18447.77</v>
       </c>
       <c r="M92" t="n">
-        <v>-11583.43</v>
+        <v>17853.03</v>
       </c>
       <c r="N92" t="n">
-        <v>-10296.67</v>
+        <v>10516.52</v>
       </c>
       <c r="O92" t="n">
-        <v>-10116.34</v>
+        <v>15391.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>63200</v>
+        <v>283233.63</v>
       </c>
       <c r="C93" t="n">
-        <v>31825.14</v>
+        <v>274714.95</v>
       </c>
       <c r="D93" t="n">
-        <v>12746.16</v>
+        <v>236231.76</v>
       </c>
       <c r="E93" t="n">
-        <v>10682.03</v>
+        <v>299644.86</v>
       </c>
       <c r="F93" t="n">
-        <v>4714.77</v>
+        <v>264558.4</v>
       </c>
       <c r="G93" t="n">
-        <v>12820.44</v>
+        <v>330885.86</v>
       </c>
       <c r="H93" t="n">
-        <v>41973.3</v>
+        <v>289438.23</v>
       </c>
       <c r="I93" t="n">
-        <v>23130.22</v>
+        <v>375356.87</v>
       </c>
       <c r="J93" t="n">
-        <v>32110.24</v>
+        <v>257928.22</v>
       </c>
       <c r="K93" t="n">
-        <v>4024.73</v>
+        <v>170484.47</v>
       </c>
       <c r="L93" t="n">
-        <v>45737.08</v>
+        <v>87224.45</v>
       </c>
       <c r="M93" t="n">
-        <v>12235.31</v>
+        <v>145561.18</v>
       </c>
       <c r="N93" t="n">
-        <v>21657.9</v>
+        <v>173698.57</v>
       </c>
       <c r="O93" t="n">
-        <v>16928.03</v>
+        <v>187905.74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>310882.66</v>
+        <v>166535.14</v>
       </c>
       <c r="C94" t="n">
-        <v>275388.42</v>
+        <v>149212.33</v>
       </c>
       <c r="D94" t="n">
-        <v>268210.68</v>
+        <v>58008.25</v>
       </c>
       <c r="E94" t="n">
-        <v>237354.38</v>
+        <v>43891.73</v>
       </c>
       <c r="F94" t="n">
-        <v>304759.29</v>
+        <v>63676.46</v>
       </c>
       <c r="G94" t="n">
-        <v>266520.93</v>
+        <v>223723.71</v>
       </c>
       <c r="H94" t="n">
-        <v>325042.97</v>
+        <v>203026.43</v>
       </c>
       <c r="I94" t="n">
-        <v>283424.05</v>
+        <v>247084</v>
       </c>
       <c r="J94" t="n">
-        <v>367256.21</v>
+        <v>182755.84</v>
       </c>
       <c r="K94" t="n">
-        <v>251146.87</v>
+        <v>153040.47</v>
       </c>
       <c r="L94" t="n">
-        <v>163573.73</v>
+        <v>-30701.17</v>
       </c>
       <c r="M94" t="n">
-        <v>82560.44</v>
+        <v>-13627.04</v>
       </c>
       <c r="N94" t="n">
-        <v>147272.49</v>
+        <v>-54977.26</v>
       </c>
       <c r="O94" t="n">
-        <v>175105.2</v>
+        <v>-34955.63</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>226502.26</v>
+        <v>153323.81</v>
       </c>
       <c r="C95" t="n">
-        <v>168912.54</v>
+        <v>126242.73</v>
       </c>
       <c r="D95" t="n">
-        <v>151374.26</v>
+        <v>44729.39</v>
       </c>
       <c r="E95" t="n">
-        <v>62275.38</v>
+        <v>39246.64999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>39113.78</v>
+        <v>17184.75</v>
       </c>
       <c r="G95" t="n">
-        <v>67037.55</v>
+        <v>90456.98</v>
       </c>
       <c r="H95" t="n">
-        <v>226916.3</v>
+        <v>90325.06999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>206484.38</v>
+        <v>190710.21</v>
       </c>
       <c r="J95" t="n">
-        <v>249133.66</v>
+        <v>139431.46</v>
       </c>
       <c r="K95" t="n">
-        <v>182698.36</v>
+        <v>117690.02</v>
       </c>
       <c r="L95" t="n">
-        <v>154652.45</v>
+        <v>77329.46000000001</v>
       </c>
       <c r="M95" t="n">
-        <v>-32055.78</v>
+        <v>9414.819999999998</v>
       </c>
       <c r="N95" t="n">
-        <v>-19530.06</v>
+        <v>-45809.61</v>
       </c>
       <c r="O95" t="n">
-        <v>-62367.10000000001</v>
+        <v>-53665.04</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>196070.6</v>
+        <v>152060.25</v>
       </c>
       <c r="C96" t="n">
-        <v>158791.62</v>
+        <v>200060.84</v>
       </c>
       <c r="D96" t="n">
-        <v>130585.07</v>
+        <v>97288.00999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>39339.64</v>
+        <v>85005.53</v>
       </c>
       <c r="F96" t="n">
-        <v>38910.17</v>
+        <v>73891.13</v>
       </c>
       <c r="G96" t="n">
-        <v>11861.13</v>
+        <v>186816.02</v>
       </c>
       <c r="H96" t="n">
-        <v>93107.28</v>
+        <v>147264.65</v>
       </c>
       <c r="I96" t="n">
-        <v>92881.3</v>
+        <v>236702.68</v>
       </c>
       <c r="J96" t="n">
-        <v>196790.02</v>
+        <v>244386.64</v>
       </c>
       <c r="K96" t="n">
-        <v>146382.64</v>
+        <v>228423.97</v>
       </c>
       <c r="L96" t="n">
-        <v>123108.81</v>
+        <v>192612.11</v>
       </c>
       <c r="M96" t="n">
-        <v>83442.44</v>
+        <v>91363.09</v>
       </c>
       <c r="N96" t="n">
-        <v>13646.28</v>
+        <v>44722.87</v>
       </c>
       <c r="O96" t="n">
-        <v>-39906.93</v>
+        <v>-1716.160000000003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>204181.92</v>
+        <v>23202.97</v>
       </c>
       <c r="C97" t="n">
-        <v>144230.13</v>
+        <v>16899.86</v>
       </c>
       <c r="D97" t="n">
-        <v>193029.88</v>
+        <v>1053.62</v>
       </c>
       <c r="E97" t="n">
-        <v>90722.10000000001</v>
+        <v>-2991.810000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>81942.41</v>
+        <v>4667.049999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>77643.78999999999</v>
+        <v>34694.16</v>
       </c>
       <c r="H97" t="n">
-        <v>182618.37</v>
+        <v>38943.89</v>
       </c>
       <c r="I97" t="n">
-        <v>138257.63</v>
+        <v>51070.97</v>
       </c>
       <c r="J97" t="n">
-        <v>224434.58</v>
+        <v>42486.72</v>
       </c>
       <c r="K97" t="n">
-        <v>230888.51</v>
+        <v>26603.35</v>
       </c>
       <c r="L97" t="n">
-        <v>216038.91</v>
+        <v>20815.19</v>
       </c>
       <c r="M97" t="n">
-        <v>182173.13</v>
+        <v>13755.78</v>
       </c>
       <c r="N97" t="n">
-        <v>85328.59</v>
+        <v>8335.15</v>
       </c>
       <c r="O97" t="n">
-        <v>51812.32999999999</v>
+        <v>-6477.93</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>36369.44</v>
+        <v>238121.19</v>
       </c>
       <c r="C98" t="n">
-        <v>23179.45</v>
+        <v>221145.07</v>
       </c>
       <c r="D98" t="n">
-        <v>16845.22</v>
+        <v>180952.57</v>
       </c>
       <c r="E98" t="n">
-        <v>1001.7</v>
+        <v>132437.65</v>
       </c>
       <c r="F98" t="n">
-        <v>-3033.480000000001</v>
+        <v>48840.52</v>
       </c>
       <c r="G98" t="n">
-        <v>4648.609999999999</v>
+        <v>51240.44</v>
       </c>
       <c r="H98" t="n">
-        <v>34660.48</v>
+        <v>38937.73</v>
       </c>
       <c r="I98" t="n">
-        <v>38948.64</v>
+        <v>109239.26</v>
       </c>
       <c r="J98" t="n">
-        <v>51098.04</v>
+        <v>122785.31</v>
       </c>
       <c r="K98" t="n">
-        <v>42505.98</v>
+        <v>159570.66</v>
       </c>
       <c r="L98" t="n">
-        <v>26611.28</v>
+        <v>93727.59999999999</v>
       </c>
       <c r="M98" t="n">
-        <v>20787.89</v>
+        <v>57606.34000000001</v>
       </c>
       <c r="N98" t="n">
-        <v>13690.12</v>
+        <v>52475.66</v>
       </c>
       <c r="O98" t="n">
-        <v>8242.41</v>
+        <v>-2336.270000000006</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>202906.41</v>
+        <v>300268.86</v>
       </c>
       <c r="C99" t="n">
-        <v>246008.14</v>
+        <v>276796.57</v>
       </c>
       <c r="D99" t="n">
-        <v>228262.02</v>
+        <v>203005.58</v>
       </c>
       <c r="E99" t="n">
-        <v>187601.61</v>
+        <v>215370.19</v>
       </c>
       <c r="F99" t="n">
-        <v>135573.89</v>
+        <v>161031.58</v>
       </c>
       <c r="G99" t="n">
-        <v>45131.68</v>
+        <v>402401.34</v>
       </c>
       <c r="H99" t="n">
-        <v>55406.61</v>
+        <v>370200.9</v>
       </c>
       <c r="I99" t="n">
-        <v>47892.32</v>
+        <v>571720.1</v>
       </c>
       <c r="J99" t="n">
-        <v>121442.83</v>
+        <v>555679.8200000001</v>
       </c>
       <c r="K99" t="n">
-        <v>136213.82</v>
+        <v>529529.9</v>
       </c>
       <c r="L99" t="n">
-        <v>171911.63</v>
+        <v>309546.66</v>
       </c>
       <c r="M99" t="n">
-        <v>104151.48</v>
+        <v>396052.09</v>
       </c>
       <c r="N99" t="n">
-        <v>63673.30000000001</v>
+        <v>242200.8</v>
       </c>
       <c r="O99" t="n">
-        <v>45435.53999999999</v>
+        <v>9759.529999999993</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>421410.58</v>
+        <v>70065.10000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>316657.52</v>
+        <v>64186.48</v>
       </c>
       <c r="D100" t="n">
-        <v>289436.2</v>
+        <v>12435.6</v>
       </c>
       <c r="E100" t="n">
-        <v>206394.25</v>
+        <v>15058.66</v>
       </c>
       <c r="F100" t="n">
-        <v>214924.7</v>
+        <v>12908.05</v>
       </c>
       <c r="G100" t="n">
-        <v>181506.23</v>
+        <v>81748.77</v>
       </c>
       <c r="H100" t="n">
-        <v>485560.6</v>
+        <v>12306.82</v>
       </c>
       <c r="I100" t="n">
-        <v>432335.19</v>
+        <v>49273.23</v>
       </c>
       <c r="J100" t="n">
-        <v>645059.73</v>
+        <v>-17391.89</v>
       </c>
       <c r="K100" t="n">
-        <v>651573.72</v>
+        <v>-3340.170000000003</v>
       </c>
       <c r="L100" t="n">
-        <v>645045.52</v>
+        <v>-24627.81</v>
       </c>
       <c r="M100" t="n">
-        <v>422145.63</v>
+        <v>-32499.41</v>
       </c>
       <c r="N100" t="n">
-        <v>490257.69</v>
+        <v>-36943.91</v>
       </c>
       <c r="O100" t="n">
-        <v>335115.26</v>
+        <v>-17773.27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>83197.41</v>
+        <v>110439.86</v>
       </c>
       <c r="C101" t="n">
-        <v>64363.06</v>
+        <v>91194.05</v>
       </c>
       <c r="D101" t="n">
-        <v>57399.18</v>
+        <v>22884.99</v>
       </c>
       <c r="E101" t="n">
-        <v>24100.74</v>
+        <v>14845.28</v>
       </c>
       <c r="F101" t="n">
-        <v>27470.68</v>
+        <v>1785.62</v>
       </c>
       <c r="G101" t="n">
-        <v>30114.65</v>
+        <v>101202.24</v>
       </c>
       <c r="H101" t="n">
-        <v>82248.34</v>
+        <v>137085.6</v>
       </c>
       <c r="I101" t="n">
-        <v>34033.39</v>
+        <v>212429.72</v>
       </c>
       <c r="J101" t="n">
-        <v>70221.89</v>
+        <v>189264.46</v>
       </c>
       <c r="K101" t="n">
-        <v>7691.660000000002</v>
+        <v>147759.5</v>
       </c>
       <c r="L101" t="n">
-        <v>9923.450000000001</v>
+        <v>87011.04000000001</v>
       </c>
       <c r="M101" t="n">
-        <v>-9797.739999999996</v>
+        <v>20145.15</v>
       </c>
       <c r="N101" t="n">
-        <v>-23810.05</v>
+        <v>-14228.37</v>
       </c>
       <c r="O101" t="n">
-        <v>-58449.74</v>
+        <v>-52497.73</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>181130.69</v>
+        <v>57311.89</v>
       </c>
       <c r="C102" t="n">
-        <v>137585.26</v>
+        <v>51699.04</v>
       </c>
       <c r="D102" t="n">
-        <v>110114.27</v>
+        <v>42216.7</v>
       </c>
       <c r="E102" t="n">
-        <v>25222.25</v>
+        <v>45785.04</v>
       </c>
       <c r="F102" t="n">
-        <v>-8566.98</v>
+        <v>47734.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-34631.71999999999</v>
+        <v>-27133.36</v>
       </c>
       <c r="H102" t="n">
-        <v>98687.88</v>
+        <v>-19647.54</v>
       </c>
       <c r="I102" t="n">
-        <v>135663.01</v>
+        <v>-29878.65000000001</v>
       </c>
       <c r="J102" t="n">
-        <v>255687.55</v>
+        <v>-20906.63</v>
       </c>
       <c r="K102" t="n">
-        <v>263641.61</v>
+        <v>-13834.06</v>
       </c>
       <c r="L102" t="n">
-        <v>201014.15</v>
+        <v>16860.27</v>
       </c>
       <c r="M102" t="n">
-        <v>91001.63</v>
+        <v>32126.17</v>
       </c>
       <c r="N102" t="n">
-        <v>50109.27999999999</v>
+        <v>31873.94</v>
       </c>
       <c r="O102" t="n">
-        <v>49820.97</v>
+        <v>6343.27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1604.39</v>
+        <v>36159.54</v>
       </c>
       <c r="C103" t="n">
-        <v>57311.89</v>
+        <v>33654.82</v>
       </c>
       <c r="D103" t="n">
-        <v>51699.04</v>
+        <v>30714.91</v>
       </c>
       <c r="E103" t="n">
-        <v>42216.7</v>
+        <v>28817.63</v>
       </c>
       <c r="F103" t="n">
-        <v>45785.04</v>
+        <v>24218.59</v>
       </c>
       <c r="G103" t="n">
-        <v>47734.08</v>
+        <v>-13204.91</v>
       </c>
       <c r="H103" t="n">
-        <v>-27133.36</v>
+        <v>-22402.72</v>
       </c>
       <c r="I103" t="n">
-        <v>-19647.54</v>
+        <v>-23227.04</v>
       </c>
       <c r="J103" t="n">
-        <v>-29878.65</v>
+        <v>-24370.62</v>
       </c>
       <c r="K103" t="n">
-        <v>-20906.63</v>
+        <v>-16344.07</v>
       </c>
       <c r="L103" t="n">
-        <v>-13834.06</v>
+        <v>-15325.41</v>
       </c>
       <c r="M103" t="n">
-        <v>16860.27</v>
+        <v>-8064.54</v>
       </c>
       <c r="N103" t="n">
-        <v>32126.17</v>
+        <v>-8486.610000000001</v>
       </c>
       <c r="O103" t="n">
-        <v>32729.28</v>
+        <v>-12908.04</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>12690.15</v>
+        <v>9400.629999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>37319.02</v>
+        <v>8275.280000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>34543.44</v>
+        <v>9263.560000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>31487.34</v>
+        <v>8544.57</v>
       </c>
       <c r="F104" t="n">
-        <v>29577.33</v>
+        <v>7529.32</v>
       </c>
       <c r="G104" t="n">
-        <v>24996.98</v>
+        <v>-5918.94</v>
       </c>
       <c r="H104" t="n">
-        <v>-14364.95</v>
+        <v>-4791.809999999999</v>
       </c>
       <c r="I104" t="n">
-        <v>-23118.95</v>
+        <v>-6090.469999999999</v>
       </c>
       <c r="J104" t="n">
-        <v>-22960.12</v>
+        <v>-5576.19</v>
       </c>
       <c r="K104" t="n">
-        <v>-23483.73</v>
+        <v>-3521.19</v>
       </c>
       <c r="L104" t="n">
-        <v>-15456.42</v>
+        <v>-2999.29</v>
       </c>
       <c r="M104" t="n">
-        <v>-14439.46</v>
+        <v>-1286.89</v>
       </c>
       <c r="N104" t="n">
-        <v>-6966.45</v>
+        <v>-1877.5</v>
       </c>
       <c r="O104" t="n">
-        <v>-7665.7</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2766.7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9400.629999999999</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8275.280000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9263.560000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>8544.57</v>
-      </c>
-      <c r="G105" t="n">
-        <v>7529.32</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-5918.94</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-4791.809999999999</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-6090.469999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-5576.19</v>
-      </c>
-      <c r="L105" t="n">
-        <v>-3521.19</v>
-      </c>
-      <c r="M105" t="n">
-        <v>-2999.29</v>
-      </c>
-      <c r="N105" t="n">
-        <v>-1286.89</v>
-      </c>
-      <c r="O105" t="n">
-        <v>-1877.5</v>
+        <v>-1967.32</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>2025-05-22</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -517,46 +522,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14265.83000000001</v>
+        <v>21639.2</v>
       </c>
       <c r="C2" t="n">
-        <v>-71.70000000000073</v>
+        <v>3527.449999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>8778.799999999997</v>
+        <v>7368.619999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>-40028.47</v>
+        <v>-41440.64</v>
       </c>
       <c r="F2" t="n">
-        <v>30025.51</v>
+        <v>28621.87</v>
       </c>
       <c r="G2" t="n">
-        <v>134081.76</v>
+        <v>131511.22</v>
       </c>
       <c r="H2" t="n">
-        <v>140717.01</v>
+        <v>137519.73</v>
       </c>
       <c r="I2" t="n">
-        <v>185016.81</v>
+        <v>183478.1</v>
       </c>
       <c r="J2" t="n">
-        <v>190941.37</v>
+        <v>186292.77</v>
       </c>
       <c r="K2" t="n">
-        <v>189321.17</v>
+        <v>190342.73</v>
       </c>
       <c r="L2" t="n">
-        <v>158025</v>
+        <v>155151.12</v>
       </c>
       <c r="M2" t="n">
-        <v>63059.64</v>
+        <v>67465.57000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>-17575.23</v>
+        <v>-12506.16</v>
       </c>
       <c r="O2" t="n">
-        <v>-91738.75</v>
+        <v>-85409.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-9176.669999999998</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +574,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54412.59</v>
+        <v>53646.66</v>
       </c>
       <c r="C3" t="n">
-        <v>39857.57</v>
+        <v>38906.78</v>
       </c>
       <c r="D3" t="n">
-        <v>35291.78</v>
+        <v>34300.03</v>
       </c>
       <c r="E3" t="n">
-        <v>-4762.429999999998</v>
+        <v>-6011.729999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-30936.01</v>
+        <v>-32344.25</v>
       </c>
       <c r="G3" t="n">
-        <v>64756.51</v>
+        <v>63121.36</v>
       </c>
       <c r="H3" t="n">
-        <v>37025.94</v>
+        <v>35574.89</v>
       </c>
       <c r="I3" t="n">
-        <v>55091.42</v>
+        <v>53584.43</v>
       </c>
       <c r="J3" t="n">
-        <v>31355.28</v>
+        <v>30309.97</v>
       </c>
       <c r="K3" t="n">
-        <v>56632.61</v>
+        <v>56819.7</v>
       </c>
       <c r="L3" t="n">
-        <v>14196.27</v>
+        <v>13859.96</v>
       </c>
       <c r="M3" t="n">
-        <v>-4032.41</v>
+        <v>-3318.310000000003</v>
       </c>
       <c r="N3" t="n">
-        <v>38106.03</v>
+        <v>38937.17</v>
       </c>
       <c r="O3" t="n">
-        <v>23288.21</v>
+        <v>23751.91</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-11046.99</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +626,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9877.950000000001</v>
+        <v>3255.579999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-4770.419999999998</v>
+        <v>-7434.589999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>-30298.94</v>
+        <v>-27906.33</v>
       </c>
       <c r="E4" t="n">
-        <v>-47845.24</v>
+        <v>-45187.15</v>
       </c>
       <c r="F4" t="n">
-        <v>-11085.44</v>
+        <v>-8282.049999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>64602.27</v>
+        <v>68793.74000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>96445.67</v>
+        <v>98371.50999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>101731.18</v>
+        <v>104731.48</v>
       </c>
       <c r="J4" t="n">
-        <v>80783.72</v>
+        <v>86436.66</v>
       </c>
       <c r="K4" t="n">
-        <v>64600.04</v>
+        <v>63356.28</v>
       </c>
       <c r="L4" t="n">
-        <v>38366.52</v>
+        <v>41543.25</v>
       </c>
       <c r="M4" t="n">
-        <v>-15103.73</v>
+        <v>-20201.34</v>
       </c>
       <c r="N4" t="n">
-        <v>-11838.28</v>
+        <v>-17754.61</v>
       </c>
       <c r="O4" t="n">
-        <v>-19766.68</v>
+        <v>-28159.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21081.43</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +678,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15516.3</v>
+        <v>14289.6</v>
       </c>
       <c r="C5" t="n">
-        <v>-9210.280000000001</v>
+        <v>-8908.570000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>3374.16</v>
+        <v>6024.17</v>
       </c>
       <c r="E5" t="n">
-        <v>18130.75</v>
+        <v>19663.21</v>
       </c>
       <c r="F5" t="n">
-        <v>31611.6</v>
+        <v>35978.95</v>
       </c>
       <c r="G5" t="n">
-        <v>27291.85</v>
+        <v>33279.75</v>
       </c>
       <c r="H5" t="n">
-        <v>37172.57</v>
+        <v>41077.78</v>
       </c>
       <c r="I5" t="n">
-        <v>20821.38</v>
+        <v>23018.69</v>
       </c>
       <c r="J5" t="n">
-        <v>-7757.329999999999</v>
+        <v>-5792.54</v>
       </c>
       <c r="K5" t="n">
-        <v>-16374.37</v>
+        <v>-15674.28</v>
       </c>
       <c r="L5" t="n">
-        <v>-17297.03</v>
+        <v>-19167.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3451.189999999999</v>
+        <v>4195.719999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>-235.3400000000001</v>
+        <v>1809.789999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>-323.6200000000008</v>
+        <v>1677.9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-5093.21</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +730,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21852.43</v>
+        <v>21838.14</v>
       </c>
       <c r="C6" t="n">
-        <v>32505.24</v>
+        <v>32509.46</v>
       </c>
       <c r="D6" t="n">
-        <v>5126.629999999999</v>
+        <v>5132.61</v>
       </c>
       <c r="E6" t="n">
-        <v>12480.65</v>
+        <v>12497.74</v>
       </c>
       <c r="F6" t="n">
-        <v>2516.540000000003</v>
+        <v>2537.730000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>33448.32</v>
+        <v>33466.6</v>
       </c>
       <c r="H6" t="n">
-        <v>20061.46</v>
+        <v>20079.58</v>
       </c>
       <c r="I6" t="n">
-        <v>31549.56</v>
+        <v>31566.69</v>
       </c>
       <c r="J6" t="n">
-        <v>19910.96</v>
+        <v>19929.15</v>
       </c>
       <c r="K6" t="n">
-        <v>30719.18</v>
+        <v>30728.36</v>
       </c>
       <c r="L6" t="n">
-        <v>14452.53</v>
+        <v>14460.4</v>
       </c>
       <c r="M6" t="n">
-        <v>-5122.720000000001</v>
+        <v>-5135.040000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>7691.129999999999</v>
+        <v>7679.109999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>14155.69</v>
+        <v>14140.87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16737.27</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +782,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29195.44</v>
+        <v>30638.13</v>
       </c>
       <c r="C7" t="n">
-        <v>27043.44</v>
+        <v>28179.35</v>
       </c>
       <c r="D7" t="n">
-        <v>12575.58</v>
+        <v>11587</v>
       </c>
       <c r="E7" t="n">
-        <v>10027.65</v>
+        <v>8992</v>
       </c>
       <c r="F7" t="n">
-        <v>20994.59</v>
+        <v>20305.72</v>
       </c>
       <c r="G7" t="n">
-        <v>42105.7</v>
+        <v>39984.21</v>
       </c>
       <c r="H7" t="n">
-        <v>41780.99</v>
+        <v>40597.07</v>
       </c>
       <c r="I7" t="n">
-        <v>37371.18</v>
+        <v>38335.16</v>
       </c>
       <c r="J7" t="n">
-        <v>29687.44</v>
+        <v>31540.74</v>
       </c>
       <c r="K7" t="n">
-        <v>15489.33</v>
+        <v>17210.9</v>
       </c>
       <c r="L7" t="n">
-        <v>4965.369999999999</v>
+        <v>6964.67</v>
       </c>
       <c r="M7" t="n">
-        <v>-13718.62</v>
+        <v>-11772.82</v>
       </c>
       <c r="N7" t="n">
-        <v>8243.809999999999</v>
+        <v>9411.880000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>-10435.09</v>
+        <v>-9436.440000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-20466.38</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +834,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105889.23</v>
+        <v>145532.56</v>
       </c>
       <c r="C8" t="n">
-        <v>66000</v>
+        <v>89948.20999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>32482.26</v>
+        <v>56186.31</v>
       </c>
       <c r="E8" t="n">
-        <v>-322.0600000000037</v>
+        <v>26429.14</v>
       </c>
       <c r="F8" t="n">
-        <v>-56109.51</v>
+        <v>-31405.39</v>
       </c>
       <c r="G8" t="n">
-        <v>128735.89</v>
+        <v>110563.72</v>
       </c>
       <c r="H8" t="n">
-        <v>200654.43</v>
+        <v>189656.21</v>
       </c>
       <c r="I8" t="n">
-        <v>266451.02</v>
+        <v>298293.96</v>
       </c>
       <c r="J8" t="n">
-        <v>264116.4</v>
+        <v>272599.4</v>
       </c>
       <c r="K8" t="n">
-        <v>289722.66</v>
+        <v>279789.72</v>
       </c>
       <c r="L8" t="n">
-        <v>207987.06</v>
+        <v>192827.18</v>
       </c>
       <c r="M8" t="n">
-        <v>105851.09</v>
+        <v>126353.48</v>
       </c>
       <c r="N8" t="n">
-        <v>67522.04000000001</v>
+        <v>79329.84000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>35580.37</v>
+        <v>47941.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-8997.639999999999</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +886,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34418.81</v>
+        <v>34431.17</v>
       </c>
       <c r="C9" t="n">
-        <v>26742.79</v>
+        <v>26757.26</v>
       </c>
       <c r="D9" t="n">
-        <v>4820.91</v>
+        <v>4829.06</v>
       </c>
       <c r="E9" t="n">
-        <v>-9225.08</v>
+        <v>-9234.77</v>
       </c>
       <c r="F9" t="n">
-        <v>-11803.13</v>
+        <v>-11812.68</v>
       </c>
       <c r="G9" t="n">
-        <v>-1446.819999999999</v>
+        <v>-1454.48</v>
       </c>
       <c r="H9" t="n">
-        <v>-2783.390000000001</v>
+        <v>-2797.06</v>
       </c>
       <c r="I9" t="n">
-        <v>9114.619999999999</v>
+        <v>9120.1</v>
       </c>
       <c r="J9" t="n">
-        <v>7761.6</v>
+        <v>7772.929999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>17215.5</v>
+        <v>17225.76</v>
       </c>
       <c r="L9" t="n">
-        <v>11947.44</v>
+        <v>11956.79</v>
       </c>
       <c r="M9" t="n">
-        <v>15273.64</v>
+        <v>15287.11</v>
       </c>
       <c r="N9" t="n">
-        <v>11774.08</v>
+        <v>11785.81</v>
       </c>
       <c r="O9" t="n">
-        <v>2113.400000000002</v>
+        <v>2124.920000000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-12597.28</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120745.89</v>
+        <v>120797.48</v>
       </c>
       <c r="C10" t="n">
-        <v>105748.77</v>
+        <v>105798.07</v>
       </c>
       <c r="D10" t="n">
-        <v>68278.78</v>
+        <v>68290.64999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>42260.4</v>
+        <v>42241.56</v>
       </c>
       <c r="F10" t="n">
-        <v>-33658.53</v>
+        <v>-33724.86</v>
       </c>
       <c r="G10" t="n">
-        <v>90669.65000000001</v>
+        <v>90668.56000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>81201.39999999999</v>
+        <v>81206.95</v>
       </c>
       <c r="I10" t="n">
-        <v>138156.59</v>
+        <v>138217.45</v>
       </c>
       <c r="J10" t="n">
-        <v>110284.38</v>
+        <v>110353.39</v>
       </c>
       <c r="K10" t="n">
-        <v>120676.14</v>
+        <v>120742.42</v>
       </c>
       <c r="L10" t="n">
-        <v>27908.17</v>
+        <v>27942.41</v>
       </c>
       <c r="M10" t="n">
-        <v>-56702.88</v>
+        <v>-56622.38</v>
       </c>
       <c r="N10" t="n">
-        <v>-97325.50999999999</v>
+        <v>-97234.74999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>-89757.41</v>
+        <v>-89699.70999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-88829.58</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +990,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15685.03</v>
+        <v>16207.65</v>
       </c>
       <c r="C11" t="n">
-        <v>10362.49</v>
+        <v>10860.09</v>
       </c>
       <c r="D11" t="n">
-        <v>3541.14</v>
+        <v>3105.81</v>
       </c>
       <c r="E11" t="n">
-        <v>3861.610000000001</v>
+        <v>4247.42</v>
       </c>
       <c r="F11" t="n">
-        <v>-3930.2</v>
+        <v>-2758.14</v>
       </c>
       <c r="G11" t="n">
-        <v>6194.18</v>
+        <v>6886.58</v>
       </c>
       <c r="H11" t="n">
-        <v>-6504.05</v>
+        <v>-7120.97</v>
       </c>
       <c r="I11" t="n">
-        <v>12787.7</v>
+        <v>13289.62</v>
       </c>
       <c r="J11" t="n">
-        <v>7200.940000000001</v>
+        <v>6552.970000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>11001.93</v>
+        <v>10639.87</v>
       </c>
       <c r="L11" t="n">
-        <v>7598.75</v>
+        <v>7184.82</v>
       </c>
       <c r="M11" t="n">
-        <v>7916.169999999999</v>
+        <v>8720.23</v>
       </c>
       <c r="N11" t="n">
-        <v>7605.16</v>
+        <v>8277.630000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>14789.33</v>
+        <v>15458.76</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-4432.25</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +1042,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54282.73</v>
+        <v>54234.37</v>
       </c>
       <c r="C12" t="n">
-        <v>42607.79</v>
+        <v>42592.22</v>
       </c>
       <c r="D12" t="n">
-        <v>36471.4</v>
+        <v>36514.21</v>
       </c>
       <c r="E12" t="n">
-        <v>38292.54</v>
+        <v>38343.52</v>
       </c>
       <c r="F12" t="n">
-        <v>21884.02</v>
+        <v>21905.63</v>
       </c>
       <c r="G12" t="n">
-        <v>-7000.120000000002</v>
+        <v>-7059.490000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>11049.44</v>
+        <v>10949.47</v>
       </c>
       <c r="I12" t="n">
-        <v>25594.01</v>
+        <v>25341.94</v>
       </c>
       <c r="J12" t="n">
-        <v>15930.37</v>
+        <v>15619.76</v>
       </c>
       <c r="K12" t="n">
-        <v>29067.44</v>
+        <v>28728.24</v>
       </c>
       <c r="L12" t="n">
-        <v>28315.82</v>
+        <v>27999.59</v>
       </c>
       <c r="M12" t="n">
-        <v>18682.88</v>
+        <v>18433.39</v>
       </c>
       <c r="N12" t="n">
-        <v>2903.740000000001</v>
+        <v>2957.490000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>12058.29</v>
+        <v>12263.55</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4002.18</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1094,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25117.75</v>
+        <v>20873.86</v>
       </c>
       <c r="C13" t="n">
-        <v>-8737.58</v>
+        <v>-13167.99</v>
       </c>
       <c r="D13" t="n">
-        <v>-7933.090000000001</v>
+        <v>-12126.93</v>
       </c>
       <c r="E13" t="n">
-        <v>-16367.34</v>
+        <v>-20586.41</v>
       </c>
       <c r="F13" t="n">
-        <v>-8311.950000000001</v>
+        <v>-10304.01</v>
       </c>
       <c r="G13" t="n">
-        <v>33499.31</v>
+        <v>36159.02</v>
       </c>
       <c r="H13" t="n">
-        <v>42854.51</v>
+        <v>47202.39</v>
       </c>
       <c r="I13" t="n">
-        <v>42368.68000000001</v>
+        <v>46748.72</v>
       </c>
       <c r="J13" t="n">
-        <v>36093.88</v>
+        <v>40754.48</v>
       </c>
       <c r="K13" t="n">
-        <v>47687.86</v>
+        <v>51915.79</v>
       </c>
       <c r="L13" t="n">
-        <v>38840.06</v>
+        <v>41934.34</v>
       </c>
       <c r="M13" t="n">
-        <v>28802.62</v>
+        <v>30422.89</v>
       </c>
       <c r="N13" t="n">
-        <v>28585.63</v>
+        <v>30232.32</v>
       </c>
       <c r="O13" t="n">
-        <v>42837.07</v>
+        <v>44885.77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-2981.2</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1146,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169974.43</v>
+        <v>157996.64</v>
       </c>
       <c r="C14" t="n">
-        <v>-47237.54000000002</v>
+        <v>-52461.46000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>-114934.01</v>
+        <v>-121381.58</v>
       </c>
       <c r="E14" t="n">
-        <v>-250284.64</v>
+        <v>-260485.22</v>
       </c>
       <c r="F14" t="n">
-        <v>-208616.75</v>
+        <v>-217485.65</v>
       </c>
       <c r="G14" t="n">
-        <v>136233.8</v>
+        <v>127157.9</v>
       </c>
       <c r="H14" t="n">
-        <v>347864.8</v>
+        <v>344291.54</v>
       </c>
       <c r="I14" t="n">
-        <v>494497.13</v>
+        <v>491491.05</v>
       </c>
       <c r="J14" t="n">
-        <v>435839.3</v>
+        <v>441762.69</v>
       </c>
       <c r="K14" t="n">
-        <v>397089.89</v>
+        <v>389605.13</v>
       </c>
       <c r="L14" t="n">
-        <v>263014.77</v>
+        <v>256346.23</v>
       </c>
       <c r="M14" t="n">
-        <v>139352.66</v>
+        <v>128045.1</v>
       </c>
       <c r="N14" t="n">
-        <v>41382.37000000001</v>
+        <v>30985.87</v>
       </c>
       <c r="O14" t="n">
-        <v>4005.409999999996</v>
+        <v>1016.139999999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-5944.739999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1198,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102998.05</v>
+        <v>63065.14</v>
       </c>
       <c r="C15" t="n">
-        <v>50286.55</v>
+        <v>35535.19999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>-72544.41</v>
+        <v>-51317.86</v>
       </c>
       <c r="E15" t="n">
-        <v>-77268.29000000001</v>
+        <v>-55029.88</v>
       </c>
       <c r="F15" t="n">
-        <v>30357.39</v>
+        <v>25026.94</v>
       </c>
       <c r="G15" t="n">
-        <v>303428.57</v>
+        <v>284380.96</v>
       </c>
       <c r="H15" t="n">
-        <v>356093.65</v>
+        <v>371702.16</v>
       </c>
       <c r="I15" t="n">
-        <v>417218.76</v>
+        <v>400057.52</v>
       </c>
       <c r="J15" t="n">
-        <v>342024.71</v>
+        <v>362386.55</v>
       </c>
       <c r="K15" t="n">
-        <v>343527.76</v>
+        <v>364684.96</v>
       </c>
       <c r="L15" t="n">
-        <v>156793.78</v>
+        <v>185677.95</v>
       </c>
       <c r="M15" t="n">
-        <v>109491.6</v>
+        <v>101353.67</v>
       </c>
       <c r="N15" t="n">
-        <v>80083.56</v>
+        <v>101710.9</v>
       </c>
       <c r="O15" t="n">
-        <v>-29539.16</v>
+        <v>-29134.85</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-70248.75</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1250,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122122.53</v>
+        <v>154415</v>
       </c>
       <c r="C16" t="n">
-        <v>95208.27</v>
+        <v>112003.96</v>
       </c>
       <c r="D16" t="n">
-        <v>75530.15000000001</v>
+        <v>57227.82</v>
       </c>
       <c r="E16" t="n">
-        <v>63795.21999999999</v>
+        <v>45372.22</v>
       </c>
       <c r="F16" t="n">
-        <v>88197.06999999999</v>
+        <v>98117.48</v>
       </c>
       <c r="G16" t="n">
-        <v>227013.18</v>
+        <v>239878.85</v>
       </c>
       <c r="H16" t="n">
-        <v>258569.74</v>
+        <v>226957.95</v>
       </c>
       <c r="I16" t="n">
-        <v>336431.35</v>
+        <v>354172.03</v>
       </c>
       <c r="J16" t="n">
-        <v>322348.23</v>
+        <v>309076.75</v>
       </c>
       <c r="K16" t="n">
-        <v>263197.94</v>
+        <v>248854.64</v>
       </c>
       <c r="L16" t="n">
-        <v>62684.07999999999</v>
+        <v>43583.93</v>
       </c>
       <c r="M16" t="n">
-        <v>85416.01999999999</v>
+        <v>97277.03</v>
       </c>
       <c r="N16" t="n">
-        <v>16730.42</v>
+        <v>48.33000000000675</v>
       </c>
       <c r="O16" t="n">
-        <v>-3771.300000000005</v>
+        <v>-4907.530000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15765.95</v>
       </c>
     </row>
     <row r="17">
@@ -1293,6 +1343,9 @@
       <c r="O17" t="n">
         <v>3198.71</v>
       </c>
+      <c r="P17" t="n">
+        <v>-458.9699999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1342,6 +1395,9 @@
       <c r="O18" t="n">
         <v>-33367.63</v>
       </c>
+      <c r="P18" t="n">
+        <v>-41477.33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1391,6 +1447,9 @@
       <c r="O19" t="n">
         <v>3328.26</v>
       </c>
+      <c r="P19" t="n">
+        <v>-2216.71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1399,46 +1458,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22353.28</v>
+        <v>21079.39</v>
       </c>
       <c r="C20" t="n">
-        <v>22649.36</v>
+        <v>21463.46</v>
       </c>
       <c r="D20" t="n">
-        <v>16114.78</v>
+        <v>15356.13</v>
       </c>
       <c r="E20" t="n">
-        <v>-4490.13</v>
+        <v>-4204.06</v>
       </c>
       <c r="F20" t="n">
-        <v>2896.38</v>
+        <v>3452.36</v>
       </c>
       <c r="G20" t="n">
-        <v>9265.280000000001</v>
+        <v>9826.090000000002</v>
       </c>
       <c r="H20" t="n">
-        <v>11421.48</v>
+        <v>12090.54</v>
       </c>
       <c r="I20" t="n">
-        <v>19646.61</v>
+        <v>20347.79</v>
       </c>
       <c r="J20" t="n">
-        <v>21952.44</v>
+        <v>21113.51</v>
       </c>
       <c r="K20" t="n">
-        <v>24128.93</v>
+        <v>24725.59</v>
       </c>
       <c r="L20" t="n">
-        <v>24129.09</v>
+        <v>25099.66</v>
       </c>
       <c r="M20" t="n">
-        <v>28952.46</v>
+        <v>29791.5</v>
       </c>
       <c r="N20" t="n">
-        <v>14297.89</v>
+        <v>15179.4</v>
       </c>
       <c r="O20" t="n">
-        <v>-9964.58</v>
+        <v>-8803.469999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-15738.68</v>
       </c>
     </row>
     <row r="21">
@@ -1448,46 +1510,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2536.69</v>
+        <v>2217.61</v>
       </c>
       <c r="C21" t="n">
-        <v>1404.3</v>
+        <v>1350.42</v>
       </c>
       <c r="D21" t="n">
-        <v>3459.05</v>
+        <v>3318.6</v>
       </c>
       <c r="E21" t="n">
-        <v>2444.36</v>
+        <v>2505.99</v>
       </c>
       <c r="F21" t="n">
-        <v>1518.9</v>
+        <v>1283.4</v>
       </c>
       <c r="G21" t="n">
-        <v>37.88000000000011</v>
+        <v>352.23</v>
       </c>
       <c r="H21" t="n">
-        <v>5157.68</v>
+        <v>3294.23</v>
       </c>
       <c r="I21" t="n">
-        <v>-3384.88</v>
+        <v>-3058.26</v>
       </c>
       <c r="J21" t="n">
-        <v>-3681.97</v>
+        <v>-3502.56</v>
       </c>
       <c r="K21" t="n">
-        <v>1807.17</v>
+        <v>2018.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1030</v>
+        <v>909.2300000000005</v>
       </c>
       <c r="M21" t="n">
-        <v>-5265.16</v>
+        <v>-5390.88</v>
       </c>
       <c r="N21" t="n">
-        <v>-1467.73</v>
+        <v>-1689</v>
       </c>
       <c r="O21" t="n">
-        <v>-1542.32</v>
+        <v>-2663.77</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-5069.83</v>
       </c>
     </row>
     <row r="22">
@@ -1497,46 +1562,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4491.94</v>
+        <v>6084.91</v>
       </c>
       <c r="C22" t="n">
-        <v>4749.48</v>
+        <v>5989.259999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>-1169.13</v>
+        <v>-270.03</v>
       </c>
       <c r="E22" t="n">
-        <v>-3857.349999999999</v>
+        <v>-4205.049999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>-8697.440000000001</v>
+        <v>-9017.92</v>
       </c>
       <c r="G22" t="n">
-        <v>-1186.53</v>
+        <v>-2061.69</v>
       </c>
       <c r="H22" t="n">
-        <v>797.1099999999999</v>
+        <v>-111.6099999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>5280.650000000001</v>
+        <v>4252.85</v>
       </c>
       <c r="J22" t="n">
-        <v>5672.43</v>
+        <v>6331.95</v>
       </c>
       <c r="K22" t="n">
-        <v>9472.35</v>
+        <v>8664.610000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>6895.470000000001</v>
+        <v>6045.67</v>
       </c>
       <c r="M22" t="n">
-        <v>4258.43</v>
+        <v>3545.11</v>
       </c>
       <c r="N22" t="n">
-        <v>-771.0999999999999</v>
+        <v>-1431.34</v>
       </c>
       <c r="O22" t="n">
-        <v>3757.99</v>
+        <v>2625.77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>397.3000000000002</v>
       </c>
     </row>
     <row r="23">
@@ -1546,46 +1614,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89769.67999999999</v>
+        <v>88342.25</v>
       </c>
       <c r="C23" t="n">
-        <v>86506.91</v>
+        <v>85093.40000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>83519.66</v>
+        <v>82312.46000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>81856.37</v>
+        <v>80908.17</v>
       </c>
       <c r="F23" t="n">
-        <v>58599.96</v>
+        <v>58063.58</v>
       </c>
       <c r="G23" t="n">
-        <v>-9638.449999999999</v>
+        <v>-9001.969999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>22704.3</v>
+        <v>23671.99</v>
       </c>
       <c r="I23" t="n">
-        <v>24963.27</v>
+        <v>25412.54</v>
       </c>
       <c r="J23" t="n">
-        <v>19889.93</v>
+        <v>20123.38</v>
       </c>
       <c r="K23" t="n">
-        <v>43841.76</v>
+        <v>43131.26</v>
       </c>
       <c r="L23" t="n">
-        <v>44235.86</v>
+        <v>43944.22</v>
       </c>
       <c r="M23" t="n">
-        <v>33594</v>
+        <v>32788.37</v>
       </c>
       <c r="N23" t="n">
-        <v>65034.05</v>
+        <v>65398.87</v>
       </c>
       <c r="O23" t="n">
-        <v>48396.75</v>
+        <v>48733.09</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-4203.990000000003</v>
       </c>
     </row>
     <row r="24">
@@ -1595,46 +1666,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5403.08</v>
+        <v>2229.1</v>
       </c>
       <c r="C24" t="n">
-        <v>2945.29</v>
+        <v>1488.089999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-3058.72</v>
+        <v>-185.84</v>
       </c>
       <c r="E24" t="n">
-        <v>6328.940000000001</v>
+        <v>8453.580000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>4309.170000000001</v>
+        <v>1397.600000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-85.75000000000011</v>
+        <v>2429.8</v>
       </c>
       <c r="H24" t="n">
-        <v>-6162.63</v>
+        <v>-3486.720000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>6747.339999999999</v>
+        <v>8525.019999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-10886.77</v>
+        <v>-6835.720000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-12077.14</v>
+        <v>-7785.66</v>
       </c>
       <c r="L24" t="n">
-        <v>-5736.750000000001</v>
+        <v>-1632.45</v>
       </c>
       <c r="M24" t="n">
-        <v>-66.44000000000017</v>
+        <v>2584.17</v>
       </c>
       <c r="N24" t="n">
-        <v>3360.5</v>
+        <v>2243.98</v>
       </c>
       <c r="O24" t="n">
-        <v>7894.47</v>
+        <v>6177.56</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3832.67</v>
       </c>
     </row>
     <row r="25">
@@ -1644,46 +1718,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139637.27</v>
+        <v>150392.91</v>
       </c>
       <c r="C25" t="n">
-        <v>99974.95</v>
+        <v>111445.81</v>
       </c>
       <c r="D25" t="n">
-        <v>78320.27</v>
+        <v>89258.33</v>
       </c>
       <c r="E25" t="n">
-        <v>56349.5</v>
+        <v>67092.25</v>
       </c>
       <c r="F25" t="n">
-        <v>31778.8</v>
+        <v>39541.46</v>
       </c>
       <c r="G25" t="n">
-        <v>-81782.8</v>
+        <v>-76907.75999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-41247</v>
+        <v>-31923.2</v>
       </c>
       <c r="I25" t="n">
-        <v>-29478.94</v>
+        <v>-23521.03</v>
       </c>
       <c r="J25" t="n">
-        <v>-62326.1</v>
+        <v>-55551.48</v>
       </c>
       <c r="K25" t="n">
-        <v>-50412.14</v>
+        <v>-45040.96</v>
       </c>
       <c r="L25" t="n">
-        <v>-41264.19</v>
+        <v>-36273.35</v>
       </c>
       <c r="M25" t="n">
-        <v>-39782.52</v>
+        <v>-34360.73</v>
       </c>
       <c r="N25" t="n">
-        <v>14684.52</v>
+        <v>9054.029999999997</v>
       </c>
       <c r="O25" t="n">
-        <v>32556.19</v>
+        <v>33970.28999999999</v>
+      </c>
+      <c r="P25" t="n">
+        <v>16418.28</v>
       </c>
     </row>
     <row r="26">
@@ -1734,6 +1811,9 @@
       <c r="O26" t="n">
         <v>6974.57</v>
       </c>
+      <c r="P26" t="n">
+        <v>9033.549999999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1742,46 +1822,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7156.940000000001</v>
+        <v>7111.27</v>
       </c>
       <c r="C27" t="n">
-        <v>5751.79</v>
+        <v>5682.77</v>
       </c>
       <c r="D27" t="n">
-        <v>-10515.22</v>
+        <v>-10476.97</v>
       </c>
       <c r="E27" t="n">
-        <v>-16046.9</v>
+        <v>-16006.07</v>
       </c>
       <c r="F27" t="n">
-        <v>-13867.46</v>
+        <v>-13786.13</v>
       </c>
       <c r="G27" t="n">
-        <v>-10598.84</v>
+        <v>-10550.82</v>
       </c>
       <c r="H27" t="n">
-        <v>-10665.01</v>
+        <v>-10593.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1283.74</v>
+        <v>1246.08</v>
       </c>
       <c r="J27" t="n">
-        <v>5945.98</v>
+        <v>5892.31</v>
       </c>
       <c r="K27" t="n">
-        <v>-2023.6</v>
+        <v>-2119.01</v>
       </c>
       <c r="L27" t="n">
-        <v>-2474.76</v>
+        <v>-2542.38</v>
       </c>
       <c r="M27" t="n">
-        <v>-6519.84</v>
+        <v>-6581.77</v>
       </c>
       <c r="N27" t="n">
-        <v>-6581.559999999999</v>
+        <v>-6643.24</v>
       </c>
       <c r="O27" t="n">
-        <v>-13101.8</v>
+        <v>-13157.97</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-6766.639999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1791,46 +1874,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4097.64</v>
+        <v>-4051.97</v>
       </c>
       <c r="C28" t="n">
-        <v>-5670.07</v>
+        <v>-5601.05</v>
       </c>
       <c r="D28" t="n">
-        <v>-2756.42</v>
+        <v>-2794.67</v>
       </c>
       <c r="E28" t="n">
-        <v>-1157.52</v>
+        <v>-1198.35</v>
       </c>
       <c r="F28" t="n">
-        <v>5886.389999999999</v>
+        <v>5805.059999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>8276.470000000001</v>
+        <v>8228.450000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>8358.33</v>
+        <v>8287.17</v>
       </c>
       <c r="I28" t="n">
-        <v>3042.23</v>
+        <v>3079.89</v>
       </c>
       <c r="J28" t="n">
-        <v>5625.88</v>
+        <v>5679.55</v>
       </c>
       <c r="K28" t="n">
-        <v>5731</v>
+        <v>5826.41</v>
       </c>
       <c r="L28" t="n">
-        <v>3215.43</v>
+        <v>3283.05</v>
       </c>
       <c r="M28" t="n">
-        <v>-1009.19</v>
+        <v>-947.26</v>
       </c>
       <c r="N28" t="n">
-        <v>8849.59</v>
+        <v>8911.269999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>5408.83</v>
+        <v>5465</v>
+      </c>
+      <c r="P28" t="n">
+        <v>740.6</v>
       </c>
     </row>
     <row r="29">
@@ -1840,7 +1926,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>832.12</v>
+        <v>845.5700000000001</v>
       </c>
       <c r="C29" t="n">
         <v>1331.3</v>
@@ -1858,29 +1944,32 @@
         <v>412.1</v>
       </c>
       <c r="H29" t="n">
-        <v>358.5700000000001</v>
+        <v>324.48</v>
       </c>
       <c r="I29" t="n">
-        <v>360.37</v>
+        <v>331.34</v>
       </c>
       <c r="J29" t="n">
-        <v>-599.5699999999999</v>
+        <v>-624.1999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-727.5200000000001</v>
+        <v>-746.96</v>
       </c>
       <c r="L29" t="n">
-        <v>-936.89</v>
+        <v>-909.13</v>
       </c>
       <c r="M29" t="n">
-        <v>-1077.63</v>
+        <v>-1056.8</v>
       </c>
       <c r="N29" t="n">
-        <v>-529.02</v>
+        <v>-515.5700000000001</v>
       </c>
       <c r="O29" t="n">
         <v>-234.27</v>
       </c>
+      <c r="P29" t="n">
+        <v>-271.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1889,46 +1978,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>399.61</v>
+        <v>302.87</v>
       </c>
       <c r="C30" t="n">
-        <v>572.5599999999999</v>
+        <v>502.45</v>
       </c>
       <c r="D30" t="n">
-        <v>874.5699999999999</v>
+        <v>819.8</v>
       </c>
       <c r="E30" t="n">
-        <v>912.9300000000001</v>
+        <v>983.6</v>
       </c>
       <c r="F30" t="n">
-        <v>787.5700000000001</v>
+        <v>911.84</v>
       </c>
       <c r="G30" t="n">
-        <v>716.61</v>
+        <v>862.9400000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>584.0700000000001</v>
+        <v>686.71</v>
       </c>
       <c r="I30" t="n">
-        <v>51.18000000000001</v>
+        <v>95.09</v>
       </c>
       <c r="J30" t="n">
-        <v>-310.53</v>
+        <v>-255.85</v>
       </c>
       <c r="K30" t="n">
-        <v>-214.83</v>
+        <v>-272.2</v>
       </c>
       <c r="L30" t="n">
-        <v>-189.95</v>
+        <v>-257.91</v>
       </c>
       <c r="M30" t="n">
-        <v>-92.64999999999998</v>
+        <v>-104.74</v>
       </c>
       <c r="N30" t="n">
-        <v>-68.14000000000001</v>
+        <v>32.99999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>20.46999999999999</v>
+        <v>-24.73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-192.34</v>
       </c>
     </row>
     <row r="31">
@@ -1938,46 +2030,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>905.2900000000001</v>
+        <v>988.58</v>
       </c>
       <c r="C31" t="n">
-        <v>1228.47</v>
+        <v>1298.58</v>
       </c>
       <c r="D31" t="n">
-        <v>491.29</v>
+        <v>546.0599999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>628.52</v>
+        <v>557.85</v>
       </c>
       <c r="F31" t="n">
-        <v>952.5599999999999</v>
+        <v>828.29</v>
       </c>
       <c r="G31" t="n">
-        <v>801.4799999999999</v>
+        <v>655.15</v>
       </c>
       <c r="H31" t="n">
-        <v>788.3</v>
+        <v>719.75</v>
       </c>
       <c r="I31" t="n">
-        <v>555.0600000000001</v>
+        <v>540.1800000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>-669.5400000000001</v>
+        <v>-699.59</v>
       </c>
       <c r="K31" t="n">
-        <v>-1070.68</v>
+        <v>-993.87</v>
       </c>
       <c r="L31" t="n">
-        <v>-790.28</v>
+        <v>-750.08</v>
       </c>
       <c r="M31" t="n">
-        <v>-1211.33</v>
+        <v>-1220.07</v>
       </c>
       <c r="N31" t="n">
-        <v>-673.84</v>
+        <v>-788.4300000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>-624.3</v>
+        <v>-579.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-909.97</v>
       </c>
     </row>
     <row r="32">
@@ -1987,22 +2082,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13724.84</v>
+        <v>9022.41</v>
       </c>
       <c r="C32" t="n">
-        <v>19778.54</v>
+        <v>14289.76</v>
       </c>
       <c r="D32" t="n">
-        <v>19932.34</v>
+        <v>14786.12</v>
       </c>
       <c r="E32" t="n">
-        <v>20425.49</v>
+        <v>15628.22</v>
       </c>
       <c r="F32" t="n">
-        <v>20308.48</v>
+        <v>16219.79</v>
       </c>
       <c r="G32" t="n">
-        <v>5648.690000000001</v>
+        <v>7513.5</v>
       </c>
       <c r="H32" t="n">
         <v>5113.24</v>
@@ -2020,13 +2115,16 @@
         <v>7772.84</v>
       </c>
       <c r="M32" t="n">
-        <v>-2560.830000000001</v>
+        <v>-1604.64</v>
       </c>
       <c r="N32" t="n">
-        <v>4838.11</v>
+        <v>9519.24</v>
       </c>
       <c r="O32" t="n">
-        <v>1027.99</v>
+        <v>3959.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10118.96</v>
       </c>
     </row>
     <row r="33">
@@ -2077,6 +2175,9 @@
       <c r="O33" t="n">
         <v>-4786.48</v>
       </c>
+      <c r="P33" t="n">
+        <v>-8062.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2085,22 +2186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13678.87</v>
+        <v>18381.3</v>
       </c>
       <c r="C34" t="n">
-        <v>12327.46</v>
+        <v>17816.24</v>
       </c>
       <c r="D34" t="n">
-        <v>10907.78</v>
+        <v>16054</v>
       </c>
       <c r="E34" t="n">
-        <v>9707.290000000001</v>
+        <v>14504.56</v>
       </c>
       <c r="F34" t="n">
-        <v>7237.59</v>
+        <v>11326.28</v>
       </c>
       <c r="G34" t="n">
-        <v>-5619.66</v>
+        <v>-7484.469999999999</v>
       </c>
       <c r="H34" t="n">
         <v>4409.82</v>
@@ -2118,13 +2219,16 @@
         <v>-14422.43</v>
       </c>
       <c r="M34" t="n">
-        <v>-14392.88</v>
+        <v>-15349.07</v>
       </c>
       <c r="N34" t="n">
-        <v>-12843.92</v>
+        <v>-17525.05</v>
       </c>
       <c r="O34" t="n">
-        <v>-12857.02</v>
+        <v>-15788.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-16863.9</v>
       </c>
     </row>
     <row r="35">
@@ -2175,6 +2279,9 @@
       <c r="O35" t="n">
         <v>2893.07</v>
       </c>
+      <c r="P35" t="n">
+        <v>2631.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2201,7 +2308,7 @@
         <v>8826.5</v>
       </c>
       <c r="H36" t="n">
-        <v>17168.07</v>
+        <v>8445.24</v>
       </c>
       <c r="I36" t="n">
         <v>-31247.41</v>
@@ -2222,7 +2329,10 @@
         <v>-10778.74</v>
       </c>
       <c r="O36" t="n">
-        <v>-9858.07</v>
+        <v>-21827.62</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-14027.78</v>
       </c>
     </row>
     <row r="37">
@@ -2273,6 +2383,9 @@
       <c r="O37" t="n">
         <v>-17275.65</v>
       </c>
+      <c r="P37" t="n">
+        <v>-19063.79</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2322,6 +2435,9 @@
       <c r="O38" t="n">
         <v>-3136.76</v>
       </c>
+      <c r="P38" t="n">
+        <v>-513.6399999999994</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2371,6 +2487,9 @@
       <c r="O39" t="n">
         <v>-29837.56</v>
       </c>
+      <c r="P39" t="n">
+        <v>-24295.08</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2420,6 +2539,9 @@
       <c r="O40" t="n">
         <v>-40195.28000000001</v>
       </c>
+      <c r="P40" t="n">
+        <v>-46784.09</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2428,46 +2550,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13079.99</v>
+        <v>20072.75</v>
       </c>
       <c r="C41" t="n">
-        <v>8250.9</v>
+        <v>16930.01</v>
       </c>
       <c r="D41" t="n">
-        <v>14545.86</v>
+        <v>23203.99</v>
       </c>
       <c r="E41" t="n">
-        <v>13981.21</v>
+        <v>19010.37</v>
       </c>
       <c r="F41" t="n">
-        <v>15899.36</v>
+        <v>20992.12</v>
       </c>
       <c r="G41" t="n">
-        <v>16158.7</v>
+        <v>21298.16</v>
       </c>
       <c r="H41" t="n">
-        <v>15133.49</v>
+        <v>8394.290000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>12189.66</v>
+        <v>5498.749999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>8348.85</v>
+        <v>1655.930000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-6690.059999999999</v>
+        <v>-13397.66</v>
       </c>
       <c r="L41" t="n">
-        <v>-15802.35</v>
+        <v>-22513.77</v>
       </c>
       <c r="M41" t="n">
-        <v>-8880.210000000001</v>
+        <v>-3334.78</v>
       </c>
       <c r="N41" t="n">
-        <v>-9565.220000000001</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>-10625.21</v>
+        <v>-3872.39</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-2316.650000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2477,46 +2602,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14197.71</v>
+        <v>7204.950000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>16236.99</v>
+        <v>7557.88</v>
       </c>
       <c r="D42" t="n">
-        <v>16939.84</v>
+        <v>8281.710000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>13703.97</v>
+        <v>8674.810000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>13624.33</v>
+        <v>8531.57</v>
       </c>
       <c r="G42" t="n">
-        <v>11241.94</v>
+        <v>6102.48</v>
       </c>
       <c r="H42" t="n">
-        <v>-2851.47</v>
+        <v>3887.73</v>
       </c>
       <c r="I42" t="n">
-        <v>-2746.94</v>
+        <v>3943.97</v>
       </c>
       <c r="J42" t="n">
-        <v>-9016.58</v>
+        <v>-2323.66</v>
       </c>
       <c r="K42" t="n">
-        <v>-5118.91</v>
+        <v>1588.69</v>
       </c>
       <c r="L42" t="n">
-        <v>907.6799999999994</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>15359.52</v>
+        <v>9814.09</v>
       </c>
       <c r="N42" t="n">
-        <v>16879.26</v>
+        <v>10117.7</v>
       </c>
       <c r="O42" t="n">
-        <v>16595.27</v>
+        <v>9842.450000000001</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7723.59</v>
       </c>
     </row>
     <row r="43">
@@ -2567,6 +2695,9 @@
       <c r="O43" t="n">
         <v>-2244.57</v>
       </c>
+      <c r="P43" t="n">
+        <v>3802.41</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2616,6 +2747,9 @@
       <c r="O44" t="n">
         <v>-8628.540000000001</v>
       </c>
+      <c r="P44" t="n">
+        <v>-6669.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2665,6 +2799,9 @@
       <c r="O45" t="n">
         <v>-1129.64</v>
       </c>
+      <c r="P45" t="n">
+        <v>115.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2673,46 +2810,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41396.8</v>
+        <v>41457.91</v>
       </c>
       <c r="C46" t="n">
-        <v>26586.64</v>
+        <v>26649.53</v>
       </c>
       <c r="D46" t="n">
-        <v>32761.67</v>
+        <v>32770.67</v>
       </c>
       <c r="E46" t="n">
-        <v>7511.290000000002</v>
+        <v>7687.8</v>
       </c>
       <c r="F46" t="n">
-        <v>3852.810000000001</v>
+        <v>4073.650000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>36590.68</v>
+        <v>36835.44</v>
       </c>
       <c r="H46" t="n">
-        <v>22499.34</v>
+        <v>22826.02</v>
       </c>
       <c r="I46" t="n">
-        <v>28413.27</v>
+        <v>28743.38</v>
       </c>
       <c r="J46" t="n">
-        <v>-1093.030000000003</v>
+        <v>-710.0500000000034</v>
       </c>
       <c r="K46" t="n">
-        <v>1096.439999999997</v>
+        <v>1456.360000000003</v>
       </c>
       <c r="L46" t="n">
-        <v>11177.1</v>
+        <v>11616.31</v>
       </c>
       <c r="M46" t="n">
-        <v>17616.07</v>
+        <v>17972.99</v>
       </c>
       <c r="N46" t="n">
-        <v>39195.07</v>
+        <v>39551.63</v>
       </c>
       <c r="O46" t="n">
-        <v>72883.87</v>
+        <v>72996.39999999999</v>
+      </c>
+      <c r="P46" t="n">
+        <v>59659.35</v>
       </c>
     </row>
     <row r="47">
@@ -2722,46 +2862,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50303.79</v>
+        <v>49829.39</v>
       </c>
       <c r="C47" t="n">
-        <v>39682.58</v>
+        <v>39063.51</v>
       </c>
       <c r="D47" t="n">
-        <v>8104.63</v>
+        <v>10371.91</v>
       </c>
       <c r="E47" t="n">
-        <v>13311.14</v>
+        <v>14783.34</v>
       </c>
       <c r="F47" t="n">
-        <v>-8495.920000000002</v>
+        <v>-8616.120000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>25859.95</v>
+        <v>25983.09</v>
       </c>
       <c r="H47" t="n">
-        <v>-14345.64</v>
+        <v>-13474.34</v>
       </c>
       <c r="I47" t="n">
-        <v>21960.47</v>
+        <v>21397.3</v>
       </c>
       <c r="J47" t="n">
-        <v>-7664.73</v>
+        <v>-8287.049999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>3949.77</v>
+        <v>2753.93</v>
       </c>
       <c r="L47" t="n">
-        <v>1380.88</v>
+        <v>1449.03</v>
       </c>
       <c r="M47" t="n">
-        <v>34204.6</v>
+        <v>34040.79</v>
       </c>
       <c r="N47" t="n">
-        <v>27541.53</v>
+        <v>27967.52</v>
       </c>
       <c r="O47" t="n">
-        <v>19818.49</v>
+        <v>20076.92</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8405.640000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2771,46 +2914,49 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30487.35</v>
+        <v>31745.78</v>
       </c>
       <c r="C48" t="n">
-        <v>23071.5</v>
+        <v>23252.11</v>
       </c>
       <c r="D48" t="n">
-        <v>-8326.24</v>
+        <v>-9519.890000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>-10313.42</v>
+        <v>-10837.93</v>
       </c>
       <c r="F48" t="n">
-        <v>-21725.77</v>
+        <v>-21055.43</v>
       </c>
       <c r="G48" t="n">
-        <v>-23468.64</v>
+        <v>-22642.95</v>
       </c>
       <c r="H48" t="n">
-        <v>-27669.97</v>
+        <v>-27606.61</v>
       </c>
       <c r="I48" t="n">
-        <v>-10082.22</v>
+        <v>-10722.2</v>
       </c>
       <c r="J48" t="n">
-        <v>-30719.52</v>
+        <v>-31595.76</v>
       </c>
       <c r="K48" t="n">
-        <v>-28041.89</v>
+        <v>-28018.7</v>
       </c>
       <c r="L48" t="n">
-        <v>-8428.690000000001</v>
+        <v>-10421.65</v>
       </c>
       <c r="M48" t="n">
-        <v>3879.249999999999</v>
+        <v>2370.119999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>-10747.69</v>
+        <v>-12007.67</v>
       </c>
       <c r="O48" t="n">
-        <v>-13400.78</v>
+        <v>-14445.02</v>
+      </c>
+      <c r="P48" t="n">
+        <v>17499.07</v>
       </c>
     </row>
     <row r="49">
@@ -2861,6 +3007,9 @@
       <c r="O49" t="n">
         <v>22378.93</v>
       </c>
+      <c r="P49" t="n">
+        <v>23197.34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2869,46 +3018,49 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>18754.38</v>
+        <v>18730.22</v>
       </c>
       <c r="C50" t="n">
-        <v>-660.5299999999978</v>
+        <v>-687.359999999998</v>
       </c>
       <c r="D50" t="n">
-        <v>8164.300000000002</v>
+        <v>8140.050000000002</v>
       </c>
       <c r="E50" t="n">
-        <v>3536.840000000002</v>
+        <v>3514.410000000002</v>
       </c>
       <c r="F50" t="n">
-        <v>-27.43999999999801</v>
+        <v>-31.30999999999813</v>
       </c>
       <c r="G50" t="n">
-        <v>28898.96</v>
+        <v>28893.16</v>
       </c>
       <c r="H50" t="n">
-        <v>27826.98</v>
+        <v>27837.63</v>
       </c>
       <c r="I50" t="n">
-        <v>25449.47</v>
+        <v>25457.78</v>
       </c>
       <c r="J50" t="n">
-        <v>19619.3</v>
+        <v>19614.36</v>
       </c>
       <c r="K50" t="n">
-        <v>5474.329999999998</v>
+        <v>5464.389999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>-13197.12</v>
+        <v>-13208.71</v>
       </c>
       <c r="M50" t="n">
-        <v>-6696.71</v>
+        <v>-6714.9</v>
       </c>
       <c r="N50" t="n">
-        <v>-10386.98</v>
+        <v>-10405.65</v>
       </c>
       <c r="O50" t="n">
-        <v>-36192.14</v>
+        <v>-36206.64999999999</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-43713.37</v>
       </c>
     </row>
     <row r="51">
@@ -2959,6 +3111,9 @@
       <c r="O51" t="n">
         <v>-15781.1</v>
       </c>
+      <c r="P51" t="n">
+        <v>-12273.21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2967,46 +3122,49 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2783.719999999999</v>
+        <v>-2461.630000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>9808.66</v>
+        <v>9902.369999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>11051.58</v>
+        <v>10965.77</v>
       </c>
       <c r="E52" t="n">
-        <v>12859.83</v>
+        <v>13009.99</v>
       </c>
       <c r="F52" t="n">
-        <v>-2332.390000000002</v>
+        <v>-2180.519999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>27877.05</v>
+        <v>27992.17</v>
       </c>
       <c r="H52" t="n">
-        <v>24747.2</v>
+        <v>24991.02</v>
       </c>
       <c r="I52" t="n">
-        <v>36629.03</v>
+        <v>36822.61</v>
       </c>
       <c r="J52" t="n">
-        <v>32596.75</v>
+        <v>32765.19</v>
       </c>
       <c r="K52" t="n">
-        <v>34875.64</v>
+        <v>34977.06</v>
       </c>
       <c r="L52" t="n">
-        <v>36196.68</v>
+        <v>36306.37</v>
       </c>
       <c r="M52" t="n">
-        <v>-8963.01</v>
+        <v>-8882.24</v>
       </c>
       <c r="N52" t="n">
-        <v>-22235.25</v>
+        <v>-22152</v>
       </c>
       <c r="O52" t="n">
-        <v>-310.7999999999975</v>
+        <v>-191.6899999999969</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-3001.330000000002</v>
       </c>
     </row>
     <row r="53">
@@ -3016,46 +3174,49 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8381.93</v>
+        <v>8493.66</v>
       </c>
       <c r="C53" t="n">
-        <v>6608.389999999999</v>
+        <v>6707.690000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>-1914.64</v>
+        <v>-1820.93</v>
       </c>
       <c r="E53" t="n">
-        <v>-3566.64</v>
+        <v>-3473</v>
       </c>
       <c r="F53" t="n">
-        <v>-16500.78</v>
+        <v>-16435.9</v>
       </c>
       <c r="G53" t="n">
-        <v>-6749.499999999999</v>
+        <v>-6792.9</v>
       </c>
       <c r="H53" t="n">
-        <v>-7740.23</v>
+        <v>-7782.95</v>
       </c>
       <c r="I53" t="n">
-        <v>2971.400000000001</v>
+        <v>2924.97</v>
       </c>
       <c r="J53" t="n">
-        <v>-7878.02</v>
+        <v>-7940.51</v>
       </c>
       <c r="K53" t="n">
-        <v>-4717.13</v>
+        <v>-4773.099999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>16950.58</v>
+        <v>17026.57</v>
       </c>
       <c r="M53" t="n">
-        <v>23346.52</v>
+        <v>23419.66</v>
       </c>
       <c r="N53" t="n">
-        <v>20902.05</v>
+        <v>20986.99</v>
       </c>
       <c r="O53" t="n">
-        <v>19238.08</v>
+        <v>19321.74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>17538.91</v>
       </c>
     </row>
     <row r="54">
@@ -3065,46 +3226,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-5527.02</v>
+        <v>-5960.84</v>
       </c>
       <c r="C54" t="n">
-        <v>4969.940000000001</v>
+        <v>4776.93</v>
       </c>
       <c r="D54" t="n">
-        <v>5063.25</v>
+        <v>5055.349999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>-1899.3</v>
+        <v>-2143.1</v>
       </c>
       <c r="F54" t="n">
-        <v>-2564.21</v>
+        <v>-2780.96</v>
       </c>
       <c r="G54" t="n">
-        <v>6562.860000000001</v>
+        <v>6491.139999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>-5856.679999999999</v>
+        <v>-6057.78</v>
       </c>
       <c r="I54" t="n">
-        <v>-3370.31</v>
+        <v>-3517.46</v>
       </c>
       <c r="J54" t="n">
-        <v>858.1900000000005</v>
+        <v>752.2400000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>4343.99</v>
+        <v>4298.54</v>
       </c>
       <c r="L54" t="n">
-        <v>581.8699999999999</v>
+        <v>396.1900000000001</v>
       </c>
       <c r="M54" t="n">
-        <v>3099.889999999999</v>
+        <v>2945.98</v>
       </c>
       <c r="N54" t="n">
-        <v>4703.84</v>
+        <v>4535.650000000001</v>
       </c>
       <c r="O54" t="n">
-        <v>14382.8</v>
+        <v>14180.03</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10192.67</v>
       </c>
     </row>
     <row r="55">
@@ -3155,6 +3319,9 @@
       <c r="O55" t="n">
         <v>261655.07</v>
       </c>
+      <c r="P55" t="n">
+        <v>-89580.38999999998</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3163,46 +3330,49 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>37550.49</v>
+        <v>40790.12</v>
       </c>
       <c r="C56" t="n">
-        <v>47222.86</v>
+        <v>50646.66</v>
       </c>
       <c r="D56" t="n">
-        <v>44726.52</v>
+        <v>47616.04</v>
       </c>
       <c r="E56" t="n">
-        <v>42987.75</v>
+        <v>44455.48</v>
       </c>
       <c r="F56" t="n">
-        <v>26296.29</v>
+        <v>24529.13</v>
       </c>
       <c r="G56" t="n">
-        <v>26002.52</v>
+        <v>28201.61</v>
       </c>
       <c r="H56" t="n">
-        <v>4498.549999999999</v>
+        <v>7114.269999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>-6917.18</v>
+        <v>-3012.32</v>
       </c>
       <c r="J56" t="n">
-        <v>-6873.239999999999</v>
+        <v>-2952.249999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>3240.84</v>
+        <v>8266.52</v>
       </c>
       <c r="L56" t="n">
-        <v>-9331.309999999999</v>
+        <v>-5699.07</v>
       </c>
       <c r="M56" t="n">
-        <v>-23188.26</v>
+        <v>-24659.89</v>
       </c>
       <c r="N56" t="n">
-        <v>-28660.54</v>
+        <v>-32006.87</v>
       </c>
       <c r="O56" t="n">
-        <v>-32572.61</v>
+        <v>-34645.62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-47074.77</v>
       </c>
     </row>
     <row r="57">
@@ -3212,46 +3382,49 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>40613.31</v>
+        <v>37373.68</v>
       </c>
       <c r="C57" t="n">
-        <v>80230.20999999999</v>
+        <v>76806.41</v>
       </c>
       <c r="D57" t="n">
-        <v>63501.14</v>
+        <v>60611.62</v>
       </c>
       <c r="E57" t="n">
-        <v>80299.66</v>
+        <v>78831.93000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>16122.61</v>
+        <v>17889.77</v>
       </c>
       <c r="G57" t="n">
-        <v>36242.18</v>
+        <v>34043.09</v>
       </c>
       <c r="H57" t="n">
-        <v>-6815.879999999999</v>
+        <v>-9431.6</v>
       </c>
       <c r="I57" t="n">
-        <v>17193.13</v>
+        <v>13288.27</v>
       </c>
       <c r="J57" t="n">
-        <v>13742.9</v>
+        <v>9821.91</v>
       </c>
       <c r="K57" t="n">
-        <v>47139.26</v>
+        <v>42113.58</v>
       </c>
       <c r="L57" t="n">
-        <v>29095.19</v>
+        <v>25462.95</v>
       </c>
       <c r="M57" t="n">
-        <v>-17073.09</v>
+        <v>-15601.46</v>
       </c>
       <c r="N57" t="n">
-        <v>-14469.09</v>
+        <v>-11122.76</v>
       </c>
       <c r="O57" t="n">
-        <v>-26306.41</v>
+        <v>-24233.4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-46576.32</v>
       </c>
     </row>
     <row r="58">
@@ -3261,46 +3434,49 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22317.35</v>
+        <v>22336.54</v>
       </c>
       <c r="C58" t="n">
-        <v>30790.85</v>
+        <v>30805.36</v>
       </c>
       <c r="D58" t="n">
-        <v>27836.81</v>
+        <v>27852.97</v>
       </c>
       <c r="E58" t="n">
-        <v>34871.63</v>
+        <v>34888.07</v>
       </c>
       <c r="F58" t="n">
-        <v>32993.65</v>
+        <v>33011.72</v>
       </c>
       <c r="G58" t="n">
-        <v>27072.67</v>
+        <v>27089.94</v>
       </c>
       <c r="H58" t="n">
-        <v>4771.78</v>
+        <v>4792.469999999998</v>
       </c>
       <c r="I58" t="n">
-        <v>6370.889999999999</v>
+        <v>6391.700000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>-1153.190000000001</v>
+        <v>-1132.380000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>9049.98</v>
+        <v>9069.630000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>18289.73</v>
+        <v>18308.44</v>
       </c>
       <c r="M58" t="n">
-        <v>26731.88</v>
+        <v>26751.08</v>
       </c>
       <c r="N58" t="n">
-        <v>31831.64</v>
+        <v>31845.68</v>
       </c>
       <c r="O58" t="n">
-        <v>36874.94</v>
+        <v>36889.82</v>
+      </c>
+      <c r="P58" t="n">
+        <v>33232.64</v>
       </c>
     </row>
     <row r="59">
@@ -3310,46 +3486,49 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17383.56</v>
+        <v>19703.34</v>
       </c>
       <c r="C59" t="n">
-        <v>10545.73</v>
+        <v>12823.58</v>
       </c>
       <c r="D59" t="n">
-        <v>7969.36</v>
+        <v>9712.789999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>5883.88</v>
+        <v>6720.54</v>
       </c>
       <c r="F59" t="n">
-        <v>-3195.28</v>
+        <v>-4381.52</v>
       </c>
       <c r="G59" t="n">
-        <v>-13822.61</v>
+        <v>-15236.89</v>
       </c>
       <c r="H59" t="n">
-        <v>-10434.63</v>
+        <v>-12345.79</v>
       </c>
       <c r="I59" t="n">
-        <v>-9294.25</v>
+        <v>-10538.25</v>
       </c>
       <c r="J59" t="n">
-        <v>-14651.5</v>
+        <v>-13974</v>
       </c>
       <c r="K59" t="n">
-        <v>1657.65</v>
+        <v>3350.35</v>
       </c>
       <c r="L59" t="n">
-        <v>4160.96</v>
+        <v>5375.57</v>
       </c>
       <c r="M59" t="n">
-        <v>3270.71</v>
+        <v>4987.280000000001</v>
       </c>
       <c r="N59" t="n">
-        <v>5268.86</v>
+        <v>6967.58</v>
       </c>
       <c r="O59" t="n">
-        <v>5169.080000000001</v>
+        <v>6583.370000000001</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2141.69</v>
       </c>
     </row>
     <row r="60">
@@ -3359,46 +3538,49 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17965.96</v>
+        <v>15626.99</v>
       </c>
       <c r="C60" t="n">
-        <v>21258.99</v>
+        <v>18966.63</v>
       </c>
       <c r="D60" t="n">
-        <v>18139.27</v>
+        <v>16379.68</v>
       </c>
       <c r="E60" t="n">
-        <v>18995.37</v>
+        <v>18142.27</v>
       </c>
       <c r="F60" t="n">
-        <v>16177.03</v>
+        <v>17345.2</v>
       </c>
       <c r="G60" t="n">
-        <v>1429.14</v>
+        <v>2826.150000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>-7083.17</v>
+        <v>-5192.700000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>415.1600000000001</v>
+        <v>1638.35</v>
       </c>
       <c r="J60" t="n">
-        <v>-7397.830000000001</v>
+        <v>-8096.14</v>
       </c>
       <c r="K60" t="n">
-        <v>10229.52</v>
+        <v>8517.17</v>
       </c>
       <c r="L60" t="n">
-        <v>9610.969999999999</v>
+        <v>8377.65</v>
       </c>
       <c r="M60" t="n">
-        <v>18935.1</v>
+        <v>17199.33</v>
       </c>
       <c r="N60" t="n">
-        <v>21933.78</v>
+        <v>20221.02</v>
       </c>
       <c r="O60" t="n">
-        <v>25318.2</v>
+        <v>23889.03</v>
+      </c>
+      <c r="P60" t="n">
+        <v>22731.04</v>
       </c>
     </row>
     <row r="61">
@@ -3408,46 +3590,49 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3395.87</v>
+        <v>4831.42</v>
       </c>
       <c r="C61" t="n">
-        <v>3406.05</v>
+        <v>4826.440000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>2686.34</v>
+        <v>3834.42</v>
       </c>
       <c r="E61" t="n">
-        <v>2632.49</v>
+        <v>3335.53</v>
       </c>
       <c r="F61" t="n">
-        <v>1462.65</v>
+        <v>2733.6</v>
       </c>
       <c r="G61" t="n">
-        <v>1590.72</v>
+        <v>3014.69</v>
       </c>
       <c r="H61" t="n">
-        <v>1589.23</v>
+        <v>2804.04</v>
       </c>
       <c r="I61" t="n">
-        <v>2678.49</v>
+        <v>3941.54</v>
       </c>
       <c r="J61" t="n">
-        <v>1660.87</v>
+        <v>2902.25</v>
       </c>
       <c r="K61" t="n">
-        <v>1645.15</v>
+        <v>2210.97</v>
       </c>
       <c r="L61" t="n">
-        <v>1542.16</v>
+        <v>743.6400000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>1572.77</v>
+        <v>2364.83</v>
       </c>
       <c r="N61" t="n">
-        <v>1563.32</v>
+        <v>1153.47</v>
       </c>
       <c r="O61" t="n">
-        <v>2630.34</v>
+        <v>1837.26</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1988.97</v>
       </c>
     </row>
     <row r="62">
@@ -3498,6 +3683,9 @@
       <c r="O62" t="n">
         <v>-31466.51</v>
       </c>
+      <c r="P62" t="n">
+        <v>-38673.12</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3547,6 +3735,9 @@
       <c r="O63" t="n">
         <v>536.29</v>
       </c>
+      <c r="P63" t="n">
+        <v>463.24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3555,46 +3746,49 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>88767.3</v>
+        <v>89725.05</v>
       </c>
       <c r="C64" t="n">
-        <v>60926.33</v>
+        <v>61897.56</v>
       </c>
       <c r="D64" t="n">
-        <v>-16826.76</v>
+        <v>-16277.16</v>
       </c>
       <c r="E64" t="n">
-        <v>-50061.43</v>
+        <v>-50536.38</v>
       </c>
       <c r="F64" t="n">
-        <v>-9524.809999999999</v>
+        <v>-9943.519999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>-26396.01</v>
+        <v>-26991.89</v>
       </c>
       <c r="H64" t="n">
-        <v>-22564.63</v>
+        <v>-23367.84</v>
       </c>
       <c r="I64" t="n">
-        <v>-542.6800000000013</v>
+        <v>-1113.530000000004</v>
       </c>
       <c r="J64" t="n">
-        <v>-17765.43</v>
+        <v>-18264.61</v>
       </c>
       <c r="K64" t="n">
-        <v>-33087.27</v>
+        <v>-33543.14</v>
       </c>
       <c r="L64" t="n">
-        <v>-23369.25</v>
+        <v>-23798.88</v>
       </c>
       <c r="M64" t="n">
-        <v>3305.819999999998</v>
+        <v>3100.63</v>
       </c>
       <c r="N64" t="n">
-        <v>-1309.700000000001</v>
+        <v>-1618.090000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>-19645.51</v>
+        <v>-19893.24</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-17375.24</v>
       </c>
     </row>
     <row r="65">
@@ -3604,46 +3798,49 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17658.25</v>
+        <v>17822.7</v>
       </c>
       <c r="C65" t="n">
-        <v>15697.53</v>
+        <v>15816.52</v>
       </c>
       <c r="D65" t="n">
-        <v>-14243.06</v>
+        <v>-14276.57</v>
       </c>
       <c r="E65" t="n">
-        <v>-6719.13</v>
+        <v>-6779.71</v>
       </c>
       <c r="F65" t="n">
-        <v>-4233.759999999999</v>
+        <v>-4299.559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>6136.55</v>
+        <v>6191.62</v>
       </c>
       <c r="H65" t="n">
-        <v>2194.76</v>
+        <v>2266.23</v>
       </c>
       <c r="I65" t="n">
-        <v>7829.55</v>
+        <v>7949.45</v>
       </c>
       <c r="J65" t="n">
-        <v>-2167.42</v>
+        <v>-2094.42</v>
       </c>
       <c r="K65" t="n">
-        <v>1313.86</v>
+        <v>1398.11</v>
       </c>
       <c r="L65" t="n">
-        <v>-5569.84</v>
+        <v>-5524.93</v>
       </c>
       <c r="M65" t="n">
-        <v>-7025.329999999999</v>
+        <v>-7077.11</v>
       </c>
       <c r="N65" t="n">
-        <v>-7056.900000000001</v>
+        <v>-7131.01</v>
       </c>
       <c r="O65" t="n">
-        <v>-2968.77</v>
+        <v>-3029.14</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5143.870000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3694,6 +3891,9 @@
       <c r="O66" t="n">
         <v>-11748.22</v>
       </c>
+      <c r="P66" t="n">
+        <v>-6938.88</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3743,6 +3943,9 @@
       <c r="O67" t="n">
         <v>15.46</v>
       </c>
+      <c r="P67" t="n">
+        <v>9.52</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3792,6 +3995,9 @@
       <c r="O68" t="n">
         <v>-13.93</v>
       </c>
+      <c r="P68" t="n">
+        <v>-46.23</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3800,46 +4006,49 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>119987.39</v>
+        <v>118954.95</v>
       </c>
       <c r="C69" t="n">
-        <v>168397.78</v>
+        <v>166165.32</v>
       </c>
       <c r="D69" t="n">
-        <v>134102.48</v>
+        <v>136519.79</v>
       </c>
       <c r="E69" t="n">
-        <v>121061.95</v>
+        <v>122255</v>
       </c>
       <c r="F69" t="n">
-        <v>164476.74</v>
+        <v>165419.24</v>
       </c>
       <c r="G69" t="n">
-        <v>179287.83</v>
+        <v>177032.23</v>
       </c>
       <c r="H69" t="n">
-        <v>97032.93000000001</v>
+        <v>97159.75999999999</v>
       </c>
       <c r="I69" t="n">
-        <v>105851.94</v>
+        <v>102527.24</v>
       </c>
       <c r="J69" t="n">
-        <v>127971.67</v>
+        <v>125557.42</v>
       </c>
       <c r="K69" t="n">
-        <v>62716.5</v>
+        <v>58906.16</v>
       </c>
       <c r="L69" t="n">
-        <v>7374.620000000001</v>
+        <v>5167.610000000004</v>
       </c>
       <c r="M69" t="n">
-        <v>46921.93</v>
+        <v>48832.24</v>
       </c>
       <c r="N69" t="n">
-        <v>54237.48</v>
+        <v>58160.59</v>
       </c>
       <c r="O69" t="n">
-        <v>30323.63</v>
+        <v>33986.81</v>
+      </c>
+      <c r="P69" t="n">
+        <v>23565.23</v>
       </c>
     </row>
     <row r="70">
@@ -3849,46 +4058,49 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7369.690000000001</v>
+        <v>5436.59</v>
       </c>
       <c r="C70" t="n">
-        <v>-6027.98</v>
+        <v>-3715.910000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-31125.75</v>
+        <v>-31578.78</v>
       </c>
       <c r="E70" t="n">
-        <v>-59522.01</v>
+        <v>-62645.91</v>
       </c>
       <c r="F70" t="n">
-        <v>-20384.19</v>
+        <v>-23125.11</v>
       </c>
       <c r="G70" t="n">
-        <v>37449.58</v>
+        <v>34511.68</v>
       </c>
       <c r="H70" t="n">
-        <v>44134.03</v>
+        <v>40379.95</v>
       </c>
       <c r="I70" t="n">
-        <v>66895.89999999999</v>
+        <v>63492.97</v>
       </c>
       <c r="J70" t="n">
-        <v>53598.87</v>
+        <v>51622.75999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>53074.11</v>
+        <v>49972.95</v>
       </c>
       <c r="L70" t="n">
-        <v>1541.929999999997</v>
+        <v>-1454.950000000003</v>
       </c>
       <c r="M70" t="n">
-        <v>-1722.16</v>
+        <v>-3226.15</v>
       </c>
       <c r="N70" t="n">
-        <v>-4722.919999999999</v>
+        <v>-6923.76</v>
       </c>
       <c r="O70" t="n">
-        <v>-37810.01</v>
+        <v>-39226.86</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-45609.08</v>
       </c>
     </row>
     <row r="71">
@@ -3898,46 +4110,49 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>48464.33</v>
+        <v>49524.43</v>
       </c>
       <c r="C71" t="n">
-        <v>26198.78</v>
+        <v>28456.61</v>
       </c>
       <c r="D71" t="n">
-        <v>902.4299999999996</v>
+        <v>-1492.130000000002</v>
       </c>
       <c r="E71" t="n">
-        <v>-15868.27</v>
+        <v>-17077.37</v>
       </c>
       <c r="F71" t="n">
-        <v>-22811.95</v>
+        <v>-23745.7</v>
       </c>
       <c r="G71" t="n">
-        <v>31556.79</v>
+        <v>33832.43</v>
       </c>
       <c r="H71" t="n">
-        <v>7657.080000000002</v>
+        <v>7545.260000000002</v>
       </c>
       <c r="I71" t="n">
-        <v>48241.74</v>
+        <v>51584.31</v>
       </c>
       <c r="J71" t="n">
-        <v>11407.02</v>
+        <v>13830.5</v>
       </c>
       <c r="K71" t="n">
-        <v>-10256.52</v>
+        <v>-6439.010000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>-47410.09</v>
+        <v>-45194.59</v>
       </c>
       <c r="M71" t="n">
-        <v>-27372.08</v>
+        <v>-29270.2</v>
       </c>
       <c r="N71" t="n">
-        <v>-46689.24</v>
+        <v>-50599.19</v>
       </c>
       <c r="O71" t="n">
-        <v>-31314.2</v>
+        <v>-34961.54</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-27319.36</v>
       </c>
     </row>
     <row r="72">
@@ -3988,6 +4203,9 @@
       <c r="O72" t="n">
         <v>17075.94</v>
       </c>
+      <c r="P72" t="n">
+        <v>21390.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4037,6 +4255,9 @@
       <c r="O73" t="n">
         <v>-1661.96</v>
       </c>
+      <c r="P73" t="n">
+        <v>-11496.78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4086,6 +4307,9 @@
       <c r="O74" t="n">
         <v>336</v>
       </c>
+      <c r="P74" t="n">
+        <v>-425.27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4135,6 +4359,9 @@
       <c r="O75" t="n">
         <v>5076.240000000002</v>
       </c>
+      <c r="P75" t="n">
+        <v>4057.160000000002</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4184,6 +4411,9 @@
       <c r="O76" t="n">
         <v>-78993.46000000001</v>
       </c>
+      <c r="P76" t="n">
+        <v>-73695.51000000001</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4233,6 +4463,9 @@
       <c r="O77" t="n">
         <v>-3077.36</v>
       </c>
+      <c r="P77" t="n">
+        <v>118.9399999999996</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4282,6 +4515,9 @@
       <c r="O78" t="n">
         <v>123144.81</v>
       </c>
+      <c r="P78" t="n">
+        <v>45778.96000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4331,6 +4567,9 @@
       <c r="O79" t="n">
         <v>-7061.719999999999</v>
       </c>
+      <c r="P79" t="n">
+        <v>-14752.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -4380,6 +4619,9 @@
       <c r="O80" t="n">
         <v>15364.08</v>
       </c>
+      <c r="P80" t="n">
+        <v>11663.33</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4429,6 +4671,9 @@
       <c r="O81" t="n">
         <v>-13.5</v>
       </c>
+      <c r="P81" t="n">
+        <v>62.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4478,6 +4723,9 @@
       <c r="O82" t="n">
         <v>-64.68000000000001</v>
       </c>
+      <c r="P82" t="n">
+        <v>-54.33</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4527,6 +4775,9 @@
       <c r="O83" t="n">
         <v>-4.529999999999999</v>
       </c>
+      <c r="P83" t="n">
+        <v>-29.73</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -4576,6 +4827,9 @@
       <c r="O84" t="n">
         <v>17972.32</v>
       </c>
+      <c r="P84" t="n">
+        <v>11780.18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4584,46 +4838,49 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-2764.59</v>
+        <v>12894.86</v>
       </c>
       <c r="C85" t="n">
-        <v>12434.1</v>
+        <v>32405.84</v>
       </c>
       <c r="D85" t="n">
-        <v>-4305.749999999997</v>
+        <v>18186.22</v>
       </c>
       <c r="E85" t="n">
-        <v>-14878.46</v>
+        <v>7772.809999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>-20078.84</v>
+        <v>9415.289999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>12930.93</v>
+        <v>35446.03</v>
       </c>
       <c r="H85" t="n">
-        <v>-6519.150000000003</v>
+        <v>17742.31</v>
       </c>
       <c r="I85" t="n">
-        <v>19228.12</v>
+        <v>43195.89</v>
       </c>
       <c r="J85" t="n">
-        <v>4173.829999999999</v>
+        <v>33659.73</v>
       </c>
       <c r="K85" t="n">
-        <v>-3854.07</v>
+        <v>23660.2</v>
       </c>
       <c r="L85" t="n">
-        <v>-23424.59</v>
+        <v>8298.07</v>
       </c>
       <c r="M85" t="n">
-        <v>-15561.95</v>
+        <v>8741.049999999999</v>
       </c>
       <c r="N85" t="n">
-        <v>-48848.15</v>
+        <v>-32005.31</v>
       </c>
       <c r="O85" t="n">
-        <v>-46507.5</v>
+        <v>-32276.22</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-34333.54</v>
       </c>
     </row>
     <row r="86">
@@ -4633,46 +4890,49 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>28814.55</v>
+        <v>13155.1</v>
       </c>
       <c r="C86" t="n">
-        <v>35533.63</v>
+        <v>15561.89</v>
       </c>
       <c r="D86" t="n">
-        <v>31719.88</v>
+        <v>9227.91</v>
       </c>
       <c r="E86" t="n">
-        <v>21104.31</v>
+        <v>-1546.959999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>18508.51</v>
+        <v>-10985.62</v>
       </c>
       <c r="G86" t="n">
-        <v>20130.37</v>
+        <v>-2384.730000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>16334.55</v>
+        <v>-7926.910000000003</v>
       </c>
       <c r="I86" t="n">
-        <v>-2459.789999999999</v>
+        <v>-26427.56</v>
       </c>
       <c r="J86" t="n">
-        <v>-5962.700000000001</v>
+        <v>-35448.60000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-13474.79</v>
+        <v>-40989.06</v>
       </c>
       <c r="L86" t="n">
-        <v>-24672.5</v>
+        <v>-56395.16</v>
       </c>
       <c r="M86" t="n">
-        <v>-5834.32</v>
+        <v>-30137.32</v>
       </c>
       <c r="N86" t="n">
-        <v>-3483.489999999999</v>
+        <v>-20326.33</v>
       </c>
       <c r="O86" t="n">
-        <v>8692.09</v>
+        <v>-5539.190000000001</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5396.11</v>
       </c>
     </row>
     <row r="87">
@@ -4723,6 +4983,9 @@
       <c r="O87" t="n">
         <v>11772.22</v>
       </c>
+      <c r="P87" t="n">
+        <v>-6436.71</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4772,6 +5035,9 @@
       <c r="O88" t="n">
         <v>-43.51000000000022</v>
       </c>
+      <c r="P88" t="n">
+        <v>-11130.59</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4821,6 +5087,9 @@
       <c r="O89" t="n">
         <v>-4053.84</v>
       </c>
+      <c r="P89" t="n">
+        <v>-15087.53</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4829,46 +5098,49 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-4977.140000000003</v>
+        <v>-17292.16</v>
       </c>
       <c r="C90" t="n">
-        <v>-26853.02</v>
+        <v>-31551.42</v>
       </c>
       <c r="D90" t="n">
-        <v>-40594.91</v>
+        <v>-32014.25</v>
       </c>
       <c r="E90" t="n">
-        <v>19874</v>
+        <v>14203.01</v>
       </c>
       <c r="F90" t="n">
-        <v>-14478.52</v>
+        <v>-7277.919999999996</v>
       </c>
       <c r="G90" t="n">
-        <v>31517.95</v>
+        <v>40316.42</v>
       </c>
       <c r="H90" t="n">
-        <v>29489.25</v>
+        <v>23522.73</v>
       </c>
       <c r="I90" t="n">
-        <v>33641.33</v>
+        <v>27854.86</v>
       </c>
       <c r="J90" t="n">
-        <v>16228.79</v>
+        <v>8308.610000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>38096.34</v>
+        <v>42396.00999999999</v>
       </c>
       <c r="L90" t="n">
-        <v>26093.94</v>
+        <v>18473.44</v>
       </c>
       <c r="M90" t="n">
-        <v>-9361.240000000002</v>
+        <v>1907.899999999998</v>
       </c>
       <c r="N90" t="n">
-        <v>31194.99000000001</v>
+        <v>44780.18</v>
       </c>
       <c r="O90" t="n">
-        <v>17729.81</v>
+        <v>27709.91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>32019.25</v>
       </c>
     </row>
     <row r="91">
@@ -4919,6 +5191,9 @@
       <c r="O91" t="n">
         <v>-9102.23</v>
       </c>
+      <c r="P91" t="n">
+        <v>-5330.33</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4927,46 +5202,49 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>39264.5</v>
+        <v>44140.16</v>
       </c>
       <c r="C92" t="n">
-        <v>18015.71</v>
+        <v>17444.56</v>
       </c>
       <c r="D92" t="n">
-        <v>7246.940000000001</v>
+        <v>2101.370000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>700.2599999999992</v>
+        <v>10385.76</v>
       </c>
       <c r="F92" t="n">
-        <v>11401.7</v>
+        <v>5619.84</v>
       </c>
       <c r="G92" t="n">
-        <v>48797.34</v>
+        <v>33174.83</v>
       </c>
       <c r="H92" t="n">
-        <v>32541.86</v>
+        <v>29096.74</v>
       </c>
       <c r="I92" t="n">
-        <v>44570.37</v>
+        <v>37896.71</v>
       </c>
       <c r="J92" t="n">
-        <v>14048.38</v>
+        <v>11944.91</v>
       </c>
       <c r="K92" t="n">
-        <v>55134.82</v>
+        <v>41437.41</v>
       </c>
       <c r="L92" t="n">
-        <v>18447.77</v>
+        <v>19855.81</v>
       </c>
       <c r="M92" t="n">
-        <v>17853.03</v>
+        <v>10388.76</v>
       </c>
       <c r="N92" t="n">
-        <v>10516.52</v>
+        <v>3342.84</v>
       </c>
       <c r="O92" t="n">
-        <v>15391.2</v>
+        <v>8897.369999999999</v>
+      </c>
+      <c r="P92" t="n">
+        <v>-17201.72</v>
       </c>
     </row>
     <row r="93">
@@ -4976,46 +5254,49 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>283233.63</v>
+        <v>256236.45</v>
       </c>
       <c r="C93" t="n">
-        <v>274714.95</v>
+        <v>254203.77</v>
       </c>
       <c r="D93" t="n">
-        <v>236231.76</v>
+        <v>217345.62</v>
       </c>
       <c r="E93" t="n">
-        <v>299644.86</v>
+        <v>283649.49</v>
       </c>
       <c r="F93" t="n">
-        <v>264558.4</v>
+        <v>286170.29</v>
       </c>
       <c r="G93" t="n">
-        <v>330885.86</v>
+        <v>351861.92</v>
       </c>
       <c r="H93" t="n">
-        <v>289438.23</v>
+        <v>282727.22</v>
       </c>
       <c r="I93" t="n">
-        <v>375356.87</v>
+        <v>370076.13</v>
       </c>
       <c r="J93" t="n">
-        <v>257928.22</v>
+        <v>284333.02</v>
       </c>
       <c r="K93" t="n">
-        <v>170484.47</v>
+        <v>192756.24</v>
       </c>
       <c r="L93" t="n">
-        <v>87224.45</v>
+        <v>104043.33</v>
       </c>
       <c r="M93" t="n">
-        <v>145561.18</v>
+        <v>171749.93</v>
       </c>
       <c r="N93" t="n">
-        <v>173698.57</v>
+        <v>186103.87</v>
       </c>
       <c r="O93" t="n">
-        <v>187905.74</v>
+        <v>185854.42</v>
+      </c>
+      <c r="P93" t="n">
+        <v>145984.22</v>
       </c>
     </row>
     <row r="94">
@@ -5025,46 +5306,49 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>166535.14</v>
+        <v>165637.92</v>
       </c>
       <c r="C94" t="n">
-        <v>149212.33</v>
+        <v>148586.9</v>
       </c>
       <c r="D94" t="n">
-        <v>58008.25</v>
+        <v>58746.32</v>
       </c>
       <c r="E94" t="n">
-        <v>43891.73</v>
+        <v>44488.12</v>
       </c>
       <c r="F94" t="n">
-        <v>63676.46</v>
+        <v>63311.46</v>
       </c>
       <c r="G94" t="n">
-        <v>223723.71</v>
+        <v>222896.23</v>
       </c>
       <c r="H94" t="n">
-        <v>203026.43</v>
+        <v>202535.35</v>
       </c>
       <c r="I94" t="n">
-        <v>247084</v>
+        <v>246153.14</v>
       </c>
       <c r="J94" t="n">
-        <v>182755.84</v>
+        <v>180659.8</v>
       </c>
       <c r="K94" t="n">
-        <v>153040.47</v>
+        <v>151483.63</v>
       </c>
       <c r="L94" t="n">
-        <v>-30701.17</v>
+        <v>-32012.16</v>
       </c>
       <c r="M94" t="n">
-        <v>-13627.04</v>
+        <v>-15375.05</v>
       </c>
       <c r="N94" t="n">
-        <v>-54977.26</v>
+        <v>-56668.65</v>
       </c>
       <c r="O94" t="n">
-        <v>-34955.63</v>
+        <v>-33424.04</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-27389.89</v>
       </c>
     </row>
     <row r="95">
@@ -5074,46 +5358,49 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>153323.81</v>
+        <v>179769.71</v>
       </c>
       <c r="C95" t="n">
-        <v>126242.73</v>
+        <v>148359.65</v>
       </c>
       <c r="D95" t="n">
-        <v>44729.39</v>
+        <v>65347.09</v>
       </c>
       <c r="E95" t="n">
-        <v>39246.64999999999</v>
+        <v>57336.56</v>
       </c>
       <c r="F95" t="n">
-        <v>17184.75</v>
+        <v>-3553.369999999994</v>
       </c>
       <c r="G95" t="n">
-        <v>90456.98</v>
+        <v>70666.23999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>90325.06999999999</v>
+        <v>96405.92</v>
       </c>
       <c r="I95" t="n">
-        <v>190710.21</v>
+        <v>193467.31</v>
       </c>
       <c r="J95" t="n">
-        <v>139431.46</v>
+        <v>111725.07</v>
       </c>
       <c r="K95" t="n">
-        <v>117690.02</v>
+        <v>96951.24000000001</v>
       </c>
       <c r="L95" t="n">
-        <v>77329.46000000001</v>
+        <v>61194.32999999999</v>
       </c>
       <c r="M95" t="n">
-        <v>9414.819999999998</v>
+        <v>-14478.34</v>
       </c>
       <c r="N95" t="n">
-        <v>-45809.61</v>
+        <v>-55405.89999999999</v>
       </c>
       <c r="O95" t="n">
-        <v>-53665.04</v>
+        <v>-49610.41</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3014.860000000001</v>
       </c>
     </row>
     <row r="96">
@@ -5123,46 +5410,49 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>152060.25</v>
+        <v>133904.67</v>
       </c>
       <c r="C96" t="n">
-        <v>200060.84</v>
+        <v>181955.73</v>
       </c>
       <c r="D96" t="n">
-        <v>97288.00999999999</v>
+        <v>79693</v>
       </c>
       <c r="E96" t="n">
-        <v>85005.53</v>
+        <v>72846.09</v>
       </c>
       <c r="F96" t="n">
-        <v>73891.13</v>
+        <v>70187.95</v>
       </c>
       <c r="G96" t="n">
-        <v>186816.02</v>
+        <v>167931.8</v>
       </c>
       <c r="H96" t="n">
-        <v>147264.65</v>
+        <v>126264.48</v>
       </c>
       <c r="I96" t="n">
-        <v>236702.68</v>
+        <v>210749.35</v>
       </c>
       <c r="J96" t="n">
-        <v>244386.64</v>
+        <v>214796.21</v>
       </c>
       <c r="K96" t="n">
-        <v>228423.97</v>
+        <v>196544.89</v>
       </c>
       <c r="L96" t="n">
-        <v>192612.11</v>
+        <v>167301.53</v>
       </c>
       <c r="M96" t="n">
-        <v>91363.09</v>
+        <v>68068.8</v>
       </c>
       <c r="N96" t="n">
-        <v>44722.87</v>
+        <v>22132.61</v>
       </c>
       <c r="O96" t="n">
-        <v>-1716.160000000003</v>
+        <v>-27956.86</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-42613.45</v>
       </c>
     </row>
     <row r="97">
@@ -5172,46 +5462,49 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>23202.97</v>
+        <v>23142.45</v>
       </c>
       <c r="C97" t="n">
-        <v>16899.86</v>
+        <v>16813.87</v>
       </c>
       <c r="D97" t="n">
-        <v>1053.62</v>
+        <v>970.4899999999998</v>
       </c>
       <c r="E97" t="n">
-        <v>-2991.810000000001</v>
+        <v>-3064.930000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>4667.049999999999</v>
+        <v>4623.23</v>
       </c>
       <c r="G97" t="n">
-        <v>34694.16</v>
+        <v>34725.64</v>
       </c>
       <c r="H97" t="n">
-        <v>38943.89</v>
+        <v>39025.8</v>
       </c>
       <c r="I97" t="n">
-        <v>51070.97</v>
+        <v>51115</v>
       </c>
       <c r="J97" t="n">
-        <v>42486.72</v>
+        <v>42520.43</v>
       </c>
       <c r="K97" t="n">
-        <v>26603.35</v>
+        <v>26624.19</v>
       </c>
       <c r="L97" t="n">
-        <v>20815.19</v>
+        <v>20803.36</v>
       </c>
       <c r="M97" t="n">
-        <v>13755.78</v>
+        <v>13693.63</v>
       </c>
       <c r="N97" t="n">
-        <v>8335.15</v>
+        <v>8246.48</v>
       </c>
       <c r="O97" t="n">
-        <v>-6477.93</v>
+        <v>-6576.16</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-3383.62</v>
       </c>
     </row>
     <row r="98">
@@ -5221,46 +5514,49 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>238121.19</v>
+        <v>238181.71</v>
       </c>
       <c r="C98" t="n">
-        <v>221145.07</v>
+        <v>221231.06</v>
       </c>
       <c r="D98" t="n">
-        <v>180952.57</v>
+        <v>181035.7</v>
       </c>
       <c r="E98" t="n">
-        <v>132437.65</v>
+        <v>132510.77</v>
       </c>
       <c r="F98" t="n">
-        <v>48840.52</v>
+        <v>48884.34</v>
       </c>
       <c r="G98" t="n">
-        <v>51240.44</v>
+        <v>51208.96000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>38937.73</v>
+        <v>38879.66</v>
       </c>
       <c r="I98" t="n">
-        <v>109239.26</v>
+        <v>109195.23</v>
       </c>
       <c r="J98" t="n">
-        <v>122785.31</v>
+        <v>122751.6</v>
       </c>
       <c r="K98" t="n">
-        <v>159570.66</v>
+        <v>159549.82</v>
       </c>
       <c r="L98" t="n">
-        <v>93727.59999999999</v>
+        <v>93739.42999999999</v>
       </c>
       <c r="M98" t="n">
-        <v>57606.34000000001</v>
+        <v>57668.49</v>
       </c>
       <c r="N98" t="n">
-        <v>52475.66</v>
+        <v>52564.32999999999</v>
       </c>
       <c r="O98" t="n">
-        <v>-2336.270000000006</v>
+        <v>-2252.740000000009</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-3900.559999999995</v>
       </c>
     </row>
     <row r="99">
@@ -5270,46 +5566,49 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>300268.86</v>
+        <v>298440.59</v>
       </c>
       <c r="C99" t="n">
-        <v>276796.57</v>
+        <v>273136.17</v>
       </c>
       <c r="D99" t="n">
-        <v>203005.58</v>
+        <v>200434.46</v>
       </c>
       <c r="E99" t="n">
-        <v>215370.19</v>
+        <v>216296.81</v>
       </c>
       <c r="F99" t="n">
-        <v>161031.58</v>
+        <v>166119.84</v>
       </c>
       <c r="G99" t="n">
-        <v>402401.34</v>
+        <v>397073.49</v>
       </c>
       <c r="H99" t="n">
-        <v>370200.9</v>
+        <v>331926.3</v>
       </c>
       <c r="I99" t="n">
-        <v>571720.1</v>
+        <v>561981.38</v>
       </c>
       <c r="J99" t="n">
-        <v>555679.8200000001</v>
+        <v>548283.47</v>
       </c>
       <c r="K99" t="n">
-        <v>529529.9</v>
+        <v>518186.91</v>
       </c>
       <c r="L99" t="n">
-        <v>309546.66</v>
+        <v>301038.99</v>
       </c>
       <c r="M99" t="n">
-        <v>396052.09</v>
+        <v>387522.14</v>
       </c>
       <c r="N99" t="n">
-        <v>242200.8</v>
+        <v>232363.08</v>
       </c>
       <c r="O99" t="n">
-        <v>9759.529999999993</v>
+        <v>35746.65999999999</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-102813.92</v>
       </c>
     </row>
     <row r="100">
@@ -5319,46 +5618,49 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>70065.10000000001</v>
+        <v>59200.63</v>
       </c>
       <c r="C100" t="n">
-        <v>64186.48</v>
+        <v>53596.08</v>
       </c>
       <c r="D100" t="n">
-        <v>12435.6</v>
+        <v>7594.02</v>
       </c>
       <c r="E100" t="n">
-        <v>15058.66</v>
+        <v>12241.34</v>
       </c>
       <c r="F100" t="n">
-        <v>12908.05</v>
+        <v>20322.32</v>
       </c>
       <c r="G100" t="n">
-        <v>81748.77</v>
+        <v>74273.10000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>12306.82</v>
+        <v>25362.22</v>
       </c>
       <c r="I100" t="n">
-        <v>49273.23</v>
+        <v>43546.71</v>
       </c>
       <c r="J100" t="n">
-        <v>-17391.89</v>
+        <v>1709.679999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>-3340.170000000003</v>
+        <v>16622.42</v>
       </c>
       <c r="L100" t="n">
-        <v>-24627.81</v>
+        <v>-272.9000000000019</v>
       </c>
       <c r="M100" t="n">
-        <v>-32499.41</v>
+        <v>-5967.649999999999</v>
       </c>
       <c r="N100" t="n">
-        <v>-36943.91</v>
+        <v>-11036.43</v>
       </c>
       <c r="O100" t="n">
-        <v>-17773.27</v>
+        <v>17387.58</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-16347.32</v>
       </c>
     </row>
     <row r="101">
@@ -5368,46 +5670,49 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>110439.86</v>
+        <v>108973.61</v>
       </c>
       <c r="C101" t="n">
-        <v>91194.05</v>
+        <v>91786.78</v>
       </c>
       <c r="D101" t="n">
-        <v>22884.99</v>
+        <v>23295.85</v>
       </c>
       <c r="E101" t="n">
-        <v>14845.28</v>
+        <v>11690.25</v>
       </c>
       <c r="F101" t="n">
-        <v>1785.62</v>
+        <v>-10226.52</v>
       </c>
       <c r="G101" t="n">
-        <v>101202.24</v>
+        <v>97957.05</v>
       </c>
       <c r="H101" t="n">
-        <v>137085.6</v>
+        <v>119981.26</v>
       </c>
       <c r="I101" t="n">
-        <v>212429.72</v>
+        <v>214453.01</v>
       </c>
       <c r="J101" t="n">
-        <v>189264.46</v>
+        <v>189631.93</v>
       </c>
       <c r="K101" t="n">
-        <v>147759.5</v>
+        <v>160005.67</v>
       </c>
       <c r="L101" t="n">
-        <v>87011.04000000001</v>
+        <v>100558.43</v>
       </c>
       <c r="M101" t="n">
-        <v>20145.15</v>
+        <v>31264.1</v>
       </c>
       <c r="N101" t="n">
-        <v>-14228.37</v>
+        <v>-1279.299999999999</v>
       </c>
       <c r="O101" t="n">
-        <v>-52497.73</v>
+        <v>-83637.78999999999</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-72051.43000000001</v>
       </c>
     </row>
     <row r="102">
@@ -5417,46 +5722,49 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>57311.89</v>
+        <v>42017.27</v>
       </c>
       <c r="C102" t="n">
-        <v>51699.04</v>
+        <v>35449.12</v>
       </c>
       <c r="D102" t="n">
-        <v>42216.7</v>
+        <v>38804.44</v>
       </c>
       <c r="E102" t="n">
-        <v>45785.04</v>
+        <v>41615.22</v>
       </c>
       <c r="F102" t="n">
-        <v>47734.08</v>
+        <v>40171</v>
       </c>
       <c r="G102" t="n">
-        <v>-27133.36</v>
+        <v>-5066.76</v>
       </c>
       <c r="H102" t="n">
-        <v>-19647.54</v>
+        <v>2898.479999999998</v>
       </c>
       <c r="I102" t="n">
-        <v>-29878.65000000001</v>
+        <v>-6977.260000000002</v>
       </c>
       <c r="J102" t="n">
-        <v>-20906.63</v>
+        <v>-6833.869999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-13834.06</v>
+        <v>-203.0799999999994</v>
       </c>
       <c r="L102" t="n">
-        <v>16860.27</v>
+        <v>-4630.73</v>
       </c>
       <c r="M102" t="n">
-        <v>32126.17</v>
+        <v>11795.03</v>
       </c>
       <c r="N102" t="n">
-        <v>31873.94</v>
+        <v>12081.16</v>
       </c>
       <c r="O102" t="n">
-        <v>6343.27</v>
+        <v>14074.06</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3563.440000000001</v>
       </c>
     </row>
     <row r="103">
@@ -5466,46 +5774,49 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>36159.54</v>
+        <v>37319.02</v>
       </c>
       <c r="C103" t="n">
-        <v>33654.82</v>
+        <v>34543.44</v>
       </c>
       <c r="D103" t="n">
-        <v>30714.91</v>
+        <v>31487.34</v>
       </c>
       <c r="E103" t="n">
-        <v>28817.63</v>
+        <v>29577.33</v>
       </c>
       <c r="F103" t="n">
-        <v>24218.59</v>
+        <v>24996.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-13204.91</v>
+        <v>-14364.95</v>
       </c>
       <c r="H103" t="n">
-        <v>-22402.72</v>
+        <v>-23118.95</v>
       </c>
       <c r="I103" t="n">
-        <v>-23227.04</v>
+        <v>-22960.12</v>
       </c>
       <c r="J103" t="n">
-        <v>-24370.62</v>
+        <v>-23483.73</v>
       </c>
       <c r="K103" t="n">
-        <v>-16344.07</v>
+        <v>-15456.42</v>
       </c>
       <c r="L103" t="n">
-        <v>-15325.41</v>
+        <v>-14439.46</v>
       </c>
       <c r="M103" t="n">
-        <v>-8064.54</v>
+        <v>-6966.45</v>
       </c>
       <c r="N103" t="n">
-        <v>-8486.610000000001</v>
+        <v>-7665.7</v>
       </c>
       <c r="O103" t="n">
-        <v>-12908.04</v>
+        <v>-12494.33</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-19049.89</v>
       </c>
     </row>
     <row r="104">
@@ -5515,46 +5826,49 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9400.629999999999</v>
+        <v>24695.25</v>
       </c>
       <c r="C104" t="n">
-        <v>8275.280000000001</v>
+        <v>24525.2</v>
       </c>
       <c r="D104" t="n">
-        <v>9263.560000000001</v>
+        <v>12675.82</v>
       </c>
       <c r="E104" t="n">
-        <v>8544.57</v>
+        <v>12714.39</v>
       </c>
       <c r="F104" t="n">
-        <v>7529.32</v>
+        <v>15092.4</v>
       </c>
       <c r="G104" t="n">
-        <v>-5918.94</v>
+        <v>-27985.54</v>
       </c>
       <c r="H104" t="n">
-        <v>-4791.809999999999</v>
+        <v>-27337.83</v>
       </c>
       <c r="I104" t="n">
-        <v>-6090.469999999999</v>
+        <v>-28991.86</v>
       </c>
       <c r="J104" t="n">
-        <v>-5576.19</v>
+        <v>-19648.95</v>
       </c>
       <c r="K104" t="n">
-        <v>-3521.19</v>
+        <v>-17152.17</v>
       </c>
       <c r="L104" t="n">
-        <v>-2999.29</v>
+        <v>18491.71</v>
       </c>
       <c r="M104" t="n">
-        <v>-1286.89</v>
+        <v>19044.25</v>
       </c>
       <c r="N104" t="n">
-        <v>-1877.5</v>
+        <v>17915.28</v>
       </c>
       <c r="O104" t="n">
-        <v>-1967.32</v>
+        <v>-9698.110000000001</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-24445.73</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
     </row>
@@ -522,49 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21639.2</v>
+        <v>-33727.42999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3527.449999999998</v>
+        <v>32144.29</v>
       </c>
       <c r="D2" t="n">
-        <v>7368.619999999998</v>
+        <v>122392.86</v>
       </c>
       <c r="E2" t="n">
-        <v>-41440.64</v>
+        <v>124446.69</v>
       </c>
       <c r="F2" t="n">
-        <v>28621.87</v>
+        <v>169877.28</v>
       </c>
       <c r="G2" t="n">
-        <v>131511.22</v>
+        <v>178113.84</v>
       </c>
       <c r="H2" t="n">
-        <v>137519.73</v>
+        <v>182705.12</v>
       </c>
       <c r="I2" t="n">
-        <v>183478.1</v>
+        <v>148597.71</v>
       </c>
       <c r="J2" t="n">
-        <v>186292.77</v>
+        <v>67988.97</v>
       </c>
       <c r="K2" t="n">
-        <v>190342.73</v>
+        <v>-19253.56</v>
       </c>
       <c r="L2" t="n">
-        <v>155151.12</v>
+        <v>-96456.17</v>
       </c>
       <c r="M2" t="n">
-        <v>67465.57000000001</v>
+        <v>-23916.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-12506.16</v>
+        <v>50069.48</v>
       </c>
       <c r="O2" t="n">
-        <v>-85409.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-9176.669999999998</v>
+        <v>36108.95</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53646.66</v>
+        <v>-45111.4</v>
       </c>
       <c r="C3" t="n">
-        <v>38906.78</v>
+        <v>-61402.77</v>
       </c>
       <c r="D3" t="n">
-        <v>34300.03</v>
+        <v>66108.49000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>-6011.729999999999</v>
+        <v>63586.31</v>
       </c>
       <c r="F3" t="n">
-        <v>-32344.25</v>
+        <v>88517.12</v>
       </c>
       <c r="G3" t="n">
-        <v>63121.36</v>
+        <v>58717.86</v>
       </c>
       <c r="H3" t="n">
-        <v>35574.89</v>
+        <v>77574.44</v>
       </c>
       <c r="I3" t="n">
-        <v>53584.43</v>
+        <v>29175.12</v>
       </c>
       <c r="J3" t="n">
-        <v>30309.97</v>
+        <v>-14686.46</v>
       </c>
       <c r="K3" t="n">
-        <v>56819.7</v>
+        <v>25978.64</v>
       </c>
       <c r="L3" t="n">
-        <v>13859.96</v>
+        <v>9049.160000000003</v>
       </c>
       <c r="M3" t="n">
-        <v>-3318.310000000003</v>
+        <v>3719.94</v>
       </c>
       <c r="N3" t="n">
-        <v>38937.17</v>
+        <v>-14341.23</v>
       </c>
       <c r="O3" t="n">
-        <v>23751.91</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-11046.99</v>
+        <v>-74291.09</v>
       </c>
     </row>
     <row r="4">
@@ -626,49 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3255.579999999999</v>
+        <v>7396.870000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-7434.589999999998</v>
+        <v>12796.58</v>
       </c>
       <c r="D4" t="n">
-        <v>-27906.33</v>
+        <v>47215.42000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-45187.15</v>
+        <v>49862.17</v>
       </c>
       <c r="F4" t="n">
-        <v>-8282.049999999999</v>
+        <v>45949.77</v>
       </c>
       <c r="G4" t="n">
-        <v>68793.74000000001</v>
+        <v>29975.29</v>
       </c>
       <c r="H4" t="n">
-        <v>98371.50999999999</v>
+        <v>27142.49</v>
       </c>
       <c r="I4" t="n">
-        <v>104731.48</v>
+        <v>14742.51</v>
       </c>
       <c r="J4" t="n">
-        <v>86436.66</v>
+        <v>-18040.43</v>
       </c>
       <c r="K4" t="n">
-        <v>63356.28</v>
+        <v>-18564.72</v>
       </c>
       <c r="L4" t="n">
-        <v>41543.25</v>
+        <v>-17851.76</v>
       </c>
       <c r="M4" t="n">
-        <v>-20201.34</v>
+        <v>-4758.639999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-17754.61</v>
+        <v>18908.9</v>
       </c>
       <c r="O4" t="n">
-        <v>-28159.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21081.43</v>
+        <v>9258.4</v>
       </c>
     </row>
     <row r="5">
@@ -678,49 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14289.6</v>
+        <v>18343.81</v>
       </c>
       <c r="C5" t="n">
-        <v>-8908.570000000002</v>
+        <v>32449.91</v>
       </c>
       <c r="D5" t="n">
-        <v>6024.17</v>
+        <v>30841.46</v>
       </c>
       <c r="E5" t="n">
-        <v>19663.21</v>
+        <v>38684.05</v>
       </c>
       <c r="F5" t="n">
-        <v>35978.95</v>
+        <v>18504.39</v>
       </c>
       <c r="G5" t="n">
-        <v>33279.75</v>
+        <v>-9678.539999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>41077.78</v>
+        <v>-15574.01</v>
       </c>
       <c r="I5" t="n">
-        <v>23018.69</v>
+        <v>-20472.86</v>
       </c>
       <c r="J5" t="n">
-        <v>-5792.54</v>
+        <v>3520.35</v>
       </c>
       <c r="K5" t="n">
-        <v>-15674.28</v>
+        <v>1990.6</v>
       </c>
       <c r="L5" t="n">
-        <v>-19167.4</v>
+        <v>2393.229999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>4195.719999999999</v>
+        <v>-3075.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1809.789999999999</v>
+        <v>-5493.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-5093.21</v>
+        <v>-2439.22</v>
       </c>
     </row>
     <row r="6">
@@ -730,49 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21838.14</v>
+        <v>8693.52</v>
       </c>
       <c r="C6" t="n">
-        <v>32509.46</v>
+        <v>5082.160000000002</v>
       </c>
       <c r="D6" t="n">
-        <v>5132.61</v>
+        <v>39665.14</v>
       </c>
       <c r="E6" t="n">
-        <v>12497.74</v>
+        <v>27638.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2537.730000000001</v>
+        <v>36518.77</v>
       </c>
       <c r="G6" t="n">
-        <v>33466.6</v>
+        <v>24968.57</v>
       </c>
       <c r="H6" t="n">
-        <v>20079.58</v>
+        <v>36317.58</v>
       </c>
       <c r="I6" t="n">
-        <v>31566.69</v>
+        <v>15786.03</v>
       </c>
       <c r="J6" t="n">
-        <v>19929.15</v>
+        <v>-8590.590000000002</v>
       </c>
       <c r="K6" t="n">
-        <v>30728.36</v>
+        <v>13922.01</v>
       </c>
       <c r="L6" t="n">
-        <v>14460.4</v>
+        <v>18169.76</v>
       </c>
       <c r="M6" t="n">
-        <v>-5135.040000000001</v>
+        <v>15091.69</v>
       </c>
       <c r="N6" t="n">
-        <v>7679.109999999999</v>
+        <v>23299.46</v>
       </c>
       <c r="O6" t="n">
-        <v>14140.87</v>
-      </c>
-      <c r="P6" t="n">
-        <v>16737.27</v>
+        <v>-9243.610000000001</v>
       </c>
     </row>
     <row r="7">
@@ -782,49 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30638.13</v>
+        <v>14544.52</v>
       </c>
       <c r="C7" t="n">
-        <v>28179.35</v>
+        <v>19661.25</v>
       </c>
       <c r="D7" t="n">
-        <v>11587</v>
+        <v>34968.17</v>
       </c>
       <c r="E7" t="n">
-        <v>8992</v>
+        <v>34872</v>
       </c>
       <c r="F7" t="n">
-        <v>20305.72</v>
+        <v>36685.76</v>
       </c>
       <c r="G7" t="n">
-        <v>39984.21</v>
+        <v>28578.01</v>
       </c>
       <c r="H7" t="n">
-        <v>40597.07</v>
+        <v>10156.08</v>
       </c>
       <c r="I7" t="n">
-        <v>38335.16</v>
+        <v>5477.74</v>
       </c>
       <c r="J7" t="n">
-        <v>31540.74</v>
+        <v>-9521.800000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>17210.9</v>
+        <v>1520.83</v>
       </c>
       <c r="L7" t="n">
-        <v>6964.67</v>
+        <v>-15076.83</v>
       </c>
       <c r="M7" t="n">
-        <v>-11772.82</v>
+        <v>-20151.55</v>
       </c>
       <c r="N7" t="n">
-        <v>9411.880000000001</v>
+        <v>-8362.860000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>-9436.440000000001</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-20466.38</v>
+        <v>-1394.309999999998</v>
       </c>
     </row>
     <row r="8">
@@ -834,49 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145532.56</v>
+        <v>47844.75</v>
       </c>
       <c r="C8" t="n">
-        <v>89948.20999999999</v>
+        <v>-10557.88</v>
       </c>
       <c r="D8" t="n">
-        <v>56186.31</v>
+        <v>119999.94</v>
       </c>
       <c r="E8" t="n">
-        <v>26429.14</v>
+        <v>174434.93</v>
       </c>
       <c r="F8" t="n">
-        <v>-31405.39</v>
+        <v>274638.89</v>
       </c>
       <c r="G8" t="n">
-        <v>110563.72</v>
+        <v>250477.48</v>
       </c>
       <c r="H8" t="n">
-        <v>189656.21</v>
+        <v>256616.48</v>
       </c>
       <c r="I8" t="n">
-        <v>298293.96</v>
+        <v>179241.92</v>
       </c>
       <c r="J8" t="n">
-        <v>272599.4</v>
+        <v>114184.16</v>
       </c>
       <c r="K8" t="n">
-        <v>279789.72</v>
+        <v>67940.69000000002</v>
       </c>
       <c r="L8" t="n">
-        <v>192827.18</v>
+        <v>37037.66</v>
       </c>
       <c r="M8" t="n">
-        <v>126353.48</v>
+        <v>-23815.03</v>
       </c>
       <c r="N8" t="n">
-        <v>79329.84000000001</v>
+        <v>119721.33</v>
       </c>
       <c r="O8" t="n">
-        <v>47941.75</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-8997.639999999999</v>
+        <v>96696.60000000001</v>
       </c>
     </row>
     <row r="9">
@@ -886,49 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34431.17</v>
+        <v>-8462.599999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>26757.26</v>
+        <v>-13640.44</v>
       </c>
       <c r="D9" t="n">
-        <v>4829.06</v>
+        <v>-396.5099999999996</v>
       </c>
       <c r="E9" t="n">
-        <v>-9234.77</v>
+        <v>-3483.659999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-11812.68</v>
+        <v>8230.539999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-1454.48</v>
+        <v>6303.25</v>
       </c>
       <c r="H9" t="n">
-        <v>-2797.06</v>
+        <v>16649.41</v>
       </c>
       <c r="I9" t="n">
-        <v>9120.1</v>
+        <v>10356.95</v>
       </c>
       <c r="J9" t="n">
-        <v>7772.929999999999</v>
+        <v>14098.79</v>
       </c>
       <c r="K9" t="n">
-        <v>17225.76</v>
+        <v>11266.35</v>
       </c>
       <c r="L9" t="n">
-        <v>11956.79</v>
+        <v>3309.11</v>
       </c>
       <c r="M9" t="n">
-        <v>15287.11</v>
+        <v>-12111.75</v>
       </c>
       <c r="N9" t="n">
-        <v>11785.81</v>
+        <v>2766.559999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>2124.920000000001</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-12597.28</v>
+        <v>-13292.05</v>
       </c>
     </row>
     <row r="10">
@@ -938,49 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120797.48</v>
+        <v>19548.68</v>
       </c>
       <c r="C10" t="n">
-        <v>105798.07</v>
+        <v>-53022.52</v>
       </c>
       <c r="D10" t="n">
-        <v>68290.64999999999</v>
+        <v>79650.88</v>
       </c>
       <c r="E10" t="n">
-        <v>42241.56</v>
+        <v>96783.03</v>
       </c>
       <c r="F10" t="n">
-        <v>-33724.86</v>
+        <v>162907.35</v>
       </c>
       <c r="G10" t="n">
-        <v>90668.56000000001</v>
+        <v>134394.75</v>
       </c>
       <c r="H10" t="n">
-        <v>81206.95</v>
+        <v>144894.64</v>
       </c>
       <c r="I10" t="n">
-        <v>138217.45</v>
+        <v>43654.78</v>
       </c>
       <c r="J10" t="n">
-        <v>110353.39</v>
+        <v>-42892.71</v>
       </c>
       <c r="K10" t="n">
-        <v>120742.42</v>
+        <v>-84972.97999999998</v>
       </c>
       <c r="L10" t="n">
-        <v>27942.41</v>
+        <v>-79737.42999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>-56622.38</v>
+        <v>-74634.44</v>
       </c>
       <c r="N10" t="n">
-        <v>-97234.74999999999</v>
+        <v>-45746.44</v>
       </c>
       <c r="O10" t="n">
-        <v>-89699.70999999999</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-88829.58</v>
+        <v>-57383.01</v>
       </c>
     </row>
     <row r="11">
@@ -990,49 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16207.65</v>
+        <v>3853.71</v>
       </c>
       <c r="C11" t="n">
-        <v>10860.09</v>
+        <v>-3935.99</v>
       </c>
       <c r="D11" t="n">
-        <v>3105.81</v>
+        <v>6193.469999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>4247.42</v>
+        <v>-6506.99</v>
       </c>
       <c r="F11" t="n">
-        <v>-2758.14</v>
+        <v>12779.82</v>
       </c>
       <c r="G11" t="n">
-        <v>6886.58</v>
+        <v>7197.18</v>
       </c>
       <c r="H11" t="n">
-        <v>-7120.97</v>
+        <v>10980.37</v>
       </c>
       <c r="I11" t="n">
-        <v>13289.62</v>
+        <v>7570</v>
       </c>
       <c r="J11" t="n">
-        <v>6552.970000000001</v>
+        <v>7884.79</v>
       </c>
       <c r="K11" t="n">
-        <v>10639.87</v>
+        <v>7579.140000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>7184.82</v>
+        <v>14795.49</v>
       </c>
       <c r="M11" t="n">
-        <v>8720.23</v>
+        <v>-4778.51</v>
       </c>
       <c r="N11" t="n">
-        <v>8277.630000000001</v>
+        <v>-3039.729999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>15458.76</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-4432.25</v>
+        <v>14266.82</v>
       </c>
     </row>
     <row r="12">
@@ -1042,49 +1007,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54234.37</v>
+        <v>35522.66</v>
       </c>
       <c r="C12" t="n">
-        <v>42592.22</v>
+        <v>18981.99</v>
       </c>
       <c r="D12" t="n">
-        <v>36514.21</v>
+        <v>-12198.55</v>
       </c>
       <c r="E12" t="n">
-        <v>38343.52</v>
+        <v>6739.629999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>21905.63</v>
+        <v>20627.12</v>
       </c>
       <c r="G12" t="n">
-        <v>-7059.490000000002</v>
+        <v>14383.25</v>
       </c>
       <c r="H12" t="n">
-        <v>10949.47</v>
+        <v>25088.7</v>
       </c>
       <c r="I12" t="n">
-        <v>25341.94</v>
+        <v>28053.13</v>
       </c>
       <c r="J12" t="n">
-        <v>15619.76</v>
+        <v>18287.44</v>
       </c>
       <c r="K12" t="n">
-        <v>28728.24</v>
+        <v>3750.920000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>27999.59</v>
+        <v>14710.68</v>
       </c>
       <c r="M12" t="n">
-        <v>18433.39</v>
+        <v>7342.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2957.490000000001</v>
+        <v>7023.23</v>
       </c>
       <c r="O12" t="n">
-        <v>12263.55</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4002.18</v>
+        <v>12705.57</v>
       </c>
     </row>
     <row r="13">
@@ -1094,49 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20873.86</v>
+        <v>-17791.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13167.99</v>
+        <v>-7970.830000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>-12126.93</v>
+        <v>39658.76</v>
       </c>
       <c r="E13" t="n">
-        <v>-20586.41</v>
+        <v>48472.96</v>
       </c>
       <c r="F13" t="n">
-        <v>-10304.01</v>
+        <v>49335.83</v>
       </c>
       <c r="G13" t="n">
-        <v>36159.02</v>
+        <v>38670.26</v>
       </c>
       <c r="H13" t="n">
-        <v>47202.39</v>
+        <v>52742.9</v>
       </c>
       <c r="I13" t="n">
-        <v>46748.72</v>
+        <v>39340.52</v>
       </c>
       <c r="J13" t="n">
-        <v>40754.48</v>
+        <v>29685.53</v>
       </c>
       <c r="K13" t="n">
-        <v>51915.79</v>
+        <v>28631.37</v>
       </c>
       <c r="L13" t="n">
-        <v>41934.34</v>
+        <v>43406.74</v>
       </c>
       <c r="M13" t="n">
-        <v>30422.89</v>
+        <v>-4600.56</v>
       </c>
       <c r="N13" t="n">
-        <v>30232.32</v>
+        <v>12165.51</v>
       </c>
       <c r="O13" t="n">
-        <v>44885.77</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-2981.2</v>
+        <v>-12925.43</v>
       </c>
     </row>
     <row r="14">
@@ -1146,49 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157996.64</v>
+        <v>-184716.35</v>
       </c>
       <c r="C14" t="n">
-        <v>-52461.46000000001</v>
+        <v>-113122.02</v>
       </c>
       <c r="D14" t="n">
-        <v>-121381.58</v>
+        <v>211451.93</v>
       </c>
       <c r="E14" t="n">
-        <v>-260485.22</v>
+        <v>337575.71</v>
       </c>
       <c r="F14" t="n">
-        <v>-217485.65</v>
+        <v>457816.21</v>
       </c>
       <c r="G14" t="n">
-        <v>127157.9</v>
+        <v>410949.38</v>
       </c>
       <c r="H14" t="n">
-        <v>344291.54</v>
+        <v>346493.98</v>
       </c>
       <c r="I14" t="n">
-        <v>491491.05</v>
+        <v>199302.27</v>
       </c>
       <c r="J14" t="n">
-        <v>441762.69</v>
+        <v>83227.53</v>
       </c>
       <c r="K14" t="n">
-        <v>389605.13</v>
+        <v>-29674.12000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>256346.23</v>
+        <v>-63897.48</v>
       </c>
       <c r="M14" t="n">
-        <v>128045.1</v>
+        <v>-50938.60999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>30985.87</v>
+        <v>9121.610000000008</v>
       </c>
       <c r="O14" t="n">
-        <v>1016.139999999999</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-5944.739999999998</v>
+        <v>-91292.77</v>
       </c>
     </row>
     <row r="15">
@@ -1198,49 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63065.14</v>
+        <v>-36023.14</v>
       </c>
       <c r="C15" t="n">
-        <v>35535.19999999999</v>
+        <v>40523.13</v>
       </c>
       <c r="D15" t="n">
-        <v>-51317.86</v>
+        <v>325668.18</v>
       </c>
       <c r="E15" t="n">
-        <v>-55029.88</v>
+        <v>399464.51</v>
       </c>
       <c r="F15" t="n">
-        <v>25026.94</v>
+        <v>420158.32</v>
       </c>
       <c r="G15" t="n">
-        <v>284380.96</v>
+        <v>386756.98</v>
       </c>
       <c r="H15" t="n">
-        <v>371702.16</v>
+        <v>384851.84</v>
       </c>
       <c r="I15" t="n">
-        <v>400057.52</v>
+        <v>201933.24</v>
       </c>
       <c r="J15" t="n">
-        <v>362386.55</v>
+        <v>126701.32</v>
       </c>
       <c r="K15" t="n">
-        <v>364684.96</v>
+        <v>132729.8</v>
       </c>
       <c r="L15" t="n">
-        <v>185677.95</v>
+        <v>-14471.85</v>
       </c>
       <c r="M15" t="n">
-        <v>101353.67</v>
+        <v>-105018.15</v>
       </c>
       <c r="N15" t="n">
-        <v>101710.9</v>
+        <v>-46194.7</v>
       </c>
       <c r="O15" t="n">
-        <v>-29134.85</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-70248.75</v>
+        <v>-263509.67</v>
       </c>
     </row>
     <row r="16">
@@ -1250,49 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154415</v>
+        <v>-43487.38</v>
       </c>
       <c r="C16" t="n">
-        <v>112003.96</v>
+        <v>-17529.66</v>
       </c>
       <c r="D16" t="n">
-        <v>57227.82</v>
+        <v>129979.71</v>
       </c>
       <c r="E16" t="n">
-        <v>45372.22</v>
+        <v>205121.07</v>
       </c>
       <c r="F16" t="n">
-        <v>98117.48</v>
+        <v>326889.22</v>
       </c>
       <c r="G16" t="n">
-        <v>239878.85</v>
+        <v>275483.48</v>
       </c>
       <c r="H16" t="n">
-        <v>226957.95</v>
+        <v>250147.52</v>
       </c>
       <c r="I16" t="n">
-        <v>354172.03</v>
+        <v>81077.42</v>
       </c>
       <c r="J16" t="n">
-        <v>309076.75</v>
+        <v>124496.62</v>
       </c>
       <c r="K16" t="n">
-        <v>248854.64</v>
+        <v>35404.2</v>
       </c>
       <c r="L16" t="n">
-        <v>43583.93</v>
+        <v>44064.60999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>97277.03</v>
+        <v>67159.84</v>
       </c>
       <c r="N16" t="n">
-        <v>48.33000000000675</v>
+        <v>146446.16</v>
       </c>
       <c r="O16" t="n">
-        <v>-4907.530000000001</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15765.95</v>
+        <v>1802.5</v>
       </c>
     </row>
     <row r="17">
@@ -1302,49 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10336.51</v>
+        <v>9939.67</v>
       </c>
       <c r="C17" t="n">
-        <v>10201.05</v>
+        <v>5180.49</v>
       </c>
       <c r="D17" t="n">
-        <v>12518.23</v>
+        <v>7728.26</v>
       </c>
       <c r="E17" t="n">
-        <v>7361.78</v>
+        <v>-512.2600000000002</v>
       </c>
       <c r="F17" t="n">
-        <v>2721.03</v>
+        <v>-2074.38</v>
       </c>
       <c r="G17" t="n">
-        <v>7115.06</v>
+        <v>-691.2499999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>-2164.63</v>
+        <v>3223.07</v>
       </c>
       <c r="I17" t="n">
-        <v>-2958.02</v>
+        <v>3076.64</v>
       </c>
       <c r="J17" t="n">
-        <v>-508.1399999999996</v>
+        <v>-3832.99</v>
       </c>
       <c r="K17" t="n">
-        <v>819.9899999999997</v>
+        <v>1638.74</v>
       </c>
       <c r="L17" t="n">
-        <v>645.6399999999998</v>
+        <v>4955.89</v>
       </c>
       <c r="M17" t="n">
-        <v>-5845.84</v>
+        <v>-2134.77</v>
       </c>
       <c r="N17" t="n">
-        <v>-456.2999999999994</v>
+        <v>2268.699999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>3198.71</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-458.9699999999999</v>
+        <v>12490.55</v>
       </c>
     </row>
     <row r="18">
@@ -1354,49 +1301,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70029.72</v>
+        <v>30723.9</v>
       </c>
       <c r="C18" t="n">
-        <v>57919.26</v>
+        <v>53260.61</v>
       </c>
       <c r="D18" t="n">
-        <v>70510.89</v>
+        <v>30643.62</v>
       </c>
       <c r="E18" t="n">
-        <v>30723.9</v>
+        <v>2331.090000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>53260.61</v>
+        <v>-2890.55</v>
       </c>
       <c r="G18" t="n">
-        <v>30643.62</v>
+        <v>6706.470000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2331.090000000001</v>
+        <v>-4007.76</v>
       </c>
       <c r="I18" t="n">
-        <v>-2890.55</v>
+        <v>-52141.2</v>
       </c>
       <c r="J18" t="n">
-        <v>6706.470000000001</v>
+        <v>-13939.42</v>
       </c>
       <c r="K18" t="n">
-        <v>-4007.76</v>
+        <v>-34678.02</v>
       </c>
       <c r="L18" t="n">
-        <v>-52141.2</v>
+        <v>-33367.63</v>
       </c>
       <c r="M18" t="n">
-        <v>-13939.42</v>
+        <v>-41477.33</v>
       </c>
       <c r="N18" t="n">
-        <v>-34678.02</v>
+        <v>-38317.45</v>
       </c>
       <c r="O18" t="n">
-        <v>-33367.63</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-41477.33</v>
+        <v>-54246.89</v>
       </c>
     </row>
     <row r="19">
@@ -1406,49 +1350,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5495.26</v>
+        <v>2163.56</v>
       </c>
       <c r="C19" t="n">
-        <v>3503.45</v>
+        <v>-760.64</v>
       </c>
       <c r="D19" t="n">
-        <v>2959.48</v>
+        <v>2734.08</v>
       </c>
       <c r="E19" t="n">
-        <v>4741.45</v>
+        <v>2981.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1698.82</v>
+        <v>1231.29</v>
       </c>
       <c r="G19" t="n">
-        <v>3347.28</v>
+        <v>-2752.42</v>
       </c>
       <c r="H19" t="n">
-        <v>4634.16</v>
+        <v>-1736.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2114.93</v>
+        <v>-2832.33</v>
       </c>
       <c r="J19" t="n">
-        <v>-2935.53</v>
+        <v>-2491.52</v>
       </c>
       <c r="K19" t="n">
-        <v>666.78</v>
+        <v>718.59</v>
       </c>
       <c r="L19" t="n">
-        <v>-401.3299999999999</v>
+        <v>1571.08</v>
       </c>
       <c r="M19" t="n">
-        <v>-478.6700000000001</v>
+        <v>-540.9100000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>2813.63</v>
+        <v>2003.21</v>
       </c>
       <c r="O19" t="n">
-        <v>3328.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-2216.71</v>
+        <v>-563.75</v>
       </c>
     </row>
     <row r="20">
@@ -1458,49 +1399,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21079.39</v>
+        <v>-4472.05</v>
       </c>
       <c r="C20" t="n">
-        <v>21463.46</v>
+        <v>2873.67</v>
       </c>
       <c r="D20" t="n">
-        <v>15356.13</v>
+        <v>9243.140000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>-4204.06</v>
+        <v>11392.84</v>
       </c>
       <c r="F20" t="n">
-        <v>3452.36</v>
+        <v>19617.6</v>
       </c>
       <c r="G20" t="n">
-        <v>9826.090000000002</v>
+        <v>21923.31</v>
       </c>
       <c r="H20" t="n">
-        <v>12090.54</v>
+        <v>24139.33</v>
       </c>
       <c r="I20" t="n">
-        <v>20347.79</v>
+        <v>24108.01</v>
       </c>
       <c r="J20" t="n">
-        <v>21113.51</v>
+        <v>28932.77</v>
       </c>
       <c r="K20" t="n">
-        <v>24725.59</v>
+        <v>14266.49</v>
       </c>
       <c r="L20" t="n">
-        <v>25099.66</v>
+        <v>-9991.619999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>29791.5</v>
+        <v>-16729.05</v>
       </c>
       <c r="N20" t="n">
-        <v>15179.4</v>
+        <v>-7641.62</v>
       </c>
       <c r="O20" t="n">
-        <v>-8803.469999999999</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-15738.68</v>
+        <v>-23658.71</v>
       </c>
     </row>
     <row r="21">
@@ -1510,49 +1448,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2217.61</v>
+        <v>2505.99</v>
       </c>
       <c r="C21" t="n">
-        <v>1350.42</v>
+        <v>1283.4</v>
       </c>
       <c r="D21" t="n">
-        <v>3318.6</v>
+        <v>352.23</v>
       </c>
       <c r="E21" t="n">
-        <v>2505.99</v>
+        <v>3294.23</v>
       </c>
       <c r="F21" t="n">
-        <v>1283.4</v>
+        <v>-6176.290000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>352.23</v>
+        <v>-5981.89</v>
       </c>
       <c r="H21" t="n">
-        <v>3294.23</v>
+        <v>-1522.78</v>
       </c>
       <c r="I21" t="n">
-        <v>-3058.26</v>
+        <v>909.2300000000005</v>
       </c>
       <c r="J21" t="n">
-        <v>-3502.56</v>
+        <v>-5390.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2018.25</v>
+        <v>-1689</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2300000000005</v>
+        <v>-2663.77</v>
       </c>
       <c r="M21" t="n">
-        <v>-5390.88</v>
+        <v>-6676.75</v>
       </c>
       <c r="N21" t="n">
-        <v>-1689</v>
+        <v>-4243.25</v>
       </c>
       <c r="O21" t="n">
-        <v>-2663.77</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-5069.83</v>
+        <v>-20.26999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -1562,49 +1497,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6084.91</v>
+        <v>-3937.059999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>5989.259999999999</v>
+        <v>-8439.23</v>
       </c>
       <c r="D22" t="n">
-        <v>-270.03</v>
+        <v>-1478.74</v>
       </c>
       <c r="E22" t="n">
-        <v>-4205.049999999999</v>
+        <v>586.0899999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>-9017.92</v>
+        <v>4983.04</v>
       </c>
       <c r="G22" t="n">
-        <v>-2061.69</v>
+        <v>5522.15</v>
       </c>
       <c r="H22" t="n">
-        <v>-111.6099999999999</v>
+        <v>9250.870000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>4252.85</v>
+        <v>7037.320000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>6331.95</v>
+        <v>4403.84</v>
       </c>
       <c r="K22" t="n">
-        <v>8664.610000000001</v>
+        <v>-518.4300000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>6045.67</v>
+        <v>3813.919999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>3545.11</v>
+        <v>1387.67</v>
       </c>
       <c r="N22" t="n">
-        <v>-1431.34</v>
+        <v>5189.29</v>
       </c>
       <c r="O22" t="n">
-        <v>2625.77</v>
-      </c>
-      <c r="P22" t="n">
-        <v>397.3000000000002</v>
+        <v>7054.210000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1614,49 +1546,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88342.25</v>
+        <v>76917.74000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>85093.40000000001</v>
+        <v>56097.61</v>
       </c>
       <c r="D23" t="n">
-        <v>82312.46000000001</v>
+        <v>-4883.88</v>
       </c>
       <c r="E23" t="n">
-        <v>80908.17</v>
+        <v>25555.89</v>
       </c>
       <c r="F23" t="n">
-        <v>58063.58</v>
+        <v>25853.27</v>
       </c>
       <c r="G23" t="n">
-        <v>-9001.969999999999</v>
+        <v>23348.5</v>
       </c>
       <c r="H23" t="n">
-        <v>23671.99</v>
+        <v>43944.32000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>25412.54</v>
+        <v>46044.13</v>
       </c>
       <c r="J23" t="n">
-        <v>20123.38</v>
+        <v>35221.16</v>
       </c>
       <c r="K23" t="n">
-        <v>43131.26</v>
+        <v>62090.37</v>
       </c>
       <c r="L23" t="n">
-        <v>43944.22</v>
+        <v>45331.3</v>
       </c>
       <c r="M23" t="n">
-        <v>32788.37</v>
+        <v>-8388.35</v>
       </c>
       <c r="N23" t="n">
-        <v>65398.87</v>
+        <v>-3828.050000000002</v>
       </c>
       <c r="O23" t="n">
-        <v>48733.09</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-4203.990000000003</v>
+        <v>2718.530000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1666,49 +1595,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2229.1</v>
+        <v>14339.64</v>
       </c>
       <c r="C24" t="n">
-        <v>1488.089999999999</v>
+        <v>10422.25</v>
       </c>
       <c r="D24" t="n">
-        <v>-185.84</v>
+        <v>-8688.52</v>
       </c>
       <c r="E24" t="n">
-        <v>8453.580000000002</v>
+        <v>-10656.72</v>
       </c>
       <c r="F24" t="n">
-        <v>1397.600000000001</v>
+        <v>1483.429999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>2429.8</v>
+        <v>-17616.02</v>
       </c>
       <c r="H24" t="n">
-        <v>-3486.720000000001</v>
+        <v>-18550.77</v>
       </c>
       <c r="I24" t="n">
-        <v>8525.019999999999</v>
+        <v>-9022.67</v>
       </c>
       <c r="J24" t="n">
-        <v>-6835.720000000001</v>
+        <v>-1463.62</v>
       </c>
       <c r="K24" t="n">
-        <v>-7785.66</v>
+        <v>17397.24</v>
       </c>
       <c r="L24" t="n">
-        <v>-1632.45</v>
+        <v>24878.31</v>
       </c>
       <c r="M24" t="n">
-        <v>2584.17</v>
+        <v>13369.61</v>
       </c>
       <c r="N24" t="n">
-        <v>2243.98</v>
+        <v>-2169.650000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>6177.56</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3832.67</v>
+        <v>-12902.07</v>
       </c>
     </row>
     <row r="25">
@@ -1718,49 +1644,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150392.91</v>
+        <v>50852.61</v>
       </c>
       <c r="C25" t="n">
-        <v>111445.81</v>
+        <v>25750.42</v>
       </c>
       <c r="D25" t="n">
-        <v>89258.33</v>
+        <v>-76554.62</v>
       </c>
       <c r="E25" t="n">
-        <v>67092.25</v>
+        <v>-34432.09</v>
       </c>
       <c r="F25" t="n">
-        <v>39541.46</v>
+        <v>-18560.93</v>
       </c>
       <c r="G25" t="n">
-        <v>-76907.75999999999</v>
+        <v>-50237.62</v>
       </c>
       <c r="H25" t="n">
-        <v>-31923.2</v>
+        <v>-34625.1</v>
       </c>
       <c r="I25" t="n">
-        <v>-23521.03</v>
+        <v>-37057.18</v>
       </c>
       <c r="J25" t="n">
-        <v>-55551.48</v>
+        <v>-37726.91</v>
       </c>
       <c r="K25" t="n">
-        <v>-45040.96</v>
+        <v>5043.729999999997</v>
       </c>
       <c r="L25" t="n">
-        <v>-36273.35</v>
+        <v>27412.49</v>
       </c>
       <c r="M25" t="n">
-        <v>-34360.73</v>
+        <v>8976.58</v>
       </c>
       <c r="N25" t="n">
-        <v>9054.029999999997</v>
+        <v>25933.1</v>
       </c>
       <c r="O25" t="n">
-        <v>33970.28999999999</v>
-      </c>
-      <c r="P25" t="n">
-        <v>16418.28</v>
+        <v>-23001.66</v>
       </c>
     </row>
     <row r="26">
@@ -1770,49 +1693,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5969.490000000001</v>
+        <v>10528.13</v>
       </c>
       <c r="C26" t="n">
-        <v>835.8599999999999</v>
+        <v>17747.98</v>
       </c>
       <c r="D26" t="n">
-        <v>14935.24</v>
+        <v>18881.07</v>
       </c>
       <c r="E26" t="n">
-        <v>10345.04</v>
+        <v>16214.34</v>
       </c>
       <c r="F26" t="n">
-        <v>17578.56</v>
+        <v>7841.049999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>18716.01</v>
+        <v>13266.22</v>
       </c>
       <c r="H26" t="n">
-        <v>16102.61</v>
+        <v>6550.459999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>7744.77</v>
+        <v>-3358.88</v>
       </c>
       <c r="J26" t="n">
-        <v>13119.25</v>
+        <v>-1579.34</v>
       </c>
       <c r="K26" t="n">
-        <v>6408.15</v>
+        <v>9889.83</v>
       </c>
       <c r="L26" t="n">
-        <v>-3484.5</v>
+        <v>7082.389999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>-1707.44</v>
+        <v>9148.42</v>
       </c>
       <c r="N26" t="n">
-        <v>9815.800000000001</v>
+        <v>8773.59</v>
       </c>
       <c r="O26" t="n">
-        <v>6974.57</v>
-      </c>
-      <c r="P26" t="n">
-        <v>9033.549999999999</v>
+        <v>9691.940000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1822,49 +1742,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7111.27</v>
+        <v>-15684.79</v>
       </c>
       <c r="C27" t="n">
-        <v>5682.77</v>
+        <v>-13754.69</v>
       </c>
       <c r="D27" t="n">
-        <v>-10476.97</v>
+        <v>-10506.67</v>
       </c>
       <c r="E27" t="n">
-        <v>-16006.07</v>
+        <v>-10826.33</v>
       </c>
       <c r="F27" t="n">
-        <v>-13786.13</v>
+        <v>867.71</v>
       </c>
       <c r="G27" t="n">
-        <v>-10550.82</v>
+        <v>5536.860000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>-10593.85</v>
+        <v>-2215.92</v>
       </c>
       <c r="I27" t="n">
-        <v>1246.08</v>
+        <v>-2670.99</v>
       </c>
       <c r="J27" t="n">
-        <v>5892.31</v>
+        <v>-6362.89</v>
       </c>
       <c r="K27" t="n">
-        <v>-2119.01</v>
+        <v>-6193.700000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>-2542.38</v>
+        <v>-12693.61</v>
       </c>
       <c r="M27" t="n">
-        <v>-6581.77</v>
+        <v>-6426.69</v>
       </c>
       <c r="N27" t="n">
-        <v>-6643.24</v>
+        <v>-2.769999999999982</v>
       </c>
       <c r="O27" t="n">
-        <v>-13157.97</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-6766.639999999999</v>
+        <v>2540.730000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1874,49 +1791,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4051.97</v>
+        <v>-1608.38</v>
       </c>
       <c r="C28" t="n">
-        <v>-5601.05</v>
+        <v>5506.23</v>
       </c>
       <c r="D28" t="n">
-        <v>-2794.67</v>
+        <v>7918.47</v>
       </c>
       <c r="E28" t="n">
-        <v>-1198.35</v>
+        <v>8442.68</v>
       </c>
       <c r="F28" t="n">
-        <v>5805.059999999999</v>
+        <v>3260.33</v>
       </c>
       <c r="G28" t="n">
-        <v>8228.450000000001</v>
+        <v>5870.68</v>
       </c>
       <c r="H28" t="n">
-        <v>8287.17</v>
+        <v>5902.110000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>3079.89</v>
+        <v>3408.01</v>
       </c>
       <c r="J28" t="n">
-        <v>5679.55</v>
+        <v>-1193.93</v>
       </c>
       <c r="K28" t="n">
-        <v>5826.41</v>
+        <v>8514.57</v>
       </c>
       <c r="L28" t="n">
-        <v>3283.05</v>
+        <v>5007.3</v>
       </c>
       <c r="M28" t="n">
-        <v>-947.26</v>
+        <v>369.42</v>
       </c>
       <c r="N28" t="n">
-        <v>8911.269999999999</v>
+        <v>1753.9</v>
       </c>
       <c r="O28" t="n">
-        <v>5465</v>
-      </c>
-      <c r="P28" t="n">
-        <v>740.6</v>
+        <v>-4147.61</v>
       </c>
     </row>
     <row r="29">
@@ -1926,49 +1840,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>845.5700000000001</v>
+        <v>1597.74</v>
       </c>
       <c r="C29" t="n">
-        <v>1331.3</v>
+        <v>1448.01</v>
       </c>
       <c r="D29" t="n">
-        <v>1041.88</v>
+        <v>412.1</v>
       </c>
       <c r="E29" t="n">
-        <v>1597.74</v>
+        <v>324.48</v>
       </c>
       <c r="F29" t="n">
-        <v>1448.01</v>
+        <v>331.34</v>
       </c>
       <c r="G29" t="n">
-        <v>412.1</v>
+        <v>-624.1999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>324.48</v>
+        <v>-746.96</v>
       </c>
       <c r="I29" t="n">
-        <v>331.34</v>
+        <v>-909.13</v>
       </c>
       <c r="J29" t="n">
-        <v>-624.1999999999999</v>
+        <v>-1056.8</v>
       </c>
       <c r="K29" t="n">
-        <v>-746.96</v>
+        <v>-515.5700000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>-909.13</v>
+        <v>-234.27</v>
       </c>
       <c r="M29" t="n">
-        <v>-1056.8</v>
+        <v>-271.44</v>
       </c>
       <c r="N29" t="n">
-        <v>-515.5700000000001</v>
+        <v>-141.93</v>
       </c>
       <c r="O29" t="n">
-        <v>-234.27</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-271.44</v>
+        <v>-679.9000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1978,49 +1889,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>302.87</v>
+        <v>853.14</v>
       </c>
       <c r="C30" t="n">
-        <v>502.45</v>
+        <v>736.23</v>
       </c>
       <c r="D30" t="n">
-        <v>819.8</v>
+        <v>645.4</v>
       </c>
       <c r="E30" t="n">
-        <v>983.6</v>
+        <v>465.5700000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>911.84</v>
+        <v>219.6</v>
       </c>
       <c r="G30" t="n">
-        <v>862.9400000000001</v>
+        <v>-333.84</v>
       </c>
       <c r="H30" t="n">
-        <v>686.71</v>
+        <v>-287.52</v>
       </c>
       <c r="I30" t="n">
-        <v>95.09</v>
+        <v>-210.37</v>
       </c>
       <c r="J30" t="n">
-        <v>-255.85</v>
+        <v>-268.09</v>
       </c>
       <c r="K30" t="n">
-        <v>-272.2</v>
+        <v>-88.63000000000002</v>
       </c>
       <c r="L30" t="n">
-        <v>-257.91</v>
+        <v>-124.86</v>
       </c>
       <c r="M30" t="n">
-        <v>-104.74</v>
+        <v>-260.43</v>
       </c>
       <c r="N30" t="n">
-        <v>32.99999999999999</v>
+        <v>-84.44999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-24.73</v>
-      </c>
-      <c r="P30" t="n">
-        <v>-192.34</v>
+        <v>-401.66</v>
       </c>
     </row>
     <row r="31">
@@ -2030,49 +1938,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.58</v>
+        <v>688.3100000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>1298.58</v>
+        <v>1003.9</v>
       </c>
       <c r="D31" t="n">
-        <v>546.0599999999999</v>
+        <v>872.6900000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>557.85</v>
+        <v>940.89</v>
       </c>
       <c r="F31" t="n">
-        <v>828.29</v>
+        <v>415.67</v>
       </c>
       <c r="G31" t="n">
-        <v>655.15</v>
+        <v>-621.6</v>
       </c>
       <c r="H31" t="n">
-        <v>719.75</v>
+        <v>-978.5500000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>540.1800000000001</v>
+        <v>-797.62</v>
       </c>
       <c r="J31" t="n">
-        <v>-699.59</v>
+        <v>-1056.72</v>
       </c>
       <c r="K31" t="n">
-        <v>-993.87</v>
+        <v>-666.8000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>-750.08</v>
+        <v>-478.97</v>
       </c>
       <c r="M31" t="n">
-        <v>-1220.07</v>
+        <v>-841.88</v>
       </c>
       <c r="N31" t="n">
-        <v>-788.4300000000001</v>
+        <v>-722.97</v>
       </c>
       <c r="O31" t="n">
-        <v>-579.1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>-909.97</v>
+        <v>-1048.45</v>
       </c>
     </row>
     <row r="32">
@@ -2082,49 +1987,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9022.41</v>
+        <v>14088.62</v>
       </c>
       <c r="C32" t="n">
-        <v>14289.76</v>
+        <v>14150.83</v>
       </c>
       <c r="D32" t="n">
-        <v>14786.12</v>
+        <v>4611.540000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>15628.22</v>
+        <v>3443.87</v>
       </c>
       <c r="F32" t="n">
-        <v>16219.79</v>
+        <v>8782.630000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>7513.5</v>
+        <v>4843.179999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>5113.24</v>
+        <v>-4688.45</v>
       </c>
       <c r="I32" t="n">
-        <v>9318.27</v>
+        <v>9685.9</v>
       </c>
       <c r="J32" t="n">
-        <v>5305.37</v>
+        <v>-2980.92</v>
       </c>
       <c r="K32" t="n">
-        <v>-4705.97</v>
+        <v>7411.929999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>7772.84</v>
+        <v>2338.84</v>
       </c>
       <c r="M32" t="n">
-        <v>-1604.64</v>
+        <v>10563.09</v>
       </c>
       <c r="N32" t="n">
-        <v>9519.24</v>
+        <v>-7649.280000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>3959.22</v>
-      </c>
-      <c r="P32" t="n">
-        <v>10118.96</v>
+        <v>-8447.349999999999</v>
       </c>
     </row>
     <row r="33">
@@ -2134,49 +2036,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10226.99</v>
+        <v>16315.85</v>
       </c>
       <c r="C33" t="n">
-        <v>11479.28</v>
+        <v>14226.88</v>
       </c>
       <c r="D33" t="n">
-        <v>8368.449999999999</v>
+        <v>1425.200000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>6608.56</v>
+        <v>8757.880000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>6989.29</v>
+        <v>12046.49</v>
       </c>
       <c r="G33" t="n">
-        <v>7044.86</v>
+        <v>7951.190000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>4348.06</v>
+        <v>9855.66</v>
       </c>
       <c r="I33" t="n">
-        <v>8064.13</v>
+        <v>-14581.76</v>
       </c>
       <c r="J33" t="n">
-        <v>4245.43</v>
+        <v>-18683</v>
       </c>
       <c r="K33" t="n">
-        <v>3366.89</v>
+        <v>-17579.08</v>
       </c>
       <c r="L33" t="n">
-        <v>-159.3299999999998</v>
+        <v>-17643.5</v>
       </c>
       <c r="M33" t="n">
-        <v>-4290.12</v>
+        <v>-22919.93</v>
       </c>
       <c r="N33" t="n">
-        <v>-4735.16</v>
+        <v>-9297.42</v>
       </c>
       <c r="O33" t="n">
-        <v>-4786.48</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-8062.42</v>
+        <v>-15702.22</v>
       </c>
     </row>
     <row r="34">
@@ -2186,49 +2085,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18381.3</v>
+        <v>6336.870000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>17816.24</v>
+        <v>6157.65</v>
       </c>
       <c r="D34" t="n">
-        <v>16054</v>
+        <v>1037.15</v>
       </c>
       <c r="E34" t="n">
-        <v>14504.56</v>
+        <v>1669.37</v>
       </c>
       <c r="F34" t="n">
-        <v>11326.28</v>
+        <v>535.64</v>
       </c>
       <c r="G34" t="n">
-        <v>-7484.469999999999</v>
+        <v>462.19</v>
       </c>
       <c r="H34" t="n">
-        <v>4409.82</v>
+        <v>-17.52</v>
       </c>
       <c r="I34" t="n">
-        <v>3982.36</v>
+        <v>-1913.06</v>
       </c>
       <c r="J34" t="n">
-        <v>3705.76</v>
+        <v>420.0899999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>6488.77</v>
+        <v>-2573.82</v>
       </c>
       <c r="L34" t="n">
-        <v>-14422.43</v>
+        <v>-1310.85</v>
       </c>
       <c r="M34" t="n">
-        <v>-15349.07</v>
+        <v>-2450.52</v>
       </c>
       <c r="N34" t="n">
-        <v>-17525.05</v>
+        <v>2070.06</v>
       </c>
       <c r="O34" t="n">
-        <v>-15788.25</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-16863.9</v>
+        <v>766.0800000000002</v>
       </c>
     </row>
     <row r="35">
@@ -2238,49 +2134,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2788.99</v>
+        <v>4977.04</v>
       </c>
       <c r="C35" t="n">
-        <v>2493.04</v>
+        <v>4413.95</v>
       </c>
       <c r="D35" t="n">
-        <v>2348.21</v>
+        <v>2736.78</v>
       </c>
       <c r="E35" t="n">
-        <v>1658.39</v>
+        <v>1698.45</v>
       </c>
       <c r="F35" t="n">
-        <v>1112.28</v>
+        <v>2192.65</v>
       </c>
       <c r="G35" t="n">
-        <v>-336.04</v>
+        <v>2179.62</v>
       </c>
       <c r="H35" t="n">
-        <v>-689.23</v>
+        <v>1754.53</v>
       </c>
       <c r="I35" t="n">
-        <v>-250.52</v>
+        <v>292.5599999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>678.55</v>
+        <v>3759.21</v>
       </c>
       <c r="K35" t="n">
-        <v>612.41</v>
+        <v>3855.77</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.09</v>
+        <v>3766.4</v>
       </c>
       <c r="M35" t="n">
-        <v>2450.85</v>
+        <v>5797.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2494.08</v>
+        <v>6698.35</v>
       </c>
       <c r="O35" t="n">
-        <v>2893.07</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2631.38</v>
+        <v>6179.09</v>
       </c>
     </row>
     <row r="36">
@@ -2290,49 +2183,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17989.44</v>
+        <v>17694.28</v>
       </c>
       <c r="C36" t="n">
-        <v>17188.97</v>
+        <v>16614.7</v>
       </c>
       <c r="D36" t="n">
-        <v>18571.28</v>
+        <v>8826.5</v>
       </c>
       <c r="E36" t="n">
-        <v>17694.28</v>
+        <v>8445.24</v>
       </c>
       <c r="F36" t="n">
-        <v>16614.7</v>
+        <v>-16575.43</v>
       </c>
       <c r="G36" t="n">
-        <v>8826.5</v>
+        <v>-16994.76</v>
       </c>
       <c r="H36" t="n">
-        <v>8445.24</v>
+        <v>-20828.29</v>
       </c>
       <c r="I36" t="n">
-        <v>-31247.41</v>
+        <v>-45604.16</v>
       </c>
       <c r="J36" t="n">
-        <v>-31879.44</v>
+        <v>-37249.06</v>
       </c>
       <c r="K36" t="n">
-        <v>-39686.15</v>
+        <v>-10778.74</v>
       </c>
       <c r="L36" t="n">
-        <v>-45604.16</v>
+        <v>-21827.62</v>
       </c>
       <c r="M36" t="n">
-        <v>-37249.06</v>
+        <v>-28688.06</v>
       </c>
       <c r="N36" t="n">
-        <v>-10778.74</v>
+        <v>24606.5</v>
       </c>
       <c r="O36" t="n">
-        <v>-21827.62</v>
-      </c>
-      <c r="P36" t="n">
-        <v>-14027.78</v>
+        <v>-17973.9</v>
       </c>
     </row>
     <row r="37">
@@ -2342,49 +2232,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15617.84</v>
+        <v>11642.09</v>
       </c>
       <c r="C37" t="n">
-        <v>20617.43</v>
+        <v>13976.17</v>
       </c>
       <c r="D37" t="n">
-        <v>20275.05</v>
+        <v>6019.97</v>
       </c>
       <c r="E37" t="n">
-        <v>14960.74</v>
+        <v>6453.51</v>
       </c>
       <c r="F37" t="n">
-        <v>17277.84</v>
+        <v>-6873.51</v>
       </c>
       <c r="G37" t="n">
-        <v>9092.790000000001</v>
+        <v>-6510.17</v>
       </c>
       <c r="H37" t="n">
-        <v>8841.190000000001</v>
+        <v>-6286.32</v>
       </c>
       <c r="I37" t="n">
-        <v>-4430.34</v>
+        <v>-14125.5</v>
       </c>
       <c r="J37" t="n">
-        <v>-5009.1</v>
+        <v>-8085.73</v>
       </c>
       <c r="K37" t="n">
-        <v>-5144.2</v>
+        <v>-14589.09</v>
       </c>
       <c r="L37" t="n">
-        <v>-15465.03</v>
+        <v>-18148.98</v>
       </c>
       <c r="M37" t="n">
-        <v>-6777.37</v>
+        <v>-22229.53</v>
       </c>
       <c r="N37" t="n">
-        <v>-13227.4</v>
+        <v>-19838.02</v>
       </c>
       <c r="O37" t="n">
-        <v>-17275.65</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-19063.79</v>
+        <v>-26416.2</v>
       </c>
     </row>
     <row r="38">
@@ -2394,49 +2281,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-16928.81</v>
+        <v>-25430.71</v>
       </c>
       <c r="C38" t="n">
-        <v>-9222.99</v>
+        <v>-12120.47</v>
       </c>
       <c r="D38" t="n">
-        <v>-17127.04</v>
+        <v>19488.71</v>
       </c>
       <c r="E38" t="n">
-        <v>-24389.07</v>
+        <v>25434.41</v>
       </c>
       <c r="F38" t="n">
-        <v>-14543.19</v>
+        <v>24658.23</v>
       </c>
       <c r="G38" t="n">
-        <v>15821.39</v>
+        <v>22006.41</v>
       </c>
       <c r="H38" t="n">
-        <v>22677.57</v>
+        <v>22207.18</v>
       </c>
       <c r="I38" t="n">
-        <v>25901.1</v>
+        <v>8023.040000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>19515.39</v>
+        <v>-2863.880000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>22949.2</v>
+        <v>2299.34</v>
       </c>
       <c r="L38" t="n">
-        <v>10931.87</v>
+        <v>-4237.610000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>-1355.550000000001</v>
+        <v>-1191.689999999999</v>
       </c>
       <c r="N38" t="n">
-        <v>4198.44</v>
+        <v>7285.799999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>-3136.76</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-513.6399999999994</v>
+        <v>-4499.99</v>
       </c>
     </row>
     <row r="39">
@@ -2446,49 +2330,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19810.03</v>
+        <v>6547.040000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>26201.9</v>
+        <v>19811.88</v>
       </c>
       <c r="D39" t="n">
-        <v>22856.89</v>
+        <v>38101.65</v>
       </c>
       <c r="E39" t="n">
-        <v>-5329.690000000001</v>
+        <v>17901.54</v>
       </c>
       <c r="F39" t="n">
-        <v>13554.18</v>
+        <v>32025.81</v>
       </c>
       <c r="G39" t="n">
-        <v>35971.44</v>
+        <v>28069.31</v>
       </c>
       <c r="H39" t="n">
-        <v>30013.73</v>
+        <v>-411.3399999999998</v>
       </c>
       <c r="I39" t="n">
-        <v>26134.46</v>
+        <v>-19889.26</v>
       </c>
       <c r="J39" t="n">
-        <v>24904.09</v>
+        <v>-12766.39</v>
       </c>
       <c r="K39" t="n">
-        <v>-8102.799999999999</v>
+        <v>-19006.26</v>
       </c>
       <c r="L39" t="n">
-        <v>-20820.12</v>
+        <v>-31065.93</v>
       </c>
       <c r="M39" t="n">
-        <v>-11992.24</v>
+        <v>-30287.27</v>
       </c>
       <c r="N39" t="n">
-        <v>-20319.54</v>
+        <v>-27851.92</v>
       </c>
       <c r="O39" t="n">
-        <v>-29837.56</v>
-      </c>
-      <c r="P39" t="n">
-        <v>-24295.08</v>
+        <v>-36970.33</v>
       </c>
     </row>
     <row r="40">
@@ -2498,49 +2379,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31797.26</v>
+        <v>12723.5</v>
       </c>
       <c r="C40" t="n">
-        <v>43894.16</v>
+        <v>-12276.61</v>
       </c>
       <c r="D40" t="n">
-        <v>52347.11</v>
+        <v>54528.87</v>
       </c>
       <c r="E40" t="n">
-        <v>22290.88</v>
+        <v>45271.67000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-1812.73</v>
+        <v>50508.12</v>
       </c>
       <c r="G40" t="n">
-        <v>63055.66</v>
+        <v>41795.06</v>
       </c>
       <c r="H40" t="n">
-        <v>37983.64000000001</v>
+        <v>36266.64</v>
       </c>
       <c r="I40" t="n">
-        <v>57002.08</v>
+        <v>8301.52</v>
       </c>
       <c r="J40" t="n">
-        <v>47749.88</v>
+        <v>-7318.729999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>40847.96999999999</v>
+        <v>-13225.89</v>
       </c>
       <c r="L40" t="n">
-        <v>3279.920000000001</v>
+        <v>-36368.83</v>
       </c>
       <c r="M40" t="n">
-        <v>-12459.47</v>
+        <v>-38942.41</v>
       </c>
       <c r="N40" t="n">
-        <v>-15974.05</v>
+        <v>-13557.42</v>
       </c>
       <c r="O40" t="n">
-        <v>-40195.28000000001</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-46784.09</v>
+        <v>-25144.04</v>
       </c>
     </row>
     <row r="41">
@@ -2550,49 +2428,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20072.75</v>
+        <v>19010.37</v>
       </c>
       <c r="C41" t="n">
-        <v>16930.01</v>
+        <v>20992.12</v>
       </c>
       <c r="D41" t="n">
-        <v>23203.99</v>
+        <v>21298.16</v>
       </c>
       <c r="E41" t="n">
-        <v>19010.37</v>
+        <v>8394.290000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>20992.12</v>
+        <v>5498.749999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>21298.16</v>
+        <v>1655.93</v>
       </c>
       <c r="H41" t="n">
-        <v>8394.290000000001</v>
+        <v>-13397.66</v>
       </c>
       <c r="I41" t="n">
-        <v>5498.749999999999</v>
+        <v>-22513.77</v>
       </c>
       <c r="J41" t="n">
-        <v>1655.930000000001</v>
+        <v>-3334.780000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-13397.66</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="L41" t="n">
-        <v>-22513.77</v>
+        <v>-3872.389999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>-3334.78</v>
+        <v>-2316.650000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>-2803.660000000001</v>
+        <v>16423.45</v>
       </c>
       <c r="O41" t="n">
-        <v>-3872.39</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-2316.650000000001</v>
+        <v>7420.54</v>
       </c>
     </row>
     <row r="42">
@@ -2602,49 +2477,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7204.950000000001</v>
+        <v>8674.810000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>7557.88</v>
+        <v>8531.57</v>
       </c>
       <c r="D42" t="n">
-        <v>8281.710000000001</v>
+        <v>6102.48</v>
       </c>
       <c r="E42" t="n">
-        <v>8674.810000000001</v>
+        <v>3887.73</v>
       </c>
       <c r="F42" t="n">
-        <v>8531.57</v>
+        <v>3943.97</v>
       </c>
       <c r="G42" t="n">
-        <v>6102.48</v>
+        <v>-2323.66</v>
       </c>
       <c r="H42" t="n">
-        <v>3887.73</v>
+        <v>1588.69</v>
       </c>
       <c r="I42" t="n">
-        <v>3943.97</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>-2323.66</v>
+        <v>9814.09</v>
       </c>
       <c r="K42" t="n">
-        <v>1588.69</v>
+        <v>10117.7</v>
       </c>
       <c r="L42" t="n">
-        <v>7619.099999999999</v>
+        <v>9842.450000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>9814.09</v>
+        <v>7723.59</v>
       </c>
       <c r="N42" t="n">
-        <v>10117.7</v>
+        <v>2985.55</v>
       </c>
       <c r="O42" t="n">
-        <v>9842.450000000001</v>
-      </c>
-      <c r="P42" t="n">
-        <v>7723.59</v>
+        <v>-5042.5</v>
       </c>
     </row>
     <row r="43">
@@ -2654,49 +2526,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-688.7299999999999</v>
+        <v>1900.08</v>
       </c>
       <c r="C43" t="n">
-        <v>5060.57</v>
+        <v>-2415.61</v>
       </c>
       <c r="D43" t="n">
-        <v>2804.01</v>
+        <v>1005.71</v>
       </c>
       <c r="E43" t="n">
-        <v>1900.08</v>
+        <v>-5354.98</v>
       </c>
       <c r="F43" t="n">
-        <v>-2415.61</v>
+        <v>-3818.85</v>
       </c>
       <c r="G43" t="n">
-        <v>1005.71</v>
+        <v>-4170.84</v>
       </c>
       <c r="H43" t="n">
-        <v>-5354.98</v>
+        <v>-4793.76</v>
       </c>
       <c r="I43" t="n">
-        <v>-3818.85</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>-4170.84</v>
+        <v>-3596.11</v>
       </c>
       <c r="K43" t="n">
-        <v>-4793.76</v>
+        <v>-2791.37</v>
       </c>
       <c r="L43" t="n">
-        <v>-4975.110000000001</v>
+        <v>-2244.57</v>
       </c>
       <c r="M43" t="n">
-        <v>-3596.11</v>
+        <v>3802.41</v>
       </c>
       <c r="N43" t="n">
-        <v>-2791.37</v>
+        <v>3913.89</v>
       </c>
       <c r="O43" t="n">
-        <v>-2244.57</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3802.41</v>
+        <v>4196.91</v>
       </c>
     </row>
     <row r="44">
@@ -2706,49 +2575,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.11</v>
+        <v>-1326.76</v>
       </c>
       <c r="C44" t="n">
-        <v>8361.98</v>
+        <v>2587.06</v>
       </c>
       <c r="D44" t="n">
-        <v>7437.309999999999</v>
+        <v>7570.96</v>
       </c>
       <c r="E44" t="n">
-        <v>-1326.76</v>
+        <v>-871.6400000000003</v>
       </c>
       <c r="F44" t="n">
-        <v>2587.06</v>
+        <v>-1202.01</v>
       </c>
       <c r="G44" t="n">
-        <v>7570.96</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-871.6400000000003</v>
+        <v>-2224.09</v>
       </c>
       <c r="I44" t="n">
-        <v>-1202.01</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>-2196.889999999999</v>
+        <v>-8471.98</v>
       </c>
       <c r="K44" t="n">
-        <v>-2224.09</v>
+        <v>-8151.13</v>
       </c>
       <c r="L44" t="n">
-        <v>-8874.900000000001</v>
+        <v>-8628.540000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>-8471.98</v>
+        <v>-6669.5</v>
       </c>
       <c r="N44" t="n">
-        <v>-8151.13</v>
+        <v>-6093.22</v>
       </c>
       <c r="O44" t="n">
-        <v>-8628.540000000001</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-6669.5</v>
+        <v>6444.210000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2758,49 +2624,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2435.03</v>
+        <v>2484.89</v>
       </c>
       <c r="C45" t="n">
-        <v>2404.43</v>
+        <v>1971.73</v>
       </c>
       <c r="D45" t="n">
-        <v>2426.85</v>
+        <v>1947.25</v>
       </c>
       <c r="E45" t="n">
-        <v>2484.89</v>
+        <v>1356.14</v>
       </c>
       <c r="F45" t="n">
-        <v>1971.73</v>
+        <v>-663.53</v>
       </c>
       <c r="G45" t="n">
-        <v>1947.25</v>
+        <v>-1633.76</v>
       </c>
       <c r="H45" t="n">
-        <v>1356.14</v>
+        <v>-1341.96</v>
       </c>
       <c r="I45" t="n">
-        <v>-663.53</v>
+        <v>-1967.27</v>
       </c>
       <c r="J45" t="n">
-        <v>-1633.76</v>
+        <v>-1885.33</v>
       </c>
       <c r="K45" t="n">
-        <v>-1341.96</v>
+        <v>-1353.23</v>
       </c>
       <c r="L45" t="n">
-        <v>-1967.27</v>
+        <v>-1129.64</v>
       </c>
       <c r="M45" t="n">
-        <v>-1885.33</v>
+        <v>115.95</v>
       </c>
       <c r="N45" t="n">
-        <v>-1353.23</v>
+        <v>-297.44</v>
       </c>
       <c r="O45" t="n">
-        <v>-1129.64</v>
-      </c>
-      <c r="P45" t="n">
-        <v>115.95</v>
+        <v>3157.93</v>
       </c>
     </row>
     <row r="46">
@@ -2810,49 +2673,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41457.91</v>
+        <v>4625.270000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>26649.53</v>
+        <v>-24.11999999999921</v>
       </c>
       <c r="D46" t="n">
-        <v>32770.67</v>
+        <v>30660.97</v>
       </c>
       <c r="E46" t="n">
-        <v>7687.8</v>
+        <v>36540.57</v>
       </c>
       <c r="F46" t="n">
-        <v>4073.650000000001</v>
+        <v>25169.82</v>
       </c>
       <c r="G46" t="n">
-        <v>36835.44</v>
+        <v>14561.08</v>
       </c>
       <c r="H46" t="n">
-        <v>22826.02</v>
+        <v>21348.90000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>28743.38</v>
+        <v>13877.34</v>
       </c>
       <c r="J46" t="n">
-        <v>-710.0500000000034</v>
+        <v>-5984.61</v>
       </c>
       <c r="K46" t="n">
-        <v>1456.360000000003</v>
+        <v>10920.72</v>
       </c>
       <c r="L46" t="n">
-        <v>11616.31</v>
+        <v>37263.09</v>
       </c>
       <c r="M46" t="n">
-        <v>17972.99</v>
+        <v>25983.96</v>
       </c>
       <c r="N46" t="n">
-        <v>39551.63</v>
+        <v>27748.47</v>
       </c>
       <c r="O46" t="n">
-        <v>72996.39999999999</v>
-      </c>
-      <c r="P46" t="n">
-        <v>59659.35</v>
+        <v>23990.13</v>
       </c>
     </row>
     <row r="47">
@@ -2862,49 +2722,46 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49829.39</v>
+        <v>14457.15</v>
       </c>
       <c r="C47" t="n">
-        <v>39063.51</v>
+        <v>-8480.639999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>10371.91</v>
+        <v>26129.49</v>
       </c>
       <c r="E47" t="n">
-        <v>14783.34</v>
+        <v>-13147.4</v>
       </c>
       <c r="F47" t="n">
-        <v>-8616.120000000001</v>
+        <v>21760.27</v>
       </c>
       <c r="G47" t="n">
-        <v>25983.09</v>
+        <v>-7877.98</v>
       </c>
       <c r="H47" t="n">
-        <v>-13474.34</v>
+        <v>2990.080000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>21397.3</v>
+        <v>1664.759999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>-8287.049999999999</v>
+        <v>34245.7</v>
       </c>
       <c r="K47" t="n">
-        <v>2753.93</v>
+        <v>28082.61</v>
       </c>
       <c r="L47" t="n">
-        <v>1449.03</v>
+        <v>20217.66</v>
       </c>
       <c r="M47" t="n">
-        <v>34040.79</v>
+        <v>8506.59</v>
       </c>
       <c r="N47" t="n">
-        <v>27967.52</v>
+        <v>-11369.69</v>
       </c>
       <c r="O47" t="n">
-        <v>20076.92</v>
-      </c>
-      <c r="P47" t="n">
-        <v>8405.640000000001</v>
+        <v>11936.3</v>
       </c>
     </row>
     <row r="48">
@@ -2914,49 +2771,46 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31745.78</v>
+        <v>-7533.63</v>
       </c>
       <c r="C48" t="n">
-        <v>23252.11</v>
+        <v>-16956.05</v>
       </c>
       <c r="D48" t="n">
-        <v>-9519.890000000001</v>
+        <v>-16698.65</v>
       </c>
       <c r="E48" t="n">
-        <v>-10837.93</v>
+        <v>-41588.59</v>
       </c>
       <c r="F48" t="n">
-        <v>-21055.43</v>
+        <v>-7427.139999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-22642.95</v>
+        <v>-47151.06</v>
       </c>
       <c r="H48" t="n">
-        <v>-27606.61</v>
+        <v>-48022.37</v>
       </c>
       <c r="I48" t="n">
-        <v>-10722.2</v>
+        <v>-12768.65</v>
       </c>
       <c r="J48" t="n">
-        <v>-31595.76</v>
+        <v>26248.48</v>
       </c>
       <c r="K48" t="n">
-        <v>-28018.7</v>
+        <v>16636.94</v>
       </c>
       <c r="L48" t="n">
-        <v>-10421.65</v>
+        <v>21273.68</v>
       </c>
       <c r="M48" t="n">
-        <v>2370.119999999999</v>
+        <v>51173.05</v>
       </c>
       <c r="N48" t="n">
-        <v>-12007.67</v>
+        <v>56605.68</v>
       </c>
       <c r="O48" t="n">
-        <v>-14445.02</v>
-      </c>
-      <c r="P48" t="n">
-        <v>17499.07</v>
+        <v>37677.74000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2966,49 +2820,46 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6771.5</v>
+        <v>9241.67</v>
       </c>
       <c r="C49" t="n">
-        <v>8072.43</v>
+        <v>5950.25</v>
       </c>
       <c r="D49" t="n">
-        <v>9302.030000000001</v>
+        <v>3454.06</v>
       </c>
       <c r="E49" t="n">
-        <v>7776.29</v>
+        <v>2010.17</v>
       </c>
       <c r="F49" t="n">
-        <v>7098.900000000001</v>
+        <v>1735.08</v>
       </c>
       <c r="G49" t="n">
-        <v>6088.68</v>
+        <v>2224.13</v>
       </c>
       <c r="H49" t="n">
-        <v>5676.42</v>
+        <v>3152.899999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>4763.95</v>
+        <v>9154.48</v>
       </c>
       <c r="J49" t="n">
-        <v>5578.34</v>
+        <v>16700.45</v>
       </c>
       <c r="K49" t="n">
-        <v>6932.02</v>
+        <v>18587.84</v>
       </c>
       <c r="L49" t="n">
-        <v>11430.41</v>
+        <v>20688.02</v>
       </c>
       <c r="M49" t="n">
-        <v>18257.42</v>
+        <v>21608.19</v>
       </c>
       <c r="N49" t="n">
-        <v>20462.07</v>
+        <v>21043.68</v>
       </c>
       <c r="O49" t="n">
-        <v>22378.93</v>
-      </c>
-      <c r="P49" t="n">
-        <v>23197.34</v>
+        <v>16750.13</v>
       </c>
     </row>
     <row r="50">
@@ -3018,49 +2869,46 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>18730.22</v>
+        <v>3536.840000000002</v>
       </c>
       <c r="C50" t="n">
-        <v>-687.359999999998</v>
+        <v>-27.43999999999801</v>
       </c>
       <c r="D50" t="n">
-        <v>8140.050000000002</v>
+        <v>28898.96</v>
       </c>
       <c r="E50" t="n">
-        <v>3514.410000000002</v>
+        <v>27826.98</v>
       </c>
       <c r="F50" t="n">
-        <v>-31.30999999999813</v>
+        <v>25449.47</v>
       </c>
       <c r="G50" t="n">
-        <v>28893.16</v>
+        <v>19619.3</v>
       </c>
       <c r="H50" t="n">
-        <v>27837.63</v>
+        <v>5474.329999999998</v>
       </c>
       <c r="I50" t="n">
-        <v>25457.78</v>
+        <v>-13197.12</v>
       </c>
       <c r="J50" t="n">
-        <v>19614.36</v>
+        <v>-6696.71</v>
       </c>
       <c r="K50" t="n">
-        <v>5464.389999999999</v>
+        <v>-10386.98</v>
       </c>
       <c r="L50" t="n">
-        <v>-13208.71</v>
+        <v>-36192.14</v>
       </c>
       <c r="M50" t="n">
-        <v>-6714.9</v>
+        <v>-43700.77</v>
       </c>
       <c r="N50" t="n">
-        <v>-10405.65</v>
+        <v>-30087.15</v>
       </c>
       <c r="O50" t="n">
-        <v>-36206.64999999999</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-43713.37</v>
+        <v>-43258.4</v>
       </c>
     </row>
     <row r="51">
@@ -3070,49 +2918,46 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>21143.71</v>
+        <v>9447.470000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>18605.38</v>
+        <v>9297.610000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>15552.38</v>
+        <v>-5298.35</v>
       </c>
       <c r="E51" t="n">
-        <v>10912.85</v>
+        <v>-5854.510000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>8148.959999999999</v>
+        <v>-4564.8</v>
       </c>
       <c r="G51" t="n">
-        <v>-7932.969999999999</v>
+        <v>-11784.01</v>
       </c>
       <c r="H51" t="n">
-        <v>-9520.76</v>
+        <v>-10621.73</v>
       </c>
       <c r="I51" t="n">
-        <v>-7593.67</v>
+        <v>-13426.38</v>
       </c>
       <c r="J51" t="n">
-        <v>-15138.22</v>
+        <v>-17237.9</v>
       </c>
       <c r="K51" t="n">
-        <v>-14400.85</v>
+        <v>-13090.17</v>
       </c>
       <c r="L51" t="n">
-        <v>-15702.31</v>
+        <v>-14090.19</v>
       </c>
       <c r="M51" t="n">
-        <v>-18794.87</v>
+        <v>-10684.06</v>
       </c>
       <c r="N51" t="n">
-        <v>-14964.4</v>
+        <v>10509.18</v>
       </c>
       <c r="O51" t="n">
-        <v>-15781.1</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-12273.21</v>
+        <v>18178.17</v>
       </c>
     </row>
     <row r="52">
@@ -3122,49 +2967,46 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2461.630000000001</v>
+        <v>24799.15</v>
       </c>
       <c r="C52" t="n">
-        <v>9902.369999999999</v>
+        <v>17187.36</v>
       </c>
       <c r="D52" t="n">
-        <v>10965.77</v>
+        <v>25811.45</v>
       </c>
       <c r="E52" t="n">
-        <v>13009.99</v>
+        <v>27436.44</v>
       </c>
       <c r="F52" t="n">
-        <v>-2180.519999999999</v>
+        <v>26229.08</v>
       </c>
       <c r="G52" t="n">
-        <v>27992.17</v>
+        <v>25253.4</v>
       </c>
       <c r="H52" t="n">
-        <v>24991.02</v>
+        <v>20738.07</v>
       </c>
       <c r="I52" t="n">
-        <v>36822.61</v>
+        <v>11182.12</v>
       </c>
       <c r="J52" t="n">
-        <v>32765.19</v>
+        <v>12624.43</v>
       </c>
       <c r="K52" t="n">
-        <v>34977.06</v>
+        <v>5233.369999999999</v>
       </c>
       <c r="L52" t="n">
-        <v>36306.37</v>
+        <v>20483.85</v>
       </c>
       <c r="M52" t="n">
-        <v>-8882.24</v>
+        <v>16934.61</v>
       </c>
       <c r="N52" t="n">
-        <v>-22152</v>
+        <v>22309.04</v>
       </c>
       <c r="O52" t="n">
-        <v>-191.6899999999969</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-3001.330000000002</v>
+        <v>15414.61</v>
       </c>
     </row>
     <row r="53">
@@ -3174,49 +3016,46 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8493.66</v>
+        <v>-2196.42</v>
       </c>
       <c r="C53" t="n">
-        <v>6707.690000000001</v>
+        <v>-15265.25</v>
       </c>
       <c r="D53" t="n">
-        <v>-1820.93</v>
+        <v>-4343.27</v>
       </c>
       <c r="E53" t="n">
-        <v>-3473</v>
+        <v>-5754.35</v>
       </c>
       <c r="F53" t="n">
-        <v>-16435.9</v>
+        <v>5224.2</v>
       </c>
       <c r="G53" t="n">
-        <v>-6792.9</v>
+        <v>-5862.03</v>
       </c>
       <c r="H53" t="n">
-        <v>-7782.95</v>
+        <v>-2537.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2924.97</v>
+        <v>19055.46</v>
       </c>
       <c r="J53" t="n">
-        <v>-7940.51</v>
+        <v>25808.64</v>
       </c>
       <c r="K53" t="n">
-        <v>-4773.099999999999</v>
+        <v>23040.72</v>
       </c>
       <c r="L53" t="n">
-        <v>17026.57</v>
+        <v>21452.42</v>
       </c>
       <c r="M53" t="n">
-        <v>23419.66</v>
+        <v>19364.02</v>
       </c>
       <c r="N53" t="n">
-        <v>20986.99</v>
+        <v>-3323.79</v>
       </c>
       <c r="O53" t="n">
-        <v>19321.74</v>
-      </c>
-      <c r="P53" t="n">
-        <v>17538.91</v>
+        <v>-23323.57</v>
       </c>
     </row>
     <row r="54">
@@ -3226,49 +3065,46 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-5960.84</v>
+        <v>-15208.84</v>
       </c>
       <c r="C54" t="n">
-        <v>4776.93</v>
+        <v>-23319.49</v>
       </c>
       <c r="D54" t="n">
-        <v>5055.349999999999</v>
+        <v>6222.23</v>
       </c>
       <c r="E54" t="n">
-        <v>-2143.1</v>
+        <v>-10531.8</v>
       </c>
       <c r="F54" t="n">
-        <v>-2780.96</v>
+        <v>4776.84</v>
       </c>
       <c r="G54" t="n">
-        <v>6491.139999999999</v>
+        <v>6185.550000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>-6057.78</v>
+        <v>16301.83</v>
       </c>
       <c r="I54" t="n">
-        <v>-3517.46</v>
+        <v>23491.55</v>
       </c>
       <c r="J54" t="n">
-        <v>752.2400000000007</v>
+        <v>-20949.67</v>
       </c>
       <c r="K54" t="n">
-        <v>4298.54</v>
+        <v>-24903.45</v>
       </c>
       <c r="L54" t="n">
-        <v>396.1900000000001</v>
+        <v>-8626.190000000001</v>
       </c>
       <c r="M54" t="n">
-        <v>2945.98</v>
+        <v>-11568.38</v>
       </c>
       <c r="N54" t="n">
-        <v>4535.650000000001</v>
+        <v>-23938.27</v>
       </c>
       <c r="O54" t="n">
-        <v>14180.03</v>
-      </c>
-      <c r="P54" t="n">
-        <v>10192.67</v>
+        <v>-9197.84</v>
       </c>
     </row>
     <row r="55">
@@ -3278,49 +3114,46 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>77451.86</v>
+        <v>148707.63</v>
       </c>
       <c r="C55" t="n">
-        <v>185140.41</v>
+        <v>124193.01</v>
       </c>
       <c r="D55" t="n">
-        <v>113684.46</v>
+        <v>169244.11</v>
       </c>
       <c r="E55" t="n">
-        <v>149957.08</v>
+        <v>166141.32</v>
       </c>
       <c r="F55" t="n">
-        <v>120581.84</v>
+        <v>232731.41</v>
       </c>
       <c r="G55" t="n">
-        <v>167063.6</v>
+        <v>264350.1</v>
       </c>
       <c r="H55" t="n">
-        <v>173322.94</v>
+        <v>331419.28</v>
       </c>
       <c r="I55" t="n">
-        <v>243205.08</v>
+        <v>325012.63</v>
       </c>
       <c r="J55" t="n">
-        <v>281271.02</v>
+        <v>272453.65</v>
       </c>
       <c r="K55" t="n">
-        <v>353565.58</v>
+        <v>265520.19</v>
       </c>
       <c r="L55" t="n">
-        <v>345841.24</v>
+        <v>247571.41</v>
       </c>
       <c r="M55" t="n">
-        <v>291294.18</v>
+        <v>-81326.76999999999</v>
       </c>
       <c r="N55" t="n">
-        <v>282377.25</v>
+        <v>-176301.36</v>
       </c>
       <c r="O55" t="n">
-        <v>261655.07</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-89580.38999999998</v>
+        <v>-192857.5</v>
       </c>
     </row>
     <row r="56">
@@ -3330,49 +3163,46 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40790.12</v>
+        <v>44455.48</v>
       </c>
       <c r="C56" t="n">
-        <v>50646.66</v>
+        <v>24529.13</v>
       </c>
       <c r="D56" t="n">
-        <v>47616.04</v>
+        <v>28201.61</v>
       </c>
       <c r="E56" t="n">
-        <v>44455.48</v>
+        <v>7114.269999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>24529.13</v>
+        <v>-3012.32</v>
       </c>
       <c r="G56" t="n">
-        <v>28201.61</v>
+        <v>-2952.249999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>7114.269999999999</v>
+        <v>8266.52</v>
       </c>
       <c r="I56" t="n">
-        <v>-3012.32</v>
+        <v>-5699.07</v>
       </c>
       <c r="J56" t="n">
-        <v>-2952.249999999999</v>
+        <v>-24659.89</v>
       </c>
       <c r="K56" t="n">
-        <v>8266.52</v>
+        <v>-32006.87</v>
       </c>
       <c r="L56" t="n">
-        <v>-5699.07</v>
+        <v>-34645.62</v>
       </c>
       <c r="M56" t="n">
-        <v>-24659.89</v>
+        <v>-47074.77</v>
       </c>
       <c r="N56" t="n">
-        <v>-32006.87</v>
+        <v>-27440.3</v>
       </c>
       <c r="O56" t="n">
-        <v>-34645.62</v>
-      </c>
-      <c r="P56" t="n">
-        <v>-47074.77</v>
+        <v>-20152.47</v>
       </c>
     </row>
     <row r="57">
@@ -3382,49 +3212,46 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>37373.68</v>
+        <v>80081.38</v>
       </c>
       <c r="C57" t="n">
-        <v>76806.41</v>
+        <v>14278.6</v>
       </c>
       <c r="D57" t="n">
-        <v>60611.62</v>
+        <v>31862.58</v>
       </c>
       <c r="E57" t="n">
-        <v>78831.93000000001</v>
+        <v>-2249.980000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>17889.77</v>
+        <v>23761.94</v>
       </c>
       <c r="G57" t="n">
-        <v>34043.09</v>
+        <v>26742.83</v>
       </c>
       <c r="H57" t="n">
-        <v>-9431.6</v>
+        <v>64259.88</v>
       </c>
       <c r="I57" t="n">
-        <v>13288.27</v>
+        <v>46291.56</v>
       </c>
       <c r="J57" t="n">
-        <v>9821.91</v>
+        <v>3239.070000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>42113.58</v>
+        <v>5734.300000000003</v>
       </c>
       <c r="L57" t="n">
-        <v>25462.95</v>
+        <v>-10149.74</v>
       </c>
       <c r="M57" t="n">
-        <v>-15601.46</v>
+        <v>-54829.94</v>
       </c>
       <c r="N57" t="n">
-        <v>-11122.76</v>
+        <v>-32129.41</v>
       </c>
       <c r="O57" t="n">
-        <v>-24233.4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-46576.32</v>
+        <v>-33719.13</v>
       </c>
     </row>
     <row r="58">
@@ -3434,49 +3261,46 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22336.54</v>
+        <v>34888.07</v>
       </c>
       <c r="C58" t="n">
-        <v>30805.36</v>
+        <v>33011.72</v>
       </c>
       <c r="D58" t="n">
-        <v>27852.97</v>
+        <v>27089.94</v>
       </c>
       <c r="E58" t="n">
-        <v>34888.07</v>
+        <v>4792.469999999998</v>
       </c>
       <c r="F58" t="n">
-        <v>33011.72</v>
+        <v>6391.700000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>27089.94</v>
+        <v>-1132.380000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>4792.469999999998</v>
+        <v>9069.630000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>6391.700000000001</v>
+        <v>18308.44</v>
       </c>
       <c r="J58" t="n">
-        <v>-1132.380000000001</v>
+        <v>26751.08</v>
       </c>
       <c r="K58" t="n">
-        <v>9069.630000000001</v>
+        <v>31845.68</v>
       </c>
       <c r="L58" t="n">
-        <v>18308.44</v>
+        <v>36889.82</v>
       </c>
       <c r="M58" t="n">
-        <v>26751.08</v>
+        <v>33232.64</v>
       </c>
       <c r="N58" t="n">
-        <v>31845.68</v>
+        <v>27949.38</v>
       </c>
       <c r="O58" t="n">
-        <v>36889.82</v>
-      </c>
-      <c r="P58" t="n">
-        <v>33232.64</v>
+        <v>16488.15</v>
       </c>
     </row>
     <row r="59">
@@ -3486,49 +3310,46 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>19703.34</v>
+        <v>15922.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12823.58</v>
+        <v>5833.110000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>9712.789999999999</v>
+        <v>-6135.360000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>6720.54</v>
+        <v>-13094.34</v>
       </c>
       <c r="F59" t="n">
-        <v>-4381.52</v>
+        <v>-10932.06</v>
       </c>
       <c r="G59" t="n">
-        <v>-15236.89</v>
+        <v>-19874.35</v>
       </c>
       <c r="H59" t="n">
-        <v>-12345.79</v>
+        <v>8373.67</v>
       </c>
       <c r="I59" t="n">
-        <v>-10538.25</v>
+        <v>10894</v>
       </c>
       <c r="J59" t="n">
-        <v>-13974</v>
+        <v>10317.26</v>
       </c>
       <c r="K59" t="n">
-        <v>3350.35</v>
+        <v>12049.5</v>
       </c>
       <c r="L59" t="n">
-        <v>5375.57</v>
+        <v>12322.98</v>
       </c>
       <c r="M59" t="n">
-        <v>4987.280000000001</v>
+        <v>4191.36</v>
       </c>
       <c r="N59" t="n">
-        <v>6967.58</v>
+        <v>4012.23</v>
       </c>
       <c r="O59" t="n">
-        <v>6583.370000000001</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2141.69</v>
+        <v>-1726.6</v>
       </c>
     </row>
     <row r="60">
@@ -3538,49 +3359,46 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15626.99</v>
+        <v>8940.210000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>18966.63</v>
+        <v>7130.57</v>
       </c>
       <c r="D60" t="n">
-        <v>16379.68</v>
+        <v>-6275.38</v>
       </c>
       <c r="E60" t="n">
-        <v>18142.27</v>
+        <v>-4444.15</v>
       </c>
       <c r="F60" t="n">
-        <v>17345.2</v>
+        <v>2032.16</v>
       </c>
       <c r="G60" t="n">
-        <v>2826.150000000001</v>
+        <v>-2195.79</v>
       </c>
       <c r="H60" t="n">
-        <v>-5192.700000000001</v>
+        <v>3493.85</v>
       </c>
       <c r="I60" t="n">
-        <v>1638.35</v>
+        <v>2859.22</v>
       </c>
       <c r="J60" t="n">
-        <v>-8096.14</v>
+        <v>11869.35</v>
       </c>
       <c r="K60" t="n">
-        <v>8517.17</v>
+        <v>15139.1</v>
       </c>
       <c r="L60" t="n">
-        <v>8377.65</v>
+        <v>18149.42</v>
       </c>
       <c r="M60" t="n">
-        <v>17199.33</v>
+        <v>20681.37</v>
       </c>
       <c r="N60" t="n">
-        <v>20221.02</v>
+        <v>20226.09</v>
       </c>
       <c r="O60" t="n">
-        <v>23889.03</v>
-      </c>
-      <c r="P60" t="n">
-        <v>22731.04</v>
+        <v>20823.29</v>
       </c>
     </row>
     <row r="61">
@@ -3590,49 +3408,46 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4831.42</v>
+        <v>3308.57</v>
       </c>
       <c r="C61" t="n">
-        <v>4826.440000000001</v>
+        <v>2880.49</v>
       </c>
       <c r="D61" t="n">
-        <v>3834.42</v>
+        <v>2859.69</v>
       </c>
       <c r="E61" t="n">
-        <v>3335.53</v>
+        <v>2567.46</v>
       </c>
       <c r="F61" t="n">
-        <v>2733.6</v>
+        <v>3203.78</v>
       </c>
       <c r="G61" t="n">
-        <v>3014.69</v>
+        <v>2639.4</v>
       </c>
       <c r="H61" t="n">
-        <v>2804.04</v>
+        <v>1904.53</v>
       </c>
       <c r="I61" t="n">
-        <v>3941.54</v>
+        <v>1232.25</v>
       </c>
       <c r="J61" t="n">
-        <v>2902.25</v>
+        <v>2681.79</v>
       </c>
       <c r="K61" t="n">
-        <v>2210.97</v>
+        <v>1451.64</v>
       </c>
       <c r="L61" t="n">
-        <v>743.6400000000001</v>
+        <v>2037</v>
       </c>
       <c r="M61" t="n">
-        <v>2364.83</v>
+        <v>2080.29</v>
       </c>
       <c r="N61" t="n">
-        <v>1153.47</v>
+        <v>3525.24</v>
       </c>
       <c r="O61" t="n">
-        <v>1837.26</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1988.97</v>
+        <v>824.84</v>
       </c>
     </row>
     <row r="62">
@@ -3642,2233 +3457,2055 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1541.750000000001</v>
+        <v>10805.15</v>
       </c>
       <c r="C62" t="n">
-        <v>21504.64</v>
+        <v>17351.53</v>
       </c>
       <c r="D62" t="n">
-        <v>11485.78</v>
+        <v>22855.33</v>
       </c>
       <c r="E62" t="n">
-        <v>11069.79</v>
+        <v>-6082.640000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>17888.72</v>
+        <v>-6590.25</v>
       </c>
       <c r="G62" t="n">
-        <v>23132.16</v>
+        <v>-8494.859999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>-5838.08</v>
+        <v>-7097.31</v>
       </c>
       <c r="I62" t="n">
-        <v>-6960</v>
+        <v>-23325.01</v>
       </c>
       <c r="J62" t="n">
-        <v>-8280.17</v>
+        <v>-16749.22</v>
       </c>
       <c r="K62" t="n">
-        <v>-7006.030000000002</v>
+        <v>-17232.59</v>
       </c>
       <c r="L62" t="n">
-        <v>-23216.6</v>
+        <v>-31129.96</v>
       </c>
       <c r="M62" t="n">
-        <v>-17000.58</v>
+        <v>-38301.2</v>
       </c>
       <c r="N62" t="n">
-        <v>-17424.46</v>
+        <v>-31149.78</v>
       </c>
       <c r="O62" t="n">
-        <v>-31466.51</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-38673.12</v>
+        <v>-39388.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90.11</v>
+        <v>-38678.02</v>
       </c>
       <c r="C63" t="n">
-        <v>-411.68</v>
+        <v>-2007.150000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-365.86</v>
+        <v>-21831.64</v>
       </c>
       <c r="E63" t="n">
-        <v>-291.6</v>
+        <v>-14754.94</v>
       </c>
       <c r="F63" t="n">
-        <v>-390.3</v>
+        <v>6617.519999999998</v>
       </c>
       <c r="G63" t="n">
-        <v>-431.83</v>
+        <v>-10123.65</v>
       </c>
       <c r="H63" t="n">
-        <v>-481.14</v>
+        <v>-22836.92</v>
       </c>
       <c r="I63" t="n">
-        <v>-368.01</v>
+        <v>-13356.6</v>
       </c>
       <c r="J63" t="n">
-        <v>-477.54</v>
+        <v>11640.08</v>
       </c>
       <c r="K63" t="n">
-        <v>-397.72</v>
+        <v>4308.349999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>380.2</v>
+        <v>-21237.48</v>
       </c>
       <c r="M63" t="n">
-        <v>568.3200000000001</v>
+        <v>-21486.56</v>
       </c>
       <c r="N63" t="n">
-        <v>490.04</v>
+        <v>-18096.28</v>
       </c>
       <c r="O63" t="n">
-        <v>536.29</v>
-      </c>
-      <c r="P63" t="n">
-        <v>463.24</v>
+        <v>-34434.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>89725.05</v>
+        <v>-6794.34</v>
       </c>
       <c r="C64" t="n">
-        <v>61897.56</v>
+        <v>-4307.02</v>
       </c>
       <c r="D64" t="n">
-        <v>-16277.16</v>
+        <v>6205.24</v>
       </c>
       <c r="E64" t="n">
-        <v>-50536.38</v>
+        <v>2294.92</v>
       </c>
       <c r="F64" t="n">
-        <v>-9943.519999999999</v>
+        <v>7973.63</v>
       </c>
       <c r="G64" t="n">
-        <v>-26991.89</v>
+        <v>-2069.38</v>
       </c>
       <c r="H64" t="n">
-        <v>-23367.84</v>
+        <v>1418.2</v>
       </c>
       <c r="I64" t="n">
-        <v>-1113.530000000004</v>
+        <v>-5511.7</v>
       </c>
       <c r="J64" t="n">
-        <v>-18264.61</v>
+        <v>-7094.53</v>
       </c>
       <c r="K64" t="n">
-        <v>-33543.14</v>
+        <v>-7126.700000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>-23798.88</v>
+        <v>-3036.7</v>
       </c>
       <c r="M64" t="n">
-        <v>3100.63</v>
+        <v>5142.530000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>-1618.090000000001</v>
+        <v>5389.25</v>
       </c>
       <c r="O64" t="n">
-        <v>-19893.24</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-17375.24</v>
+        <v>1451.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17822.7</v>
+        <v>-39635.92</v>
       </c>
       <c r="C65" t="n">
-        <v>15816.52</v>
+        <v>-29560.46</v>
       </c>
       <c r="D65" t="n">
-        <v>-14276.57</v>
+        <v>-7013.389999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>-6779.71</v>
+        <v>-32464.86</v>
       </c>
       <c r="F65" t="n">
-        <v>-4299.559999999999</v>
+        <v>-16345.03</v>
       </c>
       <c r="G65" t="n">
-        <v>6191.62</v>
+        <v>-5956.56</v>
       </c>
       <c r="H65" t="n">
-        <v>2266.23</v>
+        <v>-19913.42</v>
       </c>
       <c r="I65" t="n">
-        <v>7949.45</v>
+        <v>-29023.83</v>
       </c>
       <c r="J65" t="n">
-        <v>-2094.42</v>
+        <v>-17723.82</v>
       </c>
       <c r="K65" t="n">
-        <v>1398.11</v>
+        <v>-17958.69</v>
       </c>
       <c r="L65" t="n">
-        <v>-5524.93</v>
+        <v>-10396.42</v>
       </c>
       <c r="M65" t="n">
-        <v>-7077.11</v>
+        <v>-2826.22</v>
       </c>
       <c r="N65" t="n">
-        <v>-7131.01</v>
+        <v>7271.44</v>
       </c>
       <c r="O65" t="n">
-        <v>-3029.14</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5143.870000000001</v>
+        <v>-2619.300000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>33504.78</v>
+        <v>27.4</v>
       </c>
       <c r="C66" t="n">
-        <v>15978.84</v>
+        <v>-16.02</v>
       </c>
       <c r="D66" t="n">
-        <v>-10105.52</v>
+        <v>-35.25</v>
       </c>
       <c r="E66" t="n">
-        <v>-27792.19</v>
+        <v>-46.57</v>
       </c>
       <c r="F66" t="n">
-        <v>-21631.55</v>
+        <v>-39.82</v>
       </c>
       <c r="G66" t="n">
-        <v>-1839.52</v>
+        <v>-32.55</v>
       </c>
       <c r="H66" t="n">
-        <v>-23823.27</v>
+        <v>13.58</v>
       </c>
       <c r="I66" t="n">
-        <v>-8589.799999999999</v>
+        <v>-10.24</v>
       </c>
       <c r="J66" t="n">
-        <v>2209.440000000001</v>
+        <v>24.5</v>
       </c>
       <c r="K66" t="n">
-        <v>-9187.110000000001</v>
+        <v>16.79</v>
       </c>
       <c r="L66" t="n">
-        <v>-18568.32</v>
+        <v>15.46</v>
       </c>
       <c r="M66" t="n">
-        <v>-9201.790000000001</v>
+        <v>9.52</v>
       </c>
       <c r="N66" t="n">
-        <v>-12027.94</v>
+        <v>14.87</v>
       </c>
       <c r="O66" t="n">
-        <v>-11748.22</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-6938.88</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17.36</v>
+        <v>11.67</v>
       </c>
       <c r="C67" t="n">
-        <v>15.76</v>
+        <v>2.889999999999998</v>
       </c>
       <c r="D67" t="n">
-        <v>26.28</v>
+        <v>34.4</v>
       </c>
       <c r="E67" t="n">
-        <v>27.4</v>
+        <v>28.07000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>-16.02</v>
+        <v>56.78</v>
       </c>
       <c r="G67" t="n">
-        <v>-35.25</v>
+        <v>44.7</v>
       </c>
       <c r="H67" t="n">
-        <v>-46.57</v>
+        <v>43.35</v>
       </c>
       <c r="I67" t="n">
-        <v>-39.82</v>
+        <v>54.3</v>
       </c>
       <c r="J67" t="n">
-        <v>-32.55</v>
+        <v>17.86</v>
       </c>
       <c r="K67" t="n">
-        <v>13.58</v>
+        <v>-12.32</v>
       </c>
       <c r="L67" t="n">
-        <v>-10.24</v>
+        <v>-13.93</v>
       </c>
       <c r="M67" t="n">
-        <v>24.5</v>
+        <v>-46.23</v>
       </c>
       <c r="N67" t="n">
-        <v>16.79</v>
+        <v>-43.39</v>
       </c>
       <c r="O67" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="P67" t="n">
-        <v>9.52</v>
+        <v>-26.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-33.58</v>
+        <v>121919.58</v>
       </c>
       <c r="C68" t="n">
-        <v>-21.95</v>
+        <v>165078.27</v>
       </c>
       <c r="D68" t="n">
-        <v>-67.55</v>
+        <v>176849.97</v>
       </c>
       <c r="E68" t="n">
-        <v>11.67</v>
+        <v>97385.89</v>
       </c>
       <c r="F68" t="n">
-        <v>2.889999999999998</v>
+        <v>102918.42</v>
       </c>
       <c r="G68" t="n">
-        <v>34.4</v>
+        <v>125876.73</v>
       </c>
       <c r="H68" t="n">
-        <v>28.07000000000001</v>
+        <v>59227.1</v>
       </c>
       <c r="I68" t="n">
-        <v>56.78</v>
+        <v>5360.560000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>44.7</v>
+        <v>48644.21</v>
       </c>
       <c r="K68" t="n">
-        <v>43.35</v>
+        <v>57910.23</v>
       </c>
       <c r="L68" t="n">
-        <v>54.3</v>
+        <v>34336.86</v>
       </c>
       <c r="M68" t="n">
-        <v>17.86</v>
+        <v>23213.14</v>
       </c>
       <c r="N68" t="n">
-        <v>-12.32</v>
+        <v>100725.7</v>
       </c>
       <c r="O68" t="n">
-        <v>-13.93</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-46.23</v>
+        <v>43159.79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>118954.95</v>
+        <v>-73353.25999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>166165.32</v>
+        <v>-29859.72</v>
       </c>
       <c r="D69" t="n">
-        <v>136519.79</v>
+        <v>43584.89</v>
       </c>
       <c r="E69" t="n">
-        <v>122255</v>
+        <v>52341.25</v>
       </c>
       <c r="F69" t="n">
-        <v>165419.24</v>
+        <v>84165.59</v>
       </c>
       <c r="G69" t="n">
-        <v>177032.23</v>
+        <v>58520.18</v>
       </c>
       <c r="H69" t="n">
-        <v>97159.75999999999</v>
+        <v>39088.18</v>
       </c>
       <c r="I69" t="n">
-        <v>102527.24</v>
+        <v>-14641.05</v>
       </c>
       <c r="J69" t="n">
-        <v>125557.42</v>
+        <v>-18497.2</v>
       </c>
       <c r="K69" t="n">
-        <v>58906.16</v>
+        <v>-26927.21</v>
       </c>
       <c r="L69" t="n">
-        <v>5167.610000000004</v>
+        <v>-46455.00999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>48832.24</v>
+        <v>-54513.27</v>
       </c>
       <c r="N69" t="n">
-        <v>58160.59</v>
+        <v>-23013.12</v>
       </c>
       <c r="O69" t="n">
-        <v>33986.81</v>
-      </c>
-      <c r="P69" t="n">
-        <v>23565.23</v>
+        <v>-34320.28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5436.59</v>
+        <v>-1019.110000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-3715.910000000001</v>
+        <v>-15312.7</v>
       </c>
       <c r="D70" t="n">
-        <v>-31578.78</v>
+        <v>19885.9</v>
       </c>
       <c r="E70" t="n">
-        <v>-62645.91</v>
+        <v>-6482.849999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>-23125.11</v>
+        <v>26163.73</v>
       </c>
       <c r="G70" t="n">
-        <v>34511.68</v>
+        <v>313.9000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>40379.95</v>
+        <v>3910.349999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>63492.97</v>
+        <v>-26075.69</v>
       </c>
       <c r="J70" t="n">
-        <v>51622.75999999999</v>
+        <v>-9350.110000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>49972.95</v>
+        <v>-24411.32</v>
       </c>
       <c r="L70" t="n">
-        <v>-1454.950000000003</v>
+        <v>-18537.59</v>
       </c>
       <c r="M70" t="n">
-        <v>-3226.15</v>
+        <v>-13179.93</v>
       </c>
       <c r="N70" t="n">
-        <v>-6923.76</v>
+        <v>-1561.840000000001</v>
       </c>
       <c r="O70" t="n">
-        <v>-39226.86</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-45609.08</v>
+        <v>-11438.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>49524.43</v>
+        <v>7210.35</v>
       </c>
       <c r="C71" t="n">
-        <v>28456.61</v>
+        <v>7025.67</v>
       </c>
       <c r="D71" t="n">
-        <v>-1492.130000000002</v>
+        <v>3081.04</v>
       </c>
       <c r="E71" t="n">
-        <v>-17077.37</v>
+        <v>3537.57</v>
       </c>
       <c r="F71" t="n">
-        <v>-23745.7</v>
+        <v>2983.72</v>
       </c>
       <c r="G71" t="n">
-        <v>33832.43</v>
+        <v>3269.62</v>
       </c>
       <c r="H71" t="n">
-        <v>7545.260000000002</v>
+        <v>6795.81</v>
       </c>
       <c r="I71" t="n">
-        <v>51584.31</v>
+        <v>15082.53</v>
       </c>
       <c r="J71" t="n">
-        <v>13830.5</v>
+        <v>7816</v>
       </c>
       <c r="K71" t="n">
-        <v>-6439.010000000001</v>
+        <v>9969</v>
       </c>
       <c r="L71" t="n">
-        <v>-45194.59</v>
+        <v>17075.94</v>
       </c>
       <c r="M71" t="n">
-        <v>-29270.2</v>
+        <v>21390.43</v>
       </c>
       <c r="N71" t="n">
-        <v>-50599.19</v>
+        <v>-11594.59</v>
       </c>
       <c r="O71" t="n">
-        <v>-34961.54</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-27319.36</v>
+        <v>-10818.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7742.25</v>
+        <v>10364.31</v>
       </c>
       <c r="C72" t="n">
-        <v>6931.46</v>
+        <v>16573.3</v>
       </c>
       <c r="D72" t="n">
-        <v>7377.63</v>
+        <v>9470.34</v>
       </c>
       <c r="E72" t="n">
-        <v>7210.35</v>
+        <v>5606.08</v>
       </c>
       <c r="F72" t="n">
-        <v>7025.67</v>
+        <v>-2505.78</v>
       </c>
       <c r="G72" t="n">
-        <v>3081.04</v>
+        <v>-4807.98</v>
       </c>
       <c r="H72" t="n">
-        <v>3537.57</v>
+        <v>-1099.52</v>
       </c>
       <c r="I72" t="n">
-        <v>2983.72</v>
+        <v>-3764.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3269.62</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>6795.81</v>
+        <v>-2212.01</v>
       </c>
       <c r="L72" t="n">
-        <v>15082.53</v>
+        <v>-1661.96</v>
       </c>
       <c r="M72" t="n">
-        <v>7816</v>
+        <v>-11496.78</v>
       </c>
       <c r="N72" t="n">
-        <v>9969</v>
+        <v>-9426</v>
       </c>
       <c r="O72" t="n">
-        <v>17075.94</v>
-      </c>
-      <c r="P72" t="n">
-        <v>21390.43</v>
+        <v>-11474.73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15060.31</v>
+        <v>-2158.52</v>
       </c>
       <c r="C73" t="n">
-        <v>14750.29</v>
+        <v>2056.75</v>
       </c>
       <c r="D73" t="n">
-        <v>16531.68</v>
+        <v>2189.5</v>
       </c>
       <c r="E73" t="n">
-        <v>10364.31</v>
+        <v>2674.5</v>
       </c>
       <c r="F73" t="n">
-        <v>16573.3</v>
+        <v>-1299.63</v>
       </c>
       <c r="G73" t="n">
-        <v>9470.34</v>
+        <v>2721.08</v>
       </c>
       <c r="H73" t="n">
-        <v>5606.08</v>
+        <v>1042.69</v>
       </c>
       <c r="I73" t="n">
-        <v>-2505.78</v>
+        <v>-1963</v>
       </c>
       <c r="J73" t="n">
-        <v>-4807.98</v>
+        <v>-1253.52</v>
       </c>
       <c r="K73" t="n">
-        <v>-1099.52</v>
+        <v>1160.14</v>
       </c>
       <c r="L73" t="n">
-        <v>-3764.1</v>
+        <v>336</v>
       </c>
       <c r="M73" t="n">
-        <v>-5474.559999999999</v>
+        <v>-425.27</v>
       </c>
       <c r="N73" t="n">
-        <v>-2212.01</v>
+        <v>1851.85</v>
       </c>
       <c r="O73" t="n">
-        <v>-1661.96</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-11496.78</v>
+        <v>1381.31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1677.22</v>
+        <v>4595.130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>-1269.57</v>
+        <v>-12715.73</v>
       </c>
       <c r="D74" t="n">
-        <v>2080.14</v>
+        <v>7835.679999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>-2158.52</v>
+        <v>20163.07</v>
       </c>
       <c r="F74" t="n">
-        <v>2056.75</v>
+        <v>19485.38</v>
       </c>
       <c r="G74" t="n">
-        <v>2189.5</v>
+        <v>13508.61</v>
       </c>
       <c r="H74" t="n">
-        <v>2674.5</v>
+        <v>24312.4</v>
       </c>
       <c r="I74" t="n">
-        <v>-1299.63</v>
+        <v>21640.18</v>
       </c>
       <c r="J74" t="n">
-        <v>2721.08</v>
+        <v>17476.58</v>
       </c>
       <c r="K74" t="n">
-        <v>1042.69</v>
+        <v>7093.139999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>-1963</v>
+        <v>6721.270000000001</v>
       </c>
       <c r="M74" t="n">
-        <v>-1253.52</v>
+        <v>6599.690000000002</v>
       </c>
       <c r="N74" t="n">
-        <v>1160.14</v>
+        <v>2252.24</v>
       </c>
       <c r="O74" t="n">
-        <v>336</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-425.27</v>
+        <v>-15117.35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>835.0400000000018</v>
+        <v>-32224.37</v>
       </c>
       <c r="C75" t="n">
-        <v>-7273.539999999999</v>
+        <v>-12751.85</v>
       </c>
       <c r="D75" t="n">
-        <v>5164.29</v>
+        <v>28386.45</v>
       </c>
       <c r="E75" t="n">
-        <v>6205.940000000001</v>
+        <v>56501.5</v>
       </c>
       <c r="F75" t="n">
-        <v>-9423.869999999999</v>
+        <v>49639</v>
       </c>
       <c r="G75" t="n">
-        <v>11311.89</v>
+        <v>25307.93</v>
       </c>
       <c r="H75" t="n">
-        <v>23304.6</v>
+        <v>7357.420000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>21721.34</v>
+        <v>-44322.35</v>
       </c>
       <c r="J75" t="n">
-        <v>16269.02</v>
+        <v>-65491.79</v>
       </c>
       <c r="K75" t="n">
-        <v>27549.82</v>
+        <v>-66225.81</v>
       </c>
       <c r="L75" t="n">
-        <v>22483.71</v>
+        <v>-79014.62</v>
       </c>
       <c r="M75" t="n">
-        <v>15603.65</v>
+        <v>-73660.31</v>
       </c>
       <c r="N75" t="n">
-        <v>5513.02</v>
+        <v>-59259.34</v>
       </c>
       <c r="O75" t="n">
-        <v>5076.240000000002</v>
-      </c>
-      <c r="P75" t="n">
-        <v>4057.160000000002</v>
+        <v>-61840.54</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7741.92</v>
+        <v>2903.56</v>
       </c>
       <c r="C76" t="n">
-        <v>-23183.07</v>
+        <v>5055.059999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>-21509.82</v>
+        <v>6723.64</v>
       </c>
       <c r="E76" t="n">
-        <v>-32255.64</v>
+        <v>3925.59</v>
       </c>
       <c r="F76" t="n">
-        <v>-12795.86</v>
+        <v>12178.69</v>
       </c>
       <c r="G76" t="n">
-        <v>28348.95</v>
+        <v>9266.25</v>
       </c>
       <c r="H76" t="n">
-        <v>56458.23</v>
+        <v>9924.440000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>49622.54</v>
+        <v>751.4099999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>25276.3</v>
+        <v>202.1800000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>7347.160000000001</v>
+        <v>-5945.41</v>
       </c>
       <c r="L76" t="n">
-        <v>-44366.65</v>
+        <v>-4722.389999999999</v>
       </c>
       <c r="M76" t="n">
-        <v>-65521.65</v>
+        <v>-2423.590000000001</v>
       </c>
       <c r="N76" t="n">
-        <v>-66261.57000000001</v>
+        <v>-2085.28</v>
       </c>
       <c r="O76" t="n">
-        <v>-78993.46000000001</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-73695.51000000001</v>
+        <v>-6459.43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9180.310000000001</v>
+        <v>75998.8</v>
       </c>
       <c r="C77" t="n">
-        <v>6768.8</v>
+        <v>3651.550000000008</v>
       </c>
       <c r="D77" t="n">
-        <v>-899.21</v>
+        <v>135054.69</v>
       </c>
       <c r="E77" t="n">
-        <v>1292.75</v>
+        <v>85269.84</v>
       </c>
       <c r="F77" t="n">
-        <v>1763.2</v>
+        <v>169936.48</v>
       </c>
       <c r="G77" t="n">
-        <v>3247.43</v>
+        <v>212413.83</v>
       </c>
       <c r="H77" t="n">
-        <v>784.0599999999999</v>
+        <v>219817.27</v>
       </c>
       <c r="I77" t="n">
-        <v>9942.730000000001</v>
+        <v>155040.14</v>
       </c>
       <c r="J77" t="n">
-        <v>6505.84</v>
+        <v>205048.48</v>
       </c>
       <c r="K77" t="n">
-        <v>6687.02</v>
+        <v>217850.94</v>
       </c>
       <c r="L77" t="n">
-        <v>-92.11999999999989</v>
+        <v>136536.89</v>
       </c>
       <c r="M77" t="n">
-        <v>2075.11</v>
+        <v>58908.63</v>
       </c>
       <c r="N77" t="n">
-        <v>-4365.29</v>
+        <v>65241.11</v>
       </c>
       <c r="O77" t="n">
-        <v>-3077.36</v>
-      </c>
-      <c r="P77" t="n">
-        <v>118.9399999999996</v>
+        <v>-106488</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>147757.21</v>
+        <v>5334.030000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>162111.78</v>
+        <v>7377.970000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>150513.86</v>
+        <v>37127.50999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>83235.57000000001</v>
+        <v>16993.99</v>
       </c>
       <c r="F78" t="n">
-        <v>16736.90000000001</v>
+        <v>35221.87</v>
       </c>
       <c r="G78" t="n">
-        <v>157299.35</v>
+        <v>40372.16</v>
       </c>
       <c r="H78" t="n">
-        <v>101718.49</v>
+        <v>28501.11</v>
       </c>
       <c r="I78" t="n">
-        <v>183657.49</v>
+        <v>10360.18</v>
       </c>
       <c r="J78" t="n">
-        <v>217975.51</v>
+        <v>14169.03</v>
       </c>
       <c r="K78" t="n">
-        <v>208229.55</v>
+        <v>14657.39</v>
       </c>
       <c r="L78" t="n">
-        <v>137142.16</v>
+        <v>-8434.679999999998</v>
       </c>
       <c r="M78" t="n">
-        <v>187661.26</v>
+        <v>-14287.12</v>
       </c>
       <c r="N78" t="n">
-        <v>202032.87</v>
+        <v>12012.72</v>
       </c>
       <c r="O78" t="n">
-        <v>123144.81</v>
-      </c>
-      <c r="P78" t="n">
-        <v>45778.96000000001</v>
+        <v>517.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16274.21</v>
+        <v>-8383.809999999998</v>
       </c>
       <c r="C79" t="n">
-        <v>31493.55</v>
+        <v>20319.02</v>
       </c>
       <c r="D79" t="n">
-        <v>27030.99</v>
+        <v>37632.79</v>
       </c>
       <c r="E79" t="n">
-        <v>3046.59</v>
+        <v>20879.15</v>
       </c>
       <c r="F79" t="n">
-        <v>1447.42</v>
+        <v>26377.45</v>
       </c>
       <c r="G79" t="n">
-        <v>32799.46</v>
+        <v>16574.83</v>
       </c>
       <c r="H79" t="n">
-        <v>10120.67</v>
+        <v>-3039.27</v>
       </c>
       <c r="I79" t="n">
-        <v>28023.14</v>
+        <v>-5933.710000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>33295.11</v>
+        <v>-1513.199999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>26718.75</v>
+        <v>4613.7</v>
       </c>
       <c r="L79" t="n">
-        <v>5370.559999999998</v>
+        <v>18818.04</v>
       </c>
       <c r="M79" t="n">
-        <v>11977.59</v>
+        <v>8916.98</v>
       </c>
       <c r="N79" t="n">
-        <v>15332.18</v>
+        <v>23142.17</v>
       </c>
       <c r="O79" t="n">
-        <v>-7061.719999999999</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-14752.27</v>
+        <v>-10835.12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7663.849999999999</v>
+        <v>58.07</v>
       </c>
       <c r="C80" t="n">
-        <v>7324.510000000002</v>
+        <v>46.77</v>
       </c>
       <c r="D80" t="n">
-        <v>11596.97</v>
+        <v>103.37</v>
       </c>
       <c r="E80" t="n">
-        <v>-3354.459999999998</v>
+        <v>69.03</v>
       </c>
       <c r="F80" t="n">
-        <v>29144.89</v>
+        <v>100.51</v>
       </c>
       <c r="G80" t="n">
-        <v>40911.69</v>
+        <v>101.47</v>
       </c>
       <c r="H80" t="n">
-        <v>32583.89</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>36642.54</v>
+        <v>-19.41</v>
       </c>
       <c r="J80" t="n">
-        <v>28279.72</v>
+        <v>42.88</v>
       </c>
       <c r="K80" t="n">
-        <v>2579.46</v>
+        <v>-35.43</v>
       </c>
       <c r="L80" t="n">
-        <v>1882.389999999998</v>
+        <v>-13.5</v>
       </c>
       <c r="M80" t="n">
-        <v>-1359.809999999999</v>
+        <v>62.3</v>
       </c>
       <c r="N80" t="n">
-        <v>4219.170000000001</v>
+        <v>51.25</v>
       </c>
       <c r="O80" t="n">
-        <v>15364.08</v>
-      </c>
-      <c r="P80" t="n">
-        <v>11663.33</v>
+        <v>-22.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.07</v>
+        <v>-29.92000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>67.01000000000001</v>
+        <v>-179.13</v>
       </c>
       <c r="D81" t="n">
-        <v>72.18000000000001</v>
+        <v>-12.38</v>
       </c>
       <c r="E81" t="n">
-        <v>58.07</v>
+        <v>76.64</v>
       </c>
       <c r="F81" t="n">
-        <v>46.77</v>
+        <v>181.66</v>
       </c>
       <c r="G81" t="n">
-        <v>103.37</v>
+        <v>167.8</v>
       </c>
       <c r="H81" t="n">
-        <v>69.03</v>
+        <v>214</v>
       </c>
       <c r="I81" t="n">
-        <v>100.51</v>
+        <v>134.78</v>
       </c>
       <c r="J81" t="n">
-        <v>101.47</v>
+        <v>3.169999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>67.81999999999999</v>
+        <v>-56.64999999999999</v>
       </c>
       <c r="L81" t="n">
-        <v>-19.41</v>
+        <v>-64.68000000000001</v>
       </c>
       <c r="M81" t="n">
-        <v>42.88</v>
+        <v>-54.33</v>
       </c>
       <c r="N81" t="n">
-        <v>-35.43</v>
+        <v>-23.58000000000001</v>
       </c>
       <c r="O81" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="P81" t="n">
-        <v>62.3</v>
+        <v>-94.78999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>157.68</v>
+        <v>-41.21</v>
       </c>
       <c r="C82" t="n">
-        <v>182.97</v>
+        <v>-24.43</v>
       </c>
       <c r="D82" t="n">
-        <v>45.8</v>
+        <v>-53.32</v>
       </c>
       <c r="E82" t="n">
-        <v>-29.92000000000001</v>
+        <v>-27.7</v>
       </c>
       <c r="F82" t="n">
-        <v>-179.13</v>
+        <v>38.22</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.38</v>
+        <v>90.28</v>
       </c>
       <c r="H82" t="n">
-        <v>76.64</v>
+        <v>93.96000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>181.66</v>
+        <v>92.71000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>167.8</v>
+        <v>73.06</v>
       </c>
       <c r="K82" t="n">
-        <v>214</v>
+        <v>65.46000000000001</v>
       </c>
       <c r="L82" t="n">
-        <v>134.78</v>
+        <v>-4.529999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>3.169999999999996</v>
+        <v>-29.73</v>
       </c>
       <c r="N82" t="n">
-        <v>-56.64999999999999</v>
+        <v>-10.36</v>
       </c>
       <c r="O82" t="n">
-        <v>-64.68000000000001</v>
-      </c>
-      <c r="P82" t="n">
-        <v>-54.33</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>116.84</v>
+        <v>10070.64</v>
       </c>
       <c r="C83" t="n">
-        <v>57.09</v>
+        <v>13096.06</v>
       </c>
       <c r="D83" t="n">
-        <v>25.87</v>
+        <v>14479.31</v>
       </c>
       <c r="E83" t="n">
-        <v>-41.21</v>
+        <v>13982.04</v>
       </c>
       <c r="F83" t="n">
-        <v>-24.43</v>
+        <v>15109.87</v>
       </c>
       <c r="G83" t="n">
-        <v>-53.32</v>
+        <v>12622.31</v>
       </c>
       <c r="H83" t="n">
-        <v>-27.7</v>
+        <v>16538.91</v>
       </c>
       <c r="I83" t="n">
-        <v>38.22</v>
+        <v>20268.35</v>
       </c>
       <c r="J83" t="n">
-        <v>90.28</v>
+        <v>21238.62</v>
       </c>
       <c r="K83" t="n">
-        <v>93.96000000000001</v>
+        <v>23728.19</v>
       </c>
       <c r="L83" t="n">
-        <v>92.71000000000001</v>
+        <v>17972.32</v>
       </c>
       <c r="M83" t="n">
-        <v>73.06</v>
+        <v>11780.18</v>
       </c>
       <c r="N83" t="n">
-        <v>65.46000000000001</v>
+        <v>9792.619999999999</v>
       </c>
       <c r="O83" t="n">
-        <v>-4.529999999999999</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-29.73</v>
+        <v>13887.89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4576.28</v>
+        <v>-16019.26</v>
       </c>
       <c r="C84" t="n">
-        <v>7971.030000000001</v>
+        <v>-19525.35</v>
       </c>
       <c r="D84" t="n">
-        <v>7324.55</v>
+        <v>14393.83</v>
       </c>
       <c r="E84" t="n">
-        <v>10070.64</v>
+        <v>-4725.560000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>13096.06</v>
+        <v>21252.09</v>
       </c>
       <c r="G84" t="n">
-        <v>14479.31</v>
+        <v>5924.16</v>
       </c>
       <c r="H84" t="n">
-        <v>13982.04</v>
+        <v>-2983.86</v>
       </c>
       <c r="I84" t="n">
-        <v>15109.87</v>
+        <v>-24487.56</v>
       </c>
       <c r="J84" t="n">
-        <v>12622.31</v>
+        <v>-17089.34</v>
       </c>
       <c r="K84" t="n">
-        <v>16538.91</v>
+        <v>-50422.62</v>
       </c>
       <c r="L84" t="n">
-        <v>20268.35</v>
+        <v>-47926.26</v>
       </c>
       <c r="M84" t="n">
-        <v>21238.62</v>
+        <v>-38763.81</v>
       </c>
       <c r="N84" t="n">
-        <v>23728.19</v>
+        <v>-17874.85</v>
       </c>
       <c r="O84" t="n">
-        <v>17972.32</v>
-      </c>
-      <c r="P84" t="n">
-        <v>11780.18</v>
+        <v>-43255.95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12894.86</v>
+        <v>21948.2</v>
       </c>
       <c r="C85" t="n">
-        <v>32405.84</v>
+        <v>17773.73</v>
       </c>
       <c r="D85" t="n">
-        <v>18186.22</v>
+        <v>18386.13</v>
       </c>
       <c r="E85" t="n">
-        <v>7772.809999999999</v>
+        <v>14276.49</v>
       </c>
       <c r="F85" t="n">
-        <v>9415.289999999999</v>
+        <v>-4748.589999999998</v>
       </c>
       <c r="G85" t="n">
-        <v>35446.03</v>
+        <v>-7976.670000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>17742.31</v>
+        <v>-14610.43</v>
       </c>
       <c r="I85" t="n">
-        <v>43195.89</v>
+        <v>-23781.99</v>
       </c>
       <c r="J85" t="n">
-        <v>33659.73</v>
+        <v>-4456.860000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>23660.2</v>
+        <v>-1720.539999999999</v>
       </c>
       <c r="L85" t="n">
-        <v>8298.07</v>
+        <v>10401.53</v>
       </c>
       <c r="M85" t="n">
-        <v>8741.049999999999</v>
+        <v>10074.76</v>
       </c>
       <c r="N85" t="n">
-        <v>-32005.31</v>
+        <v>-7997.669999999998</v>
       </c>
       <c r="O85" t="n">
-        <v>-32276.22</v>
-      </c>
-      <c r="P85" t="n">
-        <v>-34333.54</v>
+        <v>-24723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13155.1</v>
+        <v>12144.45</v>
       </c>
       <c r="C86" t="n">
-        <v>15561.89</v>
+        <v>16161.33</v>
       </c>
       <c r="D86" t="n">
-        <v>9227.91</v>
+        <v>16061.35</v>
       </c>
       <c r="E86" t="n">
-        <v>-1546.959999999999</v>
+        <v>-4242.959999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>-10985.62</v>
+        <v>9830.5</v>
       </c>
       <c r="G86" t="n">
-        <v>-2384.730000000002</v>
+        <v>26721.99</v>
       </c>
       <c r="H86" t="n">
-        <v>-7926.910000000003</v>
+        <v>32915.09</v>
       </c>
       <c r="I86" t="n">
-        <v>-26427.56</v>
+        <v>31468.97</v>
       </c>
       <c r="J86" t="n">
-        <v>-35448.60000000001</v>
+        <v>35584.98</v>
       </c>
       <c r="K86" t="n">
-        <v>-40989.06</v>
+        <v>32671.87</v>
       </c>
       <c r="L86" t="n">
-        <v>-56395.16</v>
+        <v>11772.22</v>
       </c>
       <c r="M86" t="n">
-        <v>-30137.32</v>
+        <v>-6436.71</v>
       </c>
       <c r="N86" t="n">
-        <v>-20326.33</v>
+        <v>7586.07</v>
       </c>
       <c r="O86" t="n">
-        <v>-5539.190000000001</v>
-      </c>
-      <c r="P86" t="n">
-        <v>5396.11</v>
+        <v>-9718.789999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12360.82</v>
+        <v>13205.62</v>
       </c>
       <c r="C87" t="n">
-        <v>16506.74</v>
+        <v>9057.32</v>
       </c>
       <c r="D87" t="n">
-        <v>14819.61</v>
+        <v>22126.7</v>
       </c>
       <c r="E87" t="n">
-        <v>12144.45</v>
+        <v>21743.02</v>
       </c>
       <c r="F87" t="n">
-        <v>16161.33</v>
+        <v>20013.63</v>
       </c>
       <c r="G87" t="n">
-        <v>16061.35</v>
+        <v>17952.5</v>
       </c>
       <c r="H87" t="n">
-        <v>-4242.959999999999</v>
+        <v>21296.51</v>
       </c>
       <c r="I87" t="n">
-        <v>9830.5</v>
+        <v>11336.31</v>
       </c>
       <c r="J87" t="n">
-        <v>26721.99</v>
+        <v>13808.91</v>
       </c>
       <c r="K87" t="n">
-        <v>32915.09</v>
+        <v>3596.87</v>
       </c>
       <c r="L87" t="n">
-        <v>31468.97</v>
+        <v>-43.51000000000022</v>
       </c>
       <c r="M87" t="n">
-        <v>35584.98</v>
+        <v>-11130.59</v>
       </c>
       <c r="N87" t="n">
-        <v>32671.87</v>
+        <v>-7237.390000000001</v>
       </c>
       <c r="O87" t="n">
-        <v>11772.22</v>
-      </c>
-      <c r="P87" t="n">
-        <v>-6436.71</v>
+        <v>-17411.95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>17634.64</v>
+        <v>10136.43</v>
       </c>
       <c r="C88" t="n">
-        <v>18210.48</v>
+        <v>-4078.31</v>
       </c>
       <c r="D88" t="n">
-        <v>20907.55</v>
+        <v>3296.63</v>
       </c>
       <c r="E88" t="n">
-        <v>13205.62</v>
+        <v>-7418.669999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>9057.32</v>
+        <v>10511.69</v>
       </c>
       <c r="G88" t="n">
-        <v>22126.7</v>
+        <v>13735.89</v>
       </c>
       <c r="H88" t="n">
-        <v>21743.02</v>
+        <v>21992.43</v>
       </c>
       <c r="I88" t="n">
-        <v>20013.63</v>
+        <v>15412.33</v>
       </c>
       <c r="J88" t="n">
-        <v>17952.5</v>
+        <v>15861.03</v>
       </c>
       <c r="K88" t="n">
-        <v>21296.51</v>
+        <v>12424.15</v>
       </c>
       <c r="L88" t="n">
-        <v>11336.31</v>
+        <v>-4053.84</v>
       </c>
       <c r="M88" t="n">
-        <v>13808.91</v>
+        <v>-15087.53</v>
       </c>
       <c r="N88" t="n">
-        <v>3596.87</v>
+        <v>-9344.17</v>
       </c>
       <c r="O88" t="n">
-        <v>-43.51000000000022</v>
-      </c>
-      <c r="P88" t="n">
-        <v>-11130.59</v>
+        <v>-14443.84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20886.5</v>
+        <v>16893.45</v>
       </c>
       <c r="C89" t="n">
-        <v>20333.63</v>
+        <v>-19009.61</v>
       </c>
       <c r="D89" t="n">
-        <v>12552.84</v>
+        <v>35427.2</v>
       </c>
       <c r="E89" t="n">
-        <v>10136.43</v>
+        <v>37902.71</v>
       </c>
       <c r="F89" t="n">
-        <v>-4078.31</v>
+        <v>42722.5</v>
       </c>
       <c r="G89" t="n">
-        <v>3296.63</v>
+        <v>22025.41</v>
       </c>
       <c r="H89" t="n">
-        <v>-7418.669999999999</v>
+        <v>44161.56</v>
       </c>
       <c r="I89" t="n">
-        <v>10511.69</v>
+        <v>29148.15</v>
       </c>
       <c r="J89" t="n">
-        <v>13735.89</v>
+        <v>-17275.73</v>
       </c>
       <c r="K89" t="n">
-        <v>21992.43</v>
+        <v>22532.26</v>
       </c>
       <c r="L89" t="n">
-        <v>15412.33</v>
+        <v>13302.39</v>
       </c>
       <c r="M89" t="n">
-        <v>15861.03</v>
+        <v>17732.86</v>
       </c>
       <c r="N89" t="n">
-        <v>12424.15</v>
+        <v>25864.79</v>
       </c>
       <c r="O89" t="n">
-        <v>-4053.84</v>
-      </c>
-      <c r="P89" t="n">
-        <v>-15087.53</v>
+        <v>43588.11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-17292.16</v>
+        <v>1823.2</v>
       </c>
       <c r="C90" t="n">
-        <v>-31551.42</v>
+        <v>3003.440000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>-32014.25</v>
+        <v>5836.88</v>
       </c>
       <c r="E90" t="n">
-        <v>14203.01</v>
+        <v>2724.26</v>
       </c>
       <c r="F90" t="n">
-        <v>-7277.919999999996</v>
+        <v>3013.31</v>
       </c>
       <c r="G90" t="n">
-        <v>40316.42</v>
+        <v>-622.71</v>
       </c>
       <c r="H90" t="n">
-        <v>23522.73</v>
+        <v>-8646.9</v>
       </c>
       <c r="I90" t="n">
-        <v>27854.86</v>
+        <v>-11583.43</v>
       </c>
       <c r="J90" t="n">
-        <v>8308.610000000001</v>
+        <v>-10296.67</v>
       </c>
       <c r="K90" t="n">
-        <v>42396.00999999999</v>
+        <v>-10116.34</v>
       </c>
       <c r="L90" t="n">
-        <v>18473.44</v>
+        <v>-9102.23</v>
       </c>
       <c r="M90" t="n">
-        <v>1907.899999999998</v>
+        <v>-5330.33</v>
       </c>
       <c r="N90" t="n">
-        <v>44780.18</v>
+        <v>-4601.56</v>
       </c>
       <c r="O90" t="n">
-        <v>27709.91</v>
-      </c>
-      <c r="P90" t="n">
-        <v>32019.25</v>
+        <v>-6269.52</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5869.51</v>
+        <v>9351.799999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>4772.25</v>
+        <v>8732.190000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>2595.64</v>
+        <v>36089.62</v>
       </c>
       <c r="E91" t="n">
-        <v>1823.2</v>
+        <v>30094.92</v>
       </c>
       <c r="F91" t="n">
-        <v>3003.440000000001</v>
+        <v>41275.67</v>
       </c>
       <c r="G91" t="n">
-        <v>5836.88</v>
+        <v>16171.94</v>
       </c>
       <c r="H91" t="n">
-        <v>2724.26</v>
+        <v>44769.93</v>
       </c>
       <c r="I91" t="n">
-        <v>3013.31</v>
+        <v>23014.06</v>
       </c>
       <c r="J91" t="n">
-        <v>-622.71</v>
+        <v>14498.38</v>
       </c>
       <c r="K91" t="n">
-        <v>-8646.9</v>
+        <v>5594.060000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>-11583.43</v>
+        <v>9838.519999999999</v>
       </c>
       <c r="M91" t="n">
-        <v>-10296.67</v>
+        <v>-19672.03</v>
       </c>
       <c r="N91" t="n">
-        <v>-10116.34</v>
+        <v>-13303.72</v>
       </c>
       <c r="O91" t="n">
-        <v>-9102.23</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-5330.33</v>
+        <v>116.5500000000014</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>44140.16</v>
+        <v>216392.1</v>
       </c>
       <c r="C92" t="n">
-        <v>17444.56</v>
+        <v>222519.1</v>
       </c>
       <c r="D92" t="n">
-        <v>2101.370000000001</v>
+        <v>288853.06</v>
       </c>
       <c r="E92" t="n">
-        <v>10385.76</v>
+        <v>240110.27</v>
       </c>
       <c r="F92" t="n">
-        <v>5619.84</v>
+        <v>315366.31</v>
       </c>
       <c r="G92" t="n">
-        <v>33174.83</v>
+        <v>252895.76</v>
       </c>
       <c r="H92" t="n">
-        <v>29096.74</v>
+        <v>196475</v>
       </c>
       <c r="I92" t="n">
-        <v>37896.71</v>
+        <v>102356.36</v>
       </c>
       <c r="J92" t="n">
-        <v>11944.91</v>
+        <v>130377.21</v>
       </c>
       <c r="K92" t="n">
-        <v>41437.41</v>
+        <v>152343.3</v>
       </c>
       <c r="L92" t="n">
-        <v>19855.81</v>
+        <v>173911.56</v>
       </c>
       <c r="M92" t="n">
-        <v>10388.76</v>
+        <v>153259.52</v>
       </c>
       <c r="N92" t="n">
-        <v>3342.84</v>
+        <v>194671.14</v>
       </c>
       <c r="O92" t="n">
-        <v>8897.369999999999</v>
-      </c>
-      <c r="P92" t="n">
-        <v>-17201.72</v>
+        <v>136902.44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>256236.45</v>
+        <v>38748.66</v>
       </c>
       <c r="C93" t="n">
-        <v>254203.77</v>
+        <v>66858.34999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>217345.62</v>
+        <v>227826.59</v>
       </c>
       <c r="E93" t="n">
-        <v>283649.49</v>
+        <v>207572.98</v>
       </c>
       <c r="F93" t="n">
-        <v>286170.29</v>
+        <v>252249.61</v>
       </c>
       <c r="G93" t="n">
-        <v>351861.92</v>
+        <v>189541.5</v>
       </c>
       <c r="H93" t="n">
-        <v>282727.22</v>
+        <v>155869.08</v>
       </c>
       <c r="I93" t="n">
-        <v>370076.13</v>
+        <v>-29201.68</v>
       </c>
       <c r="J93" t="n">
-        <v>284333.02</v>
+        <v>-16647.5</v>
       </c>
       <c r="K93" t="n">
-        <v>192756.24</v>
+        <v>-58803.57</v>
       </c>
       <c r="L93" t="n">
-        <v>104043.33</v>
+        <v>-32222.66</v>
       </c>
       <c r="M93" t="n">
-        <v>171749.93</v>
+        <v>-24440.8</v>
       </c>
       <c r="N93" t="n">
-        <v>186103.87</v>
+        <v>32338.54</v>
       </c>
       <c r="O93" t="n">
-        <v>185854.42</v>
-      </c>
-      <c r="P93" t="n">
-        <v>145984.22</v>
+        <v>18910.78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>165637.92</v>
+        <v>126231.06</v>
       </c>
       <c r="C94" t="n">
-        <v>148586.9</v>
+        <v>54923.19000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>58746.32</v>
+        <v>127079.61</v>
       </c>
       <c r="E94" t="n">
-        <v>44488.12</v>
+        <v>133998.51</v>
       </c>
       <c r="F94" t="n">
-        <v>63311.46</v>
+        <v>244644.26</v>
       </c>
       <c r="G94" t="n">
-        <v>222896.23</v>
+        <v>139615.81</v>
       </c>
       <c r="H94" t="n">
-        <v>202535.35</v>
+        <v>86607.91</v>
       </c>
       <c r="I94" t="n">
-        <v>246153.14</v>
+        <v>58542.91</v>
       </c>
       <c r="J94" t="n">
-        <v>180659.8</v>
+        <v>25402.6</v>
       </c>
       <c r="K94" t="n">
-        <v>151483.63</v>
+        <v>-23004.12</v>
       </c>
       <c r="L94" t="n">
-        <v>-32012.16</v>
+        <v>-44930.37</v>
       </c>
       <c r="M94" t="n">
-        <v>-15375.05</v>
+        <v>-8282.68</v>
       </c>
       <c r="N94" t="n">
-        <v>-56668.65</v>
+        <v>26642.9</v>
       </c>
       <c r="O94" t="n">
-        <v>-33424.04</v>
-      </c>
-      <c r="P94" t="n">
-        <v>-27389.89</v>
+        <v>-23570.39000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>179769.71</v>
+        <v>70331.42</v>
       </c>
       <c r="C95" t="n">
-        <v>148359.65</v>
+        <v>67355.11</v>
       </c>
       <c r="D95" t="n">
-        <v>65347.09</v>
+        <v>172500.89</v>
       </c>
       <c r="E95" t="n">
-        <v>57336.56</v>
+        <v>126651.67</v>
       </c>
       <c r="F95" t="n">
-        <v>-3553.369999999994</v>
+        <v>216540.58</v>
       </c>
       <c r="G95" t="n">
-        <v>70666.23999999999</v>
+        <v>217319.41</v>
       </c>
       <c r="H95" t="n">
-        <v>96405.92</v>
+        <v>208134.18</v>
       </c>
       <c r="I95" t="n">
-        <v>193467.31</v>
+        <v>186641.14</v>
       </c>
       <c r="J95" t="n">
-        <v>111725.07</v>
+        <v>95087.95999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>96951.24000000001</v>
+        <v>58042.85999999999</v>
       </c>
       <c r="L95" t="n">
-        <v>61194.32999999999</v>
+        <v>14974.91999999999</v>
       </c>
       <c r="M95" t="n">
-        <v>-14478.34</v>
+        <v>-15553.57999999999</v>
       </c>
       <c r="N95" t="n">
-        <v>-55405.89999999999</v>
+        <v>-4381.5</v>
       </c>
       <c r="O95" t="n">
-        <v>-49610.41</v>
-      </c>
-      <c r="P95" t="n">
-        <v>3014.860000000001</v>
+        <v>-15104.86</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>133904.67</v>
+        <v>5748.889999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>181955.73</v>
+        <v>-15453.63</v>
       </c>
       <c r="D96" t="n">
-        <v>79693</v>
+        <v>20542.75</v>
       </c>
       <c r="E96" t="n">
-        <v>72846.09</v>
+        <v>25325.43</v>
       </c>
       <c r="F96" t="n">
-        <v>70187.95</v>
+        <v>66717.7</v>
       </c>
       <c r="G96" t="n">
-        <v>167931.8</v>
+        <v>57307.58</v>
       </c>
       <c r="H96" t="n">
-        <v>126264.48</v>
+        <v>43054.3</v>
       </c>
       <c r="I96" t="n">
-        <v>210749.35</v>
+        <v>26314</v>
       </c>
       <c r="J96" t="n">
-        <v>214796.21</v>
+        <v>4110.280000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>196544.89</v>
+        <v>-8799.880000000003</v>
       </c>
       <c r="L96" t="n">
-        <v>167301.53</v>
+        <v>-18574.01</v>
       </c>
       <c r="M96" t="n">
-        <v>68068.8</v>
+        <v>-16140.48</v>
       </c>
       <c r="N96" t="n">
-        <v>22132.61</v>
+        <v>-3820.380000000001</v>
       </c>
       <c r="O96" t="n">
-        <v>-27956.86</v>
-      </c>
-      <c r="P96" t="n">
-        <v>-42613.45</v>
+        <v>-33134.49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>23142.45</v>
+        <v>138371.06</v>
       </c>
       <c r="C97" t="n">
-        <v>16813.87</v>
+        <v>75497.22</v>
       </c>
       <c r="D97" t="n">
-        <v>970.4899999999998</v>
+        <v>79706.98000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>-3064.930000000001</v>
+        <v>73193.00999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>4623.23</v>
+        <v>113773.36</v>
       </c>
       <c r="G97" t="n">
-        <v>34725.64</v>
+        <v>135056.86</v>
       </c>
       <c r="H97" t="n">
-        <v>39025.8</v>
+        <v>163427.58</v>
       </c>
       <c r="I97" t="n">
-        <v>51115</v>
+        <v>94199.75999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>42520.43</v>
+        <v>63526.97</v>
       </c>
       <c r="K97" t="n">
-        <v>26624.19</v>
+        <v>56290.7</v>
       </c>
       <c r="L97" t="n">
-        <v>20803.36</v>
+        <v>-6945.970000000005</v>
       </c>
       <c r="M97" t="n">
-        <v>13693.63</v>
+        <v>-5727.669999999995</v>
       </c>
       <c r="N97" t="n">
-        <v>8246.48</v>
+        <v>-54412.12</v>
       </c>
       <c r="O97" t="n">
-        <v>-6576.16</v>
-      </c>
-      <c r="P97" t="n">
-        <v>-3383.62</v>
+        <v>-15098.29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>238181.71</v>
+        <v>219745.22</v>
       </c>
       <c r="C98" t="n">
-        <v>221231.06</v>
+        <v>161401.25</v>
       </c>
       <c r="D98" t="n">
-        <v>181035.7</v>
+        <v>394932.64</v>
       </c>
       <c r="E98" t="n">
-        <v>132510.77</v>
+        <v>326628.4</v>
       </c>
       <c r="F98" t="n">
-        <v>48884.34</v>
+        <v>521583.85</v>
       </c>
       <c r="G98" t="n">
-        <v>51208.96000000001</v>
+        <v>492292.88</v>
       </c>
       <c r="H98" t="n">
-        <v>38879.66</v>
+        <v>452853.7</v>
       </c>
       <c r="I98" t="n">
-        <v>109195.23</v>
+        <v>299650.97</v>
       </c>
       <c r="J98" t="n">
-        <v>122751.6</v>
+        <v>389285.08</v>
       </c>
       <c r="K98" t="n">
-        <v>159549.82</v>
+        <v>235332.15</v>
       </c>
       <c r="L98" t="n">
-        <v>93739.42999999999</v>
+        <v>37734.14999999999</v>
       </c>
       <c r="M98" t="n">
-        <v>57668.49</v>
+        <v>-126994.79</v>
       </c>
       <c r="N98" t="n">
-        <v>52564.32999999999</v>
+        <v>239743.57</v>
       </c>
       <c r="O98" t="n">
-        <v>-2252.740000000009</v>
-      </c>
-      <c r="P98" t="n">
-        <v>-3900.559999999995</v>
+        <v>34318.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>298440.59</v>
+        <v>14337.38</v>
       </c>
       <c r="C99" t="n">
-        <v>273136.17</v>
+        <v>21330.57</v>
       </c>
       <c r="D99" t="n">
-        <v>200434.46</v>
+        <v>94624.18000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>216296.81</v>
+        <v>23233.11</v>
       </c>
       <c r="F99" t="n">
-        <v>166119.84</v>
+        <v>62021.13</v>
       </c>
       <c r="G99" t="n">
-        <v>397073.49</v>
+        <v>-6110.460000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>331926.3</v>
+        <v>-2015.990000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>561981.38</v>
+        <v>-34723.06999999999</v>
       </c>
       <c r="J99" t="n">
-        <v>548283.47</v>
+        <v>-52308.35000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>518186.91</v>
+        <v>-56867.77</v>
       </c>
       <c r="L99" t="n">
-        <v>301038.99</v>
+        <v>-29086.44</v>
       </c>
       <c r="M99" t="n">
-        <v>387522.14</v>
+        <v>-58738.79</v>
       </c>
       <c r="N99" t="n">
-        <v>232363.08</v>
+        <v>-18016.61</v>
       </c>
       <c r="O99" t="n">
-        <v>35746.65999999999</v>
-      </c>
-      <c r="P99" t="n">
-        <v>-102813.92</v>
+        <v>-36275.93</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>59200.63</v>
+        <v>-2687.779999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>53596.08</v>
+        <v>-7812.1</v>
       </c>
       <c r="D100" t="n">
-        <v>7594.02</v>
+        <v>85021.54000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>12241.34</v>
+        <v>123841.26</v>
       </c>
       <c r="F100" t="n">
-        <v>20322.32</v>
+        <v>166560.35</v>
       </c>
       <c r="G100" t="n">
-        <v>74273.10000000001</v>
+        <v>130178.11</v>
       </c>
       <c r="H100" t="n">
-        <v>25362.22</v>
+        <v>109525.74</v>
       </c>
       <c r="I100" t="n">
-        <v>43546.71</v>
+        <v>91786.32000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>1709.679999999998</v>
+        <v>31363.29</v>
       </c>
       <c r="K100" t="n">
-        <v>16622.42</v>
+        <v>2638.420000000001</v>
       </c>
       <c r="L100" t="n">
-        <v>-272.9000000000019</v>
+        <v>-63272.33</v>
       </c>
       <c r="M100" t="n">
-        <v>-5967.649999999999</v>
+        <v>-74820.78</v>
       </c>
       <c r="N100" t="n">
-        <v>-11036.43</v>
+        <v>12433.59</v>
       </c>
       <c r="O100" t="n">
-        <v>17387.58</v>
-      </c>
-      <c r="P100" t="n">
-        <v>-16347.32</v>
+        <v>-56537.74000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>108973.61</v>
+        <v>46544.98</v>
       </c>
       <c r="C101" t="n">
-        <v>91786.78</v>
+        <v>48338.8</v>
       </c>
       <c r="D101" t="n">
-        <v>23295.85</v>
+        <v>-26540.47</v>
       </c>
       <c r="E101" t="n">
-        <v>11690.25</v>
+        <v>-18774.01</v>
       </c>
       <c r="F101" t="n">
-        <v>-10226.52</v>
+        <v>-30771.67</v>
       </c>
       <c r="G101" t="n">
-        <v>97957.05</v>
+        <v>-21723.84</v>
       </c>
       <c r="H101" t="n">
-        <v>119981.26</v>
+        <v>-14700.37</v>
       </c>
       <c r="I101" t="n">
-        <v>214453.01</v>
+        <v>16030.8</v>
       </c>
       <c r="J101" t="n">
-        <v>189631.93</v>
+        <v>31177.84</v>
       </c>
       <c r="K101" t="n">
-        <v>160005.67</v>
+        <v>31368.03</v>
       </c>
       <c r="L101" t="n">
-        <v>100558.43</v>
+        <v>5843.869999999999</v>
       </c>
       <c r="M101" t="n">
-        <v>31264.1</v>
+        <v>-17583.06</v>
       </c>
       <c r="N101" t="n">
-        <v>-1279.299999999999</v>
+        <v>-28066.71</v>
       </c>
       <c r="O101" t="n">
-        <v>-83637.78999999999</v>
-      </c>
-      <c r="P101" t="n">
-        <v>-72051.43000000001</v>
+        <v>-18702.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>42017.27</v>
+        <v>28817.39</v>
       </c>
       <c r="C102" t="n">
-        <v>35449.12</v>
+        <v>24392.26</v>
       </c>
       <c r="D102" t="n">
-        <v>38804.44</v>
+        <v>-14957.84</v>
       </c>
       <c r="E102" t="n">
-        <v>41615.22</v>
+        <v>-23992.48</v>
       </c>
       <c r="F102" t="n">
-        <v>40171</v>
+        <v>-22067.1</v>
       </c>
       <c r="G102" t="n">
-        <v>-5066.76</v>
+        <v>-22666.52</v>
       </c>
       <c r="H102" t="n">
-        <v>2898.479999999998</v>
+        <v>-14590.11</v>
       </c>
       <c r="I102" t="n">
-        <v>-6977.260000000002</v>
+        <v>-13609.99</v>
       </c>
       <c r="J102" t="n">
-        <v>-6833.869999999999</v>
+        <v>-6018.12</v>
       </c>
       <c r="K102" t="n">
-        <v>-203.0799999999994</v>
+        <v>-7159.79</v>
       </c>
       <c r="L102" t="n">
-        <v>-4630.73</v>
+        <v>-11994.93</v>
       </c>
       <c r="M102" t="n">
-        <v>11795.03</v>
+        <v>-20252.26</v>
       </c>
       <c r="N102" t="n">
-        <v>12081.16</v>
+        <v>-16126.03</v>
       </c>
       <c r="O102" t="n">
-        <v>14074.06</v>
-      </c>
-      <c r="P102" t="n">
-        <v>3563.440000000001</v>
+        <v>-21512.52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>37319.02</v>
+        <v>8544.57</v>
       </c>
       <c r="C103" t="n">
-        <v>34543.44</v>
+        <v>7529.32</v>
       </c>
       <c r="D103" t="n">
-        <v>31487.34</v>
+        <v>-5918.94</v>
       </c>
       <c r="E103" t="n">
-        <v>29577.33</v>
+        <v>-4791.809999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>24996.98</v>
+        <v>-6090.469999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-14364.95</v>
+        <v>-5576.19</v>
       </c>
       <c r="H103" t="n">
-        <v>-23118.95</v>
+        <v>-3521.19</v>
       </c>
       <c r="I103" t="n">
-        <v>-22960.12</v>
+        <v>-2999.29</v>
       </c>
       <c r="J103" t="n">
-        <v>-23483.73</v>
+        <v>-1286.89</v>
       </c>
       <c r="K103" t="n">
-        <v>-15456.42</v>
+        <v>-1877.5</v>
       </c>
       <c r="L103" t="n">
-        <v>-14439.46</v>
+        <v>-1967.32</v>
       </c>
       <c r="M103" t="n">
-        <v>-6966.45</v>
+        <v>-2096.86</v>
       </c>
       <c r="N103" t="n">
-        <v>-7665.7</v>
+        <v>-2029.89</v>
       </c>
       <c r="O103" t="n">
-        <v>-12494.33</v>
-      </c>
-      <c r="P103" t="n">
-        <v>-19049.89</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>24695.25</v>
-      </c>
-      <c r="C104" t="n">
-        <v>24525.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12675.82</v>
-      </c>
-      <c r="E104" t="n">
-        <v>12714.39</v>
-      </c>
-      <c r="F104" t="n">
-        <v>15092.4</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-27985.54</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-27337.83</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-28991.86</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-19648.95</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-17152.17</v>
-      </c>
-      <c r="L104" t="n">
-        <v>18491.71</v>
-      </c>
-      <c r="M104" t="n">
-        <v>19044.25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>17915.28</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-9698.110000000001</v>
-      </c>
-      <c r="P104" t="n">
-        <v>-24445.73</v>
+        <v>2573.41</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-33727.42999999999</v>
+        <v>26336.21</v>
       </c>
       <c r="C2" t="n">
-        <v>32144.29</v>
+        <v>128605.18</v>
       </c>
       <c r="D2" t="n">
-        <v>122392.86</v>
+        <v>134761.31</v>
       </c>
       <c r="E2" t="n">
-        <v>124446.69</v>
+        <v>180931</v>
       </c>
       <c r="F2" t="n">
-        <v>169877.28</v>
+        <v>186915.58</v>
       </c>
       <c r="G2" t="n">
-        <v>178113.84</v>
+        <v>188128.55</v>
       </c>
       <c r="H2" t="n">
-        <v>182705.12</v>
+        <v>152921.78</v>
       </c>
       <c r="I2" t="n">
-        <v>148597.71</v>
+        <v>66230.98</v>
       </c>
       <c r="J2" t="n">
-        <v>67988.97</v>
+        <v>-14609.31</v>
       </c>
       <c r="K2" t="n">
-        <v>-19253.56</v>
+        <v>-88202.83</v>
       </c>
       <c r="L2" t="n">
-        <v>-96456.17</v>
+        <v>-12000.29</v>
       </c>
       <c r="M2" t="n">
-        <v>-23916.6</v>
+        <v>59194.3</v>
       </c>
       <c r="N2" t="n">
-        <v>50069.48</v>
+        <v>43157.69</v>
       </c>
       <c r="O2" t="n">
-        <v>36108.95</v>
+        <v>15187.04</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45111.4</v>
+        <v>-38224.53</v>
       </c>
       <c r="C3" t="n">
-        <v>-61402.77</v>
+        <v>66291.98</v>
       </c>
       <c r="D3" t="n">
-        <v>66108.49000000001</v>
+        <v>38527.98</v>
       </c>
       <c r="E3" t="n">
-        <v>63586.31</v>
+        <v>56390.99</v>
       </c>
       <c r="F3" t="n">
-        <v>88517.12</v>
+        <v>32158.41</v>
       </c>
       <c r="G3" t="n">
-        <v>58717.86</v>
+        <v>60141.03000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>77574.44</v>
+        <v>18594.75</v>
       </c>
       <c r="I3" t="n">
-        <v>29175.12</v>
+        <v>1552.649999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>-14686.46</v>
+        <v>43840.28</v>
       </c>
       <c r="K3" t="n">
-        <v>25978.64</v>
+        <v>26211.82</v>
       </c>
       <c r="L3" t="n">
-        <v>9049.160000000003</v>
+        <v>-9205.24</v>
       </c>
       <c r="M3" t="n">
-        <v>3719.94</v>
+        <v>-24440.87</v>
       </c>
       <c r="N3" t="n">
-        <v>-14341.23</v>
+        <v>-58093.25000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-74291.09</v>
+        <v>-125237.03</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7396.870000000001</v>
+        <v>-107.6200000000008</v>
       </c>
       <c r="C4" t="n">
-        <v>12796.58</v>
+        <v>68543.38</v>
       </c>
       <c r="D4" t="n">
-        <v>47215.42000000001</v>
+        <v>98224.19</v>
       </c>
       <c r="E4" t="n">
-        <v>49862.17</v>
+        <v>103188.9</v>
       </c>
       <c r="F4" t="n">
-        <v>45949.77</v>
+        <v>86104.11</v>
       </c>
       <c r="G4" t="n">
-        <v>29975.29</v>
+        <v>64326.03</v>
       </c>
       <c r="H4" t="n">
-        <v>27142.49</v>
+        <v>39071.26</v>
       </c>
       <c r="I4" t="n">
-        <v>14742.51</v>
+        <v>-23860.13</v>
       </c>
       <c r="J4" t="n">
-        <v>-18040.43</v>
+        <v>-20538.45</v>
       </c>
       <c r="K4" t="n">
-        <v>-18564.72</v>
+        <v>-27801.32</v>
       </c>
       <c r="L4" t="n">
-        <v>-17851.76</v>
+        <v>21162.87</v>
       </c>
       <c r="M4" t="n">
-        <v>-4758.639999999999</v>
+        <v>51243.62</v>
       </c>
       <c r="N4" t="n">
-        <v>18908.9</v>
+        <v>9157.68</v>
       </c>
       <c r="O4" t="n">
-        <v>9258.4</v>
+        <v>-14639.63</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18343.81</v>
+        <v>32990.99</v>
       </c>
       <c r="C5" t="n">
-        <v>32449.91</v>
+        <v>31488.16</v>
       </c>
       <c r="D5" t="n">
-        <v>30841.46</v>
+        <v>39263.95</v>
       </c>
       <c r="E5" t="n">
-        <v>38684.05</v>
+        <v>19288.14</v>
       </c>
       <c r="F5" t="n">
-        <v>18504.39</v>
+        <v>-8977.029999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-9678.539999999999</v>
+        <v>-15124.32</v>
       </c>
       <c r="H5" t="n">
-        <v>-15574.01</v>
+        <v>-20046.56</v>
       </c>
       <c r="I5" t="n">
-        <v>-20472.86</v>
+        <v>3949.880000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3520.35</v>
+        <v>2303.84</v>
       </c>
       <c r="K5" t="n">
-        <v>1990.6</v>
+        <v>2591.339999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>2393.229999999999</v>
+        <v>-2689.85</v>
       </c>
       <c r="M5" t="n">
-        <v>-3075.7</v>
+        <v>-5780.02</v>
       </c>
       <c r="N5" t="n">
-        <v>-5493.5</v>
+        <v>-2786.380000000002</v>
       </c>
       <c r="O5" t="n">
-        <v>-2439.22</v>
+        <v>-678.7299999999996</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8693.52</v>
+        <v>5099.160000000002</v>
       </c>
       <c r="C6" t="n">
-        <v>5082.160000000002</v>
+        <v>39682.56</v>
       </c>
       <c r="D6" t="n">
-        <v>39665.14</v>
+        <v>27653.57999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>27638.3</v>
+        <v>36525.34</v>
       </c>
       <c r="F6" t="n">
-        <v>36518.77</v>
+        <v>24955.89</v>
       </c>
       <c r="G6" t="n">
-        <v>24968.57</v>
+        <v>36301.82</v>
       </c>
       <c r="H6" t="n">
-        <v>36317.58</v>
+        <v>15768.16</v>
       </c>
       <c r="I6" t="n">
-        <v>15786.03</v>
+        <v>-8607.85</v>
       </c>
       <c r="J6" t="n">
-        <v>-8590.590000000002</v>
+        <v>13911.8</v>
       </c>
       <c r="K6" t="n">
-        <v>13922.01</v>
+        <v>18178.32</v>
       </c>
       <c r="L6" t="n">
-        <v>18169.76</v>
+        <v>15100.06</v>
       </c>
       <c r="M6" t="n">
-        <v>15091.69</v>
+        <v>23301.74</v>
       </c>
       <c r="N6" t="n">
-        <v>23299.46</v>
+        <v>-9234</v>
       </c>
       <c r="O6" t="n">
-        <v>-9243.610000000001</v>
+        <v>-68221.00999999999</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14544.52</v>
+        <v>19068.57</v>
       </c>
       <c r="C7" t="n">
-        <v>19661.25</v>
+        <v>34282.66</v>
       </c>
       <c r="D7" t="n">
-        <v>34968.17</v>
+        <v>34291.52</v>
       </c>
       <c r="E7" t="n">
-        <v>34872</v>
+        <v>35919.34</v>
       </c>
       <c r="F7" t="n">
-        <v>36685.76</v>
+        <v>27906.84</v>
       </c>
       <c r="G7" t="n">
-        <v>28578.01</v>
+        <v>9715.92</v>
       </c>
       <c r="H7" t="n">
-        <v>10156.08</v>
+        <v>5079.289999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>5477.74</v>
+        <v>-9939.76</v>
       </c>
       <c r="J7" t="n">
-        <v>-9521.800000000001</v>
+        <v>1207.139999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>1520.83</v>
+        <v>-15290.25</v>
       </c>
       <c r="L7" t="n">
-        <v>-15076.83</v>
+        <v>-20515.65</v>
       </c>
       <c r="M7" t="n">
-        <v>-20151.55</v>
+        <v>-8049.990000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>-8362.860000000001</v>
+        <v>-1028.059999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>-1394.309999999998</v>
+        <v>-15122.66</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47844.75</v>
+        <v>-10593.04</v>
       </c>
       <c r="C8" t="n">
-        <v>-10557.88</v>
+        <v>120938.88</v>
       </c>
       <c r="D8" t="n">
-        <v>119999.94</v>
+        <v>175290.57</v>
       </c>
       <c r="E8" t="n">
-        <v>174434.93</v>
+        <v>275224.79</v>
       </c>
       <c r="F8" t="n">
-        <v>274638.89</v>
+        <v>250556.35</v>
       </c>
       <c r="G8" t="n">
-        <v>250477.48</v>
+        <v>257112.08</v>
       </c>
       <c r="H8" t="n">
-        <v>256616.48</v>
+        <v>179175.76</v>
       </c>
       <c r="I8" t="n">
-        <v>179241.92</v>
+        <v>114524.65</v>
       </c>
       <c r="J8" t="n">
-        <v>114184.16</v>
+        <v>68488.91</v>
       </c>
       <c r="K8" t="n">
-        <v>67940.69000000002</v>
+        <v>38121.07</v>
       </c>
       <c r="L8" t="n">
-        <v>37037.66</v>
+        <v>-22278.40999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>-23815.03</v>
+        <v>121353.16</v>
       </c>
       <c r="N8" t="n">
-        <v>119721.33</v>
+        <v>97673.44</v>
       </c>
       <c r="O8" t="n">
-        <v>96696.60000000001</v>
+        <v>-9033.35</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8462.599999999999</v>
+        <v>-14826.08</v>
       </c>
       <c r="C9" t="n">
-        <v>-13640.44</v>
+        <v>-1874.119999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-396.5099999999996</v>
+        <v>-6383.469999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-3483.659999999999</v>
+        <v>4914.64</v>
       </c>
       <c r="F9" t="n">
-        <v>8230.539999999999</v>
+        <v>3417.04</v>
       </c>
       <c r="G9" t="n">
-        <v>6303.25</v>
+        <v>14816.22</v>
       </c>
       <c r="H9" t="n">
-        <v>16649.41</v>
+        <v>9121.080000000002</v>
       </c>
       <c r="I9" t="n">
-        <v>10356.95</v>
+        <v>13998.62</v>
       </c>
       <c r="J9" t="n">
-        <v>14098.79</v>
+        <v>11727.16</v>
       </c>
       <c r="K9" t="n">
-        <v>11266.35</v>
+        <v>6107.530000000002</v>
       </c>
       <c r="L9" t="n">
-        <v>3309.11</v>
+        <v>-10809.52</v>
       </c>
       <c r="M9" t="n">
-        <v>-12111.75</v>
+        <v>3613.22</v>
       </c>
       <c r="N9" t="n">
-        <v>2766.559999999999</v>
+        <v>-14421.23</v>
       </c>
       <c r="O9" t="n">
-        <v>-13292.05</v>
+        <v>-14266.93</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19548.68</v>
+        <v>-51523.81</v>
       </c>
       <c r="C10" t="n">
-        <v>-53022.52</v>
+        <v>80713.03999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>79650.88</v>
+        <v>99159</v>
       </c>
       <c r="E10" t="n">
-        <v>96783.03</v>
+        <v>165492.08</v>
       </c>
       <c r="F10" t="n">
-        <v>162907.35</v>
+        <v>136752.33</v>
       </c>
       <c r="G10" t="n">
-        <v>134394.75</v>
+        <v>145829.6</v>
       </c>
       <c r="H10" t="n">
-        <v>144894.64</v>
+        <v>44429.54</v>
       </c>
       <c r="I10" t="n">
-        <v>43654.78</v>
+        <v>-43505.06</v>
       </c>
       <c r="J10" t="n">
-        <v>-42892.71</v>
+        <v>-86335.17</v>
       </c>
       <c r="K10" t="n">
-        <v>-84972.97999999998</v>
+        <v>-83861.64</v>
       </c>
       <c r="L10" t="n">
-        <v>-79737.42999999999</v>
+        <v>-77336.57000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>-74634.44</v>
+        <v>-48047.59</v>
       </c>
       <c r="N10" t="n">
-        <v>-45746.44</v>
+        <v>-57385.94</v>
       </c>
       <c r="O10" t="n">
-        <v>-57383.01</v>
+        <v>-80308.95</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3853.71</v>
+        <v>-2594.69</v>
       </c>
       <c r="C11" t="n">
-        <v>-3935.99</v>
+        <v>7788.01</v>
       </c>
       <c r="D11" t="n">
-        <v>6193.469999999999</v>
+        <v>-4752.110000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>-6506.99</v>
+        <v>12439.04</v>
       </c>
       <c r="F11" t="n">
-        <v>12779.82</v>
+        <v>8586.860000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>7197.18</v>
+        <v>14167.86</v>
       </c>
       <c r="H11" t="n">
-        <v>10980.37</v>
+        <v>12114.4</v>
       </c>
       <c r="I11" t="n">
-        <v>7570</v>
+        <v>3571.900000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>7884.79</v>
+        <v>4792.890000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>7579.140000000001</v>
+        <v>15575.08</v>
       </c>
       <c r="L11" t="n">
-        <v>14795.49</v>
+        <v>-8150.130000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>-4778.51</v>
+        <v>-4846.439999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>-3039.729999999999</v>
+        <v>19811.26</v>
       </c>
       <c r="O11" t="n">
-        <v>14266.82</v>
+        <v>17280.46</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35522.66</v>
+        <v>25159.3</v>
       </c>
       <c r="C12" t="n">
-        <v>18981.99</v>
+        <v>-1609.630000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-12198.55</v>
+        <v>16455.45</v>
       </c>
       <c r="E12" t="n">
-        <v>6739.629999999999</v>
+        <v>31794.44</v>
       </c>
       <c r="F12" t="n">
-        <v>20627.12</v>
+        <v>22182.09</v>
       </c>
       <c r="G12" t="n">
-        <v>14383.25</v>
+        <v>35836.73</v>
       </c>
       <c r="H12" t="n">
-        <v>25088.7</v>
+        <v>35491.72</v>
       </c>
       <c r="I12" t="n">
-        <v>28053.13</v>
+        <v>25800.33</v>
       </c>
       <c r="J12" t="n">
-        <v>18287.44</v>
+        <v>9408.370000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>3750.920000000001</v>
+        <v>18428.37</v>
       </c>
       <c r="L12" t="n">
-        <v>14710.68</v>
+        <v>7916.3</v>
       </c>
       <c r="M12" t="n">
-        <v>7342.12</v>
+        <v>9151.040000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>7023.23</v>
+        <v>5776.090000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>12705.57</v>
+        <v>-41501.95</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17791.02</v>
+        <v>-13742.74</v>
       </c>
       <c r="C13" t="n">
-        <v>-7970.830000000001</v>
+        <v>29867.1</v>
       </c>
       <c r="D13" t="n">
-        <v>39658.76</v>
+        <v>39427.52</v>
       </c>
       <c r="E13" t="n">
-        <v>48472.96</v>
+        <v>41398.87</v>
       </c>
       <c r="F13" t="n">
-        <v>49335.83</v>
+        <v>32468.87</v>
       </c>
       <c r="G13" t="n">
-        <v>38670.26</v>
+        <v>41618.51</v>
       </c>
       <c r="H13" t="n">
-        <v>52742.9</v>
+        <v>29828.86</v>
       </c>
       <c r="I13" t="n">
-        <v>39340.52</v>
+        <v>28453.77</v>
       </c>
       <c r="J13" t="n">
-        <v>29685.53</v>
+        <v>27212.43</v>
       </c>
       <c r="K13" t="n">
-        <v>28631.37</v>
+        <v>38399.37</v>
       </c>
       <c r="L13" t="n">
-        <v>43406.74</v>
+        <v>-3405.98</v>
       </c>
       <c r="M13" t="n">
-        <v>-4600.56</v>
+        <v>13840.8</v>
       </c>
       <c r="N13" t="n">
-        <v>12165.51</v>
+        <v>-18111.02</v>
       </c>
       <c r="O13" t="n">
-        <v>-12925.43</v>
+        <v>-33853.97</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-184716.35</v>
+        <v>-114671.3</v>
       </c>
       <c r="C14" t="n">
-        <v>-113122.02</v>
+        <v>209367.77</v>
       </c>
       <c r="D14" t="n">
-        <v>211451.93</v>
+        <v>335246.19</v>
       </c>
       <c r="E14" t="n">
-        <v>337575.71</v>
+        <v>455147.61</v>
       </c>
       <c r="F14" t="n">
-        <v>457816.21</v>
+        <v>408249.95</v>
       </c>
       <c r="G14" t="n">
-        <v>410949.38</v>
+        <v>343891.46</v>
       </c>
       <c r="H14" t="n">
-        <v>346493.98</v>
+        <v>197150.59</v>
       </c>
       <c r="I14" t="n">
-        <v>199302.27</v>
+        <v>80993.37</v>
       </c>
       <c r="J14" t="n">
-        <v>83227.53</v>
+        <v>-31381.41</v>
       </c>
       <c r="K14" t="n">
-        <v>-29674.12000000001</v>
+        <v>-64838.11</v>
       </c>
       <c r="L14" t="n">
-        <v>-63897.48</v>
+        <v>-51718.68999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>-50938.60999999999</v>
+        <v>7690.950000000004</v>
       </c>
       <c r="N14" t="n">
-        <v>9121.610000000008</v>
+        <v>-91771.7</v>
       </c>
       <c r="O14" t="n">
-        <v>-91292.77</v>
+        <v>-177661.2</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-36023.14</v>
+        <v>24439.78</v>
       </c>
       <c r="C15" t="n">
-        <v>40523.13</v>
+        <v>297404.65</v>
       </c>
       <c r="D15" t="n">
-        <v>325668.18</v>
+        <v>373936.09</v>
       </c>
       <c r="E15" t="n">
-        <v>399464.51</v>
+        <v>395712.82</v>
       </c>
       <c r="F15" t="n">
-        <v>420158.32</v>
+        <v>352234.09</v>
       </c>
       <c r="G15" t="n">
-        <v>386756.98</v>
+        <v>348158.73</v>
       </c>
       <c r="H15" t="n">
-        <v>384851.84</v>
+        <v>174402.35</v>
       </c>
       <c r="I15" t="n">
-        <v>201933.24</v>
+        <v>98881.09999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>126701.32</v>
+        <v>92224.83</v>
       </c>
       <c r="K15" t="n">
-        <v>132729.8</v>
+        <v>-35124.13</v>
       </c>
       <c r="L15" t="n">
-        <v>-14471.85</v>
+        <v>-79341</v>
       </c>
       <c r="M15" t="n">
-        <v>-105018.15</v>
+        <v>-12215.64</v>
       </c>
       <c r="N15" t="n">
-        <v>-46194.7</v>
+        <v>-219464.74</v>
       </c>
       <c r="O15" t="n">
-        <v>-263509.67</v>
+        <v>-316506.95</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-43487.38</v>
+        <v>-6038.320000000008</v>
       </c>
       <c r="C16" t="n">
-        <v>-17529.66</v>
+        <v>149809.88</v>
       </c>
       <c r="D16" t="n">
-        <v>129979.71</v>
+        <v>223368.12</v>
       </c>
       <c r="E16" t="n">
-        <v>205121.07</v>
+        <v>343086.03</v>
       </c>
       <c r="F16" t="n">
-        <v>326889.22</v>
+        <v>301240.48</v>
       </c>
       <c r="G16" t="n">
-        <v>275483.48</v>
+        <v>282756.08</v>
       </c>
       <c r="H16" t="n">
-        <v>250147.52</v>
+        <v>116693.94</v>
       </c>
       <c r="I16" t="n">
-        <v>81077.42</v>
+        <v>151461.85</v>
       </c>
       <c r="J16" t="n">
-        <v>124496.62</v>
+        <v>80436.09000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>35404.2</v>
+        <v>72542.60000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>44064.60999999999</v>
+        <v>48339.73</v>
       </c>
       <c r="M16" t="n">
-        <v>67159.84</v>
+        <v>116893.82</v>
       </c>
       <c r="N16" t="n">
-        <v>146446.16</v>
+        <v>-63912.53000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>1802.5</v>
+        <v>-166131.99</v>
       </c>
     </row>
     <row r="17">
@@ -1252,46 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9939.67</v>
+        <v>5295.5</v>
       </c>
       <c r="C17" t="n">
-        <v>5180.49</v>
+        <v>7891.940000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>7728.26</v>
+        <v>-233.2700000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>-512.2600000000002</v>
+        <v>-1950.88</v>
       </c>
       <c r="F17" t="n">
-        <v>-2074.38</v>
+        <v>-1211.8</v>
       </c>
       <c r="G17" t="n">
-        <v>-691.2499999999998</v>
+        <v>2767.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3223.07</v>
+        <v>2542.559999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>3076.64</v>
+        <v>-3799.39</v>
       </c>
       <c r="J17" t="n">
-        <v>-3832.99</v>
+        <v>1855.100000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>1638.74</v>
+        <v>5286.88</v>
       </c>
       <c r="L17" t="n">
-        <v>4955.89</v>
+        <v>-1668.84</v>
       </c>
       <c r="M17" t="n">
-        <v>-2134.77</v>
+        <v>2644.059999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>2268.699999999999</v>
+        <v>12274.52</v>
       </c>
       <c r="O17" t="n">
-        <v>12490.55</v>
+        <v>10000.49</v>
       </c>
     </row>
     <row r="18">
@@ -1301,4211 +1301,4162 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30723.9</v>
+        <v>52384.96</v>
       </c>
       <c r="C18" t="n">
-        <v>53260.61</v>
+        <v>33214.02</v>
       </c>
       <c r="D18" t="n">
-        <v>30643.62</v>
+        <v>5033.89</v>
       </c>
       <c r="E18" t="n">
-        <v>2331.090000000001</v>
+        <v>-1782.76</v>
       </c>
       <c r="F18" t="n">
-        <v>-2890.55</v>
+        <v>4474.600000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>6706.470000000001</v>
+        <v>-5288.04</v>
       </c>
       <c r="H18" t="n">
-        <v>-4007.76</v>
+        <v>-54439.45</v>
       </c>
       <c r="I18" t="n">
-        <v>-52141.2</v>
+        <v>-16464.54</v>
       </c>
       <c r="J18" t="n">
-        <v>-13939.42</v>
+        <v>-34175.79</v>
       </c>
       <c r="K18" t="n">
-        <v>-34678.02</v>
+        <v>-32127.54</v>
       </c>
       <c r="L18" t="n">
-        <v>-33367.63</v>
+        <v>-42484.17</v>
       </c>
       <c r="M18" t="n">
-        <v>-41477.33</v>
+        <v>-36689.6</v>
       </c>
       <c r="N18" t="n">
-        <v>-38317.45</v>
+        <v>-54594.61</v>
       </c>
       <c r="O18" t="n">
-        <v>-54246.89</v>
+        <v>-58861.96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>塑膠工業平</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2163.56</v>
+        <v>3452.36</v>
       </c>
       <c r="C19" t="n">
-        <v>-760.64</v>
+        <v>9826.090000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>2734.08</v>
+        <v>12090.54</v>
       </c>
       <c r="E19" t="n">
-        <v>2981.79</v>
+        <v>20347.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1231.29</v>
+        <v>21113.51</v>
       </c>
       <c r="G19" t="n">
-        <v>-2752.42</v>
+        <v>24725.59</v>
       </c>
       <c r="H19" t="n">
-        <v>-1736.3</v>
+        <v>25099.66</v>
       </c>
       <c r="I19" t="n">
-        <v>-2832.33</v>
+        <v>29791.5</v>
       </c>
       <c r="J19" t="n">
-        <v>-2491.52</v>
+        <v>15179.4</v>
       </c>
       <c r="K19" t="n">
-        <v>718.59</v>
+        <v>-8803.469999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>1571.08</v>
+        <v>-15738.68</v>
       </c>
       <c r="M19" t="n">
-        <v>-540.9100000000001</v>
+        <v>-6677.67</v>
       </c>
       <c r="N19" t="n">
-        <v>2003.21</v>
+        <v>-22961.68</v>
       </c>
       <c r="O19" t="n">
-        <v>-563.75</v>
+        <v>-12698.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-4472.05</v>
+        <v>1283.4</v>
       </c>
       <c r="C20" t="n">
-        <v>2873.67</v>
+        <v>352.23</v>
       </c>
       <c r="D20" t="n">
-        <v>9243.140000000001</v>
+        <v>3294.23</v>
       </c>
       <c r="E20" t="n">
-        <v>11392.84</v>
+        <v>-6176.290000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>19617.6</v>
+        <v>-5981.89</v>
       </c>
       <c r="G20" t="n">
-        <v>21923.31</v>
+        <v>-1522.78</v>
       </c>
       <c r="H20" t="n">
-        <v>24139.33</v>
+        <v>909.2300000000005</v>
       </c>
       <c r="I20" t="n">
-        <v>24108.01</v>
+        <v>-5390.88</v>
       </c>
       <c r="J20" t="n">
-        <v>28932.77</v>
+        <v>-1689</v>
       </c>
       <c r="K20" t="n">
-        <v>14266.49</v>
+        <v>-2663.77</v>
       </c>
       <c r="L20" t="n">
-        <v>-9991.619999999999</v>
+        <v>-6676.75</v>
       </c>
       <c r="M20" t="n">
-        <v>-16729.05</v>
+        <v>-4243.25</v>
       </c>
       <c r="N20" t="n">
-        <v>-7641.62</v>
+        <v>3026.24</v>
       </c>
       <c r="O20" t="n">
-        <v>-23658.71</v>
+        <v>-3448.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>居家生活右下</t>
+          <t>居家生活平</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2505.99</v>
+        <v>-9017.92</v>
       </c>
       <c r="C21" t="n">
-        <v>1283.4</v>
+        <v>-2061.69</v>
       </c>
       <c r="D21" t="n">
-        <v>352.23</v>
+        <v>-111.6099999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>3294.23</v>
+        <v>4252.85</v>
       </c>
       <c r="F21" t="n">
-        <v>-6176.290000000001</v>
+        <v>6331.95</v>
       </c>
       <c r="G21" t="n">
-        <v>-5981.89</v>
+        <v>8664.610000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>-1522.78</v>
+        <v>6045.67</v>
       </c>
       <c r="I21" t="n">
-        <v>909.2300000000005</v>
+        <v>3545.11</v>
       </c>
       <c r="J21" t="n">
-        <v>-5390.88</v>
+        <v>-1431.34</v>
       </c>
       <c r="K21" t="n">
-        <v>-1689</v>
+        <v>2625.77</v>
       </c>
       <c r="L21" t="n">
-        <v>-2663.77</v>
+        <v>397.3000000000002</v>
       </c>
       <c r="M21" t="n">
-        <v>-6676.75</v>
+        <v>4225.34</v>
       </c>
       <c r="N21" t="n">
-        <v>-4243.25</v>
+        <v>6357.18</v>
       </c>
       <c r="O21" t="n">
-        <v>-20.26999999999998</v>
+        <v>4978.74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3937.059999999999</v>
+        <v>55561.23</v>
       </c>
       <c r="C22" t="n">
-        <v>-8439.23</v>
+        <v>-4247.4</v>
       </c>
       <c r="D22" t="n">
-        <v>-1478.74</v>
+        <v>26523.58</v>
       </c>
       <c r="E22" t="n">
-        <v>586.0899999999999</v>
+        <v>26302.54</v>
       </c>
       <c r="F22" t="n">
-        <v>4983.04</v>
+        <v>23581.95</v>
       </c>
       <c r="G22" t="n">
-        <v>5522.15</v>
+        <v>43233.82</v>
       </c>
       <c r="H22" t="n">
-        <v>9250.870000000001</v>
+        <v>45752.49000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>7037.320000000001</v>
+        <v>34415.53</v>
       </c>
       <c r="J22" t="n">
-        <v>4403.84</v>
+        <v>62455.19</v>
       </c>
       <c r="K22" t="n">
-        <v>-518.4300000000001</v>
+        <v>45667.64</v>
       </c>
       <c r="L22" t="n">
-        <v>3813.919999999999</v>
+        <v>-7622.630000000002</v>
       </c>
       <c r="M22" t="n">
-        <v>1387.67</v>
+        <v>-3521.440000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>5189.29</v>
+        <v>3494.200000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>7054.210000000001</v>
+        <v>-15575.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76917.74000000001</v>
+        <v>11711.59</v>
       </c>
       <c r="C23" t="n">
-        <v>56097.61</v>
+        <v>-9246.630000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>-4883.88</v>
+        <v>-11866.4</v>
       </c>
       <c r="E23" t="n">
-        <v>25555.89</v>
+        <v>377.0399999999996</v>
       </c>
       <c r="F23" t="n">
-        <v>25853.27</v>
+        <v>-19357.59</v>
       </c>
       <c r="G23" t="n">
-        <v>23348.5</v>
+        <v>-20368.15</v>
       </c>
       <c r="H23" t="n">
-        <v>43944.32000000001</v>
+        <v>-10584.44</v>
       </c>
       <c r="I23" t="n">
-        <v>46044.13</v>
+        <v>-2738.77</v>
       </c>
       <c r="J23" t="n">
-        <v>35221.16</v>
+        <v>16144.22</v>
       </c>
       <c r="K23" t="n">
-        <v>62090.37</v>
+        <v>23396.09</v>
       </c>
       <c r="L23" t="n">
-        <v>45331.3</v>
+        <v>11767.67</v>
       </c>
       <c r="M23" t="n">
-        <v>-8388.35</v>
+        <v>-4152.01</v>
       </c>
       <c r="N23" t="n">
-        <v>-3828.050000000002</v>
+        <v>-24266.1</v>
       </c>
       <c r="O23" t="n">
-        <v>2718.530000000001</v>
+        <v>-29278.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14339.64</v>
+        <v>27415.11</v>
       </c>
       <c r="C24" t="n">
-        <v>10422.25</v>
+        <v>-78012.97</v>
       </c>
       <c r="D24" t="n">
-        <v>-8688.52</v>
+        <v>-34868.42</v>
       </c>
       <c r="E24" t="n">
-        <v>-10656.72</v>
+        <v>-19184</v>
       </c>
       <c r="F24" t="n">
-        <v>1483.429999999999</v>
+        <v>-50818.05</v>
       </c>
       <c r="G24" t="n">
-        <v>-17616.02</v>
+        <v>-35039.56</v>
       </c>
       <c r="H24" t="n">
-        <v>-18550.77</v>
+        <v>-37933.13</v>
       </c>
       <c r="I24" t="n">
-        <v>-9022.67</v>
+        <v>-37931.72</v>
       </c>
       <c r="J24" t="n">
-        <v>-1463.62</v>
+        <v>4479.659999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>17397.24</v>
+        <v>28275.6</v>
       </c>
       <c r="L24" t="n">
-        <v>24878.31</v>
+        <v>11463.43</v>
       </c>
       <c r="M24" t="n">
-        <v>13369.61</v>
+        <v>30167.31</v>
       </c>
       <c r="N24" t="n">
-        <v>-2169.650000000001</v>
+        <v>-19177.55</v>
       </c>
       <c r="O24" t="n">
-        <v>-12902.07</v>
+        <v>-49378.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50852.61</v>
+        <v>17747.98</v>
       </c>
       <c r="C25" t="n">
-        <v>25750.42</v>
+        <v>18881.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-76554.62</v>
+        <v>16214.34</v>
       </c>
       <c r="E25" t="n">
-        <v>-34432.09</v>
+        <v>7841.049999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>-18560.93</v>
+        <v>13266.22</v>
       </c>
       <c r="G25" t="n">
-        <v>-50237.62</v>
+        <v>6550.459999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-34625.1</v>
+        <v>-3358.88</v>
       </c>
       <c r="I25" t="n">
-        <v>-37057.18</v>
+        <v>-1579.34</v>
       </c>
       <c r="J25" t="n">
-        <v>-37726.91</v>
+        <v>9889.83</v>
       </c>
       <c r="K25" t="n">
-        <v>5043.729999999997</v>
+        <v>7082.389999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>27412.49</v>
+        <v>9148.42</v>
       </c>
       <c r="M25" t="n">
-        <v>8976.58</v>
+        <v>8773.59</v>
       </c>
       <c r="N25" t="n">
-        <v>25933.1</v>
+        <v>9691.940000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>-23001.66</v>
+        <v>-1069.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10528.13</v>
+        <v>-13690.07</v>
       </c>
       <c r="C26" t="n">
-        <v>17747.98</v>
+        <v>-10384.31</v>
       </c>
       <c r="D26" t="n">
-        <v>18881.07</v>
+        <v>-10889.05</v>
       </c>
       <c r="E26" t="n">
-        <v>16214.34</v>
+        <v>1011.81</v>
       </c>
       <c r="F26" t="n">
-        <v>7841.049999999999</v>
+        <v>5568.080000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>13266.22</v>
+        <v>-2400.54</v>
       </c>
       <c r="H26" t="n">
-        <v>6550.459999999999</v>
+        <v>-2865.95</v>
       </c>
       <c r="I26" t="n">
-        <v>-3358.88</v>
+        <v>-6534.67</v>
       </c>
       <c r="J26" t="n">
-        <v>-1579.34</v>
+        <v>-6437.02</v>
       </c>
       <c r="K26" t="n">
-        <v>9889.83</v>
+        <v>-12922.81</v>
       </c>
       <c r="L26" t="n">
-        <v>7082.389999999999</v>
+        <v>-6620.49</v>
       </c>
       <c r="M26" t="n">
-        <v>9148.42</v>
+        <v>-185.1799999999998</v>
       </c>
       <c r="N26" t="n">
-        <v>8773.59</v>
+        <v>2353.300000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>9691.940000000001</v>
+        <v>-1361.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>數位雲端平</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-15684.79</v>
+        <v>5539.58</v>
       </c>
       <c r="C27" t="n">
-        <v>-13754.69</v>
+        <v>7896.88</v>
       </c>
       <c r="D27" t="n">
-        <v>-10506.67</v>
+        <v>8470.639999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>-10826.33</v>
+        <v>3217.88</v>
       </c>
       <c r="F27" t="n">
-        <v>867.71</v>
+        <v>5856.81</v>
       </c>
       <c r="G27" t="n">
-        <v>5536.860000000001</v>
+        <v>5965.63</v>
       </c>
       <c r="H27" t="n">
-        <v>-2215.92</v>
+        <v>3481</v>
       </c>
       <c r="I27" t="n">
-        <v>-2670.99</v>
+        <v>-1122.46</v>
       </c>
       <c r="J27" t="n">
-        <v>-6362.89</v>
+        <v>8631.019999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-6193.700000000001</v>
+        <v>5122.02</v>
       </c>
       <c r="L27" t="n">
-        <v>-12693.61</v>
+        <v>479.58</v>
       </c>
       <c r="M27" t="n">
-        <v>-6426.69</v>
+        <v>1861.61</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.769999999999982</v>
+        <v>-4047.89</v>
       </c>
       <c r="O27" t="n">
-        <v>2540.730000000001</v>
+        <v>-7629.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>數位雲端平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1608.38</v>
+        <v>1448.01</v>
       </c>
       <c r="C28" t="n">
-        <v>5506.23</v>
+        <v>412.1</v>
       </c>
       <c r="D28" t="n">
-        <v>7918.47</v>
+        <v>324.48</v>
       </c>
       <c r="E28" t="n">
-        <v>8442.68</v>
+        <v>331.34</v>
       </c>
       <c r="F28" t="n">
-        <v>3260.33</v>
+        <v>-624.1999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>5870.68</v>
+        <v>-746.96</v>
       </c>
       <c r="H28" t="n">
-        <v>5902.110000000001</v>
+        <v>-909.13</v>
       </c>
       <c r="I28" t="n">
-        <v>3408.01</v>
+        <v>-1056.8</v>
       </c>
       <c r="J28" t="n">
-        <v>-1193.93</v>
+        <v>-515.5700000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>8514.57</v>
+        <v>-234.27</v>
       </c>
       <c r="L28" t="n">
-        <v>5007.3</v>
+        <v>-271.44</v>
       </c>
       <c r="M28" t="n">
-        <v>369.42</v>
+        <v>-141.93</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.9</v>
+        <v>-679.9000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>-4147.61</v>
+        <v>-964.8299999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>文化創意業右下</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1597.74</v>
+        <v>745.79</v>
       </c>
       <c r="C29" t="n">
-        <v>1448.01</v>
+        <v>653.42</v>
       </c>
       <c r="D29" t="n">
-        <v>412.1</v>
+        <v>473.63</v>
       </c>
       <c r="E29" t="n">
-        <v>324.48</v>
+        <v>231.1</v>
       </c>
       <c r="F29" t="n">
-        <v>331.34</v>
+        <v>-328.2</v>
       </c>
       <c r="G29" t="n">
-        <v>-624.1999999999999</v>
+        <v>-268.98</v>
       </c>
       <c r="H29" t="n">
-        <v>-746.96</v>
+        <v>-195.8</v>
       </c>
       <c r="I29" t="n">
-        <v>-909.13</v>
+        <v>-248.87</v>
       </c>
       <c r="J29" t="n">
-        <v>-1056.8</v>
+        <v>-73.48000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>-515.5700000000001</v>
+        <v>-115.19</v>
       </c>
       <c r="L29" t="n">
-        <v>-234.27</v>
+        <v>-276.02</v>
       </c>
       <c r="M29" t="n">
-        <v>-271.44</v>
+        <v>-92.20999999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>-141.93</v>
+        <v>-415.75</v>
       </c>
       <c r="O29" t="n">
-        <v>-679.9000000000001</v>
+        <v>-570.5799999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右下</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>853.14</v>
+        <v>994.34</v>
       </c>
       <c r="C30" t="n">
-        <v>736.23</v>
+        <v>864.67</v>
       </c>
       <c r="D30" t="n">
-        <v>645.4</v>
+        <v>932.83</v>
       </c>
       <c r="E30" t="n">
-        <v>465.5700000000001</v>
+        <v>404.17</v>
       </c>
       <c r="F30" t="n">
-        <v>219.6</v>
+        <v>-627.24</v>
       </c>
       <c r="G30" t="n">
-        <v>-333.84</v>
+        <v>-997.09</v>
       </c>
       <c r="H30" t="n">
-        <v>-287.52</v>
+        <v>-812.1900000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>-210.37</v>
+        <v>-1075.94</v>
       </c>
       <c r="J30" t="n">
-        <v>-268.09</v>
+        <v>-681.95</v>
       </c>
       <c r="K30" t="n">
-        <v>-88.63000000000002</v>
+        <v>-488.64</v>
       </c>
       <c r="L30" t="n">
-        <v>-124.86</v>
+        <v>-826.2900000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>-260.43</v>
+        <v>-715.21</v>
       </c>
       <c r="N30" t="n">
-        <v>-84.44999999999999</v>
+        <v>-1034.36</v>
       </c>
       <c r="O30" t="n">
-        <v>-401.66</v>
+        <v>-908.5999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>688.3100000000001</v>
+        <v>16219.79</v>
       </c>
       <c r="C31" t="n">
-        <v>1003.9</v>
+        <v>7513.5</v>
       </c>
       <c r="D31" t="n">
-        <v>872.6900000000001</v>
+        <v>5113.24</v>
       </c>
       <c r="E31" t="n">
-        <v>940.89</v>
+        <v>9318.27</v>
       </c>
       <c r="F31" t="n">
-        <v>415.67</v>
+        <v>5305.37</v>
       </c>
       <c r="G31" t="n">
-        <v>-621.6</v>
+        <v>-4705.97</v>
       </c>
       <c r="H31" t="n">
-        <v>-978.5500000000001</v>
+        <v>7772.84</v>
       </c>
       <c r="I31" t="n">
-        <v>-797.62</v>
+        <v>-1604.64</v>
       </c>
       <c r="J31" t="n">
-        <v>-1056.72</v>
+        <v>9519.24</v>
       </c>
       <c r="K31" t="n">
-        <v>-666.8000000000001</v>
+        <v>3959.22</v>
       </c>
       <c r="L31" t="n">
-        <v>-478.97</v>
+        <v>10118.96</v>
       </c>
       <c r="M31" t="n">
-        <v>-841.88</v>
+        <v>-7216.240000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>-722.97</v>
+        <v>-9479.669999999998</v>
       </c>
       <c r="O31" t="n">
-        <v>-1048.45</v>
+        <v>-16268.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14088.62</v>
+        <v>14226.88</v>
       </c>
       <c r="C32" t="n">
-        <v>14150.83</v>
+        <v>1425.200000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>4611.540000000001</v>
+        <v>8757.880000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>3443.87</v>
+        <v>12046.49</v>
       </c>
       <c r="F32" t="n">
-        <v>8782.630000000001</v>
+        <v>7951.190000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>4843.179999999999</v>
+        <v>9855.66</v>
       </c>
       <c r="H32" t="n">
-        <v>-4688.45</v>
+        <v>-14581.76</v>
       </c>
       <c r="I32" t="n">
-        <v>9685.9</v>
+        <v>-18683</v>
       </c>
       <c r="J32" t="n">
-        <v>-2980.92</v>
+        <v>-17579.08</v>
       </c>
       <c r="K32" t="n">
-        <v>7411.929999999999</v>
+        <v>-17643.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2338.84</v>
+        <v>-22919.93</v>
       </c>
       <c r="M32" t="n">
-        <v>10563.09</v>
+        <v>-9297.42</v>
       </c>
       <c r="N32" t="n">
-        <v>-7649.280000000001</v>
+        <v>-15702.22</v>
       </c>
       <c r="O32" t="n">
-        <v>-8447.349999999999</v>
+        <v>-21175.07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16315.85</v>
+        <v>4088.69</v>
       </c>
       <c r="C33" t="n">
-        <v>14226.88</v>
+        <v>-1864.81</v>
       </c>
       <c r="D33" t="n">
-        <v>1425.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>8757.880000000001</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>12046.49</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7951.190000000001</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>9855.66</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-14581.76</v>
+        <v>-956.1900000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>-18683</v>
+        <v>-4681.13</v>
       </c>
       <c r="K33" t="n">
-        <v>-17579.08</v>
+        <v>-2931.23</v>
       </c>
       <c r="L33" t="n">
-        <v>-17643.5</v>
+        <v>-2006.39</v>
       </c>
       <c r="M33" t="n">
-        <v>-22919.93</v>
+        <v>1637.02</v>
       </c>
       <c r="N33" t="n">
-        <v>-9297.42</v>
+        <v>1798.4</v>
       </c>
       <c r="O33" t="n">
-        <v>-15702.22</v>
+        <v>-819.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6336.870000000001</v>
+        <v>16614.7</v>
       </c>
       <c r="C34" t="n">
-        <v>6157.65</v>
+        <v>8826.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1037.15</v>
+        <v>8445.24</v>
       </c>
       <c r="E34" t="n">
-        <v>1669.37</v>
+        <v>-16575.43</v>
       </c>
       <c r="F34" t="n">
-        <v>535.64</v>
+        <v>-16994.76</v>
       </c>
       <c r="G34" t="n">
-        <v>462.19</v>
+        <v>-20828.29</v>
       </c>
       <c r="H34" t="n">
-        <v>-17.52</v>
+        <v>-45604.16</v>
       </c>
       <c r="I34" t="n">
-        <v>-1913.06</v>
+        <v>-37249.06</v>
       </c>
       <c r="J34" t="n">
-        <v>420.0899999999999</v>
+        <v>-10778.74</v>
       </c>
       <c r="K34" t="n">
-        <v>-2573.82</v>
+        <v>-21827.62</v>
       </c>
       <c r="L34" t="n">
-        <v>-1310.85</v>
+        <v>-28688.06</v>
       </c>
       <c r="M34" t="n">
-        <v>-2450.52</v>
+        <v>24606.5</v>
       </c>
       <c r="N34" t="n">
-        <v>2070.06</v>
+        <v>-33551.98</v>
       </c>
       <c r="O34" t="n">
-        <v>766.0800000000002</v>
+        <v>-30075.67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4977.04</v>
+        <v>18390.12</v>
       </c>
       <c r="C35" t="n">
-        <v>4413.95</v>
+        <v>8756.75</v>
       </c>
       <c r="D35" t="n">
-        <v>2736.78</v>
+        <v>8151.96</v>
       </c>
       <c r="E35" t="n">
-        <v>1698.45</v>
+        <v>-4680.860000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>2192.65</v>
+        <v>-4330.55</v>
       </c>
       <c r="G35" t="n">
-        <v>2179.62</v>
+        <v>-4531.79</v>
       </c>
       <c r="H35" t="n">
-        <v>1754.53</v>
+        <v>-13832.94</v>
       </c>
       <c r="I35" t="n">
-        <v>292.5599999999999</v>
+        <v>-4326.52</v>
       </c>
       <c r="J35" t="n">
-        <v>3759.21</v>
+        <v>-10733.32</v>
       </c>
       <c r="K35" t="n">
-        <v>3855.77</v>
+        <v>-14382.58</v>
       </c>
       <c r="L35" t="n">
-        <v>3766.4</v>
+        <v>-16432.41</v>
       </c>
       <c r="M35" t="n">
-        <v>5797.12</v>
+        <v>-13139.67</v>
       </c>
       <c r="N35" t="n">
-        <v>6698.35</v>
+        <v>-20237.11</v>
       </c>
       <c r="O35" t="n">
-        <v>6179.09</v>
+        <v>-16480.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17694.28</v>
+        <v>-6703.53</v>
       </c>
       <c r="C36" t="n">
-        <v>16614.7</v>
+        <v>8278.049999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>8826.5</v>
+        <v>11313.59</v>
       </c>
       <c r="E36" t="n">
-        <v>8445.24</v>
+        <v>18203.38</v>
       </c>
       <c r="F36" t="n">
-        <v>-16575.43</v>
+        <v>17994.61</v>
       </c>
       <c r="G36" t="n">
-        <v>-16994.76</v>
+        <v>13005.47</v>
       </c>
       <c r="H36" t="n">
-        <v>-20828.29</v>
+        <v>13723.68</v>
       </c>
       <c r="I36" t="n">
-        <v>-45604.16</v>
+        <v>9644.219999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-37249.06</v>
+        <v>9336</v>
       </c>
       <c r="K36" t="n">
-        <v>-10778.74</v>
+        <v>-9747.16</v>
       </c>
       <c r="L36" t="n">
-        <v>-21827.62</v>
+        <v>6436.14</v>
       </c>
       <c r="M36" t="n">
-        <v>-28688.06</v>
+        <v>8192.879999999999</v>
       </c>
       <c r="N36" t="n">
-        <v>24606.5</v>
+        <v>-5122.45</v>
       </c>
       <c r="O36" t="n">
-        <v>-17973.9</v>
+        <v>-13801.78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11642.09</v>
+        <v>22838.28</v>
       </c>
       <c r="C37" t="n">
-        <v>13976.17</v>
+        <v>41984.2</v>
       </c>
       <c r="D37" t="n">
-        <v>6019.97</v>
+        <v>21025.5</v>
       </c>
       <c r="E37" t="n">
-        <v>6453.51</v>
+        <v>34980.11</v>
       </c>
       <c r="F37" t="n">
-        <v>-6873.51</v>
+        <v>29271.65</v>
       </c>
       <c r="G37" t="n">
-        <v>-6510.17</v>
+        <v>-1888.129999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>-6286.32</v>
+        <v>-21699.57</v>
       </c>
       <c r="I37" t="n">
-        <v>-14125.5</v>
+        <v>-14754.87</v>
       </c>
       <c r="J37" t="n">
-        <v>-8085.73</v>
+        <v>-20307.81</v>
       </c>
       <c r="K37" t="n">
-        <v>-14589.09</v>
+        <v>-32093</v>
       </c>
       <c r="L37" t="n">
-        <v>-18148.98</v>
+        <v>-32110.26</v>
       </c>
       <c r="M37" t="n">
-        <v>-22229.53</v>
+        <v>-30126.87</v>
       </c>
       <c r="N37" t="n">
-        <v>-19838.02</v>
+        <v>-36651.72</v>
       </c>
       <c r="O37" t="n">
-        <v>-26416.2</v>
+        <v>-48468.83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-25430.71</v>
+        <v>-18936.49</v>
       </c>
       <c r="C38" t="n">
-        <v>-12120.47</v>
+        <v>64586.24</v>
       </c>
       <c r="D38" t="n">
-        <v>19488.71</v>
+        <v>58335.85000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>25434.41</v>
+        <v>55854.15</v>
       </c>
       <c r="F38" t="n">
-        <v>24658.23</v>
+        <v>44903.1</v>
       </c>
       <c r="G38" t="n">
-        <v>22006.41</v>
+        <v>44577.03</v>
       </c>
       <c r="H38" t="n">
-        <v>22207.18</v>
+        <v>1367.56</v>
       </c>
       <c r="I38" t="n">
-        <v>8023.040000000001</v>
+        <v>-20696.61</v>
       </c>
       <c r="J38" t="n">
-        <v>-2863.880000000001</v>
+        <v>-21123.34</v>
       </c>
       <c r="K38" t="n">
-        <v>2299.34</v>
+        <v>-31329.44</v>
       </c>
       <c r="L38" t="n">
-        <v>-4237.610000000001</v>
+        <v>-45918.69</v>
       </c>
       <c r="M38" t="n">
-        <v>-1191.689999999999</v>
+        <v>-13373.39</v>
       </c>
       <c r="N38" t="n">
-        <v>7285.799999999999</v>
+        <v>-23687.5</v>
       </c>
       <c r="O38" t="n">
-        <v>-4499.99</v>
+        <v>-56314.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6547.040000000001</v>
+        <v>20992.12</v>
       </c>
       <c r="C39" t="n">
-        <v>19811.88</v>
+        <v>21298.16</v>
       </c>
       <c r="D39" t="n">
-        <v>38101.65</v>
+        <v>8394.290000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>17901.54</v>
+        <v>5498.749999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>32025.81</v>
+        <v>1655.93</v>
       </c>
       <c r="G39" t="n">
-        <v>28069.31</v>
+        <v>-13397.66</v>
       </c>
       <c r="H39" t="n">
-        <v>-411.3399999999998</v>
+        <v>-22513.77</v>
       </c>
       <c r="I39" t="n">
-        <v>-19889.26</v>
+        <v>-3334.780000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>-12766.39</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-19006.26</v>
+        <v>-3872.389999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>-31065.93</v>
+        <v>-2316.650000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>-30287.27</v>
+        <v>16423.45</v>
       </c>
       <c r="N39" t="n">
-        <v>-27851.92</v>
+        <v>7420.54</v>
       </c>
       <c r="O39" t="n">
-        <v>-36970.33</v>
+        <v>-8400.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12723.5</v>
+        <v>8531.57</v>
       </c>
       <c r="C40" t="n">
-        <v>-12276.61</v>
+        <v>6102.48</v>
       </c>
       <c r="D40" t="n">
-        <v>54528.87</v>
+        <v>3887.73</v>
       </c>
       <c r="E40" t="n">
-        <v>45271.67000000001</v>
+        <v>3943.97</v>
       </c>
       <c r="F40" t="n">
-        <v>50508.12</v>
+        <v>-2323.66</v>
       </c>
       <c r="G40" t="n">
-        <v>41795.06</v>
+        <v>1588.69</v>
       </c>
       <c r="H40" t="n">
-        <v>36266.64</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>8301.52</v>
+        <v>9814.09</v>
       </c>
       <c r="J40" t="n">
-        <v>-7318.729999999998</v>
+        <v>10117.7</v>
       </c>
       <c r="K40" t="n">
-        <v>-13225.89</v>
+        <v>9842.450000000001</v>
       </c>
       <c r="L40" t="n">
-        <v>-36368.83</v>
+        <v>7723.59</v>
       </c>
       <c r="M40" t="n">
-        <v>-38942.41</v>
+        <v>2985.55</v>
       </c>
       <c r="N40" t="n">
-        <v>-13557.42</v>
+        <v>-5042.5</v>
       </c>
       <c r="O40" t="n">
-        <v>-25144.04</v>
+        <v>-6973.61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19010.37</v>
+        <v>-2415.61</v>
       </c>
       <c r="C41" t="n">
-        <v>20992.12</v>
+        <v>1005.71</v>
       </c>
       <c r="D41" t="n">
-        <v>21298.16</v>
+        <v>-5354.98</v>
       </c>
       <c r="E41" t="n">
-        <v>8394.290000000001</v>
+        <v>-3818.85</v>
       </c>
       <c r="F41" t="n">
-        <v>5498.749999999999</v>
+        <v>-4170.84</v>
       </c>
       <c r="G41" t="n">
-        <v>1655.93</v>
+        <v>-4793.76</v>
       </c>
       <c r="H41" t="n">
-        <v>-13397.66</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>-22513.77</v>
+        <v>-3596.11</v>
       </c>
       <c r="J41" t="n">
-        <v>-3334.780000000001</v>
+        <v>-2791.37</v>
       </c>
       <c r="K41" t="n">
-        <v>-2803.660000000001</v>
+        <v>-2244.57</v>
       </c>
       <c r="L41" t="n">
-        <v>-3872.389999999999</v>
+        <v>3802.41</v>
       </c>
       <c r="M41" t="n">
-        <v>-2316.650000000001</v>
+        <v>3913.89</v>
       </c>
       <c r="N41" t="n">
-        <v>16423.45</v>
+        <v>4196.91</v>
       </c>
       <c r="O41" t="n">
-        <v>7420.54</v>
+        <v>2333.39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8674.810000000001</v>
+        <v>2587.06</v>
       </c>
       <c r="C42" t="n">
-        <v>8531.57</v>
+        <v>7570.96</v>
       </c>
       <c r="D42" t="n">
-        <v>6102.48</v>
+        <v>-871.6400000000003</v>
       </c>
       <c r="E42" t="n">
-        <v>3887.73</v>
+        <v>-1202.01</v>
       </c>
       <c r="F42" t="n">
-        <v>3943.97</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-2323.66</v>
+        <v>-2224.09</v>
       </c>
       <c r="H42" t="n">
-        <v>1588.69</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>7619.099999999999</v>
+        <v>-8471.98</v>
       </c>
       <c r="J42" t="n">
-        <v>9814.09</v>
+        <v>-8151.13</v>
       </c>
       <c r="K42" t="n">
-        <v>10117.7</v>
+        <v>-8628.540000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>9842.450000000001</v>
+        <v>-6669.5</v>
       </c>
       <c r="M42" t="n">
-        <v>7723.59</v>
+        <v>-6093.22</v>
       </c>
       <c r="N42" t="n">
-        <v>2985.55</v>
+        <v>6444.210000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>-5042.5</v>
+        <v>17843.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1900.08</v>
+        <v>1971.73</v>
       </c>
       <c r="C43" t="n">
-        <v>-2415.61</v>
+        <v>1947.25</v>
       </c>
       <c r="D43" t="n">
-        <v>1005.71</v>
+        <v>1356.14</v>
       </c>
       <c r="E43" t="n">
-        <v>-5354.98</v>
+        <v>-663.53</v>
       </c>
       <c r="F43" t="n">
-        <v>-3818.85</v>
+        <v>-1633.76</v>
       </c>
       <c r="G43" t="n">
-        <v>-4170.84</v>
+        <v>-1341.96</v>
       </c>
       <c r="H43" t="n">
-        <v>-4793.76</v>
+        <v>-1967.27</v>
       </c>
       <c r="I43" t="n">
-        <v>-4975.110000000001</v>
+        <v>-1885.33</v>
       </c>
       <c r="J43" t="n">
-        <v>-3596.11</v>
+        <v>-1353.23</v>
       </c>
       <c r="K43" t="n">
-        <v>-2791.37</v>
+        <v>-1129.64</v>
       </c>
       <c r="L43" t="n">
-        <v>-2244.57</v>
+        <v>115.95</v>
       </c>
       <c r="M43" t="n">
-        <v>3802.41</v>
+        <v>-297.44</v>
       </c>
       <c r="N43" t="n">
-        <v>3913.89</v>
+        <v>3157.93</v>
       </c>
       <c r="O43" t="n">
-        <v>4196.91</v>
+        <v>5875.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1326.76</v>
+        <v>8.580000000001519</v>
       </c>
       <c r="C44" t="n">
-        <v>2587.06</v>
+        <v>30657.25999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>7570.96</v>
+        <v>36534.21</v>
       </c>
       <c r="E44" t="n">
-        <v>-871.6400000000003</v>
+        <v>25184.67</v>
       </c>
       <c r="F44" t="n">
-        <v>-1202.01</v>
+        <v>14575.14</v>
       </c>
       <c r="G44" t="n">
-        <v>-2196.889999999999</v>
+        <v>21365.35</v>
       </c>
       <c r="H44" t="n">
-        <v>-2224.09</v>
+        <v>13893.02</v>
       </c>
       <c r="I44" t="n">
-        <v>-8874.900000000001</v>
+        <v>-5980.79</v>
       </c>
       <c r="J44" t="n">
-        <v>-8471.98</v>
+        <v>10932.55</v>
       </c>
       <c r="K44" t="n">
-        <v>-8151.13</v>
+        <v>37298.23</v>
       </c>
       <c r="L44" t="n">
-        <v>-8628.540000000001</v>
+        <v>26019.23</v>
       </c>
       <c r="M44" t="n">
-        <v>-6669.5</v>
+        <v>27777.88</v>
       </c>
       <c r="N44" t="n">
-        <v>-6093.22</v>
+        <v>24060.28</v>
       </c>
       <c r="O44" t="n">
-        <v>6444.210000000001</v>
+        <v>12997.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2484.89</v>
+        <v>-9792.100000000002</v>
       </c>
       <c r="C45" t="n">
-        <v>1971.73</v>
+        <v>24120.2</v>
       </c>
       <c r="D45" t="n">
-        <v>1947.25</v>
+        <v>-15578.71</v>
       </c>
       <c r="E45" t="n">
-        <v>1356.14</v>
+        <v>19018.08</v>
       </c>
       <c r="F45" t="n">
-        <v>-663.53</v>
+        <v>-15752.13</v>
       </c>
       <c r="G45" t="n">
-        <v>-1633.76</v>
+        <v>-3088.229999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>-1341.96</v>
+        <v>1103.59</v>
       </c>
       <c r="I45" t="n">
-        <v>-1967.27</v>
+        <v>34934.48</v>
       </c>
       <c r="J45" t="n">
-        <v>-1885.33</v>
+        <v>28247.09</v>
       </c>
       <c r="K45" t="n">
-        <v>-1353.23</v>
+        <v>21721.65</v>
       </c>
       <c r="L45" t="n">
-        <v>-1129.64</v>
+        <v>10909.61</v>
       </c>
       <c r="M45" t="n">
-        <v>115.95</v>
+        <v>-11616.74</v>
       </c>
       <c r="N45" t="n">
-        <v>-297.44</v>
+        <v>10022.34</v>
       </c>
       <c r="O45" t="n">
-        <v>3157.93</v>
+        <v>-20327.44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4625.270000000001</v>
+        <v>-15609.19</v>
       </c>
       <c r="C46" t="n">
-        <v>-24.11999999999921</v>
+        <v>-14535.82</v>
       </c>
       <c r="D46" t="n">
-        <v>30660.97</v>
+        <v>-39287.8</v>
       </c>
       <c r="E46" t="n">
-        <v>36540.57</v>
+        <v>-4979.779999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>25169.82</v>
+        <v>-39450.64999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>14561.08</v>
+        <v>-42236.77</v>
       </c>
       <c r="H46" t="n">
-        <v>21348.90000000001</v>
+        <v>-12337.09</v>
       </c>
       <c r="I46" t="n">
-        <v>13877.34</v>
+        <v>25477.56</v>
       </c>
       <c r="J46" t="n">
-        <v>-5984.61</v>
+        <v>16404.46</v>
       </c>
       <c r="K46" t="n">
-        <v>10920.72</v>
+        <v>19638.4</v>
       </c>
       <c r="L46" t="n">
-        <v>37263.09</v>
+        <v>48613.31</v>
       </c>
       <c r="M46" t="n">
-        <v>25983.96</v>
+        <v>56601.44</v>
       </c>
       <c r="N46" t="n">
-        <v>27748.47</v>
+        <v>39252.67</v>
       </c>
       <c r="O46" t="n">
-        <v>23990.13</v>
+        <v>6605.040000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14457.15</v>
+        <v>5950.25</v>
       </c>
       <c r="C47" t="n">
-        <v>-8480.639999999999</v>
+        <v>3454.06</v>
       </c>
       <c r="D47" t="n">
-        <v>26129.49</v>
+        <v>2010.17</v>
       </c>
       <c r="E47" t="n">
-        <v>-13147.4</v>
+        <v>1735.08</v>
       </c>
       <c r="F47" t="n">
-        <v>21760.27</v>
+        <v>2224.13</v>
       </c>
       <c r="G47" t="n">
-        <v>-7877.98</v>
+        <v>3152.899999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2990.080000000001</v>
+        <v>9154.48</v>
       </c>
       <c r="I47" t="n">
-        <v>1664.759999999999</v>
+        <v>16700.45</v>
       </c>
       <c r="J47" t="n">
-        <v>34245.7</v>
+        <v>18587.84</v>
       </c>
       <c r="K47" t="n">
-        <v>28082.61</v>
+        <v>20688.02</v>
       </c>
       <c r="L47" t="n">
-        <v>20217.66</v>
+        <v>21608.19</v>
       </c>
       <c r="M47" t="n">
-        <v>8506.59</v>
+        <v>21043.68</v>
       </c>
       <c r="N47" t="n">
-        <v>-11369.69</v>
+        <v>16750.13</v>
       </c>
       <c r="O47" t="n">
-        <v>11936.3</v>
+        <v>13814.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-7533.63</v>
+        <v>-27.43999999999801</v>
       </c>
       <c r="C48" t="n">
-        <v>-16956.05</v>
+        <v>28898.96</v>
       </c>
       <c r="D48" t="n">
-        <v>-16698.65</v>
+        <v>27826.98</v>
       </c>
       <c r="E48" t="n">
-        <v>-41588.59</v>
+        <v>25449.47</v>
       </c>
       <c r="F48" t="n">
-        <v>-7427.139999999999</v>
+        <v>19619.3</v>
       </c>
       <c r="G48" t="n">
-        <v>-47151.06</v>
+        <v>5474.329999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>-48022.37</v>
+        <v>-13197.12</v>
       </c>
       <c r="I48" t="n">
-        <v>-12768.65</v>
+        <v>-6696.71</v>
       </c>
       <c r="J48" t="n">
-        <v>26248.48</v>
+        <v>-10386.98</v>
       </c>
       <c r="K48" t="n">
-        <v>16636.94</v>
+        <v>-36192.14</v>
       </c>
       <c r="L48" t="n">
-        <v>21273.68</v>
+        <v>-43700.77</v>
       </c>
       <c r="M48" t="n">
-        <v>51173.05</v>
+        <v>-30087.15</v>
       </c>
       <c r="N48" t="n">
-        <v>56605.68</v>
+        <v>-43258.4</v>
       </c>
       <c r="O48" t="n">
-        <v>37677.74000000001</v>
+        <v>-45361.84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9241.67</v>
+        <v>8734.639999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>5950.25</v>
+        <v>-5858.389999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>3454.06</v>
+        <v>-6416.320000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>2010.17</v>
+        <v>-5117.09</v>
       </c>
       <c r="F49" t="n">
-        <v>1735.08</v>
+        <v>-12105.43</v>
       </c>
       <c r="G49" t="n">
-        <v>2224.13</v>
+        <v>-10314.26</v>
       </c>
       <c r="H49" t="n">
-        <v>3152.899999999999</v>
+        <v>-13095.56</v>
       </c>
       <c r="I49" t="n">
-        <v>9154.48</v>
+        <v>-16897.06</v>
       </c>
       <c r="J49" t="n">
-        <v>16700.45</v>
+        <v>-12532.02</v>
       </c>
       <c r="K49" t="n">
-        <v>18587.84</v>
+        <v>-13537.46</v>
       </c>
       <c r="L49" t="n">
-        <v>20688.02</v>
+        <v>-10149.1</v>
       </c>
       <c r="M49" t="n">
-        <v>21608.19</v>
+        <v>10715.09</v>
       </c>
       <c r="N49" t="n">
-        <v>21043.68</v>
+        <v>18685.38</v>
       </c>
       <c r="O49" t="n">
-        <v>16750.13</v>
+        <v>11144.45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3536.840000000002</v>
+        <v>17187.36</v>
       </c>
       <c r="C50" t="n">
-        <v>-27.43999999999801</v>
+        <v>25811.45</v>
       </c>
       <c r="D50" t="n">
-        <v>28898.96</v>
+        <v>27436.44</v>
       </c>
       <c r="E50" t="n">
-        <v>27826.98</v>
+        <v>26229.08</v>
       </c>
       <c r="F50" t="n">
-        <v>25449.47</v>
+        <v>25253.4</v>
       </c>
       <c r="G50" t="n">
-        <v>19619.3</v>
+        <v>20738.07</v>
       </c>
       <c r="H50" t="n">
-        <v>5474.329999999998</v>
+        <v>11182.12</v>
       </c>
       <c r="I50" t="n">
-        <v>-13197.12</v>
+        <v>12624.43</v>
       </c>
       <c r="J50" t="n">
-        <v>-6696.71</v>
+        <v>5233.369999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-10386.98</v>
+        <v>20483.85</v>
       </c>
       <c r="L50" t="n">
-        <v>-36192.14</v>
+        <v>16934.61</v>
       </c>
       <c r="M50" t="n">
-        <v>-43700.77</v>
+        <v>22309.04</v>
       </c>
       <c r="N50" t="n">
-        <v>-30087.15</v>
+        <v>15414.61</v>
       </c>
       <c r="O50" t="n">
-        <v>-43258.4</v>
+        <v>-4068.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9447.470000000001</v>
+        <v>-15283.86</v>
       </c>
       <c r="C51" t="n">
-        <v>9297.610000000001</v>
+        <v>-4314.28</v>
       </c>
       <c r="D51" t="n">
-        <v>-5298.35</v>
+        <v>-5729.02</v>
       </c>
       <c r="E51" t="n">
-        <v>-5854.510000000001</v>
+        <v>5242.070000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>-4564.8</v>
+        <v>-5848.04</v>
       </c>
       <c r="G51" t="n">
-        <v>-11784.01</v>
+        <v>-2526.209999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>-10621.73</v>
+        <v>19040.45</v>
       </c>
       <c r="I51" t="n">
-        <v>-13426.38</v>
+        <v>25802.36</v>
       </c>
       <c r="J51" t="n">
-        <v>-17237.9</v>
+        <v>23055.7</v>
       </c>
       <c r="K51" t="n">
-        <v>-13090.17</v>
+        <v>21472.64</v>
       </c>
       <c r="L51" t="n">
-        <v>-14090.19</v>
+        <v>19379.21</v>
       </c>
       <c r="M51" t="n">
-        <v>-10684.06</v>
+        <v>-3300.88</v>
       </c>
       <c r="N51" t="n">
-        <v>10509.18</v>
+        <v>-23297.87</v>
       </c>
       <c r="O51" t="n">
-        <v>18178.17</v>
+        <v>-24839.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>24799.15</v>
+        <v>-23319.49</v>
       </c>
       <c r="C52" t="n">
-        <v>17187.36</v>
+        <v>6222.23</v>
       </c>
       <c r="D52" t="n">
-        <v>25811.45</v>
+        <v>-10531.8</v>
       </c>
       <c r="E52" t="n">
-        <v>27436.44</v>
+        <v>4776.84</v>
       </c>
       <c r="F52" t="n">
-        <v>26229.08</v>
+        <v>6185.550000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>25253.4</v>
+        <v>16301.83</v>
       </c>
       <c r="H52" t="n">
-        <v>20738.07</v>
+        <v>23491.55</v>
       </c>
       <c r="I52" t="n">
-        <v>11182.12</v>
+        <v>-20949.67</v>
       </c>
       <c r="J52" t="n">
-        <v>12624.43</v>
+        <v>-24903.45</v>
       </c>
       <c r="K52" t="n">
-        <v>5233.369999999999</v>
+        <v>-8626.190000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>20483.85</v>
+        <v>-11568.38</v>
       </c>
       <c r="M52" t="n">
-        <v>16934.61</v>
+        <v>-23938.27</v>
       </c>
       <c r="N52" t="n">
-        <v>22309.04</v>
+        <v>-9197.84</v>
       </c>
       <c r="O52" t="n">
-        <v>15414.61</v>
+        <v>8598.23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2196.42</v>
+        <v>103944.97</v>
       </c>
       <c r="C53" t="n">
-        <v>-15265.25</v>
+        <v>125099.23</v>
       </c>
       <c r="D53" t="n">
-        <v>-4343.27</v>
+        <v>102800.78</v>
       </c>
       <c r="E53" t="n">
-        <v>-5754.35</v>
+        <v>154303.3</v>
       </c>
       <c r="F53" t="n">
-        <v>5224.2</v>
+        <v>173169.43</v>
       </c>
       <c r="G53" t="n">
-        <v>-5862.03</v>
+        <v>216685.34</v>
       </c>
       <c r="H53" t="n">
-        <v>-2537.4</v>
+        <v>192111.6</v>
       </c>
       <c r="I53" t="n">
-        <v>19055.46</v>
+        <v>161032.12</v>
       </c>
       <c r="J53" t="n">
-        <v>25808.64</v>
+        <v>155370.71</v>
       </c>
       <c r="K53" t="n">
-        <v>23040.72</v>
+        <v>132498.07</v>
       </c>
       <c r="L53" t="n">
-        <v>21452.42</v>
+        <v>-115696.72</v>
       </c>
       <c r="M53" t="n">
-        <v>19364.02</v>
+        <v>-86489.36</v>
       </c>
       <c r="N53" t="n">
-        <v>-3323.79</v>
+        <v>-152404.2</v>
       </c>
       <c r="O53" t="n">
-        <v>-23323.57</v>
+        <v>-158431.58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-15208.84</v>
+        <v>26296.29</v>
       </c>
       <c r="C54" t="n">
-        <v>-23319.49</v>
+        <v>26002.52</v>
       </c>
       <c r="D54" t="n">
-        <v>6222.23</v>
+        <v>4498.549999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>-10531.8</v>
+        <v>-6917.18</v>
       </c>
       <c r="F54" t="n">
-        <v>4776.84</v>
+        <v>-6873.239999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>6185.550000000001</v>
+        <v>3240.84</v>
       </c>
       <c r="H54" t="n">
-        <v>16301.83</v>
+        <v>-9331.309999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>23491.55</v>
+        <v>-23188.26</v>
       </c>
       <c r="J54" t="n">
-        <v>-20949.67</v>
+        <v>-28660.54</v>
       </c>
       <c r="K54" t="n">
-        <v>-24903.45</v>
+        <v>-32572.61</v>
       </c>
       <c r="L54" t="n">
-        <v>-8626.190000000001</v>
+        <v>-42584.7</v>
       </c>
       <c r="M54" t="n">
-        <v>-11568.38</v>
+        <v>-23736.08</v>
       </c>
       <c r="N54" t="n">
-        <v>-23938.27</v>
+        <v>-17667.95</v>
       </c>
       <c r="O54" t="n">
-        <v>-9197.84</v>
+        <v>-28098.18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>148707.63</v>
+        <v>8786.040000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>124193.01</v>
+        <v>50230.54</v>
       </c>
       <c r="D55" t="n">
-        <v>169244.11</v>
+        <v>19820.94</v>
       </c>
       <c r="E55" t="n">
-        <v>166141.32</v>
+        <v>49517.17</v>
       </c>
       <c r="F55" t="n">
-        <v>232731.41</v>
+        <v>48885.12</v>
       </c>
       <c r="G55" t="n">
-        <v>264350.1</v>
+        <v>91202.08</v>
       </c>
       <c r="H55" t="n">
-        <v>331419.28</v>
+        <v>79770.94</v>
       </c>
       <c r="I55" t="n">
-        <v>325012.63</v>
+        <v>30163.25999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>272453.65</v>
+        <v>28420</v>
       </c>
       <c r="K55" t="n">
-        <v>265520.19</v>
+        <v>12831.81</v>
       </c>
       <c r="L55" t="n">
-        <v>247571.41</v>
+        <v>-43140.56</v>
       </c>
       <c r="M55" t="n">
-        <v>-81326.76999999999</v>
+        <v>-55142.61</v>
       </c>
       <c r="N55" t="n">
-        <v>-176301.36</v>
+        <v>-54221.8</v>
       </c>
       <c r="O55" t="n">
-        <v>-192857.5</v>
+        <v>-68076.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>44455.48</v>
+        <v>33011.72</v>
       </c>
       <c r="C56" t="n">
-        <v>24529.13</v>
+        <v>27089.94</v>
       </c>
       <c r="D56" t="n">
-        <v>28201.61</v>
+        <v>4792.469999999998</v>
       </c>
       <c r="E56" t="n">
-        <v>7114.269999999999</v>
+        <v>6391.700000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>-3012.32</v>
+        <v>-1132.380000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-2952.249999999999</v>
+        <v>9069.630000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>8266.52</v>
+        <v>18308.44</v>
       </c>
       <c r="I56" t="n">
-        <v>-5699.07</v>
+        <v>26751.08</v>
       </c>
       <c r="J56" t="n">
-        <v>-24659.89</v>
+        <v>31845.68</v>
       </c>
       <c r="K56" t="n">
-        <v>-32006.87</v>
+        <v>36889.82</v>
       </c>
       <c r="L56" t="n">
-        <v>-34645.62</v>
+        <v>33232.64</v>
       </c>
       <c r="M56" t="n">
-        <v>-47074.77</v>
+        <v>27949.38</v>
       </c>
       <c r="N56" t="n">
-        <v>-27440.3</v>
+        <v>16488.15</v>
       </c>
       <c r="O56" t="n">
-        <v>-20152.47</v>
+        <v>11960.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>80081.38</v>
+        <v>-4279.02</v>
       </c>
       <c r="C57" t="n">
-        <v>14278.6</v>
+        <v>-15229.33</v>
       </c>
       <c r="D57" t="n">
-        <v>31862.58</v>
+        <v>-12434.32</v>
       </c>
       <c r="E57" t="n">
-        <v>-2249.980000000001</v>
+        <v>-10600.55</v>
       </c>
       <c r="F57" t="n">
-        <v>23761.94</v>
+        <v>-13995.71</v>
       </c>
       <c r="G57" t="n">
-        <v>26742.83</v>
+        <v>3475.23</v>
       </c>
       <c r="H57" t="n">
-        <v>64259.88</v>
+        <v>5500.219999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>46291.56</v>
+        <v>5140.71</v>
       </c>
       <c r="J57" t="n">
-        <v>3239.070000000001</v>
+        <v>7077.01</v>
       </c>
       <c r="K57" t="n">
-        <v>5734.300000000003</v>
+        <v>6738.360000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>-10149.74</v>
+        <v>2057.57</v>
       </c>
       <c r="M57" t="n">
-        <v>-54829.94</v>
+        <v>2357.09</v>
       </c>
       <c r="N57" t="n">
-        <v>-32129.41</v>
+        <v>-3952.87</v>
       </c>
       <c r="O57" t="n">
-        <v>-33719.13</v>
+        <v>-5240.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>34888.07</v>
+        <v>8289.309999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>33011.72</v>
+        <v>-4852.83</v>
       </c>
       <c r="D58" t="n">
-        <v>27089.94</v>
+        <v>-2563.23</v>
       </c>
       <c r="E58" t="n">
-        <v>4792.469999999998</v>
+        <v>3242.85</v>
       </c>
       <c r="F58" t="n">
-        <v>6391.700000000001</v>
+        <v>-2908.29</v>
       </c>
       <c r="G58" t="n">
-        <v>-1132.380000000001</v>
+        <v>1825.86</v>
       </c>
       <c r="H58" t="n">
-        <v>9069.630000000001</v>
+        <v>1665.4</v>
       </c>
       <c r="I58" t="n">
-        <v>18308.44</v>
+        <v>10186.14</v>
       </c>
       <c r="J58" t="n">
-        <v>26751.08</v>
+        <v>13485.57</v>
       </c>
       <c r="K58" t="n">
-        <v>31845.68</v>
+        <v>16790.62</v>
       </c>
       <c r="L58" t="n">
-        <v>36889.82</v>
+        <v>19814.84</v>
       </c>
       <c r="M58" t="n">
-        <v>33232.64</v>
+        <v>18764.4</v>
       </c>
       <c r="N58" t="n">
-        <v>27949.38</v>
+        <v>19967.62</v>
       </c>
       <c r="O58" t="n">
-        <v>16488.15</v>
+        <v>16501.32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15922.6</v>
+        <v>2343.3</v>
       </c>
       <c r="C59" t="n">
-        <v>5833.110000000001</v>
+        <v>2582.86</v>
       </c>
       <c r="D59" t="n">
-        <v>-6135.360000000001</v>
+        <v>2322.9</v>
       </c>
       <c r="E59" t="n">
-        <v>-13094.34</v>
+        <v>3573.53</v>
       </c>
       <c r="F59" t="n">
-        <v>-10932.06</v>
+        <v>2424.71</v>
       </c>
       <c r="G59" t="n">
-        <v>-19874.35</v>
+        <v>1813.25</v>
       </c>
       <c r="H59" t="n">
-        <v>8373.67</v>
+        <v>1123.84</v>
       </c>
       <c r="I59" t="n">
-        <v>10894</v>
+        <v>2933.15</v>
       </c>
       <c r="J59" t="n">
-        <v>10317.26</v>
+        <v>1643.51</v>
       </c>
       <c r="K59" t="n">
-        <v>12049.5</v>
+        <v>2373.55</v>
       </c>
       <c r="L59" t="n">
-        <v>12322.98</v>
+        <v>2452.21</v>
       </c>
       <c r="M59" t="n">
-        <v>4191.36</v>
+        <v>3295.31</v>
       </c>
       <c r="N59" t="n">
-        <v>4012.23</v>
+        <v>36.36000000000001</v>
       </c>
       <c r="O59" t="n">
-        <v>-1726.6</v>
+        <v>-2343.87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8940.210000000001</v>
+        <v>17351.53</v>
       </c>
       <c r="C60" t="n">
-        <v>7130.57</v>
+        <v>22855.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-6275.38</v>
+        <v>-6082.640000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>-4444.15</v>
+        <v>-6590.25</v>
       </c>
       <c r="F60" t="n">
-        <v>2032.16</v>
+        <v>-8494.859999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-2195.79</v>
+        <v>-7097.31</v>
       </c>
       <c r="H60" t="n">
-        <v>3493.85</v>
+        <v>-23325.01</v>
       </c>
       <c r="I60" t="n">
-        <v>2859.22</v>
+        <v>-16749.22</v>
       </c>
       <c r="J60" t="n">
-        <v>11869.35</v>
+        <v>-17232.59</v>
       </c>
       <c r="K60" t="n">
-        <v>15139.1</v>
+        <v>-31129.96</v>
       </c>
       <c r="L60" t="n">
-        <v>18149.42</v>
+        <v>-38301.2</v>
       </c>
       <c r="M60" t="n">
-        <v>20681.37</v>
+        <v>-31149.78</v>
       </c>
       <c r="N60" t="n">
-        <v>20226.09</v>
+        <v>-39388.31</v>
       </c>
       <c r="O60" t="n">
-        <v>20823.29</v>
+        <v>-42429.58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3308.57</v>
+        <v>537.1900000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>2880.49</v>
+        <v>276.83</v>
       </c>
       <c r="D61" t="n">
-        <v>2859.69</v>
+        <v>244.56</v>
       </c>
       <c r="E61" t="n">
-        <v>2567.46</v>
+        <v>-369.75</v>
       </c>
       <c r="F61" t="n">
-        <v>3203.78</v>
+        <v>214.69</v>
       </c>
       <c r="G61" t="n">
-        <v>2639.4</v>
+        <v>91.28</v>
       </c>
       <c r="H61" t="n">
-        <v>1904.53</v>
+        <v>108.41</v>
       </c>
       <c r="I61" t="n">
-        <v>1232.25</v>
+        <v>-251.36</v>
       </c>
       <c r="J61" t="n">
-        <v>2681.79</v>
+        <v>-191.87</v>
       </c>
       <c r="K61" t="n">
-        <v>1451.64</v>
+        <v>-336.55</v>
       </c>
       <c r="L61" t="n">
-        <v>2037</v>
+        <v>-371.92</v>
       </c>
       <c r="M61" t="n">
-        <v>2080.29</v>
+        <v>229.93</v>
       </c>
       <c r="N61" t="n">
-        <v>3525.24</v>
+        <v>788.48</v>
       </c>
       <c r="O61" t="n">
-        <v>824.84</v>
+        <v>609.88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10805.15</v>
+        <v>-2076.679999999998</v>
       </c>
       <c r="C62" t="n">
-        <v>17351.53</v>
+        <v>-22029.63</v>
       </c>
       <c r="D62" t="n">
-        <v>22855.33</v>
+        <v>-15011.07</v>
       </c>
       <c r="E62" t="n">
-        <v>-6082.640000000001</v>
+        <v>6289.279999999997</v>
       </c>
       <c r="F62" t="n">
-        <v>-6590.25</v>
+        <v>-10442.21</v>
       </c>
       <c r="G62" t="n">
-        <v>-8494.859999999999</v>
+        <v>-23087.8</v>
       </c>
       <c r="H62" t="n">
-        <v>-7097.31</v>
+        <v>-13546.82</v>
       </c>
       <c r="I62" t="n">
-        <v>-23325.01</v>
+        <v>11528.12</v>
       </c>
       <c r="J62" t="n">
-        <v>-16749.22</v>
+        <v>4325.18</v>
       </c>
       <c r="K62" t="n">
-        <v>-17232.59</v>
+        <v>-21191.17</v>
       </c>
       <c r="L62" t="n">
-        <v>-31129.96</v>
+        <v>-21442.56</v>
       </c>
       <c r="M62" t="n">
-        <v>-38301.2</v>
+        <v>-17988.68</v>
       </c>
       <c r="N62" t="n">
-        <v>-31149.78</v>
+        <v>-34403.12</v>
       </c>
       <c r="O62" t="n">
-        <v>-39388.31</v>
+        <v>-45698.88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-38678.02</v>
+        <v>-4323.69</v>
       </c>
       <c r="C63" t="n">
-        <v>-2007.150000000001</v>
+        <v>6196.53</v>
       </c>
       <c r="D63" t="n">
-        <v>-21831.64</v>
+        <v>2283.73</v>
       </c>
       <c r="E63" t="n">
-        <v>-14754.94</v>
+        <v>7975.45</v>
       </c>
       <c r="F63" t="n">
-        <v>6617.519999999998</v>
+        <v>-2069.54</v>
       </c>
       <c r="G63" t="n">
-        <v>-10123.65</v>
+        <v>1495.88</v>
       </c>
       <c r="H63" t="n">
-        <v>-22836.92</v>
+        <v>-5461.4</v>
       </c>
       <c r="I63" t="n">
-        <v>-13356.6</v>
+        <v>-6954.309999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>11640.08</v>
+        <v>-6997.080000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>4308.349999999999</v>
+        <v>-2955.75</v>
       </c>
       <c r="L63" t="n">
-        <v>-21237.48</v>
+        <v>5027.6</v>
       </c>
       <c r="M63" t="n">
-        <v>-21486.56</v>
+        <v>5152.59</v>
       </c>
       <c r="N63" t="n">
-        <v>-18096.28</v>
+        <v>1152.35</v>
       </c>
       <c r="O63" t="n">
-        <v>-34434.25</v>
+        <v>-5208.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-6794.34</v>
+        <v>-29490.93</v>
       </c>
       <c r="C64" t="n">
-        <v>-4307.02</v>
+        <v>-6815.4</v>
       </c>
       <c r="D64" t="n">
-        <v>6205.24</v>
+        <v>-32208.73</v>
       </c>
       <c r="E64" t="n">
-        <v>2294.92</v>
+        <v>-16016.79</v>
       </c>
       <c r="F64" t="n">
-        <v>7973.63</v>
+        <v>-5638</v>
       </c>
       <c r="G64" t="n">
-        <v>-2069.38</v>
+        <v>-19662.54</v>
       </c>
       <c r="H64" t="n">
-        <v>1418.2</v>
+        <v>-28833.61</v>
       </c>
       <c r="I64" t="n">
-        <v>-5511.7</v>
+        <v>-17611.86</v>
       </c>
       <c r="J64" t="n">
-        <v>-7094.53</v>
+        <v>-17975.52</v>
       </c>
       <c r="K64" t="n">
-        <v>-7126.700000000001</v>
+        <v>-10442.73</v>
       </c>
       <c r="L64" t="n">
-        <v>-3036.7</v>
+        <v>-2870.22</v>
       </c>
       <c r="M64" t="n">
-        <v>5142.530000000001</v>
+        <v>7163.839999999999</v>
       </c>
       <c r="N64" t="n">
-        <v>5389.25</v>
+        <v>-2650.430000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>1451.15</v>
+        <v>-16633.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-39635.92</v>
+        <v>-16.02</v>
       </c>
       <c r="C65" t="n">
-        <v>-29560.46</v>
+        <v>-35.25</v>
       </c>
       <c r="D65" t="n">
-        <v>-7013.389999999999</v>
+        <v>-46.57</v>
       </c>
       <c r="E65" t="n">
-        <v>-32464.86</v>
+        <v>-39.82</v>
       </c>
       <c r="F65" t="n">
-        <v>-16345.03</v>
+        <v>-32.55</v>
       </c>
       <c r="G65" t="n">
-        <v>-5956.56</v>
+        <v>13.58</v>
       </c>
       <c r="H65" t="n">
-        <v>-19913.42</v>
+        <v>-10.24</v>
       </c>
       <c r="I65" t="n">
-        <v>-29023.83</v>
+        <v>24.5</v>
       </c>
       <c r="J65" t="n">
-        <v>-17723.82</v>
+        <v>16.79</v>
       </c>
       <c r="K65" t="n">
-        <v>-17958.69</v>
+        <v>15.46</v>
       </c>
       <c r="L65" t="n">
-        <v>-10396.42</v>
+        <v>9.52</v>
       </c>
       <c r="M65" t="n">
-        <v>-2826.22</v>
+        <v>14.87</v>
       </c>
       <c r="N65" t="n">
-        <v>7271.44</v>
+        <v>13.15</v>
       </c>
       <c r="O65" t="n">
-        <v>-2619.300000000001</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>27.4</v>
+        <v>2.889999999999998</v>
       </c>
       <c r="C66" t="n">
-        <v>-16.02</v>
+        <v>34.4</v>
       </c>
       <c r="D66" t="n">
-        <v>-35.25</v>
+        <v>28.07000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>-46.57</v>
+        <v>56.78</v>
       </c>
       <c r="F66" t="n">
-        <v>-39.82</v>
+        <v>44.7</v>
       </c>
       <c r="G66" t="n">
-        <v>-32.55</v>
+        <v>43.35</v>
       </c>
       <c r="H66" t="n">
-        <v>13.58</v>
+        <v>54.3</v>
       </c>
       <c r="I66" t="n">
-        <v>-10.24</v>
+        <v>17.86</v>
       </c>
       <c r="J66" t="n">
-        <v>24.5</v>
+        <v>-12.32</v>
       </c>
       <c r="K66" t="n">
-        <v>16.79</v>
+        <v>-13.93</v>
       </c>
       <c r="L66" t="n">
-        <v>15.46</v>
+        <v>-46.23</v>
       </c>
       <c r="M66" t="n">
-        <v>9.52</v>
+        <v>-43.39</v>
       </c>
       <c r="N66" t="n">
-        <v>14.87</v>
+        <v>-26.44</v>
       </c>
       <c r="O66" t="n">
-        <v>13.15</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11.67</v>
+        <v>165078.27</v>
       </c>
       <c r="C67" t="n">
-        <v>2.889999999999998</v>
+        <v>176849.97</v>
       </c>
       <c r="D67" t="n">
-        <v>34.4</v>
+        <v>97385.89</v>
       </c>
       <c r="E67" t="n">
-        <v>28.07000000000001</v>
+        <v>102918.42</v>
       </c>
       <c r="F67" t="n">
-        <v>56.78</v>
+        <v>125876.73</v>
       </c>
       <c r="G67" t="n">
-        <v>44.7</v>
+        <v>59227.1</v>
       </c>
       <c r="H67" t="n">
-        <v>43.35</v>
+        <v>5360.560000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>54.3</v>
+        <v>48644.21</v>
       </c>
       <c r="J67" t="n">
-        <v>17.86</v>
+        <v>57910.23</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.32</v>
+        <v>34336.86</v>
       </c>
       <c r="L67" t="n">
-        <v>-13.93</v>
+        <v>23213.14</v>
       </c>
       <c r="M67" t="n">
-        <v>-46.23</v>
+        <v>100725.7</v>
       </c>
       <c r="N67" t="n">
-        <v>-43.39</v>
+        <v>43159.79</v>
       </c>
       <c r="O67" t="n">
-        <v>-26.44</v>
+        <v>25573.53999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>121919.58</v>
+        <v>-30868.63</v>
       </c>
       <c r="C68" t="n">
-        <v>165078.27</v>
+        <v>47760.84</v>
       </c>
       <c r="D68" t="n">
-        <v>176849.97</v>
+        <v>55191.34</v>
       </c>
       <c r="E68" t="n">
-        <v>97385.89</v>
+        <v>88539.64</v>
       </c>
       <c r="F68" t="n">
-        <v>102918.42</v>
+        <v>64924.06</v>
       </c>
       <c r="G68" t="n">
-        <v>125876.73</v>
+        <v>42618.58</v>
       </c>
       <c r="H68" t="n">
-        <v>59227.1</v>
+        <v>-17991.2</v>
       </c>
       <c r="I68" t="n">
-        <v>5360.560000000001</v>
+        <v>-20568.15</v>
       </c>
       <c r="J68" t="n">
-        <v>48644.21</v>
+        <v>-30249.34</v>
       </c>
       <c r="K68" t="n">
-        <v>57910.23</v>
+        <v>-54271.18</v>
       </c>
       <c r="L68" t="n">
-        <v>34336.86</v>
+        <v>-58809.87</v>
       </c>
       <c r="M68" t="n">
-        <v>23213.14</v>
+        <v>-25805.51</v>
       </c>
       <c r="N68" t="n">
-        <v>100725.7</v>
+        <v>-37736.57</v>
       </c>
       <c r="O68" t="n">
-        <v>43159.79</v>
+        <v>-40180.24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-73353.25999999999</v>
+        <v>-13764.54</v>
       </c>
       <c r="C69" t="n">
-        <v>-29859.72</v>
+        <v>22149.51</v>
       </c>
       <c r="D69" t="n">
-        <v>43584.89</v>
+        <v>-4937.989999999998</v>
       </c>
       <c r="E69" t="n">
-        <v>52341.25</v>
+        <v>27981.47</v>
       </c>
       <c r="F69" t="n">
-        <v>84165.59</v>
+        <v>1095.290000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>58520.18</v>
+        <v>2605.049999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>39088.18</v>
+        <v>-28019.99</v>
       </c>
       <c r="I69" t="n">
-        <v>-14641.05</v>
+        <v>-11057.89</v>
       </c>
       <c r="J69" t="n">
-        <v>-18497.2</v>
+        <v>-26336.87</v>
       </c>
       <c r="K69" t="n">
-        <v>-26927.21</v>
+        <v>-20192.16</v>
       </c>
       <c r="L69" t="n">
-        <v>-46455.00999999999</v>
+        <v>-14305.54</v>
       </c>
       <c r="M69" t="n">
-        <v>-54513.27</v>
+        <v>-720.1599999999994</v>
       </c>
       <c r="N69" t="n">
-        <v>-23013.12</v>
+        <v>-10551.87</v>
       </c>
       <c r="O69" t="n">
-        <v>-34320.28</v>
+        <v>-33611.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1019.110000000001</v>
+        <v>7025.67</v>
       </c>
       <c r="C70" t="n">
-        <v>-15312.7</v>
+        <v>3081.04</v>
       </c>
       <c r="D70" t="n">
-        <v>19885.9</v>
+        <v>3537.57</v>
       </c>
       <c r="E70" t="n">
-        <v>-6482.849999999999</v>
+        <v>2983.72</v>
       </c>
       <c r="F70" t="n">
-        <v>26163.73</v>
+        <v>3269.62</v>
       </c>
       <c r="G70" t="n">
-        <v>313.9000000000001</v>
+        <v>6795.81</v>
       </c>
       <c r="H70" t="n">
-        <v>3910.349999999999</v>
+        <v>15082.53</v>
       </c>
       <c r="I70" t="n">
-        <v>-26075.69</v>
+        <v>7816</v>
       </c>
       <c r="J70" t="n">
-        <v>-9350.110000000001</v>
+        <v>9969</v>
       </c>
       <c r="K70" t="n">
-        <v>-24411.32</v>
+        <v>17075.94</v>
       </c>
       <c r="L70" t="n">
-        <v>-18537.59</v>
+        <v>21390.43</v>
       </c>
       <c r="M70" t="n">
-        <v>-13179.93</v>
+        <v>-11594.59</v>
       </c>
       <c r="N70" t="n">
-        <v>-1561.840000000001</v>
+        <v>-10818.11</v>
       </c>
       <c r="O70" t="n">
-        <v>-11438.73</v>
+        <v>-8828.860000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7210.35</v>
+        <v>16573.3</v>
       </c>
       <c r="C71" t="n">
-        <v>7025.67</v>
+        <v>9470.34</v>
       </c>
       <c r="D71" t="n">
-        <v>3081.04</v>
+        <v>5606.08</v>
       </c>
       <c r="E71" t="n">
-        <v>3537.57</v>
+        <v>-2505.78</v>
       </c>
       <c r="F71" t="n">
-        <v>2983.72</v>
+        <v>-4807.98</v>
       </c>
       <c r="G71" t="n">
-        <v>3269.62</v>
+        <v>-1099.52</v>
       </c>
       <c r="H71" t="n">
-        <v>6795.81</v>
+        <v>-3764.1</v>
       </c>
       <c r="I71" t="n">
-        <v>15082.53</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>7816</v>
+        <v>-2212.01</v>
       </c>
       <c r="K71" t="n">
-        <v>9969</v>
+        <v>-1661.96</v>
       </c>
       <c r="L71" t="n">
-        <v>17075.94</v>
+        <v>-11496.78</v>
       </c>
       <c r="M71" t="n">
-        <v>21390.43</v>
+        <v>-9426</v>
       </c>
       <c r="N71" t="n">
-        <v>-11594.59</v>
+        <v>-11474.73</v>
       </c>
       <c r="O71" t="n">
-        <v>-10818.11</v>
+        <v>-12650.24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10364.31</v>
+        <v>2056.75</v>
       </c>
       <c r="C72" t="n">
-        <v>16573.3</v>
+        <v>2189.5</v>
       </c>
       <c r="D72" t="n">
-        <v>9470.34</v>
+        <v>2674.5</v>
       </c>
       <c r="E72" t="n">
-        <v>5606.08</v>
+        <v>-1299.63</v>
       </c>
       <c r="F72" t="n">
-        <v>-2505.78</v>
+        <v>2721.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-4807.98</v>
+        <v>1042.69</v>
       </c>
       <c r="H72" t="n">
-        <v>-1099.52</v>
+        <v>-1963</v>
       </c>
       <c r="I72" t="n">
-        <v>-3764.1</v>
+        <v>-1253.52</v>
       </c>
       <c r="J72" t="n">
-        <v>-5474.559999999999</v>
+        <v>1160.14</v>
       </c>
       <c r="K72" t="n">
-        <v>-2212.01</v>
+        <v>336</v>
       </c>
       <c r="L72" t="n">
-        <v>-1661.96</v>
+        <v>-425.27</v>
       </c>
       <c r="M72" t="n">
-        <v>-11496.78</v>
+        <v>1851.85</v>
       </c>
       <c r="N72" t="n">
-        <v>-9426</v>
+        <v>1381.31</v>
       </c>
       <c r="O72" t="n">
-        <v>-11474.73</v>
+        <v>685.05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-2158.52</v>
+        <v>-12715.73</v>
       </c>
       <c r="C73" t="n">
-        <v>2056.75</v>
+        <v>7835.679999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>2189.5</v>
+        <v>20163.07</v>
       </c>
       <c r="E73" t="n">
-        <v>2674.5</v>
+        <v>19485.38</v>
       </c>
       <c r="F73" t="n">
-        <v>-1299.63</v>
+        <v>13508.61</v>
       </c>
       <c r="G73" t="n">
-        <v>2721.08</v>
+        <v>24312.4</v>
       </c>
       <c r="H73" t="n">
-        <v>1042.69</v>
+        <v>21640.18</v>
       </c>
       <c r="I73" t="n">
-        <v>-1963</v>
+        <v>17476.58</v>
       </c>
       <c r="J73" t="n">
-        <v>-1253.52</v>
+        <v>7093.139999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>1160.14</v>
+        <v>6721.270000000001</v>
       </c>
       <c r="L73" t="n">
-        <v>336</v>
+        <v>6599.690000000002</v>
       </c>
       <c r="M73" t="n">
-        <v>-425.27</v>
+        <v>2252.24</v>
       </c>
       <c r="N73" t="n">
-        <v>1851.85</v>
+        <v>-15117.35</v>
       </c>
       <c r="O73" t="n">
-        <v>1381.31</v>
+        <v>-24625.81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4595.130000000001</v>
+        <v>-12795.86</v>
       </c>
       <c r="C74" t="n">
-        <v>-12715.73</v>
+        <v>28348.95</v>
       </c>
       <c r="D74" t="n">
-        <v>7835.679999999999</v>
+        <v>56458.23</v>
       </c>
       <c r="E74" t="n">
-        <v>20163.07</v>
+        <v>49622.54</v>
       </c>
       <c r="F74" t="n">
-        <v>19485.38</v>
+        <v>25276.3</v>
       </c>
       <c r="G74" t="n">
-        <v>13508.61</v>
+        <v>7347.160000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>24312.4</v>
+        <v>-44366.65</v>
       </c>
       <c r="I74" t="n">
-        <v>21640.18</v>
+        <v>-65521.65</v>
       </c>
       <c r="J74" t="n">
-        <v>17476.58</v>
+        <v>-66261.57000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>7093.139999999999</v>
+        <v>-78993.46000000001</v>
       </c>
       <c r="L74" t="n">
-        <v>6721.270000000001</v>
+        <v>-73695.51000000001</v>
       </c>
       <c r="M74" t="n">
-        <v>6599.690000000002</v>
+        <v>-59207.97</v>
       </c>
       <c r="N74" t="n">
-        <v>2252.24</v>
+        <v>-61851.01</v>
       </c>
       <c r="O74" t="n">
-        <v>-15117.35</v>
+        <v>-70953.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-32224.37</v>
+        <v>5055.059999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>-12751.85</v>
+        <v>6723.64</v>
       </c>
       <c r="D75" t="n">
-        <v>28386.45</v>
+        <v>3925.59</v>
       </c>
       <c r="E75" t="n">
-        <v>56501.5</v>
+        <v>12178.69</v>
       </c>
       <c r="F75" t="n">
-        <v>49639</v>
+        <v>9266.25</v>
       </c>
       <c r="G75" t="n">
-        <v>25307.93</v>
+        <v>9924.440000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>7357.420000000001</v>
+        <v>751.4099999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>-44322.35</v>
+        <v>202.1800000000001</v>
       </c>
       <c r="J75" t="n">
-        <v>-65491.79</v>
+        <v>-5945.41</v>
       </c>
       <c r="K75" t="n">
-        <v>-66225.81</v>
+        <v>-4722.389999999999</v>
       </c>
       <c r="L75" t="n">
-        <v>-79014.62</v>
+        <v>-2423.590000000001</v>
       </c>
       <c r="M75" t="n">
-        <v>-73660.31</v>
+        <v>-2085.28</v>
       </c>
       <c r="N75" t="n">
-        <v>-59259.34</v>
+        <v>-6459.43</v>
       </c>
       <c r="O75" t="n">
-        <v>-61840.54</v>
+        <v>-6790.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2903.56</v>
+        <v>76055.49000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>5055.059999999999</v>
+        <v>197921.56</v>
       </c>
       <c r="D76" t="n">
-        <v>6723.64</v>
+        <v>119764.18</v>
       </c>
       <c r="E76" t="n">
-        <v>3925.59</v>
+        <v>149901.4</v>
       </c>
       <c r="F76" t="n">
-        <v>12178.69</v>
+        <v>183488.14</v>
       </c>
       <c r="G76" t="n">
-        <v>9266.25</v>
+        <v>159579.13</v>
       </c>
       <c r="H76" t="n">
-        <v>9924.440000000001</v>
+        <v>95740.29000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>751.4099999999999</v>
+        <v>145576.16</v>
       </c>
       <c r="J76" t="n">
-        <v>202.1800000000001</v>
+        <v>164716.78</v>
       </c>
       <c r="K76" t="n">
-        <v>-5945.41</v>
+        <v>85693.40000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>-4722.389999999999</v>
+        <v>29055.3</v>
       </c>
       <c r="M76" t="n">
-        <v>-2423.590000000001</v>
+        <v>32910.89999999999</v>
       </c>
       <c r="N76" t="n">
-        <v>-2085.28</v>
+        <v>-110515.63</v>
       </c>
       <c r="O76" t="n">
-        <v>-6459.43</v>
+        <v>-202467.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>75998.8</v>
+        <v>6182.43</v>
       </c>
       <c r="C77" t="n">
-        <v>3651.550000000008</v>
+        <v>32458.79</v>
       </c>
       <c r="D77" t="n">
-        <v>135054.69</v>
+        <v>15350.53</v>
       </c>
       <c r="E77" t="n">
-        <v>85269.84</v>
+        <v>28069.91</v>
       </c>
       <c r="F77" t="n">
-        <v>169936.48</v>
+        <v>32292.41</v>
       </c>
       <c r="G77" t="n">
-        <v>212413.83</v>
+        <v>27675.77</v>
       </c>
       <c r="H77" t="n">
-        <v>219817.27</v>
+        <v>10573.59</v>
       </c>
       <c r="I77" t="n">
-        <v>155040.14</v>
+        <v>12897.6</v>
       </c>
       <c r="J77" t="n">
-        <v>205048.48</v>
+        <v>13935.88</v>
       </c>
       <c r="K77" t="n">
-        <v>217850.94</v>
+        <v>-8310.219999999999</v>
       </c>
       <c r="L77" t="n">
-        <v>136536.89</v>
+        <v>-19965.96</v>
       </c>
       <c r="M77" t="n">
-        <v>58908.63</v>
+        <v>5392.519999999999</v>
       </c>
       <c r="N77" t="n">
-        <v>65241.11</v>
+        <v>2876.529999999999</v>
       </c>
       <c r="O77" t="n">
-        <v>-106488</v>
+        <v>-24372.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5334.030000000001</v>
+        <v>-34908.70999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>7377.970000000001</v>
+        <v>630.1500000000042</v>
       </c>
       <c r="D78" t="n">
-        <v>37127.50999999999</v>
+        <v>9308.34</v>
       </c>
       <c r="E78" t="n">
-        <v>16993.99</v>
+        <v>70351.86</v>
       </c>
       <c r="F78" t="n">
-        <v>35221.87</v>
+        <v>63769.79</v>
       </c>
       <c r="G78" t="n">
-        <v>40372.16</v>
+        <v>50272.86</v>
       </c>
       <c r="H78" t="n">
-        <v>28501.11</v>
+        <v>38081.23</v>
       </c>
       <c r="I78" t="n">
-        <v>10360.18</v>
+        <v>39805.28000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>14169.03</v>
+        <v>42931.56</v>
       </c>
       <c r="K78" t="n">
-        <v>14657.39</v>
+        <v>54063.99000000001</v>
       </c>
       <c r="L78" t="n">
-        <v>-8434.679999999998</v>
+        <v>33600.68</v>
       </c>
       <c r="M78" t="n">
-        <v>-14287.12</v>
+        <v>52667.74</v>
       </c>
       <c r="N78" t="n">
-        <v>12012.72</v>
+        <v>-17612.03</v>
       </c>
       <c r="O78" t="n">
-        <v>517.5</v>
+        <v>-67950.60000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-8383.809999999998</v>
+        <v>46.77</v>
       </c>
       <c r="C79" t="n">
-        <v>20319.02</v>
+        <v>103.37</v>
       </c>
       <c r="D79" t="n">
-        <v>37632.79</v>
+        <v>69.03</v>
       </c>
       <c r="E79" t="n">
-        <v>20879.15</v>
+        <v>100.51</v>
       </c>
       <c r="F79" t="n">
-        <v>26377.45</v>
+        <v>101.47</v>
       </c>
       <c r="G79" t="n">
-        <v>16574.83</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>-3039.27</v>
+        <v>-19.41</v>
       </c>
       <c r="I79" t="n">
-        <v>-5933.710000000001</v>
+        <v>42.88</v>
       </c>
       <c r="J79" t="n">
-        <v>-1513.199999999998</v>
+        <v>-35.43</v>
       </c>
       <c r="K79" t="n">
-        <v>4613.7</v>
+        <v>-13.5</v>
       </c>
       <c r="L79" t="n">
-        <v>18818.04</v>
+        <v>62.3</v>
       </c>
       <c r="M79" t="n">
-        <v>8916.98</v>
+        <v>51.25</v>
       </c>
       <c r="N79" t="n">
-        <v>23142.17</v>
+        <v>-22.25</v>
       </c>
       <c r="O79" t="n">
-        <v>-10835.12</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>58.07</v>
+        <v>-114.17</v>
       </c>
       <c r="C80" t="n">
-        <v>46.77</v>
+        <v>3.68</v>
       </c>
       <c r="D80" t="n">
-        <v>103.37</v>
+        <v>46.41</v>
       </c>
       <c r="E80" t="n">
-        <v>69.03</v>
+        <v>116.27</v>
       </c>
       <c r="F80" t="n">
-        <v>100.51</v>
+        <v>100.02</v>
       </c>
       <c r="G80" t="n">
-        <v>101.47</v>
+        <v>153.09</v>
       </c>
       <c r="H80" t="n">
-        <v>67.81999999999999</v>
+        <v>111.09</v>
       </c>
       <c r="I80" t="n">
-        <v>-19.41</v>
+        <v>35.44</v>
       </c>
       <c r="J80" t="n">
-        <v>42.88</v>
+        <v>9.510000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>-35.43</v>
+        <v>-2.749999999999996</v>
       </c>
       <c r="L80" t="n">
-        <v>-13.5</v>
+        <v>-15.28</v>
       </c>
       <c r="M80" t="n">
-        <v>62.3</v>
+        <v>12.38</v>
       </c>
       <c r="N80" t="n">
-        <v>51.25</v>
+        <v>-66.33</v>
       </c>
       <c r="O80" t="n">
-        <v>-22.25</v>
+        <v>-112.42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-29.92000000000001</v>
+        <v>-89.38999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>-179.13</v>
+        <v>-69.38</v>
       </c>
       <c r="D81" t="n">
-        <v>-12.38</v>
+        <v>2.530000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>76.64</v>
+        <v>103.61</v>
       </c>
       <c r="F81" t="n">
-        <v>181.66</v>
+        <v>158.06</v>
       </c>
       <c r="G81" t="n">
-        <v>167.8</v>
+        <v>154.87</v>
       </c>
       <c r="H81" t="n">
-        <v>214</v>
+        <v>116.4</v>
       </c>
       <c r="I81" t="n">
-        <v>134.78</v>
+        <v>40.79</v>
       </c>
       <c r="J81" t="n">
-        <v>3.169999999999996</v>
+        <v>-0.6999999999999957</v>
       </c>
       <c r="K81" t="n">
-        <v>-56.64999999999999</v>
+        <v>-66.46000000000001</v>
       </c>
       <c r="L81" t="n">
-        <v>-64.68000000000001</v>
+        <v>-68.78</v>
       </c>
       <c r="M81" t="n">
-        <v>-54.33</v>
+        <v>-46.32</v>
       </c>
       <c r="N81" t="n">
-        <v>-23.58000000000001</v>
+        <v>-47.37</v>
       </c>
       <c r="O81" t="n">
-        <v>-94.78999999999999</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-41.21</v>
+        <v>13096.06</v>
       </c>
       <c r="C82" t="n">
-        <v>-24.43</v>
+        <v>14479.31</v>
       </c>
       <c r="D82" t="n">
-        <v>-53.32</v>
+        <v>13982.04</v>
       </c>
       <c r="E82" t="n">
-        <v>-27.7</v>
+        <v>15109.87</v>
       </c>
       <c r="F82" t="n">
-        <v>38.22</v>
+        <v>12622.31</v>
       </c>
       <c r="G82" t="n">
-        <v>90.28</v>
+        <v>16538.91</v>
       </c>
       <c r="H82" t="n">
-        <v>93.96000000000001</v>
+        <v>20268.35</v>
       </c>
       <c r="I82" t="n">
-        <v>92.71000000000001</v>
+        <v>21238.62</v>
       </c>
       <c r="J82" t="n">
-        <v>73.06</v>
+        <v>23728.19</v>
       </c>
       <c r="K82" t="n">
-        <v>65.46000000000001</v>
+        <v>17972.32</v>
       </c>
       <c r="L82" t="n">
-        <v>-4.529999999999999</v>
+        <v>11780.18</v>
       </c>
       <c r="M82" t="n">
-        <v>-29.73</v>
+        <v>9792.619999999999</v>
       </c>
       <c r="N82" t="n">
-        <v>-10.36</v>
+        <v>13887.89</v>
       </c>
       <c r="O82" t="n">
-        <v>-18.91</v>
+        <v>-29787.92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10070.64</v>
+        <v>-24846.39</v>
       </c>
       <c r="C83" t="n">
-        <v>13096.06</v>
+        <v>20486.00999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>14479.31</v>
+        <v>-3262.98</v>
       </c>
       <c r="E83" t="n">
-        <v>13982.04</v>
+        <v>28415.62</v>
       </c>
       <c r="F83" t="n">
-        <v>15109.87</v>
+        <v>11434.57</v>
       </c>
       <c r="G83" t="n">
-        <v>12622.31</v>
+        <v>1638.209999999997</v>
       </c>
       <c r="H83" t="n">
-        <v>16538.91</v>
+        <v>-28025.7</v>
       </c>
       <c r="I83" t="n">
-        <v>20268.35</v>
+        <v>-14954.72</v>
       </c>
       <c r="J83" t="n">
-        <v>21238.62</v>
+        <v>-49097.17</v>
       </c>
       <c r="K83" t="n">
-        <v>23728.19</v>
+        <v>-46366.47</v>
       </c>
       <c r="L83" t="n">
-        <v>17972.32</v>
+        <v>-40582.77</v>
       </c>
       <c r="M83" t="n">
-        <v>11780.18</v>
+        <v>-14620.75</v>
       </c>
       <c r="N83" t="n">
-        <v>9792.619999999999</v>
+        <v>-46671.77</v>
       </c>
       <c r="O83" t="n">
-        <v>13887.89</v>
+        <v>-60524.61</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-16019.26</v>
+        <v>24552.95</v>
       </c>
       <c r="C84" t="n">
-        <v>-19525.35</v>
+        <v>13432.39</v>
       </c>
       <c r="D84" t="n">
-        <v>14393.83</v>
+        <v>12702.04</v>
       </c>
       <c r="E84" t="n">
-        <v>-4725.560000000001</v>
+        <v>-11925.24</v>
       </c>
       <c r="F84" t="n">
-        <v>21252.09</v>
+        <v>-12846.14</v>
       </c>
       <c r="G84" t="n">
-        <v>5924.16</v>
+        <v>-19561.61</v>
       </c>
       <c r="H84" t="n">
-        <v>-2983.86</v>
+        <v>-19577.31</v>
       </c>
       <c r="I84" t="n">
-        <v>-24487.56</v>
+        <v>-6825.6</v>
       </c>
       <c r="J84" t="n">
-        <v>-17089.34</v>
+        <v>-3623.049999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-50422.62</v>
+        <v>7953.61</v>
       </c>
       <c r="L84" t="n">
-        <v>-47926.26</v>
+        <v>12049.18</v>
       </c>
       <c r="M84" t="n">
-        <v>-38763.81</v>
+        <v>-11960.46</v>
       </c>
       <c r="N84" t="n">
-        <v>-17874.85</v>
+        <v>-21534.55</v>
       </c>
       <c r="O84" t="n">
-        <v>-43255.95</v>
+        <v>-18879.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>21948.2</v>
+        <v>16161.33</v>
       </c>
       <c r="C85" t="n">
-        <v>17773.73</v>
+        <v>16061.35</v>
       </c>
       <c r="D85" t="n">
-        <v>18386.13</v>
+        <v>-4242.959999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>14276.49</v>
+        <v>9830.5</v>
       </c>
       <c r="F85" t="n">
-        <v>-4748.589999999998</v>
+        <v>26721.99</v>
       </c>
       <c r="G85" t="n">
-        <v>-7976.670000000001</v>
+        <v>32915.09</v>
       </c>
       <c r="H85" t="n">
-        <v>-14610.43</v>
+        <v>31468.97</v>
       </c>
       <c r="I85" t="n">
-        <v>-23781.99</v>
+        <v>35584.98</v>
       </c>
       <c r="J85" t="n">
-        <v>-4456.860000000001</v>
+        <v>32671.87</v>
       </c>
       <c r="K85" t="n">
-        <v>-1720.539999999999</v>
+        <v>11772.22</v>
       </c>
       <c r="L85" t="n">
-        <v>10401.53</v>
+        <v>-6436.71</v>
       </c>
       <c r="M85" t="n">
-        <v>10074.76</v>
+        <v>7586.07</v>
       </c>
       <c r="N85" t="n">
-        <v>-7997.669999999998</v>
+        <v>-9718.789999999999</v>
       </c>
       <c r="O85" t="n">
-        <v>-24723</v>
+        <v>-757.1099999999997</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12144.45</v>
+        <v>9057.32</v>
       </c>
       <c r="C86" t="n">
-        <v>16161.33</v>
+        <v>22126.7</v>
       </c>
       <c r="D86" t="n">
-        <v>16061.35</v>
+        <v>21743.02</v>
       </c>
       <c r="E86" t="n">
-        <v>-4242.959999999999</v>
+        <v>20013.63</v>
       </c>
       <c r="F86" t="n">
-        <v>9830.5</v>
+        <v>17952.5</v>
       </c>
       <c r="G86" t="n">
-        <v>26721.99</v>
+        <v>21296.51</v>
       </c>
       <c r="H86" t="n">
-        <v>32915.09</v>
+        <v>11336.31</v>
       </c>
       <c r="I86" t="n">
-        <v>31468.97</v>
+        <v>13808.91</v>
       </c>
       <c r="J86" t="n">
-        <v>35584.98</v>
+        <v>3596.87</v>
       </c>
       <c r="K86" t="n">
-        <v>32671.87</v>
+        <v>-43.51000000000022</v>
       </c>
       <c r="L86" t="n">
-        <v>11772.22</v>
+        <v>-11130.59</v>
       </c>
       <c r="M86" t="n">
-        <v>-6436.71</v>
+        <v>-7237.390000000001</v>
       </c>
       <c r="N86" t="n">
-        <v>7586.07</v>
+        <v>-17411.95</v>
       </c>
       <c r="O86" t="n">
-        <v>-9718.789999999999</v>
+        <v>-18147.65</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>13205.62</v>
+        <v>-4078.31</v>
       </c>
       <c r="C87" t="n">
-        <v>9057.32</v>
+        <v>3296.63</v>
       </c>
       <c r="D87" t="n">
-        <v>22126.7</v>
+        <v>-7418.669999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>21743.02</v>
+        <v>10511.69</v>
       </c>
       <c r="F87" t="n">
-        <v>20013.63</v>
+        <v>13735.89</v>
       </c>
       <c r="G87" t="n">
-        <v>17952.5</v>
+        <v>21992.43</v>
       </c>
       <c r="H87" t="n">
-        <v>21296.51</v>
+        <v>15412.33</v>
       </c>
       <c r="I87" t="n">
-        <v>11336.31</v>
+        <v>15861.03</v>
       </c>
       <c r="J87" t="n">
-        <v>13808.91</v>
+        <v>12424.15</v>
       </c>
       <c r="K87" t="n">
-        <v>3596.87</v>
+        <v>-4053.84</v>
       </c>
       <c r="L87" t="n">
-        <v>-43.51000000000022</v>
+        <v>-15087.53</v>
       </c>
       <c r="M87" t="n">
-        <v>-11130.59</v>
+        <v>-9344.17</v>
       </c>
       <c r="N87" t="n">
-        <v>-7237.390000000001</v>
+        <v>-14443.84</v>
       </c>
       <c r="O87" t="n">
-        <v>-17411.95</v>
+        <v>-16442.79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10136.43</v>
+        <v>-17590.87</v>
       </c>
       <c r="C88" t="n">
-        <v>-4078.31</v>
+        <v>28603.16</v>
       </c>
       <c r="D88" t="n">
-        <v>3296.63</v>
+        <v>28491.07</v>
       </c>
       <c r="E88" t="n">
-        <v>-7418.669999999999</v>
+        <v>30262.37</v>
       </c>
       <c r="F88" t="n">
-        <v>10511.69</v>
+        <v>12001.76</v>
       </c>
       <c r="G88" t="n">
-        <v>13735.89</v>
+        <v>34763.82000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>21992.43</v>
+        <v>22935.69</v>
       </c>
       <c r="I88" t="n">
-        <v>15412.33</v>
+        <v>-13470.86</v>
       </c>
       <c r="J88" t="n">
-        <v>15861.03</v>
+        <v>28943.77</v>
       </c>
       <c r="K88" t="n">
-        <v>12424.15</v>
+        <v>16788.66</v>
       </c>
       <c r="L88" t="n">
-        <v>-4053.84</v>
+        <v>24068.86</v>
       </c>
       <c r="M88" t="n">
-        <v>-15087.53</v>
+        <v>28395.14</v>
       </c>
       <c r="N88" t="n">
-        <v>-9344.17</v>
+        <v>42027.91</v>
       </c>
       <c r="O88" t="n">
-        <v>-14443.84</v>
+        <v>-9778.49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16893.45</v>
+        <v>3024</v>
       </c>
       <c r="C89" t="n">
-        <v>-19009.61</v>
+        <v>5863.76</v>
       </c>
       <c r="D89" t="n">
-        <v>35427.2</v>
+        <v>2759.82</v>
       </c>
       <c r="E89" t="n">
-        <v>37902.71</v>
+        <v>3042.1</v>
       </c>
       <c r="F89" t="n">
-        <v>42722.5</v>
+        <v>-593.9099999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>22025.41</v>
+        <v>-8614.200000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>44161.56</v>
+        <v>-11561.14</v>
       </c>
       <c r="I89" t="n">
-        <v>29148.15</v>
+        <v>-10313.2</v>
       </c>
       <c r="J89" t="n">
-        <v>-17275.73</v>
+        <v>-10132.11</v>
       </c>
       <c r="K89" t="n">
-        <v>22532.26</v>
+        <v>-9093.23</v>
       </c>
       <c r="L89" t="n">
-        <v>13302.39</v>
+        <v>-5310.7</v>
       </c>
       <c r="M89" t="n">
-        <v>17732.86</v>
+        <v>-4587.23</v>
       </c>
       <c r="N89" t="n">
-        <v>25864.79</v>
+        <v>-6240.599999999999</v>
       </c>
       <c r="O89" t="n">
-        <v>43588.11</v>
+        <v>-9115.57</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1823.2</v>
+        <v>15932.79</v>
       </c>
       <c r="C90" t="n">
-        <v>3003.440000000001</v>
+        <v>44888.09</v>
       </c>
       <c r="D90" t="n">
-        <v>5836.88</v>
+        <v>24128.4</v>
       </c>
       <c r="E90" t="n">
-        <v>2724.26</v>
+        <v>35489.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3013.31</v>
+        <v>8251.76</v>
       </c>
       <c r="G90" t="n">
-        <v>-622.71</v>
+        <v>49069.6</v>
       </c>
       <c r="H90" t="n">
-        <v>-8646.9</v>
+        <v>15393.56</v>
       </c>
       <c r="I90" t="n">
-        <v>-11583.43</v>
+        <v>25767.52</v>
       </c>
       <c r="J90" t="n">
-        <v>-10296.67</v>
+        <v>19179.25</v>
       </c>
       <c r="K90" t="n">
-        <v>-10116.34</v>
+        <v>19818.62</v>
       </c>
       <c r="L90" t="n">
-        <v>-9102.23</v>
+        <v>-9251.33</v>
       </c>
       <c r="M90" t="n">
-        <v>-5330.33</v>
+        <v>-3065.980000000001</v>
       </c>
       <c r="N90" t="n">
-        <v>-4601.56</v>
+        <v>6199.480000000001</v>
       </c>
       <c r="O90" t="n">
-        <v>-6269.52</v>
+        <v>7267.24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9351.799999999999</v>
+        <v>216441.07</v>
       </c>
       <c r="C91" t="n">
-        <v>8732.190000000001</v>
+        <v>281919.78</v>
       </c>
       <c r="D91" t="n">
-        <v>36089.62</v>
+        <v>231201.31</v>
       </c>
       <c r="E91" t="n">
-        <v>30094.92</v>
+        <v>296624.82</v>
       </c>
       <c r="F91" t="n">
-        <v>41275.67</v>
+        <v>258412.74</v>
       </c>
       <c r="G91" t="n">
-        <v>16171.94</v>
+        <v>211268.48</v>
       </c>
       <c r="H91" t="n">
-        <v>44769.93</v>
+        <v>125390.8</v>
       </c>
       <c r="I91" t="n">
-        <v>23014.06</v>
+        <v>185505.35</v>
       </c>
       <c r="J91" t="n">
-        <v>14498.38</v>
+        <v>176872.98</v>
       </c>
       <c r="K91" t="n">
-        <v>5594.060000000001</v>
+        <v>163631.7</v>
       </c>
       <c r="L91" t="n">
-        <v>9838.519999999999</v>
+        <v>146372.6</v>
       </c>
       <c r="M91" t="n">
-        <v>-19672.03</v>
+        <v>158043.51</v>
       </c>
       <c r="N91" t="n">
-        <v>-13303.72</v>
+        <v>110080.95</v>
       </c>
       <c r="O91" t="n">
-        <v>116.5500000000014</v>
+        <v>107217.38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>216392.1</v>
+        <v>58520.46999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>222519.1</v>
+        <v>225478.62</v>
       </c>
       <c r="D92" t="n">
-        <v>288853.06</v>
+        <v>199011.26</v>
       </c>
       <c r="E92" t="n">
-        <v>240110.27</v>
+        <v>249231.83</v>
       </c>
       <c r="F92" t="n">
-        <v>315366.31</v>
+        <v>185163.89</v>
       </c>
       <c r="G92" t="n">
-        <v>252895.76</v>
+        <v>155418.78</v>
       </c>
       <c r="H92" t="n">
-        <v>196475</v>
+        <v>-31009.51</v>
       </c>
       <c r="I92" t="n">
-        <v>102356.36</v>
+        <v>-12617.49999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>130377.21</v>
+        <v>-55271.8</v>
       </c>
       <c r="K92" t="n">
-        <v>152343.3</v>
+        <v>-29066.05</v>
       </c>
       <c r="L92" t="n">
-        <v>173911.56</v>
+        <v>-23683.48</v>
       </c>
       <c r="M92" t="n">
-        <v>153259.52</v>
+        <v>36771.66</v>
       </c>
       <c r="N92" t="n">
-        <v>194671.14</v>
+        <v>25820.36</v>
       </c>
       <c r="O92" t="n">
-        <v>136902.44</v>
+        <v>-63773.45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>38748.66</v>
+        <v>-390.3099999999986</v>
       </c>
       <c r="C93" t="n">
-        <v>66858.34999999999</v>
+        <v>67465.23</v>
       </c>
       <c r="D93" t="n">
-        <v>227826.59</v>
+        <v>101012.78</v>
       </c>
       <c r="E93" t="n">
-        <v>207572.98</v>
+        <v>196659.32</v>
       </c>
       <c r="F93" t="n">
-        <v>252249.61</v>
+        <v>113795.12</v>
       </c>
       <c r="G93" t="n">
-        <v>189541.5</v>
+        <v>100937.18</v>
       </c>
       <c r="H93" t="n">
-        <v>155869.08</v>
+        <v>75316.56</v>
       </c>
       <c r="I93" t="n">
-        <v>-29201.68</v>
+        <v>-7244.210000000002</v>
       </c>
       <c r="J93" t="n">
-        <v>-16647.5</v>
+        <v>-55002.43</v>
       </c>
       <c r="K93" t="n">
-        <v>-58803.57</v>
+        <v>-40906.04</v>
       </c>
       <c r="L93" t="n">
-        <v>-32222.66</v>
+        <v>15943.04</v>
       </c>
       <c r="M93" t="n">
-        <v>-24440.8</v>
+        <v>67244.74000000001</v>
       </c>
       <c r="N93" t="n">
-        <v>32338.54</v>
+        <v>23421.72999999999</v>
       </c>
       <c r="O93" t="n">
-        <v>18910.78</v>
+        <v>-40088.53</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>126231.06</v>
+        <v>34574.15</v>
       </c>
       <c r="C94" t="n">
-        <v>54923.19000000001</v>
+        <v>158145.63</v>
       </c>
       <c r="D94" t="n">
-        <v>127079.61</v>
+        <v>145333.68</v>
       </c>
       <c r="E94" t="n">
-        <v>133998.51</v>
+        <v>228735.14</v>
       </c>
       <c r="F94" t="n">
-        <v>244644.26</v>
+        <v>229510.32</v>
       </c>
       <c r="G94" t="n">
-        <v>139615.81</v>
+        <v>186430.02</v>
       </c>
       <c r="H94" t="n">
-        <v>86607.91</v>
+        <v>153898.72</v>
       </c>
       <c r="I94" t="n">
-        <v>58542.91</v>
+        <v>62883.18</v>
       </c>
       <c r="J94" t="n">
-        <v>25402.6</v>
+        <v>25965.57999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-23004.12</v>
+        <v>-25389.55</v>
       </c>
       <c r="L94" t="n">
-        <v>-44930.37</v>
+        <v>-46727.37</v>
       </c>
       <c r="M94" t="n">
-        <v>-8282.68</v>
+        <v>-25974.84</v>
       </c>
       <c r="N94" t="n">
-        <v>26642.9</v>
+        <v>-37609.99000000001</v>
       </c>
       <c r="O94" t="n">
-        <v>-23570.39000000001</v>
+        <v>-67315.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>70331.42</v>
+        <v>-7919.480000000003</v>
       </c>
       <c r="C95" t="n">
-        <v>67355.11</v>
+        <v>24495.41</v>
       </c>
       <c r="D95" t="n">
-        <v>172500.89</v>
+        <v>24287.05</v>
       </c>
       <c r="E95" t="n">
-        <v>126651.67</v>
+        <v>66541.3</v>
       </c>
       <c r="F95" t="n">
-        <v>216540.58</v>
+        <v>58589.27</v>
       </c>
       <c r="G95" t="n">
-        <v>217319.41</v>
+        <v>51083.50999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>208134.18</v>
+        <v>38186.49000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>186641.14</v>
+        <v>18328.82</v>
       </c>
       <c r="J95" t="n">
-        <v>95087.95999999999</v>
+        <v>4754.309999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>58042.85999999999</v>
+        <v>-3352.999999999999</v>
       </c>
       <c r="L95" t="n">
-        <v>14974.91999999999</v>
+        <v>-1780.9</v>
       </c>
       <c r="M95" t="n">
-        <v>-15553.57999999999</v>
+        <v>5833.39</v>
       </c>
       <c r="N95" t="n">
-        <v>-4381.5</v>
+        <v>-28975.12</v>
       </c>
       <c r="O95" t="n">
-        <v>-15104.86</v>
+        <v>-39320.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5748.889999999999</v>
+        <v>100725.21</v>
       </c>
       <c r="C96" t="n">
-        <v>-15453.63</v>
+        <v>90087.29000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>20542.75</v>
+        <v>55553.41</v>
       </c>
       <c r="E96" t="n">
-        <v>25325.43</v>
+        <v>101784.46</v>
       </c>
       <c r="F96" t="n">
-        <v>66717.7</v>
+        <v>121582.36</v>
       </c>
       <c r="G96" t="n">
-        <v>57307.58</v>
+        <v>177104.35</v>
       </c>
       <c r="H96" t="n">
-        <v>43054.3</v>
+        <v>115066.22</v>
       </c>
       <c r="I96" t="n">
-        <v>26314</v>
+        <v>81476.11</v>
       </c>
       <c r="J96" t="n">
-        <v>4110.280000000001</v>
+        <v>74750.92999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-8799.880000000003</v>
+        <v>18132.70999999999</v>
       </c>
       <c r="L96" t="n">
-        <v>-18574.01</v>
+        <v>11016.70000000001</v>
       </c>
       <c r="M96" t="n">
-        <v>-16140.48</v>
+        <v>-42564.24000000001</v>
       </c>
       <c r="N96" t="n">
-        <v>-3820.380000000001</v>
+        <v>3190.349999999999</v>
       </c>
       <c r="O96" t="n">
-        <v>-33134.49</v>
+        <v>-44817.23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>138371.06</v>
+        <v>148352.19</v>
       </c>
       <c r="C97" t="n">
-        <v>75497.22</v>
+        <v>361979.23</v>
       </c>
       <c r="D97" t="n">
-        <v>79706.98000000001</v>
+        <v>298283.17</v>
       </c>
       <c r="E97" t="n">
-        <v>73193.00999999999</v>
+        <v>478602.5</v>
       </c>
       <c r="F97" t="n">
-        <v>113773.36</v>
+        <v>454085.91</v>
       </c>
       <c r="G97" t="n">
-        <v>135056.86</v>
+        <v>411290.74</v>
       </c>
       <c r="H97" t="n">
-        <v>163427.58</v>
+        <v>259827.07</v>
       </c>
       <c r="I97" t="n">
-        <v>94199.75999999999</v>
+        <v>349840.75</v>
       </c>
       <c r="J97" t="n">
-        <v>63526.97</v>
+        <v>208985.25</v>
       </c>
       <c r="K97" t="n">
-        <v>56290.7</v>
+        <v>62207.89999999999</v>
       </c>
       <c r="L97" t="n">
-        <v>-6945.970000000005</v>
+        <v>-112389.94</v>
       </c>
       <c r="M97" t="n">
-        <v>-5727.669999999995</v>
+        <v>264292.63</v>
       </c>
       <c r="N97" t="n">
-        <v>-54412.12</v>
+        <v>79535.90000000001</v>
       </c>
       <c r="O97" t="n">
-        <v>-15098.29</v>
+        <v>-22940.32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>219745.22</v>
+        <v>20879.89</v>
       </c>
       <c r="C98" t="n">
-        <v>161401.25</v>
+        <v>93321.53</v>
       </c>
       <c r="D98" t="n">
-        <v>394932.64</v>
+        <v>22219.97</v>
       </c>
       <c r="E98" t="n">
-        <v>326628.4</v>
+        <v>60492.97</v>
       </c>
       <c r="F98" t="n">
-        <v>521583.85</v>
+        <v>-7466.540000000003</v>
       </c>
       <c r="G98" t="n">
-        <v>492292.88</v>
+        <v>-2958.680000000003</v>
       </c>
       <c r="H98" t="n">
-        <v>452853.7</v>
+        <v>-13453.70999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>299650.97</v>
+        <v>-24725.39</v>
       </c>
       <c r="J98" t="n">
-        <v>389285.08</v>
+        <v>-31609.91</v>
       </c>
       <c r="K98" t="n">
-        <v>235332.15</v>
+        <v>-45011.78</v>
       </c>
       <c r="L98" t="n">
-        <v>37734.14999999999</v>
+        <v>-70275</v>
       </c>
       <c r="M98" t="n">
-        <v>-126994.79</v>
+        <v>-2263.110000000003</v>
       </c>
       <c r="N98" t="n">
-        <v>239743.57</v>
+        <v>-63219.14</v>
       </c>
       <c r="O98" t="n">
-        <v>34318.1</v>
+        <v>-69497.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>14337.38</v>
+        <v>6324.930000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>21330.57</v>
+        <v>129302.42</v>
       </c>
       <c r="D99" t="n">
-        <v>94624.18000000001</v>
+        <v>150282.48</v>
       </c>
       <c r="E99" t="n">
-        <v>23233.11</v>
+        <v>214360.21</v>
       </c>
       <c r="F99" t="n">
-        <v>62021.13</v>
+        <v>174513.12</v>
       </c>
       <c r="G99" t="n">
-        <v>-6110.460000000001</v>
+        <v>164859.98</v>
       </c>
       <c r="H99" t="n">
-        <v>-2015.990000000001</v>
+        <v>125645.39</v>
       </c>
       <c r="I99" t="n">
-        <v>-34723.06999999999</v>
+        <v>57411.11000000001</v>
       </c>
       <c r="J99" t="n">
-        <v>-52308.35000000001</v>
+        <v>14129.93</v>
       </c>
       <c r="K99" t="n">
-        <v>-56867.77</v>
+        <v>-74476.14</v>
       </c>
       <c r="L99" t="n">
-        <v>-29086.44</v>
+        <v>-89527.93000000001</v>
       </c>
       <c r="M99" t="n">
-        <v>-58738.79</v>
+        <v>-41070.13</v>
       </c>
       <c r="N99" t="n">
-        <v>-18016.61</v>
+        <v>-101530.26</v>
       </c>
       <c r="O99" t="n">
-        <v>-36275.93</v>
+        <v>-60477.87</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-2687.779999999999</v>
+        <v>48338.8</v>
       </c>
       <c r="C100" t="n">
-        <v>-7812.1</v>
+        <v>-26540.47</v>
       </c>
       <c r="D100" t="n">
-        <v>85021.54000000001</v>
+        <v>-18774.01</v>
       </c>
       <c r="E100" t="n">
-        <v>123841.26</v>
+        <v>-30771.67</v>
       </c>
       <c r="F100" t="n">
-        <v>166560.35</v>
+        <v>-21723.84</v>
       </c>
       <c r="G100" t="n">
-        <v>130178.11</v>
+        <v>-14700.37</v>
       </c>
       <c r="H100" t="n">
-        <v>109525.74</v>
+        <v>16030.8</v>
       </c>
       <c r="I100" t="n">
-        <v>91786.32000000001</v>
+        <v>31177.84</v>
       </c>
       <c r="J100" t="n">
-        <v>31363.29</v>
+        <v>31368.03</v>
       </c>
       <c r="K100" t="n">
-        <v>2638.420000000001</v>
+        <v>5843.869999999999</v>
       </c>
       <c r="L100" t="n">
-        <v>-63272.33</v>
+        <v>-17583.06</v>
       </c>
       <c r="M100" t="n">
-        <v>-74820.78</v>
+        <v>-28066.71</v>
       </c>
       <c r="N100" t="n">
-        <v>12433.59</v>
+        <v>-18702.1</v>
       </c>
       <c r="O100" t="n">
-        <v>-56537.74000000001</v>
+        <v>-18375.55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>46544.98</v>
+        <v>24392.26</v>
       </c>
       <c r="C101" t="n">
-        <v>48338.8</v>
+        <v>-14957.84</v>
       </c>
       <c r="D101" t="n">
-        <v>-26540.47</v>
+        <v>-23992.48</v>
       </c>
       <c r="E101" t="n">
-        <v>-18774.01</v>
+        <v>-22067.1</v>
       </c>
       <c r="F101" t="n">
-        <v>-30771.67</v>
+        <v>-22666.52</v>
       </c>
       <c r="G101" t="n">
-        <v>-21723.84</v>
+        <v>-14590.11</v>
       </c>
       <c r="H101" t="n">
-        <v>-14700.37</v>
+        <v>-13609.99</v>
       </c>
       <c r="I101" t="n">
-        <v>16030.8</v>
+        <v>-6018.12</v>
       </c>
       <c r="J101" t="n">
-        <v>31177.84</v>
+        <v>-7159.79</v>
       </c>
       <c r="K101" t="n">
-        <v>31368.03</v>
+        <v>-11994.93</v>
       </c>
       <c r="L101" t="n">
-        <v>5843.869999999999</v>
+        <v>-20252.26</v>
       </c>
       <c r="M101" t="n">
-        <v>-17583.06</v>
+        <v>-16126.03</v>
       </c>
       <c r="N101" t="n">
-        <v>-28066.71</v>
+        <v>-21512.52</v>
       </c>
       <c r="O101" t="n">
-        <v>-18702.1</v>
+        <v>-25323.89</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>28817.39</v>
+        <v>7529.32</v>
       </c>
       <c r="C102" t="n">
-        <v>24392.26</v>
+        <v>-5918.94</v>
       </c>
       <c r="D102" t="n">
-        <v>-14957.84</v>
+        <v>-4791.809999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>-23992.48</v>
+        <v>-6090.469999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>-22067.1</v>
+        <v>-5576.19</v>
       </c>
       <c r="G102" t="n">
-        <v>-22666.52</v>
+        <v>-3521.19</v>
       </c>
       <c r="H102" t="n">
-        <v>-14590.11</v>
+        <v>-2999.29</v>
       </c>
       <c r="I102" t="n">
-        <v>-13609.99</v>
+        <v>-1286.89</v>
       </c>
       <c r="J102" t="n">
-        <v>-6018.12</v>
+        <v>-1877.5</v>
       </c>
       <c r="K102" t="n">
-        <v>-7159.79</v>
+        <v>-1967.32</v>
       </c>
       <c r="L102" t="n">
-        <v>-11994.93</v>
+        <v>-2096.86</v>
       </c>
       <c r="M102" t="n">
-        <v>-20252.26</v>
+        <v>-2029.89</v>
       </c>
       <c r="N102" t="n">
-        <v>-16126.03</v>
+        <v>2573.41</v>
       </c>
       <c r="O102" t="n">
-        <v>-21512.52</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>8544.57</v>
-      </c>
-      <c r="C103" t="n">
-        <v>7529.32</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-5918.94</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-4791.809999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-6090.469999999999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-5576.19</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-3521.19</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-2999.29</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-1286.89</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-1877.5</v>
-      </c>
-      <c r="L103" t="n">
-        <v>-1967.32</v>
-      </c>
-      <c r="M103" t="n">
-        <v>-2096.86</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-2029.89</v>
-      </c>
-      <c r="O103" t="n">
-        <v>2573.41</v>
+        <v>-867.13</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
     </row>
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26336.21</v>
+        <v>133598.12</v>
       </c>
       <c r="C2" t="n">
-        <v>128605.18</v>
+        <v>140026.43</v>
       </c>
       <c r="D2" t="n">
-        <v>134761.31</v>
+        <v>184324.81</v>
       </c>
       <c r="E2" t="n">
-        <v>180931</v>
+        <v>190471.62</v>
       </c>
       <c r="F2" t="n">
-        <v>186915.58</v>
+        <v>188959.91</v>
       </c>
       <c r="G2" t="n">
-        <v>188128.55</v>
+        <v>157743.33</v>
       </c>
       <c r="H2" t="n">
-        <v>152921.78</v>
+        <v>63461.38</v>
       </c>
       <c r="I2" t="n">
-        <v>66230.98</v>
+        <v>-17161.77</v>
       </c>
       <c r="J2" t="n">
-        <v>-14609.31</v>
+        <v>-91398.21000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>-88202.83</v>
+        <v>-13876.07</v>
       </c>
       <c r="L2" t="n">
-        <v>-12000.29</v>
+        <v>55058.68000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>59194.3</v>
+        <v>42652.35000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>43157.69</v>
+        <v>19058.89</v>
       </c>
       <c r="O2" t="n">
-        <v>15187.04</v>
+        <v>13750.25</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38224.53</v>
+        <v>62554.46</v>
       </c>
       <c r="C3" t="n">
-        <v>66291.98</v>
+        <v>34486.85</v>
       </c>
       <c r="D3" t="n">
-        <v>38527.98</v>
+        <v>51626.8</v>
       </c>
       <c r="E3" t="n">
-        <v>56390.99</v>
+        <v>27269.16</v>
       </c>
       <c r="F3" t="n">
-        <v>32158.41</v>
+        <v>55876.53</v>
       </c>
       <c r="G3" t="n">
-        <v>60141.03000000001</v>
+        <v>15852.25</v>
       </c>
       <c r="H3" t="n">
-        <v>18594.75</v>
+        <v>985.2100000000014</v>
       </c>
       <c r="I3" t="n">
-        <v>1552.649999999999</v>
+        <v>45509.01</v>
       </c>
       <c r="J3" t="n">
-        <v>43840.28</v>
+        <v>28979.2</v>
       </c>
       <c r="K3" t="n">
-        <v>26211.82</v>
+        <v>-9873.859999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>-9205.24</v>
+        <v>-26689.87</v>
       </c>
       <c r="M3" t="n">
-        <v>-24440.87</v>
+        <v>-60392.06</v>
       </c>
       <c r="N3" t="n">
-        <v>-58093.25000000001</v>
+        <v>-125989</v>
       </c>
       <c r="O3" t="n">
-        <v>-125237.03</v>
+        <v>-103024.36</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-107.6200000000008</v>
+        <v>65159.33</v>
       </c>
       <c r="C4" t="n">
-        <v>68543.38</v>
+        <v>99675.34</v>
       </c>
       <c r="D4" t="n">
-        <v>98224.19</v>
+        <v>105887.8</v>
       </c>
       <c r="E4" t="n">
-        <v>103188.9</v>
+        <v>85339.59</v>
       </c>
       <c r="F4" t="n">
-        <v>86104.11</v>
+        <v>65717.38</v>
       </c>
       <c r="G4" t="n">
-        <v>64326.03</v>
+        <v>36992.21</v>
       </c>
       <c r="H4" t="n">
-        <v>39071.26</v>
+        <v>-20523.09</v>
       </c>
       <c r="I4" t="n">
-        <v>-23860.13</v>
+        <v>-22189.4</v>
       </c>
       <c r="J4" t="n">
-        <v>-20538.45</v>
+        <v>-30523.54</v>
       </c>
       <c r="K4" t="n">
-        <v>-27801.32</v>
+        <v>21844.13</v>
       </c>
       <c r="L4" t="n">
-        <v>21162.87</v>
+        <v>51522.96</v>
       </c>
       <c r="M4" t="n">
-        <v>51243.62</v>
+        <v>5925.450000000002</v>
       </c>
       <c r="N4" t="n">
-        <v>9157.68</v>
+        <v>-30336.23</v>
       </c>
       <c r="O4" t="n">
-        <v>-14639.63</v>
+        <v>12629.46</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32990.99</v>
+        <v>33438.94</v>
       </c>
       <c r="C5" t="n">
-        <v>31488.16</v>
+        <v>31627.45</v>
       </c>
       <c r="D5" t="n">
-        <v>39263.95</v>
+        <v>23839.37</v>
       </c>
       <c r="E5" t="n">
-        <v>19288.14</v>
+        <v>-1380.589999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-8977.029999999999</v>
+        <v>-6977.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-15124.32</v>
+        <v>-13832.1</v>
       </c>
       <c r="H5" t="n">
-        <v>-20046.56</v>
+        <v>13327.77</v>
       </c>
       <c r="I5" t="n">
-        <v>3949.880000000001</v>
+        <v>10255.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2303.84</v>
+        <v>10532.21</v>
       </c>
       <c r="K5" t="n">
-        <v>2591.339999999999</v>
+        <v>6279.4</v>
       </c>
       <c r="L5" t="n">
-        <v>-2689.85</v>
+        <v>3397.119999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>-5780.02</v>
+        <v>7448.929999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>-2786.380000000002</v>
+        <v>9557.869999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>-678.7299999999996</v>
+        <v>9950.750000000002</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5099.160000000002</v>
+        <v>33399.01</v>
       </c>
       <c r="C6" t="n">
-        <v>39682.56</v>
+        <v>20030.35</v>
       </c>
       <c r="D6" t="n">
-        <v>27653.57999999999</v>
+        <v>31478.64</v>
       </c>
       <c r="E6" t="n">
-        <v>36525.34</v>
+        <v>19813.83</v>
       </c>
       <c r="F6" t="n">
-        <v>24955.89</v>
+        <v>30691.32</v>
       </c>
       <c r="G6" t="n">
-        <v>36301.82</v>
+        <v>14433.06</v>
       </c>
       <c r="H6" t="n">
-        <v>15768.16</v>
+        <v>-5156.200000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-8607.85</v>
+        <v>7662.519999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>13911.8</v>
+        <v>14155.03</v>
       </c>
       <c r="K6" t="n">
-        <v>18178.32</v>
+        <v>16770.31</v>
       </c>
       <c r="L6" t="n">
-        <v>15100.06</v>
+        <v>21881.16</v>
       </c>
       <c r="M6" t="n">
-        <v>23301.74</v>
+        <v>-3934.110000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>-9234</v>
+        <v>-62720.7</v>
       </c>
       <c r="O6" t="n">
-        <v>-68221.00999999999</v>
+        <v>-66693.5</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19068.57</v>
+        <v>38615.43</v>
       </c>
       <c r="C7" t="n">
-        <v>34282.66</v>
+        <v>49551.25</v>
       </c>
       <c r="D7" t="n">
-        <v>34291.52</v>
+        <v>36414.81</v>
       </c>
       <c r="E7" t="n">
-        <v>35919.34</v>
+        <v>25452.46</v>
       </c>
       <c r="F7" t="n">
-        <v>27906.84</v>
+        <v>7179.880000000002</v>
       </c>
       <c r="G7" t="n">
-        <v>9715.92</v>
+        <v>199.9299999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>5079.289999999999</v>
+        <v>-22769.3</v>
       </c>
       <c r="I7" t="n">
-        <v>-9939.76</v>
+        <v>-494.8400000000011</v>
       </c>
       <c r="J7" t="n">
-        <v>1207.139999999999</v>
+        <v>-19207.83</v>
       </c>
       <c r="K7" t="n">
-        <v>-15290.25</v>
+        <v>-31155.15</v>
       </c>
       <c r="L7" t="n">
-        <v>-20515.65</v>
+        <v>-15806.55</v>
       </c>
       <c r="M7" t="n">
-        <v>-8049.990000000001</v>
+        <v>-16563.26</v>
       </c>
       <c r="N7" t="n">
-        <v>-1028.059999999999</v>
+        <v>-30859.57</v>
       </c>
       <c r="O7" t="n">
-        <v>-15122.66</v>
+        <v>-22325.88</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10593.04</v>
+        <v>118129.72</v>
       </c>
       <c r="C8" t="n">
-        <v>120938.88</v>
+        <v>172180.59</v>
       </c>
       <c r="D8" t="n">
-        <v>175290.57</v>
+        <v>272445.15</v>
       </c>
       <c r="E8" t="n">
-        <v>275224.79</v>
+        <v>249501.23</v>
       </c>
       <c r="F8" t="n">
-        <v>250556.35</v>
+        <v>255413.45</v>
       </c>
       <c r="G8" t="n">
-        <v>257112.08</v>
+        <v>177984.04</v>
       </c>
       <c r="H8" t="n">
-        <v>179175.76</v>
+        <v>115363.05</v>
       </c>
       <c r="I8" t="n">
-        <v>114524.65</v>
+        <v>69775.16</v>
       </c>
       <c r="J8" t="n">
-        <v>68488.91</v>
+        <v>38597.17</v>
       </c>
       <c r="K8" t="n">
-        <v>38121.07</v>
+        <v>-21577.18</v>
       </c>
       <c r="L8" t="n">
-        <v>-22278.40999999999</v>
+        <v>121757.59</v>
       </c>
       <c r="M8" t="n">
-        <v>121353.16</v>
+        <v>98495.12</v>
       </c>
       <c r="N8" t="n">
-        <v>97673.44</v>
+        <v>-8253.440000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>-9033.35</v>
+        <v>56888.49000000001</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14826.08</v>
+        <v>-388.8499999999997</v>
       </c>
       <c r="C9" t="n">
-        <v>-1874.119999999999</v>
+        <v>-3469.99</v>
       </c>
       <c r="D9" t="n">
-        <v>-6383.469999999999</v>
+        <v>8225.059999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>4914.64</v>
+        <v>6291.92</v>
       </c>
       <c r="F9" t="n">
-        <v>3417.04</v>
+        <v>16639.15</v>
       </c>
       <c r="G9" t="n">
-        <v>14816.22</v>
+        <v>10347.6</v>
       </c>
       <c r="H9" t="n">
-        <v>9121.080000000002</v>
+        <v>14085.32</v>
       </c>
       <c r="I9" t="n">
-        <v>13998.62</v>
+        <v>11254.62</v>
       </c>
       <c r="J9" t="n">
-        <v>11727.16</v>
+        <v>3297.590000000002</v>
       </c>
       <c r="K9" t="n">
-        <v>6107.530000000002</v>
+        <v>-12108.17</v>
       </c>
       <c r="L9" t="n">
-        <v>-10809.52</v>
+        <v>2780.04</v>
       </c>
       <c r="M9" t="n">
-        <v>3613.22</v>
+        <v>-13281.16</v>
       </c>
       <c r="N9" t="n">
-        <v>-14421.23</v>
+        <v>-10994.99</v>
       </c>
       <c r="O9" t="n">
-        <v>-14266.93</v>
+        <v>-15829.72</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-51523.81</v>
+        <v>82036.92999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>80713.03999999999</v>
+        <v>99355.49999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>99159</v>
+        <v>164961.3</v>
       </c>
       <c r="E10" t="n">
-        <v>165492.08</v>
+        <v>134932.57</v>
       </c>
       <c r="F10" t="n">
-        <v>136752.33</v>
+        <v>145705.3</v>
       </c>
       <c r="G10" t="n">
-        <v>145829.6</v>
+        <v>44394.74</v>
       </c>
       <c r="H10" t="n">
-        <v>44429.54</v>
+        <v>-44430.16</v>
       </c>
       <c r="I10" t="n">
-        <v>-43505.06</v>
+        <v>-87148.87999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>-86335.17</v>
+        <v>-81527.8</v>
       </c>
       <c r="K10" t="n">
-        <v>-83861.64</v>
+        <v>-76739.14999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-77336.57000000001</v>
+        <v>-47618.84</v>
       </c>
       <c r="M10" t="n">
-        <v>-48047.59</v>
+        <v>-59347.69</v>
       </c>
       <c r="N10" t="n">
-        <v>-57385.94</v>
+        <v>-84360.8</v>
       </c>
       <c r="O10" t="n">
-        <v>-80308.95</v>
+        <v>70388.39999999999</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +958,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2594.69</v>
+        <v>7788.01</v>
       </c>
       <c r="C11" t="n">
-        <v>7788.01</v>
+        <v>-4752.110000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>-4752.110000000001</v>
+        <v>12439.04</v>
       </c>
       <c r="E11" t="n">
-        <v>12439.04</v>
+        <v>8586.860000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>8586.860000000001</v>
+        <v>14167.86</v>
       </c>
       <c r="G11" t="n">
-        <v>14167.86</v>
+        <v>12114.4</v>
       </c>
       <c r="H11" t="n">
-        <v>12114.4</v>
+        <v>3571.900000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>3571.900000000001</v>
+        <v>4792.890000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>4792.890000000001</v>
+        <v>15575.08</v>
       </c>
       <c r="K11" t="n">
-        <v>15575.08</v>
+        <v>-8150.130000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>-8150.130000000001</v>
+        <v>-4846.439999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>-4846.439999999999</v>
+        <v>19811.26</v>
       </c>
       <c r="N11" t="n">
-        <v>19811.26</v>
+        <v>17280.46</v>
       </c>
       <c r="O11" t="n">
-        <v>17280.46</v>
+        <v>24593.29</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25159.3</v>
+        <v>-1609.630000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-1609.630000000001</v>
+        <v>16455.45</v>
       </c>
       <c r="D12" t="n">
-        <v>16455.45</v>
+        <v>31794.44</v>
       </c>
       <c r="E12" t="n">
-        <v>31794.44</v>
+        <v>22182.09</v>
       </c>
       <c r="F12" t="n">
-        <v>22182.09</v>
+        <v>35836.73</v>
       </c>
       <c r="G12" t="n">
-        <v>35836.73</v>
+        <v>35491.72</v>
       </c>
       <c r="H12" t="n">
-        <v>35491.72</v>
+        <v>25800.33</v>
       </c>
       <c r="I12" t="n">
-        <v>25800.33</v>
+        <v>9408.370000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>9408.370000000001</v>
+        <v>18428.37</v>
       </c>
       <c r="K12" t="n">
-        <v>18428.37</v>
+        <v>7916.3</v>
       </c>
       <c r="L12" t="n">
-        <v>7916.3</v>
+        <v>9151.040000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>9151.040000000001</v>
+        <v>5776.090000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>5776.090000000001</v>
+        <v>-41501.95</v>
       </c>
       <c r="O12" t="n">
-        <v>-41501.95</v>
+        <v>-40413.78</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-13742.74</v>
+        <v>29867.1</v>
       </c>
       <c r="C13" t="n">
-        <v>29867.1</v>
+        <v>39427.52</v>
       </c>
       <c r="D13" t="n">
-        <v>39427.52</v>
+        <v>41398.87</v>
       </c>
       <c r="E13" t="n">
-        <v>41398.87</v>
+        <v>32468.87</v>
       </c>
       <c r="F13" t="n">
-        <v>32468.87</v>
+        <v>41618.51</v>
       </c>
       <c r="G13" t="n">
-        <v>41618.51</v>
+        <v>29828.86</v>
       </c>
       <c r="H13" t="n">
-        <v>29828.86</v>
+        <v>28453.77</v>
       </c>
       <c r="I13" t="n">
-        <v>28453.77</v>
+        <v>27212.43</v>
       </c>
       <c r="J13" t="n">
-        <v>27212.43</v>
+        <v>38399.37</v>
       </c>
       <c r="K13" t="n">
-        <v>38399.37</v>
+        <v>-3405.98</v>
       </c>
       <c r="L13" t="n">
-        <v>-3405.98</v>
+        <v>13840.8</v>
       </c>
       <c r="M13" t="n">
-        <v>13840.8</v>
+        <v>-18111.02</v>
       </c>
       <c r="N13" t="n">
-        <v>-18111.02</v>
+        <v>-33853.97</v>
       </c>
       <c r="O13" t="n">
-        <v>-33853.97</v>
+        <v>-37935.94</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-114671.3</v>
+        <v>229373.71</v>
       </c>
       <c r="C14" t="n">
-        <v>209367.77</v>
+        <v>358775.1</v>
       </c>
       <c r="D14" t="n">
-        <v>335246.19</v>
+        <v>481824.2500000001</v>
       </c>
       <c r="E14" t="n">
-        <v>455147.61</v>
+        <v>421968.63</v>
       </c>
       <c r="F14" t="n">
-        <v>408249.95</v>
+        <v>362877.43</v>
       </c>
       <c r="G14" t="n">
-        <v>343891.46</v>
+        <v>211372.52</v>
       </c>
       <c r="H14" t="n">
-        <v>197150.59</v>
+        <v>91610.5</v>
       </c>
       <c r="I14" t="n">
-        <v>80993.37</v>
+        <v>-24801.41</v>
       </c>
       <c r="J14" t="n">
-        <v>-31381.41</v>
+        <v>-53689.09</v>
       </c>
       <c r="K14" t="n">
-        <v>-64838.11</v>
+        <v>-59514.99999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>-51718.68999999999</v>
+        <v>537.6400000000031</v>
       </c>
       <c r="M14" t="n">
-        <v>7690.950000000004</v>
+        <v>-104730.36</v>
       </c>
       <c r="N14" t="n">
-        <v>-91771.7</v>
+        <v>-199287.11</v>
       </c>
       <c r="O14" t="n">
-        <v>-177661.2</v>
+        <v>-206141.35</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24439.78</v>
+        <v>333593.11</v>
       </c>
       <c r="C15" t="n">
-        <v>297404.65</v>
+        <v>405938.66</v>
       </c>
       <c r="D15" t="n">
-        <v>373936.09</v>
+        <v>432458.82</v>
       </c>
       <c r="E15" t="n">
-        <v>395712.82</v>
+        <v>396218.93</v>
       </c>
       <c r="F15" t="n">
-        <v>352234.09</v>
+        <v>400321.49</v>
       </c>
       <c r="G15" t="n">
-        <v>348158.73</v>
+        <v>206889.91</v>
       </c>
       <c r="H15" t="n">
-        <v>174402.35</v>
+        <v>127272.8</v>
       </c>
       <c r="I15" t="n">
-        <v>98881.09999999998</v>
+        <v>150719.12</v>
       </c>
       <c r="J15" t="n">
-        <v>92224.83</v>
+        <v>2696.030000000003</v>
       </c>
       <c r="K15" t="n">
-        <v>-35124.13</v>
+        <v>-113083.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-79341</v>
+        <v>-54110.25</v>
       </c>
       <c r="M15" t="n">
-        <v>-12215.64</v>
+        <v>-282189.4</v>
       </c>
       <c r="N15" t="n">
-        <v>-219464.74</v>
+        <v>-393204.41</v>
       </c>
       <c r="O15" t="n">
-        <v>-316506.95</v>
+        <v>-239955.11</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6038.320000000008</v>
+        <v>140157.2</v>
       </c>
       <c r="C16" t="n">
-        <v>149809.88</v>
+        <v>198216.79</v>
       </c>
       <c r="D16" t="n">
-        <v>223368.12</v>
+        <v>334278.35</v>
       </c>
       <c r="E16" t="n">
-        <v>343086.03</v>
+        <v>282441.3</v>
       </c>
       <c r="F16" t="n">
-        <v>301240.48</v>
+        <v>240854.14</v>
       </c>
       <c r="G16" t="n">
-        <v>282756.08</v>
+        <v>64050.5</v>
       </c>
       <c r="H16" t="n">
-        <v>116693.94</v>
+        <v>115542.17</v>
       </c>
       <c r="I16" t="n">
-        <v>151461.85</v>
+        <v>-14704.54999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>80436.09000000001</v>
+        <v>7081.319999999995</v>
       </c>
       <c r="K16" t="n">
-        <v>72542.60000000001</v>
+        <v>50285.10999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>48339.73</v>
+        <v>149936.46</v>
       </c>
       <c r="M16" t="n">
-        <v>116893.82</v>
+        <v>-51854.46999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>-63912.53000000001</v>
+        <v>-190554.7</v>
       </c>
       <c r="O16" t="n">
-        <v>-166131.99</v>
+        <v>-162612.94</v>
       </c>
     </row>
     <row r="17">
@@ -1252,46 +1252,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5295.5</v>
+        <v>7115.06</v>
       </c>
       <c r="C17" t="n">
-        <v>7891.940000000001</v>
+        <v>-2164.63</v>
       </c>
       <c r="D17" t="n">
-        <v>-233.2700000000002</v>
+        <v>-2958.02</v>
       </c>
       <c r="E17" t="n">
-        <v>-1950.88</v>
+        <v>-508.1399999999996</v>
       </c>
       <c r="F17" t="n">
-        <v>-1211.8</v>
+        <v>819.9899999999997</v>
       </c>
       <c r="G17" t="n">
-        <v>2767.05</v>
+        <v>645.6399999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2542.559999999999</v>
+        <v>-5845.84</v>
       </c>
       <c r="I17" t="n">
-        <v>-3799.39</v>
+        <v>-456.2999999999994</v>
       </c>
       <c r="J17" t="n">
-        <v>1855.100000000001</v>
+        <v>3198.71</v>
       </c>
       <c r="K17" t="n">
-        <v>5286.88</v>
+        <v>-458.9699999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>-1668.84</v>
+        <v>2989.849999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>2644.059999999999</v>
+        <v>11090.37</v>
       </c>
       <c r="N17" t="n">
-        <v>12274.52</v>
+        <v>8886.1</v>
       </c>
       <c r="O17" t="n">
-        <v>10000.49</v>
+        <v>18404.83</v>
       </c>
     </row>
     <row r="18">
@@ -1301,4162 +1301,4211 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52384.96</v>
+        <v>33214.02</v>
       </c>
       <c r="C18" t="n">
-        <v>33214.02</v>
+        <v>5033.89</v>
       </c>
       <c r="D18" t="n">
-        <v>5033.89</v>
+        <v>-1782.76</v>
       </c>
       <c r="E18" t="n">
-        <v>-1782.76</v>
+        <v>4474.600000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>4474.600000000001</v>
+        <v>-5288.04</v>
       </c>
       <c r="G18" t="n">
-        <v>-5288.04</v>
+        <v>-54439.45</v>
       </c>
       <c r="H18" t="n">
-        <v>-54439.45</v>
+        <v>-16464.54</v>
       </c>
       <c r="I18" t="n">
-        <v>-16464.54</v>
+        <v>-34175.79</v>
       </c>
       <c r="J18" t="n">
-        <v>-34175.79</v>
+        <v>-32127.54</v>
       </c>
       <c r="K18" t="n">
-        <v>-32127.54</v>
+        <v>-42484.17</v>
       </c>
       <c r="L18" t="n">
-        <v>-42484.17</v>
+        <v>-36689.6</v>
       </c>
       <c r="M18" t="n">
-        <v>-36689.6</v>
+        <v>-54594.61</v>
       </c>
       <c r="N18" t="n">
-        <v>-54594.61</v>
+        <v>-58861.96</v>
       </c>
       <c r="O18" t="n">
-        <v>-58861.96</v>
+        <v>-65850.64999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>塑膠工業平</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3452.36</v>
+        <v>776.8800000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9826.090000000002</v>
+        <v>1931.36</v>
       </c>
       <c r="D19" t="n">
-        <v>12090.54</v>
+        <v>1007.14</v>
       </c>
       <c r="E19" t="n">
-        <v>20347.79</v>
+        <v>-703.66</v>
       </c>
       <c r="F19" t="n">
-        <v>21113.51</v>
+        <v>1947.06</v>
       </c>
       <c r="G19" t="n">
-        <v>24725.59</v>
+        <v>1896.92</v>
       </c>
       <c r="H19" t="n">
-        <v>25099.66</v>
+        <v>2046.45</v>
       </c>
       <c r="I19" t="n">
-        <v>29791.5</v>
+        <v>2311.4</v>
       </c>
       <c r="J19" t="n">
-        <v>15179.4</v>
+        <v>2088.17</v>
       </c>
       <c r="K19" t="n">
-        <v>-8803.469999999999</v>
+        <v>-1209.87</v>
       </c>
       <c r="L19" t="n">
-        <v>-15738.68</v>
+        <v>-345.79</v>
       </c>
       <c r="M19" t="n">
-        <v>-6677.67</v>
+        <v>1184.15</v>
       </c>
       <c r="N19" t="n">
-        <v>-22961.68</v>
+        <v>1114.39</v>
       </c>
       <c r="O19" t="n">
-        <v>-12698.33</v>
+        <v>712.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>居家生活右下</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1283.4</v>
+        <v>9793.000000000002</v>
       </c>
       <c r="C20" t="n">
-        <v>352.23</v>
+        <v>12042.28</v>
       </c>
       <c r="D20" t="n">
-        <v>3294.23</v>
+        <v>20316.31</v>
       </c>
       <c r="E20" t="n">
-        <v>-6176.290000000001</v>
+        <v>21078.32</v>
       </c>
       <c r="F20" t="n">
-        <v>-5981.89</v>
+        <v>24696.94</v>
       </c>
       <c r="G20" t="n">
-        <v>-1522.78</v>
+        <v>25068.33</v>
       </c>
       <c r="H20" t="n">
-        <v>909.2300000000005</v>
+        <v>29780.17</v>
       </c>
       <c r="I20" t="n">
-        <v>-5390.88</v>
+        <v>15168.47</v>
       </c>
       <c r="J20" t="n">
-        <v>-1689</v>
+        <v>-8798.35</v>
       </c>
       <c r="K20" t="n">
-        <v>-2663.77</v>
+        <v>-15765.63</v>
       </c>
       <c r="L20" t="n">
-        <v>-6676.75</v>
+        <v>-6707.75</v>
       </c>
       <c r="M20" t="n">
-        <v>-4243.25</v>
+        <v>-22989.77</v>
       </c>
       <c r="N20" t="n">
-        <v>3026.24</v>
+        <v>-12729.37</v>
       </c>
       <c r="O20" t="n">
-        <v>-3448.35</v>
+        <v>-17198.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-9017.92</v>
+        <v>344.54</v>
       </c>
       <c r="C21" t="n">
-        <v>-2061.69</v>
+        <v>3284.89</v>
       </c>
       <c r="D21" t="n">
-        <v>-111.6099999999999</v>
+        <v>-6170.08</v>
       </c>
       <c r="E21" t="n">
-        <v>4252.85</v>
+        <v>-5979.4</v>
       </c>
       <c r="F21" t="n">
-        <v>6331.95</v>
+        <v>-1522.78</v>
       </c>
       <c r="G21" t="n">
-        <v>8664.610000000001</v>
+        <v>-1638.4</v>
       </c>
       <c r="H21" t="n">
-        <v>6045.67</v>
+        <v>-6199.07</v>
       </c>
       <c r="I21" t="n">
-        <v>3545.11</v>
+        <v>-3015.29</v>
       </c>
       <c r="J21" t="n">
-        <v>-1431.34</v>
+        <v>-3756.33</v>
       </c>
       <c r="K21" t="n">
-        <v>2625.77</v>
+        <v>-8283.67</v>
       </c>
       <c r="L21" t="n">
-        <v>397.3000000000002</v>
+        <v>-5501.89</v>
       </c>
       <c r="M21" t="n">
-        <v>4225.34</v>
+        <v>6065.48</v>
       </c>
       <c r="N21" t="n">
-        <v>6357.18</v>
+        <v>1193.18</v>
       </c>
       <c r="O21" t="n">
-        <v>4978.74</v>
+        <v>2133.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>居家生活平</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55561.23</v>
+        <v>-239.3600000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-4247.4</v>
+        <v>2049.1</v>
       </c>
       <c r="D22" t="n">
-        <v>26523.58</v>
+        <v>7396.150000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>26302.54</v>
+        <v>8843.98</v>
       </c>
       <c r="F22" t="n">
-        <v>23581.95</v>
+        <v>12234.29</v>
       </c>
       <c r="G22" t="n">
-        <v>43233.82</v>
+        <v>8624.630000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>45752.49000000001</v>
+        <v>4364.63</v>
       </c>
       <c r="I22" t="n">
-        <v>34415.53</v>
+        <v>-2746.7</v>
       </c>
       <c r="J22" t="n">
-        <v>62455.19</v>
+        <v>1528.09</v>
       </c>
       <c r="K22" t="n">
-        <v>45667.64</v>
+        <v>-1182.67</v>
       </c>
       <c r="L22" t="n">
-        <v>-7622.630000000002</v>
+        <v>2996.78</v>
       </c>
       <c r="M22" t="n">
-        <v>-3521.440000000001</v>
+        <v>9439.050000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>3494.200000000001</v>
+        <v>7343.64</v>
       </c>
       <c r="O22" t="n">
-        <v>-15575.7</v>
+        <v>3616.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11711.59</v>
+        <v>-4212.43</v>
       </c>
       <c r="C23" t="n">
-        <v>-9246.630000000001</v>
+        <v>26547.7</v>
       </c>
       <c r="D23" t="n">
-        <v>-11866.4</v>
+        <v>26324.15</v>
       </c>
       <c r="E23" t="n">
-        <v>377.0399999999996</v>
+        <v>23599.43</v>
       </c>
       <c r="F23" t="n">
-        <v>-19357.59</v>
+        <v>43182.88</v>
       </c>
       <c r="G23" t="n">
-        <v>-20368.15</v>
+        <v>45634.12</v>
       </c>
       <c r="H23" t="n">
-        <v>-10584.44</v>
+        <v>34243.23</v>
       </c>
       <c r="I23" t="n">
-        <v>-2738.77</v>
+        <v>62297.72</v>
       </c>
       <c r="J23" t="n">
-        <v>16144.22</v>
+        <v>45466.7</v>
       </c>
       <c r="K23" t="n">
-        <v>23396.09</v>
+        <v>-7852.990000000003</v>
       </c>
       <c r="L23" t="n">
-        <v>11767.67</v>
+        <v>-3705.940000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>-4152.01</v>
+        <v>3383.100000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>-24266.1</v>
+        <v>-15698.76</v>
       </c>
       <c r="O23" t="n">
-        <v>-29278.16</v>
+        <v>8761.829999999996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27415.11</v>
+        <v>-17849.4</v>
       </c>
       <c r="C24" t="n">
-        <v>-78012.97</v>
+        <v>-16360.49</v>
       </c>
       <c r="D24" t="n">
-        <v>-34868.42</v>
+        <v>-4886.87</v>
       </c>
       <c r="E24" t="n">
-        <v>-19184</v>
+        <v>-26086.84</v>
       </c>
       <c r="F24" t="n">
-        <v>-50818.05</v>
+        <v>-26841.78</v>
       </c>
       <c r="G24" t="n">
-        <v>-35039.56</v>
+        <v>-10584.44</v>
       </c>
       <c r="H24" t="n">
-        <v>-37933.13</v>
+        <v>-2738.77</v>
       </c>
       <c r="I24" t="n">
-        <v>-37931.72</v>
+        <v>30180.96</v>
       </c>
       <c r="J24" t="n">
-        <v>4479.659999999999</v>
+        <v>40379.93</v>
       </c>
       <c r="K24" t="n">
-        <v>28275.6</v>
+        <v>23150.31</v>
       </c>
       <c r="L24" t="n">
-        <v>11463.43</v>
+        <v>-13251.21</v>
       </c>
       <c r="M24" t="n">
-        <v>30167.31</v>
+        <v>-42221.3</v>
       </c>
       <c r="N24" t="n">
-        <v>-19177.55</v>
+        <v>-61541.6</v>
       </c>
       <c r="O24" t="n">
-        <v>-49378.23</v>
+        <v>-67288.28999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17747.98</v>
+        <v>-78047.94</v>
       </c>
       <c r="C25" t="n">
-        <v>18881.07</v>
+        <v>-34892.54</v>
       </c>
       <c r="D25" t="n">
-        <v>16214.34</v>
+        <v>-19205.61</v>
       </c>
       <c r="E25" t="n">
-        <v>7841.049999999999</v>
+        <v>-50835.53</v>
       </c>
       <c r="F25" t="n">
-        <v>13266.22</v>
+        <v>-34988.62</v>
       </c>
       <c r="G25" t="n">
-        <v>6550.459999999999</v>
+        <v>-37814.76</v>
       </c>
       <c r="H25" t="n">
-        <v>-3358.88</v>
+        <v>-37759.42</v>
       </c>
       <c r="I25" t="n">
-        <v>-1579.34</v>
+        <v>4637.129999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>9889.83</v>
+        <v>28476.54</v>
       </c>
       <c r="K25" t="n">
-        <v>7082.389999999999</v>
+        <v>11693.79</v>
       </c>
       <c r="L25" t="n">
-        <v>9148.42</v>
+        <v>30351.81</v>
       </c>
       <c r="M25" t="n">
-        <v>8773.59</v>
+        <v>-19066.45</v>
       </c>
       <c r="N25" t="n">
-        <v>9691.940000000001</v>
+        <v>-49255.17</v>
       </c>
       <c r="O25" t="n">
-        <v>-1069.03</v>
+        <v>-65247.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-13690.07</v>
+        <v>18881.07</v>
       </c>
       <c r="C26" t="n">
-        <v>-10384.31</v>
+        <v>16214.34</v>
       </c>
       <c r="D26" t="n">
-        <v>-10889.05</v>
+        <v>7841.049999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>1011.81</v>
+        <v>13266.22</v>
       </c>
       <c r="F26" t="n">
-        <v>5568.080000000001</v>
+        <v>6550.459999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-2400.54</v>
+        <v>-3358.88</v>
       </c>
       <c r="H26" t="n">
-        <v>-2865.95</v>
+        <v>-1579.34</v>
       </c>
       <c r="I26" t="n">
-        <v>-6534.67</v>
+        <v>9889.83</v>
       </c>
       <c r="J26" t="n">
-        <v>-6437.02</v>
+        <v>7082.389999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-12922.81</v>
+        <v>9148.42</v>
       </c>
       <c r="L26" t="n">
-        <v>-6620.49</v>
+        <v>8773.59</v>
       </c>
       <c r="M26" t="n">
-        <v>-185.1799999999998</v>
+        <v>9691.940000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>2353.300000000001</v>
+        <v>-1069.03</v>
       </c>
       <c r="O26" t="n">
-        <v>-1361.64</v>
+        <v>-6343.639999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>數位雲端平</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5539.58</v>
+        <v>-10604.19</v>
       </c>
       <c r="C27" t="n">
-        <v>7896.88</v>
+        <v>-10672.64</v>
       </c>
       <c r="D27" t="n">
-        <v>8470.639999999999</v>
+        <v>1278.35</v>
       </c>
       <c r="E27" t="n">
-        <v>3217.88</v>
+        <v>5939.360000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>5856.81</v>
+        <v>-2036.53</v>
       </c>
       <c r="G27" t="n">
-        <v>5965.63</v>
+        <v>-2482.53</v>
       </c>
       <c r="H27" t="n">
-        <v>3481</v>
+        <v>-6522.56</v>
       </c>
       <c r="I27" t="n">
-        <v>-1122.46</v>
+        <v>-6586.380000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>8631.019999999999</v>
+        <v>-13094.84</v>
       </c>
       <c r="K27" t="n">
-        <v>5122.02</v>
+        <v>-6704.93</v>
       </c>
       <c r="L27" t="n">
-        <v>479.58</v>
+        <v>-314.1199999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>1861.61</v>
+        <v>2330.26</v>
       </c>
       <c r="N27" t="n">
-        <v>-4047.89</v>
+        <v>-1107.48</v>
       </c>
       <c r="O27" t="n">
-        <v>-7629.21</v>
+        <v>5415.990000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>數位雲端平</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1448.01</v>
+        <v>8116.76</v>
       </c>
       <c r="C28" t="n">
-        <v>412.1</v>
+        <v>8254.23</v>
       </c>
       <c r="D28" t="n">
-        <v>324.48</v>
+        <v>2951.34</v>
       </c>
       <c r="E28" t="n">
-        <v>331.34</v>
+        <v>5485.53</v>
       </c>
       <c r="F28" t="n">
-        <v>-624.1999999999999</v>
+        <v>5601.620000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-746.96</v>
+        <v>3097.58</v>
       </c>
       <c r="H28" t="n">
-        <v>-909.13</v>
+        <v>-1134.57</v>
       </c>
       <c r="I28" t="n">
-        <v>-1056.8</v>
+        <v>8780.379999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>-515.5700000000001</v>
+        <v>5294.05</v>
       </c>
       <c r="K28" t="n">
-        <v>-234.27</v>
+        <v>564.02</v>
       </c>
       <c r="L28" t="n">
-        <v>-271.44</v>
+        <v>1990.55</v>
       </c>
       <c r="M28" t="n">
-        <v>-141.93</v>
+        <v>-4024.85</v>
       </c>
       <c r="N28" t="n">
-        <v>-679.9000000000001</v>
+        <v>-7883.37</v>
       </c>
       <c r="O28" t="n">
-        <v>-964.8299999999999</v>
+        <v>-7804.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右下</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>745.79</v>
+        <v>412.1</v>
       </c>
       <c r="C29" t="n">
-        <v>653.42</v>
+        <v>324.48</v>
       </c>
       <c r="D29" t="n">
-        <v>473.63</v>
+        <v>331.34</v>
       </c>
       <c r="E29" t="n">
-        <v>231.1</v>
+        <v>-624.1999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>-328.2</v>
+        <v>-746.96</v>
       </c>
       <c r="G29" t="n">
-        <v>-268.98</v>
+        <v>-909.13</v>
       </c>
       <c r="H29" t="n">
-        <v>-195.8</v>
+        <v>-1056.8</v>
       </c>
       <c r="I29" t="n">
-        <v>-248.87</v>
+        <v>-515.5700000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>-73.48000000000002</v>
+        <v>-234.27</v>
       </c>
       <c r="K29" t="n">
-        <v>-115.19</v>
+        <v>-271.44</v>
       </c>
       <c r="L29" t="n">
-        <v>-276.02</v>
+        <v>-141.93</v>
       </c>
       <c r="M29" t="n">
-        <v>-92.20999999999999</v>
+        <v>-679.9000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>-415.75</v>
+        <v>-964.8299999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>-570.5799999999999</v>
+        <v>-1268.63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>文化創意業右下</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>994.34</v>
+        <v>645.4</v>
       </c>
       <c r="C30" t="n">
-        <v>864.67</v>
+        <v>465.5700000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>932.83</v>
+        <v>219.6</v>
       </c>
       <c r="E30" t="n">
-        <v>404.17</v>
+        <v>-333.84</v>
       </c>
       <c r="F30" t="n">
-        <v>-627.24</v>
+        <v>-287.52</v>
       </c>
       <c r="G30" t="n">
-        <v>-997.09</v>
+        <v>-210.37</v>
       </c>
       <c r="H30" t="n">
-        <v>-812.1900000000001</v>
+        <v>-268.09</v>
       </c>
       <c r="I30" t="n">
-        <v>-1075.94</v>
+        <v>-88.63000000000002</v>
       </c>
       <c r="J30" t="n">
-        <v>-681.95</v>
+        <v>-124.86</v>
       </c>
       <c r="K30" t="n">
-        <v>-488.64</v>
+        <v>-260.43</v>
       </c>
       <c r="L30" t="n">
-        <v>-826.2900000000001</v>
+        <v>-84.44999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>-715.21</v>
+        <v>-401.66</v>
       </c>
       <c r="N30" t="n">
-        <v>-1034.36</v>
+        <v>-558.35</v>
       </c>
       <c r="O30" t="n">
-        <v>-908.5999999999999</v>
+        <v>-536.6999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16219.79</v>
+        <v>872.6900000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>7513.5</v>
+        <v>940.89</v>
       </c>
       <c r="D31" t="n">
-        <v>5113.24</v>
+        <v>415.67</v>
       </c>
       <c r="E31" t="n">
-        <v>9318.27</v>
+        <v>-621.6</v>
       </c>
       <c r="F31" t="n">
-        <v>5305.37</v>
+        <v>-978.5500000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-4705.97</v>
+        <v>-797.62</v>
       </c>
       <c r="H31" t="n">
-        <v>7772.84</v>
+        <v>-1056.72</v>
       </c>
       <c r="I31" t="n">
-        <v>-1604.64</v>
+        <v>-666.8000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>9519.24</v>
+        <v>-478.97</v>
       </c>
       <c r="K31" t="n">
-        <v>3959.22</v>
+        <v>-841.88</v>
       </c>
       <c r="L31" t="n">
-        <v>10118.96</v>
+        <v>-722.97</v>
       </c>
       <c r="M31" t="n">
-        <v>-7216.240000000001</v>
+        <v>-1048.45</v>
       </c>
       <c r="N31" t="n">
-        <v>-9479.669999999998</v>
+        <v>-920.8299999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>-16268.77</v>
+        <v>-960.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14226.88</v>
+        <v>5648.690000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>1425.200000000001</v>
+        <v>5113.24</v>
       </c>
       <c r="D32" t="n">
-        <v>8757.880000000001</v>
+        <v>9318.27</v>
       </c>
       <c r="E32" t="n">
-        <v>12046.49</v>
+        <v>5305.37</v>
       </c>
       <c r="F32" t="n">
-        <v>7951.190000000001</v>
+        <v>-4705.97</v>
       </c>
       <c r="G32" t="n">
-        <v>9855.66</v>
+        <v>7772.84</v>
       </c>
       <c r="H32" t="n">
-        <v>-14581.76</v>
+        <v>-2560.830000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>-18683</v>
+        <v>4838.11</v>
       </c>
       <c r="J32" t="n">
-        <v>-17579.08</v>
+        <v>1027.99</v>
       </c>
       <c r="K32" t="n">
-        <v>-17643.5</v>
+        <v>8112.57</v>
       </c>
       <c r="L32" t="n">
-        <v>-22919.93</v>
+        <v>-5579.22</v>
       </c>
       <c r="M32" t="n">
-        <v>-9297.42</v>
+        <v>-7681.27</v>
       </c>
       <c r="N32" t="n">
-        <v>-15702.22</v>
+        <v>-17088.32</v>
       </c>
       <c r="O32" t="n">
-        <v>-21175.07</v>
+        <v>-22060.61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4088.69</v>
+        <v>1425.200000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>-1864.81</v>
+        <v>8757.880000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>12046.49</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>7951.190000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>9855.66</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-14581.76</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-18683</v>
       </c>
       <c r="I33" t="n">
-        <v>-956.1900000000001</v>
+        <v>-17579.08</v>
       </c>
       <c r="J33" t="n">
-        <v>-4681.13</v>
+        <v>-17643.5</v>
       </c>
       <c r="K33" t="n">
-        <v>-2931.23</v>
+        <v>-22919.93</v>
       </c>
       <c r="L33" t="n">
-        <v>-2006.39</v>
+        <v>-9297.42</v>
       </c>
       <c r="M33" t="n">
-        <v>1637.02</v>
+        <v>-15702.22</v>
       </c>
       <c r="N33" t="n">
-        <v>1798.4</v>
+        <v>-21175.07</v>
       </c>
       <c r="O33" t="n">
-        <v>-819.55</v>
+        <v>-20964.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16614.7</v>
+        <v>3072.82</v>
       </c>
       <c r="C34" t="n">
-        <v>8826.5</v>
+        <v>2387.68</v>
       </c>
       <c r="D34" t="n">
-        <v>8445.24</v>
+        <v>2443.17</v>
       </c>
       <c r="E34" t="n">
-        <v>-16575.43</v>
+        <v>1501.07</v>
       </c>
       <c r="F34" t="n">
-        <v>-16994.76</v>
+        <v>1142.12</v>
       </c>
       <c r="G34" t="n">
-        <v>-20828.29</v>
+        <v>-1339.53</v>
       </c>
       <c r="H34" t="n">
-        <v>-45604.16</v>
+        <v>1308.36</v>
       </c>
       <c r="I34" t="n">
-        <v>-37249.06</v>
+        <v>1361.69</v>
       </c>
       <c r="J34" t="n">
-        <v>-10778.74</v>
+        <v>873.33</v>
       </c>
       <c r="K34" t="n">
-        <v>-21827.62</v>
+        <v>3165.74</v>
       </c>
       <c r="L34" t="n">
-        <v>-28688.06</v>
+        <v>4511.05</v>
       </c>
       <c r="M34" t="n">
-        <v>24606.5</v>
+        <v>4877.3</v>
       </c>
       <c r="N34" t="n">
-        <v>-33551.98</v>
+        <v>4302.58</v>
       </c>
       <c r="O34" t="n">
-        <v>-30075.67</v>
+        <v>5057.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18390.12</v>
+        <v>16291.67</v>
       </c>
       <c r="C35" t="n">
-        <v>8756.75</v>
+        <v>17168.07</v>
       </c>
       <c r="D35" t="n">
-        <v>8151.96</v>
+        <v>-31247.41</v>
       </c>
       <c r="E35" t="n">
-        <v>-4680.860000000001</v>
+        <v>-31879.44</v>
       </c>
       <c r="F35" t="n">
-        <v>-4330.55</v>
+        <v>-39686.15</v>
       </c>
       <c r="G35" t="n">
-        <v>-4531.79</v>
+        <v>-45604.16</v>
       </c>
       <c r="H35" t="n">
-        <v>-13832.94</v>
+        <v>-37249.06</v>
       </c>
       <c r="I35" t="n">
-        <v>-4326.52</v>
+        <v>-22716</v>
       </c>
       <c r="J35" t="n">
-        <v>-10733.32</v>
+        <v>-45766.71999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-14382.58</v>
+        <v>-58008.62</v>
       </c>
       <c r="L35" t="n">
-        <v>-16432.41</v>
+        <v>49931.96</v>
       </c>
       <c r="M35" t="n">
-        <v>-13139.67</v>
+        <v>-64708.14</v>
       </c>
       <c r="N35" t="n">
-        <v>-20237.11</v>
+        <v>-110437.06</v>
       </c>
       <c r="O35" t="n">
-        <v>-16480.9</v>
+        <v>-19156.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6703.53</v>
+        <v>5683.93</v>
       </c>
       <c r="C36" t="n">
-        <v>8278.049999999999</v>
+        <v>5764.28</v>
       </c>
       <c r="D36" t="n">
-        <v>11313.59</v>
+        <v>-7124.030000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>18203.38</v>
+        <v>-5831.62</v>
       </c>
       <c r="F36" t="n">
-        <v>17994.61</v>
+        <v>-5673.91</v>
       </c>
       <c r="G36" t="n">
-        <v>13005.47</v>
+        <v>-12493.41</v>
       </c>
       <c r="H36" t="n">
-        <v>13723.68</v>
+        <v>-5634.88</v>
       </c>
       <c r="I36" t="n">
-        <v>9644.219999999999</v>
+        <v>-12095.01</v>
       </c>
       <c r="J36" t="n">
-        <v>9336</v>
+        <v>-15255.91</v>
       </c>
       <c r="K36" t="n">
-        <v>-9747.16</v>
+        <v>-19598.15</v>
       </c>
       <c r="L36" t="n">
-        <v>6436.14</v>
+        <v>-17650.72</v>
       </c>
       <c r="M36" t="n">
-        <v>8192.879999999999</v>
+        <v>-25114.41</v>
       </c>
       <c r="N36" t="n">
-        <v>-5122.45</v>
+        <v>-20783.48</v>
       </c>
       <c r="O36" t="n">
-        <v>-13801.78</v>
+        <v>-20021.61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22838.28</v>
+        <v>8278.049999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>41984.2</v>
+        <v>11313.59</v>
       </c>
       <c r="D37" t="n">
-        <v>21025.5</v>
+        <v>18203.38</v>
       </c>
       <c r="E37" t="n">
-        <v>34980.11</v>
+        <v>17994.61</v>
       </c>
       <c r="F37" t="n">
-        <v>29271.65</v>
+        <v>13005.47</v>
       </c>
       <c r="G37" t="n">
-        <v>-1888.129999999999</v>
+        <v>13723.68</v>
       </c>
       <c r="H37" t="n">
-        <v>-21699.57</v>
+        <v>9644.219999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>-14754.87</v>
+        <v>9336</v>
       </c>
       <c r="J37" t="n">
-        <v>-20307.81</v>
+        <v>-9747.16</v>
       </c>
       <c r="K37" t="n">
-        <v>-32093</v>
+        <v>6436.14</v>
       </c>
       <c r="L37" t="n">
-        <v>-32110.26</v>
+        <v>8192.879999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>-30126.87</v>
+        <v>-5122.45</v>
       </c>
       <c r="N37" t="n">
-        <v>-36651.72</v>
+        <v>-13801.78</v>
       </c>
       <c r="O37" t="n">
-        <v>-48468.83</v>
+        <v>-15296.93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-18936.49</v>
+        <v>32091.42</v>
       </c>
       <c r="C38" t="n">
-        <v>64586.24</v>
+        <v>26666.55</v>
       </c>
       <c r="D38" t="n">
-        <v>58335.85000000001</v>
+        <v>27211.44</v>
       </c>
       <c r="E38" t="n">
-        <v>55854.15</v>
+        <v>21843.03</v>
       </c>
       <c r="F38" t="n">
-        <v>44903.1</v>
+        <v>-7729.159999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>44577.03</v>
+        <v>-17838.83</v>
       </c>
       <c r="H38" t="n">
-        <v>1367.56</v>
+        <v>-10395.38</v>
       </c>
       <c r="I38" t="n">
-        <v>-20696.61</v>
+        <v>-17348.18</v>
       </c>
       <c r="J38" t="n">
-        <v>-21123.34</v>
+        <v>-28663.1</v>
       </c>
       <c r="K38" t="n">
-        <v>-31329.44</v>
+        <v>-24085.64</v>
       </c>
       <c r="L38" t="n">
-        <v>-45918.69</v>
+        <v>-21139.83</v>
       </c>
       <c r="M38" t="n">
-        <v>-13373.39</v>
+        <v>-27466.87</v>
       </c>
       <c r="N38" t="n">
-        <v>-23687.5</v>
+        <v>-38191.2</v>
       </c>
       <c r="O38" t="n">
-        <v>-56314.28</v>
+        <v>-18750.79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20992.12</v>
+        <v>74479.02</v>
       </c>
       <c r="C39" t="n">
-        <v>21298.16</v>
+        <v>52694.8</v>
       </c>
       <c r="D39" t="n">
-        <v>8394.290000000001</v>
+        <v>63622.82</v>
       </c>
       <c r="E39" t="n">
-        <v>5498.749999999999</v>
+        <v>52331.72</v>
       </c>
       <c r="F39" t="n">
-        <v>1655.93</v>
+        <v>50418.06</v>
       </c>
       <c r="G39" t="n">
-        <v>-13397.66</v>
+        <v>-2493.18</v>
       </c>
       <c r="H39" t="n">
-        <v>-22513.77</v>
+        <v>-25056.1</v>
       </c>
       <c r="I39" t="n">
-        <v>-3334.780000000001</v>
+        <v>-24082.97</v>
       </c>
       <c r="J39" t="n">
-        <v>-2803.660000000001</v>
+        <v>-34759.34</v>
       </c>
       <c r="K39" t="n">
-        <v>-3872.389999999999</v>
+        <v>-53943.31</v>
       </c>
       <c r="L39" t="n">
-        <v>-2316.650000000001</v>
+        <v>-22360.43</v>
       </c>
       <c r="M39" t="n">
-        <v>16423.45</v>
+        <v>-32872.35</v>
       </c>
       <c r="N39" t="n">
-        <v>7420.54</v>
+        <v>-66591.91</v>
       </c>
       <c r="O39" t="n">
-        <v>-8400.16</v>
+        <v>-27668.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8531.57</v>
+        <v>21298.16</v>
       </c>
       <c r="C40" t="n">
-        <v>6102.48</v>
+        <v>8394.290000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>3887.73</v>
+        <v>5498.749999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>3943.97</v>
+        <v>1655.930000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-2323.66</v>
+        <v>-13397.66</v>
       </c>
       <c r="G40" t="n">
-        <v>1588.69</v>
+        <v>-22513.77</v>
       </c>
       <c r="H40" t="n">
-        <v>7619.099999999999</v>
+        <v>-3334.78</v>
       </c>
       <c r="I40" t="n">
-        <v>9814.09</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>10117.7</v>
+        <v>-3872.39</v>
       </c>
       <c r="K40" t="n">
-        <v>9842.450000000001</v>
+        <v>-2316.650000000001</v>
       </c>
       <c r="L40" t="n">
-        <v>7723.59</v>
+        <v>16423.45</v>
       </c>
       <c r="M40" t="n">
-        <v>2985.55</v>
+        <v>7420.54</v>
       </c>
       <c r="N40" t="n">
-        <v>-5042.5</v>
+        <v>-8400.16</v>
       </c>
       <c r="O40" t="n">
-        <v>-6973.61</v>
+        <v>-1565.460000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2415.61</v>
+        <v>6102.48</v>
       </c>
       <c r="C41" t="n">
-        <v>1005.71</v>
+        <v>3887.73</v>
       </c>
       <c r="D41" t="n">
-        <v>-5354.98</v>
+        <v>3943.97</v>
       </c>
       <c r="E41" t="n">
-        <v>-3818.85</v>
+        <v>-2323.66</v>
       </c>
       <c r="F41" t="n">
-        <v>-4170.84</v>
+        <v>1588.69</v>
       </c>
       <c r="G41" t="n">
-        <v>-4793.76</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>-4975.110000000001</v>
+        <v>9814.09</v>
       </c>
       <c r="I41" t="n">
-        <v>-3596.11</v>
+        <v>10117.7</v>
       </c>
       <c r="J41" t="n">
-        <v>-2791.37</v>
+        <v>9842.450000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-2244.57</v>
+        <v>7723.59</v>
       </c>
       <c r="L41" t="n">
-        <v>3802.41</v>
+        <v>2985.55</v>
       </c>
       <c r="M41" t="n">
-        <v>3913.89</v>
+        <v>-5042.5</v>
       </c>
       <c r="N41" t="n">
-        <v>4196.91</v>
+        <v>-6973.61</v>
       </c>
       <c r="O41" t="n">
-        <v>2333.39</v>
+        <v>-6675.96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2587.06</v>
+        <v>1005.71</v>
       </c>
       <c r="C42" t="n">
-        <v>7570.96</v>
+        <v>-5354.98</v>
       </c>
       <c r="D42" t="n">
-        <v>-871.6400000000003</v>
+        <v>-3818.85</v>
       </c>
       <c r="E42" t="n">
-        <v>-1202.01</v>
+        <v>-4170.84</v>
       </c>
       <c r="F42" t="n">
-        <v>-2196.889999999999</v>
+        <v>-4793.76</v>
       </c>
       <c r="G42" t="n">
-        <v>-2224.09</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>-8874.900000000001</v>
+        <v>-3596.11</v>
       </c>
       <c r="I42" t="n">
-        <v>-8471.98</v>
+        <v>-2791.37</v>
       </c>
       <c r="J42" t="n">
-        <v>-8151.13</v>
+        <v>-2244.57</v>
       </c>
       <c r="K42" t="n">
-        <v>-8628.540000000001</v>
+        <v>3802.41</v>
       </c>
       <c r="L42" t="n">
-        <v>-6669.5</v>
+        <v>3913.89</v>
       </c>
       <c r="M42" t="n">
-        <v>-6093.22</v>
+        <v>4196.91</v>
       </c>
       <c r="N42" t="n">
-        <v>6444.210000000001</v>
+        <v>2333.39</v>
       </c>
       <c r="O42" t="n">
-        <v>17843.42</v>
+        <v>1927.77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1971.73</v>
+        <v>7570.96</v>
       </c>
       <c r="C43" t="n">
-        <v>1947.25</v>
+        <v>-871.6400000000003</v>
       </c>
       <c r="D43" t="n">
-        <v>1356.14</v>
+        <v>-1202.01</v>
       </c>
       <c r="E43" t="n">
-        <v>-663.53</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>-1633.76</v>
+        <v>-2224.09</v>
       </c>
       <c r="G43" t="n">
-        <v>-1341.96</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>-1967.27</v>
+        <v>-8471.98</v>
       </c>
       <c r="I43" t="n">
-        <v>-1885.33</v>
+        <v>-8151.13</v>
       </c>
       <c r="J43" t="n">
-        <v>-1353.23</v>
+        <v>-8628.540000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-1129.64</v>
+        <v>-6669.5</v>
       </c>
       <c r="L43" t="n">
-        <v>115.95</v>
+        <v>-6093.22</v>
       </c>
       <c r="M43" t="n">
-        <v>-297.44</v>
+        <v>6444.210000000001</v>
       </c>
       <c r="N43" t="n">
-        <v>3157.93</v>
+        <v>17843.42</v>
       </c>
       <c r="O43" t="n">
-        <v>5875.65</v>
+        <v>15413.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.580000000001519</v>
+        <v>1947.25</v>
       </c>
       <c r="C44" t="n">
-        <v>30657.25999999999</v>
+        <v>1356.14</v>
       </c>
       <c r="D44" t="n">
-        <v>36534.21</v>
+        <v>-663.53</v>
       </c>
       <c r="E44" t="n">
-        <v>25184.67</v>
+        <v>-1633.76</v>
       </c>
       <c r="F44" t="n">
-        <v>14575.14</v>
+        <v>-1341.96</v>
       </c>
       <c r="G44" t="n">
-        <v>21365.35</v>
+        <v>-1967.27</v>
       </c>
       <c r="H44" t="n">
-        <v>13893.02</v>
+        <v>-1885.33</v>
       </c>
       <c r="I44" t="n">
-        <v>-5980.79</v>
+        <v>-1353.23</v>
       </c>
       <c r="J44" t="n">
-        <v>10932.55</v>
+        <v>-1129.64</v>
       </c>
       <c r="K44" t="n">
-        <v>37298.23</v>
+        <v>115.95</v>
       </c>
       <c r="L44" t="n">
-        <v>26019.23</v>
+        <v>-297.44</v>
       </c>
       <c r="M44" t="n">
-        <v>27777.88</v>
+        <v>3157.93</v>
       </c>
       <c r="N44" t="n">
-        <v>24060.28</v>
+        <v>5875.65</v>
       </c>
       <c r="O44" t="n">
-        <v>12997.01</v>
+        <v>5191.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-9792.100000000002</v>
+        <v>32368.02</v>
       </c>
       <c r="C45" t="n">
-        <v>24120.2</v>
+        <v>38575.28</v>
       </c>
       <c r="D45" t="n">
-        <v>-15578.71</v>
+        <v>27498.82</v>
       </c>
       <c r="E45" t="n">
-        <v>19018.08</v>
+        <v>16703.31</v>
       </c>
       <c r="F45" t="n">
-        <v>-15752.13</v>
+        <v>23700.33000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-3088.229999999999</v>
+        <v>15663.77</v>
       </c>
       <c r="H45" t="n">
-        <v>1103.59</v>
+        <v>-4983.599999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>34934.48</v>
+        <v>11911.16</v>
       </c>
       <c r="J45" t="n">
-        <v>28247.09</v>
+        <v>39687.99000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>21721.65</v>
+        <v>28286.51</v>
       </c>
       <c r="L45" t="n">
-        <v>10909.61</v>
+        <v>30800.32</v>
       </c>
       <c r="M45" t="n">
-        <v>-11616.74</v>
+        <v>27458.47</v>
       </c>
       <c r="N45" t="n">
-        <v>10022.34</v>
+        <v>15654.79</v>
       </c>
       <c r="O45" t="n">
-        <v>-20327.44</v>
+        <v>9671.389999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-15609.19</v>
+        <v>23806.31</v>
       </c>
       <c r="C46" t="n">
-        <v>-14535.82</v>
+        <v>-16034.37</v>
       </c>
       <c r="D46" t="n">
-        <v>-39287.8</v>
+        <v>18518.91</v>
       </c>
       <c r="E46" t="n">
-        <v>-4979.779999999999</v>
+        <v>-13528.86</v>
       </c>
       <c r="F46" t="n">
-        <v>-39450.64999999999</v>
+        <v>-1112.96</v>
       </c>
       <c r="G46" t="n">
-        <v>-42236.77</v>
+        <v>-1772.69</v>
       </c>
       <c r="H46" t="n">
-        <v>-12337.09</v>
+        <v>31722.75</v>
       </c>
       <c r="I46" t="n">
-        <v>25477.56</v>
+        <v>25060.74</v>
       </c>
       <c r="J46" t="n">
-        <v>16404.46</v>
+        <v>17696.39</v>
       </c>
       <c r="K46" t="n">
-        <v>19638.4</v>
+        <v>7026.730000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>48613.31</v>
+        <v>-12347.3</v>
       </c>
       <c r="M46" t="n">
-        <v>56601.44</v>
+        <v>10892.9</v>
       </c>
       <c r="N46" t="n">
-        <v>39252.67</v>
+        <v>-17812.16</v>
       </c>
       <c r="O46" t="n">
-        <v>6605.040000000001</v>
+        <v>4090.07</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5950.25</v>
+        <v>-15998.75</v>
       </c>
       <c r="C47" t="n">
-        <v>3454.06</v>
+        <v>-40795.84</v>
       </c>
       <c r="D47" t="n">
-        <v>2010.17</v>
+        <v>-6599.25</v>
       </c>
       <c r="E47" t="n">
-        <v>1735.08</v>
+        <v>-43767.31</v>
       </c>
       <c r="F47" t="n">
-        <v>2224.13</v>
+        <v>-46395.78</v>
       </c>
       <c r="G47" t="n">
-        <v>3152.899999999999</v>
+        <v>-11247.39</v>
       </c>
       <c r="H47" t="n">
-        <v>9154.48</v>
+        <v>27644.75</v>
       </c>
       <c r="I47" t="n">
-        <v>16700.45</v>
+        <v>18539.58</v>
       </c>
       <c r="J47" t="n">
-        <v>18587.84</v>
+        <v>21243.92</v>
       </c>
       <c r="K47" t="n">
-        <v>20688.02</v>
+        <v>50250.82</v>
       </c>
       <c r="L47" t="n">
-        <v>21608.19</v>
+        <v>54353.02</v>
       </c>
       <c r="M47" t="n">
-        <v>21043.68</v>
+        <v>35020.48</v>
       </c>
       <c r="N47" t="n">
-        <v>16750.13</v>
+        <v>1342</v>
       </c>
       <c r="O47" t="n">
-        <v>13814.92</v>
+        <v>-1524.350000000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-27.43999999999801</v>
+        <v>3227.82</v>
       </c>
       <c r="C48" t="n">
-        <v>28898.96</v>
+        <v>2169.74</v>
       </c>
       <c r="D48" t="n">
-        <v>27826.98</v>
+        <v>2475.18</v>
       </c>
       <c r="E48" t="n">
-        <v>25449.47</v>
+        <v>3958.5</v>
       </c>
       <c r="F48" t="n">
-        <v>19619.3</v>
+        <v>4823.19</v>
       </c>
       <c r="G48" t="n">
-        <v>5474.329999999998</v>
+        <v>11198.98</v>
       </c>
       <c r="H48" t="n">
-        <v>-13197.12</v>
+        <v>18691.27</v>
       </c>
       <c r="I48" t="n">
-        <v>-6696.71</v>
+        <v>20293.79</v>
       </c>
       <c r="J48" t="n">
-        <v>-10386.98</v>
+        <v>21061.41</v>
       </c>
       <c r="K48" t="n">
-        <v>-36192.14</v>
+        <v>22356.02</v>
       </c>
       <c r="L48" t="n">
-        <v>-43700.77</v>
+        <v>20326.16</v>
       </c>
       <c r="M48" t="n">
-        <v>-30087.15</v>
+        <v>15833.74</v>
       </c>
       <c r="N48" t="n">
-        <v>-43258.4</v>
+        <v>13365.37</v>
       </c>
       <c r="O48" t="n">
-        <v>-45361.84</v>
+        <v>9049.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8734.639999999999</v>
+        <v>28893.16</v>
       </c>
       <c r="C49" t="n">
-        <v>-5858.389999999999</v>
+        <v>27837.63</v>
       </c>
       <c r="D49" t="n">
-        <v>-6416.320000000001</v>
+        <v>25457.78</v>
       </c>
       <c r="E49" t="n">
-        <v>-5117.09</v>
+        <v>19614.36</v>
       </c>
       <c r="F49" t="n">
-        <v>-12105.43</v>
+        <v>5464.389999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-10314.26</v>
+        <v>-13208.71</v>
       </c>
       <c r="H49" t="n">
-        <v>-13095.56</v>
+        <v>-6714.9</v>
       </c>
       <c r="I49" t="n">
-        <v>-16897.06</v>
+        <v>-10405.65</v>
       </c>
       <c r="J49" t="n">
-        <v>-12532.02</v>
+        <v>-36206.64999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-13537.46</v>
+        <v>-43713.37</v>
       </c>
       <c r="L49" t="n">
-        <v>-10149.1</v>
+        <v>-30102.87</v>
       </c>
       <c r="M49" t="n">
-        <v>10715.09</v>
+        <v>-43262.94</v>
       </c>
       <c r="N49" t="n">
-        <v>18685.38</v>
+        <v>-45357.02</v>
       </c>
       <c r="O49" t="n">
-        <v>11144.45</v>
+        <v>2129.93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17187.36</v>
+        <v>-5066.309999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>25811.45</v>
+        <v>-6024.73</v>
       </c>
       <c r="D50" t="n">
-        <v>27436.44</v>
+        <v>-5313.21</v>
       </c>
       <c r="E50" t="n">
-        <v>26229.08</v>
+        <v>-13513.44</v>
       </c>
       <c r="F50" t="n">
-        <v>25253.4</v>
+        <v>-12282.08</v>
       </c>
       <c r="G50" t="n">
-        <v>20738.07</v>
+        <v>-15459.29</v>
       </c>
       <c r="H50" t="n">
-        <v>11182.12</v>
+        <v>-19210.53</v>
       </c>
       <c r="I50" t="n">
-        <v>12624.43</v>
+        <v>-14777.45</v>
       </c>
       <c r="J50" t="n">
-        <v>5233.369999999999</v>
+        <v>-14449.07</v>
       </c>
       <c r="K50" t="n">
-        <v>20483.85</v>
+        <v>-11419.29</v>
       </c>
       <c r="L50" t="n">
-        <v>16934.61</v>
+        <v>11242.42</v>
       </c>
       <c r="M50" t="n">
-        <v>22309.04</v>
+        <v>19099.1</v>
       </c>
       <c r="N50" t="n">
-        <v>15414.61</v>
+        <v>11337.45</v>
       </c>
       <c r="O50" t="n">
-        <v>-4068.25</v>
+        <v>22734.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-15283.86</v>
+        <v>25811.45</v>
       </c>
       <c r="C51" t="n">
-        <v>-4314.28</v>
+        <v>27436.44</v>
       </c>
       <c r="D51" t="n">
-        <v>-5729.02</v>
+        <v>26229.08</v>
       </c>
       <c r="E51" t="n">
-        <v>5242.070000000001</v>
+        <v>25253.4</v>
       </c>
       <c r="F51" t="n">
-        <v>-5848.04</v>
+        <v>20738.07</v>
       </c>
       <c r="G51" t="n">
-        <v>-2526.209999999999</v>
+        <v>11182.12</v>
       </c>
       <c r="H51" t="n">
-        <v>19040.45</v>
+        <v>12624.43</v>
       </c>
       <c r="I51" t="n">
-        <v>25802.36</v>
+        <v>5233.369999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>23055.7</v>
+        <v>20483.85</v>
       </c>
       <c r="K51" t="n">
-        <v>21472.64</v>
+        <v>16934.61</v>
       </c>
       <c r="L51" t="n">
-        <v>19379.21</v>
+        <v>22309.04</v>
       </c>
       <c r="M51" t="n">
-        <v>-3300.88</v>
+        <v>15414.61</v>
       </c>
       <c r="N51" t="n">
-        <v>-23297.87</v>
+        <v>-4068.25</v>
       </c>
       <c r="O51" t="n">
-        <v>-24839.18</v>
+        <v>-21850.23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-23319.49</v>
+        <v>-6792.9</v>
       </c>
       <c r="C52" t="n">
-        <v>6222.23</v>
+        <v>-7782.95</v>
       </c>
       <c r="D52" t="n">
-        <v>-10531.8</v>
+        <v>2924.97</v>
       </c>
       <c r="E52" t="n">
-        <v>4776.84</v>
+        <v>-7940.51</v>
       </c>
       <c r="F52" t="n">
-        <v>6185.550000000001</v>
+        <v>-4773.099999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>16301.83</v>
+        <v>17026.57</v>
       </c>
       <c r="H52" t="n">
-        <v>23491.55</v>
+        <v>23419.66</v>
       </c>
       <c r="I52" t="n">
-        <v>-20949.67</v>
+        <v>20986.99</v>
       </c>
       <c r="J52" t="n">
-        <v>-24903.45</v>
+        <v>19321.74</v>
       </c>
       <c r="K52" t="n">
-        <v>-8626.190000000001</v>
+        <v>17538.91</v>
       </c>
       <c r="L52" t="n">
-        <v>-11568.38</v>
+        <v>-2974.059999999999</v>
       </c>
       <c r="M52" t="n">
-        <v>-23938.27</v>
+        <v>-22222.52</v>
       </c>
       <c r="N52" t="n">
-        <v>-9197.84</v>
+        <v>-23762.6</v>
       </c>
       <c r="O52" t="n">
-        <v>8598.23</v>
+        <v>-15751.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>103944.97</v>
+        <v>8671.860000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>125099.23</v>
+        <v>-8503.199999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>102800.78</v>
+        <v>7076.07</v>
       </c>
       <c r="E53" t="n">
-        <v>154303.3</v>
+        <v>8264.030000000002</v>
       </c>
       <c r="F53" t="n">
-        <v>173169.43</v>
+        <v>18537.53</v>
       </c>
       <c r="G53" t="n">
-        <v>216685.34</v>
+        <v>25520.44</v>
       </c>
       <c r="H53" t="n">
-        <v>192111.6</v>
+        <v>-18560.69</v>
       </c>
       <c r="I53" t="n">
-        <v>161032.12</v>
+        <v>-22849.72</v>
       </c>
       <c r="J53" t="n">
-        <v>155370.71</v>
+        <v>-6495.51</v>
       </c>
       <c r="K53" t="n">
-        <v>132498.07</v>
+        <v>-9743.270000000004</v>
       </c>
       <c r="L53" t="n">
-        <v>-115696.72</v>
+        <v>-24288</v>
       </c>
       <c r="M53" t="n">
-        <v>-86489.36</v>
+        <v>-10298.89</v>
       </c>
       <c r="N53" t="n">
-        <v>-152404.2</v>
+        <v>7496.259999999998</v>
       </c>
       <c r="O53" t="n">
-        <v>-158431.58</v>
+        <v>-22706.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26296.29</v>
+        <v>150691</v>
       </c>
       <c r="C54" t="n">
-        <v>26002.52</v>
+        <v>144197.86</v>
       </c>
       <c r="D54" t="n">
-        <v>4498.549999999999</v>
+        <v>207274.19</v>
       </c>
       <c r="E54" t="n">
-        <v>-6917.18</v>
+        <v>242442.93</v>
       </c>
       <c r="F54" t="n">
-        <v>-6873.239999999999</v>
+        <v>304975.79</v>
       </c>
       <c r="G54" t="n">
-        <v>3240.84</v>
+        <v>291889.72</v>
       </c>
       <c r="H54" t="n">
-        <v>-9331.309999999999</v>
+        <v>245736.24</v>
       </c>
       <c r="I54" t="n">
-        <v>-23188.26</v>
+        <v>242951.36</v>
       </c>
       <c r="J54" t="n">
-        <v>-28660.54</v>
+        <v>224845.7</v>
       </c>
       <c r="K54" t="n">
-        <v>-32572.61</v>
+        <v>-93342.28999999999</v>
       </c>
       <c r="L54" t="n">
-        <v>-42584.7</v>
+        <v>-153464.75</v>
       </c>
       <c r="M54" t="n">
-        <v>-23736.08</v>
+        <v>-172495.43</v>
       </c>
       <c r="N54" t="n">
-        <v>-17667.95</v>
+        <v>-223147.18</v>
       </c>
       <c r="O54" t="n">
-        <v>-28098.18</v>
+        <v>-277207.93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8786.040000000001</v>
+        <v>28201.61</v>
       </c>
       <c r="C55" t="n">
-        <v>50230.54</v>
+        <v>7114.269999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>19820.94</v>
+        <v>-3012.32</v>
       </c>
       <c r="E55" t="n">
-        <v>49517.17</v>
+        <v>-2952.249999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>48885.12</v>
+        <v>8266.52</v>
       </c>
       <c r="G55" t="n">
-        <v>91202.08</v>
+        <v>-5699.07</v>
       </c>
       <c r="H55" t="n">
-        <v>79770.94</v>
+        <v>-24659.89</v>
       </c>
       <c r="I55" t="n">
-        <v>30163.25999999999</v>
+        <v>-32006.87</v>
       </c>
       <c r="J55" t="n">
-        <v>28420</v>
+        <v>-34645.62</v>
       </c>
       <c r="K55" t="n">
-        <v>12831.81</v>
+        <v>-47074.77</v>
       </c>
       <c r="L55" t="n">
-        <v>-43140.56</v>
+        <v>-27440.3</v>
       </c>
       <c r="M55" t="n">
-        <v>-55142.61</v>
+        <v>-20152.47</v>
       </c>
       <c r="N55" t="n">
-        <v>-54221.8</v>
+        <v>-30681.84</v>
       </c>
       <c r="O55" t="n">
-        <v>-68076.38</v>
+        <v>-31185.96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>33011.72</v>
+        <v>50415.69</v>
       </c>
       <c r="C56" t="n">
-        <v>27089.94</v>
+        <v>19693.48</v>
       </c>
       <c r="D56" t="n">
-        <v>4792.469999999998</v>
+        <v>49219.16</v>
       </c>
       <c r="E56" t="n">
-        <v>6391.700000000001</v>
+        <v>48650</v>
       </c>
       <c r="F56" t="n">
-        <v>-1132.380000000001</v>
+        <v>90703.37</v>
       </c>
       <c r="G56" t="n">
-        <v>9069.630000000001</v>
+        <v>79414.47</v>
       </c>
       <c r="H56" t="n">
-        <v>18308.44</v>
+        <v>29956.48</v>
       </c>
       <c r="I56" t="n">
-        <v>26751.08</v>
+        <v>28303.13</v>
       </c>
       <c r="J56" t="n">
-        <v>31845.68</v>
+        <v>12575.97</v>
       </c>
       <c r="K56" t="n">
-        <v>36889.82</v>
+        <v>-42814.42</v>
       </c>
       <c r="L56" t="n">
-        <v>33232.64</v>
+        <v>-54966.02</v>
       </c>
       <c r="M56" t="n">
-        <v>27949.38</v>
+        <v>-54081.2</v>
       </c>
       <c r="N56" t="n">
-        <v>16488.15</v>
+        <v>-67885.68000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>11960.42</v>
+        <v>-56660.48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-4279.02</v>
+        <v>27089.94</v>
       </c>
       <c r="C57" t="n">
-        <v>-15229.33</v>
+        <v>4792.469999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>-12434.32</v>
+        <v>6391.700000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>-10600.55</v>
+        <v>-1132.380000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>-13995.71</v>
+        <v>9069.630000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>3475.23</v>
+        <v>18308.44</v>
       </c>
       <c r="H57" t="n">
-        <v>5500.219999999999</v>
+        <v>26751.08</v>
       </c>
       <c r="I57" t="n">
-        <v>5140.71</v>
+        <v>31845.68</v>
       </c>
       <c r="J57" t="n">
-        <v>7077.01</v>
+        <v>36889.82</v>
       </c>
       <c r="K57" t="n">
-        <v>6738.360000000001</v>
+        <v>33232.64</v>
       </c>
       <c r="L57" t="n">
-        <v>2057.57</v>
+        <v>27949.38</v>
       </c>
       <c r="M57" t="n">
-        <v>2357.09</v>
+        <v>16488.15</v>
       </c>
       <c r="N57" t="n">
-        <v>-3952.87</v>
+        <v>11960.42</v>
       </c>
       <c r="O57" t="n">
-        <v>-5240.62</v>
+        <v>-1580.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8289.309999999999</v>
+        <v>-8350.290000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>-4852.83</v>
+        <v>-15800.03</v>
       </c>
       <c r="D58" t="n">
-        <v>-2563.23</v>
+        <v>-13609.22</v>
       </c>
       <c r="E58" t="n">
-        <v>3242.85</v>
+        <v>-20563.86</v>
       </c>
       <c r="F58" t="n">
-        <v>-2908.29</v>
+        <v>11693.85</v>
       </c>
       <c r="G58" t="n">
-        <v>1825.86</v>
+        <v>15183.82</v>
       </c>
       <c r="H58" t="n">
-        <v>1665.4</v>
+        <v>14876.1</v>
       </c>
       <c r="I58" t="n">
-        <v>10186.14</v>
+        <v>16902.54</v>
       </c>
       <c r="J58" t="n">
-        <v>13485.57</v>
+        <v>16321.37</v>
       </c>
       <c r="K58" t="n">
-        <v>16790.62</v>
+        <v>7427.3</v>
       </c>
       <c r="L58" t="n">
-        <v>19814.84</v>
+        <v>3808.51</v>
       </c>
       <c r="M58" t="n">
-        <v>18764.4</v>
+        <v>-2551.86</v>
       </c>
       <c r="N58" t="n">
-        <v>19967.62</v>
+        <v>-3881.379999999999</v>
       </c>
       <c r="O58" t="n">
-        <v>16501.32</v>
+        <v>-7234.69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2343.3</v>
+        <v>-4060.45</v>
       </c>
       <c r="C59" t="n">
-        <v>2582.86</v>
+        <v>-1738.46</v>
       </c>
       <c r="D59" t="n">
-        <v>2322.9</v>
+        <v>4709.320000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>3573.53</v>
+        <v>-1506.28</v>
       </c>
       <c r="F59" t="n">
-        <v>2424.71</v>
+        <v>173.67</v>
       </c>
       <c r="G59" t="n">
-        <v>1813.25</v>
+        <v>-1430.6</v>
       </c>
       <c r="H59" t="n">
-        <v>1123.84</v>
+        <v>7310.51</v>
       </c>
       <c r="I59" t="n">
-        <v>2933.15</v>
+        <v>10286.06</v>
       </c>
       <c r="J59" t="n">
-        <v>1643.51</v>
+        <v>14151.03</v>
       </c>
       <c r="K59" t="n">
-        <v>2373.55</v>
+        <v>17445.43</v>
       </c>
       <c r="L59" t="n">
-        <v>2452.21</v>
+        <v>20429.81</v>
       </c>
       <c r="M59" t="n">
-        <v>3295.31</v>
+        <v>21648.55</v>
       </c>
       <c r="N59" t="n">
-        <v>36.36000000000001</v>
+        <v>18910.64</v>
       </c>
       <c r="O59" t="n">
-        <v>-2343.87</v>
+        <v>15651.33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17351.53</v>
+        <v>2582.86</v>
       </c>
       <c r="C60" t="n">
-        <v>22855.33</v>
+        <v>2322.9</v>
       </c>
       <c r="D60" t="n">
-        <v>-6082.640000000001</v>
+        <v>3573.53</v>
       </c>
       <c r="E60" t="n">
-        <v>-6590.25</v>
+        <v>2424.71</v>
       </c>
       <c r="F60" t="n">
-        <v>-8494.859999999999</v>
+        <v>1813.25</v>
       </c>
       <c r="G60" t="n">
-        <v>-7097.31</v>
+        <v>1123.84</v>
       </c>
       <c r="H60" t="n">
-        <v>-23325.01</v>
+        <v>2933.15</v>
       </c>
       <c r="I60" t="n">
-        <v>-16749.22</v>
+        <v>1643.51</v>
       </c>
       <c r="J60" t="n">
-        <v>-17232.59</v>
+        <v>2373.55</v>
       </c>
       <c r="K60" t="n">
-        <v>-31129.96</v>
+        <v>2452.21</v>
       </c>
       <c r="L60" t="n">
-        <v>-38301.2</v>
+        <v>3295.31</v>
       </c>
       <c r="M60" t="n">
-        <v>-31149.78</v>
+        <v>36.36000000000001</v>
       </c>
       <c r="N60" t="n">
-        <v>-39388.31</v>
+        <v>-2343.87</v>
       </c>
       <c r="O60" t="n">
-        <v>-42429.58</v>
+        <v>-4002.45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>537.1900000000001</v>
+        <v>22855.33</v>
       </c>
       <c r="C61" t="n">
-        <v>276.83</v>
+        <v>-6082.640000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>244.56</v>
+        <v>-6590.25</v>
       </c>
       <c r="E61" t="n">
-        <v>-369.75</v>
+        <v>-8494.859999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>214.69</v>
+        <v>-7097.31</v>
       </c>
       <c r="G61" t="n">
-        <v>91.28</v>
+        <v>-23325.01</v>
       </c>
       <c r="H61" t="n">
-        <v>108.41</v>
+        <v>-16749.22</v>
       </c>
       <c r="I61" t="n">
-        <v>-251.36</v>
+        <v>-17232.59</v>
       </c>
       <c r="J61" t="n">
-        <v>-191.87</v>
+        <v>-31129.96</v>
       </c>
       <c r="K61" t="n">
-        <v>-336.55</v>
+        <v>-38301.2</v>
       </c>
       <c r="L61" t="n">
-        <v>-371.92</v>
+        <v>-31149.78</v>
       </c>
       <c r="M61" t="n">
-        <v>229.93</v>
+        <v>-39388.31</v>
       </c>
       <c r="N61" t="n">
-        <v>788.48</v>
+        <v>-42429.58</v>
       </c>
       <c r="O61" t="n">
-        <v>609.88</v>
+        <v>-45843.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-2076.679999999998</v>
+        <v>276.83</v>
       </c>
       <c r="C62" t="n">
-        <v>-22029.63</v>
+        <v>244.56</v>
       </c>
       <c r="D62" t="n">
-        <v>-15011.07</v>
+        <v>-369.75</v>
       </c>
       <c r="E62" t="n">
-        <v>6289.279999999997</v>
+        <v>214.69</v>
       </c>
       <c r="F62" t="n">
-        <v>-10442.21</v>
+        <v>91.28</v>
       </c>
       <c r="G62" t="n">
-        <v>-23087.8</v>
+        <v>108.41</v>
       </c>
       <c r="H62" t="n">
-        <v>-13546.82</v>
+        <v>-251.36</v>
       </c>
       <c r="I62" t="n">
-        <v>11528.12</v>
+        <v>-191.87</v>
       </c>
       <c r="J62" t="n">
-        <v>4325.18</v>
+        <v>-336.55</v>
       </c>
       <c r="K62" t="n">
-        <v>-21191.17</v>
+        <v>-371.92</v>
       </c>
       <c r="L62" t="n">
-        <v>-21442.56</v>
+        <v>229.93</v>
       </c>
       <c r="M62" t="n">
-        <v>-17988.68</v>
+        <v>788.48</v>
       </c>
       <c r="N62" t="n">
-        <v>-34403.12</v>
+        <v>609.88</v>
       </c>
       <c r="O62" t="n">
-        <v>-45698.88</v>
+        <v>622.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-4323.69</v>
+        <v>-22003.27</v>
       </c>
       <c r="C63" t="n">
-        <v>6196.53</v>
+        <v>-14973.68</v>
       </c>
       <c r="D63" t="n">
-        <v>2283.73</v>
+        <v>6363.109999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>7975.45</v>
+        <v>-10392.71</v>
       </c>
       <c r="F63" t="n">
-        <v>-2069.54</v>
+        <v>-23124.79</v>
       </c>
       <c r="G63" t="n">
-        <v>1495.88</v>
+        <v>-13581.37</v>
       </c>
       <c r="H63" t="n">
-        <v>-5461.4</v>
+        <v>11478</v>
       </c>
       <c r="I63" t="n">
-        <v>-6954.309999999999</v>
+        <v>4247.9</v>
       </c>
       <c r="J63" t="n">
-        <v>-6997.080000000001</v>
+        <v>-21135.63</v>
       </c>
       <c r="K63" t="n">
-        <v>-2955.75</v>
+        <v>-21323.93</v>
       </c>
       <c r="L63" t="n">
-        <v>5027.6</v>
+        <v>-17966.93</v>
       </c>
       <c r="M63" t="n">
-        <v>5152.59</v>
+        <v>-34310.12</v>
       </c>
       <c r="N63" t="n">
-        <v>1152.35</v>
+        <v>-45721.88</v>
       </c>
       <c r="O63" t="n">
-        <v>-5208.7</v>
+        <v>-39864.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-29490.93</v>
+        <v>6205.24</v>
       </c>
       <c r="C64" t="n">
-        <v>-6815.4</v>
+        <v>2294.92</v>
       </c>
       <c r="D64" t="n">
-        <v>-32208.73</v>
+        <v>7973.63</v>
       </c>
       <c r="E64" t="n">
-        <v>-16016.79</v>
+        <v>-2069.38</v>
       </c>
       <c r="F64" t="n">
-        <v>-5638</v>
+        <v>1418.2</v>
       </c>
       <c r="G64" t="n">
-        <v>-19662.54</v>
+        <v>-5511.7</v>
       </c>
       <c r="H64" t="n">
-        <v>-28833.61</v>
+        <v>-7094.53</v>
       </c>
       <c r="I64" t="n">
-        <v>-17611.86</v>
+        <v>-7126.700000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>-17975.52</v>
+        <v>-3036.7</v>
       </c>
       <c r="K64" t="n">
-        <v>-10442.73</v>
+        <v>5142.530000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>-2870.22</v>
+        <v>5389.25</v>
       </c>
       <c r="M64" t="n">
-        <v>7163.839999999999</v>
+        <v>1451.15</v>
       </c>
       <c r="N64" t="n">
-        <v>-2650.430000000001</v>
+        <v>-4847.58</v>
       </c>
       <c r="O64" t="n">
-        <v>-16633.7</v>
+        <v>-5417.670000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-16.02</v>
+        <v>-6841.76</v>
       </c>
       <c r="C65" t="n">
-        <v>-35.25</v>
+        <v>-32246.12</v>
       </c>
       <c r="D65" t="n">
-        <v>-46.57</v>
+        <v>-16090.62</v>
       </c>
       <c r="E65" t="n">
-        <v>-39.82</v>
+        <v>-5687.5</v>
       </c>
       <c r="F65" t="n">
-        <v>-32.55</v>
+        <v>-19625.55</v>
       </c>
       <c r="G65" t="n">
-        <v>13.58</v>
+        <v>-28799.06</v>
       </c>
       <c r="H65" t="n">
-        <v>-10.24</v>
+        <v>-17561.74</v>
       </c>
       <c r="I65" t="n">
-        <v>24.5</v>
+        <v>-17898.24</v>
       </c>
       <c r="J65" t="n">
-        <v>16.79</v>
+        <v>-10498.27</v>
       </c>
       <c r="K65" t="n">
-        <v>15.46</v>
+        <v>-2988.85</v>
       </c>
       <c r="L65" t="n">
-        <v>9.52</v>
+        <v>7142.089999999999</v>
       </c>
       <c r="M65" t="n">
-        <v>14.87</v>
+        <v>-2743.430000000001</v>
       </c>
       <c r="N65" t="n">
-        <v>13.15</v>
+        <v>-16610.7</v>
       </c>
       <c r="O65" t="n">
-        <v>-1.18</v>
+        <v>-12255.34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.889999999999998</v>
+        <v>-35.25</v>
       </c>
       <c r="C66" t="n">
-        <v>34.4</v>
+        <v>-46.57</v>
       </c>
       <c r="D66" t="n">
-        <v>28.07000000000001</v>
+        <v>-39.82</v>
       </c>
       <c r="E66" t="n">
-        <v>56.78</v>
+        <v>-32.55</v>
       </c>
       <c r="F66" t="n">
-        <v>44.7</v>
+        <v>13.58</v>
       </c>
       <c r="G66" t="n">
-        <v>43.35</v>
+        <v>-10.24</v>
       </c>
       <c r="H66" t="n">
-        <v>54.3</v>
+        <v>24.5</v>
       </c>
       <c r="I66" t="n">
-        <v>17.86</v>
+        <v>16.79</v>
       </c>
       <c r="J66" t="n">
-        <v>-12.32</v>
+        <v>15.46</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.93</v>
+        <v>9.52</v>
       </c>
       <c r="L66" t="n">
-        <v>-46.23</v>
+        <v>14.87</v>
       </c>
       <c r="M66" t="n">
-        <v>-43.39</v>
+        <v>13.15</v>
       </c>
       <c r="N66" t="n">
-        <v>-26.44</v>
+        <v>-1.18</v>
       </c>
       <c r="O66" t="n">
-        <v>39.67</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>165078.27</v>
+        <v>34.4</v>
       </c>
       <c r="C67" t="n">
-        <v>176849.97</v>
+        <v>28.07000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>97385.89</v>
+        <v>56.78</v>
       </c>
       <c r="E67" t="n">
-        <v>102918.42</v>
+        <v>44.7</v>
       </c>
       <c r="F67" t="n">
-        <v>125876.73</v>
+        <v>43.35</v>
       </c>
       <c r="G67" t="n">
-        <v>59227.1</v>
+        <v>54.3</v>
       </c>
       <c r="H67" t="n">
-        <v>5360.560000000001</v>
+        <v>17.86</v>
       </c>
       <c r="I67" t="n">
-        <v>48644.21</v>
+        <v>-12.32</v>
       </c>
       <c r="J67" t="n">
-        <v>57910.23</v>
+        <v>-13.93</v>
       </c>
       <c r="K67" t="n">
-        <v>34336.86</v>
+        <v>-46.23</v>
       </c>
       <c r="L67" t="n">
-        <v>23213.14</v>
+        <v>-43.39</v>
       </c>
       <c r="M67" t="n">
-        <v>100725.7</v>
+        <v>-26.44</v>
       </c>
       <c r="N67" t="n">
-        <v>43159.79</v>
+        <v>39.67</v>
       </c>
       <c r="O67" t="n">
-        <v>25573.53999999999</v>
+        <v>115.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-30868.63</v>
+        <v>179144.62</v>
       </c>
       <c r="C68" t="n">
-        <v>47760.84</v>
+        <v>96928.67</v>
       </c>
       <c r="D68" t="n">
-        <v>55191.34</v>
+        <v>105728.98</v>
       </c>
       <c r="E68" t="n">
-        <v>88539.64</v>
+        <v>127891.91</v>
       </c>
       <c r="F68" t="n">
-        <v>64924.06</v>
+        <v>62791.35</v>
       </c>
       <c r="G68" t="n">
-        <v>42618.58</v>
+        <v>7420.160000000002</v>
       </c>
       <c r="H68" t="n">
-        <v>-17991.2</v>
+        <v>46955.86</v>
       </c>
       <c r="I68" t="n">
-        <v>-20568.15</v>
+        <v>54280.81</v>
       </c>
       <c r="J68" t="n">
-        <v>-30249.34</v>
+        <v>30306.62</v>
       </c>
       <c r="K68" t="n">
-        <v>-54271.18</v>
+        <v>17839.09</v>
       </c>
       <c r="L68" t="n">
-        <v>-58809.87</v>
+        <v>96510.44</v>
       </c>
       <c r="M68" t="n">
-        <v>-25805.51</v>
+        <v>38762.48</v>
       </c>
       <c r="N68" t="n">
-        <v>-37736.57</v>
+        <v>21328.15999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>-40180.24</v>
+        <v>-8255.079999999991</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-13764.54</v>
+        <v>39558.71</v>
       </c>
       <c r="C69" t="n">
-        <v>22149.51</v>
+        <v>47057.02</v>
       </c>
       <c r="D69" t="n">
-        <v>-4937.989999999998</v>
+        <v>74827.71000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>27981.47</v>
+        <v>55234.13</v>
       </c>
       <c r="F69" t="n">
-        <v>1095.290000000001</v>
+        <v>43587.13</v>
       </c>
       <c r="G69" t="n">
-        <v>2605.049999999998</v>
+        <v>-7967.440000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>-28019.99</v>
+        <v>-9900.610000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>-11057.89</v>
+        <v>-15773.16</v>
       </c>
       <c r="J69" t="n">
-        <v>-26336.87</v>
+        <v>-41436.84</v>
       </c>
       <c r="K69" t="n">
-        <v>-20192.16</v>
+        <v>-50786.62</v>
       </c>
       <c r="L69" t="n">
-        <v>-14305.54</v>
+        <v>-25608.17</v>
       </c>
       <c r="M69" t="n">
-        <v>-720.1599999999994</v>
+        <v>-37366.87</v>
       </c>
       <c r="N69" t="n">
-        <v>-10551.87</v>
+        <v>-50015.91</v>
       </c>
       <c r="O69" t="n">
-        <v>-33611.6</v>
+        <v>-36332.03</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7025.67</v>
+        <v>28953.74</v>
       </c>
       <c r="C70" t="n">
-        <v>3081.04</v>
+        <v>3598.58</v>
       </c>
       <c r="D70" t="n">
-        <v>3537.57</v>
+        <v>39617.68</v>
       </c>
       <c r="E70" t="n">
-        <v>2983.72</v>
+        <v>9691.74</v>
       </c>
       <c r="F70" t="n">
-        <v>3269.62</v>
+        <v>-1197.219999999998</v>
       </c>
       <c r="G70" t="n">
-        <v>6795.81</v>
+        <v>-38951.31</v>
       </c>
       <c r="H70" t="n">
-        <v>15082.53</v>
+        <v>-18860.77</v>
       </c>
       <c r="I70" t="n">
-        <v>7816</v>
+        <v>-36094.56</v>
       </c>
       <c r="J70" t="n">
-        <v>9969</v>
+        <v>-27964.77</v>
       </c>
       <c r="K70" t="n">
-        <v>17075.94</v>
+        <v>-15848.27</v>
       </c>
       <c r="L70" t="n">
-        <v>21390.43</v>
+        <v>3688.9</v>
       </c>
       <c r="M70" t="n">
-        <v>-11594.59</v>
+        <v>-5949.050000000002</v>
       </c>
       <c r="N70" t="n">
-        <v>-10818.11</v>
+        <v>-19858.55</v>
       </c>
       <c r="O70" t="n">
-        <v>-8828.860000000001</v>
+        <v>-2083.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>16573.3</v>
+        <v>3081.04</v>
       </c>
       <c r="C71" t="n">
-        <v>9470.34</v>
+        <v>3537.57</v>
       </c>
       <c r="D71" t="n">
-        <v>5606.08</v>
+        <v>2983.72</v>
       </c>
       <c r="E71" t="n">
-        <v>-2505.78</v>
+        <v>3269.62</v>
       </c>
       <c r="F71" t="n">
-        <v>-4807.98</v>
+        <v>6795.81</v>
       </c>
       <c r="G71" t="n">
-        <v>-1099.52</v>
+        <v>15082.53</v>
       </c>
       <c r="H71" t="n">
-        <v>-3764.1</v>
+        <v>7816</v>
       </c>
       <c r="I71" t="n">
-        <v>-5474.559999999999</v>
+        <v>9969</v>
       </c>
       <c r="J71" t="n">
-        <v>-2212.01</v>
+        <v>17075.94</v>
       </c>
       <c r="K71" t="n">
-        <v>-1661.96</v>
+        <v>21390.43</v>
       </c>
       <c r="L71" t="n">
-        <v>-11496.78</v>
+        <v>-11594.59</v>
       </c>
       <c r="M71" t="n">
-        <v>-9426</v>
+        <v>-10818.11</v>
       </c>
       <c r="N71" t="n">
-        <v>-11474.73</v>
+        <v>-8828.860000000001</v>
       </c>
       <c r="O71" t="n">
-        <v>-12650.24</v>
+        <v>-18293.97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2056.75</v>
+        <v>9470.34</v>
       </c>
       <c r="C72" t="n">
-        <v>2189.5</v>
+        <v>5606.08</v>
       </c>
       <c r="D72" t="n">
-        <v>2674.5</v>
+        <v>-2505.78</v>
       </c>
       <c r="E72" t="n">
-        <v>-1299.63</v>
+        <v>-4807.98</v>
       </c>
       <c r="F72" t="n">
-        <v>2721.08</v>
+        <v>-1099.52</v>
       </c>
       <c r="G72" t="n">
-        <v>1042.69</v>
+        <v>-3764.1</v>
       </c>
       <c r="H72" t="n">
-        <v>-1963</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>-1253.52</v>
+        <v>-2212.01</v>
       </c>
       <c r="J72" t="n">
-        <v>1160.14</v>
+        <v>-1661.96</v>
       </c>
       <c r="K72" t="n">
-        <v>336</v>
+        <v>-11496.78</v>
       </c>
       <c r="L72" t="n">
-        <v>-425.27</v>
+        <v>-9426</v>
       </c>
       <c r="M72" t="n">
-        <v>1851.85</v>
+        <v>-11474.73</v>
       </c>
       <c r="N72" t="n">
-        <v>1381.31</v>
+        <v>-12650.24</v>
       </c>
       <c r="O72" t="n">
-        <v>685.05</v>
+        <v>-9110.389999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-12715.73</v>
+        <v>2189.5</v>
       </c>
       <c r="C73" t="n">
-        <v>7835.679999999999</v>
+        <v>2674.5</v>
       </c>
       <c r="D73" t="n">
-        <v>20163.07</v>
+        <v>-1299.63</v>
       </c>
       <c r="E73" t="n">
-        <v>19485.38</v>
+        <v>2721.08</v>
       </c>
       <c r="F73" t="n">
-        <v>13508.61</v>
+        <v>1042.69</v>
       </c>
       <c r="G73" t="n">
-        <v>24312.4</v>
+        <v>-1963</v>
       </c>
       <c r="H73" t="n">
-        <v>21640.18</v>
+        <v>-1253.52</v>
       </c>
       <c r="I73" t="n">
-        <v>17476.58</v>
+        <v>1160.14</v>
       </c>
       <c r="J73" t="n">
-        <v>7093.139999999999</v>
+        <v>336</v>
       </c>
       <c r="K73" t="n">
-        <v>6721.270000000001</v>
+        <v>-425.27</v>
       </c>
       <c r="L73" t="n">
-        <v>6599.690000000002</v>
+        <v>1851.85</v>
       </c>
       <c r="M73" t="n">
-        <v>2252.24</v>
+        <v>1381.31</v>
       </c>
       <c r="N73" t="n">
-        <v>-15117.35</v>
+        <v>685.05</v>
       </c>
       <c r="O73" t="n">
-        <v>-24625.81</v>
+        <v>1330.41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-12795.86</v>
+        <v>11311.89</v>
       </c>
       <c r="C74" t="n">
-        <v>28348.95</v>
+        <v>23304.6</v>
       </c>
       <c r="D74" t="n">
-        <v>56458.23</v>
+        <v>21721.34</v>
       </c>
       <c r="E74" t="n">
-        <v>49622.54</v>
+        <v>16269.02</v>
       </c>
       <c r="F74" t="n">
-        <v>25276.3</v>
+        <v>27549.82</v>
       </c>
       <c r="G74" t="n">
-        <v>7347.160000000001</v>
+        <v>22483.71</v>
       </c>
       <c r="H74" t="n">
-        <v>-44366.65</v>
+        <v>15603.65</v>
       </c>
       <c r="I74" t="n">
-        <v>-65521.65</v>
+        <v>5513.02</v>
       </c>
       <c r="J74" t="n">
-        <v>-66261.57000000001</v>
+        <v>5076.240000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>-78993.46000000001</v>
+        <v>4057.160000000002</v>
       </c>
       <c r="L74" t="n">
-        <v>-73695.51000000001</v>
+        <v>-30.66000000000031</v>
       </c>
       <c r="M74" t="n">
-        <v>-59207.97</v>
+        <v>-16386.93</v>
       </c>
       <c r="N74" t="n">
-        <v>-61851.01</v>
+        <v>-23215.79</v>
       </c>
       <c r="O74" t="n">
-        <v>-70953.23</v>
+        <v>-10332.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5055.059999999999</v>
+        <v>28348.95</v>
       </c>
       <c r="C75" t="n">
-        <v>6723.64</v>
+        <v>56458.23</v>
       </c>
       <c r="D75" t="n">
-        <v>3925.59</v>
+        <v>49622.54</v>
       </c>
       <c r="E75" t="n">
-        <v>12178.69</v>
+        <v>25276.3</v>
       </c>
       <c r="F75" t="n">
-        <v>9266.25</v>
+        <v>7347.160000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>9924.440000000001</v>
+        <v>-44366.65</v>
       </c>
       <c r="H75" t="n">
-        <v>751.4099999999999</v>
+        <v>-65521.65</v>
       </c>
       <c r="I75" t="n">
-        <v>202.1800000000001</v>
+        <v>-66261.57000000001</v>
       </c>
       <c r="J75" t="n">
-        <v>-5945.41</v>
+        <v>-78993.46000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-4722.389999999999</v>
+        <v>-73695.51000000001</v>
       </c>
       <c r="L75" t="n">
-        <v>-2423.590000000001</v>
+        <v>-59207.97</v>
       </c>
       <c r="M75" t="n">
-        <v>-2085.28</v>
+        <v>-61851.01</v>
       </c>
       <c r="N75" t="n">
-        <v>-6459.43</v>
+        <v>-70953.23</v>
       </c>
       <c r="O75" t="n">
-        <v>-6790.02</v>
+        <v>-26267.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>76055.49000000001</v>
+        <v>3247.43</v>
       </c>
       <c r="C76" t="n">
-        <v>197921.56</v>
+        <v>784.0599999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>119764.18</v>
+        <v>9942.730000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>149901.4</v>
+        <v>6505.84</v>
       </c>
       <c r="F76" t="n">
-        <v>183488.14</v>
+        <v>6687.02</v>
       </c>
       <c r="G76" t="n">
-        <v>159579.13</v>
+        <v>-92.11999999999989</v>
       </c>
       <c r="H76" t="n">
-        <v>95740.29000000001</v>
+        <v>2075.11</v>
       </c>
       <c r="I76" t="n">
-        <v>145576.16</v>
+        <v>-4365.29</v>
       </c>
       <c r="J76" t="n">
-        <v>164716.78</v>
+        <v>-3077.36</v>
       </c>
       <c r="K76" t="n">
-        <v>85693.40000000001</v>
+        <v>118.9399999999996</v>
       </c>
       <c r="L76" t="n">
-        <v>29055.3</v>
+        <v>197.6200000000003</v>
       </c>
       <c r="M76" t="n">
-        <v>32910.89999999999</v>
+        <v>-5189.85</v>
       </c>
       <c r="N76" t="n">
-        <v>-110515.63</v>
+        <v>-8200.040000000001</v>
       </c>
       <c r="O76" t="n">
-        <v>-202467.03</v>
+        <v>-2280.44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6182.43</v>
+        <v>190815.75</v>
       </c>
       <c r="C77" t="n">
-        <v>32458.79</v>
+        <v>126101.9</v>
       </c>
       <c r="D77" t="n">
-        <v>15350.53</v>
+        <v>158245.12</v>
       </c>
       <c r="E77" t="n">
-        <v>28069.91</v>
+        <v>189944.87</v>
       </c>
       <c r="F77" t="n">
-        <v>32292.41</v>
+        <v>166009.3</v>
       </c>
       <c r="G77" t="n">
-        <v>27675.77</v>
+        <v>102469.5</v>
       </c>
       <c r="H77" t="n">
-        <v>10573.59</v>
+        <v>140135.18</v>
       </c>
       <c r="I77" t="n">
-        <v>12897.6</v>
+        <v>154903.22</v>
       </c>
       <c r="J77" t="n">
-        <v>13935.88</v>
+        <v>77470</v>
       </c>
       <c r="K77" t="n">
-        <v>-8310.219999999999</v>
+        <v>23909.55</v>
       </c>
       <c r="L77" t="n">
-        <v>-19965.96</v>
+        <v>25081.53</v>
       </c>
       <c r="M77" t="n">
-        <v>5392.519999999999</v>
+        <v>-115110.91</v>
       </c>
       <c r="N77" t="n">
-        <v>2876.529999999999</v>
+        <v>-199253.53</v>
       </c>
       <c r="O77" t="n">
-        <v>-24372.99</v>
+        <v>-310835.89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-34908.70999999999</v>
+        <v>32799.46</v>
       </c>
       <c r="C78" t="n">
-        <v>630.1500000000042</v>
+        <v>10120.67</v>
       </c>
       <c r="D78" t="n">
-        <v>9308.34</v>
+        <v>28023.14</v>
       </c>
       <c r="E78" t="n">
-        <v>70351.86</v>
+        <v>33295.11</v>
       </c>
       <c r="F78" t="n">
-        <v>63769.79</v>
+        <v>26718.75</v>
       </c>
       <c r="G78" t="n">
-        <v>50272.86</v>
+        <v>5370.559999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>38081.23</v>
+        <v>11977.59</v>
       </c>
       <c r="I78" t="n">
-        <v>39805.28000000001</v>
+        <v>15332.18</v>
       </c>
       <c r="J78" t="n">
-        <v>42931.56</v>
+        <v>-7061.719999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>54063.99000000001</v>
+        <v>-14752.27</v>
       </c>
       <c r="L78" t="n">
-        <v>33600.68</v>
+        <v>12434.15</v>
       </c>
       <c r="M78" t="n">
-        <v>52667.74</v>
+        <v>8880.110000000001</v>
       </c>
       <c r="N78" t="n">
-        <v>-17612.03</v>
+        <v>-19105.36</v>
       </c>
       <c r="O78" t="n">
-        <v>-67950.60000000001</v>
+        <v>-36474.46000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>46.77</v>
+        <v>7395.29</v>
       </c>
       <c r="C79" t="n">
-        <v>103.37</v>
+        <v>8200.48</v>
       </c>
       <c r="D79" t="n">
-        <v>69.03</v>
+        <v>62054.91</v>
       </c>
       <c r="E79" t="n">
-        <v>100.51</v>
+        <v>56310.35999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>101.47</v>
+        <v>44799.71</v>
       </c>
       <c r="G79" t="n">
-        <v>67.81999999999999</v>
+        <v>36555.05</v>
       </c>
       <c r="H79" t="n">
-        <v>-19.41</v>
+        <v>46166.27</v>
       </c>
       <c r="I79" t="n">
-        <v>42.88</v>
+        <v>51348.82</v>
       </c>
       <c r="J79" t="n">
-        <v>-35.43</v>
+        <v>61038.89</v>
       </c>
       <c r="K79" t="n">
-        <v>-13.5</v>
+        <v>33532.74</v>
       </c>
       <c r="L79" t="n">
-        <v>62.3</v>
+        <v>53455.48</v>
       </c>
       <c r="M79" t="n">
-        <v>51.25</v>
+        <v>-19020.33</v>
       </c>
       <c r="N79" t="n">
-        <v>-22.25</v>
+        <v>-76431.73</v>
       </c>
       <c r="O79" t="n">
-        <v>48.63</v>
+        <v>-40555.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-114.17</v>
+        <v>103.37</v>
       </c>
       <c r="C80" t="n">
-        <v>3.68</v>
+        <v>69.03</v>
       </c>
       <c r="D80" t="n">
-        <v>46.41</v>
+        <v>100.51</v>
       </c>
       <c r="E80" t="n">
-        <v>116.27</v>
+        <v>101.47</v>
       </c>
       <c r="F80" t="n">
-        <v>100.02</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>153.09</v>
+        <v>-19.41</v>
       </c>
       <c r="H80" t="n">
-        <v>111.09</v>
+        <v>42.88</v>
       </c>
       <c r="I80" t="n">
-        <v>35.44</v>
+        <v>-35.43</v>
       </c>
       <c r="J80" t="n">
-        <v>9.510000000000005</v>
+        <v>-13.5</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.749999999999996</v>
+        <v>62.3</v>
       </c>
       <c r="L80" t="n">
-        <v>-15.28</v>
+        <v>51.25</v>
       </c>
       <c r="M80" t="n">
-        <v>12.38</v>
+        <v>-22.25</v>
       </c>
       <c r="N80" t="n">
-        <v>-66.33</v>
+        <v>48.63</v>
       </c>
       <c r="O80" t="n">
-        <v>-112.42</v>
+        <v>87.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-89.38999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="C81" t="n">
-        <v>-69.38</v>
+        <v>46.41</v>
       </c>
       <c r="D81" t="n">
-        <v>2.530000000000001</v>
+        <v>116.27</v>
       </c>
       <c r="E81" t="n">
-        <v>103.61</v>
+        <v>100.02</v>
       </c>
       <c r="F81" t="n">
-        <v>158.06</v>
+        <v>153.09</v>
       </c>
       <c r="G81" t="n">
-        <v>154.87</v>
+        <v>111.09</v>
       </c>
       <c r="H81" t="n">
-        <v>116.4</v>
+        <v>35.44</v>
       </c>
       <c r="I81" t="n">
-        <v>40.79</v>
+        <v>9.510000000000005</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.6999999999999957</v>
+        <v>-2.749999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>-66.46000000000001</v>
+        <v>-15.28</v>
       </c>
       <c r="L81" t="n">
-        <v>-68.78</v>
+        <v>12.38</v>
       </c>
       <c r="M81" t="n">
-        <v>-46.32</v>
+        <v>-66.33</v>
       </c>
       <c r="N81" t="n">
-        <v>-47.37</v>
+        <v>-112.42</v>
       </c>
       <c r="O81" t="n">
-        <v>8.539999999999999</v>
+        <v>-83.85000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>13096.06</v>
+        <v>-69.38</v>
       </c>
       <c r="C82" t="n">
-        <v>14479.31</v>
+        <v>2.530000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>13982.04</v>
+        <v>103.61</v>
       </c>
       <c r="E82" t="n">
-        <v>15109.87</v>
+        <v>158.06</v>
       </c>
       <c r="F82" t="n">
-        <v>12622.31</v>
+        <v>154.87</v>
       </c>
       <c r="G82" t="n">
-        <v>16538.91</v>
+        <v>116.4</v>
       </c>
       <c r="H82" t="n">
-        <v>20268.35</v>
+        <v>40.79</v>
       </c>
       <c r="I82" t="n">
-        <v>21238.62</v>
+        <v>-0.6999999999999957</v>
       </c>
       <c r="J82" t="n">
-        <v>23728.19</v>
+        <v>-66.46000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>17972.32</v>
+        <v>-68.78</v>
       </c>
       <c r="L82" t="n">
-        <v>11780.18</v>
+        <v>-46.32</v>
       </c>
       <c r="M82" t="n">
-        <v>9792.619999999999</v>
+        <v>-47.37</v>
       </c>
       <c r="N82" t="n">
-        <v>13887.89</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="O82" t="n">
-        <v>-29787.92</v>
+        <v>57.63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-24846.39</v>
+        <v>14479.31</v>
       </c>
       <c r="C83" t="n">
-        <v>20486.00999999999</v>
+        <v>13982.04</v>
       </c>
       <c r="D83" t="n">
-        <v>-3262.98</v>
+        <v>15109.87</v>
       </c>
       <c r="E83" t="n">
-        <v>28415.62</v>
+        <v>12622.31</v>
       </c>
       <c r="F83" t="n">
-        <v>11434.57</v>
+        <v>16538.91</v>
       </c>
       <c r="G83" t="n">
-        <v>1638.209999999997</v>
+        <v>20268.35</v>
       </c>
       <c r="H83" t="n">
-        <v>-28025.7</v>
+        <v>21238.62</v>
       </c>
       <c r="I83" t="n">
-        <v>-14954.72</v>
+        <v>23728.19</v>
       </c>
       <c r="J83" t="n">
-        <v>-49097.17</v>
+        <v>17972.32</v>
       </c>
       <c r="K83" t="n">
-        <v>-46366.47</v>
+        <v>11780.18</v>
       </c>
       <c r="L83" t="n">
-        <v>-40582.77</v>
+        <v>9792.619999999999</v>
       </c>
       <c r="M83" t="n">
-        <v>-14620.75</v>
+        <v>13887.89</v>
       </c>
       <c r="N83" t="n">
-        <v>-46671.77</v>
+        <v>-29787.92</v>
       </c>
       <c r="O83" t="n">
-        <v>-60524.61</v>
+        <v>-23277.49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>24552.95</v>
+        <v>19572.96</v>
       </c>
       <c r="C84" t="n">
-        <v>13432.39</v>
+        <v>-2964.77</v>
       </c>
       <c r="D84" t="n">
-        <v>12702.04</v>
+        <v>28631.59</v>
       </c>
       <c r="E84" t="n">
-        <v>-11925.24</v>
+        <v>11027.09</v>
       </c>
       <c r="F84" t="n">
-        <v>-12846.14</v>
+        <v>2308.839999999997</v>
       </c>
       <c r="G84" t="n">
-        <v>-19561.61</v>
+        <v>-28461.51</v>
       </c>
       <c r="H84" t="n">
-        <v>-19577.31</v>
+        <v>-14477.81</v>
       </c>
       <c r="I84" t="n">
-        <v>-6825.6</v>
+        <v>-48639.2</v>
       </c>
       <c r="J84" t="n">
-        <v>-3623.049999999999</v>
+        <v>-45734.28</v>
       </c>
       <c r="K84" t="n">
-        <v>7953.61</v>
+        <v>-41027.86</v>
       </c>
       <c r="L84" t="n">
-        <v>12049.18</v>
+        <v>-14119.09</v>
       </c>
       <c r="M84" t="n">
-        <v>-11960.46</v>
+        <v>-46785.62</v>
       </c>
       <c r="N84" t="n">
-        <v>-21534.55</v>
+        <v>-61348.3</v>
       </c>
       <c r="O84" t="n">
-        <v>-18879.5</v>
+        <v>-58441.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>16161.33</v>
+        <v>13488.34</v>
       </c>
       <c r="C85" t="n">
-        <v>16061.35</v>
+        <v>12780.17</v>
       </c>
       <c r="D85" t="n">
-        <v>-4242.959999999999</v>
+        <v>-11863.26</v>
       </c>
       <c r="E85" t="n">
-        <v>9830.5</v>
+        <v>-12815.96</v>
       </c>
       <c r="F85" t="n">
-        <v>26721.99</v>
+        <v>-19637.7</v>
       </c>
       <c r="G85" t="n">
-        <v>32915.09</v>
+        <v>-19635.58</v>
       </c>
       <c r="H85" t="n">
-        <v>31468.97</v>
+        <v>-6918.460000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>35584.98</v>
+        <v>-3692.44</v>
       </c>
       <c r="J85" t="n">
-        <v>32671.87</v>
+        <v>7918.87</v>
       </c>
       <c r="K85" t="n">
-        <v>11772.22</v>
+        <v>12090.43</v>
       </c>
       <c r="L85" t="n">
-        <v>-6436.71</v>
+        <v>-11992.94</v>
       </c>
       <c r="M85" t="n">
-        <v>7586.07</v>
+        <v>-21506.35</v>
       </c>
       <c r="N85" t="n">
-        <v>-9718.789999999999</v>
+        <v>-18853.85</v>
       </c>
       <c r="O85" t="n">
-        <v>-757.1099999999997</v>
+        <v>-30428.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9057.32</v>
+        <v>16061.35</v>
       </c>
       <c r="C86" t="n">
-        <v>22126.7</v>
+        <v>-4242.959999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>21743.02</v>
+        <v>9830.5</v>
       </c>
       <c r="E86" t="n">
-        <v>20013.63</v>
+        <v>26721.99</v>
       </c>
       <c r="F86" t="n">
-        <v>17952.5</v>
+        <v>32915.09</v>
       </c>
       <c r="G86" t="n">
-        <v>21296.51</v>
+        <v>31468.97</v>
       </c>
       <c r="H86" t="n">
-        <v>11336.31</v>
+        <v>35584.98</v>
       </c>
       <c r="I86" t="n">
-        <v>13808.91</v>
+        <v>32671.87</v>
       </c>
       <c r="J86" t="n">
-        <v>3596.87</v>
+        <v>11772.22</v>
       </c>
       <c r="K86" t="n">
-        <v>-43.51000000000022</v>
+        <v>-6436.71</v>
       </c>
       <c r="L86" t="n">
-        <v>-11130.59</v>
+        <v>7586.07</v>
       </c>
       <c r="M86" t="n">
-        <v>-7237.390000000001</v>
+        <v>-9718.789999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>-17411.95</v>
+        <v>-757.1099999999997</v>
       </c>
       <c r="O86" t="n">
-        <v>-18147.65</v>
+        <v>5714.879999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-4078.31</v>
+        <v>22126.7</v>
       </c>
       <c r="C87" t="n">
-        <v>3296.63</v>
+        <v>21743.02</v>
       </c>
       <c r="D87" t="n">
-        <v>-7418.669999999999</v>
+        <v>20013.63</v>
       </c>
       <c r="E87" t="n">
-        <v>10511.69</v>
+        <v>17952.5</v>
       </c>
       <c r="F87" t="n">
-        <v>13735.89</v>
+        <v>21296.51</v>
       </c>
       <c r="G87" t="n">
-        <v>21992.43</v>
+        <v>11336.31</v>
       </c>
       <c r="H87" t="n">
-        <v>15412.33</v>
+        <v>13808.91</v>
       </c>
       <c r="I87" t="n">
-        <v>15861.03</v>
+        <v>3596.87</v>
       </c>
       <c r="J87" t="n">
-        <v>12424.15</v>
+        <v>-43.51000000000022</v>
       </c>
       <c r="K87" t="n">
-        <v>-4053.84</v>
+        <v>-11130.59</v>
       </c>
       <c r="L87" t="n">
-        <v>-15087.53</v>
+        <v>-7237.390000000001</v>
       </c>
       <c r="M87" t="n">
-        <v>-9344.17</v>
+        <v>-17411.95</v>
       </c>
       <c r="N87" t="n">
-        <v>-14443.84</v>
+        <v>-18147.65</v>
       </c>
       <c r="O87" t="n">
-        <v>-16442.79</v>
+        <v>-18031.27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-17590.87</v>
+        <v>3296.63</v>
       </c>
       <c r="C88" t="n">
-        <v>28603.16</v>
+        <v>-7418.669999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>28491.07</v>
+        <v>10511.69</v>
       </c>
       <c r="E88" t="n">
-        <v>30262.37</v>
+        <v>13735.89</v>
       </c>
       <c r="F88" t="n">
-        <v>12001.76</v>
+        <v>21992.43</v>
       </c>
       <c r="G88" t="n">
-        <v>34763.82000000001</v>
+        <v>15412.33</v>
       </c>
       <c r="H88" t="n">
-        <v>22935.69</v>
+        <v>15861.03</v>
       </c>
       <c r="I88" t="n">
-        <v>-13470.86</v>
+        <v>12424.15</v>
       </c>
       <c r="J88" t="n">
-        <v>28943.77</v>
+        <v>-4053.84</v>
       </c>
       <c r="K88" t="n">
-        <v>16788.66</v>
+        <v>-15087.53</v>
       </c>
       <c r="L88" t="n">
-        <v>24068.86</v>
+        <v>-9344.17</v>
       </c>
       <c r="M88" t="n">
-        <v>28395.14</v>
+        <v>-14443.84</v>
       </c>
       <c r="N88" t="n">
-        <v>42027.91</v>
+        <v>-16442.79</v>
       </c>
       <c r="O88" t="n">
-        <v>-9778.49</v>
+        <v>-13928.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3024</v>
+        <v>38602.22</v>
       </c>
       <c r="C89" t="n">
-        <v>5863.76</v>
+        <v>39177.95</v>
       </c>
       <c r="D89" t="n">
-        <v>2759.82</v>
+        <v>46564.22</v>
       </c>
       <c r="E89" t="n">
-        <v>3042.1</v>
+        <v>26662.63</v>
       </c>
       <c r="F89" t="n">
-        <v>-593.9099999999999</v>
+        <v>47845.5</v>
       </c>
       <c r="G89" t="n">
-        <v>-8614.200000000001</v>
+        <v>32750.87</v>
       </c>
       <c r="H89" t="n">
-        <v>-11561.14</v>
+        <v>-12711.49</v>
       </c>
       <c r="I89" t="n">
-        <v>-10313.2</v>
+        <v>24847.22</v>
       </c>
       <c r="J89" t="n">
-        <v>-10132.11</v>
+        <v>14522.11</v>
       </c>
       <c r="K89" t="n">
-        <v>-9093.23</v>
+        <v>15528.52</v>
       </c>
       <c r="L89" t="n">
-        <v>-5310.7</v>
+        <v>24501.43</v>
       </c>
       <c r="M89" t="n">
-        <v>-4587.23</v>
+        <v>41352.22</v>
       </c>
       <c r="N89" t="n">
-        <v>-6240.599999999999</v>
+        <v>-11373.38</v>
       </c>
       <c r="O89" t="n">
-        <v>-9115.57</v>
+        <v>637.9700000000003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>15932.79</v>
+        <v>5836.88</v>
       </c>
       <c r="C90" t="n">
-        <v>44888.09</v>
+        <v>2724.26</v>
       </c>
       <c r="D90" t="n">
-        <v>24128.4</v>
+        <v>3013.31</v>
       </c>
       <c r="E90" t="n">
-        <v>35489.2</v>
+        <v>-622.71</v>
       </c>
       <c r="F90" t="n">
-        <v>8251.76</v>
+        <v>-8646.9</v>
       </c>
       <c r="G90" t="n">
-        <v>49069.6</v>
+        <v>-11583.43</v>
       </c>
       <c r="H90" t="n">
-        <v>15393.56</v>
+        <v>-10296.67</v>
       </c>
       <c r="I90" t="n">
-        <v>25767.52</v>
+        <v>-10116.34</v>
       </c>
       <c r="J90" t="n">
-        <v>19179.25</v>
+        <v>-9102.23</v>
       </c>
       <c r="K90" t="n">
-        <v>19818.62</v>
+        <v>-5330.33</v>
       </c>
       <c r="L90" t="n">
-        <v>-9251.33</v>
+        <v>-4601.56</v>
       </c>
       <c r="M90" t="n">
-        <v>-3065.980000000001</v>
+        <v>-6269.52</v>
       </c>
       <c r="N90" t="n">
-        <v>6199.480000000001</v>
+        <v>-9151.870000000001</v>
       </c>
       <c r="O90" t="n">
-        <v>7267.24</v>
+        <v>-10370.63</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>216441.07</v>
+        <v>41713.07</v>
       </c>
       <c r="C91" t="n">
-        <v>281919.78</v>
+        <v>22853.16</v>
       </c>
       <c r="D91" t="n">
-        <v>231201.31</v>
+        <v>31647.48</v>
       </c>
       <c r="E91" t="n">
-        <v>296624.82</v>
+        <v>3614.54</v>
       </c>
       <c r="F91" t="n">
-        <v>258412.74</v>
+        <v>45385.66</v>
       </c>
       <c r="G91" t="n">
-        <v>211268.48</v>
+        <v>11790.84</v>
       </c>
       <c r="H91" t="n">
-        <v>125390.8</v>
+        <v>21203.28</v>
       </c>
       <c r="I91" t="n">
-        <v>185505.35</v>
+        <v>16864.29</v>
       </c>
       <c r="J91" t="n">
-        <v>176872.98</v>
+        <v>18598.9</v>
       </c>
       <c r="K91" t="n">
-        <v>163631.7</v>
+        <v>-7046.990000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>146372.6</v>
+        <v>-1702.620000000001</v>
       </c>
       <c r="M91" t="n">
-        <v>158043.51</v>
+        <v>8435.370000000001</v>
       </c>
       <c r="N91" t="n">
-        <v>110080.95</v>
+        <v>9162.289999999999</v>
       </c>
       <c r="O91" t="n">
-        <v>107217.38</v>
+        <v>25814.44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>58520.46999999999</v>
+        <v>346319.51</v>
       </c>
       <c r="C92" t="n">
-        <v>225478.62</v>
+        <v>277093.19</v>
       </c>
       <c r="D92" t="n">
-        <v>199011.26</v>
+        <v>362110.74</v>
       </c>
       <c r="E92" t="n">
-        <v>249231.83</v>
+        <v>277873.23</v>
       </c>
       <c r="F92" t="n">
-        <v>185163.89</v>
+        <v>185859.77</v>
       </c>
       <c r="G92" t="n">
-        <v>155418.78</v>
+        <v>99600.77</v>
       </c>
       <c r="H92" t="n">
-        <v>-31009.51</v>
+        <v>173270.93</v>
       </c>
       <c r="I92" t="n">
-        <v>-12617.49999999999</v>
+        <v>187444.96</v>
       </c>
       <c r="J92" t="n">
-        <v>-55271.8</v>
+        <v>175829.6</v>
       </c>
       <c r="K92" t="n">
-        <v>-29066.05</v>
+        <v>129954.84</v>
       </c>
       <c r="L92" t="n">
-        <v>-23683.48</v>
+        <v>144210.35</v>
       </c>
       <c r="M92" t="n">
-        <v>36771.66</v>
+        <v>78178.51999999999</v>
       </c>
       <c r="N92" t="n">
-        <v>25820.36</v>
+        <v>63842.49999999999</v>
       </c>
       <c r="O92" t="n">
-        <v>-63773.45</v>
+        <v>220106.55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-390.3099999999986</v>
+        <v>235329.25</v>
       </c>
       <c r="C93" t="n">
-        <v>67465.23</v>
+        <v>210113.22</v>
       </c>
       <c r="D93" t="n">
-        <v>101012.78</v>
+        <v>255415.65</v>
       </c>
       <c r="E93" t="n">
-        <v>196659.32</v>
+        <v>189673.45</v>
       </c>
       <c r="F93" t="n">
-        <v>113795.12</v>
+        <v>164003.47</v>
       </c>
       <c r="G93" t="n">
-        <v>100937.18</v>
+        <v>-22632.5</v>
       </c>
       <c r="H93" t="n">
-        <v>75316.56</v>
+        <v>-9829.149999999998</v>
       </c>
       <c r="I93" t="n">
-        <v>-7244.210000000002</v>
+        <v>-52740.03</v>
       </c>
       <c r="J93" t="n">
-        <v>-55002.43</v>
+        <v>-25884.58</v>
       </c>
       <c r="K93" t="n">
-        <v>-40906.04</v>
+        <v>-26282.63</v>
       </c>
       <c r="L93" t="n">
-        <v>15943.04</v>
+        <v>33387.56</v>
       </c>
       <c r="M93" t="n">
-        <v>67244.74000000001</v>
+        <v>19196.08</v>
       </c>
       <c r="N93" t="n">
-        <v>23421.72999999999</v>
+        <v>-69813.42</v>
       </c>
       <c r="O93" t="n">
-        <v>-40088.53</v>
+        <v>-59968.42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>34574.15</v>
+        <v>63344.03</v>
       </c>
       <c r="C94" t="n">
-        <v>158145.63</v>
+        <v>95525.67</v>
       </c>
       <c r="D94" t="n">
-        <v>145333.68</v>
+        <v>195605.84</v>
       </c>
       <c r="E94" t="n">
-        <v>228735.14</v>
+        <v>112641.61</v>
       </c>
       <c r="F94" t="n">
-        <v>229510.32</v>
+        <v>91505.27</v>
       </c>
       <c r="G94" t="n">
-        <v>186430.02</v>
+        <v>57045.55</v>
       </c>
       <c r="H94" t="n">
-        <v>153898.72</v>
+        <v>-22004.36</v>
       </c>
       <c r="I94" t="n">
-        <v>62883.18</v>
+        <v>-61836.84</v>
       </c>
       <c r="J94" t="n">
-        <v>25965.57999999999</v>
+        <v>-50685.10999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-25389.55</v>
+        <v>15317.51</v>
       </c>
       <c r="L94" t="n">
-        <v>-46727.37</v>
+        <v>75017.58</v>
       </c>
       <c r="M94" t="n">
-        <v>-25974.84</v>
+        <v>33825.88999999999</v>
       </c>
       <c r="N94" t="n">
-        <v>-37609.99000000001</v>
+        <v>-29274.34</v>
       </c>
       <c r="O94" t="n">
-        <v>-67315.36</v>
+        <v>10723.77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-7919.480000000003</v>
+        <v>177906.89</v>
       </c>
       <c r="C95" t="n">
-        <v>24495.41</v>
+        <v>133854.58</v>
       </c>
       <c r="D95" t="n">
-        <v>24287.05</v>
+        <v>217724.1</v>
       </c>
       <c r="E95" t="n">
-        <v>66541.3</v>
+        <v>225142.5</v>
       </c>
       <c r="F95" t="n">
-        <v>58589.27</v>
+        <v>211900.64</v>
       </c>
       <c r="G95" t="n">
-        <v>51083.50999999999</v>
+        <v>181560.18</v>
       </c>
       <c r="H95" t="n">
-        <v>38186.49000000001</v>
+        <v>84575.13</v>
       </c>
       <c r="I95" t="n">
-        <v>18328.82</v>
+        <v>52076.93</v>
       </c>
       <c r="J95" t="n">
-        <v>4754.309999999999</v>
+        <v>7734.079999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>-3352.999999999999</v>
+        <v>-21106.95</v>
       </c>
       <c r="L95" t="n">
-        <v>-1780.9</v>
+        <v>-8340.680000000002</v>
       </c>
       <c r="M95" t="n">
-        <v>5833.39</v>
+        <v>-16443.4</v>
       </c>
       <c r="N95" t="n">
-        <v>-28975.12</v>
+        <v>-52891.93</v>
       </c>
       <c r="O95" t="n">
-        <v>-39320.6</v>
+        <v>-109820.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100725.21</v>
+        <v>34812.64</v>
       </c>
       <c r="C96" t="n">
-        <v>90087.29000000001</v>
+        <v>39104.22</v>
       </c>
       <c r="D96" t="n">
-        <v>55553.41</v>
+        <v>51256.36</v>
       </c>
       <c r="E96" t="n">
-        <v>101784.46</v>
+        <v>42651.25</v>
       </c>
       <c r="F96" t="n">
-        <v>121582.36</v>
+        <v>26760.21</v>
       </c>
       <c r="G96" t="n">
-        <v>177104.35</v>
+        <v>20853.62</v>
       </c>
       <c r="H96" t="n">
-        <v>115066.22</v>
+        <v>13802.42</v>
       </c>
       <c r="I96" t="n">
-        <v>81476.11</v>
+        <v>8340.769999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>74750.92999999999</v>
+        <v>-6502.64</v>
       </c>
       <c r="K96" t="n">
-        <v>18132.70999999999</v>
+        <v>-3360.68</v>
       </c>
       <c r="L96" t="n">
-        <v>11016.70000000001</v>
+        <v>-13479.36</v>
       </c>
       <c r="M96" t="n">
-        <v>-42564.24000000001</v>
+        <v>-20106.2</v>
       </c>
       <c r="N96" t="n">
-        <v>3190.349999999999</v>
+        <v>-32703.47</v>
       </c>
       <c r="O96" t="n">
-        <v>-44817.23</v>
+        <v>-13881.63</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>148352.19</v>
+        <v>60009.37</v>
       </c>
       <c r="C97" t="n">
-        <v>361979.23</v>
+        <v>52187.47</v>
       </c>
       <c r="D97" t="n">
-        <v>298283.17</v>
+        <v>128032.45</v>
       </c>
       <c r="E97" t="n">
-        <v>478602.5</v>
+        <v>141864.92</v>
       </c>
       <c r="F97" t="n">
-        <v>454085.91</v>
+        <v>175937.13</v>
       </c>
       <c r="G97" t="n">
-        <v>411290.74</v>
+        <v>104741.1</v>
       </c>
       <c r="H97" t="n">
-        <v>259827.07</v>
+        <v>64347.66</v>
       </c>
       <c r="I97" t="n">
-        <v>349840.75</v>
+        <v>45072.58</v>
       </c>
       <c r="J97" t="n">
-        <v>208985.25</v>
+        <v>-11805.90000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>62207.89999999999</v>
+        <v>-12987.88</v>
       </c>
       <c r="L97" t="n">
-        <v>-112389.94</v>
+        <v>-40822.8</v>
       </c>
       <c r="M97" t="n">
-        <v>264292.63</v>
+        <v>-26826.5</v>
       </c>
       <c r="N97" t="n">
-        <v>79535.90000000001</v>
+        <v>-65916.37</v>
       </c>
       <c r="O97" t="n">
-        <v>-22940.32</v>
+        <v>-58405.15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20879.89</v>
+        <v>400688.97</v>
       </c>
       <c r="C98" t="n">
-        <v>93321.53</v>
+        <v>334538.62</v>
       </c>
       <c r="D98" t="n">
-        <v>22219.97</v>
+        <v>529972.65</v>
       </c>
       <c r="E98" t="n">
-        <v>60492.97</v>
+        <v>505590.42</v>
       </c>
       <c r="F98" t="n">
-        <v>-7466.540000000003</v>
+        <v>487297.93</v>
       </c>
       <c r="G98" t="n">
-        <v>-2958.680000000003</v>
+        <v>275209.53</v>
       </c>
       <c r="H98" t="n">
-        <v>-13453.70999999999</v>
+        <v>364939.23</v>
       </c>
       <c r="I98" t="n">
-        <v>-24725.39</v>
+        <v>321839.91</v>
       </c>
       <c r="J98" t="n">
-        <v>-31609.91</v>
+        <v>143932.07</v>
       </c>
       <c r="K98" t="n">
-        <v>-45011.78</v>
+        <v>-155818.24</v>
       </c>
       <c r="L98" t="n">
-        <v>-70275</v>
+        <v>320866.32</v>
       </c>
       <c r="M98" t="n">
-        <v>-2263.110000000003</v>
+        <v>97325.92</v>
       </c>
       <c r="N98" t="n">
-        <v>-63219.14</v>
+        <v>-111231.77</v>
       </c>
       <c r="O98" t="n">
-        <v>-69497.08</v>
+        <v>83966.64999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6324.930000000001</v>
+        <v>83292.81</v>
       </c>
       <c r="C99" t="n">
-        <v>129302.42</v>
+        <v>35528.17</v>
       </c>
       <c r="D99" t="n">
-        <v>150282.48</v>
+        <v>72612.98</v>
       </c>
       <c r="E99" t="n">
-        <v>214360.21</v>
+        <v>11004.2</v>
       </c>
       <c r="F99" t="n">
-        <v>174513.12</v>
+        <v>14261.65</v>
       </c>
       <c r="G99" t="n">
-        <v>164859.98</v>
+        <v>-7567.659999999994</v>
       </c>
       <c r="H99" t="n">
-        <v>125645.39</v>
+        <v>-21295.65</v>
       </c>
       <c r="I99" t="n">
-        <v>57411.11000000001</v>
+        <v>-84923.69</v>
       </c>
       <c r="J99" t="n">
-        <v>14129.93</v>
+        <v>-61527.49</v>
       </c>
       <c r="K99" t="n">
-        <v>-74476.14</v>
+        <v>-91832.31</v>
       </c>
       <c r="L99" t="n">
-        <v>-89527.93000000001</v>
+        <v>-37795.9</v>
       </c>
       <c r="M99" t="n">
-        <v>-41070.13</v>
+        <v>-79872.67</v>
       </c>
       <c r="N99" t="n">
-        <v>-101530.26</v>
+        <v>-82495.81</v>
       </c>
       <c r="O99" t="n">
-        <v>-60477.87</v>
+        <v>-44909.68</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>48338.8</v>
+        <v>124913.38</v>
       </c>
       <c r="C100" t="n">
-        <v>-26540.47</v>
+        <v>164141.58</v>
       </c>
       <c r="D100" t="n">
-        <v>-18774.01</v>
+        <v>244223.14</v>
       </c>
       <c r="E100" t="n">
-        <v>-30771.67</v>
+        <v>228971.08</v>
       </c>
       <c r="F100" t="n">
-        <v>-21723.84</v>
+        <v>186536.17</v>
       </c>
       <c r="G100" t="n">
-        <v>-14700.37</v>
+        <v>123959.25</v>
       </c>
       <c r="H100" t="n">
-        <v>16030.8</v>
+        <v>51156.55</v>
       </c>
       <c r="I100" t="n">
-        <v>31177.84</v>
+        <v>52402.21</v>
       </c>
       <c r="J100" t="n">
-        <v>31368.03</v>
+        <v>-153410.07</v>
       </c>
       <c r="K100" t="n">
-        <v>5843.869999999999</v>
+        <v>-148485.21</v>
       </c>
       <c r="L100" t="n">
-        <v>-17583.06</v>
+        <v>12293.54</v>
       </c>
       <c r="M100" t="n">
-        <v>-28066.71</v>
+        <v>-149731.58</v>
       </c>
       <c r="N100" t="n">
-        <v>-18702.1</v>
+        <v>-248.5000000000082</v>
       </c>
       <c r="O100" t="n">
-        <v>-18375.55</v>
+        <v>66545.56999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>24392.26</v>
+        <v>-5066.76</v>
       </c>
       <c r="C101" t="n">
-        <v>-14957.84</v>
+        <v>2898.479999999998</v>
       </c>
       <c r="D101" t="n">
-        <v>-23992.48</v>
+        <v>-6977.260000000002</v>
       </c>
       <c r="E101" t="n">
-        <v>-22067.1</v>
+        <v>-6833.869999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>-22666.52</v>
+        <v>-203.0799999999994</v>
       </c>
       <c r="G101" t="n">
-        <v>-14590.11</v>
+        <v>-4630.73</v>
       </c>
       <c r="H101" t="n">
-        <v>-13609.99</v>
+        <v>11795.03</v>
       </c>
       <c r="I101" t="n">
-        <v>-6018.12</v>
+        <v>12081.16</v>
       </c>
       <c r="J101" t="n">
-        <v>-7159.79</v>
+        <v>14074.06</v>
       </c>
       <c r="K101" t="n">
-        <v>-11994.93</v>
+        <v>3563.440000000001</v>
       </c>
       <c r="L101" t="n">
-        <v>-20252.26</v>
+        <v>8373.66</v>
       </c>
       <c r="M101" t="n">
-        <v>-16126.03</v>
+        <v>7546.220000000001</v>
       </c>
       <c r="N101" t="n">
-        <v>-21512.52</v>
+        <v>-2113.04</v>
       </c>
       <c r="O101" t="n">
-        <v>-25323.89</v>
+        <v>-4054.900000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-14919.69</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-23934.59</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-22072.63</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-22648.33</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-14567.16</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-13590.71</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-5996.76</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-7110.44</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-11935.78</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-20188.16</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-15973.94</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-21407.32</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-25248.94</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-25925.02</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>7529.32</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-5918.94</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-4791.809999999999</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-6090.469999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-5576.19</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-3521.19</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-2999.29</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-1286.89</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-1877.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-1967.32</v>
-      </c>
-      <c r="L102" t="n">
-        <v>-2096.86</v>
-      </c>
-      <c r="M102" t="n">
-        <v>-2029.89</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2573.41</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-867.13</v>
+      <c r="B103" t="n">
+        <v>-27392.65</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-26464.3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-29884.88</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-20466.16</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-18018.48</v>
+      </c>
+      <c r="G103" t="n">
+        <v>17662.24</v>
+      </c>
+      <c r="H103" t="n">
+        <v>18095.92</v>
+      </c>
+      <c r="I103" t="n">
+        <v>17409.37</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-10197.51</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-23243.36</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-38569.27</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-23749.06</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-17189.76</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-21395.08</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
@@ -517,46 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133598.12</v>
+        <v>184324.81</v>
       </c>
       <c r="C2" t="n">
-        <v>140026.43</v>
+        <v>190471.62</v>
       </c>
       <c r="D2" t="n">
-        <v>184324.81</v>
+        <v>188959.91</v>
       </c>
       <c r="E2" t="n">
-        <v>190471.62</v>
+        <v>157743.33</v>
       </c>
       <c r="F2" t="n">
-        <v>188959.91</v>
+        <v>63461.38</v>
       </c>
       <c r="G2" t="n">
-        <v>157743.33</v>
+        <v>-17161.77</v>
       </c>
       <c r="H2" t="n">
-        <v>63461.38</v>
+        <v>-91398.21000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-17161.77</v>
+        <v>-13876.07</v>
       </c>
       <c r="J2" t="n">
-        <v>-91398.21000000001</v>
+        <v>55058.68000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>-13876.07</v>
+        <v>42652.35000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>55058.68000000001</v>
+        <v>19058.89</v>
       </c>
       <c r="M2" t="n">
-        <v>42652.35000000001</v>
+        <v>13750.25</v>
       </c>
       <c r="N2" t="n">
-        <v>19058.89</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13750.25</v>
+        <v>-25553.3</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62554.46</v>
+        <v>57849.2</v>
       </c>
       <c r="C3" t="n">
-        <v>34486.85</v>
+        <v>33274.59</v>
       </c>
       <c r="D3" t="n">
-        <v>51626.8</v>
+        <v>60859.94</v>
       </c>
       <c r="E3" t="n">
-        <v>27269.16</v>
+        <v>19922.34999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>55876.53</v>
+        <v>1330.869999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>15852.25</v>
+        <v>41873.87</v>
       </c>
       <c r="H3" t="n">
-        <v>985.2100000000014</v>
+        <v>24502.18</v>
       </c>
       <c r="I3" t="n">
-        <v>45509.01</v>
+        <v>-9973.32</v>
       </c>
       <c r="J3" t="n">
-        <v>28979.2</v>
+        <v>-24332.28</v>
       </c>
       <c r="K3" t="n">
-        <v>-9873.859999999999</v>
+        <v>-58771.99000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>-26689.87</v>
+        <v>-126682.04</v>
       </c>
       <c r="M3" t="n">
-        <v>-60392.06</v>
+        <v>-101316.61</v>
       </c>
       <c r="N3" t="n">
-        <v>-125989</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-103024.36</v>
+        <v>-147604.68</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65159.33</v>
+        <v>98068.51999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>99675.34</v>
+        <v>81239.31</v>
       </c>
       <c r="D4" t="n">
-        <v>105887.8</v>
+        <v>62561.86</v>
       </c>
       <c r="E4" t="n">
-        <v>85339.59</v>
+        <v>35469.82</v>
       </c>
       <c r="F4" t="n">
-        <v>65717.38</v>
+        <v>-16594.25</v>
       </c>
       <c r="G4" t="n">
-        <v>36992.21</v>
+        <v>-14764.75</v>
       </c>
       <c r="H4" t="n">
-        <v>-20523.09</v>
+        <v>-21833.07</v>
       </c>
       <c r="I4" t="n">
-        <v>-22189.4</v>
+        <v>23933.08</v>
       </c>
       <c r="J4" t="n">
-        <v>-30523.54</v>
+        <v>54520.18</v>
       </c>
       <c r="K4" t="n">
-        <v>21844.13</v>
+        <v>9470.740000000002</v>
       </c>
       <c r="L4" t="n">
-        <v>51522.96</v>
+        <v>-22071.58</v>
       </c>
       <c r="M4" t="n">
-        <v>5925.450000000002</v>
+        <v>18481.58</v>
       </c>
       <c r="N4" t="n">
-        <v>-30336.23</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12629.46</v>
+        <v>-23912.68</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33438.94</v>
+        <v>17186.45</v>
       </c>
       <c r="C5" t="n">
-        <v>31627.45</v>
+        <v>-1569.26</v>
       </c>
       <c r="D5" t="n">
-        <v>23839.37</v>
+        <v>-9471.48</v>
       </c>
       <c r="E5" t="n">
-        <v>-1380.589999999999</v>
+        <v>-4939.46</v>
       </c>
       <c r="F5" t="n">
-        <v>-6977.78</v>
+        <v>6485.849999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-13832.1</v>
+        <v>8727.279999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>13327.77</v>
+        <v>7826.690000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>10255.1</v>
+        <v>13811.16</v>
       </c>
       <c r="J5" t="n">
-        <v>10532.21</v>
+        <v>7511.289999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>6279.4</v>
+        <v>20142.46</v>
       </c>
       <c r="L5" t="n">
-        <v>3397.119999999999</v>
+        <v>22241.97</v>
       </c>
       <c r="M5" t="n">
-        <v>7448.929999999999</v>
+        <v>22249.39</v>
       </c>
       <c r="N5" t="n">
-        <v>9557.869999999999</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9950.750000000002</v>
+        <v>11870.39</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +696,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33399.01</v>
+        <v>37160.83</v>
       </c>
       <c r="C6" t="n">
-        <v>20030.35</v>
+        <v>25423.89</v>
       </c>
       <c r="D6" t="n">
-        <v>31478.64</v>
+        <v>36771.88</v>
       </c>
       <c r="E6" t="n">
-        <v>19813.83</v>
+        <v>16144.46</v>
       </c>
       <c r="F6" t="n">
-        <v>30691.32</v>
+        <v>-8925.060000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>14433.06</v>
+        <v>14275.89</v>
       </c>
       <c r="H6" t="n">
-        <v>-5156.200000000001</v>
+        <v>18869.66</v>
       </c>
       <c r="I6" t="n">
-        <v>7662.519999999999</v>
+        <v>15687.79</v>
       </c>
       <c r="J6" t="n">
-        <v>14155.03</v>
+        <v>23707.09</v>
       </c>
       <c r="K6" t="n">
-        <v>16770.31</v>
+        <v>-9149.439999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>21881.16</v>
+        <v>-68274.25999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>-3934.110000000001</v>
+        <v>-70138.04000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>-62720.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-66693.5</v>
+        <v>-99041.12</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +742,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38615.43</v>
+        <v>38011.56</v>
       </c>
       <c r="C7" t="n">
-        <v>49551.25</v>
+        <v>20489.32</v>
       </c>
       <c r="D7" t="n">
-        <v>36414.81</v>
+        <v>4054.96</v>
       </c>
       <c r="E7" t="n">
-        <v>25452.46</v>
+        <v>-10037.14</v>
       </c>
       <c r="F7" t="n">
-        <v>7179.880000000002</v>
+        <v>-12485.1</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9299999999994</v>
+        <v>-5226.79</v>
       </c>
       <c r="H7" t="n">
-        <v>-22769.3</v>
+        <v>-20533.16</v>
       </c>
       <c r="I7" t="n">
-        <v>-494.8400000000011</v>
+        <v>-37037.02</v>
       </c>
       <c r="J7" t="n">
-        <v>-19207.83</v>
+        <v>-21361.42</v>
       </c>
       <c r="K7" t="n">
-        <v>-31155.15</v>
+        <v>-23967.35</v>
       </c>
       <c r="L7" t="n">
-        <v>-15806.55</v>
+        <v>-38027.99</v>
       </c>
       <c r="M7" t="n">
-        <v>-16563.26</v>
+        <v>-31700.54</v>
       </c>
       <c r="N7" t="n">
-        <v>-30859.57</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-22325.88</v>
+        <v>-26044.7</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118129.72</v>
+        <v>285925.8</v>
       </c>
       <c r="C8" t="n">
-        <v>172180.59</v>
+        <v>268130.41</v>
       </c>
       <c r="D8" t="n">
-        <v>272445.15</v>
+        <v>267677.42</v>
       </c>
       <c r="E8" t="n">
-        <v>249501.23</v>
+        <v>175569.73</v>
       </c>
       <c r="F8" t="n">
-        <v>255413.45</v>
+        <v>108082.83</v>
       </c>
       <c r="G8" t="n">
-        <v>177984.04</v>
+        <v>58460.55000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>115363.05</v>
+        <v>21629.44</v>
       </c>
       <c r="I8" t="n">
-        <v>69775.16</v>
+        <v>-36277.69</v>
       </c>
       <c r="J8" t="n">
-        <v>38597.17</v>
+        <v>92354.45</v>
       </c>
       <c r="K8" t="n">
-        <v>-21577.18</v>
+        <v>55298.35</v>
       </c>
       <c r="L8" t="n">
-        <v>121757.59</v>
+        <v>-35392.24</v>
       </c>
       <c r="M8" t="n">
-        <v>98495.12</v>
+        <v>89178.48</v>
       </c>
       <c r="N8" t="n">
-        <v>-8253.440000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>56888.49000000001</v>
+        <v>60857.20999999999</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +834,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-388.8499999999997</v>
+        <v>8230.539999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-3469.99</v>
+        <v>6303.25</v>
       </c>
       <c r="D9" t="n">
-        <v>8225.059999999999</v>
+        <v>16649.41</v>
       </c>
       <c r="E9" t="n">
-        <v>6291.92</v>
+        <v>10356.95</v>
       </c>
       <c r="F9" t="n">
-        <v>16639.15</v>
+        <v>14098.79</v>
       </c>
       <c r="G9" t="n">
-        <v>10347.6</v>
+        <v>11266.35</v>
       </c>
       <c r="H9" t="n">
-        <v>14085.32</v>
+        <v>3309.110000000002</v>
       </c>
       <c r="I9" t="n">
-        <v>11254.62</v>
+        <v>-12111.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3297.590000000002</v>
+        <v>2766.56</v>
       </c>
       <c r="K9" t="n">
-        <v>-12108.17</v>
+        <v>-13292.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2780.04</v>
+        <v>-11003.28</v>
       </c>
       <c r="M9" t="n">
-        <v>-13281.16</v>
+        <v>-15831.77</v>
       </c>
       <c r="N9" t="n">
-        <v>-10994.99</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-15829.72</v>
+        <v>-25581.65</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +880,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82036.92999999999</v>
+        <v>150520.3</v>
       </c>
       <c r="C10" t="n">
-        <v>99355.49999999999</v>
+        <v>115490.88</v>
       </c>
       <c r="D10" t="n">
-        <v>164961.3</v>
+        <v>132523.15</v>
       </c>
       <c r="E10" t="n">
-        <v>134932.57</v>
+        <v>46074.37</v>
       </c>
       <c r="F10" t="n">
-        <v>145705.3</v>
+        <v>-37433.23</v>
       </c>
       <c r="G10" t="n">
-        <v>44394.74</v>
+        <v>-75518.23999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>-44430.16</v>
+        <v>-65206.73</v>
       </c>
       <c r="I10" t="n">
-        <v>-87148.87999999999</v>
+        <v>-63015.32</v>
       </c>
       <c r="J10" t="n">
-        <v>-81527.8</v>
+        <v>-19107.87999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>-76739.14999999999</v>
+        <v>-16948.05</v>
       </c>
       <c r="L10" t="n">
-        <v>-47618.84</v>
+        <v>-58048.12</v>
       </c>
       <c r="M10" t="n">
-        <v>-59347.69</v>
+        <v>37698.99</v>
       </c>
       <c r="N10" t="n">
-        <v>-84360.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>70388.39999999999</v>
+        <v>-49622.42</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +926,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7788.01</v>
+        <v>11922.62</v>
       </c>
       <c r="C11" t="n">
-        <v>-4752.110000000001</v>
+        <v>7591.480000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>12439.04</v>
+        <v>12511.12</v>
       </c>
       <c r="E11" t="n">
-        <v>8586.860000000001</v>
+        <v>9404.67</v>
       </c>
       <c r="F11" t="n">
-        <v>14167.86</v>
+        <v>1032.97</v>
       </c>
       <c r="G11" t="n">
-        <v>12114.4</v>
+        <v>2318.82</v>
       </c>
       <c r="H11" t="n">
-        <v>3571.900000000001</v>
+        <v>13479.07</v>
       </c>
       <c r="I11" t="n">
-        <v>4792.890000000001</v>
+        <v>-9839.58</v>
       </c>
       <c r="J11" t="n">
-        <v>15575.08</v>
+        <v>-3728.9</v>
       </c>
       <c r="K11" t="n">
-        <v>-8150.130000000001</v>
+        <v>20969.44</v>
       </c>
       <c r="L11" t="n">
-        <v>-4846.439999999999</v>
+        <v>18125.69</v>
       </c>
       <c r="M11" t="n">
-        <v>19811.26</v>
+        <v>24741.07</v>
       </c>
       <c r="N11" t="n">
-        <v>17280.46</v>
-      </c>
-      <c r="O11" t="n">
-        <v>24593.29</v>
+        <v>29313.66</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +972,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1609.630000000001</v>
+        <v>31253.59</v>
       </c>
       <c r="C12" t="n">
-        <v>16455.45</v>
+        <v>21434.18</v>
       </c>
       <c r="D12" t="n">
-        <v>31794.44</v>
+        <v>34978.24</v>
       </c>
       <c r="E12" t="n">
-        <v>22182.09</v>
+        <v>34548.78</v>
       </c>
       <c r="F12" t="n">
-        <v>35836.73</v>
+        <v>24870.04</v>
       </c>
       <c r="G12" t="n">
-        <v>35491.72</v>
+        <v>8579.330000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>25800.33</v>
+        <v>17804.43</v>
       </c>
       <c r="I12" t="n">
-        <v>9408.370000000001</v>
+        <v>7522.95</v>
       </c>
       <c r="J12" t="n">
-        <v>18428.37</v>
+        <v>9392.84</v>
       </c>
       <c r="K12" t="n">
-        <v>7916.3</v>
+        <v>6855.700000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>9151.040000000001</v>
+        <v>-42809.16</v>
       </c>
       <c r="M12" t="n">
-        <v>5776.090000000001</v>
+        <v>-41821.12</v>
       </c>
       <c r="N12" t="n">
-        <v>-41501.95</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-40413.78</v>
+        <v>-52155.07</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1018,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29867.1</v>
+        <v>42456.14000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>39427.52</v>
+        <v>34212.16</v>
       </c>
       <c r="D13" t="n">
-        <v>41398.87</v>
+        <v>44133.74000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>32468.87</v>
+        <v>33481.53</v>
       </c>
       <c r="F13" t="n">
-        <v>41618.51</v>
+        <v>31922.99</v>
       </c>
       <c r="G13" t="n">
-        <v>29828.86</v>
+        <v>30515.54</v>
       </c>
       <c r="H13" t="n">
-        <v>28453.77</v>
+        <v>41119.32</v>
       </c>
       <c r="I13" t="n">
-        <v>27212.43</v>
+        <v>-1323.18</v>
       </c>
       <c r="J13" t="n">
-        <v>38399.37</v>
+        <v>12481.46</v>
       </c>
       <c r="K13" t="n">
-        <v>-3405.98</v>
+        <v>-20348.81</v>
       </c>
       <c r="L13" t="n">
-        <v>13840.8</v>
+        <v>-33391.99</v>
       </c>
       <c r="M13" t="n">
-        <v>-18111.02</v>
+        <v>-36676.38</v>
       </c>
       <c r="N13" t="n">
-        <v>-33853.97</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-37935.94</v>
+        <v>-34120.10000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>229373.71</v>
+        <v>456045.38</v>
       </c>
       <c r="C14" t="n">
-        <v>358775.1</v>
+        <v>408992.13</v>
       </c>
       <c r="D14" t="n">
-        <v>481824.2500000001</v>
+        <v>344753.61</v>
       </c>
       <c r="E14" t="n">
-        <v>421968.63</v>
+        <v>197845.88</v>
       </c>
       <c r="F14" t="n">
-        <v>362877.43</v>
+        <v>81260.75999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>211372.52</v>
+        <v>-31654.29999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>91610.5</v>
+        <v>-64201.85000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-24801.41</v>
+        <v>-50814.64999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>-53689.09</v>
+        <v>8530.780000000006</v>
       </c>
       <c r="K14" t="n">
-        <v>-59514.99999999999</v>
+        <v>-91088.33</v>
       </c>
       <c r="L14" t="n">
-        <v>537.6400000000031</v>
+        <v>-176945.76</v>
       </c>
       <c r="M14" t="n">
-        <v>-104730.36</v>
+        <v>-194985.43</v>
       </c>
       <c r="N14" t="n">
-        <v>-199287.11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-206141.35</v>
+        <v>-264967.64</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>333593.11</v>
+        <v>401989.96</v>
       </c>
       <c r="C15" t="n">
-        <v>405938.66</v>
+        <v>359698.58</v>
       </c>
       <c r="D15" t="n">
-        <v>432458.82</v>
+        <v>359418.86</v>
       </c>
       <c r="E15" t="n">
-        <v>396218.93</v>
+        <v>173158.59</v>
       </c>
       <c r="F15" t="n">
-        <v>400321.49</v>
+        <v>99542.64999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>206889.91</v>
+        <v>94113.92000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>127272.8</v>
+        <v>-32279.82</v>
       </c>
       <c r="I15" t="n">
-        <v>150719.12</v>
+        <v>-70906.67</v>
       </c>
       <c r="J15" t="n">
-        <v>2696.030000000003</v>
+        <v>-9277.090000000002</v>
       </c>
       <c r="K15" t="n">
-        <v>-113083.53</v>
+        <v>-219102.23</v>
       </c>
       <c r="L15" t="n">
-        <v>-54110.25</v>
+        <v>-337606.57</v>
       </c>
       <c r="M15" t="n">
-        <v>-282189.4</v>
+        <v>-171312.46</v>
       </c>
       <c r="N15" t="n">
-        <v>-393204.41</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-239955.11</v>
+        <v>-241342.9</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140157.2</v>
+        <v>347804.86</v>
       </c>
       <c r="C16" t="n">
-        <v>198216.79</v>
+        <v>305569.57</v>
       </c>
       <c r="D16" t="n">
-        <v>334278.35</v>
+        <v>278611.86</v>
       </c>
       <c r="E16" t="n">
-        <v>282441.3</v>
+        <v>126814.18</v>
       </c>
       <c r="F16" t="n">
-        <v>240854.14</v>
+        <v>136858.99</v>
       </c>
       <c r="G16" t="n">
-        <v>64050.5</v>
+        <v>89381.7</v>
       </c>
       <c r="H16" t="n">
-        <v>115542.17</v>
+        <v>67247.87999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-14704.54999999999</v>
+        <v>50573.89</v>
       </c>
       <c r="J16" t="n">
-        <v>7081.319999999995</v>
+        <v>111103.95</v>
       </c>
       <c r="K16" t="n">
-        <v>50285.10999999999</v>
+        <v>-69975.10000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>149936.46</v>
+        <v>-191290.42</v>
       </c>
       <c r="M16" t="n">
-        <v>-51854.46999999999</v>
+        <v>-197269.82</v>
       </c>
       <c r="N16" t="n">
-        <v>-190554.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-162612.94</v>
+        <v>-272662.33</v>
       </c>
     </row>
     <row r="17">
@@ -1252,46 +1202,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7115.06</v>
+        <v>-2958.02</v>
       </c>
       <c r="C17" t="n">
-        <v>-2164.63</v>
+        <v>-508.1399999999996</v>
       </c>
       <c r="D17" t="n">
-        <v>-2958.02</v>
+        <v>819.9899999999997</v>
       </c>
       <c r="E17" t="n">
-        <v>-508.1399999999996</v>
+        <v>645.6399999999998</v>
       </c>
       <c r="F17" t="n">
-        <v>819.9899999999997</v>
+        <v>-5845.84</v>
       </c>
       <c r="G17" t="n">
-        <v>645.6399999999998</v>
+        <v>-456.2999999999994</v>
       </c>
       <c r="H17" t="n">
-        <v>-5845.84</v>
+        <v>3198.71</v>
       </c>
       <c r="I17" t="n">
-        <v>-456.2999999999994</v>
+        <v>-458.9699999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>3198.71</v>
+        <v>2989.849999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>-458.9699999999999</v>
+        <v>11090.37</v>
       </c>
       <c r="L17" t="n">
-        <v>2989.849999999999</v>
+        <v>8886.1</v>
       </c>
       <c r="M17" t="n">
-        <v>11090.37</v>
+        <v>18404.83</v>
       </c>
       <c r="N17" t="n">
-        <v>8886.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>18404.83</v>
+        <v>29836.00999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1301,46 +1248,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33214.02</v>
+        <v>-1782.76</v>
       </c>
       <c r="C18" t="n">
-        <v>5033.89</v>
+        <v>4474.600000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>-1782.76</v>
+        <v>-5288.04</v>
       </c>
       <c r="E18" t="n">
-        <v>4474.600000000001</v>
+        <v>-54439.45</v>
       </c>
       <c r="F18" t="n">
-        <v>-5288.04</v>
+        <v>-16464.54</v>
       </c>
       <c r="G18" t="n">
-        <v>-54439.45</v>
+        <v>-34175.79</v>
       </c>
       <c r="H18" t="n">
-        <v>-16464.54</v>
+        <v>-32127.54</v>
       </c>
       <c r="I18" t="n">
-        <v>-34175.79</v>
+        <v>-42484.17</v>
       </c>
       <c r="J18" t="n">
-        <v>-32127.54</v>
+        <v>-36689.6</v>
       </c>
       <c r="K18" t="n">
-        <v>-42484.17</v>
+        <v>-54594.61</v>
       </c>
       <c r="L18" t="n">
-        <v>-36689.6</v>
+        <v>-58861.96</v>
       </c>
       <c r="M18" t="n">
-        <v>-54594.61</v>
+        <v>-65850.64999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>-58861.96</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-65850.64999999999</v>
+        <v>-82275.89999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1350,46 +1294,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>776.8800000000001</v>
+        <v>1007.14</v>
       </c>
       <c r="C19" t="n">
-        <v>1931.36</v>
+        <v>-703.66</v>
       </c>
       <c r="D19" t="n">
-        <v>1007.14</v>
+        <v>1947.06</v>
       </c>
       <c r="E19" t="n">
-        <v>-703.66</v>
+        <v>1896.92</v>
       </c>
       <c r="F19" t="n">
-        <v>1947.06</v>
+        <v>2046.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1896.92</v>
+        <v>2311.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2046.45</v>
+        <v>2088.17</v>
       </c>
       <c r="I19" t="n">
-        <v>2311.4</v>
+        <v>-1209.87</v>
       </c>
       <c r="J19" t="n">
-        <v>2088.17</v>
+        <v>-345.79</v>
       </c>
       <c r="K19" t="n">
-        <v>-1209.87</v>
+        <v>1184.15</v>
       </c>
       <c r="L19" t="n">
-        <v>-345.79</v>
+        <v>1114.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1184.15</v>
+        <v>712.47</v>
       </c>
       <c r="N19" t="n">
-        <v>1114.39</v>
-      </c>
-      <c r="O19" t="n">
-        <v>712.47</v>
+        <v>-1574.64</v>
       </c>
     </row>
     <row r="20">
@@ -1399,46 +1340,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9793.000000000002</v>
+        <v>19617.6</v>
       </c>
       <c r="C20" t="n">
-        <v>12042.28</v>
+        <v>21923.31</v>
       </c>
       <c r="D20" t="n">
-        <v>20316.31</v>
+        <v>24139.33</v>
       </c>
       <c r="E20" t="n">
-        <v>21078.32</v>
+        <v>24108.01</v>
       </c>
       <c r="F20" t="n">
-        <v>24696.94</v>
+        <v>28932.77</v>
       </c>
       <c r="G20" t="n">
-        <v>25068.33</v>
+        <v>14266.49</v>
       </c>
       <c r="H20" t="n">
-        <v>29780.17</v>
+        <v>-9991.619999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>15168.47</v>
+        <v>-16729.05</v>
       </c>
       <c r="J20" t="n">
-        <v>-8798.35</v>
+        <v>-7641.62</v>
       </c>
       <c r="K20" t="n">
-        <v>-15765.63</v>
+        <v>-23658.71</v>
       </c>
       <c r="L20" t="n">
-        <v>-6707.75</v>
+        <v>-13154.54</v>
       </c>
       <c r="M20" t="n">
-        <v>-22989.77</v>
+        <v>-16960.19</v>
       </c>
       <c r="N20" t="n">
-        <v>-12729.37</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-17198.7</v>
+        <v>-16200.5</v>
       </c>
     </row>
     <row r="21">
@@ -1448,46 +1386,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>344.54</v>
+        <v>-3058.26</v>
       </c>
       <c r="C21" t="n">
-        <v>3284.89</v>
+        <v>-3502.56</v>
       </c>
       <c r="D21" t="n">
-        <v>-6170.08</v>
+        <v>2018.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-5979.4</v>
+        <v>909.2300000000005</v>
       </c>
       <c r="F21" t="n">
-        <v>-1522.78</v>
+        <v>-5390.88</v>
       </c>
       <c r="G21" t="n">
-        <v>-1638.4</v>
+        <v>-1689</v>
       </c>
       <c r="H21" t="n">
-        <v>-6199.07</v>
+        <v>-2663.77</v>
       </c>
       <c r="I21" t="n">
-        <v>-3015.29</v>
+        <v>-6676.75</v>
       </c>
       <c r="J21" t="n">
-        <v>-3756.33</v>
+        <v>-5501.89</v>
       </c>
       <c r="K21" t="n">
-        <v>-8283.67</v>
+        <v>6072.75</v>
       </c>
       <c r="L21" t="n">
-        <v>-5501.89</v>
+        <v>1201.91</v>
       </c>
       <c r="M21" t="n">
-        <v>6065.48</v>
+        <v>2140.06</v>
       </c>
       <c r="N21" t="n">
-        <v>1193.18</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2133.52</v>
+        <v>-2657.57</v>
       </c>
     </row>
     <row r="22">
@@ -1497,46 +1432,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-239.3600000000001</v>
+        <v>1865.01</v>
       </c>
       <c r="C22" t="n">
-        <v>2049.1</v>
+        <v>3042.82</v>
       </c>
       <c r="D22" t="n">
-        <v>7396.150000000001</v>
+        <v>5709.84</v>
       </c>
       <c r="E22" t="n">
-        <v>8843.98</v>
+        <v>4489.690000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>12234.29</v>
+        <v>3595.65</v>
       </c>
       <c r="G22" t="n">
-        <v>8624.630000000001</v>
+        <v>807.8599999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>4364.63</v>
+        <v>4906.48</v>
       </c>
       <c r="I22" t="n">
-        <v>-2746.7</v>
+        <v>2994.59</v>
       </c>
       <c r="J22" t="n">
-        <v>1528.09</v>
+        <v>6447.93</v>
       </c>
       <c r="K22" t="n">
-        <v>-1182.67</v>
+        <v>4007.7</v>
       </c>
       <c r="L22" t="n">
-        <v>2996.78</v>
+        <v>3109.82</v>
       </c>
       <c r="M22" t="n">
-        <v>9439.050000000001</v>
+        <v>-874.71</v>
       </c>
       <c r="N22" t="n">
-        <v>7343.64</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3616.26</v>
+        <v>-3111.86</v>
       </c>
     </row>
     <row r="23">
@@ -1546,46 +1478,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4212.43</v>
+        <v>26324.15</v>
       </c>
       <c r="C23" t="n">
-        <v>26547.7</v>
+        <v>23599.43</v>
       </c>
       <c r="D23" t="n">
-        <v>26324.15</v>
+        <v>43182.88</v>
       </c>
       <c r="E23" t="n">
-        <v>23599.43</v>
+        <v>45634.12</v>
       </c>
       <c r="F23" t="n">
-        <v>43182.88</v>
+        <v>34243.23</v>
       </c>
       <c r="G23" t="n">
-        <v>45634.12</v>
+        <v>62297.72</v>
       </c>
       <c r="H23" t="n">
-        <v>34243.23</v>
+        <v>45466.7</v>
       </c>
       <c r="I23" t="n">
-        <v>62297.72</v>
+        <v>-7852.990000000003</v>
       </c>
       <c r="J23" t="n">
-        <v>45466.7</v>
+        <v>-3705.940000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-7852.990000000003</v>
+        <v>3383.100000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>-3705.940000000001</v>
+        <v>-15698.76</v>
       </c>
       <c r="M23" t="n">
-        <v>3383.100000000001</v>
+        <v>8761.829999999996</v>
       </c>
       <c r="N23" t="n">
-        <v>-15698.76</v>
-      </c>
-      <c r="O23" t="n">
-        <v>8761.829999999996</v>
+        <v>8858.240000000003</v>
       </c>
     </row>
     <row r="24">
@@ -1595,46 +1524,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-17849.4</v>
+        <v>-1404.490000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-16360.49</v>
+        <v>-21149.47</v>
       </c>
       <c r="D24" t="n">
-        <v>-4886.87</v>
+        <v>-24549.45</v>
       </c>
       <c r="E24" t="n">
-        <v>-26086.84</v>
+        <v>-13940.37</v>
       </c>
       <c r="F24" t="n">
-        <v>-26841.78</v>
+        <v>-4607</v>
       </c>
       <c r="G24" t="n">
-        <v>-10584.44</v>
+        <v>6623.3</v>
       </c>
       <c r="H24" t="n">
-        <v>-2738.77</v>
+        <v>12631.38</v>
       </c>
       <c r="I24" t="n">
-        <v>30180.96</v>
+        <v>5407.309999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>40379.93</v>
+        <v>-4227.760000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>23150.31</v>
+        <v>-27192.52</v>
       </c>
       <c r="L24" t="n">
-        <v>-13251.21</v>
+        <v>-42784.17</v>
       </c>
       <c r="M24" t="n">
-        <v>-42221.3</v>
+        <v>-46829.29</v>
       </c>
       <c r="N24" t="n">
-        <v>-61541.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-67288.28999999999</v>
+        <v>-40330.05</v>
       </c>
     </row>
     <row r="25">
@@ -1644,46 +1570,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-78047.94</v>
+        <v>-17439.33</v>
       </c>
       <c r="C25" t="n">
-        <v>-34892.54</v>
+        <v>-49062.45</v>
       </c>
       <c r="D25" t="n">
-        <v>-19205.61</v>
+        <v>-30828.88</v>
       </c>
       <c r="E25" t="n">
-        <v>-50835.53</v>
+        <v>-32839.55</v>
       </c>
       <c r="F25" t="n">
-        <v>-34988.62</v>
+        <v>-35210.46</v>
       </c>
       <c r="G25" t="n">
-        <v>-37814.76</v>
+        <v>7129.679999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>-37759.42</v>
+        <v>30731.01</v>
       </c>
       <c r="I25" t="n">
-        <v>4637.129999999999</v>
+        <v>12347.57</v>
       </c>
       <c r="J25" t="n">
-        <v>28476.54</v>
+        <v>30455.33</v>
       </c>
       <c r="K25" t="n">
-        <v>11693.79</v>
+        <v>-16091.5</v>
       </c>
       <c r="L25" t="n">
-        <v>30351.81</v>
+        <v>-46464.71</v>
       </c>
       <c r="M25" t="n">
-        <v>-19066.45</v>
+        <v>-62186.11</v>
       </c>
       <c r="N25" t="n">
-        <v>-49255.17</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-65247.33</v>
+        <v>-98495.24000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1693,46 +1616,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18881.07</v>
+        <v>7841.049999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>16214.34</v>
+        <v>13266.22</v>
       </c>
       <c r="D26" t="n">
-        <v>7841.049999999999</v>
+        <v>6550.459999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>13266.22</v>
+        <v>-3358.88</v>
       </c>
       <c r="F26" t="n">
-        <v>6550.459999999999</v>
+        <v>-1579.34</v>
       </c>
       <c r="G26" t="n">
-        <v>-3358.88</v>
+        <v>9889.83</v>
       </c>
       <c r="H26" t="n">
-        <v>-1579.34</v>
+        <v>7082.389999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>9889.83</v>
+        <v>9148.42</v>
       </c>
       <c r="J26" t="n">
-        <v>7082.389999999999</v>
+        <v>8773.59</v>
       </c>
       <c r="K26" t="n">
-        <v>9148.42</v>
+        <v>9691.940000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>8773.59</v>
+        <v>-1069.03</v>
       </c>
       <c r="M26" t="n">
-        <v>9691.940000000001</v>
+        <v>-6343.639999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>-1069.03</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-6343.639999999999</v>
+        <v>-11730.02</v>
       </c>
     </row>
     <row r="27">
@@ -1742,46 +1662,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-10604.19</v>
+        <v>4257.190000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-10672.64</v>
+        <v>11554.34</v>
       </c>
       <c r="D27" t="n">
-        <v>1278.35</v>
+        <v>3781.33</v>
       </c>
       <c r="E27" t="n">
-        <v>5939.360000000001</v>
+        <v>853.9899999999998</v>
       </c>
       <c r="F27" t="n">
-        <v>-2036.53</v>
+        <v>-7424.96</v>
       </c>
       <c r="G27" t="n">
-        <v>-2482.53</v>
+        <v>2395.239999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>-6522.56</v>
+        <v>-7455.040000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-6586.380000000001</v>
+        <v>-5823.57</v>
       </c>
       <c r="J27" t="n">
-        <v>-13094.84</v>
+        <v>1844.94</v>
       </c>
       <c r="K27" t="n">
-        <v>-6704.93</v>
+        <v>-1473.62</v>
       </c>
       <c r="L27" t="n">
-        <v>-314.1199999999999</v>
+        <v>-8679.369999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>2330.26</v>
+        <v>-2268.62</v>
       </c>
       <c r="N27" t="n">
-        <v>-1107.48</v>
-      </c>
-      <c r="O27" t="n">
-        <v>5415.990000000001</v>
+        <v>-11063.72</v>
       </c>
     </row>
     <row r="28">
@@ -1791,46 +1708,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8116.76</v>
+        <v>-27.5</v>
       </c>
       <c r="C28" t="n">
-        <v>8254.23</v>
+        <v>-129.45</v>
       </c>
       <c r="D28" t="n">
-        <v>2951.34</v>
+        <v>-216.24</v>
       </c>
       <c r="E28" t="n">
-        <v>5485.53</v>
+        <v>-238.94</v>
       </c>
       <c r="F28" t="n">
-        <v>5601.620000000001</v>
+        <v>-232.17</v>
       </c>
       <c r="G28" t="n">
-        <v>3097.58</v>
+        <v>-201.24</v>
       </c>
       <c r="H28" t="n">
-        <v>-1134.57</v>
+        <v>-345.75</v>
       </c>
       <c r="I28" t="n">
-        <v>8780.379999999999</v>
+        <v>-317.34</v>
       </c>
       <c r="J28" t="n">
-        <v>5294.05</v>
+        <v>-168.51</v>
       </c>
       <c r="K28" t="n">
-        <v>564.02</v>
+        <v>-220.97</v>
       </c>
       <c r="L28" t="n">
-        <v>1990.55</v>
+        <v>-311.48</v>
       </c>
       <c r="M28" t="n">
-        <v>-4024.85</v>
+        <v>-119.56</v>
       </c>
       <c r="N28" t="n">
-        <v>-7883.37</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-7804.17</v>
+        <v>-116.19</v>
       </c>
     </row>
     <row r="29">
@@ -1840,46 +1754,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>412.1</v>
+        <v>156.39</v>
       </c>
       <c r="C29" t="n">
-        <v>324.48</v>
+        <v>-808.66</v>
       </c>
       <c r="D29" t="n">
-        <v>331.34</v>
+        <v>-925.6500000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>-624.1999999999999</v>
+        <v>-1083.28</v>
       </c>
       <c r="F29" t="n">
-        <v>-746.96</v>
+        <v>-1182.28</v>
       </c>
       <c r="G29" t="n">
-        <v>-909.13</v>
+        <v>-587.24</v>
       </c>
       <c r="H29" t="n">
-        <v>-1056.8</v>
+        <v>-176.86</v>
       </c>
       <c r="I29" t="n">
-        <v>-515.5700000000001</v>
+        <v>-162.99</v>
       </c>
       <c r="J29" t="n">
-        <v>-234.27</v>
+        <v>-47.68000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-271.44</v>
+        <v>-589.8100000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>-141.93</v>
+        <v>-882.0599999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>-679.9000000000001</v>
+        <v>-1181.31</v>
       </c>
       <c r="N29" t="n">
-        <v>-964.8299999999999</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-1268.63</v>
+        <v>-993.04</v>
       </c>
     </row>
     <row r="30">
@@ -1889,46 +1800,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>645.4</v>
+        <v>219.6</v>
       </c>
       <c r="C30" t="n">
-        <v>465.5700000000001</v>
+        <v>-333.84</v>
       </c>
       <c r="D30" t="n">
-        <v>219.6</v>
+        <v>-287.52</v>
       </c>
       <c r="E30" t="n">
-        <v>-333.84</v>
+        <v>-210.37</v>
       </c>
       <c r="F30" t="n">
-        <v>-287.52</v>
+        <v>-268.09</v>
       </c>
       <c r="G30" t="n">
-        <v>-210.37</v>
+        <v>-88.63000000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>-268.09</v>
+        <v>-124.86</v>
       </c>
       <c r="I30" t="n">
-        <v>-88.63000000000002</v>
+        <v>-260.43</v>
       </c>
       <c r="J30" t="n">
-        <v>-124.86</v>
+        <v>-84.44999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>-260.43</v>
+        <v>-401.66</v>
       </c>
       <c r="L30" t="n">
-        <v>-84.44999999999999</v>
+        <v>-558.35</v>
       </c>
       <c r="M30" t="n">
-        <v>-401.66</v>
+        <v>-536.6999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>-558.35</v>
-      </c>
-      <c r="O30" t="n">
-        <v>-536.6999999999999</v>
+        <v>-504.59</v>
       </c>
     </row>
     <row r="31">
@@ -1938,46 +1846,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.6900000000001</v>
+        <v>590.6200000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>940.89</v>
+        <v>-437.14</v>
       </c>
       <c r="D31" t="n">
-        <v>415.67</v>
+        <v>-799.8600000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>-621.6</v>
+        <v>-623.47</v>
       </c>
       <c r="F31" t="n">
-        <v>-978.5500000000001</v>
+        <v>-931.24</v>
       </c>
       <c r="G31" t="n">
-        <v>-797.62</v>
+        <v>-595.13</v>
       </c>
       <c r="H31" t="n">
-        <v>-1056.72</v>
+        <v>-536.3799999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>-666.8000000000001</v>
+        <v>-950.33</v>
       </c>
       <c r="J31" t="n">
-        <v>-478.97</v>
+        <v>-817.22</v>
       </c>
       <c r="K31" t="n">
-        <v>-841.88</v>
+        <v>-1138.54</v>
       </c>
       <c r="L31" t="n">
-        <v>-722.97</v>
+        <v>-1003.6</v>
       </c>
       <c r="M31" t="n">
-        <v>-1048.45</v>
+        <v>-1047.43</v>
       </c>
       <c r="N31" t="n">
-        <v>-920.8299999999999</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-960.11</v>
+        <v>-996.71</v>
       </c>
     </row>
     <row r="32">
@@ -1987,46 +1892,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5648.690000000001</v>
+        <v>-364.96</v>
       </c>
       <c r="C32" t="n">
-        <v>5113.24</v>
+        <v>-767.6</v>
       </c>
       <c r="D32" t="n">
-        <v>9318.27</v>
+        <v>1679.04</v>
       </c>
       <c r="E32" t="n">
-        <v>5305.37</v>
+        <v>1669.36</v>
       </c>
       <c r="F32" t="n">
-        <v>-4705.97</v>
+        <v>1725.92</v>
       </c>
       <c r="G32" t="n">
-        <v>7772.84</v>
+        <v>1175.82</v>
       </c>
       <c r="H32" t="n">
-        <v>-2560.830000000001</v>
+        <v>1522.82</v>
       </c>
       <c r="I32" t="n">
-        <v>4838.11</v>
+        <v>-971.29</v>
       </c>
       <c r="J32" t="n">
-        <v>1027.99</v>
+        <v>-999.76</v>
       </c>
       <c r="K32" t="n">
-        <v>8112.57</v>
+        <v>1582.36</v>
       </c>
       <c r="L32" t="n">
-        <v>-5579.22</v>
+        <v>221.13</v>
       </c>
       <c r="M32" t="n">
-        <v>-7681.27</v>
+        <v>-721.02</v>
       </c>
       <c r="N32" t="n">
-        <v>-17088.32</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-22060.61</v>
+        <v>-1867.12</v>
       </c>
     </row>
     <row r="33">
@@ -2036,95 +1938,89 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1425.200000000001</v>
+        <v>8064.13</v>
       </c>
       <c r="C33" t="n">
-        <v>8757.880000000001</v>
+        <v>4245.43</v>
       </c>
       <c r="D33" t="n">
-        <v>12046.49</v>
+        <v>3366.89</v>
       </c>
       <c r="E33" t="n">
-        <v>7951.190000000001</v>
+        <v>-159.3299999999998</v>
       </c>
       <c r="F33" t="n">
-        <v>9855.66</v>
+        <v>-4290.12</v>
       </c>
       <c r="G33" t="n">
-        <v>-14581.76</v>
+        <v>-4735.16</v>
       </c>
       <c r="H33" t="n">
-        <v>-18683</v>
+        <v>-4786.48</v>
       </c>
       <c r="I33" t="n">
-        <v>-17579.08</v>
+        <v>-8062.42</v>
       </c>
       <c r="J33" t="n">
-        <v>-17643.5</v>
+        <v>-7274.17</v>
       </c>
       <c r="K33" t="n">
-        <v>-22919.93</v>
+        <v>-9055.58</v>
       </c>
       <c r="L33" t="n">
-        <v>-9297.42</v>
+        <v>-12329.48</v>
       </c>
       <c r="M33" t="n">
-        <v>-15702.22</v>
+        <v>-12204.45</v>
       </c>
       <c r="N33" t="n">
-        <v>-21175.07</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-20964.26</v>
+        <v>-14916.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3072.82</v>
+        <v>9683.23</v>
       </c>
       <c r="C34" t="n">
-        <v>2387.68</v>
+        <v>6072.969999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>2443.17</v>
+        <v>-6385.01</v>
       </c>
       <c r="E34" t="n">
-        <v>1501.07</v>
+        <v>6103.48</v>
       </c>
       <c r="F34" t="n">
-        <v>1142.12</v>
+        <v>-4286.750000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-1339.53</v>
+        <v>3662.29</v>
       </c>
       <c r="H34" t="n">
-        <v>1308.36</v>
+        <v>-494.8299999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>1361.69</v>
+        <v>9083.860000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>873.33</v>
+        <v>-4579.46</v>
       </c>
       <c r="K34" t="n">
-        <v>3165.74</v>
+        <v>-9263.629999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>4511.05</v>
+        <v>-17309.45</v>
       </c>
       <c r="M34" t="n">
-        <v>4877.3</v>
+        <v>-21339.59</v>
       </c>
       <c r="N34" t="n">
-        <v>4302.58</v>
-      </c>
-      <c r="O34" t="n">
-        <v>5057.34</v>
+        <v>-27721.91</v>
       </c>
     </row>
     <row r="35">
@@ -2134,46 +2030,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16291.67</v>
+        <v>-16575.43</v>
       </c>
       <c r="C35" t="n">
-        <v>17168.07</v>
+        <v>-16994.76</v>
       </c>
       <c r="D35" t="n">
-        <v>-31247.41</v>
+        <v>-20828.29</v>
       </c>
       <c r="E35" t="n">
-        <v>-31879.44</v>
+        <v>-22798.18</v>
       </c>
       <c r="F35" t="n">
-        <v>-39686.15</v>
+        <v>-17920.79</v>
       </c>
       <c r="G35" t="n">
-        <v>-45604.16</v>
+        <v>-4810.110000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>-37249.06</v>
+        <v>-9858.07</v>
       </c>
       <c r="I35" t="n">
-        <v>-22716</v>
+        <v>-14027.78</v>
       </c>
       <c r="J35" t="n">
-        <v>-45766.71999999999</v>
+        <v>24606.5</v>
       </c>
       <c r="K35" t="n">
-        <v>-58008.62</v>
+        <v>-33551.98</v>
       </c>
       <c r="L35" t="n">
-        <v>49931.96</v>
+        <v>-56862.8</v>
       </c>
       <c r="M35" t="n">
-        <v>-64708.14</v>
+        <v>-11097.46</v>
       </c>
       <c r="N35" t="n">
-        <v>-110437.06</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-19156.18</v>
+        <v>-23195.11</v>
       </c>
     </row>
     <row r="36">
@@ -2183,46 +2076,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5683.93</v>
+        <v>-4680.860000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>5764.28</v>
+        <v>-4330.55</v>
       </c>
       <c r="D36" t="n">
-        <v>-7124.030000000001</v>
+        <v>-4531.79</v>
       </c>
       <c r="E36" t="n">
-        <v>-5831.62</v>
+        <v>-13832.94</v>
       </c>
       <c r="F36" t="n">
-        <v>-5673.91</v>
+        <v>-4326.52</v>
       </c>
       <c r="G36" t="n">
-        <v>-12493.41</v>
+        <v>-10733.32</v>
       </c>
       <c r="H36" t="n">
-        <v>-5634.88</v>
+        <v>-14382.58</v>
       </c>
       <c r="I36" t="n">
-        <v>-12095.01</v>
+        <v>-16432.41</v>
       </c>
       <c r="J36" t="n">
-        <v>-15255.91</v>
+        <v>-13139.67</v>
       </c>
       <c r="K36" t="n">
-        <v>-19598.15</v>
+        <v>-20237.11</v>
       </c>
       <c r="L36" t="n">
-        <v>-17650.72</v>
+        <v>-16480.9</v>
       </c>
       <c r="M36" t="n">
-        <v>-25114.41</v>
+        <v>-14964.27</v>
       </c>
       <c r="N36" t="n">
-        <v>-20783.48</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-20021.61</v>
+        <v>-14241.89</v>
       </c>
     </row>
     <row r="37">
@@ -2232,46 +2122,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8278.049999999999</v>
+        <v>18203.38</v>
       </c>
       <c r="C37" t="n">
-        <v>11313.59</v>
+        <v>17994.61</v>
       </c>
       <c r="D37" t="n">
-        <v>18203.38</v>
+        <v>13005.47</v>
       </c>
       <c r="E37" t="n">
-        <v>17994.61</v>
+        <v>13723.68</v>
       </c>
       <c r="F37" t="n">
-        <v>13005.47</v>
+        <v>9644.219999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>13723.68</v>
+        <v>9336</v>
       </c>
       <c r="H37" t="n">
-        <v>9644.219999999999</v>
+        <v>-9747.16</v>
       </c>
       <c r="I37" t="n">
-        <v>9336</v>
+        <v>6436.14</v>
       </c>
       <c r="J37" t="n">
-        <v>-9747.16</v>
+        <v>8192.879999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>6436.14</v>
+        <v>-5122.45</v>
       </c>
       <c r="L37" t="n">
-        <v>8192.879999999999</v>
+        <v>-13801.78</v>
       </c>
       <c r="M37" t="n">
-        <v>-5122.45</v>
+        <v>-15296.93</v>
       </c>
       <c r="N37" t="n">
-        <v>-13801.78</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-15296.93</v>
+        <v>-15053.61</v>
       </c>
     </row>
     <row r="38">
@@ -2281,46 +2168,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32091.42</v>
+        <v>57159.22</v>
       </c>
       <c r="C38" t="n">
-        <v>26666.55</v>
+        <v>60535.3</v>
       </c>
       <c r="D38" t="n">
-        <v>27211.44</v>
+        <v>21561.51</v>
       </c>
       <c r="E38" t="n">
-        <v>21843.03</v>
+        <v>-8669.880000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>-7729.159999999999</v>
+        <v>-7751.15</v>
       </c>
       <c r="G38" t="n">
-        <v>-17838.83</v>
+        <v>-16289.56</v>
       </c>
       <c r="H38" t="n">
-        <v>-10395.38</v>
+        <v>-50538.47</v>
       </c>
       <c r="I38" t="n">
-        <v>-17348.18</v>
+        <v>-48727.73</v>
       </c>
       <c r="J38" t="n">
-        <v>-28663.1</v>
+        <v>-40413.99</v>
       </c>
       <c r="K38" t="n">
-        <v>-24085.64</v>
+        <v>-44688.86</v>
       </c>
       <c r="L38" t="n">
-        <v>-21139.83</v>
+        <v>-61569.75</v>
       </c>
       <c r="M38" t="n">
-        <v>-27466.87</v>
+        <v>-8139.809999999999</v>
       </c>
       <c r="N38" t="n">
-        <v>-38191.2</v>
-      </c>
-      <c r="O38" t="n">
-        <v>-18750.79</v>
+        <v>-28508.49</v>
       </c>
     </row>
     <row r="39">
@@ -2330,46 +2214,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>74479.02</v>
+        <v>33675.04</v>
       </c>
       <c r="C39" t="n">
-        <v>52694.8</v>
+        <v>13639.45</v>
       </c>
       <c r="D39" t="n">
-        <v>63622.82</v>
+        <v>21127.39</v>
       </c>
       <c r="E39" t="n">
-        <v>52331.72</v>
+        <v>-11662.13</v>
       </c>
       <c r="F39" t="n">
-        <v>50418.06</v>
+        <v>-27700.33</v>
       </c>
       <c r="G39" t="n">
-        <v>-2493.18</v>
+        <v>-25141.59</v>
       </c>
       <c r="H39" t="n">
-        <v>-25056.1</v>
+        <v>-12883.97</v>
       </c>
       <c r="I39" t="n">
-        <v>-24082.97</v>
+        <v>-29301.22</v>
       </c>
       <c r="J39" t="n">
-        <v>-34759.34</v>
+        <v>-3086.27</v>
       </c>
       <c r="K39" t="n">
-        <v>-53943.31</v>
+        <v>-15650.36</v>
       </c>
       <c r="L39" t="n">
-        <v>-22360.43</v>
+        <v>-43213.36</v>
       </c>
       <c r="M39" t="n">
-        <v>-32872.35</v>
+        <v>-38279.04</v>
       </c>
       <c r="N39" t="n">
-        <v>-66591.91</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-27668.06</v>
+        <v>-47050.87</v>
       </c>
     </row>
     <row r="40">
@@ -2379,46 +2260,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21298.16</v>
+        <v>5498.749999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>8394.290000000001</v>
+        <v>1655.930000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>5498.749999999999</v>
+        <v>-13397.66</v>
       </c>
       <c r="E40" t="n">
-        <v>1655.930000000001</v>
+        <v>-22513.77</v>
       </c>
       <c r="F40" t="n">
-        <v>-13397.66</v>
+        <v>-3334.78</v>
       </c>
       <c r="G40" t="n">
-        <v>-22513.77</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>-3334.78</v>
+        <v>-3872.39</v>
       </c>
       <c r="I40" t="n">
-        <v>-2803.660000000001</v>
+        <v>-2316.650000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>-3872.39</v>
+        <v>16423.45</v>
       </c>
       <c r="K40" t="n">
-        <v>-2316.650000000001</v>
+        <v>7420.54</v>
       </c>
       <c r="L40" t="n">
-        <v>16423.45</v>
+        <v>-8400.16</v>
       </c>
       <c r="M40" t="n">
-        <v>7420.54</v>
+        <v>-1565.460000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>-8400.16</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-1565.460000000001</v>
+        <v>-5576.75</v>
       </c>
     </row>
     <row r="41">
@@ -2428,46 +2306,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6102.48</v>
+        <v>3943.97</v>
       </c>
       <c r="C41" t="n">
-        <v>3887.73</v>
+        <v>-2323.66</v>
       </c>
       <c r="D41" t="n">
-        <v>3943.97</v>
+        <v>1588.69</v>
       </c>
       <c r="E41" t="n">
-        <v>-2323.66</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1588.69</v>
+        <v>9814.09</v>
       </c>
       <c r="G41" t="n">
-        <v>7619.099999999999</v>
+        <v>10117.7</v>
       </c>
       <c r="H41" t="n">
-        <v>9814.09</v>
+        <v>9842.450000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>10117.7</v>
+        <v>7723.59</v>
       </c>
       <c r="J41" t="n">
-        <v>9842.450000000001</v>
+        <v>2985.55</v>
       </c>
       <c r="K41" t="n">
-        <v>7723.59</v>
+        <v>-5042.5</v>
       </c>
       <c r="L41" t="n">
-        <v>2985.55</v>
+        <v>-6973.61</v>
       </c>
       <c r="M41" t="n">
-        <v>-5042.5</v>
+        <v>-6675.96</v>
       </c>
       <c r="N41" t="n">
-        <v>-6973.61</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-6675.96</v>
+        <v>-6717.14</v>
       </c>
     </row>
     <row r="42">
@@ -2477,46 +2352,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1005.71</v>
+        <v>-3818.85</v>
       </c>
       <c r="C42" t="n">
-        <v>-5354.98</v>
+        <v>-4170.84</v>
       </c>
       <c r="D42" t="n">
-        <v>-3818.85</v>
+        <v>-4793.76</v>
       </c>
       <c r="E42" t="n">
-        <v>-4170.84</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>-4793.76</v>
+        <v>-3596.11</v>
       </c>
       <c r="G42" t="n">
-        <v>-4975.110000000001</v>
+        <v>-2791.37</v>
       </c>
       <c r="H42" t="n">
-        <v>-3596.11</v>
+        <v>-2244.57</v>
       </c>
       <c r="I42" t="n">
-        <v>-2791.37</v>
+        <v>3802.41</v>
       </c>
       <c r="J42" t="n">
-        <v>-2244.57</v>
+        <v>3913.89</v>
       </c>
       <c r="K42" t="n">
-        <v>3802.41</v>
+        <v>4196.91</v>
       </c>
       <c r="L42" t="n">
-        <v>3913.89</v>
+        <v>2333.39</v>
       </c>
       <c r="M42" t="n">
-        <v>4196.91</v>
+        <v>1927.77</v>
       </c>
       <c r="N42" t="n">
-        <v>2333.39</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1927.77</v>
+        <v>-4381.58</v>
       </c>
     </row>
     <row r="43">
@@ -2526,46 +2398,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7570.96</v>
+        <v>-1202.01</v>
       </c>
       <c r="C43" t="n">
-        <v>-871.6400000000003</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-1202.01</v>
+        <v>-2224.09</v>
       </c>
       <c r="E43" t="n">
-        <v>-2196.889999999999</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>-2224.09</v>
+        <v>-8471.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-8874.900000000001</v>
+        <v>-8151.13</v>
       </c>
       <c r="H43" t="n">
-        <v>-8471.98</v>
+        <v>-8628.540000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>-8151.13</v>
+        <v>-6669.5</v>
       </c>
       <c r="J43" t="n">
-        <v>-8628.540000000001</v>
+        <v>-6093.22</v>
       </c>
       <c r="K43" t="n">
-        <v>-6669.5</v>
+        <v>6444.210000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>-6093.22</v>
+        <v>17843.42</v>
       </c>
       <c r="M43" t="n">
-        <v>6444.210000000001</v>
+        <v>15413.03</v>
       </c>
       <c r="N43" t="n">
-        <v>17843.42</v>
-      </c>
-      <c r="O43" t="n">
-        <v>15413.03</v>
+        <v>15022.75</v>
       </c>
     </row>
     <row r="44">
@@ -2575,46 +2444,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1947.25</v>
+        <v>-663.53</v>
       </c>
       <c r="C44" t="n">
-        <v>1356.14</v>
+        <v>-1633.76</v>
       </c>
       <c r="D44" t="n">
-        <v>-663.53</v>
+        <v>-1341.96</v>
       </c>
       <c r="E44" t="n">
-        <v>-1633.76</v>
+        <v>-1967.27</v>
       </c>
       <c r="F44" t="n">
-        <v>-1341.96</v>
+        <v>-1885.33</v>
       </c>
       <c r="G44" t="n">
-        <v>-1967.27</v>
+        <v>-1353.23</v>
       </c>
       <c r="H44" t="n">
-        <v>-1885.33</v>
+        <v>-1129.64</v>
       </c>
       <c r="I44" t="n">
-        <v>-1353.23</v>
+        <v>115.95</v>
       </c>
       <c r="J44" t="n">
-        <v>-1129.64</v>
+        <v>-297.44</v>
       </c>
       <c r="K44" t="n">
-        <v>115.95</v>
+        <v>3157.93</v>
       </c>
       <c r="L44" t="n">
-        <v>-297.44</v>
+        <v>5875.65</v>
       </c>
       <c r="M44" t="n">
-        <v>3157.93</v>
+        <v>5191.15</v>
       </c>
       <c r="N44" t="n">
-        <v>5875.65</v>
-      </c>
-      <c r="O44" t="n">
-        <v>5191.15</v>
+        <v>4816.27</v>
       </c>
     </row>
     <row r="45">
@@ -2624,46 +2490,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32368.02</v>
+        <v>30974.12</v>
       </c>
       <c r="C45" t="n">
-        <v>38575.28</v>
+        <v>877.6399999999991</v>
       </c>
       <c r="D45" t="n">
-        <v>27498.82</v>
+        <v>5565.860000000002</v>
       </c>
       <c r="E45" t="n">
-        <v>16703.31</v>
+        <v>15674.9</v>
       </c>
       <c r="F45" t="n">
-        <v>23700.33000000001</v>
+        <v>20996.79</v>
       </c>
       <c r="G45" t="n">
-        <v>15663.77</v>
+        <v>42653.27</v>
       </c>
       <c r="H45" t="n">
-        <v>-4983.599999999999</v>
+        <v>77322.28999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>11911.16</v>
+        <v>63529.18</v>
       </c>
       <c r="J45" t="n">
-        <v>39687.99000000001</v>
+        <v>58429.98</v>
       </c>
       <c r="K45" t="n">
-        <v>28286.51</v>
+        <v>41883.95</v>
       </c>
       <c r="L45" t="n">
-        <v>30800.32</v>
+        <v>-960.7800000000009</v>
       </c>
       <c r="M45" t="n">
-        <v>27458.47</v>
+        <v>-9298.880000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>15654.79</v>
-      </c>
-      <c r="O45" t="n">
-        <v>9671.389999999999</v>
+        <v>33705.12</v>
       </c>
     </row>
     <row r="46">
@@ -2673,46 +2536,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23806.31</v>
+        <v>18005.98</v>
       </c>
       <c r="C46" t="n">
-        <v>-16034.37</v>
+        <v>-16607.64</v>
       </c>
       <c r="D46" t="n">
-        <v>18518.91</v>
+        <v>-3274.739999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>-13528.86</v>
+        <v>-1202.380000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>-1112.96</v>
+        <v>33231.64999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-1772.69</v>
+        <v>26235.92</v>
       </c>
       <c r="H46" t="n">
-        <v>31722.75</v>
+        <v>19371.68</v>
       </c>
       <c r="I46" t="n">
-        <v>25060.74</v>
+        <v>8699.650000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>17696.39</v>
+        <v>-10588.46</v>
       </c>
       <c r="K46" t="n">
-        <v>7026.730000000001</v>
+        <v>9206.989999999998</v>
       </c>
       <c r="L46" t="n">
-        <v>-12347.3</v>
+        <v>-21461.31</v>
       </c>
       <c r="M46" t="n">
-        <v>10892.9</v>
+        <v>1718.459999999999</v>
       </c>
       <c r="N46" t="n">
-        <v>-17812.16</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4090.07</v>
+        <v>-13983.18</v>
       </c>
     </row>
     <row r="47">
@@ -2722,46 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-15998.75</v>
+        <v>-9552.59</v>
       </c>
       <c r="C47" t="n">
-        <v>-40795.84</v>
+        <v>-24854.47</v>
       </c>
       <c r="D47" t="n">
-        <v>-6599.25</v>
+        <v>-26088.08</v>
       </c>
       <c r="E47" t="n">
-        <v>-43767.31</v>
+        <v>-11816.69</v>
       </c>
       <c r="F47" t="n">
-        <v>-46395.78</v>
+        <v>168.6999999999996</v>
       </c>
       <c r="G47" t="n">
-        <v>-11247.39</v>
+        <v>-13365.52</v>
       </c>
       <c r="H47" t="n">
-        <v>27644.75</v>
+        <v>-18056.12</v>
       </c>
       <c r="I47" t="n">
-        <v>18539.58</v>
+        <v>13345.08</v>
       </c>
       <c r="J47" t="n">
-        <v>21243.92</v>
+        <v>24975.91</v>
       </c>
       <c r="K47" t="n">
-        <v>50250.82</v>
+        <v>22289.52</v>
       </c>
       <c r="L47" t="n">
-        <v>54353.02</v>
+        <v>21614.53</v>
       </c>
       <c r="M47" t="n">
-        <v>35020.48</v>
+        <v>19827.67</v>
       </c>
       <c r="N47" t="n">
-        <v>1342</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1524.350000000002</v>
+        <v>22449.51</v>
       </c>
     </row>
     <row r="48">
@@ -2771,46 +2628,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3227.82</v>
+        <v>5504.05</v>
       </c>
       <c r="C48" t="n">
-        <v>2169.74</v>
+        <v>7312.71</v>
       </c>
       <c r="D48" t="n">
-        <v>2475.18</v>
+        <v>8602.309999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>3958.5</v>
+        <v>13474.91</v>
       </c>
       <c r="F48" t="n">
-        <v>4823.19</v>
+        <v>20248.24</v>
       </c>
       <c r="G48" t="n">
-        <v>11198.98</v>
+        <v>22168.02</v>
       </c>
       <c r="H48" t="n">
-        <v>18691.27</v>
+        <v>22752.32</v>
       </c>
       <c r="I48" t="n">
-        <v>20293.79</v>
+        <v>23945.17</v>
       </c>
       <c r="J48" t="n">
-        <v>21061.41</v>
+        <v>21370</v>
       </c>
       <c r="K48" t="n">
-        <v>22356.02</v>
+        <v>14059.66</v>
       </c>
       <c r="L48" t="n">
-        <v>20326.16</v>
+        <v>12940.1</v>
       </c>
       <c r="M48" t="n">
-        <v>15833.74</v>
+        <v>8789.58</v>
       </c>
       <c r="N48" t="n">
-        <v>13365.37</v>
-      </c>
-      <c r="O48" t="n">
-        <v>9049.08</v>
+        <v>-3753.04</v>
       </c>
     </row>
     <row r="49">
@@ -2820,46 +2674,43 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28893.16</v>
+        <v>25549.3</v>
       </c>
       <c r="C49" t="n">
-        <v>27837.63</v>
+        <v>17277.36</v>
       </c>
       <c r="D49" t="n">
-        <v>25457.78</v>
+        <v>3746.36</v>
       </c>
       <c r="E49" t="n">
-        <v>19614.36</v>
+        <v>-15411.08</v>
       </c>
       <c r="F49" t="n">
-        <v>5464.389999999999</v>
+        <v>-7660.440000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-13208.71</v>
+        <v>-12079.49</v>
       </c>
       <c r="H49" t="n">
-        <v>-6714.9</v>
+        <v>-36338.97</v>
       </c>
       <c r="I49" t="n">
-        <v>-10405.65</v>
+        <v>-45718.57999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>-36206.64999999999</v>
+        <v>-31815.11</v>
       </c>
       <c r="K49" t="n">
-        <v>-43713.37</v>
+        <v>-44606.58</v>
       </c>
       <c r="L49" t="n">
-        <v>-30102.87</v>
+        <v>-46450.86</v>
       </c>
       <c r="M49" t="n">
-        <v>-43262.94</v>
+        <v>632.3699999999988</v>
       </c>
       <c r="N49" t="n">
-        <v>-45357.02</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2129.93</v>
+        <v>-17300.95</v>
       </c>
     </row>
     <row r="50">
@@ -2869,46 +2720,43 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-5066.309999999999</v>
+        <v>-8433.6</v>
       </c>
       <c r="C50" t="n">
-        <v>-6024.73</v>
+        <v>-14530.65</v>
       </c>
       <c r="D50" t="n">
-        <v>-5313.21</v>
+        <v>-14343.17</v>
       </c>
       <c r="E50" t="n">
-        <v>-13513.44</v>
+        <v>-15532.85</v>
       </c>
       <c r="F50" t="n">
-        <v>-12282.08</v>
+        <v>-19821.96</v>
       </c>
       <c r="G50" t="n">
-        <v>-15459.29</v>
+        <v>-14977.84</v>
       </c>
       <c r="H50" t="n">
-        <v>-19210.53</v>
+        <v>-16007.66</v>
       </c>
       <c r="I50" t="n">
-        <v>-14777.45</v>
+        <v>-11003.23</v>
       </c>
       <c r="J50" t="n">
-        <v>-14449.07</v>
+        <v>11910.82</v>
       </c>
       <c r="K50" t="n">
-        <v>-11419.29</v>
+        <v>22216.82</v>
       </c>
       <c r="L50" t="n">
-        <v>11242.42</v>
+        <v>12856.56</v>
       </c>
       <c r="M50" t="n">
-        <v>19099.1</v>
+        <v>24491.37</v>
       </c>
       <c r="N50" t="n">
-        <v>11337.45</v>
-      </c>
-      <c r="O50" t="n">
-        <v>22734.31</v>
+        <v>13397.43</v>
       </c>
     </row>
     <row r="51">
@@ -2918,46 +2766,43 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25811.45</v>
+        <v>26229.08</v>
       </c>
       <c r="C51" t="n">
-        <v>27436.44</v>
+        <v>25253.4</v>
       </c>
       <c r="D51" t="n">
-        <v>26229.08</v>
+        <v>20738.07</v>
       </c>
       <c r="E51" t="n">
-        <v>25253.4</v>
+        <v>11182.12</v>
       </c>
       <c r="F51" t="n">
-        <v>20738.07</v>
+        <v>12624.43</v>
       </c>
       <c r="G51" t="n">
-        <v>11182.12</v>
+        <v>5233.369999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>12624.43</v>
+        <v>20483.85</v>
       </c>
       <c r="I51" t="n">
-        <v>5233.369999999999</v>
+        <v>16934.61</v>
       </c>
       <c r="J51" t="n">
-        <v>20483.85</v>
+        <v>22309.04</v>
       </c>
       <c r="K51" t="n">
-        <v>16934.61</v>
+        <v>15414.61</v>
       </c>
       <c r="L51" t="n">
-        <v>22309.04</v>
+        <v>-4068.25</v>
       </c>
       <c r="M51" t="n">
-        <v>15414.61</v>
+        <v>-21850.23</v>
       </c>
       <c r="N51" t="n">
-        <v>-4068.25</v>
-      </c>
-      <c r="O51" t="n">
-        <v>-21850.23</v>
+        <v>-21368.06</v>
       </c>
     </row>
     <row r="52">
@@ -2967,46 +2812,43 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-6792.9</v>
+        <v>5224.2</v>
       </c>
       <c r="C52" t="n">
-        <v>-7782.95</v>
+        <v>-5862.03</v>
       </c>
       <c r="D52" t="n">
-        <v>2924.97</v>
+        <v>-2537.4</v>
       </c>
       <c r="E52" t="n">
-        <v>-7940.51</v>
+        <v>19055.46</v>
       </c>
       <c r="F52" t="n">
-        <v>-4773.099999999999</v>
+        <v>25808.64</v>
       </c>
       <c r="G52" t="n">
-        <v>17026.57</v>
+        <v>23040.72</v>
       </c>
       <c r="H52" t="n">
-        <v>23419.66</v>
+        <v>21452.42</v>
       </c>
       <c r="I52" t="n">
-        <v>20986.99</v>
+        <v>19364.02</v>
       </c>
       <c r="J52" t="n">
-        <v>19321.74</v>
+        <v>-3323.79</v>
       </c>
       <c r="K52" t="n">
-        <v>17538.91</v>
+        <v>-23323.57</v>
       </c>
       <c r="L52" t="n">
-        <v>-2974.059999999999</v>
+        <v>-24864.57</v>
       </c>
       <c r="M52" t="n">
-        <v>-22222.52</v>
+        <v>-16679.86</v>
       </c>
       <c r="N52" t="n">
-        <v>-23762.6</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-15751.28</v>
+        <v>-4248.059999999998</v>
       </c>
     </row>
     <row r="53">
@@ -3016,46 +2858,43 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8671.860000000001</v>
+        <v>4776.84</v>
       </c>
       <c r="C53" t="n">
-        <v>-8503.199999999999</v>
+        <v>6185.550000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>7076.07</v>
+        <v>16301.83</v>
       </c>
       <c r="E53" t="n">
-        <v>8264.030000000002</v>
+        <v>23491.55</v>
       </c>
       <c r="F53" t="n">
-        <v>18537.53</v>
+        <v>-20949.67</v>
       </c>
       <c r="G53" t="n">
-        <v>25520.44</v>
+        <v>-24903.45</v>
       </c>
       <c r="H53" t="n">
-        <v>-18560.69</v>
+        <v>-8626.190000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>-22849.72</v>
+        <v>-11568.38</v>
       </c>
       <c r="J53" t="n">
-        <v>-6495.51</v>
+        <v>-23938.27</v>
       </c>
       <c r="K53" t="n">
-        <v>-9743.270000000004</v>
+        <v>-9197.84</v>
       </c>
       <c r="L53" t="n">
-        <v>-24288</v>
+        <v>8598.23</v>
       </c>
       <c r="M53" t="n">
-        <v>-10298.89</v>
+        <v>-21777.66</v>
       </c>
       <c r="N53" t="n">
-        <v>7496.259999999998</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-22706.24</v>
+        <v>-28033.4</v>
       </c>
     </row>
     <row r="54">
@@ -3065,46 +2904,43 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150691</v>
+        <v>207011.77</v>
       </c>
       <c r="C54" t="n">
-        <v>144197.86</v>
+        <v>242260.26</v>
       </c>
       <c r="D54" t="n">
-        <v>207274.19</v>
+        <v>304542.24</v>
       </c>
       <c r="E54" t="n">
-        <v>242442.93</v>
+        <v>291599.94</v>
       </c>
       <c r="F54" t="n">
-        <v>304975.79</v>
+        <v>245589.33</v>
       </c>
       <c r="G54" t="n">
-        <v>291889.72</v>
+        <v>242877.35</v>
       </c>
       <c r="H54" t="n">
-        <v>245736.24</v>
+        <v>224627.42</v>
       </c>
       <c r="I54" t="n">
-        <v>242951.36</v>
+        <v>-93049.90999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>224845.7</v>
+        <v>-153314.31</v>
       </c>
       <c r="K54" t="n">
-        <v>-93342.28999999999</v>
+        <v>-172387.99</v>
       </c>
       <c r="L54" t="n">
-        <v>-153464.75</v>
+        <v>-222950.41</v>
       </c>
       <c r="M54" t="n">
-        <v>-172495.43</v>
+        <v>-276991.36</v>
       </c>
       <c r="N54" t="n">
-        <v>-223147.18</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-277207.93</v>
+        <v>-201583.04</v>
       </c>
     </row>
     <row r="55">
@@ -3114,46 +2950,43 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28201.61</v>
+        <v>-6790.15</v>
       </c>
       <c r="C55" t="n">
-        <v>7114.269999999999</v>
+        <v>776.2000000000007</v>
       </c>
       <c r="D55" t="n">
-        <v>-3012.32</v>
+        <v>12445.75</v>
       </c>
       <c r="E55" t="n">
-        <v>-2952.249999999999</v>
+        <v>-8749.389999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>8266.52</v>
+        <v>-28442.89</v>
       </c>
       <c r="G55" t="n">
-        <v>-5699.07</v>
+        <v>-28814.88</v>
       </c>
       <c r="H55" t="n">
-        <v>-24659.89</v>
+        <v>-42417.03</v>
       </c>
       <c r="I55" t="n">
-        <v>-32006.87</v>
+        <v>-52120.86</v>
       </c>
       <c r="J55" t="n">
-        <v>-34645.62</v>
+        <v>-31741.06</v>
       </c>
       <c r="K55" t="n">
-        <v>-47074.77</v>
+        <v>-16733.38</v>
       </c>
       <c r="L55" t="n">
-        <v>-27440.3</v>
+        <v>-32980.92</v>
       </c>
       <c r="M55" t="n">
-        <v>-20152.47</v>
+        <v>-33501.36</v>
       </c>
       <c r="N55" t="n">
-        <v>-30681.84</v>
-      </c>
-      <c r="O55" t="n">
-        <v>-31185.96</v>
+        <v>-15787</v>
       </c>
     </row>
     <row r="56">
@@ -3163,46 +2996,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50415.69</v>
+        <v>53259.41</v>
       </c>
       <c r="C56" t="n">
-        <v>19693.48</v>
+        <v>45104.22</v>
       </c>
       <c r="D56" t="n">
-        <v>49219.16</v>
+        <v>86957.69</v>
       </c>
       <c r="E56" t="n">
-        <v>48650</v>
+        <v>82754.57000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>90703.37</v>
+        <v>33886.39</v>
       </c>
       <c r="G56" t="n">
-        <v>79414.47</v>
+        <v>25185.15000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>29956.48</v>
+        <v>20565.66</v>
       </c>
       <c r="I56" t="n">
-        <v>28303.13</v>
+        <v>-38060.71</v>
       </c>
       <c r="J56" t="n">
-        <v>12575.97</v>
+        <v>-50815.7</v>
       </c>
       <c r="K56" t="n">
-        <v>-42814.42</v>
+        <v>-57607.73</v>
       </c>
       <c r="L56" t="n">
-        <v>-54966.02</v>
+        <v>-65783.37</v>
       </c>
       <c r="M56" t="n">
-        <v>-54081.2</v>
+        <v>-54561.65</v>
       </c>
       <c r="N56" t="n">
-        <v>-67885.68000000001</v>
-      </c>
-      <c r="O56" t="n">
-        <v>-56660.48</v>
+        <v>-45958.83</v>
       </c>
     </row>
     <row r="57">
@@ -3212,46 +3042,43 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27089.94</v>
+        <v>6370.889999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>4792.469999999998</v>
+        <v>-1153.190000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>6391.700000000001</v>
+        <v>9049.98</v>
       </c>
       <c r="E57" t="n">
-        <v>-1132.380000000001</v>
+        <v>18289.73</v>
       </c>
       <c r="F57" t="n">
-        <v>9069.630000000001</v>
+        <v>26731.88</v>
       </c>
       <c r="G57" t="n">
-        <v>18308.44</v>
+        <v>31831.64</v>
       </c>
       <c r="H57" t="n">
-        <v>26751.08</v>
+        <v>36874.94</v>
       </c>
       <c r="I57" t="n">
-        <v>31845.68</v>
+        <v>33213.67</v>
       </c>
       <c r="J57" t="n">
-        <v>36889.82</v>
+        <v>27927.71</v>
       </c>
       <c r="K57" t="n">
-        <v>33232.64</v>
+        <v>16465.13</v>
       </c>
       <c r="L57" t="n">
-        <v>27949.38</v>
+        <v>11937.11</v>
       </c>
       <c r="M57" t="n">
-        <v>16488.15</v>
+        <v>-1602.9</v>
       </c>
       <c r="N57" t="n">
-        <v>11960.42</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-1580.77</v>
+        <v>-22694.81</v>
       </c>
     </row>
     <row r="58">
@@ -3261,46 +3088,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-8350.290000000001</v>
+        <v>-13606.65</v>
       </c>
       <c r="C58" t="n">
-        <v>-15800.03</v>
+        <v>-20572.95</v>
       </c>
       <c r="D58" t="n">
-        <v>-13609.22</v>
+        <v>11685.57</v>
       </c>
       <c r="E58" t="n">
-        <v>-20563.86</v>
+        <v>15173.2</v>
       </c>
       <c r="F58" t="n">
-        <v>11693.85</v>
+        <v>14864.25</v>
       </c>
       <c r="G58" t="n">
-        <v>15183.82</v>
+        <v>16898.16</v>
       </c>
       <c r="H58" t="n">
-        <v>14876.1</v>
+        <v>16318.76</v>
       </c>
       <c r="I58" t="n">
-        <v>16902.54</v>
+        <v>7418.19</v>
       </c>
       <c r="J58" t="n">
-        <v>16321.37</v>
+        <v>3798.98</v>
       </c>
       <c r="K58" t="n">
-        <v>7427.3</v>
+        <v>-2559.55</v>
       </c>
       <c r="L58" t="n">
-        <v>3808.51</v>
+        <v>-3890.57</v>
       </c>
       <c r="M58" t="n">
-        <v>-2551.86</v>
+        <v>-7240.5</v>
       </c>
       <c r="N58" t="n">
-        <v>-3881.379999999999</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-7234.69</v>
+        <v>-20727.57</v>
       </c>
     </row>
     <row r="59">
@@ -3310,46 +3134,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-4060.45</v>
+        <v>4730.13</v>
       </c>
       <c r="C59" t="n">
-        <v>-1738.46</v>
+        <v>-1485.47</v>
       </c>
       <c r="D59" t="n">
-        <v>4709.320000000001</v>
+        <v>193.32</v>
       </c>
       <c r="E59" t="n">
-        <v>-1506.28</v>
+        <v>-1411.89</v>
       </c>
       <c r="F59" t="n">
-        <v>173.67</v>
+        <v>7329.709999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-1430.6</v>
+        <v>10300.1</v>
       </c>
       <c r="H59" t="n">
-        <v>7310.51</v>
+        <v>14165.91</v>
       </c>
       <c r="I59" t="n">
-        <v>10286.06</v>
+        <v>17479.25</v>
       </c>
       <c r="J59" t="n">
-        <v>14151.03</v>
+        <v>20463.17</v>
       </c>
       <c r="K59" t="n">
-        <v>17445.43</v>
+        <v>21673.62</v>
       </c>
       <c r="L59" t="n">
-        <v>20429.81</v>
+        <v>18928.81</v>
       </c>
       <c r="M59" t="n">
-        <v>21648.55</v>
+        <v>15673.46</v>
       </c>
       <c r="N59" t="n">
-        <v>18910.64</v>
-      </c>
-      <c r="O59" t="n">
-        <v>15651.33</v>
+        <v>11447.81</v>
       </c>
     </row>
     <row r="60">
@@ -3359,46 +3180,43 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2582.86</v>
+        <v>895.04</v>
       </c>
       <c r="C60" t="n">
-        <v>2322.9</v>
+        <v>763.8400000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>3573.53</v>
+        <v>168.1</v>
       </c>
       <c r="E60" t="n">
-        <v>2424.71</v>
+        <v>-418.32</v>
       </c>
       <c r="F60" t="n">
-        <v>1813.25</v>
+        <v>1360.38</v>
       </c>
       <c r="G60" t="n">
-        <v>1123.84</v>
+        <v>80.19</v>
       </c>
       <c r="H60" t="n">
-        <v>2933.15</v>
+        <v>-256.7900000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>1643.51</v>
+        <v>-212.9399999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>2373.55</v>
+        <v>739.27</v>
       </c>
       <c r="K60" t="n">
-        <v>2452.21</v>
+        <v>-1433.87</v>
       </c>
       <c r="L60" t="n">
-        <v>3295.31</v>
+        <v>-788.8099999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>36.36000000000001</v>
+        <v>-1352.34</v>
       </c>
       <c r="N60" t="n">
-        <v>-2343.87</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-4002.45</v>
+        <v>-959.6800000000001</v>
       </c>
     </row>
     <row r="61">
@@ -3408,46 +3226,43 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>22855.33</v>
+        <v>-6960</v>
       </c>
       <c r="C61" t="n">
-        <v>-6082.640000000001</v>
+        <v>-8280.17</v>
       </c>
       <c r="D61" t="n">
-        <v>-6590.25</v>
+        <v>-7006.030000000002</v>
       </c>
       <c r="E61" t="n">
-        <v>-8494.859999999999</v>
+        <v>-23216.6</v>
       </c>
       <c r="F61" t="n">
-        <v>-7097.31</v>
+        <v>-17000.58</v>
       </c>
       <c r="G61" t="n">
-        <v>-23325.01</v>
+        <v>-17424.46</v>
       </c>
       <c r="H61" t="n">
-        <v>-16749.22</v>
+        <v>-31466.51</v>
       </c>
       <c r="I61" t="n">
-        <v>-17232.59</v>
+        <v>-38673.12</v>
       </c>
       <c r="J61" t="n">
-        <v>-31129.96</v>
+        <v>-30919.85</v>
       </c>
       <c r="K61" t="n">
-        <v>-38301.2</v>
+        <v>-38599.83</v>
       </c>
       <c r="L61" t="n">
-        <v>-31149.78</v>
+        <v>-41819.7</v>
       </c>
       <c r="M61" t="n">
-        <v>-39388.31</v>
+        <v>-45220.23</v>
       </c>
       <c r="N61" t="n">
-        <v>-42429.58</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-45843.02</v>
+        <v>-54700.85000000001</v>
       </c>
     </row>
     <row r="62">
@@ -3457,46 +3272,43 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>276.83</v>
+        <v>2678.49</v>
       </c>
       <c r="C62" t="n">
-        <v>244.56</v>
+        <v>1660.87</v>
       </c>
       <c r="D62" t="n">
-        <v>-369.75</v>
+        <v>1645.15</v>
       </c>
       <c r="E62" t="n">
-        <v>214.69</v>
+        <v>1542.16</v>
       </c>
       <c r="F62" t="n">
-        <v>91.28</v>
+        <v>1572.77</v>
       </c>
       <c r="G62" t="n">
-        <v>108.41</v>
+        <v>1563.32</v>
       </c>
       <c r="H62" t="n">
-        <v>-251.36</v>
+        <v>2630.34</v>
       </c>
       <c r="I62" t="n">
-        <v>-191.87</v>
+        <v>2665.15</v>
       </c>
       <c r="J62" t="n">
-        <v>-336.55</v>
+        <v>2556.04</v>
       </c>
       <c r="K62" t="n">
-        <v>-371.92</v>
+        <v>1470.23</v>
       </c>
       <c r="L62" t="n">
-        <v>229.93</v>
+        <v>-1555.06</v>
       </c>
       <c r="M62" t="n">
-        <v>788.48</v>
+        <v>-2650.11</v>
       </c>
       <c r="N62" t="n">
-        <v>609.88</v>
-      </c>
-      <c r="O62" t="n">
-        <v>622.79</v>
+        <v>-3402.35</v>
       </c>
     </row>
     <row r="63">
@@ -3506,46 +3318,43 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-22003.27</v>
+        <v>-1441.770000000003</v>
       </c>
       <c r="C63" t="n">
-        <v>-14973.68</v>
+        <v>-18583.17</v>
       </c>
       <c r="D63" t="n">
-        <v>6363.109999999999</v>
+        <v>-33794.02</v>
       </c>
       <c r="E63" t="n">
-        <v>-10392.71</v>
+        <v>-23989.1</v>
       </c>
       <c r="F63" t="n">
-        <v>-23124.79</v>
+        <v>2988.670000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-13581.37</v>
+        <v>-1601.26</v>
       </c>
       <c r="H63" t="n">
-        <v>11478</v>
+        <v>-19846.93</v>
       </c>
       <c r="I63" t="n">
-        <v>4247.9</v>
+        <v>-17331.24</v>
       </c>
       <c r="J63" t="n">
-        <v>-21135.63</v>
+        <v>-13510.2</v>
       </c>
       <c r="K63" t="n">
-        <v>-21323.93</v>
+        <v>-37042.81</v>
       </c>
       <c r="L63" t="n">
-        <v>-17966.93</v>
+        <v>-49334.89</v>
       </c>
       <c r="M63" t="n">
-        <v>-34310.12</v>
+        <v>-45227.58</v>
       </c>
       <c r="N63" t="n">
-        <v>-45721.88</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-39864.56</v>
+        <v>-21767.86</v>
       </c>
     </row>
     <row r="64">
@@ -3555,46 +3364,43 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6205.24</v>
+        <v>7959.3</v>
       </c>
       <c r="C64" t="n">
-        <v>2294.92</v>
+        <v>-2080</v>
       </c>
       <c r="D64" t="n">
-        <v>7973.63</v>
+        <v>1454.73</v>
       </c>
       <c r="E64" t="n">
-        <v>-2069.38</v>
+        <v>-5514.16</v>
       </c>
       <c r="F64" t="n">
-        <v>1418.2</v>
+        <v>-6999.36</v>
       </c>
       <c r="G64" t="n">
-        <v>-5511.7</v>
+        <v>-7040.3</v>
       </c>
       <c r="H64" t="n">
-        <v>-7094.53</v>
+        <v>-3005.38</v>
       </c>
       <c r="I64" t="n">
-        <v>-7126.700000000001</v>
+        <v>4996.120000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>-3036.7</v>
+        <v>5182.36</v>
       </c>
       <c r="K64" t="n">
-        <v>5142.530000000001</v>
+        <v>1147.95</v>
       </c>
       <c r="L64" t="n">
-        <v>5389.25</v>
+        <v>-5241.46</v>
       </c>
       <c r="M64" t="n">
-        <v>1451.15</v>
+        <v>-5941.960000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>-4847.58</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-5417.670000000001</v>
+        <v>-8239.539999999999</v>
       </c>
     </row>
     <row r="65">
@@ -3604,46 +3410,43 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-6841.76</v>
+        <v>-8261.939999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>-32246.12</v>
+        <v>2523.33</v>
       </c>
       <c r="D65" t="n">
-        <v>-16090.62</v>
+        <v>-8984.73</v>
       </c>
       <c r="E65" t="n">
-        <v>-5687.5</v>
+        <v>-18379.54</v>
       </c>
       <c r="F65" t="n">
-        <v>-19625.55</v>
+        <v>-9158.209999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-28799.06</v>
+        <v>-12124.99</v>
       </c>
       <c r="H65" t="n">
-        <v>-17561.74</v>
+        <v>-11810.73</v>
       </c>
       <c r="I65" t="n">
-        <v>-17898.24</v>
+        <v>-6829.62</v>
       </c>
       <c r="J65" t="n">
-        <v>-10498.27</v>
+        <v>2900.679999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-2988.85</v>
+        <v>300.8599999999988</v>
       </c>
       <c r="L65" t="n">
-        <v>7142.089999999999</v>
+        <v>-12614.04</v>
       </c>
       <c r="M65" t="n">
-        <v>-2743.430000000001</v>
+        <v>-6371.93</v>
       </c>
       <c r="N65" t="n">
-        <v>-16610.7</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-12255.34</v>
+        <v>-3392.21</v>
       </c>
     </row>
     <row r="66">
@@ -3653,46 +3456,43 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-35.25</v>
+        <v>-39.82</v>
       </c>
       <c r="C66" t="n">
-        <v>-46.57</v>
+        <v>-32.55</v>
       </c>
       <c r="D66" t="n">
-        <v>-39.82</v>
+        <v>13.58</v>
       </c>
       <c r="E66" t="n">
-        <v>-32.55</v>
+        <v>-10.24</v>
       </c>
       <c r="F66" t="n">
-        <v>13.58</v>
+        <v>24.5</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.24</v>
+        <v>16.79</v>
       </c>
       <c r="H66" t="n">
-        <v>24.5</v>
+        <v>15.46</v>
       </c>
       <c r="I66" t="n">
-        <v>16.79</v>
+        <v>9.52</v>
       </c>
       <c r="J66" t="n">
-        <v>15.46</v>
+        <v>14.87</v>
       </c>
       <c r="K66" t="n">
-        <v>9.52</v>
+        <v>13.15</v>
       </c>
       <c r="L66" t="n">
-        <v>14.87</v>
+        <v>-1.18</v>
       </c>
       <c r="M66" t="n">
-        <v>13.15</v>
+        <v>23.62</v>
       </c>
       <c r="N66" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="O66" t="n">
-        <v>23.62</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="67">
@@ -3702,46 +3502,43 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>34.4</v>
+        <v>56.78</v>
       </c>
       <c r="C67" t="n">
-        <v>28.07000000000001</v>
+        <v>44.7</v>
       </c>
       <c r="D67" t="n">
-        <v>56.78</v>
+        <v>43.35</v>
       </c>
       <c r="E67" t="n">
-        <v>44.7</v>
+        <v>54.3</v>
       </c>
       <c r="F67" t="n">
-        <v>43.35</v>
+        <v>17.86</v>
       </c>
       <c r="G67" t="n">
-        <v>54.3</v>
+        <v>-12.32</v>
       </c>
       <c r="H67" t="n">
-        <v>17.86</v>
+        <v>-13.93</v>
       </c>
       <c r="I67" t="n">
-        <v>-12.32</v>
+        <v>-46.23</v>
       </c>
       <c r="J67" t="n">
-        <v>-13.93</v>
+        <v>-43.39</v>
       </c>
       <c r="K67" t="n">
-        <v>-46.23</v>
+        <v>-26.44</v>
       </c>
       <c r="L67" t="n">
-        <v>-43.39</v>
+        <v>39.67</v>
       </c>
       <c r="M67" t="n">
-        <v>-26.44</v>
+        <v>115.83</v>
       </c>
       <c r="N67" t="n">
-        <v>39.67</v>
-      </c>
-      <c r="O67" t="n">
-        <v>115.83</v>
+        <v>119.72</v>
       </c>
     </row>
     <row r="68">
@@ -3751,46 +3548,43 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>179144.62</v>
+        <v>102913.82</v>
       </c>
       <c r="C68" t="n">
-        <v>96928.67</v>
+        <v>125869.77</v>
       </c>
       <c r="D68" t="n">
-        <v>105728.98</v>
+        <v>59221.62</v>
       </c>
       <c r="E68" t="n">
-        <v>127891.91</v>
+        <v>5354.990000000002</v>
       </c>
       <c r="F68" t="n">
-        <v>62791.35</v>
+        <v>48632.77</v>
       </c>
       <c r="G68" t="n">
-        <v>7420.160000000002</v>
+        <v>57902.96</v>
       </c>
       <c r="H68" t="n">
-        <v>46955.86</v>
+        <v>34332.41</v>
       </c>
       <c r="I68" t="n">
-        <v>54280.81</v>
+        <v>23211.3</v>
       </c>
       <c r="J68" t="n">
-        <v>30306.62</v>
+        <v>100728.19</v>
       </c>
       <c r="K68" t="n">
-        <v>17839.09</v>
+        <v>43169.25</v>
       </c>
       <c r="L68" t="n">
-        <v>96510.44</v>
+        <v>25580.73999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>38762.48</v>
+        <v>-6120.019999999992</v>
       </c>
       <c r="N68" t="n">
-        <v>21328.15999999999</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-8255.079999999991</v>
+        <v>-76232.09</v>
       </c>
     </row>
     <row r="69">
@@ -3800,46 +3594,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>39558.71</v>
+        <v>92053.23</v>
       </c>
       <c r="C69" t="n">
-        <v>47057.02</v>
+        <v>67898.64</v>
       </c>
       <c r="D69" t="n">
-        <v>74827.71000000001</v>
+        <v>44192.82</v>
       </c>
       <c r="E69" t="n">
-        <v>55234.13</v>
+        <v>-14820.36</v>
       </c>
       <c r="F69" t="n">
-        <v>43587.13</v>
+        <v>-21102.84</v>
       </c>
       <c r="G69" t="n">
-        <v>-7967.440000000001</v>
+        <v>-31797.98</v>
       </c>
       <c r="H69" t="n">
-        <v>-9900.610000000001</v>
+        <v>-55907.36</v>
       </c>
       <c r="I69" t="n">
-        <v>-15773.16</v>
+        <v>-60064.46</v>
       </c>
       <c r="J69" t="n">
-        <v>-41436.84</v>
+        <v>-24603.16</v>
       </c>
       <c r="K69" t="n">
-        <v>-50786.62</v>
+        <v>-37181.05</v>
       </c>
       <c r="L69" t="n">
-        <v>-25608.17</v>
+        <v>-44298.89999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>-37366.87</v>
+        <v>-21143.12</v>
       </c>
       <c r="N69" t="n">
-        <v>-50015.91</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-36332.03</v>
+        <v>-39622.19</v>
       </c>
     </row>
     <row r="70">
@@ -3849,46 +3640,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28953.74</v>
+        <v>25202.72</v>
       </c>
       <c r="C70" t="n">
-        <v>3598.58</v>
+        <v>-957.5899999999992</v>
       </c>
       <c r="D70" t="n">
-        <v>39617.68</v>
+        <v>1761.339999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>9691.74</v>
+        <v>-30038.79</v>
       </c>
       <c r="F70" t="n">
-        <v>-1197.219999999998</v>
+        <v>-9346.890000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-38951.31</v>
+        <v>-23699.16</v>
       </c>
       <c r="H70" t="n">
-        <v>-18860.77</v>
+        <v>-17524.49</v>
       </c>
       <c r="I70" t="n">
-        <v>-36094.56</v>
+        <v>-11944.48</v>
       </c>
       <c r="J70" t="n">
-        <v>-27964.77</v>
+        <v>-1531.37</v>
       </c>
       <c r="K70" t="n">
-        <v>-15848.27</v>
+        <v>-10532.18</v>
       </c>
       <c r="L70" t="n">
-        <v>3688.9</v>
+        <v>-29820.94</v>
       </c>
       <c r="M70" t="n">
-        <v>-5949.050000000002</v>
+        <v>-19399.28</v>
       </c>
       <c r="N70" t="n">
-        <v>-19858.55</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-2083.84</v>
+        <v>-26508.61</v>
       </c>
     </row>
     <row r="71">
@@ -3898,46 +3686,43 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3081.04</v>
+        <v>2983.72</v>
       </c>
       <c r="C71" t="n">
-        <v>3537.57</v>
+        <v>3269.62</v>
       </c>
       <c r="D71" t="n">
-        <v>2983.72</v>
+        <v>6795.81</v>
       </c>
       <c r="E71" t="n">
-        <v>3269.62</v>
+        <v>15082.53</v>
       </c>
       <c r="F71" t="n">
-        <v>6795.81</v>
+        <v>7816</v>
       </c>
       <c r="G71" t="n">
-        <v>15082.53</v>
+        <v>9969</v>
       </c>
       <c r="H71" t="n">
-        <v>7816</v>
+        <v>17075.94</v>
       </c>
       <c r="I71" t="n">
-        <v>9969</v>
+        <v>21390.43</v>
       </c>
       <c r="J71" t="n">
-        <v>17075.94</v>
+        <v>-11594.59</v>
       </c>
       <c r="K71" t="n">
-        <v>21390.43</v>
+        <v>-10818.11</v>
       </c>
       <c r="L71" t="n">
-        <v>-11594.59</v>
+        <v>-8828.860000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>-10818.11</v>
+        <v>-18293.97</v>
       </c>
       <c r="N71" t="n">
-        <v>-8828.860000000001</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-18293.97</v>
+        <v>-23760.96</v>
       </c>
     </row>
     <row r="72">
@@ -3947,46 +3732,43 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9470.34</v>
+        <v>-2505.78</v>
       </c>
       <c r="C72" t="n">
-        <v>5606.08</v>
+        <v>-4807.98</v>
       </c>
       <c r="D72" t="n">
-        <v>-2505.78</v>
+        <v>-1099.52</v>
       </c>
       <c r="E72" t="n">
-        <v>-4807.98</v>
+        <v>-3764.1</v>
       </c>
       <c r="F72" t="n">
-        <v>-1099.52</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-3764.1</v>
+        <v>-2212.01</v>
       </c>
       <c r="H72" t="n">
-        <v>-5474.559999999999</v>
+        <v>-1661.96</v>
       </c>
       <c r="I72" t="n">
-        <v>-2212.01</v>
+        <v>-11496.78</v>
       </c>
       <c r="J72" t="n">
-        <v>-1661.96</v>
+        <v>-9426</v>
       </c>
       <c r="K72" t="n">
-        <v>-11496.78</v>
+        <v>-11474.73</v>
       </c>
       <c r="L72" t="n">
-        <v>-9426</v>
+        <v>-12650.24</v>
       </c>
       <c r="M72" t="n">
-        <v>-11474.73</v>
+        <v>-9110.389999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>-12650.24</v>
-      </c>
-      <c r="O72" t="n">
-        <v>-9110.389999999999</v>
+        <v>-10355.72</v>
       </c>
     </row>
     <row r="73">
@@ -3996,46 +3778,43 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2189.5</v>
+        <v>-1299.63</v>
       </c>
       <c r="C73" t="n">
-        <v>2674.5</v>
+        <v>2721.08</v>
       </c>
       <c r="D73" t="n">
-        <v>-1299.63</v>
+        <v>1042.69</v>
       </c>
       <c r="E73" t="n">
-        <v>2721.08</v>
+        <v>-1963</v>
       </c>
       <c r="F73" t="n">
-        <v>1042.69</v>
+        <v>-1253.52</v>
       </c>
       <c r="G73" t="n">
-        <v>-1963</v>
+        <v>1160.14</v>
       </c>
       <c r="H73" t="n">
-        <v>-1253.52</v>
+        <v>336</v>
       </c>
       <c r="I73" t="n">
-        <v>1160.14</v>
+        <v>-425.27</v>
       </c>
       <c r="J73" t="n">
-        <v>336</v>
+        <v>1851.85</v>
       </c>
       <c r="K73" t="n">
-        <v>-425.27</v>
+        <v>1381.31</v>
       </c>
       <c r="L73" t="n">
-        <v>1851.85</v>
+        <v>685.05</v>
       </c>
       <c r="M73" t="n">
-        <v>1381.31</v>
+        <v>1330.41</v>
       </c>
       <c r="N73" t="n">
-        <v>685.05</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1330.41</v>
+        <v>-681.95</v>
       </c>
     </row>
     <row r="74">
@@ -4045,46 +3824,43 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11311.89</v>
+        <v>21725.94</v>
       </c>
       <c r="C74" t="n">
-        <v>23304.6</v>
+        <v>16275.98</v>
       </c>
       <c r="D74" t="n">
-        <v>21721.34</v>
+        <v>27555.3</v>
       </c>
       <c r="E74" t="n">
-        <v>16269.02</v>
+        <v>22489.28</v>
       </c>
       <c r="F74" t="n">
-        <v>27549.82</v>
+        <v>15615.09</v>
       </c>
       <c r="G74" t="n">
-        <v>22483.71</v>
+        <v>5520.29</v>
       </c>
       <c r="H74" t="n">
-        <v>15603.65</v>
+        <v>5080.690000000002</v>
       </c>
       <c r="I74" t="n">
-        <v>5513.02</v>
+        <v>4059.000000000002</v>
       </c>
       <c r="J74" t="n">
-        <v>5076.240000000002</v>
+        <v>-33.15000000000009</v>
       </c>
       <c r="K74" t="n">
-        <v>4057.160000000002</v>
+        <v>-16396.39</v>
       </c>
       <c r="L74" t="n">
-        <v>-30.66000000000031</v>
+        <v>-23222.99</v>
       </c>
       <c r="M74" t="n">
-        <v>-16386.93</v>
+        <v>-10340.78</v>
       </c>
       <c r="N74" t="n">
-        <v>-23215.79</v>
-      </c>
-      <c r="O74" t="n">
-        <v>-10332.25</v>
+        <v>-16618.11</v>
       </c>
     </row>
     <row r="75">
@@ -4094,46 +3870,43 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>28348.95</v>
+        <v>50057.56</v>
       </c>
       <c r="C75" t="n">
-        <v>56458.23</v>
+        <v>26300.61</v>
       </c>
       <c r="D75" t="n">
-        <v>49622.54</v>
+        <v>8164.740000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>25276.3</v>
+        <v>-42897.34</v>
       </c>
       <c r="F75" t="n">
-        <v>7347.160000000001</v>
+        <v>-64959.7</v>
       </c>
       <c r="G75" t="n">
-        <v>-44366.65</v>
+        <v>-66954.63</v>
       </c>
       <c r="H75" t="n">
-        <v>-65521.65</v>
+        <v>-80520.62</v>
       </c>
       <c r="I75" t="n">
-        <v>-66261.57000000001</v>
+        <v>-74769.78</v>
       </c>
       <c r="J75" t="n">
-        <v>-78993.46000000001</v>
+        <v>-61041.17</v>
       </c>
       <c r="K75" t="n">
-        <v>-73695.51000000001</v>
+        <v>-63161.45</v>
       </c>
       <c r="L75" t="n">
-        <v>-59207.97</v>
+        <v>-71604.72</v>
       </c>
       <c r="M75" t="n">
-        <v>-61851.01</v>
+        <v>-26628.4</v>
       </c>
       <c r="N75" t="n">
-        <v>-70953.23</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-26267.16</v>
+        <v>-46608.2</v>
       </c>
     </row>
     <row r="76">
@@ -4143,46 +3916,43 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3247.43</v>
+        <v>9507.710000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>784.0599999999999</v>
+        <v>5481.530000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>9942.730000000001</v>
+        <v>5869.440000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>6505.84</v>
+        <v>-1561.43</v>
       </c>
       <c r="F76" t="n">
-        <v>6687.02</v>
+        <v>1513.16</v>
       </c>
       <c r="G76" t="n">
-        <v>-92.11999999999989</v>
+        <v>-3672.23</v>
       </c>
       <c r="H76" t="n">
-        <v>2075.11</v>
+        <v>-1550.2</v>
       </c>
       <c r="I76" t="n">
-        <v>-4365.29</v>
+        <v>1193.21</v>
       </c>
       <c r="J76" t="n">
-        <v>-3077.36</v>
+        <v>2030.82</v>
       </c>
       <c r="K76" t="n">
-        <v>118.9399999999996</v>
+        <v>-3879.41</v>
       </c>
       <c r="L76" t="n">
-        <v>197.6200000000003</v>
+        <v>-7548.55</v>
       </c>
       <c r="M76" t="n">
-        <v>-5189.85</v>
+        <v>-1919.2</v>
       </c>
       <c r="N76" t="n">
-        <v>-8200.040000000001</v>
-      </c>
-      <c r="O76" t="n">
-        <v>-2280.44</v>
+        <v>-724.6499999999996</v>
       </c>
     </row>
     <row r="77">
@@ -4192,46 +3962,43 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>190815.75</v>
+        <v>172761.71</v>
       </c>
       <c r="C77" t="n">
-        <v>126101.9</v>
+        <v>198462.48</v>
       </c>
       <c r="D77" t="n">
-        <v>158245.12</v>
+        <v>188023.79</v>
       </c>
       <c r="E77" t="n">
-        <v>189944.87</v>
+        <v>114257.28</v>
       </c>
       <c r="F77" t="n">
-        <v>166009.3</v>
+        <v>152656.27</v>
       </c>
       <c r="G77" t="n">
-        <v>102469.5</v>
+        <v>176884.52</v>
       </c>
       <c r="H77" t="n">
-        <v>140135.18</v>
+        <v>108803.23</v>
       </c>
       <c r="I77" t="n">
-        <v>154903.22</v>
+        <v>34444.04</v>
       </c>
       <c r="J77" t="n">
-        <v>77470</v>
+        <v>70963.00999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>23909.55</v>
+        <v>-86789.43000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>25081.53</v>
+        <v>-215734.23</v>
       </c>
       <c r="M77" t="n">
-        <v>-115110.91</v>
+        <v>-316426.51</v>
       </c>
       <c r="N77" t="n">
-        <v>-199253.53</v>
-      </c>
-      <c r="O77" t="n">
-        <v>-310835.89</v>
+        <v>-258961.99</v>
       </c>
     </row>
     <row r="78">
@@ -4241,46 +4008,43 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32799.46</v>
+        <v>46712.09</v>
       </c>
       <c r="C78" t="n">
-        <v>10120.67</v>
+        <v>51467.6</v>
       </c>
       <c r="D78" t="n">
-        <v>28023.14</v>
+        <v>47516.15</v>
       </c>
       <c r="E78" t="n">
-        <v>33295.11</v>
+        <v>31629.32</v>
       </c>
       <c r="F78" t="n">
-        <v>26718.75</v>
+        <v>34214.76</v>
       </c>
       <c r="G78" t="n">
-        <v>5370.559999999998</v>
+        <v>36732.34</v>
       </c>
       <c r="H78" t="n">
-        <v>11977.59</v>
+        <v>11522.64</v>
       </c>
       <c r="I78" t="n">
-        <v>15332.18</v>
+        <v>-14869.76</v>
       </c>
       <c r="J78" t="n">
-        <v>-7061.719999999999</v>
+        <v>19338.8</v>
       </c>
       <c r="K78" t="n">
-        <v>-14752.27</v>
+        <v>-14196.79</v>
       </c>
       <c r="L78" t="n">
-        <v>12434.15</v>
+        <v>-53696.56</v>
       </c>
       <c r="M78" t="n">
-        <v>8880.110000000001</v>
+        <v>-22125.33</v>
       </c>
       <c r="N78" t="n">
-        <v>-19105.36</v>
-      </c>
-      <c r="O78" t="n">
-        <v>-36474.46000000001</v>
+        <v>-61255.78</v>
       </c>
     </row>
     <row r="79">
@@ -4290,46 +4054,43 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7395.29</v>
+        <v>28849.37</v>
       </c>
       <c r="C79" t="n">
-        <v>8200.48</v>
+        <v>29620.26</v>
       </c>
       <c r="D79" t="n">
-        <v>62054.91</v>
+        <v>1987.820000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>56310.35999999999</v>
+        <v>-1491.490000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>44799.71</v>
+        <v>11408.01000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>36555.05</v>
+        <v>7967.360000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>46166.27</v>
+        <v>11121.3</v>
       </c>
       <c r="I79" t="n">
-        <v>51348.82</v>
+        <v>23115.74</v>
       </c>
       <c r="J79" t="n">
-        <v>61038.89</v>
+        <v>669.3500000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>33532.74</v>
+        <v>-24264.91</v>
       </c>
       <c r="L79" t="n">
-        <v>53455.48</v>
+        <v>-25359.83</v>
       </c>
       <c r="M79" t="n">
-        <v>-19020.33</v>
+        <v>-49314.31</v>
       </c>
       <c r="N79" t="n">
-        <v>-76431.73</v>
-      </c>
-      <c r="O79" t="n">
-        <v>-40555.8</v>
+        <v>-66705.87</v>
       </c>
     </row>
     <row r="80">
@@ -4339,46 +4100,43 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>103.37</v>
+        <v>100.51</v>
       </c>
       <c r="C80" t="n">
-        <v>69.03</v>
+        <v>101.47</v>
       </c>
       <c r="D80" t="n">
-        <v>100.51</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>101.47</v>
+        <v>-19.41</v>
       </c>
       <c r="F80" t="n">
-        <v>67.81999999999999</v>
+        <v>42.88</v>
       </c>
       <c r="G80" t="n">
-        <v>-19.41</v>
+        <v>-35.43</v>
       </c>
       <c r="H80" t="n">
-        <v>42.88</v>
+        <v>-13.5</v>
       </c>
       <c r="I80" t="n">
-        <v>-35.43</v>
+        <v>62.3</v>
       </c>
       <c r="J80" t="n">
-        <v>-13.5</v>
+        <v>51.25</v>
       </c>
       <c r="K80" t="n">
-        <v>62.3</v>
+        <v>-22.25</v>
       </c>
       <c r="L80" t="n">
-        <v>51.25</v>
+        <v>48.63</v>
       </c>
       <c r="M80" t="n">
-        <v>-22.25</v>
+        <v>87.38</v>
       </c>
       <c r="N80" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="O80" t="n">
-        <v>87.38</v>
+        <v>41.65</v>
       </c>
     </row>
     <row r="81">
@@ -4388,46 +4146,43 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.68</v>
+        <v>116.27</v>
       </c>
       <c r="C81" t="n">
-        <v>46.41</v>
+        <v>100.02</v>
       </c>
       <c r="D81" t="n">
-        <v>116.27</v>
+        <v>153.09</v>
       </c>
       <c r="E81" t="n">
-        <v>100.02</v>
+        <v>111.09</v>
       </c>
       <c r="F81" t="n">
-        <v>153.09</v>
+        <v>35.44</v>
       </c>
       <c r="G81" t="n">
-        <v>111.09</v>
+        <v>9.510000000000005</v>
       </c>
       <c r="H81" t="n">
-        <v>35.44</v>
+        <v>-2.749999999999996</v>
       </c>
       <c r="I81" t="n">
-        <v>9.510000000000005</v>
+        <v>-15.28</v>
       </c>
       <c r="J81" t="n">
-        <v>-2.749999999999996</v>
+        <v>12.38</v>
       </c>
       <c r="K81" t="n">
-        <v>-15.28</v>
+        <v>-66.33</v>
       </c>
       <c r="L81" t="n">
-        <v>12.38</v>
+        <v>-112.42</v>
       </c>
       <c r="M81" t="n">
-        <v>-66.33</v>
+        <v>-83.85000000000001</v>
       </c>
       <c r="N81" t="n">
-        <v>-112.42</v>
-      </c>
-      <c r="O81" t="n">
-        <v>-83.85000000000001</v>
+        <v>-109.41</v>
       </c>
     </row>
     <row r="82">
@@ -4437,46 +4192,43 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-69.38</v>
+        <v>103.61</v>
       </c>
       <c r="C82" t="n">
-        <v>2.530000000000001</v>
+        <v>158.06</v>
       </c>
       <c r="D82" t="n">
-        <v>103.61</v>
+        <v>154.87</v>
       </c>
       <c r="E82" t="n">
-        <v>158.06</v>
+        <v>116.4</v>
       </c>
       <c r="F82" t="n">
-        <v>154.87</v>
+        <v>40.79</v>
       </c>
       <c r="G82" t="n">
-        <v>116.4</v>
+        <v>-0.6999999999999957</v>
       </c>
       <c r="H82" t="n">
-        <v>40.79</v>
+        <v>-66.46000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.6999999999999957</v>
+        <v>-68.78</v>
       </c>
       <c r="J82" t="n">
-        <v>-66.46000000000001</v>
+        <v>-46.32</v>
       </c>
       <c r="K82" t="n">
-        <v>-68.78</v>
+        <v>-47.37</v>
       </c>
       <c r="L82" t="n">
-        <v>-46.32</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>-47.37</v>
+        <v>57.63</v>
       </c>
       <c r="N82" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="O82" t="n">
-        <v>57.63</v>
+        <v>104.17</v>
       </c>
     </row>
     <row r="83">
@@ -4486,46 +4238,43 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>14479.31</v>
+        <v>15109.87</v>
       </c>
       <c r="C83" t="n">
-        <v>13982.04</v>
+        <v>12622.31</v>
       </c>
       <c r="D83" t="n">
-        <v>15109.87</v>
+        <v>16538.91</v>
       </c>
       <c r="E83" t="n">
-        <v>12622.31</v>
+        <v>20268.35</v>
       </c>
       <c r="F83" t="n">
-        <v>16538.91</v>
+        <v>21238.62</v>
       </c>
       <c r="G83" t="n">
-        <v>20268.35</v>
+        <v>23728.19</v>
       </c>
       <c r="H83" t="n">
-        <v>21238.62</v>
+        <v>17972.32</v>
       </c>
       <c r="I83" t="n">
-        <v>23728.19</v>
+        <v>11780.18</v>
       </c>
       <c r="J83" t="n">
-        <v>17972.32</v>
+        <v>9792.619999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>11780.18</v>
+        <v>13887.89</v>
       </c>
       <c r="L83" t="n">
-        <v>9792.619999999999</v>
+        <v>-29787.92</v>
       </c>
       <c r="M83" t="n">
-        <v>13887.89</v>
+        <v>-23277.49</v>
       </c>
       <c r="N83" t="n">
-        <v>-29787.92</v>
-      </c>
-      <c r="O83" t="n">
-        <v>-23277.49</v>
+        <v>-16837.49</v>
       </c>
     </row>
     <row r="84">
@@ -4535,46 +4284,43 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>19572.96</v>
+        <v>52531.68</v>
       </c>
       <c r="C84" t="n">
-        <v>-2964.77</v>
+        <v>40468.35</v>
       </c>
       <c r="D84" t="n">
-        <v>28631.59</v>
+        <v>29770.72</v>
       </c>
       <c r="E84" t="n">
-        <v>11027.09</v>
+        <v>3218.8</v>
       </c>
       <c r="F84" t="n">
-        <v>2308.839999999997</v>
+        <v>9778.66</v>
       </c>
       <c r="G84" t="n">
-        <v>-28461.51</v>
+        <v>-31856.96</v>
       </c>
       <c r="H84" t="n">
-        <v>-14477.81</v>
+        <v>-31574.28</v>
       </c>
       <c r="I84" t="n">
-        <v>-48639.2</v>
+        <v>-37579.17</v>
       </c>
       <c r="J84" t="n">
-        <v>-45734.28</v>
+        <v>-29071.83</v>
       </c>
       <c r="K84" t="n">
-        <v>-41027.86</v>
+        <v>-54955.07</v>
       </c>
       <c r="L84" t="n">
-        <v>-14119.09</v>
+        <v>-51920.14</v>
       </c>
       <c r="M84" t="n">
-        <v>-46785.62</v>
+        <v>-48585.06</v>
       </c>
       <c r="N84" t="n">
-        <v>-61348.3</v>
-      </c>
-      <c r="O84" t="n">
-        <v>-58441.41</v>
+        <v>-62310.87</v>
       </c>
     </row>
     <row r="85">
@@ -4584,46 +4330,43 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13488.34</v>
+        <v>-35815.75999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>12780.17</v>
+        <v>-42316.23</v>
       </c>
       <c r="D85" t="n">
-        <v>-11863.26</v>
+        <v>-47166.15</v>
       </c>
       <c r="E85" t="n">
-        <v>-12815.96</v>
+        <v>-51376.14</v>
       </c>
       <c r="F85" t="n">
-        <v>-19637.7</v>
+        <v>-31243.02</v>
       </c>
       <c r="G85" t="n">
-        <v>-19635.58</v>
+        <v>-20559.96</v>
       </c>
       <c r="H85" t="n">
-        <v>-6918.460000000001</v>
+        <v>-6319.700000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>-3692.44</v>
+        <v>8575.32</v>
       </c>
       <c r="J85" t="n">
-        <v>7918.87</v>
+        <v>2905.77</v>
       </c>
       <c r="K85" t="n">
-        <v>12090.43</v>
+        <v>-13384.5</v>
       </c>
       <c r="L85" t="n">
-        <v>-11992.94</v>
+        <v>-28340.81</v>
       </c>
       <c r="M85" t="n">
-        <v>-21506.35</v>
+        <v>-40345.04</v>
       </c>
       <c r="N85" t="n">
-        <v>-18853.85</v>
-      </c>
-      <c r="O85" t="n">
-        <v>-30428.25</v>
+        <v>-22840.62</v>
       </c>
     </row>
     <row r="86">
@@ -4633,46 +4376,43 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16061.35</v>
+        <v>9830.5</v>
       </c>
       <c r="C86" t="n">
-        <v>-4242.959999999999</v>
+        <v>26721.99</v>
       </c>
       <c r="D86" t="n">
-        <v>9830.5</v>
+        <v>32915.09</v>
       </c>
       <c r="E86" t="n">
-        <v>26721.99</v>
+        <v>31468.97</v>
       </c>
       <c r="F86" t="n">
-        <v>32915.09</v>
+        <v>35584.98</v>
       </c>
       <c r="G86" t="n">
-        <v>31468.97</v>
+        <v>32671.87</v>
       </c>
       <c r="H86" t="n">
-        <v>35584.98</v>
+        <v>11772.22</v>
       </c>
       <c r="I86" t="n">
-        <v>32671.87</v>
+        <v>-6436.71</v>
       </c>
       <c r="J86" t="n">
-        <v>11772.22</v>
+        <v>7586.07</v>
       </c>
       <c r="K86" t="n">
-        <v>-6436.71</v>
+        <v>-9718.789999999999</v>
       </c>
       <c r="L86" t="n">
-        <v>7586.07</v>
+        <v>-757.1099999999997</v>
       </c>
       <c r="M86" t="n">
-        <v>-9718.789999999999</v>
+        <v>5714.879999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>-757.1099999999997</v>
-      </c>
-      <c r="O86" t="n">
-        <v>5714.879999999999</v>
+        <v>-11669.76</v>
       </c>
     </row>
     <row r="87">
@@ -4682,46 +4422,43 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>22126.7</v>
+        <v>20638.91</v>
       </c>
       <c r="C87" t="n">
-        <v>21743.02</v>
+        <v>19486.91</v>
       </c>
       <c r="D87" t="n">
-        <v>20013.63</v>
+        <v>22345.73</v>
       </c>
       <c r="E87" t="n">
-        <v>17952.5</v>
+        <v>10959.69</v>
       </c>
       <c r="F87" t="n">
-        <v>21296.51</v>
+        <v>13438.62</v>
       </c>
       <c r="G87" t="n">
-        <v>11336.31</v>
+        <v>2502.1</v>
       </c>
       <c r="H87" t="n">
-        <v>13808.91</v>
+        <v>-2080.690000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>3596.87</v>
+        <v>-12874.45</v>
       </c>
       <c r="J87" t="n">
-        <v>-43.51000000000022</v>
+        <v>-8895.040000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>-11130.59</v>
+        <v>-19012.98</v>
       </c>
       <c r="L87" t="n">
-        <v>-7237.390000000001</v>
+        <v>-19658.39</v>
       </c>
       <c r="M87" t="n">
-        <v>-17411.95</v>
+        <v>-19289.86</v>
       </c>
       <c r="N87" t="n">
-        <v>-18147.65</v>
-      </c>
-      <c r="O87" t="n">
-        <v>-18031.27</v>
+        <v>-20863.22</v>
       </c>
     </row>
     <row r="88">
@@ -4731,46 +4468,43 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3296.63</v>
+        <v>9886.41</v>
       </c>
       <c r="C88" t="n">
-        <v>-7418.669999999999</v>
+        <v>12201.48</v>
       </c>
       <c r="D88" t="n">
-        <v>10511.69</v>
+        <v>20943.21</v>
       </c>
       <c r="E88" t="n">
-        <v>13735.89</v>
+        <v>15788.95</v>
       </c>
       <c r="F88" t="n">
-        <v>21992.43</v>
+        <v>16231.32</v>
       </c>
       <c r="G88" t="n">
-        <v>15412.33</v>
+        <v>13518.92</v>
       </c>
       <c r="H88" t="n">
-        <v>15861.03</v>
+        <v>-2016.66</v>
       </c>
       <c r="I88" t="n">
-        <v>12424.15</v>
+        <v>-13343.67</v>
       </c>
       <c r="J88" t="n">
-        <v>-4053.84</v>
+        <v>-7686.52</v>
       </c>
       <c r="K88" t="n">
-        <v>-15087.53</v>
+        <v>-12842.81</v>
       </c>
       <c r="L88" t="n">
-        <v>-9344.17</v>
+        <v>-14932.05</v>
       </c>
       <c r="M88" t="n">
-        <v>-14443.84</v>
+        <v>-12670.21</v>
       </c>
       <c r="N88" t="n">
-        <v>-16442.79</v>
-      </c>
-      <c r="O88" t="n">
-        <v>-13928.8</v>
+        <v>-19000.55</v>
       </c>
     </row>
     <row r="89">
@@ -4780,46 +4514,43 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>38602.22</v>
+        <v>42678.72</v>
       </c>
       <c r="C89" t="n">
-        <v>39177.95</v>
+        <v>23379.27</v>
       </c>
       <c r="D89" t="n">
-        <v>46564.22</v>
+        <v>43315.27</v>
       </c>
       <c r="E89" t="n">
-        <v>26662.63</v>
+        <v>28261.21</v>
       </c>
       <c r="F89" t="n">
-        <v>47845.5</v>
+        <v>-16197.46</v>
       </c>
       <c r="G89" t="n">
-        <v>32750.87</v>
+        <v>22064.25</v>
       </c>
       <c r="H89" t="n">
-        <v>-12711.49</v>
+        <v>11302.03</v>
       </c>
       <c r="I89" t="n">
-        <v>24847.22</v>
+        <v>15169.57</v>
       </c>
       <c r="J89" t="n">
-        <v>14522.11</v>
+        <v>26690.75</v>
       </c>
       <c r="K89" t="n">
-        <v>15528.52</v>
+        <v>42761.32</v>
       </c>
       <c r="L89" t="n">
-        <v>24501.43</v>
+        <v>-9402.92</v>
       </c>
       <c r="M89" t="n">
-        <v>41352.22</v>
+        <v>2456.23</v>
       </c>
       <c r="N89" t="n">
-        <v>-11373.38</v>
-      </c>
-      <c r="O89" t="n">
-        <v>637.9700000000003</v>
+        <v>-30450.14</v>
       </c>
     </row>
     <row r="90">
@@ -4829,46 +4560,43 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5836.88</v>
+        <v>6813.150000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2724.26</v>
+        <v>3545</v>
       </c>
       <c r="D90" t="n">
-        <v>3013.31</v>
+        <v>-5433.9</v>
       </c>
       <c r="E90" t="n">
-        <v>-622.71</v>
+        <v>-9264.27</v>
       </c>
       <c r="F90" t="n">
-        <v>-8646.9</v>
+        <v>-7551.42</v>
       </c>
       <c r="G90" t="n">
-        <v>-11583.43</v>
+        <v>-7444.92</v>
       </c>
       <c r="H90" t="n">
-        <v>-10296.67</v>
+        <v>-8346.300000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>-10116.34</v>
+        <v>-3805.52</v>
       </c>
       <c r="J90" t="n">
-        <v>-9102.23</v>
+        <v>-2004.79</v>
       </c>
       <c r="K90" t="n">
-        <v>-5330.33</v>
+        <v>-7158.11</v>
       </c>
       <c r="L90" t="n">
-        <v>-4601.56</v>
+        <v>-10288.85</v>
       </c>
       <c r="M90" t="n">
-        <v>-6269.52</v>
+        <v>-11376.13</v>
       </c>
       <c r="N90" t="n">
-        <v>-9151.870000000001</v>
-      </c>
-      <c r="O90" t="n">
-        <v>-10370.63</v>
+        <v>-10670.87</v>
       </c>
     </row>
     <row r="91">
@@ -4878,46 +4606,43 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>41713.07</v>
+        <v>27880.91</v>
       </c>
       <c r="C91" t="n">
-        <v>22853.16</v>
+        <v>-599.2700000000003</v>
       </c>
       <c r="D91" t="n">
-        <v>31647.48</v>
+        <v>42137.53</v>
       </c>
       <c r="E91" t="n">
-        <v>3614.54</v>
+        <v>9433.74</v>
       </c>
       <c r="F91" t="n">
-        <v>45385.66</v>
+        <v>18480.61</v>
       </c>
       <c r="G91" t="n">
-        <v>11790.84</v>
+        <v>14234.14</v>
       </c>
       <c r="H91" t="n">
-        <v>21203.28</v>
+        <v>17880.55</v>
       </c>
       <c r="I91" t="n">
-        <v>16864.29</v>
+        <v>-8610.309999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>18598.9</v>
+        <v>-4329.840000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>-7046.990000000001</v>
+        <v>9281.060000000003</v>
       </c>
       <c r="L91" t="n">
-        <v>-1702.620000000001</v>
+        <v>10246.41</v>
       </c>
       <c r="M91" t="n">
-        <v>8435.370000000001</v>
+        <v>26772.98</v>
       </c>
       <c r="N91" t="n">
-        <v>9162.289999999999</v>
-      </c>
-      <c r="O91" t="n">
-        <v>25814.44</v>
+        <v>10180.97</v>
       </c>
     </row>
     <row r="92">
@@ -4927,46 +4652,43 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>346319.51</v>
+        <v>311202.99</v>
       </c>
       <c r="C92" t="n">
-        <v>277093.19</v>
+        <v>257222.66</v>
       </c>
       <c r="D92" t="n">
-        <v>362110.74</v>
+        <v>188729.17</v>
       </c>
       <c r="E92" t="n">
-        <v>277873.23</v>
+        <v>103969.19</v>
       </c>
       <c r="F92" t="n">
-        <v>185859.77</v>
+        <v>145034.96</v>
       </c>
       <c r="G92" t="n">
-        <v>99600.77</v>
+        <v>174061.67</v>
       </c>
       <c r="H92" t="n">
-        <v>173270.93</v>
+        <v>161316.36</v>
       </c>
       <c r="I92" t="n">
-        <v>187444.96</v>
+        <v>158086.64</v>
       </c>
       <c r="J92" t="n">
-        <v>175829.6</v>
+        <v>173052.55</v>
       </c>
       <c r="K92" t="n">
-        <v>129954.84</v>
+        <v>117899.24</v>
       </c>
       <c r="L92" t="n">
-        <v>144210.35</v>
+        <v>109719.96</v>
       </c>
       <c r="M92" t="n">
-        <v>78178.51999999999</v>
+        <v>216378.06</v>
       </c>
       <c r="N92" t="n">
-        <v>63842.49999999999</v>
-      </c>
-      <c r="O92" t="n">
-        <v>220106.55</v>
+        <v>119982.96</v>
       </c>
     </row>
     <row r="93">
@@ -4976,46 +4698,43 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>235329.25</v>
+        <v>254350.49</v>
       </c>
       <c r="C93" t="n">
-        <v>210113.22</v>
+        <v>184916.78</v>
       </c>
       <c r="D93" t="n">
-        <v>255415.65</v>
+        <v>158448.08</v>
       </c>
       <c r="E93" t="n">
-        <v>189673.45</v>
+        <v>-33176.07</v>
       </c>
       <c r="F93" t="n">
-        <v>164003.47</v>
+        <v>-21456.29</v>
       </c>
       <c r="G93" t="n">
-        <v>-22632.5</v>
+        <v>-63767.1</v>
       </c>
       <c r="H93" t="n">
-        <v>-9829.149999999998</v>
+        <v>-27993.45</v>
       </c>
       <c r="I93" t="n">
-        <v>-52740.03</v>
+        <v>-23873.66</v>
       </c>
       <c r="J93" t="n">
-        <v>-25884.58</v>
+        <v>37761.28000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-26282.63</v>
+        <v>26687.16999999999</v>
       </c>
       <c r="L93" t="n">
-        <v>33387.56</v>
+        <v>-66327.36</v>
       </c>
       <c r="M93" t="n">
-        <v>19196.08</v>
+        <v>-53210.66</v>
       </c>
       <c r="N93" t="n">
-        <v>-69813.42</v>
-      </c>
-      <c r="O93" t="n">
-        <v>-59968.42</v>
+        <v>-115736.59</v>
       </c>
     </row>
     <row r="94">
@@ -5025,46 +4744,43 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>63344.03</v>
+        <v>247893.9</v>
       </c>
       <c r="C94" t="n">
-        <v>95525.67</v>
+        <v>138391.25</v>
       </c>
       <c r="D94" t="n">
-        <v>195605.84</v>
+        <v>94468.08</v>
       </c>
       <c r="E94" t="n">
-        <v>112641.61</v>
+        <v>63467.88</v>
       </c>
       <c r="F94" t="n">
-        <v>91505.27</v>
+        <v>18122.13</v>
       </c>
       <c r="G94" t="n">
-        <v>57045.55</v>
+        <v>-37246.98</v>
       </c>
       <c r="H94" t="n">
-        <v>-22004.36</v>
+        <v>-34009.77</v>
       </c>
       <c r="I94" t="n">
-        <v>-61836.84</v>
+        <v>-15024.7</v>
       </c>
       <c r="J94" t="n">
-        <v>-50685.10999999999</v>
+        <v>42035.24000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>15317.51</v>
+        <v>-13164.55</v>
       </c>
       <c r="L94" t="n">
-        <v>75017.58</v>
+        <v>-78478.76000000001</v>
       </c>
       <c r="M94" t="n">
-        <v>33825.88999999999</v>
+        <v>7942.279999999998</v>
       </c>
       <c r="N94" t="n">
-        <v>-29274.34</v>
-      </c>
-      <c r="O94" t="n">
-        <v>10723.77</v>
+        <v>-65332.68</v>
       </c>
     </row>
     <row r="95">
@@ -5074,46 +4790,43 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>177906.89</v>
+        <v>201630.09</v>
       </c>
       <c r="C95" t="n">
-        <v>133854.58</v>
+        <v>211735.83</v>
       </c>
       <c r="D95" t="n">
-        <v>217724.1</v>
+        <v>167100.31</v>
       </c>
       <c r="E95" t="n">
-        <v>225142.5</v>
+        <v>126113.9</v>
       </c>
       <c r="F95" t="n">
-        <v>211900.64</v>
+        <v>40295.7</v>
       </c>
       <c r="G95" t="n">
-        <v>181560.18</v>
+        <v>12322.46</v>
       </c>
       <c r="H95" t="n">
-        <v>84575.13</v>
+        <v>-40712.44</v>
       </c>
       <c r="I95" t="n">
-        <v>52076.93</v>
+        <v>-54961.69999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>7734.079999999998</v>
+        <v>-19514.86</v>
       </c>
       <c r="K95" t="n">
-        <v>-21106.95</v>
+        <v>-32049.61</v>
       </c>
       <c r="L95" t="n">
-        <v>-8340.680000000002</v>
+        <v>-67256.92</v>
       </c>
       <c r="M95" t="n">
-        <v>-16443.4</v>
+        <v>-105439.73</v>
       </c>
       <c r="N95" t="n">
-        <v>-52891.93</v>
-      </c>
-      <c r="O95" t="n">
-        <v>-109820.7</v>
+        <v>-55679.85</v>
       </c>
     </row>
     <row r="96">
@@ -5123,46 +4836,43 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>34812.64</v>
+        <v>67891</v>
       </c>
       <c r="C96" t="n">
-        <v>39104.22</v>
+        <v>58353.16</v>
       </c>
       <c r="D96" t="n">
-        <v>51256.36</v>
+        <v>43464.34</v>
       </c>
       <c r="E96" t="n">
-        <v>42651.25</v>
+        <v>25646.16</v>
       </c>
       <c r="F96" t="n">
-        <v>26760.21</v>
+        <v>4651.049999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>20853.62</v>
+        <v>-9383.41</v>
       </c>
       <c r="H96" t="n">
-        <v>13802.42</v>
+        <v>-19454.66</v>
       </c>
       <c r="I96" t="n">
-        <v>8340.769999999999</v>
+        <v>-15958.36</v>
       </c>
       <c r="J96" t="n">
-        <v>-6502.64</v>
+        <v>-3624.23</v>
       </c>
       <c r="K96" t="n">
-        <v>-3360.68</v>
+        <v>-32821.33</v>
       </c>
       <c r="L96" t="n">
-        <v>-13479.36</v>
+        <v>-44273.12</v>
       </c>
       <c r="M96" t="n">
-        <v>-20106.2</v>
+        <v>294.8799999999997</v>
       </c>
       <c r="N96" t="n">
-        <v>-32703.47</v>
-      </c>
-      <c r="O96" t="n">
-        <v>-13881.63</v>
+        <v>-4570.630000000001</v>
       </c>
     </row>
     <row r="97">
@@ -5172,46 +4882,43 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>60009.37</v>
+        <v>127229.05</v>
       </c>
       <c r="C97" t="n">
-        <v>52187.47</v>
+        <v>139135.71</v>
       </c>
       <c r="D97" t="n">
-        <v>128032.45</v>
+        <v>203467.56</v>
       </c>
       <c r="E97" t="n">
-        <v>141864.92</v>
+        <v>154846.86</v>
       </c>
       <c r="F97" t="n">
-        <v>175937.13</v>
+        <v>117231.4</v>
       </c>
       <c r="G97" t="n">
-        <v>104741.1</v>
+        <v>102171.88</v>
       </c>
       <c r="H97" t="n">
-        <v>64347.66</v>
+        <v>49841.27999999999</v>
       </c>
       <c r="I97" t="n">
-        <v>45072.58</v>
+        <v>33836.12</v>
       </c>
       <c r="J97" t="n">
-        <v>-11805.90000000001</v>
+        <v>-39207.43</v>
       </c>
       <c r="K97" t="n">
-        <v>-12987.88</v>
+        <v>1694.860000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>-40822.8</v>
+        <v>-39713.62</v>
       </c>
       <c r="M97" t="n">
-        <v>-26826.5</v>
+        <v>-76651.54000000001</v>
       </c>
       <c r="N97" t="n">
-        <v>-65916.37</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-58405.15</v>
+        <v>-146365.2</v>
       </c>
     </row>
     <row r="98">
@@ -5221,46 +4928,43 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>400688.97</v>
+        <v>483669.13</v>
       </c>
       <c r="C98" t="n">
-        <v>334538.62</v>
+        <v>460860.43</v>
       </c>
       <c r="D98" t="n">
-        <v>529972.65</v>
+        <v>416651.24</v>
       </c>
       <c r="E98" t="n">
-        <v>505590.42</v>
+        <v>205689.72</v>
       </c>
       <c r="F98" t="n">
-        <v>487297.93</v>
+        <v>299528.02</v>
       </c>
       <c r="G98" t="n">
-        <v>275209.53</v>
+        <v>157888.79</v>
       </c>
       <c r="H98" t="n">
-        <v>364939.23</v>
+        <v>24232.92999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>321839.91</v>
+        <v>-88124.26999999999</v>
       </c>
       <c r="J98" t="n">
-        <v>143932.07</v>
+        <v>260936.25</v>
       </c>
       <c r="K98" t="n">
-        <v>-155818.24</v>
+        <v>73124.89</v>
       </c>
       <c r="L98" t="n">
-        <v>320866.32</v>
+        <v>-55319.94</v>
       </c>
       <c r="M98" t="n">
-        <v>97325.92</v>
+        <v>115882.39</v>
       </c>
       <c r="N98" t="n">
-        <v>-111231.77</v>
-      </c>
-      <c r="O98" t="n">
-        <v>83966.64999999999</v>
+        <v>162708.39</v>
       </c>
     </row>
     <row r="99">
@@ -5270,46 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>83292.81</v>
+        <v>83007.47</v>
       </c>
       <c r="C99" t="n">
-        <v>35528.17</v>
+        <v>-1605.409999999998</v>
       </c>
       <c r="D99" t="n">
-        <v>72612.98</v>
+        <v>-1130.050000000002</v>
       </c>
       <c r="E99" t="n">
-        <v>11004.2</v>
+        <v>-28582.94</v>
       </c>
       <c r="F99" t="n">
-        <v>14261.65</v>
+        <v>-41729.39</v>
       </c>
       <c r="G99" t="n">
-        <v>-7567.659999999994</v>
+        <v>-43803.62</v>
       </c>
       <c r="H99" t="n">
-        <v>-21295.65</v>
+        <v>-28792.48</v>
       </c>
       <c r="I99" t="n">
-        <v>-84923.69</v>
+        <v>-67463.02</v>
       </c>
       <c r="J99" t="n">
-        <v>-61527.49</v>
+        <v>-34984.11</v>
       </c>
       <c r="K99" t="n">
-        <v>-91832.31</v>
+        <v>-73019.86</v>
       </c>
       <c r="L99" t="n">
-        <v>-37795.9</v>
+        <v>-96121.95</v>
       </c>
       <c r="M99" t="n">
-        <v>-79872.67</v>
+        <v>-33923.56</v>
       </c>
       <c r="N99" t="n">
-        <v>-82495.81</v>
-      </c>
-      <c r="O99" t="n">
-        <v>-44909.68</v>
+        <v>-43676.43</v>
       </c>
     </row>
     <row r="100">
@@ -5319,46 +5020,43 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>124913.38</v>
+        <v>188348.83</v>
       </c>
       <c r="C100" t="n">
-        <v>164141.58</v>
+        <v>163334.91</v>
       </c>
       <c r="D100" t="n">
-        <v>244223.14</v>
+        <v>158828.59</v>
       </c>
       <c r="E100" t="n">
-        <v>228971.08</v>
+        <v>123597.83</v>
       </c>
       <c r="F100" t="n">
-        <v>186536.17</v>
+        <v>64165.9</v>
       </c>
       <c r="G100" t="n">
-        <v>123959.25</v>
+        <v>18393.89</v>
       </c>
       <c r="H100" t="n">
-        <v>51156.55</v>
+        <v>-56031.27</v>
       </c>
       <c r="I100" t="n">
-        <v>52402.21</v>
+        <v>-62251.28</v>
       </c>
       <c r="J100" t="n">
-        <v>-153410.07</v>
+        <v>-4396.970000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-148485.21</v>
+        <v>-86367.77</v>
       </c>
       <c r="L100" t="n">
-        <v>12293.54</v>
+        <v>-19344.41</v>
       </c>
       <c r="M100" t="n">
-        <v>-149731.58</v>
+        <v>19752.29</v>
       </c>
       <c r="N100" t="n">
-        <v>-248.5000000000082</v>
-      </c>
-      <c r="O100" t="n">
-        <v>66545.56999999999</v>
+        <v>-48589.81</v>
       </c>
     </row>
     <row r="101">
@@ -5368,46 +5066,43 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-5066.76</v>
+        <v>-9104.150000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>2898.479999999998</v>
+        <v>-8300.689999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>-6977.260000000002</v>
+        <v>-3017.92</v>
       </c>
       <c r="E101" t="n">
-        <v>-6833.869999999999</v>
+        <v>-6465.2</v>
       </c>
       <c r="F101" t="n">
-        <v>-203.0799999999994</v>
+        <v>9612.220000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-4630.73</v>
+        <v>10402.76</v>
       </c>
       <c r="H101" t="n">
-        <v>11795.03</v>
+        <v>12331.42</v>
       </c>
       <c r="I101" t="n">
-        <v>12081.16</v>
+        <v>6008.98</v>
       </c>
       <c r="J101" t="n">
-        <v>14074.06</v>
+        <v>9598.719999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>3563.440000000001</v>
+        <v>8967.500000000002</v>
       </c>
       <c r="L101" t="n">
-        <v>8373.66</v>
+        <v>-2717.08</v>
       </c>
       <c r="M101" t="n">
-        <v>7546.220000000001</v>
+        <v>-4548.240000000001</v>
       </c>
       <c r="N101" t="n">
-        <v>-2113.04</v>
-      </c>
-      <c r="O101" t="n">
-        <v>-4054.900000000001</v>
+        <v>-12205.06</v>
       </c>
     </row>
     <row r="102">
@@ -5417,46 +5112,43 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-14919.69</v>
+        <v>-29095.3</v>
       </c>
       <c r="C102" t="n">
-        <v>-23934.59</v>
+        <v>-29098.08</v>
       </c>
       <c r="D102" t="n">
-        <v>-22072.63</v>
+        <v>-19017.69</v>
       </c>
       <c r="E102" t="n">
-        <v>-22648.33</v>
+        <v>-17490.66</v>
       </c>
       <c r="F102" t="n">
-        <v>-14567.16</v>
+        <v>-8308.620000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-13590.71</v>
+        <v>-9565.139999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>-5996.76</v>
+        <v>-14459.87</v>
       </c>
       <c r="I102" t="n">
-        <v>-7110.44</v>
+        <v>-21122.34</v>
       </c>
       <c r="J102" t="n">
-        <v>-11935.78</v>
+        <v>-16482.32</v>
       </c>
       <c r="K102" t="n">
-        <v>-20188.16</v>
+        <v>-16406.7</v>
       </c>
       <c r="L102" t="n">
-        <v>-15973.94</v>
+        <v>-23231.23</v>
       </c>
       <c r="M102" t="n">
-        <v>-21407.32</v>
+        <v>-23916.63</v>
       </c>
       <c r="N102" t="n">
-        <v>-25248.94</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-25925.02</v>
+        <v>-30571.99</v>
       </c>
     </row>
     <row r="103">
@@ -5466,46 +5158,43 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-27392.65</v>
+        <v>-21628.34</v>
       </c>
       <c r="C103" t="n">
-        <v>-26464.3</v>
+        <v>-13366.8</v>
       </c>
       <c r="D103" t="n">
-        <v>-29884.88</v>
+        <v>-11619.42</v>
       </c>
       <c r="E103" t="n">
-        <v>-20466.16</v>
+        <v>22567.19</v>
       </c>
       <c r="F103" t="n">
-        <v>-18018.48</v>
+        <v>21642.26</v>
       </c>
       <c r="G103" t="n">
-        <v>17662.24</v>
+        <v>21036.56</v>
       </c>
       <c r="H103" t="n">
-        <v>18095.92</v>
+        <v>-6430.18</v>
       </c>
       <c r="I103" t="n">
-        <v>17409.37</v>
+        <v>-23552.35</v>
       </c>
       <c r="J103" t="n">
-        <v>-10197.51</v>
+        <v>-37634.88</v>
       </c>
       <c r="K103" t="n">
-        <v>-23243.36</v>
+        <v>-27701.04</v>
       </c>
       <c r="L103" t="n">
-        <v>-38569.27</v>
+        <v>-15699.75</v>
       </c>
       <c r="M103" t="n">
-        <v>-23749.06</v>
+        <v>-19588.58</v>
       </c>
       <c r="N103" t="n">
-        <v>-17189.76</v>
-      </c>
-      <c r="O103" t="n">
-        <v>-21395.08</v>
+        <v>-22502.56</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_2.xlsx
+++ b/Result/analyze_2.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
     </row>
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184324.81</v>
+        <v>176832.14</v>
       </c>
       <c r="C2" t="n">
-        <v>190471.62</v>
+        <v>172611.49</v>
       </c>
       <c r="D2" t="n">
-        <v>188959.91</v>
+        <v>144470.74</v>
       </c>
       <c r="E2" t="n">
-        <v>157743.33</v>
+        <v>59949.55</v>
       </c>
       <c r="F2" t="n">
-        <v>63461.38</v>
+        <v>-22208.56</v>
       </c>
       <c r="G2" t="n">
-        <v>-17161.77</v>
+        <v>-94013.17999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>-91398.21000000001</v>
+        <v>-15984.72</v>
       </c>
       <c r="I2" t="n">
-        <v>-13876.07</v>
+        <v>42806.02</v>
       </c>
       <c r="J2" t="n">
-        <v>55058.68000000001</v>
+        <v>39795.17000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>42652.35000000001</v>
+        <v>32631</v>
       </c>
       <c r="L2" t="n">
-        <v>19058.89</v>
+        <v>24144.71</v>
       </c>
       <c r="M2" t="n">
-        <v>13750.25</v>
+        <v>-8803.180000000004</v>
       </c>
       <c r="N2" t="n">
-        <v>-25553.3</v>
+        <v>-40509.44</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57849.2</v>
+        <v>34960.7</v>
       </c>
       <c r="C3" t="n">
-        <v>33274.59</v>
+        <v>62087.74000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>60859.94</v>
+        <v>20575.67999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>19922.34999999999</v>
+        <v>608.1499999999983</v>
       </c>
       <c r="F3" t="n">
-        <v>1330.869999999997</v>
+        <v>40948.62</v>
       </c>
       <c r="G3" t="n">
-        <v>41873.87</v>
+        <v>23821.67</v>
       </c>
       <c r="H3" t="n">
-        <v>24502.18</v>
+        <v>-8806.43</v>
       </c>
       <c r="I3" t="n">
-        <v>-9973.32</v>
+        <v>-23442.68</v>
       </c>
       <c r="J3" t="n">
-        <v>-24332.28</v>
+        <v>-57456.83</v>
       </c>
       <c r="K3" t="n">
-        <v>-58771.99000000001</v>
+        <v>-123101.39</v>
       </c>
       <c r="L3" t="n">
-        <v>-126682.04</v>
+        <v>-98695.12999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>-101316.61</v>
+        <v>-144274.54</v>
       </c>
       <c r="N3" t="n">
-        <v>-147604.68</v>
+        <v>-130575.5</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98068.51999999999</v>
+        <v>87883.34</v>
       </c>
       <c r="C4" t="n">
-        <v>81239.31</v>
+        <v>70174.50999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>62561.86</v>
+        <v>41502.24</v>
       </c>
       <c r="E4" t="n">
-        <v>35469.82</v>
+        <v>-22700.63</v>
       </c>
       <c r="F4" t="n">
-        <v>-16594.25</v>
+        <v>-19838.26</v>
       </c>
       <c r="G4" t="n">
-        <v>-14764.75</v>
+        <v>-26704.98</v>
       </c>
       <c r="H4" t="n">
-        <v>-21833.07</v>
+        <v>17352.19</v>
       </c>
       <c r="I4" t="n">
-        <v>23933.08</v>
+        <v>58243.56</v>
       </c>
       <c r="J4" t="n">
-        <v>54520.18</v>
+        <v>13699.76</v>
       </c>
       <c r="K4" t="n">
-        <v>9470.740000000002</v>
+        <v>-31777.2</v>
       </c>
       <c r="L4" t="n">
-        <v>-22071.58</v>
+        <v>8785.18</v>
       </c>
       <c r="M4" t="n">
-        <v>18481.58</v>
+        <v>-37862.71</v>
       </c>
       <c r="N4" t="n">
-        <v>-23912.68</v>
+        <v>-65082.14</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17186.45</v>
+        <v>-9146.4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1569.26</v>
+        <v>-17593.29</v>
       </c>
       <c r="D5" t="n">
-        <v>-9471.48</v>
+        <v>-11150.86</v>
       </c>
       <c r="E5" t="n">
-        <v>-4939.46</v>
+        <v>-2894.050000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>6485.849999999999</v>
+        <v>761.2699999999995</v>
       </c>
       <c r="G5" t="n">
-        <v>8727.279999999999</v>
+        <v>-144.4700000000012</v>
       </c>
       <c r="H5" t="n">
-        <v>7826.690000000001</v>
+        <v>4818.650000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>13811.16</v>
+        <v>-1655.469999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>7511.289999999999</v>
+        <v>9888.65</v>
       </c>
       <c r="K5" t="n">
-        <v>20142.46</v>
+        <v>12011.83</v>
       </c>
       <c r="L5" t="n">
-        <v>22241.97</v>
+        <v>11796.51</v>
       </c>
       <c r="M5" t="n">
-        <v>22249.39</v>
+        <v>3153.299999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>11870.39</v>
+        <v>7168.139999999999</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +696,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37160.83</v>
+        <v>29220.48</v>
       </c>
       <c r="C6" t="n">
-        <v>25423.89</v>
+        <v>39507.61</v>
       </c>
       <c r="D6" t="n">
-        <v>36771.88</v>
+        <v>17627.54</v>
       </c>
       <c r="E6" t="n">
-        <v>16144.46</v>
+        <v>-13453.91</v>
       </c>
       <c r="F6" t="n">
-        <v>-8925.060000000001</v>
+        <v>11157.86</v>
       </c>
       <c r="G6" t="n">
-        <v>14275.89</v>
+        <v>16100.83</v>
       </c>
       <c r="H6" t="n">
-        <v>18869.66</v>
+        <v>14032.79</v>
       </c>
       <c r="I6" t="n">
-        <v>15687.79</v>
+        <v>25283.28</v>
       </c>
       <c r="J6" t="n">
-        <v>23707.09</v>
+        <v>-7068.360000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>-9149.439999999999</v>
+        <v>-69327.66</v>
       </c>
       <c r="L6" t="n">
-        <v>-68274.25999999999</v>
+        <v>-72084.89999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>-70138.04000000001</v>
+        <v>-101811.9</v>
       </c>
       <c r="N6" t="n">
-        <v>-99041.12</v>
+        <v>-101144.69</v>
       </c>
     </row>
     <row r="7">
@@ -742,43 +742,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38011.56</v>
+        <v>24269.87</v>
       </c>
       <c r="C7" t="n">
-        <v>20489.32</v>
+        <v>9441.040000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>4054.96</v>
+        <v>-5308.820000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>-10037.14</v>
+        <v>1423.650000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>-12485.1</v>
+        <v>5857.250000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-5226.79</v>
+        <v>-9793.170000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>-20533.16</v>
+        <v>-26389.51</v>
       </c>
       <c r="I7" t="n">
-        <v>-37037.02</v>
+        <v>-13770.85</v>
       </c>
       <c r="J7" t="n">
-        <v>-21361.42</v>
+        <v>-15794.62</v>
       </c>
       <c r="K7" t="n">
-        <v>-23967.35</v>
+        <v>-26744.45</v>
       </c>
       <c r="L7" t="n">
-        <v>-38027.99</v>
+        <v>-19300.8</v>
       </c>
       <c r="M7" t="n">
-        <v>-31700.54</v>
+        <v>-12397.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-26044.7</v>
+        <v>-17828.86</v>
       </c>
     </row>
     <row r="8">
@@ -788,43 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285925.8</v>
+        <v>259996.64</v>
       </c>
       <c r="C8" t="n">
-        <v>268130.41</v>
+        <v>258817.53</v>
       </c>
       <c r="D8" t="n">
-        <v>267677.42</v>
+        <v>172519.94</v>
       </c>
       <c r="E8" t="n">
-        <v>175569.73</v>
+        <v>104630.13</v>
       </c>
       <c r="F8" t="n">
-        <v>108082.83</v>
+        <v>53769.99000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>58460.55000000001</v>
+        <v>6021.109999999991</v>
       </c>
       <c r="H8" t="n">
-        <v>21629.44</v>
+        <v>-53542.15</v>
       </c>
       <c r="I8" t="n">
-        <v>-36277.69</v>
+        <v>96685.77</v>
       </c>
       <c r="J8" t="n">
-        <v>92354.45</v>
+        <v>88283.84</v>
       </c>
       <c r="K8" t="n">
-        <v>55298.35</v>
+        <v>-8657.219999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>-35392.24</v>
+        <v>66753.29000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>89178.48</v>
+        <v>35029.64</v>
       </c>
       <c r="N8" t="n">
-        <v>60857.20999999999</v>
+        <v>51008.39</v>
       </c>
     </row>
     <row r="9">
@@ -834,43 +834,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8230.539999999999</v>
+        <v>6301.71</v>
       </c>
       <c r="C9" t="n">
-        <v>6303.25</v>
+        <v>16642.67</v>
       </c>
       <c r="D9" t="n">
-        <v>16649.41</v>
+        <v>10342.05</v>
       </c>
       <c r="E9" t="n">
-        <v>10356.95</v>
+        <v>14078.25</v>
       </c>
       <c r="F9" t="n">
-        <v>14098.79</v>
+        <v>11249.05</v>
       </c>
       <c r="G9" t="n">
-        <v>11266.35</v>
+        <v>3292.060000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>3309.110000000002</v>
+        <v>-12103.86</v>
       </c>
       <c r="I9" t="n">
-        <v>-12111.75</v>
+        <v>2785.91</v>
       </c>
       <c r="J9" t="n">
-        <v>2766.56</v>
+        <v>-13276.41</v>
       </c>
       <c r="K9" t="n">
-        <v>-13292.05</v>
+        <v>-10987.77</v>
       </c>
       <c r="L9" t="n">
-        <v>-11003.28</v>
+        <v>-15822.37</v>
       </c>
       <c r="M9" t="n">
-        <v>-15831.77</v>
+        <v>-25587.14</v>
       </c>
       <c r="N9" t="n">
-        <v>-25581.65</v>
+        <v>-30867.04</v>
       </c>
     </row>
     <row r="10">
@@ -880,43 +880,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150520.3</v>
+        <v>121563.13</v>
       </c>
       <c r="C10" t="n">
-        <v>115490.88</v>
+        <v>132283.3</v>
       </c>
       <c r="D10" t="n">
-        <v>132523.15</v>
+        <v>34320.15</v>
       </c>
       <c r="E10" t="n">
-        <v>46074.37</v>
+        <v>-52309.03</v>
       </c>
       <c r="F10" t="n">
-        <v>-37433.23</v>
+        <v>-93001.93999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-75518.23999999999</v>
+        <v>-75698.17</v>
       </c>
       <c r="H10" t="n">
-        <v>-65206.73</v>
+        <v>-72442.63</v>
       </c>
       <c r="I10" t="n">
-        <v>-63015.32</v>
+        <v>-45499.03999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>-19107.87999999999</v>
+        <v>-66995.39999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>-16948.05</v>
+        <v>-93277.28</v>
       </c>
       <c r="L10" t="n">
-        <v>-58048.12</v>
+        <v>64862.24</v>
       </c>
       <c r="M10" t="n">
-        <v>37698.99</v>
+        <v>-11821.97</v>
       </c>
       <c r="N10" t="n">
-        <v>-49622.42</v>
+        <v>-28196.41</v>
       </c>
     </row>
     <row r="11">
@@ -926,43 +926,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11922.62</v>
+        <v>7591.480000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>7591.480000000001</v>
+        <v>12511.12</v>
       </c>
       <c r="D11" t="n">
-        <v>12511.12</v>
+        <v>9404.67</v>
       </c>
       <c r="E11" t="n">
-        <v>9404.67</v>
+        <v>1032.97</v>
       </c>
       <c r="F11" t="n">
-        <v>1032.97</v>
+        <v>2318.82</v>
       </c>
       <c r="G11" t="n">
-        <v>2318.82</v>
+        <v>13479.07</v>
       </c>
       <c r="H11" t="n">
-        <v>13479.07</v>
+        <v>-9839.58</v>
       </c>
       <c r="I11" t="n">
-        <v>-9839.58</v>
+        <v>-3728.9</v>
       </c>
       <c r="J11" t="n">
-        <v>-3728.9</v>
+        <v>20969.44</v>
       </c>
       <c r="K11" t="n">
-        <v>20969.44</v>
+        <v>18125.69</v>
       </c>
       <c r="L11" t="n">
-        <v>18125.69</v>
+        <v>24741.07</v>
       </c>
       <c r="M11" t="n">
-        <v>24741.07</v>
+        <v>29313.66</v>
       </c>
       <c r="N11" t="n">
-        <v>29313.66</v>
+        <v>29163.57</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +972,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31253.59</v>
+        <v>21434.18</v>
       </c>
       <c r="C12" t="n">
-        <v>21434.18</v>
+        <v>34978.24</v>
       </c>
       <c r="D12" t="n">
-        <v>34978.24</v>
+        <v>34548.78</v>
       </c>
       <c r="E12" t="n">
-        <v>34548.78</v>
+        <v>24870.04</v>
       </c>
       <c r="F12" t="n">
-        <v>24870.04</v>
+        <v>8579.330000000002</v>
       </c>
       <c r="G12" t="n">
-        <v>8579.330000000002</v>
+        <v>17804.43</v>
       </c>
       <c r="H12" t="n">
-        <v>17804.43</v>
+        <v>7522.95</v>
       </c>
       <c r="I12" t="n">
-        <v>7522.95</v>
+        <v>9392.84</v>
       </c>
       <c r="J12" t="n">
-        <v>9392.84</v>
+        <v>6855.700000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>6855.700000000001</v>
+        <v>-42809.16</v>
       </c>
       <c r="L12" t="n">
-        <v>-42809.16</v>
+        <v>-41821.12</v>
       </c>
       <c r="M12" t="n">
-        <v>-41821.12</v>
+        <v>-52155.07</v>
       </c>
       <c r="N12" t="n">
-        <v>-52155.07</v>
+        <v>-54545.56</v>
       </c>
     </row>
     <row r="13">
@@ -1018,43 +1018,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42456.14000000001</v>
+        <v>34212.16</v>
       </c>
       <c r="C13" t="n">
-        <v>34212.16</v>
+        <v>44133.74</v>
       </c>
       <c r="D13" t="n">
-        <v>44133.74000000001</v>
+        <v>33481.53</v>
       </c>
       <c r="E13" t="n">
-        <v>33481.53</v>
+        <v>31922.99</v>
       </c>
       <c r="F13" t="n">
-        <v>31922.99</v>
+        <v>30515.54</v>
       </c>
       <c r="G13" t="n">
-        <v>30515.54</v>
+        <v>41119.32000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>41119.32</v>
+        <v>-1323.18</v>
       </c>
       <c r="I13" t="n">
-        <v>-1323.18</v>
+        <v>12481.46</v>
       </c>
       <c r="J13" t="n">
-        <v>12481.46</v>
+        <v>-20348.81</v>
       </c>
       <c r="K13" t="n">
-        <v>-20348.81</v>
+        <v>-33391.99</v>
       </c>
       <c r="L13" t="n">
-        <v>-33391.99</v>
+        <v>-36676.38</v>
       </c>
       <c r="M13" t="n">
-        <v>-36676.38</v>
+        <v>-33202.71</v>
       </c>
       <c r="N13" t="n">
-        <v>-34120.10000000001</v>
+        <v>-30518.64</v>
       </c>
     </row>
     <row r="14">
@@ -1064,43 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>456045.38</v>
+        <v>408992.13</v>
       </c>
       <c r="C14" t="n">
-        <v>408992.13</v>
+        <v>344753.61</v>
       </c>
       <c r="D14" t="n">
-        <v>344753.61</v>
+        <v>197845.88</v>
       </c>
       <c r="E14" t="n">
-        <v>197845.88</v>
+        <v>81260.75999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>81260.75999999999</v>
+        <v>-31654.29999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-31654.29999999999</v>
+        <v>-64201.85000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>-64201.85000000001</v>
+        <v>-50814.64999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>-50814.64999999999</v>
+        <v>8530.780000000006</v>
       </c>
       <c r="J14" t="n">
-        <v>8530.780000000006</v>
+        <v>-91088.33</v>
       </c>
       <c r="K14" t="n">
-        <v>-91088.33</v>
+        <v>-176945.76</v>
       </c>
       <c r="L14" t="n">
-        <v>-176945.76</v>
+        <v>-194985.43</v>
       </c>
       <c r="M14" t="n">
-        <v>-194985.43</v>
+        <v>-264967.64</v>
       </c>
       <c r="N14" t="n">
-        <v>-264967.64</v>
+        <v>-262515.53</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>401989.96</v>
+        <v>360667.62</v>
       </c>
       <c r="C15" t="n">
-        <v>359698.58</v>
+        <v>360214.05</v>
       </c>
       <c r="D15" t="n">
-        <v>359418.86</v>
+        <v>173975.96</v>
       </c>
       <c r="E15" t="n">
-        <v>173158.59</v>
+        <v>98635.3</v>
       </c>
       <c r="F15" t="n">
-        <v>99542.64999999999</v>
+        <v>93534.06999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>94113.92000000001</v>
+        <v>-32607.88</v>
       </c>
       <c r="H15" t="n">
-        <v>-32279.82</v>
+        <v>-71499.17</v>
       </c>
       <c r="I15" t="n">
-        <v>-70906.67</v>
+        <v>-9951.300000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>-9277.090000000002</v>
+        <v>-218586.33</v>
       </c>
       <c r="K15" t="n">
-        <v>-219102.23</v>
+        <v>-337169.78</v>
       </c>
       <c r="L15" t="n">
-        <v>-337606.57</v>
+        <v>-170859.57</v>
       </c>
       <c r="M15" t="n">
-        <v>-171312.46</v>
+        <v>-249608.89</v>
       </c>
       <c r="N15" t="n">
-        <v>-241342.9</v>
+        <v>-151675.41</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347804.86</v>
+        <v>304582.94</v>
       </c>
       <c r="C16" t="n">
-        <v>305569.57</v>
+        <v>277812.41</v>
       </c>
       <c r="D16" t="n">
-        <v>278611.86</v>
+        <v>126068.17</v>
       </c>
       <c r="E16" t="n">
-        <v>126814.18</v>
+        <v>137825.43</v>
       </c>
       <c r="F16" t="n">
-        <v>136858.99</v>
+        <v>89998.31</v>
       </c>
       <c r="G16" t="n">
-        <v>89381.7</v>
+        <v>67580.57999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>67247.87999999999</v>
+        <v>51150.14999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>50573.89</v>
+        <v>111763.9</v>
       </c>
       <c r="J16" t="n">
-        <v>111103.95</v>
+        <v>-70520.72</v>
       </c>
       <c r="K16" t="n">
-        <v>-69975.10000000001</v>
+        <v>-191717.42</v>
       </c>
       <c r="L16" t="n">
-        <v>-191290.42</v>
+        <v>-197713.47</v>
       </c>
       <c r="M16" t="n">
-        <v>-197269.82</v>
+        <v>-290489.39</v>
       </c>
       <c r="N16" t="n">
-        <v>-272662.33</v>
+        <v>-171475.26</v>
       </c>
     </row>
     <row r="17">
@@ -1202,43 +1202,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2958.02</v>
+        <v>-508.1399999999996</v>
       </c>
       <c r="C17" t="n">
-        <v>-508.1399999999996</v>
+        <v>819.9899999999997</v>
       </c>
       <c r="D17" t="n">
-        <v>819.9899999999997</v>
+        <v>645.6399999999998</v>
       </c>
       <c r="E17" t="n">
-        <v>645.6399999999998</v>
+        <v>-5845.84</v>
       </c>
       <c r="F17" t="n">
-        <v>-5845.84</v>
+        <v>-456.2999999999994</v>
       </c>
       <c r="G17" t="n">
-        <v>-456.2999999999994</v>
+        <v>3198.71</v>
       </c>
       <c r="H17" t="n">
-        <v>3198.71</v>
+        <v>-458.9699999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-458.9699999999999</v>
+        <v>2989.849999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>2989.849999999999</v>
+        <v>11090.37</v>
       </c>
       <c r="K17" t="n">
-        <v>11090.37</v>
+        <v>8886.1</v>
       </c>
       <c r="L17" t="n">
-        <v>8886.1</v>
+        <v>18404.83</v>
       </c>
       <c r="M17" t="n">
-        <v>18404.83</v>
+        <v>29836.00999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>29836.00999999999</v>
+        <v>34245.91</v>
       </c>
     </row>
     <row r="18">
@@ -1248,43 +1248,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1782.76</v>
+        <v>4474.600000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>4474.600000000001</v>
+        <v>-5288.04</v>
       </c>
       <c r="D18" t="n">
-        <v>-5288.04</v>
+        <v>-54439.45</v>
       </c>
       <c r="E18" t="n">
-        <v>-54439.45</v>
+        <v>-16464.54</v>
       </c>
       <c r="F18" t="n">
-        <v>-16464.54</v>
+        <v>-34175.79</v>
       </c>
       <c r="G18" t="n">
-        <v>-34175.79</v>
+        <v>-32127.54</v>
       </c>
       <c r="H18" t="n">
-        <v>-32127.54</v>
+        <v>-42484.17</v>
       </c>
       <c r="I18" t="n">
-        <v>-42484.17</v>
+        <v>-36689.6</v>
       </c>
       <c r="J18" t="n">
-        <v>-36689.6</v>
+        <v>-54594.61</v>
       </c>
       <c r="K18" t="n">
-        <v>-54594.61</v>
+        <v>-58861.96</v>
       </c>
       <c r="L18" t="n">
-        <v>-58861.96</v>
+        <v>-65850.64999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>-65850.64999999999</v>
+        <v>-82275.89999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>-82275.89999999999</v>
+        <v>-73381.64</v>
       </c>
     </row>
     <row r="19">
@@ -1294,43 +1294,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1007.14</v>
+        <v>-703.66</v>
       </c>
       <c r="C19" t="n">
-        <v>-703.66</v>
+        <v>1947.06</v>
       </c>
       <c r="D19" t="n">
-        <v>1947.06</v>
+        <v>1896.92</v>
       </c>
       <c r="E19" t="n">
-        <v>1896.92</v>
+        <v>2046.45</v>
       </c>
       <c r="F19" t="n">
-        <v>2046.45</v>
+        <v>2311.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2311.4</v>
+        <v>2088.17</v>
       </c>
       <c r="H19" t="n">
-        <v>2088.17</v>
+        <v>-1209.87</v>
       </c>
       <c r="I19" t="n">
-        <v>-1209.87</v>
+        <v>-345.79</v>
       </c>
       <c r="J19" t="n">
-        <v>-345.79</v>
+        <v>1184.15</v>
       </c>
       <c r="K19" t="n">
-        <v>1184.15</v>
+        <v>1114.39</v>
       </c>
       <c r="L19" t="n">
-        <v>1114.39</v>
+        <v>712.47</v>
       </c>
       <c r="M19" t="n">
-        <v>712.47</v>
+        <v>-1574.64</v>
       </c>
       <c r="N19" t="n">
-        <v>-1574.64</v>
+        <v>-2341.43</v>
       </c>
     </row>
     <row r="20">
@@ -1340,43 +1340,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19617.6</v>
+        <v>21952.44</v>
       </c>
       <c r="C20" t="n">
-        <v>21923.31</v>
+        <v>24128.93</v>
       </c>
       <c r="D20" t="n">
-        <v>24139.33</v>
+        <v>24129.09</v>
       </c>
       <c r="E20" t="n">
-        <v>24108.01</v>
+        <v>28952.46</v>
       </c>
       <c r="F20" t="n">
-        <v>28932.77</v>
+        <v>14297.89</v>
       </c>
       <c r="G20" t="n">
-        <v>14266.49</v>
+        <v>-9964.58</v>
       </c>
       <c r="H20" t="n">
-        <v>-9991.619999999999</v>
+        <v>-16698.09</v>
       </c>
       <c r="I20" t="n">
-        <v>-16729.05</v>
+        <v>-7613.82</v>
       </c>
       <c r="J20" t="n">
-        <v>-7641.62</v>
+        <v>-23644.72</v>
       </c>
       <c r="K20" t="n">
-        <v>-23658.71</v>
+        <v>-13174.17</v>
       </c>
       <c r="L20" t="n">
-        <v>-13154.54</v>
+        <v>-16956.53</v>
       </c>
       <c r="M20" t="n">
-        <v>-16960.19</v>
+        <v>-16212.86</v>
       </c>
       <c r="N20" t="n">
-        <v>-16200.5</v>
+        <v>-20866.25</v>
       </c>
     </row>
     <row r="21">
@@ -1386,43 +1386,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3058.26</v>
+        <v>-3502.56</v>
       </c>
       <c r="C21" t="n">
-        <v>-3502.56</v>
+        <v>2018.25</v>
       </c>
       <c r="D21" t="n">
-        <v>2018.25</v>
+        <v>909.2300000000005</v>
       </c>
       <c r="E21" t="n">
-        <v>909.2300000000005</v>
+        <v>-5390.88</v>
       </c>
       <c r="F21" t="n">
-        <v>-5390.88</v>
+        <v>-1689</v>
       </c>
       <c r="G21" t="n">
-        <v>-1689</v>
+        <v>-2663.77</v>
       </c>
       <c r="H21" t="n">
-        <v>-2663.77</v>
+        <v>-6676.75</v>
       </c>
       <c r="I21" t="n">
-        <v>-6676.75</v>
+        <v>-5501.89</v>
       </c>
       <c r="J21" t="n">
-        <v>-5501.89</v>
+        <v>6072.75</v>
       </c>
       <c r="K21" t="n">
-        <v>6072.75</v>
+        <v>1201.91</v>
       </c>
       <c r="L21" t="n">
-        <v>1201.91</v>
+        <v>2140.06</v>
       </c>
       <c r="M21" t="n">
-        <v>2140.06</v>
+        <v>-1564.58</v>
       </c>
       <c r="N21" t="n">
-        <v>-2657.57</v>
+        <v>-2744.08</v>
       </c>
     </row>
     <row r="22">
@@ -1432,43 +1432,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1865.01</v>
+        <v>3013.69</v>
       </c>
       <c r="C22" t="n">
-        <v>3042.82</v>
+        <v>5720.24</v>
       </c>
       <c r="D22" t="n">
-        <v>5709.84</v>
+        <v>4468.610000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>4489.690000000001</v>
+        <v>3575.96</v>
       </c>
       <c r="F22" t="n">
-        <v>3595.65</v>
+        <v>776.46</v>
       </c>
       <c r="G22" t="n">
-        <v>807.8599999999999</v>
+        <v>4879.44</v>
       </c>
       <c r="H22" t="n">
-        <v>4906.48</v>
+        <v>2963.63</v>
       </c>
       <c r="I22" t="n">
-        <v>2994.59</v>
+        <v>6420.13</v>
       </c>
       <c r="J22" t="n">
-        <v>6447.93</v>
+        <v>3993.71</v>
       </c>
       <c r="K22" t="n">
-        <v>4007.7</v>
+        <v>3129.45</v>
       </c>
       <c r="L22" t="n">
-        <v>3109.82</v>
+        <v>-878.3699999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>-874.71</v>
+        <v>-3099.5</v>
       </c>
       <c r="N22" t="n">
-        <v>-3111.86</v>
+        <v>-7101.969999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1478,43 +1478,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26324.15</v>
+        <v>23599.43</v>
       </c>
       <c r="C23" t="n">
-        <v>23599.43</v>
+        <v>43182.88</v>
       </c>
       <c r="D23" t="n">
-        <v>43182.88</v>
+        <v>45634.12</v>
       </c>
       <c r="E23" t="n">
-        <v>45634.12</v>
+        <v>34243.23</v>
       </c>
       <c r="F23" t="n">
-        <v>34243.23</v>
+        <v>62297.72</v>
       </c>
       <c r="G23" t="n">
-        <v>62297.72</v>
+        <v>45466.7</v>
       </c>
       <c r="H23" t="n">
-        <v>45466.7</v>
+        <v>-7852.990000000003</v>
       </c>
       <c r="I23" t="n">
-        <v>-7852.990000000003</v>
+        <v>-3705.940000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>-3705.940000000001</v>
+        <v>3383.100000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>3383.100000000001</v>
+        <v>-15698.76</v>
       </c>
       <c r="L23" t="n">
-        <v>-15698.76</v>
+        <v>8761.829999999996</v>
       </c>
       <c r="M23" t="n">
-        <v>8761.829999999996</v>
+        <v>8858.240000000003</v>
       </c>
       <c r="N23" t="n">
-        <v>8858.240000000003</v>
+        <v>-516.5999999999998</v>
       </c>
     </row>
     <row r="24">
@@ -1524,43 +1524,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1404.490000000001</v>
+        <v>-21144.57</v>
       </c>
       <c r="C24" t="n">
-        <v>-21149.47</v>
+        <v>-24542.38</v>
       </c>
       <c r="D24" t="n">
-        <v>-24549.45</v>
+        <v>-13923.4</v>
       </c>
       <c r="E24" t="n">
-        <v>-13940.37</v>
+        <v>-4591.72</v>
       </c>
       <c r="F24" t="n">
-        <v>-4607</v>
+        <v>6636.98</v>
       </c>
       <c r="G24" t="n">
-        <v>6623.3</v>
+        <v>12642.99</v>
       </c>
       <c r="H24" t="n">
-        <v>12631.38</v>
+        <v>5401.16</v>
       </c>
       <c r="I24" t="n">
-        <v>5407.309999999999</v>
+        <v>-4238.340000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-4227.760000000001</v>
+        <v>-27204.06</v>
       </c>
       <c r="K24" t="n">
-        <v>-27192.52</v>
+        <v>-42787.17</v>
       </c>
       <c r="L24" t="n">
-        <v>-42784.17</v>
+        <v>-46838.04</v>
       </c>
       <c r="M24" t="n">
-        <v>-46829.29</v>
+        <v>-52630.83</v>
       </c>
       <c r="N24" t="n">
-        <v>-40330.05</v>
+        <v>-41980.76</v>
       </c>
     </row>
     <row r="25">
@@ -1570,43 +1570,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-17439.33</v>
+        <v>-49067.35</v>
       </c>
       <c r="C25" t="n">
-        <v>-49062.45</v>
+        <v>-30835.95</v>
       </c>
       <c r="D25" t="n">
-        <v>-30828.88</v>
+        <v>-32856.52</v>
       </c>
       <c r="E25" t="n">
-        <v>-32839.55</v>
+        <v>-35225.74</v>
       </c>
       <c r="F25" t="n">
-        <v>-35210.46</v>
+        <v>7115.999999999998</v>
       </c>
       <c r="G25" t="n">
-        <v>7129.679999999998</v>
+        <v>30719.4</v>
       </c>
       <c r="H25" t="n">
-        <v>30731.01</v>
+        <v>12353.72</v>
       </c>
       <c r="I25" t="n">
-        <v>12347.57</v>
+        <v>30465.91</v>
       </c>
       <c r="J25" t="n">
-        <v>30455.33</v>
+        <v>-16079.96</v>
       </c>
       <c r="K25" t="n">
-        <v>-16091.5</v>
+        <v>-46461.71</v>
       </c>
       <c r="L25" t="n">
-        <v>-46464.71</v>
+        <v>-62177.36</v>
       </c>
       <c r="M25" t="n">
-        <v>-62186.11</v>
+        <v>-98499.55</v>
       </c>
       <c r="N25" t="n">
-        <v>-98495.24000000001</v>
+        <v>-108046.82</v>
       </c>
     </row>
     <row r="26">
@@ -1616,43 +1616,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7841.049999999999</v>
+        <v>13608.99</v>
       </c>
       <c r="C26" t="n">
-        <v>13266.22</v>
+        <v>7819.6</v>
       </c>
       <c r="D26" t="n">
-        <v>6550.459999999999</v>
+        <v>-2201.37</v>
       </c>
       <c r="E26" t="n">
-        <v>-3358.88</v>
+        <v>-558.29</v>
       </c>
       <c r="F26" t="n">
-        <v>-1579.34</v>
+        <v>11137.42</v>
       </c>
       <c r="G26" t="n">
-        <v>9889.83</v>
+        <v>8362.039999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>7082.389999999999</v>
+        <v>10201.87</v>
       </c>
       <c r="I26" t="n">
-        <v>9148.42</v>
+        <v>9209.43</v>
       </c>
       <c r="J26" t="n">
-        <v>8773.59</v>
+        <v>9023.91</v>
       </c>
       <c r="K26" t="n">
-        <v>9691.940000000001</v>
+        <v>-559.12</v>
       </c>
       <c r="L26" t="n">
-        <v>-1069.03</v>
+        <v>-7027.12</v>
       </c>
       <c r="M26" t="n">
-        <v>-6343.639999999999</v>
+        <v>-10730.67</v>
       </c>
       <c r="N26" t="n">
-        <v>-11730.02</v>
+        <v>-9402.559999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1662,43 +1662,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4257.190000000001</v>
+        <v>11547.72</v>
       </c>
       <c r="C27" t="n">
-        <v>11554.34</v>
+        <v>3768.4</v>
       </c>
       <c r="D27" t="n">
-        <v>3781.33</v>
+        <v>846.2199999999993</v>
       </c>
       <c r="E27" t="n">
-        <v>853.9899999999998</v>
+        <v>-7427.68</v>
       </c>
       <c r="F27" t="n">
-        <v>-7424.96</v>
+        <v>2390.419999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>2395.239999999998</v>
+        <v>-7448.08</v>
       </c>
       <c r="H27" t="n">
-        <v>-7455.040000000001</v>
+        <v>-5823.57</v>
       </c>
       <c r="I27" t="n">
-        <v>-5823.57</v>
+        <v>1844.94</v>
       </c>
       <c r="J27" t="n">
-        <v>1844.94</v>
+        <v>-1473.62</v>
       </c>
       <c r="K27" t="n">
-        <v>-1473.62</v>
+        <v>-8679.369999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>-8679.369999999999</v>
+        <v>-2268.62</v>
       </c>
       <c r="M27" t="n">
-        <v>-2268.62</v>
+        <v>-11063.72</v>
       </c>
       <c r="N27" t="n">
-        <v>-11063.72</v>
+        <v>-18021.77</v>
       </c>
     </row>
     <row r="28">
@@ -1708,43 +1708,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-27.5</v>
+        <v>-465.6</v>
       </c>
       <c r="C28" t="n">
-        <v>-129.45</v>
+        <v>-1472.45</v>
       </c>
       <c r="D28" t="n">
-        <v>-216.24</v>
+        <v>-1388.68</v>
       </c>
       <c r="E28" t="n">
-        <v>-238.94</v>
+        <v>-1250.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-232.17</v>
+        <v>-1444.01</v>
       </c>
       <c r="G28" t="n">
-        <v>-201.24</v>
+        <v>-1632.36</v>
       </c>
       <c r="H28" t="n">
-        <v>-345.75</v>
+        <v>-1370.79</v>
       </c>
       <c r="I28" t="n">
-        <v>-317.34</v>
+        <v>-604.3499999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>-168.51</v>
+        <v>447.0599999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-220.97</v>
+        <v>-821.3900000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>-311.48</v>
+        <v>563.9200000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>-119.56</v>
+        <v>-1115.54</v>
       </c>
       <c r="N28" t="n">
-        <v>-116.19</v>
+        <v>-1590.05</v>
       </c>
     </row>
     <row r="29">
@@ -1754,43 +1754,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.39</v>
+        <v>-618.5599999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-808.66</v>
+        <v>-728.42</v>
       </c>
       <c r="D29" t="n">
-        <v>-925.6500000000001</v>
+        <v>-894.5599999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>-1083.28</v>
+        <v>-1037.58</v>
       </c>
       <c r="F29" t="n">
-        <v>-1182.28</v>
+        <v>-500.4200000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-587.24</v>
+        <v>-224.6</v>
       </c>
       <c r="H29" t="n">
-        <v>-176.86</v>
+        <v>-287.03</v>
       </c>
       <c r="I29" t="n">
-        <v>-162.99</v>
+        <v>-149.69</v>
       </c>
       <c r="J29" t="n">
-        <v>-47.68000000000001</v>
+        <v>-693.99</v>
       </c>
       <c r="K29" t="n">
-        <v>-589.8100000000001</v>
+        <v>-977.0599999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>-882.0599999999999</v>
+        <v>-1274.43</v>
       </c>
       <c r="M29" t="n">
-        <v>-1181.31</v>
+        <v>-1068.64</v>
       </c>
       <c r="N29" t="n">
-        <v>-993.04</v>
+        <v>-664.7</v>
       </c>
     </row>
     <row r="30">
@@ -1800,43 +1800,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>219.6</v>
+        <v>-333.84</v>
       </c>
       <c r="C30" t="n">
-        <v>-333.84</v>
+        <v>-287.52</v>
       </c>
       <c r="D30" t="n">
-        <v>-287.52</v>
+        <v>-210.37</v>
       </c>
       <c r="E30" t="n">
-        <v>-210.37</v>
+        <v>-268.09</v>
       </c>
       <c r="F30" t="n">
-        <v>-268.09</v>
+        <v>-88.63000000000002</v>
       </c>
       <c r="G30" t="n">
-        <v>-88.63000000000002</v>
+        <v>-124.86</v>
       </c>
       <c r="H30" t="n">
-        <v>-124.86</v>
+        <v>-260.43</v>
       </c>
       <c r="I30" t="n">
-        <v>-260.43</v>
+        <v>-84.44999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>-84.44999999999999</v>
+        <v>-401.66</v>
       </c>
       <c r="K30" t="n">
-        <v>-401.66</v>
+        <v>-558.35</v>
       </c>
       <c r="L30" t="n">
-        <v>-558.35</v>
+        <v>-536.6999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>-536.6999999999999</v>
+        <v>-504.59</v>
       </c>
       <c r="N30" t="n">
-        <v>-504.59</v>
+        <v>-489.93</v>
       </c>
     </row>
     <row r="31">
@@ -1846,43 +1846,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>590.6200000000001</v>
+        <v>-627.24</v>
       </c>
       <c r="C31" t="n">
-        <v>-437.14</v>
+        <v>-997.09</v>
       </c>
       <c r="D31" t="n">
-        <v>-799.8600000000001</v>
+        <v>-812.1900000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>-623.47</v>
+        <v>-1075.94</v>
       </c>
       <c r="F31" t="n">
-        <v>-931.24</v>
+        <v>-681.95</v>
       </c>
       <c r="G31" t="n">
-        <v>-595.13</v>
+        <v>-488.64</v>
       </c>
       <c r="H31" t="n">
-        <v>-536.3799999999999</v>
+        <v>-826.2900000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-950.33</v>
+        <v>-715.21</v>
       </c>
       <c r="J31" t="n">
-        <v>-817.22</v>
+        <v>-1034.36</v>
       </c>
       <c r="K31" t="n">
-        <v>-1138.54</v>
+        <v>-908.5999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>-1003.6</v>
+        <v>-954.3100000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>-1047.43</v>
+        <v>-921.11</v>
       </c>
       <c r="N31" t="n">
-        <v>-996.71</v>
+        <v>-414.22</v>
       </c>
     </row>
     <row r="32">
@@ -1892,43 +1892,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-364.96</v>
+        <v>-305.41</v>
       </c>
       <c r="C32" t="n">
-        <v>-767.6</v>
+        <v>1661.52</v>
       </c>
       <c r="D32" t="n">
-        <v>1679.04</v>
+        <v>-243.7</v>
       </c>
       <c r="E32" t="n">
-        <v>1669.36</v>
+        <v>3102.2</v>
       </c>
       <c r="F32" t="n">
-        <v>1725.92</v>
+        <v>3283.13</v>
       </c>
       <c r="G32" t="n">
-        <v>1175.82</v>
+        <v>3143.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1522.82</v>
+        <v>-1415.42</v>
       </c>
       <c r="I32" t="n">
-        <v>-971.29</v>
+        <v>-566.72</v>
       </c>
       <c r="J32" t="n">
-        <v>-999.76</v>
+        <v>550.04</v>
       </c>
       <c r="K32" t="n">
-        <v>1582.36</v>
+        <v>1287.42</v>
       </c>
       <c r="L32" t="n">
-        <v>221.13</v>
+        <v>565.1100000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>-721.02</v>
+        <v>-635.9399999999998</v>
       </c>
       <c r="N32" t="n">
-        <v>-1867.12</v>
+        <v>1007.11</v>
       </c>
     </row>
     <row r="33">
@@ -1938,43 +1938,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8064.13</v>
+        <v>3206.38</v>
       </c>
       <c r="C33" t="n">
-        <v>4245.43</v>
+        <v>5607.120000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>3366.89</v>
+        <v>-17312.78</v>
       </c>
       <c r="E33" t="n">
-        <v>-159.3299999999998</v>
+        <v>-18223.08</v>
       </c>
       <c r="F33" t="n">
-        <v>-4290.12</v>
+        <v>-13119.74</v>
       </c>
       <c r="G33" t="n">
-        <v>-4735.16</v>
+        <v>-13185.64</v>
       </c>
       <c r="H33" t="n">
-        <v>-4786.48</v>
+        <v>-17940.78</v>
       </c>
       <c r="I33" t="n">
-        <v>-8062.42</v>
+        <v>-4028.91</v>
       </c>
       <c r="J33" t="n">
-        <v>-7274.17</v>
+        <v>-11136.19</v>
       </c>
       <c r="K33" t="n">
-        <v>-9055.58</v>
+        <v>-16308.88</v>
       </c>
       <c r="L33" t="n">
-        <v>-12329.48</v>
+        <v>-15866.65</v>
       </c>
       <c r="M33" t="n">
-        <v>-12204.45</v>
+        <v>-17519.49</v>
       </c>
       <c r="N33" t="n">
-        <v>-14916.28</v>
+        <v>-18634.85</v>
       </c>
     </row>
     <row r="34">
@@ -1984,43 +1984,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9683.23</v>
+        <v>5610.78</v>
       </c>
       <c r="C34" t="n">
-        <v>6072.969999999999</v>
+        <v>-6367.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-6385.01</v>
+        <v>8016.54</v>
       </c>
       <c r="E34" t="n">
-        <v>6103.48</v>
+        <v>-5663.030000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>-4286.750000000001</v>
+        <v>1554.98</v>
       </c>
       <c r="G34" t="n">
-        <v>3662.29</v>
+        <v>-2115.21</v>
       </c>
       <c r="H34" t="n">
-        <v>-494.8299999999999</v>
+        <v>9527.99</v>
       </c>
       <c r="I34" t="n">
-        <v>9083.860000000001</v>
+        <v>-5012.5</v>
       </c>
       <c r="J34" t="n">
-        <v>-4579.46</v>
+        <v>-8231.309999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-9263.629999999999</v>
+        <v>-18375.74</v>
       </c>
       <c r="L34" t="n">
-        <v>-17309.45</v>
+        <v>-22625.72</v>
       </c>
       <c r="M34" t="n">
-        <v>-21339.59</v>
+        <v>-28953.09</v>
       </c>
       <c r="N34" t="n">
-        <v>-27721.91</v>
+        <v>-31246.98</v>
       </c>
     </row>
     <row r="35">
@@ -2030,43 +2030,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-16575.43</v>
+        <v>-16994.76</v>
       </c>
       <c r="C35" t="n">
-        <v>-16994.76</v>
+        <v>-20828.29</v>
       </c>
       <c r="D35" t="n">
-        <v>-20828.29</v>
+        <v>-22798.18</v>
       </c>
       <c r="E35" t="n">
-        <v>-22798.18</v>
+        <v>-17920.79</v>
       </c>
       <c r="F35" t="n">
-        <v>-17920.79</v>
+        <v>-4810.110000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-4810.110000000001</v>
+        <v>-9858.07</v>
       </c>
       <c r="H35" t="n">
-        <v>-9858.07</v>
+        <v>-14027.78</v>
       </c>
       <c r="I35" t="n">
-        <v>-14027.78</v>
+        <v>24606.5</v>
       </c>
       <c r="J35" t="n">
-        <v>24606.5</v>
+        <v>-33551.98</v>
       </c>
       <c r="K35" t="n">
-        <v>-33551.98</v>
+        <v>-56862.8</v>
       </c>
       <c r="L35" t="n">
-        <v>-56862.8</v>
+        <v>-11097.46</v>
       </c>
       <c r="M35" t="n">
-        <v>-11097.46</v>
+        <v>-42880.76</v>
       </c>
       <c r="N35" t="n">
-        <v>-23195.11</v>
+        <v>-38846.34</v>
       </c>
     </row>
     <row r="36">
@@ -2076,43 +2076,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-4680.860000000001</v>
+        <v>-4330.55</v>
       </c>
       <c r="C36" t="n">
-        <v>-4330.55</v>
+        <v>-4531.79</v>
       </c>
       <c r="D36" t="n">
-        <v>-4531.79</v>
+        <v>-13832.94</v>
       </c>
       <c r="E36" t="n">
-        <v>-13832.94</v>
+        <v>-4326.52</v>
       </c>
       <c r="F36" t="n">
-        <v>-4326.52</v>
+        <v>-10733.32</v>
       </c>
       <c r="G36" t="n">
-        <v>-10733.32</v>
+        <v>-14382.58</v>
       </c>
       <c r="H36" t="n">
-        <v>-14382.58</v>
+        <v>-16432.41</v>
       </c>
       <c r="I36" t="n">
-        <v>-16432.41</v>
+        <v>-13139.67</v>
       </c>
       <c r="J36" t="n">
-        <v>-13139.67</v>
+        <v>-20237.11</v>
       </c>
       <c r="K36" t="n">
-        <v>-20237.11</v>
+        <v>-16480.9</v>
       </c>
       <c r="L36" t="n">
-        <v>-16480.9</v>
+        <v>-14964.27</v>
       </c>
       <c r="M36" t="n">
-        <v>-14964.27</v>
+        <v>-14241.89</v>
       </c>
       <c r="N36" t="n">
-        <v>-14241.89</v>
+        <v>-10054.22</v>
       </c>
     </row>
     <row r="37">
@@ -2122,43 +2122,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18203.38</v>
+        <v>17994.61</v>
       </c>
       <c r="C37" t="n">
-        <v>17994.61</v>
+        <v>13005.47</v>
       </c>
       <c r="D37" t="n">
-        <v>13005.47</v>
+        <v>13723.68</v>
       </c>
       <c r="E37" t="n">
-        <v>13723.68</v>
+        <v>9644.219999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>9644.219999999999</v>
+        <v>9336</v>
       </c>
       <c r="G37" t="n">
-        <v>9336</v>
+        <v>-9747.16</v>
       </c>
       <c r="H37" t="n">
-        <v>-9747.16</v>
+        <v>6436.14</v>
       </c>
       <c r="I37" t="n">
-        <v>6436.14</v>
+        <v>8192.879999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>8192.879999999999</v>
+        <v>-5122.45</v>
       </c>
       <c r="K37" t="n">
-        <v>-5122.45</v>
+        <v>-13801.78</v>
       </c>
       <c r="L37" t="n">
-        <v>-13801.78</v>
+        <v>-15296.93</v>
       </c>
       <c r="M37" t="n">
-        <v>-15296.93</v>
+        <v>-15053.61</v>
       </c>
       <c r="N37" t="n">
-        <v>-15053.61</v>
+        <v>-7212.04</v>
       </c>
     </row>
     <row r="38">
@@ -2168,43 +2168,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57159.22</v>
+        <v>61200.6</v>
       </c>
       <c r="C38" t="n">
-        <v>60535.3</v>
+        <v>23126.69</v>
       </c>
       <c r="D38" t="n">
-        <v>21561.51</v>
+        <v>-6808.920000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>-8669.880000000001</v>
+        <v>-6114.299999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>-7751.15</v>
+        <v>-15130.74</v>
       </c>
       <c r="G38" t="n">
-        <v>-16289.56</v>
+        <v>-49446.87</v>
       </c>
       <c r="H38" t="n">
-        <v>-50538.47</v>
+        <v>-49271.4</v>
       </c>
       <c r="I38" t="n">
-        <v>-48727.73</v>
+        <v>-41528.06</v>
       </c>
       <c r="J38" t="n">
-        <v>-40413.99</v>
+        <v>-45586.48</v>
       </c>
       <c r="K38" t="n">
-        <v>-44688.86</v>
+        <v>-61070.88</v>
       </c>
       <c r="L38" t="n">
-        <v>-61569.75</v>
+        <v>-8651.019999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>-8139.809999999999</v>
+        <v>-27260.45</v>
       </c>
       <c r="N38" t="n">
-        <v>-28508.49</v>
+        <v>-12285.06</v>
       </c>
     </row>
     <row r="39">
@@ -2214,43 +2214,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33675.04</v>
+        <v>11359.67</v>
       </c>
       <c r="C39" t="n">
-        <v>13639.45</v>
+        <v>22347.21</v>
       </c>
       <c r="D39" t="n">
-        <v>21127.39</v>
+        <v>-8700.860000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>-11662.13</v>
+        <v>-23242.24</v>
       </c>
       <c r="F39" t="n">
-        <v>-27700.33</v>
+        <v>-22376.3</v>
       </c>
       <c r="G39" t="n">
-        <v>-25141.59</v>
+        <v>-11607.54</v>
       </c>
       <c r="H39" t="n">
-        <v>-12883.97</v>
+        <v>-28190.11</v>
       </c>
       <c r="I39" t="n">
-        <v>-29301.22</v>
+        <v>-4030.69</v>
       </c>
       <c r="J39" t="n">
-        <v>-3086.27</v>
+        <v>-16411.18</v>
       </c>
       <c r="K39" t="n">
-        <v>-15650.36</v>
+        <v>-41070.09</v>
       </c>
       <c r="L39" t="n">
-        <v>-43213.36</v>
+        <v>-35664.28</v>
       </c>
       <c r="M39" t="n">
-        <v>-38279.04</v>
+        <v>-44337.18</v>
       </c>
       <c r="N39" t="n">
-        <v>-47050.87</v>
+        <v>-40689.39</v>
       </c>
     </row>
     <row r="40">
@@ -2260,43 +2260,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5498.749999999999</v>
+        <v>1655.930000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1655.930000000001</v>
+        <v>-13397.66</v>
       </c>
       <c r="D40" t="n">
-        <v>-13397.66</v>
+        <v>-22513.77</v>
       </c>
       <c r="E40" t="n">
-        <v>-22513.77</v>
+        <v>-3334.78</v>
       </c>
       <c r="F40" t="n">
-        <v>-3334.78</v>
+        <v>-2803.660000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-2803.660000000001</v>
+        <v>-3872.39</v>
       </c>
       <c r="H40" t="n">
-        <v>-3872.39</v>
+        <v>-2316.650000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>-2316.650000000001</v>
+        <v>16423.45</v>
       </c>
       <c r="J40" t="n">
-        <v>16423.45</v>
+        <v>7420.54</v>
       </c>
       <c r="K40" t="n">
-        <v>7420.54</v>
+        <v>-8400.16</v>
       </c>
       <c r="L40" t="n">
-        <v>-8400.16</v>
+        <v>-1565.460000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>-1565.460000000001</v>
+        <v>-5576.75</v>
       </c>
       <c r="N40" t="n">
-        <v>-5576.75</v>
+        <v>-12090.67</v>
       </c>
     </row>
     <row r="41">
@@ -2306,43 +2306,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3943.97</v>
+        <v>-2323.66</v>
       </c>
       <c r="C41" t="n">
-        <v>-2323.66</v>
+        <v>1588.69</v>
       </c>
       <c r="D41" t="n">
-        <v>1588.69</v>
+        <v>7619.099999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>7619.099999999999</v>
+        <v>9814.09</v>
       </c>
       <c r="F41" t="n">
-        <v>9814.09</v>
+        <v>10117.7</v>
       </c>
       <c r="G41" t="n">
-        <v>10117.7</v>
+        <v>9842.450000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>9842.450000000001</v>
+        <v>7723.59</v>
       </c>
       <c r="I41" t="n">
-        <v>7723.59</v>
+        <v>2985.55</v>
       </c>
       <c r="J41" t="n">
-        <v>2985.55</v>
+        <v>-5042.5</v>
       </c>
       <c r="K41" t="n">
-        <v>-5042.5</v>
+        <v>-6973.61</v>
       </c>
       <c r="L41" t="n">
-        <v>-6973.61</v>
+        <v>-6675.96</v>
       </c>
       <c r="M41" t="n">
-        <v>-6675.96</v>
+        <v>-6717.14</v>
       </c>
       <c r="N41" t="n">
-        <v>-6717.14</v>
+        <v>-6715.04</v>
       </c>
     </row>
     <row r="42">
@@ -2352,43 +2352,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-3818.85</v>
+        <v>-4170.84</v>
       </c>
       <c r="C42" t="n">
-        <v>-4170.84</v>
+        <v>-4793.76</v>
       </c>
       <c r="D42" t="n">
-        <v>-4793.76</v>
+        <v>-4975.110000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>-4975.110000000001</v>
+        <v>-3596.11</v>
       </c>
       <c r="F42" t="n">
-        <v>-3596.11</v>
+        <v>-2791.37</v>
       </c>
       <c r="G42" t="n">
-        <v>-2791.37</v>
+        <v>-2244.57</v>
       </c>
       <c r="H42" t="n">
-        <v>-2244.57</v>
+        <v>3802.41</v>
       </c>
       <c r="I42" t="n">
-        <v>3802.41</v>
+        <v>3913.89</v>
       </c>
       <c r="J42" t="n">
-        <v>3913.89</v>
+        <v>4196.91</v>
       </c>
       <c r="K42" t="n">
-        <v>4196.91</v>
+        <v>2333.39</v>
       </c>
       <c r="L42" t="n">
-        <v>2333.39</v>
+        <v>1927.77</v>
       </c>
       <c r="M42" t="n">
-        <v>1927.77</v>
+        <v>-4381.58</v>
       </c>
       <c r="N42" t="n">
-        <v>-4381.58</v>
+        <v>-4803.57</v>
       </c>
     </row>
     <row r="43">
@@ -2398,43 +2398,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1202.01</v>
+        <v>-2196.889999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-2196.889999999999</v>
+        <v>-2224.09</v>
       </c>
       <c r="D43" t="n">
-        <v>-2224.09</v>
+        <v>-8874.900000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>-8874.900000000001</v>
+        <v>-8471.98</v>
       </c>
       <c r="F43" t="n">
-        <v>-8471.98</v>
+        <v>-8151.13</v>
       </c>
       <c r="G43" t="n">
-        <v>-8151.13</v>
+        <v>-8628.540000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>-8628.540000000001</v>
+        <v>-6669.5</v>
       </c>
       <c r="I43" t="n">
-        <v>-6669.5</v>
+        <v>-6093.22</v>
       </c>
       <c r="J43" t="n">
-        <v>-6093.22</v>
+        <v>6444.210000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>6444.210000000001</v>
+        <v>17843.42</v>
       </c>
       <c r="L43" t="n">
-        <v>17843.42</v>
+        <v>15413.03</v>
       </c>
       <c r="M43" t="n">
-        <v>15413.03</v>
+        <v>15022.75</v>
       </c>
       <c r="N43" t="n">
-        <v>15022.75</v>
+        <v>17049.74</v>
       </c>
     </row>
     <row r="44">
@@ -2444,43 +2444,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-663.53</v>
+        <v>-1633.76</v>
       </c>
       <c r="C44" t="n">
-        <v>-1633.76</v>
+        <v>-1341.96</v>
       </c>
       <c r="D44" t="n">
-        <v>-1341.96</v>
+        <v>-1967.27</v>
       </c>
       <c r="E44" t="n">
-        <v>-1967.27</v>
+        <v>-1885.33</v>
       </c>
       <c r="F44" t="n">
-        <v>-1885.33</v>
+        <v>-1353.23</v>
       </c>
       <c r="G44" t="n">
-        <v>-1353.23</v>
+        <v>-1129.64</v>
       </c>
       <c r="H44" t="n">
-        <v>-1129.64</v>
+        <v>115.95</v>
       </c>
       <c r="I44" t="n">
-        <v>115.95</v>
+        <v>-297.44</v>
       </c>
       <c r="J44" t="n">
-        <v>-297.44</v>
+        <v>3157.93</v>
       </c>
       <c r="K44" t="n">
-        <v>3157.93</v>
+        <v>5875.65</v>
       </c>
       <c r="L44" t="n">
-        <v>5875.65</v>
+        <v>5191.15</v>
       </c>
       <c r="M44" t="n">
-        <v>5191.15</v>
+        <v>4816.27</v>
       </c>
       <c r="N44" t="n">
-        <v>4816.27</v>
+        <v>4397.91</v>
       </c>
     </row>
     <row r="45">
@@ -2490,43 +2490,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30974.12</v>
+        <v>775.9799999999992</v>
       </c>
       <c r="C45" t="n">
-        <v>877.6399999999991</v>
+        <v>5544.330000000004</v>
       </c>
       <c r="D45" t="n">
-        <v>5565.860000000002</v>
+        <v>15601.74</v>
       </c>
       <c r="E45" t="n">
-        <v>15674.9</v>
+        <v>20989.69</v>
       </c>
       <c r="F45" t="n">
-        <v>20996.79</v>
+        <v>42734.82</v>
       </c>
       <c r="G45" t="n">
-        <v>42653.27</v>
+        <v>77513.11</v>
       </c>
       <c r="H45" t="n">
-        <v>77322.28999999999</v>
+        <v>63600.23</v>
       </c>
       <c r="I45" t="n">
-        <v>63529.18</v>
+        <v>58650.00999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>58429.98</v>
+        <v>41963.69</v>
       </c>
       <c r="K45" t="n">
-        <v>41883.95</v>
+        <v>-876.1999999999991</v>
       </c>
       <c r="L45" t="n">
-        <v>-960.7800000000009</v>
+        <v>-9277.110000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>-9298.880000000001</v>
+        <v>33550.05</v>
       </c>
       <c r="N45" t="n">
-        <v>33705.12</v>
+        <v>47567.55</v>
       </c>
     </row>
     <row r="46">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18005.98</v>
+        <v>-16664.84</v>
       </c>
       <c r="C46" t="n">
-        <v>-16607.64</v>
+        <v>-3804.52</v>
       </c>
       <c r="D46" t="n">
-        <v>-3274.739999999999</v>
+        <v>1292.7</v>
       </c>
       <c r="E46" t="n">
-        <v>-1202.380000000001</v>
+        <v>35417.61</v>
       </c>
       <c r="F46" t="n">
-        <v>33231.64999999999</v>
+        <v>28172.85</v>
       </c>
       <c r="G46" t="n">
-        <v>26235.92</v>
+        <v>22854.64</v>
       </c>
       <c r="H46" t="n">
-        <v>19371.68</v>
+        <v>8770.480000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>8699.650000000001</v>
+        <v>-9648.720000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>-10588.46</v>
+        <v>7860.709999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>9206.989999999998</v>
+        <v>-22497.87</v>
       </c>
       <c r="L46" t="n">
-        <v>-21461.31</v>
+        <v>708.2199999999989</v>
       </c>
       <c r="M46" t="n">
-        <v>1718.459999999999</v>
+        <v>-11137.16</v>
       </c>
       <c r="N46" t="n">
-        <v>-13983.18</v>
+        <v>-4410.320000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2582,43 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-9552.59</v>
+        <v>-24606.35</v>
       </c>
       <c r="C47" t="n">
-        <v>-24854.47</v>
+        <v>-25437.76</v>
       </c>
       <c r="D47" t="n">
-        <v>-26088.08</v>
+        <v>-14319.51</v>
       </c>
       <c r="E47" t="n">
-        <v>-11816.69</v>
+        <v>-2092.69</v>
       </c>
       <c r="F47" t="n">
-        <v>168.6999999999996</v>
+        <v>-15429.7</v>
       </c>
       <c r="G47" t="n">
-        <v>-13365.52</v>
+        <v>-21819.36</v>
       </c>
       <c r="H47" t="n">
-        <v>-18056.12</v>
+        <v>13104.18</v>
       </c>
       <c r="I47" t="n">
-        <v>13345.08</v>
+        <v>23892.27</v>
       </c>
       <c r="J47" t="n">
-        <v>24975.91</v>
+        <v>23617.41</v>
       </c>
       <c r="K47" t="n">
-        <v>22289.52</v>
+        <v>22636.65</v>
       </c>
       <c r="L47" t="n">
-        <v>21614.53</v>
+        <v>20708.16</v>
       </c>
       <c r="M47" t="n">
-        <v>19827.67</v>
+        <v>22305.4</v>
       </c>
       <c r="N47" t="n">
-        <v>22449.51</v>
+        <v>24402.95</v>
       </c>
     </row>
     <row r="48">
@@ -2628,43 +2628,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5504.05</v>
+        <v>7312.71</v>
       </c>
       <c r="C48" t="n">
-        <v>7312.71</v>
+        <v>8602.309999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>8602.309999999999</v>
+        <v>13474.91</v>
       </c>
       <c r="E48" t="n">
-        <v>13474.91</v>
+        <v>20248.24</v>
       </c>
       <c r="F48" t="n">
-        <v>20248.24</v>
+        <v>22168.02</v>
       </c>
       <c r="G48" t="n">
-        <v>22168.02</v>
+        <v>22752.32</v>
       </c>
       <c r="H48" t="n">
-        <v>22752.32</v>
+        <v>23945.17</v>
       </c>
       <c r="I48" t="n">
-        <v>23945.17</v>
+        <v>21370</v>
       </c>
       <c r="J48" t="n">
-        <v>21370</v>
+        <v>14059.66</v>
       </c>
       <c r="K48" t="n">
-        <v>14059.66</v>
+        <v>12940.1</v>
       </c>
       <c r="L48" t="n">
-        <v>12940.1</v>
+        <v>8789.58</v>
       </c>
       <c r="M48" t="n">
-        <v>8789.58</v>
+        <v>-3753.04</v>
       </c>
       <c r="N48" t="n">
-        <v>-3753.04</v>
+        <v>-4760.82</v>
       </c>
     </row>
     <row r="49">
@@ -2674,43 +2674,43 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25549.3</v>
+        <v>17277.36</v>
       </c>
       <c r="C49" t="n">
-        <v>17277.36</v>
+        <v>3746.359999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>3746.36</v>
+        <v>-15411.08</v>
       </c>
       <c r="E49" t="n">
-        <v>-15411.08</v>
+        <v>-7660.440000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>-7660.440000000001</v>
+        <v>-12079.49</v>
       </c>
       <c r="G49" t="n">
-        <v>-12079.49</v>
+        <v>-36338.96999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>-36338.97</v>
+        <v>-45718.58</v>
       </c>
       <c r="I49" t="n">
-        <v>-45718.57999999999</v>
+        <v>-31815.11</v>
       </c>
       <c r="J49" t="n">
-        <v>-31815.11</v>
+        <v>-44606.58</v>
       </c>
       <c r="K49" t="n">
-        <v>-44606.58</v>
+        <v>-46450.86</v>
       </c>
       <c r="L49" t="n">
-        <v>-46450.86</v>
+        <v>632.369999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>632.3699999999988</v>
+        <v>-16499.36</v>
       </c>
       <c r="N49" t="n">
-        <v>-17300.95</v>
+        <v>-39391.69</v>
       </c>
     </row>
     <row r="50">
@@ -2720,43 +2720,43 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-8433.6</v>
+        <v>-14530.65</v>
       </c>
       <c r="C50" t="n">
-        <v>-14530.65</v>
+        <v>-14343.17</v>
       </c>
       <c r="D50" t="n">
-        <v>-14343.17</v>
+        <v>-15532.85</v>
       </c>
       <c r="E50" t="n">
-        <v>-15532.85</v>
+        <v>-19821.96</v>
       </c>
       <c r="F50" t="n">
-        <v>-19821.96</v>
+        <v>-14977.84</v>
       </c>
       <c r="G50" t="n">
-        <v>-14977.84</v>
+        <v>-16007.66</v>
       </c>
       <c r="H50" t="n">
-        <v>-16007.66</v>
+        <v>-11003.23</v>
       </c>
       <c r="I50" t="n">
-        <v>-11003.23</v>
+        <v>11910.82</v>
       </c>
       <c r="J50" t="n">
-        <v>11910.82</v>
+        <v>22216.82</v>
       </c>
       <c r="K50" t="n">
-        <v>22216.82</v>
+        <v>12856.56</v>
       </c>
       <c r="L50" t="n">
-        <v>12856.56</v>
+        <v>24491.37</v>
       </c>
       <c r="M50" t="n">
-        <v>24491.37</v>
+        <v>13397.43</v>
       </c>
       <c r="N50" t="n">
-        <v>13397.43</v>
+        <v>9039.18</v>
       </c>
     </row>
     <row r="51">
@@ -2766,43 +2766,43 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>26229.08</v>
+        <v>25084.96</v>
       </c>
       <c r="C51" t="n">
-        <v>25253.4</v>
+        <v>20636.65</v>
       </c>
       <c r="D51" t="n">
-        <v>20738.07</v>
+        <v>11072.43</v>
       </c>
       <c r="E51" t="n">
-        <v>11182.12</v>
+        <v>12543.66</v>
       </c>
       <c r="F51" t="n">
-        <v>12624.43</v>
+        <v>5150.119999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>5233.369999999999</v>
+        <v>20364.74</v>
       </c>
       <c r="H51" t="n">
-        <v>20483.85</v>
+        <v>16778.97</v>
       </c>
       <c r="I51" t="n">
-        <v>16934.61</v>
+        <v>22199.88</v>
       </c>
       <c r="J51" t="n">
-        <v>22309.04</v>
+        <v>15304.1</v>
       </c>
       <c r="K51" t="n">
-        <v>15414.61</v>
+        <v>-4218.950000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>-4068.25</v>
+        <v>-21971.17</v>
       </c>
       <c r="M51" t="n">
-        <v>-21850.23</v>
+        <v>-21441.85</v>
       </c>
       <c r="N51" t="n">
-        <v>-21368.06</v>
+        <v>-15115.76</v>
       </c>
     </row>
     <row r="52">
@@ -2812,43 +2812,43 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5224.2</v>
+        <v>-5862.03</v>
       </c>
       <c r="C52" t="n">
-        <v>-5862.03</v>
+        <v>-2537.4</v>
       </c>
       <c r="D52" t="n">
-        <v>-2537.4</v>
+        <v>19055.46</v>
       </c>
       <c r="E52" t="n">
-        <v>19055.46</v>
+        <v>25808.64</v>
       </c>
       <c r="F52" t="n">
-        <v>25808.64</v>
+        <v>23040.72</v>
       </c>
       <c r="G52" t="n">
-        <v>23040.72</v>
+        <v>21452.42</v>
       </c>
       <c r="H52" t="n">
-        <v>21452.42</v>
+        <v>19364.02</v>
       </c>
       <c r="I52" t="n">
-        <v>19364.02</v>
+        <v>-3323.79</v>
       </c>
       <c r="J52" t="n">
-        <v>-3323.79</v>
+        <v>-23323.57</v>
       </c>
       <c r="K52" t="n">
-        <v>-23323.57</v>
+        <v>-24864.57</v>
       </c>
       <c r="L52" t="n">
-        <v>-24864.57</v>
+        <v>-16679.86</v>
       </c>
       <c r="M52" t="n">
-        <v>-16679.86</v>
+        <v>-4248.059999999998</v>
       </c>
       <c r="N52" t="n">
-        <v>-4248.059999999998</v>
+        <v>-4173.030000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2858,43 +2858,43 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4776.84</v>
+        <v>6353.990000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>6185.550000000001</v>
+        <v>16403.25</v>
       </c>
       <c r="D53" t="n">
-        <v>16301.83</v>
+        <v>23601.24</v>
       </c>
       <c r="E53" t="n">
-        <v>23491.55</v>
+        <v>-20868.9</v>
       </c>
       <c r="F53" t="n">
-        <v>-20949.67</v>
+        <v>-24820.2</v>
       </c>
       <c r="G53" t="n">
-        <v>-24903.45</v>
+        <v>-8507.08</v>
       </c>
       <c r="H53" t="n">
-        <v>-8626.190000000001</v>
+        <v>-11412.74</v>
       </c>
       <c r="I53" t="n">
-        <v>-11568.38</v>
+        <v>-23829.11</v>
       </c>
       <c r="J53" t="n">
-        <v>-23938.27</v>
+        <v>-9087.33</v>
       </c>
       <c r="K53" t="n">
-        <v>-9197.84</v>
+        <v>8748.929999999998</v>
       </c>
       <c r="L53" t="n">
-        <v>8598.23</v>
+        <v>-21656.72</v>
       </c>
       <c r="M53" t="n">
-        <v>-21777.66</v>
+        <v>-27959.61</v>
       </c>
       <c r="N53" t="n">
-        <v>-28033.4</v>
+        <v>-18905.71</v>
       </c>
     </row>
     <row r="54">
@@ -2904,43 +2904,43 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>207011.77</v>
+        <v>264219.88</v>
       </c>
       <c r="C54" t="n">
-        <v>242260.26</v>
+        <v>331050.89</v>
       </c>
       <c r="D54" t="n">
-        <v>304542.24</v>
+        <v>324789.54</v>
       </c>
       <c r="E54" t="n">
-        <v>291599.94</v>
+        <v>272366.61</v>
       </c>
       <c r="F54" t="n">
-        <v>245589.33</v>
+        <v>265489.04</v>
       </c>
       <c r="G54" t="n">
-        <v>242877.35</v>
+        <v>247390.69</v>
       </c>
       <c r="H54" t="n">
-        <v>224627.42</v>
+        <v>-81068.14999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>-93049.90999999999</v>
+        <v>-176177.07</v>
       </c>
       <c r="J54" t="n">
-        <v>-153314.31</v>
+        <v>-192783.22</v>
       </c>
       <c r="K54" t="n">
-        <v>-172387.99</v>
+        <v>-242882.04</v>
       </c>
       <c r="L54" t="n">
-        <v>-222950.41</v>
+        <v>-292086.51</v>
       </c>
       <c r="M54" t="n">
-        <v>-276991.36</v>
+        <v>-215401.21</v>
       </c>
       <c r="N54" t="n">
-        <v>-201583.04</v>
+        <v>-100044.52</v>
       </c>
     </row>
     <row r="55">
@@ -2950,43 +2950,43 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-6790.15</v>
+        <v>776.2000000000007</v>
       </c>
       <c r="C55" t="n">
-        <v>776.2000000000007</v>
+        <v>12445.75</v>
       </c>
       <c r="D55" t="n">
-        <v>12445.75</v>
+        <v>-8749.389999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>-8749.389999999999</v>
+        <v>-28442.89</v>
       </c>
       <c r="F55" t="n">
-        <v>-28442.89</v>
+        <v>-28814.88</v>
       </c>
       <c r="G55" t="n">
-        <v>-28814.88</v>
+        <v>-42417.03</v>
       </c>
       <c r="H55" t="n">
-        <v>-42417.03</v>
+        <v>-52120.86</v>
       </c>
       <c r="I55" t="n">
-        <v>-52120.86</v>
+        <v>-31741.06</v>
       </c>
       <c r="J55" t="n">
-        <v>-31741.06</v>
+        <v>-16733.38</v>
       </c>
       <c r="K55" t="n">
-        <v>-16733.38</v>
+        <v>-32980.92</v>
       </c>
       <c r="L55" t="n">
-        <v>-32980.92</v>
+        <v>-33501.36</v>
       </c>
       <c r="M55" t="n">
-        <v>-33501.36</v>
+        <v>-15787</v>
       </c>
       <c r="N55" t="n">
-        <v>-15787</v>
+        <v>-25382.72</v>
       </c>
     </row>
     <row r="56">
@@ -2996,43 +2996,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>53259.41</v>
+        <v>15326.52</v>
       </c>
       <c r="C56" t="n">
-        <v>45104.22</v>
+        <v>50366.54</v>
       </c>
       <c r="D56" t="n">
-        <v>86957.69</v>
+        <v>44170.45</v>
       </c>
       <c r="E56" t="n">
-        <v>82754.57000000001</v>
+        <v>12101.2</v>
       </c>
       <c r="F56" t="n">
-        <v>33886.39</v>
+        <v>8842.410000000002</v>
       </c>
       <c r="G56" t="n">
-        <v>25185.15000000001</v>
+        <v>4060.430000000004</v>
       </c>
       <c r="H56" t="n">
-        <v>20565.66</v>
+        <v>-40176.42</v>
       </c>
       <c r="I56" t="n">
-        <v>-38060.71</v>
+        <v>-20957.97</v>
       </c>
       <c r="J56" t="n">
-        <v>-50815.7</v>
+        <v>-31410.12</v>
       </c>
       <c r="K56" t="n">
-        <v>-57607.73</v>
+        <v>-38683.08</v>
       </c>
       <c r="L56" t="n">
-        <v>-65783.37</v>
+        <v>-34528.08</v>
       </c>
       <c r="M56" t="n">
-        <v>-54561.65</v>
+        <v>-27313.17</v>
       </c>
       <c r="N56" t="n">
-        <v>-45958.83</v>
+        <v>-33740.23</v>
       </c>
     </row>
     <row r="57">
@@ -3042,43 +3042,43 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6370.889999999999</v>
+        <v>-1501.870000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-1153.190000000001</v>
+        <v>8673.540000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>9049.98</v>
+        <v>17962.7</v>
       </c>
       <c r="E57" t="n">
-        <v>18289.73</v>
+        <v>26309.06</v>
       </c>
       <c r="F57" t="n">
-        <v>26731.88</v>
+        <v>31223.44</v>
       </c>
       <c r="G57" t="n">
-        <v>31831.64</v>
+        <v>36078.03</v>
       </c>
       <c r="H57" t="n">
-        <v>36874.94</v>
+        <v>32432.95</v>
       </c>
       <c r="I57" t="n">
-        <v>33213.67</v>
+        <v>27165.88</v>
       </c>
       <c r="J57" t="n">
-        <v>27927.71</v>
+        <v>15773.25</v>
       </c>
       <c r="K57" t="n">
-        <v>16465.13</v>
+        <v>11317.13</v>
       </c>
       <c r="L57" t="n">
-        <v>11937.11</v>
+        <v>-1472.39</v>
       </c>
       <c r="M57" t="n">
-        <v>-1602.9</v>
+        <v>-22231.53</v>
       </c>
       <c r="N57" t="n">
-        <v>-22694.81</v>
+        <v>-8070.950000000001</v>
       </c>
     </row>
     <row r="58">
@@ -3088,43 +3088,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-13606.65</v>
+        <v>-20563.86</v>
       </c>
       <c r="C58" t="n">
-        <v>-20572.95</v>
+        <v>11693.85</v>
       </c>
       <c r="D58" t="n">
-        <v>11685.57</v>
+        <v>15183.82</v>
       </c>
       <c r="E58" t="n">
-        <v>15173.2</v>
+        <v>14876.1</v>
       </c>
       <c r="F58" t="n">
-        <v>14864.25</v>
+        <v>16902.54</v>
       </c>
       <c r="G58" t="n">
-        <v>16898.16</v>
+        <v>16321.37</v>
       </c>
       <c r="H58" t="n">
-        <v>16318.76</v>
+        <v>7427.3</v>
       </c>
       <c r="I58" t="n">
-        <v>7418.19</v>
+        <v>3808.51</v>
       </c>
       <c r="J58" t="n">
-        <v>3798.98</v>
+        <v>-2551.86</v>
       </c>
       <c r="K58" t="n">
-        <v>-2559.55</v>
+        <v>-3881.379999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>-3890.57</v>
+        <v>-7234.69</v>
       </c>
       <c r="M58" t="n">
-        <v>-7240.5</v>
+        <v>-20730.1</v>
       </c>
       <c r="N58" t="n">
-        <v>-20727.57</v>
+        <v>-25704.56</v>
       </c>
     </row>
     <row r="59">
@@ -3134,43 +3134,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4730.13</v>
+        <v>-1136.79</v>
       </c>
       <c r="C59" t="n">
-        <v>-1485.47</v>
+        <v>569.7599999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>193.32</v>
+        <v>-1084.86</v>
       </c>
       <c r="E59" t="n">
-        <v>-1411.89</v>
+        <v>7752.53</v>
       </c>
       <c r="F59" t="n">
-        <v>7329.709999999999</v>
+        <v>10908.3</v>
       </c>
       <c r="G59" t="n">
-        <v>10300.1</v>
+        <v>14962.82</v>
       </c>
       <c r="H59" t="n">
-        <v>14165.91</v>
+        <v>18259.97</v>
       </c>
       <c r="I59" t="n">
-        <v>17479.25</v>
+        <v>21225</v>
       </c>
       <c r="J59" t="n">
-        <v>20463.17</v>
+        <v>22365.5</v>
       </c>
       <c r="K59" t="n">
-        <v>21673.62</v>
+        <v>19548.79</v>
       </c>
       <c r="L59" t="n">
-        <v>18928.81</v>
+        <v>15542.95</v>
       </c>
       <c r="M59" t="n">
-        <v>15673.46</v>
+        <v>10984.53</v>
       </c>
       <c r="N59" t="n">
-        <v>11447.81</v>
+        <v>9054.24</v>
       </c>
     </row>
     <row r="60">
@@ -3180,43 +3180,43 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>895.04</v>
+        <v>1183.33</v>
       </c>
       <c r="C60" t="n">
-        <v>763.8400000000001</v>
+        <v>1247.43</v>
       </c>
       <c r="D60" t="n">
-        <v>168.1</v>
+        <v>1922.36</v>
       </c>
       <c r="E60" t="n">
-        <v>-418.32</v>
+        <v>2141.09</v>
       </c>
       <c r="F60" t="n">
-        <v>1360.38</v>
+        <v>2053.36</v>
       </c>
       <c r="G60" t="n">
-        <v>80.19</v>
+        <v>3166.63</v>
       </c>
       <c r="H60" t="n">
-        <v>-256.7900000000001</v>
+        <v>3128.39</v>
       </c>
       <c r="I60" t="n">
-        <v>-212.9399999999999</v>
+        <v>2936.83</v>
       </c>
       <c r="J60" t="n">
-        <v>739.27</v>
+        <v>1010.49</v>
       </c>
       <c r="K60" t="n">
-        <v>-1433.87</v>
+        <v>-1880.18</v>
       </c>
       <c r="L60" t="n">
-        <v>-788.8099999999999</v>
+        <v>-3312.52</v>
       </c>
       <c r="M60" t="n">
-        <v>-1352.34</v>
+        <v>-3834.67</v>
       </c>
       <c r="N60" t="n">
-        <v>-959.6800000000001</v>
+        <v>-3311.13</v>
       </c>
     </row>
     <row r="61">
@@ -3226,43 +3226,43 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-6960</v>
+        <v>-8280.17</v>
       </c>
       <c r="C61" t="n">
-        <v>-8280.17</v>
+        <v>-7006.030000000002</v>
       </c>
       <c r="D61" t="n">
-        <v>-7006.030000000002</v>
+        <v>-23216.6</v>
       </c>
       <c r="E61" t="n">
-        <v>-23216.6</v>
+        <v>-17000.58</v>
       </c>
       <c r="F61" t="n">
-        <v>-17000.58</v>
+        <v>-17424.46</v>
       </c>
       <c r="G61" t="n">
-        <v>-17424.46</v>
+        <v>-31466.51</v>
       </c>
       <c r="H61" t="n">
-        <v>-31466.51</v>
+        <v>-38673.12</v>
       </c>
       <c r="I61" t="n">
-        <v>-38673.12</v>
+        <v>-30919.85</v>
       </c>
       <c r="J61" t="n">
-        <v>-30919.85</v>
+        <v>-38599.83</v>
       </c>
       <c r="K61" t="n">
-        <v>-38599.83</v>
+        <v>-41819.7</v>
       </c>
       <c r="L61" t="n">
-        <v>-41819.7</v>
+        <v>-45220.23</v>
       </c>
       <c r="M61" t="n">
-        <v>-45220.23</v>
+        <v>-54700.85000000001</v>
       </c>
       <c r="N61" t="n">
-        <v>-54700.85000000001</v>
+        <v>-55894.82</v>
       </c>
     </row>
     <row r="62">
@@ -3272,43 +3272,43 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2678.49</v>
+        <v>1241.38</v>
       </c>
       <c r="C62" t="n">
-        <v>1660.87</v>
+        <v>565.8200000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>1645.15</v>
+        <v>-798.52</v>
       </c>
       <c r="E62" t="n">
-        <v>1542.16</v>
+        <v>792.0599999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1572.77</v>
+        <v>-409.85</v>
       </c>
       <c r="G62" t="n">
-        <v>1563.32</v>
+        <v>-793.08</v>
       </c>
       <c r="H62" t="n">
-        <v>2630.34</v>
+        <v>-676.1799999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>2665.15</v>
+        <v>358.48</v>
       </c>
       <c r="J62" t="n">
-        <v>2556.04</v>
+        <v>-974.13</v>
       </c>
       <c r="K62" t="n">
-        <v>1470.23</v>
+        <v>-463.69</v>
       </c>
       <c r="L62" t="n">
-        <v>-1555.06</v>
+        <v>-689.9299999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>-2650.11</v>
+        <v>-527.36</v>
       </c>
       <c r="N62" t="n">
-        <v>-3402.35</v>
+        <v>-850.91</v>
       </c>
     </row>
     <row r="63">
@@ -3318,43 +3318,43 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1441.770000000003</v>
+        <v>-18533.67</v>
       </c>
       <c r="C63" t="n">
-        <v>-18583.17</v>
+        <v>-33831.01</v>
       </c>
       <c r="D63" t="n">
-        <v>-33794.02</v>
+        <v>-24023.65</v>
       </c>
       <c r="E63" t="n">
-        <v>-23989.1</v>
+        <v>2938.55</v>
       </c>
       <c r="F63" t="n">
-        <v>2988.670000000001</v>
+        <v>-1678.54</v>
       </c>
       <c r="G63" t="n">
-        <v>-1601.26</v>
+        <v>-19791.39</v>
       </c>
       <c r="H63" t="n">
-        <v>-19846.93</v>
+        <v>-17212.61</v>
       </c>
       <c r="I63" t="n">
-        <v>-17331.24</v>
+        <v>-13488.45</v>
       </c>
       <c r="J63" t="n">
-        <v>-13510.2</v>
+        <v>-36949.81</v>
       </c>
       <c r="K63" t="n">
-        <v>-37042.81</v>
+        <v>-49357.89</v>
       </c>
       <c r="L63" t="n">
-        <v>-49334.89</v>
+        <v>-45308.74</v>
       </c>
       <c r="M63" t="n">
-        <v>-45227.58</v>
+        <v>-21896.26</v>
       </c>
       <c r="N63" t="n">
-        <v>-21767.86</v>
+        <v>8255.699999999999</v>
       </c>
     </row>
     <row r="64">
@@ -3364,43 +3364,43 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7959.3</v>
+        <v>-2080</v>
       </c>
       <c r="C64" t="n">
-        <v>-2080</v>
+        <v>1454.73</v>
       </c>
       <c r="D64" t="n">
-        <v>1454.73</v>
+        <v>-5514.16</v>
       </c>
       <c r="E64" t="n">
-        <v>-5514.16</v>
+        <v>-6999.36</v>
       </c>
       <c r="F64" t="n">
-        <v>-6999.36</v>
+        <v>-7040.3</v>
       </c>
       <c r="G64" t="n">
-        <v>-7040.3</v>
+        <v>-3005.38</v>
       </c>
       <c r="H64" t="n">
-        <v>-3005.38</v>
+        <v>4996.120000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>4996.120000000001</v>
+        <v>5182.36</v>
       </c>
       <c r="J64" t="n">
-        <v>5182.36</v>
+        <v>1147.95</v>
       </c>
       <c r="K64" t="n">
-        <v>1147.95</v>
+        <v>-5241.46</v>
       </c>
       <c r="L64" t="n">
-        <v>-5241.46</v>
+        <v>-5941.960000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>-5941.960000000001</v>
+        <v>-8239.539999999999</v>
       </c>
       <c r="N64" t="n">
-        <v>-8239.539999999999</v>
+        <v>-6964.15</v>
       </c>
     </row>
     <row r="65">
@@ -3410,43 +3410,43 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-8261.939999999999</v>
+        <v>2473.83</v>
       </c>
       <c r="C65" t="n">
-        <v>2523.33</v>
+        <v>-8947.74</v>
       </c>
       <c r="D65" t="n">
-        <v>-8984.73</v>
+        <v>-18344.99</v>
       </c>
       <c r="E65" t="n">
-        <v>-18379.54</v>
+        <v>-9108.09</v>
       </c>
       <c r="F65" t="n">
-        <v>-9158.209999999999</v>
+        <v>-12047.71</v>
       </c>
       <c r="G65" t="n">
-        <v>-12124.99</v>
+        <v>-11866.27</v>
       </c>
       <c r="H65" t="n">
-        <v>-11810.73</v>
+        <v>-6948.25</v>
       </c>
       <c r="I65" t="n">
-        <v>-6829.62</v>
+        <v>2878.929999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>2900.679999999999</v>
+        <v>207.8599999999988</v>
       </c>
       <c r="K65" t="n">
-        <v>300.8599999999988</v>
+        <v>-12591.04</v>
       </c>
       <c r="L65" t="n">
-        <v>-12614.04</v>
+        <v>-6290.77</v>
       </c>
       <c r="M65" t="n">
-        <v>-6371.93</v>
+        <v>-3263.81</v>
       </c>
       <c r="N65" t="n">
-        <v>-3392.21</v>
+        <v>-4434.86</v>
       </c>
     </row>
     <row r="66">
@@ -3456,43 +3456,43 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-39.82</v>
+        <v>-32.55</v>
       </c>
       <c r="C66" t="n">
-        <v>-32.55</v>
+        <v>13.58</v>
       </c>
       <c r="D66" t="n">
-        <v>13.58</v>
+        <v>-10.24</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.24</v>
+        <v>24.5</v>
       </c>
       <c r="F66" t="n">
-        <v>24.5</v>
+        <v>16.79</v>
       </c>
       <c r="G66" t="n">
-        <v>16.79</v>
+        <v>15.46</v>
       </c>
       <c r="H66" t="n">
-        <v>15.46</v>
+        <v>9.52</v>
       </c>
       <c r="I66" t="n">
-        <v>9.52</v>
+        <v>14.87</v>
       </c>
       <c r="J66" t="n">
-        <v>14.87</v>
+        <v>13.15</v>
       </c>
       <c r="K66" t="n">
-        <v>13.15</v>
+        <v>-1.18</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.18</v>
+        <v>23.62</v>
       </c>
       <c r="M66" t="n">
-        <v>23.62</v>
+        <v>29.45</v>
       </c>
       <c r="N66" t="n">
-        <v>29.45</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="67">
@@ -3502,43 +3502,43 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>56.78</v>
+        <v>44.7</v>
       </c>
       <c r="C67" t="n">
-        <v>44.7</v>
+        <v>43.35</v>
       </c>
       <c r="D67" t="n">
-        <v>43.35</v>
+        <v>54.3</v>
       </c>
       <c r="E67" t="n">
-        <v>54.3</v>
+        <v>17.86</v>
       </c>
       <c r="F67" t="n">
-        <v>17.86</v>
+        <v>-12.32</v>
       </c>
       <c r="G67" t="n">
-        <v>-12.32</v>
+        <v>-13.93</v>
       </c>
       <c r="H67" t="n">
-        <v>-13.93</v>
+        <v>-46.23</v>
       </c>
       <c r="I67" t="n">
-        <v>-46.23</v>
+        <v>-43.39</v>
       </c>
       <c r="J67" t="n">
-        <v>-43.39</v>
+        <v>-26.44</v>
       </c>
       <c r="K67" t="n">
-        <v>-26.44</v>
+        <v>39.67</v>
       </c>
       <c r="L67" t="n">
-        <v>39.67</v>
+        <v>115.83</v>
       </c>
       <c r="M67" t="n">
-        <v>115.83</v>
+        <v>119.72</v>
       </c>
       <c r="N67" t="n">
-        <v>119.72</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="68">
@@ -3548,43 +3548,43 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102913.82</v>
+        <v>124720.83</v>
       </c>
       <c r="C68" t="n">
-        <v>125869.77</v>
+        <v>59786.84</v>
       </c>
       <c r="D68" t="n">
-        <v>59221.62</v>
+        <v>4509.720000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>5354.990000000002</v>
+        <v>47204.49</v>
       </c>
       <c r="F68" t="n">
-        <v>48632.77</v>
+        <v>57037.8</v>
       </c>
       <c r="G68" t="n">
-        <v>57902.96</v>
+        <v>34777.65</v>
       </c>
       <c r="H68" t="n">
-        <v>34332.41</v>
+        <v>22022.75</v>
       </c>
       <c r="I68" t="n">
-        <v>23211.3</v>
+        <v>99379.42</v>
       </c>
       <c r="J68" t="n">
-        <v>100728.19</v>
+        <v>42218.33</v>
       </c>
       <c r="K68" t="n">
-        <v>43169.25</v>
+        <v>24973.03</v>
       </c>
       <c r="L68" t="n">
-        <v>25580.73999999999</v>
+        <v>-7151.269999999989</v>
       </c>
       <c r="M68" t="n">
-        <v>-6120.019999999992</v>
+        <v>-75637.5</v>
       </c>
       <c r="N68" t="n">
-        <v>-76232.09</v>
+        <v>-162872.27</v>
       </c>
     </row>
     <row r="69">
@@ -3594,43 +3594,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>92053.23</v>
+        <v>42298.17</v>
       </c>
       <c r="C69" t="n">
-        <v>67898.64</v>
+        <v>22858.89</v>
       </c>
       <c r="D69" t="n">
-        <v>44192.82</v>
+        <v>-32410.71</v>
       </c>
       <c r="E69" t="n">
-        <v>-14820.36</v>
+        <v>-27987.69</v>
       </c>
       <c r="F69" t="n">
-        <v>-21102.84</v>
+        <v>-37797.34</v>
       </c>
       <c r="G69" t="n">
-        <v>-31797.98</v>
+        <v>-43970.65</v>
       </c>
       <c r="H69" t="n">
-        <v>-55907.36</v>
+        <v>-49865.2</v>
       </c>
       <c r="I69" t="n">
-        <v>-60064.46</v>
+        <v>-16359.34</v>
       </c>
       <c r="J69" t="n">
-        <v>-24603.16</v>
+        <v>-29350.71</v>
       </c>
       <c r="K69" t="n">
-        <v>-37181.05</v>
+        <v>-31328.93</v>
       </c>
       <c r="L69" t="n">
-        <v>-44298.89999999999</v>
+        <v>-12038.82</v>
       </c>
       <c r="M69" t="n">
-        <v>-21143.12</v>
+        <v>-29073.23</v>
       </c>
       <c r="N69" t="n">
-        <v>-39622.19</v>
+        <v>-21778.79</v>
       </c>
     </row>
     <row r="70">
@@ -3640,43 +3640,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25202.72</v>
+        <v>191.3500000000013</v>
       </c>
       <c r="C70" t="n">
-        <v>-957.5899999999992</v>
+        <v>1196.119999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>1761.339999999999</v>
+        <v>-29193.52</v>
       </c>
       <c r="E70" t="n">
-        <v>-30038.79</v>
+        <v>-7918.610000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>-9346.890000000001</v>
+        <v>-22834</v>
       </c>
       <c r="G70" t="n">
-        <v>-23699.16</v>
+        <v>-17969.73</v>
       </c>
       <c r="H70" t="n">
-        <v>-17524.49</v>
+        <v>-10755.93</v>
       </c>
       <c r="I70" t="n">
-        <v>-11944.48</v>
+        <v>-182.6000000000004</v>
       </c>
       <c r="J70" t="n">
-        <v>-1531.37</v>
+        <v>-9581.260000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-10532.18</v>
+        <v>-29213.23</v>
       </c>
       <c r="L70" t="n">
-        <v>-29820.94</v>
+        <v>-18368.03</v>
       </c>
       <c r="M70" t="n">
-        <v>-19399.28</v>
+        <v>-27103.2</v>
       </c>
       <c r="N70" t="n">
-        <v>-26508.61</v>
+        <v>-27170.26</v>
       </c>
     </row>
     <row r="71">
@@ -3686,43 +3686,43 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2983.72</v>
+        <v>3269.62</v>
       </c>
       <c r="C71" t="n">
-        <v>3269.62</v>
+        <v>6795.81</v>
       </c>
       <c r="D71" t="n">
-        <v>6795.81</v>
+        <v>15082.53</v>
       </c>
       <c r="E71" t="n">
-        <v>15082.53</v>
+        <v>7816</v>
       </c>
       <c r="F71" t="n">
-        <v>7816</v>
+        <v>9969</v>
       </c>
       <c r="G71" t="n">
-        <v>9969</v>
+        <v>17075.94</v>
       </c>
       <c r="H71" t="n">
-        <v>17075.94</v>
+        <v>21390.43</v>
       </c>
       <c r="I71" t="n">
-        <v>21390.43</v>
+        <v>-11594.59</v>
       </c>
       <c r="J71" t="n">
-        <v>-11594.59</v>
+        <v>-10818.11</v>
       </c>
       <c r="K71" t="n">
-        <v>-10818.11</v>
+        <v>-8828.860000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>-8828.860000000001</v>
+        <v>-18293.97</v>
       </c>
       <c r="M71" t="n">
-        <v>-18293.97</v>
+        <v>-23760.96</v>
       </c>
       <c r="N71" t="n">
-        <v>-23760.96</v>
+        <v>-13662.76</v>
       </c>
     </row>
     <row r="72">
@@ -3732,43 +3732,43 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-2505.78</v>
+        <v>-4807.98</v>
       </c>
       <c r="C72" t="n">
-        <v>-4807.98</v>
+        <v>-1099.52</v>
       </c>
       <c r="D72" t="n">
-        <v>-1099.52</v>
+        <v>-3764.1</v>
       </c>
       <c r="E72" t="n">
-        <v>-3764.1</v>
+        <v>-5474.559999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>-5474.559999999999</v>
+        <v>-2212.01</v>
       </c>
       <c r="G72" t="n">
-        <v>-2212.01</v>
+        <v>-1661.96</v>
       </c>
       <c r="H72" t="n">
-        <v>-1661.96</v>
+        <v>-11496.78</v>
       </c>
       <c r="I72" t="n">
-        <v>-11496.78</v>
+        <v>-9426</v>
       </c>
       <c r="J72" t="n">
-        <v>-9426</v>
+        <v>-11474.73</v>
       </c>
       <c r="K72" t="n">
-        <v>-11474.73</v>
+        <v>-12650.24</v>
       </c>
       <c r="L72" t="n">
-        <v>-12650.24</v>
+        <v>-9110.389999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>-9110.389999999999</v>
+        <v>-10355.72</v>
       </c>
       <c r="N72" t="n">
-        <v>-10355.72</v>
+        <v>-16304.72</v>
       </c>
     </row>
     <row r="73">
@@ -3778,43 +3778,43 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1299.63</v>
+        <v>2721.08</v>
       </c>
       <c r="C7